--- a/csv/merge.xlsx
+++ b/csv/merge.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="767" uniqueCount="579">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="770" uniqueCount="582">
   <si>
     <t>JP Text (DO NOT CHANGE)</t>
   </si>
@@ -6533,6 +6533,19 @@
   <si>
     <t>Your exploration count has been reset.
 You can once again explore Panigalm.</t>
+  </si>
+  <si>
+    <t>&lt;turn_pc&gt;「こちらでは　貴公が　防衛戦で得た
+　防衛メダルと素材から　装備品を生成し
+　渡している。利用していくがいい。&lt;bw_break&gt;</t>
+  </si>
+  <si>
+    <t>&lt;turn_pc&gt;Here, you can exchange Defense Medals
+and materials you've obtained from your
+battles for various equipment.</t>
+  </si>
+  <si>
+    <t>ADF Reward Exchange</t>
   </si>
   <si>
     <t>メインコマンド『せんれき』の
@@ -9749,6 +9762,17 @@
         <v>280</v>
       </c>
     </row>
+    <row r="267">
+      <c r="A267" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="C267" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="D267" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -9785,18 +9809,18 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>575</v>
+        <v>578</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>576</v>
+        <v>579</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>578</v>
+        <v>581</v>
       </c>
     </row>
   </sheetData>

--- a/csv/merge.xlsx
+++ b/csv/merge.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="770" uniqueCount="582">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="854" uniqueCount="640">
   <si>
     <t>JP Text (DO NOT CHANGE)</t>
   </si>
@@ -6546,6 +6546,778 @@
   </si>
   <si>
     <t>ADF Reward Exchange</t>
+  </si>
+  <si>
+    <t>目の前には　結晶が　浮かんでいる。
+どうしますか？
+&lt;select 1&gt;
+結晶を入れ替える
+白い光に触れる
+&lt;select_end&gt;
+&lt;case 1&gt;
+&lt;close&gt;
+&lt;case 2&gt;
+&lt;close&gt;
+&lt;case_cancel&gt;
+&lt;close&gt;
+&lt;case_end&gt;</t>
+  </si>
+  <si>
+    <t>A crystal floats in front of you. What will you
+do?
+&lt;select 1&gt;
+Change the crystal.
+Touch with white light.
+&lt;select_end&gt;
+&lt;case 1&gt;
+&lt;close&gt;
+&lt;case 2&gt;
+&lt;close&gt;
+&lt;case_cancel&gt;
+&lt;close&gt;
+&lt;case_end&gt;</t>
+  </si>
+  <si>
+    <t>6.3 puzzle</t>
+  </si>
+  <si>
+    <t>目の前には　結晶が　浮かんでいる。
+どうしますか？
+&lt;select 2&gt;
+結晶を入れ替える
+白い光に触れる
+&lt;select_end&gt;
+&lt;case 1&gt;
+&lt;close&gt;
+&lt;case 2&gt;
+&lt;close&gt;
+&lt;case_cancel&gt;
+&lt;close&gt;
+&lt;case_end&gt;</t>
+  </si>
+  <si>
+    <t>A crystal floats in front of you. What will you
+do?
+&lt;select 2&gt;
+Change the crystal.
+Touch with white light.
+&lt;select_end&gt;
+&lt;case 1&gt;
+&lt;close&gt;
+&lt;case 2&gt;
+&lt;close&gt;
+&lt;case_cancel&gt;
+&lt;close&gt;
+&lt;case_end&gt;</t>
+  </si>
+  <si>
+    <t>なんと　イカリの前に
+結晶の形をした　シンボルが出現した！&lt;wait=500&gt;</t>
+  </si>
+  <si>
+    <t>Suddenly, a crystal-shaped symbol appeared
+in front of the anchor!</t>
+  </si>
+  <si>
+    <t>目の前に　結晶が　浮かんでいる。
+どうしますか？
+&lt;select 1&gt;
+左側の結晶を入れ替える
+中央の結晶を入れ替える
+右側の結晶を入れ替える
+白い光に触れる
+&lt;select_end&gt;
+&lt;case 1&gt;
+&lt;close&gt;
+&lt;case 2&gt;
+&lt;close&gt;
+&lt;case 3&gt;
+&lt;close&gt;
+&lt;case 4&gt;
+&lt;close&gt;
+&lt;case_cancel&gt;
+&lt;break&gt;
+&lt;case_end&gt;</t>
+  </si>
+  <si>
+    <t>Several crystals float in front of you.
+What will you do?
+&lt;select 1&gt;
+Change the crystal on the left.
+Change the crystal in the middle.
+Change the crystal on the right.
+Touch with white light.
+&lt;select_end&gt;
+&lt;case 1&gt;
+&lt;close&gt;
+&lt;case 2&gt;
+&lt;close&gt;
+&lt;case 3&gt;
+&lt;close&gt;
+&lt;case 4&gt;
+&lt;close&gt;
+&lt;case_cancel&gt;
+&lt;break&gt;
+&lt;case_end&gt;</t>
+  </si>
+  <si>
+    <t>目の前に　結晶が　浮かんでいる。
+どうしますか？
+&lt;select 2&gt;
+左側の結晶を入れ替える
+中央の結晶を入れ替える
+右側の結晶を入れ替える
+白い光に触れる
+&lt;select_end&gt;
+&lt;case 1&gt;
+&lt;close&gt;
+&lt;case 2&gt;
+&lt;close&gt;
+&lt;case 3&gt;
+&lt;close&gt;
+&lt;case 4&gt;
+&lt;close&gt;
+&lt;case_cancel&gt;
+&lt;break&gt;
+&lt;case_end&gt;</t>
+  </si>
+  <si>
+    <t>Several crystals float in front of you.
+What will you do?
+&lt;select 2&gt;
+Change the crystal on the left.
+Change the crystal in the middle.
+Change the crystal on the right.
+Touch with white light.
+&lt;select_end&gt;
+&lt;case 1&gt;
+&lt;close&gt;
+&lt;case 2&gt;
+&lt;close&gt;
+&lt;case 3&gt;
+&lt;close&gt;
+&lt;case 4&gt;
+&lt;close&gt;
+&lt;case_cancel&gt;
+&lt;break&gt;
+&lt;case_end&gt;</t>
+  </si>
+  <si>
+    <t>目の前に　結晶が　浮かんでいる。
+どうしますか？
+&lt;select 3&gt;
+左側の結晶を入れ替える
+中央の結晶を入れ替える
+右側の結晶を入れ替える
+白い光に触れる
+&lt;select_end&gt;
+&lt;case 1&gt;
+&lt;close&gt;
+&lt;case 2&gt;
+&lt;close&gt;
+&lt;case 3&gt;
+&lt;close&gt;
+&lt;case 4&gt;
+&lt;close&gt;
+&lt;case_cancel&gt;
+&lt;break&gt;
+&lt;case_end&gt;</t>
+  </si>
+  <si>
+    <t>Several crystals float in front of you.
+What will you do?
+&lt;select 3&gt;
+Change the crystal on the left.
+Change the crystal in the middle.
+Change the crystal on the right.
+Touch with white light.
+&lt;select_end&gt;
+&lt;case 1&gt;
+&lt;close&gt;
+&lt;case 2&gt;
+&lt;close&gt;
+&lt;case 3&gt;
+&lt;close&gt;
+&lt;case 4&gt;
+&lt;close&gt;
+&lt;case_cancel&gt;
+&lt;break&gt;
+&lt;case_end&gt;</t>
+  </si>
+  <si>
+    <t>目の前に　結晶が　浮かんでいる。
+どうしますか？
+&lt;select 4&gt;
+左側の結晶を入れ替える
+中央の結晶を入れ替える
+右側の結晶を入れ替える
+白い光に触れる
+&lt;select_end&gt;
+&lt;case 1&gt;
+&lt;close&gt;
+&lt;case 2&gt;
+&lt;close&gt;
+&lt;case 3&gt;
+&lt;close&gt;
+&lt;case 4&gt;
+&lt;close&gt;
+&lt;case_cancel&gt;
+&lt;break&gt;
+&lt;case_end&gt;</t>
+  </si>
+  <si>
+    <t>Several crystals float in front of you.
+What will you do?
+&lt;select 4&gt;
+Change the crystal on the left.
+Change the crystal in the middle.
+Change the crystal on the right.
+Touch with white light.
+&lt;select_end&gt;
+&lt;case 1&gt;
+&lt;close&gt;
+&lt;case 2&gt;
+&lt;close&gt;
+&lt;case 3&gt;
+&lt;close&gt;
+&lt;case 4&gt;
+&lt;close&gt;
+&lt;case_cancel&gt;
+&lt;break&gt;
+&lt;case_end&gt;</t>
+  </si>
+  <si>
+    <t>目の前に　結晶が　浮かんでいる。
+どうしますか？
+&lt;select 1&gt;
+左側の結晶を入れ替える
+中央の結晶を入れ替える
+右側の結晶を入れ替える
+白い光に触れる
+ヒントを聞く
+&lt;select_end&gt;
+&lt;case 1&gt;
+&lt;close&gt;
+&lt;case 2&gt;
+&lt;close&gt;
+&lt;case 3&gt;
+&lt;close&gt;
+&lt;case 4&gt;
+&lt;close&gt;
+&lt;case 5&gt;
+&lt;close&gt;
+&lt;case_cancel&gt;
+&lt;break&gt;
+&lt;case_end&gt;</t>
+  </si>
+  <si>
+    <t>Several crystals float in front of you.
+What will you do?
+&lt;select 1&gt;
+Change the crystal on the left.
+Change the crystal in the middle.
+Change the crystal on the right.
+Touch with white light.
+Listen to a hint.
+&lt;select_end&gt;
+&lt;case 1&gt;
+&lt;close&gt;
+&lt;case 2&gt;
+&lt;close&gt;
+&lt;case 3&gt;
+&lt;close&gt;
+&lt;case 4&gt;
+&lt;close&gt;
+&lt;case 5&gt;
+&lt;close&gt;
+&lt;case_cancel&gt;
+&lt;break&gt;
+&lt;case_end&gt;</t>
+  </si>
+  <si>
+    <t>目の前に　結晶が　浮かんでいる。
+どうしますか？
+&lt;select 2&gt;
+左側の結晶を入れ替える
+中央の結晶を入れ替える
+右側の結晶を入れ替える
+白い光に触れる
+ヒントを聞く
+&lt;select_end&gt;
+&lt;case 1&gt;
+&lt;close&gt;
+&lt;case 2&gt;
+&lt;close&gt;
+&lt;case 3&gt;
+&lt;close&gt;
+&lt;case 4&gt;
+&lt;close&gt;
+&lt;case 5&gt;
+&lt;close&gt;
+&lt;case_cancel&gt;
+&lt;break&gt;
+&lt;case_end&gt;</t>
+  </si>
+  <si>
+    <t>Several crystals float in front of you.
+What will you do?
+&lt;select 2&gt;
+Change the crystal on the left.
+Change the crystal in the middle.
+Change the crystal on the right.
+Touch with white light.
+Listen to a hint.
+&lt;select_end&gt;
+&lt;case 1&gt;
+&lt;close&gt;
+&lt;case 2&gt;
+&lt;close&gt;
+&lt;case 3&gt;
+&lt;close&gt;
+&lt;case 4&gt;
+&lt;close&gt;
+&lt;case 5&gt;
+&lt;close&gt;
+&lt;case_cancel&gt;
+&lt;break&gt;
+&lt;case_end&gt;</t>
+  </si>
+  <si>
+    <t>目の前に　結晶が　浮かんでいる。
+どうしますか？
+&lt;select 3&gt;
+左側の結晶を入れ替える
+中央の結晶を入れ替える
+右側の結晶を入れ替える
+白い光に触れる
+ヒントを聞く
+&lt;select_end&gt;
+&lt;case 1&gt;
+&lt;close&gt;
+&lt;case 2&gt;
+&lt;close&gt;
+&lt;case 3&gt;
+&lt;close&gt;
+&lt;case 4&gt;
+&lt;close&gt;
+&lt;case 5&gt;
+&lt;close&gt;
+&lt;case_cancel&gt;
+&lt;break&gt;
+&lt;case_end&gt;</t>
+  </si>
+  <si>
+    <t>Several crystals float in front of you.
+What will you do?
+&lt;select 3&gt;
+Change the crystal on the left.
+Change the crystal in the middle.
+Change the crystal on the right.
+Touch with white light.
+Listen to a hint.
+&lt;select_end&gt;
+&lt;case 1&gt;
+&lt;close&gt;
+&lt;case 2&gt;
+&lt;close&gt;
+&lt;case 3&gt;
+&lt;close&gt;
+&lt;case 4&gt;
+&lt;close&gt;
+&lt;case 5&gt;
+&lt;close&gt;
+&lt;case_cancel&gt;
+&lt;break&gt;
+&lt;case_end&gt;</t>
+  </si>
+  <si>
+    <t>目の前に　結晶が　浮かんでいる。
+どうしますか？
+&lt;select 4&gt;
+左側の結晶を入れ替える
+中央の結晶を入れ替える
+右側の結晶を入れ替える
+白い光に触れる
+ヒントを聞く
+&lt;select_end&gt;
+&lt;case 1&gt;
+&lt;close&gt;
+&lt;case 2&gt;
+&lt;close&gt;
+&lt;case 3&gt;
+&lt;close&gt;
+&lt;case 4&gt;
+&lt;close&gt;
+&lt;case 5&gt;
+&lt;close&gt;
+&lt;case_cancel&gt;
+&lt;break&gt;
+&lt;case_end&gt;</t>
+  </si>
+  <si>
+    <t>Several crystals float in front of you.
+What will you do?
+&lt;select 4&gt;
+Change the crystal on the left.
+Change the crystal in the middle.
+Change the crystal on the right.
+Touch with white light.
+Listen to a hint.
+&lt;select_end&gt;
+&lt;case 1&gt;
+&lt;close&gt;
+&lt;case 2&gt;
+&lt;close&gt;
+&lt;case 3&gt;
+&lt;close&gt;
+&lt;case 4&gt;
+&lt;close&gt;
+&lt;case 5&gt;
+&lt;close&gt;
+&lt;case_cancel&gt;
+&lt;break&gt;
+&lt;case_end&gt;</t>
+  </si>
+  <si>
+    <t>目の前に　結晶が　浮かんでいる。
+どうしますか？
+&lt;select 5&gt;
+左側の結晶を入れ替える
+中央の結晶を入れ替える
+右側の結晶を入れ替える
+白い光に触れる
+ヒントを聞く
+&lt;select_end&gt;
+&lt;case 1&gt;
+&lt;close&gt;
+&lt;case 2&gt;
+&lt;close&gt;
+&lt;case 3&gt;
+&lt;close&gt;
+&lt;case 4&gt;
+&lt;close&gt;
+&lt;case 5&gt;
+&lt;close&gt;
+&lt;case_cancel&gt;
+&lt;break&gt;
+&lt;case_end&gt;</t>
+  </si>
+  <si>
+    <t>Several crystals float in front of you.
+What will you do?
+&lt;select 5&gt;
+Change the crystal on the left.
+Change the crystal in the middle.
+Change the crystal on the right.
+Touch with white light.
+Listen to a hint.
+&lt;select_end&gt;
+&lt;case 1&gt;
+&lt;close&gt;
+&lt;case 2&gt;
+&lt;close&gt;
+&lt;case 3&gt;
+&lt;close&gt;
+&lt;case 4&gt;
+&lt;close&gt;
+&lt;case 5&gt;
+&lt;close&gt;
+&lt;case_cancel&gt;
+&lt;break&gt;
+&lt;case_end&gt;</t>
+  </si>
+  <si>
+    <t>&lt;pipipi_high&gt;「矢印の結晶に触れると　矢印の向いた
+　左方向に　全ての結晶の位置が
+　ひとつ　動いてしまうのですよね。
+&lt;br&gt;
+「であれば　最初から　手前でそろえようとせず
+　後ろの列でそろえてから　矢印の結晶を使って
+　手前に移動させても　いいかもしれません。</t>
+  </si>
+  <si>
+    <t>&lt;pipipi_high&gt;When you touch a crystal with an arrow, all
+of the crystals move once left in that same
+direction, right?
+&lt;br&gt;
+If that's the case, why not try aligning them
+from the back instead of the front, and then
+using the arrows to move them to the front?</t>
+  </si>
+  <si>
+    <t>なんと　イカリが機能を停止した！&lt;se_nots System 7&gt;</t>
+  </si>
+  <si>
+    <t>Suddenly, the anchor ceased functioning!&lt;se_nots System 7&gt;</t>
+  </si>
+  <si>
+    <t>イカリの先端にある
+蛇の眼が　赤く光っている。
+触ってみますか？&lt;yesno&gt;&lt;close&gt;</t>
+  </si>
+  <si>
+    <t>The snake eye atop the anchor glows red.
+Do you want to reach out and touch it?
+&lt;yesno&gt;&lt;close&gt;</t>
+  </si>
+  <si>
+    <t>&lt;pipipi_high&gt;「なるほど……先ほどの結晶は　いわゆる
+　３すくみの関係に　あるのかもしれません。
+&lt;br&gt;
+「草のような形には　火のような形が勝ち&lt;wait=400&gt;
+　水のような形には　草のような形が勝ち&lt;wait=400&gt;
+　火のような形には　水のような形が勝つ。&lt;wait=400&gt;
+&lt;br&gt;
+「結界に現れたシンボルは　火の形だったので
+　水の形を選んだことによって
+　蛇の目を　解除することができたのでしょう。
+&lt;br&gt;
+「これと同じことを　くり返せば
+　結界を　解除できるかもしれません。
+　２本の鎖の方にも　行ってみましょう。</t>
+  </si>
+  <si>
+    <t>&lt;pipipi_high&gt;I see... it seems the three crystals are in
+a triangle relationship.
+&lt;br&gt;
+The grass shape is beaten by fire,&lt;wait=400&gt;
+the water shape is beaten by grass,&lt;wait=400&gt;
+and the fire shape is beaten by water.&lt;wait=400&gt;
+&lt;br&gt;
+Since the shape that appeared at the barrier
+was fire, it makes sense that choosing water
+was able to weaken it.
+&lt;br&gt;
+If we do it again, we might be able to bring
+the whole barrier down. Let's go and check
+out those two big chains.</t>
+  </si>
+  <si>
+    <t>この配置では　何も起きないようだ。
+他の組み合わせを　探してみよう。</t>
+  </si>
+  <si>
+    <t>It seems nothing happened. Try a different
+order.</t>
+  </si>
+  <si>
+    <t>&lt;pipipi_high&gt;「なるほど……。
+　この矢印の形の結晶に触ると　矢印の方向に
+　結晶の位置が　ひとつ動くようですね。
+&lt;wait=500&gt;
+&lt;br&gt;
+「全ての結晶の位置が　変わってしまうので
+　考えて触れないと　混乱してしまいそうです。</t>
+  </si>
+  <si>
+    <t>&lt;pipipi_high&gt;I see... when you touch this arrow-shaped
+crystal, it moves one position in the arrow's
+direction.&lt;wait=500&gt;
+&lt;br&gt;
+It seems to change the position of all the
+crystals, so make to think carefully before
+touching it or you might get lost.</t>
+  </si>
+  <si>
+    <t>&lt;pipipi_high&gt;「ふむ……。
+&lt;br&gt;
+「どうやら　白い光に触れると
+　白い光に包まれている結晶を
+　選択したことに　なるようですね。
+&lt;br&gt;
+「とはいえ　選択と言っても
+　何を選択すれば　いいのかさっぱりです。
+　問題は３つのうち　どれが正解か　ですね。</t>
+  </si>
+  <si>
+    <t>&lt;pipipi_high&gt; Hmm...
+&lt;br&gt;
+It seems that when you touch the white light,
+you're selecting the crystals surrounded
+by the white light.
+&lt;br&gt;
+But... I have no idea which is the right
+crystal to select.</t>
+  </si>
+  <si>
+    <t>なんと　結界から
+蛇の眼のような　光る部分が消えた！&lt;se_nots System 7&gt;</t>
+  </si>
+  <si>
+    <t>The glowing snake eye above the barrier
+has disappeared!&lt;se_nots System 7&gt;</t>
+  </si>
+  <si>
+    <t>イカリが機能を　停止したことで
+エネルギーが流れなくなり
+結界がすべて　消えたようだ。&lt;me 71&gt;</t>
+  </si>
+  <si>
+    <t>The anchors have ceased to function and
+stopped draining energy, causing the barrier
+to disappear.&lt;me 71&gt;</t>
+  </si>
+  <si>
+    <t>&lt;pipipi_high&gt;「出現した　シンボルに対して
+　３すくみの関係で　強い結晶を選べば
+　いいのでしたよね。
+&lt;br&gt;
+「草のような形には　火のような形が勝ち&lt;wait=200&gt;
+　水のような形には　草のような形が勝ち&lt;wait=200&gt;
+　火のような形には　水のような形が勝つ。&lt;wait=400&gt;
+&lt;br&gt;
+「この３つのシンボルにも
+　同じように　強い結晶を　選んでみましょう。</t>
+  </si>
+  <si>
+    <t>&lt;pipipi_high&gt;When choosing the crystals, you have to
+choose the one that beats the symbol in the
+triangle relationship, right?
+&lt;br&gt;
+The grass shape is beaten by fire,&lt;wait=400&gt;
+the water shape is beaten by grass,&lt;wait=400&gt;
+and the fire shape is beaten by water.&lt;wait=400&gt;
+&lt;br&gt;
+Let's be sure to pick the right ones for
+each of these three symbols.</t>
+  </si>
+  <si>
+    <t>&lt;pipipi_high&gt;「同じような結晶が　現れましたね。
+　でも　先ほどのものは　１列だったのに
+　今度は　３列ありますね。
+&lt;br&gt;
+「そのあと　結晶の上に現れたシンボルも
+　同じように　３つなのは
+　何か　関係があるのでしょうか。
+&lt;br&gt;
+「おや？　それに　先ほどまでとは
+　違う形の　結晶が　混じっているようです。
+&lt;br&gt;
+「ううん……不明な事が　多すぎますね。
+　まずは　この結晶も　調べてみましょう。</t>
+  </si>
+  <si>
+    <t>&lt;pipipi_high&gt;Similar looking crystals appeared... but
+the previous one had one row, and time
+there's three rows.
+&lt;br&gt;
+Looks like there's three symbols above
+the crystals as well. Is there some sort
+of relationship between them...?
+&lt;br&gt;
+Huh? There's also crystals of a different
+shape mixed in this time, too...
+&lt;br&gt;
+No... there still too many unknowns to
+know for sure. Let's examine these crystals
+first.</t>
+  </si>
+  <si>
+    <t>イカリが機能を停止し　結界のチカラが
+さらに弱まったようだ！</t>
+  </si>
+  <si>
+    <t>The anchor has been deactivated and the
+barrier's power weakened even further!</t>
+  </si>
+  <si>
+    <t>&lt;pipipi_npc 10599&gt;「ここは単純に　コイントスで
+　勝負といこーぜ。俺が　投げたコインを
+　オモテか　ウラか　アンタが答えてくれ。
+&lt;br&gt;
+「見事　当てたら　帝王に会う方法を教えてやる。
+　だが　ハズしたら　１０００ゴールド
+　払ってもらうぜ。どうだ　勝負するかい？&lt;yesno&gt;&lt;break&gt;</t>
+  </si>
+  <si>
+    <t>&lt;pipipi_npc 10599&gt;Let's play a simple coin toss. I'll flip a
+coin and ya tell me if it's heads or tails.
+&lt;br&gt;
+If ya win, I'll tell ya how you can see the
+Emperor. But if ya lose, ya gotta pay me
+1000 Gold. Whaddya say?&lt;yesno&gt;&lt;break&gt;</t>
+  </si>
+  <si>
+    <t>6.3 Alamond dialogue</t>
+  </si>
+  <si>
+    <t>&lt;pipipi_npc 10599&gt;「さぁ　答えろ。
+　……オモテか　それともウラか？
+&lt;select_nc&gt;
+オモテ
+ウラ
+&lt;select_end&gt;
+&lt;case 1&gt;
+&lt;close&gt;
+&lt;case 2&gt;
+&lt;close&gt;
+&lt;case_cancel&gt;
+&lt;close&gt;
+&lt;case_end&gt;</t>
+  </si>
+  <si>
+    <t>&lt;pipipi_npc 10599&gt;Alrighty, then. Tell me.
+Heads or tails?
+&lt;select_nc&gt;
+Heads
+Tails
+&lt;select_end&gt;
+&lt;case 1&gt;
+&lt;close&gt;
+&lt;case 2&gt;
+&lt;close&gt;
+&lt;case_cancel&gt;
+&lt;close&gt;
+&lt;case_end&gt;</t>
+  </si>
+  <si>
+    <t>パパラッピは　ゆっくりと　手をどかした。
+コインは…………ウラだった！</t>
+  </si>
+  <si>
+    <t>Paparappi slowly moved his hand away.
+And the result was..........heads!</t>
+  </si>
+  <si>
+    <t>&lt;attr&gt;&lt;feel_sad_one&gt;&lt;end_attr&gt;「オホホ！　ありがとうございますぅ！
+　では　ワタクシ　張り切って
+　占わせていただきますね……。
+&lt;br&gt;
+「へんにゃらー　ほんにゃらー
+　はんにゃらー　ふんにゃらー……。
+&lt;br&gt;
+「……ムムム　見える　見えるぞ！
+　アカシックレコードに　記されし
+　神秘のゾディアックコード！
+&lt;br&gt;
+「キェェェェェェイッ！
+　ウラァァァァァァァァァッ！！
+&lt;br&gt;
+「……アナタのラッキーワードは　ウラァです！
+　はてさて　これが　いったい
+　何を指し示す言葉かは　わかりませんが……
+&lt;br&gt;
+「いずれにせよ　これで
+　アナタは　救われる。
+　信じなさい……信じなさい……。</t>
+  </si>
+  <si>
+    <t>&lt;attr&gt;&lt;feel_sad_one&gt;&lt;end_attr&gt;Ohoho! Thank you very much! Now then,
+I will be happy to read your fortune...
+&lt;br&gt;
+Henyara, honyara. Hanyara, Hunyara...
+&lt;br&gt;
+...Hmm, hmm... yes, yes! I see it! The secret
+Zodiac Code, written in the Akashic Records!
+&lt;br&gt;
+Keeeeeee!! Uwahhhhhh!!!
+&lt;br&gt;
+Your lucky word is "heads"!
+I have no idea what this is supposed to
+mean...
+&lt;br&gt;
+One way or another, it will save you.
+Please... please believe in it...</t>
   </si>
   <si>
     <t>メインコマンド『せんれき』の
@@ -9773,6 +10545,314 @@
         <v>577</v>
       </c>
     </row>
+    <row r="268">
+      <c r="A268" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="C268" s="2" t="s">
+        <v>579</v>
+      </c>
+      <c r="D268" s="2" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" s="2" t="s">
+        <v>581</v>
+      </c>
+      <c r="C269" s="2" t="s">
+        <v>582</v>
+      </c>
+      <c r="D269" s="2" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="C270" s="2" t="s">
+        <v>584</v>
+      </c>
+      <c r="D270" s="2" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" s="2" t="s">
+        <v>585</v>
+      </c>
+      <c r="C271" s="2" t="s">
+        <v>586</v>
+      </c>
+      <c r="D271" s="2" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" s="2" t="s">
+        <v>587</v>
+      </c>
+      <c r="C272" s="2" t="s">
+        <v>588</v>
+      </c>
+      <c r="D272" s="2" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" s="2" t="s">
+        <v>589</v>
+      </c>
+      <c r="C273" s="2" t="s">
+        <v>590</v>
+      </c>
+      <c r="D273" s="2" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" s="2" t="s">
+        <v>591</v>
+      </c>
+      <c r="C274" s="2" t="s">
+        <v>592</v>
+      </c>
+      <c r="D274" s="2" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" s="2" t="s">
+        <v>593</v>
+      </c>
+      <c r="C275" s="2" t="s">
+        <v>594</v>
+      </c>
+      <c r="D275" s="2" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" s="2" t="s">
+        <v>595</v>
+      </c>
+      <c r="C276" s="2" t="s">
+        <v>596</v>
+      </c>
+      <c r="D276" s="2" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" s="2" t="s">
+        <v>597</v>
+      </c>
+      <c r="C277" s="2" t="s">
+        <v>598</v>
+      </c>
+      <c r="D277" s="2" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" s="2" t="s">
+        <v>599</v>
+      </c>
+      <c r="C278" s="2" t="s">
+        <v>600</v>
+      </c>
+      <c r="D278" s="2" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="C279" s="2" t="s">
+        <v>602</v>
+      </c>
+      <c r="D279" s="2" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" s="2" t="s">
+        <v>603</v>
+      </c>
+      <c r="C280" s="2" t="s">
+        <v>604</v>
+      </c>
+      <c r="D280" s="2" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" s="2" t="s">
+        <v>605</v>
+      </c>
+      <c r="C281" s="2" t="s">
+        <v>606</v>
+      </c>
+      <c r="D281" s="2" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" s="2" t="s">
+        <v>607</v>
+      </c>
+      <c r="C282" s="2" t="s">
+        <v>608</v>
+      </c>
+      <c r="D282" s="2" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" s="2" t="s">
+        <v>609</v>
+      </c>
+      <c r="C283" s="2" t="s">
+        <v>610</v>
+      </c>
+      <c r="D283" s="2" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" s="2" t="s">
+        <v>611</v>
+      </c>
+      <c r="C284" s="2" t="s">
+        <v>612</v>
+      </c>
+      <c r="D284" s="2" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" s="2" t="s">
+        <v>613</v>
+      </c>
+      <c r="C285" s="2" t="s">
+        <v>614</v>
+      </c>
+      <c r="D285" s="2" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" s="2" t="s">
+        <v>615</v>
+      </c>
+      <c r="C286" s="2" t="s">
+        <v>616</v>
+      </c>
+      <c r="D286" s="2" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" s="2" t="s">
+        <v>617</v>
+      </c>
+      <c r="C287" s="2" t="s">
+        <v>618</v>
+      </c>
+      <c r="D287" s="2" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" s="2" t="s">
+        <v>619</v>
+      </c>
+      <c r="C288" s="2" t="s">
+        <v>620</v>
+      </c>
+      <c r="D288" s="2" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" s="2" t="s">
+        <v>621</v>
+      </c>
+      <c r="C289" s="2" t="s">
+        <v>622</v>
+      </c>
+      <c r="D289" s="2" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" s="2" t="s">
+        <v>623</v>
+      </c>
+      <c r="C290" s="2" t="s">
+        <v>624</v>
+      </c>
+      <c r="D290" s="2" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" s="2" t="s">
+        <v>625</v>
+      </c>
+      <c r="C291" s="2" t="s">
+        <v>626</v>
+      </c>
+      <c r="D291" s="2" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" s="2" t="s">
+        <v>627</v>
+      </c>
+      <c r="C292" s="2" t="s">
+        <v>628</v>
+      </c>
+      <c r="D292" s="2" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" s="2" t="s">
+        <v>630</v>
+      </c>
+      <c r="C293" s="2" t="s">
+        <v>631</v>
+      </c>
+      <c r="D293" s="2" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" s="2" t="s">
+        <v>632</v>
+      </c>
+      <c r="C294" s="2" t="s">
+        <v>633</v>
+      </c>
+      <c r="D294" s="2" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" s="2" t="s">
+        <v>634</v>
+      </c>
+      <c r="C295" s="2" t="s">
+        <v>635</v>
+      </c>
+      <c r="D295" s="2" t="s">
+        <v>629</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -9809,18 +10889,18 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>578</v>
+        <v>636</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>579</v>
+        <v>637</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>580</v>
+        <v>638</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>581</v>
+        <v>639</v>
       </c>
     </row>
   </sheetData>

--- a/csv/merge.xlsx
+++ b/csv/merge.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="854" uniqueCount="640">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="857" uniqueCount="643">
   <si>
     <t>JP Text (DO NOT CHANGE)</t>
   </si>
@@ -7318,6 +7318,17 @@
 &lt;br&gt;
 One way or another, it will save you.
 Please... please believe in it...</t>
+  </si>
+  <si>
+    <t>なんのヘンテツもない
+ただの　井戸のようだ……。</t>
+  </si>
+  <si>
+    <t>It's a well. There doesn't seem to be
+anything particularly unusual about it...</t>
+  </si>
+  <si>
+    <t>Folmonti well</t>
   </si>
   <si>
     <t>メインコマンド『せんれき』の
@@ -10853,6 +10864,17 @@
         <v>629</v>
       </c>
     </row>
+    <row r="296">
+      <c r="A296" s="2" t="s">
+        <v>636</v>
+      </c>
+      <c r="C296" s="2" t="s">
+        <v>637</v>
+      </c>
+      <c r="D296" s="2" t="s">
+        <v>638</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -10889,18 +10911,18 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>636</v>
+        <v>639</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>637</v>
+        <v>640</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>638</v>
+        <v>641</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>639</v>
+        <v>642</v>
       </c>
     </row>
   </sheetData>

--- a/csv/merge.xlsx
+++ b/csv/merge.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="857" uniqueCount="643">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="869" uniqueCount="654">
   <si>
     <t>JP Text (DO NOT CHANGE)</t>
   </si>
@@ -7329,6 +7329,79 @@
   </si>
   <si>
     <t>Folmonti well</t>
+  </si>
+  <si>
+    <t>転魔の刻印を　使い
+魔族の姿に　なりますか？
+&lt;yesno&gt;&lt;close&gt;</t>
+  </si>
+  <si>
+    <t>Use the Demon's Seal to take on the
+form of a demon?&lt;yesno&gt;&lt;close&gt;</t>
+  </si>
+  <si>
+    <t>Demon's Seal</t>
+  </si>
+  <si>
+    <t>転魔の刻印を　使い
+人間の姿に　戻りますか？
+&lt;yesno&gt;&lt;close&gt;</t>
+  </si>
+  <si>
+    <t>Use the Demon's Seal to change back
+to your human form?&lt;yesno&gt;&lt;close&gt;</t>
+  </si>
+  <si>
+    <t>このクエストは　前半の『オオカミ討伐作戦！』
+後半の『消えたオオカミ』に　わかれます。
+どちらを　リプレイしますか？
+&lt;select&gt;
+オオカミ討伐作戦！
+消えたオオカミ
+&lt;select_end&gt;
+&lt;case 1&gt;
+&lt;break&gt;
+&lt;case 2&gt;
+&lt;break&gt;
+&lt;case_cancel&gt;
+&lt;close&gt;
+&lt;case_end&gt;&lt;bw_break&gt;</t>
+  </si>
+  <si>
+    <t>This quest is divided into two parts:
+"Wolf Subjugation Tactics" for the first part,
+and "Missing Wolf" for the second part.
+&lt;br&gt;
+Which part do you want to replay?
+&lt;select&gt;
+Wolf Subjugation Tactics!
+Missing Wolf
+&lt;select_end&gt;
+&lt;case 1&gt;
+&lt;break&gt;
+&lt;case 2&gt;
+&lt;break&gt;
+&lt;case_cancel&gt;
+&lt;close&gt;
+&lt;case_end&gt;&lt;bw_break&gt;</t>
+  </si>
+  <si>
+    <t>Folmonti Quest Replay</t>
+  </si>
+  <si>
+    <t>&lt;color_yellow&gt;クエストクリア後は　好きなイベント会場を
+選んで　行くことができます。
+『おすすめ』を選ぶと　自動で移動します。</t>
+  </si>
+  <si>
+    <t>&lt;color_yellow&gt;After clearing this quest, you can go to any
+Event Area of your choice. If you choose
+"Recommended", you'll go to the next
+&lt;br&gt;
+available Event Area automatically.</t>
+  </si>
+  <si>
+    <t>Event Area Dialogue</t>
   </si>
   <si>
     <t>メインコマンド『せんれき』の
@@ -10875,6 +10948,50 @@
         <v>638</v>
       </c>
     </row>
+    <row r="297">
+      <c r="A297" s="2" t="s">
+        <v>639</v>
+      </c>
+      <c r="C297" s="2" t="s">
+        <v>640</v>
+      </c>
+      <c r="D297" s="2" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" s="2" t="s">
+        <v>642</v>
+      </c>
+      <c r="C298" s="2" t="s">
+        <v>643</v>
+      </c>
+      <c r="D298" s="2" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" s="2" t="s">
+        <v>644</v>
+      </c>
+      <c r="C299" s="2" t="s">
+        <v>645</v>
+      </c>
+      <c r="D299" s="2" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" s="2" t="s">
+        <v>647</v>
+      </c>
+      <c r="C300" s="2" t="s">
+        <v>648</v>
+      </c>
+      <c r="D300" s="2" t="s">
+        <v>649</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -10911,18 +11028,18 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>639</v>
+        <v>650</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>640</v>
+        <v>651</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>641</v>
+        <v>652</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>642</v>
+        <v>653</v>
       </c>
     </row>
   </sheetData>

--- a/csv/merge.xlsx
+++ b/csv/merge.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="869" uniqueCount="654">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="881" uniqueCount="666">
   <si>
     <t>JP Text (DO NOT CHANGE)</t>
   </si>
@@ -7402,6 +7402,70 @@
   </si>
   <si>
     <t>Event Area Dialogue</t>
+  </si>
+  <si>
+    <t>紅殻魔スコルパイドを　結界に封じた！
+破魔石が　１０個なくなった！
+&lt;auto_bw=5000&gt;&lt;close&gt;</t>
+  </si>
+  <si>
+    <t>The Demon Orbs you hold begin shining, and
+the Guardian Ward is strengthened once more.
+&lt;auto_br=5000&gt;
+Red Demon Scorpide was sealed in the ward!
+10 of your Demon Orbs were consumed!
+&lt;auto_bw=5000&gt;&lt;close&gt;</t>
+  </si>
+  <si>
+    <t>Scorpide win (BAD STRING)</t>
+  </si>
+  <si>
+    <t>剛獣鬼ガルドドンを　結界に封じた！
+破魔石が　１０個なくなった！
+&lt;auto_bw=5000&gt;&lt;close&gt;</t>
+  </si>
+  <si>
+    <t>The Demon Orbs you hold begin shining, and
+the Guardian Ward is strengthened once more.
+&lt;auto_br=5000&gt;
+Brutal Beast Gardodon was sealed in the ward!
+10 of your Demon Orbs were consumed!
+&lt;auto_bw=5000&gt;&lt;close&gt;</t>
+  </si>
+  <si>
+    <t>Gardodon win (BAD STRING)</t>
+  </si>
+  <si>
+    <t>邪蒼鎧デルメゼを　結界に封じた！
+破魔石が　１０個なくなった！
+&lt;auto_bw=5000&gt;&lt;close&gt;</t>
+  </si>
+  <si>
+    <t>The Demon Orbs you hold begin shining, and
+the Guardian Ward is strengthened once more.
+&lt;auto_br=5000&gt;
+Blue Armor Delmeze was sealed in the ward!
+10 of your Demon Orbs were consumed!
+&lt;auto_bw=5000&gt;&lt;close&gt;</t>
+  </si>
+  <si>
+    <t>Delmeze win (BAD STRING)</t>
+  </si>
+  <si>
+    <t>翠将鬼ジェルザークを　結界に封じた！
+破魔石が　１０個なくなった！
+&lt;auto_bw=5000&gt;&lt;close&gt;</t>
+  </si>
+  <si>
+    <t>The Demon Orbs you hold begin shining, and
+the Guardian Ward is strengthened once more.
+&lt;auto_br=5000&gt;
+Green General Gelzark was sealed in the ward!
+10 of your Demon Orbs were consumed!
+&lt;auto_bw=5000&gt;&lt;close&gt;</t>
+  </si>
+  <si>
+    <t>Gelzark win (BAD STRING)</t>
   </si>
   <si>
     <t>メインコマンド『せんれき』の
@@ -10992,6 +11056,53 @@
         <v>649</v>
       </c>
     </row>
+    <row r="301">
+      <c r="A301" s="2" t="s">
+        <v>650</v>
+      </c>
+      <c r="C301" s="2" t="s">
+        <v>651</v>
+      </c>
+      <c r="D301" s="2" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" s="2" t="s">
+        <v>653</v>
+      </c>
+      <c r="C302" s="2" t="s">
+        <v>654</v>
+      </c>
+      <c r="D302" s="2" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" s="2" t="s">
+        <v>656</v>
+      </c>
+      <c r="C303" s="2" t="s">
+        <v>657</v>
+      </c>
+      <c r="D303" s="2" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" s="2" t="s">
+        <v>659</v>
+      </c>
+      <c r="C304" s="2" t="s">
+        <v>660</v>
+      </c>
+      <c r="D304" s="2" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" s="2"/>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -11028,18 +11139,18 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>650</v>
+        <v>662</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>651</v>
+        <v>663</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>652</v>
+        <v>664</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>653</v>
+        <v>665</v>
       </c>
     </row>
   </sheetData>

--- a/csv/merge.xlsx
+++ b/csv/merge.xlsx
@@ -11100,9 +11100,6 @@
         <v>661</v>
       </c>
     </row>
-    <row r="305">
-      <c r="A305" s="2"/>
-    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/csv/merge.xlsx
+++ b/csv/merge.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="881" uniqueCount="666">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="884" uniqueCount="669">
   <si>
     <t>JP Text (DO NOT CHANGE)</t>
   </si>
@@ -7466,6 +7466,34 @@
   </si>
   <si>
     <t>Gelzark win (BAD STRING)</t>
+  </si>
+  <si>
+    <t>「わしは　旅の覇者モンジ。
+　おのれを試す　修練の地を見つけては
+　挑んでまわっておる。
+&lt;br&gt;
+「そなた　なかなかの強者と見受けるが
+　この地の修練には　参加しておらぬのか。
+&lt;br&gt;
+「そなたが修練を極め　覇者の心を持っていれば
+　わしが　これまでに　ここで手に入れた報酬を
+　ゆずろうと思ったのだが。</t>
+  </si>
+  <si>
+    <t>My name is Monji, the Travel Champion. I
+travel to various different places to test
+and challenge myself.
+&lt;br&gt;
+You seem to be very strong. Have you
+not participated in the training to be had
+here yet?
+&lt;br&gt;
+If only you had the discipline and heart
+of a champion, I could share with you the
+rewards I have found.</t>
+  </si>
+  <si>
+    <t>Monji initial dialogue</t>
   </si>
   <si>
     <t>メインコマンド『せんれき』の
@@ -11100,6 +11128,17 @@
         <v>661</v>
       </c>
     </row>
+    <row r="305">
+      <c r="A305" s="2" t="s">
+        <v>662</v>
+      </c>
+      <c r="C305" s="2" t="s">
+        <v>663</v>
+      </c>
+      <c r="D305" s="2" t="s">
+        <v>664</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -11136,18 +11175,18 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>662</v>
+        <v>665</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>663</v>
+        <v>666</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>664</v>
+        <v>667</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>665</v>
+        <v>668</v>
       </c>
     </row>
   </sheetData>

--- a/csv/merge.xlsx
+++ b/csv/merge.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="884" uniqueCount="669">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="887" uniqueCount="672">
   <si>
     <t>JP Text (DO NOT CHANGE)</t>
   </si>
@@ -7494,6 +7494,46 @@
   </si>
   <si>
     <t>Monji initial dialogue</t>
+  </si>
+  <si>
+    <t>「今回から　他のパーティを誘って
+　行くことができるようになったぞ。
+　どうする？
+&lt;select&gt;
+自動で選んで行く
+４人パーティを誘って２０人で行く
+他のパーティを誘って２０人未満で行く
+&lt;select_end&gt;
+&lt;case 1&gt;
+&lt;close&gt;
+&lt;case 2&gt;
+&lt;close&gt;
+&lt;case 3&gt;
+&lt;close&gt;
+&lt;case_cancel&gt;
+&lt;close&gt;
+&lt;case_end&gt;</t>
+  </si>
+  <si>
+    <t>You can invite other parties or be matched
+automatically. What do you want to do?
+&lt;select&gt;
+Auto Matching
+Go as party of 4 with 20 other players.
+Go with other parties with less than 20 players.
+&lt;select_end&gt;
+&lt;case 1&gt;
+&lt;close&gt;
+&lt;case 2&gt;
+&lt;close&gt;
+&lt;case 3&gt;
+&lt;close&gt;
+&lt;case_cancel&gt;
+&lt;close&gt;
+&lt;case_end&gt;</t>
+  </si>
+  <si>
+    <t>Gateria matching</t>
   </si>
   <si>
     <t>メインコマンド『せんれき』の
@@ -11139,6 +11179,17 @@
         <v>664</v>
       </c>
     </row>
+    <row r="306">
+      <c r="A306" s="2" t="s">
+        <v>665</v>
+      </c>
+      <c r="C306" s="2" t="s">
+        <v>666</v>
+      </c>
+      <c r="D306" s="2" t="s">
+        <v>667</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -11175,18 +11226,18 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>665</v>
+        <v>668</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>666</v>
+        <v>669</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>667</v>
+        <v>670</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>668</v>
+        <v>671</v>
       </c>
     </row>
   </sheetData>

--- a/csv/merge.xlsx
+++ b/csv/merge.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="887" uniqueCount="672">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="887" uniqueCount="673">
   <si>
     <t>JP Text (DO NOT CHANGE)</t>
   </si>
@@ -2354,6 +2354,27 @@
 Earnest Heart
 &lt;color_gray&gt;Undaunted Heart
 Nothing
+&lt;select_end&gt;
+&lt;case 1&gt;
+&lt;break&gt;
+&lt;case 2&gt;
+&lt;break&gt;
+&lt;case 3&gt;
+&lt;break&gt;
+&lt;case 4&gt;
+&lt;close&gt;
+&lt;case_cancel&gt;
+&lt;close&gt;
+&lt;case_end&gt;&lt;break&gt;</t>
+  </si>
+  <si>
+    <t>悩んでいるレオーネの像に　反応している。
+どの心を与えますか？
+&lt;select&gt;
+つながる心
+&lt;color_gray&gt;ひたむきな心
+&lt;color_gray&gt;くじけぬ心
+何もしない
 &lt;select_end&gt;
 &lt;case 1&gt;
 &lt;break&gt;
@@ -9013,10 +9034,10 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D107" s="2" t="s">
         <v>217</v>
@@ -9024,10 +9045,10 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D108" s="2" t="s">
         <v>217</v>
@@ -9035,10 +9056,10 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D109" s="2" t="s">
         <v>217</v>
@@ -9046,10 +9067,10 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D110" s="2" t="s">
         <v>217</v>
@@ -9057,10 +9078,10 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D111" s="2" t="s">
         <v>217</v>
@@ -9068,10 +9089,10 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D112" s="2" t="s">
         <v>217</v>
@@ -9079,10 +9100,10 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D113" s="2" t="s">
         <v>217</v>
@@ -9090,10 +9111,10 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D114" s="2" t="s">
         <v>217</v>
@@ -9101,10 +9122,10 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D115" s="2" t="s">
         <v>217</v>
@@ -9112,10 +9133,10 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D116" s="2" t="s">
         <v>217</v>
@@ -9123,10 +9144,10 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D117" s="2" t="s">
         <v>217</v>
@@ -9134,10 +9155,10 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D118" s="2" t="s">
         <v>217</v>
@@ -9145,10 +9166,10 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D119" s="2" t="s">
         <v>217</v>
@@ -9156,10 +9177,10 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D120" s="2" t="s">
         <v>217</v>
@@ -9167,10 +9188,10 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D121" s="2" t="s">
         <v>217</v>
@@ -9178,59 +9199,59 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="D126" s="2" t="s">
         <v>264</v>
-      </c>
-      <c r="C126" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="D126" s="2" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D127" s="2" t="s">
         <v>194</v>
@@ -9238,10 +9259,10 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D128" s="2" t="s">
         <v>194</v>
@@ -9249,10 +9270,10 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D129" s="2" t="s">
         <v>194</v>
@@ -9260,10 +9281,10 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D130" s="2" t="s">
         <v>194</v>
@@ -9271,10 +9292,10 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D131" s="2" t="s">
         <v>194</v>
@@ -9282,1912 +9303,1912 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="D134" s="2" t="s">
         <v>281</v>
-      </c>
-      <c r="C134" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="D134" s="2" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="D136" s="2" t="s">
         <v>286</v>
-      </c>
-      <c r="C136" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="D136" s="2" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="D145" s="2" t="s">
         <v>307</v>
-      </c>
-      <c r="C145" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="D145" s="2" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="D151" s="2" t="s">
         <v>320</v>
-      </c>
-      <c r="C151" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="D151" s="2" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="D153" s="2" t="s">
         <v>325</v>
-      </c>
-      <c r="C153" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="D153" s="2" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C163" s="7" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="C176" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="D176" s="2" t="s">
         <v>374</v>
-      </c>
-      <c r="C176" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="D176" s="2" t="s">
-        <v>373</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="C178" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="D178" s="2" t="s">
         <v>379</v>
-      </c>
-      <c r="C178" s="2" t="s">
-        <v>380</v>
-      </c>
-      <c r="D178" s="2" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="C184" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="D184" s="2" t="s">
         <v>393</v>
-      </c>
-      <c r="C184" s="2" t="s">
-        <v>394</v>
-      </c>
-      <c r="D184" s="2" t="s">
-        <v>392</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="C203" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="D203" s="2" t="s">
         <v>433</v>
-      </c>
-      <c r="C203" s="2" t="s">
-        <v>434</v>
-      </c>
-      <c r="D203" s="2" t="s">
-        <v>432</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="2" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="2" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="2" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="2" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="2" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="2" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="2" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="C215" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="D215" s="2" t="s">
         <v>458</v>
-      </c>
-      <c r="C215" s="2" t="s">
-        <v>459</v>
-      </c>
-      <c r="D215" s="2" t="s">
-        <v>457</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="2" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="2" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C217" s="2" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="2" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="2" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="2" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="D220" s="2" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="C221" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="D221" s="2" t="s">
         <v>475</v>
-      </c>
-      <c r="C221" s="2" t="s">
-        <v>476</v>
-      </c>
-      <c r="D221" s="2" t="s">
-        <v>474</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="2" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="D222" s="2" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="2" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="C224" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="D224" s="2" t="s">
         <v>482</v>
-      </c>
-      <c r="C224" s="2" t="s">
-        <v>483</v>
-      </c>
-      <c r="D224" s="2" t="s">
-        <v>481</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="2" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="C225" s="2" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="D225" s="2" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="E225" s="2" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="2" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="C226" s="2" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="D226" s="2" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="2" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="C227" s="2" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="D227" s="2" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="2" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="C228" s="2" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="D228" s="2" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="2" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C229" s="2" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="D229" s="2" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="2" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="C230" s="2" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="D230" s="2" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="2" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="C231" s="2" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="D231" s="2" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="2" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C232" s="2" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="D232" s="2" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="2" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="C233" s="2" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="D233" s="2" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="2" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="C234" s="2" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="D234" s="2" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="2" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="C235" s="2" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="D235" s="2" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="2" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C236" s="2" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="D236" s="2" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="C237" s="2" t="s">
+        <v>513</v>
+      </c>
+      <c r="D237" s="2" t="s">
         <v>511</v>
-      </c>
-      <c r="C237" s="2" t="s">
-        <v>512</v>
-      </c>
-      <c r="D237" s="2" t="s">
-        <v>510</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="2" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="C238" s="2" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="D238" s="2" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="2" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="C239" s="2" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="D239" s="2" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="C240" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="D240" s="2" t="s">
         <v>518</v>
-      </c>
-      <c r="C240" s="2" t="s">
-        <v>519</v>
-      </c>
-      <c r="D240" s="2" t="s">
-        <v>517</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="2" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="C241" s="2" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="D241" s="2" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="2" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="C242" s="2" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="D242" s="2" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="2" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="C243" s="2" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="D243" s="2" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="2" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="C244" s="2" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="D244" s="2" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="2" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="C245" s="2" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="D245" s="2" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="2" t="s">
+        <v>533</v>
+      </c>
+      <c r="C246" s="2" t="s">
+        <v>534</v>
+      </c>
+      <c r="D246" s="2" t="s">
         <v>532</v>
-      </c>
-      <c r="C246" s="2" t="s">
-        <v>533</v>
-      </c>
-      <c r="D246" s="2" t="s">
-        <v>531</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="2" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="C247" s="2" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="D247" s="2" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="2" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="C248" s="2" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="D248" s="2" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="2" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="C249" s="2" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="D249" s="2" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="2" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="C250" s="2" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="D250" s="2" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="2" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="C251" s="2" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="D251" s="2" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="2" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="C252" s="2" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="D252" s="2" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="2" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="C253" s="2" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="D253" s="2" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="2" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="C254" s="2" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="D254" s="2" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="2" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="C255" s="2" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="D255" s="2" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="2" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="C256" s="2" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="D256" s="2" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="2" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="C257" s="2" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="D257" s="2" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="2" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="C258" s="2" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="D258" s="2" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" s="2" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="C259" s="2" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="D259" s="2" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="2" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="C260" s="2" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="D260" s="2" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="2" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="C261" s="2" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="D261" s="2" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="2" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="C262" s="2" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="D262" s="2" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="2" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="C263" s="2" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="D263" s="2" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="2" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="C264" s="2" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="D264" s="2" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="2" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="C265" s="2" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="D265" s="2" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="2" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="C266" s="2" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="D266" s="2" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" s="2" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="C267" s="2" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="D267" s="2" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" s="2" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="C268" s="2" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="D268" s="2" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="2" t="s">
+        <v>582</v>
+      </c>
+      <c r="C269" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="D269" s="2" t="s">
         <v>581</v>
-      </c>
-      <c r="C269" s="2" t="s">
-        <v>582</v>
-      </c>
-      <c r="D269" s="2" t="s">
-        <v>580</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" s="2" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="C270" s="2" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="D270" s="2" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" s="2" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="C271" s="2" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="D271" s="2" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" s="2" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="C272" s="2" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="D272" s="2" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" s="2" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="C273" s="2" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="D273" s="2" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" s="2" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="C274" s="2" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="D274" s="2" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" s="2" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="C275" s="2" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="D275" s="2" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" s="2" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="C276" s="2" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="D276" s="2" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" s="2" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="C277" s="2" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="D277" s="2" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" s="2" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="C278" s="2" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="D278" s="2" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" s="2" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="C279" s="2" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="D279" s="2" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" s="2" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="C280" s="2" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="D280" s="2" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" s="2" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C281" s="2" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="D281" s="2" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" s="2" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="C282" s="2" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="D282" s="2" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" s="2" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="C283" s="2" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="D283" s="2" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" s="2" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="C284" s="2" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="D284" s="2" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" s="2" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="C285" s="2" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="D285" s="2" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" s="2" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="C286" s="2" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="D286" s="2" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" s="2" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="C287" s="2" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="D287" s="2" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" s="2" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="C288" s="2" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="D288" s="2" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" s="2" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="C289" s="2" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="D289" s="2" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" s="2" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="C290" s="2" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="D290" s="2" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" s="2" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="C291" s="2" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="D291" s="2" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" s="2" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="C292" s="2" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="D292" s="2" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" s="2" t="s">
+        <v>631</v>
+      </c>
+      <c r="C293" s="2" t="s">
+        <v>632</v>
+      </c>
+      <c r="D293" s="2" t="s">
         <v>630</v>
-      </c>
-      <c r="C293" s="2" t="s">
-        <v>631</v>
-      </c>
-      <c r="D293" s="2" t="s">
-        <v>629</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" s="2" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="C294" s="2" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="D294" s="2" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" s="2" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="C295" s="2" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="D295" s="2" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" s="2" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="C296" s="2" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="D296" s="2" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" s="2" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="C297" s="2" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="D297" s="2" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" s="2" t="s">
+        <v>643</v>
+      </c>
+      <c r="C298" s="2" t="s">
+        <v>644</v>
+      </c>
+      <c r="D298" s="2" t="s">
         <v>642</v>
-      </c>
-      <c r="C298" s="2" t="s">
-        <v>643</v>
-      </c>
-      <c r="D298" s="2" t="s">
-        <v>641</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" s="2" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="C299" s="2" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="D299" s="2" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" s="2" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="C300" s="2" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="D300" s="2" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" s="2" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="C301" s="2" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="D301" s="2" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" s="2" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="C302" s="2" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="D302" s="2" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" s="2" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="C303" s="2" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="D303" s="2" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" s="2" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="C304" s="2" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="D304" s="2" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" s="2" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="C305" s="2" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="D305" s="2" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" s="2" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="C306" s="2" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="D306" s="2" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
     </row>
   </sheetData>
@@ -11226,18 +11247,18 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
     </row>
   </sheetData>

--- a/csv/merge.xlsx
+++ b/csv/merge.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="887" uniqueCount="673">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="989" uniqueCount="743">
   <si>
     <t>JP Text (DO NOT CHANGE)</t>
   </si>
@@ -7555,6 +7555,256 @@
   </si>
   <si>
     <t>Gateria matching</t>
+  </si>
+  <si>
+    <t>&lt;pipipi_high&gt;「……ノー。味しないデス。
+　見当違いの場所　掘ってるみたいデスね。
+　別の大陸で　掘ってみマショ。</t>
+  </si>
+  <si>
+    <t>&lt;pipipi_high&gt;Nooope, not here! Eugh! Tastes bad!
+Try digging somewhere else!</t>
+  </si>
+  <si>
+    <t>Shovel</t>
+  </si>
+  <si>
+    <t>&lt;pipipi_high&gt;「オウ　イエア！　舌にひびく
+　シャープで　スパイシーな　ハーモニー！
+　お宝の場所は　かなり　近いデスよー。&lt;bw_break&gt;</t>
+  </si>
+  <si>
+    <t>&lt;pipipi_high&gt;Oh yeah! That's what I'm talkin' about!
+The perfect harmony of sharp and spicy!
+The treasure's real close!&lt;bw_break&gt;</t>
+  </si>
+  <si>
+    <t>&lt;pipipi_high&gt;「ノー。ボソボソして　おいしくないデス。
+　お宝は　別のマップに　あるみたいデスね。</t>
+  </si>
+  <si>
+    <t>&lt;pipipi_high&gt;No, not here. It's pretty shabby.
+The treasure's on a different map somewhere.</t>
+  </si>
+  <si>
+    <t>&lt;pipipi_high&gt;「オーウ！　のどに伝わる
+　フローラルで　ディープな　フレイバー。
+　お宝の場所は　近いみたいデス。&lt;bw_break&gt;</t>
+  </si>
+  <si>
+    <t>&lt;pipipi_high&gt;Ohhh yeah! That deep and floral flavor
+that just slides down your throat!
+The treasure's close!&lt;bw_break&gt;</t>
+  </si>
+  <si>
+    <t>&lt;pipipi_high&gt;「アーハン。ふわっと香る　スウィートなアロマ。
+　どうやら　このマップに　お宝はありマスねー。
+　でも　まだまだ遠くに　あるみたいデス。&lt;bw_break&gt;</t>
+  </si>
+  <si>
+    <t>&lt;pipipi_high&gt;Ahhh... what a sweet and soft aroma...
+The treasure's on this map, but it's still
+pretty far away.&lt;bw_break&gt;</t>
+  </si>
+  <si>
+    <t>&lt;pipipi_high&gt;「ホオオオオオゥー！
+　お宝ハッケン！　グレイト！
+　さぁ　その宝箱を　オープンしてくだサーイ！</t>
+  </si>
+  <si>
+    <t>&lt;pipipi_high&gt;Ohhhh! You found it! Amazing!!
+Now then, please open that treasure box!</t>
+  </si>
+  <si>
+    <t>取ることのできる　特別なアイテムが
+宝箱の中に　入っています！&lt;bw_break&gt;</t>
+  </si>
+  <si>
+    <t>&lt;color_yellow&gt;There are special items inside this treasure
+chest that only you are able to obtain!</t>
+  </si>
+  <si>
+    <t>Shovel (BAD STRING)</t>
+  </si>
+  <si>
+    <t>しばらくすれば　また写真が　用意されます。
+そのときは　手紙が届きますので
+岳都ガタラの　採掘ギルドに　行ってみましょう。</t>
+  </si>
+  <si>
+    <t>Please wait some time for the next Treasure
+Photo. You'll receive a letter in the mail once
+a new one becomes available.
+&lt;br&gt;
+Once it does, head to the Mining Guild in
+Gatara to receive it.</t>
+  </si>
+  <si>
+    <t>&lt;pipipi_high&gt;「ここに　お宝があるみたいデスね！
+　写真の持ち主に　教えて
+　掘り出してもらいまショー。</t>
+  </si>
+  <si>
+    <t>&lt;pipipi_high&gt;Looks like the treasure's right here!
+Tell the map's owner to come here and dig
+it on up!</t>
+  </si>
+  <si>
+    <t>&lt;pipipi_high&gt;「ジャスト　イット！　くちに広がる
+　ファンタスティックな　お宝のテイスト！
+　ズバーリ！　この辺りに　お宝が眠ってマス！&lt;bw_break&gt;</t>
+  </si>
+  <si>
+    <t>&lt;pipipi_high&gt;That's just it! Fantastic! I can just TASTE
+the treasure! It's nearby!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">　北のほうに　ありそうデスねー。</t>
+  </si>
+  <si>
+    <t>&lt;pipipi_high&gt;Seems to be somethin' north from here.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">　東のほうに　ありそうデスねー。</t>
+  </si>
+  <si>
+    <t>&lt;pipipi_high&gt;Seems to be somethin' east from here.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">　南のほうに　ありそうデスねー。</t>
+  </si>
+  <si>
+    <t>&lt;pipipi_high&gt;Seems to be somethin' south from here.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">　西のほうに　ありそうデスねー。</t>
+  </si>
+  <si>
+    <t>&lt;pipipi_high&gt;Seems to be somethin' west from here.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">　北東のほうに　ありそうデスねー。</t>
+  </si>
+  <si>
+    <t>&lt;pipipi_high&gt;Seems to be somethin' northeast from here.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">　北西のほうに　ありそうデスねー。</t>
+  </si>
+  <si>
+    <t>&lt;pipipi_high&gt;Seems to be somethin' northwest from here.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">　南東のほうに　ありそうデスねー。</t>
+  </si>
+  <si>
+    <t>&lt;pipipi_high&gt;Seems to be somethin' southeast from here.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">　南西のほうに　ありそうデスねー。</t>
+  </si>
+  <si>
+    <t>&lt;pipipi_high&gt;Seems to be somethin' southwest from here.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">　南のほうに　気配を感じマスよー。</t>
+  </si>
+  <si>
+    <t>&lt;pipipi_high&gt;I'm sensin' a presence to the south.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">　北のほうに　気配を感じマスよー。</t>
+  </si>
+  <si>
+    <t>&lt;pipipi_high&gt;I'm sensin' a presence to the north.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">　東のほうに　気配を感じマスよー。</t>
+  </si>
+  <si>
+    <t>&lt;pipipi_high&gt;I'm sensin' a presence to the east.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">　西のほうに　気配を感じマスよー。</t>
+  </si>
+  <si>
+    <t>&lt;pipipi_high&gt;I'm sensin' a presence to the west.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">　南東のほうに　気配を感じマスよー。</t>
+  </si>
+  <si>
+    <t>&lt;pipipi_high&gt;I'm sensin' a presence to the southeast.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">　南西のほうに　気配を感じマスよー。</t>
+  </si>
+  <si>
+    <t>&lt;pipipi_high&gt;I'm sensin' a presence to the southwest.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">　北西のほうに　気配を感じマスよー。</t>
+  </si>
+  <si>
+    <t>&lt;pipipi_high&gt;I'm sensin' a presence to the northwest.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">　北東のほうに　気配を感じマスよー。</t>
+  </si>
+  <si>
+    <t>&lt;pipipi_high&gt;I'm sensin' a presence to the northeast.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">　あとチョット　東のほうを　掘ってみまショ！</t>
+  </si>
+  <si>
+    <t>&lt;pipipi_high&gt;Try diggin' a little bit more to the east!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">　あとチョット　南東のほうを　掘ってみまショ！</t>
+  </si>
+  <si>
+    <t>&lt;pipipi_high&gt;Try diggin' a little bit more to the
+southeast!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">　あとチョット　南西のほうを　掘ってみまショ！</t>
+  </si>
+  <si>
+    <t>&lt;pipipi_high&gt;Try diggin' a little bit more to the
+southwest!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">　あとチョット　北のほうを　掘ってみまショ！</t>
+  </si>
+  <si>
+    <t>&lt;pipipi_high&gt;Try diggin' a little bit more to the north!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">　あとチョット　北西のほうを　掘ってみまショ！</t>
+  </si>
+  <si>
+    <t>&lt;pipipi_high&gt;Try diggin' a little bit more to the
+northwest!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">　あとチョット　北東のほうを　掘ってみまショ！</t>
+  </si>
+  <si>
+    <t>&lt;pipipi_high&gt;Try diggin' a little bit more to the
+northeast!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">　あとチョット　西のほうを　掘ってみまショ！</t>
+  </si>
+  <si>
+    <t>&lt;pipipi_high&gt;Try diggin' a little bit more to the west!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">　あとチョット　南のほうを　掘ってみまショ！</t>
+  </si>
+  <si>
+    <t>&lt;pipipi_high&gt;Try diggin' a little bit more to the south!</t>
   </si>
   <si>
     <t>メインコマンド『せんれき』の
@@ -11211,6 +11461,380 @@
         <v>668</v>
       </c>
     </row>
+    <row r="307">
+      <c r="A307" s="2" t="s">
+        <v>669</v>
+      </c>
+      <c r="C307" s="2" t="s">
+        <v>670</v>
+      </c>
+      <c r="D307" s="2" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" s="2" t="s">
+        <v>672</v>
+      </c>
+      <c r="C308" s="2" t="s">
+        <v>673</v>
+      </c>
+      <c r="D308" s="2" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" s="2" t="s">
+        <v>674</v>
+      </c>
+      <c r="C309" s="2" t="s">
+        <v>675</v>
+      </c>
+      <c r="D309" s="2" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" s="2" t="s">
+        <v>676</v>
+      </c>
+      <c r="C310" s="2" t="s">
+        <v>677</v>
+      </c>
+      <c r="D310" s="2" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" s="2" t="s">
+        <v>678</v>
+      </c>
+      <c r="C311" s="2" t="s">
+        <v>679</v>
+      </c>
+      <c r="D311" s="2" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" s="2" t="s">
+        <v>680</v>
+      </c>
+      <c r="C312" s="2" t="s">
+        <v>681</v>
+      </c>
+      <c r="D312" s="2" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" s="2" t="s">
+        <v>682</v>
+      </c>
+      <c r="C313" s="2" t="s">
+        <v>683</v>
+      </c>
+      <c r="D313" s="2" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" s="2" t="s">
+        <v>685</v>
+      </c>
+      <c r="C314" s="2" t="s">
+        <v>686</v>
+      </c>
+      <c r="D314" s="2" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" s="2" t="s">
+        <v>687</v>
+      </c>
+      <c r="C315" s="2" t="s">
+        <v>688</v>
+      </c>
+      <c r="D315" s="2" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" s="2" t="s">
+        <v>689</v>
+      </c>
+      <c r="C316" s="2" t="s">
+        <v>690</v>
+      </c>
+      <c r="D316" s="2" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" s="2" t="s">
+        <v>691</v>
+      </c>
+      <c r="C317" s="2" t="s">
+        <v>692</v>
+      </c>
+      <c r="D317" s="2" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" s="2" t="s">
+        <v>693</v>
+      </c>
+      <c r="C318" s="2" t="s">
+        <v>694</v>
+      </c>
+      <c r="D318" s="2" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" s="2" t="s">
+        <v>695</v>
+      </c>
+      <c r="C319" s="2" t="s">
+        <v>696</v>
+      </c>
+      <c r="D319" s="2" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" s="2" t="s">
+        <v>697</v>
+      </c>
+      <c r="C320" s="2" t="s">
+        <v>698</v>
+      </c>
+      <c r="D320" s="2" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" s="2" t="s">
+        <v>699</v>
+      </c>
+      <c r="C321" s="2" t="s">
+        <v>700</v>
+      </c>
+      <c r="D321" s="2" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" s="2" t="s">
+        <v>701</v>
+      </c>
+      <c r="C322" s="2" t="s">
+        <v>702</v>
+      </c>
+      <c r="D322" s="2" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" s="2" t="s">
+        <v>703</v>
+      </c>
+      <c r="C323" s="2" t="s">
+        <v>704</v>
+      </c>
+      <c r="D323" s="2" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" s="2" t="s">
+        <v>705</v>
+      </c>
+      <c r="C324" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="D324" s="2" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" s="2" t="s">
+        <v>707</v>
+      </c>
+      <c r="C325" s="2" t="s">
+        <v>708</v>
+      </c>
+      <c r="D325" s="2" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" s="2" t="s">
+        <v>709</v>
+      </c>
+      <c r="C326" s="2" t="s">
+        <v>710</v>
+      </c>
+      <c r="D326" s="2" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" s="2" t="s">
+        <v>711</v>
+      </c>
+      <c r="C327" s="2" t="s">
+        <v>712</v>
+      </c>
+      <c r="D327" s="2" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" s="2" t="s">
+        <v>713</v>
+      </c>
+      <c r="C328" s="2" t="s">
+        <v>714</v>
+      </c>
+      <c r="D328" s="2" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" s="2" t="s">
+        <v>715</v>
+      </c>
+      <c r="C329" s="2" t="s">
+        <v>716</v>
+      </c>
+      <c r="D329" s="2" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" s="2" t="s">
+        <v>717</v>
+      </c>
+      <c r="C330" s="2" t="s">
+        <v>718</v>
+      </c>
+      <c r="D330" s="2" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" s="2" t="s">
+        <v>719</v>
+      </c>
+      <c r="C331" s="2" t="s">
+        <v>720</v>
+      </c>
+      <c r="D331" s="2" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" s="2" t="s">
+        <v>721</v>
+      </c>
+      <c r="C332" s="2" t="s">
+        <v>722</v>
+      </c>
+      <c r="D332" s="2" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" s="2" t="s">
+        <v>723</v>
+      </c>
+      <c r="C333" s="2" t="s">
+        <v>724</v>
+      </c>
+      <c r="D333" s="2" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" s="2" t="s">
+        <v>725</v>
+      </c>
+      <c r="C334" s="2" t="s">
+        <v>726</v>
+      </c>
+      <c r="D334" s="2" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" s="2" t="s">
+        <v>727</v>
+      </c>
+      <c r="C335" s="2" t="s">
+        <v>728</v>
+      </c>
+      <c r="D335" s="2" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" s="2" t="s">
+        <v>729</v>
+      </c>
+      <c r="C336" s="2" t="s">
+        <v>730</v>
+      </c>
+      <c r="D336" s="2" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" s="2" t="s">
+        <v>731</v>
+      </c>
+      <c r="C337" s="2" t="s">
+        <v>732</v>
+      </c>
+      <c r="D337" s="2" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" s="2" t="s">
+        <v>733</v>
+      </c>
+      <c r="C338" s="2" t="s">
+        <v>734</v>
+      </c>
+      <c r="D338" s="2" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" s="2" t="s">
+        <v>735</v>
+      </c>
+      <c r="C339" s="2" t="s">
+        <v>736</v>
+      </c>
+      <c r="D339" s="2" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" s="2" t="s">
+        <v>737</v>
+      </c>
+      <c r="C340" s="2" t="s">
+        <v>738</v>
+      </c>
+      <c r="D340" s="2" t="s">
+        <v>684</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -11247,18 +11871,18 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>669</v>
+        <v>739</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>670</v>
+        <v>740</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>671</v>
+        <v>741</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>672</v>
+        <v>742</v>
       </c>
     </row>
   </sheetData>

--- a/csv/merge.xlsx
+++ b/csv/merge.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="989" uniqueCount="743">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="992" uniqueCount="746">
   <si>
     <t>JP Text (DO NOT CHANGE)</t>
   </si>
@@ -7805,6 +7805,30 @@
   </si>
   <si>
     <t>&lt;pipipi_high&gt;Try diggin' a little bit more to the south!</t>
+  </si>
+  <si>
+    <t>「武器鍛冶で　わからないことがあれば
+　なんでも　聞いてくれ。
+&lt;select&gt;
+どうすれば大成功になるの？
+何を作れば儲かるの？
+素材特性ってなに？
+会心で注意すべきことは？
+武器鍛冶のコツは？
+&lt;select_end&gt;&lt;break&gt;</t>
+  </si>
+  <si>
+    <t>Feel free to ask me any questions you might
+have about weaponsmithing.
+&lt;select&gt;
+How can I get a "Perfection"?
+What are material properties?
+What should I be aware of about critical hits?
+Do you have any weaponsmithing tips?
+&lt;select_end&gt;&lt;break&gt;</t>
+  </si>
+  <si>
+    <t>Weaponsmith in Craft Practice</t>
   </si>
   <si>
     <t>メインコマンド『せんれき』の
@@ -11835,6 +11859,17 @@
         <v>684</v>
       </c>
     </row>
+    <row r="341">
+      <c r="A341" s="2" t="s">
+        <v>739</v>
+      </c>
+      <c r="C341" s="2" t="s">
+        <v>740</v>
+      </c>
+      <c r="D341" s="2" t="s">
+        <v>741</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -11871,18 +11906,18 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>739</v>
+        <v>742</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>740</v>
+        <v>743</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>741</v>
+        <v>744</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>742</v>
+        <v>745</v>
       </c>
     </row>
   </sheetData>

--- a/csv/merge.xlsx
+++ b/csv/merge.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="992" uniqueCount="746">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1047" uniqueCount="787">
   <si>
     <t>JP Text (DO NOT CHANGE)</t>
   </si>
@@ -7829,6 +7829,249 @@
   </si>
   <si>
     <t>Weaponsmith in Craft Practice</t>
+  </si>
+  <si>
+    <t>「ウガァァ……　許さぬぅぅ！！　許さぬぞっ
+　アストルティアの民よ……！
+　欲深き者どもに　味方し　我を封じるとは……。
+&lt;br&gt;
+「冥王ネルゲルの呼びかけに　応え　冥府の淵より
+　蘇りしは　貴様らへの　憎しみゆえ……。
+　今こそ　この恨み　晴らしてくれよう！
+&lt;br&gt;
+「マアモォォォォオオオオオオオオン！！！！！</t>
+  </si>
+  <si>
+    <t>Ugggh...! I will not allow this! You people
+of Astoltia! You who sided with those who
+greedy insects and sealed me away...!
+&lt;br&gt;
+I have answered the call of Nergel from the
+depths of the underworld, because of my
+hatred of you...!
+&lt;br&gt;
+I will finally settle this grudge!
+BLUUUUUUUHH!!!</t>
+  </si>
+  <si>
+    <t>10th Anniversary Quest boss</t>
+  </si>
+  <si>
+    <t>蘇りし大怨霊マアモンは　消え去った……。</t>
+  </si>
+  <si>
+    <t>The Risen Grudge Sludge has vanished...</t>
+  </si>
+  <si>
+    <t>蘇りし大怨霊マアモンの　邪悪なチカラによって
+閉ざされていた道が　開かれたようだ。
+次は　妖魔の間を　目指そう。</t>
+  </si>
+  <si>
+    <t>The path that was sealed by the Risen Grudge
+Sludge's power has been opened. Head to the
+Ghost Room next.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">　あ・た・し。ジュリアンテよ。
+　冥王ネルゲルのチカラで　蘇ったの……。
+&lt;br&gt;
+「……お前さえ　いなければ
+　姉さんと　あたしの計画は　完璧だったわ。</t>
+  </si>
+  <si>
+    <t>Ohhh, it's you... it's been so long. It's me,
+Juliante. I've been resurrected with Nergel's
+power...
+&lt;br&gt;
+If it weren't for you, my sister and I
+would've gotten away with our perfect plan...
+It's time to punish this naughty child!</t>
+  </si>
+  <si>
+    <t>10th Anniversary Quest boss (BAD STRING)</t>
+  </si>
+  <si>
+    <t>蘇りし妖魔ジュリアンテは　消え去った……。</t>
+  </si>
+  <si>
+    <t>The Risen Mystical Juliante has vanished...</t>
+  </si>
+  <si>
+    <t>蘇りし妖魔ジュリアンテの　邪悪なチカラによって
+閉ざされていた道が　開かれたようだ。
+次は　魔軍師の広場を　目指そう。</t>
+  </si>
+  <si>
+    <t>The path that was sealed by the Risen Mystical
+Juliante's power has been opened. Head to the
+Sorceror Square next.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">　貴様さえ　いなければ　プクランド大陸は
+　魔瘴で滅び　王家の血は　途絶えたのだ……。
+&lt;br&gt;
+「覚悟するがいい　虫ケラよ……！
+　冥王ネルゲルにより　蘇った　この私が
+　貴様を倒し　今度こそ　かの地を滅ぼしてやる！</t>
+  </si>
+  <si>
+    <t>Curse you... if it were not for you, Pukuland
+would have been destroyed by miasma, and the
+royal bloodline forever severed...
+&lt;br&gt;
+Prepare yourself, you insects! I have been
+resurrected by the great Nergel and shall
+defeat you and destroy that land!</t>
+  </si>
+  <si>
+    <t>蘇りし魔軍師イッドは　消え去った……。</t>
+  </si>
+  <si>
+    <t>The Risen Tactician Id has vanished...</t>
+  </si>
+  <si>
+    <t>蘇りし魔軍師イッドの　邪悪なチカラによって
+閉ざされていた道が　開かれたようだ。
+次は　怪蟲の広場を　目指そう。</t>
+  </si>
+  <si>
+    <t>The path that was sealed by the Risen
+Tactician Id's power has been opened.
+Head to the Insect Square next.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">　いまいましい　白き者と　ともに
+　我が望みを　つぶした　お前をね……。
+&lt;br&gt;
+「冥王ネルゲルの　恩寵により　私は　蘇った！
+　……ゆえに　私も　お前に
+　名誉ある死を　与えてやろう！！
+&lt;br&gt;
+「さあ　チカラのかぎり　泣き叫ぶがよい！
+　こたびは　白き者の手助けは　ないぞ……。
+　お前の悲鳴が　我が復活の　産声となるのだ！</t>
+  </si>
+  <si>
+    <t>I've been waiting for you... you who had
+crushed my dream along with the White
+One...
+&lt;br&gt;
+By the grace of the Netherlord Nergel, I
+have risen once again! I too shall give you
+an honorable death!
+&lt;br&gt;
+Now, scream with all your might! The White One
+is not here to help you this time... your screams
+shall be the catalyst in my resurrection!</t>
+  </si>
+  <si>
+    <t>蘇りし怪蟲アラグネは　消え去った……。</t>
+  </si>
+  <si>
+    <t>The Risen Arianad vanished...</t>
+  </si>
+  <si>
+    <t>蘇りし怪蟲アラグネの　邪悪なチカラによって
+閉ざされていた道が　開かれたようだ。
+次は　暴君の広場を　目指そう。</t>
+  </si>
+  <si>
+    <t>The path that was sealed by the Risen
+Arianad's power has been opened.
+Head to the Tyrant Square next.</t>
+  </si>
+  <si>
+    <t>&lt;icon_exc&gt;「き　貴様っ！
+　盗み聞きとは　ひきょうなりっ！</t>
+  </si>
+  <si>
+    <t>&lt;icon_exc&gt;H-hey! It's not right to eavesdrop!</t>
+  </si>
+  <si>
+    <t>10th Anniversary Quest Reidametes NPC</t>
+  </si>
+  <si>
+    <t>「冥王ネルゲルの　呼びかけに応え
+　我は　うぬを倒すため　蘇った……！
+&lt;br&gt;
+「世界を滅ぼす者たる
+　我　暴君バサグランデの　恐ろしさを
+　今こそ　思い知るがよいわ！</t>
+  </si>
+  <si>
+    <t>GRAAAAAGHHH!! I HATE YOU... I HATE YOU...
+CLEVER SEAL MAIDEN... AND YOU!!
+&lt;br&gt;
+I HAVE ANSWERED THE CALL OF NETHERLORD
+NERGEL AND HAVE RISEN ONCE MORE TO
+DEFEAT YOU!
+&lt;br&gt;
+YOU SHALL KNOW THE HORROR OF THE TYRANT
+BOGAN, THE DESTROYER OF WORLDS!!</t>
+  </si>
+  <si>
+    <t>蘇りし暴君バサグランデは　消え去った……。</t>
+  </si>
+  <si>
+    <t>The Risen Tyrant Bogan has vanished...</t>
+  </si>
+  <si>
+    <t>蘇りし暴君バサグランデの　邪悪なチカラによって
+閉ざされていた道が　開かれたようだ。
+すべての　閉ざされていた道が　開放された。
+&lt;br&gt;
+これで　蘇りし大祭壇の間へ
+行けるようになった。
+待ち受ける　蘇りし冥王ネルゲルを　倒そう。</t>
+  </si>
+  <si>
+    <t>The path that was sealed by the Risen
+Tyrant Bogan has been opened. With that,
+all of the sealed paths have been opened.
+&lt;br&gt;
+Make your way to the Restored Great Altar,
+to put a stop to the revived Netherlord
+Nergel once and for all!</t>
+  </si>
+  <si>
+    <t>「オオオォ　憎い……憎いぞ……。
+　生命ある者の　すべてが　憎い……。
+&lt;br&gt;
+「冥王ネルゲル様が　アストルティアを滅ぼし
+　生命ある者が　みな　死に絶えたるまで
+　この　憎しみは　消え去らぬ……。</t>
+  </si>
+  <si>
+    <t>Ooohhh... I hate... I hate everything...
+I hate everything that lives and breathes...
+&lt;br&gt;
+Until the Netherlord destroys all life on
+Astoltia, this hatred will never disappear...</t>
+  </si>
+  <si>
+    <t>「……フフフ…フフフフ……。
+　私たちは　この神殿に
+　みずから望んで　囚われているのだ……。
+&lt;br&gt;
+「冥王ネルゲル様に　我が魂を　捧げ
+　あの方の　チカラとなるために……。</t>
+  </si>
+  <si>
+    <t>Heh heh... Heheheheh...
+We are trapped in this temple because we
+have willed it.
+&lt;br&gt;
+I offer my soul to the Netherlord, and shall
+be his power...</t>
+  </si>
+  <si>
+    <t>「この　らせん階段を上った先…… 
+　宝箱が　あったような……？</t>
+  </si>
+  <si>
+    <t>Wasn't there a treasure chest at the top of
+these spiral stairs...?</t>
   </si>
   <si>
     <t>メインコマンド『せんれき』の
@@ -11734,9 +11977,7 @@
       <c r="C329" s="2" t="s">
         <v>716</v>
       </c>
-      <c r="D329" s="2" t="s">
-        <v>684</v>
-      </c>
+      <c r="D329" s="2"/>
     </row>
     <row r="330">
       <c r="A330" s="2" t="s">
@@ -11868,6 +12109,213 @@
       </c>
       <c r="D341" s="2" t="s">
         <v>741</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" s="2" t="s">
+        <v>742</v>
+      </c>
+      <c r="C342" s="2" t="s">
+        <v>743</v>
+      </c>
+      <c r="D342" s="2" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" s="2" t="s">
+        <v>745</v>
+      </c>
+      <c r="C343" s="2" t="s">
+        <v>746</v>
+      </c>
+      <c r="D343" s="2" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" s="2" t="s">
+        <v>747</v>
+      </c>
+      <c r="C344" s="2" t="s">
+        <v>748</v>
+      </c>
+      <c r="D344" s="2" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" s="2" t="s">
+        <v>749</v>
+      </c>
+      <c r="C345" s="2" t="s">
+        <v>750</v>
+      </c>
+      <c r="D345" s="2" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" s="2" t="s">
+        <v>752</v>
+      </c>
+      <c r="C346" s="2" t="s">
+        <v>753</v>
+      </c>
+      <c r="D346" s="2" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" s="2" t="s">
+        <v>754</v>
+      </c>
+      <c r="C347" s="2" t="s">
+        <v>755</v>
+      </c>
+      <c r="D347" s="2" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" s="2" t="s">
+        <v>756</v>
+      </c>
+      <c r="C348" s="2" t="s">
+        <v>757</v>
+      </c>
+      <c r="D348" s="2" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" s="2" t="s">
+        <v>758</v>
+      </c>
+      <c r="C349" s="2" t="s">
+        <v>759</v>
+      </c>
+      <c r="D349" s="2" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" s="2" t="s">
+        <v>760</v>
+      </c>
+      <c r="C350" s="2" t="s">
+        <v>761</v>
+      </c>
+      <c r="D350" s="2" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" s="2" t="s">
+        <v>762</v>
+      </c>
+      <c r="C351" s="2" t="s">
+        <v>763</v>
+      </c>
+      <c r="D351" s="2" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" s="2" t="s">
+        <v>764</v>
+      </c>
+      <c r="C352" s="2" t="s">
+        <v>765</v>
+      </c>
+      <c r="D352" s="2" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" s="2" t="s">
+        <v>766</v>
+      </c>
+      <c r="C353" s="2" t="s">
+        <v>767</v>
+      </c>
+      <c r="D353" s="2"/>
+    </row>
+    <row r="354">
+      <c r="A354" s="2" t="s">
+        <v>768</v>
+      </c>
+      <c r="C354" s="2" t="s">
+        <v>769</v>
+      </c>
+      <c r="D354" s="2" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" s="2" t="s">
+        <v>771</v>
+      </c>
+      <c r="C355" s="2" t="s">
+        <v>772</v>
+      </c>
+      <c r="D355" s="2" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" s="2" t="s">
+        <v>773</v>
+      </c>
+      <c r="C356" s="2" t="s">
+        <v>774</v>
+      </c>
+      <c r="D356" s="2" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" s="2" t="s">
+        <v>775</v>
+      </c>
+      <c r="C357" s="2" t="s">
+        <v>776</v>
+      </c>
+      <c r="D357" s="2" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" s="2" t="s">
+        <v>777</v>
+      </c>
+      <c r="C358" s="2" t="s">
+        <v>778</v>
+      </c>
+      <c r="D358" s="2" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" s="2" t="s">
+        <v>779</v>
+      </c>
+      <c r="C359" s="2" t="s">
+        <v>780</v>
+      </c>
+      <c r="D359" s="2" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" s="2" t="s">
+        <v>781</v>
+      </c>
+      <c r="C360" s="2" t="s">
+        <v>782</v>
+      </c>
+      <c r="D360" s="2" t="s">
+        <v>770</v>
       </c>
     </row>
   </sheetData>
@@ -11906,18 +12354,18 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>742</v>
+        <v>783</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>743</v>
+        <v>784</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>744</v>
+        <v>785</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>745</v>
+        <v>786</v>
       </c>
     </row>
   </sheetData>

--- a/csv/merge.xlsx
+++ b/csv/merge.xlsx
@@ -7843,7 +7843,7 @@
   </si>
   <si>
     <t>Ugggh...! I will not allow this! You people
-of Astoltia! You who sided with those who
+of Astoltia! You who sided with those
 greedy insects and sealed me away...!
 &lt;br&gt;
 I have answered the call of Nergel from the

--- a/csv/merge.xlsx
+++ b/csv/merge.xlsx
@@ -7962,8 +7962,10 @@
 an honorable death!
 &lt;br&gt;
 Now, scream with all your might! The White One
-is not here to help you this time... your screams
-shall be the catalyst in my resurrection!</t>
+is not here to help you this time... your
+screams shall be the catalyst in my
+&lt;br&gt;
+resurrection!</t>
   </si>
   <si>
     <t>蘇りし怪蟲アラグネは　消え去った……。</t>

--- a/csv/merge.xlsx
+++ b/csv/merge.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1047" uniqueCount="787">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="795">
   <si>
     <t>JP Text (DO NOT CHANGE)</t>
   </si>
@@ -8074,6 +8074,38 @@
   <si>
     <t>Wasn't there a treasure chest at the top of
 these spiral stairs...?</t>
+  </si>
+  <si>
+    <t>ブレイブストーンをかざして
+偽りのレンダーシアへ　飛びますか？&lt;yesno&gt;&lt;close&gt;</t>
+  </si>
+  <si>
+    <t>Use the Brave Stone to travel to
+False Lendersia?&lt;yesno&gt;&lt;close&gt;</t>
+  </si>
+  <si>
+    <t>Brave Stone</t>
+  </si>
+  <si>
+    <t>ブレイブストーンをかざして
+真のレンダーシアへ　飛びますか？&lt;yesno&gt;&lt;close&gt;</t>
+  </si>
+  <si>
+    <t>Use the Brave Stone to travel to
+True Lendersia?&lt;yesno&gt;&lt;close&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">　すべてのスキルで
+スキルポイントを　２０Ｐかくとく！
+&lt;color_yellow&gt;スキルふりわけ画面で　確認しましょう。 &lt;color_white&gt;&lt;me 71&gt;&lt;bw_break&gt;</t>
+  </si>
+  <si>
+    <t>Received 20 skill points in all of your skill
+lines!
+&lt;color_yellow&gt;Check the "Skill Points" screen.&lt;color_white&gt;&lt;me 71&gt;&lt;bw_break&gt;</t>
+  </si>
+  <si>
+    <t>Skill point message (BAD STRING)</t>
   </si>
   <si>
     <t>メインコマンド『せんれき』の
@@ -12320,6 +12352,39 @@
         <v>770</v>
       </c>
     </row>
+    <row r="361">
+      <c r="A361" s="2" t="s">
+        <v>783</v>
+      </c>
+      <c r="C361" s="2" t="s">
+        <v>784</v>
+      </c>
+      <c r="D361" s="2" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" s="2" t="s">
+        <v>786</v>
+      </c>
+      <c r="C362" s="2" t="s">
+        <v>787</v>
+      </c>
+      <c r="D362" s="2" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" s="2" t="s">
+        <v>788</v>
+      </c>
+      <c r="C363" s="2" t="s">
+        <v>789</v>
+      </c>
+      <c r="D363" s="2" t="s">
+        <v>790</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -12356,18 +12421,18 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>783</v>
+        <v>791</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>784</v>
+        <v>792</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>785</v>
+        <v>793</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>786</v>
+        <v>794</v>
       </c>
     </row>
   </sheetData>

--- a/csv/merge.xlsx
+++ b/csv/merge.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="795">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1062" uniqueCount="801">
   <si>
     <t>JP Text (DO NOT CHANGE)</t>
   </si>
@@ -8106,6 +8106,36 @@
   </si>
   <si>
     <t>Skill point message (BAD STRING)</t>
+  </si>
+  <si>
+    <t>貴重なアイテムが　収集品に残っています。
+収集品を　うけとってください。</t>
+  </si>
+  <si>
+    <t>There are items left in your stock. Please
+receive them first.</t>
+  </si>
+  <si>
+    <t>Panigalm message</t>
+  </si>
+  <si>
+    <t>&lt;attr&gt;&lt;feel_happy_lv3&gt;&lt;end_attr&gt;「おう！　ちょうどいいところに　来たな！
+&lt;br&gt;
+「とにもかくにも　まずは　あいさつだ！
+　チャットの『まわりに』で　クリスマスを祝う
+　あの言葉を　言ってくれるよな？</t>
+  </si>
+  <si>
+    <t>&lt;attr&gt;&lt;feel_happy_lv3&gt;&lt;end_attr&gt;Oh! I'm glad you came! First things first.
+I want you to say those special words to
+celebrate Christmas in nearby chat!
+&lt;br&gt;
+Can you do that for me?
+(Say メリクリスマス in nearby chat in front
+of the Holy Messenger.)</t>
+  </si>
+  <si>
+    <t>Holy Messenger quest chat phrase</t>
   </si>
   <si>
     <t>メインコマンド『せんれき』の
@@ -12385,6 +12415,28 @@
         <v>790</v>
       </c>
     </row>
+    <row r="364">
+      <c r="A364" s="2" t="s">
+        <v>791</v>
+      </c>
+      <c r="C364" s="2" t="s">
+        <v>792</v>
+      </c>
+      <c r="D364" s="2" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" s="2" t="s">
+        <v>794</v>
+      </c>
+      <c r="C365" s="2" t="s">
+        <v>795</v>
+      </c>
+      <c r="D365" s="2" t="s">
+        <v>796</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -12421,18 +12473,18 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>791</v>
+        <v>797</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>792</v>
+        <v>798</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>793</v>
+        <v>799</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>794</v>
+        <v>800</v>
       </c>
     </row>
   </sheetData>

--- a/csv/merge.xlsx
+++ b/csv/merge.xlsx
@@ -8131,8 +8131,8 @@
 celebrate Christmas in nearby chat!
 &lt;br&gt;
 Can you do that for me?
-(Say メリクリスマス in nearby chat in front
-of the Holy Messenger.)</t>
+(Say メリークリスマス in nearby chat in
+front of the Holy Messenger.)</t>
   </si>
   <si>
     <t>Holy Messenger quest chat phrase</t>

--- a/csv/merge.xlsx
+++ b/csv/merge.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1062" uniqueCount="801">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1089" uniqueCount="819">
   <si>
     <t>JP Text (DO NOT CHANGE)</t>
   </si>
@@ -1105,94 +1105,7 @@
 　行くよっ！！&lt;bw_break&gt;</t>
   </si>
   <si>
-    <t>&lt;attr&gt;&lt;feel_angry_lv3&gt;&lt;end_attr&gt;Okay, time to fly!&lt;wait=300&gt;Let's go!&lt;bw_break&gt;</t>
-  </si>
-  <si>
-    <t>『栄光のゼクレス王家』という本だ。
-&lt;br&gt;
-魔界最古の血統を誇る　ゼクレス王家。
-その栄光の歴史は　英明なる名君たちによる
-輝かしい活躍に　彩られている。
-&lt;br&gt;
-ゼクレス建国王　ワラキウスは
-魔界東部を荒らしていた　激昂の巨人を
-自身の魔術で封印し　ここに国を打ち建てた。
-&lt;br&gt;
-ワラキウスは　世に冠絶した魔道の技で
-のちに大魔王にまで登りつめ　繁栄をもたらした。
-その才は　今も　彼の血筋に受け継がれている。
-&lt;br&gt;
-第七代ゼクレス王　ジグネールは
-ワラキウスの再来と呼ばれ　その器量は
-偉大なる始祖に　勝るとも劣らないものだった。
-&lt;br&gt;
-実際　大魔王選定の試練すら　悠々と攻略したが
-生来の病身には勝てず　山頂で急死をとげた。
-悲運の王と　呼ばれるゆえんである。
-&lt;br&gt;
-第十四代ゼクレス王　バルメシュケは
-混沌の魔術王の　ふたつ名で知られ
-ことに　人心をあやつる術を　得意とした。
-&lt;br&gt;
-多くの魔物や下等魔族を　実験台にしながら
-魔術の秘奥を極め　その発展に寄与し
-ゼクレス王家でふたり目の　大魔王になった。
-&lt;br&gt;
-以来　ゼクレス王家から　大魔王となった者は
-今日まで　現れていないが　代々の魔王たちは
-いずれ劣らぬ　魔術の達人ぞろいである。
-&lt;br&gt;
-偉大なるワラキウスの血を引く者に　栄光あれ。
-いつの日か　偉大なるゼクレスの紋章旗が
-魔界全土でひるがえる日の　来たらんことを。</t>
-  </si>
-  <si>
-    <t>It's a book titled "The Glory of the Zechres
-Royal Family".
-&lt;br&gt;
-The Zechres Royal Family boasts the oldest
-bloodline in the demon world, and its glorious
-history is painted by wise and famous rulers.
-&lt;br&gt;
-Warachius, Zechres' founding king, sealed away
-the raging titans that ravaged the eastern
-demon world, and established a kingdom here.
-&lt;br&gt;
-Warachius' renowned magical skills brought
-prosperity as he rose to be the Great Demon
-King. That talent still runs in his blood.
-&lt;br&gt;
-Zignel, Zechres' 7th king, was known as
-the second coming of Warachius. His skills
-matched that of the great founder himself.
-&lt;br&gt;
-He was able to conquer the test of selecting
-the next Great Demon King with ease. However,
-he could not overcome his natural illness, and
-&lt;br&gt;
-died suddenly at the mountain's summit. From
-then on, he was known as the "Tragic King".
-&lt;br&gt;
-Zechres' 14th king, Balmeschke, was known by
-the name "Chaotic Sorceror King". He had great
-skill in the manipulation of people's minds.
-&lt;br&gt;
-He experimented on monsters and even demons
-of lower status, and while doing so mastered
-the secrets of magic and contributed to its
-&lt;br&gt;
-development, eventually becoming the second
-Great Demon King of the Zechres Royal Family.
-&lt;br&gt;
-Since then, no one from the Zechres Royal
-Family has become a Great Demon King to
-this day. However, the Demon Kings' of each
-&lt;br&gt;
-generation still possess a mastery over magic.
-&lt;br&gt;
-Glory be to the blood of the Great Warachius.
-May the banner of the Great Zechres one day
-flutter over the entire demon world!</t>
+    <t>&lt;attr&gt;&lt;feel_angry_lv3&gt;&lt;end_attr&gt;Okay, time to fly!&lt;wait=300&gt; Let's go!&lt;bw_break&gt;</t>
   </si>
   <si>
     <t>追憶のキャンバスが　浮いている……。
@@ -1260,25 +1173,6 @@
 &lt;case_cancel&gt;
 &lt;break&gt;
 &lt;case_end&gt;&lt;br&gt;</t>
-  </si>
-  <si>
-    <t>So, what do you want from me?
-&lt;select&gt;
-Ask to Paint
-View Accomplishments
-View Rewards
-Explanation&lt;select_end&gt;
-&lt;case 1&gt;
-&lt;break&gt;
-&lt;case 2&gt;
-&lt;break&gt;
-&lt;case 3&gt;
-&lt;break&gt;
-&lt;case 4&gt;
-&lt;break&gt;
-&lt;case_cancel&gt;
-&lt;break&gt;
-&lt;case_end&gt;</t>
   </si>
   <si>
     <t>&lt;speed=0&gt;ここでは　七夕の短冊を使って願い事を書いたり
@@ -8136,6 +8030,140 @@
   </si>
   <si>
     <t>Holy Messenger quest chat phrase</t>
+  </si>
+  <si>
+    <t>&lt;center&gt;『炎の民　オーガ』
+厳しい荒野で　チカラ強く生きる
+大きな身体に　ツノと尻尾を持った者たち。
+&lt;br&gt;
+好戦的で　強き者を尊んだ彼らは
+抜きんでた　強いチカラと体力で
+弱き者や仲間のために　命をかけて戦った。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            "Ogres, People of Fire"
+     They live strong in the harsh lands,
+         with large bodies, horns and
+&lt;br&gt;
+         tails. They are belligerent,
+       respect the strong and use their
+       superior strength and stamina to
+&lt;br&gt;
+        risk their lives for the weak.</t>
+  </si>
+  <si>
+    <t>Race selection</t>
+  </si>
+  <si>
+    <t>オーガとして　生まれ変わりますか？&lt;yesno&gt;&lt;close&gt;</t>
+  </si>
+  <si>
+    <t>Be reborn as an Ogre?&lt;yesno&gt;&lt;close&gt;</t>
+  </si>
+  <si>
+    <t>&lt;center&gt;『花の民　プクリポ』
+絵本のような色彩の町で　楽しさを求めて生きる
+ふわふわと愛らしい　小さな身体の者たち。
+&lt;br&gt;
+強い魔力と　器用さを生まれ持つ彼らは
+戦いより　ものを作りだすことより
+楽しさを生みだすことに　情熱をかたむけた。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        "Pukulipo, People of Flowers"
+     In a town with colors like a picture
+       book, they have fluffy, adorable
+&lt;br&gt;
+    little bodies living in search of fun.
+      Born with strong magical power and
+           dexterity, they are more
+&lt;br&gt;
+       passionate about creating things
+          for fun than for fighting.</t>
+  </si>
+  <si>
+    <t>プクリポとして　生まれ変わりますか？&lt;yesno&gt;&lt;close&gt;</t>
+  </si>
+  <si>
+    <t>Be reborn as a Pukulipo?&lt;yesno&gt;&lt;close&gt;</t>
+  </si>
+  <si>
+    <t>&lt;center&gt;『風の民　エルフ』
+自然を愛し　森と共に生きる
+背に小さな羽を持った　かれんな姿の者たち。
+&lt;br&gt;
+伝統と格式を重んじる彼らは
+世界の理を　深く学び
+多くの優れた呪文の使い手を　世に送りだした。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            "Elves, People of Wind"
+        They are beautiful people with
+         wings on their back who love
+&lt;br&gt;
+       nature and live with the forest.
+    They value tradition, studied the ways
+          of the world, and produced
+&lt;br&gt;
+         many excellent spellcasters.</t>
+  </si>
+  <si>
+    <t>エルフとして　生まれ変わりますか？&lt;yesno&gt;&lt;close&gt;</t>
+  </si>
+  <si>
+    <t>Be reborn as an Elf?&lt;yesno&gt;&lt;close&gt;</t>
+  </si>
+  <si>
+    <t>&lt;center&gt;『地の民　ドワーフ』
+雄大な山々に恩恵を受け　大地と共に生きる
+小さな身体に　大きな耳を持った者たち。
+&lt;br&gt;
+高い技術力と　強い欲望を持つ彼らは
+持ち前の　器用さと素早さで
+いくつもの高度な文明を　築き上げた。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          "Dwarves, People of Earth"
+     They live with the earth, blessed by
+      the majestic mountains, with small
+&lt;br&gt;
+     bodies and big ears. With their high
+        technology and strong desires,
+    they built many advanced civilizations
+&lt;br&gt;
+     with their pure dexterity and speed.</t>
+  </si>
+  <si>
+    <t>ドワーフとして　生まれ変わりますか？&lt;yesno&gt;&lt;close&gt;</t>
+  </si>
+  <si>
+    <t>Be reborn as a Dwarf?&lt;yesno&gt;&lt;close&gt;</t>
+  </si>
+  <si>
+    <t>&lt;center&gt;『水の民　ウェディ』
+海に浮かぶ美しい島々で　自由に生きる
+青き水面のような色の　身体を持つ者たち。
+&lt;br&gt;
+束縛を嫌い　歌と恋を大切にする彼らは
+速さと　強さという特性を生かして
+愛する者を守る時にだけ　本気で戦った。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          "Weddie, People of Water"
+   They live freely on beautiful islands in
+    the sea and their bodies are blue like
+&lt;br&gt;
+    water. They hate constraints and value
+    singing and love. They use their speed
+     and strength to fight only when they
+&lt;br&gt;
+       have to protect those they love.</t>
+  </si>
+  <si>
+    <t>ウェディとして　生まれ変わりますか？&lt;yesno&gt;&lt;close&gt;</t>
+  </si>
+  <si>
+    <t>Be reborn as a Weddie?&lt;yesno&gt;&lt;close&gt;</t>
   </si>
   <si>
     <t>メインコマンド『せんれき』の
@@ -9150,390 +9178,384 @@
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>139</v>
-      </c>
+      <c r="A65" s="2"/>
+      <c r="C65" s="2"/>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>145</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="C68" s="2"/>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="5" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B101" s="4"/>
       <c r="C101" s="3" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D101" s="5" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="E101" s="4"/>
       <c r="F101" s="4"/>
@@ -9560,2880 +9582,2990 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="C163" s="7" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="2" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="2" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="2" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="2" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="2" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="2" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="2" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="2" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="2" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="2" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="C217" s="2" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="2" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="2" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="2" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="D220" s="2" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="2" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="C221" s="2" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="2" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="D222" s="2" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="2" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="2" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="C225" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="D225" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="E225" s="2" t="s">
         <v>485</v>
-      </c>
-      <c r="C225" s="2" t="s">
-        <v>486</v>
-      </c>
-      <c r="D225" s="2" t="s">
-        <v>487</v>
-      </c>
-      <c r="E225" s="2" t="s">
-        <v>488</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="2" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="C226" s="2" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="D226" s="2" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="2" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="C227" s="2" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="D227" s="2" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="2" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="C228" s="2" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="D228" s="2" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="2" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="C229" s="2" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="D229" s="2" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="2" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="C230" s="2" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="D230" s="2" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="2" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="C231" s="2" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="D231" s="2" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="2" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="C232" s="2" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="D232" s="2" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="2" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="C233" s="2" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="D233" s="2" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="2" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="C234" s="2" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="D234" s="2" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="2" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="C235" s="2" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="D235" s="2" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="2" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="C236" s="2" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="D236" s="2" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="2" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="C237" s="2" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="D237" s="2" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="2" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="C238" s="2" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="D238" s="2" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="2" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="C239" s="2" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="D239" s="2" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="2" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="C240" s="2" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="D240" s="2" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="2" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="C241" s="2" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="D241" s="2" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="2" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="C242" s="2" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="D242" s="2" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="2" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="C243" s="2" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="D243" s="2" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="2" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="C244" s="2" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="D244" s="2" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="2" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="C245" s="2" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="D245" s="2" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="2" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="C246" s="2" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="D246" s="2" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="2" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="C247" s="2" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="D247" s="2" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="2" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="C248" s="2" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="D248" s="2" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="2" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="C249" s="2" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="D249" s="2" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="2" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="C250" s="2" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="D250" s="2" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="2" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="C251" s="2" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="D251" s="2" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="2" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="C252" s="2" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="D252" s="2" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="2" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="C253" s="2" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="D253" s="2" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="2" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="C254" s="2" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="D254" s="2" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="2" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="C255" s="2" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="D255" s="2" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="2" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="C256" s="2" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="D256" s="2" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="2" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="C257" s="2" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="D257" s="2" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="2" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="C258" s="2" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="D258" s="2" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" s="2" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="C259" s="2" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="D259" s="2" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="2" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="C260" s="2" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="D260" s="2" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="2" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="C261" s="2" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="D261" s="2" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="2" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="C262" s="2" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="D262" s="2" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="2" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="C263" s="2" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="D263" s="2" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="2" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="C264" s="2" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="D264" s="2" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="2" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="C265" s="2" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="D265" s="2" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="2" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="C266" s="2" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="D266" s="2" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" s="2" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="C267" s="2" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="D267" s="2" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" s="2" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="C268" s="2" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="D268" s="2" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="2" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="C269" s="2" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="D269" s="2" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" s="2" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="C270" s="2" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="D270" s="2" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" s="2" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="C271" s="2" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="D271" s="2" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" s="2" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="C272" s="2" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="D272" s="2" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" s="2" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="C273" s="2" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="D273" s="2" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" s="2" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="C274" s="2" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="D274" s="2" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" s="2" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="C275" s="2" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="D275" s="2" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" s="2" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="C276" s="2" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="D276" s="2" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" s="2" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="C277" s="2" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="D277" s="2" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" s="2" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="C278" s="2" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="D278" s="2" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" s="2" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="C279" s="2" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="D279" s="2" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" s="2" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="C280" s="2" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="D280" s="2" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" s="2" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="C281" s="2" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="D281" s="2" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" s="2" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="C282" s="2" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="D282" s="2" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" s="2" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="C283" s="2" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="D283" s="2" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" s="2" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="C284" s="2" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="D284" s="2" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" s="2" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="C285" s="2" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="D285" s="2" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" s="2" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="C286" s="2" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="D286" s="2" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" s="2" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="C287" s="2" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="D287" s="2" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" s="2" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="C288" s="2" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="D288" s="2" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" s="2" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="C289" s="2" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="D289" s="2" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" s="2" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="C290" s="2" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="D290" s="2" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" s="2" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="C291" s="2" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="D291" s="2" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" s="2" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="C292" s="2" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="D292" s="2" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" s="2" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="C293" s="2" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="D293" s="2" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" s="2" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="C294" s="2" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="D294" s="2" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" s="2" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="C295" s="2" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="D295" s="2" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" s="2" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="C296" s="2" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="D296" s="2" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" s="2" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="C297" s="2" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="D297" s="2" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" s="2" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="C298" s="2" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="D298" s="2" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" s="2" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="C299" s="2" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="D299" s="2" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" s="2" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="C300" s="2" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="D300" s="2" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" s="2" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="C301" s="2" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="D301" s="2" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" s="2" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="C302" s="2" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="D302" s="2" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" s="2" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="C303" s="2" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="D303" s="2" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" s="2" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="C304" s="2" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="D304" s="2" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" s="2" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="C305" s="2" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="D305" s="2" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" s="2" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="C306" s="2" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="D306" s="2" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" s="2" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="C307" s="2" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="D307" s="2" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" s="2" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="C308" s="2" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="D308" s="2" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" s="2" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="C309" s="2" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="D309" s="2" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" s="2" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="C310" s="2" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="D310" s="2" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" s="2" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="C311" s="2" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="D311" s="2" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" s="2" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="C312" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="D312" s="2" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" s="2" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="C313" s="2" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="D313" s="2" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" s="2" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="C314" s="2" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="D314" s="2" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" s="2" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="C315" s="2" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="D315" s="2" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" s="2" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="C316" s="2" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="D316" s="2" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" s="2" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="C317" s="2" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="D317" s="2" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" s="2" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="C318" s="2" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="D318" s="2" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" s="2" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="C319" s="2" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="D319" s="2" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" s="2" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="C320" s="2" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="D320" s="2" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" s="2" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="C321" s="2" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="D321" s="2" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" s="2" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="C322" s="2" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="D322" s="2" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" s="2" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="C323" s="2" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="D323" s="2" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" s="2" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="C324" s="2" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="D324" s="2" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" s="2" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="C325" s="2" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="D325" s="2" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" s="2" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="C326" s="2" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="D326" s="2" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" s="2" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="C327" s="2" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="D327" s="2" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" s="2" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="C328" s="2" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="D328" s="2" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" s="2" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="C329" s="2" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="D329" s="2"/>
     </row>
     <row r="330">
       <c r="A330" s="2" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="C330" s="2" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="D330" s="2" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" s="2" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="C331" s="2" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="D331" s="2" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" s="2" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="C332" s="2" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="D332" s="2" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" s="2" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="C333" s="2" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="D333" s="2" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" s="2" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="C334" s="2" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="D334" s="2" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" s="2" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="C335" s="2" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="D335" s="2" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" s="2" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="C336" s="2" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="D336" s="2" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" s="2" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="C337" s="2" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="D337" s="2" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" s="2" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
       <c r="C338" s="2" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="D338" s="2" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" s="2" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
       <c r="C339" s="2" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="D339" s="2" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" s="2" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="C340" s="2" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="D340" s="2" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" s="2" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="C341" s="2" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="D341" s="2" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" s="2" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
       <c r="C342" s="2" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="D342" s="2" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" s="2" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
       <c r="C343" s="2" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="D343" s="2" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" s="2" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="C344" s="2" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="D344" s="2" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" s="2" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="C345" s="2" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="D345" s="2" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" s="2" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="C346" s="2" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="D346" s="2" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" s="2" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="C347" s="2" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="D347" s="2" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" s="2" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="C348" s="2" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
       <c r="D348" s="2" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" s="2" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="C349" s="2" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="D349" s="2" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" s="2" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="C350" s="2" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="D350" s="2" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" s="2" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="C351" s="2" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="D351" s="2" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" s="2" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
       <c r="C352" s="2" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
       <c r="D352" s="2" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" s="2" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
       <c r="C353" s="2" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
       <c r="D353" s="2"/>
     </row>
     <row r="354">
       <c r="A354" s="2" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
       <c r="C354" s="2" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
       <c r="D354" s="2" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" s="2" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="C355" s="2" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
       <c r="D355" s="2" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" s="2" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
       <c r="C356" s="2" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
       <c r="D356" s="2" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" s="2" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="C357" s="2" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
       <c r="D357" s="2" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" s="2" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
       <c r="C358" s="2" t="s">
-        <v>778</v>
+        <v>775</v>
       </c>
       <c r="D358" s="2" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" s="2" t="s">
-        <v>779</v>
+        <v>776</v>
       </c>
       <c r="C359" s="2" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
       <c r="D359" s="2" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" s="2" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
       <c r="C360" s="2" t="s">
-        <v>782</v>
+        <v>779</v>
       </c>
       <c r="D360" s="2" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" s="2" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
       <c r="C361" s="2" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
       <c r="D361" s="2" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" s="2" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="C362" s="2" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
       <c r="D362" s="2" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" s="2" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
       <c r="C363" s="2" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="D363" s="2" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" s="2" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="C364" s="2" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="D364" s="2" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" s="2" t="s">
+        <v>791</v>
+      </c>
+      <c r="C365" s="2" t="s">
+        <v>792</v>
+      </c>
+      <c r="D365" s="2" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" s="2" t="s">
         <v>794</v>
       </c>
-      <c r="C365" s="2" t="s">
+      <c r="C366" s="2" t="s">
         <v>795</v>
       </c>
-      <c r="D365" s="2" t="s">
+      <c r="D366" s="2" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" s="2" t="s">
+        <v>797</v>
+      </c>
+      <c r="C367" s="2" t="s">
+        <v>798</v>
+      </c>
+      <c r="D367" s="2" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" s="2" t="s">
+        <v>799</v>
+      </c>
+      <c r="C368" s="2" t="s">
+        <v>800</v>
+      </c>
+      <c r="D368" s="2" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" s="2" t="s">
+        <v>801</v>
+      </c>
+      <c r="C369" s="2" t="s">
+        <v>802</v>
+      </c>
+      <c r="D369" s="2" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" s="2" t="s">
+        <v>803</v>
+      </c>
+      <c r="C370" s="2" t="s">
+        <v>804</v>
+      </c>
+      <c r="D370" s="2" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" s="2" t="s">
+        <v>805</v>
+      </c>
+      <c r="C371" s="2" t="s">
+        <v>806</v>
+      </c>
+      <c r="D371" s="2" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" s="2" t="s">
+        <v>807</v>
+      </c>
+      <c r="C372" s="2" t="s">
+        <v>808</v>
+      </c>
+      <c r="D372" s="2" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" s="2" t="s">
+        <v>809</v>
+      </c>
+      <c r="C373" s="2" t="s">
+        <v>810</v>
+      </c>
+      <c r="D373" s="2" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" s="2" t="s">
+        <v>811</v>
+      </c>
+      <c r="C374" s="2" t="s">
+        <v>812</v>
+      </c>
+      <c r="D374" s="2" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" s="2" t="s">
+        <v>813</v>
+      </c>
+      <c r="C375" s="2" t="s">
+        <v>814</v>
+      </c>
+      <c r="D375" s="2" t="s">
         <v>796</v>
       </c>
     </row>
@@ -12473,18 +12605,18 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>797</v>
+        <v>815</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>798</v>
+        <v>816</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>799</v>
+        <v>817</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>800</v>
+        <v>818</v>
       </c>
     </row>
   </sheetData>

--- a/csv/merge.xlsx
+++ b/csv/merge.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1089" uniqueCount="819">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1093" uniqueCount="823">
   <si>
     <t>JP Text (DO NOT CHANGE)</t>
   </si>
@@ -1108,6 +1108,93 @@
     <t>&lt;attr&gt;&lt;feel_angry_lv3&gt;&lt;end_attr&gt;Okay, time to fly!&lt;wait=300&gt; Let's go!&lt;bw_break&gt;</t>
   </si>
   <si>
+    <t>『栄光のゼクレス王家』という本だ。
+&lt;br&gt;
+魔界最古の血統を誇る　ゼクレス王家。
+その栄光の歴史は　英明なる名君たちによる
+輝かしい活躍に　彩られている。
+&lt;br&gt;
+ゼクレス建国王　ワラキウスは
+魔界東部を荒らしていた　激昂の巨人を
+自身の魔術で封印し　ここに国を打ち建てた。
+&lt;br&gt;
+ワラキウスは　世に冠絶した魔道の技で
+のちに大魔王にまで登りつめ　繁栄をもたらした。
+その才は　今も　彼の血筋に受け継がれている。
+&lt;br&gt;
+第七代ゼクレス王　ジグネールは
+ワラキウスの再来と呼ばれ　その器量は
+偉大なる始祖に　勝るとも劣らないものだった。
+&lt;br&gt;
+実際　大魔王選定の試練すら　悠々と攻略したが
+生来の病身には勝てず　山頂で急死をとげた。
+悲運の王と　呼ばれるゆえんである。
+&lt;br&gt;
+第十四代ゼクレス王　バルメシュケは
+混沌の魔術王の　ふたつ名で知られ
+ことに　人心をあやつる術を　得意とした。
+&lt;br&gt;
+多くの魔物や下等魔族を　実験台にしながら
+魔術の秘奥を極め　その発展に寄与し
+ゼクレス王家でふたり目の　大魔王になった。
+&lt;br&gt;
+以来　ゼクレス王家から　大魔王となった者は
+今日まで　現れていないが　代々の魔王たちは
+いずれ劣らぬ　魔術の達人ぞろいである。
+&lt;br&gt;
+偉大なるワラキウスの血を引く者に　栄光あれ。
+いつの日か　偉大なるゼクレスの紋章旗が
+魔界全土でひるがえる日の　来たらんことを。</t>
+  </si>
+  <si>
+    <t>It's a book titled "The Glory of the Zechres
+Royal Family".
+&lt;br&gt;
+The Zechres Royal Family boasts the oldest
+bloodline in the demon world, and its glorious
+history is painted by wise and famous rulers.
+&lt;br&gt;
+Warachius, Zechres' founding king, sealed away
+the raging titans that ravaged the eastern
+demon world, and established a kingdom here.
+&lt;br&gt;
+Warachius' renowned magical skills brought
+prosperity as he rose to be the Great Demon
+King. That talent still runs in his blood.
+&lt;br&gt;
+Zignel, Zechres' 7th king, was known as
+the second coming of Warachius. His skills
+matched that of the great founder himself.
+&lt;br&gt;
+He was able to conquer the test of selecting
+the next Great Demon King with ease. However,
+he could not overcome his natural illness, and
+&lt;br&gt;
+died suddenly at the mountain's summit. From
+then on, he was known as the "Tragic King".
+&lt;br&gt;
+Zechres' 14th king, Balmeschke, was known by
+the name "Chaotic Sorceror King". He had great
+skill in the manipulation of people's minds.
+&lt;br&gt;
+He experimented on monsters and even demons
+of lower status, and while doing so mastered
+the secrets of magic and contributed to its
+&lt;br&gt;
+development, eventually becoming the second
+Great Demon King of the Zechres Royal Family.
+&lt;br&gt;
+Since then, no one from the Zechres Royal
+Family has become a Great Demon King to
+this day. However, the Demon Kings' of each
+&lt;br&gt;
+generation still possess a mastery over magic.
+&lt;br&gt;
+Glory be to the blood of the Great Warachius.
+May the banner of the Great Zechres one day
+flutter over the entire demon world!</t>
+  </si>
+  <si>
     <t>追憶のキャンバスが　浮いている……。
 ルネデリコに　はるかなる戦いの記憶を
 描いてもらいますか？
@@ -1173,6 +1260,25 @@
 &lt;case_cancel&gt;
 &lt;break&gt;
 &lt;case_end&gt;&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>So, what do you want from me?
+&lt;select&gt;
+Ask to Paint
+View Accomplishments
+View Rewards
+Explanation&lt;select_end&gt;
+&lt;case 1&gt;
+&lt;break&gt;
+&lt;case 2&gt;
+&lt;break&gt;
+&lt;case 3&gt;
+&lt;break&gt;
+&lt;case 4&gt;
+&lt;break&gt;
+&lt;case_cancel&gt;
+&lt;break&gt;
+&lt;case_end&gt;</t>
   </si>
   <si>
     <t>&lt;speed=0&gt;ここでは　七夕の短冊を使って願い事を書いたり
@@ -1272,6 +1378,9 @@
 &lt;case_cancel&gt;
 &lt;close&gt;
 &lt;case_end&gt;</t>
+  </si>
+  <si>
+    <t>Boss strength</t>
   </si>
   <si>
     <t>ふしぎな小箱は　いつでも使える状態のようだ。
@@ -9178,384 +9287,393 @@
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="2"/>
-      <c r="C65" s="2"/>
+      <c r="A65" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="C68" s="2"/>
+        <v>144</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>151</v>
+        <v>154</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="C75" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="D75" s="2" t="s">
         <v>158</v>
-      </c>
-      <c r="D75" s="2" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D89" s="2" t="s">
         <v>187</v>
-      </c>
-      <c r="C89" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="D89" s="2" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="C92" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="D92" s="2" t="s">
         <v>195</v>
-      </c>
-      <c r="D92" s="2" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="5" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="B101" s="4"/>
       <c r="C101" s="3" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="D101" s="5" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="E101" s="4"/>
       <c r="F101" s="4"/>
@@ -9582,2991 +9700,2991 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="D104" s="2" t="s">
         <v>218</v>
-      </c>
-      <c r="C104" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="D104" s="2" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="C137" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="D137" s="2" t="s">
         <v>287</v>
-      </c>
-      <c r="D137" s="2" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="C146" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="D146" s="2" t="s">
         <v>308</v>
-      </c>
-      <c r="D146" s="2" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="C154" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="D154" s="2" t="s">
         <v>326</v>
-      </c>
-      <c r="D154" s="2" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="C163" s="7" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="C179" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="D179" s="2" t="s">
         <v>380</v>
-      </c>
-      <c r="D179" s="2" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="C185" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="D185" s="2" t="s">
         <v>394</v>
-      </c>
-      <c r="D185" s="2" t="s">
-        <v>390</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="C204" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="D204" s="2" t="s">
         <v>434</v>
-      </c>
-      <c r="D204" s="2" t="s">
-        <v>430</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="2" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="2" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="2" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="2" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="2" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="2" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="2" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="2" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="2" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="2" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="C217" s="2" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="2" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="2" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="2" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="D220" s="2" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="2" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="C221" s="2" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="2" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="C222" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="D222" s="2" t="s">
         <v>476</v>
-      </c>
-      <c r="D222" s="2" t="s">
-        <v>472</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="2" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="2" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="2" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="C225" s="2" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="D225" s="2" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="E225" s="2" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="2" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="C226" s="2" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="D226" s="2" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="C227" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="D227" s="2" t="s">
         <v>488</v>
-      </c>
-      <c r="C227" s="2" t="s">
-        <v>489</v>
-      </c>
-      <c r="D227" s="2" t="s">
-        <v>484</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="2" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="C228" s="2" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="D228" s="2" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="2" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="C229" s="2" t="s">
-        <v>493</v>
+        <v>497</v>
       </c>
       <c r="D229" s="2" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="2" t="s">
-        <v>494</v>
+        <v>498</v>
       </c>
       <c r="C230" s="2" t="s">
-        <v>495</v>
+        <v>499</v>
       </c>
       <c r="D230" s="2" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="2" t="s">
-        <v>496</v>
+        <v>500</v>
       </c>
       <c r="C231" s="2" t="s">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="D231" s="2" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="2" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
       <c r="C232" s="2" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="D232" s="2" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="2" t="s">
-        <v>500</v>
+        <v>504</v>
       </c>
       <c r="C233" s="2" t="s">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="D233" s="2" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="2" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
       <c r="C234" s="2" t="s">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="D234" s="2" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="2" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="C235" s="2" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="D235" s="2" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="2" t="s">
-        <v>506</v>
+        <v>510</v>
       </c>
       <c r="C236" s="2" t="s">
-        <v>507</v>
+        <v>511</v>
       </c>
       <c r="D236" s="2" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="2" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="C237" s="2" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="D237" s="2" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="2" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="C238" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="D238" s="2" t="s">
         <v>512</v>
-      </c>
-      <c r="D238" s="2" t="s">
-        <v>508</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="2" t="s">
-        <v>513</v>
+        <v>517</v>
       </c>
       <c r="C239" s="2" t="s">
-        <v>514</v>
+        <v>518</v>
       </c>
       <c r="D239" s="2" t="s">
-        <v>515</v>
+        <v>519</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="2" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="C240" s="2" t="s">
-        <v>517</v>
+        <v>521</v>
       </c>
       <c r="D240" s="2" t="s">
-        <v>515</v>
+        <v>519</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="2" t="s">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="C241" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="D241" s="2" t="s">
         <v>519</v>
-      </c>
-      <c r="D241" s="2" t="s">
-        <v>515</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="2" t="s">
-        <v>520</v>
+        <v>524</v>
       </c>
       <c r="C242" s="2" t="s">
-        <v>521</v>
+        <v>525</v>
       </c>
       <c r="D242" s="2" t="s">
-        <v>515</v>
+        <v>519</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="2" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="C243" s="2" t="s">
-        <v>523</v>
+        <v>527</v>
       </c>
       <c r="D243" s="2" t="s">
-        <v>515</v>
+        <v>519</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="2" t="s">
-        <v>524</v>
+        <v>528</v>
       </c>
       <c r="C244" s="2" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="D244" s="2" t="s">
-        <v>526</v>
+        <v>530</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="2" t="s">
-        <v>527</v>
+        <v>531</v>
       </c>
       <c r="C245" s="2" t="s">
-        <v>528</v>
+        <v>532</v>
       </c>
       <c r="D245" s="2" t="s">
-        <v>529</v>
+        <v>533</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="2" t="s">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="C246" s="2" t="s">
-        <v>531</v>
+        <v>535</v>
       </c>
       <c r="D246" s="2" t="s">
-        <v>529</v>
+        <v>533</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="2" t="s">
-        <v>532</v>
+        <v>536</v>
       </c>
       <c r="C247" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="D247" s="2" t="s">
         <v>533</v>
-      </c>
-      <c r="D247" s="2" t="s">
-        <v>529</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="2" t="s">
-        <v>534</v>
+        <v>538</v>
       </c>
       <c r="C248" s="2" t="s">
-        <v>535</v>
+        <v>539</v>
       </c>
       <c r="D248" s="2" t="s">
-        <v>529</v>
+        <v>533</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="2" t="s">
-        <v>536</v>
+        <v>540</v>
       </c>
       <c r="C249" s="2" t="s">
-        <v>537</v>
+        <v>541</v>
       </c>
       <c r="D249" s="2" t="s">
-        <v>529</v>
+        <v>533</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="2" t="s">
-        <v>538</v>
+        <v>542</v>
       </c>
       <c r="C250" s="2" t="s">
-        <v>539</v>
+        <v>543</v>
       </c>
       <c r="D250" s="2" t="s">
-        <v>529</v>
+        <v>533</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="2" t="s">
-        <v>540</v>
+        <v>544</v>
       </c>
       <c r="C251" s="2" t="s">
-        <v>541</v>
+        <v>545</v>
       </c>
       <c r="D251" s="2" t="s">
-        <v>529</v>
+        <v>533</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="2" t="s">
-        <v>542</v>
+        <v>546</v>
       </c>
       <c r="C252" s="2" t="s">
-        <v>543</v>
+        <v>547</v>
       </c>
       <c r="D252" s="2" t="s">
-        <v>529</v>
+        <v>533</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="2" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
       <c r="C253" s="2" t="s">
-        <v>545</v>
+        <v>549</v>
       </c>
       <c r="D253" s="2" t="s">
-        <v>529</v>
+        <v>533</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="2" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
       <c r="C254" s="2" t="s">
-        <v>547</v>
+        <v>551</v>
       </c>
       <c r="D254" s="2" t="s">
-        <v>529</v>
+        <v>533</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="2" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
       <c r="C255" s="2" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
       <c r="D255" s="2" t="s">
-        <v>529</v>
+        <v>533</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="2" t="s">
-        <v>550</v>
+        <v>554</v>
       </c>
       <c r="C256" s="2" t="s">
-        <v>551</v>
+        <v>555</v>
       </c>
       <c r="D256" s="2" t="s">
-        <v>529</v>
+        <v>533</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="2" t="s">
-        <v>552</v>
+        <v>556</v>
       </c>
       <c r="C257" s="2" t="s">
-        <v>553</v>
+        <v>557</v>
       </c>
       <c r="D257" s="2" t="s">
-        <v>529</v>
+        <v>533</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="2" t="s">
-        <v>554</v>
+        <v>558</v>
       </c>
       <c r="C258" s="2" t="s">
-        <v>555</v>
+        <v>559</v>
       </c>
       <c r="D258" s="2" t="s">
-        <v>529</v>
+        <v>533</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" s="2" t="s">
-        <v>556</v>
+        <v>560</v>
       </c>
       <c r="C259" s="2" t="s">
-        <v>557</v>
+        <v>561</v>
       </c>
       <c r="D259" s="2" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="2" t="s">
-        <v>558</v>
+        <v>562</v>
       </c>
       <c r="C260" s="2" t="s">
-        <v>559</v>
+        <v>563</v>
       </c>
       <c r="D260" s="2" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="2" t="s">
-        <v>560</v>
+        <v>564</v>
       </c>
       <c r="C261" s="2" t="s">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="D261" s="2" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="2" t="s">
-        <v>562</v>
+        <v>566</v>
       </c>
       <c r="C262" s="2" t="s">
-        <v>563</v>
+        <v>567</v>
       </c>
       <c r="D262" s="2" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="2" t="s">
-        <v>564</v>
+        <v>568</v>
       </c>
       <c r="C263" s="2" t="s">
-        <v>565</v>
+        <v>569</v>
       </c>
       <c r="D263" s="2" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="2" t="s">
-        <v>566</v>
+        <v>570</v>
       </c>
       <c r="C264" s="2" t="s">
-        <v>567</v>
+        <v>571</v>
       </c>
       <c r="D264" s="2" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="2" t="s">
-        <v>568</v>
+        <v>572</v>
       </c>
       <c r="C265" s="2" t="s">
-        <v>569</v>
+        <v>573</v>
       </c>
       <c r="D265" s="2" t="s">
-        <v>570</v>
+        <v>574</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="2" t="s">
-        <v>571</v>
+        <v>575</v>
       </c>
       <c r="C266" s="2" t="s">
-        <v>572</v>
+        <v>576</v>
       </c>
       <c r="D266" s="2" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" s="2" t="s">
-        <v>573</v>
+        <v>577</v>
       </c>
       <c r="C267" s="2" t="s">
-        <v>574</v>
+        <v>578</v>
       </c>
       <c r="D267" s="2" t="s">
-        <v>575</v>
+        <v>579</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" s="2" t="s">
-        <v>576</v>
+        <v>580</v>
       </c>
       <c r="C268" s="2" t="s">
-        <v>577</v>
+        <v>581</v>
       </c>
       <c r="D268" s="2" t="s">
-        <v>578</v>
+        <v>582</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="2" t="s">
-        <v>579</v>
+        <v>583</v>
       </c>
       <c r="C269" s="2" t="s">
-        <v>580</v>
+        <v>584</v>
       </c>
       <c r="D269" s="2" t="s">
-        <v>578</v>
+        <v>582</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" s="2" t="s">
-        <v>581</v>
+        <v>585</v>
       </c>
       <c r="C270" s="2" t="s">
+        <v>586</v>
+      </c>
+      <c r="D270" s="2" t="s">
         <v>582</v>
-      </c>
-      <c r="D270" s="2" t="s">
-        <v>578</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" s="2" t="s">
-        <v>583</v>
+        <v>587</v>
       </c>
       <c r="C271" s="2" t="s">
-        <v>584</v>
+        <v>588</v>
       </c>
       <c r="D271" s="2" t="s">
-        <v>578</v>
+        <v>582</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" s="2" t="s">
-        <v>585</v>
+        <v>589</v>
       </c>
       <c r="C272" s="2" t="s">
-        <v>586</v>
+        <v>590</v>
       </c>
       <c r="D272" s="2" t="s">
-        <v>578</v>
+        <v>582</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" s="2" t="s">
-        <v>587</v>
+        <v>591</v>
       </c>
       <c r="C273" s="2" t="s">
-        <v>588</v>
+        <v>592</v>
       </c>
       <c r="D273" s="2" t="s">
-        <v>578</v>
+        <v>582</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" s="2" t="s">
-        <v>589</v>
+        <v>593</v>
       </c>
       <c r="C274" s="2" t="s">
-        <v>590</v>
+        <v>594</v>
       </c>
       <c r="D274" s="2" t="s">
-        <v>578</v>
+        <v>582</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" s="2" t="s">
-        <v>591</v>
+        <v>595</v>
       </c>
       <c r="C275" s="2" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="D275" s="2" t="s">
-        <v>578</v>
+        <v>582</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" s="2" t="s">
-        <v>593</v>
+        <v>597</v>
       </c>
       <c r="C276" s="2" t="s">
-        <v>594</v>
+        <v>598</v>
       </c>
       <c r="D276" s="2" t="s">
-        <v>578</v>
+        <v>582</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" s="2" t="s">
-        <v>595</v>
+        <v>599</v>
       </c>
       <c r="C277" s="2" t="s">
-        <v>596</v>
+        <v>600</v>
       </c>
       <c r="D277" s="2" t="s">
-        <v>578</v>
+        <v>582</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" s="2" t="s">
-        <v>597</v>
+        <v>601</v>
       </c>
       <c r="C278" s="2" t="s">
-        <v>598</v>
+        <v>602</v>
       </c>
       <c r="D278" s="2" t="s">
-        <v>578</v>
+        <v>582</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" s="2" t="s">
-        <v>599</v>
+        <v>603</v>
       </c>
       <c r="C279" s="2" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
       <c r="D279" s="2" t="s">
-        <v>578</v>
+        <v>582</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" s="2" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
       <c r="C280" s="2" t="s">
-        <v>602</v>
+        <v>606</v>
       </c>
       <c r="D280" s="2" t="s">
-        <v>578</v>
+        <v>582</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" s="2" t="s">
-        <v>603</v>
+        <v>607</v>
       </c>
       <c r="C281" s="2" t="s">
-        <v>604</v>
+        <v>608</v>
       </c>
       <c r="D281" s="2" t="s">
-        <v>578</v>
+        <v>582</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" s="2" t="s">
-        <v>605</v>
+        <v>609</v>
       </c>
       <c r="C282" s="2" t="s">
-        <v>606</v>
+        <v>610</v>
       </c>
       <c r="D282" s="2" t="s">
-        <v>578</v>
+        <v>582</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" s="2" t="s">
-        <v>607</v>
+        <v>611</v>
       </c>
       <c r="C283" s="2" t="s">
-        <v>608</v>
+        <v>612</v>
       </c>
       <c r="D283" s="2" t="s">
-        <v>578</v>
+        <v>582</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" s="2" t="s">
-        <v>609</v>
+        <v>613</v>
       </c>
       <c r="C284" s="2" t="s">
-        <v>610</v>
+        <v>614</v>
       </c>
       <c r="D284" s="2" t="s">
-        <v>578</v>
+        <v>582</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" s="2" t="s">
-        <v>611</v>
+        <v>615</v>
       </c>
       <c r="C285" s="2" t="s">
-        <v>612</v>
+        <v>616</v>
       </c>
       <c r="D285" s="2" t="s">
-        <v>578</v>
+        <v>582</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" s="2" t="s">
-        <v>613</v>
+        <v>617</v>
       </c>
       <c r="C286" s="2" t="s">
-        <v>614</v>
+        <v>618</v>
       </c>
       <c r="D286" s="2" t="s">
-        <v>578</v>
+        <v>582</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" s="2" t="s">
-        <v>615</v>
+        <v>619</v>
       </c>
       <c r="C287" s="2" t="s">
-        <v>616</v>
+        <v>620</v>
       </c>
       <c r="D287" s="2" t="s">
-        <v>578</v>
+        <v>582</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" s="2" t="s">
-        <v>617</v>
+        <v>621</v>
       </c>
       <c r="C288" s="2" t="s">
-        <v>618</v>
+        <v>622</v>
       </c>
       <c r="D288" s="2" t="s">
-        <v>578</v>
+        <v>582</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" s="2" t="s">
-        <v>619</v>
+        <v>623</v>
       </c>
       <c r="C289" s="2" t="s">
-        <v>620</v>
+        <v>624</v>
       </c>
       <c r="D289" s="2" t="s">
-        <v>578</v>
+        <v>582</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" s="2" t="s">
-        <v>621</v>
+        <v>625</v>
       </c>
       <c r="C290" s="2" t="s">
-        <v>622</v>
+        <v>626</v>
       </c>
       <c r="D290" s="2" t="s">
-        <v>578</v>
+        <v>582</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" s="2" t="s">
-        <v>623</v>
+        <v>627</v>
       </c>
       <c r="C291" s="2" t="s">
-        <v>624</v>
+        <v>628</v>
       </c>
       <c r="D291" s="2" t="s">
-        <v>578</v>
+        <v>582</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" s="2" t="s">
-        <v>625</v>
+        <v>629</v>
       </c>
       <c r="C292" s="2" t="s">
-        <v>626</v>
+        <v>630</v>
       </c>
       <c r="D292" s="2" t="s">
-        <v>627</v>
+        <v>631</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" s="2" t="s">
-        <v>628</v>
+        <v>632</v>
       </c>
       <c r="C293" s="2" t="s">
-        <v>629</v>
+        <v>633</v>
       </c>
       <c r="D293" s="2" t="s">
-        <v>627</v>
+        <v>631</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" s="2" t="s">
-        <v>630</v>
+        <v>634</v>
       </c>
       <c r="C294" s="2" t="s">
+        <v>635</v>
+      </c>
+      <c r="D294" s="2" t="s">
         <v>631</v>
-      </c>
-      <c r="D294" s="2" t="s">
-        <v>627</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" s="2" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
       <c r="C295" s="2" t="s">
-        <v>633</v>
+        <v>637</v>
       </c>
       <c r="D295" s="2" t="s">
-        <v>627</v>
+        <v>631</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" s="2" t="s">
-        <v>634</v>
+        <v>638</v>
       </c>
       <c r="C296" s="2" t="s">
-        <v>635</v>
+        <v>639</v>
       </c>
       <c r="D296" s="2" t="s">
-        <v>636</v>
+        <v>640</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" s="2" t="s">
-        <v>637</v>
+        <v>641</v>
       </c>
       <c r="C297" s="2" t="s">
-        <v>638</v>
+        <v>642</v>
       </c>
       <c r="D297" s="2" t="s">
-        <v>639</v>
+        <v>643</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" s="2" t="s">
-        <v>640</v>
+        <v>644</v>
       </c>
       <c r="C298" s="2" t="s">
-        <v>641</v>
+        <v>645</v>
       </c>
       <c r="D298" s="2" t="s">
-        <v>639</v>
+        <v>643</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" s="2" t="s">
-        <v>642</v>
+        <v>646</v>
       </c>
       <c r="C299" s="2" t="s">
-        <v>643</v>
+        <v>647</v>
       </c>
       <c r="D299" s="2" t="s">
-        <v>644</v>
+        <v>648</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" s="2" t="s">
-        <v>645</v>
+        <v>649</v>
       </c>
       <c r="C300" s="2" t="s">
-        <v>646</v>
+        <v>650</v>
       </c>
       <c r="D300" s="2" t="s">
-        <v>647</v>
+        <v>651</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" s="2" t="s">
-        <v>648</v>
+        <v>652</v>
       </c>
       <c r="C301" s="2" t="s">
-        <v>649</v>
+        <v>653</v>
       </c>
       <c r="D301" s="2" t="s">
-        <v>650</v>
+        <v>654</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" s="2" t="s">
-        <v>651</v>
+        <v>655</v>
       </c>
       <c r="C302" s="2" t="s">
-        <v>652</v>
+        <v>656</v>
       </c>
       <c r="D302" s="2" t="s">
-        <v>653</v>
+        <v>657</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" s="2" t="s">
-        <v>654</v>
+        <v>658</v>
       </c>
       <c r="C303" s="2" t="s">
-        <v>655</v>
+        <v>659</v>
       </c>
       <c r="D303" s="2" t="s">
-        <v>656</v>
+        <v>660</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" s="2" t="s">
-        <v>657</v>
+        <v>661</v>
       </c>
       <c r="C304" s="2" t="s">
-        <v>658</v>
+        <v>662</v>
       </c>
       <c r="D304" s="2" t="s">
-        <v>659</v>
+        <v>663</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" s="2" t="s">
-        <v>660</v>
+        <v>664</v>
       </c>
       <c r="C305" s="2" t="s">
-        <v>661</v>
+        <v>665</v>
       </c>
       <c r="D305" s="2" t="s">
-        <v>662</v>
+        <v>666</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" s="2" t="s">
-        <v>663</v>
+        <v>667</v>
       </c>
       <c r="C306" s="2" t="s">
-        <v>664</v>
+        <v>668</v>
       </c>
       <c r="D306" s="2" t="s">
-        <v>665</v>
+        <v>669</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" s="2" t="s">
-        <v>666</v>
+        <v>670</v>
       </c>
       <c r="C307" s="2" t="s">
-        <v>667</v>
+        <v>671</v>
       </c>
       <c r="D307" s="2" t="s">
-        <v>668</v>
+        <v>672</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" s="2" t="s">
-        <v>669</v>
+        <v>673</v>
       </c>
       <c r="C308" s="2" t="s">
-        <v>670</v>
+        <v>674</v>
       </c>
       <c r="D308" s="2" t="s">
-        <v>668</v>
+        <v>672</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" s="2" t="s">
-        <v>671</v>
+        <v>675</v>
       </c>
       <c r="C309" s="2" t="s">
+        <v>676</v>
+      </c>
+      <c r="D309" s="2" t="s">
         <v>672</v>
-      </c>
-      <c r="D309" s="2" t="s">
-        <v>668</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" s="2" t="s">
-        <v>673</v>
+        <v>677</v>
       </c>
       <c r="C310" s="2" t="s">
-        <v>674</v>
+        <v>678</v>
       </c>
       <c r="D310" s="2" t="s">
-        <v>668</v>
+        <v>672</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" s="2" t="s">
-        <v>675</v>
+        <v>679</v>
       </c>
       <c r="C311" s="2" t="s">
-        <v>676</v>
+        <v>680</v>
       </c>
       <c r="D311" s="2" t="s">
-        <v>668</v>
+        <v>672</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" s="2" t="s">
-        <v>677</v>
+        <v>681</v>
       </c>
       <c r="C312" s="2" t="s">
-        <v>678</v>
+        <v>682</v>
       </c>
       <c r="D312" s="2" t="s">
-        <v>668</v>
+        <v>672</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" s="2" t="s">
-        <v>679</v>
+        <v>683</v>
       </c>
       <c r="C313" s="2" t="s">
-        <v>680</v>
+        <v>684</v>
       </c>
       <c r="D313" s="2" t="s">
-        <v>681</v>
+        <v>685</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" s="2" t="s">
-        <v>682</v>
+        <v>686</v>
       </c>
       <c r="C314" s="2" t="s">
-        <v>683</v>
+        <v>687</v>
       </c>
       <c r="D314" s="2" t="s">
-        <v>668</v>
+        <v>672</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" s="2" t="s">
-        <v>684</v>
+        <v>688</v>
       </c>
       <c r="C315" s="2" t="s">
-        <v>685</v>
+        <v>689</v>
       </c>
       <c r="D315" s="2" t="s">
-        <v>668</v>
+        <v>672</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" s="2" t="s">
-        <v>686</v>
+        <v>690</v>
       </c>
       <c r="C316" s="2" t="s">
-        <v>687</v>
+        <v>691</v>
       </c>
       <c r="D316" s="2" t="s">
-        <v>668</v>
+        <v>672</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" s="2" t="s">
-        <v>688</v>
+        <v>692</v>
       </c>
       <c r="C317" s="2" t="s">
-        <v>689</v>
+        <v>693</v>
       </c>
       <c r="D317" s="2" t="s">
-        <v>681</v>
+        <v>685</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" s="2" t="s">
-        <v>690</v>
+        <v>694</v>
       </c>
       <c r="C318" s="2" t="s">
-        <v>691</v>
+        <v>695</v>
       </c>
       <c r="D318" s="2" t="s">
-        <v>681</v>
+        <v>685</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" s="2" t="s">
-        <v>692</v>
+        <v>696</v>
       </c>
       <c r="C319" s="2" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="D319" s="2" t="s">
-        <v>681</v>
+        <v>685</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" s="2" t="s">
-        <v>694</v>
+        <v>698</v>
       </c>
       <c r="C320" s="2" t="s">
-        <v>695</v>
+        <v>699</v>
       </c>
       <c r="D320" s="2" t="s">
-        <v>681</v>
+        <v>685</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" s="2" t="s">
-        <v>696</v>
+        <v>700</v>
       </c>
       <c r="C321" s="2" t="s">
-        <v>697</v>
+        <v>701</v>
       </c>
       <c r="D321" s="2" t="s">
-        <v>681</v>
+        <v>685</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" s="2" t="s">
-        <v>698</v>
+        <v>702</v>
       </c>
       <c r="C322" s="2" t="s">
-        <v>699</v>
+        <v>703</v>
       </c>
       <c r="D322" s="2" t="s">
-        <v>681</v>
+        <v>685</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" s="2" t="s">
-        <v>700</v>
+        <v>704</v>
       </c>
       <c r="C323" s="2" t="s">
-        <v>701</v>
+        <v>705</v>
       </c>
       <c r="D323" s="2" t="s">
-        <v>681</v>
+        <v>685</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" s="2" t="s">
-        <v>702</v>
+        <v>706</v>
       </c>
       <c r="C324" s="2" t="s">
-        <v>703</v>
+        <v>707</v>
       </c>
       <c r="D324" s="2" t="s">
-        <v>681</v>
+        <v>685</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" s="2" t="s">
-        <v>704</v>
+        <v>708</v>
       </c>
       <c r="C325" s="2" t="s">
-        <v>705</v>
+        <v>709</v>
       </c>
       <c r="D325" s="2" t="s">
-        <v>681</v>
+        <v>685</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" s="2" t="s">
-        <v>706</v>
+        <v>710</v>
       </c>
       <c r="C326" s="2" t="s">
-        <v>707</v>
+        <v>711</v>
       </c>
       <c r="D326" s="2" t="s">
-        <v>681</v>
+        <v>685</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" s="2" t="s">
-        <v>708</v>
+        <v>712</v>
       </c>
       <c r="C327" s="2" t="s">
-        <v>709</v>
+        <v>713</v>
       </c>
       <c r="D327" s="2" t="s">
-        <v>681</v>
+        <v>685</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" s="2" t="s">
-        <v>710</v>
+        <v>714</v>
       </c>
       <c r="C328" s="2" t="s">
-        <v>711</v>
+        <v>715</v>
       </c>
       <c r="D328" s="2" t="s">
-        <v>681</v>
+        <v>685</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" s="2" t="s">
-        <v>712</v>
+        <v>716</v>
       </c>
       <c r="C329" s="2" t="s">
-        <v>713</v>
+        <v>717</v>
       </c>
       <c r="D329" s="2"/>
     </row>
     <row r="330">
       <c r="A330" s="2" t="s">
-        <v>714</v>
+        <v>718</v>
       </c>
       <c r="C330" s="2" t="s">
-        <v>715</v>
+        <v>719</v>
       </c>
       <c r="D330" s="2" t="s">
-        <v>681</v>
+        <v>685</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" s="2" t="s">
-        <v>716</v>
+        <v>720</v>
       </c>
       <c r="C331" s="2" t="s">
-        <v>717</v>
+        <v>721</v>
       </c>
       <c r="D331" s="2" t="s">
-        <v>681</v>
+        <v>685</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" s="2" t="s">
-        <v>718</v>
+        <v>722</v>
       </c>
       <c r="C332" s="2" t="s">
-        <v>719</v>
+        <v>723</v>
       </c>
       <c r="D332" s="2" t="s">
-        <v>681</v>
+        <v>685</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" s="2" t="s">
-        <v>720</v>
+        <v>724</v>
       </c>
       <c r="C333" s="2" t="s">
-        <v>721</v>
+        <v>725</v>
       </c>
       <c r="D333" s="2" t="s">
-        <v>681</v>
+        <v>685</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" s="2" t="s">
-        <v>722</v>
+        <v>726</v>
       </c>
       <c r="C334" s="2" t="s">
-        <v>723</v>
+        <v>727</v>
       </c>
       <c r="D334" s="2" t="s">
-        <v>681</v>
+        <v>685</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" s="2" t="s">
-        <v>724</v>
+        <v>728</v>
       </c>
       <c r="C335" s="2" t="s">
-        <v>725</v>
+        <v>729</v>
       </c>
       <c r="D335" s="2" t="s">
-        <v>681</v>
+        <v>685</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" s="2" t="s">
-        <v>726</v>
+        <v>730</v>
       </c>
       <c r="C336" s="2" t="s">
-        <v>727</v>
+        <v>731</v>
       </c>
       <c r="D336" s="2" t="s">
-        <v>681</v>
+        <v>685</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" s="2" t="s">
-        <v>728</v>
+        <v>732</v>
       </c>
       <c r="C337" s="2" t="s">
-        <v>729</v>
+        <v>733</v>
       </c>
       <c r="D337" s="2" t="s">
-        <v>681</v>
+        <v>685</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" s="2" t="s">
-        <v>730</v>
+        <v>734</v>
       </c>
       <c r="C338" s="2" t="s">
-        <v>731</v>
+        <v>735</v>
       </c>
       <c r="D338" s="2" t="s">
-        <v>681</v>
+        <v>685</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" s="2" t="s">
-        <v>732</v>
+        <v>736</v>
       </c>
       <c r="C339" s="2" t="s">
-        <v>733</v>
+        <v>737</v>
       </c>
       <c r="D339" s="2" t="s">
-        <v>681</v>
+        <v>685</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" s="2" t="s">
-        <v>734</v>
+        <v>738</v>
       </c>
       <c r="C340" s="2" t="s">
-        <v>735</v>
+        <v>739</v>
       </c>
       <c r="D340" s="2" t="s">
-        <v>681</v>
+        <v>685</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" s="2" t="s">
-        <v>736</v>
+        <v>740</v>
       </c>
       <c r="C341" s="2" t="s">
-        <v>737</v>
+        <v>741</v>
       </c>
       <c r="D341" s="2" t="s">
-        <v>738</v>
+        <v>742</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" s="2" t="s">
-        <v>739</v>
+        <v>743</v>
       </c>
       <c r="C342" s="2" t="s">
-        <v>740</v>
+        <v>744</v>
       </c>
       <c r="D342" s="2" t="s">
-        <v>741</v>
+        <v>745</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" s="2" t="s">
-        <v>742</v>
+        <v>746</v>
       </c>
       <c r="C343" s="2" t="s">
-        <v>743</v>
+        <v>747</v>
       </c>
       <c r="D343" s="2" t="s">
-        <v>741</v>
+        <v>745</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" s="2" t="s">
-        <v>744</v>
+        <v>748</v>
       </c>
       <c r="C344" s="2" t="s">
+        <v>749</v>
+      </c>
+      <c r="D344" s="2" t="s">
         <v>745</v>
-      </c>
-      <c r="D344" s="2" t="s">
-        <v>741</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" s="2" t="s">
-        <v>746</v>
+        <v>750</v>
       </c>
       <c r="C345" s="2" t="s">
-        <v>747</v>
+        <v>751</v>
       </c>
       <c r="D345" s="2" t="s">
-        <v>748</v>
+        <v>752</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" s="2" t="s">
-        <v>749</v>
+        <v>753</v>
       </c>
       <c r="C346" s="2" t="s">
-        <v>750</v>
+        <v>754</v>
       </c>
       <c r="D346" s="2" t="s">
-        <v>741</v>
+        <v>745</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" s="2" t="s">
-        <v>751</v>
+        <v>755</v>
       </c>
       <c r="C347" s="2" t="s">
-        <v>752</v>
+        <v>756</v>
       </c>
       <c r="D347" s="2" t="s">
-        <v>741</v>
+        <v>745</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" s="2" t="s">
-        <v>753</v>
+        <v>757</v>
       </c>
       <c r="C348" s="2" t="s">
-        <v>754</v>
+        <v>758</v>
       </c>
       <c r="D348" s="2" t="s">
-        <v>748</v>
+        <v>752</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" s="2" t="s">
-        <v>755</v>
+        <v>759</v>
       </c>
       <c r="C349" s="2" t="s">
-        <v>756</v>
+        <v>760</v>
       </c>
       <c r="D349" s="2" t="s">
-        <v>741</v>
+        <v>745</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" s="2" t="s">
-        <v>757</v>
+        <v>761</v>
       </c>
       <c r="C350" s="2" t="s">
-        <v>758</v>
+        <v>762</v>
       </c>
       <c r="D350" s="2" t="s">
-        <v>741</v>
+        <v>745</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" s="2" t="s">
-        <v>759</v>
+        <v>763</v>
       </c>
       <c r="C351" s="2" t="s">
-        <v>760</v>
+        <v>764</v>
       </c>
       <c r="D351" s="2" t="s">
-        <v>748</v>
+        <v>752</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" s="2" t="s">
-        <v>761</v>
+        <v>765</v>
       </c>
       <c r="C352" s="2" t="s">
-        <v>762</v>
+        <v>766</v>
       </c>
       <c r="D352" s="2" t="s">
-        <v>741</v>
+        <v>745</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" s="2" t="s">
-        <v>763</v>
+        <v>767</v>
       </c>
       <c r="C353" s="2" t="s">
-        <v>764</v>
+        <v>768</v>
       </c>
       <c r="D353" s="2"/>
     </row>
     <row r="354">
       <c r="A354" s="2" t="s">
-        <v>765</v>
+        <v>769</v>
       </c>
       <c r="C354" s="2" t="s">
-        <v>766</v>
+        <v>770</v>
       </c>
       <c r="D354" s="2" t="s">
-        <v>767</v>
+        <v>771</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" s="2" t="s">
-        <v>768</v>
+        <v>772</v>
       </c>
       <c r="C355" s="2" t="s">
-        <v>769</v>
+        <v>773</v>
       </c>
       <c r="D355" s="2" t="s">
-        <v>748</v>
+        <v>752</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" s="2" t="s">
-        <v>770</v>
+        <v>774</v>
       </c>
       <c r="C356" s="2" t="s">
-        <v>771</v>
+        <v>775</v>
       </c>
       <c r="D356" s="2" t="s">
-        <v>741</v>
+        <v>745</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" s="2" t="s">
-        <v>772</v>
+        <v>776</v>
       </c>
       <c r="C357" s="2" t="s">
-        <v>773</v>
+        <v>777</v>
       </c>
       <c r="D357" s="2" t="s">
-        <v>741</v>
+        <v>745</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" s="2" t="s">
-        <v>774</v>
+        <v>778</v>
       </c>
       <c r="C358" s="2" t="s">
-        <v>775</v>
+        <v>779</v>
       </c>
       <c r="D358" s="2" t="s">
-        <v>767</v>
+        <v>771</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" s="2" t="s">
-        <v>776</v>
+        <v>780</v>
       </c>
       <c r="C359" s="2" t="s">
-        <v>777</v>
+        <v>781</v>
       </c>
       <c r="D359" s="2" t="s">
-        <v>767</v>
+        <v>771</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" s="2" t="s">
-        <v>778</v>
+        <v>782</v>
       </c>
       <c r="C360" s="2" t="s">
-        <v>779</v>
+        <v>783</v>
       </c>
       <c r="D360" s="2" t="s">
-        <v>767</v>
+        <v>771</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" s="2" t="s">
-        <v>780</v>
+        <v>784</v>
       </c>
       <c r="C361" s="2" t="s">
-        <v>781</v>
+        <v>785</v>
       </c>
       <c r="D361" s="2" t="s">
-        <v>782</v>
+        <v>786</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" s="2" t="s">
-        <v>783</v>
+        <v>787</v>
       </c>
       <c r="C362" s="2" t="s">
-        <v>784</v>
+        <v>788</v>
       </c>
       <c r="D362" s="2" t="s">
-        <v>782</v>
+        <v>786</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" s="2" t="s">
-        <v>785</v>
+        <v>789</v>
       </c>
       <c r="C363" s="2" t="s">
-        <v>786</v>
+        <v>790</v>
       </c>
       <c r="D363" s="2" t="s">
-        <v>787</v>
+        <v>791</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" s="2" t="s">
-        <v>788</v>
+        <v>792</v>
       </c>
       <c r="C364" s="2" t="s">
-        <v>789</v>
+        <v>793</v>
       </c>
       <c r="D364" s="2" t="s">
-        <v>790</v>
+        <v>794</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" s="2" t="s">
-        <v>791</v>
+        <v>795</v>
       </c>
       <c r="C365" s="2" t="s">
-        <v>792</v>
+        <v>796</v>
       </c>
       <c r="D365" s="2" t="s">
-        <v>793</v>
+        <v>797</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" s="2" t="s">
-        <v>794</v>
+        <v>798</v>
       </c>
       <c r="C366" s="2" t="s">
-        <v>795</v>
+        <v>799</v>
       </c>
       <c r="D366" s="2" t="s">
-        <v>796</v>
+        <v>800</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" s="2" t="s">
-        <v>797</v>
+        <v>801</v>
       </c>
       <c r="C367" s="2" t="s">
-        <v>798</v>
+        <v>802</v>
       </c>
       <c r="D367" s="2" t="s">
-        <v>796</v>
+        <v>800</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" s="2" t="s">
-        <v>799</v>
+        <v>803</v>
       </c>
       <c r="C368" s="2" t="s">
+        <v>804</v>
+      </c>
+      <c r="D368" s="2" t="s">
         <v>800</v>
-      </c>
-      <c r="D368" s="2" t="s">
-        <v>796</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" s="2" t="s">
-        <v>801</v>
+        <v>805</v>
       </c>
       <c r="C369" s="2" t="s">
-        <v>802</v>
+        <v>806</v>
       </c>
       <c r="D369" s="2" t="s">
-        <v>796</v>
+        <v>800</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" s="2" t="s">
-        <v>803</v>
+        <v>807</v>
       </c>
       <c r="C370" s="2" t="s">
-        <v>804</v>
+        <v>808</v>
       </c>
       <c r="D370" s="2" t="s">
-        <v>796</v>
+        <v>800</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" s="2" t="s">
-        <v>805</v>
+        <v>809</v>
       </c>
       <c r="C371" s="2" t="s">
-        <v>806</v>
+        <v>810</v>
       </c>
       <c r="D371" s="2" t="s">
-        <v>796</v>
+        <v>800</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" s="2" t="s">
-        <v>807</v>
+        <v>811</v>
       </c>
       <c r="C372" s="2" t="s">
-        <v>808</v>
+        <v>812</v>
       </c>
       <c r="D372" s="2" t="s">
-        <v>796</v>
+        <v>800</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" s="2" t="s">
-        <v>809</v>
+        <v>813</v>
       </c>
       <c r="C373" s="2" t="s">
-        <v>810</v>
+        <v>814</v>
       </c>
       <c r="D373" s="2" t="s">
-        <v>796</v>
+        <v>800</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" s="2" t="s">
-        <v>811</v>
+        <v>815</v>
       </c>
       <c r="C374" s="2" t="s">
-        <v>812</v>
+        <v>816</v>
       </c>
       <c r="D374" s="2" t="s">
-        <v>796</v>
+        <v>800</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" s="2" t="s">
-        <v>813</v>
+        <v>817</v>
       </c>
       <c r="C375" s="2" t="s">
-        <v>814</v>
+        <v>818</v>
       </c>
       <c r="D375" s="2" t="s">
-        <v>796</v>
+        <v>800</v>
       </c>
     </row>
   </sheetData>
@@ -12605,18 +12723,18 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>815</v>
+        <v>819</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>816</v>
+        <v>820</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>817</v>
+        <v>821</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>818</v>
+        <v>822</v>
       </c>
     </row>
   </sheetData>

--- a/csv/merge.xlsx
+++ b/csv/merge.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1093" uniqueCount="823">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1100" uniqueCount="828">
   <si>
     <t>JP Text (DO NOT CHANGE)</t>
   </si>
@@ -1195,6 +1195,9 @@
 flutter over the entire demon world!</t>
   </si>
   <si>
+    <t>Zechres book</t>
+  </si>
+  <si>
     <t>追憶のキャンバスが　浮いている……。
 ルネデリコに　はるかなる戦いの記憶を
 描いてもらいますか？
@@ -8273,6 +8276,33 @@
   </si>
   <si>
     <t>Be reborn as a Weddie?&lt;yesno&gt;&lt;close&gt;</t>
+  </si>
+  <si>
+    <t>冒険の書に記録しています……。
+ソフトを終了しないでください。
+&lt;br&gt;
+冒険の書に記録しました！&lt;me 60&gt;</t>
+  </si>
+  <si>
+    <t>Recording data in Adventure Log...
+Please do not exit the software.
+&lt;br&gt;
+Adventure Log data successfully recorded!&lt;me 60&gt;</t>
+  </si>
+  <si>
+    <t>アストルティアへと　旅立つため
+メインメニューに戻ります。
+&lt;br&gt;
+記録した　冒険の書をえらび
+旅のつづきを　お楽しみください。</t>
+  </si>
+  <si>
+    <t>You will now return to the main menu. Please
+select your Adventure Log to continue your
+adventure.
+&lt;br&gt;
+We hope you enjoy your adventures to
+come in Astoltia!</t>
   </si>
   <si>
     <t>メインコマンド『せんれき』の
@@ -8632,6 +8662,7 @@
       <c r="C2" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="D2" s="2"/>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
@@ -9285,6 +9316,9 @@
       <c r="C64" s="2" t="s">
         <v>137</v>
       </c>
+      <c r="D64" s="2" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
@@ -9293,387 +9327,390 @@
       <c r="C65" s="2" t="s">
         <v>139</v>
       </c>
+      <c r="D65" s="2" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="D74" s="2" t="s">
         <v>159</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="D91" s="2" t="s">
         <v>196</v>
-      </c>
-      <c r="C91" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="D91" s="2" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="5" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B101" s="4"/>
       <c r="C101" s="3" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D101" s="5" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E101" s="4"/>
       <c r="F101" s="4"/>
@@ -9700,2992 +9737,3014 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="D102" s="2" t="s">
         <v>219</v>
-      </c>
-      <c r="C102" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="D102" s="2" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="D126" s="2" t="s">
         <v>266</v>
-      </c>
-      <c r="C126" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="D126" s="2" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="D134" s="2" t="s">
         <v>283</v>
-      </c>
-      <c r="C134" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="D134" s="2" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="D136" s="2" t="s">
         <v>288</v>
-      </c>
-      <c r="C136" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="D136" s="2" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="D145" s="2" t="s">
         <v>309</v>
-      </c>
-      <c r="C145" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="D145" s="2" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="D151" s="2" t="s">
         <v>322</v>
-      </c>
-      <c r="C151" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="D151" s="2" t="s">
-        <v>321</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="D153" s="2" t="s">
         <v>327</v>
-      </c>
-      <c r="C153" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="D153" s="2" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C163" s="7" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>375</v>
-      </c>
+        <v>376</v>
+      </c>
+      <c r="E175" s="2"/>
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="C176" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="D176" s="2" t="s">
         <v>376</v>
-      </c>
-      <c r="C176" s="2" t="s">
-        <v>377</v>
-      </c>
-      <c r="D176" s="2" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="C178" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="D178" s="2" t="s">
         <v>381</v>
-      </c>
-      <c r="C178" s="2" t="s">
-        <v>382</v>
-      </c>
-      <c r="D178" s="2" t="s">
-        <v>380</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>391</v>
+        <v>392</v>
+      </c>
+      <c r="D182" s="2" t="s">
+        <v>381</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="C184" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="D184" s="2" t="s">
         <v>395</v>
-      </c>
-      <c r="C184" s="2" t="s">
-        <v>396</v>
-      </c>
-      <c r="D184" s="2" t="s">
-        <v>394</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="C203" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="D203" s="2" t="s">
         <v>435</v>
-      </c>
-      <c r="C203" s="2" t="s">
-        <v>436</v>
-      </c>
-      <c r="D203" s="2" t="s">
-        <v>434</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="2" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="2" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="2" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="2" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="2" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="2" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="2" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="C215" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="D215" s="2" t="s">
         <v>460</v>
-      </c>
-      <c r="C215" s="2" t="s">
-        <v>461</v>
-      </c>
-      <c r="D215" s="2" t="s">
-        <v>459</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="2" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="2" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C217" s="2" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="2" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="2" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="2" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="D220" s="2" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="C221" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="D221" s="2" t="s">
         <v>477</v>
-      </c>
-      <c r="C221" s="2" t="s">
-        <v>478</v>
-      </c>
-      <c r="D221" s="2" t="s">
-        <v>476</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="2" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="D222" s="2" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="2" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="C224" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="D224" s="2" t="s">
         <v>484</v>
-      </c>
-      <c r="C224" s="2" t="s">
-        <v>485</v>
-      </c>
-      <c r="D224" s="2" t="s">
-        <v>483</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="2" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="C225" s="2" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="D225" s="2" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="E225" s="2" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="2" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="C226" s="2" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="D226" s="2" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="2" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="C227" s="2" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="D227" s="2" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="2" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C228" s="2" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="D228" s="2" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="2" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="C229" s="2" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="D229" s="2" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="2" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="C230" s="2" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="D230" s="2" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="2" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C231" s="2" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="D231" s="2" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="2" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="C232" s="2" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="D232" s="2" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="2" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="C233" s="2" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="D233" s="2" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="2" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="C234" s="2" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="D234" s="2" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="2" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C235" s="2" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="D235" s="2" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="2" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="C236" s="2" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="D236" s="2" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="C237" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="D237" s="2" t="s">
         <v>513</v>
-      </c>
-      <c r="C237" s="2" t="s">
-        <v>514</v>
-      </c>
-      <c r="D237" s="2" t="s">
-        <v>512</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="2" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="C238" s="2" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="D238" s="2" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="2" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="C239" s="2" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="D239" s="2" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="C240" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="D240" s="2" t="s">
         <v>520</v>
-      </c>
-      <c r="C240" s="2" t="s">
-        <v>521</v>
-      </c>
-      <c r="D240" s="2" t="s">
-        <v>519</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="2" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="C241" s="2" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="D241" s="2" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="2" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="C242" s="2" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="D242" s="2" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="2" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="C243" s="2" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="D243" s="2" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="2" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="C244" s="2" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="D244" s="2" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="2" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="C245" s="2" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="D245" s="2" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="2" t="s">
+        <v>535</v>
+      </c>
+      <c r="C246" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="D246" s="2" t="s">
         <v>534</v>
-      </c>
-      <c r="C246" s="2" t="s">
-        <v>535</v>
-      </c>
-      <c r="D246" s="2" t="s">
-        <v>533</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="2" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="C247" s="2" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="D247" s="2" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="2" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="C248" s="2" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="D248" s="2" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="2" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="C249" s="2" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="D249" s="2" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="2" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="C250" s="2" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="D250" s="2" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="2" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="C251" s="2" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="D251" s="2" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="2" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="C252" s="2" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="D252" s="2" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="2" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="C253" s="2" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="D253" s="2" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="2" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="C254" s="2" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="D254" s="2" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="2" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="C255" s="2" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="D255" s="2" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="2" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="C256" s="2" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="D256" s="2" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="2" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="C257" s="2" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="D257" s="2" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="2" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="C258" s="2" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="D258" s="2" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" s="2" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="C259" s="2" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="D259" s="2" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="2" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="C260" s="2" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="D260" s="2" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="2" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="C261" s="2" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="D261" s="2" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="2" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="C262" s="2" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="D262" s="2" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="2" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="C263" s="2" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="D263" s="2" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="2" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="C264" s="2" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="D264" s="2" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="2" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="C265" s="2" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="D265" s="2" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="2" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="C266" s="2" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="D266" s="2" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" s="2" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="C267" s="2" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="D267" s="2" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" s="2" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="C268" s="2" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="D268" s="2" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="2" t="s">
+        <v>584</v>
+      </c>
+      <c r="C269" s="2" t="s">
+        <v>585</v>
+      </c>
+      <c r="D269" s="2" t="s">
         <v>583</v>
-      </c>
-      <c r="C269" s="2" t="s">
-        <v>584</v>
-      </c>
-      <c r="D269" s="2" t="s">
-        <v>582</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" s="2" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="C270" s="2" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="D270" s="2" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" s="2" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="C271" s="2" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="D271" s="2" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" s="2" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="C272" s="2" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="D272" s="2" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" s="2" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="C273" s="2" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="D273" s="2" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" s="2" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="C274" s="2" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="D274" s="2" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" s="2" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="C275" s="2" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="D275" s="2" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" s="2" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="C276" s="2" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="D276" s="2" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" s="2" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="C277" s="2" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="D277" s="2" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" s="2" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="C278" s="2" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="D278" s="2" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" s="2" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="C279" s="2" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="D279" s="2" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" s="2" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C280" s="2" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="D280" s="2" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" s="2" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="C281" s="2" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="D281" s="2" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" s="2" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="C282" s="2" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="D282" s="2" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" s="2" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="C283" s="2" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="D283" s="2" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" s="2" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="C284" s="2" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="D284" s="2" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" s="2" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="C285" s="2" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="D285" s="2" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" s="2" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="C286" s="2" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="D286" s="2" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" s="2" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="C287" s="2" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="D287" s="2" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" s="2" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="C288" s="2" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="D288" s="2" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" s="2" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="C289" s="2" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="D289" s="2" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" s="2" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="C290" s="2" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="D290" s="2" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" s="2" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="C291" s="2" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="D291" s="2" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" s="2" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="C292" s="2" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="D292" s="2" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" s="2" t="s">
+        <v>633</v>
+      </c>
+      <c r="C293" s="2" t="s">
+        <v>634</v>
+      </c>
+      <c r="D293" s="2" t="s">
         <v>632</v>
-      </c>
-      <c r="C293" s="2" t="s">
-        <v>633</v>
-      </c>
-      <c r="D293" s="2" t="s">
-        <v>631</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" s="2" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="C294" s="2" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="D294" s="2" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" s="2" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="C295" s="2" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="D295" s="2" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" s="2" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="C296" s="2" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="D296" s="2" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" s="2" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="C297" s="2" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="D297" s="2" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" s="2" t="s">
+        <v>645</v>
+      </c>
+      <c r="C298" s="2" t="s">
+        <v>646</v>
+      </c>
+      <c r="D298" s="2" t="s">
         <v>644</v>
-      </c>
-      <c r="C298" s="2" t="s">
-        <v>645</v>
-      </c>
-      <c r="D298" s="2" t="s">
-        <v>643</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" s="2" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="C299" s="2" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="D299" s="2" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" s="2" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="C300" s="2" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="D300" s="2" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" s="2" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="C301" s="2" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="D301" s="2" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" s="2" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="C302" s="2" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="D302" s="2" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" s="2" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="C303" s="2" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="D303" s="2" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" s="2" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="C304" s="2" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="D304" s="2" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" s="2" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="C305" s="2" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="D305" s="2" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" s="2" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="C306" s="2" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="D306" s="2" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" s="2" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="C307" s="2" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="D307" s="2" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" s="2" t="s">
+        <v>674</v>
+      </c>
+      <c r="C308" s="2" t="s">
+        <v>675</v>
+      </c>
+      <c r="D308" s="2" t="s">
         <v>673</v>
-      </c>
-      <c r="C308" s="2" t="s">
-        <v>674</v>
-      </c>
-      <c r="D308" s="2" t="s">
-        <v>672</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" s="2" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="C309" s="2" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="D309" s="2" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" s="2" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="C310" s="2" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="D310" s="2" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" s="2" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="C311" s="2" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="D311" s="2" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" s="2" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="C312" s="2" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="D312" s="2" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" s="2" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="C313" s="2" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="D313" s="2" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" s="2" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="C314" s="2" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="D314" s="2" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" s="2" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="C315" s="2" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="D315" s="2" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" s="2" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="C316" s="2" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="D316" s="2" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" s="2" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="C317" s="2" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="D317" s="2" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" s="2" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="C318" s="2" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="D318" s="2" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" s="2" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="C319" s="2" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="D319" s="2" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" s="2" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="C320" s="2" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="D320" s="2" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" s="2" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="C321" s="2" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="D321" s="2" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" s="2" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="C322" s="2" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="D322" s="2" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" s="2" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="C323" s="2" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="D323" s="2" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" s="2" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="C324" s="2" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="D324" s="2" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" s="2" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="C325" s="2" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="D325" s="2" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" s="2" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="C326" s="2" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="D326" s="2" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" s="2" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="C327" s="2" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="D327" s="2" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" s="2" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="C328" s="2" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="D328" s="2" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" s="2" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="C329" s="2" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="D329" s="2"/>
     </row>
     <row r="330">
       <c r="A330" s="2" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="C330" s="2" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="D330" s="2" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" s="2" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="C331" s="2" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="D331" s="2" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" s="2" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="C332" s="2" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="D332" s="2" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" s="2" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="C333" s="2" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="D333" s="2" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" s="2" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="C334" s="2" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="D334" s="2" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" s="2" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="C335" s="2" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="D335" s="2" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" s="2" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="C336" s="2" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="D336" s="2" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" s="2" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="C337" s="2" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="D337" s="2" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" s="2" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="C338" s="2" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="D338" s="2" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" s="2" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="C339" s="2" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="D339" s="2" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" s="2" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="C340" s="2" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="D340" s="2" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" s="2" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="C341" s="2" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="D341" s="2" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" s="2" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="C342" s="2" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="D342" s="2" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" s="2" t="s">
+        <v>747</v>
+      </c>
+      <c r="C343" s="2" t="s">
+        <v>748</v>
+      </c>
+      <c r="D343" s="2" t="s">
         <v>746</v>
-      </c>
-      <c r="C343" s="2" t="s">
-        <v>747</v>
-      </c>
-      <c r="D343" s="2" t="s">
-        <v>745</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" s="2" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="C344" s="2" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="D344" s="2" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" s="2" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="C345" s="2" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="D345" s="2" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" s="2" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="C346" s="2" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="D346" s="2" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" s="2" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="C347" s="2" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="D347" s="2" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" s="2" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="C348" s="2" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="D348" s="2" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" s="2" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="C349" s="2" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="D349" s="2" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" s="2" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="C350" s="2" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="D350" s="2" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" s="2" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="C351" s="2" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="D351" s="2" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" s="2" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="C352" s="2" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="D352" s="2" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" s="2" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="C353" s="2" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="D353" s="2"/>
     </row>
     <row r="354">
       <c r="A354" s="2" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="C354" s="2" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="D354" s="2" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" s="2" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="C355" s="2" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="D355" s="2" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" s="2" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="C356" s="2" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="D356" s="2" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" s="2" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="C357" s="2" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="D357" s="2" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" s="2" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="C358" s="2" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="D358" s="2" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" s="2" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="C359" s="2" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="D359" s="2" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" s="2" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="C360" s="2" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="D360" s="2" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" s="2" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="C361" s="2" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="D361" s="2" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" s="2" t="s">
+        <v>788</v>
+      </c>
+      <c r="C362" s="2" t="s">
+        <v>789</v>
+      </c>
+      <c r="D362" s="2" t="s">
         <v>787</v>
-      </c>
-      <c r="C362" s="2" t="s">
-        <v>788</v>
-      </c>
-      <c r="D362" s="2" t="s">
-        <v>786</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" s="2" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="C363" s="2" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="D363" s="2" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" s="2" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="C364" s="2" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="D364" s="2" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" s="2" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="C365" s="2" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="D365" s="2" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" s="2" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="C366" s="2" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="D366" s="2" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" s="2" t="s">
+        <v>802</v>
+      </c>
+      <c r="C367" s="2" t="s">
+        <v>803</v>
+      </c>
+      <c r="D367" s="2" t="s">
         <v>801</v>
-      </c>
-      <c r="C367" s="2" t="s">
-        <v>802</v>
-      </c>
-      <c r="D367" s="2" t="s">
-        <v>800</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" s="2" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="C368" s="2" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="D368" s="2" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" s="2" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="C369" s="2" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="D369" s="2" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" s="2" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="C370" s="2" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="D370" s="2" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" s="2" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="C371" s="2" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="D371" s="2" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" s="2" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="C372" s="2" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="D372" s="2" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" s="2" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="C373" s="2" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="D373" s="2" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" s="2" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="C374" s="2" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="D374" s="2" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" s="2" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="C375" s="2" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="D375" s="2" t="s">
-        <v>800</v>
-      </c>
+        <v>801</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" s="2" t="s">
+        <v>820</v>
+      </c>
+      <c r="C376" s="2" t="s">
+        <v>821</v>
+      </c>
+      <c r="D376" s="2"/>
+    </row>
+    <row r="377">
+      <c r="A377" s="2" t="s">
+        <v>822</v>
+      </c>
+      <c r="C377" s="2" t="s">
+        <v>823</v>
+      </c>
+      <c r="D377" s="2"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -12723,18 +12782,18 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>819</v>
+        <v>824</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>820</v>
+        <v>825</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>821</v>
+        <v>826</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>822</v>
+        <v>827</v>
       </c>
     </row>
   </sheetData>

--- a/csv/merge.xlsx
+++ b/csv/merge.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1100" uniqueCount="828">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1112" uniqueCount="838">
   <si>
     <t>JP Text (DO NOT CHANGE)</t>
   </si>
@@ -8303,6 +8303,72 @@
 &lt;br&gt;
 We hope you enjoy your adventures to
 come in Astoltia!</t>
+  </si>
+  <si>
+    <t>クリスタルゲージを　取りだして
+その色を　確認してみた。
+&lt;br&gt;
+輝晶核の波動が強く　赤色に　輝いている。
+しばらく待てば　この地域にいる　輝晶獣が
+姿を　あらわしそうだ！</t>
+  </si>
+  <si>
+    <t>You pulled out your Crystal Gauge and
+checked its current reading.
+&lt;br&gt;
+The gauge is glowing red, signifying strong
+pyroclastic readings. A Pyrobeast should be
+appearing in this area very soon!</t>
+  </si>
+  <si>
+    <t>Crystal Gauge (BAD STRING)</t>
+  </si>
+  <si>
+    <t>クリスタルゲージを　取りだして
+その色を　確認してみた。
+&lt;br&gt;
+ゲージが　虹色に　強く　輝いている。
+すでに　この地域のどこかに
+輝晶獣が　あらわれているようだ！</t>
+  </si>
+  <si>
+    <t>You pulled out your Crystal Gauge and
+checked its current reading.
+&lt;br&gt;
+The gauge has a brilliant rainbow glow.
+There is a Pyrobeast somewhere in this
+area!</t>
+  </si>
+  <si>
+    <t>クリスタルゲージを　取りだして
+その色を　確認してみた。
+&lt;br&gt;
+透明なままで　色が　変わっていない。
+この地域では　輝晶核の波動を
+まったく　感知できていないようだ。</t>
+  </si>
+  <si>
+    <t>You pulled out your Crystal Gauge and
+checked its current reading.
+&lt;br&gt;
+The gauge remains clear and has no signs of
+any readings. This area contains no readings
+of Pyrobeasts whatsoever.</t>
+  </si>
+  <si>
+    <t>しかし　何も起こらなかった……。
+どうやら　この場所では
+ポケット映写機は　使えないようだ。</t>
+  </si>
+  <si>
+    <t>You pulled out your Pocket Projector!
+&lt;br&gt;
+But nothing happened... It seems that the
+Pocket Projector won't function in this
+place.</t>
+  </si>
+  <si>
+    <t>Pocket Projector (BAD STRING)</t>
   </si>
   <si>
     <t>メインコマンド『せんれき』の
@@ -12746,6 +12812,50 @@
       </c>
       <c r="D377" s="2"/>
     </row>
+    <row r="378">
+      <c r="A378" s="2" t="s">
+        <v>824</v>
+      </c>
+      <c r="C378" s="2" t="s">
+        <v>825</v>
+      </c>
+      <c r="D378" s="2" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" s="2" t="s">
+        <v>827</v>
+      </c>
+      <c r="C379" s="2" t="s">
+        <v>828</v>
+      </c>
+      <c r="D379" s="2" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" s="2" t="s">
+        <v>829</v>
+      </c>
+      <c r="C380" s="2" t="s">
+        <v>830</v>
+      </c>
+      <c r="D380" s="2" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" s="2" t="s">
+        <v>831</v>
+      </c>
+      <c r="C381" s="2" t="s">
+        <v>832</v>
+      </c>
+      <c r="D381" s="2" t="s">
+        <v>833</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -12782,18 +12892,18 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>824</v>
+        <v>834</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>825</v>
+        <v>835</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>826</v>
+        <v>836</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>827</v>
+        <v>837</v>
       </c>
     </row>
   </sheetData>

--- a/csv/merge.xlsx
+++ b/csv/merge.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1112" uniqueCount="838">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1127" uniqueCount="852">
   <si>
     <t>JP Text (DO NOT CHANGE)</t>
   </si>
@@ -8369,6 +8369,109 @@
   </si>
   <si>
     <t>Pocket Projector (BAD STRING)</t>
+  </si>
+  <si>
+    <t>「こちらでは　福袋を扱っておりますモ。
+　何が入っているかは　開けてみてのお楽しみモ。
+　いっちょ運試しに　いかがかモー？&lt;bw_break&gt;</t>
+  </si>
+  <si>
+    <t>We're offering a special grab bag to purchase!
+You won't know what's inside until you open
+it. Why don't you try your luck?</t>
+  </si>
+  <si>
+    <t>New Year's Grab Bag Shop</t>
+  </si>
+  <si>
+    <t>「こんにちはっ。
+　開運おみくじで　新年を占ってみませんか？
+&lt;select&gt;
+おみくじを引く
+説明を聞く
+やめる
+&lt;select_end&gt;
+&lt;case 1&gt;
+&lt;break&gt;
+&lt;case 2&gt;
+&lt;break&gt;
+&lt;case 3&gt;
+&lt;break&gt;
+&lt;case_cancel&gt;
+&lt;break&gt;
+&lt;case_end&gt;</t>
+  </si>
+  <si>
+    <t>Hello, hello. Why don't you see what your
+fortune for the New Year is?
+&lt;select&gt;
+Draw Fortune
+Explanation
+Cancel
+&lt;select_end&gt;
+&lt;case 1&gt;
+&lt;break&gt;
+&lt;case 2&gt;
+&lt;break&gt;
+&lt;case 3&gt;
+&lt;break&gt;
+&lt;case_cancel&gt;
+&lt;break&gt;
+&lt;case_end&gt;</t>
+  </si>
+  <si>
+    <t>New Year's Fortune Teller</t>
+  </si>
+  <si>
+    <t>「開運おみくじは　１回　５００ゴールドです。
+　おみくじを　引いていかれますか？&lt;yesno&gt;&lt;break&gt;</t>
+  </si>
+  <si>
+    <t>One Good Fortune Slip costs 500 Gold.
+Would you like to see your fortune?&lt;yesno&gt;&lt;break&gt;</t>
+  </si>
+  <si>
+    <t>心を込めて　おみくじを引いた……！</t>
+  </si>
+  <si>
+    <t>Putting all of your heart and soul into it,
+you drew your fortune!</t>
+  </si>
+  <si>
+    <t>New Year's Fortune Teller (BAD STRING)</t>
+  </si>
+  <si>
+    <t>「こちらでは　新年の祈願のための　絵馬と
+　願いの花びらを　お分けしております。
+&lt;br&gt;
+「絵馬に書いた願い事は　他の人からも
+　見られますので　よく考えて　お書きください。
+&lt;br&gt;
+「絵馬の使い方については　掛所にいるアオヤギに
+　願いの花びらについては　手水場の奥にいる
+　セキチクに　おたずねください。
+&lt;br&gt;
+「では……&lt;bw_break&gt;</t>
+  </si>
+  <si>
+    <t>Here you can buy New Year Emas and Wish Petals!
+What is an ema, you ask? It's a wooden plaque
+you write your wish on, and then hang up!
+&lt;br&gt;
+Other people can see the wish you wrote,
+so think carefully about what is really is that
+you wish for.
+&lt;br&gt;
+If you want to know more about how to use ema,
+go speak to Aoyagi over there. If you want to
+know more about Wish Petals, go and speak with
+&lt;br&gt;
+Sekichiku near the basin to the south.
+&lt;br&gt;
+Now then...</t>
+  </si>
+  <si>
+    <t>New Year's Item Shop</t>
   </si>
   <si>
     <t>メインコマンド『せんれき』の
@@ -12856,6 +12959,61 @@
         <v>833</v>
       </c>
     </row>
+    <row r="382">
+      <c r="A382" s="2" t="s">
+        <v>834</v>
+      </c>
+      <c r="C382" s="2" t="s">
+        <v>835</v>
+      </c>
+      <c r="D382" s="2" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" s="2" t="s">
+        <v>837</v>
+      </c>
+      <c r="C383" s="2" t="s">
+        <v>838</v>
+      </c>
+      <c r="D383" s="2" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" s="2" t="s">
+        <v>840</v>
+      </c>
+      <c r="C384" s="2" t="s">
+        <v>841</v>
+      </c>
+      <c r="D384" s="2" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" s="2" t="s">
+        <v>842</v>
+      </c>
+      <c r="C385" s="2" t="s">
+        <v>843</v>
+      </c>
+      <c r="D385" s="2" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" s="2" t="s">
+        <v>845</v>
+      </c>
+      <c r="C386" s="2" t="s">
+        <v>846</v>
+      </c>
+      <c r="D386" s="2" t="s">
+        <v>847</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -12892,18 +13050,18 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>834</v>
+        <v>848</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>835</v>
+        <v>849</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>836</v>
+        <v>850</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>837</v>
+        <v>851</v>
       </c>
     </row>
   </sheetData>

--- a/csv/merge.xlsx
+++ b/csv/merge.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1127" uniqueCount="852">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1146" uniqueCount="868">
   <si>
     <t>JP Text (DO NOT CHANGE)</t>
   </si>
@@ -8305,6 +8305,9 @@
 come in Astoltia!</t>
   </si>
   <si>
+    <t>After race selection (BAD STRING)</t>
+  </si>
+  <si>
     <t>クリスタルゲージを　取りだして
 その色を　確認してみた。
 &lt;br&gt;
@@ -8472,6 +8475,111 @@
   </si>
   <si>
     <t>New Year's Item Shop</t>
+  </si>
+  <si>
+    <t>羅刹王バラシュナが　凄絶なる禍唱を使うと
+マホカンタと打撃完全ガードの効果がかかるので
+零の洗礼などで解除すると　戦いやすくなるぞ！</t>
+  </si>
+  <si>
+    <t>When Barashna uses "Terrible Chanting", he
+gains a Bounce effect and nullifies all
+incoming phyiscal damage!
+&lt;br&gt;
+Use skills such as "Disruptive Wave" or
+"Null Baptism" to remove these effects!</t>
+  </si>
+  <si>
+    <t>Barashna hint</t>
+  </si>
+  <si>
+    <t>冒険者のあなたに　心強い仲間と
+すぐに　強くなれる帽子を　用意しました。</t>
+  </si>
+  <si>
+    <t>Welcome to Astoltia!
+&lt;br&gt;
+As an adventurer beginning past Version 1,
+you'll be given strong allies and a hat
+that'll help you to get stronger.</t>
+  </si>
+  <si>
+    <t>Start Past Version 1 (BAD STRING)</t>
+  </si>
+  <si>
+    <t>サポート仲間が　パーティへ参加した！&lt;se_nots System 7&gt;
+&lt;br&gt;
+つづいて　エンゼルスライム帽を　そうびします。</t>
+  </si>
+  <si>
+    <t>You had some support party members join you!&lt;se_nots System 7&gt;
+&lt;br&gt;
+Next, your Angel Slime Hat will be equipped.</t>
+  </si>
+  <si>
+    <t>Start Past Version 1</t>
+  </si>
+  <si>
+    <t>エンゼルスライム帽を　かぶった！&lt;se_nots Joutyu_SE 24&gt;
+&lt;br&gt;
+そうびは　メインコマンドにある
+『そうび』から　いつでも変更できます。</t>
+  </si>
+  <si>
+    <t>You equipped your Angel Slime Cap!&lt;se_nots Joutyu_SE 24&gt;
+&lt;br&gt;
+Equipment can be changed at any time from
+"Equip" in the main command window.</t>
+  </si>
+  <si>
+    <t>遠くの場所へ　行きたい場合は　町にある列車や
+どうぐ欄の中にある　ルーラストーンが
+あなたの冒険を　助けてくれるでしょう。
+&lt;br&gt;
+冒険で困ったときは　『さくせん』コマンドにある
+『遊び方ガイド』の『遊び方のヒント』からでも
+冒険に役立つ情報が　確認できます。
+&lt;br&gt;
+ゲームについて　さらに　くわしく知りたい場合は
+冒険者の広場にて　ご確認ください。
+https://sqex.to/MGUIDE
+&lt;br&gt;
+さあ　旅立ちのときです。
+この広い世界の冒険を　楽しんでください。</t>
+  </si>
+  <si>
+    <t>Many a challenge awaits you in this grand
+world. Talking to the villagers in this town may
+provide you with some helpful information.
+&lt;br&gt;
+Quests will be marked with purple icons.
+If you find yourself lost, opening your
+map can show you the way.
+&lt;br&gt;
+To travel to faraway places, you can use a
+train station or a Zoomstone, located under
+the "Items" command.
+&lt;br&gt;
+You can find useful adventuring information
+in the "Play Guide" section using the "Misc."
+command.
+&lt;br&gt;
+Now, it is time to embark on your great
+journey. Adventure awaits!</t>
+  </si>
+  <si>
+    <t>おや？
+&lt;br&gt;
+さっそく　手紙が届いたようです。
+郵便局員に　話しかけて
+手紙を　受け取ってみましょう。</t>
+  </si>
+  <si>
+    <t>What's this?
+&lt;br&gt;
+It seems you've received a letter. Why don't
+you go to the Post Office and see what it's
+about?</t>
   </si>
   <si>
     <t>メインコマンド『せんれき』の
@@ -12913,105 +13021,173 @@
       <c r="C377" s="2" t="s">
         <v>823</v>
       </c>
-      <c r="D377" s="2"/>
+      <c r="D377" s="2" t="s">
+        <v>824</v>
+      </c>
     </row>
     <row r="378">
       <c r="A378" s="2" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="C378" s="2" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="D378" s="2" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" s="2" t="s">
+        <v>828</v>
+      </c>
+      <c r="C379" s="2" t="s">
+        <v>829</v>
+      </c>
+      <c r="D379" s="2" t="s">
         <v>827</v>
-      </c>
-      <c r="C379" s="2" t="s">
-        <v>828</v>
-      </c>
-      <c r="D379" s="2" t="s">
-        <v>826</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" s="2" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="C380" s="2" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="D380" s="2" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" s="2" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="C381" s="2" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="D381" s="2" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" s="2" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="C382" s="2" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="D382" s="2" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" s="2" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="C383" s="2" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="D383" s="2" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" s="2" t="s">
+        <v>841</v>
+      </c>
+      <c r="C384" s="2" t="s">
+        <v>842</v>
+      </c>
+      <c r="D384" s="2" t="s">
         <v>840</v>
-      </c>
-      <c r="C384" s="2" t="s">
-        <v>841</v>
-      </c>
-      <c r="D384" s="2" t="s">
-        <v>839</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" s="2" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="C385" s="2" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="D385" s="2" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" s="2" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="C386" s="2" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="D386" s="2" t="s">
-        <v>847</v>
+        <v>848</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" s="2" t="s">
+        <v>849</v>
+      </c>
+      <c r="C387" s="2" t="s">
+        <v>850</v>
+      </c>
+      <c r="D387" s="2" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" s="2" t="s">
+        <v>852</v>
+      </c>
+      <c r="C388" s="2" t="s">
+        <v>853</v>
+      </c>
+      <c r="D388" s="2" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" s="2" t="s">
+        <v>855</v>
+      </c>
+      <c r="C389" s="2" t="s">
+        <v>856</v>
+      </c>
+      <c r="D389" s="2" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" s="2" t="s">
+        <v>858</v>
+      </c>
+      <c r="C390" s="2" t="s">
+        <v>859</v>
+      </c>
+      <c r="D390" s="2" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" s="2" t="s">
+        <v>860</v>
+      </c>
+      <c r="C391" s="2" t="s">
+        <v>861</v>
+      </c>
+      <c r="D391" s="2" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" s="2" t="s">
+        <v>862</v>
+      </c>
+      <c r="C392" s="2" t="s">
+        <v>863</v>
+      </c>
+      <c r="D392" s="2" t="s">
+        <v>857</v>
       </c>
     </row>
   </sheetData>
@@ -13050,18 +13226,18 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>848</v>
+        <v>864</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>849</v>
+        <v>865</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>850</v>
+        <v>866</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>851</v>
+        <v>867</v>
       </c>
     </row>
   </sheetData>

--- a/csv/merge.xlsx
+++ b/csv/merge.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1146" uniqueCount="868">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1149" uniqueCount="871">
   <si>
     <t>JP Text (DO NOT CHANGE)</t>
   </si>
@@ -8580,6 +8580,17 @@
 It seems you've received a letter. Why don't
 you go to the Post Office and see what it's
 about?</t>
+  </si>
+  <si>
+    <t>ドルボードは　燃料切れだった！
+ドルセリンを　１つチャージして乗ります。</t>
+  </si>
+  <si>
+    <t>Your Dolboard ran out of fuel! Using 1
+Dolsoline to charge it.</t>
+  </si>
+  <si>
+    <t>Dolboard out of fuel</t>
   </si>
   <si>
     <t>メインコマンド『せんれき』の
@@ -13190,6 +13201,17 @@
         <v>857</v>
       </c>
     </row>
+    <row r="393">
+      <c r="A393" s="2" t="s">
+        <v>864</v>
+      </c>
+      <c r="C393" s="2" t="s">
+        <v>865</v>
+      </c>
+      <c r="D393" s="2" t="s">
+        <v>866</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -13226,18 +13248,18 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>864</v>
+        <v>867</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>865</v>
+        <v>868</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>866</v>
+        <v>869</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>867</v>
+        <v>870</v>
       </c>
     </row>
   </sheetData>

--- a/csv/merge.xlsx
+++ b/csv/merge.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1149" uniqueCount="871">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1155" uniqueCount="875">
   <si>
     <t>JP Text (DO NOT CHANGE)</t>
   </si>
@@ -1586,6 +1586,15 @@
 after 1 day.&lt;end&gt;</t>
   </si>
   <si>
+    <t>もう一度　ふしぎな小箱を　使えるようになるのは
+１日後となります。
+&lt;end&gt;</t>
+  </si>
+  <si>
+    <t>You'll be able to use the Mysterious Box
+again in 1 day.&lt;end&gt;</t>
+  </si>
+  <si>
     <t>ふしぎな小箱の　導きにより
 小箱に　幸運が宿った！&lt;se Joutyu_SE 40&gt;
 &lt;br&gt;
@@ -8591,6 +8600,48 @@
   </si>
   <si>
     <t>Dolboard out of fuel</t>
+  </si>
+  <si>
+    <t>敵の強さを　選んでください。
+（数字が大きくなるほど　強くなります）
+&lt;select&gt;
+つよさⅠ
+つよさⅡ
+つよさⅢ
+つよさⅣ
+&lt;select_end&gt;
+&lt;case 1&gt;
+&lt;close&gt;
+&lt;case 2&gt;
+&lt;close&gt;
+&lt;case 3&gt;
+&lt;close&gt;
+&lt;case 4&gt;
+&lt;close&gt;
+&lt;case_cancel&gt;
+&lt;close&gt;
+&lt;case_end&gt;</t>
+  </si>
+  <si>
+    <t>Select the strength of the boss.
+(A higher number means more powerful.)
+&lt;select&gt;
+Strength I
+Strength II
+Strength III
+Strength IV
+&lt;select_end&gt;
+&lt;case 1&gt;
+&lt;close&gt;
+&lt;case 2&gt;
+&lt;close&gt;
+&lt;case 3&gt;
+&lt;close&gt;
+&lt;case 4&gt;
+&lt;close&gt;
+&lt;case_cancel&gt;
+&lt;close&gt;
+&lt;case_end&gt;</t>
   </si>
   <si>
     <t>メインコマンド『せんれき』の
@@ -9843,29 +9894,29 @@
         <v>187</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>188</v>
+        <v>159</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C88" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="C88" s="2" t="s">
+      <c r="D88" s="2" t="s">
         <v>190</v>
-      </c>
-      <c r="D88" s="2" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C89" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="C89" s="2" t="s">
+      <c r="D89" s="2" t="s">
         <v>193</v>
-      </c>
-      <c r="D89" s="2" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="90">
@@ -9876,18 +9927,18 @@
         <v>195</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="C91" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="C91" s="2" t="s">
+      <c r="D91" s="2" t="s">
         <v>198</v>
-      </c>
-      <c r="D91" s="2" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="92">
@@ -9898,7 +9949,7 @@
         <v>200</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="93">
@@ -9909,7 +9960,7 @@
         <v>202</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="94">
@@ -9920,7 +9971,7 @@
         <v>204</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="95">
@@ -9931,7 +9982,7 @@
         <v>206</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="96">
@@ -9942,7 +9993,7 @@
         <v>208</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="97">
@@ -9953,7 +10004,7 @@
         <v>210</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="98">
@@ -9964,7 +10015,7 @@
         <v>212</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="99">
@@ -9975,7 +10026,7 @@
         <v>214</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="100">
@@ -9986,74 +10037,74 @@
         <v>216</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="101">
-      <c r="A101" s="5" t="s">
+      <c r="A101" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="B101" s="4"/>
-      <c r="C101" s="3" t="s">
+      <c r="C101" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="D101" s="5" t="s">
+      <c r="D101" s="2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="E101" s="4"/>
-      <c r="F101" s="4"/>
-      <c r="G101" s="4"/>
-      <c r="H101" s="4"/>
-      <c r="I101" s="4"/>
-      <c r="J101" s="4"/>
-      <c r="K101" s="4"/>
-      <c r="L101" s="4"/>
-      <c r="M101" s="4"/>
-      <c r="N101" s="4"/>
-      <c r="O101" s="4"/>
-      <c r="P101" s="4"/>
-      <c r="Q101" s="4"/>
-      <c r="R101" s="4"/>
-      <c r="S101" s="4"/>
-      <c r="T101" s="4"/>
-      <c r="U101" s="4"/>
-      <c r="V101" s="4"/>
-      <c r="W101" s="4"/>
-      <c r="X101" s="4"/>
-      <c r="Y101" s="4"/>
-      <c r="Z101" s="4"/>
-    </row>
-    <row r="102">
-      <c r="A102" s="2" t="s">
+      <c r="B102" s="4"/>
+      <c r="C102" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="C102" s="2" t="s">
+      <c r="D102" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="D102" s="2" t="s">
-        <v>219</v>
-      </c>
+      <c r="E102" s="4"/>
+      <c r="F102" s="4"/>
+      <c r="G102" s="4"/>
+      <c r="H102" s="4"/>
+      <c r="I102" s="4"/>
+      <c r="J102" s="4"/>
+      <c r="K102" s="4"/>
+      <c r="L102" s="4"/>
+      <c r="M102" s="4"/>
+      <c r="N102" s="4"/>
+      <c r="O102" s="4"/>
+      <c r="P102" s="4"/>
+      <c r="Q102" s="4"/>
+      <c r="R102" s="4"/>
+      <c r="S102" s="4"/>
+      <c r="T102" s="4"/>
+      <c r="U102" s="4"/>
+      <c r="V102" s="4"/>
+      <c r="W102" s="4"/>
+      <c r="X102" s="4"/>
+      <c r="Y102" s="4"/>
+      <c r="Z102" s="4"/>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>224</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="105">
@@ -10064,7 +10115,7 @@
         <v>226</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="106">
@@ -10075,7 +10126,7 @@
         <v>228</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="107">
@@ -10086,7 +10137,7 @@
         <v>230</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="108">
@@ -10097,7 +10148,7 @@
         <v>232</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="109">
@@ -10108,7 +10159,7 @@
         <v>234</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="110">
@@ -10119,7 +10170,7 @@
         <v>236</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="111">
@@ -10130,7 +10181,7 @@
         <v>238</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="112">
@@ -10141,7 +10192,7 @@
         <v>240</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="113">
@@ -10152,7 +10203,7 @@
         <v>242</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="114">
@@ -10163,7 +10214,7 @@
         <v>244</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="115">
@@ -10174,7 +10225,7 @@
         <v>246</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="116">
@@ -10185,7 +10236,7 @@
         <v>248</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="117">
@@ -10196,7 +10247,7 @@
         <v>250</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="118">
@@ -10207,7 +10258,7 @@
         <v>252</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="119">
@@ -10218,7 +10269,7 @@
         <v>254</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="120">
@@ -10229,7 +10280,7 @@
         <v>256</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="121">
@@ -10240,7 +10291,7 @@
         <v>258</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="122">
@@ -10251,14 +10302,17 @@
         <v>260</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>261</v>
+        <v>221</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="C123" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="C123" s="2" t="s">
+      <c r="D123" s="2" t="s">
         <v>263</v>
       </c>
     </row>
@@ -10272,24 +10326,21 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="D125" s="2" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="C126" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="C126" s="2" t="s">
+      <c r="D126" s="2" t="s">
         <v>268</v>
-      </c>
-      <c r="D126" s="2" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="127">
@@ -10300,7 +10351,7 @@
         <v>270</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>196</v>
+        <v>268</v>
       </c>
     </row>
     <row r="128">
@@ -10311,7 +10362,7 @@
         <v>272</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="129">
@@ -10322,7 +10373,7 @@
         <v>274</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="130">
@@ -10333,7 +10384,7 @@
         <v>276</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="131">
@@ -10344,7 +10395,7 @@
         <v>278</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="132">
@@ -10355,7 +10406,7 @@
         <v>280</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>266</v>
+        <v>198</v>
       </c>
     </row>
     <row r="133">
@@ -10366,18 +10417,18 @@
         <v>282</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>283</v>
+        <v>268</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="C134" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="C134" s="2" t="s">
+      <c r="D134" s="2" t="s">
         <v>285</v>
-      </c>
-      <c r="D134" s="2" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="135">
@@ -10388,18 +10439,18 @@
         <v>287</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="C136" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="C136" s="2" t="s">
+      <c r="D136" s="2" t="s">
         <v>290</v>
-      </c>
-      <c r="D136" s="2" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="137">
@@ -10410,7 +10461,7 @@
         <v>292</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
     </row>
     <row r="138">
@@ -10421,7 +10472,7 @@
         <v>294</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
     </row>
     <row r="139">
@@ -10432,7 +10483,7 @@
         <v>296</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
     </row>
     <row r="140">
@@ -10443,7 +10494,7 @@
         <v>298</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
     </row>
     <row r="141">
@@ -10454,7 +10505,7 @@
         <v>300</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
     </row>
     <row r="142">
@@ -10465,40 +10516,40 @@
         <v>302</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>303</v>
+        <v>290</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="C143" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="C143" s="2" t="s">
+      <c r="D143" s="2" t="s">
         <v>305</v>
-      </c>
-      <c r="D143" s="2" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="C144" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="C144" s="2" t="s">
+      <c r="D144" s="2" t="s">
         <v>308</v>
-      </c>
-      <c r="D144" s="2" t="s">
-        <v>309</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="C145" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="C145" s="2" t="s">
+      <c r="D145" s="2" t="s">
         <v>311</v>
-      </c>
-      <c r="D145" s="2" t="s">
-        <v>309</v>
       </c>
     </row>
     <row r="146">
@@ -10509,7 +10560,7 @@
         <v>313</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
     </row>
     <row r="147">
@@ -10520,7 +10571,7 @@
         <v>315</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
     </row>
     <row r="148">
@@ -10531,7 +10582,7 @@
         <v>317</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
     </row>
     <row r="149">
@@ -10542,7 +10593,7 @@
         <v>319</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>261</v>
+        <v>311</v>
       </c>
     </row>
     <row r="150">
@@ -10553,18 +10604,18 @@
         <v>321</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>322</v>
+        <v>263</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="C151" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="C151" s="2" t="s">
+      <c r="D151" s="2" t="s">
         <v>324</v>
-      </c>
-      <c r="D151" s="2" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="152">
@@ -10575,18 +10626,18 @@
         <v>326</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="C153" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="C153" s="2" t="s">
+      <c r="D153" s="2" t="s">
         <v>329</v>
-      </c>
-      <c r="D153" s="2" t="s">
-        <v>327</v>
       </c>
     </row>
     <row r="154">
@@ -10597,7 +10648,7 @@
         <v>331</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
     </row>
     <row r="155">
@@ -10608,7 +10659,7 @@
         <v>333</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
     </row>
     <row r="156">
@@ -10619,7 +10670,7 @@
         <v>335</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
     </row>
     <row r="157">
@@ -10630,7 +10681,7 @@
         <v>337</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
     </row>
     <row r="158">
@@ -10641,7 +10692,7 @@
         <v>339</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
     </row>
     <row r="159">
@@ -10652,7 +10703,7 @@
         <v>341</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
     </row>
     <row r="160">
@@ -10663,7 +10714,7 @@
         <v>343</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
     </row>
     <row r="161">
@@ -10674,7 +10725,7 @@
         <v>345</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
     </row>
     <row r="162">
@@ -10685,29 +10736,29 @@
         <v>347</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="C163" s="7" t="s">
+      <c r="C163" s="2" t="s">
         <v>349</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="C164" s="2" t="s">
+      <c r="C164" s="7" t="s">
         <v>351</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
     </row>
     <row r="165">
@@ -10718,7 +10769,7 @@
         <v>353</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
     </row>
     <row r="166">
@@ -10729,7 +10780,7 @@
         <v>355</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
     </row>
     <row r="167">
@@ -10740,7 +10791,7 @@
         <v>357</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
     </row>
     <row r="168">
@@ -10750,6 +10801,9 @@
       <c r="C168" s="2" t="s">
         <v>359</v>
       </c>
+      <c r="D168" s="2" t="s">
+        <v>329</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
@@ -10790,43 +10844,40 @@
       <c r="C173" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="D173" s="2" t="s">
-        <v>370</v>
-      </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="C174" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="C174" s="2" t="s">
+      <c r="D174" s="2" t="s">
         <v>372</v>
-      </c>
-      <c r="D174" s="2" t="s">
-        <v>373</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="C175" s="2" t="s">
         <v>374</v>
       </c>
-      <c r="C175" s="2" t="s">
+      <c r="D175" s="2" t="s">
         <v>375</v>
       </c>
-      <c r="D175" s="2" t="s">
-        <v>376</v>
-      </c>
-      <c r="E175" s="2"/>
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="C176" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="C176" s="2" t="s">
+      <c r="D176" s="2" t="s">
         <v>378</v>
       </c>
-      <c r="D176" s="2" t="s">
-        <v>376</v>
-      </c>
+      <c r="E176" s="2"/>
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
@@ -10836,18 +10887,18 @@
         <v>380</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="C178" s="2" t="s">
         <v>382</v>
       </c>
-      <c r="C178" s="2" t="s">
+      <c r="D178" s="2" t="s">
         <v>383</v>
-      </c>
-      <c r="D178" s="2" t="s">
-        <v>381</v>
       </c>
     </row>
     <row r="179">
@@ -10858,7 +10909,7 @@
         <v>385</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
     </row>
     <row r="180">
@@ -10869,18 +10920,18 @@
         <v>387</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="C181" s="2" t="s">
         <v>389</v>
       </c>
-      <c r="C181" s="2" t="s">
+      <c r="D181" s="2" t="s">
         <v>390</v>
-      </c>
-      <c r="D181" s="2" t="s">
-        <v>381</v>
       </c>
     </row>
     <row r="182">
@@ -10891,7 +10942,7 @@
         <v>392</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
     </row>
     <row r="183">
@@ -10902,18 +10953,18 @@
         <v>394</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>395</v>
+        <v>383</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="C184" s="2" t="s">
         <v>396</v>
       </c>
-      <c r="C184" s="2" t="s">
+      <c r="D184" s="2" t="s">
         <v>397</v>
-      </c>
-      <c r="D184" s="2" t="s">
-        <v>395</v>
       </c>
     </row>
     <row r="185">
@@ -10924,7 +10975,7 @@
         <v>399</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
     </row>
     <row r="186">
@@ -10935,7 +10986,7 @@
         <v>401</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
     </row>
     <row r="187">
@@ -10946,7 +10997,7 @@
         <v>403</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
     </row>
     <row r="188">
@@ -10957,7 +11008,7 @@
         <v>405</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
     </row>
     <row r="189">
@@ -10968,7 +11019,7 @@
         <v>407</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>381</v>
+        <v>397</v>
       </c>
     </row>
     <row r="190">
@@ -10979,7 +11030,7 @@
         <v>409</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
     </row>
     <row r="191">
@@ -10990,7 +11041,7 @@
         <v>411</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
     </row>
     <row r="192">
@@ -11001,7 +11052,7 @@
         <v>413</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
     </row>
     <row r="193">
@@ -11012,7 +11063,7 @@
         <v>415</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
     </row>
     <row r="194">
@@ -11023,7 +11074,7 @@
         <v>417</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
     </row>
     <row r="195">
@@ -11034,18 +11085,18 @@
         <v>419</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>420</v>
+        <v>383</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="C196" s="2" t="s">
         <v>421</v>
       </c>
-      <c r="C196" s="2" t="s">
+      <c r="D196" s="2" t="s">
         <v>422</v>
-      </c>
-      <c r="D196" s="2" t="s">
-        <v>395</v>
       </c>
     </row>
     <row r="197">
@@ -11056,7 +11107,7 @@
         <v>424</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
     </row>
     <row r="198">
@@ -11067,7 +11118,7 @@
         <v>426</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
     </row>
     <row r="199">
@@ -11078,7 +11129,7 @@
         <v>428</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
     </row>
     <row r="200">
@@ -11089,7 +11140,7 @@
         <v>430</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
     </row>
     <row r="201">
@@ -11100,7 +11151,7 @@
         <v>432</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>381</v>
+        <v>397</v>
       </c>
     </row>
     <row r="202">
@@ -11111,18 +11162,18 @@
         <v>434</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>435</v>
+        <v>383</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="C203" s="2" t="s">
         <v>436</v>
       </c>
-      <c r="C203" s="2" t="s">
+      <c r="D203" s="2" t="s">
         <v>437</v>
-      </c>
-      <c r="D203" s="2" t="s">
-        <v>435</v>
       </c>
     </row>
     <row r="204">
@@ -11133,7 +11184,7 @@
         <v>439</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
     </row>
     <row r="205">
@@ -11144,7 +11195,7 @@
         <v>441</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
     </row>
     <row r="206">
@@ -11155,7 +11206,7 @@
         <v>443</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
     </row>
     <row r="207">
@@ -11166,7 +11217,7 @@
         <v>445</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
     </row>
     <row r="208">
@@ -11177,7 +11228,7 @@
         <v>447</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
     </row>
     <row r="209">
@@ -11188,7 +11239,7 @@
         <v>449</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
     </row>
     <row r="210">
@@ -11199,7 +11250,7 @@
         <v>451</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
     </row>
     <row r="211">
@@ -11210,7 +11261,7 @@
         <v>453</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
     </row>
     <row r="212">
@@ -11221,7 +11272,7 @@
         <v>455</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
     </row>
     <row r="213">
@@ -11232,7 +11283,7 @@
         <v>457</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
     </row>
     <row r="214">
@@ -11243,18 +11294,18 @@
         <v>459</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>460</v>
+        <v>437</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="C215" s="2" t="s">
         <v>461</v>
       </c>
-      <c r="C215" s="2" t="s">
+      <c r="D215" s="2" t="s">
         <v>462</v>
-      </c>
-      <c r="D215" s="2" t="s">
-        <v>460</v>
       </c>
     </row>
     <row r="216">
@@ -11265,62 +11316,62 @@
         <v>464</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="C217" s="2" t="s">
         <v>466</v>
       </c>
-      <c r="C217" s="2" t="s">
+      <c r="D217" s="2" t="s">
         <v>467</v>
-      </c>
-      <c r="D217" s="2" t="s">
-        <v>468</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="C218" s="2" t="s">
         <v>469</v>
       </c>
-      <c r="C218" s="2" t="s">
+      <c r="D218" s="2" t="s">
         <v>470</v>
-      </c>
-      <c r="D218" s="2" t="s">
-        <v>471</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="C219" s="2" t="s">
         <v>472</v>
       </c>
-      <c r="C219" s="2" t="s">
+      <c r="D219" s="2" t="s">
         <v>473</v>
-      </c>
-      <c r="D219" s="2" t="s">
-        <v>474</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="C220" s="2" t="s">
         <v>475</v>
       </c>
-      <c r="C220" s="2" t="s">
+      <c r="D220" s="2" t="s">
         <v>476</v>
-      </c>
-      <c r="D220" s="2" t="s">
-        <v>477</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="C221" s="2" t="s">
         <v>478</v>
       </c>
-      <c r="C221" s="2" t="s">
+      <c r="D221" s="2" t="s">
         <v>479</v>
-      </c>
-      <c r="D221" s="2" t="s">
-        <v>477</v>
       </c>
     </row>
     <row r="222">
@@ -11331,7 +11382,7 @@
         <v>481</v>
       </c>
       <c r="D222" s="2" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
     </row>
     <row r="223">
@@ -11342,18 +11393,18 @@
         <v>483</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="C224" s="2" t="s">
         <v>485</v>
       </c>
-      <c r="C224" s="2" t="s">
+      <c r="D224" s="2" t="s">
         <v>486</v>
-      </c>
-      <c r="D224" s="2" t="s">
-        <v>484</v>
       </c>
     </row>
     <row r="225">
@@ -11364,21 +11415,21 @@
         <v>488</v>
       </c>
       <c r="D225" s="2" t="s">
-        <v>489</v>
-      </c>
-      <c r="E225" s="2" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="C226" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="D226" s="2" t="s">
         <v>491</v>
       </c>
-      <c r="C226" s="2" t="s">
+      <c r="E226" s="2" t="s">
         <v>492</v>
-      </c>
-      <c r="D226" s="2" t="s">
-        <v>489</v>
       </c>
     </row>
     <row r="227">
@@ -11389,7 +11440,7 @@
         <v>494</v>
       </c>
       <c r="D227" s="2" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
     </row>
     <row r="228">
@@ -11400,7 +11451,7 @@
         <v>496</v>
       </c>
       <c r="D228" s="2" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
     </row>
     <row r="229">
@@ -11411,7 +11462,7 @@
         <v>498</v>
       </c>
       <c r="D229" s="2" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
     </row>
     <row r="230">
@@ -11422,7 +11473,7 @@
         <v>500</v>
       </c>
       <c r="D230" s="2" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
     </row>
     <row r="231">
@@ -11433,7 +11484,7 @@
         <v>502</v>
       </c>
       <c r="D231" s="2" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
     </row>
     <row r="232">
@@ -11444,7 +11495,7 @@
         <v>504</v>
       </c>
       <c r="D232" s="2" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
     </row>
     <row r="233">
@@ -11455,7 +11506,7 @@
         <v>506</v>
       </c>
       <c r="D233" s="2" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
     </row>
     <row r="234">
@@ -11466,7 +11517,7 @@
         <v>508</v>
       </c>
       <c r="D234" s="2" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
     </row>
     <row r="235">
@@ -11477,7 +11528,7 @@
         <v>510</v>
       </c>
       <c r="D235" s="2" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
     </row>
     <row r="236">
@@ -11488,18 +11539,18 @@
         <v>512</v>
       </c>
       <c r="D236" s="2" t="s">
-        <v>513</v>
+        <v>491</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="2" t="s">
+        <v>513</v>
+      </c>
+      <c r="C237" s="2" t="s">
         <v>514</v>
       </c>
-      <c r="C237" s="2" t="s">
+      <c r="D237" s="2" t="s">
         <v>515</v>
-      </c>
-      <c r="D237" s="2" t="s">
-        <v>513</v>
       </c>
     </row>
     <row r="238">
@@ -11510,7 +11561,7 @@
         <v>517</v>
       </c>
       <c r="D238" s="2" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
     </row>
     <row r="239">
@@ -11521,18 +11572,18 @@
         <v>519</v>
       </c>
       <c r="D239" s="2" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="C240" s="2" t="s">
         <v>521</v>
       </c>
-      <c r="C240" s="2" t="s">
+      <c r="D240" s="2" t="s">
         <v>522</v>
-      </c>
-      <c r="D240" s="2" t="s">
-        <v>520</v>
       </c>
     </row>
     <row r="241">
@@ -11543,7 +11594,7 @@
         <v>524</v>
       </c>
       <c r="D241" s="2" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
     </row>
     <row r="242">
@@ -11554,7 +11605,7 @@
         <v>526</v>
       </c>
       <c r="D242" s="2" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
     </row>
     <row r="243">
@@ -11565,7 +11616,7 @@
         <v>528</v>
       </c>
       <c r="D243" s="2" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
     </row>
     <row r="244">
@@ -11576,29 +11627,29 @@
         <v>530</v>
       </c>
       <c r="D244" s="2" t="s">
-        <v>531</v>
+        <v>522</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="C245" s="2" t="s">
         <v>532</v>
       </c>
-      <c r="C245" s="2" t="s">
+      <c r="D245" s="2" t="s">
         <v>533</v>
-      </c>
-      <c r="D245" s="2" t="s">
-        <v>534</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="2" t="s">
+        <v>534</v>
+      </c>
+      <c r="C246" s="2" t="s">
         <v>535</v>
       </c>
-      <c r="C246" s="2" t="s">
+      <c r="D246" s="2" t="s">
         <v>536</v>
-      </c>
-      <c r="D246" s="2" t="s">
-        <v>534</v>
       </c>
     </row>
     <row r="247">
@@ -11609,7 +11660,7 @@
         <v>538</v>
       </c>
       <c r="D247" s="2" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
     </row>
     <row r="248">
@@ -11620,7 +11671,7 @@
         <v>540</v>
       </c>
       <c r="D248" s="2" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
     </row>
     <row r="249">
@@ -11631,7 +11682,7 @@
         <v>542</v>
       </c>
       <c r="D249" s="2" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
     </row>
     <row r="250">
@@ -11642,7 +11693,7 @@
         <v>544</v>
       </c>
       <c r="D250" s="2" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
     </row>
     <row r="251">
@@ -11653,7 +11704,7 @@
         <v>546</v>
       </c>
       <c r="D251" s="2" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
     </row>
     <row r="252">
@@ -11664,7 +11715,7 @@
         <v>548</v>
       </c>
       <c r="D252" s="2" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
     </row>
     <row r="253">
@@ -11675,7 +11726,7 @@
         <v>550</v>
       </c>
       <c r="D253" s="2" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
     </row>
     <row r="254">
@@ -11686,7 +11737,7 @@
         <v>552</v>
       </c>
       <c r="D254" s="2" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
     </row>
     <row r="255">
@@ -11697,7 +11748,7 @@
         <v>554</v>
       </c>
       <c r="D255" s="2" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
     </row>
     <row r="256">
@@ -11708,7 +11759,7 @@
         <v>556</v>
       </c>
       <c r="D256" s="2" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
     </row>
     <row r="257">
@@ -11719,7 +11770,7 @@
         <v>558</v>
       </c>
       <c r="D257" s="2" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
     </row>
     <row r="258">
@@ -11730,7 +11781,7 @@
         <v>560</v>
       </c>
       <c r="D258" s="2" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
     </row>
     <row r="259">
@@ -11741,7 +11792,7 @@
         <v>562</v>
       </c>
       <c r="D259" s="2" t="s">
-        <v>288</v>
+        <v>536</v>
       </c>
     </row>
     <row r="260">
@@ -11752,7 +11803,7 @@
         <v>564</v>
       </c>
       <c r="D260" s="2" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
     </row>
     <row r="261">
@@ -11763,7 +11814,7 @@
         <v>566</v>
       </c>
       <c r="D261" s="2" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
     </row>
     <row r="262">
@@ -11774,7 +11825,7 @@
         <v>568</v>
       </c>
       <c r="D262" s="2" t="s">
-        <v>283</v>
+        <v>290</v>
       </c>
     </row>
     <row r="263">
@@ -11785,7 +11836,7 @@
         <v>570</v>
       </c>
       <c r="D263" s="2" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
     </row>
     <row r="264">
@@ -11796,7 +11847,7 @@
         <v>572</v>
       </c>
       <c r="D264" s="2" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
     </row>
     <row r="265">
@@ -11807,18 +11858,18 @@
         <v>574</v>
       </c>
       <c r="D265" s="2" t="s">
-        <v>575</v>
+        <v>285</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="C266" s="2" t="s">
         <v>576</v>
       </c>
-      <c r="C266" s="2" t="s">
+      <c r="D266" s="2" t="s">
         <v>577</v>
-      </c>
-      <c r="D266" s="2" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="267">
@@ -11829,29 +11880,29 @@
         <v>579</v>
       </c>
       <c r="D267" s="2" t="s">
-        <v>580</v>
+        <v>285</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" s="2" t="s">
+        <v>580</v>
+      </c>
+      <c r="C268" s="2" t="s">
         <v>581</v>
       </c>
-      <c r="C268" s="2" t="s">
+      <c r="D268" s="2" t="s">
         <v>582</v>
-      </c>
-      <c r="D268" s="2" t="s">
-        <v>583</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="C269" s="2" t="s">
         <v>584</v>
       </c>
-      <c r="C269" s="2" t="s">
+      <c r="D269" s="2" t="s">
         <v>585</v>
-      </c>
-      <c r="D269" s="2" t="s">
-        <v>583</v>
       </c>
     </row>
     <row r="270">
@@ -11862,7 +11913,7 @@
         <v>587</v>
       </c>
       <c r="D270" s="2" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
     </row>
     <row r="271">
@@ -11873,7 +11924,7 @@
         <v>589</v>
       </c>
       <c r="D271" s="2" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
     </row>
     <row r="272">
@@ -11884,7 +11935,7 @@
         <v>591</v>
       </c>
       <c r="D272" s="2" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
     </row>
     <row r="273">
@@ -11895,7 +11946,7 @@
         <v>593</v>
       </c>
       <c r="D273" s="2" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
     </row>
     <row r="274">
@@ -11906,7 +11957,7 @@
         <v>595</v>
       </c>
       <c r="D274" s="2" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
     </row>
     <row r="275">
@@ -11917,7 +11968,7 @@
         <v>597</v>
       </c>
       <c r="D275" s="2" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
     </row>
     <row r="276">
@@ -11928,7 +11979,7 @@
         <v>599</v>
       </c>
       <c r="D276" s="2" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
     </row>
     <row r="277">
@@ -11939,7 +11990,7 @@
         <v>601</v>
       </c>
       <c r="D277" s="2" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
     </row>
     <row r="278">
@@ -11950,7 +12001,7 @@
         <v>603</v>
       </c>
       <c r="D278" s="2" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
     </row>
     <row r="279">
@@ -11961,7 +12012,7 @@
         <v>605</v>
       </c>
       <c r="D279" s="2" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
     </row>
     <row r="280">
@@ -11972,7 +12023,7 @@
         <v>607</v>
       </c>
       <c r="D280" s="2" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
     </row>
     <row r="281">
@@ -11983,7 +12034,7 @@
         <v>609</v>
       </c>
       <c r="D281" s="2" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
     </row>
     <row r="282">
@@ -11994,7 +12045,7 @@
         <v>611</v>
       </c>
       <c r="D282" s="2" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
     </row>
     <row r="283">
@@ -12005,7 +12056,7 @@
         <v>613</v>
       </c>
       <c r="D283" s="2" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
     </row>
     <row r="284">
@@ -12016,7 +12067,7 @@
         <v>615</v>
       </c>
       <c r="D284" s="2" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
     </row>
     <row r="285">
@@ -12027,7 +12078,7 @@
         <v>617</v>
       </c>
       <c r="D285" s="2" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
     </row>
     <row r="286">
@@ -12038,7 +12089,7 @@
         <v>619</v>
       </c>
       <c r="D286" s="2" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
     </row>
     <row r="287">
@@ -12049,7 +12100,7 @@
         <v>621</v>
       </c>
       <c r="D287" s="2" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
     </row>
     <row r="288">
@@ -12060,7 +12111,7 @@
         <v>623</v>
       </c>
       <c r="D288" s="2" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
     </row>
     <row r="289">
@@ -12071,7 +12122,7 @@
         <v>625</v>
       </c>
       <c r="D289" s="2" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
     </row>
     <row r="290">
@@ -12082,7 +12133,7 @@
         <v>627</v>
       </c>
       <c r="D290" s="2" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
     </row>
     <row r="291">
@@ -12093,7 +12144,7 @@
         <v>629</v>
       </c>
       <c r="D291" s="2" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
     </row>
     <row r="292">
@@ -12104,18 +12155,18 @@
         <v>631</v>
       </c>
       <c r="D292" s="2" t="s">
-        <v>632</v>
+        <v>585</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" s="2" t="s">
+        <v>632</v>
+      </c>
+      <c r="C293" s="2" t="s">
         <v>633</v>
       </c>
-      <c r="C293" s="2" t="s">
+      <c r="D293" s="2" t="s">
         <v>634</v>
-      </c>
-      <c r="D293" s="2" t="s">
-        <v>632</v>
       </c>
     </row>
     <row r="294">
@@ -12126,7 +12177,7 @@
         <v>636</v>
       </c>
       <c r="D294" s="2" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
     </row>
     <row r="295">
@@ -12137,7 +12188,7 @@
         <v>638</v>
       </c>
       <c r="D295" s="2" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
     </row>
     <row r="296">
@@ -12148,29 +12199,29 @@
         <v>640</v>
       </c>
       <c r="D296" s="2" t="s">
-        <v>641</v>
+        <v>634</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" s="2" t="s">
+        <v>641</v>
+      </c>
+      <c r="C297" s="2" t="s">
         <v>642</v>
       </c>
-      <c r="C297" s="2" t="s">
+      <c r="D297" s="2" t="s">
         <v>643</v>
-      </c>
-      <c r="D297" s="2" t="s">
-        <v>644</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" s="2" t="s">
+        <v>644</v>
+      </c>
+      <c r="C298" s="2" t="s">
         <v>645</v>
       </c>
-      <c r="C298" s="2" t="s">
+      <c r="D298" s="2" t="s">
         <v>646</v>
-      </c>
-      <c r="D298" s="2" t="s">
-        <v>644</v>
       </c>
     </row>
     <row r="299">
@@ -12181,106 +12232,106 @@
         <v>648</v>
       </c>
       <c r="D299" s="2" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" s="2" t="s">
+        <v>649</v>
+      </c>
+      <c r="C300" s="2" t="s">
         <v>650</v>
       </c>
-      <c r="C300" s="2" t="s">
+      <c r="D300" s="2" t="s">
         <v>651</v>
-      </c>
-      <c r="D300" s="2" t="s">
-        <v>652</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" s="2" t="s">
+        <v>652</v>
+      </c>
+      <c r="C301" s="2" t="s">
         <v>653</v>
       </c>
-      <c r="C301" s="2" t="s">
+      <c r="D301" s="2" t="s">
         <v>654</v>
-      </c>
-      <c r="D301" s="2" t="s">
-        <v>655</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" s="2" t="s">
+        <v>655</v>
+      </c>
+      <c r="C302" s="2" t="s">
         <v>656</v>
       </c>
-      <c r="C302" s="2" t="s">
+      <c r="D302" s="2" t="s">
         <v>657</v>
-      </c>
-      <c r="D302" s="2" t="s">
-        <v>658</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" s="2" t="s">
+        <v>658</v>
+      </c>
+      <c r="C303" s="2" t="s">
         <v>659</v>
       </c>
-      <c r="C303" s="2" t="s">
+      <c r="D303" s="2" t="s">
         <v>660</v>
-      </c>
-      <c r="D303" s="2" t="s">
-        <v>661</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" s="2" t="s">
+        <v>661</v>
+      </c>
+      <c r="C304" s="2" t="s">
         <v>662</v>
       </c>
-      <c r="C304" s="2" t="s">
+      <c r="D304" s="2" t="s">
         <v>663</v>
-      </c>
-      <c r="D304" s="2" t="s">
-        <v>664</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" s="2" t="s">
+        <v>664</v>
+      </c>
+      <c r="C305" s="2" t="s">
         <v>665</v>
       </c>
-      <c r="C305" s="2" t="s">
+      <c r="D305" s="2" t="s">
         <v>666</v>
-      </c>
-      <c r="D305" s="2" t="s">
-        <v>667</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" s="2" t="s">
+        <v>667</v>
+      </c>
+      <c r="C306" s="2" t="s">
         <v>668</v>
       </c>
-      <c r="C306" s="2" t="s">
+      <c r="D306" s="2" t="s">
         <v>669</v>
-      </c>
-      <c r="D306" s="2" t="s">
-        <v>670</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" s="2" t="s">
+        <v>670</v>
+      </c>
+      <c r="C307" s="2" t="s">
         <v>671</v>
       </c>
-      <c r="C307" s="2" t="s">
+      <c r="D307" s="2" t="s">
         <v>672</v>
-      </c>
-      <c r="D307" s="2" t="s">
-        <v>673</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" s="2" t="s">
+        <v>673</v>
+      </c>
+      <c r="C308" s="2" t="s">
         <v>674</v>
       </c>
-      <c r="C308" s="2" t="s">
+      <c r="D308" s="2" t="s">
         <v>675</v>
-      </c>
-      <c r="D308" s="2" t="s">
-        <v>673</v>
       </c>
     </row>
     <row r="309">
@@ -12291,7 +12342,7 @@
         <v>677</v>
       </c>
       <c r="D309" s="2" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
     </row>
     <row r="310">
@@ -12302,7 +12353,7 @@
         <v>679</v>
       </c>
       <c r="D310" s="2" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
     </row>
     <row r="311">
@@ -12313,7 +12364,7 @@
         <v>681</v>
       </c>
       <c r="D311" s="2" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
     </row>
     <row r="312">
@@ -12324,7 +12375,7 @@
         <v>683</v>
       </c>
       <c r="D312" s="2" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
     </row>
     <row r="313">
@@ -12335,18 +12386,18 @@
         <v>685</v>
       </c>
       <c r="D313" s="2" t="s">
-        <v>686</v>
+        <v>675</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" s="2" t="s">
+        <v>686</v>
+      </c>
+      <c r="C314" s="2" t="s">
         <v>687</v>
       </c>
-      <c r="C314" s="2" t="s">
+      <c r="D314" s="2" t="s">
         <v>688</v>
-      </c>
-      <c r="D314" s="2" t="s">
-        <v>673</v>
       </c>
     </row>
     <row r="315">
@@ -12357,7 +12408,7 @@
         <v>690</v>
       </c>
       <c r="D315" s="2" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
     </row>
     <row r="316">
@@ -12368,7 +12419,7 @@
         <v>692</v>
       </c>
       <c r="D316" s="2" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
     </row>
     <row r="317">
@@ -12379,7 +12430,7 @@
         <v>694</v>
       </c>
       <c r="D317" s="2" t="s">
-        <v>686</v>
+        <v>675</v>
       </c>
     </row>
     <row r="318">
@@ -12390,7 +12441,7 @@
         <v>696</v>
       </c>
       <c r="D318" s="2" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
     </row>
     <row r="319">
@@ -12401,7 +12452,7 @@
         <v>698</v>
       </c>
       <c r="D319" s="2" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
     </row>
     <row r="320">
@@ -12412,7 +12463,7 @@
         <v>700</v>
       </c>
       <c r="D320" s="2" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
     </row>
     <row r="321">
@@ -12423,7 +12474,7 @@
         <v>702</v>
       </c>
       <c r="D321" s="2" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
     </row>
     <row r="322">
@@ -12434,7 +12485,7 @@
         <v>704</v>
       </c>
       <c r="D322" s="2" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
     </row>
     <row r="323">
@@ -12445,7 +12496,7 @@
         <v>706</v>
       </c>
       <c r="D323" s="2" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
     </row>
     <row r="324">
@@ -12456,7 +12507,7 @@
         <v>708</v>
       </c>
       <c r="D324" s="2" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
     </row>
     <row r="325">
@@ -12467,7 +12518,7 @@
         <v>710</v>
       </c>
       <c r="D325" s="2" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
     </row>
     <row r="326">
@@ -12478,7 +12529,7 @@
         <v>712</v>
       </c>
       <c r="D326" s="2" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
     </row>
     <row r="327">
@@ -12489,7 +12540,7 @@
         <v>714</v>
       </c>
       <c r="D327" s="2" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
     </row>
     <row r="328">
@@ -12500,7 +12551,7 @@
         <v>716</v>
       </c>
       <c r="D328" s="2" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
     </row>
     <row r="329">
@@ -12510,7 +12561,9 @@
       <c r="C329" s="2" t="s">
         <v>718</v>
       </c>
-      <c r="D329" s="2"/>
+      <c r="D329" s="2" t="s">
+        <v>688</v>
+      </c>
     </row>
     <row r="330">
       <c r="A330" s="2" t="s">
@@ -12519,9 +12572,7 @@
       <c r="C330" s="2" t="s">
         <v>720</v>
       </c>
-      <c r="D330" s="2" t="s">
-        <v>686</v>
-      </c>
+      <c r="D330" s="2"/>
     </row>
     <row r="331">
       <c r="A331" s="2" t="s">
@@ -12531,7 +12582,7 @@
         <v>722</v>
       </c>
       <c r="D331" s="2" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
     </row>
     <row r="332">
@@ -12542,7 +12593,7 @@
         <v>724</v>
       </c>
       <c r="D332" s="2" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
     </row>
     <row r="333">
@@ -12553,7 +12604,7 @@
         <v>726</v>
       </c>
       <c r="D333" s="2" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
     </row>
     <row r="334">
@@ -12564,7 +12615,7 @@
         <v>728</v>
       </c>
       <c r="D334" s="2" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
     </row>
     <row r="335">
@@ -12575,7 +12626,7 @@
         <v>730</v>
       </c>
       <c r="D335" s="2" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
     </row>
     <row r="336">
@@ -12586,7 +12637,7 @@
         <v>732</v>
       </c>
       <c r="D336" s="2" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
     </row>
     <row r="337">
@@ -12597,7 +12648,7 @@
         <v>734</v>
       </c>
       <c r="D337" s="2" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
     </row>
     <row r="338">
@@ -12608,7 +12659,7 @@
         <v>736</v>
       </c>
       <c r="D338" s="2" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
     </row>
     <row r="339">
@@ -12619,7 +12670,7 @@
         <v>738</v>
       </c>
       <c r="D339" s="2" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
     </row>
     <row r="340">
@@ -12630,7 +12681,7 @@
         <v>740</v>
       </c>
       <c r="D340" s="2" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
     </row>
     <row r="341">
@@ -12641,29 +12692,29 @@
         <v>742</v>
       </c>
       <c r="D341" s="2" t="s">
-        <v>743</v>
+        <v>688</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" s="2" t="s">
+        <v>743</v>
+      </c>
+      <c r="C342" s="2" t="s">
         <v>744</v>
       </c>
-      <c r="C342" s="2" t="s">
+      <c r="D342" s="2" t="s">
         <v>745</v>
-      </c>
-      <c r="D342" s="2" t="s">
-        <v>746</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" s="2" t="s">
+        <v>746</v>
+      </c>
+      <c r="C343" s="2" t="s">
         <v>747</v>
       </c>
-      <c r="C343" s="2" t="s">
+      <c r="D343" s="2" t="s">
         <v>748</v>
-      </c>
-      <c r="D343" s="2" t="s">
-        <v>746</v>
       </c>
     </row>
     <row r="344">
@@ -12674,7 +12725,7 @@
         <v>750</v>
       </c>
       <c r="D344" s="2" t="s">
-        <v>746</v>
+        <v>748</v>
       </c>
     </row>
     <row r="345">
@@ -12685,18 +12736,18 @@
         <v>752</v>
       </c>
       <c r="D345" s="2" t="s">
-        <v>753</v>
+        <v>748</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" s="2" t="s">
+        <v>753</v>
+      </c>
+      <c r="C346" s="2" t="s">
         <v>754</v>
       </c>
-      <c r="C346" s="2" t="s">
+      <c r="D346" s="2" t="s">
         <v>755</v>
-      </c>
-      <c r="D346" s="2" t="s">
-        <v>746</v>
       </c>
     </row>
     <row r="347">
@@ -12707,7 +12758,7 @@
         <v>757</v>
       </c>
       <c r="D347" s="2" t="s">
-        <v>746</v>
+        <v>748</v>
       </c>
     </row>
     <row r="348">
@@ -12718,7 +12769,7 @@
         <v>759</v>
       </c>
       <c r="D348" s="2" t="s">
-        <v>753</v>
+        <v>748</v>
       </c>
     </row>
     <row r="349">
@@ -12729,7 +12780,7 @@
         <v>761</v>
       </c>
       <c r="D349" s="2" t="s">
-        <v>746</v>
+        <v>755</v>
       </c>
     </row>
     <row r="350">
@@ -12740,7 +12791,7 @@
         <v>763</v>
       </c>
       <c r="D350" s="2" t="s">
-        <v>746</v>
+        <v>748</v>
       </c>
     </row>
     <row r="351">
@@ -12751,7 +12802,7 @@
         <v>765</v>
       </c>
       <c r="D351" s="2" t="s">
-        <v>753</v>
+        <v>748</v>
       </c>
     </row>
     <row r="352">
@@ -12762,7 +12813,7 @@
         <v>767</v>
       </c>
       <c r="D352" s="2" t="s">
-        <v>746</v>
+        <v>755</v>
       </c>
     </row>
     <row r="353">
@@ -12772,7 +12823,9 @@
       <c r="C353" s="2" t="s">
         <v>769</v>
       </c>
-      <c r="D353" s="2"/>
+      <c r="D353" s="2" t="s">
+        <v>748</v>
+      </c>
     </row>
     <row r="354">
       <c r="A354" s="2" t="s">
@@ -12781,19 +12834,17 @@
       <c r="C354" s="2" t="s">
         <v>771</v>
       </c>
-      <c r="D354" s="2" t="s">
-        <v>772</v>
-      </c>
+      <c r="D354" s="2"/>
     </row>
     <row r="355">
       <c r="A355" s="2" t="s">
+        <v>772</v>
+      </c>
+      <c r="C355" s="2" t="s">
         <v>773</v>
       </c>
-      <c r="C355" s="2" t="s">
+      <c r="D355" s="2" t="s">
         <v>774</v>
-      </c>
-      <c r="D355" s="2" t="s">
-        <v>753</v>
       </c>
     </row>
     <row r="356">
@@ -12804,7 +12855,7 @@
         <v>776</v>
       </c>
       <c r="D356" s="2" t="s">
-        <v>746</v>
+        <v>755</v>
       </c>
     </row>
     <row r="357">
@@ -12815,7 +12866,7 @@
         <v>778</v>
       </c>
       <c r="D357" s="2" t="s">
-        <v>746</v>
+        <v>748</v>
       </c>
     </row>
     <row r="358">
@@ -12826,7 +12877,7 @@
         <v>780</v>
       </c>
       <c r="D358" s="2" t="s">
-        <v>772</v>
+        <v>748</v>
       </c>
     </row>
     <row r="359">
@@ -12837,7 +12888,7 @@
         <v>782</v>
       </c>
       <c r="D359" s="2" t="s">
-        <v>772</v>
+        <v>774</v>
       </c>
     </row>
     <row r="360">
@@ -12848,7 +12899,7 @@
         <v>784</v>
       </c>
       <c r="D360" s="2" t="s">
-        <v>772</v>
+        <v>774</v>
       </c>
     </row>
     <row r="361">
@@ -12859,18 +12910,18 @@
         <v>786</v>
       </c>
       <c r="D361" s="2" t="s">
-        <v>787</v>
+        <v>774</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" s="2" t="s">
+        <v>787</v>
+      </c>
+      <c r="C362" s="2" t="s">
         <v>788</v>
       </c>
-      <c r="C362" s="2" t="s">
+      <c r="D362" s="2" t="s">
         <v>789</v>
-      </c>
-      <c r="D362" s="2" t="s">
-        <v>787</v>
       </c>
     </row>
     <row r="363">
@@ -12881,51 +12932,51 @@
         <v>791</v>
       </c>
       <c r="D363" s="2" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" s="2" t="s">
+        <v>792</v>
+      </c>
+      <c r="C364" s="2" t="s">
         <v>793</v>
       </c>
-      <c r="C364" s="2" t="s">
+      <c r="D364" s="2" t="s">
         <v>794</v>
-      </c>
-      <c r="D364" s="2" t="s">
-        <v>795</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" s="2" t="s">
+        <v>795</v>
+      </c>
+      <c r="C365" s="2" t="s">
         <v>796</v>
       </c>
-      <c r="C365" s="2" t="s">
+      <c r="D365" s="2" t="s">
         <v>797</v>
-      </c>
-      <c r="D365" s="2" t="s">
-        <v>798</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" s="2" t="s">
+        <v>798</v>
+      </c>
+      <c r="C366" s="2" t="s">
         <v>799</v>
       </c>
-      <c r="C366" s="2" t="s">
+      <c r="D366" s="2" t="s">
         <v>800</v>
-      </c>
-      <c r="D366" s="2" t="s">
-        <v>801</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" s="2" t="s">
+        <v>801</v>
+      </c>
+      <c r="C367" s="2" t="s">
         <v>802</v>
       </c>
-      <c r="C367" s="2" t="s">
+      <c r="D367" s="2" t="s">
         <v>803</v>
-      </c>
-      <c r="D367" s="2" t="s">
-        <v>801</v>
       </c>
     </row>
     <row r="368">
@@ -12936,7 +12987,7 @@
         <v>805</v>
       </c>
       <c r="D368" s="2" t="s">
-        <v>801</v>
+        <v>803</v>
       </c>
     </row>
     <row r="369">
@@ -12947,7 +12998,7 @@
         <v>807</v>
       </c>
       <c r="D369" s="2" t="s">
-        <v>801</v>
+        <v>803</v>
       </c>
     </row>
     <row r="370">
@@ -12958,7 +13009,7 @@
         <v>809</v>
       </c>
       <c r="D370" s="2" t="s">
-        <v>801</v>
+        <v>803</v>
       </c>
     </row>
     <row r="371">
@@ -12969,7 +13020,7 @@
         <v>811</v>
       </c>
       <c r="D371" s="2" t="s">
-        <v>801</v>
+        <v>803</v>
       </c>
     </row>
     <row r="372">
@@ -12980,7 +13031,7 @@
         <v>813</v>
       </c>
       <c r="D372" s="2" t="s">
-        <v>801</v>
+        <v>803</v>
       </c>
     </row>
     <row r="373">
@@ -12991,7 +13042,7 @@
         <v>815</v>
       </c>
       <c r="D373" s="2" t="s">
-        <v>801</v>
+        <v>803</v>
       </c>
     </row>
     <row r="374">
@@ -13002,7 +13053,7 @@
         <v>817</v>
       </c>
       <c r="D374" s="2" t="s">
-        <v>801</v>
+        <v>803</v>
       </c>
     </row>
     <row r="375">
@@ -13013,7 +13064,7 @@
         <v>819</v>
       </c>
       <c r="D375" s="2" t="s">
-        <v>801</v>
+        <v>803</v>
       </c>
     </row>
     <row r="376">
@@ -13023,7 +13074,9 @@
       <c r="C376" s="2" t="s">
         <v>821</v>
       </c>
-      <c r="D376" s="2"/>
+      <c r="D376" s="2" t="s">
+        <v>803</v>
+      </c>
     </row>
     <row r="377">
       <c r="A377" s="2" t="s">
@@ -13032,30 +13085,28 @@
       <c r="C377" s="2" t="s">
         <v>823</v>
       </c>
-      <c r="D377" s="2" t="s">
-        <v>824</v>
-      </c>
+      <c r="D377" s="2"/>
     </row>
     <row r="378">
       <c r="A378" s="2" t="s">
+        <v>824</v>
+      </c>
+      <c r="C378" s="2" t="s">
         <v>825</v>
       </c>
-      <c r="C378" s="2" t="s">
+      <c r="D378" s="2" t="s">
         <v>826</v>
-      </c>
-      <c r="D378" s="2" t="s">
-        <v>827</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" s="2" t="s">
+        <v>827</v>
+      </c>
+      <c r="C379" s="2" t="s">
         <v>828</v>
       </c>
-      <c r="C379" s="2" t="s">
+      <c r="D379" s="2" t="s">
         <v>829</v>
-      </c>
-      <c r="D379" s="2" t="s">
-        <v>827</v>
       </c>
     </row>
     <row r="380">
@@ -13066,7 +13117,7 @@
         <v>831</v>
       </c>
       <c r="D380" s="2" t="s">
-        <v>827</v>
+        <v>829</v>
       </c>
     </row>
     <row r="381">
@@ -13077,40 +13128,40 @@
         <v>833</v>
       </c>
       <c r="D381" s="2" t="s">
-        <v>834</v>
+        <v>829</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" s="2" t="s">
+        <v>834</v>
+      </c>
+      <c r="C382" s="2" t="s">
         <v>835</v>
       </c>
-      <c r="C382" s="2" t="s">
+      <c r="D382" s="2" t="s">
         <v>836</v>
-      </c>
-      <c r="D382" s="2" t="s">
-        <v>837</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" s="2" t="s">
+        <v>837</v>
+      </c>
+      <c r="C383" s="2" t="s">
         <v>838</v>
       </c>
-      <c r="C383" s="2" t="s">
+      <c r="D383" s="2" t="s">
         <v>839</v>
-      </c>
-      <c r="D383" s="2" t="s">
-        <v>840</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" s="2" t="s">
+        <v>840</v>
+      </c>
+      <c r="C384" s="2" t="s">
         <v>841</v>
       </c>
-      <c r="C384" s="2" t="s">
+      <c r="D384" s="2" t="s">
         <v>842</v>
-      </c>
-      <c r="D384" s="2" t="s">
-        <v>840</v>
       </c>
     </row>
     <row r="385">
@@ -13121,62 +13172,62 @@
         <v>844</v>
       </c>
       <c r="D385" s="2" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" s="2" t="s">
+        <v>845</v>
+      </c>
+      <c r="C386" s="2" t="s">
         <v>846</v>
       </c>
-      <c r="C386" s="2" t="s">
+      <c r="D386" s="2" t="s">
         <v>847</v>
-      </c>
-      <c r="D386" s="2" t="s">
-        <v>848</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" s="2" t="s">
+        <v>848</v>
+      </c>
+      <c r="C387" s="2" t="s">
         <v>849</v>
       </c>
-      <c r="C387" s="2" t="s">
+      <c r="D387" s="2" t="s">
         <v>850</v>
-      </c>
-      <c r="D387" s="2" t="s">
-        <v>851</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" s="2" t="s">
+        <v>851</v>
+      </c>
+      <c r="C388" s="2" t="s">
         <v>852</v>
       </c>
-      <c r="C388" s="2" t="s">
+      <c r="D388" s="2" t="s">
         <v>853</v>
-      </c>
-      <c r="D388" s="2" t="s">
-        <v>854</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" s="2" t="s">
+        <v>854</v>
+      </c>
+      <c r="C389" s="2" t="s">
         <v>855</v>
       </c>
-      <c r="C389" s="2" t="s">
+      <c r="D389" s="2" t="s">
         <v>856</v>
-      </c>
-      <c r="D389" s="2" t="s">
-        <v>857</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" s="2" t="s">
+        <v>857</v>
+      </c>
+      <c r="C390" s="2" t="s">
         <v>858</v>
       </c>
-      <c r="C390" s="2" t="s">
+      <c r="D390" s="2" t="s">
         <v>859</v>
-      </c>
-      <c r="D390" s="2" t="s">
-        <v>857</v>
       </c>
     </row>
     <row r="391">
@@ -13187,7 +13238,7 @@
         <v>861</v>
       </c>
       <c r="D391" s="2" t="s">
-        <v>854</v>
+        <v>859</v>
       </c>
     </row>
     <row r="392">
@@ -13198,7 +13249,7 @@
         <v>863</v>
       </c>
       <c r="D392" s="2" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
     </row>
     <row r="393">
@@ -13209,7 +13260,29 @@
         <v>865</v>
       </c>
       <c r="D393" s="2" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" s="2" t="s">
         <v>866</v>
+      </c>
+      <c r="C394" s="2" t="s">
+        <v>867</v>
+      </c>
+      <c r="D394" s="2" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" s="2" t="s">
+        <v>869</v>
+      </c>
+      <c r="C395" s="2" t="s">
+        <v>870</v>
+      </c>
+      <c r="D395" s="2" t="s">
+        <v>156</v>
       </c>
     </row>
   </sheetData>
@@ -13248,18 +13321,18 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>867</v>
+        <v>871</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>868</v>
+        <v>872</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>869</v>
+        <v>873</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>870</v>
+        <v>874</v>
       </c>
     </row>
   </sheetData>

--- a/csv/merge.xlsx
+++ b/csv/merge.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1155" uniqueCount="875">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1197" uniqueCount="916">
   <si>
     <t>JP Text (DO NOT CHANGE)</t>
   </si>
@@ -8642,6 +8642,185 @@
 &lt;case_cancel&gt;
 &lt;close&gt;
 &lt;case_end&gt;</t>
+  </si>
+  <si>
+    <t>次の階層に　進みますか？&lt;yesno&gt;&lt;close&gt;</t>
+  </si>
+  <si>
+    <t>Proceed to the next floor?&lt;yesno&gt;&lt;close&gt;</t>
+  </si>
+  <si>
+    <t>Mysterious Tower</t>
+  </si>
+  <si>
+    <t>&lt;pipipi_shigh&gt;「ヒヒヒ……。オイラ　なぞのツボ。
+　魔闘士さん　メラ　使える？
+　小さな火の玉の呪文だよ。</t>
+  </si>
+  <si>
+    <t>&lt;pipipi_shigh&gt;Hee hee... I'm the Mystery Pot.
+Hey, you. Can you use Frizz?
+You know, that tiny fireball spell.</t>
+  </si>
+  <si>
+    <t>Mysterious Tower Floor 1 hint</t>
+  </si>
+  <si>
+    <t>&lt;pipipi_shigh&gt;「ヒヒヒ……。オイラ　なぞのツボ。
+　魔闘士さん　なぞを解いたんだね。
+　階段の近くに　薄緑の宝箱が　出ているよ。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;pipipi_shigh&gt;Hee hee... I'm the Mystery Pot.
+Hey, good job. You solved the mystery. Go
+check out that chest near the stairs.
+</t>
+  </si>
+  <si>
+    <t>Mysterious Tower mystery solved</t>
+  </si>
+  <si>
+    <t>「ワタクシ　モドール！
+　休息の間まで　戻りたいときは
+　ワタクシが　アナタを　連れていくノです！
+&lt;br&gt;
+「休息の間に　モドル？
+　また　この階層に　モドってこれるよ。&lt;yesno&gt;&lt;close&gt;</t>
+  </si>
+  <si>
+    <t>My name's Exeet! If you want to go back to
+the Rest Area, I can take you there!
+&lt;br&gt;
+So, do you want to go back? You can return
+to this floor whenever you'd like.&lt;yesno&gt;&lt;close&gt;</t>
+  </si>
+  <si>
+    <t>Mysterious Tower Exeet doll</t>
+  </si>
+  <si>
+    <t>「おや　モドらないのでスね。
+　ならバ　がんばって　魔物を倒スです！</t>
+  </si>
+  <si>
+    <t>Oh, that's fine. Please do your best to defeat
+those monsters!</t>
+  </si>
+  <si>
+    <t>&lt;pipipi_shigh&gt;「ヒヒヒ……。オイラ　なぞのツボ。
+　スライムベスは　気合の入った魔闘士を
+　探しているみたいだよ。</t>
+  </si>
+  <si>
+    <t>&lt;pipipi_shigh&gt;Hee hee... I'm the Mystery Pot.
+I think a She-Slime is looking for someone
+with a strong fighting spirit.</t>
+  </si>
+  <si>
+    <t>Mysterious Tower Floor 2 hint</t>
+  </si>
+  <si>
+    <t>&lt;pipipi_shigh&gt;「ヒヒヒ……。オイラ　なぞのツボ。
+　バブルスライムには　毒があるよ。
+　毒が回ると　わかることも　あるかもね。</t>
+  </si>
+  <si>
+    <t>&lt;pipipi_shigh&gt;Hee hee... I'm the Mystery Pot.
+Bubble Slimes are poisonous, aren't they? Why
+not try spreading the poison around?</t>
+  </si>
+  <si>
+    <t>Mysterious Tower Floor 3 hint</t>
+  </si>
+  <si>
+    <t>&lt;pipipi_shigh&gt;「ヒヒヒ……。オイラ　なぞのツボ。
+　魔闘士さん　ギラ　使える？
+　レベル２で習得する　地をはう炎の呪文だよ。</t>
+  </si>
+  <si>
+    <t>&lt;pipipi_shigh&gt;Hee hee... I'm the Mystery Pot.
+Hey, you. Can you use Sizz? It's a sizzling
+fire spell learned at level 2.</t>
+  </si>
+  <si>
+    <t>Mysterious Tower Floor 4 hint</t>
+  </si>
+  <si>
+    <t>「ボクのツボ　使ったら　おうえんしてあげる。
+　おうえん　テンションが　上がる。
+　魔闘士　きっと　強くなる。</t>
+  </si>
+  <si>
+    <t>If you use my pot, I'll use Egg On which'll
+raise your tension. It'll surely make you
+stronger!</t>
+  </si>
+  <si>
+    <t>Mysterious Tower Feralball</t>
+  </si>
+  <si>
+    <t>&lt;pipipi_shigh&gt;「ヒヒヒ……。オイラ　なぞのツボ。
+　魔闘士さん　おおきづち　知ってる？
+　ブラウニーとは　仲がいいみたいだね。</t>
+  </si>
+  <si>
+    <t>&lt;pipipi_shigh&gt;Hee hee... I'm the Mystery Pot.
+Hey, you. You know those Hammerhoods? I hear
+they're good friends with Brownies.</t>
+  </si>
+  <si>
+    <t>Mysterious Tower Floor 6 hint</t>
+  </si>
+  <si>
+    <t>&lt;pipipi_shigh&gt;「ヒヒヒ……。オイラ　なぞのツボ。
+　魔闘士さん　メラミ　使える？
+　すこし大きな　火の玉の呪文だよ。</t>
+  </si>
+  <si>
+    <t>&lt;pipipi_shigh&gt;Hee hee... I'm the Mystery Pot.
+Hey, you. Can you use Frizzle? You know,
+the slightly bigger fireball spell.</t>
+  </si>
+  <si>
+    <t>Mysterious Tower Floor 7 hint</t>
+  </si>
+  <si>
+    <t>扉の先から　商人の気配がする。
+いまの階層には　もどれなくなりますが
+扉の先へ　すすみますか？&lt;yesno&gt;&lt;close&gt;</t>
+  </si>
+  <si>
+    <t>You feel a merchant's presence beyond this
+door. You cannot return to the floor you are
+currently in if you go through. Proceed?&lt;yesno&gt;&lt;close&gt;</t>
+  </si>
+  <si>
+    <t>Mysterious Tower merchant door</t>
+  </si>
+  <si>
+    <t>&lt;pipipi_shigh&gt;「ヒヒヒ……。オイラ　なぞのツボ。
+　魔闘士さん　リホイミ　使える？
+　ＨＰを　少しずつ回復する呪文だよ。</t>
+  </si>
+  <si>
+    <t>&lt;pipipi_shigh&gt;Hee hee... I'm the Mystery Pot.
+Hey, you. Can you use Reheal? You know,
+that spell that heals a little over time.</t>
+  </si>
+  <si>
+    <t>Mysterious Tower Floor 8 hint</t>
+  </si>
+  <si>
+    <t>扉の先から　魔物の気配がする。
+いまの階層には　もどれなくなりますが
+扉の先へ　すすみますか？&lt;yesno&gt;&lt;close&gt;</t>
+  </si>
+  <si>
+    <t>You feel a monster's presence beyond this
+door. You cannot return to the floor you are
+currently in if you go through. Proceed?&lt;yesno&gt;&lt;close&gt;</t>
+  </si>
+  <si>
+    <t>Mysterious Tower monster door</t>
   </si>
   <si>
     <t>メインコマンド『せんれき』の
@@ -13285,6 +13464,160 @@
         <v>156</v>
       </c>
     </row>
+    <row r="396">
+      <c r="A396" s="2" t="s">
+        <v>871</v>
+      </c>
+      <c r="C396" s="2" t="s">
+        <v>872</v>
+      </c>
+      <c r="D396" s="2" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" s="2" t="s">
+        <v>874</v>
+      </c>
+      <c r="C397" s="2" t="s">
+        <v>875</v>
+      </c>
+      <c r="D397" s="2" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" s="2" t="s">
+        <v>877</v>
+      </c>
+      <c r="C398" s="2" t="s">
+        <v>878</v>
+      </c>
+      <c r="D398" s="2" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" s="2" t="s">
+        <v>880</v>
+      </c>
+      <c r="C399" s="2" t="s">
+        <v>881</v>
+      </c>
+      <c r="D399" s="2" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" s="2" t="s">
+        <v>883</v>
+      </c>
+      <c r="C400" s="2" t="s">
+        <v>884</v>
+      </c>
+      <c r="D400" s="2" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" s="2" t="s">
+        <v>885</v>
+      </c>
+      <c r="C401" s="2" t="s">
+        <v>886</v>
+      </c>
+      <c r="D401" s="2" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" s="2" t="s">
+        <v>888</v>
+      </c>
+      <c r="C402" s="2" t="s">
+        <v>889</v>
+      </c>
+      <c r="D402" s="2" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" s="2" t="s">
+        <v>891</v>
+      </c>
+      <c r="C403" s="2" t="s">
+        <v>892</v>
+      </c>
+      <c r="D403" s="2" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" s="2" t="s">
+        <v>894</v>
+      </c>
+      <c r="C404" s="2" t="s">
+        <v>895</v>
+      </c>
+      <c r="D404" s="2" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" s="2" t="s">
+        <v>897</v>
+      </c>
+      <c r="C405" s="2" t="s">
+        <v>898</v>
+      </c>
+      <c r="D405" s="2" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" s="2" t="s">
+        <v>900</v>
+      </c>
+      <c r="C406" s="2" t="s">
+        <v>901</v>
+      </c>
+      <c r="D406" s="2" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" s="2" t="s">
+        <v>903</v>
+      </c>
+      <c r="C407" s="2" t="s">
+        <v>904</v>
+      </c>
+      <c r="D407" s="2" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" s="2" t="s">
+        <v>906</v>
+      </c>
+      <c r="C408" s="2" t="s">
+        <v>907</v>
+      </c>
+      <c r="D408" s="2" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" s="2" t="s">
+        <v>909</v>
+      </c>
+      <c r="C409" s="2" t="s">
+        <v>910</v>
+      </c>
+      <c r="D409" s="2" t="s">
+        <v>911</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -13321,18 +13654,18 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>871</v>
+        <v>912</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>872</v>
+        <v>913</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>873</v>
+        <v>914</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>874</v>
+        <v>915</v>
       </c>
     </row>
   </sheetData>

--- a/csv/merge.xlsx
+++ b/csv/merge.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1197" uniqueCount="916">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1218" uniqueCount="932">
   <si>
     <t>JP Text (DO NOT CHANGE)</t>
   </si>
@@ -637,6 +637,170 @@
     <t>Instructor Ranbaba in Glen Castle Training Grounds</t>
   </si>
   <si>
+    <t>&lt;attr&gt;&lt;feel_normal_one&gt;&lt;end_attr&gt;「職業の誇りを胸に　どんな苦難も
+　笑顔で　乗り越えられるかッ！
+&lt;select&gt;
+イエッサー！
+いいえ
+&lt;select_end&gt;
+&lt;case 1&gt;
+&lt;break&gt;
+&lt;case 2&gt;
+&lt;break&gt;
+&lt;case_cancel&gt;
+&lt;break&gt;
+&lt;case_end&gt;</t>
+  </si>
+  <si>
+    <t>&lt;attr&gt;&lt;feel_normal_one&gt;&lt;end_attr&gt;Can you take pride in your vocation, and
+overcome any obstacle with a smile?!
+&lt;select&gt;
+Yes sir!
+No, sir.
+&lt;select_end&gt;
+&lt;case 1&gt;
+&lt;break&gt;
+&lt;case 2&gt;
+&lt;break&gt;
+&lt;case_cancel&gt;
+&lt;break&gt;
+&lt;case_end&gt;</t>
+  </si>
+  <si>
+    <t>&lt;attr&gt;&lt;feel_normal_one&gt;&lt;end_attr&gt;「自分ならば　ここでの特訓など
+　簡単にできると　思っているかッ！
+&lt;select&gt;
+イエッサー！
+いいえ
+&lt;select_end&gt;
+&lt;case 1&gt;
+&lt;break&gt;
+&lt;case 2&gt;
+&lt;break&gt;
+&lt;case_cancel&gt;
+&lt;break&gt;
+&lt;case_end&gt;</t>
+  </si>
+  <si>
+    <t>&lt;attr&gt;&lt;feel_normal_one&gt;&lt;end_attr&gt;Do you think your time training here will
+be easy?!
+&lt;select&gt;
+Yes sir!
+No, sir.
+&lt;select_end&gt;
+&lt;case 1&gt;
+&lt;break&gt;
+&lt;case 2&gt;
+&lt;break&gt;
+&lt;case_cancel&gt;
+&lt;break&gt;
+&lt;case_end&gt;</t>
+  </si>
+  <si>
+    <t>「無事　入門試験は済ませてきたんだろうなッ！
+&lt;select&gt;
+イエッサー！
+いいえ
+&lt;select_end&gt;
+&lt;case 1&gt;
+&lt;break&gt;
+&lt;case 2&gt;
+&lt;break&gt;
+&lt;case_cancel&gt;
+&lt;break&gt;
+&lt;case_end&gt;</t>
+  </si>
+  <si>
+    <t>&lt;attr&gt;&lt;feel_normal_one&gt;&lt;end_attr&gt;You've returned! I assume that means you've
+successfully completed your initiation exam,
+right?!
+&lt;select&gt;
+Yes sir!
+No, sir.
+&lt;select_end&gt;
+&lt;case 1&gt;
+&lt;break&gt;
+&lt;case 2&gt;
+&lt;break&gt;
+&lt;case_cancel&gt;
+&lt;break&gt;
+&lt;case_end&gt;</t>
+  </si>
+  <si>
+    <t>Instructor Ranbaba in Glen Castle Training Grounds (BAD STRING)</t>
+  </si>
+  <si>
+    <t>&lt;attr&gt;&lt;feel_normal_one&gt;&lt;end_attr&gt;「たかが　入門試験ごときで
+　英雄気取りに　なってはいないなッ！
+&lt;select&gt;
+イエッサー！
+いいえ
+&lt;select_end&gt;
+&lt;case 1&gt;
+&lt;break&gt;
+&lt;case 2&gt;
+&lt;break&gt;
+&lt;case_cancel&gt;
+&lt;break&gt;
+&lt;case_end&gt;</t>
+  </si>
+  <si>
+    <t>&lt;attr&gt;&lt;feel_normal_one&gt;&lt;end_attr&gt;You don't think you're some kind of hot shot
+hero because you completed an initiation exam,
+right?!
+&lt;select&gt;
+Yes sir!
+No, sir.
+&lt;select_end&gt;
+&lt;case 1&gt;
+&lt;break&gt;
+&lt;case 2&gt;
+&lt;break&gt;
+&lt;case_cancel&gt;
+&lt;break&gt;
+&lt;case_end&gt;</t>
+  </si>
+  <si>
+    <t>&lt;attr&gt;&lt;feel_normal_one&gt;&lt;end_attr&gt;「この程度の試験ならば　何回でも
+　クリアできると思っているかッ！
+&lt;select&gt;
+イエッサー！
+いいえ
+&lt;select_end&gt;
+&lt;case 1&gt;
+&lt;break&gt;
+&lt;case 2&gt;
+&lt;break&gt;
+&lt;case_cancel&gt;
+&lt;break&gt;
+&lt;case_end&gt;</t>
+  </si>
+  <si>
+    <t>&lt;attr&gt;&lt;feel_normal_one&gt;&lt;end_attr&gt;Do you think you can pass a test like this
+as many times as you want?!
+&lt;select&gt;
+Yes sir!
+No, sir.
+&lt;select_end&gt;
+&lt;case 1&gt;
+&lt;break&gt;
+&lt;case 2&gt;
+&lt;break&gt;
+&lt;case_cancel&gt;
+&lt;break&gt;
+&lt;case_end&gt;</t>
+  </si>
+  <si>
+    <t>&lt;attr&gt;&lt;feel_angry_lv2&gt;&lt;end_attr&gt;「……キサマ　ふざけているのか！？
+　返事は　イエッサーだけだと言ったはずだッ！
+　しっかり反省してから　また来るんだぞ！</t>
+  </si>
+  <si>
+    <t>&lt;attr&gt;&lt;feel_angry_lv2&gt;&lt;end_attr&gt;Hey, are you screwing with me?! I told you
+to only reply with "Yes, sir"! Come back
+after getting that through your head!</t>
+  </si>
+  <si>
     <t>どの写真を　見ますか？
 &lt;select 1&gt;
 ウワサのイタ映え絶景
@@ -8642,6 +8806,16 @@
 &lt;case_cancel&gt;
 &lt;close&gt;
 &lt;case_end&gt;</t>
+  </si>
+  <si>
+    <t>パーティリーダーに　協力するため
+この先へ　一緒に進みますか？&lt;yesno&gt;&lt;close&gt;</t>
+  </si>
+  <si>
+    <t>Join your party leader and proceed ahead?&lt;yesno&gt;&lt;close&gt;</t>
+  </si>
+  <si>
+    <t>Random party thing</t>
   </si>
   <si>
     <t>次の階層に　進みますか？&lt;yesno&gt;&lt;close&gt;</t>
@@ -9615,36 +9789,36 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="2" t="s">
+      <c r="A40" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="C40" s="2" t="s">
+      <c r="C40" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="D40" s="2" t="s">
-        <v>88</v>
+      <c r="D40" s="6" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C41" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C41" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>88</v>
+      <c r="D41" s="6" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C42" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C42" s="2" t="s">
+      <c r="D42" s="6" t="s">
         <v>92</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="43">
@@ -9654,112 +9828,127 @@
       <c r="C43" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="D43" s="2" t="s">
-        <v>88</v>
+      <c r="D43" s="6" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>23</v>
+        <v>95</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>24</v>
+        <v>96</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>100</v>
+        <v>103</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D48" s="2" t="s">
         <v>101</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>107</v>
+        <v>23</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>108</v>
+        <v>24</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C51" s="2" t="s">
         <v>109</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C52" s="2" t="s">
         <v>111</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C53" s="2" t="s">
         <v>113</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D54" s="2" t="s">
         <v>116</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C55" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="C55" s="2" t="s">
+      <c r="D55" s="2" t="s">
         <v>119</v>
       </c>
     </row>
@@ -9794,58 +9983,55 @@
       <c r="C59" s="2" t="s">
         <v>127</v>
       </c>
+      <c r="D59" s="2" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>20</v>
+        <v>138</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="D65" s="2" t="s">
         <v>140</v>
       </c>
     </row>
@@ -9889,14 +10075,17 @@
         <v>150</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>151</v>
+        <v>20</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C71" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="C71" s="2" t="s">
+      <c r="D71" s="2" t="s">
         <v>153</v>
       </c>
     </row>
@@ -9907,74 +10096,59 @@
       <c r="C72" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="D72" s="2" t="s">
-        <v>156</v>
-      </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C73" s="2" t="s">
         <v>157</v>
-      </c>
-      <c r="C73" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="D73" s="2" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="D74" s="2" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="D75" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="D76" s="2" t="s">
         <v>164</v>
-      </c>
-      <c r="C76" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="D76" s="2" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C77" s="2" t="s">
         <v>166</v>
-      </c>
-      <c r="C77" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="D77" s="2" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C78" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="C78" s="2" t="s">
+      <c r="D78" s="2" t="s">
         <v>169</v>
-      </c>
-      <c r="D78" s="2" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="79">
@@ -9985,106 +10159,106 @@
         <v>171</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>159</v>
+        <v>172</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="D80" s="2" t="s">
         <v>172</v>
-      </c>
-      <c r="C80" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="D80" s="2" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>159</v>
+        <v>172</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>159</v>
+        <v>172</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>159</v>
+        <v>172</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>159</v>
+        <v>172</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>159</v>
+        <v>172</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>159</v>
+        <v>172</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>159</v>
+        <v>172</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>190</v>
+        <v>172</v>
       </c>
     </row>
     <row r="89">
@@ -10095,73 +10269,73 @@
         <v>192</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>193</v>
+        <v>172</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C90" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="C90" s="2" t="s">
-        <v>195</v>
-      </c>
       <c r="D90" s="2" t="s">
-        <v>190</v>
+        <v>172</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C91" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="C91" s="2" t="s">
-        <v>197</v>
-      </c>
       <c r="D91" s="2" t="s">
-        <v>198</v>
+        <v>172</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>198</v>
+        <v>172</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>198</v>
+        <v>172</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="D94" s="2" t="s">
         <v>203</v>
-      </c>
-      <c r="C94" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="D94" s="2" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C95" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="C95" s="2" t="s">
+      <c r="D95" s="2" t="s">
         <v>206</v>
-      </c>
-      <c r="D95" s="2" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="96">
@@ -10172,7 +10346,7 @@
         <v>208</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
     </row>
     <row r="97">
@@ -10183,86 +10357,63 @@
         <v>210</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>198</v>
+        <v>211</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="D98" s="2" t="s">
         <v>211</v>
-      </c>
-      <c r="C98" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="D98" s="2" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>198</v>
+        <v>211</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>198</v>
+        <v>211</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>198</v>
+        <v>211</v>
       </c>
     </row>
     <row r="102">
-      <c r="A102" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="B102" s="4"/>
-      <c r="C102" s="3" t="s">
+      <c r="A102" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="D102" s="5" t="s">
+      <c r="C102" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="E102" s="4"/>
-      <c r="F102" s="4"/>
-      <c r="G102" s="4"/>
-      <c r="H102" s="4"/>
-      <c r="I102" s="4"/>
-      <c r="J102" s="4"/>
-      <c r="K102" s="4"/>
-      <c r="L102" s="4"/>
-      <c r="M102" s="4"/>
-      <c r="N102" s="4"/>
-      <c r="O102" s="4"/>
-      <c r="P102" s="4"/>
-      <c r="Q102" s="4"/>
-      <c r="R102" s="4"/>
-      <c r="S102" s="4"/>
-      <c r="T102" s="4"/>
-      <c r="U102" s="4"/>
-      <c r="V102" s="4"/>
-      <c r="W102" s="4"/>
-      <c r="X102" s="4"/>
-      <c r="Y102" s="4"/>
-      <c r="Z102" s="4"/>
+      <c r="D102" s="2" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
@@ -10272,227 +10423,250 @@
         <v>223</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
     </row>
     <row r="108">
-      <c r="A108" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="C108" s="2" t="s">
+      <c r="A108" s="5" t="s">
         <v>232</v>
       </c>
-      <c r="D108" s="2" t="s">
-        <v>221</v>
-      </c>
+      <c r="B108" s="4"/>
+      <c r="C108" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="D108" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="E108" s="4"/>
+      <c r="F108" s="4"/>
+      <c r="G108" s="4"/>
+      <c r="H108" s="4"/>
+      <c r="I108" s="4"/>
+      <c r="J108" s="4"/>
+      <c r="K108" s="4"/>
+      <c r="L108" s="4"/>
+      <c r="M108" s="4"/>
+      <c r="N108" s="4"/>
+      <c r="O108" s="4"/>
+      <c r="P108" s="4"/>
+      <c r="Q108" s="4"/>
+      <c r="R108" s="4"/>
+      <c r="S108" s="4"/>
+      <c r="T108" s="4"/>
+      <c r="U108" s="4"/>
+      <c r="V108" s="4"/>
+      <c r="W108" s="4"/>
+      <c r="X108" s="4"/>
+      <c r="Y108" s="4"/>
+      <c r="Z108" s="4"/>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="C109" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="D109" s="2" t="s">
         <v>234</v>
-      </c>
-      <c r="D109" s="2" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>221</v>
+        <v>234</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>221</v>
+        <v>234</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>221</v>
+        <v>234</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>221</v>
+        <v>234</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>221</v>
+        <v>234</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>221</v>
+        <v>234</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>221</v>
+        <v>234</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>221</v>
+        <v>234</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>221</v>
+        <v>234</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>221</v>
+        <v>234</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>221</v>
+        <v>234</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>221</v>
+        <v>234</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>221</v>
+        <v>234</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>263</v>
+        <v>234</v>
       </c>
     </row>
     <row r="124">
@@ -10502,6 +10676,9 @@
       <c r="C124" s="2" t="s">
         <v>265</v>
       </c>
+      <c r="D124" s="2" t="s">
+        <v>234</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
@@ -10510,71 +10687,68 @@
       <c r="C125" s="2" t="s">
         <v>267</v>
       </c>
+      <c r="D125" s="2" t="s">
+        <v>234</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>268</v>
+        <v>234</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>268</v>
+        <v>234</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>198</v>
+        <v>234</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>198</v>
+        <v>276</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="D130" s="2" t="s">
-        <v>198</v>
+        <v>278</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="D131" s="2" t="s">
-        <v>198</v>
+        <v>280</v>
       </c>
     </row>
     <row r="132">
@@ -10585,29 +10759,29 @@
         <v>280</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>198</v>
+        <v>281</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="D133" s="2" t="s">
         <v>281</v>
-      </c>
-      <c r="C133" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="D133" s="2" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>285</v>
+        <v>211</v>
       </c>
     </row>
     <row r="135">
@@ -10618,7 +10792,7 @@
         <v>287</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>285</v>
+        <v>211</v>
       </c>
     </row>
     <row r="136">
@@ -10629,51 +10803,51 @@
         <v>289</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>290</v>
+        <v>211</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="C137" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="C137" s="2" t="s">
-        <v>292</v>
-      </c>
       <c r="D137" s="2" t="s">
-        <v>290</v>
+        <v>211</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="C138" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="C138" s="2" t="s">
-        <v>294</v>
-      </c>
       <c r="D138" s="2" t="s">
-        <v>290</v>
+        <v>211</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="C139" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="C139" s="2" t="s">
-        <v>296</v>
-      </c>
       <c r="D139" s="2" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="C140" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="C140" s="2" t="s">
+      <c r="D140" s="2" t="s">
         <v>298</v>
-      </c>
-      <c r="D140" s="2" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="141">
@@ -10684,7 +10858,7 @@
         <v>300</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>290</v>
+        <v>298</v>
       </c>
     </row>
     <row r="142">
@@ -10695,18 +10869,18 @@
         <v>302</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>290</v>
+        <v>303</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="D143" s="2" t="s">
         <v>303</v>
-      </c>
-      <c r="C143" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="D143" s="2" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="144">
@@ -10717,73 +10891,73 @@
         <v>307</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="C145" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="C145" s="2" t="s">
-        <v>310</v>
-      </c>
       <c r="D145" s="2" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="D149" s="2" t="s">
         <v>318</v>
-      </c>
-      <c r="C149" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="D149" s="2" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="C150" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="C150" s="2" t="s">
+      <c r="D150" s="2" t="s">
         <v>321</v>
-      </c>
-      <c r="D150" s="2" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="151">
@@ -10816,51 +10990,51 @@
         <v>328</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="C154" s="2" t="s">
         <v>330</v>
       </c>
-      <c r="C154" s="2" t="s">
-        <v>331</v>
-      </c>
       <c r="D154" s="2" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="C155" s="2" t="s">
         <v>332</v>
       </c>
-      <c r="C155" s="2" t="s">
-        <v>333</v>
-      </c>
       <c r="D155" s="2" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="C156" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="C156" s="2" t="s">
-        <v>335</v>
-      </c>
       <c r="D156" s="2" t="s">
-        <v>329</v>
+        <v>276</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="C157" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="C157" s="2" t="s">
+      <c r="D157" s="2" t="s">
         <v>337</v>
-      </c>
-      <c r="D157" s="2" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="158">
@@ -10871,7 +11045,7 @@
         <v>339</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>329</v>
+        <v>337</v>
       </c>
     </row>
     <row r="159">
@@ -10882,157 +11056,172 @@
         <v>341</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>329</v>
+        <v>342</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="C160" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="D160" s="2" t="s">
         <v>342</v>
-      </c>
-      <c r="C160" s="2" t="s">
-        <v>343</v>
-      </c>
-      <c r="D160" s="2" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>329</v>
+        <v>342</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>329</v>
+        <v>342</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>329</v>
+        <v>342</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="C164" s="7" t="s">
         <v>351</v>
       </c>
+      <c r="C164" s="2" t="s">
+        <v>352</v>
+      </c>
       <c r="D164" s="2" t="s">
-        <v>329</v>
+        <v>342</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>329</v>
+        <v>342</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>329</v>
+        <v>342</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>329</v>
+        <v>342</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>329</v>
+        <v>342</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>361</v>
+        <v>362</v>
+      </c>
+      <c r="D169" s="2" t="s">
+        <v>342</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>362</v>
-      </c>
-      <c r="C170" s="2" t="s">
         <v>363</v>
+      </c>
+      <c r="C170" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="D170" s="2" t="s">
+        <v>342</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>365</v>
+        <v>366</v>
+      </c>
+      <c r="D171" s="2" t="s">
+        <v>342</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>367</v>
+        <v>368</v>
+      </c>
+      <c r="D172" s="2" t="s">
+        <v>342</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>369</v>
+        <v>370</v>
+      </c>
+      <c r="D173" s="2" t="s">
+        <v>342</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>372</v>
+        <v>342</v>
       </c>
     </row>
     <row r="175">
@@ -11042,141 +11231,126 @@
       <c r="C175" s="2" t="s">
         <v>374</v>
       </c>
-      <c r="D175" s="2" t="s">
-        <v>375</v>
-      </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="C176" s="2" t="s">
         <v>376</v>
       </c>
-      <c r="C176" s="2" t="s">
-        <v>377</v>
-      </c>
-      <c r="D176" s="2" t="s">
-        <v>378</v>
-      </c>
-      <c r="E176" s="2"/>
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>380</v>
-      </c>
-      <c r="D177" s="2" t="s">
         <v>378</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>382</v>
-      </c>
-      <c r="D178" s="2" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>385</v>
-      </c>
-      <c r="D179" s="2" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="C181" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="D181" s="2" t="s">
         <v>388</v>
-      </c>
-      <c r="C181" s="2" t="s">
-        <v>389</v>
-      </c>
-      <c r="D181" s="2" t="s">
-        <v>390</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="C182" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="D182" s="2" t="s">
         <v>391</v>
       </c>
-      <c r="C182" s="2" t="s">
-        <v>392</v>
-      </c>
-      <c r="D182" s="2" t="s">
-        <v>383</v>
-      </c>
+      <c r="E182" s="2"/>
     </row>
     <row r="183">
       <c r="A183" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="C183" s="2" t="s">
         <v>393</v>
       </c>
-      <c r="C183" s="2" t="s">
-        <v>394</v>
-      </c>
       <c r="D183" s="2" t="s">
-        <v>383</v>
+        <v>391</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="C184" s="2" t="s">
         <v>395</v>
       </c>
-      <c r="C184" s="2" t="s">
+      <c r="D184" s="2" t="s">
         <v>396</v>
-      </c>
-      <c r="D184" s="2" t="s">
-        <v>397</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="C185" s="2" t="s">
         <v>398</v>
       </c>
-      <c r="C185" s="2" t="s">
-        <v>399</v>
-      </c>
       <c r="D185" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="C186" s="2" t="s">
         <v>400</v>
       </c>
-      <c r="C186" s="2" t="s">
-        <v>401</v>
-      </c>
       <c r="D186" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="C187" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="C187" s="2" t="s">
+      <c r="D187" s="2" t="s">
         <v>403</v>
-      </c>
-      <c r="D187" s="2" t="s">
-        <v>397</v>
       </c>
     </row>
     <row r="188">
@@ -11187,7 +11361,7 @@
         <v>405</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="189">
@@ -11198,7 +11372,7 @@
         <v>407</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="190">
@@ -11209,73 +11383,73 @@
         <v>409</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>383</v>
+        <v>410</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="C191" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="D191" s="2" t="s">
         <v>410</v>
-      </c>
-      <c r="C191" s="2" t="s">
-        <v>411</v>
-      </c>
-      <c r="D191" s="2" t="s">
-        <v>383</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>383</v>
+        <v>410</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>383</v>
+        <v>410</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>383</v>
+        <v>410</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>383</v>
+        <v>410</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>422</v>
+        <v>396</v>
       </c>
     </row>
     <row r="197">
@@ -11286,7 +11460,7 @@
         <v>424</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="198">
@@ -11297,7 +11471,7 @@
         <v>426</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="199">
@@ -11308,7 +11482,7 @@
         <v>428</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="200">
@@ -11319,7 +11493,7 @@
         <v>430</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="201">
@@ -11330,7 +11504,7 @@
         <v>432</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="202">
@@ -11341,18 +11515,18 @@
         <v>434</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>383</v>
+        <v>435</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>437</v>
+        <v>410</v>
       </c>
     </row>
     <row r="204">
@@ -11363,7 +11537,7 @@
         <v>439</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>437</v>
+        <v>410</v>
       </c>
     </row>
     <row r="205">
@@ -11374,7 +11548,7 @@
         <v>441</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>437</v>
+        <v>410</v>
       </c>
     </row>
     <row r="206">
@@ -11385,7 +11559,7 @@
         <v>443</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>437</v>
+        <v>410</v>
       </c>
     </row>
     <row r="207">
@@ -11396,7 +11570,7 @@
         <v>445</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>437</v>
+        <v>410</v>
       </c>
     </row>
     <row r="208">
@@ -11407,7 +11581,7 @@
         <v>447</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>437</v>
+        <v>396</v>
       </c>
     </row>
     <row r="209">
@@ -11418,73 +11592,73 @@
         <v>449</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>437</v>
+        <v>450</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="C210" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="D210" s="2" t="s">
         <v>450</v>
-      </c>
-      <c r="C210" s="2" t="s">
-        <v>451</v>
-      </c>
-      <c r="D210" s="2" t="s">
-        <v>437</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>437</v>
+        <v>450</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="2" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>437</v>
+        <v>450</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="2" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>437</v>
+        <v>450</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="2" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>437</v>
+        <v>450</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="2" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>462</v>
+        <v>450</v>
       </c>
     </row>
     <row r="216">
@@ -11495,7 +11669,7 @@
         <v>464</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>462</v>
+        <v>450</v>
       </c>
     </row>
     <row r="217">
@@ -11506,92 +11680,92 @@
         <v>466</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>467</v>
+        <v>450</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="C218" s="2" t="s">
         <v>468</v>
       </c>
-      <c r="C218" s="2" t="s">
-        <v>469</v>
-      </c>
       <c r="D218" s="2" t="s">
-        <v>470</v>
+        <v>450</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="2" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>473</v>
+        <v>450</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="2" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="D220" s="2" t="s">
-        <v>476</v>
+        <v>450</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="2" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="C221" s="2" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="2" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="D222" s="2" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="2" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="2" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="2" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="C225" s="2" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="D225" s="2" t="s">
         <v>486</v>
@@ -11599,137 +11773,137 @@
     </row>
     <row r="226">
       <c r="A226" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="C226" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="D226" s="2" t="s">
         <v>489</v>
-      </c>
-      <c r="C226" s="2" t="s">
-        <v>490</v>
-      </c>
-      <c r="D226" s="2" t="s">
-        <v>491</v>
-      </c>
-      <c r="E226" s="2" t="s">
-        <v>492</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="2" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="C227" s="2" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="D227" s="2" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="2" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C228" s="2" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="D228" s="2" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="2" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C229" s="2" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="D229" s="2" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="C230" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="D230" s="2" t="s">
         <v>499</v>
-      </c>
-      <c r="C230" s="2" t="s">
-        <v>500</v>
-      </c>
-      <c r="D230" s="2" t="s">
-        <v>491</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="C231" s="2" t="s">
         <v>501</v>
       </c>
-      <c r="C231" s="2" t="s">
-        <v>502</v>
-      </c>
       <c r="D231" s="2" t="s">
-        <v>491</v>
+        <v>499</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="C232" s="2" t="s">
         <v>503</v>
       </c>
-      <c r="C232" s="2" t="s">
+      <c r="D232" s="2" t="s">
         <v>504</v>
       </c>
-      <c r="D232" s="2" t="s">
-        <v>491</v>
+      <c r="E232" s="2" t="s">
+        <v>505</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="2" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="C233" s="2" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="D233" s="2" t="s">
-        <v>491</v>
+        <v>504</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="2" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="C234" s="2" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="D234" s="2" t="s">
-        <v>491</v>
+        <v>504</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="2" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C235" s="2" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="D235" s="2" t="s">
-        <v>491</v>
+        <v>504</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="2" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="C236" s="2" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="D236" s="2" t="s">
-        <v>491</v>
+        <v>504</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="2" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="C237" s="2" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="D237" s="2" t="s">
-        <v>515</v>
+        <v>504</v>
       </c>
     </row>
     <row r="238">
@@ -11740,7 +11914,7 @@
         <v>517</v>
       </c>
       <c r="D238" s="2" t="s">
-        <v>515</v>
+        <v>504</v>
       </c>
     </row>
     <row r="239">
@@ -11751,7 +11925,7 @@
         <v>519</v>
       </c>
       <c r="D239" s="2" t="s">
-        <v>515</v>
+        <v>504</v>
       </c>
     </row>
     <row r="240">
@@ -11762,40 +11936,40 @@
         <v>521</v>
       </c>
       <c r="D240" s="2" t="s">
-        <v>522</v>
+        <v>504</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="C241" s="2" t="s">
         <v>523</v>
       </c>
-      <c r="C241" s="2" t="s">
-        <v>524</v>
-      </c>
       <c r="D241" s="2" t="s">
-        <v>522</v>
+        <v>504</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="C242" s="2" t="s">
         <v>525</v>
       </c>
-      <c r="C242" s="2" t="s">
-        <v>526</v>
-      </c>
       <c r="D242" s="2" t="s">
-        <v>522</v>
+        <v>504</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="C243" s="2" t="s">
         <v>527</v>
       </c>
-      <c r="C243" s="2" t="s">
+      <c r="D243" s="2" t="s">
         <v>528</v>
-      </c>
-      <c r="D243" s="2" t="s">
-        <v>522</v>
       </c>
     </row>
     <row r="244">
@@ -11806,7 +11980,7 @@
         <v>530</v>
       </c>
       <c r="D244" s="2" t="s">
-        <v>522</v>
+        <v>528</v>
       </c>
     </row>
     <row r="245">
@@ -11817,73 +11991,73 @@
         <v>532</v>
       </c>
       <c r="D245" s="2" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="2" t="s">
+        <v>533</v>
+      </c>
+      <c r="C246" s="2" t="s">
         <v>534</v>
       </c>
-      <c r="C246" s="2" t="s">
+      <c r="D246" s="2" t="s">
         <v>535</v>
-      </c>
-      <c r="D246" s="2" t="s">
-        <v>536</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="C247" s="2" t="s">
         <v>537</v>
       </c>
-      <c r="C247" s="2" t="s">
-        <v>538</v>
-      </c>
       <c r="D247" s="2" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="2" t="s">
+        <v>538</v>
+      </c>
+      <c r="C248" s="2" t="s">
         <v>539</v>
       </c>
-      <c r="C248" s="2" t="s">
-        <v>540</v>
-      </c>
       <c r="D248" s="2" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="C249" s="2" t="s">
         <v>541</v>
       </c>
-      <c r="C249" s="2" t="s">
-        <v>542</v>
-      </c>
       <c r="D249" s="2" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="C250" s="2" t="s">
         <v>543</v>
       </c>
-      <c r="C250" s="2" t="s">
-        <v>544</v>
-      </c>
       <c r="D250" s="2" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="2" t="s">
+        <v>544</v>
+      </c>
+      <c r="C251" s="2" t="s">
         <v>545</v>
       </c>
-      <c r="C251" s="2" t="s">
+      <c r="D251" s="2" t="s">
         <v>546</v>
-      </c>
-      <c r="D251" s="2" t="s">
-        <v>536</v>
       </c>
     </row>
     <row r="252">
@@ -11894,161 +12068,161 @@
         <v>548</v>
       </c>
       <c r="D252" s="2" t="s">
-        <v>536</v>
+        <v>549</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="C253" s="2" t="s">
+        <v>551</v>
+      </c>
+      <c r="D253" s="2" t="s">
         <v>549</v>
-      </c>
-      <c r="C253" s="2" t="s">
-        <v>550</v>
-      </c>
-      <c r="D253" s="2" t="s">
-        <v>536</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="2" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="C254" s="2" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="D254" s="2" t="s">
-        <v>536</v>
+        <v>549</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="2" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="C255" s="2" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="D255" s="2" t="s">
-        <v>536</v>
+        <v>549</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="2" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="C256" s="2" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="D256" s="2" t="s">
-        <v>536</v>
+        <v>549</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="2" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="C257" s="2" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="D257" s="2" t="s">
-        <v>536</v>
+        <v>549</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="2" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="C258" s="2" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="D258" s="2" t="s">
-        <v>536</v>
+        <v>549</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" s="2" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="C259" s="2" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="D259" s="2" t="s">
-        <v>536</v>
+        <v>549</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="2" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="C260" s="2" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="D260" s="2" t="s">
-        <v>290</v>
+        <v>549</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="2" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="C261" s="2" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="D261" s="2" t="s">
-        <v>290</v>
+        <v>549</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="2" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="C262" s="2" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="D262" s="2" t="s">
-        <v>290</v>
+        <v>549</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="2" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="C263" s="2" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="D263" s="2" t="s">
-        <v>285</v>
+        <v>549</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="2" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="C264" s="2" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="D264" s="2" t="s">
-        <v>285</v>
+        <v>549</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="2" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="C265" s="2" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="D265" s="2" t="s">
-        <v>285</v>
+        <v>549</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="2" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="C266" s="2" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="D266" s="2" t="s">
-        <v>577</v>
+        <v>303</v>
       </c>
     </row>
     <row r="267">
@@ -12059,7 +12233,7 @@
         <v>579</v>
       </c>
       <c r="D267" s="2" t="s">
-        <v>285</v>
+        <v>303</v>
       </c>
     </row>
     <row r="268">
@@ -12070,73 +12244,73 @@
         <v>581</v>
       </c>
       <c r="D268" s="2" t="s">
-        <v>582</v>
+        <v>303</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="2" t="s">
+        <v>582</v>
+      </c>
+      <c r="C269" s="2" t="s">
         <v>583</v>
       </c>
-      <c r="C269" s="2" t="s">
-        <v>584</v>
-      </c>
       <c r="D269" s="2" t="s">
-        <v>585</v>
+        <v>298</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" s="2" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="C270" s="2" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="D270" s="2" t="s">
-        <v>585</v>
+        <v>298</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" s="2" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="C271" s="2" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="D271" s="2" t="s">
-        <v>585</v>
+        <v>298</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" s="2" t="s">
+        <v>588</v>
+      </c>
+      <c r="C272" s="2" t="s">
+        <v>589</v>
+      </c>
+      <c r="D272" s="2" t="s">
         <v>590</v>
-      </c>
-      <c r="C272" s="2" t="s">
-        <v>591</v>
-      </c>
-      <c r="D272" s="2" t="s">
-        <v>585</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" s="2" t="s">
+        <v>591</v>
+      </c>
+      <c r="C273" s="2" t="s">
         <v>592</v>
       </c>
-      <c r="C273" s="2" t="s">
-        <v>593</v>
-      </c>
       <c r="D273" s="2" t="s">
-        <v>585</v>
+        <v>298</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" s="2" t="s">
+        <v>593</v>
+      </c>
+      <c r="C274" s="2" t="s">
         <v>594</v>
       </c>
-      <c r="C274" s="2" t="s">
+      <c r="D274" s="2" t="s">
         <v>595</v>
-      </c>
-      <c r="D274" s="2" t="s">
-        <v>585</v>
       </c>
     </row>
     <row r="275">
@@ -12147,205 +12321,205 @@
         <v>597</v>
       </c>
       <c r="D275" s="2" t="s">
-        <v>585</v>
+        <v>598</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" s="2" t="s">
+        <v>599</v>
+      </c>
+      <c r="C276" s="2" t="s">
+        <v>600</v>
+      </c>
+      <c r="D276" s="2" t="s">
         <v>598</v>
-      </c>
-      <c r="C276" s="2" t="s">
-        <v>599</v>
-      </c>
-      <c r="D276" s="2" t="s">
-        <v>585</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" s="2" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="C277" s="2" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="D277" s="2" t="s">
-        <v>585</v>
+        <v>598</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" s="2" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="C278" s="2" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D278" s="2" t="s">
-        <v>585</v>
+        <v>598</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" s="2" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="C279" s="2" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="D279" s="2" t="s">
-        <v>585</v>
+        <v>598</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" s="2" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C280" s="2" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="D280" s="2" t="s">
-        <v>585</v>
+        <v>598</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" s="2" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="C281" s="2" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="D281" s="2" t="s">
-        <v>585</v>
+        <v>598</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" s="2" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="C282" s="2" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="D282" s="2" t="s">
-        <v>585</v>
+        <v>598</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" s="2" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="C283" s="2" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="D283" s="2" t="s">
-        <v>585</v>
+        <v>598</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" s="2" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="C284" s="2" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="D284" s="2" t="s">
-        <v>585</v>
+        <v>598</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" s="2" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="C285" s="2" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="D285" s="2" t="s">
-        <v>585</v>
+        <v>598</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" s="2" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="C286" s="2" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="D286" s="2" t="s">
-        <v>585</v>
+        <v>598</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" s="2" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="C287" s="2" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="D287" s="2" t="s">
-        <v>585</v>
+        <v>598</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" s="2" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="C288" s="2" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="D288" s="2" t="s">
-        <v>585</v>
+        <v>598</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" s="2" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="C289" s="2" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="D289" s="2" t="s">
-        <v>585</v>
+        <v>598</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" s="2" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="C290" s="2" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="D290" s="2" t="s">
-        <v>585</v>
+        <v>598</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" s="2" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="C291" s="2" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="D291" s="2" t="s">
-        <v>585</v>
+        <v>598</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" s="2" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="C292" s="2" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="D292" s="2" t="s">
-        <v>585</v>
+        <v>598</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" s="2" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="C293" s="2" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="D293" s="2" t="s">
-        <v>634</v>
+        <v>598</v>
       </c>
     </row>
     <row r="294">
@@ -12356,7 +12530,7 @@
         <v>636</v>
       </c>
       <c r="D294" s="2" t="s">
-        <v>634</v>
+        <v>598</v>
       </c>
     </row>
     <row r="295">
@@ -12367,7 +12541,7 @@
         <v>638</v>
       </c>
       <c r="D295" s="2" t="s">
-        <v>634</v>
+        <v>598</v>
       </c>
     </row>
     <row r="296">
@@ -12378,7 +12552,7 @@
         <v>640</v>
       </c>
       <c r="D296" s="2" t="s">
-        <v>634</v>
+        <v>598</v>
       </c>
     </row>
     <row r="297">
@@ -12389,183 +12563,183 @@
         <v>642</v>
       </c>
       <c r="D297" s="2" t="s">
-        <v>643</v>
+        <v>598</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" s="2" t="s">
+        <v>643</v>
+      </c>
+      <c r="C298" s="2" t="s">
         <v>644</v>
       </c>
-      <c r="C298" s="2" t="s">
-        <v>645</v>
-      </c>
       <c r="D298" s="2" t="s">
-        <v>646</v>
+        <v>598</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" s="2" t="s">
+        <v>645</v>
+      </c>
+      <c r="C299" s="2" t="s">
+        <v>646</v>
+      </c>
+      <c r="D299" s="2" t="s">
         <v>647</v>
-      </c>
-      <c r="C299" s="2" t="s">
-        <v>648</v>
-      </c>
-      <c r="D299" s="2" t="s">
-        <v>646</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" s="2" t="s">
+        <v>648</v>
+      </c>
+      <c r="C300" s="2" t="s">
         <v>649</v>
       </c>
-      <c r="C300" s="2" t="s">
-        <v>650</v>
-      </c>
       <c r="D300" s="2" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" s="2" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="C301" s="2" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="D301" s="2" t="s">
-        <v>654</v>
+        <v>647</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" s="2" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="C302" s="2" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="D302" s="2" t="s">
-        <v>657</v>
+        <v>647</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" s="2" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="C303" s="2" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="D303" s="2" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" s="2" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="C304" s="2" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="D304" s="2" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" s="2" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="C305" s="2" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="D305" s="2" t="s">
-        <v>666</v>
+        <v>659</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" s="2" t="s">
-        <v>667</v>
+        <v>662</v>
       </c>
       <c r="C306" s="2" t="s">
-        <v>668</v>
+        <v>663</v>
       </c>
       <c r="D306" s="2" t="s">
-        <v>669</v>
+        <v>664</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" s="2" t="s">
-        <v>670</v>
+        <v>665</v>
       </c>
       <c r="C307" s="2" t="s">
-        <v>671</v>
+        <v>666</v>
       </c>
       <c r="D307" s="2" t="s">
-        <v>672</v>
+        <v>667</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" s="2" t="s">
-        <v>673</v>
+        <v>668</v>
       </c>
       <c r="C308" s="2" t="s">
-        <v>674</v>
+        <v>669</v>
       </c>
       <c r="D308" s="2" t="s">
-        <v>675</v>
+        <v>670</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" s="2" t="s">
-        <v>676</v>
+        <v>671</v>
       </c>
       <c r="C309" s="2" t="s">
-        <v>677</v>
+        <v>672</v>
       </c>
       <c r="D309" s="2" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" s="2" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="C310" s="2" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="D310" s="2" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" s="2" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="C311" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="D311" s="2" t="s">
-        <v>675</v>
+        <v>679</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" s="2" t="s">
+        <v>680</v>
+      </c>
+      <c r="C312" s="2" t="s">
+        <v>681</v>
+      </c>
+      <c r="D312" s="2" t="s">
         <v>682</v>
-      </c>
-      <c r="C312" s="2" t="s">
-        <v>683</v>
-      </c>
-      <c r="D312" s="2" t="s">
-        <v>675</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" s="2" t="s">
+        <v>683</v>
+      </c>
+      <c r="C313" s="2" t="s">
         <v>684</v>
       </c>
-      <c r="C313" s="2" t="s">
+      <c r="D313" s="2" t="s">
         <v>685</v>
-      </c>
-      <c r="D313" s="2" t="s">
-        <v>675</v>
       </c>
     </row>
     <row r="314">
@@ -12587,7 +12761,7 @@
         <v>690</v>
       </c>
       <c r="D315" s="2" t="s">
-        <v>675</v>
+        <v>688</v>
       </c>
     </row>
     <row r="316">
@@ -12598,7 +12772,7 @@
         <v>692</v>
       </c>
       <c r="D316" s="2" t="s">
-        <v>675</v>
+        <v>688</v>
       </c>
     </row>
     <row r="317">
@@ -12609,7 +12783,7 @@
         <v>694</v>
       </c>
       <c r="D317" s="2" t="s">
-        <v>675</v>
+        <v>688</v>
       </c>
     </row>
     <row r="318">
@@ -12642,15 +12816,15 @@
         <v>700</v>
       </c>
       <c r="D320" s="2" t="s">
-        <v>688</v>
+        <v>701</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" s="2" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="C321" s="2" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="D321" s="2" t="s">
         <v>688</v>
@@ -12658,10 +12832,10 @@
     </row>
     <row r="322">
       <c r="A322" s="2" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="C322" s="2" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="D322" s="2" t="s">
         <v>688</v>
@@ -12669,10 +12843,10 @@
     </row>
     <row r="323">
       <c r="A323" s="2" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="C323" s="2" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="D323" s="2" t="s">
         <v>688</v>
@@ -12680,209 +12854,209 @@
     </row>
     <row r="324">
       <c r="A324" s="2" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="C324" s="2" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="D324" s="2" t="s">
-        <v>688</v>
+        <v>701</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" s="2" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="C325" s="2" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="D325" s="2" t="s">
-        <v>688</v>
+        <v>701</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" s="2" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="C326" s="2" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="D326" s="2" t="s">
-        <v>688</v>
+        <v>701</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" s="2" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="C327" s="2" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="D327" s="2" t="s">
-        <v>688</v>
+        <v>701</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" s="2" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="C328" s="2" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="D328" s="2" t="s">
-        <v>688</v>
+        <v>701</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" s="2" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="C329" s="2" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="D329" s="2" t="s">
-        <v>688</v>
+        <v>701</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" s="2" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="C330" s="2" t="s">
-        <v>720</v>
-      </c>
-      <c r="D330" s="2"/>
+        <v>721</v>
+      </c>
+      <c r="D330" s="2" t="s">
+        <v>701</v>
+      </c>
     </row>
     <row r="331">
       <c r="A331" s="2" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="C331" s="2" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="D331" s="2" t="s">
-        <v>688</v>
+        <v>701</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" s="2" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="C332" s="2" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="D332" s="2" t="s">
-        <v>688</v>
+        <v>701</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" s="2" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="C333" s="2" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="D333" s="2" t="s">
-        <v>688</v>
+        <v>701</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" s="2" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="C334" s="2" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="D334" s="2" t="s">
-        <v>688</v>
+        <v>701</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" s="2" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="C335" s="2" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="D335" s="2" t="s">
-        <v>688</v>
+        <v>701</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" s="2" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="C336" s="2" t="s">
-        <v>732</v>
-      </c>
-      <c r="D336" s="2" t="s">
-        <v>688</v>
-      </c>
+        <v>733</v>
+      </c>
+      <c r="D336" s="2"/>
     </row>
     <row r="337">
       <c r="A337" s="2" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="C337" s="2" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="D337" s="2" t="s">
-        <v>688</v>
+        <v>701</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" s="2" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="C338" s="2" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="D338" s="2" t="s">
-        <v>688</v>
+        <v>701</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" s="2" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="C339" s="2" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="D339" s="2" t="s">
-        <v>688</v>
+        <v>701</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" s="2" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="C340" s="2" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="D340" s="2" t="s">
-        <v>688</v>
+        <v>701</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" s="2" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="C341" s="2" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="D341" s="2" t="s">
-        <v>688</v>
+        <v>701</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" s="2" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="C342" s="2" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="D342" s="2" t="s">
-        <v>745</v>
+        <v>701</v>
       </c>
     </row>
     <row r="343">
@@ -12893,73 +13067,73 @@
         <v>747</v>
       </c>
       <c r="D343" s="2" t="s">
-        <v>748</v>
+        <v>701</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" s="2" t="s">
+        <v>748</v>
+      </c>
+      <c r="C344" s="2" t="s">
         <v>749</v>
       </c>
-      <c r="C344" s="2" t="s">
-        <v>750</v>
-      </c>
       <c r="D344" s="2" t="s">
-        <v>748</v>
+        <v>701</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" s="2" t="s">
+        <v>750</v>
+      </c>
+      <c r="C345" s="2" t="s">
         <v>751</v>
       </c>
-      <c r="C345" s="2" t="s">
-        <v>752</v>
-      </c>
       <c r="D345" s="2" t="s">
-        <v>748</v>
+        <v>701</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" s="2" t="s">
+        <v>752</v>
+      </c>
+      <c r="C346" s="2" t="s">
         <v>753</v>
       </c>
-      <c r="C346" s="2" t="s">
-        <v>754</v>
-      </c>
       <c r="D346" s="2" t="s">
-        <v>755</v>
+        <v>701</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" s="2" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="C347" s="2" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="D347" s="2" t="s">
-        <v>748</v>
+        <v>701</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" s="2" t="s">
+        <v>756</v>
+      </c>
+      <c r="C348" s="2" t="s">
+        <v>757</v>
+      </c>
+      <c r="D348" s="2" t="s">
         <v>758</v>
-      </c>
-      <c r="C348" s="2" t="s">
-        <v>759</v>
-      </c>
-      <c r="D348" s="2" t="s">
-        <v>748</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" s="2" t="s">
+        <v>759</v>
+      </c>
+      <c r="C349" s="2" t="s">
         <v>760</v>
       </c>
-      <c r="C349" s="2" t="s">
+      <c r="D349" s="2" t="s">
         <v>761</v>
-      </c>
-      <c r="D349" s="2" t="s">
-        <v>755</v>
       </c>
     </row>
     <row r="350">
@@ -12970,7 +13144,7 @@
         <v>763</v>
       </c>
       <c r="D350" s="2" t="s">
-        <v>748</v>
+        <v>761</v>
       </c>
     </row>
     <row r="351">
@@ -12981,7 +13155,7 @@
         <v>765</v>
       </c>
       <c r="D351" s="2" t="s">
-        <v>748</v>
+        <v>761</v>
       </c>
     </row>
     <row r="352">
@@ -12992,38 +13166,40 @@
         <v>767</v>
       </c>
       <c r="D352" s="2" t="s">
-        <v>755</v>
+        <v>768</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" s="2" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="C353" s="2" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="D353" s="2" t="s">
-        <v>748</v>
+        <v>761</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" s="2" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="C354" s="2" t="s">
-        <v>771</v>
-      </c>
-      <c r="D354" s="2"/>
+        <v>772</v>
+      </c>
+      <c r="D354" s="2" t="s">
+        <v>761</v>
+      </c>
     </row>
     <row r="355">
       <c r="A355" s="2" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="C355" s="2" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="D355" s="2" t="s">
-        <v>774</v>
+        <v>768</v>
       </c>
     </row>
     <row r="356">
@@ -13034,7 +13210,7 @@
         <v>776</v>
       </c>
       <c r="D356" s="2" t="s">
-        <v>755</v>
+        <v>761</v>
       </c>
     </row>
     <row r="357">
@@ -13045,7 +13221,7 @@
         <v>778</v>
       </c>
       <c r="D357" s="2" t="s">
-        <v>748</v>
+        <v>761</v>
       </c>
     </row>
     <row r="358">
@@ -13056,7 +13232,7 @@
         <v>780</v>
       </c>
       <c r="D358" s="2" t="s">
-        <v>748</v>
+        <v>768</v>
       </c>
     </row>
     <row r="359">
@@ -13067,7 +13243,7 @@
         <v>782</v>
       </c>
       <c r="D359" s="2" t="s">
-        <v>774</v>
+        <v>761</v>
       </c>
     </row>
     <row r="360">
@@ -13077,9 +13253,7 @@
       <c r="C360" s="2" t="s">
         <v>784</v>
       </c>
-      <c r="D360" s="2" t="s">
-        <v>774</v>
-      </c>
+      <c r="D360" s="2"/>
     </row>
     <row r="361">
       <c r="A361" s="2" t="s">
@@ -13089,18 +13263,18 @@
         <v>786</v>
       </c>
       <c r="D361" s="2" t="s">
-        <v>774</v>
+        <v>787</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" s="2" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="C362" s="2" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="D362" s="2" t="s">
-        <v>789</v>
+        <v>768</v>
       </c>
     </row>
     <row r="363">
@@ -13111,7 +13285,7 @@
         <v>791</v>
       </c>
       <c r="D363" s="2" t="s">
-        <v>789</v>
+        <v>761</v>
       </c>
     </row>
     <row r="364">
@@ -13122,95 +13296,95 @@
         <v>793</v>
       </c>
       <c r="D364" s="2" t="s">
-        <v>794</v>
+        <v>761</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" s="2" t="s">
+        <v>794</v>
+      </c>
+      <c r="C365" s="2" t="s">
         <v>795</v>
       </c>
-      <c r="C365" s="2" t="s">
-        <v>796</v>
-      </c>
       <c r="D365" s="2" t="s">
-        <v>797</v>
+        <v>787</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" s="2" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="C366" s="2" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="D366" s="2" t="s">
-        <v>800</v>
+        <v>787</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" s="2" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
       <c r="C367" s="2" t="s">
-        <v>802</v>
+        <v>799</v>
       </c>
       <c r="D367" s="2" t="s">
-        <v>803</v>
+        <v>787</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" s="2" t="s">
-        <v>804</v>
+        <v>800</v>
       </c>
       <c r="C368" s="2" t="s">
-        <v>805</v>
+        <v>801</v>
       </c>
       <c r="D368" s="2" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" s="2" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="C369" s="2" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="D369" s="2" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" s="2" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
       <c r="C370" s="2" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
       <c r="D370" s="2" t="s">
-        <v>803</v>
+        <v>807</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" s="2" t="s">
+        <v>808</v>
+      </c>
+      <c r="C371" s="2" t="s">
+        <v>809</v>
+      </c>
+      <c r="D371" s="2" t="s">
         <v>810</v>
-      </c>
-      <c r="C371" s="2" t="s">
-        <v>811</v>
-      </c>
-      <c r="D371" s="2" t="s">
-        <v>803</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" s="2" t="s">
+        <v>811</v>
+      </c>
+      <c r="C372" s="2" t="s">
         <v>812</v>
       </c>
-      <c r="C372" s="2" t="s">
+      <c r="D372" s="2" t="s">
         <v>813</v>
-      </c>
-      <c r="D372" s="2" t="s">
-        <v>803</v>
       </c>
     </row>
     <row r="373">
@@ -13221,60 +13395,62 @@
         <v>815</v>
       </c>
       <c r="D373" s="2" t="s">
-        <v>803</v>
+        <v>816</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" s="2" t="s">
+        <v>817</v>
+      </c>
+      <c r="C374" s="2" t="s">
+        <v>818</v>
+      </c>
+      <c r="D374" s="2" t="s">
         <v>816</v>
-      </c>
-      <c r="C374" s="2" t="s">
-        <v>817</v>
-      </c>
-      <c r="D374" s="2" t="s">
-        <v>803</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" s="2" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="C375" s="2" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="D375" s="2" t="s">
-        <v>803</v>
+        <v>816</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" s="2" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="C376" s="2" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="D376" s="2" t="s">
-        <v>803</v>
+        <v>816</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" s="2" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="C377" s="2" t="s">
-        <v>823</v>
-      </c>
-      <c r="D377" s="2"/>
+        <v>824</v>
+      </c>
+      <c r="D377" s="2" t="s">
+        <v>816</v>
+      </c>
     </row>
     <row r="378">
       <c r="A378" s="2" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="C378" s="2" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="D378" s="2" t="s">
-        <v>826</v>
+        <v>816</v>
       </c>
     </row>
     <row r="379">
@@ -13285,70 +13461,68 @@
         <v>828</v>
       </c>
       <c r="D379" s="2" t="s">
-        <v>829</v>
+        <v>816</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" s="2" t="s">
+        <v>829</v>
+      </c>
+      <c r="C380" s="2" t="s">
         <v>830</v>
       </c>
-      <c r="C380" s="2" t="s">
-        <v>831</v>
-      </c>
       <c r="D380" s="2" t="s">
-        <v>829</v>
+        <v>816</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" s="2" t="s">
+        <v>831</v>
+      </c>
+      <c r="C381" s="2" t="s">
         <v>832</v>
       </c>
-      <c r="C381" s="2" t="s">
-        <v>833</v>
-      </c>
       <c r="D381" s="2" t="s">
-        <v>829</v>
+        <v>816</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" s="2" t="s">
+        <v>833</v>
+      </c>
+      <c r="C382" s="2" t="s">
         <v>834</v>
       </c>
-      <c r="C382" s="2" t="s">
-        <v>835</v>
-      </c>
       <c r="D382" s="2" t="s">
-        <v>836</v>
+        <v>816</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" s="2" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="C383" s="2" t="s">
-        <v>838</v>
-      </c>
-      <c r="D383" s="2" t="s">
-        <v>839</v>
-      </c>
+        <v>836</v>
+      </c>
+      <c r="D383" s="2"/>
     </row>
     <row r="384">
       <c r="A384" s="2" t="s">
-        <v>840</v>
+        <v>837</v>
       </c>
       <c r="C384" s="2" t="s">
-        <v>841</v>
+        <v>838</v>
       </c>
       <c r="D384" s="2" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" s="2" t="s">
-        <v>843</v>
+        <v>840</v>
       </c>
       <c r="C385" s="2" t="s">
-        <v>844</v>
+        <v>841</v>
       </c>
       <c r="D385" s="2" t="s">
         <v>842</v>
@@ -13356,266 +13530,343 @@
     </row>
     <row r="386">
       <c r="A386" s="2" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="C386" s="2" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="D386" s="2" t="s">
-        <v>847</v>
+        <v>842</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" s="2" t="s">
-        <v>848</v>
+        <v>845</v>
       </c>
       <c r="C387" s="2" t="s">
-        <v>849</v>
+        <v>846</v>
       </c>
       <c r="D387" s="2" t="s">
-        <v>850</v>
+        <v>842</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" s="2" t="s">
-        <v>851</v>
+        <v>847</v>
       </c>
       <c r="C388" s="2" t="s">
-        <v>852</v>
+        <v>848</v>
       </c>
       <c r="D388" s="2" t="s">
-        <v>853</v>
+        <v>849</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" s="2" t="s">
-        <v>854</v>
+        <v>850</v>
       </c>
       <c r="C389" s="2" t="s">
-        <v>855</v>
+        <v>851</v>
       </c>
       <c r="D389" s="2" t="s">
-        <v>856</v>
+        <v>852</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" s="2" t="s">
-        <v>857</v>
+        <v>853</v>
       </c>
       <c r="C390" s="2" t="s">
-        <v>858</v>
+        <v>854</v>
       </c>
       <c r="D390" s="2" t="s">
-        <v>859</v>
+        <v>855</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" s="2" t="s">
-        <v>860</v>
+        <v>856</v>
       </c>
       <c r="C391" s="2" t="s">
-        <v>861</v>
+        <v>857</v>
       </c>
       <c r="D391" s="2" t="s">
-        <v>859</v>
+        <v>855</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" s="2" t="s">
-        <v>862</v>
+        <v>858</v>
       </c>
       <c r="C392" s="2" t="s">
-        <v>863</v>
+        <v>859</v>
       </c>
       <c r="D392" s="2" t="s">
-        <v>856</v>
+        <v>860</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" s="2" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
       <c r="C393" s="2" t="s">
-        <v>865</v>
+        <v>862</v>
       </c>
       <c r="D393" s="2" t="s">
-        <v>859</v>
+        <v>863</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" s="2" t="s">
+        <v>864</v>
+      </c>
+      <c r="C394" s="2" t="s">
+        <v>865</v>
+      </c>
+      <c r="D394" s="2" t="s">
         <v>866</v>
-      </c>
-      <c r="C394" s="2" t="s">
-        <v>867</v>
-      </c>
-      <c r="D394" s="2" t="s">
-        <v>868</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" s="2" t="s">
+        <v>867</v>
+      </c>
+      <c r="C395" s="2" t="s">
+        <v>868</v>
+      </c>
+      <c r="D395" s="2" t="s">
         <v>869</v>
-      </c>
-      <c r="C395" s="2" t="s">
-        <v>870</v>
-      </c>
-      <c r="D395" s="2" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" s="2" t="s">
+        <v>870</v>
+      </c>
+      <c r="C396" s="2" t="s">
         <v>871</v>
       </c>
-      <c r="C396" s="2" t="s">
+      <c r="D396" s="2" t="s">
         <v>872</v>
-      </c>
-      <c r="D396" s="2" t="s">
-        <v>873</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" s="2" t="s">
+        <v>873</v>
+      </c>
+      <c r="C397" s="2" t="s">
         <v>874</v>
       </c>
-      <c r="C397" s="2" t="s">
-        <v>875</v>
-      </c>
       <c r="D397" s="2" t="s">
-        <v>876</v>
+        <v>872</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" s="2" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="C398" s="2" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="D398" s="2" t="s">
-        <v>879</v>
+        <v>869</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" s="2" t="s">
-        <v>880</v>
+        <v>877</v>
       </c>
       <c r="C399" s="2" t="s">
-        <v>881</v>
+        <v>878</v>
       </c>
       <c r="D399" s="2" t="s">
-        <v>882</v>
+        <v>872</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" s="2" t="s">
-        <v>883</v>
+        <v>879</v>
       </c>
       <c r="C400" s="2" t="s">
-        <v>884</v>
+        <v>880</v>
       </c>
       <c r="D400" s="2" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" s="2" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="C401" s="2" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
       <c r="D401" s="2" t="s">
-        <v>887</v>
+        <v>169</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" s="2" t="s">
-        <v>888</v>
+        <v>884</v>
       </c>
       <c r="C402" s="2" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="D402" s="2" t="s">
-        <v>890</v>
+        <v>886</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" s="2" t="s">
-        <v>891</v>
+        <v>887</v>
       </c>
       <c r="C403" s="2" t="s">
-        <v>892</v>
+        <v>888</v>
       </c>
       <c r="D403" s="2" t="s">
-        <v>893</v>
+        <v>889</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" s="2" t="s">
-        <v>894</v>
+        <v>890</v>
       </c>
       <c r="C404" s="2" t="s">
-        <v>895</v>
+        <v>891</v>
       </c>
       <c r="D404" s="2" t="s">
-        <v>896</v>
+        <v>892</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" s="2" t="s">
-        <v>897</v>
+        <v>893</v>
       </c>
       <c r="C405" s="2" t="s">
-        <v>898</v>
+        <v>894</v>
       </c>
       <c r="D405" s="2" t="s">
-        <v>899</v>
+        <v>895</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" s="2" t="s">
-        <v>900</v>
+        <v>896</v>
       </c>
       <c r="C406" s="2" t="s">
-        <v>901</v>
+        <v>897</v>
       </c>
       <c r="D406" s="2" t="s">
-        <v>902</v>
+        <v>898</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" s="2" t="s">
-        <v>903</v>
+        <v>899</v>
       </c>
       <c r="C407" s="2" t="s">
-        <v>904</v>
+        <v>900</v>
       </c>
       <c r="D407" s="2" t="s">
-        <v>905</v>
+        <v>898</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" s="2" t="s">
-        <v>906</v>
+        <v>901</v>
       </c>
       <c r="C408" s="2" t="s">
-        <v>907</v>
+        <v>902</v>
       </c>
       <c r="D408" s="2" t="s">
-        <v>908</v>
+        <v>903</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" s="2" t="s">
+        <v>904</v>
+      </c>
+      <c r="C409" s="2" t="s">
+        <v>905</v>
+      </c>
+      <c r="D409" s="2" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" s="2" t="s">
+        <v>907</v>
+      </c>
+      <c r="C410" s="2" t="s">
+        <v>908</v>
+      </c>
+      <c r="D410" s="2" t="s">
         <v>909</v>
       </c>
-      <c r="C409" s="2" t="s">
+    </row>
+    <row r="411">
+      <c r="A411" s="2" t="s">
         <v>910</v>
       </c>
-      <c r="D409" s="2" t="s">
+      <c r="C411" s="2" t="s">
         <v>911</v>
+      </c>
+      <c r="D411" s="2" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" s="2" t="s">
+        <v>913</v>
+      </c>
+      <c r="C412" s="2" t="s">
+        <v>914</v>
+      </c>
+      <c r="D412" s="2" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" s="2" t="s">
+        <v>916</v>
+      </c>
+      <c r="C413" s="2" t="s">
+        <v>917</v>
+      </c>
+      <c r="D413" s="2" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" s="2" t="s">
+        <v>919</v>
+      </c>
+      <c r="C414" s="2" t="s">
+        <v>920</v>
+      </c>
+      <c r="D414" s="2" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" s="2" t="s">
+        <v>922</v>
+      </c>
+      <c r="C415" s="2" t="s">
+        <v>923</v>
+      </c>
+      <c r="D415" s="2" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" s="2" t="s">
+        <v>925</v>
+      </c>
+      <c r="C416" s="2" t="s">
+        <v>926</v>
+      </c>
+      <c r="D416" s="2" t="s">
+        <v>927</v>
       </c>
     </row>
   </sheetData>
@@ -13654,18 +13905,18 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>912</v>
+        <v>928</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>913</v>
+        <v>929</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>914</v>
+        <v>930</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>915</v>
+        <v>931</v>
       </c>
     </row>
   </sheetData>

--- a/csv/merge.xlsx
+++ b/csv/merge.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1218" uniqueCount="932">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1275" uniqueCount="989">
   <si>
     <t>JP Text (DO NOT CHANGE)</t>
   </si>
@@ -8995,6 +8995,252 @@
   </si>
   <si>
     <t>Mysterious Tower monster door</t>
+  </si>
+  <si>
+    <t>&lt;pipipi_shigh&gt;「ヒヒヒ……。オイラ　なぞのツボ。
+　魔闘士さん　ロストアタック　使える？
+　レベル９で習得する　特技だよ。</t>
+  </si>
+  <si>
+    <t>&lt;pipipi_shigh&gt;Hee hee... I'm the Mystery Pot.
+Hey, you. Can you use Morale Masher?
+It's a skill you can learn at level 9.</t>
+  </si>
+  <si>
+    <t>Mysterious Tower Floor 9 hint</t>
+  </si>
+  <si>
+    <t>&lt;pipipi_shigh&gt;「ヒヒヒ……。オイラ　なぞのツボ。
+　ばくだん岩って知ってる？　やられそうになると
+　すごい得意技を　使ってくるよ。</t>
+  </si>
+  <si>
+    <t>&lt;pipipi_shigh&gt;Hee hee... I'm the Mystery Pot.
+You know those Rockbombs? When they know
+they're beat, they'll go out in a bang!</t>
+  </si>
+  <si>
+    <t>Mysterious Tower Floor 10 hint</t>
+  </si>
+  <si>
+    <t>&lt;pipipi_shigh&gt;「ヒヒヒ……。魔闘士さん　ボケ　使える？
+　まんげつリングで　習得できるよ。
+　ふくろの魔物に　使ってみるといいよ。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;pipipi_shigh&gt;Hee hee... hey, you. You know how to use Bonk?
+You can learn it from a Full Moon Ring. Why
+don't you try it on those bag looking guys?
+</t>
+  </si>
+  <si>
+    <t>Mysterious Tower Floor 11 hint</t>
+  </si>
+  <si>
+    <t>&lt;pipipi_shigh&gt;「ヒヒヒ……。オイラ　なぞのツボ。
+　マジカルハット　知ってる？
+　相手を黙らせるのが　得意な魔物だよ。</t>
+  </si>
+  <si>
+    <t>&lt;pipipi_shigh&gt;Hee hee... I'm the Mystery Pot.
+You know those Hat Hamwitches? They're
+pretty good at silencing their enemies.</t>
+  </si>
+  <si>
+    <t>Mysterious Tower Floor 12 hint</t>
+  </si>
+  <si>
+    <t>&lt;pipipi_shigh&gt;「ヒヒヒ……。魔闘士さん　てなづける　使える？
+　破幻のリングで　習得できるよ。
+　ネコと　なかよくなると　いいことあるかもよ。</t>
+  </si>
+  <si>
+    <t>&lt;pipipi_shigh&gt;Hee hee... Hey, you know how to use Win Over?
+You can learn it from a Ring of Truth. Might
+be a good idea to get along with those cats.</t>
+  </si>
+  <si>
+    <t>Mysterious Tower Floor 13 hint</t>
+  </si>
+  <si>
+    <t>&lt;pipipi_shigh&gt;「ヒヒヒ……。オイラ　なぞのツボ。
+　魔闘士さん　メラミ　使える？
+　アツい炎の魔物に　トドメがさせるかな？</t>
+  </si>
+  <si>
+    <t>&lt;pipipi_shigh&gt;Hee hee... I'm the Mystery Pot.
+Hey, you. Can you use Frizzle? Why not use
+it finish off one of those fiery guys?</t>
+  </si>
+  <si>
+    <t>Mysterious Tower Floor 14 hint</t>
+  </si>
+  <si>
+    <t>&lt;pipipi_shigh&gt;「ヒヒヒ……。オイラ　なぞのツボ。
+　魔闘士さん　なめまわし　使える？
+　まんげつリングで　習得できるよ。</t>
+  </si>
+  <si>
+    <t>&lt;pipipi_shigh&gt;Hee hee... I'm the Mystery Pot.
+Hey, you. Can you use Tongue Lashing? You
+can learn it from a Full Moon Ring.</t>
+  </si>
+  <si>
+    <t>Mysterious Tower Floor 15 hint</t>
+  </si>
+  <si>
+    <t>&lt;pipipi_shigh&gt;「ヒヒヒ……。オイラ　なぞのツボ。
+　魔闘士さん　リベホイミ　使える？
+　レベル１２で　習得できるよ。</t>
+  </si>
+  <si>
+    <t>&lt;pipipi_shigh&gt;Hee hee... I'm the Mystery Pot.
+Hey, you. Can you use Remidheal? It's a spell
+you can learn at level 12.</t>
+  </si>
+  <si>
+    <t>Mysterious Tower Floor 16 hint</t>
+  </si>
+  <si>
+    <t>&lt;pipipi_shigh&gt;「ヒヒヒ……。ギガボンバー　使える？
+　オカルトメガネで　習得できるよ。
+　爆弾の魔物には　爆弾で戦うといいよ。</t>
+  </si>
+  <si>
+    <t>&lt;pipipi_shigh&gt;Hee hee... Hey, can you use Giga Bomber?
+You can learn it from Occult Glasses. Why not
+try fighting those bomb guys with your bombs?</t>
+  </si>
+  <si>
+    <t>Mysterious Tower Floor 17 hint</t>
+  </si>
+  <si>
+    <t>&lt;pipipi_shigh&gt;「ヒヒヒ……。オイラ　なぞのツボ。
+　魔闘士さん　はじゃのつるぎ　持ってる？
+　魔塔装備ランク３の　片手剣だよ。</t>
+  </si>
+  <si>
+    <t>&lt;pipipi_shigh&gt;Hee hee... I'm the Mystery Pot.
+Hey, you. Do you have a Cautery Sword?
+It's a rank 3 sword.</t>
+  </si>
+  <si>
+    <t>Mysterious Tower Floor 18 hint</t>
+  </si>
+  <si>
+    <t>&lt;pipipi_shigh&gt;「ヒヒヒ……。もうどくブルース　唄える？
+　破毒のリングで　習得できるよ。
+　猛毒状態になると　上手に唄えるってよ。</t>
+  </si>
+  <si>
+    <t>&lt;pipipi_shigh&gt;Hee hee... can you sing the Poisonous Blues?
+You can learn how from a Ring of Immunity. I
+heard it sounds better while poisoned.</t>
+  </si>
+  <si>
+    <t>Mysterious Tower Floor 19 hint</t>
+  </si>
+  <si>
+    <t>&lt;pipipi_shigh&gt;「ヒヒヒ……。オイラ　なぞのツボ。
+　魔闘士さん　武器は　外してる？
+　ちゃんと自分のこぶしで　トドメをさすんだよ。</t>
+  </si>
+  <si>
+    <t>&lt;pipipi_shigh&gt;Hee hee... I'm the Mystery Pot.
+Hey, you. Are you unarmed right now? Make
+sure to finish them off with your bare hands.</t>
+  </si>
+  <si>
+    <t>Mysterious Tower Floor 20 hint</t>
+  </si>
+  <si>
+    <t>&lt;pipipi_shigh&gt;「ヒヒヒ……。ブラッドエッジ　持ってる？
+　魔塔装備ランク３の　両手剣だよ。
+　目には目を　血には血を。</t>
+  </si>
+  <si>
+    <t>&lt;pipipi_shigh&gt;Hee hee... Do you have a Bloodletter Sword?
+It's a rank 3 claymore. An eye for an eye,
+blood for blood.</t>
+  </si>
+  <si>
+    <t>Mysterious Tower Floor 21 hint</t>
+  </si>
+  <si>
+    <t>&lt;pipipi_shigh&gt;「ヒヒヒ……。オイラ　なぞのツボ。
+　魔闘士さん　ミリオンスマイル　使える？
+　笑っている魔物を　もっと笑わすといいよ。
+&lt;br&gt;
+「ミリオンスマイルは　はくあいのゆびわで
+　習得することが　できるよ。</t>
+  </si>
+  <si>
+    <t>&lt;pipipi_shigh&gt;Hee hee... I'm the Mystery Pot.
+Hey, you. Do you know Million Smile? It can
+make a laughing monster laugh even harder.
+&lt;br&gt;
+You can learn how to Million Smile with a
+Care Ring.</t>
+  </si>
+  <si>
+    <t>Mysterious Tower Floor 22 hint</t>
+  </si>
+  <si>
+    <t>&lt;pipipi_shigh&gt;「ヒヒヒ……。打成一片　使える？
+　ちからのペンダントで　習得できるよ。
+　手がハサミの魔物を　倒すといいよ。</t>
+  </si>
+  <si>
+    <t>&lt;pipipi_shigh&gt;Hee hee... Can you use Become One?
+You can learn it from a Wrecklace. Try beating
+those monsters with the scissor hands.</t>
+  </si>
+  <si>
+    <t>Mysterious Tower Floor 23 hint</t>
+  </si>
+  <si>
+    <t>&lt;pipipi_shigh&gt;「ヒヒヒ……。オイラ　なぞのツボ。
+　よろいのきし　知ってる？
+　攻防一体の　わざの使い手を　探してるってさ。</t>
+  </si>
+  <si>
+    <t>&lt;pipipi_shigh&gt;Hee hee... I'm the Mystery Pot. You
+know those Knight Errants? They want to see
+someone attack and defend at the same time.</t>
+  </si>
+  <si>
+    <t>Mysterious Tower Floor 24 hint</t>
+  </si>
+  <si>
+    <t>&lt;pipipi_shigh&gt;「ヒヒヒ……。オイラ　なぞのツボ。
+　魔闘士さん　ボミオス　使える？
+　めざましリングで　習得できるよ。</t>
+  </si>
+  <si>
+    <t>&lt;pipipi_shigh&gt;Hee hee... I'm the Mystery Pot.
+Hey, you. Do you know Deceleratle? You can
+learn it from a Rousing Ring.</t>
+  </si>
+  <si>
+    <t>Mysterious Tower Floor 25 hint</t>
+  </si>
+  <si>
+    <t>こちらの扉からは　先に進めないようだ。</t>
+  </si>
+  <si>
+    <t>You cannot proceed through this door.</t>
+  </si>
+  <si>
+    <t>Mysterious Tower door</t>
+  </si>
+  <si>
+    <t>旅立ちの間に　もどりますか？&lt;yesno&gt;&lt;close&gt;</t>
+  </si>
+  <si>
+    <t>Return to the Tower Lobby?&lt;yesno&gt;&lt;close&gt;</t>
+  </si>
+  <si>
+    <t>Mysterious Tower exit</t>
   </si>
   <si>
     <t>メインコマンド『せんれき』の
@@ -13869,6 +14115,215 @@
         <v>927</v>
       </c>
     </row>
+    <row r="417">
+      <c r="A417" s="2" t="s">
+        <v>928</v>
+      </c>
+      <c r="C417" s="2" t="s">
+        <v>929</v>
+      </c>
+      <c r="D417" s="2" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" s="2" t="s">
+        <v>931</v>
+      </c>
+      <c r="C418" s="2" t="s">
+        <v>932</v>
+      </c>
+      <c r="D418" s="2" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" s="2" t="s">
+        <v>934</v>
+      </c>
+      <c r="C419" s="2" t="s">
+        <v>935</v>
+      </c>
+      <c r="D419" s="2" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" s="2" t="s">
+        <v>937</v>
+      </c>
+      <c r="C420" s="2" t="s">
+        <v>938</v>
+      </c>
+      <c r="D420" s="2" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" s="2" t="s">
+        <v>940</v>
+      </c>
+      <c r="C421" s="2" t="s">
+        <v>941</v>
+      </c>
+      <c r="D421" s="2" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" s="2" t="s">
+        <v>943</v>
+      </c>
+      <c r="C422" s="2" t="s">
+        <v>944</v>
+      </c>
+      <c r="D422" s="2" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" s="2" t="s">
+        <v>946</v>
+      </c>
+      <c r="C423" s="2" t="s">
+        <v>947</v>
+      </c>
+      <c r="D423" s="2" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" s="2" t="s">
+        <v>949</v>
+      </c>
+      <c r="C424" s="2" t="s">
+        <v>950</v>
+      </c>
+      <c r="D424" s="2" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" s="2" t="s">
+        <v>952</v>
+      </c>
+      <c r="C425" s="2" t="s">
+        <v>953</v>
+      </c>
+      <c r="D425" s="2" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" s="2" t="s">
+        <v>955</v>
+      </c>
+      <c r="C426" s="2" t="s">
+        <v>956</v>
+      </c>
+      <c r="D426" s="2" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" s="2" t="s">
+        <v>958</v>
+      </c>
+      <c r="C427" s="2" t="s">
+        <v>959</v>
+      </c>
+      <c r="D427" s="2" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" s="2" t="s">
+        <v>961</v>
+      </c>
+      <c r="C428" s="2" t="s">
+        <v>962</v>
+      </c>
+      <c r="D428" s="2" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" s="2" t="s">
+        <v>964</v>
+      </c>
+      <c r="C429" s="2" t="s">
+        <v>965</v>
+      </c>
+      <c r="D429" s="2" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" s="2" t="s">
+        <v>967</v>
+      </c>
+      <c r="C430" s="2" t="s">
+        <v>968</v>
+      </c>
+      <c r="D430" s="2" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" s="2" t="s">
+        <v>970</v>
+      </c>
+      <c r="C431" s="2" t="s">
+        <v>971</v>
+      </c>
+      <c r="D431" s="2" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" s="2" t="s">
+        <v>973</v>
+      </c>
+      <c r="C432" s="2" t="s">
+        <v>974</v>
+      </c>
+      <c r="D432" s="2" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" s="2" t="s">
+        <v>976</v>
+      </c>
+      <c r="C433" s="2" t="s">
+        <v>977</v>
+      </c>
+      <c r="D433" s="2" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" s="2" t="s">
+        <v>979</v>
+      </c>
+      <c r="C434" s="2" t="s">
+        <v>980</v>
+      </c>
+      <c r="D434" s="2" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" s="2" t="s">
+        <v>982</v>
+      </c>
+      <c r="C435" s="2" t="s">
+        <v>983</v>
+      </c>
+      <c r="D435" s="2" t="s">
+        <v>984</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -13905,18 +14360,18 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>928</v>
+        <v>985</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>929</v>
+        <v>986</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>930</v>
+        <v>987</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>931</v>
+        <v>988</v>
       </c>
     </row>
   </sheetData>

--- a/csv/merge.xlsx
+++ b/csv/merge.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1275" uniqueCount="989">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1281" uniqueCount="993">
   <si>
     <t>JP Text (DO NOT CHANGE)</t>
   </si>
@@ -2091,6 +2091,22 @@
     <t>You feel it too? The dark miasma flowing
 through the heavenly door? The image of
 the evil god radiates disastrously...&lt;bw_break&gt;</t>
+  </si>
+  <si>
+    <t>「邪神像の輝きが　強くなってきたな……。
+　天獄の扉が開くまで　まだ時間はあるようだが
+　心しておくように。&lt;bw_break&gt;</t>
+  </si>
+  <si>
+    <t>The image of the evil god is glowing more
+strongly... it seems it will still be some
+time before the door opens again. Be wary.</t>
+  </si>
+  <si>
+    <t>封剣の門は　固く　閉ざされている。</t>
+  </si>
+  <si>
+    <t>The gate is firmly closed.</t>
   </si>
   <si>
     <t>「戦禍の眷属との戦いに　必要なことなら
@@ -10717,81 +10733,81 @@
       </c>
     </row>
     <row r="108">
-      <c r="A108" s="5" t="s">
+      <c r="A108" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="B108" s="4"/>
-      <c r="C108" s="3" t="s">
+      <c r="C108" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="D108" s="5" t="s">
-        <v>234</v>
-      </c>
-      <c r="E108" s="4"/>
-      <c r="F108" s="4"/>
-      <c r="G108" s="4"/>
-      <c r="H108" s="4"/>
-      <c r="I108" s="4"/>
-      <c r="J108" s="4"/>
-      <c r="K108" s="4"/>
-      <c r="L108" s="4"/>
-      <c r="M108" s="4"/>
-      <c r="N108" s="4"/>
-      <c r="O108" s="4"/>
-      <c r="P108" s="4"/>
-      <c r="Q108" s="4"/>
-      <c r="R108" s="4"/>
-      <c r="S108" s="4"/>
-      <c r="T108" s="4"/>
-      <c r="U108" s="4"/>
-      <c r="V108" s="4"/>
-      <c r="W108" s="4"/>
-      <c r="X108" s="4"/>
-      <c r="Y108" s="4"/>
-      <c r="Z108" s="4"/>
+      <c r="D108" s="2" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="C109" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="C109" s="2" t="s">
+      <c r="D109" s="2" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="5" t="s">
         <v>236</v>
       </c>
-      <c r="D109" s="2" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="C110" s="2" t="s">
+      <c r="B110" s="4"/>
+      <c r="C110" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="D110" s="2" t="s">
-        <v>234</v>
-      </c>
+      <c r="D110" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="E110" s="4"/>
+      <c r="F110" s="4"/>
+      <c r="G110" s="4"/>
+      <c r="H110" s="4"/>
+      <c r="I110" s="4"/>
+      <c r="J110" s="4"/>
+      <c r="K110" s="4"/>
+      <c r="L110" s="4"/>
+      <c r="M110" s="4"/>
+      <c r="N110" s="4"/>
+      <c r="O110" s="4"/>
+      <c r="P110" s="4"/>
+      <c r="Q110" s="4"/>
+      <c r="R110" s="4"/>
+      <c r="S110" s="4"/>
+      <c r="T110" s="4"/>
+      <c r="U110" s="4"/>
+      <c r="V110" s="4"/>
+      <c r="W110" s="4"/>
+      <c r="X110" s="4"/>
+      <c r="Y110" s="4"/>
+      <c r="Z110" s="4"/>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="D111" s="2" t="s">
         <v>238</v>
-      </c>
-      <c r="C111" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="D111" s="2" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>241</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
     </row>
     <row r="113">
@@ -10802,7 +10818,7 @@
         <v>243</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
     </row>
     <row r="114">
@@ -10813,7 +10829,7 @@
         <v>245</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
     </row>
     <row r="115">
@@ -10824,7 +10840,7 @@
         <v>247</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
     </row>
     <row r="116">
@@ -10835,7 +10851,7 @@
         <v>249</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
     </row>
     <row r="117">
@@ -10846,7 +10862,7 @@
         <v>251</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
     </row>
     <row r="118">
@@ -10857,7 +10873,7 @@
         <v>253</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
     </row>
     <row r="119">
@@ -10868,7 +10884,7 @@
         <v>255</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
     </row>
     <row r="120">
@@ -10879,7 +10895,7 @@
         <v>257</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
     </row>
     <row r="121">
@@ -10890,7 +10906,7 @@
         <v>259</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
     </row>
     <row r="122">
@@ -10901,7 +10917,7 @@
         <v>261</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
     </row>
     <row r="123">
@@ -10912,7 +10928,7 @@
         <v>263</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
     </row>
     <row r="124">
@@ -10923,7 +10939,7 @@
         <v>265</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
     </row>
     <row r="125">
@@ -10934,7 +10950,7 @@
         <v>267</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
     </row>
     <row r="126">
@@ -10945,7 +10961,7 @@
         <v>269</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
     </row>
     <row r="127">
@@ -10956,7 +10972,7 @@
         <v>271</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
     </row>
     <row r="128">
@@ -10967,7 +10983,7 @@
         <v>273</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
     </row>
     <row r="129">
@@ -10978,56 +10994,56 @@
         <v>275</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>276</v>
+        <v>238</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="C130" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="C130" s="2" t="s">
-        <v>278</v>
+      <c r="D130" s="2" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="C131" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="C131" s="2" t="s">
+      <c r="D131" s="2" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="D132" s="2" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="D133" s="2" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="C134" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="C134" s="2" t="s">
+      <c r="D134" s="2" t="s">
         <v>285</v>
-      </c>
-      <c r="D134" s="2" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="135">
@@ -11038,7 +11054,7 @@
         <v>287</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>211</v>
+        <v>285</v>
       </c>
     </row>
     <row r="136">
@@ -11082,7 +11098,7 @@
         <v>295</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>281</v>
+        <v>211</v>
       </c>
     </row>
     <row r="140">
@@ -11093,51 +11109,51 @@
         <v>297</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>298</v>
+        <v>211</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="C141" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="C141" s="2" t="s">
-        <v>300</v>
-      </c>
       <c r="D141" s="2" t="s">
-        <v>298</v>
+        <v>285</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="C142" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="C142" s="2" t="s">
+      <c r="D142" s="2" t="s">
         <v>302</v>
-      </c>
-      <c r="D142" s="2" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="C143" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="C143" s="2" t="s">
-        <v>305</v>
-      </c>
       <c r="D143" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="C144" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="C144" s="2" t="s">
+      <c r="D144" s="2" t="s">
         <v>307</v>
-      </c>
-      <c r="D144" s="2" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="145">
@@ -11148,7 +11164,7 @@
         <v>309</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
     </row>
     <row r="146">
@@ -11159,7 +11175,7 @@
         <v>311</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
     </row>
     <row r="147">
@@ -11170,7 +11186,7 @@
         <v>313</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
     </row>
     <row r="148">
@@ -11181,7 +11197,7 @@
         <v>315</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
     </row>
     <row r="149">
@@ -11192,51 +11208,51 @@
         <v>317</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>318</v>
+        <v>307</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="C150" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="C150" s="2" t="s">
-        <v>320</v>
-      </c>
       <c r="D150" s="2" t="s">
-        <v>321</v>
+        <v>307</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="D151" s="2" t="s">
         <v>322</v>
-      </c>
-      <c r="C151" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="D151" s="2" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="D152" s="2" t="s">
         <v>325</v>
-      </c>
-      <c r="C152" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="D152" s="2" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="C153" s="2" t="s">
         <v>327</v>
       </c>
-      <c r="C153" s="2" t="s">
+      <c r="D153" s="2" t="s">
         <v>328</v>
-      </c>
-      <c r="D153" s="2" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="154">
@@ -11247,7 +11263,7 @@
         <v>330</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
     </row>
     <row r="155">
@@ -11258,7 +11274,7 @@
         <v>332</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
     </row>
     <row r="156">
@@ -11269,7 +11285,7 @@
         <v>334</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>276</v>
+        <v>328</v>
       </c>
     </row>
     <row r="157">
@@ -11280,51 +11296,51 @@
         <v>336</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>337</v>
+        <v>328</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="C158" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="C158" s="2" t="s">
-        <v>339</v>
-      </c>
       <c r="D158" s="2" t="s">
-        <v>337</v>
+        <v>280</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="C159" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="C159" s="2" t="s">
+      <c r="D159" s="2" t="s">
         <v>341</v>
-      </c>
-      <c r="D159" s="2" t="s">
-        <v>342</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="C160" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="C160" s="2" t="s">
-        <v>344</v>
-      </c>
       <c r="D160" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="C161" s="2" t="s">
         <v>345</v>
       </c>
-      <c r="C161" s="2" t="s">
+      <c r="D161" s="2" t="s">
         <v>346</v>
-      </c>
-      <c r="D161" s="2" t="s">
-        <v>342</v>
       </c>
     </row>
     <row r="162">
@@ -11335,7 +11351,7 @@
         <v>348</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
     </row>
     <row r="163">
@@ -11346,7 +11362,7 @@
         <v>350</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
     </row>
     <row r="164">
@@ -11357,7 +11373,7 @@
         <v>352</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
     </row>
     <row r="165">
@@ -11368,7 +11384,7 @@
         <v>354</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
     </row>
     <row r="166">
@@ -11379,7 +11395,7 @@
         <v>356</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
     </row>
     <row r="167">
@@ -11390,7 +11406,7 @@
         <v>358</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
     </row>
     <row r="168">
@@ -11401,7 +11417,7 @@
         <v>360</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
     </row>
     <row r="169">
@@ -11412,18 +11428,18 @@
         <v>362</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="C170" s="7" t="s">
+      <c r="C170" s="2" t="s">
         <v>364</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
     </row>
     <row r="171">
@@ -11434,18 +11450,18 @@
         <v>366</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
         <v>367</v>
       </c>
-      <c r="C172" s="2" t="s">
+      <c r="C172" s="7" t="s">
         <v>368</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
     </row>
     <row r="173">
@@ -11456,7 +11472,7 @@
         <v>370</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
     </row>
     <row r="174">
@@ -11467,7 +11483,7 @@
         <v>372</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
     </row>
     <row r="175">
@@ -11477,6 +11493,9 @@
       <c r="C175" s="2" t="s">
         <v>374</v>
       </c>
+      <c r="D175" s="2" t="s">
+        <v>346</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
@@ -11485,6 +11504,9 @@
       <c r="C176" s="2" t="s">
         <v>376</v>
       </c>
+      <c r="D176" s="2" t="s">
+        <v>346</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
@@ -11517,75 +11539,69 @@
       <c r="C180" s="2" t="s">
         <v>384</v>
       </c>
-      <c r="D180" s="2" t="s">
-        <v>385</v>
-      </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="C181" s="2" t="s">
         <v>386</v>
-      </c>
-      <c r="C181" s="2" t="s">
-        <v>387</v>
-      </c>
-      <c r="D181" s="2" t="s">
-        <v>388</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="C182" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="D182" s="2" t="s">
         <v>389</v>
       </c>
-      <c r="C182" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="D182" s="2" t="s">
-        <v>391</v>
-      </c>
-      <c r="E182" s="2"/>
     </row>
     <row r="183">
       <c r="A183" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="C183" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="D183" s="2" t="s">
         <v>392</v>
-      </c>
-      <c r="C183" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="D183" s="2" t="s">
-        <v>391</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="C184" s="2" t="s">
         <v>394</v>
       </c>
-      <c r="C184" s="2" t="s">
+      <c r="D184" s="2" t="s">
         <v>395</v>
       </c>
-      <c r="D184" s="2" t="s">
-        <v>396</v>
-      </c>
+      <c r="E184" s="2"/>
     </row>
     <row r="185">
       <c r="A185" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="C185" s="2" t="s">
         <v>397</v>
       </c>
-      <c r="C185" s="2" t="s">
-        <v>398</v>
-      </c>
       <c r="D185" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="C186" s="2" t="s">
         <v>399</v>
       </c>
-      <c r="C186" s="2" t="s">
+      <c r="D186" s="2" t="s">
         <v>400</v>
-      </c>
-      <c r="D186" s="2" t="s">
-        <v>396</v>
       </c>
     </row>
     <row r="187">
@@ -11596,29 +11612,29 @@
         <v>402</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="C188" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="C188" s="2" t="s">
-        <v>405</v>
-      </c>
       <c r="D188" s="2" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="C189" s="2" t="s">
         <v>406</v>
       </c>
-      <c r="C189" s="2" t="s">
+      <c r="D189" s="2" t="s">
         <v>407</v>
-      </c>
-      <c r="D189" s="2" t="s">
-        <v>396</v>
       </c>
     </row>
     <row r="190">
@@ -11629,29 +11645,29 @@
         <v>409</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>410</v>
+        <v>400</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="C191" s="2" t="s">
         <v>411</v>
       </c>
-      <c r="C191" s="2" t="s">
-        <v>412</v>
-      </c>
       <c r="D191" s="2" t="s">
-        <v>410</v>
+        <v>400</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="C192" s="2" t="s">
         <v>413</v>
       </c>
-      <c r="C192" s="2" t="s">
+      <c r="D192" s="2" t="s">
         <v>414</v>
-      </c>
-      <c r="D192" s="2" t="s">
-        <v>410</v>
       </c>
     </row>
     <row r="193">
@@ -11662,7 +11678,7 @@
         <v>416</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
     </row>
     <row r="194">
@@ -11673,7 +11689,7 @@
         <v>418</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
     </row>
     <row r="195">
@@ -11684,7 +11700,7 @@
         <v>420</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
     </row>
     <row r="196">
@@ -11695,7 +11711,7 @@
         <v>422</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>396</v>
+        <v>414</v>
       </c>
     </row>
     <row r="197">
@@ -11706,7 +11722,7 @@
         <v>424</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>396</v>
+        <v>414</v>
       </c>
     </row>
     <row r="198">
@@ -11717,7 +11733,7 @@
         <v>426</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
     </row>
     <row r="199">
@@ -11728,7 +11744,7 @@
         <v>428</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
     </row>
     <row r="200">
@@ -11739,7 +11755,7 @@
         <v>430</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
     </row>
     <row r="201">
@@ -11750,7 +11766,7 @@
         <v>432</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
     </row>
     <row r="202">
@@ -11761,29 +11777,29 @@
         <v>434</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>435</v>
+        <v>400</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="C203" s="2" t="s">
         <v>436</v>
       </c>
-      <c r="C203" s="2" t="s">
-        <v>437</v>
-      </c>
       <c r="D203" s="2" t="s">
-        <v>410</v>
+        <v>400</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="C204" s="2" t="s">
         <v>438</v>
       </c>
-      <c r="C204" s="2" t="s">
+      <c r="D204" s="2" t="s">
         <v>439</v>
-      </c>
-      <c r="D204" s="2" t="s">
-        <v>410</v>
       </c>
     </row>
     <row r="205">
@@ -11794,7 +11810,7 @@
         <v>441</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
     </row>
     <row r="206">
@@ -11805,7 +11821,7 @@
         <v>443</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
     </row>
     <row r="207">
@@ -11816,7 +11832,7 @@
         <v>445</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
     </row>
     <row r="208">
@@ -11827,7 +11843,7 @@
         <v>447</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>396</v>
+        <v>414</v>
       </c>
     </row>
     <row r="209">
@@ -11838,29 +11854,29 @@
         <v>449</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>450</v>
+        <v>414</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="C210" s="2" t="s">
         <v>451</v>
       </c>
-      <c r="C210" s="2" t="s">
-        <v>452</v>
-      </c>
       <c r="D210" s="2" t="s">
-        <v>450</v>
+        <v>400</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="C211" s="2" t="s">
         <v>453</v>
       </c>
-      <c r="C211" s="2" t="s">
+      <c r="D211" s="2" t="s">
         <v>454</v>
-      </c>
-      <c r="D211" s="2" t="s">
-        <v>450</v>
       </c>
     </row>
     <row r="212">
@@ -11871,7 +11887,7 @@
         <v>456</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
     </row>
     <row r="213">
@@ -11882,7 +11898,7 @@
         <v>458</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
     </row>
     <row r="214">
@@ -11893,7 +11909,7 @@
         <v>460</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
     </row>
     <row r="215">
@@ -11904,7 +11920,7 @@
         <v>462</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
     </row>
     <row r="216">
@@ -11915,7 +11931,7 @@
         <v>464</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
     </row>
     <row r="217">
@@ -11926,7 +11942,7 @@
         <v>466</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
     </row>
     <row r="218">
@@ -11937,7 +11953,7 @@
         <v>468</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
     </row>
     <row r="219">
@@ -11948,7 +11964,7 @@
         <v>470</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
     </row>
     <row r="220">
@@ -11959,7 +11975,7 @@
         <v>472</v>
       </c>
       <c r="D220" s="2" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
     </row>
     <row r="221">
@@ -11970,95 +11986,95 @@
         <v>474</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>475</v>
+        <v>454</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="C222" s="2" t="s">
         <v>476</v>
       </c>
-      <c r="C222" s="2" t="s">
-        <v>477</v>
-      </c>
       <c r="D222" s="2" t="s">
-        <v>475</v>
+        <v>454</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="C223" s="2" t="s">
         <v>478</v>
       </c>
-      <c r="C223" s="2" t="s">
+      <c r="D223" s="2" t="s">
         <v>479</v>
-      </c>
-      <c r="D223" s="2" t="s">
-        <v>480</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="C224" s="2" t="s">
         <v>481</v>
       </c>
-      <c r="C224" s="2" t="s">
-        <v>482</v>
-      </c>
       <c r="D224" s="2" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="C225" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="D225" s="2" t="s">
         <v>484</v>
-      </c>
-      <c r="C225" s="2" t="s">
-        <v>485</v>
-      </c>
-      <c r="D225" s="2" t="s">
-        <v>486</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="C226" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="D226" s="2" t="s">
         <v>487</v>
-      </c>
-      <c r="C226" s="2" t="s">
-        <v>488</v>
-      </c>
-      <c r="D226" s="2" t="s">
-        <v>489</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="C227" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="D227" s="2" t="s">
         <v>490</v>
-      </c>
-      <c r="C227" s="2" t="s">
-        <v>491</v>
-      </c>
-      <c r="D227" s="2" t="s">
-        <v>492</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="C228" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="D228" s="2" t="s">
         <v>493</v>
-      </c>
-      <c r="C228" s="2" t="s">
-        <v>494</v>
-      </c>
-      <c r="D228" s="2" t="s">
-        <v>492</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="C229" s="2" t="s">
         <v>495</v>
       </c>
-      <c r="C229" s="2" t="s">
+      <c r="D229" s="2" t="s">
         <v>496</v>
-      </c>
-      <c r="D229" s="2" t="s">
-        <v>492</v>
       </c>
     </row>
     <row r="230">
@@ -12069,54 +12085,54 @@
         <v>498</v>
       </c>
       <c r="D230" s="2" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="C231" s="2" t="s">
         <v>500</v>
       </c>
-      <c r="C231" s="2" t="s">
-        <v>501</v>
-      </c>
       <c r="D231" s="2" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="2" t="s">
+        <v>501</v>
+      </c>
+      <c r="C232" s="2" t="s">
         <v>502</v>
       </c>
-      <c r="C232" s="2" t="s">
+      <c r="D232" s="2" t="s">
         <v>503</v>
-      </c>
-      <c r="D232" s="2" t="s">
-        <v>504</v>
-      </c>
-      <c r="E232" s="2" t="s">
-        <v>505</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="2" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="C233" s="2" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="D233" s="2" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="C234" s="2" t="s">
+        <v>507</v>
+      </c>
+      <c r="D234" s="2" t="s">
         <v>508</v>
       </c>
-      <c r="C234" s="2" t="s">
+      <c r="E234" s="2" t="s">
         <v>509</v>
-      </c>
-      <c r="D234" s="2" t="s">
-        <v>504</v>
       </c>
     </row>
     <row r="235">
@@ -12127,7 +12143,7 @@
         <v>511</v>
       </c>
       <c r="D235" s="2" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
     </row>
     <row r="236">
@@ -12138,7 +12154,7 @@
         <v>513</v>
       </c>
       <c r="D236" s="2" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
     </row>
     <row r="237">
@@ -12149,7 +12165,7 @@
         <v>515</v>
       </c>
       <c r="D237" s="2" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
     </row>
     <row r="238">
@@ -12160,7 +12176,7 @@
         <v>517</v>
       </c>
       <c r="D238" s="2" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
     </row>
     <row r="239">
@@ -12171,7 +12187,7 @@
         <v>519</v>
       </c>
       <c r="D239" s="2" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
     </row>
     <row r="240">
@@ -12182,7 +12198,7 @@
         <v>521</v>
       </c>
       <c r="D240" s="2" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
     </row>
     <row r="241">
@@ -12193,7 +12209,7 @@
         <v>523</v>
       </c>
       <c r="D241" s="2" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
     </row>
     <row r="242">
@@ -12204,7 +12220,7 @@
         <v>525</v>
       </c>
       <c r="D242" s="2" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
     </row>
     <row r="243">
@@ -12215,29 +12231,29 @@
         <v>527</v>
       </c>
       <c r="D243" s="2" t="s">
-        <v>528</v>
+        <v>508</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="2" t="s">
+        <v>528</v>
+      </c>
+      <c r="C244" s="2" t="s">
         <v>529</v>
       </c>
-      <c r="C244" s="2" t="s">
-        <v>530</v>
-      </c>
       <c r="D244" s="2" t="s">
-        <v>528</v>
+        <v>508</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="C245" s="2" t="s">
         <v>531</v>
       </c>
-      <c r="C245" s="2" t="s">
+      <c r="D245" s="2" t="s">
         <v>532</v>
-      </c>
-      <c r="D245" s="2" t="s">
-        <v>528</v>
       </c>
     </row>
     <row r="246">
@@ -12248,29 +12264,29 @@
         <v>534</v>
       </c>
       <c r="D246" s="2" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="2" t="s">
+        <v>535</v>
+      </c>
+      <c r="C247" s="2" t="s">
         <v>536</v>
       </c>
-      <c r="C247" s="2" t="s">
-        <v>537</v>
-      </c>
       <c r="D247" s="2" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="C248" s="2" t="s">
         <v>538</v>
       </c>
-      <c r="C248" s="2" t="s">
+      <c r="D248" s="2" t="s">
         <v>539</v>
-      </c>
-      <c r="D248" s="2" t="s">
-        <v>535</v>
       </c>
     </row>
     <row r="249">
@@ -12281,7 +12297,7 @@
         <v>541</v>
       </c>
       <c r="D249" s="2" t="s">
-        <v>535</v>
+        <v>539</v>
       </c>
     </row>
     <row r="250">
@@ -12292,7 +12308,7 @@
         <v>543</v>
       </c>
       <c r="D250" s="2" t="s">
-        <v>535</v>
+        <v>539</v>
       </c>
     </row>
     <row r="251">
@@ -12303,40 +12319,40 @@
         <v>545</v>
       </c>
       <c r="D251" s="2" t="s">
-        <v>546</v>
+        <v>539</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="C252" s="2" t="s">
         <v>547</v>
       </c>
-      <c r="C252" s="2" t="s">
-        <v>548</v>
-      </c>
       <c r="D252" s="2" t="s">
-        <v>549</v>
+        <v>539</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="2" t="s">
+        <v>548</v>
+      </c>
+      <c r="C253" s="2" t="s">
+        <v>549</v>
+      </c>
+      <c r="D253" s="2" t="s">
         <v>550</v>
-      </c>
-      <c r="C253" s="2" t="s">
-        <v>551</v>
-      </c>
-      <c r="D253" s="2" t="s">
-        <v>549</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="2" t="s">
+        <v>551</v>
+      </c>
+      <c r="C254" s="2" t="s">
         <v>552</v>
       </c>
-      <c r="C254" s="2" t="s">
+      <c r="D254" s="2" t="s">
         <v>553</v>
-      </c>
-      <c r="D254" s="2" t="s">
-        <v>549</v>
       </c>
     </row>
     <row r="255">
@@ -12347,7 +12363,7 @@
         <v>555</v>
       </c>
       <c r="D255" s="2" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="256">
@@ -12358,7 +12374,7 @@
         <v>557</v>
       </c>
       <c r="D256" s="2" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="257">
@@ -12369,7 +12385,7 @@
         <v>559</v>
       </c>
       <c r="D257" s="2" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="258">
@@ -12380,7 +12396,7 @@
         <v>561</v>
       </c>
       <c r="D258" s="2" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="259">
@@ -12391,7 +12407,7 @@
         <v>563</v>
       </c>
       <c r="D259" s="2" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="260">
@@ -12402,7 +12418,7 @@
         <v>565</v>
       </c>
       <c r="D260" s="2" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="261">
@@ -12413,7 +12429,7 @@
         <v>567</v>
       </c>
       <c r="D261" s="2" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="262">
@@ -12424,7 +12440,7 @@
         <v>569</v>
       </c>
       <c r="D262" s="2" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="263">
@@ -12435,7 +12451,7 @@
         <v>571</v>
       </c>
       <c r="D263" s="2" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="264">
@@ -12446,7 +12462,7 @@
         <v>573</v>
       </c>
       <c r="D264" s="2" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="265">
@@ -12457,7 +12473,7 @@
         <v>575</v>
       </c>
       <c r="D265" s="2" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="266">
@@ -12468,7 +12484,7 @@
         <v>577</v>
       </c>
       <c r="D266" s="2" t="s">
-        <v>303</v>
+        <v>553</v>
       </c>
     </row>
     <row r="267">
@@ -12479,7 +12495,7 @@
         <v>579</v>
       </c>
       <c r="D267" s="2" t="s">
-        <v>303</v>
+        <v>553</v>
       </c>
     </row>
     <row r="268">
@@ -12490,7 +12506,7 @@
         <v>581</v>
       </c>
       <c r="D268" s="2" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
     </row>
     <row r="269">
@@ -12501,7 +12517,7 @@
         <v>583</v>
       </c>
       <c r="D269" s="2" t="s">
-        <v>298</v>
+        <v>307</v>
       </c>
     </row>
     <row r="270">
@@ -12512,7 +12528,7 @@
         <v>585</v>
       </c>
       <c r="D270" s="2" t="s">
-        <v>298</v>
+        <v>307</v>
       </c>
     </row>
     <row r="271">
@@ -12523,7 +12539,7 @@
         <v>587</v>
       </c>
       <c r="D271" s="2" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
     </row>
     <row r="272">
@@ -12534,62 +12550,62 @@
         <v>589</v>
       </c>
       <c r="D272" s="2" t="s">
-        <v>590</v>
+        <v>302</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" s="2" t="s">
+        <v>590</v>
+      </c>
+      <c r="C273" s="2" t="s">
         <v>591</v>
       </c>
-      <c r="C273" s="2" t="s">
-        <v>592</v>
-      </c>
       <c r="D273" s="2" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" s="2" t="s">
+        <v>592</v>
+      </c>
+      <c r="C274" s="2" t="s">
         <v>593</v>
       </c>
-      <c r="C274" s="2" t="s">
+      <c r="D274" s="2" t="s">
         <v>594</v>
-      </c>
-      <c r="D274" s="2" t="s">
-        <v>595</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" s="2" t="s">
+        <v>595</v>
+      </c>
+      <c r="C275" s="2" t="s">
         <v>596</v>
       </c>
-      <c r="C275" s="2" t="s">
-        <v>597</v>
-      </c>
       <c r="D275" s="2" t="s">
-        <v>598</v>
+        <v>302</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" s="2" t="s">
+        <v>597</v>
+      </c>
+      <c r="C276" s="2" t="s">
+        <v>598</v>
+      </c>
+      <c r="D276" s="2" t="s">
         <v>599</v>
-      </c>
-      <c r="C276" s="2" t="s">
-        <v>600</v>
-      </c>
-      <c r="D276" s="2" t="s">
-        <v>598</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" s="2" t="s">
+        <v>600</v>
+      </c>
+      <c r="C277" s="2" t="s">
         <v>601</v>
       </c>
-      <c r="C277" s="2" t="s">
+      <c r="D277" s="2" t="s">
         <v>602</v>
-      </c>
-      <c r="D277" s="2" t="s">
-        <v>598</v>
       </c>
     </row>
     <row r="278">
@@ -12600,7 +12616,7 @@
         <v>604</v>
       </c>
       <c r="D278" s="2" t="s">
-        <v>598</v>
+        <v>602</v>
       </c>
     </row>
     <row r="279">
@@ -12611,7 +12627,7 @@
         <v>606</v>
       </c>
       <c r="D279" s="2" t="s">
-        <v>598</v>
+        <v>602</v>
       </c>
     </row>
     <row r="280">
@@ -12622,7 +12638,7 @@
         <v>608</v>
       </c>
       <c r="D280" s="2" t="s">
-        <v>598</v>
+        <v>602</v>
       </c>
     </row>
     <row r="281">
@@ -12633,7 +12649,7 @@
         <v>610</v>
       </c>
       <c r="D281" s="2" t="s">
-        <v>598</v>
+        <v>602</v>
       </c>
     </row>
     <row r="282">
@@ -12644,7 +12660,7 @@
         <v>612</v>
       </c>
       <c r="D282" s="2" t="s">
-        <v>598</v>
+        <v>602</v>
       </c>
     </row>
     <row r="283">
@@ -12655,7 +12671,7 @@
         <v>614</v>
       </c>
       <c r="D283" s="2" t="s">
-        <v>598</v>
+        <v>602</v>
       </c>
     </row>
     <row r="284">
@@ -12666,7 +12682,7 @@
         <v>616</v>
       </c>
       <c r="D284" s="2" t="s">
-        <v>598</v>
+        <v>602</v>
       </c>
     </row>
     <row r="285">
@@ -12677,7 +12693,7 @@
         <v>618</v>
       </c>
       <c r="D285" s="2" t="s">
-        <v>598</v>
+        <v>602</v>
       </c>
     </row>
     <row r="286">
@@ -12688,7 +12704,7 @@
         <v>620</v>
       </c>
       <c r="D286" s="2" t="s">
-        <v>598</v>
+        <v>602</v>
       </c>
     </row>
     <row r="287">
@@ -12699,7 +12715,7 @@
         <v>622</v>
       </c>
       <c r="D287" s="2" t="s">
-        <v>598</v>
+        <v>602</v>
       </c>
     </row>
     <row r="288">
@@ -12710,7 +12726,7 @@
         <v>624</v>
       </c>
       <c r="D288" s="2" t="s">
-        <v>598</v>
+        <v>602</v>
       </c>
     </row>
     <row r="289">
@@ -12721,7 +12737,7 @@
         <v>626</v>
       </c>
       <c r="D289" s="2" t="s">
-        <v>598</v>
+        <v>602</v>
       </c>
     </row>
     <row r="290">
@@ -12732,7 +12748,7 @@
         <v>628</v>
       </c>
       <c r="D290" s="2" t="s">
-        <v>598</v>
+        <v>602</v>
       </c>
     </row>
     <row r="291">
@@ -12743,7 +12759,7 @@
         <v>630</v>
       </c>
       <c r="D291" s="2" t="s">
-        <v>598</v>
+        <v>602</v>
       </c>
     </row>
     <row r="292">
@@ -12754,7 +12770,7 @@
         <v>632</v>
       </c>
       <c r="D292" s="2" t="s">
-        <v>598</v>
+        <v>602</v>
       </c>
     </row>
     <row r="293">
@@ -12765,7 +12781,7 @@
         <v>634</v>
       </c>
       <c r="D293" s="2" t="s">
-        <v>598</v>
+        <v>602</v>
       </c>
     </row>
     <row r="294">
@@ -12776,7 +12792,7 @@
         <v>636</v>
       </c>
       <c r="D294" s="2" t="s">
-        <v>598</v>
+        <v>602</v>
       </c>
     </row>
     <row r="295">
@@ -12787,7 +12803,7 @@
         <v>638</v>
       </c>
       <c r="D295" s="2" t="s">
-        <v>598</v>
+        <v>602</v>
       </c>
     </row>
     <row r="296">
@@ -12798,7 +12814,7 @@
         <v>640</v>
       </c>
       <c r="D296" s="2" t="s">
-        <v>598</v>
+        <v>602</v>
       </c>
     </row>
     <row r="297">
@@ -12809,7 +12825,7 @@
         <v>642</v>
       </c>
       <c r="D297" s="2" t="s">
-        <v>598</v>
+        <v>602</v>
       </c>
     </row>
     <row r="298">
@@ -12820,7 +12836,7 @@
         <v>644</v>
       </c>
       <c r="D298" s="2" t="s">
-        <v>598</v>
+        <v>602</v>
       </c>
     </row>
     <row r="299">
@@ -12831,29 +12847,29 @@
         <v>646</v>
       </c>
       <c r="D299" s="2" t="s">
-        <v>647</v>
+        <v>602</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" s="2" t="s">
+        <v>647</v>
+      </c>
+      <c r="C300" s="2" t="s">
         <v>648</v>
       </c>
-      <c r="C300" s="2" t="s">
-        <v>649</v>
-      </c>
       <c r="D300" s="2" t="s">
-        <v>647</v>
+        <v>602</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" s="2" t="s">
+        <v>649</v>
+      </c>
+      <c r="C301" s="2" t="s">
         <v>650</v>
       </c>
-      <c r="C301" s="2" t="s">
+      <c r="D301" s="2" t="s">
         <v>651</v>
-      </c>
-      <c r="D301" s="2" t="s">
-        <v>647</v>
       </c>
     </row>
     <row r="302">
@@ -12864,7 +12880,7 @@
         <v>653</v>
       </c>
       <c r="D302" s="2" t="s">
-        <v>647</v>
+        <v>651</v>
       </c>
     </row>
     <row r="303">
@@ -12875,150 +12891,150 @@
         <v>655</v>
       </c>
       <c r="D303" s="2" t="s">
-        <v>656</v>
+        <v>651</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" s="2" t="s">
+        <v>656</v>
+      </c>
+      <c r="C304" s="2" t="s">
         <v>657</v>
       </c>
-      <c r="C304" s="2" t="s">
-        <v>658</v>
-      </c>
       <c r="D304" s="2" t="s">
-        <v>659</v>
+        <v>651</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" s="2" t="s">
+        <v>658</v>
+      </c>
+      <c r="C305" s="2" t="s">
+        <v>659</v>
+      </c>
+      <c r="D305" s="2" t="s">
         <v>660</v>
-      </c>
-      <c r="C305" s="2" t="s">
-        <v>661</v>
-      </c>
-      <c r="D305" s="2" t="s">
-        <v>659</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" s="2" t="s">
+        <v>661</v>
+      </c>
+      <c r="C306" s="2" t="s">
         <v>662</v>
       </c>
-      <c r="C306" s="2" t="s">
+      <c r="D306" s="2" t="s">
         <v>663</v>
-      </c>
-      <c r="D306" s="2" t="s">
-        <v>664</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" s="2" t="s">
+        <v>664</v>
+      </c>
+      <c r="C307" s="2" t="s">
         <v>665</v>
       </c>
-      <c r="C307" s="2" t="s">
-        <v>666</v>
-      </c>
       <c r="D307" s="2" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" s="2" t="s">
+        <v>666</v>
+      </c>
+      <c r="C308" s="2" t="s">
+        <v>667</v>
+      </c>
+      <c r="D308" s="2" t="s">
         <v>668</v>
-      </c>
-      <c r="C308" s="2" t="s">
-        <v>669</v>
-      </c>
-      <c r="D308" s="2" t="s">
-        <v>670</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" s="2" t="s">
+        <v>669</v>
+      </c>
+      <c r="C309" s="2" t="s">
+        <v>670</v>
+      </c>
+      <c r="D309" s="2" t="s">
         <v>671</v>
-      </c>
-      <c r="C309" s="2" t="s">
-        <v>672</v>
-      </c>
-      <c r="D309" s="2" t="s">
-        <v>673</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" s="2" t="s">
+        <v>672</v>
+      </c>
+      <c r="C310" s="2" t="s">
+        <v>673</v>
+      </c>
+      <c r="D310" s="2" t="s">
         <v>674</v>
-      </c>
-      <c r="C310" s="2" t="s">
-        <v>675</v>
-      </c>
-      <c r="D310" s="2" t="s">
-        <v>676</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" s="2" t="s">
+        <v>675</v>
+      </c>
+      <c r="C311" s="2" t="s">
+        <v>676</v>
+      </c>
+      <c r="D311" s="2" t="s">
         <v>677</v>
-      </c>
-      <c r="C311" s="2" t="s">
-        <v>678</v>
-      </c>
-      <c r="D311" s="2" t="s">
-        <v>679</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" s="2" t="s">
+        <v>678</v>
+      </c>
+      <c r="C312" s="2" t="s">
+        <v>679</v>
+      </c>
+      <c r="D312" s="2" t="s">
         <v>680</v>
-      </c>
-      <c r="C312" s="2" t="s">
-        <v>681</v>
-      </c>
-      <c r="D312" s="2" t="s">
-        <v>682</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" s="2" t="s">
+        <v>681</v>
+      </c>
+      <c r="C313" s="2" t="s">
+        <v>682</v>
+      </c>
+      <c r="D313" s="2" t="s">
         <v>683</v>
-      </c>
-      <c r="C313" s="2" t="s">
-        <v>684</v>
-      </c>
-      <c r="D313" s="2" t="s">
-        <v>685</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" s="2" t="s">
+        <v>684</v>
+      </c>
+      <c r="C314" s="2" t="s">
+        <v>685</v>
+      </c>
+      <c r="D314" s="2" t="s">
         <v>686</v>
-      </c>
-      <c r="C314" s="2" t="s">
-        <v>687</v>
-      </c>
-      <c r="D314" s="2" t="s">
-        <v>688</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" s="2" t="s">
+        <v>687</v>
+      </c>
+      <c r="C315" s="2" t="s">
+        <v>688</v>
+      </c>
+      <c r="D315" s="2" t="s">
         <v>689</v>
-      </c>
-      <c r="C315" s="2" t="s">
-        <v>690</v>
-      </c>
-      <c r="D315" s="2" t="s">
-        <v>688</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" s="2" t="s">
+        <v>690</v>
+      </c>
+      <c r="C316" s="2" t="s">
         <v>691</v>
       </c>
-      <c r="C316" s="2" t="s">
+      <c r="D316" s="2" t="s">
         <v>692</v>
-      </c>
-      <c r="D316" s="2" t="s">
-        <v>688</v>
       </c>
     </row>
     <row r="317">
@@ -13029,7 +13045,7 @@
         <v>694</v>
       </c>
       <c r="D317" s="2" t="s">
-        <v>688</v>
+        <v>692</v>
       </c>
     </row>
     <row r="318">
@@ -13040,7 +13056,7 @@
         <v>696</v>
       </c>
       <c r="D318" s="2" t="s">
-        <v>688</v>
+        <v>692</v>
       </c>
     </row>
     <row r="319">
@@ -13051,7 +13067,7 @@
         <v>698</v>
       </c>
       <c r="D319" s="2" t="s">
-        <v>688</v>
+        <v>692</v>
       </c>
     </row>
     <row r="320">
@@ -13062,29 +13078,29 @@
         <v>700</v>
       </c>
       <c r="D320" s="2" t="s">
-        <v>701</v>
+        <v>692</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" s="2" t="s">
+        <v>701</v>
+      </c>
+      <c r="C321" s="2" t="s">
         <v>702</v>
       </c>
-      <c r="C321" s="2" t="s">
-        <v>703</v>
-      </c>
       <c r="D321" s="2" t="s">
-        <v>688</v>
+        <v>692</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" s="2" t="s">
+        <v>703</v>
+      </c>
+      <c r="C322" s="2" t="s">
         <v>704</v>
       </c>
-      <c r="C322" s="2" t="s">
+      <c r="D322" s="2" t="s">
         <v>705</v>
-      </c>
-      <c r="D322" s="2" t="s">
-        <v>688</v>
       </c>
     </row>
     <row r="323">
@@ -13095,7 +13111,7 @@
         <v>707</v>
       </c>
       <c r="D323" s="2" t="s">
-        <v>688</v>
+        <v>692</v>
       </c>
     </row>
     <row r="324">
@@ -13106,7 +13122,7 @@
         <v>709</v>
       </c>
       <c r="D324" s="2" t="s">
-        <v>701</v>
+        <v>692</v>
       </c>
     </row>
     <row r="325">
@@ -13117,7 +13133,7 @@
         <v>711</v>
       </c>
       <c r="D325" s="2" t="s">
-        <v>701</v>
+        <v>692</v>
       </c>
     </row>
     <row r="326">
@@ -13128,7 +13144,7 @@
         <v>713</v>
       </c>
       <c r="D326" s="2" t="s">
-        <v>701</v>
+        <v>705</v>
       </c>
     </row>
     <row r="327">
@@ -13139,7 +13155,7 @@
         <v>715</v>
       </c>
       <c r="D327" s="2" t="s">
-        <v>701</v>
+        <v>705</v>
       </c>
     </row>
     <row r="328">
@@ -13150,7 +13166,7 @@
         <v>717</v>
       </c>
       <c r="D328" s="2" t="s">
-        <v>701</v>
+        <v>705</v>
       </c>
     </row>
     <row r="329">
@@ -13161,7 +13177,7 @@
         <v>719</v>
       </c>
       <c r="D329" s="2" t="s">
-        <v>701</v>
+        <v>705</v>
       </c>
     </row>
     <row r="330">
@@ -13172,7 +13188,7 @@
         <v>721</v>
       </c>
       <c r="D330" s="2" t="s">
-        <v>701</v>
+        <v>705</v>
       </c>
     </row>
     <row r="331">
@@ -13183,7 +13199,7 @@
         <v>723</v>
       </c>
       <c r="D331" s="2" t="s">
-        <v>701</v>
+        <v>705</v>
       </c>
     </row>
     <row r="332">
@@ -13194,7 +13210,7 @@
         <v>725</v>
       </c>
       <c r="D332" s="2" t="s">
-        <v>701</v>
+        <v>705</v>
       </c>
     </row>
     <row r="333">
@@ -13205,7 +13221,7 @@
         <v>727</v>
       </c>
       <c r="D333" s="2" t="s">
-        <v>701</v>
+        <v>705</v>
       </c>
     </row>
     <row r="334">
@@ -13216,7 +13232,7 @@
         <v>729</v>
       </c>
       <c r="D334" s="2" t="s">
-        <v>701</v>
+        <v>705</v>
       </c>
     </row>
     <row r="335">
@@ -13227,7 +13243,7 @@
         <v>731</v>
       </c>
       <c r="D335" s="2" t="s">
-        <v>701</v>
+        <v>705</v>
       </c>
     </row>
     <row r="336">
@@ -13237,7 +13253,9 @@
       <c r="C336" s="2" t="s">
         <v>733</v>
       </c>
-      <c r="D336" s="2"/>
+      <c r="D336" s="2" t="s">
+        <v>705</v>
+      </c>
     </row>
     <row r="337">
       <c r="A337" s="2" t="s">
@@ -13247,7 +13265,7 @@
         <v>735</v>
       </c>
       <c r="D337" s="2" t="s">
-        <v>701</v>
+        <v>705</v>
       </c>
     </row>
     <row r="338">
@@ -13257,9 +13275,7 @@
       <c r="C338" s="2" t="s">
         <v>737</v>
       </c>
-      <c r="D338" s="2" t="s">
-        <v>701</v>
-      </c>
+      <c r="D338" s="2"/>
     </row>
     <row r="339">
       <c r="A339" s="2" t="s">
@@ -13269,7 +13285,7 @@
         <v>739</v>
       </c>
       <c r="D339" s="2" t="s">
-        <v>701</v>
+        <v>705</v>
       </c>
     </row>
     <row r="340">
@@ -13280,7 +13296,7 @@
         <v>741</v>
       </c>
       <c r="D340" s="2" t="s">
-        <v>701</v>
+        <v>705</v>
       </c>
     </row>
     <row r="341">
@@ -13291,7 +13307,7 @@
         <v>743</v>
       </c>
       <c r="D341" s="2" t="s">
-        <v>701</v>
+        <v>705</v>
       </c>
     </row>
     <row r="342">
@@ -13302,7 +13318,7 @@
         <v>745</v>
       </c>
       <c r="D342" s="2" t="s">
-        <v>701</v>
+        <v>705</v>
       </c>
     </row>
     <row r="343">
@@ -13313,7 +13329,7 @@
         <v>747</v>
       </c>
       <c r="D343" s="2" t="s">
-        <v>701</v>
+        <v>705</v>
       </c>
     </row>
     <row r="344">
@@ -13324,7 +13340,7 @@
         <v>749</v>
       </c>
       <c r="D344" s="2" t="s">
-        <v>701</v>
+        <v>705</v>
       </c>
     </row>
     <row r="345">
@@ -13335,7 +13351,7 @@
         <v>751</v>
       </c>
       <c r="D345" s="2" t="s">
-        <v>701</v>
+        <v>705</v>
       </c>
     </row>
     <row r="346">
@@ -13346,7 +13362,7 @@
         <v>753</v>
       </c>
       <c r="D346" s="2" t="s">
-        <v>701</v>
+        <v>705</v>
       </c>
     </row>
     <row r="347">
@@ -13357,7 +13373,7 @@
         <v>755</v>
       </c>
       <c r="D347" s="2" t="s">
-        <v>701</v>
+        <v>705</v>
       </c>
     </row>
     <row r="348">
@@ -13368,40 +13384,40 @@
         <v>757</v>
       </c>
       <c r="D348" s="2" t="s">
-        <v>758</v>
+        <v>705</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" s="2" t="s">
+        <v>758</v>
+      </c>
+      <c r="C349" s="2" t="s">
         <v>759</v>
       </c>
-      <c r="C349" s="2" t="s">
-        <v>760</v>
-      </c>
       <c r="D349" s="2" t="s">
-        <v>761</v>
+        <v>705</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" s="2" t="s">
+        <v>760</v>
+      </c>
+      <c r="C350" s="2" t="s">
+        <v>761</v>
+      </c>
+      <c r="D350" s="2" t="s">
         <v>762</v>
-      </c>
-      <c r="C350" s="2" t="s">
-        <v>763</v>
-      </c>
-      <c r="D350" s="2" t="s">
-        <v>761</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" s="2" t="s">
+        <v>763</v>
+      </c>
+      <c r="C351" s="2" t="s">
         <v>764</v>
       </c>
-      <c r="C351" s="2" t="s">
+      <c r="D351" s="2" t="s">
         <v>765</v>
-      </c>
-      <c r="D351" s="2" t="s">
-        <v>761</v>
       </c>
     </row>
     <row r="352">
@@ -13412,29 +13428,29 @@
         <v>767</v>
       </c>
       <c r="D352" s="2" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" s="2" t="s">
+        <v>768</v>
+      </c>
+      <c r="C353" s="2" t="s">
         <v>769</v>
       </c>
-      <c r="C353" s="2" t="s">
-        <v>770</v>
-      </c>
       <c r="D353" s="2" t="s">
-        <v>761</v>
+        <v>765</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" s="2" t="s">
+        <v>770</v>
+      </c>
+      <c r="C354" s="2" t="s">
         <v>771</v>
       </c>
-      <c r="C354" s="2" t="s">
+      <c r="D354" s="2" t="s">
         <v>772</v>
-      </c>
-      <c r="D354" s="2" t="s">
-        <v>761</v>
       </c>
     </row>
     <row r="355">
@@ -13445,7 +13461,7 @@
         <v>774</v>
       </c>
       <c r="D355" s="2" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
     </row>
     <row r="356">
@@ -13456,7 +13472,7 @@
         <v>776</v>
       </c>
       <c r="D356" s="2" t="s">
-        <v>761</v>
+        <v>765</v>
       </c>
     </row>
     <row r="357">
@@ -13467,7 +13483,7 @@
         <v>778</v>
       </c>
       <c r="D357" s="2" t="s">
-        <v>761</v>
+        <v>772</v>
       </c>
     </row>
     <row r="358">
@@ -13478,7 +13494,7 @@
         <v>780</v>
       </c>
       <c r="D358" s="2" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
     </row>
     <row r="359">
@@ -13489,7 +13505,7 @@
         <v>782</v>
       </c>
       <c r="D359" s="2" t="s">
-        <v>761</v>
+        <v>765</v>
       </c>
     </row>
     <row r="360">
@@ -13499,7 +13515,9 @@
       <c r="C360" s="2" t="s">
         <v>784</v>
       </c>
-      <c r="D360" s="2"/>
+      <c r="D360" s="2" t="s">
+        <v>772</v>
+      </c>
     </row>
     <row r="361">
       <c r="A361" s="2" t="s">
@@ -13509,29 +13527,27 @@
         <v>786</v>
       </c>
       <c r="D361" s="2" t="s">
-        <v>787</v>
+        <v>765</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" s="2" t="s">
+        <v>787</v>
+      </c>
+      <c r="C362" s="2" t="s">
         <v>788</v>
       </c>
-      <c r="C362" s="2" t="s">
-        <v>789</v>
-      </c>
-      <c r="D362" s="2" t="s">
-        <v>768</v>
-      </c>
+      <c r="D362" s="2"/>
     </row>
     <row r="363">
       <c r="A363" s="2" t="s">
+        <v>789</v>
+      </c>
+      <c r="C363" s="2" t="s">
         <v>790</v>
       </c>
-      <c r="C363" s="2" t="s">
+      <c r="D363" s="2" t="s">
         <v>791</v>
-      </c>
-      <c r="D363" s="2" t="s">
-        <v>761</v>
       </c>
     </row>
     <row r="364">
@@ -13542,7 +13558,7 @@
         <v>793</v>
       </c>
       <c r="D364" s="2" t="s">
-        <v>761</v>
+        <v>772</v>
       </c>
     </row>
     <row r="365">
@@ -13553,7 +13569,7 @@
         <v>795</v>
       </c>
       <c r="D365" s="2" t="s">
-        <v>787</v>
+        <v>765</v>
       </c>
     </row>
     <row r="366">
@@ -13564,7 +13580,7 @@
         <v>797</v>
       </c>
       <c r="D366" s="2" t="s">
-        <v>787</v>
+        <v>765</v>
       </c>
     </row>
     <row r="367">
@@ -13575,7 +13591,7 @@
         <v>799</v>
       </c>
       <c r="D367" s="2" t="s">
-        <v>787</v>
+        <v>791</v>
       </c>
     </row>
     <row r="368">
@@ -13586,84 +13602,84 @@
         <v>801</v>
       </c>
       <c r="D368" s="2" t="s">
-        <v>802</v>
+        <v>791</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" s="2" t="s">
+        <v>802</v>
+      </c>
+      <c r="C369" s="2" t="s">
         <v>803</v>
       </c>
-      <c r="C369" s="2" t="s">
-        <v>804</v>
-      </c>
       <c r="D369" s="2" t="s">
-        <v>802</v>
+        <v>791</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" s="2" t="s">
+        <v>804</v>
+      </c>
+      <c r="C370" s="2" t="s">
         <v>805</v>
       </c>
-      <c r="C370" s="2" t="s">
+      <c r="D370" s="2" t="s">
         <v>806</v>
-      </c>
-      <c r="D370" s="2" t="s">
-        <v>807</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" s="2" t="s">
+        <v>807</v>
+      </c>
+      <c r="C371" s="2" t="s">
         <v>808</v>
       </c>
-      <c r="C371" s="2" t="s">
-        <v>809</v>
-      </c>
       <c r="D371" s="2" t="s">
-        <v>810</v>
+        <v>806</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" s="2" t="s">
+        <v>809</v>
+      </c>
+      <c r="C372" s="2" t="s">
+        <v>810</v>
+      </c>
+      <c r="D372" s="2" t="s">
         <v>811</v>
-      </c>
-      <c r="C372" s="2" t="s">
-        <v>812</v>
-      </c>
-      <c r="D372" s="2" t="s">
-        <v>813</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" s="2" t="s">
+        <v>812</v>
+      </c>
+      <c r="C373" s="2" t="s">
+        <v>813</v>
+      </c>
+      <c r="D373" s="2" t="s">
         <v>814</v>
-      </c>
-      <c r="C373" s="2" t="s">
-        <v>815</v>
-      </c>
-      <c r="D373" s="2" t="s">
-        <v>816</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" s="2" t="s">
+        <v>815</v>
+      </c>
+      <c r="C374" s="2" t="s">
+        <v>816</v>
+      </c>
+      <c r="D374" s="2" t="s">
         <v>817</v>
-      </c>
-      <c r="C374" s="2" t="s">
-        <v>818</v>
-      </c>
-      <c r="D374" s="2" t="s">
-        <v>816</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" s="2" t="s">
+        <v>818</v>
+      </c>
+      <c r="C375" s="2" t="s">
         <v>819</v>
       </c>
-      <c r="C375" s="2" t="s">
+      <c r="D375" s="2" t="s">
         <v>820</v>
-      </c>
-      <c r="D375" s="2" t="s">
-        <v>816</v>
       </c>
     </row>
     <row r="376">
@@ -13674,7 +13690,7 @@
         <v>822</v>
       </c>
       <c r="D376" s="2" t="s">
-        <v>816</v>
+        <v>820</v>
       </c>
     </row>
     <row r="377">
@@ -13685,7 +13701,7 @@
         <v>824</v>
       </c>
       <c r="D377" s="2" t="s">
-        <v>816</v>
+        <v>820</v>
       </c>
     </row>
     <row r="378">
@@ -13696,7 +13712,7 @@
         <v>826</v>
       </c>
       <c r="D378" s="2" t="s">
-        <v>816</v>
+        <v>820</v>
       </c>
     </row>
     <row r="379">
@@ -13707,7 +13723,7 @@
         <v>828</v>
       </c>
       <c r="D379" s="2" t="s">
-        <v>816</v>
+        <v>820</v>
       </c>
     </row>
     <row r="380">
@@ -13718,7 +13734,7 @@
         <v>830</v>
       </c>
       <c r="D380" s="2" t="s">
-        <v>816</v>
+        <v>820</v>
       </c>
     </row>
     <row r="381">
@@ -13729,7 +13745,7 @@
         <v>832</v>
       </c>
       <c r="D381" s="2" t="s">
-        <v>816</v>
+        <v>820</v>
       </c>
     </row>
     <row r="382">
@@ -13740,7 +13756,7 @@
         <v>834</v>
       </c>
       <c r="D382" s="2" t="s">
-        <v>816</v>
+        <v>820</v>
       </c>
     </row>
     <row r="383">
@@ -13750,7 +13766,9 @@
       <c r="C383" s="2" t="s">
         <v>836</v>
       </c>
-      <c r="D383" s="2"/>
+      <c r="D383" s="2" t="s">
+        <v>820</v>
+      </c>
     </row>
     <row r="384">
       <c r="A384" s="2" t="s">
@@ -13760,40 +13778,38 @@
         <v>838</v>
       </c>
       <c r="D384" s="2" t="s">
-        <v>839</v>
+        <v>820</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" s="2" t="s">
+        <v>839</v>
+      </c>
+      <c r="C385" s="2" t="s">
         <v>840</v>
       </c>
-      <c r="C385" s="2" t="s">
-        <v>841</v>
-      </c>
-      <c r="D385" s="2" t="s">
-        <v>842</v>
-      </c>
+      <c r="D385" s="2"/>
     </row>
     <row r="386">
       <c r="A386" s="2" t="s">
+        <v>841</v>
+      </c>
+      <c r="C386" s="2" t="s">
+        <v>842</v>
+      </c>
+      <c r="D386" s="2" t="s">
         <v>843</v>
-      </c>
-      <c r="C386" s="2" t="s">
-        <v>844</v>
-      </c>
-      <c r="D386" s="2" t="s">
-        <v>842</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" s="2" t="s">
+        <v>844</v>
+      </c>
+      <c r="C387" s="2" t="s">
         <v>845</v>
       </c>
-      <c r="C387" s="2" t="s">
+      <c r="D387" s="2" t="s">
         <v>846</v>
-      </c>
-      <c r="D387" s="2" t="s">
-        <v>842</v>
       </c>
     </row>
     <row r="388">
@@ -13804,117 +13820,117 @@
         <v>848</v>
       </c>
       <c r="D388" s="2" t="s">
-        <v>849</v>
+        <v>846</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" s="2" t="s">
+        <v>849</v>
+      </c>
+      <c r="C389" s="2" t="s">
         <v>850</v>
       </c>
-      <c r="C389" s="2" t="s">
-        <v>851</v>
-      </c>
       <c r="D389" s="2" t="s">
-        <v>852</v>
+        <v>846</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" s="2" t="s">
+        <v>851</v>
+      </c>
+      <c r="C390" s="2" t="s">
+        <v>852</v>
+      </c>
+      <c r="D390" s="2" t="s">
         <v>853</v>
-      </c>
-      <c r="C390" s="2" t="s">
-        <v>854</v>
-      </c>
-      <c r="D390" s="2" t="s">
-        <v>855</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" s="2" t="s">
+        <v>854</v>
+      </c>
+      <c r="C391" s="2" t="s">
+        <v>855</v>
+      </c>
+      <c r="D391" s="2" t="s">
         <v>856</v>
-      </c>
-      <c r="C391" s="2" t="s">
-        <v>857</v>
-      </c>
-      <c r="D391" s="2" t="s">
-        <v>855</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" s="2" t="s">
+        <v>857</v>
+      </c>
+      <c r="C392" s="2" t="s">
         <v>858</v>
       </c>
-      <c r="C392" s="2" t="s">
+      <c r="D392" s="2" t="s">
         <v>859</v>
-      </c>
-      <c r="D392" s="2" t="s">
-        <v>860</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" s="2" t="s">
+        <v>860</v>
+      </c>
+      <c r="C393" s="2" t="s">
         <v>861</v>
       </c>
-      <c r="C393" s="2" t="s">
-        <v>862</v>
-      </c>
       <c r="D393" s="2" t="s">
-        <v>863</v>
+        <v>859</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" s="2" t="s">
+        <v>862</v>
+      </c>
+      <c r="C394" s="2" t="s">
+        <v>863</v>
+      </c>
+      <c r="D394" s="2" t="s">
         <v>864</v>
-      </c>
-      <c r="C394" s="2" t="s">
-        <v>865</v>
-      </c>
-      <c r="D394" s="2" t="s">
-        <v>866</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" s="2" t="s">
+        <v>865</v>
+      </c>
+      <c r="C395" s="2" t="s">
+        <v>866</v>
+      </c>
+      <c r="D395" s="2" t="s">
         <v>867</v>
-      </c>
-      <c r="C395" s="2" t="s">
-        <v>868</v>
-      </c>
-      <c r="D395" s="2" t="s">
-        <v>869</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" s="2" t="s">
+        <v>868</v>
+      </c>
+      <c r="C396" s="2" t="s">
+        <v>869</v>
+      </c>
+      <c r="D396" s="2" t="s">
         <v>870</v>
-      </c>
-      <c r="C396" s="2" t="s">
-        <v>871</v>
-      </c>
-      <c r="D396" s="2" t="s">
-        <v>872</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" s="2" t="s">
+        <v>871</v>
+      </c>
+      <c r="C397" s="2" t="s">
+        <v>872</v>
+      </c>
+      <c r="D397" s="2" t="s">
         <v>873</v>
-      </c>
-      <c r="C397" s="2" t="s">
-        <v>874</v>
-      </c>
-      <c r="D397" s="2" t="s">
-        <v>872</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" s="2" t="s">
+        <v>874</v>
+      </c>
+      <c r="C398" s="2" t="s">
         <v>875</v>
       </c>
-      <c r="C398" s="2" t="s">
+      <c r="D398" s="2" t="s">
         <v>876</v>
-      </c>
-      <c r="D398" s="2" t="s">
-        <v>869</v>
       </c>
     </row>
     <row r="399">
@@ -13925,7 +13941,7 @@
         <v>878</v>
       </c>
       <c r="D399" s="2" t="s">
-        <v>872</v>
+        <v>876</v>
       </c>
     </row>
     <row r="400">
@@ -13936,392 +13952,414 @@
         <v>880</v>
       </c>
       <c r="D400" s="2" t="s">
-        <v>881</v>
+        <v>873</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" s="2" t="s">
+        <v>881</v>
+      </c>
+      <c r="C401" s="2" t="s">
         <v>882</v>
       </c>
-      <c r="C401" s="2" t="s">
-        <v>883</v>
-      </c>
       <c r="D401" s="2" t="s">
-        <v>169</v>
+        <v>876</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" s="2" t="s">
+        <v>883</v>
+      </c>
+      <c r="C402" s="2" t="s">
         <v>884</v>
       </c>
-      <c r="C402" s="2" t="s">
+      <c r="D402" s="2" t="s">
         <v>885</v>
-      </c>
-      <c r="D402" s="2" t="s">
-        <v>886</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" s="2" t="s">
+        <v>886</v>
+      </c>
+      <c r="C403" s="2" t="s">
         <v>887</v>
       </c>
-      <c r="C403" s="2" t="s">
-        <v>888</v>
-      </c>
       <c r="D403" s="2" t="s">
-        <v>889</v>
+        <v>169</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" s="2" t="s">
+        <v>888</v>
+      </c>
+      <c r="C404" s="2" t="s">
+        <v>889</v>
+      </c>
+      <c r="D404" s="2" t="s">
         <v>890</v>
-      </c>
-      <c r="C404" s="2" t="s">
-        <v>891</v>
-      </c>
-      <c r="D404" s="2" t="s">
-        <v>892</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" s="2" t="s">
+        <v>891</v>
+      </c>
+      <c r="C405" s="2" t="s">
+        <v>892</v>
+      </c>
+      <c r="D405" s="2" t="s">
         <v>893</v>
-      </c>
-      <c r="C405" s="2" t="s">
-        <v>894</v>
-      </c>
-      <c r="D405" s="2" t="s">
-        <v>895</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" s="2" t="s">
+        <v>894</v>
+      </c>
+      <c r="C406" s="2" t="s">
+        <v>895</v>
+      </c>
+      <c r="D406" s="2" t="s">
         <v>896</v>
-      </c>
-      <c r="C406" s="2" t="s">
-        <v>897</v>
-      </c>
-      <c r="D406" s="2" t="s">
-        <v>898</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" s="2" t="s">
+        <v>897</v>
+      </c>
+      <c r="C407" s="2" t="s">
+        <v>898</v>
+      </c>
+      <c r="D407" s="2" t="s">
         <v>899</v>
-      </c>
-      <c r="C407" s="2" t="s">
-        <v>900</v>
-      </c>
-      <c r="D407" s="2" t="s">
-        <v>898</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" s="2" t="s">
+        <v>900</v>
+      </c>
+      <c r="C408" s="2" t="s">
         <v>901</v>
       </c>
-      <c r="C408" s="2" t="s">
+      <c r="D408" s="2" t="s">
         <v>902</v>
-      </c>
-      <c r="D408" s="2" t="s">
-        <v>903</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" s="2" t="s">
+        <v>903</v>
+      </c>
+      <c r="C409" s="2" t="s">
         <v>904</v>
       </c>
-      <c r="C409" s="2" t="s">
-        <v>905</v>
-      </c>
       <c r="D409" s="2" t="s">
-        <v>906</v>
+        <v>902</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" s="2" t="s">
+        <v>905</v>
+      </c>
+      <c r="C410" s="2" t="s">
+        <v>906</v>
+      </c>
+      <c r="D410" s="2" t="s">
         <v>907</v>
-      </c>
-      <c r="C410" s="2" t="s">
-        <v>908</v>
-      </c>
-      <c r="D410" s="2" t="s">
-        <v>909</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" s="2" t="s">
+        <v>908</v>
+      </c>
+      <c r="C411" s="2" t="s">
+        <v>909</v>
+      </c>
+      <c r="D411" s="2" t="s">
         <v>910</v>
-      </c>
-      <c r="C411" s="2" t="s">
-        <v>911</v>
-      </c>
-      <c r="D411" s="2" t="s">
-        <v>912</v>
       </c>
     </row>
     <row r="412">
       <c r="A412" s="2" t="s">
+        <v>911</v>
+      </c>
+      <c r="C412" s="2" t="s">
+        <v>912</v>
+      </c>
+      <c r="D412" s="2" t="s">
         <v>913</v>
-      </c>
-      <c r="C412" s="2" t="s">
-        <v>914</v>
-      </c>
-      <c r="D412" s="2" t="s">
-        <v>915</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" s="2" t="s">
+        <v>914</v>
+      </c>
+      <c r="C413" s="2" t="s">
+        <v>915</v>
+      </c>
+      <c r="D413" s="2" t="s">
         <v>916</v>
-      </c>
-      <c r="C413" s="2" t="s">
-        <v>917</v>
-      </c>
-      <c r="D413" s="2" t="s">
-        <v>918</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" s="2" t="s">
+        <v>917</v>
+      </c>
+      <c r="C414" s="2" t="s">
+        <v>918</v>
+      </c>
+      <c r="D414" s="2" t="s">
         <v>919</v>
-      </c>
-      <c r="C414" s="2" t="s">
-        <v>920</v>
-      </c>
-      <c r="D414" s="2" t="s">
-        <v>921</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" s="2" t="s">
+        <v>920</v>
+      </c>
+      <c r="C415" s="2" t="s">
+        <v>921</v>
+      </c>
+      <c r="D415" s="2" t="s">
         <v>922</v>
-      </c>
-      <c r="C415" s="2" t="s">
-        <v>923</v>
-      </c>
-      <c r="D415" s="2" t="s">
-        <v>924</v>
       </c>
     </row>
     <row r="416">
       <c r="A416" s="2" t="s">
+        <v>923</v>
+      </c>
+      <c r="C416" s="2" t="s">
+        <v>924</v>
+      </c>
+      <c r="D416" s="2" t="s">
         <v>925</v>
-      </c>
-      <c r="C416" s="2" t="s">
-        <v>926</v>
-      </c>
-      <c r="D416" s="2" t="s">
-        <v>927</v>
       </c>
     </row>
     <row r="417">
       <c r="A417" s="2" t="s">
+        <v>926</v>
+      </c>
+      <c r="C417" s="2" t="s">
+        <v>927</v>
+      </c>
+      <c r="D417" s="2" t="s">
         <v>928</v>
-      </c>
-      <c r="C417" s="2" t="s">
-        <v>929</v>
-      </c>
-      <c r="D417" s="2" t="s">
-        <v>930</v>
       </c>
     </row>
     <row r="418">
       <c r="A418" s="2" t="s">
+        <v>929</v>
+      </c>
+      <c r="C418" s="2" t="s">
+        <v>930</v>
+      </c>
+      <c r="D418" s="2" t="s">
         <v>931</v>
-      </c>
-      <c r="C418" s="2" t="s">
-        <v>932</v>
-      </c>
-      <c r="D418" s="2" t="s">
-        <v>933</v>
       </c>
     </row>
     <row r="419">
       <c r="A419" s="2" t="s">
+        <v>932</v>
+      </c>
+      <c r="C419" s="2" t="s">
+        <v>933</v>
+      </c>
+      <c r="D419" s="2" t="s">
         <v>934</v>
-      </c>
-      <c r="C419" s="2" t="s">
-        <v>935</v>
-      </c>
-      <c r="D419" s="2" t="s">
-        <v>936</v>
       </c>
     </row>
     <row r="420">
       <c r="A420" s="2" t="s">
+        <v>935</v>
+      </c>
+      <c r="C420" s="2" t="s">
+        <v>936</v>
+      </c>
+      <c r="D420" s="2" t="s">
         <v>937</v>
-      </c>
-      <c r="C420" s="2" t="s">
-        <v>938</v>
-      </c>
-      <c r="D420" s="2" t="s">
-        <v>939</v>
       </c>
     </row>
     <row r="421">
       <c r="A421" s="2" t="s">
+        <v>938</v>
+      </c>
+      <c r="C421" s="2" t="s">
+        <v>939</v>
+      </c>
+      <c r="D421" s="2" t="s">
         <v>940</v>
-      </c>
-      <c r="C421" s="2" t="s">
-        <v>941</v>
-      </c>
-      <c r="D421" s="2" t="s">
-        <v>942</v>
       </c>
     </row>
     <row r="422">
       <c r="A422" s="2" t="s">
+        <v>941</v>
+      </c>
+      <c r="C422" s="2" t="s">
+        <v>942</v>
+      </c>
+      <c r="D422" s="2" t="s">
         <v>943</v>
-      </c>
-      <c r="C422" s="2" t="s">
-        <v>944</v>
-      </c>
-      <c r="D422" s="2" t="s">
-        <v>945</v>
       </c>
     </row>
     <row r="423">
       <c r="A423" s="2" t="s">
+        <v>944</v>
+      </c>
+      <c r="C423" s="2" t="s">
+        <v>945</v>
+      </c>
+      <c r="D423" s="2" t="s">
         <v>946</v>
-      </c>
-      <c r="C423" s="2" t="s">
-        <v>947</v>
-      </c>
-      <c r="D423" s="2" t="s">
-        <v>948</v>
       </c>
     </row>
     <row r="424">
       <c r="A424" s="2" t="s">
+        <v>947</v>
+      </c>
+      <c r="C424" s="2" t="s">
+        <v>948</v>
+      </c>
+      <c r="D424" s="2" t="s">
         <v>949</v>
-      </c>
-      <c r="C424" s="2" t="s">
-        <v>950</v>
-      </c>
-      <c r="D424" s="2" t="s">
-        <v>951</v>
       </c>
     </row>
     <row r="425">
       <c r="A425" s="2" t="s">
+        <v>950</v>
+      </c>
+      <c r="C425" s="2" t="s">
+        <v>951</v>
+      </c>
+      <c r="D425" s="2" t="s">
         <v>952</v>
-      </c>
-      <c r="C425" s="2" t="s">
-        <v>953</v>
-      </c>
-      <c r="D425" s="2" t="s">
-        <v>954</v>
       </c>
     </row>
     <row r="426">
       <c r="A426" s="2" t="s">
+        <v>953</v>
+      </c>
+      <c r="C426" s="2" t="s">
+        <v>954</v>
+      </c>
+      <c r="D426" s="2" t="s">
         <v>955</v>
-      </c>
-      <c r="C426" s="2" t="s">
-        <v>956</v>
-      </c>
-      <c r="D426" s="2" t="s">
-        <v>957</v>
       </c>
     </row>
     <row r="427">
       <c r="A427" s="2" t="s">
+        <v>956</v>
+      </c>
+      <c r="C427" s="2" t="s">
+        <v>957</v>
+      </c>
+      <c r="D427" s="2" t="s">
         <v>958</v>
-      </c>
-      <c r="C427" s="2" t="s">
-        <v>959</v>
-      </c>
-      <c r="D427" s="2" t="s">
-        <v>960</v>
       </c>
     </row>
     <row r="428">
       <c r="A428" s="2" t="s">
+        <v>959</v>
+      </c>
+      <c r="C428" s="2" t="s">
+        <v>960</v>
+      </c>
+      <c r="D428" s="2" t="s">
         <v>961</v>
-      </c>
-      <c r="C428" s="2" t="s">
-        <v>962</v>
-      </c>
-      <c r="D428" s="2" t="s">
-        <v>963</v>
       </c>
     </row>
     <row r="429">
       <c r="A429" s="2" t="s">
+        <v>962</v>
+      </c>
+      <c r="C429" s="2" t="s">
+        <v>963</v>
+      </c>
+      <c r="D429" s="2" t="s">
         <v>964</v>
-      </c>
-      <c r="C429" s="2" t="s">
-        <v>965</v>
-      </c>
-      <c r="D429" s="2" t="s">
-        <v>966</v>
       </c>
     </row>
     <row r="430">
       <c r="A430" s="2" t="s">
+        <v>965</v>
+      </c>
+      <c r="C430" s="2" t="s">
+        <v>966</v>
+      </c>
+      <c r="D430" s="2" t="s">
         <v>967</v>
-      </c>
-      <c r="C430" s="2" t="s">
-        <v>968</v>
-      </c>
-      <c r="D430" s="2" t="s">
-        <v>969</v>
       </c>
     </row>
     <row r="431">
       <c r="A431" s="2" t="s">
+        <v>968</v>
+      </c>
+      <c r="C431" s="2" t="s">
+        <v>969</v>
+      </c>
+      <c r="D431" s="2" t="s">
         <v>970</v>
-      </c>
-      <c r="C431" s="2" t="s">
-        <v>971</v>
-      </c>
-      <c r="D431" s="2" t="s">
-        <v>972</v>
       </c>
     </row>
     <row r="432">
       <c r="A432" s="2" t="s">
+        <v>971</v>
+      </c>
+      <c r="C432" s="2" t="s">
+        <v>972</v>
+      </c>
+      <c r="D432" s="2" t="s">
         <v>973</v>
-      </c>
-      <c r="C432" s="2" t="s">
-        <v>974</v>
-      </c>
-      <c r="D432" s="2" t="s">
-        <v>975</v>
       </c>
     </row>
     <row r="433">
       <c r="A433" s="2" t="s">
+        <v>974</v>
+      </c>
+      <c r="C433" s="2" t="s">
+        <v>975</v>
+      </c>
+      <c r="D433" s="2" t="s">
         <v>976</v>
-      </c>
-      <c r="C433" s="2" t="s">
-        <v>977</v>
-      </c>
-      <c r="D433" s="2" t="s">
-        <v>978</v>
       </c>
     </row>
     <row r="434">
       <c r="A434" s="2" t="s">
+        <v>977</v>
+      </c>
+      <c r="C434" s="2" t="s">
+        <v>978</v>
+      </c>
+      <c r="D434" s="2" t="s">
         <v>979</v>
-      </c>
-      <c r="C434" s="2" t="s">
-        <v>980</v>
-      </c>
-      <c r="D434" s="2" t="s">
-        <v>981</v>
       </c>
     </row>
     <row r="435">
       <c r="A435" s="2" t="s">
+        <v>980</v>
+      </c>
+      <c r="C435" s="2" t="s">
+        <v>981</v>
+      </c>
+      <c r="D435" s="2" t="s">
         <v>982</v>
       </c>
-      <c r="C435" s="2" t="s">
+    </row>
+    <row r="436">
+      <c r="A436" s="2" t="s">
         <v>983</v>
       </c>
-      <c r="D435" s="2" t="s">
+      <c r="C436" s="2" t="s">
         <v>984</v>
+      </c>
+      <c r="D436" s="2" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" s="2" t="s">
+        <v>986</v>
+      </c>
+      <c r="C437" s="2" t="s">
+        <v>987</v>
+      </c>
+      <c r="D437" s="2" t="s">
+        <v>988</v>
       </c>
     </row>
   </sheetData>
@@ -14360,18 +14398,18 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>985</v>
+        <v>989</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>986</v>
+        <v>990</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>987</v>
+        <v>991</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>988</v>
+        <v>992</v>
       </c>
     </row>
   </sheetData>

--- a/csv/merge.xlsx
+++ b/csv/merge.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1281" uniqueCount="993">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1334" uniqueCount="1032">
   <si>
     <t>JP Text (DO NOT CHANGE)</t>
   </si>
@@ -2100,7 +2100,7 @@
   <si>
     <t>The image of the evil god is glowing more
 strongly... it seems it will still be some
-time before the door opens again. Be wary.</t>
+time before the door opens again. Be wary.&lt;bw_break&gt;</t>
   </si>
   <si>
     <t>封剣の門は　固く　閉ざされている。</t>
@@ -5637,6 +5637,166 @@
 opened without using an Abyss Scale!</t>
   </si>
   <si>
+    <t>解放の扉に到達した！</t>
+  </si>
+  <si>
+    <t>You've reached the Door of Return!</t>
+  </si>
+  <si>
+    <t>Zelmea (BAD STRING)</t>
+  </si>
+  <si>
+    <t>階に移動できそうだ。 移動しますか？&lt;yesno&gt;&lt;close&gt;</t>
+  </si>
+  <si>
+    <t>You can proceed to the next floor down from
+here. Go to the next floor?&lt;yesno&gt;&lt;close&gt;</t>
+  </si>
+  <si>
+    <t>この扉から　外に出て
+探索を途中でやめることができます。
+&lt;br&gt;
+使ったゼルメアの聖紋は　戻りません。
+また　これまでに手に入れた　冥海の光玉は
+消えてしまいます。
+&lt;br&gt;
+この扉を使って　外に出ますか？&lt;yesno 2&gt;&lt;close&gt;</t>
+  </si>
+  <si>
+    <t>You can use this gate to leave here and
+return back outside.
+&lt;br&gt;
+However, any Zelmea Crests you used will
+not be refunded, and any Abyss Orbs you've
+collected will be lost.
+&lt;br&gt;
+Do you want to leave here?&lt;yesno 2&gt;&lt;close&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">　私は　ここであなたを　待っていますので
+　いつでも　声をかけてくださいね。</t>
+  </si>
+  <si>
+    <t>&lt;attr&gt;&lt;feel_normal_one&gt;&lt;end_attr&gt;Understood. I shall wait for you here in
+case you decide to change your mind.</t>
+  </si>
+  <si>
+    <t>&lt;turn_pc&gt;「……ふうむ　それは　まこと残念。
+　いつでも　考えなおしてくれて
+　かまいませぬぞ。&lt;end&gt;</t>
+  </si>
+  <si>
+    <t>&lt;turn_pc&gt;Hmm... that's a shame. Please take time to
+reconsider if you have a chance.&lt;end&gt;</t>
+  </si>
+  <si>
+    <t>&lt;turn_pc&gt;「やはり　気が変わりましたな。
+　さすれば　帰り際に　お互いの
+　冥海の光玉を　交換しようではありせぬか？&lt;yesno&gt;&lt;break&gt;</t>
+  </si>
+  <si>
+    <t>&lt;turn_pc&gt;So, you've changed your mind after all?
+Before we depart, would you like to trade any
+of your Abyss Orbs for some of mine?&lt;yesno&gt;&lt;break&gt;</t>
+  </si>
+  <si>
+    <t>&lt;turn_pc&gt;「気が変わりましたかな。
+　もし　不要な　冥海の光玉があれば
+　拙者のものと　交換しあおうではありませぬか？
+&lt;yesno&gt;
+&lt;case 1&gt;
+&lt;close&gt;
+&lt;case 2&gt;
+&lt;break&gt;
+&lt;case_cancel&gt;
+&lt;break&gt;
+&lt;case_end&gt;</t>
+  </si>
+  <si>
+    <t>&lt;turn_pc&gt;Changed your mind, did you? In that case,
+would you like to trade any of your Abyss
+Orbs for some of mine that I've found?
+&lt;yesno&gt;
+&lt;case 1&gt;
+&lt;close&gt;
+&lt;case 2&gt;
+&lt;break&gt;
+&lt;case_cancel&gt;
+&lt;break&gt;
+&lt;case_end&gt;</t>
+  </si>
+  <si>
+    <t>&lt;turn_pc&gt;「おや？　パーティで　探索されていると
+　お見受けする。よければ
+　リーダーを　紹介していただけますかな。&lt;end&gt;</t>
+  </si>
+  <si>
+    <t>&lt;turn_pc&gt;Hm, what's this? You're exploring with a
+party, are you? In that case, please have your
+party leader come and speak to me.</t>
+  </si>
+  <si>
+    <t>開けていない宝箱が　残っています。
+この先に進んで　よろしいですか？&lt;yesno 2&gt;&lt;close&gt;</t>
+  </si>
+  <si>
+    <t>There are treasure chests here you still have
+yet to open. Proceed anyway?&lt;yesno 2&gt;&lt;close&gt;</t>
+  </si>
+  <si>
+    <t>近くにいる　冒険者ジグロウと
+冥海の光玉を　交換できます。
+このまま進んで　よろしいですか？&lt;yesno 2&gt;&lt;close&gt;</t>
+  </si>
+  <si>
+    <t>You can exchange your Abyss Orbs with Jiguro
+before leaving. Do you still want to leave
+anyway?&lt;yesno 2&gt;&lt;close&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">　拙者は　ずいぶん難儀しましたぞ。
+&lt;br&gt;
+「道中　珍しい防具は　見つけられましたかな。
+　もし　不要な　冥海の光玉があれば
+　拙者のものと　交換しあおうではありませぬか？
+&lt;yesno&gt;
+&lt;case 1&gt;
+&lt;close&gt;
+&lt;case 2&gt;
+&lt;break&gt;
+&lt;case_cancel&gt;
+&lt;break&gt;
+&lt;case_end&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;turn_pc&gt;I'm truly amazed you made it this far!
+You really are an outstanding adventurer. It
+was quite difficult for me to get here.
+&lt;br&gt;
+Did you find any rare armor while exploring,
+perhaps? If you have any Abyss Orbs you don't
+need, how about trading for some of mine?
+&lt;yesno&gt;
+&lt;case 1&gt;
+&lt;close&gt;
+&lt;case 2&gt;
+&lt;break&gt;
+&lt;case_cancel&gt;
+&lt;break&gt;
+&lt;case_end&gt;
+</t>
+  </si>
+  <si>
+    <t>&lt;turn_pc&gt;「おぬしのおかげで　また一歩
+　真の防具コレクターへ　近づけましたぞ。
+　また　どこかで　お会いできると良いですな。&lt;end&gt;</t>
+  </si>
+  <si>
+    <t>&lt;turn_pc&gt;Thanks to you, I'm that much closer to
+becoming a true armor collector. I hope that
+our paths cross again soon!&lt;end&gt;</t>
+  </si>
+  <si>
     <t>はじまりのエテーネの村のシナリオを
 スキップできます。他の種族として
 生き返るところから　ゲームを始めますか？&lt;yesno&gt;&lt;close&gt;</t>
@@ -6715,6 +6875,12 @@
 exploration mode.</t>
   </si>
   <si>
+    <t>源世の聖標は　もう反応しないようだ。</t>
+  </si>
+  <si>
+    <t>The Sacred Mark is no longer responding.</t>
+  </si>
+  <si>
     <t>まだ取っていない　パニガログがあります。
 このまま　探査を終了し　ダンジョンから出ると
 未取得のパニガログは　消えてしまいます。
@@ -7682,6 +7848,23 @@
   </si>
   <si>
     <t>Gelzark win (BAD STRING)</t>
+  </si>
+  <si>
+    <t>冥骸魔レギルラッゾたちを　結界に封じた！
+破魔石が　１０個なくなった！
+&lt;auto_bw=5000&gt;&lt;close&gt;</t>
+  </si>
+  <si>
+    <t>The Demon Orbs you hold begin shining, and
+the Guardian Ward is strengthened once more.
+&lt;auto_br=5000&gt;
+Demon Corpse Legirrazzo and Demon Beast Logast
+were sealed in the ward!
+10 of your Demon Orbs were consumed!
+&lt;auto_bw=5000&gt;&lt;close&gt;</t>
+  </si>
+  <si>
+    <t>Legirrazzo win (BAD STRING)</t>
   </si>
   <si>
     <t>「わしは　旅の覇者モンジ。
@@ -8479,6 +8662,9 @@
 Adventure Log data successfully recorded!&lt;me 60&gt;</t>
   </si>
   <si>
+    <t>Data creation</t>
+  </si>
+  <si>
     <t>アストルティアへと　旅立つため
 メインメニューに戻ります。
 &lt;br&gt;
@@ -9257,6 +9443,79 @@
   </si>
   <si>
     <t>Mysterious Tower exit</t>
+  </si>
+  <si>
+    <t>「新エテーネの村のまわりを　クンクンして
+　見つけてきたプケ！
+　また　テンの日までに　見つけておくプッケ！</t>
+  </si>
+  <si>
+    <t>I was sniffing all around the village and
+found that, oink! I'll have found something
+else by the next Ten Day, oink oink!</t>
+  </si>
+  <si>
+    <t>Hana</t>
+  </si>
+  <si>
+    <t>「ボクの　さいきんの　日課は
+　そんちょうの　ために
+　メダルフラワーを　見つけることプケ！
+&lt;br&gt;
+「テンの日までに　見つけておくプケ！
+　その時　また来いプッケ！</t>
+  </si>
+  <si>
+    <t>My current objective: find another Medal
+Flower for you!
+&lt;br&gt;
+I'll find it by the next Ten Day! Come back
+then, oink oink!</t>
+  </si>
+  <si>
+    <t>神墟ナドラグラムへ行く　旅の扉のようだ。
+どちらへ　移動しますか？
+&lt;select&gt;
+神墟ナドラグラム　入り口
+神墟ナドラグラム　竜神の柩前
+空の原点
+やめる
+&lt;select_end&gt;
+&lt;case 1&gt;
+&lt;close&gt;
+&lt;case 2&gt;
+&lt;close&gt;
+&lt;case 3&gt;
+&lt;close&gt;
+&lt;case 4&gt;
+&lt;close&gt;
+&lt;case_cancel&gt;
+&lt;close&gt;
+&lt;case_end&gt;</t>
+  </si>
+  <si>
+    <t>It's a teleportal that leads to the Nadragram
+Shrine. Where would you like to go?
+&lt;select&gt;
+Nadragram Shrine Entrance
+Nadragram Shrine Divine Rest
+Sky's Origin
+Cancel
+&lt;select_end&gt;
+&lt;case 1&gt;
+&lt;close&gt;
+&lt;case 2&gt;
+&lt;close&gt;
+&lt;case 3&gt;
+&lt;close&gt;
+&lt;case 4&gt;
+&lt;close&gt;
+&lt;case_cancel&gt;
+&lt;close&gt;
+&lt;case_end&gt;</t>
+  </si>
+  <si>
+    <t>Hall of Invitation portal</t>
   </si>
   <si>
     <t>メインコマンド『せんれき』の
@@ -12030,241 +12289,241 @@
         <v>483</v>
       </c>
       <c r="D225" s="2" t="s">
-        <v>484</v>
+        <v>454</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="C226" s="2" t="s">
         <v>485</v>
       </c>
-      <c r="C226" s="2" t="s">
-        <v>486</v>
-      </c>
       <c r="D226" s="2" t="s">
-        <v>487</v>
+        <v>479</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="2" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="C227" s="2" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="D227" s="2" t="s">
-        <v>490</v>
+        <v>454</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="2" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="C228" s="2" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="D228" s="2" t="s">
-        <v>493</v>
+        <v>454</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="2" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="C229" s="2" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="D229" s="2" t="s">
-        <v>496</v>
+        <v>454</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="2" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="C230" s="2" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="D230" s="2" t="s">
-        <v>496</v>
+        <v>454</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="2" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="C231" s="2" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="D231" s="2" t="s">
-        <v>496</v>
+        <v>454</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="2" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="C232" s="2" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="D232" s="2" t="s">
-        <v>503</v>
+        <v>454</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="2" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="C233" s="2" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="D233" s="2" t="s">
-        <v>503</v>
+        <v>479</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="2" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="C234" s="2" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="D234" s="2" t="s">
-        <v>508</v>
-      </c>
-      <c r="E234" s="2" t="s">
-        <v>509</v>
+        <v>454</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="2" t="s">
-        <v>510</v>
+        <v>502</v>
       </c>
       <c r="C235" s="2" t="s">
-        <v>511</v>
+        <v>503</v>
       </c>
       <c r="D235" s="2" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="2" t="s">
-        <v>512</v>
+        <v>505</v>
       </c>
       <c r="C236" s="2" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="D236" s="2" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="2" t="s">
-        <v>514</v>
+        <v>507</v>
       </c>
       <c r="C237" s="2" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="D237" s="2" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="2" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="C238" s="2" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="D238" s="2" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="2" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="C239" s="2" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="D239" s="2" t="s">
-        <v>508</v>
+        <v>515</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="2" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="C240" s="2" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="D240" s="2" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="2" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="C241" s="2" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="D241" s="2" t="s">
-        <v>508</v>
+        <v>521</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="2" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="C242" s="2" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="D242" s="2" t="s">
-        <v>508</v>
+        <v>521</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="2" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="C243" s="2" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="D243" s="2" t="s">
-        <v>508</v>
+        <v>521</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="C244" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="D244" s="2" t="s">
         <v>528</v>
-      </c>
-      <c r="C244" s="2" t="s">
-        <v>529</v>
-      </c>
-      <c r="D244" s="2" t="s">
-        <v>508</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="2" t="s">
+        <v>529</v>
+      </c>
+      <c r="C245" s="2" t="s">
         <v>530</v>
       </c>
-      <c r="C245" s="2" t="s">
-        <v>531</v>
-      </c>
       <c r="D245" s="2" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="C246" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="D246" s="2" t="s">
         <v>533</v>
       </c>
-      <c r="C246" s="2" t="s">
+      <c r="E246" s="2" t="s">
         <v>534</v>
-      </c>
-      <c r="D246" s="2" t="s">
-        <v>532</v>
       </c>
     </row>
     <row r="247">
@@ -12275,7 +12534,7 @@
         <v>536</v>
       </c>
       <c r="D247" s="2" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="248">
@@ -12286,194 +12545,194 @@
         <v>538</v>
       </c>
       <c r="D248" s="2" t="s">
-        <v>539</v>
+        <v>533</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="2" t="s">
+        <v>539</v>
+      </c>
+      <c r="C249" s="2" t="s">
         <v>540</v>
       </c>
-      <c r="C249" s="2" t="s">
-        <v>541</v>
-      </c>
       <c r="D249" s="2" t="s">
-        <v>539</v>
+        <v>533</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="2" t="s">
+        <v>541</v>
+      </c>
+      <c r="C250" s="2" t="s">
         <v>542</v>
       </c>
-      <c r="C250" s="2" t="s">
-        <v>543</v>
-      </c>
       <c r="D250" s="2" t="s">
-        <v>539</v>
+        <v>533</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="C251" s="2" t="s">
         <v>544</v>
       </c>
-      <c r="C251" s="2" t="s">
-        <v>545</v>
-      </c>
       <c r="D251" s="2" t="s">
-        <v>539</v>
+        <v>533</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="C252" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="C252" s="2" t="s">
-        <v>547</v>
-      </c>
       <c r="D252" s="2" t="s">
-        <v>539</v>
+        <v>533</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="C253" s="2" t="s">
         <v>548</v>
       </c>
-      <c r="C253" s="2" t="s">
-        <v>549</v>
-      </c>
       <c r="D253" s="2" t="s">
-        <v>550</v>
+        <v>533</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="2" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="C254" s="2" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="D254" s="2" t="s">
-        <v>553</v>
+        <v>533</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="2" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="C255" s="2" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="D255" s="2" t="s">
-        <v>553</v>
+        <v>533</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="2" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="C256" s="2" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="D256" s="2" t="s">
-        <v>553</v>
+        <v>533</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="2" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="C257" s="2" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="D257" s="2" t="s">
-        <v>553</v>
+        <v>557</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="2" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="C258" s="2" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="D258" s="2" t="s">
-        <v>553</v>
+        <v>557</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" s="2" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="C259" s="2" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="D259" s="2" t="s">
-        <v>553</v>
+        <v>557</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="2" t="s">
+        <v>562</v>
+      </c>
+      <c r="C260" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="D260" s="2" t="s">
         <v>564</v>
-      </c>
-      <c r="C260" s="2" t="s">
-        <v>565</v>
-      </c>
-      <c r="D260" s="2" t="s">
-        <v>553</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="2" t="s">
+        <v>565</v>
+      </c>
+      <c r="C261" s="2" t="s">
         <v>566</v>
       </c>
-      <c r="C261" s="2" t="s">
-        <v>567</v>
-      </c>
       <c r="D261" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="2" t="s">
+        <v>567</v>
+      </c>
+      <c r="C262" s="2" t="s">
         <v>568</v>
       </c>
-      <c r="C262" s="2" t="s">
-        <v>569</v>
-      </c>
       <c r="D262" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="2" t="s">
+        <v>569</v>
+      </c>
+      <c r="C263" s="2" t="s">
         <v>570</v>
       </c>
-      <c r="C263" s="2" t="s">
-        <v>571</v>
-      </c>
       <c r="D263" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="2" t="s">
+        <v>571</v>
+      </c>
+      <c r="C264" s="2" t="s">
         <v>572</v>
       </c>
-      <c r="C264" s="2" t="s">
-        <v>573</v>
-      </c>
       <c r="D264" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="C265" s="2" t="s">
         <v>574</v>
       </c>
-      <c r="C265" s="2" t="s">
+      <c r="D265" s="2" t="s">
         <v>575</v>
-      </c>
-      <c r="D265" s="2" t="s">
-        <v>553</v>
       </c>
     </row>
     <row r="266">
@@ -12484,95 +12743,95 @@
         <v>577</v>
       </c>
       <c r="D266" s="2" t="s">
-        <v>553</v>
+        <v>578</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" s="2" t="s">
+        <v>579</v>
+      </c>
+      <c r="C267" s="2" t="s">
+        <v>580</v>
+      </c>
+      <c r="D267" s="2" t="s">
         <v>578</v>
-      </c>
-      <c r="C267" s="2" t="s">
-        <v>579</v>
-      </c>
-      <c r="D267" s="2" t="s">
-        <v>553</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" s="2" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="C268" s="2" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="D268" s="2" t="s">
-        <v>307</v>
+        <v>578</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="2" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="C269" s="2" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="D269" s="2" t="s">
-        <v>307</v>
+        <v>578</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" s="2" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="C270" s="2" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="D270" s="2" t="s">
-        <v>307</v>
+        <v>578</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" s="2" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="C271" s="2" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="D271" s="2" t="s">
-        <v>302</v>
+        <v>578</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" s="2" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="C272" s="2" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="D272" s="2" t="s">
-        <v>302</v>
+        <v>578</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" s="2" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="C273" s="2" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="D273" s="2" t="s">
-        <v>302</v>
+        <v>578</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" s="2" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="C274" s="2" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="D274" s="2" t="s">
-        <v>594</v>
+        <v>578</v>
       </c>
     </row>
     <row r="275">
@@ -12583,7 +12842,7 @@
         <v>596</v>
       </c>
       <c r="D275" s="2" t="s">
-        <v>302</v>
+        <v>578</v>
       </c>
     </row>
     <row r="276">
@@ -12594,150 +12853,150 @@
         <v>598</v>
       </c>
       <c r="D276" s="2" t="s">
-        <v>599</v>
+        <v>578</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" s="2" t="s">
+        <v>599</v>
+      </c>
+      <c r="C277" s="2" t="s">
         <v>600</v>
       </c>
-      <c r="C277" s="2" t="s">
-        <v>601</v>
-      </c>
       <c r="D277" s="2" t="s">
-        <v>602</v>
+        <v>578</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" s="2" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="C278" s="2" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="D278" s="2" t="s">
-        <v>602</v>
+        <v>578</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" s="2" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="C279" s="2" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="D279" s="2" t="s">
-        <v>602</v>
+        <v>578</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" s="2" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="C280" s="2" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="D280" s="2" t="s">
-        <v>602</v>
+        <v>307</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" s="2" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="C281" s="2" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="D281" s="2" t="s">
-        <v>602</v>
+        <v>307</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" s="2" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="C282" s="2" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="D282" s="2" t="s">
-        <v>602</v>
+        <v>307</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" s="2" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="C283" s="2" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="D283" s="2" t="s">
-        <v>602</v>
+        <v>302</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" s="2" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="C284" s="2" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="D284" s="2" t="s">
-        <v>602</v>
+        <v>302</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" s="2" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="C285" s="2" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="D285" s="2" t="s">
-        <v>602</v>
+        <v>302</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" s="2" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="C286" s="2" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="D286" s="2" t="s">
-        <v>602</v>
+        <v>302</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" s="2" t="s">
+        <v>619</v>
+      </c>
+      <c r="C287" s="2" t="s">
+        <v>620</v>
+      </c>
+      <c r="D287" s="2" t="s">
         <v>621</v>
-      </c>
-      <c r="C287" s="2" t="s">
-        <v>622</v>
-      </c>
-      <c r="D287" s="2" t="s">
-        <v>602</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" s="2" t="s">
+        <v>622</v>
+      </c>
+      <c r="C288" s="2" t="s">
         <v>623</v>
       </c>
-      <c r="C288" s="2" t="s">
-        <v>624</v>
-      </c>
       <c r="D288" s="2" t="s">
-        <v>602</v>
+        <v>302</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" s="2" t="s">
+        <v>624</v>
+      </c>
+      <c r="C289" s="2" t="s">
         <v>625</v>
       </c>
-      <c r="C289" s="2" t="s">
+      <c r="D289" s="2" t="s">
         <v>626</v>
-      </c>
-      <c r="D289" s="2" t="s">
-        <v>602</v>
       </c>
     </row>
     <row r="290">
@@ -12748,128 +13007,128 @@
         <v>628</v>
       </c>
       <c r="D290" s="2" t="s">
-        <v>602</v>
+        <v>629</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" s="2" t="s">
+        <v>630</v>
+      </c>
+      <c r="C291" s="2" t="s">
+        <v>631</v>
+      </c>
+      <c r="D291" s="2" t="s">
         <v>629</v>
-      </c>
-      <c r="C291" s="2" t="s">
-        <v>630</v>
-      </c>
-      <c r="D291" s="2" t="s">
-        <v>602</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" s="2" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="C292" s="2" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="D292" s="2" t="s">
-        <v>602</v>
+        <v>629</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" s="2" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="C293" s="2" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="D293" s="2" t="s">
-        <v>602</v>
+        <v>629</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" s="2" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="C294" s="2" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="D294" s="2" t="s">
-        <v>602</v>
+        <v>629</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" s="2" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="C295" s="2" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="D295" s="2" t="s">
-        <v>602</v>
+        <v>629</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" s="2" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="C296" s="2" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="D296" s="2" t="s">
-        <v>602</v>
+        <v>629</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" s="2" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="C297" s="2" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="D297" s="2" t="s">
-        <v>602</v>
+        <v>629</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" s="2" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="C298" s="2" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="D298" s="2" t="s">
-        <v>602</v>
+        <v>629</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" s="2" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="C299" s="2" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="D299" s="2" t="s">
-        <v>602</v>
+        <v>629</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" s="2" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="C300" s="2" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="D300" s="2" t="s">
-        <v>602</v>
+        <v>629</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" s="2" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="C301" s="2" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="D301" s="2" t="s">
-        <v>651</v>
+        <v>629</v>
       </c>
     </row>
     <row r="302">
@@ -12880,7 +13139,7 @@
         <v>653</v>
       </c>
       <c r="D302" s="2" t="s">
-        <v>651</v>
+        <v>629</v>
       </c>
     </row>
     <row r="303">
@@ -12891,7 +13150,7 @@
         <v>655</v>
       </c>
       <c r="D303" s="2" t="s">
-        <v>651</v>
+        <v>629</v>
       </c>
     </row>
     <row r="304">
@@ -12902,7 +13161,7 @@
         <v>657</v>
       </c>
       <c r="D304" s="2" t="s">
-        <v>651</v>
+        <v>629</v>
       </c>
     </row>
     <row r="305">
@@ -12913,271 +13172,271 @@
         <v>659</v>
       </c>
       <c r="D305" s="2" t="s">
-        <v>660</v>
+        <v>629</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" s="2" t="s">
+        <v>660</v>
+      </c>
+      <c r="C306" s="2" t="s">
         <v>661</v>
       </c>
-      <c r="C306" s="2" t="s">
-        <v>662</v>
-      </c>
       <c r="D306" s="2" t="s">
-        <v>663</v>
+        <v>629</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" s="2" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="C307" s="2" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="D307" s="2" t="s">
-        <v>663</v>
+        <v>629</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" s="2" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="C308" s="2" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="D308" s="2" t="s">
-        <v>668</v>
+        <v>629</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" s="2" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="C309" s="2" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="D309" s="2" t="s">
-        <v>671</v>
+        <v>629</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" s="2" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="C310" s="2" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
       <c r="D310" s="2" t="s">
-        <v>674</v>
+        <v>629</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" s="2" t="s">
-        <v>675</v>
+        <v>670</v>
       </c>
       <c r="C311" s="2" t="s">
-        <v>676</v>
+        <v>671</v>
       </c>
       <c r="D311" s="2" t="s">
-        <v>677</v>
+        <v>629</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" s="2" t="s">
-        <v>678</v>
+        <v>672</v>
       </c>
       <c r="C312" s="2" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="D312" s="2" t="s">
-        <v>680</v>
+        <v>629</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" s="2" t="s">
-        <v>681</v>
+        <v>674</v>
       </c>
       <c r="C313" s="2" t="s">
-        <v>682</v>
+        <v>675</v>
       </c>
       <c r="D313" s="2" t="s">
-        <v>683</v>
+        <v>629</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" s="2" t="s">
-        <v>684</v>
+        <v>676</v>
       </c>
       <c r="C314" s="2" t="s">
-        <v>685</v>
+        <v>677</v>
       </c>
       <c r="D314" s="2" t="s">
-        <v>686</v>
+        <v>678</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" s="2" t="s">
-        <v>687</v>
+        <v>679</v>
       </c>
       <c r="C315" s="2" t="s">
-        <v>688</v>
+        <v>680</v>
       </c>
       <c r="D315" s="2" t="s">
-        <v>689</v>
+        <v>678</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" s="2" t="s">
-        <v>690</v>
+        <v>681</v>
       </c>
       <c r="C316" s="2" t="s">
-        <v>691</v>
+        <v>682</v>
       </c>
       <c r="D316" s="2" t="s">
-        <v>692</v>
+        <v>678</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" s="2" t="s">
-        <v>693</v>
+        <v>683</v>
       </c>
       <c r="C317" s="2" t="s">
-        <v>694</v>
+        <v>684</v>
       </c>
       <c r="D317" s="2" t="s">
-        <v>692</v>
+        <v>678</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" s="2" t="s">
-        <v>695</v>
+        <v>685</v>
       </c>
       <c r="C318" s="2" t="s">
-        <v>696</v>
+        <v>686</v>
       </c>
       <c r="D318" s="2" t="s">
-        <v>692</v>
+        <v>687</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" s="2" t="s">
-        <v>697</v>
+        <v>688</v>
       </c>
       <c r="C319" s="2" t="s">
-        <v>698</v>
+        <v>689</v>
       </c>
       <c r="D319" s="2" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" s="2" t="s">
-        <v>699</v>
+        <v>691</v>
       </c>
       <c r="C320" s="2" t="s">
-        <v>700</v>
+        <v>692</v>
       </c>
       <c r="D320" s="2" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" s="2" t="s">
-        <v>701</v>
+        <v>693</v>
       </c>
       <c r="C321" s="2" t="s">
-        <v>702</v>
+        <v>694</v>
       </c>
       <c r="D321" s="2" t="s">
-        <v>692</v>
+        <v>695</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" s="2" t="s">
-        <v>703</v>
+        <v>696</v>
       </c>
       <c r="C322" s="2" t="s">
-        <v>704</v>
+        <v>697</v>
       </c>
       <c r="D322" s="2" t="s">
-        <v>705</v>
+        <v>698</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" s="2" t="s">
-        <v>706</v>
+        <v>699</v>
       </c>
       <c r="C323" s="2" t="s">
-        <v>707</v>
+        <v>700</v>
       </c>
       <c r="D323" s="2" t="s">
-        <v>692</v>
+        <v>701</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" s="2" t="s">
-        <v>708</v>
+        <v>702</v>
       </c>
       <c r="C324" s="2" t="s">
-        <v>709</v>
+        <v>703</v>
       </c>
       <c r="D324" s="2" t="s">
-        <v>692</v>
+        <v>704</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" s="2" t="s">
-        <v>710</v>
+        <v>705</v>
       </c>
       <c r="C325" s="2" t="s">
-        <v>711</v>
+        <v>706</v>
       </c>
       <c r="D325" s="2" t="s">
-        <v>692</v>
+        <v>707</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" s="2" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="C326" s="2" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="D326" s="2" t="s">
-        <v>705</v>
+        <v>710</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" s="2" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="C327" s="2" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="D327" s="2" t="s">
-        <v>705</v>
+        <v>713</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" s="2" t="s">
+        <v>714</v>
+      </c>
+      <c r="C328" s="2" t="s">
+        <v>715</v>
+      </c>
+      <c r="D328" s="2" t="s">
         <v>716</v>
-      </c>
-      <c r="C328" s="2" t="s">
-        <v>717</v>
-      </c>
-      <c r="D328" s="2" t="s">
-        <v>705</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" s="2" t="s">
+        <v>717</v>
+      </c>
+      <c r="C329" s="2" t="s">
         <v>718</v>
       </c>
-      <c r="C329" s="2" t="s">
+      <c r="D329" s="2" t="s">
         <v>719</v>
-      </c>
-      <c r="D329" s="2" t="s">
-        <v>705</v>
       </c>
     </row>
     <row r="330">
@@ -13188,236 +13447,238 @@
         <v>721</v>
       </c>
       <c r="D330" s="2" t="s">
-        <v>705</v>
+        <v>722</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" s="2" t="s">
+        <v>723</v>
+      </c>
+      <c r="C331" s="2" t="s">
+        <v>724</v>
+      </c>
+      <c r="D331" s="2" t="s">
         <v>722</v>
-      </c>
-      <c r="C331" s="2" t="s">
-        <v>723</v>
-      </c>
-      <c r="D331" s="2" t="s">
-        <v>705</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" s="2" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="C332" s="2" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="D332" s="2" t="s">
-        <v>705</v>
+        <v>722</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" s="2" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="C333" s="2" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="D333" s="2" t="s">
-        <v>705</v>
+        <v>722</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" s="2" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="C334" s="2" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="D334" s="2" t="s">
-        <v>705</v>
+        <v>722</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" s="2" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="C335" s="2" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="D335" s="2" t="s">
-        <v>705</v>
+        <v>722</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" s="2" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="C336" s="2" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="D336" s="2" t="s">
-        <v>705</v>
+        <v>735</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" s="2" t="s">
-        <v>734</v>
+        <v>736</v>
       </c>
       <c r="C337" s="2" t="s">
-        <v>735</v>
+        <v>737</v>
       </c>
       <c r="D337" s="2" t="s">
-        <v>705</v>
+        <v>722</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" s="2" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="C338" s="2" t="s">
-        <v>737</v>
-      </c>
-      <c r="D338" s="2"/>
+        <v>739</v>
+      </c>
+      <c r="D338" s="2" t="s">
+        <v>722</v>
+      </c>
     </row>
     <row r="339">
       <c r="A339" s="2" t="s">
-        <v>738</v>
+        <v>740</v>
       </c>
       <c r="C339" s="2" t="s">
-        <v>739</v>
+        <v>741</v>
       </c>
       <c r="D339" s="2" t="s">
-        <v>705</v>
+        <v>722</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" s="2" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
       <c r="C340" s="2" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
       <c r="D340" s="2" t="s">
-        <v>705</v>
+        <v>735</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" s="2" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
       <c r="C341" s="2" t="s">
-        <v>743</v>
+        <v>745</v>
       </c>
       <c r="D341" s="2" t="s">
-        <v>705</v>
+        <v>735</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" s="2" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
       <c r="C342" s="2" t="s">
-        <v>745</v>
+        <v>747</v>
       </c>
       <c r="D342" s="2" t="s">
-        <v>705</v>
+        <v>735</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" s="2" t="s">
-        <v>746</v>
+        <v>748</v>
       </c>
       <c r="C343" s="2" t="s">
-        <v>747</v>
+        <v>749</v>
       </c>
       <c r="D343" s="2" t="s">
-        <v>705</v>
+        <v>735</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" s="2" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="C344" s="2" t="s">
-        <v>749</v>
+        <v>751</v>
       </c>
       <c r="D344" s="2" t="s">
-        <v>705</v>
+        <v>735</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" s="2" t="s">
-        <v>750</v>
+        <v>752</v>
       </c>
       <c r="C345" s="2" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="D345" s="2" t="s">
-        <v>705</v>
+        <v>735</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" s="2" t="s">
-        <v>752</v>
+        <v>754</v>
       </c>
       <c r="C346" s="2" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="D346" s="2" t="s">
-        <v>705</v>
+        <v>735</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" s="2" t="s">
-        <v>754</v>
+        <v>756</v>
       </c>
       <c r="C347" s="2" t="s">
-        <v>755</v>
+        <v>757</v>
       </c>
       <c r="D347" s="2" t="s">
-        <v>705</v>
+        <v>735</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" s="2" t="s">
-        <v>756</v>
+        <v>758</v>
       </c>
       <c r="C348" s="2" t="s">
-        <v>757</v>
+        <v>759</v>
       </c>
       <c r="D348" s="2" t="s">
-        <v>705</v>
+        <v>735</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" s="2" t="s">
-        <v>758</v>
+        <v>760</v>
       </c>
       <c r="C349" s="2" t="s">
-        <v>759</v>
+        <v>761</v>
       </c>
       <c r="D349" s="2" t="s">
-        <v>705</v>
+        <v>735</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" s="2" t="s">
-        <v>760</v>
+        <v>762</v>
       </c>
       <c r="C350" s="2" t="s">
-        <v>761</v>
+        <v>763</v>
       </c>
       <c r="D350" s="2" t="s">
-        <v>762</v>
+        <v>735</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" s="2" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="C351" s="2" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="D351" s="2" t="s">
-        <v>765</v>
+        <v>735</v>
       </c>
     </row>
     <row r="352">
@@ -13428,7 +13689,7 @@
         <v>767</v>
       </c>
       <c r="D352" s="2" t="s">
-        <v>765</v>
+        <v>735</v>
       </c>
     </row>
     <row r="353">
@@ -13439,7 +13700,7 @@
         <v>769</v>
       </c>
       <c r="D353" s="2" t="s">
-        <v>765</v>
+        <v>735</v>
       </c>
     </row>
     <row r="354">
@@ -13450,126 +13711,128 @@
         <v>771</v>
       </c>
       <c r="D354" s="2" t="s">
-        <v>772</v>
+        <v>735</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" s="2" t="s">
+        <v>772</v>
+      </c>
+      <c r="C355" s="2" t="s">
         <v>773</v>
       </c>
-      <c r="C355" s="2" t="s">
-        <v>774</v>
-      </c>
       <c r="D355" s="2" t="s">
-        <v>765</v>
+        <v>735</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" s="2" t="s">
+        <v>774</v>
+      </c>
+      <c r="C356" s="2" t="s">
         <v>775</v>
       </c>
-      <c r="C356" s="2" t="s">
-        <v>776</v>
-      </c>
       <c r="D356" s="2" t="s">
-        <v>765</v>
+        <v>735</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" s="2" t="s">
+        <v>776</v>
+      </c>
+      <c r="C357" s="2" t="s">
         <v>777</v>
       </c>
-      <c r="C357" s="2" t="s">
-        <v>778</v>
-      </c>
       <c r="D357" s="2" t="s">
-        <v>772</v>
+        <v>735</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" s="2" t="s">
+        <v>778</v>
+      </c>
+      <c r="C358" s="2" t="s">
         <v>779</v>
       </c>
-      <c r="C358" s="2" t="s">
-        <v>780</v>
-      </c>
       <c r="D358" s="2" t="s">
-        <v>765</v>
+        <v>735</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" s="2" t="s">
+        <v>780</v>
+      </c>
+      <c r="C359" s="2" t="s">
         <v>781</v>
       </c>
-      <c r="C359" s="2" t="s">
-        <v>782</v>
-      </c>
       <c r="D359" s="2" t="s">
-        <v>765</v>
+        <v>735</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" s="2" t="s">
+        <v>782</v>
+      </c>
+      <c r="C360" s="2" t="s">
         <v>783</v>
       </c>
-      <c r="C360" s="2" t="s">
-        <v>784</v>
-      </c>
       <c r="D360" s="2" t="s">
-        <v>772</v>
+        <v>735</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" s="2" t="s">
+        <v>784</v>
+      </c>
+      <c r="C361" s="2" t="s">
         <v>785</v>
       </c>
-      <c r="C361" s="2" t="s">
-        <v>786</v>
-      </c>
       <c r="D361" s="2" t="s">
-        <v>765</v>
+        <v>735</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" s="2" t="s">
+        <v>786</v>
+      </c>
+      <c r="C362" s="2" t="s">
         <v>787</v>
       </c>
-      <c r="C362" s="2" t="s">
-        <v>788</v>
-      </c>
-      <c r="D362" s="2"/>
+      <c r="D362" s="2" t="s">
+        <v>735</v>
+      </c>
     </row>
     <row r="363">
       <c r="A363" s="2" t="s">
+        <v>788</v>
+      </c>
+      <c r="C363" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="C363" s="2" t="s">
-        <v>790</v>
-      </c>
       <c r="D363" s="2" t="s">
-        <v>791</v>
+        <v>735</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" s="2" t="s">
+        <v>790</v>
+      </c>
+      <c r="C364" s="2" t="s">
+        <v>791</v>
+      </c>
+      <c r="D364" s="2" t="s">
         <v>792</v>
-      </c>
-      <c r="C364" s="2" t="s">
-        <v>793</v>
-      </c>
-      <c r="D364" s="2" t="s">
-        <v>772</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" s="2" t="s">
+        <v>793</v>
+      </c>
+      <c r="C365" s="2" t="s">
         <v>794</v>
       </c>
-      <c r="C365" s="2" t="s">
+      <c r="D365" s="2" t="s">
         <v>795</v>
-      </c>
-      <c r="D365" s="2" t="s">
-        <v>765</v>
       </c>
     </row>
     <row r="366">
@@ -13580,7 +13843,7 @@
         <v>797</v>
       </c>
       <c r="D366" s="2" t="s">
-        <v>765</v>
+        <v>795</v>
       </c>
     </row>
     <row r="367">
@@ -13591,7 +13854,7 @@
         <v>799</v>
       </c>
       <c r="D367" s="2" t="s">
-        <v>791</v>
+        <v>795</v>
       </c>
     </row>
     <row r="368">
@@ -13602,29 +13865,29 @@
         <v>801</v>
       </c>
       <c r="D368" s="2" t="s">
-        <v>791</v>
+        <v>802</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" s="2" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="C369" s="2" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="D369" s="2" t="s">
-        <v>791</v>
+        <v>795</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" s="2" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="C370" s="2" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="D370" s="2" t="s">
-        <v>806</v>
+        <v>795</v>
       </c>
     </row>
     <row r="371">
@@ -13635,7 +13898,7 @@
         <v>808</v>
       </c>
       <c r="D371" s="2" t="s">
-        <v>806</v>
+        <v>802</v>
       </c>
     </row>
     <row r="372">
@@ -13646,192 +13909,192 @@
         <v>810</v>
       </c>
       <c r="D372" s="2" t="s">
-        <v>811</v>
+        <v>795</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" s="2" t="s">
+        <v>811</v>
+      </c>
+      <c r="C373" s="2" t="s">
         <v>812</v>
       </c>
-      <c r="C373" s="2" t="s">
-        <v>813</v>
-      </c>
       <c r="D373" s="2" t="s">
-        <v>814</v>
+        <v>795</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" s="2" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="C374" s="2" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="D374" s="2" t="s">
-        <v>817</v>
+        <v>802</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" s="2" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
       <c r="C375" s="2" t="s">
-        <v>819</v>
+        <v>816</v>
       </c>
       <c r="D375" s="2" t="s">
-        <v>820</v>
+        <v>795</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" s="2" t="s">
-        <v>821</v>
+        <v>817</v>
       </c>
       <c r="C376" s="2" t="s">
-        <v>822</v>
-      </c>
-      <c r="D376" s="2" t="s">
-        <v>820</v>
-      </c>
+        <v>818</v>
+      </c>
+      <c r="D376" s="2"/>
     </row>
     <row r="377">
       <c r="A377" s="2" t="s">
-        <v>823</v>
+        <v>819</v>
       </c>
       <c r="C377" s="2" t="s">
-        <v>824</v>
+        <v>820</v>
       </c>
       <c r="D377" s="2" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" s="2" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
       <c r="C378" s="2" t="s">
-        <v>826</v>
+        <v>823</v>
       </c>
       <c r="D378" s="2" t="s">
-        <v>820</v>
+        <v>802</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" s="2" t="s">
-        <v>827</v>
+        <v>824</v>
       </c>
       <c r="C379" s="2" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
       <c r="D379" s="2" t="s">
-        <v>820</v>
+        <v>795</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" s="2" t="s">
-        <v>829</v>
+        <v>826</v>
       </c>
       <c r="C380" s="2" t="s">
-        <v>830</v>
+        <v>827</v>
       </c>
       <c r="D380" s="2" t="s">
-        <v>820</v>
+        <v>795</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" s="2" t="s">
-        <v>831</v>
+        <v>828</v>
       </c>
       <c r="C381" s="2" t="s">
-        <v>832</v>
+        <v>829</v>
       </c>
       <c r="D381" s="2" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" s="2" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
       <c r="C382" s="2" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
       <c r="D382" s="2" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" s="2" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
       <c r="C383" s="2" t="s">
-        <v>836</v>
+        <v>833</v>
       </c>
       <c r="D383" s="2" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" s="2" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="C384" s="2" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
       <c r="D384" s="2" t="s">
-        <v>820</v>
+        <v>836</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" s="2" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="C385" s="2" t="s">
-        <v>840</v>
-      </c>
-      <c r="D385" s="2"/>
+        <v>838</v>
+      </c>
+      <c r="D385" s="2" t="s">
+        <v>836</v>
+      </c>
     </row>
     <row r="386">
       <c r="A386" s="2" t="s">
+        <v>839</v>
+      </c>
+      <c r="C386" s="2" t="s">
+        <v>840</v>
+      </c>
+      <c r="D386" s="2" t="s">
         <v>841</v>
-      </c>
-      <c r="C386" s="2" t="s">
-        <v>842</v>
-      </c>
-      <c r="D386" s="2" t="s">
-        <v>843</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" s="2" t="s">
+        <v>842</v>
+      </c>
+      <c r="C387" s="2" t="s">
+        <v>843</v>
+      </c>
+      <c r="D387" s="2" t="s">
         <v>844</v>
-      </c>
-      <c r="C387" s="2" t="s">
-        <v>845</v>
-      </c>
-      <c r="D387" s="2" t="s">
-        <v>846</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" s="2" t="s">
+        <v>845</v>
+      </c>
+      <c r="C388" s="2" t="s">
+        <v>846</v>
+      </c>
+      <c r="D388" s="2" t="s">
         <v>847</v>
-      </c>
-      <c r="C388" s="2" t="s">
-        <v>848</v>
-      </c>
-      <c r="D388" s="2" t="s">
-        <v>846</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" s="2" t="s">
+        <v>848</v>
+      </c>
+      <c r="C389" s="2" t="s">
         <v>849</v>
       </c>
-      <c r="C389" s="2" t="s">
+      <c r="D389" s="2" t="s">
         <v>850</v>
-      </c>
-      <c r="D389" s="2" t="s">
-        <v>846</v>
       </c>
     </row>
     <row r="390">
@@ -13842,524 +14105,711 @@
         <v>852</v>
       </c>
       <c r="D390" s="2" t="s">
-        <v>853</v>
+        <v>850</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" s="2" t="s">
+        <v>853</v>
+      </c>
+      <c r="C391" s="2" t="s">
         <v>854</v>
       </c>
-      <c r="C391" s="2" t="s">
-        <v>855</v>
-      </c>
       <c r="D391" s="2" t="s">
-        <v>856</v>
+        <v>850</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" s="2" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="C392" s="2" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="D392" s="2" t="s">
-        <v>859</v>
+        <v>850</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" s="2" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
       <c r="C393" s="2" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="D393" s="2" t="s">
-        <v>859</v>
+        <v>850</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" s="2" t="s">
-        <v>862</v>
+        <v>859</v>
       </c>
       <c r="C394" s="2" t="s">
-        <v>863</v>
+        <v>860</v>
       </c>
       <c r="D394" s="2" t="s">
-        <v>864</v>
+        <v>850</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" s="2" t="s">
-        <v>865</v>
+        <v>861</v>
       </c>
       <c r="C395" s="2" t="s">
-        <v>866</v>
+        <v>862</v>
       </c>
       <c r="D395" s="2" t="s">
-        <v>867</v>
+        <v>850</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" s="2" t="s">
-        <v>868</v>
+        <v>863</v>
       </c>
       <c r="C396" s="2" t="s">
-        <v>869</v>
+        <v>864</v>
       </c>
       <c r="D396" s="2" t="s">
-        <v>870</v>
+        <v>850</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" s="2" t="s">
-        <v>871</v>
+        <v>865</v>
       </c>
       <c r="C397" s="2" t="s">
-        <v>872</v>
+        <v>866</v>
       </c>
       <c r="D397" s="2" t="s">
-        <v>873</v>
+        <v>850</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" s="2" t="s">
-        <v>874</v>
+        <v>867</v>
       </c>
       <c r="C398" s="2" t="s">
-        <v>875</v>
+        <v>868</v>
       </c>
       <c r="D398" s="2" t="s">
-        <v>876</v>
+        <v>850</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" s="2" t="s">
-        <v>877</v>
+        <v>869</v>
       </c>
       <c r="C399" s="2" t="s">
-        <v>878</v>
+        <v>870</v>
       </c>
       <c r="D399" s="2" t="s">
-        <v>876</v>
+        <v>871</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" s="2" t="s">
-        <v>879</v>
+        <v>872</v>
       </c>
       <c r="C400" s="2" t="s">
-        <v>880</v>
+        <v>873</v>
       </c>
       <c r="D400" s="2" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" s="2" t="s">
-        <v>881</v>
+        <v>875</v>
       </c>
       <c r="C401" s="2" t="s">
-        <v>882</v>
+        <v>876</v>
       </c>
       <c r="D401" s="2" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" s="2" t="s">
-        <v>883</v>
+        <v>878</v>
       </c>
       <c r="C402" s="2" t="s">
-        <v>884</v>
+        <v>879</v>
       </c>
       <c r="D402" s="2" t="s">
-        <v>885</v>
+        <v>877</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" s="2" t="s">
-        <v>886</v>
+        <v>880</v>
       </c>
       <c r="C403" s="2" t="s">
-        <v>887</v>
+        <v>881</v>
       </c>
       <c r="D403" s="2" t="s">
-        <v>169</v>
+        <v>877</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" s="2" t="s">
-        <v>888</v>
+        <v>882</v>
       </c>
       <c r="C404" s="2" t="s">
-        <v>889</v>
+        <v>883</v>
       </c>
       <c r="D404" s="2" t="s">
-        <v>890</v>
+        <v>884</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" s="2" t="s">
-        <v>891</v>
+        <v>885</v>
       </c>
       <c r="C405" s="2" t="s">
-        <v>892</v>
+        <v>886</v>
       </c>
       <c r="D405" s="2" t="s">
-        <v>893</v>
+        <v>887</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" s="2" t="s">
-        <v>894</v>
+        <v>888</v>
       </c>
       <c r="C406" s="2" t="s">
-        <v>895</v>
+        <v>889</v>
       </c>
       <c r="D406" s="2" t="s">
-        <v>896</v>
+        <v>890</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" s="2" t="s">
-        <v>897</v>
+        <v>891</v>
       </c>
       <c r="C407" s="2" t="s">
-        <v>898</v>
+        <v>892</v>
       </c>
       <c r="D407" s="2" t="s">
-        <v>899</v>
+        <v>890</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" s="2" t="s">
-        <v>900</v>
+        <v>893</v>
       </c>
       <c r="C408" s="2" t="s">
-        <v>901</v>
+        <v>894</v>
       </c>
       <c r="D408" s="2" t="s">
-        <v>902</v>
+        <v>895</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" s="2" t="s">
-        <v>903</v>
+        <v>896</v>
       </c>
       <c r="C409" s="2" t="s">
-        <v>904</v>
+        <v>897</v>
       </c>
       <c r="D409" s="2" t="s">
-        <v>902</v>
+        <v>898</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" s="2" t="s">
-        <v>905</v>
+        <v>899</v>
       </c>
       <c r="C410" s="2" t="s">
-        <v>906</v>
+        <v>900</v>
       </c>
       <c r="D410" s="2" t="s">
-        <v>907</v>
+        <v>901</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" s="2" t="s">
-        <v>908</v>
+        <v>902</v>
       </c>
       <c r="C411" s="2" t="s">
-        <v>909</v>
+        <v>903</v>
       </c>
       <c r="D411" s="2" t="s">
-        <v>910</v>
+        <v>904</v>
       </c>
     </row>
     <row r="412">
       <c r="A412" s="2" t="s">
-        <v>911</v>
+        <v>905</v>
       </c>
       <c r="C412" s="2" t="s">
-        <v>912</v>
+        <v>906</v>
       </c>
       <c r="D412" s="2" t="s">
-        <v>913</v>
+        <v>907</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" s="2" t="s">
-        <v>914</v>
+        <v>908</v>
       </c>
       <c r="C413" s="2" t="s">
-        <v>915</v>
+        <v>909</v>
       </c>
       <c r="D413" s="2" t="s">
-        <v>916</v>
+        <v>907</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" s="2" t="s">
-        <v>917</v>
+        <v>910</v>
       </c>
       <c r="C414" s="2" t="s">
-        <v>918</v>
+        <v>911</v>
       </c>
       <c r="D414" s="2" t="s">
-        <v>919</v>
+        <v>904</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" s="2" t="s">
-        <v>920</v>
+        <v>912</v>
       </c>
       <c r="C415" s="2" t="s">
-        <v>921</v>
+        <v>913</v>
       </c>
       <c r="D415" s="2" t="s">
-        <v>922</v>
+        <v>907</v>
       </c>
     </row>
     <row r="416">
       <c r="A416" s="2" t="s">
-        <v>923</v>
+        <v>914</v>
       </c>
       <c r="C416" s="2" t="s">
-        <v>924</v>
+        <v>915</v>
       </c>
       <c r="D416" s="2" t="s">
-        <v>925</v>
+        <v>916</v>
       </c>
     </row>
     <row r="417">
       <c r="A417" s="2" t="s">
-        <v>926</v>
+        <v>917</v>
       </c>
       <c r="C417" s="2" t="s">
-        <v>927</v>
+        <v>918</v>
       </c>
       <c r="D417" s="2" t="s">
-        <v>928</v>
+        <v>169</v>
       </c>
     </row>
     <row r="418">
       <c r="A418" s="2" t="s">
-        <v>929</v>
+        <v>919</v>
       </c>
       <c r="C418" s="2" t="s">
-        <v>930</v>
+        <v>920</v>
       </c>
       <c r="D418" s="2" t="s">
-        <v>931</v>
+        <v>921</v>
       </c>
     </row>
     <row r="419">
       <c r="A419" s="2" t="s">
-        <v>932</v>
+        <v>922</v>
       </c>
       <c r="C419" s="2" t="s">
-        <v>933</v>
+        <v>923</v>
       </c>
       <c r="D419" s="2" t="s">
-        <v>934</v>
+        <v>924</v>
       </c>
     </row>
     <row r="420">
       <c r="A420" s="2" t="s">
-        <v>935</v>
+        <v>925</v>
       </c>
       <c r="C420" s="2" t="s">
-        <v>936</v>
+        <v>926</v>
       </c>
       <c r="D420" s="2" t="s">
-        <v>937</v>
+        <v>927</v>
       </c>
     </row>
     <row r="421">
       <c r="A421" s="2" t="s">
-        <v>938</v>
+        <v>928</v>
       </c>
       <c r="C421" s="2" t="s">
-        <v>939</v>
+        <v>929</v>
       </c>
       <c r="D421" s="2" t="s">
-        <v>940</v>
+        <v>930</v>
       </c>
     </row>
     <row r="422">
       <c r="A422" s="2" t="s">
-        <v>941</v>
+        <v>931</v>
       </c>
       <c r="C422" s="2" t="s">
-        <v>942</v>
+        <v>932</v>
       </c>
       <c r="D422" s="2" t="s">
-        <v>943</v>
+        <v>933</v>
       </c>
     </row>
     <row r="423">
       <c r="A423" s="2" t="s">
-        <v>944</v>
+        <v>934</v>
       </c>
       <c r="C423" s="2" t="s">
-        <v>945</v>
+        <v>935</v>
       </c>
       <c r="D423" s="2" t="s">
-        <v>946</v>
+        <v>933</v>
       </c>
     </row>
     <row r="424">
       <c r="A424" s="2" t="s">
-        <v>947</v>
+        <v>936</v>
       </c>
       <c r="C424" s="2" t="s">
-        <v>948</v>
+        <v>937</v>
       </c>
       <c r="D424" s="2" t="s">
-        <v>949</v>
+        <v>938</v>
       </c>
     </row>
     <row r="425">
       <c r="A425" s="2" t="s">
-        <v>950</v>
+        <v>939</v>
       </c>
       <c r="C425" s="2" t="s">
-        <v>951</v>
+        <v>940</v>
       </c>
       <c r="D425" s="2" t="s">
-        <v>952</v>
+        <v>941</v>
       </c>
     </row>
     <row r="426">
       <c r="A426" s="2" t="s">
-        <v>953</v>
+        <v>942</v>
       </c>
       <c r="C426" s="2" t="s">
-        <v>954</v>
+        <v>943</v>
       </c>
       <c r="D426" s="2" t="s">
-        <v>955</v>
+        <v>944</v>
       </c>
     </row>
     <row r="427">
       <c r="A427" s="2" t="s">
-        <v>956</v>
+        <v>945</v>
       </c>
       <c r="C427" s="2" t="s">
-        <v>957</v>
+        <v>946</v>
       </c>
       <c r="D427" s="2" t="s">
-        <v>958</v>
+        <v>947</v>
       </c>
     </row>
     <row r="428">
       <c r="A428" s="2" t="s">
-        <v>959</v>
+        <v>948</v>
       </c>
       <c r="C428" s="2" t="s">
-        <v>960</v>
+        <v>949</v>
       </c>
       <c r="D428" s="2" t="s">
-        <v>961</v>
+        <v>950</v>
       </c>
     </row>
     <row r="429">
       <c r="A429" s="2" t="s">
-        <v>962</v>
+        <v>951</v>
       </c>
       <c r="C429" s="2" t="s">
-        <v>963</v>
+        <v>952</v>
       </c>
       <c r="D429" s="2" t="s">
-        <v>964</v>
+        <v>953</v>
       </c>
     </row>
     <row r="430">
       <c r="A430" s="2" t="s">
-        <v>965</v>
+        <v>954</v>
       </c>
       <c r="C430" s="2" t="s">
-        <v>966</v>
+        <v>955</v>
       </c>
       <c r="D430" s="2" t="s">
-        <v>967</v>
+        <v>956</v>
       </c>
     </row>
     <row r="431">
       <c r="A431" s="2" t="s">
-        <v>968</v>
+        <v>957</v>
       </c>
       <c r="C431" s="2" t="s">
-        <v>969</v>
+        <v>958</v>
       </c>
       <c r="D431" s="2" t="s">
-        <v>970</v>
+        <v>959</v>
       </c>
     </row>
     <row r="432">
       <c r="A432" s="2" t="s">
-        <v>971</v>
+        <v>960</v>
       </c>
       <c r="C432" s="2" t="s">
-        <v>972</v>
+        <v>961</v>
       </c>
       <c r="D432" s="2" t="s">
-        <v>973</v>
+        <v>962</v>
       </c>
     </row>
     <row r="433">
       <c r="A433" s="2" t="s">
-        <v>974</v>
+        <v>963</v>
       </c>
       <c r="C433" s="2" t="s">
-        <v>975</v>
+        <v>964</v>
       </c>
       <c r="D433" s="2" t="s">
-        <v>976</v>
+        <v>965</v>
       </c>
     </row>
     <row r="434">
       <c r="A434" s="2" t="s">
-        <v>977</v>
+        <v>966</v>
       </c>
       <c r="C434" s="2" t="s">
-        <v>978</v>
+        <v>967</v>
       </c>
       <c r="D434" s="2" t="s">
-        <v>979</v>
+        <v>968</v>
       </c>
     </row>
     <row r="435">
       <c r="A435" s="2" t="s">
-        <v>980</v>
+        <v>969</v>
       </c>
       <c r="C435" s="2" t="s">
-        <v>981</v>
+        <v>970</v>
       </c>
       <c r="D435" s="2" t="s">
-        <v>982</v>
+        <v>971</v>
       </c>
     </row>
     <row r="436">
       <c r="A436" s="2" t="s">
-        <v>983</v>
+        <v>972</v>
       </c>
       <c r="C436" s="2" t="s">
-        <v>984</v>
+        <v>973</v>
       </c>
       <c r="D436" s="2" t="s">
-        <v>985</v>
+        <v>974</v>
       </c>
     </row>
     <row r="437">
       <c r="A437" s="2" t="s">
+        <v>975</v>
+      </c>
+      <c r="C437" s="2" t="s">
+        <v>976</v>
+      </c>
+      <c r="D437" s="2" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" s="2" t="s">
+        <v>978</v>
+      </c>
+      <c r="C438" s="2" t="s">
+        <v>979</v>
+      </c>
+      <c r="D438" s="2" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" s="2" t="s">
+        <v>981</v>
+      </c>
+      <c r="C439" s="2" t="s">
+        <v>982</v>
+      </c>
+      <c r="D439" s="2" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" s="2" t="s">
+        <v>984</v>
+      </c>
+      <c r="C440" s="2" t="s">
+        <v>985</v>
+      </c>
+      <c r="D440" s="2" t="s">
         <v>986</v>
       </c>
-      <c r="C437" s="2" t="s">
+    </row>
+    <row r="441">
+      <c r="A441" s="2" t="s">
         <v>987</v>
       </c>
-      <c r="D437" s="2" t="s">
+      <c r="C441" s="2" t="s">
         <v>988</v>
+      </c>
+      <c r="D441" s="2" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" s="2" t="s">
+        <v>990</v>
+      </c>
+      <c r="C442" s="2" t="s">
+        <v>991</v>
+      </c>
+      <c r="D442" s="2" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" s="2" t="s">
+        <v>993</v>
+      </c>
+      <c r="C443" s="2" t="s">
+        <v>994</v>
+      </c>
+      <c r="D443" s="2" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" s="2" t="s">
+        <v>996</v>
+      </c>
+      <c r="C444" s="2" t="s">
+        <v>997</v>
+      </c>
+      <c r="D444" s="2" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" s="2" t="s">
+        <v>999</v>
+      </c>
+      <c r="C445" s="2" t="s">
+        <v>1000</v>
+      </c>
+      <c r="D445" s="2" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" s="2" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C446" s="2" t="s">
+        <v>1003</v>
+      </c>
+      <c r="D446" s="2" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" s="2" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C447" s="2" t="s">
+        <v>1006</v>
+      </c>
+      <c r="D447" s="2" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" s="2" t="s">
+        <v>1008</v>
+      </c>
+      <c r="C448" s="2" t="s">
+        <v>1009</v>
+      </c>
+      <c r="D448" s="2" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" s="2" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C449" s="2" t="s">
+        <v>1012</v>
+      </c>
+      <c r="D449" s="2" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" s="2" t="s">
+        <v>1014</v>
+      </c>
+      <c r="C450" s="2" t="s">
+        <v>1015</v>
+      </c>
+      <c r="D450" s="2" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" s="2" t="s">
+        <v>1017</v>
+      </c>
+      <c r="C451" s="2" t="s">
+        <v>1018</v>
+      </c>
+      <c r="D451" s="2" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" s="2" t="s">
+        <v>1020</v>
+      </c>
+      <c r="C452" s="2" t="s">
+        <v>1021</v>
+      </c>
+      <c r="D452" s="2" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" s="2" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C453" s="2" t="s">
+        <v>1024</v>
+      </c>
+      <c r="D453" s="2" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" s="2" t="s">
+        <v>1025</v>
+      </c>
+      <c r="C454" s="2" t="s">
+        <v>1026</v>
+      </c>
+      <c r="D454" s="2" t="s">
+        <v>1027</v>
       </c>
     </row>
   </sheetData>
@@ -14398,18 +14848,18 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>989</v>
+        <v>1028</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>990</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>991</v>
+        <v>1030</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>992</v>
+        <v>1031</v>
       </c>
     </row>
   </sheetData>

--- a/csv/merge.xlsx
+++ b/csv/merge.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1334" uniqueCount="1032">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1337" uniqueCount="1035">
   <si>
     <t>JP Text (DO NOT CHANGE)</t>
   </si>
@@ -9516,6 +9516,55 @@
   </si>
   <si>
     <t>Hall of Invitation portal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">　破魔石を１０個　集めて
+　導きの水晶から　戦いに挑むのです。
+&lt;br&gt;
+「私に　何かできることはありますか？
+&lt;select&gt;
+もちものを交換する
+破魔石を落とす魔物について
+神槍について
+ユリエルについて
+&lt;select_end&gt;
+&lt;case 1&gt;
+&lt;break&gt;
+&lt;case 2&gt;
+&lt;break&gt;
+&lt;case 3&gt;
+&lt;break&gt;
+&lt;case 4&gt;
+&lt;break&gt;
+&lt;case_cancel&gt;
+&lt;break&gt;
+&lt;case_end&gt;</t>
+  </si>
+  <si>
+    <t>&lt;attr&gt;&lt;feel_normal_one&gt;&lt;end_attr&gt;Welcome back. You'll need to gather 10 Demon
+Orbs and use them at any of the Guidance
+Crystals if you'd like to do battle.
+&lt;br&gt;
+Is there something I can do for you?
+&lt;select&gt;
+Item Exchange
+Which monsters drop Demon Orbs?
+About Yuriel
+&lt;select_end&gt;
+&lt;case 1&gt;
+&lt;break&gt;
+&lt;case 2&gt;
+&lt;break&gt;
+&lt;case 3&gt;
+&lt;break&gt;
+&lt;case 4&gt;
+&lt;break&gt;
+&lt;case_cancel&gt;
+&lt;break&gt;
+&lt;case_end&gt;</t>
+  </si>
+  <si>
+    <t>Skyscraper Tomb exchanger (BAD STRING)</t>
   </si>
   <si>
     <t>メインコマンド『せんれき』の
@@ -14812,6 +14861,17 @@
         <v>1027</v>
       </c>
     </row>
+    <row r="455">
+      <c r="A455" s="2" t="s">
+        <v>1028</v>
+      </c>
+      <c r="C455" s="7" t="s">
+        <v>1029</v>
+      </c>
+      <c r="D455" s="2" t="s">
+        <v>1030</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -14848,18 +14908,18 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>1028</v>
+        <v>1031</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>1029</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>1030</v>
+        <v>1033</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>1031</v>
+        <v>1034</v>
       </c>
     </row>
   </sheetData>

--- a/csv/merge.xlsx
+++ b/csv/merge.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1337" uniqueCount="1035">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1343" uniqueCount="1039">
   <si>
     <t>JP Text (DO NOT CHANGE)</t>
   </si>
@@ -5810,12 +5810,30 @@
     <t>Prologue skip</t>
   </si>
   <si>
+    <t>はじまりのエテーネの村のシナリオを
+スキップできます。他の種族として
+生き返るところから　ゲームを始めますか？&lt;yesno 2&gt;&lt;close&gt;6.0から1キャラ目でもスキップ可能になる選択肢はいいえがデフォルト</t>
+  </si>
+  <si>
+    <t>Skip the Ethene Village prologue? (This is
+not recommended for first time players!)
+&lt;yesno 2&gt;&lt;close&gt;</t>
+  </si>
+  <si>
     <t>本当に　はじまりのエテーネの村のシナリオを
 スキップしてよろしいですか？&lt;yesno&gt;&lt;close&gt;選択肢は「はい」デフォルト2キャラ目以降のスキップ確認メッセージ使用する想定</t>
   </si>
   <si>
     <t>Are you really sure you want to skip the
 Ethene Village prologue?&lt;yesno&gt;&lt;close&gt;</t>
+  </si>
+  <si>
+    <t>本当に　はじまりのエテーネの村のシナリオを
+スキップしてよろしいですか？&lt;yesno 2&gt;&lt;close&gt;</t>
+  </si>
+  <si>
+    <t>Are you really sure you want to skip the
+Ethene Village prologue?&lt;yesno 2&gt;&lt;close&gt;</t>
   </si>
   <si>
     <t>途中まで進めている　おはなしがあります。
@@ -12470,73 +12488,73 @@
         <v>508</v>
       </c>
       <c r="D237" s="2" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="C238" s="2" t="s">
         <v>510</v>
       </c>
-      <c r="C238" s="2" t="s">
-        <v>511</v>
-      </c>
       <c r="D238" s="2" t="s">
-        <v>512</v>
+        <v>504</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="2" t="s">
+        <v>511</v>
+      </c>
+      <c r="C239" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="D239" s="2" t="s">
         <v>513</v>
-      </c>
-      <c r="C239" s="2" t="s">
-        <v>514</v>
-      </c>
-      <c r="D239" s="2" t="s">
-        <v>515</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="C240" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="D240" s="2" t="s">
         <v>516</v>
-      </c>
-      <c r="C240" s="2" t="s">
-        <v>517</v>
-      </c>
-      <c r="D240" s="2" t="s">
-        <v>518</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="C241" s="2" t="s">
+        <v>518</v>
+      </c>
+      <c r="D241" s="2" t="s">
         <v>519</v>
-      </c>
-      <c r="C241" s="2" t="s">
-        <v>520</v>
-      </c>
-      <c r="D241" s="2" t="s">
-        <v>521</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="C242" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="D242" s="2" t="s">
         <v>522</v>
-      </c>
-      <c r="C242" s="2" t="s">
-        <v>523</v>
-      </c>
-      <c r="D242" s="2" t="s">
-        <v>521</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="C243" s="2" t="s">
         <v>524</v>
       </c>
-      <c r="C243" s="2" t="s">
+      <c r="D243" s="2" t="s">
         <v>525</v>
-      </c>
-      <c r="D243" s="2" t="s">
-        <v>521</v>
       </c>
     </row>
     <row r="244">
@@ -12547,54 +12565,54 @@
         <v>527</v>
       </c>
       <c r="D244" s="2" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="2" t="s">
+        <v>528</v>
+      </c>
+      <c r="C245" s="2" t="s">
         <v>529</v>
       </c>
-      <c r="C245" s="2" t="s">
-        <v>530</v>
-      </c>
       <c r="D245" s="2" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="C246" s="2" t="s">
         <v>531</v>
       </c>
-      <c r="C246" s="2" t="s">
+      <c r="D246" s="2" t="s">
         <v>532</v>
-      </c>
-      <c r="D246" s="2" t="s">
-        <v>533</v>
-      </c>
-      <c r="E246" s="2" t="s">
-        <v>534</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="2" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="C247" s="2" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="D247" s="2" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="2" t="s">
+        <v>535</v>
+      </c>
+      <c r="C248" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="D248" s="2" t="s">
         <v>537</v>
       </c>
-      <c r="C248" s="2" t="s">
+      <c r="E248" s="2" t="s">
         <v>538</v>
-      </c>
-      <c r="D248" s="2" t="s">
-        <v>533</v>
       </c>
     </row>
     <row r="249">
@@ -12605,7 +12623,7 @@
         <v>540</v>
       </c>
       <c r="D249" s="2" t="s">
-        <v>533</v>
+        <v>537</v>
       </c>
     </row>
     <row r="250">
@@ -12616,7 +12634,7 @@
         <v>542</v>
       </c>
       <c r="D250" s="2" t="s">
-        <v>533</v>
+        <v>537</v>
       </c>
     </row>
     <row r="251">
@@ -12627,7 +12645,7 @@
         <v>544</v>
       </c>
       <c r="D251" s="2" t="s">
-        <v>533</v>
+        <v>537</v>
       </c>
     </row>
     <row r="252">
@@ -12638,7 +12656,7 @@
         <v>546</v>
       </c>
       <c r="D252" s="2" t="s">
-        <v>533</v>
+        <v>537</v>
       </c>
     </row>
     <row r="253">
@@ -12649,7 +12667,7 @@
         <v>548</v>
       </c>
       <c r="D253" s="2" t="s">
-        <v>533</v>
+        <v>537</v>
       </c>
     </row>
     <row r="254">
@@ -12660,7 +12678,7 @@
         <v>550</v>
       </c>
       <c r="D254" s="2" t="s">
-        <v>533</v>
+        <v>537</v>
       </c>
     </row>
     <row r="255">
@@ -12671,7 +12689,7 @@
         <v>552</v>
       </c>
       <c r="D255" s="2" t="s">
-        <v>533</v>
+        <v>537</v>
       </c>
     </row>
     <row r="256">
@@ -12682,7 +12700,7 @@
         <v>554</v>
       </c>
       <c r="D256" s="2" t="s">
-        <v>533</v>
+        <v>537</v>
       </c>
     </row>
     <row r="257">
@@ -12693,29 +12711,29 @@
         <v>556</v>
       </c>
       <c r="D257" s="2" t="s">
-        <v>557</v>
+        <v>537</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="C258" s="2" t="s">
         <v>558</v>
       </c>
-      <c r="C258" s="2" t="s">
-        <v>559</v>
-      </c>
       <c r="D258" s="2" t="s">
-        <v>557</v>
+        <v>537</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="C259" s="2" t="s">
         <v>560</v>
       </c>
-      <c r="C259" s="2" t="s">
+      <c r="D259" s="2" t="s">
         <v>561</v>
-      </c>
-      <c r="D259" s="2" t="s">
-        <v>557</v>
       </c>
     </row>
     <row r="260">
@@ -12726,29 +12744,29 @@
         <v>563</v>
       </c>
       <c r="D260" s="2" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="2" t="s">
+        <v>564</v>
+      </c>
+      <c r="C261" s="2" t="s">
         <v>565</v>
       </c>
-      <c r="C261" s="2" t="s">
-        <v>566</v>
-      </c>
       <c r="D261" s="2" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="2" t="s">
+        <v>566</v>
+      </c>
+      <c r="C262" s="2" t="s">
         <v>567</v>
       </c>
-      <c r="C262" s="2" t="s">
+      <c r="D262" s="2" t="s">
         <v>568</v>
-      </c>
-      <c r="D262" s="2" t="s">
-        <v>564</v>
       </c>
     </row>
     <row r="263">
@@ -12759,7 +12777,7 @@
         <v>570</v>
       </c>
       <c r="D263" s="2" t="s">
-        <v>564</v>
+        <v>568</v>
       </c>
     </row>
     <row r="264">
@@ -12770,7 +12788,7 @@
         <v>572</v>
       </c>
       <c r="D264" s="2" t="s">
-        <v>564</v>
+        <v>568</v>
       </c>
     </row>
     <row r="265">
@@ -12781,40 +12799,40 @@
         <v>574</v>
       </c>
       <c r="D265" s="2" t="s">
-        <v>575</v>
+        <v>568</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="C266" s="2" t="s">
         <v>576</v>
       </c>
-      <c r="C266" s="2" t="s">
-        <v>577</v>
-      </c>
       <c r="D266" s="2" t="s">
-        <v>578</v>
+        <v>568</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="C267" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="D267" s="2" t="s">
         <v>579</v>
-      </c>
-      <c r="C267" s="2" t="s">
-        <v>580</v>
-      </c>
-      <c r="D267" s="2" t="s">
-        <v>578</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" s="2" t="s">
+        <v>580</v>
+      </c>
+      <c r="C268" s="2" t="s">
         <v>581</v>
       </c>
-      <c r="C268" s="2" t="s">
+      <c r="D268" s="2" t="s">
         <v>582</v>
-      </c>
-      <c r="D268" s="2" t="s">
-        <v>578</v>
       </c>
     </row>
     <row r="269">
@@ -12825,7 +12843,7 @@
         <v>584</v>
       </c>
       <c r="D269" s="2" t="s">
-        <v>578</v>
+        <v>582</v>
       </c>
     </row>
     <row r="270">
@@ -12836,7 +12854,7 @@
         <v>586</v>
       </c>
       <c r="D270" s="2" t="s">
-        <v>578</v>
+        <v>582</v>
       </c>
     </row>
     <row r="271">
@@ -12847,7 +12865,7 @@
         <v>588</v>
       </c>
       <c r="D271" s="2" t="s">
-        <v>578</v>
+        <v>582</v>
       </c>
     </row>
     <row r="272">
@@ -12858,7 +12876,7 @@
         <v>590</v>
       </c>
       <c r="D272" s="2" t="s">
-        <v>578</v>
+        <v>582</v>
       </c>
     </row>
     <row r="273">
@@ -12869,7 +12887,7 @@
         <v>592</v>
       </c>
       <c r="D273" s="2" t="s">
-        <v>578</v>
+        <v>582</v>
       </c>
     </row>
     <row r="274">
@@ -12880,7 +12898,7 @@
         <v>594</v>
       </c>
       <c r="D274" s="2" t="s">
-        <v>578</v>
+        <v>582</v>
       </c>
     </row>
     <row r="275">
@@ -12891,7 +12909,7 @@
         <v>596</v>
       </c>
       <c r="D275" s="2" t="s">
-        <v>578</v>
+        <v>582</v>
       </c>
     </row>
     <row r="276">
@@ -12902,7 +12920,7 @@
         <v>598</v>
       </c>
       <c r="D276" s="2" t="s">
-        <v>578</v>
+        <v>582</v>
       </c>
     </row>
     <row r="277">
@@ -12913,7 +12931,7 @@
         <v>600</v>
       </c>
       <c r="D277" s="2" t="s">
-        <v>578</v>
+        <v>582</v>
       </c>
     </row>
     <row r="278">
@@ -12924,7 +12942,7 @@
         <v>602</v>
       </c>
       <c r="D278" s="2" t="s">
-        <v>578</v>
+        <v>582</v>
       </c>
     </row>
     <row r="279">
@@ -12935,7 +12953,7 @@
         <v>604</v>
       </c>
       <c r="D279" s="2" t="s">
-        <v>578</v>
+        <v>582</v>
       </c>
     </row>
     <row r="280">
@@ -12946,7 +12964,7 @@
         <v>606</v>
       </c>
       <c r="D280" s="2" t="s">
-        <v>307</v>
+        <v>582</v>
       </c>
     </row>
     <row r="281">
@@ -12957,7 +12975,7 @@
         <v>608</v>
       </c>
       <c r="D281" s="2" t="s">
-        <v>307</v>
+        <v>582</v>
       </c>
     </row>
     <row r="282">
@@ -12979,7 +12997,7 @@
         <v>612</v>
       </c>
       <c r="D283" s="2" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
     </row>
     <row r="284">
@@ -12990,7 +13008,7 @@
         <v>614</v>
       </c>
       <c r="D284" s="2" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
     </row>
     <row r="285">
@@ -13023,15 +13041,15 @@
         <v>620</v>
       </c>
       <c r="D287" s="2" t="s">
-        <v>621</v>
+        <v>302</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" s="2" t="s">
+        <v>621</v>
+      </c>
+      <c r="C288" s="2" t="s">
         <v>622</v>
-      </c>
-      <c r="C288" s="2" t="s">
-        <v>623</v>
       </c>
       <c r="D288" s="2" t="s">
         <v>302</v>
@@ -13039,46 +13057,46 @@
     </row>
     <row r="289">
       <c r="A289" s="2" t="s">
+        <v>623</v>
+      </c>
+      <c r="C289" s="2" t="s">
         <v>624</v>
       </c>
-      <c r="C289" s="2" t="s">
+      <c r="D289" s="2" t="s">
         <v>625</v>
-      </c>
-      <c r="D289" s="2" t="s">
-        <v>626</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" s="2" t="s">
+        <v>626</v>
+      </c>
+      <c r="C290" s="2" t="s">
         <v>627</v>
       </c>
-      <c r="C290" s="2" t="s">
-        <v>628</v>
-      </c>
       <c r="D290" s="2" t="s">
-        <v>629</v>
+        <v>302</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" s="2" t="s">
+        <v>628</v>
+      </c>
+      <c r="C291" s="2" t="s">
+        <v>629</v>
+      </c>
+      <c r="D291" s="2" t="s">
         <v>630</v>
-      </c>
-      <c r="C291" s="2" t="s">
-        <v>631</v>
-      </c>
-      <c r="D291" s="2" t="s">
-        <v>629</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" s="2" t="s">
+        <v>631</v>
+      </c>
+      <c r="C292" s="2" t="s">
         <v>632</v>
       </c>
-      <c r="C292" s="2" t="s">
+      <c r="D292" s="2" t="s">
         <v>633</v>
-      </c>
-      <c r="D292" s="2" t="s">
-        <v>629</v>
       </c>
     </row>
     <row r="293">
@@ -13089,7 +13107,7 @@
         <v>635</v>
       </c>
       <c r="D293" s="2" t="s">
-        <v>629</v>
+        <v>633</v>
       </c>
     </row>
     <row r="294">
@@ -13100,7 +13118,7 @@
         <v>637</v>
       </c>
       <c r="D294" s="2" t="s">
-        <v>629</v>
+        <v>633</v>
       </c>
     </row>
     <row r="295">
@@ -13111,7 +13129,7 @@
         <v>639</v>
       </c>
       <c r="D295" s="2" t="s">
-        <v>629</v>
+        <v>633</v>
       </c>
     </row>
     <row r="296">
@@ -13122,7 +13140,7 @@
         <v>641</v>
       </c>
       <c r="D296" s="2" t="s">
-        <v>629</v>
+        <v>633</v>
       </c>
     </row>
     <row r="297">
@@ -13133,7 +13151,7 @@
         <v>643</v>
       </c>
       <c r="D297" s="2" t="s">
-        <v>629</v>
+        <v>633</v>
       </c>
     </row>
     <row r="298">
@@ -13144,7 +13162,7 @@
         <v>645</v>
       </c>
       <c r="D298" s="2" t="s">
-        <v>629</v>
+        <v>633</v>
       </c>
     </row>
     <row r="299">
@@ -13155,7 +13173,7 @@
         <v>647</v>
       </c>
       <c r="D299" s="2" t="s">
-        <v>629</v>
+        <v>633</v>
       </c>
     </row>
     <row r="300">
@@ -13166,7 +13184,7 @@
         <v>649</v>
       </c>
       <c r="D300" s="2" t="s">
-        <v>629</v>
+        <v>633</v>
       </c>
     </row>
     <row r="301">
@@ -13177,7 +13195,7 @@
         <v>651</v>
       </c>
       <c r="D301" s="2" t="s">
-        <v>629</v>
+        <v>633</v>
       </c>
     </row>
     <row r="302">
@@ -13188,7 +13206,7 @@
         <v>653</v>
       </c>
       <c r="D302" s="2" t="s">
-        <v>629</v>
+        <v>633</v>
       </c>
     </row>
     <row r="303">
@@ -13199,7 +13217,7 @@
         <v>655</v>
       </c>
       <c r="D303" s="2" t="s">
-        <v>629</v>
+        <v>633</v>
       </c>
     </row>
     <row r="304">
@@ -13210,7 +13228,7 @@
         <v>657</v>
       </c>
       <c r="D304" s="2" t="s">
-        <v>629</v>
+        <v>633</v>
       </c>
     </row>
     <row r="305">
@@ -13221,7 +13239,7 @@
         <v>659</v>
       </c>
       <c r="D305" s="2" t="s">
-        <v>629</v>
+        <v>633</v>
       </c>
     </row>
     <row r="306">
@@ -13232,7 +13250,7 @@
         <v>661</v>
       </c>
       <c r="D306" s="2" t="s">
-        <v>629</v>
+        <v>633</v>
       </c>
     </row>
     <row r="307">
@@ -13243,7 +13261,7 @@
         <v>663</v>
       </c>
       <c r="D307" s="2" t="s">
-        <v>629</v>
+        <v>633</v>
       </c>
     </row>
     <row r="308">
@@ -13254,7 +13272,7 @@
         <v>665</v>
       </c>
       <c r="D308" s="2" t="s">
-        <v>629</v>
+        <v>633</v>
       </c>
     </row>
     <row r="309">
@@ -13265,7 +13283,7 @@
         <v>667</v>
       </c>
       <c r="D309" s="2" t="s">
-        <v>629</v>
+        <v>633</v>
       </c>
     </row>
     <row r="310">
@@ -13276,7 +13294,7 @@
         <v>669</v>
       </c>
       <c r="D310" s="2" t="s">
-        <v>629</v>
+        <v>633</v>
       </c>
     </row>
     <row r="311">
@@ -13287,7 +13305,7 @@
         <v>671</v>
       </c>
       <c r="D311" s="2" t="s">
-        <v>629</v>
+        <v>633</v>
       </c>
     </row>
     <row r="312">
@@ -13298,7 +13316,7 @@
         <v>673</v>
       </c>
       <c r="D312" s="2" t="s">
-        <v>629</v>
+        <v>633</v>
       </c>
     </row>
     <row r="313">
@@ -13309,7 +13327,7 @@
         <v>675</v>
       </c>
       <c r="D313" s="2" t="s">
-        <v>629</v>
+        <v>633</v>
       </c>
     </row>
     <row r="314">
@@ -13320,29 +13338,29 @@
         <v>677</v>
       </c>
       <c r="D314" s="2" t="s">
-        <v>678</v>
+        <v>633</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" s="2" t="s">
+        <v>678</v>
+      </c>
+      <c r="C315" s="2" t="s">
         <v>679</v>
       </c>
-      <c r="C315" s="2" t="s">
-        <v>680</v>
-      </c>
       <c r="D315" s="2" t="s">
-        <v>678</v>
+        <v>633</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" s="2" t="s">
+        <v>680</v>
+      </c>
+      <c r="C316" s="2" t="s">
         <v>681</v>
       </c>
-      <c r="C316" s="2" t="s">
+      <c r="D316" s="2" t="s">
         <v>682</v>
-      </c>
-      <c r="D316" s="2" t="s">
-        <v>678</v>
       </c>
     </row>
     <row r="317">
@@ -13353,7 +13371,7 @@
         <v>684</v>
       </c>
       <c r="D317" s="2" t="s">
-        <v>678</v>
+        <v>682</v>
       </c>
     </row>
     <row r="318">
@@ -13364,161 +13382,161 @@
         <v>686</v>
       </c>
       <c r="D318" s="2" t="s">
-        <v>687</v>
+        <v>682</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" s="2" t="s">
+        <v>687</v>
+      </c>
+      <c r="C319" s="2" t="s">
         <v>688</v>
       </c>
-      <c r="C319" s="2" t="s">
-        <v>689</v>
-      </c>
       <c r="D319" s="2" t="s">
-        <v>690</v>
+        <v>682</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" s="2" t="s">
+        <v>689</v>
+      </c>
+      <c r="C320" s="2" t="s">
+        <v>690</v>
+      </c>
+      <c r="D320" s="2" t="s">
         <v>691</v>
-      </c>
-      <c r="C320" s="2" t="s">
-        <v>692</v>
-      </c>
-      <c r="D320" s="2" t="s">
-        <v>690</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" s="2" t="s">
+        <v>692</v>
+      </c>
+      <c r="C321" s="2" t="s">
         <v>693</v>
       </c>
-      <c r="C321" s="2" t="s">
+      <c r="D321" s="2" t="s">
         <v>694</v>
-      </c>
-      <c r="D321" s="2" t="s">
-        <v>695</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" s="2" t="s">
+        <v>695</v>
+      </c>
+      <c r="C322" s="2" t="s">
         <v>696</v>
       </c>
-      <c r="C322" s="2" t="s">
-        <v>697</v>
-      </c>
       <c r="D322" s="2" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" s="2" t="s">
+        <v>697</v>
+      </c>
+      <c r="C323" s="2" t="s">
+        <v>698</v>
+      </c>
+      <c r="D323" s="2" t="s">
         <v>699</v>
-      </c>
-      <c r="C323" s="2" t="s">
-        <v>700</v>
-      </c>
-      <c r="D323" s="2" t="s">
-        <v>701</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" s="2" t="s">
+        <v>700</v>
+      </c>
+      <c r="C324" s="2" t="s">
+        <v>701</v>
+      </c>
+      <c r="D324" s="2" t="s">
         <v>702</v>
-      </c>
-      <c r="C324" s="2" t="s">
-        <v>703</v>
-      </c>
-      <c r="D324" s="2" t="s">
-        <v>704</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" s="2" t="s">
+        <v>703</v>
+      </c>
+      <c r="C325" s="2" t="s">
+        <v>704</v>
+      </c>
+      <c r="D325" s="2" t="s">
         <v>705</v>
-      </c>
-      <c r="C325" s="2" t="s">
-        <v>706</v>
-      </c>
-      <c r="D325" s="2" t="s">
-        <v>707</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="C326" s="2" t="s">
+        <v>707</v>
+      </c>
+      <c r="D326" s="2" t="s">
         <v>708</v>
-      </c>
-      <c r="C326" s="2" t="s">
-        <v>709</v>
-      </c>
-      <c r="D326" s="2" t="s">
-        <v>710</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" s="2" t="s">
+        <v>709</v>
+      </c>
+      <c r="C327" s="2" t="s">
+        <v>710</v>
+      </c>
+      <c r="D327" s="2" t="s">
         <v>711</v>
-      </c>
-      <c r="C327" s="2" t="s">
-        <v>712</v>
-      </c>
-      <c r="D327" s="2" t="s">
-        <v>713</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" s="2" t="s">
+        <v>712</v>
+      </c>
+      <c r="C328" s="2" t="s">
+        <v>713</v>
+      </c>
+      <c r="D328" s="2" t="s">
         <v>714</v>
-      </c>
-      <c r="C328" s="2" t="s">
-        <v>715</v>
-      </c>
-      <c r="D328" s="2" t="s">
-        <v>716</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" s="2" t="s">
+        <v>715</v>
+      </c>
+      <c r="C329" s="2" t="s">
+        <v>716</v>
+      </c>
+      <c r="D329" s="2" t="s">
         <v>717</v>
-      </c>
-      <c r="C329" s="2" t="s">
-        <v>718</v>
-      </c>
-      <c r="D329" s="2" t="s">
-        <v>719</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" s="2" t="s">
+        <v>718</v>
+      </c>
+      <c r="C330" s="2" t="s">
+        <v>719</v>
+      </c>
+      <c r="D330" s="2" t="s">
         <v>720</v>
-      </c>
-      <c r="C330" s="2" t="s">
-        <v>721</v>
-      </c>
-      <c r="D330" s="2" t="s">
-        <v>722</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" s="2" t="s">
+        <v>721</v>
+      </c>
+      <c r="C331" s="2" t="s">
+        <v>722</v>
+      </c>
+      <c r="D331" s="2" t="s">
         <v>723</v>
-      </c>
-      <c r="C331" s="2" t="s">
-        <v>724</v>
-      </c>
-      <c r="D331" s="2" t="s">
-        <v>722</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" s="2" t="s">
+        <v>724</v>
+      </c>
+      <c r="C332" s="2" t="s">
         <v>725</v>
       </c>
-      <c r="C332" s="2" t="s">
+      <c r="D332" s="2" t="s">
         <v>726</v>
-      </c>
-      <c r="D332" s="2" t="s">
-        <v>722</v>
       </c>
     </row>
     <row r="333">
@@ -13529,7 +13547,7 @@
         <v>728</v>
       </c>
       <c r="D333" s="2" t="s">
-        <v>722</v>
+        <v>726</v>
       </c>
     </row>
     <row r="334">
@@ -13540,7 +13558,7 @@
         <v>730</v>
       </c>
       <c r="D334" s="2" t="s">
-        <v>722</v>
+        <v>726</v>
       </c>
     </row>
     <row r="335">
@@ -13551,7 +13569,7 @@
         <v>732</v>
       </c>
       <c r="D335" s="2" t="s">
-        <v>722</v>
+        <v>726</v>
       </c>
     </row>
     <row r="336">
@@ -13562,29 +13580,29 @@
         <v>734</v>
       </c>
       <c r="D336" s="2" t="s">
-        <v>735</v>
+        <v>726</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" s="2" t="s">
+        <v>735</v>
+      </c>
+      <c r="C337" s="2" t="s">
         <v>736</v>
       </c>
-      <c r="C337" s="2" t="s">
-        <v>737</v>
-      </c>
       <c r="D337" s="2" t="s">
-        <v>722</v>
+        <v>726</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" s="2" t="s">
+        <v>737</v>
+      </c>
+      <c r="C338" s="2" t="s">
         <v>738</v>
       </c>
-      <c r="C338" s="2" t="s">
+      <c r="D338" s="2" t="s">
         <v>739</v>
-      </c>
-      <c r="D338" s="2" t="s">
-        <v>722</v>
       </c>
     </row>
     <row r="339">
@@ -13595,7 +13613,7 @@
         <v>741</v>
       </c>
       <c r="D339" s="2" t="s">
-        <v>722</v>
+        <v>726</v>
       </c>
     </row>
     <row r="340">
@@ -13606,7 +13624,7 @@
         <v>743</v>
       </c>
       <c r="D340" s="2" t="s">
-        <v>735</v>
+        <v>726</v>
       </c>
     </row>
     <row r="341">
@@ -13617,7 +13635,7 @@
         <v>745</v>
       </c>
       <c r="D341" s="2" t="s">
-        <v>735</v>
+        <v>726</v>
       </c>
     </row>
     <row r="342">
@@ -13628,7 +13646,7 @@
         <v>747</v>
       </c>
       <c r="D342" s="2" t="s">
-        <v>735</v>
+        <v>739</v>
       </c>
     </row>
     <row r="343">
@@ -13639,7 +13657,7 @@
         <v>749</v>
       </c>
       <c r="D343" s="2" t="s">
-        <v>735</v>
+        <v>739</v>
       </c>
     </row>
     <row r="344">
@@ -13650,7 +13668,7 @@
         <v>751</v>
       </c>
       <c r="D344" s="2" t="s">
-        <v>735</v>
+        <v>739</v>
       </c>
     </row>
     <row r="345">
@@ -13661,7 +13679,7 @@
         <v>753</v>
       </c>
       <c r="D345" s="2" t="s">
-        <v>735</v>
+        <v>739</v>
       </c>
     </row>
     <row r="346">
@@ -13672,7 +13690,7 @@
         <v>755</v>
       </c>
       <c r="D346" s="2" t="s">
-        <v>735</v>
+        <v>739</v>
       </c>
     </row>
     <row r="347">
@@ -13683,7 +13701,7 @@
         <v>757</v>
       </c>
       <c r="D347" s="2" t="s">
-        <v>735</v>
+        <v>739</v>
       </c>
     </row>
     <row r="348">
@@ -13694,7 +13712,7 @@
         <v>759</v>
       </c>
       <c r="D348" s="2" t="s">
-        <v>735</v>
+        <v>739</v>
       </c>
     </row>
     <row r="349">
@@ -13705,7 +13723,7 @@
         <v>761</v>
       </c>
       <c r="D349" s="2" t="s">
-        <v>735</v>
+        <v>739</v>
       </c>
     </row>
     <row r="350">
@@ -13716,7 +13734,7 @@
         <v>763</v>
       </c>
       <c r="D350" s="2" t="s">
-        <v>735</v>
+        <v>739</v>
       </c>
     </row>
     <row r="351">
@@ -13727,7 +13745,7 @@
         <v>765</v>
       </c>
       <c r="D351" s="2" t="s">
-        <v>735</v>
+        <v>739</v>
       </c>
     </row>
     <row r="352">
@@ -13738,7 +13756,7 @@
         <v>767</v>
       </c>
       <c r="D352" s="2" t="s">
-        <v>735</v>
+        <v>739</v>
       </c>
     </row>
     <row r="353">
@@ -13749,7 +13767,7 @@
         <v>769</v>
       </c>
       <c r="D353" s="2" t="s">
-        <v>735</v>
+        <v>739</v>
       </c>
     </row>
     <row r="354">
@@ -13760,7 +13778,7 @@
         <v>771</v>
       </c>
       <c r="D354" s="2" t="s">
-        <v>735</v>
+        <v>739</v>
       </c>
     </row>
     <row r="355">
@@ -13771,7 +13789,7 @@
         <v>773</v>
       </c>
       <c r="D355" s="2" t="s">
-        <v>735</v>
+        <v>739</v>
       </c>
     </row>
     <row r="356">
@@ -13782,7 +13800,7 @@
         <v>775</v>
       </c>
       <c r="D356" s="2" t="s">
-        <v>735</v>
+        <v>739</v>
       </c>
     </row>
     <row r="357">
@@ -13793,7 +13811,7 @@
         <v>777</v>
       </c>
       <c r="D357" s="2" t="s">
-        <v>735</v>
+        <v>739</v>
       </c>
     </row>
     <row r="358">
@@ -13804,7 +13822,7 @@
         <v>779</v>
       </c>
       <c r="D358" s="2" t="s">
-        <v>735</v>
+        <v>739</v>
       </c>
     </row>
     <row r="359">
@@ -13815,7 +13833,7 @@
         <v>781</v>
       </c>
       <c r="D359" s="2" t="s">
-        <v>735</v>
+        <v>739</v>
       </c>
     </row>
     <row r="360">
@@ -13826,7 +13844,7 @@
         <v>783</v>
       </c>
       <c r="D360" s="2" t="s">
-        <v>735</v>
+        <v>739</v>
       </c>
     </row>
     <row r="361">
@@ -13837,7 +13855,7 @@
         <v>785</v>
       </c>
       <c r="D361" s="2" t="s">
-        <v>735</v>
+        <v>739</v>
       </c>
     </row>
     <row r="362">
@@ -13848,7 +13866,7 @@
         <v>787</v>
       </c>
       <c r="D362" s="2" t="s">
-        <v>735</v>
+        <v>739</v>
       </c>
     </row>
     <row r="363">
@@ -13859,7 +13877,7 @@
         <v>789</v>
       </c>
       <c r="D363" s="2" t="s">
-        <v>735</v>
+        <v>739</v>
       </c>
     </row>
     <row r="364">
@@ -13870,40 +13888,40 @@
         <v>791</v>
       </c>
       <c r="D364" s="2" t="s">
-        <v>792</v>
+        <v>739</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" s="2" t="s">
+        <v>792</v>
+      </c>
+      <c r="C365" s="2" t="s">
         <v>793</v>
       </c>
-      <c r="C365" s="2" t="s">
-        <v>794</v>
-      </c>
       <c r="D365" s="2" t="s">
-        <v>795</v>
+        <v>739</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" s="2" t="s">
+        <v>794</v>
+      </c>
+      <c r="C366" s="2" t="s">
+        <v>795</v>
+      </c>
+      <c r="D366" s="2" t="s">
         <v>796</v>
-      </c>
-      <c r="C366" s="2" t="s">
-        <v>797</v>
-      </c>
-      <c r="D366" s="2" t="s">
-        <v>795</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" s="2" t="s">
+        <v>797</v>
+      </c>
+      <c r="C367" s="2" t="s">
         <v>798</v>
       </c>
-      <c r="C367" s="2" t="s">
+      <c r="D367" s="2" t="s">
         <v>799</v>
-      </c>
-      <c r="D367" s="2" t="s">
-        <v>795</v>
       </c>
     </row>
     <row r="368">
@@ -13914,29 +13932,29 @@
         <v>801</v>
       </c>
       <c r="D368" s="2" t="s">
-        <v>802</v>
+        <v>799</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" s="2" t="s">
+        <v>802</v>
+      </c>
+      <c r="C369" s="2" t="s">
         <v>803</v>
       </c>
-      <c r="C369" s="2" t="s">
-        <v>804</v>
-      </c>
       <c r="D369" s="2" t="s">
-        <v>795</v>
+        <v>799</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" s="2" t="s">
+        <v>804</v>
+      </c>
+      <c r="C370" s="2" t="s">
         <v>805</v>
       </c>
-      <c r="C370" s="2" t="s">
+      <c r="D370" s="2" t="s">
         <v>806</v>
-      </c>
-      <c r="D370" s="2" t="s">
-        <v>795</v>
       </c>
     </row>
     <row r="371">
@@ -13947,7 +13965,7 @@
         <v>808</v>
       </c>
       <c r="D371" s="2" t="s">
-        <v>802</v>
+        <v>799</v>
       </c>
     </row>
     <row r="372">
@@ -13958,7 +13976,7 @@
         <v>810</v>
       </c>
       <c r="D372" s="2" t="s">
-        <v>795</v>
+        <v>799</v>
       </c>
     </row>
     <row r="373">
@@ -13969,7 +13987,7 @@
         <v>812</v>
       </c>
       <c r="D373" s="2" t="s">
-        <v>795</v>
+        <v>806</v>
       </c>
     </row>
     <row r="374">
@@ -13980,7 +13998,7 @@
         <v>814</v>
       </c>
       <c r="D374" s="2" t="s">
-        <v>802</v>
+        <v>799</v>
       </c>
     </row>
     <row r="375">
@@ -13991,7 +14009,7 @@
         <v>816</v>
       </c>
       <c r="D375" s="2" t="s">
-        <v>795</v>
+        <v>799</v>
       </c>
     </row>
     <row r="376">
@@ -14001,7 +14019,9 @@
       <c r="C376" s="2" t="s">
         <v>818</v>
       </c>
-      <c r="D376" s="2"/>
+      <c r="D376" s="2" t="s">
+        <v>806</v>
+      </c>
     </row>
     <row r="377">
       <c r="A377" s="2" t="s">
@@ -14011,29 +14031,27 @@
         <v>820</v>
       </c>
       <c r="D377" s="2" t="s">
-        <v>821</v>
+        <v>799</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" s="2" t="s">
+        <v>821</v>
+      </c>
+      <c r="C378" s="2" t="s">
         <v>822</v>
       </c>
-      <c r="C378" s="2" t="s">
-        <v>823</v>
-      </c>
-      <c r="D378" s="2" t="s">
-        <v>802</v>
-      </c>
+      <c r="D378" s="2"/>
     </row>
     <row r="379">
       <c r="A379" s="2" t="s">
+        <v>823</v>
+      </c>
+      <c r="C379" s="2" t="s">
         <v>824</v>
       </c>
-      <c r="C379" s="2" t="s">
+      <c r="D379" s="2" t="s">
         <v>825</v>
-      </c>
-      <c r="D379" s="2" t="s">
-        <v>795</v>
       </c>
     </row>
     <row r="380">
@@ -14044,7 +14062,7 @@
         <v>827</v>
       </c>
       <c r="D380" s="2" t="s">
-        <v>795</v>
+        <v>806</v>
       </c>
     </row>
     <row r="381">
@@ -14055,7 +14073,7 @@
         <v>829</v>
       </c>
       <c r="D381" s="2" t="s">
-        <v>821</v>
+        <v>799</v>
       </c>
     </row>
     <row r="382">
@@ -14066,7 +14084,7 @@
         <v>831</v>
       </c>
       <c r="D382" s="2" t="s">
-        <v>821</v>
+        <v>799</v>
       </c>
     </row>
     <row r="383">
@@ -14077,7 +14095,7 @@
         <v>833</v>
       </c>
       <c r="D383" s="2" t="s">
-        <v>821</v>
+        <v>825</v>
       </c>
     </row>
     <row r="384">
@@ -14088,84 +14106,84 @@
         <v>835</v>
       </c>
       <c r="D384" s="2" t="s">
-        <v>836</v>
+        <v>825</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" s="2" t="s">
+        <v>836</v>
+      </c>
+      <c r="C385" s="2" t="s">
         <v>837</v>
       </c>
-      <c r="C385" s="2" t="s">
-        <v>838</v>
-      </c>
       <c r="D385" s="2" t="s">
-        <v>836</v>
+        <v>825</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" s="2" t="s">
+        <v>838</v>
+      </c>
+      <c r="C386" s="2" t="s">
         <v>839</v>
       </c>
-      <c r="C386" s="2" t="s">
+      <c r="D386" s="2" t="s">
         <v>840</v>
-      </c>
-      <c r="D386" s="2" t="s">
-        <v>841</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" s="2" t="s">
+        <v>841</v>
+      </c>
+      <c r="C387" s="2" t="s">
         <v>842</v>
       </c>
-      <c r="C387" s="2" t="s">
-        <v>843</v>
-      </c>
       <c r="D387" s="2" t="s">
-        <v>844</v>
+        <v>840</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" s="2" t="s">
+        <v>843</v>
+      </c>
+      <c r="C388" s="2" t="s">
+        <v>844</v>
+      </c>
+      <c r="D388" s="2" t="s">
         <v>845</v>
-      </c>
-      <c r="C388" s="2" t="s">
-        <v>846</v>
-      </c>
-      <c r="D388" s="2" t="s">
-        <v>847</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" s="2" t="s">
+        <v>846</v>
+      </c>
+      <c r="C389" s="2" t="s">
+        <v>847</v>
+      </c>
+      <c r="D389" s="2" t="s">
         <v>848</v>
-      </c>
-      <c r="C389" s="2" t="s">
-        <v>849</v>
-      </c>
-      <c r="D389" s="2" t="s">
-        <v>850</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" s="2" t="s">
+        <v>849</v>
+      </c>
+      <c r="C390" s="2" t="s">
+        <v>850</v>
+      </c>
+      <c r="D390" s="2" t="s">
         <v>851</v>
-      </c>
-      <c r="C390" s="2" t="s">
-        <v>852</v>
-      </c>
-      <c r="D390" s="2" t="s">
-        <v>850</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" s="2" t="s">
+        <v>852</v>
+      </c>
+      <c r="C391" s="2" t="s">
         <v>853</v>
       </c>
-      <c r="C391" s="2" t="s">
+      <c r="D391" s="2" t="s">
         <v>854</v>
-      </c>
-      <c r="D391" s="2" t="s">
-        <v>850</v>
       </c>
     </row>
     <row r="392">
@@ -14176,7 +14194,7 @@
         <v>856</v>
       </c>
       <c r="D392" s="2" t="s">
-        <v>850</v>
+        <v>854</v>
       </c>
     </row>
     <row r="393">
@@ -14187,7 +14205,7 @@
         <v>858</v>
       </c>
       <c r="D393" s="2" t="s">
-        <v>850</v>
+        <v>854</v>
       </c>
     </row>
     <row r="394">
@@ -14198,7 +14216,7 @@
         <v>860</v>
       </c>
       <c r="D394" s="2" t="s">
-        <v>850</v>
+        <v>854</v>
       </c>
     </row>
     <row r="395">
@@ -14209,7 +14227,7 @@
         <v>862</v>
       </c>
       <c r="D395" s="2" t="s">
-        <v>850</v>
+        <v>854</v>
       </c>
     </row>
     <row r="396">
@@ -14220,7 +14238,7 @@
         <v>864</v>
       </c>
       <c r="D396" s="2" t="s">
-        <v>850</v>
+        <v>854</v>
       </c>
     </row>
     <row r="397">
@@ -14231,7 +14249,7 @@
         <v>866</v>
       </c>
       <c r="D397" s="2" t="s">
-        <v>850</v>
+        <v>854</v>
       </c>
     </row>
     <row r="398">
@@ -14242,7 +14260,7 @@
         <v>868</v>
       </c>
       <c r="D398" s="2" t="s">
-        <v>850</v>
+        <v>854</v>
       </c>
     </row>
     <row r="399">
@@ -14253,51 +14271,51 @@
         <v>870</v>
       </c>
       <c r="D399" s="2" t="s">
-        <v>871</v>
+        <v>854</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" s="2" t="s">
+        <v>871</v>
+      </c>
+      <c r="C400" s="2" t="s">
         <v>872</v>
       </c>
-      <c r="C400" s="2" t="s">
-        <v>873</v>
-      </c>
       <c r="D400" s="2" t="s">
-        <v>874</v>
+        <v>854</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" s="2" t="s">
+        <v>873</v>
+      </c>
+      <c r="C401" s="2" t="s">
+        <v>874</v>
+      </c>
+      <c r="D401" s="2" t="s">
         <v>875</v>
-      </c>
-      <c r="C401" s="2" t="s">
-        <v>876</v>
-      </c>
-      <c r="D401" s="2" t="s">
-        <v>877</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" s="2" t="s">
+        <v>876</v>
+      </c>
+      <c r="C402" s="2" t="s">
+        <v>877</v>
+      </c>
+      <c r="D402" s="2" t="s">
         <v>878</v>
-      </c>
-      <c r="C402" s="2" t="s">
-        <v>879</v>
-      </c>
-      <c r="D402" s="2" t="s">
-        <v>877</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" s="2" t="s">
+        <v>879</v>
+      </c>
+      <c r="C403" s="2" t="s">
         <v>880</v>
       </c>
-      <c r="C403" s="2" t="s">
+      <c r="D403" s="2" t="s">
         <v>881</v>
-      </c>
-      <c r="D403" s="2" t="s">
-        <v>877</v>
       </c>
     </row>
     <row r="404">
@@ -14308,117 +14326,117 @@
         <v>883</v>
       </c>
       <c r="D404" s="2" t="s">
-        <v>884</v>
+        <v>881</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" s="2" t="s">
+        <v>884</v>
+      </c>
+      <c r="C405" s="2" t="s">
         <v>885</v>
       </c>
-      <c r="C405" s="2" t="s">
-        <v>886</v>
-      </c>
       <c r="D405" s="2" t="s">
-        <v>887</v>
+        <v>881</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" s="2" t="s">
+        <v>886</v>
+      </c>
+      <c r="C406" s="2" t="s">
+        <v>887</v>
+      </c>
+      <c r="D406" s="2" t="s">
         <v>888</v>
-      </c>
-      <c r="C406" s="2" t="s">
-        <v>889</v>
-      </c>
-      <c r="D406" s="2" t="s">
-        <v>890</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" s="2" t="s">
+        <v>889</v>
+      </c>
+      <c r="C407" s="2" t="s">
+        <v>890</v>
+      </c>
+      <c r="D407" s="2" t="s">
         <v>891</v>
-      </c>
-      <c r="C407" s="2" t="s">
-        <v>892</v>
-      </c>
-      <c r="D407" s="2" t="s">
-        <v>890</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" s="2" t="s">
+        <v>892</v>
+      </c>
+      <c r="C408" s="2" t="s">
         <v>893</v>
       </c>
-      <c r="C408" s="2" t="s">
+      <c r="D408" s="2" t="s">
         <v>894</v>
-      </c>
-      <c r="D408" s="2" t="s">
-        <v>895</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" s="2" t="s">
+        <v>895</v>
+      </c>
+      <c r="C409" s="2" t="s">
         <v>896</v>
       </c>
-      <c r="C409" s="2" t="s">
-        <v>897</v>
-      </c>
       <c r="D409" s="2" t="s">
-        <v>898</v>
+        <v>894</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" s="2" t="s">
+        <v>897</v>
+      </c>
+      <c r="C410" s="2" t="s">
+        <v>898</v>
+      </c>
+      <c r="D410" s="2" t="s">
         <v>899</v>
-      </c>
-      <c r="C410" s="2" t="s">
-        <v>900</v>
-      </c>
-      <c r="D410" s="2" t="s">
-        <v>901</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" s="2" t="s">
+        <v>900</v>
+      </c>
+      <c r="C411" s="2" t="s">
+        <v>901</v>
+      </c>
+      <c r="D411" s="2" t="s">
         <v>902</v>
-      </c>
-      <c r="C411" s="2" t="s">
-        <v>903</v>
-      </c>
-      <c r="D411" s="2" t="s">
-        <v>904</v>
       </c>
     </row>
     <row r="412">
       <c r="A412" s="2" t="s">
+        <v>903</v>
+      </c>
+      <c r="C412" s="2" t="s">
+        <v>904</v>
+      </c>
+      <c r="D412" s="2" t="s">
         <v>905</v>
-      </c>
-      <c r="C412" s="2" t="s">
-        <v>906</v>
-      </c>
-      <c r="D412" s="2" t="s">
-        <v>907</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" s="2" t="s">
+        <v>906</v>
+      </c>
+      <c r="C413" s="2" t="s">
+        <v>907</v>
+      </c>
+      <c r="D413" s="2" t="s">
         <v>908</v>
-      </c>
-      <c r="C413" s="2" t="s">
-        <v>909</v>
-      </c>
-      <c r="D413" s="2" t="s">
-        <v>907</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" s="2" t="s">
+        <v>909</v>
+      </c>
+      <c r="C414" s="2" t="s">
         <v>910</v>
       </c>
-      <c r="C414" s="2" t="s">
+      <c r="D414" s="2" t="s">
         <v>911</v>
-      </c>
-      <c r="D414" s="2" t="s">
-        <v>904</v>
       </c>
     </row>
     <row r="415">
@@ -14429,7 +14447,7 @@
         <v>913</v>
       </c>
       <c r="D415" s="2" t="s">
-        <v>907</v>
+        <v>911</v>
       </c>
     </row>
     <row r="416">
@@ -14440,436 +14458,458 @@
         <v>915</v>
       </c>
       <c r="D416" s="2" t="s">
-        <v>916</v>
+        <v>908</v>
       </c>
     </row>
     <row r="417">
       <c r="A417" s="2" t="s">
+        <v>916</v>
+      </c>
+      <c r="C417" s="2" t="s">
         <v>917</v>
       </c>
-      <c r="C417" s="2" t="s">
-        <v>918</v>
-      </c>
       <c r="D417" s="2" t="s">
-        <v>169</v>
+        <v>911</v>
       </c>
     </row>
     <row r="418">
       <c r="A418" s="2" t="s">
+        <v>918</v>
+      </c>
+      <c r="C418" s="2" t="s">
         <v>919</v>
       </c>
-      <c r="C418" s="2" t="s">
+      <c r="D418" s="2" t="s">
         <v>920</v>
-      </c>
-      <c r="D418" s="2" t="s">
-        <v>921</v>
       </c>
     </row>
     <row r="419">
       <c r="A419" s="2" t="s">
+        <v>921</v>
+      </c>
+      <c r="C419" s="2" t="s">
         <v>922</v>
       </c>
-      <c r="C419" s="2" t="s">
-        <v>923</v>
-      </c>
       <c r="D419" s="2" t="s">
-        <v>924</v>
+        <v>169</v>
       </c>
     </row>
     <row r="420">
       <c r="A420" s="2" t="s">
+        <v>923</v>
+      </c>
+      <c r="C420" s="2" t="s">
+        <v>924</v>
+      </c>
+      <c r="D420" s="2" t="s">
         <v>925</v>
-      </c>
-      <c r="C420" s="2" t="s">
-        <v>926</v>
-      </c>
-      <c r="D420" s="2" t="s">
-        <v>927</v>
       </c>
     </row>
     <row r="421">
       <c r="A421" s="2" t="s">
+        <v>926</v>
+      </c>
+      <c r="C421" s="2" t="s">
+        <v>927</v>
+      </c>
+      <c r="D421" s="2" t="s">
         <v>928</v>
-      </c>
-      <c r="C421" s="2" t="s">
-        <v>929</v>
-      </c>
-      <c r="D421" s="2" t="s">
-        <v>930</v>
       </c>
     </row>
     <row r="422">
       <c r="A422" s="2" t="s">
+        <v>929</v>
+      </c>
+      <c r="C422" s="2" t="s">
+        <v>930</v>
+      </c>
+      <c r="D422" s="2" t="s">
         <v>931</v>
-      </c>
-      <c r="C422" s="2" t="s">
-        <v>932</v>
-      </c>
-      <c r="D422" s="2" t="s">
-        <v>933</v>
       </c>
     </row>
     <row r="423">
       <c r="A423" s="2" t="s">
+        <v>932</v>
+      </c>
+      <c r="C423" s="2" t="s">
+        <v>933</v>
+      </c>
+      <c r="D423" s="2" t="s">
         <v>934</v>
-      </c>
-      <c r="C423" s="2" t="s">
-        <v>935</v>
-      </c>
-      <c r="D423" s="2" t="s">
-        <v>933</v>
       </c>
     </row>
     <row r="424">
       <c r="A424" s="2" t="s">
+        <v>935</v>
+      </c>
+      <c r="C424" s="2" t="s">
         <v>936</v>
       </c>
-      <c r="C424" s="2" t="s">
+      <c r="D424" s="2" t="s">
         <v>937</v>
-      </c>
-      <c r="D424" s="2" t="s">
-        <v>938</v>
       </c>
     </row>
     <row r="425">
       <c r="A425" s="2" t="s">
+        <v>938</v>
+      </c>
+      <c r="C425" s="2" t="s">
         <v>939</v>
       </c>
-      <c r="C425" s="2" t="s">
-        <v>940</v>
-      </c>
       <c r="D425" s="2" t="s">
-        <v>941</v>
+        <v>937</v>
       </c>
     </row>
     <row r="426">
       <c r="A426" s="2" t="s">
+        <v>940</v>
+      </c>
+      <c r="C426" s="2" t="s">
+        <v>941</v>
+      </c>
+      <c r="D426" s="2" t="s">
         <v>942</v>
-      </c>
-      <c r="C426" s="2" t="s">
-        <v>943</v>
-      </c>
-      <c r="D426" s="2" t="s">
-        <v>944</v>
       </c>
     </row>
     <row r="427">
       <c r="A427" s="2" t="s">
+        <v>943</v>
+      </c>
+      <c r="C427" s="2" t="s">
+        <v>944</v>
+      </c>
+      <c r="D427" s="2" t="s">
         <v>945</v>
-      </c>
-      <c r="C427" s="2" t="s">
-        <v>946</v>
-      </c>
-      <c r="D427" s="2" t="s">
-        <v>947</v>
       </c>
     </row>
     <row r="428">
       <c r="A428" s="2" t="s">
+        <v>946</v>
+      </c>
+      <c r="C428" s="2" t="s">
+        <v>947</v>
+      </c>
+      <c r="D428" s="2" t="s">
         <v>948</v>
-      </c>
-      <c r="C428" s="2" t="s">
-        <v>949</v>
-      </c>
-      <c r="D428" s="2" t="s">
-        <v>950</v>
       </c>
     </row>
     <row r="429">
       <c r="A429" s="2" t="s">
+        <v>949</v>
+      </c>
+      <c r="C429" s="2" t="s">
+        <v>950</v>
+      </c>
+      <c r="D429" s="2" t="s">
         <v>951</v>
-      </c>
-      <c r="C429" s="2" t="s">
-        <v>952</v>
-      </c>
-      <c r="D429" s="2" t="s">
-        <v>953</v>
       </c>
     </row>
     <row r="430">
       <c r="A430" s="2" t="s">
+        <v>952</v>
+      </c>
+      <c r="C430" s="2" t="s">
+        <v>953</v>
+      </c>
+      <c r="D430" s="2" t="s">
         <v>954</v>
-      </c>
-      <c r="C430" s="2" t="s">
-        <v>955</v>
-      </c>
-      <c r="D430" s="2" t="s">
-        <v>956</v>
       </c>
     </row>
     <row r="431">
       <c r="A431" s="2" t="s">
+        <v>955</v>
+      </c>
+      <c r="C431" s="2" t="s">
+        <v>956</v>
+      </c>
+      <c r="D431" s="2" t="s">
         <v>957</v>
-      </c>
-      <c r="C431" s="2" t="s">
-        <v>958</v>
-      </c>
-      <c r="D431" s="2" t="s">
-        <v>959</v>
       </c>
     </row>
     <row r="432">
       <c r="A432" s="2" t="s">
+        <v>958</v>
+      </c>
+      <c r="C432" s="2" t="s">
+        <v>959</v>
+      </c>
+      <c r="D432" s="2" t="s">
         <v>960</v>
-      </c>
-      <c r="C432" s="2" t="s">
-        <v>961</v>
-      </c>
-      <c r="D432" s="2" t="s">
-        <v>962</v>
       </c>
     </row>
     <row r="433">
       <c r="A433" s="2" t="s">
+        <v>961</v>
+      </c>
+      <c r="C433" s="2" t="s">
+        <v>962</v>
+      </c>
+      <c r="D433" s="2" t="s">
         <v>963</v>
-      </c>
-      <c r="C433" s="2" t="s">
-        <v>964</v>
-      </c>
-      <c r="D433" s="2" t="s">
-        <v>965</v>
       </c>
     </row>
     <row r="434">
       <c r="A434" s="2" t="s">
+        <v>964</v>
+      </c>
+      <c r="C434" s="2" t="s">
+        <v>965</v>
+      </c>
+      <c r="D434" s="2" t="s">
         <v>966</v>
-      </c>
-      <c r="C434" s="2" t="s">
-        <v>967</v>
-      </c>
-      <c r="D434" s="2" t="s">
-        <v>968</v>
       </c>
     </row>
     <row r="435">
       <c r="A435" s="2" t="s">
+        <v>967</v>
+      </c>
+      <c r="C435" s="2" t="s">
+        <v>968</v>
+      </c>
+      <c r="D435" s="2" t="s">
         <v>969</v>
-      </c>
-      <c r="C435" s="2" t="s">
-        <v>970</v>
-      </c>
-      <c r="D435" s="2" t="s">
-        <v>971</v>
       </c>
     </row>
     <row r="436">
       <c r="A436" s="2" t="s">
+        <v>970</v>
+      </c>
+      <c r="C436" s="2" t="s">
+        <v>971</v>
+      </c>
+      <c r="D436" s="2" t="s">
         <v>972</v>
-      </c>
-      <c r="C436" s="2" t="s">
-        <v>973</v>
-      </c>
-      <c r="D436" s="2" t="s">
-        <v>974</v>
       </c>
     </row>
     <row r="437">
       <c r="A437" s="2" t="s">
+        <v>973</v>
+      </c>
+      <c r="C437" s="2" t="s">
+        <v>974</v>
+      </c>
+      <c r="D437" s="2" t="s">
         <v>975</v>
-      </c>
-      <c r="C437" s="2" t="s">
-        <v>976</v>
-      </c>
-      <c r="D437" s="2" t="s">
-        <v>977</v>
       </c>
     </row>
     <row r="438">
       <c r="A438" s="2" t="s">
+        <v>976</v>
+      </c>
+      <c r="C438" s="2" t="s">
+        <v>977</v>
+      </c>
+      <c r="D438" s="2" t="s">
         <v>978</v>
-      </c>
-      <c r="C438" s="2" t="s">
-        <v>979</v>
-      </c>
-      <c r="D438" s="2" t="s">
-        <v>980</v>
       </c>
     </row>
     <row r="439">
       <c r="A439" s="2" t="s">
+        <v>979</v>
+      </c>
+      <c r="C439" s="2" t="s">
+        <v>980</v>
+      </c>
+      <c r="D439" s="2" t="s">
         <v>981</v>
-      </c>
-      <c r="C439" s="2" t="s">
-        <v>982</v>
-      </c>
-      <c r="D439" s="2" t="s">
-        <v>983</v>
       </c>
     </row>
     <row r="440">
       <c r="A440" s="2" t="s">
+        <v>982</v>
+      </c>
+      <c r="C440" s="2" t="s">
+        <v>983</v>
+      </c>
+      <c r="D440" s="2" t="s">
         <v>984</v>
-      </c>
-      <c r="C440" s="2" t="s">
-        <v>985</v>
-      </c>
-      <c r="D440" s="2" t="s">
-        <v>986</v>
       </c>
     </row>
     <row r="441">
       <c r="A441" s="2" t="s">
+        <v>985</v>
+      </c>
+      <c r="C441" s="2" t="s">
+        <v>986</v>
+      </c>
+      <c r="D441" s="2" t="s">
         <v>987</v>
-      </c>
-      <c r="C441" s="2" t="s">
-        <v>988</v>
-      </c>
-      <c r="D441" s="2" t="s">
-        <v>989</v>
       </c>
     </row>
     <row r="442">
       <c r="A442" s="2" t="s">
+        <v>988</v>
+      </c>
+      <c r="C442" s="2" t="s">
+        <v>989</v>
+      </c>
+      <c r="D442" s="2" t="s">
         <v>990</v>
-      </c>
-      <c r="C442" s="2" t="s">
-        <v>991</v>
-      </c>
-      <c r="D442" s="2" t="s">
-        <v>992</v>
       </c>
     </row>
     <row r="443">
       <c r="A443" s="2" t="s">
+        <v>991</v>
+      </c>
+      <c r="C443" s="2" t="s">
+        <v>992</v>
+      </c>
+      <c r="D443" s="2" t="s">
         <v>993</v>
-      </c>
-      <c r="C443" s="2" t="s">
-        <v>994</v>
-      </c>
-      <c r="D443" s="2" t="s">
-        <v>995</v>
       </c>
     </row>
     <row r="444">
       <c r="A444" s="2" t="s">
+        <v>994</v>
+      </c>
+      <c r="C444" s="2" t="s">
+        <v>995</v>
+      </c>
+      <c r="D444" s="2" t="s">
         <v>996</v>
-      </c>
-      <c r="C444" s="2" t="s">
-        <v>997</v>
-      </c>
-      <c r="D444" s="2" t="s">
-        <v>998</v>
       </c>
     </row>
     <row r="445">
       <c r="A445" s="2" t="s">
+        <v>997</v>
+      </c>
+      <c r="C445" s="2" t="s">
+        <v>998</v>
+      </c>
+      <c r="D445" s="2" t="s">
         <v>999</v>
-      </c>
-      <c r="C445" s="2" t="s">
-        <v>1000</v>
-      </c>
-      <c r="D445" s="2" t="s">
-        <v>1001</v>
       </c>
     </row>
     <row r="446">
       <c r="A446" s="2" t="s">
+        <v>1000</v>
+      </c>
+      <c r="C446" s="2" t="s">
+        <v>1001</v>
+      </c>
+      <c r="D446" s="2" t="s">
         <v>1002</v>
-      </c>
-      <c r="C446" s="2" t="s">
-        <v>1003</v>
-      </c>
-      <c r="D446" s="2" t="s">
-        <v>1004</v>
       </c>
     </row>
     <row r="447">
       <c r="A447" s="2" t="s">
+        <v>1003</v>
+      </c>
+      <c r="C447" s="2" t="s">
+        <v>1004</v>
+      </c>
+      <c r="D447" s="2" t="s">
         <v>1005</v>
-      </c>
-      <c r="C447" s="2" t="s">
-        <v>1006</v>
-      </c>
-      <c r="D447" s="2" t="s">
-        <v>1007</v>
       </c>
     </row>
     <row r="448">
       <c r="A448" s="2" t="s">
+        <v>1006</v>
+      </c>
+      <c r="C448" s="2" t="s">
+        <v>1007</v>
+      </c>
+      <c r="D448" s="2" t="s">
         <v>1008</v>
-      </c>
-      <c r="C448" s="2" t="s">
-        <v>1009</v>
-      </c>
-      <c r="D448" s="2" t="s">
-        <v>1010</v>
       </c>
     </row>
     <row r="449">
       <c r="A449" s="2" t="s">
+        <v>1009</v>
+      </c>
+      <c r="C449" s="2" t="s">
+        <v>1010</v>
+      </c>
+      <c r="D449" s="2" t="s">
         <v>1011</v>
-      </c>
-      <c r="C449" s="2" t="s">
-        <v>1012</v>
-      </c>
-      <c r="D449" s="2" t="s">
-        <v>1013</v>
       </c>
     </row>
     <row r="450">
       <c r="A450" s="2" t="s">
+        <v>1012</v>
+      </c>
+      <c r="C450" s="2" t="s">
+        <v>1013</v>
+      </c>
+      <c r="D450" s="2" t="s">
         <v>1014</v>
-      </c>
-      <c r="C450" s="2" t="s">
-        <v>1015</v>
-      </c>
-      <c r="D450" s="2" t="s">
-        <v>1016</v>
       </c>
     </row>
     <row r="451">
       <c r="A451" s="2" t="s">
+        <v>1015</v>
+      </c>
+      <c r="C451" s="2" t="s">
+        <v>1016</v>
+      </c>
+      <c r="D451" s="2" t="s">
         <v>1017</v>
-      </c>
-      <c r="C451" s="2" t="s">
-        <v>1018</v>
-      </c>
-      <c r="D451" s="2" t="s">
-        <v>1019</v>
       </c>
     </row>
     <row r="452">
       <c r="A452" s="2" t="s">
+        <v>1018</v>
+      </c>
+      <c r="C452" s="2" t="s">
+        <v>1019</v>
+      </c>
+      <c r="D452" s="2" t="s">
         <v>1020</v>
-      </c>
-      <c r="C452" s="2" t="s">
-        <v>1021</v>
-      </c>
-      <c r="D452" s="2" t="s">
-        <v>1022</v>
       </c>
     </row>
     <row r="453">
       <c r="A453" s="2" t="s">
+        <v>1021</v>
+      </c>
+      <c r="C453" s="2" t="s">
+        <v>1022</v>
+      </c>
+      <c r="D453" s="2" t="s">
         <v>1023</v>
-      </c>
-      <c r="C453" s="2" t="s">
-        <v>1024</v>
-      </c>
-      <c r="D453" s="2" t="s">
-        <v>1022</v>
       </c>
     </row>
     <row r="454">
       <c r="A454" s="2" t="s">
+        <v>1024</v>
+      </c>
+      <c r="C454" s="2" t="s">
         <v>1025</v>
       </c>
-      <c r="C454" s="2" t="s">
+      <c r="D454" s="2" t="s">
         <v>1026</v>
-      </c>
-      <c r="D454" s="2" t="s">
-        <v>1027</v>
       </c>
     </row>
     <row r="455">
       <c r="A455" s="2" t="s">
+        <v>1027</v>
+      </c>
+      <c r="C455" s="2" t="s">
         <v>1028</v>
       </c>
-      <c r="C455" s="7" t="s">
+      <c r="D455" s="2" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" s="2" t="s">
         <v>1029</v>
       </c>
-      <c r="D455" s="2" t="s">
+      <c r="C456" s="2" t="s">
         <v>1030</v>
+      </c>
+      <c r="D456" s="2" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" s="2" t="s">
+        <v>1032</v>
+      </c>
+      <c r="C457" s="7" t="s">
+        <v>1033</v>
+      </c>
+      <c r="D457" s="2" t="s">
+        <v>1034</v>
       </c>
     </row>
   </sheetData>
@@ -14908,18 +14948,18 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>1031</v>
+        <v>1035</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>1032</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>1033</v>
+        <v>1037</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>1034</v>
+        <v>1038</v>
       </c>
     </row>
   </sheetData>

--- a/csv/merge.xlsx
+++ b/csv/merge.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1343" uniqueCount="1039">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1349" uniqueCount="1045">
   <si>
     <t>JP Text (DO NOT CHANGE)</t>
   </si>
@@ -9583,6 +9583,53 @@
   </si>
   <si>
     <t>Skyscraper Tomb exchanger (BAD STRING)</t>
+  </si>
+  <si>
+    <t>現在のプレイ環境では　機能制限のため
+このクエストをクリアすることはできません。
+正式なプレイ環境にしてください。</t>
+  </si>
+  <si>
+    <t>This quest cannot be completed on this
+platform because you are on trial status.
+You can clear this quest on a platform
+&lt;br&gt;
+in which you own the full version of
+the game.</t>
+  </si>
+  <si>
+    <t>Trial status warning</t>
+  </si>
+  <si>
+    <t>ボスの難易度設定についての　説明です！
+ほとんどの　シナリオとクエストの　ボス戦は
+難易度を選択して　戦うことができます。
+&lt;br&gt;
+&lt;color_yellow&gt;ボスの難易度設定は　「さくせん」コマンドの
+「いろいろ設定」にある「ボス難易度設定」から
+いつでも　変更できます。&lt;color_white&gt;
+&lt;br&gt;
+ひとりプレイ中と　パーティプレイ中
+それぞれで　難易度を設定することができますので
+自分の遊び方に合わせて　設定してください。</t>
+  </si>
+  <si>
+    <t>This will explain boss difficulty settings!
+&lt;br&gt;
+Most bosses you face during the story or
+during quests will allow you to choose
+their difficulty level before fighting them.
+&lt;br&gt;
+&lt;color_yellow&gt;Boss difficulty can be set by using the
+"Misc." command, and then choosing "Settings"
+and then "Boss Difficulty".&lt;color_white&gt;
+&lt;br&gt;
+Different difficulty levels can be set for
+when you're playing alone and in a party, so
+feel free to set it to your liking.</t>
+  </si>
+  <si>
+    <t>Boss difficulty explanation</t>
   </si>
   <si>
     <t>メインコマンド『せんれき』の
@@ -14912,6 +14959,28 @@
         <v>1034</v>
       </c>
     </row>
+    <row r="458">
+      <c r="A458" s="2" t="s">
+        <v>1035</v>
+      </c>
+      <c r="C458" s="7" t="s">
+        <v>1036</v>
+      </c>
+      <c r="D458" s="2" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" s="2" t="s">
+        <v>1038</v>
+      </c>
+      <c r="C459" s="7" t="s">
+        <v>1039</v>
+      </c>
+      <c r="D459" s="2" t="s">
+        <v>1040</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -14948,18 +15017,18 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>1035</v>
+        <v>1041</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>1036</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>1037</v>
+        <v>1043</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>1038</v>
+        <v>1044</v>
       </c>
     </row>
   </sheetData>

--- a/csv/merge.xlsx
+++ b/csv/merge.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1349" uniqueCount="1045">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1352" uniqueCount="1048">
   <si>
     <t>JP Text (DO NOT CHANGE)</t>
   </si>
@@ -9630,6 +9630,21 @@
   </si>
   <si>
     <t>Boss difficulty explanation</t>
+  </si>
+  <si>
+    <t>サポート仲間が　くわわりました。
+&lt;br&gt;
+『さくせん』コマンドの中に
+『サポートなかま』が　追加されました。</t>
+  </si>
+  <si>
+    <t>Some support companions have joined you.
+&lt;br&gt;
+The "Support Party" option is now available
+under the "Misc." command.</t>
+  </si>
+  <si>
+    <t>Support party 1st time</t>
   </si>
   <si>
     <t>メインコマンド『せんれき』の
@@ -14981,6 +14996,17 @@
         <v>1040</v>
       </c>
     </row>
+    <row r="460">
+      <c r="A460" s="2" t="s">
+        <v>1041</v>
+      </c>
+      <c r="C460" s="7" t="s">
+        <v>1042</v>
+      </c>
+      <c r="D460" s="2" t="s">
+        <v>1043</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -15017,18 +15043,18 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>1041</v>
+        <v>1044</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>1042</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>1043</v>
+        <v>1046</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>1044</v>
+        <v>1047</v>
       </c>
     </row>
   </sheetData>

--- a/csv/merge.xlsx
+++ b/csv/merge.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1352" uniqueCount="1048">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1412" uniqueCount="1092">
   <si>
     <t>JP Text (DO NOT CHANGE)</t>
   </si>
@@ -9240,7 +9240,7 @@
 they're beat, they'll go out in a bang!</t>
   </si>
   <si>
-    <t>Mysterious Tower Floor 10 hint</t>
+    <t>Mysterious Tower Floor 11 hint</t>
   </si>
   <si>
     <t>&lt;pipipi_shigh&gt;「ヒヒヒ……。魔闘士さん　ボケ　使える？
@@ -9254,7 +9254,7 @@
 </t>
   </si>
   <si>
-    <t>Mysterious Tower Floor 11 hint</t>
+    <t>Mysterious Tower Floor 12 hint</t>
   </si>
   <si>
     <t>&lt;pipipi_shigh&gt;「ヒヒヒ……。オイラ　なぞのツボ。
@@ -9267,7 +9267,7 @@
 pretty good at silencing their enemies.</t>
   </si>
   <si>
-    <t>Mysterious Tower Floor 12 hint</t>
+    <t>Mysterious Tower Floor 13 hint</t>
   </si>
   <si>
     <t>&lt;pipipi_shigh&gt;「ヒヒヒ……。魔闘士さん　てなづける　使える？
@@ -9280,7 +9280,7 @@
 be a good idea to get along with those cats.</t>
   </si>
   <si>
-    <t>Mysterious Tower Floor 13 hint</t>
+    <t>Mysterious Tower Floor 14 hint</t>
   </si>
   <si>
     <t>&lt;pipipi_shigh&gt;「ヒヒヒ……。オイラ　なぞのツボ。
@@ -9293,7 +9293,7 @@
 it finish off one of those fiery guys?</t>
   </si>
   <si>
-    <t>Mysterious Tower Floor 14 hint</t>
+    <t>Mysterious Tower Floor 16 hint</t>
   </si>
   <si>
     <t>&lt;pipipi_shigh&gt;「ヒヒヒ……。オイラ　なぞのツボ。
@@ -9306,7 +9306,7 @@
 can learn it from a Full Moon Ring.</t>
   </si>
   <si>
-    <t>Mysterious Tower Floor 15 hint</t>
+    <t>Mysterious Tower Floor 17 hint</t>
   </si>
   <si>
     <t>&lt;pipipi_shigh&gt;「ヒヒヒ……。オイラ　なぞのツボ。
@@ -9319,7 +9319,7 @@
 you can learn at level 12.</t>
   </si>
   <si>
-    <t>Mysterious Tower Floor 16 hint</t>
+    <t>Mysterious Tower Floor 18 hint</t>
   </si>
   <si>
     <t>&lt;pipipi_shigh&gt;「ヒヒヒ……。ギガボンバー　使える？
@@ -9332,7 +9332,7 @@
 try fighting those bomb guys with your bombs?</t>
   </si>
   <si>
-    <t>Mysterious Tower Floor 17 hint</t>
+    <t>Mysterious Tower Floor 19 hint</t>
   </si>
   <si>
     <t>&lt;pipipi_shigh&gt;「ヒヒヒ……。オイラ　なぞのツボ。
@@ -9345,7 +9345,7 @@
 It's a rank 3 sword.</t>
   </si>
   <si>
-    <t>Mysterious Tower Floor 18 hint</t>
+    <t>Mysterious Tower Floor 21 hint</t>
   </si>
   <si>
     <t>&lt;pipipi_shigh&gt;「ヒヒヒ……。もうどくブルース　唄える？
@@ -9358,7 +9358,7 @@
 heard it sounds better while poisoned.</t>
   </si>
   <si>
-    <t>Mysterious Tower Floor 19 hint</t>
+    <t>Mysterious Tower Floor 22 hint</t>
   </si>
   <si>
     <t>&lt;pipipi_shigh&gt;「ヒヒヒ……。オイラ　なぞのツボ。
@@ -9371,7 +9371,7 @@
 sure to finish them off with your bare hands.</t>
   </si>
   <si>
-    <t>Mysterious Tower Floor 20 hint</t>
+    <t>Mysterious Tower Floor 23 hint</t>
   </si>
   <si>
     <t>&lt;pipipi_shigh&gt;「ヒヒヒ……。ブラッドエッジ　持ってる？
@@ -9384,7 +9384,7 @@
 blood for blood.</t>
   </si>
   <si>
-    <t>Mysterious Tower Floor 21 hint</t>
+    <t>Mysterious Tower Floor 24 hint</t>
   </si>
   <si>
     <t>&lt;pipipi_shigh&gt;「ヒヒヒ……。オイラ　なぞのツボ。
@@ -9403,7 +9403,7 @@
 Care Ring.</t>
   </si>
   <si>
-    <t>Mysterious Tower Floor 22 hint</t>
+    <t>Mysterious Tower Floor 26 hint</t>
   </si>
   <si>
     <t>&lt;pipipi_shigh&gt;「ヒヒヒ……。打成一片　使える？
@@ -9416,7 +9416,7 @@
 those monsters with the scissor hands.</t>
   </si>
   <si>
-    <t>Mysterious Tower Floor 23 hint</t>
+    <t>Mysterious Tower Floor 27 hint</t>
   </si>
   <si>
     <t>&lt;pipipi_shigh&gt;「ヒヒヒ……。オイラ　なぞのツボ。
@@ -9429,7 +9429,7 @@
 someone attack and defend at the same time.</t>
   </si>
   <si>
-    <t>Mysterious Tower Floor 24 hint</t>
+    <t>Mysterious Tower Floor 28 hint</t>
   </si>
   <si>
     <t>&lt;pipipi_shigh&gt;「ヒヒヒ……。オイラ　なぞのツボ。
@@ -9442,7 +9442,7 @@
 learn it from a Rousing Ring.</t>
   </si>
   <si>
-    <t>Mysterious Tower Floor 25 hint</t>
+    <t>Mysterious Tower Floor 29 hint</t>
   </si>
   <si>
     <t>こちらの扉からは　先に進めないようだ。</t>
@@ -9645,6 +9645,188 @@
   </si>
   <si>
     <t>Support party 1st time</t>
+  </si>
+  <si>
+    <t>&lt;pipipi_high&gt;やあやあ　覚えているかな？
+サンビタリアだよ！&lt;bw_break&gt;</t>
+  </si>
+  <si>
+    <t>&lt;pipipi_high&gt;Hey, hey! You didn't forget me, right?
+It's me, Sanvitalia!</t>
+  </si>
+  <si>
+    <t>Sanvitalia</t>
+  </si>
+  <si>
+    <t>&lt;pipipi_high&gt;おお！　ありがとう！
+私が選んだ　住人を見つけたみたいだね。
+お礼を受け取ってくれ。</t>
+  </si>
+  <si>
+    <t>&lt;pipipi_high&gt;Ohh, thank you! I see you've found one of
+my chosen residents! Here, this is for you!</t>
+  </si>
+  <si>
+    <t>体験版では　これ以上　お礼は渡せないんだ。
+製品版で　また　その人に話しかけてくれ。</t>
+  </si>
+  <si>
+    <t>&lt;pipipi_high&gt;Ohh, thank you! I see you've found one of
+my chosen residents! Here, this is for you!
+&lt;br&gt;
+...hang on. You're currently playing the trial
+version, so I can't give you anything else
+until you upgrade to the full version.
+&lt;br&gt;
+You'll have to speak with them again once
+you have the full version to get something.</t>
+  </si>
+  <si>
+    <t>Sanvitalia (BAD STRING)</t>
+  </si>
+  <si>
+    <t>&lt;pipipi_high&gt;その人の話を　しっかり聞くといいぜ。　
+行き先に迷ったら　イエローダイアリーを使うか
+私に会いにくるといい。私は　いつでも大歓迎さ。</t>
+  </si>
+  <si>
+    <t>&lt;pipipi_high&gt;Make sure you listen carefully to what they
+have to say. If you're not sure where to go, 
+you can use your Yellow Diary or come see me.
+&lt;br&gt;
+I'm always happy to help!</t>
+  </si>
+  <si>
+    <t>&lt;pipipi_high&gt;その人の話を　しっかり聞くといいぜ。
+行き先に迷ったら　イエローダイアリーを使うか
+私に会いにくるといい。私は　いつでも大歓迎さ。</t>
+  </si>
+  <si>
+    <t>&lt;pipipi_high&gt;Make sure you listen carefully to what they
+have to say. If you're not sure where to go, 
+you can use your Yellow Diary or come see me.
+&lt;br&gt;
+I'm always happy to help!</t>
+  </si>
+  <si>
+    <t>&lt;pipipi_mid&gt;「大陸間鉄道公社へ　ようこそ！
+　おお　はじめての　お客様ですね？
+　では　大陸間鉄道パスを拝見いたします。&lt;end&gt;</t>
+  </si>
+  <si>
+    <t>&lt;pipipi_mid&gt;Welcome to the Intercontinental Railway Corp!
+Oh, is it your first time here? Then, please
+show me your rail pass.&lt;end&gt;</t>
+  </si>
+  <si>
+    <t>Train dialogue</t>
+  </si>
+  <si>
+    <t>大陸間鉄道パスを　駅員に見せた。&lt;end&gt;</t>
+  </si>
+  <si>
+    <t>You pulled out your Intercontinental Rail
+Pass.&lt;end&gt;</t>
+  </si>
+  <si>
+    <t>Train dialogue (BAD STRING)</t>
+  </si>
+  <si>
+    <t>&lt;pipipi_mid&gt;「はい。確かに　拝見いたしました。
+　これより　お客様は　当大陸間鉄道公社の
+　列車……大地の箱舟を　ご利用いただけます！&lt;br&gt;
+&lt;pipipi_mid&gt;「大地の箱舟に乗れば　目的地まで
+　あっという間に　行くことができます。
+　しかも　どこまで行っても　料金は同じです。&lt;br&gt;
+&lt;pipipi_mid&gt;「ただし　大きな国の駅は　特別な一部の方のみが
+　ご利用いただけるものですので
+　そちらは　ご了承願います。さて……</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;pipipi_mid&gt;Good, everything looks to be in order! You
+are now permitted to use our train, the Ark of
+the Earth, as much as you'd like!
+&lt;br&gt;
+&lt;pipipi_mid&gt;Hop on the train and you'll be at your
+destination in no time flat. Also, the fee is
+the same no matter where you travel to!
+&lt;br&gt;
+&lt;pipipi_mid&gt;However, please be aware that using the train
+in the major cities are reserved for those
+with special privileges. Now then...
+</t>
+  </si>
+  <si>
+    <t>&lt;pipipi_mid&gt;「娯楽島ラッカラン駅に　とうちゃく～。&lt;auto_bw=3000&gt;&lt;close&gt;</t>
+  </si>
+  <si>
+    <t>&lt;pipipi_mid&gt;Now arriving at the Luckland Island station!&lt;auto_bw=3000&gt;&lt;close&gt;</t>
+  </si>
+  <si>
+    <t>&lt;pipipi_mid&gt;「オルフェア駅に　とうちゃく～。&lt;auto_bw=3000&gt;&lt;close&gt;</t>
+  </si>
+  <si>
+    <t>&lt;pipipi_mid&gt;Now arriving at the Orphea station!&lt;auto_bw=3000&gt;&lt;close&gt;</t>
+  </si>
+  <si>
+    <t>&lt;pipipi_mid&gt;「港町レンドア駅に　とうちゃく～。&lt;auto_bw=3000&gt;&lt;close&gt;</t>
+  </si>
+  <si>
+    <t>&lt;pipipi_mid&gt;Now arriving at the Port Town Lendor station!&lt;auto_bw=3000&gt;&lt;close&gt;</t>
+  </si>
+  <si>
+    <t>&lt;pipipi_mid&gt;「アズラン駅に　とうちゃく～。&lt;auto_bw=3000&gt;&lt;close&gt;</t>
+  </si>
+  <si>
+    <t>&lt;pipipi_mid&gt;Now arriving at the Azlan station!&lt;auto_bw=3000&gt;&lt;close&gt;</t>
+  </si>
+  <si>
+    <t>&lt;pipipi_mid&gt;「グレン城下町に　とうちゃく～。&lt;auto_bw=3000&gt;&lt;close&gt;</t>
+  </si>
+  <si>
+    <t>&lt;pipipi_mid&gt;Now arriving at the Glen Castle Town station!&lt;auto_bw=3000&gt;&lt;close&gt;</t>
+  </si>
+  <si>
+    <t>&lt;pipipi_mid&gt;「岳都ガタラ駅に　とうちゃく～。&lt;auto_bw=3000&gt;&lt;close&gt;</t>
+  </si>
+  <si>
+    <t>&lt;pipipi_mid&gt;Now arriving at the Gatara station!&lt;auto_bw=3000&gt;&lt;close&gt;</t>
+  </si>
+  <si>
+    <t>&lt;pipipi_mid&gt;「ドルワーム王国駅に　とうちゃく～。&lt;auto_bw=3000&gt;&lt;close&gt;</t>
+  </si>
+  <si>
+    <t>&lt;pipipi_mid&gt;Now arriving at the Dolworm Kingdom station!&lt;auto_bw=3000&gt;&lt;close&gt;</t>
+  </si>
+  <si>
+    <t>&lt;pipipi_mid&gt;「王都カミハルムイ駅に　とうちゃく～。&lt;auto_bw=3000&gt;&lt;close&gt;</t>
+  </si>
+  <si>
+    <t>&lt;pipipi_mid&gt;Now arriving at the Kamiharmui station!&lt;auto_bw=3000&gt;&lt;close&gt;</t>
+  </si>
+  <si>
+    <t>&lt;pipipi_mid&gt;「メギストリスの都駅に　とうちゃく～。&lt;auto_bw=3000&gt;&lt;close&gt;</t>
+  </si>
+  <si>
+    <t>&lt;pipipi_mid&gt;Now arriving at the City of Megistris station!&lt;auto_bw=3000&gt;&lt;close&gt;</t>
+  </si>
+  <si>
+    <t>&lt;pipipi_mid&gt;「ヴェリナード城駅に　とうちゃく～。&lt;auto_bw=3000&gt;&lt;close&gt;</t>
+  </si>
+  <si>
+    <t>&lt;pipipi_mid&gt;Now arriving at the Verinard Castle station!&lt;auto_bw=3000&gt;&lt;close&gt;</t>
+  </si>
+  <si>
+    <t>&lt;pipipi_mid&gt;「ガートラント城駅に　とうちゃく～。&lt;auto_bw=3000&gt;&lt;close&gt;</t>
+  </si>
+  <si>
+    <t>&lt;pipipi_mid&gt;Now arriving at the Gartlant Castle station!&lt;auto_bw=3000&gt;&lt;close&gt;</t>
+  </si>
+  <si>
+    <t>&lt;pipipi_mid&gt;「ジュレット駅に　とうちゃく～。&lt;auto_bw=3000&gt;&lt;close&gt;</t>
+  </si>
+  <si>
+    <t>&lt;pipipi_mid&gt;Now arriving at the Julet station!&lt;auto_bw=3000&gt;&lt;close&gt;</t>
   </si>
   <si>
     <t>メインコマンド『せんれき』の
@@ -15007,6 +15189,226 @@
         <v>1043</v>
       </c>
     </row>
+    <row r="461">
+      <c r="A461" s="2" t="s">
+        <v>1044</v>
+      </c>
+      <c r="C461" s="7" t="s">
+        <v>1045</v>
+      </c>
+      <c r="D461" s="2" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" s="2" t="s">
+        <v>1047</v>
+      </c>
+      <c r="C462" s="7" t="s">
+        <v>1048</v>
+      </c>
+      <c r="D462" s="2" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" s="2" t="s">
+        <v>1049</v>
+      </c>
+      <c r="C463" s="7" t="s">
+        <v>1050</v>
+      </c>
+      <c r="D463" s="2" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" s="2" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C464" s="7" t="s">
+        <v>1053</v>
+      </c>
+      <c r="D464" s="2" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" s="2" t="s">
+        <v>1054</v>
+      </c>
+      <c r="C465" s="7" t="s">
+        <v>1055</v>
+      </c>
+      <c r="D465" s="2" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" s="2" t="s">
+        <v>1056</v>
+      </c>
+      <c r="C466" s="7" t="s">
+        <v>1057</v>
+      </c>
+      <c r="D466" s="2" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" s="2" t="s">
+        <v>1059</v>
+      </c>
+      <c r="C467" s="7" t="s">
+        <v>1060</v>
+      </c>
+      <c r="D467" s="2" t="s">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" s="2" t="s">
+        <v>1062</v>
+      </c>
+      <c r="C468" s="7" t="s">
+        <v>1063</v>
+      </c>
+      <c r="D468" s="2" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" s="2" t="s">
+        <v>1064</v>
+      </c>
+      <c r="C469" s="7" t="s">
+        <v>1065</v>
+      </c>
+      <c r="D469" s="2" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" s="2" t="s">
+        <v>1066</v>
+      </c>
+      <c r="C470" s="7" t="s">
+        <v>1067</v>
+      </c>
+      <c r="D470" s="2" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" s="2" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C471" s="7" t="s">
+        <v>1069</v>
+      </c>
+      <c r="D471" s="2" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" s="2" t="s">
+        <v>1070</v>
+      </c>
+      <c r="C472" s="7" t="s">
+        <v>1071</v>
+      </c>
+      <c r="D472" s="2" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" s="2" t="s">
+        <v>1072</v>
+      </c>
+      <c r="C473" s="7" t="s">
+        <v>1073</v>
+      </c>
+      <c r="D473" s="2" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" s="2" t="s">
+        <v>1074</v>
+      </c>
+      <c r="C474" s="7" t="s">
+        <v>1075</v>
+      </c>
+      <c r="D474" s="2" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" s="2" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C475" s="7" t="s">
+        <v>1077</v>
+      </c>
+      <c r="D475" s="2" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" s="2" t="s">
+        <v>1078</v>
+      </c>
+      <c r="C476" s="7" t="s">
+        <v>1079</v>
+      </c>
+      <c r="D476" s="2" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" s="2" t="s">
+        <v>1080</v>
+      </c>
+      <c r="C477" s="7" t="s">
+        <v>1081</v>
+      </c>
+      <c r="D477" s="2" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" s="2" t="s">
+        <v>1082</v>
+      </c>
+      <c r="C478" s="7" t="s">
+        <v>1083</v>
+      </c>
+      <c r="D478" s="2" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" s="2" t="s">
+        <v>1084</v>
+      </c>
+      <c r="C479" s="7" t="s">
+        <v>1085</v>
+      </c>
+      <c r="D479" s="2" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" s="2" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C480" s="7" t="s">
+        <v>1087</v>
+      </c>
+      <c r="D480" s="2" t="s">
+        <v>1058</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -15043,18 +15445,18 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>1044</v>
+        <v>1088</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>1045</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>1046</v>
+        <v>1090</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>1047</v>
+        <v>1091</v>
       </c>
     </row>
   </sheetData>

--- a/csv/merge.xlsx
+++ b/csv/merge.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1412" uniqueCount="1092">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1418" uniqueCount="1097">
   <si>
     <t>JP Text (DO NOT CHANGE)</t>
   </si>
@@ -9827,6 +9827,27 @@
   </si>
   <si>
     <t>&lt;pipipi_mid&gt;Now arriving at the Julet station!&lt;auto_bw=3000&gt;&lt;close&gt;</t>
+  </si>
+  <si>
+    <t>たちは　不思議な光に触れた。</t>
+  </si>
+  <si>
+    <t>You and your companions were enveloped in a
+mysterious light.
+&lt;br&gt;
+You and your companion's bodies were filled
+with energy!</t>
+  </si>
+  <si>
+    <t>Healing spot dialogue (BAD STRING)</t>
+  </si>
+  <si>
+    <t>は　不思議な光に触れた。</t>
+  </si>
+  <si>
+    <t>You were enveloped in a mysterious light.
+&lt;br&gt;
+Your body was filled with energy!</t>
   </si>
   <si>
     <t>メインコマンド『せんれき』の
@@ -15409,6 +15430,28 @@
         <v>1058</v>
       </c>
     </row>
+    <row r="481">
+      <c r="A481" s="2" t="s">
+        <v>1088</v>
+      </c>
+      <c r="C481" s="7" t="s">
+        <v>1089</v>
+      </c>
+      <c r="D481" s="2" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" s="2" t="s">
+        <v>1091</v>
+      </c>
+      <c r="C482" s="7" t="s">
+        <v>1092</v>
+      </c>
+      <c r="D482" s="2" t="s">
+        <v>1090</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -15445,18 +15488,18 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>1088</v>
+        <v>1093</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>1089</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>1090</v>
+        <v>1095</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>1091</v>
+        <v>1096</v>
       </c>
     </row>
   </sheetData>

--- a/csv/merge.xlsx
+++ b/csv/merge.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1418" uniqueCount="1097">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1445" uniqueCount="1124">
   <si>
     <t>JP Text (DO NOT CHANGE)</t>
   </si>
@@ -9443,6 +9443,151 @@
   </si>
   <si>
     <t>Mysterious Tower Floor 29 hint</t>
+  </si>
+  <si>
+    <t>&lt;pipipi_shigh&gt;「ヒヒヒ……。オイラ　なぞのツボ。
+　ひとくいサーベル　知ってる？
+　たまに　つうこんのいちげき　使ってくるよ。
+&lt;br&gt;
+「『ぼうぎょ』や『やいばのぼうぎょ』で
+　身を守らないと　大けが　しちゃうかもね。</t>
+  </si>
+  <si>
+    <t>&lt;pipipi_shigh&gt;Hee hee... I'm the Mystery Pot.
+You know those Erazor Blades? Sometimes they
+can deal pretty mighty blows.
+&lt;br&gt;
+If you don't use "Defend" or "Pincushion",
+you might find yourself getting hurt pretty
+bad.</t>
+  </si>
+  <si>
+    <t>Mysterious Tower Floor 31 hint</t>
+  </si>
+  <si>
+    <t>&lt;pipipi_shigh&gt;「ヒヒヒ……。オイラ　なぞのツボ。
+　魔闘士さん　ベホマスライム　知ってる？
+　いやしの雨っていう　わざを使うらしいよ。
+&lt;br&gt;
+「あと　魔闘士さんは　リベホイム使える？
+　自分も　相手も　回復しながら戦えば
+　いいこと　あるかもね。</t>
+  </si>
+  <si>
+    <t>&lt;pipipi_shigh&gt;Hee hee... I'm the Mystery Pot.
+Hey, you. You know those Cureslimes? They
+can use that Right as Rain skill.
+&lt;br&gt;
+Hey, you. Can you use Remoreheal? Why not
+try fighting one while you both are healing
+yourselves?</t>
+  </si>
+  <si>
+    <t>Mysterious Tower Floor 32 hint</t>
+  </si>
+  <si>
+    <t>&lt;pipipi_shigh&gt;「ヒヒヒ……。オイラ　なぞのツボ。
+　魔闘士さん　あやしいかげ　知ってる？
+　暗黒のきりを使って　幻惑してくる　らしいよ。
+&lt;br&gt;
+「相手が　見えづらくても　通常のこうげきで
+　トドメをさせれば　いいことあるかもね。</t>
+  </si>
+  <si>
+    <t>&lt;pipipi_shigh&gt;Hee hee... I'm the Mystery Pot.
+Hey, you. You know those Shades? They can
+use Air Pollution to cloud your vision.
+&lt;br&gt;
+Even if you can't see, you should try
+attacking your enemies anyways,
+right?</t>
+  </si>
+  <si>
+    <t>Mysterious Tower Floor 33 hint</t>
+  </si>
+  <si>
+    <t>&lt;pipipi_shigh&gt;「ヒヒヒ……。オイラ　なぞのツボ。
+　魔闘士さん　スキャンダル　使える？
+　スターは　どこにいても　気が抜けないよね。</t>
+  </si>
+  <si>
+    <t>&lt;pipipi_shigh&gt;Hee hee... I'm the Mystery Pot.
+Hey, you. You know how to use Scandal Eyes?
+Those stars better watch themselves.</t>
+  </si>
+  <si>
+    <t>Mysterious Tower Floor 34 hint</t>
+  </si>
+  <si>
+    <t>&lt;pipipi_shigh&gt;「ヒヒヒ……。オイラ　なぞのツボ。
+　魔闘士さん　心頭滅却　使える？
+　暑さや寒さも　気の持ちようってね。</t>
+  </si>
+  <si>
+    <t>&lt;pipipi_shigh&gt;Hee hee... I'm the Mystery Pot.
+Hey, you. You know how to use Clear Mind?
+Be wary of the hot and the cold.</t>
+  </si>
+  <si>
+    <t>Mysterious Tower Floor 36 hint</t>
+  </si>
+  <si>
+    <t>&lt;pipipi_shigh&gt;「ヒヒヒ……。オイラ　なぞのツボ。
+　魔闘士さん　ラリホー　使える？
+　眠ったままで　やられたい　魔物がいるかもね。</t>
+  </si>
+  <si>
+    <t>&lt;pipipi_shigh&gt;Hee hee... I'm the Mystery Pot.
+Hey, you. You know how to use Snooze? Try
+defeating a monster while its asleep.</t>
+  </si>
+  <si>
+    <t>Mysterious Tower Floor 37 hint</t>
+  </si>
+  <si>
+    <t>&lt;pipipi_shigh&gt;「ヒヒヒ……。オイラ　なぞのツボ。
+　魔闘士さん　ぎんのむねあて　持ってる？
+　装備ランク３の　からだ上の防具だよ。</t>
+  </si>
+  <si>
+    <t>&lt;pipipi_shigh&gt;Hee hee... I'm the Mystery Pot.
+Hey, you. Do you have a Silver Cuirass?
+It's a rank 3 body armor.</t>
+  </si>
+  <si>
+    <t>Mysterious Tower Floor 38 hint</t>
+  </si>
+  <si>
+    <t>&lt;pipipi_shigh&gt;「ヒヒヒ……。オイラ　なぞのツボ。
+　魔闘士さん　アイスフォースと
+　ギガボンバー　使える？
+&lt;br&gt;
+「自分と似た名前って　なんだか
+　親近感が　湧くよね。</t>
+  </si>
+  <si>
+    <t>&lt;pipipi_shigh&gt;Hee hee... I'm the Mystery Pot.
+Hey, you. Do you know how to use Frost
+Fource and Giga Bomber?
+&lt;br&gt;
+A monster with a certain name must be pretty
+familiar with those skills, don't you agree?</t>
+  </si>
+  <si>
+    <t>Mysterious Tower Floor 39 hint</t>
+  </si>
+  <si>
+    <t>&lt;pipipi_shigh&gt;「ヒヒヒ……。オイラ　なぞのツボ。
+　魔闘士さん　ボーンファイター　知ってる？
+　怒ると　すごい剣技を　４連発するらしいよ。</t>
+  </si>
+  <si>
+    <t>&lt;pipipi_shigh&gt;Hee hee... I'm the Mystery Pot. Hey, you.
+You know those Zombie Gladiators? If they're
+angry, they can use four amazing strikes.</t>
+  </si>
+  <si>
+    <t>Mysterious Tower Floor 41 hint</t>
   </si>
   <si>
     <t>こちらの扉からは　先に進めないようだ。</t>
@@ -15152,304 +15297,403 @@
         <v>1028</v>
       </c>
       <c r="D455" s="2" t="s">
-        <v>1026</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="456">
       <c r="A456" s="2" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="C456" s="2" t="s">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="D456" s="2" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="457">
       <c r="A457" s="2" t="s">
-        <v>1032</v>
-      </c>
-      <c r="C457" s="7" t="s">
         <v>1033</v>
       </c>
+      <c r="C457" s="2" t="s">
+        <v>1034</v>
+      </c>
       <c r="D457" s="2" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="458">
       <c r="A458" s="2" t="s">
-        <v>1035</v>
-      </c>
-      <c r="C458" s="7" t="s">
         <v>1036</v>
       </c>
+      <c r="C458" s="2" t="s">
+        <v>1037</v>
+      </c>
       <c r="D458" s="2" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="459">
       <c r="A459" s="2" t="s">
-        <v>1038</v>
-      </c>
-      <c r="C459" s="7" t="s">
         <v>1039</v>
       </c>
+      <c r="C459" s="2" t="s">
+        <v>1040</v>
+      </c>
       <c r="D459" s="2" t="s">
-        <v>1040</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="460">
       <c r="A460" s="2" t="s">
-        <v>1041</v>
-      </c>
-      <c r="C460" s="7" t="s">
         <v>1042</v>
       </c>
+      <c r="C460" s="2" t="s">
+        <v>1043</v>
+      </c>
       <c r="D460" s="2" t="s">
-        <v>1043</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="461">
       <c r="A461" s="2" t="s">
-        <v>1044</v>
-      </c>
-      <c r="C461" s="7" t="s">
         <v>1045</v>
       </c>
+      <c r="C461" s="2" t="s">
+        <v>1046</v>
+      </c>
       <c r="D461" s="2" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="462">
       <c r="A462" s="2" t="s">
-        <v>1047</v>
-      </c>
-      <c r="C462" s="7" t="s">
         <v>1048</v>
       </c>
+      <c r="C462" s="2" t="s">
+        <v>1049</v>
+      </c>
       <c r="D462" s="2" t="s">
-        <v>1046</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="463">
       <c r="A463" s="2" t="s">
-        <v>1049</v>
-      </c>
-      <c r="C463" s="7" t="s">
-        <v>1050</v>
+        <v>1051</v>
+      </c>
+      <c r="C463" s="2" t="s">
+        <v>1052</v>
       </c>
       <c r="D463" s="2" t="s">
-        <v>1051</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="464">
       <c r="A464" s="2" t="s">
-        <v>1052</v>
-      </c>
-      <c r="C464" s="7" t="s">
+        <v>1054</v>
+      </c>
+      <c r="C464" s="2" t="s">
+        <v>1055</v>
+      </c>
+      <c r="D464" s="2" t="s">
         <v>1053</v>
-      </c>
-      <c r="D464" s="2" t="s">
-        <v>1046</v>
       </c>
     </row>
     <row r="465">
       <c r="A465" s="2" t="s">
-        <v>1054</v>
-      </c>
-      <c r="C465" s="7" t="s">
-        <v>1055</v>
+        <v>1056</v>
+      </c>
+      <c r="C465" s="2" t="s">
+        <v>1057</v>
       </c>
       <c r="D465" s="2" t="s">
-        <v>1046</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="466">
       <c r="A466" s="2" t="s">
-        <v>1056</v>
+        <v>1059</v>
       </c>
       <c r="C466" s="7" t="s">
-        <v>1057</v>
+        <v>1060</v>
       </c>
       <c r="D466" s="2" t="s">
-        <v>1058</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="467">
       <c r="A467" s="2" t="s">
-        <v>1059</v>
+        <v>1062</v>
       </c>
       <c r="C467" s="7" t="s">
-        <v>1060</v>
+        <v>1063</v>
       </c>
       <c r="D467" s="2" t="s">
-        <v>1061</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="468">
       <c r="A468" s="2" t="s">
-        <v>1062</v>
+        <v>1065</v>
       </c>
       <c r="C468" s="7" t="s">
-        <v>1063</v>
+        <v>1066</v>
       </c>
       <c r="D468" s="2" t="s">
-        <v>1058</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="469">
       <c r="A469" s="2" t="s">
-        <v>1064</v>
+        <v>1068</v>
       </c>
       <c r="C469" s="7" t="s">
-        <v>1065</v>
+        <v>1069</v>
       </c>
       <c r="D469" s="2" t="s">
-        <v>1058</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="470">
       <c r="A470" s="2" t="s">
-        <v>1066</v>
+        <v>1071</v>
       </c>
       <c r="C470" s="7" t="s">
-        <v>1067</v>
+        <v>1072</v>
       </c>
       <c r="D470" s="2" t="s">
-        <v>1058</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="471">
       <c r="A471" s="2" t="s">
-        <v>1068</v>
+        <v>1074</v>
       </c>
       <c r="C471" s="7" t="s">
-        <v>1069</v>
+        <v>1075</v>
       </c>
       <c r="D471" s="2" t="s">
-        <v>1058</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="472">
       <c r="A472" s="2" t="s">
-        <v>1070</v>
+        <v>1076</v>
       </c>
       <c r="C472" s="7" t="s">
-        <v>1071</v>
+        <v>1077</v>
       </c>
       <c r="D472" s="2" t="s">
-        <v>1058</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="473">
       <c r="A473" s="2" t="s">
-        <v>1072</v>
+        <v>1079</v>
       </c>
       <c r="C473" s="7" t="s">
+        <v>1080</v>
+      </c>
+      <c r="D473" s="2" t="s">
         <v>1073</v>
-      </c>
-      <c r="D473" s="2" t="s">
-        <v>1058</v>
       </c>
     </row>
     <row r="474">
       <c r="A474" s="2" t="s">
-        <v>1074</v>
+        <v>1081</v>
       </c>
       <c r="C474" s="7" t="s">
-        <v>1075</v>
+        <v>1082</v>
       </c>
       <c r="D474" s="2" t="s">
-        <v>1058</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="475">
       <c r="A475" s="2" t="s">
-        <v>1076</v>
+        <v>1083</v>
       </c>
       <c r="C475" s="7" t="s">
-        <v>1077</v>
+        <v>1084</v>
       </c>
       <c r="D475" s="2" t="s">
-        <v>1058</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="476">
       <c r="A476" s="2" t="s">
-        <v>1078</v>
+        <v>1086</v>
       </c>
       <c r="C476" s="7" t="s">
-        <v>1079</v>
+        <v>1087</v>
       </c>
       <c r="D476" s="2" t="s">
-        <v>1058</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="477">
       <c r="A477" s="2" t="s">
-        <v>1080</v>
+        <v>1089</v>
       </c>
       <c r="C477" s="7" t="s">
-        <v>1081</v>
+        <v>1090</v>
       </c>
       <c r="D477" s="2" t="s">
-        <v>1058</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="478">
       <c r="A478" s="2" t="s">
-        <v>1082</v>
+        <v>1091</v>
       </c>
       <c r="C478" s="7" t="s">
-        <v>1083</v>
+        <v>1092</v>
       </c>
       <c r="D478" s="2" t="s">
-        <v>1058</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="479">
       <c r="A479" s="2" t="s">
-        <v>1084</v>
+        <v>1093</v>
       </c>
       <c r="C479" s="7" t="s">
+        <v>1094</v>
+      </c>
+      <c r="D479" s="2" t="s">
         <v>1085</v>
-      </c>
-      <c r="D479" s="2" t="s">
-        <v>1058</v>
       </c>
     </row>
     <row r="480">
       <c r="A480" s="2" t="s">
-        <v>1086</v>
+        <v>1095</v>
       </c>
       <c r="C480" s="7" t="s">
-        <v>1087</v>
+        <v>1096</v>
       </c>
       <c r="D480" s="2" t="s">
-        <v>1058</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="481">
       <c r="A481" s="2" t="s">
-        <v>1088</v>
+        <v>1097</v>
       </c>
       <c r="C481" s="7" t="s">
-        <v>1089</v>
+        <v>1098</v>
       </c>
       <c r="D481" s="2" t="s">
-        <v>1090</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="482">
       <c r="A482" s="2" t="s">
-        <v>1091</v>
+        <v>1099</v>
       </c>
       <c r="C482" s="7" t="s">
-        <v>1092</v>
+        <v>1100</v>
       </c>
       <c r="D482" s="2" t="s">
-        <v>1090</v>
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" s="2" t="s">
+        <v>1101</v>
+      </c>
+      <c r="C483" s="7" t="s">
+        <v>1102</v>
+      </c>
+      <c r="D483" s="2" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" s="2" t="s">
+        <v>1103</v>
+      </c>
+      <c r="C484" s="7" t="s">
+        <v>1104</v>
+      </c>
+      <c r="D484" s="2" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" s="2" t="s">
+        <v>1105</v>
+      </c>
+      <c r="C485" s="7" t="s">
+        <v>1106</v>
+      </c>
+      <c r="D485" s="2" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" s="2" t="s">
+        <v>1107</v>
+      </c>
+      <c r="C486" s="7" t="s">
+        <v>1108</v>
+      </c>
+      <c r="D486" s="2" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" s="2" t="s">
+        <v>1109</v>
+      </c>
+      <c r="C487" s="7" t="s">
+        <v>1110</v>
+      </c>
+      <c r="D487" s="2" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" s="2" t="s">
+        <v>1111</v>
+      </c>
+      <c r="C488" s="7" t="s">
+        <v>1112</v>
+      </c>
+      <c r="D488" s="2" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" s="2" t="s">
+        <v>1113</v>
+      </c>
+      <c r="C489" s="7" t="s">
+        <v>1114</v>
+      </c>
+      <c r="D489" s="2" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" s="2" t="s">
+        <v>1115</v>
+      </c>
+      <c r="C490" s="7" t="s">
+        <v>1116</v>
+      </c>
+      <c r="D490" s="2" t="s">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" s="2" t="s">
+        <v>1118</v>
+      </c>
+      <c r="C491" s="7" t="s">
+        <v>1119</v>
+      </c>
+      <c r="D491" s="2" t="s">
+        <v>1117</v>
       </c>
     </row>
   </sheetData>
@@ -15488,18 +15732,18 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>1093</v>
+        <v>1120</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>1094</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>1095</v>
+        <v>1122</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>1096</v>
+        <v>1123</v>
       </c>
     </row>
   </sheetData>

--- a/csv/merge.xlsx
+++ b/csv/merge.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1445" uniqueCount="1124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1478" uniqueCount="1148">
   <si>
     <t>JP Text (DO NOT CHANGE)</t>
   </si>
@@ -9993,6 +9993,143 @@
     <t>You were enveloped in a mysterious light.
 &lt;br&gt;
 Your body was filled with energy!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">　おふとん　ふかふかにしておいたから
+　休んでいって。
+&lt;br&gt;
+「さあっ　ごはんにする？　お風呂にする？
+　それとも　あ・た・い？♥
+&lt;select&gt;
+ごはん
+お風呂
+フワーネ
+いらない
+&lt;select_end&gt;
+&lt;case 1&gt;
+&lt;break&gt;
+&lt;case 2&gt;
+&lt;break&gt;
+&lt;case 3&gt;
+&lt;break&gt;
+&lt;case 4&gt;
+&lt;break&gt;
+&lt;case_cancel&gt;
+&lt;break&gt;
+&lt;case_end&gt;</t>
+  </si>
+  <si>
+    <t>Welcome home, cutie pie!
+I've made your mattress extra fluffy,
+so please don't work too hard.
+&lt;br&gt;
+Can I get you something to eat? Or a
+nice hot bath?
+Or maaaaybe...
+&lt;select&gt;
+Eat a meal.
+Take a bath.
+Flowfy?
+I'm fine, thanks!
+&lt;select_end&gt;
+&lt;case 1&gt;
+&lt;break&gt;
+&lt;case 2&gt;
+&lt;break&gt;
+&lt;case 3&gt;
+&lt;break&gt;
+&lt;case 4&gt;
+&lt;break&gt;
+&lt;case_cancel&gt;
+&lt;break&gt;
+&lt;case_end&gt;</t>
+  </si>
+  <si>
+    <t>Flowfy (BAD STRING)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">　そういうところも　スキ……♥</t>
+  </si>
+  <si>
+    <t>You are so stoic...
+I really admire that about you...♥</t>
+  </si>
+  <si>
+    <t>「まかせて！
+　今日のごはんは　やくそうのフルコースよ！</t>
+  </si>
+  <si>
+    <t>Leave it to me!
+Today's meal is a full course Medicinal
+Herb!</t>
+  </si>
+  <si>
+    <t>Flowfy</t>
+  </si>
+  <si>
+    <t>やくそうを　詰め込まれた！&lt;se battle_cmn 189&gt;&lt;se Joutyu_SE 137&gt;&lt;se battle_magic 1&gt;</t>
+  </si>
+  <si>
+    <t>Your mouth was completely stuffed with
+Medicinal Herbs!&lt;se battle_cmn 189&gt;&lt;se Joutyu_SE 137&gt;&lt;se battle_magic 1&gt;</t>
+  </si>
+  <si>
+    <t>……とても　苦かった！</t>
+  </si>
+  <si>
+    <t>Yeuck! How bitter!</t>
+  </si>
+  <si>
+    <t>「まかせて！
+　あたいが　背中　ゴシゴシしてあげる！</t>
+  </si>
+  <si>
+    <t>Leave it to me!
+I'll give your back a nice scrubbing!</t>
+  </si>
+  <si>
+    <t>フワーネは　身体を　水びたしにして</t>
+  </si>
+  <si>
+    <t>Flowfy drenched themselves in water, and
+then gave you a good scrubbing!&lt;se Joutyu_SE 60&gt;</t>
+  </si>
+  <si>
+    <t>……気がする。</t>
+  </si>
+  <si>
+    <t>You came out shining!
+...well, at least that's what it feels
+like...</t>
+  </si>
+  <si>
+    <t>「そ　それじゃあ……
+　精いっぱい　もふもふするね……♥</t>
+  </si>
+  <si>
+    <t>Woooow, you're so bold and daring!
+How cute!
+&lt;br&gt;
+O-okay then...
+I'll do my best to give you an amazing
+fluff fluff...♥</t>
+  </si>
+  <si>
+    <t>もふ……もふ……もふ……もふ……。&lt;se Joutyu_SE 58&gt;&lt;se Joutyu_SE 58&gt;&lt;bw_break&gt;</t>
+  </si>
+  <si>
+    <t>Fluff, fluff... Fluff, fluff...&lt;se Joutyu_SE 58&gt;&lt;se Joutyu_SE 58&gt;&lt;bw_break&gt;</t>
+  </si>
+  <si>
+    <t>フワフワの毛を　押しあてた。&lt;se_nots MQ_061_1 0&gt;
+&lt;br&gt;
+なんだか　しあわせな気持ちになった！</t>
+  </si>
+  <si>
+    <t>Flowfy rubbed their fluffy body up against
+your cheek.&lt;se_nots MQ_061_1 0&gt;
+&lt;br&gt;
+You're feeling pretty good!</t>
   </si>
   <si>
     <t>メインコマンド『せんれき』の
@@ -15696,6 +15833,127 @@
         <v>1117</v>
       </c>
     </row>
+    <row r="492">
+      <c r="A492" s="2" t="s">
+        <v>1120</v>
+      </c>
+      <c r="C492" s="7" t="s">
+        <v>1121</v>
+      </c>
+      <c r="D492" s="2" t="s">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" s="2" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C493" s="7" t="s">
+        <v>1124</v>
+      </c>
+      <c r="D493" s="2" t="s">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" s="2" t="s">
+        <v>1125</v>
+      </c>
+      <c r="C494" s="7" t="s">
+        <v>1126</v>
+      </c>
+      <c r="D494" s="2" t="s">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" s="2" t="s">
+        <v>1128</v>
+      </c>
+      <c r="C495" s="7" t="s">
+        <v>1129</v>
+      </c>
+      <c r="D495" s="2" t="s">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" s="2" t="s">
+        <v>1130</v>
+      </c>
+      <c r="C496" s="7" t="s">
+        <v>1131</v>
+      </c>
+      <c r="D496" s="2" t="s">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" s="2" t="s">
+        <v>1132</v>
+      </c>
+      <c r="C497" s="7" t="s">
+        <v>1133</v>
+      </c>
+      <c r="D497" s="2" t="s">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" s="2" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C498" s="7" t="s">
+        <v>1135</v>
+      </c>
+      <c r="D498" s="2" t="s">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" s="2" t="s">
+        <v>1136</v>
+      </c>
+      <c r="C499" s="7" t="s">
+        <v>1137</v>
+      </c>
+      <c r="D499" s="2" t="s">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" s="2" t="s">
+        <v>1138</v>
+      </c>
+      <c r="C500" s="7" t="s">
+        <v>1139</v>
+      </c>
+      <c r="D500" s="2" t="s">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" s="2" t="s">
+        <v>1140</v>
+      </c>
+      <c r="C501" s="7" t="s">
+        <v>1141</v>
+      </c>
+      <c r="D501" s="2" t="s">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" s="2" t="s">
+        <v>1142</v>
+      </c>
+      <c r="C502" s="7" t="s">
+        <v>1143</v>
+      </c>
+      <c r="D502" s="2" t="s">
+        <v>1122</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -15732,18 +15990,18 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>1120</v>
+        <v>1144</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>1121</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>1122</v>
+        <v>1146</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>1123</v>
+        <v>1147</v>
       </c>
     </row>
   </sheetData>

--- a/csv/merge.xlsx
+++ b/csv/merge.xlsx
@@ -15907,7 +15907,7 @@
         <v>1135</v>
       </c>
       <c r="D498" s="2" t="s">
-        <v>1127</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="499">

--- a/csv/merge.xlsx
+++ b/csv/merge.xlsx
@@ -5646,7 +5646,8 @@
     <t>Zelmea (BAD STRING)</t>
   </si>
   <si>
-    <t>階に移動できそうだ。 移動しますか？&lt;yesno&gt;&lt;close&gt;</t>
+    <t>階に移動できそうだ。
+移動しますか？&lt;yesno&gt;&lt;close&gt;</t>
   </si>
   <si>
     <t>You can proceed to the next floor down from

--- a/csv/merge.xlsx
+++ b/csv/merge.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1478" uniqueCount="1148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1487" uniqueCount="1156">
   <si>
     <t>JP Text (DO NOT CHANGE)</t>
   </si>
@@ -10131,6 +10131,35 @@
 your cheek.&lt;se_nots MQ_061_1 0&gt;
 &lt;br&gt;
 You're feeling pretty good!</t>
+  </si>
+  <si>
+    <t>墓石には　文字が書かれている。
+&lt;br&gt;
+最愛の友　シャーロット　ここに眠る。</t>
+  </si>
+  <si>
+    <t>There is a tombstone with an inscription.
+&lt;br&gt;
+"Here lies my beloved friend Er D. Rick."</t>
+  </si>
+  <si>
+    <t>lawl</t>
+  </si>
+  <si>
+    <t>初回討伐報酬（金色の宝箱）が　出現した！</t>
+  </si>
+  <si>
+    <t>A golden treasure chest appeared as a reward
+for your first clear!</t>
+  </si>
+  <si>
+    <t>Evil God Palace clear</t>
+  </si>
+  <si>
+    <t>討伐報酬（赤色の宝箱）が　出現した！</t>
+  </si>
+  <si>
+    <t>A red treasure chest appeared as a reward!</t>
   </si>
   <si>
     <t>メインコマンド『せんれき』の
@@ -15955,6 +15984,39 @@
         <v>1122</v>
       </c>
     </row>
+    <row r="503">
+      <c r="A503" s="2" t="s">
+        <v>1144</v>
+      </c>
+      <c r="C503" s="7" t="s">
+        <v>1145</v>
+      </c>
+      <c r="D503" s="2" t="s">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" s="2" t="s">
+        <v>1147</v>
+      </c>
+      <c r="C504" s="7" t="s">
+        <v>1148</v>
+      </c>
+      <c r="D504" s="2" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" s="2" t="s">
+        <v>1150</v>
+      </c>
+      <c r="C505" s="7" t="s">
+        <v>1151</v>
+      </c>
+      <c r="D505" s="2" t="s">
+        <v>1149</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -15991,18 +16053,18 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>1144</v>
+        <v>1152</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>1145</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>1146</v>
+        <v>1154</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>1147</v>
+        <v>1155</v>
       </c>
     </row>
   </sheetData>

--- a/csv/merge.xlsx
+++ b/csv/merge.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1487" uniqueCount="1156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1493" uniqueCount="1162">
   <si>
     <t>JP Text (DO NOT CHANGE)</t>
   </si>
@@ -10160,6 +10160,88 @@
   </si>
   <si>
     <t>A red treasure chest appeared as a reward!</t>
+  </si>
+  <si>
+    <t>いくつかの場所に　移動できる
+一方通行の　旅の扉のようだ。
+どこへ　移動しますか？
+&lt;select&gt;
+ガートラント城の前
+&lt;color_gray&gt;玉座の間の前
+酒場の前
+&lt;select_end&gt;
+&lt;case 1&gt;
+&lt;close&gt;
+&lt;case 2&gt;
+&lt;close&gt;
+&lt;case 3&gt;
+&lt;close&gt;
+&lt;case_cancel&gt;
+&lt;close&gt;
+&lt;case_end&gt;</t>
+  </si>
+  <si>
+    <t>It's a one way teleportal that can take you
+to several places. Where would you like
+to go?
+&lt;select&gt;
+Gartlant Castle
+&lt;color_gray&gt;Throne Room
+Tavern
+&lt;select_end&gt;
+&lt;case 1&gt;
+&lt;close&gt;
+&lt;case 2&gt;
+&lt;close&gt;
+&lt;case 3&gt;
+&lt;close&gt;
+&lt;case_cancel&gt;
+&lt;close&gt;
+&lt;case_end&gt;</t>
+  </si>
+  <si>
+    <t>Gartlant teleportal (Paladin quest)</t>
+  </si>
+  <si>
+    <t>いくつかの場所に　移動できる
+一方通行の　旅の扉のようだ。
+どこへ　移動しますか？
+&lt;select&gt;
+ガートラント城の前
+玉座の間の前
+酒場の前
+&lt;select_end&gt;
+&lt;case 1&gt;
+&lt;close&gt;
+&lt;case 2&gt;
+&lt;close&gt;
+&lt;case 3&gt;
+&lt;close&gt;
+&lt;case_cancel&gt;
+&lt;close&gt;
+&lt;case_end&gt;</t>
+  </si>
+  <si>
+    <t>It's a one way teleportal that can take you
+to several places. Where would you like
+to go?
+&lt;select&gt;
+Gartlant Castle
+Throne Room
+Tavern
+&lt;select_end&gt;
+&lt;case 1&gt;
+&lt;close&gt;
+&lt;case 2&gt;
+&lt;close&gt;
+&lt;case 3&gt;
+&lt;close&gt;
+&lt;case_cancel&gt;
+&lt;close&gt;
+&lt;case_end&gt;</t>
+  </si>
+  <si>
+    <t>Gartlant teleportal</t>
   </si>
   <si>
     <t>メインコマンド『せんれき』の
@@ -16017,6 +16099,28 @@
         <v>1149</v>
       </c>
     </row>
+    <row r="506">
+      <c r="A506" s="2" t="s">
+        <v>1152</v>
+      </c>
+      <c r="C506" s="7" t="s">
+        <v>1153</v>
+      </c>
+      <c r="D506" s="2" t="s">
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" s="2" t="s">
+        <v>1155</v>
+      </c>
+      <c r="C507" s="7" t="s">
+        <v>1156</v>
+      </c>
+      <c r="D507" s="2" t="s">
+        <v>1157</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -16053,18 +16157,18 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>1152</v>
+        <v>1158</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>1153</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>1154</v>
+        <v>1160</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>1155</v>
+        <v>1161</v>
       </c>
     </row>
   </sheetData>

--- a/csv/merge.xlsx
+++ b/csv/merge.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1493" uniqueCount="1162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1496" uniqueCount="1164">
   <si>
     <t>JP Text (DO NOT CHANGE)</t>
   </si>
@@ -10242,6 +10242,12 @@
   </si>
   <si>
     <t>Gartlant teleportal</t>
+  </si>
+  <si>
+    <t>今は　その場所には　飛べないようだ。</t>
+  </si>
+  <si>
+    <t>You cannot warp to that location right now.</t>
   </si>
   <si>
     <t>メインコマンド『せんれき』の
@@ -16121,6 +16127,17 @@
         <v>1157</v>
       </c>
     </row>
+    <row r="508">
+      <c r="A508" s="2" t="s">
+        <v>1158</v>
+      </c>
+      <c r="C508" s="7" t="s">
+        <v>1159</v>
+      </c>
+      <c r="D508" s="2" t="s">
+        <v>1154</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -16157,18 +16174,18 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>1158</v>
+        <v>1160</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>1159</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>1160</v>
+        <v>1162</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>1161</v>
+        <v>1163</v>
       </c>
     </row>
   </sheetData>

--- a/csv/merge.xlsx
+++ b/csv/merge.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1496" uniqueCount="1164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1505" uniqueCount="1172">
   <si>
     <t>JP Text (DO NOT CHANGE)</t>
   </si>
@@ -10248,6 +10248,39 @@
   </si>
   <si>
     <t>You cannot warp to that location right now.</t>
+  </si>
+  <si>
+    <t>「宝珠を　青い炎に捧げた後も
+　呪文や特技の表示内容は　一度変更するまで
+　今の状態が　記憶されているぞ。</t>
+  </si>
+  <si>
+    <t>Even after offering the jewel to the blue
+flame, your current skill and spell positions will
+stay as they are.
+&lt;br&gt;
+I've placed the stone into your bag.
+Please return here if you need my
+services again.</t>
+  </si>
+  <si>
+    <t>Skill point reset NPC (BAD STRING)</t>
+  </si>
+  <si>
+    <t>ゴールド受け取った。
+　やりなおしの宝珠を　受け取るがいい。</t>
+  </si>
+  <si>
+    <t>Thank you. Please take this stone.</t>
+  </si>
+  <si>
+    <t>青い炎が　神々しく燃えさかっている。&lt;bw_break&gt;</t>
+  </si>
+  <si>
+    <t>It's a blue flame, burning with a divine|power.&lt;bw_break&gt;</t>
+  </si>
+  <si>
+    <t>Skill point reset NPC</t>
   </si>
   <si>
     <t>メインコマンド『せんれき』の
@@ -16138,6 +16171,39 @@
         <v>1154</v>
       </c>
     </row>
+    <row r="509">
+      <c r="A509" s="2" t="s">
+        <v>1160</v>
+      </c>
+      <c r="C509" s="7" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D509" s="2" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" s="2" t="s">
+        <v>1163</v>
+      </c>
+      <c r="C510" s="7" t="s">
+        <v>1164</v>
+      </c>
+      <c r="D510" s="2" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" s="2" t="s">
+        <v>1165</v>
+      </c>
+      <c r="C511" s="7" t="s">
+        <v>1166</v>
+      </c>
+      <c r="D511" s="2" t="s">
+        <v>1167</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -16174,18 +16240,18 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>1160</v>
+        <v>1168</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>1161</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>1162</v>
+        <v>1170</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>1163</v>
+        <v>1171</v>
       </c>
     </row>
   </sheetData>

--- a/csv/merge.xlsx
+++ b/csv/merge.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1505" uniqueCount="1172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1511" uniqueCount="1177">
   <si>
     <t>JP Text (DO NOT CHANGE)</t>
   </si>
@@ -10281,6 +10281,23 @@
   </si>
   <si>
     <t>Skill point reset NPC</t>
+  </si>
+  <si>
+    <t>』に　勝利した！&lt;me 58&gt;&lt;auto_bw=10000&gt;&lt;close&gt;</t>
+  </si>
+  <si>
+    <t>You emerged victorious!&lt;me 58&gt;&lt;auto_bw=10000&gt;&lt;close&gt;</t>
+  </si>
+  <si>
+    <t>Battle Road win (BAD STRING)</t>
+  </si>
+  <si>
+    <t>&lt;attr&gt;&lt;feel_happy_lv3&gt;&lt;end_attr&gt;「キャーッ！　ナイス・ビクトリー！</t>
+  </si>
+  <si>
+    <t>&lt;attr&gt;&lt;feel_happy_lv3&gt;&lt;end_attr&gt;Wow! Nice victory! Congratulations!
+We hope to see your amazing battling skills
+again soon!</t>
   </si>
   <si>
     <t>メインコマンド『せんれき』の
@@ -16204,6 +16221,28 @@
         <v>1167</v>
       </c>
     </row>
+    <row r="512">
+      <c r="A512" s="2" t="s">
+        <v>1168</v>
+      </c>
+      <c r="C512" s="7" t="s">
+        <v>1169</v>
+      </c>
+      <c r="D512" s="2" t="s">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" s="2" t="s">
+        <v>1171</v>
+      </c>
+      <c r="C513" s="7" t="s">
+        <v>1172</v>
+      </c>
+      <c r="D513" s="2" t="s">
+        <v>1170</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -16240,18 +16279,18 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>1168</v>
+        <v>1173</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>1169</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>1170</v>
+        <v>1175</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>1171</v>
+        <v>1176</v>
       </c>
     </row>
   </sheetData>

--- a/csv/merge.xlsx
+++ b/csv/merge.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1511" uniqueCount="1177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1532" uniqueCount="1192">
   <si>
     <t>JP Text (DO NOT CHANGE)</t>
   </si>
@@ -10298,6 +10298,106 @@
     <t>&lt;attr&gt;&lt;feel_happy_lv3&gt;&lt;end_attr&gt;Wow! Nice victory! Congratulations!
 We hope to see your amazing battling skills
 again soon!</t>
+  </si>
+  <si>
+    <t>&lt;color_yellow&gt;この戦いは　冒険者の実力を試す戦いです。
+選択難易度は　「強い」から戦うことになり
+敗戦回数に応じて　選択肢が増える特殊戦闘です。</t>
+  </si>
+  <si>
+    <t>&lt;color_yellow&gt;This battle is a true test of strength. The
+default difficulty is Strong. 
+&lt;br&gt;
+After being defeated a certain number of
+times, lower difficulties will become
+available on subsequent attempts.</t>
+  </si>
+  <si>
+    <t>Master Class battle</t>
+  </si>
+  <si>
+    <t>敵の強さを　選んでください。
+&lt;select_nc&gt;
+強い　（特訓スタンプ 2.0倍）
+&lt;select_end&gt;&lt;close&gt;</t>
+  </si>
+  <si>
+    <t>Choose the difficulty of this battle.
+&lt;select_nc&gt;
+Strong (2x Stamps)
+&lt;select_end&gt;&lt;close&gt;</t>
+  </si>
+  <si>
+    <t>敵の強さを　選んでください。
+&lt;select_nc&gt;
+強い　（特訓スタンプ 2.0倍）
+ふつう（特訓スタンプ 1.5倍）
+&lt;select_end&gt;&lt;close&gt;</t>
+  </si>
+  <si>
+    <t>Choose the difficulty of this battle.
+&lt;select_nc&gt;
+Strong (2x Stamps)
+Normal (1.5x Stamps)
+&lt;select_end&gt;&lt;close&gt;</t>
+  </si>
+  <si>
+    <t>敵の強さを　選んでください。
+&lt;select_nc&gt;
+強い　（特訓スタンプ 2.0倍）
+ふつう（特訓スタンプ 1.5倍）
+弱い
+&lt;select_end&gt;&lt;close&gt;</t>
+  </si>
+  <si>
+    <t>Choose the difficulty of this battle.
+&lt;select_nc&gt;
+Strong (2x Stamps)
+Normal (1.5x Stamps)
+Weak
+&lt;select_end&gt;&lt;close&gt;</t>
+  </si>
+  <si>
+    <t>敵の強さを　選んでください。
+&lt;select_nc&gt;
+強い　（経験値 2.0倍）
+&lt;select_end&gt;&lt;close&gt;</t>
+  </si>
+  <si>
+    <t>Choose the difficulty of this battle.
+&lt;select_nc&gt;
+Strong (2x EXP)
+&lt;select_end&gt;&lt;close&gt;</t>
+  </si>
+  <si>
+    <t>敵の強さを　選んでください。
+&lt;select_nc&gt;
+強い　（経験値 2.0倍）
+ふつう（経験値 1.5倍）
+&lt;select_end&gt;&lt;close&gt;</t>
+  </si>
+  <si>
+    <t>Choose the difficulty of this battle.
+&lt;select_nc&gt;
+Strong (2x EXP)
+Normal (1.5x EXP)
+&lt;select_end&gt;&lt;close&gt;</t>
+  </si>
+  <si>
+    <t>敵の強さを　選んでください。
+&lt;select_nc&gt;
+強い　（経験値 2.0倍）
+ふつう（経験値 1.5倍）
+弱い
+&lt;select_end&gt;&lt;close&gt;</t>
+  </si>
+  <si>
+    <t>Choose the difficulty of this battle.
+&lt;select_nc&gt;
+Strong (2x EXP)
+Normal (1.5x EXP)
+Weak
+&lt;select_end&gt;&lt;close&gt;</t>
   </si>
   <si>
     <t>メインコマンド『せんれき』の
@@ -16243,6 +16343,83 @@
         <v>1170</v>
       </c>
     </row>
+    <row r="514">
+      <c r="A514" s="2" t="s">
+        <v>1173</v>
+      </c>
+      <c r="C514" s="7" t="s">
+        <v>1174</v>
+      </c>
+      <c r="D514" s="2" t="s">
+        <v>1175</v>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" s="2" t="s">
+        <v>1176</v>
+      </c>
+      <c r="C515" s="7" t="s">
+        <v>1177</v>
+      </c>
+      <c r="D515" s="2" t="s">
+        <v>1175</v>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" s="2" t="s">
+        <v>1178</v>
+      </c>
+      <c r="C516" s="7" t="s">
+        <v>1179</v>
+      </c>
+      <c r="D516" s="2" t="s">
+        <v>1175</v>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" s="2" t="s">
+        <v>1180</v>
+      </c>
+      <c r="C517" s="7" t="s">
+        <v>1181</v>
+      </c>
+      <c r="D517" s="2" t="s">
+        <v>1175</v>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" s="2" t="s">
+        <v>1182</v>
+      </c>
+      <c r="C518" s="7" t="s">
+        <v>1183</v>
+      </c>
+      <c r="D518" s="2" t="s">
+        <v>1175</v>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" s="2" t="s">
+        <v>1184</v>
+      </c>
+      <c r="C519" s="7" t="s">
+        <v>1185</v>
+      </c>
+      <c r="D519" s="2" t="s">
+        <v>1175</v>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" s="2" t="s">
+        <v>1186</v>
+      </c>
+      <c r="C520" s="7" t="s">
+        <v>1187</v>
+      </c>
+      <c r="D520" s="2" t="s">
+        <v>1175</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -16279,18 +16456,18 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>1173</v>
+        <v>1188</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>1174</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>1175</v>
+        <v>1190</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>1176</v>
+        <v>1191</v>
       </c>
     </row>
   </sheetData>

--- a/csv/merge.xlsx
+++ b/csv/merge.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1532" uniqueCount="1192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1535" uniqueCount="1195">
   <si>
     <t>JP Text (DO NOT CHANGE)</t>
   </si>
@@ -10398,6 +10398,48 @@
 Normal (1.5x EXP)
 Weak
 &lt;select_end&gt;&lt;close&gt;</t>
+  </si>
+  <si>
+    <t>「マスタークラスの職業のみが使える
+　『ゾーン』と呼ばれる　特殊な能力について
+　あらかじめ　お伝えしておきましょう。
+&lt;br&gt;
+「戦闘中に　特定の条件を満たすことで
+　従来の職業が持つ　『必殺チャージ』に代わり
+　ゾーンに　入ることが　できます。
+&lt;br&gt;
+「ゾーン中は　なんと
+　自身の様々な能力が　上昇するのです！
+　上がる能力は　職業ごとに　異なります。
+&lt;br&gt;
+「さらに　その職業の先達から　学ぶことで
+　ゾーン中に　『ゾーン技』と呼ばれる
+　強力な技を　使えるのです！&lt;bw_break&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">And with this, I was able to fulfill the great
+task entrusted to me by my Master.
+Thank you, truly.
+&lt;br&gt;
+Now, let me explain to you a special ability
+that only Master Class vocations can use.
+It is called "Pep".
+&lt;br&gt;
+During battle, you have a chance to become
+"pepped up", much like a normal vocation's
+Special skill triggering.
+&lt;br&gt;
+While pepped up, your attributes will get
+a substantial boost! The attributes differ
+between each vocation.
+&lt;br&gt;
+Furthermore, by learning the ways of your
+vocation, you can learn powerful
+"Pep Powers" that can be used while pepped up!&lt;bw_break&gt;
+</t>
+  </si>
+  <si>
+    <t>Sarias Pep explanation (BAD STRING)</t>
   </si>
   <si>
     <t>メインコマンド『せんれき』の
@@ -16420,6 +16462,17 @@
         <v>1175</v>
       </c>
     </row>
+    <row r="521">
+      <c r="A521" s="2" t="s">
+        <v>1188</v>
+      </c>
+      <c r="C521" s="7" t="s">
+        <v>1189</v>
+      </c>
+      <c r="D521" s="2" t="s">
+        <v>1190</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -16456,18 +16509,18 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>1188</v>
+        <v>1191</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>1189</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>1190</v>
+        <v>1193</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>1191</v>
+        <v>1194</v>
       </c>
     </row>
   </sheetData>

--- a/csv/merge.xlsx
+++ b/csv/merge.xlsx
@@ -10430,8 +10430,8 @@
 Special skill triggering.
 &lt;br&gt;
 While pepped up, your attributes will get
-a substantial boost! The attributes differ
-between each vocation.
+a substantial boost! The attributes boosted
+will differ between each vocation.
 &lt;br&gt;
 Furthermore, by learning the ways of your
 vocation, you can learn powerful

--- a/csv/merge.xlsx
+++ b/csv/merge.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1535" uniqueCount="1195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1568" uniqueCount="1221">
   <si>
     <t>JP Text (DO NOT CHANGE)</t>
   </si>
@@ -10440,6 +10440,481 @@
   </si>
   <si>
     <t>Sarias Pep explanation (BAD STRING)</t>
+  </si>
+  <si>
+    <t>「オレに倒してほしい
+　迷宮の主を　呼び出すアイテムがあれば
+　渡してくれ。&lt;yesno&gt;&lt;close&gt;</t>
+  </si>
+  <si>
+    <t>If you've got an item that you can offer
+to summon a Maze Boss, please give
+it to me.&lt;yesno&gt;&lt;close&gt;</t>
+  </si>
+  <si>
+    <t>Magic Maze Terry</t>
+  </si>
+  <si>
+    <t>「ありがとよ。次に会うときまでには
+　倒しておいてやるよ。
+&lt;br&gt;
+「ああ。それと　オレの代理で　港町レンドア北の
+　ロンデってやつから　赤色の宝箱の中身を
+　受け取れるぜ。よかったら　利用してくれ。</t>
+  </si>
+  <si>
+    <t>Thanks. I'll have them beat by the next time
+I see you.
+&lt;br&gt;
+If you don't want to wait, you can get the
+stuff from the red treasure chest from
+someone named Ronde. It's fine by me.</t>
+  </si>
+  <si>
+    <t>「ギルルルル……。ワタシ　強い。
+　いっぱい手に入る。また　取りにこい。
+　ギルル……ン。</t>
+  </si>
+  <si>
+    <t>(snarl)... Lizzie strong.
+Lizzie find lots of things. Give to you.
+(spit)</t>
+  </si>
+  <si>
+    <t>Magic Maze Lizzie</t>
+  </si>
+  <si>
+    <t>「ギルルルル……。　これ拾った。
+　食べられない。ワタシ　いらない。
+　アナタ　これ　やる。ギルルルル……。</t>
+  </si>
+  <si>
+    <t>(snarl) Lizzie picked this up. But no can eat.
+Lizzie don't want, so you take. (snarl)</t>
+  </si>
+  <si>
+    <t>「もし　よければ　あなたには
+　私の旅路の　すべてを聞いてほしいの。
+　さあ　何から　話したものかしら？
+&lt;select 1&gt;
+時獄の迷宮を脱出したあとは？
+エテーネ王国では？
+古グランゼドーラ王国では？
+時渡りの呪いについて
+これからのメレアーデ
+ネコちゃんについて
+やめる
+&lt;select_end&gt;
+&lt;case 1&gt;
+&lt;break&gt;
+&lt;case 2&gt;
+&lt;break&gt;
+&lt;case 3&gt;
+&lt;break&gt;
+&lt;case 4&gt;
+&lt;break&gt;
+&lt;case 5&gt;
+&lt;break&gt;
+&lt;case 6&gt;
+&lt;break&gt;
+&lt;case 7&gt;
+&lt;break&gt;
+&lt;case_cancel&gt;
+&lt;break&gt;
+&lt;case_end&gt;</t>
+  </si>
+  <si>
+    <t>&lt;attr&gt;feel_normal_one&gt;&lt;end_attr&gt;I know that your time away from me has been
+brief, but for me it has been many years.
+&lt;br&gt;
+If you'd please listen, I'd like to tell you all
+about my journey. Where should I begin?
+&lt;select 1&gt;
+After escaping the Time Prison?
+Ethene Kingdom?
+Old Gran Zedora Kingdom?
+Ask about the time traveling curse.
+Future Mereade
+Ask about the cats.
+Cancel
+&lt;select_end&gt;
+&lt;case 1&gt;
+&lt;break&gt;
+&lt;case 2&gt;
+&lt;break&gt;
+&lt;case 3&gt;
+&lt;break&gt;
+&lt;case 4&gt;
+&lt;break&gt;
+&lt;case 5&gt;
+&lt;break&gt;
+&lt;case 6&gt;
+&lt;break&gt;
+&lt;case 7&gt;
+&lt;break&gt;
+&lt;case_cancel&gt;
+&lt;break&gt;
+&lt;case_end&gt;</t>
+  </si>
+  <si>
+    <t>Quest 589 (BAD STRING)</t>
+  </si>
+  <si>
+    <t>&lt;attr&gt;&lt;feel_normal_one&gt;&lt;end_attr&gt;「ほかに何か　聞きたいことはある？
+&lt;select 1&gt;
+時獄の迷宮を脱出したあとは？
+エテーネ王国では？
+古グランゼドーラ王国では？
+時渡りの呪いについて
+これからのメレアーデ
+ネコちゃんについて
+やめる
+&lt;select_end&gt;
+&lt;case 1&gt;
+&lt;break&gt;
+&lt;case 2&gt;
+&lt;break&gt;
+&lt;case 3&gt;
+&lt;break&gt;
+&lt;case 4&gt;
+&lt;break&gt;
+&lt;case 5&gt;
+&lt;break&gt;
+&lt;case 6&gt;
+&lt;break&gt;
+&lt;case 7&gt;
+&lt;break&gt;
+&lt;case_cancel&gt;
+&lt;break&gt;
+&lt;case_end&gt;</t>
+  </si>
+  <si>
+    <t>&lt;attr&gt;&lt;feel_normal_one&gt;&lt;end_attr&gt;Is there anything else you want to ask
+about?
+&lt;select 1&gt;
+After escaping the Time Prison?
+Ethene Kingdom?
+Old Gran Zedora Kingdom?
+Ask about the time traveling curse.
+Future Mereade
+Ask about the cats.
+Cancel
+&lt;select_end&gt;
+&lt;case 1&gt;
+&lt;break&gt;
+&lt;case 2&gt;
+&lt;break&gt;
+&lt;case 3&gt;
+&lt;break&gt;
+&lt;case 4&gt;
+&lt;break&gt;
+&lt;case 5&gt;
+&lt;break&gt;
+&lt;case 6&gt;
+&lt;break&gt;
+&lt;case 7&gt;
+&lt;break&gt;
+&lt;case_cancel&gt;
+&lt;break&gt;
+&lt;case_end&gt;</t>
+  </si>
+  <si>
+    <t>Quest 589</t>
+  </si>
+  <si>
+    <t>&lt;attr&gt;&lt;feel_normal_one&gt;&lt;end_attr&gt;「ほかに何か　聞きたいことはある？
+&lt;select 2&gt;
+時獄の迷宮を脱出したあとは？
+エテーネ王国では？
+古グランゼドーラ王国では？
+時渡りの呪いについて
+これからのメレアーデ
+ネコちゃんについて
+やめる
+&lt;select_end&gt;
+&lt;case 1&gt;
+&lt;break&gt;
+&lt;case 2&gt;
+&lt;break&gt;
+&lt;case 3&gt;
+&lt;break&gt;
+&lt;case 4&gt;
+&lt;break&gt;
+&lt;case 5&gt;
+&lt;break&gt;
+&lt;case 6&gt;
+&lt;break&gt;
+&lt;case 7&gt;
+&lt;break&gt;
+&lt;case_cancel&gt;
+&lt;break&gt;
+&lt;case_end&gt;</t>
+  </si>
+  <si>
+    <t>&lt;attr&gt;&lt;feel_normal_one&gt;&lt;end_attr&gt;Is there anything else you want to ask
+about?
+&lt;select 2&gt;
+After escaping the Time Prison?
+Ethene Kingdom?
+Old Gran Zedora Kingdom?
+Ask about the time traveling curse.
+Future Mereade
+Ask about the cats.
+Cancel
+&lt;select_end&gt;
+&lt;case 1&gt;
+&lt;break&gt;
+&lt;case 2&gt;
+&lt;break&gt;
+&lt;case 3&gt;
+&lt;break&gt;
+&lt;case 4&gt;
+&lt;break&gt;
+&lt;case 5&gt;
+&lt;break&gt;
+&lt;case 6&gt;
+&lt;break&gt;
+&lt;case 7&gt;
+&lt;break&gt;
+&lt;case_cancel&gt;
+&lt;break&gt;
+&lt;case_end&gt;</t>
+  </si>
+  <si>
+    <t>&lt;attr&gt;&lt;feel_normal_one&gt;&lt;end_attr&gt;「ほかに何か　聞きたいことはある？
+&lt;select 3&gt;
+時獄の迷宮を脱出したあとは？
+エテーネ王国では？
+古グランゼドーラ王国では？
+時渡りの呪いについて
+これからのメレアーデ
+ネコちゃんについて
+やめる
+&lt;select_end&gt;
+&lt;case 1&gt;
+&lt;break&gt;
+&lt;case 2&gt;
+&lt;break&gt;
+&lt;case 3&gt;
+&lt;break&gt;
+&lt;case 4&gt;
+&lt;break&gt;
+&lt;case 5&gt;
+&lt;break&gt;
+&lt;case 6&gt;
+&lt;break&gt;
+&lt;case 7&gt;
+&lt;break&gt;
+&lt;case_cancel&gt;
+&lt;break&gt;
+&lt;case_end&gt;</t>
+  </si>
+  <si>
+    <t>&lt;attr&gt;&lt;feel_normal_one&gt;&lt;end_attr&gt;Is there anything else you want to ask
+about?
+&lt;select 3&gt;
+After escaping the Time Prison?
+Ethene Kingdom?
+Old Gran Zedora Kingdom?
+Ask about the time traveling curse.
+Future Mereade
+Ask about the cats.
+Cancel
+&lt;select_end&gt;
+&lt;case 1&gt;
+&lt;break&gt;
+&lt;case 2&gt;
+&lt;break&gt;
+&lt;case 3&gt;
+&lt;break&gt;
+&lt;case 4&gt;
+&lt;break&gt;
+&lt;case 5&gt;
+&lt;break&gt;
+&lt;case 6&gt;
+&lt;break&gt;
+&lt;case 7&gt;
+&lt;break&gt;
+&lt;case_cancel&gt;
+&lt;break&gt;
+&lt;case_end&gt;</t>
+  </si>
+  <si>
+    <t>&lt;attr&gt;&lt;feel_normal_one&gt;&lt;end_attr&gt;「ほかに何か　聞きたいことはある？
+&lt;select 4&gt;
+時獄の迷宮を脱出したあとは？
+エテーネ王国では？
+古グランゼドーラ王国では？
+時渡りの呪いについて
+これからのメレアーデ
+ネコちゃんについて
+やめる
+&lt;select_end&gt;
+&lt;case 1&gt;
+&lt;break&gt;
+&lt;case 2&gt;
+&lt;break&gt;
+&lt;case 3&gt;
+&lt;break&gt;
+&lt;case 4&gt;
+&lt;break&gt;
+&lt;case 5&gt;
+&lt;break&gt;
+&lt;case 6&gt;
+&lt;break&gt;
+&lt;case 7&gt;
+&lt;break&gt;
+&lt;case_cancel&gt;
+&lt;break&gt;
+&lt;case_end&gt;</t>
+  </si>
+  <si>
+    <t>&lt;attr&gt;&lt;feel_normal_one&gt;&lt;end_attr&gt;Is there anything else you want to ask
+about?
+&lt;select 4&gt;
+After escaping the Time Prison?
+Ethene Kingdom?
+Old Gran Zedora Kingdom?
+Ask about the time traveling curse.
+Future Mereade
+Ask about the cats.
+Cancel
+&lt;select_end&gt;
+&lt;case 1&gt;
+&lt;break&gt;
+&lt;case 2&gt;
+&lt;break&gt;
+&lt;case 3&gt;
+&lt;break&gt;
+&lt;case 4&gt;
+&lt;break&gt;
+&lt;case 5&gt;
+&lt;break&gt;
+&lt;case 6&gt;
+&lt;break&gt;
+&lt;case 7&gt;
+&lt;break&gt;
+&lt;case_cancel&gt;
+&lt;break&gt;
+&lt;case_end&gt;</t>
+  </si>
+  <si>
+    <t>&lt;attr&gt;&lt;feel_normal_one&gt;&lt;end_attr&gt;「ほかに何か　聞きたいことはある？
+&lt;select 5&gt;
+時獄の迷宮を脱出したあとは？
+エテーネ王国では？
+古グランゼドーラ王国では？
+時渡りの呪いについて
+これからのメレアーデ
+ネコちゃんについて
+やめる
+&lt;select_end&gt;
+&lt;case 1&gt;
+&lt;break&gt;
+&lt;case 2&gt;
+&lt;break&gt;
+&lt;case 3&gt;
+&lt;break&gt;
+&lt;case 4&gt;
+&lt;break&gt;
+&lt;case 5&gt;
+&lt;break&gt;
+&lt;case 6&gt;
+&lt;break&gt;
+&lt;case 7&gt;
+&lt;break&gt;
+&lt;case_cancel&gt;
+&lt;break&gt;
+&lt;case_end&gt;</t>
+  </si>
+  <si>
+    <t>&lt;attr&gt;&lt;feel_normal_one&gt;&lt;end_attr&gt;Is there anything else you want to ask
+about?
+&lt;select 5&gt;
+After escaping the Time Prison?
+Ethene Kingdom?
+Old Gran Zedora Kingdom?
+Ask about the time traveling curse.
+Future Mereade
+Ask about the cats.
+Cancel
+&lt;select_end&gt;
+&lt;case 1&gt;
+&lt;break&gt;
+&lt;case 2&gt;
+&lt;break&gt;
+&lt;case 3&gt;
+&lt;break&gt;
+&lt;case 4&gt;
+&lt;break&gt;
+&lt;case 5&gt;
+&lt;break&gt;
+&lt;case 6&gt;
+&lt;break&gt;
+&lt;case 7&gt;
+&lt;break&gt;
+&lt;case_cancel&gt;
+&lt;break&gt;
+&lt;case_end&gt;</t>
+  </si>
+  <si>
+    <t>&lt;attr&gt;&lt;feel_normal_one&gt;&lt;end_attr&gt;「ほかに何か　聞きたいことはある？
+&lt;select 6&gt;
+時獄の迷宮を脱出したあとは？
+エテーネ王国では？
+古グランゼドーラ王国では？
+時渡りの呪いについて
+これからのメレアーデ
+ネコちゃんについて
+やめる
+&lt;select_end&gt;
+&lt;case 1&gt;
+&lt;break&gt;
+&lt;case 2&gt;
+&lt;break&gt;
+&lt;case 3&gt;
+&lt;break&gt;
+&lt;case 4&gt;
+&lt;break&gt;
+&lt;case 5&gt;
+&lt;break&gt;
+&lt;case 6&gt;
+&lt;break&gt;
+&lt;case 7&gt;
+&lt;break&gt;
+&lt;case_cancel&gt;
+&lt;break&gt;
+&lt;case_end&gt;</t>
+  </si>
+  <si>
+    <t>&lt;attr&gt;&lt;feel_normal_one&gt;&lt;end_attr&gt;Is there anything else you want to ask
+about?
+&lt;select 6&gt;
+After escaping the Time Prison?
+Ethene Kingdom?
+Old Gran Zedora Kingdom?
+Ask about the time traveling curse.
+Future Mereade
+Ask about the cats.
+Cancel
+&lt;select_end&gt;
+&lt;case 1&gt;
+&lt;break&gt;
+&lt;case 2&gt;
+&lt;break&gt;
+&lt;case 3&gt;
+&lt;break&gt;
+&lt;case 4&gt;
+&lt;break&gt;
+&lt;case 5&gt;
+&lt;break&gt;
+&lt;case 6&gt;
+&lt;break&gt;
+&lt;case 7&gt;
+&lt;break&gt;
+&lt;case_cancel&gt;
+&lt;break&gt;
+&lt;case_end&gt;</t>
   </si>
   <si>
     <t>メインコマンド『せんれき』の
@@ -16473,6 +16948,127 @@
         <v>1190</v>
       </c>
     </row>
+    <row r="522">
+      <c r="A522" s="2" t="s">
+        <v>1191</v>
+      </c>
+      <c r="C522" s="7" t="s">
+        <v>1192</v>
+      </c>
+      <c r="D522" s="2" t="s">
+        <v>1193</v>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" s="2" t="s">
+        <v>1194</v>
+      </c>
+      <c r="C523" s="7" t="s">
+        <v>1195</v>
+      </c>
+      <c r="D523" s="2" t="s">
+        <v>1193</v>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" s="2" t="s">
+        <v>1196</v>
+      </c>
+      <c r="C524" s="7" t="s">
+        <v>1197</v>
+      </c>
+      <c r="D524" s="2" t="s">
+        <v>1198</v>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="C525" s="7" t="s">
+        <v>1200</v>
+      </c>
+      <c r="D525" s="2" t="s">
+        <v>1198</v>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" s="2" t="s">
+        <v>1201</v>
+      </c>
+      <c r="C526" s="7" t="s">
+        <v>1202</v>
+      </c>
+      <c r="D526" s="2" t="s">
+        <v>1203</v>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" s="2" t="s">
+        <v>1204</v>
+      </c>
+      <c r="C527" s="7" t="s">
+        <v>1205</v>
+      </c>
+      <c r="D527" s="2" t="s">
+        <v>1206</v>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" s="2" t="s">
+        <v>1207</v>
+      </c>
+      <c r="C528" s="7" t="s">
+        <v>1208</v>
+      </c>
+      <c r="D528" s="2" t="s">
+        <v>1206</v>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" s="2" t="s">
+        <v>1209</v>
+      </c>
+      <c r="C529" s="7" t="s">
+        <v>1210</v>
+      </c>
+      <c r="D529" s="2" t="s">
+        <v>1206</v>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" s="2" t="s">
+        <v>1211</v>
+      </c>
+      <c r="C530" s="7" t="s">
+        <v>1212</v>
+      </c>
+      <c r="D530" s="2" t="s">
+        <v>1206</v>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" s="2" t="s">
+        <v>1213</v>
+      </c>
+      <c r="C531" s="7" t="s">
+        <v>1214</v>
+      </c>
+      <c r="D531" s="2" t="s">
+        <v>1206</v>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" s="2" t="s">
+        <v>1215</v>
+      </c>
+      <c r="C532" s="7" t="s">
+        <v>1216</v>
+      </c>
+      <c r="D532" s="2" t="s">
+        <v>1206</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -16509,18 +17105,18 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>1191</v>
+        <v>1217</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>1192</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>1193</v>
+        <v>1219</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>1194</v>
+        <v>1220</v>
       </c>
     </row>
   </sheetData>

--- a/csv/merge.xlsx
+++ b/csv/merge.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1568" uniqueCount="1221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1574" uniqueCount="1226">
   <si>
     <t>JP Text (DO NOT CHANGE)</t>
   </si>
@@ -10915,6 +10915,34 @@
 &lt;case_cancel&gt;
 &lt;break&gt;
 &lt;case_end&gt;</t>
+  </si>
+  <si>
+    <t>剣岩がある。
+ここで　しぐさ『いのる』をすれば　いいようだ。</t>
+  </si>
+  <si>
+    <t>This is Sword Rock. It would be a good idea
+to use the "pray" emote here.</t>
+  </si>
+  <si>
+    <t>Guardian prayer rock</t>
+  </si>
+  <si>
+    <t>敵を討つという　戦士の気概を忘れないため
+剣岩に　祈りを捧げた……。
+&lt;br&gt;
+次は　オーグリード大陸
+ザマ峠にある　博愛の碑の前で
+しぐさ『いのる』をしよう。</t>
+  </si>
+  <si>
+    <t>You prayed to the Sword Rock, remembering
+your warrior's spirit to take revenge on your
+enemies...
+&lt;br&gt;
+Next, head to the Zama Pass and try using
+the "pray" emote in front of the Love
+Statue.</t>
   </si>
   <si>
     <t>メインコマンド『せんれき』の
@@ -17069,6 +17097,28 @@
         <v>1206</v>
       </c>
     </row>
+    <row r="533">
+      <c r="A533" s="2" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C533" s="7" t="s">
+        <v>1218</v>
+      </c>
+      <c r="D533" s="2" t="s">
+        <v>1219</v>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" s="2" t="s">
+        <v>1220</v>
+      </c>
+      <c r="C534" s="7" t="s">
+        <v>1221</v>
+      </c>
+      <c r="D534" s="2" t="s">
+        <v>1219</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -17105,18 +17155,18 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>1217</v>
+        <v>1222</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>1218</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>1219</v>
+        <v>1224</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>1220</v>
+        <v>1225</v>
       </c>
     </row>
   </sheetData>

--- a/csv/merge.xlsx
+++ b/csv/merge.xlsx
@@ -10942,7 +10942,7 @@
 &lt;br&gt;
 Next, head to the Zama Pass and try using
 the "pray" emote in front of the Love
-Statue.</t>
+Statues.</t>
   </si>
   <si>
     <t>メインコマンド『せんれき』の

--- a/csv/merge.xlsx
+++ b/csv/merge.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1574" uniqueCount="1226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1577" uniqueCount="1229">
   <si>
     <t>JP Text (DO NOT CHANGE)</t>
   </si>
@@ -10943,6 +10943,27 @@
 Next, head to the Zama Pass and try using
 the "pray" emote in front of the Love
 Statues.</t>
+  </si>
+  <si>
+    <t>マスタークラスの　職業になっている状態で
+戦闘中に　特定の条件を満たすと
+ゾーンに入ることが　できます。
+&lt;br&gt;
+ゾーンに入ると　ガーディアンの場合は
+最大ＨＰと　ちからが上昇し
+さらに　受けるダメージが軽減されます！&lt;bw_break&gt;</t>
+  </si>
+  <si>
+    <t>If you are a Master Class vocation and meet
+certain conditions during battle, you will
+become "pepped up".
+&lt;br&gt;
+When you become pepped up as a Guardian,
+your HP and Strength increase, as well as
+reducing the damage that you take!</t>
+  </si>
+  <si>
+    <t>Guardian explanation</t>
   </si>
   <si>
     <t>メインコマンド『せんれき』の
@@ -17119,6 +17140,17 @@
         <v>1219</v>
       </c>
     </row>
+    <row r="535">
+      <c r="A535" s="2" t="s">
+        <v>1222</v>
+      </c>
+      <c r="C535" s="7" t="s">
+        <v>1223</v>
+      </c>
+      <c r="D535" s="2" t="s">
+        <v>1224</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -17155,18 +17187,18 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>1222</v>
+        <v>1225</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>1223</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>1224</v>
+        <v>1227</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>1225</v>
+        <v>1228</v>
       </c>
     </row>
   </sheetData>

--- a/csv/merge.xlsx
+++ b/csv/merge.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1577" uniqueCount="1229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1577" uniqueCount="1230">
   <si>
     <t>JP Text (DO NOT CHANGE)</t>
   </si>
@@ -235,11 +235,13 @@
 &lt;case_end&gt;</t>
   </si>
   <si>
-    <t>Where would you like to land?&lt;select&gt;
+    <t>Where would you like to land?
+&lt;select&gt;
 Royal City Kimbel Entrance
 Frontier Guard Post Entrance
 Freedom Village Entrance
-Made Island&lt;select_end&gt;
+Made Isle
+&lt;select_end&gt;
 &lt;case 1&gt;
 &lt;close&gt;
 &lt;case 2&gt;
@@ -10943,6 +10945,9 @@
 Next, head to the Zama Pass and try using
 the "pray" emote in front of the Love
 Statues.</t>
+  </si>
+  <si>
+    <t>Guardian prayer rock (BAD STRING)</t>
   </si>
   <si>
     <t>マスタークラスの　職業になっている状態で
@@ -17137,18 +17142,18 @@
         <v>1221</v>
       </c>
       <c r="D534" s="2" t="s">
-        <v>1219</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="535">
       <c r="A535" s="2" t="s">
-        <v>1222</v>
+        <v>1223</v>
       </c>
       <c r="C535" s="7" t="s">
-        <v>1223</v>
+        <v>1224</v>
       </c>
       <c r="D535" s="2" t="s">
-        <v>1224</v>
+        <v>1225</v>
       </c>
     </row>
   </sheetData>
@@ -17187,18 +17192,18 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>1225</v>
+        <v>1226</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>1226</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>1227</v>
+        <v>1228</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>1228</v>
+        <v>1229</v>
       </c>
     </row>
   </sheetData>

--- a/csv/merge.xlsx
+++ b/csv/merge.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1577" uniqueCount="1230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1580" uniqueCount="1233">
   <si>
     <t>JP Text (DO NOT CHANGE)</t>
   </si>
@@ -10969,6 +10969,19 @@
   </si>
   <si>
     <t>Guardian explanation</t>
+  </si>
+  <si>
+    <t>防衛結界が　破壊されてしまった。
+拠点の防衛に　失敗した……。
+&lt;auto_bw=5000&gt;&lt;close&gt;</t>
+  </si>
+  <si>
+    <t>The barrier was destroyed. You failed to
+defend the base...
+&lt;auto_bw=5000&gt;&lt;close&gt;</t>
+  </si>
+  <si>
+    <t>ADF Failure</t>
   </si>
   <si>
     <t>メインコマンド『せんれき』の
@@ -17156,6 +17169,17 @@
         <v>1225</v>
       </c>
     </row>
+    <row r="536">
+      <c r="A536" s="2" t="s">
+        <v>1226</v>
+      </c>
+      <c r="C536" s="7" t="s">
+        <v>1227</v>
+      </c>
+      <c r="D536" s="2" t="s">
+        <v>1228</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -17192,18 +17216,18 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>1226</v>
+        <v>1229</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>1227</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>1228</v>
+        <v>1231</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>1229</v>
+        <v>1232</v>
       </c>
     </row>
   </sheetData>

--- a/csv/merge.xlsx
+++ b/csv/merge.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1580" uniqueCount="1233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1583" uniqueCount="1236">
   <si>
     <t>JP Text (DO NOT CHANGE)</t>
   </si>
@@ -8886,7 +8886,20 @@
 "Null Baptism" to remove these effects!</t>
   </si>
   <si>
-    <t>Barashna hint</t>
+    <t>Festa Inferno Barashna hint</t>
+  </si>
+  <si>
+    <t>冥骸魔レギルラッゾたちは　２体同時に戦うので
+それぞれの攻撃に　気を付けつつ戦おう。
+呪い耐性やブレス耐性も　有効だぞ！</t>
+  </si>
+  <si>
+    <t>You'll face Legirrazzo and Logast at the same
+time, so watch for both of their attacks!
+Breath and curse resistance are very useful!</t>
+  </si>
+  <si>
+    <t>Festa Inferno Legirrazzo hint</t>
   </si>
   <si>
     <t>冒険者のあなたに　心強い仲間と
@@ -15846,26 +15859,26 @@
         <v>913</v>
       </c>
       <c r="D415" s="2" t="s">
-        <v>911</v>
+        <v>914</v>
       </c>
     </row>
     <row r="416">
       <c r="A416" s="2" t="s">
+        <v>915</v>
+      </c>
+      <c r="C416" s="2" t="s">
+        <v>916</v>
+      </c>
+      <c r="D416" s="2" t="s">
         <v>914</v>
-      </c>
-      <c r="C416" s="2" t="s">
-        <v>915</v>
-      </c>
-      <c r="D416" s="2" t="s">
-        <v>908</v>
       </c>
     </row>
     <row r="417">
       <c r="A417" s="2" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="C417" s="2" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="D417" s="2" t="s">
         <v>911</v>
@@ -15873,13 +15886,13 @@
     </row>
     <row r="418">
       <c r="A418" s="2" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="C418" s="2" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="D418" s="2" t="s">
-        <v>920</v>
+        <v>914</v>
       </c>
     </row>
     <row r="419">
@@ -15890,18 +15903,18 @@
         <v>922</v>
       </c>
       <c r="D419" s="2" t="s">
-        <v>169</v>
+        <v>923</v>
       </c>
     </row>
     <row r="420">
       <c r="A420" s="2" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="C420" s="2" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="D420" s="2" t="s">
-        <v>925</v>
+        <v>169</v>
       </c>
     </row>
     <row r="421">
@@ -15956,18 +15969,18 @@
         <v>939</v>
       </c>
       <c r="D425" s="2" t="s">
-        <v>937</v>
+        <v>940</v>
       </c>
     </row>
     <row r="426">
       <c r="A426" s="2" t="s">
+        <v>941</v>
+      </c>
+      <c r="C426" s="2" t="s">
+        <v>942</v>
+      </c>
+      <c r="D426" s="2" t="s">
         <v>940</v>
-      </c>
-      <c r="C426" s="2" t="s">
-        <v>941</v>
-      </c>
-      <c r="D426" s="2" t="s">
-        <v>942</v>
       </c>
     </row>
     <row r="427">
@@ -16385,25 +16398,25 @@
         <v>1055</v>
       </c>
       <c r="D464" s="2" t="s">
-        <v>1053</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="465">
       <c r="A465" s="2" t="s">
+        <v>1057</v>
+      </c>
+      <c r="C465" s="2" t="s">
+        <v>1058</v>
+      </c>
+      <c r="D465" s="2" t="s">
         <v>1056</v>
-      </c>
-      <c r="C465" s="2" t="s">
-        <v>1057</v>
-      </c>
-      <c r="D465" s="2" t="s">
-        <v>1058</v>
       </c>
     </row>
     <row r="466">
       <c r="A466" s="2" t="s">
         <v>1059</v>
       </c>
-      <c r="C466" s="7" t="s">
+      <c r="C466" s="2" t="s">
         <v>1060</v>
       </c>
       <c r="D466" s="2" t="s">
@@ -16462,18 +16475,18 @@
         <v>1075</v>
       </c>
       <c r="D471" s="2" t="s">
-        <v>1073</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="472">
       <c r="A472" s="2" t="s">
+        <v>1077</v>
+      </c>
+      <c r="C472" s="7" t="s">
+        <v>1078</v>
+      </c>
+      <c r="D472" s="2" t="s">
         <v>1076</v>
-      </c>
-      <c r="C472" s="7" t="s">
-        <v>1077</v>
-      </c>
-      <c r="D472" s="2" t="s">
-        <v>1078</v>
       </c>
     </row>
     <row r="473">
@@ -16484,29 +16497,29 @@
         <v>1080</v>
       </c>
       <c r="D473" s="2" t="s">
-        <v>1073</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="474">
       <c r="A474" s="2" t="s">
-        <v>1081</v>
+        <v>1082</v>
       </c>
       <c r="C474" s="7" t="s">
-        <v>1082</v>
+        <v>1083</v>
       </c>
       <c r="D474" s="2" t="s">
-        <v>1073</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="475">
       <c r="A475" s="2" t="s">
-        <v>1083</v>
+        <v>1084</v>
       </c>
       <c r="C475" s="7" t="s">
-        <v>1084</v>
+        <v>1085</v>
       </c>
       <c r="D475" s="2" t="s">
-        <v>1085</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="476">
@@ -16528,150 +16541,150 @@
         <v>1090</v>
       </c>
       <c r="D477" s="2" t="s">
-        <v>1085</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="478">
       <c r="A478" s="2" t="s">
-        <v>1091</v>
+        <v>1092</v>
       </c>
       <c r="C478" s="7" t="s">
-        <v>1092</v>
+        <v>1093</v>
       </c>
       <c r="D478" s="2" t="s">
-        <v>1085</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="479">
       <c r="A479" s="2" t="s">
-        <v>1093</v>
+        <v>1094</v>
       </c>
       <c r="C479" s="7" t="s">
-        <v>1094</v>
+        <v>1095</v>
       </c>
       <c r="D479" s="2" t="s">
-        <v>1085</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="480">
       <c r="A480" s="2" t="s">
-        <v>1095</v>
+        <v>1096</v>
       </c>
       <c r="C480" s="7" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="D480" s="2" t="s">
-        <v>1085</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="481">
       <c r="A481" s="2" t="s">
-        <v>1097</v>
+        <v>1098</v>
       </c>
       <c r="C481" s="7" t="s">
-        <v>1098</v>
+        <v>1099</v>
       </c>
       <c r="D481" s="2" t="s">
-        <v>1085</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="482">
       <c r="A482" s="2" t="s">
-        <v>1099</v>
+        <v>1100</v>
       </c>
       <c r="C482" s="7" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="D482" s="2" t="s">
-        <v>1085</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="483">
       <c r="A483" s="2" t="s">
-        <v>1101</v>
+        <v>1102</v>
       </c>
       <c r="C483" s="7" t="s">
-        <v>1102</v>
+        <v>1103</v>
       </c>
       <c r="D483" s="2" t="s">
-        <v>1085</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="484">
       <c r="A484" s="2" t="s">
-        <v>1103</v>
+        <v>1104</v>
       </c>
       <c r="C484" s="7" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
       <c r="D484" s="2" t="s">
-        <v>1085</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="485">
       <c r="A485" s="2" t="s">
-        <v>1105</v>
+        <v>1106</v>
       </c>
       <c r="C485" s="7" t="s">
-        <v>1106</v>
+        <v>1107</v>
       </c>
       <c r="D485" s="2" t="s">
-        <v>1085</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="486">
       <c r="A486" s="2" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="C486" s="7" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="D486" s="2" t="s">
-        <v>1085</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="487">
       <c r="A487" s="2" t="s">
-        <v>1109</v>
+        <v>1110</v>
       </c>
       <c r="C487" s="7" t="s">
-        <v>1110</v>
+        <v>1111</v>
       </c>
       <c r="D487" s="2" t="s">
-        <v>1085</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="488">
       <c r="A488" s="2" t="s">
-        <v>1111</v>
+        <v>1112</v>
       </c>
       <c r="C488" s="7" t="s">
-        <v>1112</v>
+        <v>1113</v>
       </c>
       <c r="D488" s="2" t="s">
-        <v>1085</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="489">
       <c r="A489" s="2" t="s">
-        <v>1113</v>
+        <v>1114</v>
       </c>
       <c r="C489" s="7" t="s">
-        <v>1114</v>
+        <v>1115</v>
       </c>
       <c r="D489" s="2" t="s">
-        <v>1085</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="490">
       <c r="A490" s="2" t="s">
-        <v>1115</v>
+        <v>1116</v>
       </c>
       <c r="C490" s="7" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="D490" s="2" t="s">
-        <v>1117</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="491">
@@ -16682,18 +16695,18 @@
         <v>1119</v>
       </c>
       <c r="D491" s="2" t="s">
-        <v>1117</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="492">
       <c r="A492" s="2" t="s">
+        <v>1121</v>
+      </c>
+      <c r="C492" s="7" t="s">
+        <v>1122</v>
+      </c>
+      <c r="D492" s="2" t="s">
         <v>1120</v>
-      </c>
-      <c r="C492" s="7" t="s">
-        <v>1121</v>
-      </c>
-      <c r="D492" s="2" t="s">
-        <v>1122</v>
       </c>
     </row>
     <row r="493">
@@ -16704,18 +16717,18 @@
         <v>1124</v>
       </c>
       <c r="D493" s="2" t="s">
-        <v>1122</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="494">
       <c r="A494" s="2" t="s">
+        <v>1126</v>
+      </c>
+      <c r="C494" s="7" t="s">
+        <v>1127</v>
+      </c>
+      <c r="D494" s="2" t="s">
         <v>1125</v>
-      </c>
-      <c r="C494" s="7" t="s">
-        <v>1126</v>
-      </c>
-      <c r="D494" s="2" t="s">
-        <v>1127</v>
       </c>
     </row>
     <row r="495">
@@ -16726,95 +16739,95 @@
         <v>1129</v>
       </c>
       <c r="D495" s="2" t="s">
-        <v>1122</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="496">
       <c r="A496" s="2" t="s">
-        <v>1130</v>
+        <v>1131</v>
       </c>
       <c r="C496" s="7" t="s">
-        <v>1131</v>
+        <v>1132</v>
       </c>
       <c r="D496" s="2" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="497">
       <c r="A497" s="2" t="s">
-        <v>1132</v>
+        <v>1133</v>
       </c>
       <c r="C497" s="7" t="s">
-        <v>1133</v>
+        <v>1134</v>
       </c>
       <c r="D497" s="2" t="s">
-        <v>1127</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="498">
       <c r="A498" s="2" t="s">
-        <v>1134</v>
+        <v>1135</v>
       </c>
       <c r="C498" s="7" t="s">
-        <v>1135</v>
+        <v>1136</v>
       </c>
       <c r="D498" s="2" t="s">
-        <v>1122</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="499">
       <c r="A499" s="2" t="s">
-        <v>1136</v>
+        <v>1137</v>
       </c>
       <c r="C499" s="7" t="s">
-        <v>1137</v>
+        <v>1138</v>
       </c>
       <c r="D499" s="2" t="s">
-        <v>1122</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="500">
       <c r="A500" s="2" t="s">
-        <v>1138</v>
+        <v>1139</v>
       </c>
       <c r="C500" s="7" t="s">
-        <v>1139</v>
+        <v>1140</v>
       </c>
       <c r="D500" s="2" t="s">
-        <v>1122</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="501">
       <c r="A501" s="2" t="s">
-        <v>1140</v>
+        <v>1141</v>
       </c>
       <c r="C501" s="7" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
       <c r="D501" s="2" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="502">
       <c r="A502" s="2" t="s">
-        <v>1142</v>
+        <v>1143</v>
       </c>
       <c r="C502" s="7" t="s">
-        <v>1143</v>
+        <v>1144</v>
       </c>
       <c r="D502" s="2" t="s">
-        <v>1122</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="503">
       <c r="A503" s="2" t="s">
-        <v>1144</v>
+        <v>1145</v>
       </c>
       <c r="C503" s="7" t="s">
-        <v>1145</v>
+        <v>1146</v>
       </c>
       <c r="D503" s="2" t="s">
-        <v>1146</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="504">
@@ -16836,18 +16849,18 @@
         <v>1151</v>
       </c>
       <c r="D505" s="2" t="s">
-        <v>1149</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="506">
       <c r="A506" s="2" t="s">
+        <v>1153</v>
+      </c>
+      <c r="C506" s="7" t="s">
+        <v>1154</v>
+      </c>
+      <c r="D506" s="2" t="s">
         <v>1152</v>
-      </c>
-      <c r="C506" s="7" t="s">
-        <v>1153</v>
-      </c>
-      <c r="D506" s="2" t="s">
-        <v>1154</v>
       </c>
     </row>
     <row r="507">
@@ -16869,18 +16882,18 @@
         <v>1159</v>
       </c>
       <c r="D508" s="2" t="s">
-        <v>1154</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="509">
       <c r="A509" s="2" t="s">
-        <v>1160</v>
+        <v>1161</v>
       </c>
       <c r="C509" s="7" t="s">
-        <v>1161</v>
+        <v>1162</v>
       </c>
       <c r="D509" s="2" t="s">
-        <v>1162</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="510">
@@ -16891,18 +16904,18 @@
         <v>1164</v>
       </c>
       <c r="D510" s="2" t="s">
-        <v>1162</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="511">
       <c r="A511" s="2" t="s">
+        <v>1166</v>
+      </c>
+      <c r="C511" s="7" t="s">
+        <v>1167</v>
+      </c>
+      <c r="D511" s="2" t="s">
         <v>1165</v>
-      </c>
-      <c r="C511" s="7" t="s">
-        <v>1166</v>
-      </c>
-      <c r="D511" s="2" t="s">
-        <v>1167</v>
       </c>
     </row>
     <row r="512">
@@ -16924,18 +16937,18 @@
         <v>1172</v>
       </c>
       <c r="D513" s="2" t="s">
-        <v>1170</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="514">
       <c r="A514" s="2" t="s">
+        <v>1174</v>
+      </c>
+      <c r="C514" s="7" t="s">
+        <v>1175</v>
+      </c>
+      <c r="D514" s="2" t="s">
         <v>1173</v>
-      </c>
-      <c r="C514" s="7" t="s">
-        <v>1174</v>
-      </c>
-      <c r="D514" s="2" t="s">
-        <v>1175</v>
       </c>
     </row>
     <row r="515">
@@ -16946,73 +16959,73 @@
         <v>1177</v>
       </c>
       <c r="D515" s="2" t="s">
-        <v>1175</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="516">
       <c r="A516" s="2" t="s">
+        <v>1179</v>
+      </c>
+      <c r="C516" s="7" t="s">
+        <v>1180</v>
+      </c>
+      <c r="D516" s="2" t="s">
         <v>1178</v>
-      </c>
-      <c r="C516" s="7" t="s">
-        <v>1179</v>
-      </c>
-      <c r="D516" s="2" t="s">
-        <v>1175</v>
       </c>
     </row>
     <row r="517">
       <c r="A517" s="2" t="s">
-        <v>1180</v>
+        <v>1181</v>
       </c>
       <c r="C517" s="7" t="s">
-        <v>1181</v>
+        <v>1182</v>
       </c>
       <c r="D517" s="2" t="s">
-        <v>1175</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="518">
       <c r="A518" s="2" t="s">
-        <v>1182</v>
+        <v>1183</v>
       </c>
       <c r="C518" s="7" t="s">
-        <v>1183</v>
+        <v>1184</v>
       </c>
       <c r="D518" s="2" t="s">
-        <v>1175</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="519">
       <c r="A519" s="2" t="s">
-        <v>1184</v>
+        <v>1185</v>
       </c>
       <c r="C519" s="7" t="s">
-        <v>1185</v>
+        <v>1186</v>
       </c>
       <c r="D519" s="2" t="s">
-        <v>1175</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="520">
       <c r="A520" s="2" t="s">
-        <v>1186</v>
+        <v>1187</v>
       </c>
       <c r="C520" s="7" t="s">
-        <v>1187</v>
+        <v>1188</v>
       </c>
       <c r="D520" s="2" t="s">
-        <v>1175</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="521">
       <c r="A521" s="2" t="s">
-        <v>1188</v>
+        <v>1189</v>
       </c>
       <c r="C521" s="7" t="s">
-        <v>1189</v>
+        <v>1190</v>
       </c>
       <c r="D521" s="2" t="s">
-        <v>1190</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="522">
@@ -17034,18 +17047,18 @@
         <v>1195</v>
       </c>
       <c r="D523" s="2" t="s">
-        <v>1193</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="524">
       <c r="A524" s="2" t="s">
+        <v>1197</v>
+      </c>
+      <c r="C524" s="7" t="s">
+        <v>1198</v>
+      </c>
+      <c r="D524" s="2" t="s">
         <v>1196</v>
-      </c>
-      <c r="C524" s="7" t="s">
-        <v>1197</v>
-      </c>
-      <c r="D524" s="2" t="s">
-        <v>1198</v>
       </c>
     </row>
     <row r="525">
@@ -17056,18 +17069,18 @@
         <v>1200</v>
       </c>
       <c r="D525" s="2" t="s">
-        <v>1198</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="526">
       <c r="A526" s="2" t="s">
+        <v>1202</v>
+      </c>
+      <c r="C526" s="7" t="s">
+        <v>1203</v>
+      </c>
+      <c r="D526" s="2" t="s">
         <v>1201</v>
-      </c>
-      <c r="C526" s="7" t="s">
-        <v>1202</v>
-      </c>
-      <c r="D526" s="2" t="s">
-        <v>1203</v>
       </c>
     </row>
     <row r="527">
@@ -17089,62 +17102,62 @@
         <v>1208</v>
       </c>
       <c r="D528" s="2" t="s">
-        <v>1206</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="529">
       <c r="A529" s="2" t="s">
+        <v>1210</v>
+      </c>
+      <c r="C529" s="7" t="s">
+        <v>1211</v>
+      </c>
+      <c r="D529" s="2" t="s">
         <v>1209</v>
-      </c>
-      <c r="C529" s="7" t="s">
-        <v>1210</v>
-      </c>
-      <c r="D529" s="2" t="s">
-        <v>1206</v>
       </c>
     </row>
     <row r="530">
       <c r="A530" s="2" t="s">
-        <v>1211</v>
+        <v>1212</v>
       </c>
       <c r="C530" s="7" t="s">
-        <v>1212</v>
+        <v>1213</v>
       </c>
       <c r="D530" s="2" t="s">
-        <v>1206</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="531">
       <c r="A531" s="2" t="s">
-        <v>1213</v>
+        <v>1214</v>
       </c>
       <c r="C531" s="7" t="s">
-        <v>1214</v>
+        <v>1215</v>
       </c>
       <c r="D531" s="2" t="s">
-        <v>1206</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="532">
       <c r="A532" s="2" t="s">
-        <v>1215</v>
+        <v>1216</v>
       </c>
       <c r="C532" s="7" t="s">
-        <v>1216</v>
+        <v>1217</v>
       </c>
       <c r="D532" s="2" t="s">
-        <v>1206</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="533">
       <c r="A533" s="2" t="s">
-        <v>1217</v>
+        <v>1218</v>
       </c>
       <c r="C533" s="7" t="s">
-        <v>1218</v>
+        <v>1219</v>
       </c>
       <c r="D533" s="2" t="s">
-        <v>1219</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="534">
@@ -17178,6 +17191,17 @@
       </c>
       <c r="D536" s="2" t="s">
         <v>1228</v>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" s="2" t="s">
+        <v>1229</v>
+      </c>
+      <c r="C537" s="7" t="s">
+        <v>1230</v>
+      </c>
+      <c r="D537" s="2" t="s">
+        <v>1231</v>
       </c>
     </row>
   </sheetData>
@@ -17216,18 +17240,18 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>1229</v>
+        <v>1232</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>1230</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>1231</v>
+        <v>1234</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>1232</v>
+        <v>1235</v>
       </c>
     </row>
   </sheetData>

--- a/csv/merge.xlsx
+++ b/csv/merge.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1583" uniqueCount="1236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1616" uniqueCount="1261">
   <si>
     <t>JP Text (DO NOT CHANGE)</t>
   </si>
@@ -10995,6 +10995,118 @@
   </si>
   <si>
     <t>ADF Failure</t>
+  </si>
+  <si>
+    <t>霊廟での　バトルや報酬獲得時に再生される演出を
+『周回演出スキップ設定』で
+スキップできるように　なりました。
+&lt;br&gt;
+ただし　演出をスキップするには　機能変更以降に
+もう一度演出を見ることと　霊廟でのバトルに
+一定回数　勝利している必要があります。
+&lt;br&gt;
+周回演出スキップ設定は　さくせんコマンドの
+いろいろ設定にある　ゲームプレイの設定から
+いつでも　変更できます。</t>
+  </si>
+  <si>
+    <t>The cutscenes that play when examining a
+coffin and receiving rewards can be skipped
+with the "Scene Skip Setting".
+&lt;br&gt;
+However, the setting will not take effect
+until you've cleared a certain number of
+tombs.
+&lt;br&gt;
+To change this setting, select the "Misc."
+command, "Settings", "Gameplay", and
+finally "Scene Skip Setting".</t>
+  </si>
+  <si>
+    <t>Pyramid skip dialogue</t>
+  </si>
+  <si>
+    <t>大きな黄金の秘宝？を　手に入れた！&lt;se_nots System 7&gt;</t>
+  </si>
+  <si>
+    <t>Received a Large Golden Treasure?!&lt;se_nots System 7&gt;</t>
+  </si>
+  <si>
+    <t>Pyramid treasure (BAD STRING)</t>
+  </si>
+  <si>
+    <t>大きな黄金の秘宝？を　手に入れた！&lt;se_nots System 7&gt;&lt;bw_break&gt;</t>
+  </si>
+  <si>
+    <t>Received a Large Golden Treasure?!&lt;se_nots System 7&gt;&lt;bw_break&gt;</t>
+  </si>
+  <si>
+    <t>黄金のブローチ？を　手に入れた！&lt;se_nots System 7&gt;</t>
+  </si>
+  <si>
+    <t>Received a Golden Brooch?!&lt;se_nots System 7&gt;</t>
+  </si>
+  <si>
+    <t>黄金のアンク？を　手に入れた！&lt;se_nots System 7&gt;</t>
+  </si>
+  <si>
+    <t>Received a Golden Ankh?!&lt;se_nots System 7&gt;</t>
+  </si>
+  <si>
+    <t>黄金の秘宝？を　手に入れた！&lt;se_nots System 7&gt;</t>
+  </si>
+  <si>
+    <t>Received a Golden Treasure?!&lt;se_nots System 7&gt;</t>
+  </si>
+  <si>
+    <t>ひつぎの中を　調べようとした。&lt;bw_break&gt;</t>
+  </si>
+  <si>
+    <t>You tried examining the inside of the coffin.&lt;bw_break&gt;</t>
+  </si>
+  <si>
+    <t>しかし　どうぐかばんに　空きが足りない。
+空きを作ってから　もう一度　調べてみよう。</t>
+  </si>
+  <si>
+    <t>However, your item bag is full. Come back
+after making some room.</t>
+  </si>
+  <si>
+    <t>&lt;attr&gt;&lt;feel_normal_lv1&gt;&lt;end_attr&gt;「ここには　莫大な量の黄金の秘宝が遺されていて
+　一度入手しても　時間がたつと復活するはずよ。
+　たくさん　黄金の秘宝を　見つけてきてね！</t>
+  </si>
+  <si>
+    <t>&lt;attr&gt;&lt;feel_normal_lv1&gt;&lt;end_attr&gt;There's tons of golden treasure to be found
+here. Once you find some, it'll reappear again
+after some time. Go find lots of it for me!</t>
+  </si>
+  <si>
+    <t>&lt;attr&gt;&lt;feel_normal_lv1&gt;&lt;end_attr&gt;「ウゥウウ……オレ　オモイダシタ。
+&lt;br&gt;
+「オマエ　ウタヒメ　トモダチ。
+　オレ　コウゲキ　マチガッタ……スマン。</t>
+  </si>
+  <si>
+    <t>&lt;attr&gt;&lt;feel_normal_lv1&gt;&lt;end_attr&gt;Ugghh... me remember.
+&lt;br&gt;
+You singer's friend... sorry me attack you...</t>
+  </si>
+  <si>
+    <t>Version 6.4 Floral Dandy</t>
+  </si>
+  <si>
+    <t>&lt;attr&gt;&lt;feel_normal_lv1&gt;&lt;end_attr&gt;「ウウ……。
+&lt;br&gt;
+「ウタヒメ　ウタ　ヒドイ。
+　ハヤク　ウタ　ウマクナレ……。</t>
+  </si>
+  <si>
+    <t>&lt;attr&gt;&lt;feel_normal_lv1&gt;&lt;end_attr&gt;Ughh...
+&lt;br&gt;
+Singer's song terrible.
+Sing better quickly...</t>
   </si>
   <si>
     <t>メインコマンド『せんれき』の
@@ -17204,6 +17316,127 @@
         <v>1231</v>
       </c>
     </row>
+    <row r="538">
+      <c r="A538" s="2" t="s">
+        <v>1232</v>
+      </c>
+      <c r="C538" s="7" t="s">
+        <v>1233</v>
+      </c>
+      <c r="D538" s="2" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" s="2" t="s">
+        <v>1235</v>
+      </c>
+      <c r="C539" s="7" t="s">
+        <v>1236</v>
+      </c>
+      <c r="D539" s="2" t="s">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" s="2" t="s">
+        <v>1238</v>
+      </c>
+      <c r="C540" s="7" t="s">
+        <v>1239</v>
+      </c>
+      <c r="D540" s="2" t="s">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" s="2" t="s">
+        <v>1240</v>
+      </c>
+      <c r="C541" s="7" t="s">
+        <v>1241</v>
+      </c>
+      <c r="D541" s="2" t="s">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" s="2" t="s">
+        <v>1242</v>
+      </c>
+      <c r="C542" s="7" t="s">
+        <v>1243</v>
+      </c>
+      <c r="D542" s="2" t="s">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" s="2" t="s">
+        <v>1244</v>
+      </c>
+      <c r="C543" s="7" t="s">
+        <v>1245</v>
+      </c>
+      <c r="D543" s="2" t="s">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" s="2" t="s">
+        <v>1246</v>
+      </c>
+      <c r="C544" s="7" t="s">
+        <v>1247</v>
+      </c>
+      <c r="D544" s="2" t="s">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" s="2" t="s">
+        <v>1248</v>
+      </c>
+      <c r="C545" s="7" t="s">
+        <v>1249</v>
+      </c>
+      <c r="D545" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" s="2" t="s">
+        <v>1250</v>
+      </c>
+      <c r="C546" s="7" t="s">
+        <v>1251</v>
+      </c>
+      <c r="D546" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" s="2" t="s">
+        <v>1252</v>
+      </c>
+      <c r="C547" s="7" t="s">
+        <v>1253</v>
+      </c>
+      <c r="D547" s="2" t="s">
+        <v>1254</v>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" s="2" t="s">
+        <v>1255</v>
+      </c>
+      <c r="C548" s="7" t="s">
+        <v>1256</v>
+      </c>
+      <c r="D548" s="2" t="s">
+        <v>1254</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -17240,18 +17473,18 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>1232</v>
+        <v>1257</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>1233</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>1234</v>
+        <v>1259</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>1235</v>
+        <v>1260</v>
       </c>
     </row>
   </sheetData>

--- a/csv/merge.xlsx
+++ b/csv/merge.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1616" uniqueCount="1261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1622" uniqueCount="1267">
   <si>
     <t>JP Text (DO NOT CHANGE)</t>
   </si>
@@ -11107,6 +11107,63 @@
 &lt;br&gt;
 Singer's song terrible.
 Sing better quickly...</t>
+  </si>
+  <si>
+    <t>「それじゃ　始めようか。
+　操作の手順を　読み上げてもいい？
+&lt;select 1&gt;
+はい
+いいえ
+もう一度説明を見る
+&lt;select_end&gt;
+&lt;case 1&gt;
+&lt;break&gt;
+&lt;case 2&gt;
+&lt;break&gt;
+&lt;case 3&gt;
+&lt;close&gt;
+&lt;case_cancel&gt;
+&lt;break&gt;
+&lt;case_end&gt;</t>
+  </si>
+  <si>
+    <t>Okay, shall we start? Do you need to hear
+the directions again?
+&lt;select 1&gt;
+Yes
+No
+Hear directions again.
+&lt;select_end&gt;
+&lt;case 1&gt;
+&lt;break&gt;
+&lt;case 2&gt;
+&lt;break&gt;
+&lt;case 3&gt;
+&lt;close&gt;
+&lt;case_cancel&gt;
+&lt;break&gt;
+&lt;case_end&gt;</t>
+  </si>
+  <si>
+    <t>Version 6.4 Loom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">　ぼくの指示が　下手だったみたいだね。
+　もう一度　一緒に　がんばってくれる？
+&lt;br&gt;
+「きみの準備が　ととのったら
+　聖なる織り機の前に　座ってね。</t>
+  </si>
+  <si>
+    <t>Agh, I'm sorry, I'm sorry! I should've been
+better at giving instructions. Do you want
+to try one more time?
+&lt;br&gt;
+Whenever you're ready, please sit in front
+of the loom again.</t>
+  </si>
+  <si>
+    <t>Version 6.4 Loom (BAD STRING)</t>
   </si>
   <si>
     <t>メインコマンド『せんれき』の
@@ -17437,6 +17494,28 @@
         <v>1254</v>
       </c>
     </row>
+    <row r="549">
+      <c r="A549" s="2" t="s">
+        <v>1257</v>
+      </c>
+      <c r="C549" s="7" t="s">
+        <v>1258</v>
+      </c>
+      <c r="D549" s="2" t="s">
+        <v>1259</v>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" s="2" t="s">
+        <v>1260</v>
+      </c>
+      <c r="C550" s="7" t="s">
+        <v>1261</v>
+      </c>
+      <c r="D550" s="2" t="s">
+        <v>1262</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -17473,18 +17552,18 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>1257</v>
+        <v>1263</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>1258</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>1259</v>
+        <v>1265</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>1260</v>
+        <v>1266</v>
       </c>
     </row>
   </sheetData>

--- a/csv/merge.xlsx
+++ b/csv/merge.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1622" uniqueCount="1267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1646" uniqueCount="1283">
   <si>
     <t>JP Text (DO NOT CHANGE)</t>
   </si>
@@ -11041,6 +11041,12 @@
     <t>Received a Large Golden Treasure?!&lt;se_nots System 7&gt;&lt;bw_break&gt;</t>
   </si>
   <si>
+    <t>小さな黄金の秘宝？を　手に入れた！&lt;se_nots System 7&gt;</t>
+  </si>
+  <si>
+    <t>Received a Small Golden Treasure?!&gt;se_nots System 7&gt;</t>
+  </si>
+  <si>
     <t>黄金のブローチ？を　手に入れた！&lt;se_nots System 7&gt;</t>
   </si>
   <si>
@@ -11164,6 +11170,76 @@
   </si>
   <si>
     <t>Version 6.4 Loom (BAD STRING)</t>
+  </si>
+  <si>
+    <t>探索済みのため　黄金の秘宝を獲得できませんが
+まんまるボタンを　押してみますか？
+あと７日で　獲得できるようになります。&lt;yesno&gt;&lt;close&gt;</t>
+  </si>
+  <si>
+    <t>You won't receive any Golden Treasure since
+you've explored already. Press the button
+anyways? You can explore again in 7 days.</t>
+  </si>
+  <si>
+    <t>探索済みのため　黄金の秘宝を獲得できませんが
+まんまるボタンを　押してみますか？
+あと６日で　獲得できるようになります。&lt;yesno&gt;&lt;close&gt;</t>
+  </si>
+  <si>
+    <t>You won't receive any Golden Treasure since
+you've explored already. Press the button
+anyways? You can explore again in 6 days.</t>
+  </si>
+  <si>
+    <t>探索済みのため　黄金の秘宝を獲得できませんが
+まんまるボタンを　押してみますか？
+あと５日で　獲得できるようになります。&lt;yesno&gt;&lt;close&gt;</t>
+  </si>
+  <si>
+    <t>You won't receive any Golden Treasure since
+you've explored already. Press the button
+anyways? You can explore again in 5 days.</t>
+  </si>
+  <si>
+    <t>探索済みのため　黄金の秘宝を獲得できませんが
+まんまるボタンを　押してみますか？
+あと４日で　獲得できるようになります。&lt;yesno&gt;&lt;close&gt;</t>
+  </si>
+  <si>
+    <t>You won't receive any Golden Treasure since
+you've explored already. Press the button
+anyways? You can explore again in 4 days.</t>
+  </si>
+  <si>
+    <t>探索済みのため　黄金の秘宝を獲得できませんが
+まんまるボタンを　押してみますか？
+あと３日で　獲得できるようになります。&lt;yesno&gt;&lt;close&gt;</t>
+  </si>
+  <si>
+    <t>You won't receive any Golden Treasure since
+you've explored already. Press the button
+anyways? You can explore again in 3 days.</t>
+  </si>
+  <si>
+    <t>探索済みのため　黄金の秘宝を獲得できませんが
+まんまるボタンを　押してみますか？
+あと２日で　獲得できるようになります。&lt;yesno&gt;&lt;close&gt;</t>
+  </si>
+  <si>
+    <t>You won't receive any Golden Treasure since
+you've explored already. Press the button
+anyways? You can explore again in 2 days.</t>
+  </si>
+  <si>
+    <t>探索済みのため　黄金の秘宝を獲得できませんが
+まんまるボタンを　押してみますか？
+あと１日で　獲得できるようになります。&lt;yesno&gt;&lt;close&gt;</t>
+  </si>
+  <si>
+    <t>You won't receive any Golden Treasure since
+you've explored already. Press the button
+anyways? You can explore again in 1 day.</t>
   </si>
   <si>
     <t>メインコマンド『せんれき』の
@@ -17458,7 +17534,7 @@
         <v>1249</v>
       </c>
       <c r="D545" s="2" t="s">
-        <v>128</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="546">
@@ -17480,18 +17556,18 @@
         <v>1253</v>
       </c>
       <c r="D547" s="2" t="s">
-        <v>1254</v>
+        <v>128</v>
       </c>
     </row>
     <row r="548">
       <c r="A548" s="2" t="s">
+        <v>1254</v>
+      </c>
+      <c r="C548" s="7" t="s">
         <v>1255</v>
       </c>
-      <c r="C548" s="7" t="s">
+      <c r="D548" s="2" t="s">
         <v>1256</v>
-      </c>
-      <c r="D548" s="2" t="s">
-        <v>1254</v>
       </c>
     </row>
     <row r="549">
@@ -17502,18 +17578,106 @@
         <v>1258</v>
       </c>
       <c r="D549" s="2" t="s">
-        <v>1259</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="550">
       <c r="A550" s="2" t="s">
+        <v>1259</v>
+      </c>
+      <c r="C550" s="7" t="s">
         <v>1260</v>
       </c>
-      <c r="C550" s="7" t="s">
+      <c r="D550" s="2" t="s">
         <v>1261</v>
       </c>
-      <c r="D550" s="2" t="s">
+    </row>
+    <row r="551">
+      <c r="A551" s="2" t="s">
         <v>1262</v>
+      </c>
+      <c r="C551" s="7" t="s">
+        <v>1263</v>
+      </c>
+      <c r="D551" s="2" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" s="2" t="s">
+        <v>1265</v>
+      </c>
+      <c r="C552" s="7" t="s">
+        <v>1266</v>
+      </c>
+      <c r="D552" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="553">
+      <c r="A553" s="2" t="s">
+        <v>1267</v>
+      </c>
+      <c r="C553" s="7" t="s">
+        <v>1268</v>
+      </c>
+      <c r="D553" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="554">
+      <c r="A554" s="2" t="s">
+        <v>1269</v>
+      </c>
+      <c r="C554" s="7" t="s">
+        <v>1270</v>
+      </c>
+      <c r="D554" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="555">
+      <c r="A555" s="2" t="s">
+        <v>1271</v>
+      </c>
+      <c r="C555" s="7" t="s">
+        <v>1272</v>
+      </c>
+      <c r="D555" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="556">
+      <c r="A556" s="2" t="s">
+        <v>1273</v>
+      </c>
+      <c r="C556" s="7" t="s">
+        <v>1274</v>
+      </c>
+      <c r="D556" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="557">
+      <c r="A557" s="2" t="s">
+        <v>1275</v>
+      </c>
+      <c r="C557" s="7" t="s">
+        <v>1276</v>
+      </c>
+      <c r="D557" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="558">
+      <c r="A558" s="2" t="s">
+        <v>1277</v>
+      </c>
+      <c r="C558" s="7" t="s">
+        <v>1278</v>
+      </c>
+      <c r="D558" s="2" t="s">
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -17552,18 +17716,18 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>1263</v>
+        <v>1279</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>1264</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>1265</v>
+        <v>1281</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>1266</v>
+        <v>1282</v>
       </c>
     </row>
   </sheetData>

--- a/csv/merge.xlsx
+++ b/csv/merge.xlsx
@@ -11179,7 +11179,7 @@
   <si>
     <t>You won't receive any Golden Treasure since
 you've explored already. Press the button
-anyways? You can explore again in 7 days.</t>
+anyways? You can explore again in 7 days.&lt;yesno&gt;&lt;close&gt;</t>
   </si>
   <si>
     <t>探索済みのため　黄金の秘宝を獲得できませんが
@@ -11189,7 +11189,7 @@
   <si>
     <t>You won't receive any Golden Treasure since
 you've explored already. Press the button
-anyways? You can explore again in 6 days.</t>
+anyways? You can explore again in 6 days.&lt;yesno&gt;&lt;close&gt;</t>
   </si>
   <si>
     <t>探索済みのため　黄金の秘宝を獲得できませんが
@@ -11199,7 +11199,7 @@
   <si>
     <t>You won't receive any Golden Treasure since
 you've explored already. Press the button
-anyways? You can explore again in 5 days.</t>
+anyways? You can explore again in 5 days.&lt;yesno&gt;&lt;close&gt;</t>
   </si>
   <si>
     <t>探索済みのため　黄金の秘宝を獲得できませんが
@@ -11209,7 +11209,7 @@
   <si>
     <t>You won't receive any Golden Treasure since
 you've explored already. Press the button
-anyways? You can explore again in 4 days.</t>
+anyways? You can explore again in 4 days.&lt;yesno&gt;&lt;close&gt;</t>
   </si>
   <si>
     <t>探索済みのため　黄金の秘宝を獲得できませんが
@@ -11219,7 +11219,7 @@
   <si>
     <t>You won't receive any Golden Treasure since
 you've explored already. Press the button
-anyways? You can explore again in 3 days.</t>
+anyways? You can explore again in 3 days.&lt;yesno&gt;&lt;close&gt;</t>
   </si>
   <si>
     <t>探索済みのため　黄金の秘宝を獲得できませんが
@@ -11229,7 +11229,7 @@
   <si>
     <t>You won't receive any Golden Treasure since
 you've explored already. Press the button
-anyways? You can explore again in 2 days.</t>
+anyways? You can explore again in 2 days.&lt;yesno&gt;&lt;close&gt;</t>
   </si>
   <si>
     <t>探索済みのため　黄金の秘宝を獲得できませんが
@@ -11239,7 +11239,7 @@
   <si>
     <t>You won't receive any Golden Treasure since
 you've explored already. Press the button
-anyways? You can explore again in 1 day.</t>
+anyways? You can explore again in 1 day.&lt;yesno&gt;&lt;close&gt;</t>
   </si>
   <si>
     <t>メインコマンド『せんれき』の

--- a/csv/merge.xlsx
+++ b/csv/merge.xlsx
@@ -11172,8 +11172,7 @@
     <t>Version 6.4 Loom (BAD STRING)</t>
   </si>
   <si>
-    <t>探索済みのため　黄金の秘宝を獲得できませんが
-まんまるボタンを　押してみますか？
+    <t>ボタンを　押してみますか？
 あと７日で　獲得できるようになります。&lt;yesno&gt;&lt;close&gt;</t>
   </si>
   <si>
@@ -11182,8 +11181,7 @@
 anyways? You can explore again in 7 days.&lt;yesno&gt;&lt;close&gt;</t>
   </si>
   <si>
-    <t>探索済みのため　黄金の秘宝を獲得できませんが
-まんまるボタンを　押してみますか？
+    <t>ボタンを　押してみますか？
 あと６日で　獲得できるようになります。&lt;yesno&gt;&lt;close&gt;</t>
   </si>
   <si>
@@ -11192,8 +11190,7 @@
 anyways? You can explore again in 6 days.&lt;yesno&gt;&lt;close&gt;</t>
   </si>
   <si>
-    <t>探索済みのため　黄金の秘宝を獲得できませんが
-まんまるボタンを　押してみますか？
+    <t>ボタンを　押してみますか？
 あと５日で　獲得できるようになります。&lt;yesno&gt;&lt;close&gt;</t>
   </si>
   <si>
@@ -11202,8 +11199,7 @@
 anyways? You can explore again in 5 days.&lt;yesno&gt;&lt;close&gt;</t>
   </si>
   <si>
-    <t>探索済みのため　黄金の秘宝を獲得できませんが
-まんまるボタンを　押してみますか？
+    <t>ボタンを　押してみますか？
 あと４日で　獲得できるようになります。&lt;yesno&gt;&lt;close&gt;</t>
   </si>
   <si>
@@ -11212,8 +11208,7 @@
 anyways? You can explore again in 4 days.&lt;yesno&gt;&lt;close&gt;</t>
   </si>
   <si>
-    <t>探索済みのため　黄金の秘宝を獲得できませんが
-まんまるボタンを　押してみますか？
+    <t>ボタンを　押してみますか？
 あと３日で　獲得できるようになります。&lt;yesno&gt;&lt;close&gt;</t>
   </si>
   <si>
@@ -11222,8 +11217,7 @@
 anyways? You can explore again in 3 days.&lt;yesno&gt;&lt;close&gt;</t>
   </si>
   <si>
-    <t>探索済みのため　黄金の秘宝を獲得できませんが
-まんまるボタンを　押してみますか？
+    <t>ボタンを　押してみますか？
 あと２日で　獲得できるようになります。&lt;yesno&gt;&lt;close&gt;</t>
   </si>
   <si>
@@ -11232,8 +11226,7 @@
 anyways? You can explore again in 2 days.&lt;yesno&gt;&lt;close&gt;</t>
   </si>
   <si>
-    <t>探索済みのため　黄金の秘宝を獲得できませんが
-まんまるボタンを　押してみますか？
+    <t>ボタンを　押してみますか？
 あと１日で　獲得できるようになります。&lt;yesno&gt;&lt;close&gt;</t>
   </si>
   <si>
@@ -17611,7 +17604,7 @@
         <v>1266</v>
       </c>
       <c r="D552" s="2" t="s">
-        <v>128</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="553">
@@ -17622,7 +17615,7 @@
         <v>1268</v>
       </c>
       <c r="D553" s="2" t="s">
-        <v>128</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="554">
@@ -17633,7 +17626,7 @@
         <v>1270</v>
       </c>
       <c r="D554" s="2" t="s">
-        <v>128</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="555">
@@ -17644,7 +17637,7 @@
         <v>1272</v>
       </c>
       <c r="D555" s="2" t="s">
-        <v>128</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="556">
@@ -17655,7 +17648,7 @@
         <v>1274</v>
       </c>
       <c r="D556" s="2" t="s">
-        <v>128</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="557">
@@ -17666,7 +17659,7 @@
         <v>1276</v>
       </c>
       <c r="D557" s="2" t="s">
-        <v>128</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="558">
@@ -17677,7 +17670,7 @@
         <v>1278</v>
       </c>
       <c r="D558" s="2" t="s">
-        <v>128</v>
+        <v>1237</v>
       </c>
     </row>
   </sheetData>

--- a/csv/merge.xlsx
+++ b/csv/merge.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1646" uniqueCount="1283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1663" uniqueCount="1297">
   <si>
     <t>JP Text (DO NOT CHANGE)</t>
   </si>
@@ -80,6 +80,14 @@
   </si>
   <si>
     <t>Your party has gathered!</t>
+  </si>
+  <si>
+    <t>&lt;speed=0&gt;パーティリーダーではないため
+この先には　進めません。</t>
+  </si>
+  <si>
+    <t>&lt;speed=0&gt;Since you are not the party leader, you
+cannot proceed further.</t>
   </si>
   <si>
     <t>&lt;pipipi_high&gt;「話したいこと　聞きたいことがあるなら
@@ -11233,6 +11241,117 @@
     <t>You won't receive any Golden Treasure since
 you've explored already. Press the button
 anyways? You can explore again in 1 day.&lt;yesno&gt;&lt;close&gt;</t>
+  </si>
+  <si>
+    <t>「ワガハイは　騎士レモンハルト。 
+　名門　レモンスライム家の　跡取りだ。
+&lt;br&gt;
+「ワガハイは　超一流の人物にまみえることで 
+　騎士としての見聞を　広めるため
+　この地まで　やって来たんだ。
+&lt;br&gt;
+「この地の　冒険者たちに
+　お近づきのしるしを　配っていてね。
+　キミにも　受け取ってほしい。</t>
+  </si>
+  <si>
+    <t>I am the gooreat knight Lemonhart, heir to
+the prestigious Lemon Slime family.
+&lt;br&gt;
+I came here to broaden my knowledge of
+knighthood, by surrounding myself with
+those who call themselves the best.
+&lt;br&gt;
+I have been giving out tokens of my
+goo-dwill to adventurers of these lands.
+I'd like you to have one as well.</t>
+  </si>
+  <si>
+    <t>Lemonhart</t>
+  </si>
+  <si>
+    <t>「改めて　挨拶するので
+　もう一度　話しかけてくれたまえ。</t>
+  </si>
+  <si>
+    <t>Please speak to me again for a more
+proper greeting.</t>
+  </si>
+  <si>
+    <t>「ワガハイは　騎士レモンハルト。 
+　名門　レモンスライム家の　跡取りだ。
+　むろん　悪いスライムではない。安心したまえ。
+&lt;br&gt;
+「ワガハイは　超一流の人物にまみえることで 
+　騎士としての見聞を　広めるため
+　この地まで　やって来たんだ。
+&lt;br&gt;
+「超一流とは　なんなのか……。 
+　キミは　見た目だけで　ゴーレムは強そうだの
+　スライムなら弱そうだのと　思っていないか？
+&lt;br&gt;
+「姿かたちに惑わされず　相手の実力を測り
+　真実を　見極めることができる者……
+　それこそが　超一流の冒険者だと思うんだ。
+&lt;br&gt;
+「ワガハイは　そのような冒険者に
+　会いにきたんだ……。 
+　キミの名は　なんという？</t>
+  </si>
+  <si>
+    <t>I am the gooreat knight Lemonhart, heir to
+the prestigious Lemon Slime family. Of
+course, I am not a bad slime.
+&lt;br&gt;
+I came here to broaden my knowledge of
+knighthood, by surrounding myself with
+those who call themselves the best.
+&lt;br&gt;
+What is "the best", you ask? Do you think a
+golem looks strong, or a slime looks weak
+just based on their appearance alone?
+&lt;br&gt;
+Someone who isn't easily deceived by
+appearances, but can accurately gauge an
+opponent's ability... that's an adventurer
+&lt;br&gt;
+worthy of being called "the best".
+&lt;br&gt;
+I am here to meet such adventurers.
+What is your name?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">　感じるぞ！　キミから　濃厚にただよう
+　超一流っぽい匂いを……。
+&lt;br&gt;
+「キミに　戦いを挑もう！ 
+　ワガハイ考案の　クイズバトルという戦いを。
+　この挑戦　受けてくれるね？&lt;yesno&gt;&lt;break&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I see... I can feel it! I can even smell it
+on you! The makings of "the best"...
+&lt;br&gt;
+I challenge you to a battle: a quiz of my
+own design! Do you accept my challenge?&lt;yesno&gt;&lt;break&gt;
+</t>
+  </si>
+  <si>
+    <t>Lemonhart (BAD STRING)</t>
+  </si>
+  <si>
+    <t>「な　なんと　豪気な……。 
+　ワガハイの誘いを　断るなんて……プルプル。
+&lt;br&gt;
+「ワガハイは　いつでも待っている。
+　また会いにくるといいぞ。</t>
+  </si>
+  <si>
+    <t>W-what boldness... to decline my invitation
+so easily... (slurp)
+&lt;br&gt;
+Very well. I will be waiting for goo here.
+Please come and see me again.</t>
   </si>
   <si>
     <t>メインコマンド『せんれき』の
@@ -11617,43 +11736,17 @@
       <c r="C5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="2" t="s">
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="s">
+      <c r="C6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="3" t="s">
+      <c r="D6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
-      <c r="O6" s="4"/>
-      <c r="P6" s="4"/>
-      <c r="Q6" s="4"/>
-      <c r="R6" s="4"/>
-      <c r="S6" s="4"/>
-      <c r="T6" s="4"/>
-      <c r="U6" s="4"/>
-      <c r="V6" s="4"/>
-      <c r="W6" s="4"/>
-      <c r="X6" s="4"/>
-      <c r="Y6" s="4"/>
-      <c r="Z6" s="4"/>
     </row>
     <row r="7">
       <c r="A7" s="3" t="s">
@@ -11664,7 +11757,7 @@
         <v>16</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
@@ -11690,24 +11783,50 @@
       <c r="Z7" s="4"/>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="4"/>
+      <c r="C8" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>20</v>
-      </c>
+      <c r="D8" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="4"/>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="4"/>
+      <c r="R8" s="4"/>
+      <c r="S8" s="4"/>
+      <c r="T8" s="4"/>
+      <c r="U8" s="4"/>
+      <c r="V8" s="4"/>
+      <c r="W8" s="4"/>
+      <c r="X8" s="4"/>
+      <c r="Y8" s="4"/>
+      <c r="Z8" s="4"/>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="D9" s="2" t="s">
         <v>22</v>
       </c>
     </row>
@@ -11742,19 +11861,16 @@
       <c r="C13" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D13" s="2" t="s">
-        <v>31</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="D14" s="2" t="s">
         <v>33</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="15">
@@ -11765,7 +11881,7 @@
         <v>35</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16">
@@ -11776,7 +11892,7 @@
         <v>37</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17">
@@ -11787,7 +11903,7 @@
         <v>39</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18">
@@ -11798,7 +11914,7 @@
         <v>41</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19">
@@ -11809,7 +11925,7 @@
         <v>43</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20">
@@ -11820,7 +11936,7 @@
         <v>45</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21">
@@ -11831,7 +11947,7 @@
         <v>47</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22">
@@ -11842,7 +11958,7 @@
         <v>49</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="23">
@@ -11853,7 +11969,7 @@
         <v>51</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="24">
@@ -11864,7 +11980,7 @@
         <v>53</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="25">
@@ -11875,7 +11991,7 @@
         <v>55</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="26">
@@ -11885,6 +12001,9 @@
       <c r="C26" s="2" t="s">
         <v>57</v>
       </c>
+      <c r="D26" s="2" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
@@ -11893,9 +12012,6 @@
       <c r="C27" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D27" s="2" t="s">
-        <v>31</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
@@ -11905,7 +12021,7 @@
         <v>61</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="29">
@@ -11916,7 +12032,7 @@
         <v>63</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="30">
@@ -11927,7 +12043,7 @@
         <v>65</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="31">
@@ -11938,7 +12054,7 @@
         <v>67</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="32">
@@ -11949,7 +12065,7 @@
         <v>69</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="33">
@@ -11960,7 +12076,7 @@
         <v>71</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="34">
@@ -11971,7 +12087,7 @@
         <v>73</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="35">
@@ -11982,7 +12098,7 @@
         <v>75</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="36">
@@ -11993,7 +12109,7 @@
         <v>77</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="37">
@@ -12003,6 +12119,9 @@
       <c r="C37" s="2" t="s">
         <v>79</v>
       </c>
+      <c r="D37" s="2" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
@@ -12011,41 +12130,38 @@
       <c r="C38" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="D38" s="2" t="s">
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="6" t="s">
+      <c r="C39" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C39" s="6" t="s">
+      <c r="D39" s="2" t="s">
         <v>84</v>
-      </c>
-      <c r="D39" s="6" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="C40" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="C40" s="6" t="s">
+      <c r="D40" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="D40" s="6" t="s">
-        <v>85</v>
-      </c>
     </row>
     <row r="41">
-      <c r="A41" s="2" t="s">
+      <c r="A41" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="C41" s="2" t="s">
+      <c r="C41" s="6" t="s">
         <v>89</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="42">
@@ -12056,18 +12172,18 @@
         <v>91</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C43" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="C43" s="2" t="s">
+      <c r="D43" s="6" t="s">
         <v>94</v>
-      </c>
-      <c r="D43" s="6" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="44">
@@ -12078,7 +12194,7 @@
         <v>96</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="45">
@@ -12089,7 +12205,7 @@
         <v>98</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="46">
@@ -12099,19 +12215,19 @@
       <c r="C46" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="D46" s="2" t="s">
-        <v>101</v>
+      <c r="D46" s="6" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C47" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="C47" s="2" t="s">
+      <c r="D47" s="2" t="s">
         <v>103</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="48">
@@ -12122,7 +12238,7 @@
         <v>105</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="49">
@@ -12133,23 +12249,26 @@
         <v>107</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>23</v>
+        <v>108</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>24</v>
+        <v>109</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>108</v>
+        <v>25</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>109</v>
+        <v>26</v>
       </c>
     </row>
     <row r="52">
@@ -12175,26 +12294,26 @@
       <c r="C54" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="D54" s="2" t="s">
-        <v>116</v>
-      </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C55" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C55" s="2" t="s">
+      <c r="D55" s="2" t="s">
         <v>118</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C56" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="C56" s="2" t="s">
+      <c r="D56" s="2" t="s">
         <v>121</v>
       </c>
     </row>
@@ -12221,15 +12340,15 @@
       <c r="C59" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="D59" s="2" t="s">
-        <v>128</v>
-      </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C60" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="C60" s="2" t="s">
+      <c r="D60" s="2" t="s">
         <v>130</v>
       </c>
     </row>
@@ -12312,9 +12431,6 @@
       <c r="C70" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="D70" s="2" t="s">
-        <v>20</v>
-      </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
@@ -12324,14 +12440,17 @@
         <v>152</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>153</v>
+        <v>22</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C72" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="C72" s="2" t="s">
+      <c r="D72" s="2" t="s">
         <v>155</v>
       </c>
     </row>
@@ -12366,15 +12485,15 @@
       <c r="C76" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="D76" s="2" t="s">
-        <v>164</v>
-      </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C77" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="C77" s="2" t="s">
+      <c r="D77" s="2" t="s">
         <v>166</v>
       </c>
     </row>
@@ -12385,30 +12504,27 @@
       <c r="C78" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="D78" s="2" t="s">
-        <v>169</v>
-      </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C79" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="C79" s="2" t="s">
+      <c r="D79" s="2" t="s">
         <v>171</v>
-      </c>
-      <c r="D79" s="2" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C80" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="C80" s="2" t="s">
+      <c r="D80" s="2" t="s">
         <v>174</v>
-      </c>
-      <c r="D80" s="2" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="81">
@@ -12419,7 +12535,7 @@
         <v>176</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="82">
@@ -12430,7 +12546,7 @@
         <v>178</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="83">
@@ -12441,7 +12557,7 @@
         <v>180</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="84">
@@ -12452,7 +12568,7 @@
         <v>182</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="85">
@@ -12463,7 +12579,7 @@
         <v>184</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="86">
@@ -12474,7 +12590,7 @@
         <v>186</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="87">
@@ -12485,7 +12601,7 @@
         <v>188</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="88">
@@ -12496,7 +12612,7 @@
         <v>190</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="89">
@@ -12507,7 +12623,7 @@
         <v>192</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="90">
@@ -12518,7 +12634,7 @@
         <v>194</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="91">
@@ -12529,7 +12645,7 @@
         <v>196</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="92">
@@ -12540,7 +12656,7 @@
         <v>198</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="93">
@@ -12551,7 +12667,7 @@
         <v>200</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="94">
@@ -12562,29 +12678,29 @@
         <v>202</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>203</v>
+        <v>174</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C95" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="C95" s="2" t="s">
+      <c r="D95" s="2" t="s">
         <v>205</v>
-      </c>
-      <c r="D95" s="2" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="C96" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="C96" s="2" t="s">
+      <c r="D96" s="2" t="s">
         <v>208</v>
-      </c>
-      <c r="D96" s="2" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="97">
@@ -12595,18 +12711,18 @@
         <v>210</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="C98" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="C98" s="2" t="s">
+      <c r="D98" s="2" t="s">
         <v>213</v>
-      </c>
-      <c r="D98" s="2" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="99">
@@ -12617,7 +12733,7 @@
         <v>215</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="100">
@@ -12628,7 +12744,7 @@
         <v>217</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="101">
@@ -12639,7 +12755,7 @@
         <v>219</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="102">
@@ -12650,7 +12766,7 @@
         <v>221</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="103">
@@ -12661,7 +12777,7 @@
         <v>223</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="104">
@@ -12672,7 +12788,7 @@
         <v>225</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="105">
@@ -12683,7 +12799,7 @@
         <v>227</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="106">
@@ -12694,7 +12810,7 @@
         <v>229</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="107">
@@ -12705,7 +12821,7 @@
         <v>231</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="108">
@@ -12716,7 +12832,7 @@
         <v>233</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="109">
@@ -12727,74 +12843,74 @@
         <v>235</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="110">
-      <c r="A110" s="5" t="s">
+      <c r="A110" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="B110" s="4"/>
-      <c r="C110" s="3" t="s">
+      <c r="C110" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="D110" s="5" t="s">
+      <c r="D110" s="2" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="5" t="s">
         <v>238</v>
       </c>
-      <c r="E110" s="4"/>
-      <c r="F110" s="4"/>
-      <c r="G110" s="4"/>
-      <c r="H110" s="4"/>
-      <c r="I110" s="4"/>
-      <c r="J110" s="4"/>
-      <c r="K110" s="4"/>
-      <c r="L110" s="4"/>
-      <c r="M110" s="4"/>
-      <c r="N110" s="4"/>
-      <c r="O110" s="4"/>
-      <c r="P110" s="4"/>
-      <c r="Q110" s="4"/>
-      <c r="R110" s="4"/>
-      <c r="S110" s="4"/>
-      <c r="T110" s="4"/>
-      <c r="U110" s="4"/>
-      <c r="V110" s="4"/>
-      <c r="W110" s="4"/>
-      <c r="X110" s="4"/>
-      <c r="Y110" s="4"/>
-      <c r="Z110" s="4"/>
-    </row>
-    <row r="111">
-      <c r="A111" s="2" t="s">
+      <c r="B111" s="4"/>
+      <c r="C111" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="C111" s="2" t="s">
+      <c r="D111" s="5" t="s">
         <v>240</v>
       </c>
-      <c r="D111" s="2" t="s">
-        <v>238</v>
-      </c>
+      <c r="E111" s="4"/>
+      <c r="F111" s="4"/>
+      <c r="G111" s="4"/>
+      <c r="H111" s="4"/>
+      <c r="I111" s="4"/>
+      <c r="J111" s="4"/>
+      <c r="K111" s="4"/>
+      <c r="L111" s="4"/>
+      <c r="M111" s="4"/>
+      <c r="N111" s="4"/>
+      <c r="O111" s="4"/>
+      <c r="P111" s="4"/>
+      <c r="Q111" s="4"/>
+      <c r="R111" s="4"/>
+      <c r="S111" s="4"/>
+      <c r="T111" s="4"/>
+      <c r="U111" s="4"/>
+      <c r="V111" s="4"/>
+      <c r="W111" s="4"/>
+      <c r="X111" s="4"/>
+      <c r="Y111" s="4"/>
+      <c r="Z111" s="4"/>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>243</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
     </row>
     <row r="114">
@@ -12805,7 +12921,7 @@
         <v>245</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
     </row>
     <row r="115">
@@ -12816,7 +12932,7 @@
         <v>247</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
     </row>
     <row r="116">
@@ -12827,7 +12943,7 @@
         <v>249</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
     </row>
     <row r="117">
@@ -12838,7 +12954,7 @@
         <v>251</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
     </row>
     <row r="118">
@@ -12849,7 +12965,7 @@
         <v>253</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
     </row>
     <row r="119">
@@ -12860,7 +12976,7 @@
         <v>255</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
     </row>
     <row r="120">
@@ -12871,7 +12987,7 @@
         <v>257</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
     </row>
     <row r="121">
@@ -12882,7 +12998,7 @@
         <v>259</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
     </row>
     <row r="122">
@@ -12893,7 +13009,7 @@
         <v>261</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
     </row>
     <row r="123">
@@ -12904,7 +13020,7 @@
         <v>263</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
     </row>
     <row r="124">
@@ -12915,7 +13031,7 @@
         <v>265</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
     </row>
     <row r="125">
@@ -12926,7 +13042,7 @@
         <v>267</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
     </row>
     <row r="126">
@@ -12937,7 +13053,7 @@
         <v>269</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
     </row>
     <row r="127">
@@ -12948,7 +13064,7 @@
         <v>271</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
     </row>
     <row r="128">
@@ -12959,7 +13075,7 @@
         <v>273</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
     </row>
     <row r="129">
@@ -12970,7 +13086,7 @@
         <v>275</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
     </row>
     <row r="130">
@@ -12981,7 +13097,7 @@
         <v>277</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
     </row>
     <row r="131">
@@ -12992,14 +13108,17 @@
         <v>279</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>280</v>
+        <v>240</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="C132" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="C132" s="2" t="s">
+      <c r="D132" s="2" t="s">
         <v>282</v>
       </c>
     </row>
@@ -13013,24 +13132,21 @@
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="D134" s="2" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="C135" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="C135" s="2" t="s">
+      <c r="D135" s="2" t="s">
         <v>287</v>
-      </c>
-      <c r="D135" s="2" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="136">
@@ -13041,7 +13157,7 @@
         <v>289</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>211</v>
+        <v>287</v>
       </c>
     </row>
     <row r="137">
@@ -13052,7 +13168,7 @@
         <v>291</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="138">
@@ -13063,7 +13179,7 @@
         <v>293</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="139">
@@ -13074,7 +13190,7 @@
         <v>295</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="140">
@@ -13085,7 +13201,7 @@
         <v>297</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="141">
@@ -13096,7 +13212,7 @@
         <v>299</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>285</v>
+        <v>213</v>
       </c>
     </row>
     <row r="142">
@@ -13107,18 +13223,18 @@
         <v>301</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>302</v>
+        <v>287</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="C143" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="C143" s="2" t="s">
+      <c r="D143" s="2" t="s">
         <v>304</v>
-      </c>
-      <c r="D143" s="2" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="144">
@@ -13129,18 +13245,18 @@
         <v>306</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="C145" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="C145" s="2" t="s">
+      <c r="D145" s="2" t="s">
         <v>309</v>
-      </c>
-      <c r="D145" s="2" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="146">
@@ -13151,7 +13267,7 @@
         <v>311</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
     </row>
     <row r="147">
@@ -13162,7 +13278,7 @@
         <v>313</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
     </row>
     <row r="148">
@@ -13173,7 +13289,7 @@
         <v>315</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
     </row>
     <row r="149">
@@ -13184,7 +13300,7 @@
         <v>317</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
     </row>
     <row r="150">
@@ -13195,7 +13311,7 @@
         <v>319</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
     </row>
     <row r="151">
@@ -13206,40 +13322,40 @@
         <v>321</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>322</v>
+        <v>309</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="C152" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="C152" s="2" t="s">
+      <c r="D152" s="2" t="s">
         <v>324</v>
-      </c>
-      <c r="D152" s="2" t="s">
-        <v>325</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="C153" s="2" t="s">
         <v>326</v>
       </c>
-      <c r="C153" s="2" t="s">
+      <c r="D153" s="2" t="s">
         <v>327</v>
-      </c>
-      <c r="D153" s="2" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="C154" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="C154" s="2" t="s">
+      <c r="D154" s="2" t="s">
         <v>330</v>
-      </c>
-      <c r="D154" s="2" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="155">
@@ -13250,7 +13366,7 @@
         <v>332</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
     </row>
     <row r="156">
@@ -13261,7 +13377,7 @@
         <v>334</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
     </row>
     <row r="157">
@@ -13272,7 +13388,7 @@
         <v>336</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
     </row>
     <row r="158">
@@ -13283,7 +13399,7 @@
         <v>338</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>280</v>
+        <v>330</v>
       </c>
     </row>
     <row r="159">
@@ -13294,18 +13410,18 @@
         <v>340</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>341</v>
+        <v>282</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="C160" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="C160" s="2" t="s">
+      <c r="D160" s="2" t="s">
         <v>343</v>
-      </c>
-      <c r="D160" s="2" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="161">
@@ -13316,18 +13432,18 @@
         <v>345</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="C162" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="C162" s="2" t="s">
+      <c r="D162" s="2" t="s">
         <v>348</v>
-      </c>
-      <c r="D162" s="2" t="s">
-        <v>346</v>
       </c>
     </row>
     <row r="163">
@@ -13338,7 +13454,7 @@
         <v>350</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="164">
@@ -13349,7 +13465,7 @@
         <v>352</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="165">
@@ -13360,7 +13476,7 @@
         <v>354</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="166">
@@ -13371,7 +13487,7 @@
         <v>356</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="167">
@@ -13382,7 +13498,7 @@
         <v>358</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="168">
@@ -13393,7 +13509,7 @@
         <v>360</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="169">
@@ -13404,7 +13520,7 @@
         <v>362</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="170">
@@ -13415,7 +13531,7 @@
         <v>364</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="171">
@@ -13426,29 +13542,29 @@
         <v>366</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
         <v>367</v>
       </c>
-      <c r="C172" s="7" t="s">
+      <c r="C172" s="2" t="s">
         <v>368</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="C173" s="2" t="s">
+      <c r="C173" s="7" t="s">
         <v>370</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="174">
@@ -13459,7 +13575,7 @@
         <v>372</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="175">
@@ -13470,7 +13586,7 @@
         <v>374</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="176">
@@ -13481,7 +13597,7 @@
         <v>376</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="177">
@@ -13491,6 +13607,9 @@
       <c r="C177" s="2" t="s">
         <v>378</v>
       </c>
+      <c r="D177" s="2" t="s">
+        <v>348</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
@@ -13531,43 +13650,40 @@
       <c r="C182" s="2" t="s">
         <v>388</v>
       </c>
-      <c r="D182" s="2" t="s">
-        <v>389</v>
-      </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="C183" s="2" t="s">
         <v>390</v>
       </c>
-      <c r="C183" s="2" t="s">
+      <c r="D183" s="2" t="s">
         <v>391</v>
-      </c>
-      <c r="D183" s="2" t="s">
-        <v>392</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="C184" s="2" t="s">
         <v>393</v>
       </c>
-      <c r="C184" s="2" t="s">
+      <c r="D184" s="2" t="s">
         <v>394</v>
       </c>
-      <c r="D184" s="2" t="s">
-        <v>395</v>
-      </c>
-      <c r="E184" s="2"/>
     </row>
     <row r="185">
       <c r="A185" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="C185" s="2" t="s">
         <v>396</v>
       </c>
-      <c r="C185" s="2" t="s">
+      <c r="D185" s="2" t="s">
         <v>397</v>
       </c>
-      <c r="D185" s="2" t="s">
-        <v>395</v>
-      </c>
+      <c r="E185" s="2"/>
     </row>
     <row r="186">
       <c r="A186" s="2" t="s">
@@ -13577,18 +13693,18 @@
         <v>399</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="C187" s="2" t="s">
         <v>401</v>
       </c>
-      <c r="C187" s="2" t="s">
+      <c r="D187" s="2" t="s">
         <v>402</v>
-      </c>
-      <c r="D187" s="2" t="s">
-        <v>400</v>
       </c>
     </row>
     <row r="188">
@@ -13599,7 +13715,7 @@
         <v>404</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
     </row>
     <row r="189">
@@ -13610,18 +13726,18 @@
         <v>406</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="C190" s="2" t="s">
         <v>408</v>
       </c>
-      <c r="C190" s="2" t="s">
+      <c r="D190" s="2" t="s">
         <v>409</v>
-      </c>
-      <c r="D190" s="2" t="s">
-        <v>400</v>
       </c>
     </row>
     <row r="191">
@@ -13632,7 +13748,7 @@
         <v>411</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
     </row>
     <row r="192">
@@ -13643,18 +13759,18 @@
         <v>413</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>414</v>
+        <v>402</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="C193" s="2" t="s">
         <v>415</v>
       </c>
-      <c r="C193" s="2" t="s">
+      <c r="D193" s="2" t="s">
         <v>416</v>
-      </c>
-      <c r="D193" s="2" t="s">
-        <v>414</v>
       </c>
     </row>
     <row r="194">
@@ -13665,7 +13781,7 @@
         <v>418</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
     </row>
     <row r="195">
@@ -13676,7 +13792,7 @@
         <v>420</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
     </row>
     <row r="196">
@@ -13687,7 +13803,7 @@
         <v>422</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
     </row>
     <row r="197">
@@ -13698,7 +13814,7 @@
         <v>424</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
     </row>
     <row r="198">
@@ -13709,7 +13825,7 @@
         <v>426</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>400</v>
+        <v>416</v>
       </c>
     </row>
     <row r="199">
@@ -13720,7 +13836,7 @@
         <v>428</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
     </row>
     <row r="200">
@@ -13731,7 +13847,7 @@
         <v>430</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
     </row>
     <row r="201">
@@ -13742,7 +13858,7 @@
         <v>432</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
     </row>
     <row r="202">
@@ -13753,7 +13869,7 @@
         <v>434</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
     </row>
     <row r="203">
@@ -13764,7 +13880,7 @@
         <v>436</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
     </row>
     <row r="204">
@@ -13775,18 +13891,18 @@
         <v>438</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>439</v>
+        <v>402</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="C205" s="2" t="s">
         <v>440</v>
       </c>
-      <c r="C205" s="2" t="s">
+      <c r="D205" s="2" t="s">
         <v>441</v>
-      </c>
-      <c r="D205" s="2" t="s">
-        <v>414</v>
       </c>
     </row>
     <row r="206">
@@ -13797,7 +13913,7 @@
         <v>443</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
     </row>
     <row r="207">
@@ -13808,7 +13924,7 @@
         <v>445</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
     </row>
     <row r="208">
@@ -13819,7 +13935,7 @@
         <v>447</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
     </row>
     <row r="209">
@@ -13830,7 +13946,7 @@
         <v>449</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
     </row>
     <row r="210">
@@ -13841,7 +13957,7 @@
         <v>451</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>400</v>
+        <v>416</v>
       </c>
     </row>
     <row r="211">
@@ -13852,18 +13968,18 @@
         <v>453</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>454</v>
+        <v>402</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="C212" s="2" t="s">
         <v>455</v>
       </c>
-      <c r="C212" s="2" t="s">
+      <c r="D212" s="2" t="s">
         <v>456</v>
-      </c>
-      <c r="D212" s="2" t="s">
-        <v>454</v>
       </c>
     </row>
     <row r="213">
@@ -13874,7 +13990,7 @@
         <v>458</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
     </row>
     <row r="214">
@@ -13885,7 +14001,7 @@
         <v>460</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
     </row>
     <row r="215">
@@ -13896,7 +14012,7 @@
         <v>462</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
     </row>
     <row r="216">
@@ -13907,7 +14023,7 @@
         <v>464</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
     </row>
     <row r="217">
@@ -13918,7 +14034,7 @@
         <v>466</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
     </row>
     <row r="218">
@@ -13929,7 +14045,7 @@
         <v>468</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
     </row>
     <row r="219">
@@ -13940,7 +14056,7 @@
         <v>470</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
     </row>
     <row r="220">
@@ -13951,7 +14067,7 @@
         <v>472</v>
       </c>
       <c r="D220" s="2" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
     </row>
     <row r="221">
@@ -13962,7 +14078,7 @@
         <v>474</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
     </row>
     <row r="222">
@@ -13973,7 +14089,7 @@
         <v>476</v>
       </c>
       <c r="D222" s="2" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
     </row>
     <row r="223">
@@ -13984,18 +14100,18 @@
         <v>478</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>479</v>
+        <v>456</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="C224" s="2" t="s">
         <v>480</v>
       </c>
-      <c r="C224" s="2" t="s">
+      <c r="D224" s="2" t="s">
         <v>481</v>
-      </c>
-      <c r="D224" s="2" t="s">
-        <v>479</v>
       </c>
     </row>
     <row r="225">
@@ -14006,7 +14122,7 @@
         <v>483</v>
       </c>
       <c r="D225" s="2" t="s">
-        <v>454</v>
+        <v>481</v>
       </c>
     </row>
     <row r="226">
@@ -14017,7 +14133,7 @@
         <v>485</v>
       </c>
       <c r="D226" s="2" t="s">
-        <v>479</v>
+        <v>456</v>
       </c>
     </row>
     <row r="227">
@@ -14028,7 +14144,7 @@
         <v>487</v>
       </c>
       <c r="D227" s="2" t="s">
-        <v>454</v>
+        <v>481</v>
       </c>
     </row>
     <row r="228">
@@ -14039,7 +14155,7 @@
         <v>489</v>
       </c>
       <c r="D228" s="2" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
     </row>
     <row r="229">
@@ -14050,7 +14166,7 @@
         <v>491</v>
       </c>
       <c r="D229" s="2" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
     </row>
     <row r="230">
@@ -14061,7 +14177,7 @@
         <v>493</v>
       </c>
       <c r="D230" s="2" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
     </row>
     <row r="231">
@@ -14072,7 +14188,7 @@
         <v>495</v>
       </c>
       <c r="D231" s="2" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
     </row>
     <row r="232">
@@ -14083,7 +14199,7 @@
         <v>497</v>
       </c>
       <c r="D232" s="2" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
     </row>
     <row r="233">
@@ -14094,7 +14210,7 @@
         <v>499</v>
       </c>
       <c r="D233" s="2" t="s">
-        <v>479</v>
+        <v>456</v>
       </c>
     </row>
     <row r="234">
@@ -14105,7 +14221,7 @@
         <v>501</v>
       </c>
       <c r="D234" s="2" t="s">
-        <v>454</v>
+        <v>481</v>
       </c>
     </row>
     <row r="235">
@@ -14116,18 +14232,18 @@
         <v>503</v>
       </c>
       <c r="D235" s="2" t="s">
-        <v>504</v>
+        <v>456</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="C236" s="2" t="s">
         <v>505</v>
       </c>
-      <c r="C236" s="2" t="s">
+      <c r="D236" s="2" t="s">
         <v>506</v>
-      </c>
-      <c r="D236" s="2" t="s">
-        <v>504</v>
       </c>
     </row>
     <row r="237">
@@ -14138,7 +14254,7 @@
         <v>508</v>
       </c>
       <c r="D237" s="2" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
     </row>
     <row r="238">
@@ -14149,7 +14265,7 @@
         <v>510</v>
       </c>
       <c r="D238" s="2" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
     </row>
     <row r="239">
@@ -14160,62 +14276,62 @@
         <v>512</v>
       </c>
       <c r="D239" s="2" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="2" t="s">
+        <v>513</v>
+      </c>
+      <c r="C240" s="2" t="s">
         <v>514</v>
       </c>
-      <c r="C240" s="2" t="s">
+      <c r="D240" s="2" t="s">
         <v>515</v>
-      </c>
-      <c r="D240" s="2" t="s">
-        <v>516</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="C241" s="2" t="s">
         <v>517</v>
       </c>
-      <c r="C241" s="2" t="s">
+      <c r="D241" s="2" t="s">
         <v>518</v>
-      </c>
-      <c r="D241" s="2" t="s">
-        <v>519</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="C242" s="2" t="s">
         <v>520</v>
       </c>
-      <c r="C242" s="2" t="s">
+      <c r="D242" s="2" t="s">
         <v>521</v>
-      </c>
-      <c r="D242" s="2" t="s">
-        <v>522</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="C243" s="2" t="s">
         <v>523</v>
       </c>
-      <c r="C243" s="2" t="s">
+      <c r="D243" s="2" t="s">
         <v>524</v>
-      </c>
-      <c r="D243" s="2" t="s">
-        <v>525</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="C244" s="2" t="s">
         <v>526</v>
       </c>
-      <c r="C244" s="2" t="s">
+      <c r="D244" s="2" t="s">
         <v>527</v>
-      </c>
-      <c r="D244" s="2" t="s">
-        <v>525</v>
       </c>
     </row>
     <row r="245">
@@ -14226,7 +14342,7 @@
         <v>529</v>
       </c>
       <c r="D245" s="2" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
     </row>
     <row r="246">
@@ -14237,18 +14353,18 @@
         <v>531</v>
       </c>
       <c r="D246" s="2" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="C247" s="2" t="s">
         <v>533</v>
       </c>
-      <c r="C247" s="2" t="s">
+      <c r="D247" s="2" t="s">
         <v>534</v>
-      </c>
-      <c r="D247" s="2" t="s">
-        <v>532</v>
       </c>
     </row>
     <row r="248">
@@ -14259,21 +14375,21 @@
         <v>536</v>
       </c>
       <c r="D248" s="2" t="s">
-        <v>537</v>
-      </c>
-      <c r="E248" s="2" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="C249" s="2" t="s">
+        <v>538</v>
+      </c>
+      <c r="D249" s="2" t="s">
         <v>539</v>
       </c>
-      <c r="C249" s="2" t="s">
+      <c r="E249" s="2" t="s">
         <v>540</v>
-      </c>
-      <c r="D249" s="2" t="s">
-        <v>537</v>
       </c>
     </row>
     <row r="250">
@@ -14284,7 +14400,7 @@
         <v>542</v>
       </c>
       <c r="D250" s="2" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
     </row>
     <row r="251">
@@ -14295,7 +14411,7 @@
         <v>544</v>
       </c>
       <c r="D251" s="2" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
     </row>
     <row r="252">
@@ -14306,7 +14422,7 @@
         <v>546</v>
       </c>
       <c r="D252" s="2" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
     </row>
     <row r="253">
@@ -14317,7 +14433,7 @@
         <v>548</v>
       </c>
       <c r="D253" s="2" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
     </row>
     <row r="254">
@@ -14328,7 +14444,7 @@
         <v>550</v>
       </c>
       <c r="D254" s="2" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
     </row>
     <row r="255">
@@ -14339,7 +14455,7 @@
         <v>552</v>
       </c>
       <c r="D255" s="2" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
     </row>
     <row r="256">
@@ -14350,7 +14466,7 @@
         <v>554</v>
       </c>
       <c r="D256" s="2" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
     </row>
     <row r="257">
@@ -14361,7 +14477,7 @@
         <v>556</v>
       </c>
       <c r="D257" s="2" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
     </row>
     <row r="258">
@@ -14372,7 +14488,7 @@
         <v>558</v>
       </c>
       <c r="D258" s="2" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
     </row>
     <row r="259">
@@ -14383,18 +14499,18 @@
         <v>560</v>
       </c>
       <c r="D259" s="2" t="s">
-        <v>561</v>
+        <v>539</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="2" t="s">
+        <v>561</v>
+      </c>
+      <c r="C260" s="2" t="s">
         <v>562</v>
       </c>
-      <c r="C260" s="2" t="s">
+      <c r="D260" s="2" t="s">
         <v>563</v>
-      </c>
-      <c r="D260" s="2" t="s">
-        <v>561</v>
       </c>
     </row>
     <row r="261">
@@ -14405,7 +14521,7 @@
         <v>565</v>
       </c>
       <c r="D261" s="2" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
     </row>
     <row r="262">
@@ -14416,18 +14532,18 @@
         <v>567</v>
       </c>
       <c r="D262" s="2" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="2" t="s">
+        <v>568</v>
+      </c>
+      <c r="C263" s="2" t="s">
         <v>569</v>
       </c>
-      <c r="C263" s="2" t="s">
+      <c r="D263" s="2" t="s">
         <v>570</v>
-      </c>
-      <c r="D263" s="2" t="s">
-        <v>568</v>
       </c>
     </row>
     <row r="264">
@@ -14438,7 +14554,7 @@
         <v>572</v>
       </c>
       <c r="D264" s="2" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="265">
@@ -14449,7 +14565,7 @@
         <v>574</v>
       </c>
       <c r="D265" s="2" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="266">
@@ -14460,7 +14576,7 @@
         <v>576</v>
       </c>
       <c r="D266" s="2" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="267">
@@ -14471,29 +14587,29 @@
         <v>578</v>
       </c>
       <c r="D267" s="2" t="s">
-        <v>579</v>
+        <v>570</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" s="2" t="s">
+        <v>579</v>
+      </c>
+      <c r="C268" s="2" t="s">
         <v>580</v>
       </c>
-      <c r="C268" s="2" t="s">
+      <c r="D268" s="2" t="s">
         <v>581</v>
-      </c>
-      <c r="D268" s="2" t="s">
-        <v>582</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="2" t="s">
+        <v>582</v>
+      </c>
+      <c r="C269" s="2" t="s">
         <v>583</v>
       </c>
-      <c r="C269" s="2" t="s">
+      <c r="D269" s="2" t="s">
         <v>584</v>
-      </c>
-      <c r="D269" s="2" t="s">
-        <v>582</v>
       </c>
     </row>
     <row r="270">
@@ -14504,7 +14620,7 @@
         <v>586</v>
       </c>
       <c r="D270" s="2" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
     </row>
     <row r="271">
@@ -14515,7 +14631,7 @@
         <v>588</v>
       </c>
       <c r="D271" s="2" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
     </row>
     <row r="272">
@@ -14526,7 +14642,7 @@
         <v>590</v>
       </c>
       <c r="D272" s="2" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
     </row>
     <row r="273">
@@ -14537,7 +14653,7 @@
         <v>592</v>
       </c>
       <c r="D273" s="2" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
     </row>
     <row r="274">
@@ -14548,7 +14664,7 @@
         <v>594</v>
       </c>
       <c r="D274" s="2" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
     </row>
     <row r="275">
@@ -14559,7 +14675,7 @@
         <v>596</v>
       </c>
       <c r="D275" s="2" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
     </row>
     <row r="276">
@@ -14570,7 +14686,7 @@
         <v>598</v>
       </c>
       <c r="D276" s="2" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
     </row>
     <row r="277">
@@ -14581,7 +14697,7 @@
         <v>600</v>
       </c>
       <c r="D277" s="2" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
     </row>
     <row r="278">
@@ -14592,7 +14708,7 @@
         <v>602</v>
       </c>
       <c r="D278" s="2" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
     </row>
     <row r="279">
@@ -14603,7 +14719,7 @@
         <v>604</v>
       </c>
       <c r="D279" s="2" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
     </row>
     <row r="280">
@@ -14614,7 +14730,7 @@
         <v>606</v>
       </c>
       <c r="D280" s="2" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
     </row>
     <row r="281">
@@ -14625,7 +14741,7 @@
         <v>608</v>
       </c>
       <c r="D281" s="2" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
     </row>
     <row r="282">
@@ -14636,7 +14752,7 @@
         <v>610</v>
       </c>
       <c r="D282" s="2" t="s">
-        <v>307</v>
+        <v>584</v>
       </c>
     </row>
     <row r="283">
@@ -14647,7 +14763,7 @@
         <v>612</v>
       </c>
       <c r="D283" s="2" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
     </row>
     <row r="284">
@@ -14658,7 +14774,7 @@
         <v>614</v>
       </c>
       <c r="D284" s="2" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
     </row>
     <row r="285">
@@ -14669,7 +14785,7 @@
         <v>616</v>
       </c>
       <c r="D285" s="2" t="s">
-        <v>302</v>
+        <v>309</v>
       </c>
     </row>
     <row r="286">
@@ -14680,7 +14796,7 @@
         <v>618</v>
       </c>
       <c r="D286" s="2" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="287">
@@ -14691,7 +14807,7 @@
         <v>620</v>
       </c>
       <c r="D287" s="2" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="288">
@@ -14702,7 +14818,7 @@
         <v>622</v>
       </c>
       <c r="D288" s="2" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="289">
@@ -14713,18 +14829,18 @@
         <v>624</v>
       </c>
       <c r="D289" s="2" t="s">
-        <v>625</v>
+        <v>304</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" s="2" t="s">
+        <v>625</v>
+      </c>
+      <c r="C290" s="2" t="s">
         <v>626</v>
       </c>
-      <c r="C290" s="2" t="s">
+      <c r="D290" s="2" t="s">
         <v>627</v>
-      </c>
-      <c r="D290" s="2" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="291">
@@ -14735,29 +14851,29 @@
         <v>629</v>
       </c>
       <c r="D291" s="2" t="s">
-        <v>630</v>
+        <v>304</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" s="2" t="s">
+        <v>630</v>
+      </c>
+      <c r="C292" s="2" t="s">
         <v>631</v>
       </c>
-      <c r="C292" s="2" t="s">
+      <c r="D292" s="2" t="s">
         <v>632</v>
-      </c>
-      <c r="D292" s="2" t="s">
-        <v>633</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" s="2" t="s">
+        <v>633</v>
+      </c>
+      <c r="C293" s="2" t="s">
         <v>634</v>
       </c>
-      <c r="C293" s="2" t="s">
+      <c r="D293" s="2" t="s">
         <v>635</v>
-      </c>
-      <c r="D293" s="2" t="s">
-        <v>633</v>
       </c>
     </row>
     <row r="294">
@@ -14768,7 +14884,7 @@
         <v>637</v>
       </c>
       <c r="D294" s="2" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
     </row>
     <row r="295">
@@ -14779,7 +14895,7 @@
         <v>639</v>
       </c>
       <c r="D295" s="2" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
     </row>
     <row r="296">
@@ -14790,7 +14906,7 @@
         <v>641</v>
       </c>
       <c r="D296" s="2" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
     </row>
     <row r="297">
@@ -14801,7 +14917,7 @@
         <v>643</v>
       </c>
       <c r="D297" s="2" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
     </row>
     <row r="298">
@@ -14812,7 +14928,7 @@
         <v>645</v>
       </c>
       <c r="D298" s="2" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
     </row>
     <row r="299">
@@ -14823,7 +14939,7 @@
         <v>647</v>
       </c>
       <c r="D299" s="2" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
     </row>
     <row r="300">
@@ -14834,7 +14950,7 @@
         <v>649</v>
       </c>
       <c r="D300" s="2" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
     </row>
     <row r="301">
@@ -14845,7 +14961,7 @@
         <v>651</v>
       </c>
       <c r="D301" s="2" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
     </row>
     <row r="302">
@@ -14856,7 +14972,7 @@
         <v>653</v>
       </c>
       <c r="D302" s="2" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
     </row>
     <row r="303">
@@ -14867,7 +14983,7 @@
         <v>655</v>
       </c>
       <c r="D303" s="2" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
     </row>
     <row r="304">
@@ -14878,7 +14994,7 @@
         <v>657</v>
       </c>
       <c r="D304" s="2" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
     </row>
     <row r="305">
@@ -14889,7 +15005,7 @@
         <v>659</v>
       </c>
       <c r="D305" s="2" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
     </row>
     <row r="306">
@@ -14900,7 +15016,7 @@
         <v>661</v>
       </c>
       <c r="D306" s="2" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
     </row>
     <row r="307">
@@ -14911,7 +15027,7 @@
         <v>663</v>
       </c>
       <c r="D307" s="2" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
     </row>
     <row r="308">
@@ -14922,7 +15038,7 @@
         <v>665</v>
       </c>
       <c r="D308" s="2" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
     </row>
     <row r="309">
@@ -14933,7 +15049,7 @@
         <v>667</v>
       </c>
       <c r="D309" s="2" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
     </row>
     <row r="310">
@@ -14944,7 +15060,7 @@
         <v>669</v>
       </c>
       <c r="D310" s="2" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
     </row>
     <row r="311">
@@ -14955,7 +15071,7 @@
         <v>671</v>
       </c>
       <c r="D311" s="2" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
     </row>
     <row r="312">
@@ -14966,7 +15082,7 @@
         <v>673</v>
       </c>
       <c r="D312" s="2" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
     </row>
     <row r="313">
@@ -14977,7 +15093,7 @@
         <v>675</v>
       </c>
       <c r="D313" s="2" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
     </row>
     <row r="314">
@@ -14988,7 +15104,7 @@
         <v>677</v>
       </c>
       <c r="D314" s="2" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
     </row>
     <row r="315">
@@ -14999,7 +15115,7 @@
         <v>679</v>
       </c>
       <c r="D315" s="2" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
     </row>
     <row r="316">
@@ -15010,18 +15126,18 @@
         <v>681</v>
       </c>
       <c r="D316" s="2" t="s">
-        <v>682</v>
+        <v>635</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" s="2" t="s">
+        <v>682</v>
+      </c>
+      <c r="C317" s="2" t="s">
         <v>683</v>
       </c>
-      <c r="C317" s="2" t="s">
+      <c r="D317" s="2" t="s">
         <v>684</v>
-      </c>
-      <c r="D317" s="2" t="s">
-        <v>682</v>
       </c>
     </row>
     <row r="318">
@@ -15032,7 +15148,7 @@
         <v>686</v>
       </c>
       <c r="D318" s="2" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
     </row>
     <row r="319">
@@ -15043,7 +15159,7 @@
         <v>688</v>
       </c>
       <c r="D319" s="2" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
     </row>
     <row r="320">
@@ -15054,29 +15170,29 @@
         <v>690</v>
       </c>
       <c r="D320" s="2" t="s">
-        <v>691</v>
+        <v>684</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" s="2" t="s">
+        <v>691</v>
+      </c>
+      <c r="C321" s="2" t="s">
         <v>692</v>
       </c>
-      <c r="C321" s="2" t="s">
+      <c r="D321" s="2" t="s">
         <v>693</v>
-      </c>
-      <c r="D321" s="2" t="s">
-        <v>694</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" s="2" t="s">
+        <v>694</v>
+      </c>
+      <c r="C322" s="2" t="s">
         <v>695</v>
       </c>
-      <c r="C322" s="2" t="s">
+      <c r="D322" s="2" t="s">
         <v>696</v>
-      </c>
-      <c r="D322" s="2" t="s">
-        <v>694</v>
       </c>
     </row>
     <row r="323">
@@ -15087,117 +15203,117 @@
         <v>698</v>
       </c>
       <c r="D323" s="2" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" s="2" t="s">
+        <v>699</v>
+      </c>
+      <c r="C324" s="2" t="s">
         <v>700</v>
       </c>
-      <c r="C324" s="2" t="s">
+      <c r="D324" s="2" t="s">
         <v>701</v>
-      </c>
-      <c r="D324" s="2" t="s">
-        <v>702</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" s="2" t="s">
+        <v>702</v>
+      </c>
+      <c r="C325" s="2" t="s">
         <v>703</v>
       </c>
-      <c r="C325" s="2" t="s">
+      <c r="D325" s="2" t="s">
         <v>704</v>
-      </c>
-      <c r="D325" s="2" t="s">
-        <v>705</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" s="2" t="s">
+        <v>705</v>
+      </c>
+      <c r="C326" s="2" t="s">
         <v>706</v>
       </c>
-      <c r="C326" s="2" t="s">
+      <c r="D326" s="2" t="s">
         <v>707</v>
-      </c>
-      <c r="D326" s="2" t="s">
-        <v>708</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" s="2" t="s">
+        <v>708</v>
+      </c>
+      <c r="C327" s="2" t="s">
         <v>709</v>
       </c>
-      <c r="C327" s="2" t="s">
+      <c r="D327" s="2" t="s">
         <v>710</v>
-      </c>
-      <c r="D327" s="2" t="s">
-        <v>711</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" s="2" t="s">
+        <v>711</v>
+      </c>
+      <c r="C328" s="2" t="s">
         <v>712</v>
       </c>
-      <c r="C328" s="2" t="s">
+      <c r="D328" s="2" t="s">
         <v>713</v>
-      </c>
-      <c r="D328" s="2" t="s">
-        <v>714</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" s="2" t="s">
+        <v>714</v>
+      </c>
+      <c r="C329" s="2" t="s">
         <v>715</v>
       </c>
-      <c r="C329" s="2" t="s">
+      <c r="D329" s="2" t="s">
         <v>716</v>
-      </c>
-      <c r="D329" s="2" t="s">
-        <v>717</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" s="2" t="s">
+        <v>717</v>
+      </c>
+      <c r="C330" s="2" t="s">
         <v>718</v>
       </c>
-      <c r="C330" s="2" t="s">
+      <c r="D330" s="2" t="s">
         <v>719</v>
-      </c>
-      <c r="D330" s="2" t="s">
-        <v>720</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" s="2" t="s">
+        <v>720</v>
+      </c>
+      <c r="C331" s="2" t="s">
         <v>721</v>
       </c>
-      <c r="C331" s="2" t="s">
+      <c r="D331" s="2" t="s">
         <v>722</v>
-      </c>
-      <c r="D331" s="2" t="s">
-        <v>723</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" s="2" t="s">
+        <v>723</v>
+      </c>
+      <c r="C332" s="2" t="s">
         <v>724</v>
       </c>
-      <c r="C332" s="2" t="s">
+      <c r="D332" s="2" t="s">
         <v>725</v>
-      </c>
-      <c r="D332" s="2" t="s">
-        <v>726</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" s="2" t="s">
+        <v>726</v>
+      </c>
+      <c r="C333" s="2" t="s">
         <v>727</v>
       </c>
-      <c r="C333" s="2" t="s">
+      <c r="D333" s="2" t="s">
         <v>728</v>
-      </c>
-      <c r="D333" s="2" t="s">
-        <v>726</v>
       </c>
     </row>
     <row r="334">
@@ -15208,7 +15324,7 @@
         <v>730</v>
       </c>
       <c r="D334" s="2" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
     </row>
     <row r="335">
@@ -15219,7 +15335,7 @@
         <v>732</v>
       </c>
       <c r="D335" s="2" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
     </row>
     <row r="336">
@@ -15230,7 +15346,7 @@
         <v>734</v>
       </c>
       <c r="D336" s="2" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
     </row>
     <row r="337">
@@ -15241,7 +15357,7 @@
         <v>736</v>
       </c>
       <c r="D337" s="2" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
     </row>
     <row r="338">
@@ -15252,18 +15368,18 @@
         <v>738</v>
       </c>
       <c r="D338" s="2" t="s">
-        <v>739</v>
+        <v>728</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" s="2" t="s">
+        <v>739</v>
+      </c>
+      <c r="C339" s="2" t="s">
         <v>740</v>
       </c>
-      <c r="C339" s="2" t="s">
+      <c r="D339" s="2" t="s">
         <v>741</v>
-      </c>
-      <c r="D339" s="2" t="s">
-        <v>726</v>
       </c>
     </row>
     <row r="340">
@@ -15274,7 +15390,7 @@
         <v>743</v>
       </c>
       <c r="D340" s="2" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
     </row>
     <row r="341">
@@ -15285,7 +15401,7 @@
         <v>745</v>
       </c>
       <c r="D341" s="2" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
     </row>
     <row r="342">
@@ -15296,7 +15412,7 @@
         <v>747</v>
       </c>
       <c r="D342" s="2" t="s">
-        <v>739</v>
+        <v>728</v>
       </c>
     </row>
     <row r="343">
@@ -15307,7 +15423,7 @@
         <v>749</v>
       </c>
       <c r="D343" s="2" t="s">
-        <v>739</v>
+        <v>741</v>
       </c>
     </row>
     <row r="344">
@@ -15318,7 +15434,7 @@
         <v>751</v>
       </c>
       <c r="D344" s="2" t="s">
-        <v>739</v>
+        <v>741</v>
       </c>
     </row>
     <row r="345">
@@ -15329,7 +15445,7 @@
         <v>753</v>
       </c>
       <c r="D345" s="2" t="s">
-        <v>739</v>
+        <v>741</v>
       </c>
     </row>
     <row r="346">
@@ -15340,7 +15456,7 @@
         <v>755</v>
       </c>
       <c r="D346" s="2" t="s">
-        <v>739</v>
+        <v>741</v>
       </c>
     </row>
     <row r="347">
@@ -15351,7 +15467,7 @@
         <v>757</v>
       </c>
       <c r="D347" s="2" t="s">
-        <v>739</v>
+        <v>741</v>
       </c>
     </row>
     <row r="348">
@@ -15362,7 +15478,7 @@
         <v>759</v>
       </c>
       <c r="D348" s="2" t="s">
-        <v>739</v>
+        <v>741</v>
       </c>
     </row>
     <row r="349">
@@ -15373,7 +15489,7 @@
         <v>761</v>
       </c>
       <c r="D349" s="2" t="s">
-        <v>739</v>
+        <v>741</v>
       </c>
     </row>
     <row r="350">
@@ -15384,7 +15500,7 @@
         <v>763</v>
       </c>
       <c r="D350" s="2" t="s">
-        <v>739</v>
+        <v>741</v>
       </c>
     </row>
     <row r="351">
@@ -15395,7 +15511,7 @@
         <v>765</v>
       </c>
       <c r="D351" s="2" t="s">
-        <v>739</v>
+        <v>741</v>
       </c>
     </row>
     <row r="352">
@@ -15406,7 +15522,7 @@
         <v>767</v>
       </c>
       <c r="D352" s="2" t="s">
-        <v>739</v>
+        <v>741</v>
       </c>
     </row>
     <row r="353">
@@ -15417,7 +15533,7 @@
         <v>769</v>
       </c>
       <c r="D353" s="2" t="s">
-        <v>739</v>
+        <v>741</v>
       </c>
     </row>
     <row r="354">
@@ -15428,7 +15544,7 @@
         <v>771</v>
       </c>
       <c r="D354" s="2" t="s">
-        <v>739</v>
+        <v>741</v>
       </c>
     </row>
     <row r="355">
@@ -15439,7 +15555,7 @@
         <v>773</v>
       </c>
       <c r="D355" s="2" t="s">
-        <v>739</v>
+        <v>741</v>
       </c>
     </row>
     <row r="356">
@@ -15450,7 +15566,7 @@
         <v>775</v>
       </c>
       <c r="D356" s="2" t="s">
-        <v>739</v>
+        <v>741</v>
       </c>
     </row>
     <row r="357">
@@ -15461,7 +15577,7 @@
         <v>777</v>
       </c>
       <c r="D357" s="2" t="s">
-        <v>739</v>
+        <v>741</v>
       </c>
     </row>
     <row r="358">
@@ -15472,7 +15588,7 @@
         <v>779</v>
       </c>
       <c r="D358" s="2" t="s">
-        <v>739</v>
+        <v>741</v>
       </c>
     </row>
     <row r="359">
@@ -15483,7 +15599,7 @@
         <v>781</v>
       </c>
       <c r="D359" s="2" t="s">
-        <v>739</v>
+        <v>741</v>
       </c>
     </row>
     <row r="360">
@@ -15494,7 +15610,7 @@
         <v>783</v>
       </c>
       <c r="D360" s="2" t="s">
-        <v>739</v>
+        <v>741</v>
       </c>
     </row>
     <row r="361">
@@ -15505,7 +15621,7 @@
         <v>785</v>
       </c>
       <c r="D361" s="2" t="s">
-        <v>739</v>
+        <v>741</v>
       </c>
     </row>
     <row r="362">
@@ -15516,7 +15632,7 @@
         <v>787</v>
       </c>
       <c r="D362" s="2" t="s">
-        <v>739</v>
+        <v>741</v>
       </c>
     </row>
     <row r="363">
@@ -15527,7 +15643,7 @@
         <v>789</v>
       </c>
       <c r="D363" s="2" t="s">
-        <v>739</v>
+        <v>741</v>
       </c>
     </row>
     <row r="364">
@@ -15538,7 +15654,7 @@
         <v>791</v>
       </c>
       <c r="D364" s="2" t="s">
-        <v>739</v>
+        <v>741</v>
       </c>
     </row>
     <row r="365">
@@ -15549,7 +15665,7 @@
         <v>793</v>
       </c>
       <c r="D365" s="2" t="s">
-        <v>739</v>
+        <v>741</v>
       </c>
     </row>
     <row r="366">
@@ -15560,29 +15676,29 @@
         <v>795</v>
       </c>
       <c r="D366" s="2" t="s">
-        <v>796</v>
+        <v>741</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" s="2" t="s">
+        <v>796</v>
+      </c>
+      <c r="C367" s="2" t="s">
         <v>797</v>
       </c>
-      <c r="C367" s="2" t="s">
+      <c r="D367" s="2" t="s">
         <v>798</v>
-      </c>
-      <c r="D367" s="2" t="s">
-        <v>799</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" s="2" t="s">
+        <v>799</v>
+      </c>
+      <c r="C368" s="2" t="s">
         <v>800</v>
       </c>
-      <c r="C368" s="2" t="s">
+      <c r="D368" s="2" t="s">
         <v>801</v>
-      </c>
-      <c r="D368" s="2" t="s">
-        <v>799</v>
       </c>
     </row>
     <row r="369">
@@ -15593,7 +15709,7 @@
         <v>803</v>
       </c>
       <c r="D369" s="2" t="s">
-        <v>799</v>
+        <v>801</v>
       </c>
     </row>
     <row r="370">
@@ -15604,18 +15720,18 @@
         <v>805</v>
       </c>
       <c r="D370" s="2" t="s">
-        <v>806</v>
+        <v>801</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" s="2" t="s">
+        <v>806</v>
+      </c>
+      <c r="C371" s="2" t="s">
         <v>807</v>
       </c>
-      <c r="C371" s="2" t="s">
+      <c r="D371" s="2" t="s">
         <v>808</v>
-      </c>
-      <c r="D371" s="2" t="s">
-        <v>799</v>
       </c>
     </row>
     <row r="372">
@@ -15626,7 +15742,7 @@
         <v>810</v>
       </c>
       <c r="D372" s="2" t="s">
-        <v>799</v>
+        <v>801</v>
       </c>
     </row>
     <row r="373">
@@ -15637,7 +15753,7 @@
         <v>812</v>
       </c>
       <c r="D373" s="2" t="s">
-        <v>806</v>
+        <v>801</v>
       </c>
     </row>
     <row r="374">
@@ -15648,7 +15764,7 @@
         <v>814</v>
       </c>
       <c r="D374" s="2" t="s">
-        <v>799</v>
+        <v>808</v>
       </c>
     </row>
     <row r="375">
@@ -15659,7 +15775,7 @@
         <v>816</v>
       </c>
       <c r="D375" s="2" t="s">
-        <v>799</v>
+        <v>801</v>
       </c>
     </row>
     <row r="376">
@@ -15670,7 +15786,7 @@
         <v>818</v>
       </c>
       <c r="D376" s="2" t="s">
-        <v>806</v>
+        <v>801</v>
       </c>
     </row>
     <row r="377">
@@ -15681,7 +15797,7 @@
         <v>820</v>
       </c>
       <c r="D377" s="2" t="s">
-        <v>799</v>
+        <v>808</v>
       </c>
     </row>
     <row r="378">
@@ -15691,7 +15807,9 @@
       <c r="C378" s="2" t="s">
         <v>822</v>
       </c>
-      <c r="D378" s="2"/>
+      <c r="D378" s="2" t="s">
+        <v>801</v>
+      </c>
     </row>
     <row r="379">
       <c r="A379" s="2" t="s">
@@ -15700,19 +15818,17 @@
       <c r="C379" s="2" t="s">
         <v>824</v>
       </c>
-      <c r="D379" s="2" t="s">
-        <v>825</v>
-      </c>
+      <c r="D379" s="2"/>
     </row>
     <row r="380">
       <c r="A380" s="2" t="s">
+        <v>825</v>
+      </c>
+      <c r="C380" s="2" t="s">
         <v>826</v>
       </c>
-      <c r="C380" s="2" t="s">
+      <c r="D380" s="2" t="s">
         <v>827</v>
-      </c>
-      <c r="D380" s="2" t="s">
-        <v>806</v>
       </c>
     </row>
     <row r="381">
@@ -15723,7 +15839,7 @@
         <v>829</v>
       </c>
       <c r="D381" s="2" t="s">
-        <v>799</v>
+        <v>808</v>
       </c>
     </row>
     <row r="382">
@@ -15734,7 +15850,7 @@
         <v>831</v>
       </c>
       <c r="D382" s="2" t="s">
-        <v>799</v>
+        <v>801</v>
       </c>
     </row>
     <row r="383">
@@ -15745,7 +15861,7 @@
         <v>833</v>
       </c>
       <c r="D383" s="2" t="s">
-        <v>825</v>
+        <v>801</v>
       </c>
     </row>
     <row r="384">
@@ -15756,7 +15872,7 @@
         <v>835</v>
       </c>
       <c r="D384" s="2" t="s">
-        <v>825</v>
+        <v>827</v>
       </c>
     </row>
     <row r="385">
@@ -15767,7 +15883,7 @@
         <v>837</v>
       </c>
       <c r="D385" s="2" t="s">
-        <v>825</v>
+        <v>827</v>
       </c>
     </row>
     <row r="386">
@@ -15778,18 +15894,18 @@
         <v>839</v>
       </c>
       <c r="D386" s="2" t="s">
-        <v>840</v>
+        <v>827</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" s="2" t="s">
+        <v>840</v>
+      </c>
+      <c r="C387" s="2" t="s">
         <v>841</v>
       </c>
-      <c r="C387" s="2" t="s">
+      <c r="D387" s="2" t="s">
         <v>842</v>
-      </c>
-      <c r="D387" s="2" t="s">
-        <v>840</v>
       </c>
     </row>
     <row r="388">
@@ -15800,51 +15916,51 @@
         <v>844</v>
       </c>
       <c r="D388" s="2" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" s="2" t="s">
+        <v>845</v>
+      </c>
+      <c r="C389" s="2" t="s">
         <v>846</v>
       </c>
-      <c r="C389" s="2" t="s">
+      <c r="D389" s="2" t="s">
         <v>847</v>
-      </c>
-      <c r="D389" s="2" t="s">
-        <v>848</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" s="2" t="s">
+        <v>848</v>
+      </c>
+      <c r="C390" s="2" t="s">
         <v>849</v>
       </c>
-      <c r="C390" s="2" t="s">
+      <c r="D390" s="2" t="s">
         <v>850</v>
-      </c>
-      <c r="D390" s="2" t="s">
-        <v>851</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" s="2" t="s">
+        <v>851</v>
+      </c>
+      <c r="C391" s="2" t="s">
         <v>852</v>
       </c>
-      <c r="C391" s="2" t="s">
+      <c r="D391" s="2" t="s">
         <v>853</v>
-      </c>
-      <c r="D391" s="2" t="s">
-        <v>854</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" s="2" t="s">
+        <v>854</v>
+      </c>
+      <c r="C392" s="2" t="s">
         <v>855</v>
       </c>
-      <c r="C392" s="2" t="s">
+      <c r="D392" s="2" t="s">
         <v>856</v>
-      </c>
-      <c r="D392" s="2" t="s">
-        <v>854</v>
       </c>
     </row>
     <row r="393">
@@ -15855,7 +15971,7 @@
         <v>858</v>
       </c>
       <c r="D393" s="2" t="s">
-        <v>854</v>
+        <v>856</v>
       </c>
     </row>
     <row r="394">
@@ -15866,7 +15982,7 @@
         <v>860</v>
       </c>
       <c r="D394" s="2" t="s">
-        <v>854</v>
+        <v>856</v>
       </c>
     </row>
     <row r="395">
@@ -15877,7 +15993,7 @@
         <v>862</v>
       </c>
       <c r="D395" s="2" t="s">
-        <v>854</v>
+        <v>856</v>
       </c>
     </row>
     <row r="396">
@@ -15888,7 +16004,7 @@
         <v>864</v>
       </c>
       <c r="D396" s="2" t="s">
-        <v>854</v>
+        <v>856</v>
       </c>
     </row>
     <row r="397">
@@ -15899,7 +16015,7 @@
         <v>866</v>
       </c>
       <c r="D397" s="2" t="s">
-        <v>854</v>
+        <v>856</v>
       </c>
     </row>
     <row r="398">
@@ -15910,7 +16026,7 @@
         <v>868</v>
       </c>
       <c r="D398" s="2" t="s">
-        <v>854</v>
+        <v>856</v>
       </c>
     </row>
     <row r="399">
@@ -15921,7 +16037,7 @@
         <v>870</v>
       </c>
       <c r="D399" s="2" t="s">
-        <v>854</v>
+        <v>856</v>
       </c>
     </row>
     <row r="400">
@@ -15932,7 +16048,7 @@
         <v>872</v>
       </c>
       <c r="D400" s="2" t="s">
-        <v>854</v>
+        <v>856</v>
       </c>
     </row>
     <row r="401">
@@ -15943,40 +16059,40 @@
         <v>874</v>
       </c>
       <c r="D401" s="2" t="s">
-        <v>875</v>
+        <v>856</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" s="2" t="s">
+        <v>875</v>
+      </c>
+      <c r="C402" s="2" t="s">
         <v>876</v>
       </c>
-      <c r="C402" s="2" t="s">
+      <c r="D402" s="2" t="s">
         <v>877</v>
-      </c>
-      <c r="D402" s="2" t="s">
-        <v>878</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" s="2" t="s">
+        <v>878</v>
+      </c>
+      <c r="C403" s="2" t="s">
         <v>879</v>
       </c>
-      <c r="C403" s="2" t="s">
+      <c r="D403" s="2" t="s">
         <v>880</v>
-      </c>
-      <c r="D403" s="2" t="s">
-        <v>881</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" s="2" t="s">
+        <v>881</v>
+      </c>
+      <c r="C404" s="2" t="s">
         <v>882</v>
       </c>
-      <c r="C404" s="2" t="s">
+      <c r="D404" s="2" t="s">
         <v>883</v>
-      </c>
-      <c r="D404" s="2" t="s">
-        <v>881</v>
       </c>
     </row>
     <row r="405">
@@ -15987,7 +16103,7 @@
         <v>885</v>
       </c>
       <c r="D405" s="2" t="s">
-        <v>881</v>
+        <v>883</v>
       </c>
     </row>
     <row r="406">
@@ -15998,40 +16114,40 @@
         <v>887</v>
       </c>
       <c r="D406" s="2" t="s">
-        <v>888</v>
+        <v>883</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" s="2" t="s">
+        <v>888</v>
+      </c>
+      <c r="C407" s="2" t="s">
         <v>889</v>
       </c>
-      <c r="C407" s="2" t="s">
+      <c r="D407" s="2" t="s">
         <v>890</v>
-      </c>
-      <c r="D407" s="2" t="s">
-        <v>891</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" s="2" t="s">
+        <v>891</v>
+      </c>
+      <c r="C408" s="2" t="s">
         <v>892</v>
       </c>
-      <c r="C408" s="2" t="s">
+      <c r="D408" s="2" t="s">
         <v>893</v>
-      </c>
-      <c r="D408" s="2" t="s">
-        <v>894</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" s="2" t="s">
+        <v>894</v>
+      </c>
+      <c r="C409" s="2" t="s">
         <v>895</v>
       </c>
-      <c r="C409" s="2" t="s">
+      <c r="D409" s="2" t="s">
         <v>896</v>
-      </c>
-      <c r="D409" s="2" t="s">
-        <v>894</v>
       </c>
     </row>
     <row r="410">
@@ -16042,73 +16158,73 @@
         <v>898</v>
       </c>
       <c r="D410" s="2" t="s">
-        <v>899</v>
+        <v>896</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" s="2" t="s">
+        <v>899</v>
+      </c>
+      <c r="C411" s="2" t="s">
         <v>900</v>
       </c>
-      <c r="C411" s="2" t="s">
+      <c r="D411" s="2" t="s">
         <v>901</v>
-      </c>
-      <c r="D411" s="2" t="s">
-        <v>902</v>
       </c>
     </row>
     <row r="412">
       <c r="A412" s="2" t="s">
+        <v>902</v>
+      </c>
+      <c r="C412" s="2" t="s">
         <v>903</v>
       </c>
-      <c r="C412" s="2" t="s">
+      <c r="D412" s="2" t="s">
         <v>904</v>
-      </c>
-      <c r="D412" s="2" t="s">
-        <v>905</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" s="2" t="s">
+        <v>905</v>
+      </c>
+      <c r="C413" s="2" t="s">
         <v>906</v>
       </c>
-      <c r="C413" s="2" t="s">
+      <c r="D413" s="2" t="s">
         <v>907</v>
-      </c>
-      <c r="D413" s="2" t="s">
-        <v>908</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" s="2" t="s">
+        <v>908</v>
+      </c>
+      <c r="C414" s="2" t="s">
         <v>909</v>
       </c>
-      <c r="C414" s="2" t="s">
+      <c r="D414" s="2" t="s">
         <v>910</v>
-      </c>
-      <c r="D414" s="2" t="s">
-        <v>911</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" s="2" t="s">
+        <v>911</v>
+      </c>
+      <c r="C415" s="2" t="s">
         <v>912</v>
       </c>
-      <c r="C415" s="2" t="s">
+      <c r="D415" s="2" t="s">
         <v>913</v>
-      </c>
-      <c r="D415" s="2" t="s">
-        <v>914</v>
       </c>
     </row>
     <row r="416">
       <c r="A416" s="2" t="s">
+        <v>914</v>
+      </c>
+      <c r="C416" s="2" t="s">
         <v>915</v>
       </c>
-      <c r="C416" s="2" t="s">
+      <c r="D416" s="2" t="s">
         <v>916</v>
-      </c>
-      <c r="D416" s="2" t="s">
-        <v>914</v>
       </c>
     </row>
     <row r="417">
@@ -16119,7 +16235,7 @@
         <v>918</v>
       </c>
       <c r="D417" s="2" t="s">
-        <v>911</v>
+        <v>916</v>
       </c>
     </row>
     <row r="418">
@@ -16130,7 +16246,7 @@
         <v>920</v>
       </c>
       <c r="D418" s="2" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
     </row>
     <row r="419">
@@ -16141,18 +16257,18 @@
         <v>922</v>
       </c>
       <c r="D419" s="2" t="s">
-        <v>923</v>
+        <v>916</v>
       </c>
     </row>
     <row r="420">
       <c r="A420" s="2" t="s">
+        <v>923</v>
+      </c>
+      <c r="C420" s="2" t="s">
         <v>924</v>
       </c>
-      <c r="C420" s="2" t="s">
+      <c r="D420" s="2" t="s">
         <v>925</v>
-      </c>
-      <c r="D420" s="2" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="421">
@@ -16163,62 +16279,62 @@
         <v>927</v>
       </c>
       <c r="D421" s="2" t="s">
-        <v>928</v>
+        <v>171</v>
       </c>
     </row>
     <row r="422">
       <c r="A422" s="2" t="s">
+        <v>928</v>
+      </c>
+      <c r="C422" s="2" t="s">
         <v>929</v>
       </c>
-      <c r="C422" s="2" t="s">
+      <c r="D422" s="2" t="s">
         <v>930</v>
-      </c>
-      <c r="D422" s="2" t="s">
-        <v>931</v>
       </c>
     </row>
     <row r="423">
       <c r="A423" s="2" t="s">
+        <v>931</v>
+      </c>
+      <c r="C423" s="2" t="s">
         <v>932</v>
       </c>
-      <c r="C423" s="2" t="s">
+      <c r="D423" s="2" t="s">
         <v>933</v>
-      </c>
-      <c r="D423" s="2" t="s">
-        <v>934</v>
       </c>
     </row>
     <row r="424">
       <c r="A424" s="2" t="s">
+        <v>934</v>
+      </c>
+      <c r="C424" s="2" t="s">
         <v>935</v>
       </c>
-      <c r="C424" s="2" t="s">
+      <c r="D424" s="2" t="s">
         <v>936</v>
-      </c>
-      <c r="D424" s="2" t="s">
-        <v>937</v>
       </c>
     </row>
     <row r="425">
       <c r="A425" s="2" t="s">
+        <v>937</v>
+      </c>
+      <c r="C425" s="2" t="s">
         <v>938</v>
       </c>
-      <c r="C425" s="2" t="s">
+      <c r="D425" s="2" t="s">
         <v>939</v>
-      </c>
-      <c r="D425" s="2" t="s">
-        <v>940</v>
       </c>
     </row>
     <row r="426">
       <c r="A426" s="2" t="s">
+        <v>940</v>
+      </c>
+      <c r="C426" s="2" t="s">
         <v>941</v>
       </c>
-      <c r="C426" s="2" t="s">
+      <c r="D426" s="2" t="s">
         <v>942</v>
-      </c>
-      <c r="D426" s="2" t="s">
-        <v>940</v>
       </c>
     </row>
     <row r="427">
@@ -16229,425 +16345,425 @@
         <v>944</v>
       </c>
       <c r="D427" s="2" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
     </row>
     <row r="428">
       <c r="A428" s="2" t="s">
+        <v>945</v>
+      </c>
+      <c r="C428" s="2" t="s">
         <v>946</v>
       </c>
-      <c r="C428" s="2" t="s">
+      <c r="D428" s="2" t="s">
         <v>947</v>
-      </c>
-      <c r="D428" s="2" t="s">
-        <v>948</v>
       </c>
     </row>
     <row r="429">
       <c r="A429" s="2" t="s">
+        <v>948</v>
+      </c>
+      <c r="C429" s="2" t="s">
         <v>949</v>
       </c>
-      <c r="C429" s="2" t="s">
+      <c r="D429" s="2" t="s">
         <v>950</v>
-      </c>
-      <c r="D429" s="2" t="s">
-        <v>951</v>
       </c>
     </row>
     <row r="430">
       <c r="A430" s="2" t="s">
+        <v>951</v>
+      </c>
+      <c r="C430" s="2" t="s">
         <v>952</v>
       </c>
-      <c r="C430" s="2" t="s">
+      <c r="D430" s="2" t="s">
         <v>953</v>
-      </c>
-      <c r="D430" s="2" t="s">
-        <v>954</v>
       </c>
     </row>
     <row r="431">
       <c r="A431" s="2" t="s">
+        <v>954</v>
+      </c>
+      <c r="C431" s="2" t="s">
         <v>955</v>
       </c>
-      <c r="C431" s="2" t="s">
+      <c r="D431" s="2" t="s">
         <v>956</v>
-      </c>
-      <c r="D431" s="2" t="s">
-        <v>957</v>
       </c>
     </row>
     <row r="432">
       <c r="A432" s="2" t="s">
+        <v>957</v>
+      </c>
+      <c r="C432" s="2" t="s">
         <v>958</v>
       </c>
-      <c r="C432" s="2" t="s">
+      <c r="D432" s="2" t="s">
         <v>959</v>
-      </c>
-      <c r="D432" s="2" t="s">
-        <v>960</v>
       </c>
     </row>
     <row r="433">
       <c r="A433" s="2" t="s">
+        <v>960</v>
+      </c>
+      <c r="C433" s="2" t="s">
         <v>961</v>
       </c>
-      <c r="C433" s="2" t="s">
+      <c r="D433" s="2" t="s">
         <v>962</v>
-      </c>
-      <c r="D433" s="2" t="s">
-        <v>963</v>
       </c>
     </row>
     <row r="434">
       <c r="A434" s="2" t="s">
+        <v>963</v>
+      </c>
+      <c r="C434" s="2" t="s">
         <v>964</v>
       </c>
-      <c r="C434" s="2" t="s">
+      <c r="D434" s="2" t="s">
         <v>965</v>
-      </c>
-      <c r="D434" s="2" t="s">
-        <v>966</v>
       </c>
     </row>
     <row r="435">
       <c r="A435" s="2" t="s">
+        <v>966</v>
+      </c>
+      <c r="C435" s="2" t="s">
         <v>967</v>
       </c>
-      <c r="C435" s="2" t="s">
+      <c r="D435" s="2" t="s">
         <v>968</v>
-      </c>
-      <c r="D435" s="2" t="s">
-        <v>969</v>
       </c>
     </row>
     <row r="436">
       <c r="A436" s="2" t="s">
+        <v>969</v>
+      </c>
+      <c r="C436" s="2" t="s">
         <v>970</v>
       </c>
-      <c r="C436" s="2" t="s">
+      <c r="D436" s="2" t="s">
         <v>971</v>
-      </c>
-      <c r="D436" s="2" t="s">
-        <v>972</v>
       </c>
     </row>
     <row r="437">
       <c r="A437" s="2" t="s">
+        <v>972</v>
+      </c>
+      <c r="C437" s="2" t="s">
         <v>973</v>
       </c>
-      <c r="C437" s="2" t="s">
+      <c r="D437" s="2" t="s">
         <v>974</v>
-      </c>
-      <c r="D437" s="2" t="s">
-        <v>975</v>
       </c>
     </row>
     <row r="438">
       <c r="A438" s="2" t="s">
+        <v>975</v>
+      </c>
+      <c r="C438" s="2" t="s">
         <v>976</v>
       </c>
-      <c r="C438" s="2" t="s">
+      <c r="D438" s="2" t="s">
         <v>977</v>
-      </c>
-      <c r="D438" s="2" t="s">
-        <v>978</v>
       </c>
     </row>
     <row r="439">
       <c r="A439" s="2" t="s">
+        <v>978</v>
+      </c>
+      <c r="C439" s="2" t="s">
         <v>979</v>
       </c>
-      <c r="C439" s="2" t="s">
+      <c r="D439" s="2" t="s">
         <v>980</v>
-      </c>
-      <c r="D439" s="2" t="s">
-        <v>981</v>
       </c>
     </row>
     <row r="440">
       <c r="A440" s="2" t="s">
+        <v>981</v>
+      </c>
+      <c r="C440" s="2" t="s">
         <v>982</v>
       </c>
-      <c r="C440" s="2" t="s">
+      <c r="D440" s="2" t="s">
         <v>983</v>
-      </c>
-      <c r="D440" s="2" t="s">
-        <v>984</v>
       </c>
     </row>
     <row r="441">
       <c r="A441" s="2" t="s">
+        <v>984</v>
+      </c>
+      <c r="C441" s="2" t="s">
         <v>985</v>
       </c>
-      <c r="C441" s="2" t="s">
+      <c r="D441" s="2" t="s">
         <v>986</v>
-      </c>
-      <c r="D441" s="2" t="s">
-        <v>987</v>
       </c>
     </row>
     <row r="442">
       <c r="A442" s="2" t="s">
+        <v>987</v>
+      </c>
+      <c r="C442" s="2" t="s">
         <v>988</v>
       </c>
-      <c r="C442" s="2" t="s">
+      <c r="D442" s="2" t="s">
         <v>989</v>
-      </c>
-      <c r="D442" s="2" t="s">
-        <v>990</v>
       </c>
     </row>
     <row r="443">
       <c r="A443" s="2" t="s">
+        <v>990</v>
+      </c>
+      <c r="C443" s="2" t="s">
         <v>991</v>
       </c>
-      <c r="C443" s="2" t="s">
+      <c r="D443" s="2" t="s">
         <v>992</v>
-      </c>
-      <c r="D443" s="2" t="s">
-        <v>993</v>
       </c>
     </row>
     <row r="444">
       <c r="A444" s="2" t="s">
+        <v>993</v>
+      </c>
+      <c r="C444" s="2" t="s">
         <v>994</v>
       </c>
-      <c r="C444" s="2" t="s">
+      <c r="D444" s="2" t="s">
         <v>995</v>
-      </c>
-      <c r="D444" s="2" t="s">
-        <v>996</v>
       </c>
     </row>
     <row r="445">
       <c r="A445" s="2" t="s">
+        <v>996</v>
+      </c>
+      <c r="C445" s="2" t="s">
         <v>997</v>
       </c>
-      <c r="C445" s="2" t="s">
+      <c r="D445" s="2" t="s">
         <v>998</v>
-      </c>
-      <c r="D445" s="2" t="s">
-        <v>999</v>
       </c>
     </row>
     <row r="446">
       <c r="A446" s="2" t="s">
+        <v>999</v>
+      </c>
+      <c r="C446" s="2" t="s">
         <v>1000</v>
       </c>
-      <c r="C446" s="2" t="s">
+      <c r="D446" s="2" t="s">
         <v>1001</v>
-      </c>
-      <c r="D446" s="2" t="s">
-        <v>1002</v>
       </c>
     </row>
     <row r="447">
       <c r="A447" s="2" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C447" s="2" t="s">
         <v>1003</v>
       </c>
-      <c r="C447" s="2" t="s">
+      <c r="D447" s="2" t="s">
         <v>1004</v>
-      </c>
-      <c r="D447" s="2" t="s">
-        <v>1005</v>
       </c>
     </row>
     <row r="448">
       <c r="A448" s="2" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C448" s="2" t="s">
         <v>1006</v>
       </c>
-      <c r="C448" s="2" t="s">
+      <c r="D448" s="2" t="s">
         <v>1007</v>
-      </c>
-      <c r="D448" s="2" t="s">
-        <v>1008</v>
       </c>
     </row>
     <row r="449">
       <c r="A449" s="2" t="s">
+        <v>1008</v>
+      </c>
+      <c r="C449" s="2" t="s">
         <v>1009</v>
       </c>
-      <c r="C449" s="2" t="s">
+      <c r="D449" s="2" t="s">
         <v>1010</v>
-      </c>
-      <c r="D449" s="2" t="s">
-        <v>1011</v>
       </c>
     </row>
     <row r="450">
       <c r="A450" s="2" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C450" s="2" t="s">
         <v>1012</v>
       </c>
-      <c r="C450" s="2" t="s">
+      <c r="D450" s="2" t="s">
         <v>1013</v>
-      </c>
-      <c r="D450" s="2" t="s">
-        <v>1014</v>
       </c>
     </row>
     <row r="451">
       <c r="A451" s="2" t="s">
+        <v>1014</v>
+      </c>
+      <c r="C451" s="2" t="s">
         <v>1015</v>
       </c>
-      <c r="C451" s="2" t="s">
+      <c r="D451" s="2" t="s">
         <v>1016</v>
-      </c>
-      <c r="D451" s="2" t="s">
-        <v>1017</v>
       </c>
     </row>
     <row r="452">
       <c r="A452" s="2" t="s">
+        <v>1017</v>
+      </c>
+      <c r="C452" s="2" t="s">
         <v>1018</v>
       </c>
-      <c r="C452" s="2" t="s">
+      <c r="D452" s="2" t="s">
         <v>1019</v>
-      </c>
-      <c r="D452" s="2" t="s">
-        <v>1020</v>
       </c>
     </row>
     <row r="453">
       <c r="A453" s="2" t="s">
+        <v>1020</v>
+      </c>
+      <c r="C453" s="2" t="s">
         <v>1021</v>
       </c>
-      <c r="C453" s="2" t="s">
+      <c r="D453" s="2" t="s">
         <v>1022</v>
-      </c>
-      <c r="D453" s="2" t="s">
-        <v>1023</v>
       </c>
     </row>
     <row r="454">
       <c r="A454" s="2" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C454" s="2" t="s">
         <v>1024</v>
       </c>
-      <c r="C454" s="2" t="s">
+      <c r="D454" s="2" t="s">
         <v>1025</v>
-      </c>
-      <c r="D454" s="2" t="s">
-        <v>1026</v>
       </c>
     </row>
     <row r="455">
       <c r="A455" s="2" t="s">
+        <v>1026</v>
+      </c>
+      <c r="C455" s="2" t="s">
         <v>1027</v>
       </c>
-      <c r="C455" s="2" t="s">
+      <c r="D455" s="2" t="s">
         <v>1028</v>
-      </c>
-      <c r="D455" s="2" t="s">
-        <v>1029</v>
       </c>
     </row>
     <row r="456">
       <c r="A456" s="2" t="s">
+        <v>1029</v>
+      </c>
+      <c r="C456" s="2" t="s">
         <v>1030</v>
       </c>
-      <c r="C456" s="2" t="s">
+      <c r="D456" s="2" t="s">
         <v>1031</v>
-      </c>
-      <c r="D456" s="2" t="s">
-        <v>1032</v>
       </c>
     </row>
     <row r="457">
       <c r="A457" s="2" t="s">
+        <v>1032</v>
+      </c>
+      <c r="C457" s="2" t="s">
         <v>1033</v>
       </c>
-      <c r="C457" s="2" t="s">
+      <c r="D457" s="2" t="s">
         <v>1034</v>
-      </c>
-      <c r="D457" s="2" t="s">
-        <v>1035</v>
       </c>
     </row>
     <row r="458">
       <c r="A458" s="2" t="s">
+        <v>1035</v>
+      </c>
+      <c r="C458" s="2" t="s">
         <v>1036</v>
       </c>
-      <c r="C458" s="2" t="s">
+      <c r="D458" s="2" t="s">
         <v>1037</v>
-      </c>
-      <c r="D458" s="2" t="s">
-        <v>1038</v>
       </c>
     </row>
     <row r="459">
       <c r="A459" s="2" t="s">
+        <v>1038</v>
+      </c>
+      <c r="C459" s="2" t="s">
         <v>1039</v>
       </c>
-      <c r="C459" s="2" t="s">
+      <c r="D459" s="2" t="s">
         <v>1040</v>
-      </c>
-      <c r="D459" s="2" t="s">
-        <v>1041</v>
       </c>
     </row>
     <row r="460">
       <c r="A460" s="2" t="s">
+        <v>1041</v>
+      </c>
+      <c r="C460" s="2" t="s">
         <v>1042</v>
       </c>
-      <c r="C460" s="2" t="s">
+      <c r="D460" s="2" t="s">
         <v>1043</v>
-      </c>
-      <c r="D460" s="2" t="s">
-        <v>1044</v>
       </c>
     </row>
     <row r="461">
       <c r="A461" s="2" t="s">
+        <v>1044</v>
+      </c>
+      <c r="C461" s="2" t="s">
         <v>1045</v>
       </c>
-      <c r="C461" s="2" t="s">
+      <c r="D461" s="2" t="s">
         <v>1046</v>
-      </c>
-      <c r="D461" s="2" t="s">
-        <v>1047</v>
       </c>
     </row>
     <row r="462">
       <c r="A462" s="2" t="s">
+        <v>1047</v>
+      </c>
+      <c r="C462" s="2" t="s">
         <v>1048</v>
       </c>
-      <c r="C462" s="2" t="s">
+      <c r="D462" s="2" t="s">
         <v>1049</v>
-      </c>
-      <c r="D462" s="2" t="s">
-        <v>1050</v>
       </c>
     </row>
     <row r="463">
       <c r="A463" s="2" t="s">
+        <v>1050</v>
+      </c>
+      <c r="C463" s="2" t="s">
         <v>1051</v>
       </c>
-      <c r="C463" s="2" t="s">
+      <c r="D463" s="2" t="s">
         <v>1052</v>
-      </c>
-      <c r="D463" s="2" t="s">
-        <v>1053</v>
       </c>
     </row>
     <row r="464">
       <c r="A464" s="2" t="s">
+        <v>1053</v>
+      </c>
+      <c r="C464" s="2" t="s">
         <v>1054</v>
       </c>
-      <c r="C464" s="2" t="s">
+      <c r="D464" s="2" t="s">
         <v>1055</v>
-      </c>
-      <c r="D464" s="2" t="s">
-        <v>1056</v>
       </c>
     </row>
     <row r="465">
       <c r="A465" s="2" t="s">
+        <v>1056</v>
+      </c>
+      <c r="C465" s="2" t="s">
         <v>1057</v>
       </c>
-      <c r="C465" s="2" t="s">
+      <c r="D465" s="2" t="s">
         <v>1058</v>
-      </c>
-      <c r="D465" s="2" t="s">
-        <v>1056</v>
       </c>
     </row>
     <row r="466">
@@ -16658,73 +16774,73 @@
         <v>1060</v>
       </c>
       <c r="D466" s="2" t="s">
-        <v>1061</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="467">
       <c r="A467" s="2" t="s">
+        <v>1061</v>
+      </c>
+      <c r="C467" s="2" t="s">
         <v>1062</v>
       </c>
-      <c r="C467" s="7" t="s">
+      <c r="D467" s="2" t="s">
         <v>1063</v>
-      </c>
-      <c r="D467" s="2" t="s">
-        <v>1064</v>
       </c>
     </row>
     <row r="468">
       <c r="A468" s="2" t="s">
+        <v>1064</v>
+      </c>
+      <c r="C468" s="7" t="s">
         <v>1065</v>
       </c>
-      <c r="C468" s="7" t="s">
+      <c r="D468" s="2" t="s">
         <v>1066</v>
-      </c>
-      <c r="D468" s="2" t="s">
-        <v>1067</v>
       </c>
     </row>
     <row r="469">
       <c r="A469" s="2" t="s">
+        <v>1067</v>
+      </c>
+      <c r="C469" s="7" t="s">
         <v>1068</v>
       </c>
-      <c r="C469" s="7" t="s">
+      <c r="D469" s="2" t="s">
         <v>1069</v>
-      </c>
-      <c r="D469" s="2" t="s">
-        <v>1070</v>
       </c>
     </row>
     <row r="470">
       <c r="A470" s="2" t="s">
+        <v>1070</v>
+      </c>
+      <c r="C470" s="7" t="s">
         <v>1071</v>
       </c>
-      <c r="C470" s="7" t="s">
+      <c r="D470" s="2" t="s">
         <v>1072</v>
-      </c>
-      <c r="D470" s="2" t="s">
-        <v>1073</v>
       </c>
     </row>
     <row r="471">
       <c r="A471" s="2" t="s">
+        <v>1073</v>
+      </c>
+      <c r="C471" s="7" t="s">
         <v>1074</v>
       </c>
-      <c r="C471" s="7" t="s">
+      <c r="D471" s="2" t="s">
         <v>1075</v>
-      </c>
-      <c r="D471" s="2" t="s">
-        <v>1076</v>
       </c>
     </row>
     <row r="472">
       <c r="A472" s="2" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C472" s="7" t="s">
         <v>1077</v>
       </c>
-      <c r="C472" s="7" t="s">
+      <c r="D472" s="2" t="s">
         <v>1078</v>
-      </c>
-      <c r="D472" s="2" t="s">
-        <v>1076</v>
       </c>
     </row>
     <row r="473">
@@ -16735,18 +16851,18 @@
         <v>1080</v>
       </c>
       <c r="D473" s="2" t="s">
-        <v>1081</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="474">
       <c r="A474" s="2" t="s">
+        <v>1081</v>
+      </c>
+      <c r="C474" s="7" t="s">
         <v>1082</v>
       </c>
-      <c r="C474" s="7" t="s">
+      <c r="D474" s="2" t="s">
         <v>1083</v>
-      </c>
-      <c r="D474" s="2" t="s">
-        <v>1076</v>
       </c>
     </row>
     <row r="475">
@@ -16757,7 +16873,7 @@
         <v>1085</v>
       </c>
       <c r="D475" s="2" t="s">
-        <v>1076</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="476">
@@ -16768,29 +16884,29 @@
         <v>1087</v>
       </c>
       <c r="D476" s="2" t="s">
-        <v>1088</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="477">
       <c r="A477" s="2" t="s">
+        <v>1088</v>
+      </c>
+      <c r="C477" s="7" t="s">
         <v>1089</v>
       </c>
-      <c r="C477" s="7" t="s">
+      <c r="D477" s="2" t="s">
         <v>1090</v>
-      </c>
-      <c r="D477" s="2" t="s">
-        <v>1091</v>
       </c>
     </row>
     <row r="478">
       <c r="A478" s="2" t="s">
+        <v>1091</v>
+      </c>
+      <c r="C478" s="7" t="s">
         <v>1092</v>
       </c>
-      <c r="C478" s="7" t="s">
+      <c r="D478" s="2" t="s">
         <v>1093</v>
-      </c>
-      <c r="D478" s="2" t="s">
-        <v>1088</v>
       </c>
     </row>
     <row r="479">
@@ -16801,7 +16917,7 @@
         <v>1095</v>
       </c>
       <c r="D479" s="2" t="s">
-        <v>1088</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="480">
@@ -16812,7 +16928,7 @@
         <v>1097</v>
       </c>
       <c r="D480" s="2" t="s">
-        <v>1088</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="481">
@@ -16823,7 +16939,7 @@
         <v>1099</v>
       </c>
       <c r="D481" s="2" t="s">
-        <v>1088</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="482">
@@ -16834,7 +16950,7 @@
         <v>1101</v>
       </c>
       <c r="D482" s="2" t="s">
-        <v>1088</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="483">
@@ -16845,7 +16961,7 @@
         <v>1103</v>
       </c>
       <c r="D483" s="2" t="s">
-        <v>1088</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="484">
@@ -16856,7 +16972,7 @@
         <v>1105</v>
       </c>
       <c r="D484" s="2" t="s">
-        <v>1088</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="485">
@@ -16867,7 +16983,7 @@
         <v>1107</v>
       </c>
       <c r="D485" s="2" t="s">
-        <v>1088</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="486">
@@ -16878,7 +16994,7 @@
         <v>1109</v>
       </c>
       <c r="D486" s="2" t="s">
-        <v>1088</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="487">
@@ -16889,7 +17005,7 @@
         <v>1111</v>
       </c>
       <c r="D487" s="2" t="s">
-        <v>1088</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="488">
@@ -16900,7 +17016,7 @@
         <v>1113</v>
       </c>
       <c r="D488" s="2" t="s">
-        <v>1088</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="489">
@@ -16911,7 +17027,7 @@
         <v>1115</v>
       </c>
       <c r="D489" s="2" t="s">
-        <v>1088</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="490">
@@ -16922,7 +17038,7 @@
         <v>1117</v>
       </c>
       <c r="D490" s="2" t="s">
-        <v>1088</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="491">
@@ -16933,18 +17049,18 @@
         <v>1119</v>
       </c>
       <c r="D491" s="2" t="s">
-        <v>1120</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="492">
       <c r="A492" s="2" t="s">
+        <v>1120</v>
+      </c>
+      <c r="C492" s="7" t="s">
         <v>1121</v>
       </c>
-      <c r="C492" s="7" t="s">
+      <c r="D492" s="2" t="s">
         <v>1122</v>
-      </c>
-      <c r="D492" s="2" t="s">
-        <v>1120</v>
       </c>
     </row>
     <row r="493">
@@ -16955,18 +17071,18 @@
         <v>1124</v>
       </c>
       <c r="D493" s="2" t="s">
-        <v>1125</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="494">
       <c r="A494" s="2" t="s">
+        <v>1125</v>
+      </c>
+      <c r="C494" s="7" t="s">
         <v>1126</v>
       </c>
-      <c r="C494" s="7" t="s">
+      <c r="D494" s="2" t="s">
         <v>1127</v>
-      </c>
-      <c r="D494" s="2" t="s">
-        <v>1125</v>
       </c>
     </row>
     <row r="495">
@@ -16977,18 +17093,18 @@
         <v>1129</v>
       </c>
       <c r="D495" s="2" t="s">
-        <v>1130</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="496">
       <c r="A496" s="2" t="s">
+        <v>1130</v>
+      </c>
+      <c r="C496" s="7" t="s">
         <v>1131</v>
       </c>
-      <c r="C496" s="7" t="s">
+      <c r="D496" s="2" t="s">
         <v>1132</v>
-      </c>
-      <c r="D496" s="2" t="s">
-        <v>1125</v>
       </c>
     </row>
     <row r="497">
@@ -16999,7 +17115,7 @@
         <v>1134</v>
       </c>
       <c r="D497" s="2" t="s">
-        <v>1130</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="498">
@@ -17010,7 +17126,7 @@
         <v>1136</v>
       </c>
       <c r="D498" s="2" t="s">
-        <v>1130</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="499">
@@ -17021,7 +17137,7 @@
         <v>1138</v>
       </c>
       <c r="D499" s="2" t="s">
-        <v>1125</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="500">
@@ -17032,7 +17148,7 @@
         <v>1140</v>
       </c>
       <c r="D500" s="2" t="s">
-        <v>1125</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="501">
@@ -17043,7 +17159,7 @@
         <v>1142</v>
       </c>
       <c r="D501" s="2" t="s">
-        <v>1125</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="502">
@@ -17054,7 +17170,7 @@
         <v>1144</v>
       </c>
       <c r="D502" s="2" t="s">
-        <v>1130</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="503">
@@ -17065,7 +17181,7 @@
         <v>1146</v>
       </c>
       <c r="D503" s="2" t="s">
-        <v>1125</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="504">
@@ -17076,29 +17192,29 @@
         <v>1148</v>
       </c>
       <c r="D504" s="2" t="s">
-        <v>1149</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="505">
       <c r="A505" s="2" t="s">
+        <v>1149</v>
+      </c>
+      <c r="C505" s="7" t="s">
         <v>1150</v>
       </c>
-      <c r="C505" s="7" t="s">
+      <c r="D505" s="2" t="s">
         <v>1151</v>
-      </c>
-      <c r="D505" s="2" t="s">
-        <v>1152</v>
       </c>
     </row>
     <row r="506">
       <c r="A506" s="2" t="s">
+        <v>1152</v>
+      </c>
+      <c r="C506" s="7" t="s">
         <v>1153</v>
       </c>
-      <c r="C506" s="7" t="s">
+      <c r="D506" s="2" t="s">
         <v>1154</v>
-      </c>
-      <c r="D506" s="2" t="s">
-        <v>1152</v>
       </c>
     </row>
     <row r="507">
@@ -17109,29 +17225,29 @@
         <v>1156</v>
       </c>
       <c r="D507" s="2" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="508">
       <c r="A508" s="2" t="s">
+        <v>1157</v>
+      </c>
+      <c r="C508" s="7" t="s">
         <v>1158</v>
       </c>
-      <c r="C508" s="7" t="s">
+      <c r="D508" s="2" t="s">
         <v>1159</v>
-      </c>
-      <c r="D508" s="2" t="s">
-        <v>1160</v>
       </c>
     </row>
     <row r="509">
       <c r="A509" s="2" t="s">
+        <v>1160</v>
+      </c>
+      <c r="C509" s="7" t="s">
         <v>1161</v>
       </c>
-      <c r="C509" s="7" t="s">
+      <c r="D509" s="2" t="s">
         <v>1162</v>
-      </c>
-      <c r="D509" s="2" t="s">
-        <v>1157</v>
       </c>
     </row>
     <row r="510">
@@ -17142,18 +17258,18 @@
         <v>1164</v>
       </c>
       <c r="D510" s="2" t="s">
-        <v>1165</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="511">
       <c r="A511" s="2" t="s">
+        <v>1165</v>
+      </c>
+      <c r="C511" s="7" t="s">
         <v>1166</v>
       </c>
-      <c r="C511" s="7" t="s">
+      <c r="D511" s="2" t="s">
         <v>1167</v>
-      </c>
-      <c r="D511" s="2" t="s">
-        <v>1165</v>
       </c>
     </row>
     <row r="512">
@@ -17164,29 +17280,29 @@
         <v>1169</v>
       </c>
       <c r="D512" s="2" t="s">
-        <v>1170</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="513">
       <c r="A513" s="2" t="s">
+        <v>1170</v>
+      </c>
+      <c r="C513" s="7" t="s">
         <v>1171</v>
       </c>
-      <c r="C513" s="7" t="s">
+      <c r="D513" s="2" t="s">
         <v>1172</v>
-      </c>
-      <c r="D513" s="2" t="s">
-        <v>1173</v>
       </c>
     </row>
     <row r="514">
       <c r="A514" s="2" t="s">
+        <v>1173</v>
+      </c>
+      <c r="C514" s="7" t="s">
         <v>1174</v>
       </c>
-      <c r="C514" s="7" t="s">
+      <c r="D514" s="2" t="s">
         <v>1175</v>
-      </c>
-      <c r="D514" s="2" t="s">
-        <v>1173</v>
       </c>
     </row>
     <row r="515">
@@ -17197,18 +17313,18 @@
         <v>1177</v>
       </c>
       <c r="D515" s="2" t="s">
-        <v>1178</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="516">
       <c r="A516" s="2" t="s">
+        <v>1178</v>
+      </c>
+      <c r="C516" s="7" t="s">
         <v>1179</v>
       </c>
-      <c r="C516" s="7" t="s">
+      <c r="D516" s="2" t="s">
         <v>1180</v>
-      </c>
-      <c r="D516" s="2" t="s">
-        <v>1178</v>
       </c>
     </row>
     <row r="517">
@@ -17219,7 +17335,7 @@
         <v>1182</v>
       </c>
       <c r="D517" s="2" t="s">
-        <v>1178</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="518">
@@ -17230,7 +17346,7 @@
         <v>1184</v>
       </c>
       <c r="D518" s="2" t="s">
-        <v>1178</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="519">
@@ -17241,7 +17357,7 @@
         <v>1186</v>
       </c>
       <c r="D519" s="2" t="s">
-        <v>1178</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="520">
@@ -17252,7 +17368,7 @@
         <v>1188</v>
       </c>
       <c r="D520" s="2" t="s">
-        <v>1178</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="521">
@@ -17263,7 +17379,7 @@
         <v>1190</v>
       </c>
       <c r="D521" s="2" t="s">
-        <v>1178</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="522">
@@ -17274,29 +17390,29 @@
         <v>1192</v>
       </c>
       <c r="D522" s="2" t="s">
-        <v>1193</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="523">
       <c r="A523" s="2" t="s">
+        <v>1193</v>
+      </c>
+      <c r="C523" s="7" t="s">
         <v>1194</v>
       </c>
-      <c r="C523" s="7" t="s">
+      <c r="D523" s="2" t="s">
         <v>1195</v>
-      </c>
-      <c r="D523" s="2" t="s">
-        <v>1196</v>
       </c>
     </row>
     <row r="524">
       <c r="A524" s="2" t="s">
+        <v>1196</v>
+      </c>
+      <c r="C524" s="7" t="s">
         <v>1197</v>
       </c>
-      <c r="C524" s="7" t="s">
+      <c r="D524" s="2" t="s">
         <v>1198</v>
-      </c>
-      <c r="D524" s="2" t="s">
-        <v>1196</v>
       </c>
     </row>
     <row r="525">
@@ -17307,18 +17423,18 @@
         <v>1200</v>
       </c>
       <c r="D525" s="2" t="s">
-        <v>1201</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="526">
       <c r="A526" s="2" t="s">
+        <v>1201</v>
+      </c>
+      <c r="C526" s="7" t="s">
         <v>1202</v>
       </c>
-      <c r="C526" s="7" t="s">
+      <c r="D526" s="2" t="s">
         <v>1203</v>
-      </c>
-      <c r="D526" s="2" t="s">
-        <v>1201</v>
       </c>
     </row>
     <row r="527">
@@ -17329,29 +17445,29 @@
         <v>1205</v>
       </c>
       <c r="D527" s="2" t="s">
-        <v>1206</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="528">
       <c r="A528" s="2" t="s">
+        <v>1206</v>
+      </c>
+      <c r="C528" s="7" t="s">
         <v>1207</v>
       </c>
-      <c r="C528" s="7" t="s">
+      <c r="D528" s="2" t="s">
         <v>1208</v>
-      </c>
-      <c r="D528" s="2" t="s">
-        <v>1209</v>
       </c>
     </row>
     <row r="529">
       <c r="A529" s="2" t="s">
+        <v>1209</v>
+      </c>
+      <c r="C529" s="7" t="s">
         <v>1210</v>
       </c>
-      <c r="C529" s="7" t="s">
+      <c r="D529" s="2" t="s">
         <v>1211</v>
-      </c>
-      <c r="D529" s="2" t="s">
-        <v>1209</v>
       </c>
     </row>
     <row r="530">
@@ -17362,7 +17478,7 @@
         <v>1213</v>
       </c>
       <c r="D530" s="2" t="s">
-        <v>1209</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="531">
@@ -17373,7 +17489,7 @@
         <v>1215</v>
       </c>
       <c r="D531" s="2" t="s">
-        <v>1209</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="532">
@@ -17384,7 +17500,7 @@
         <v>1217</v>
       </c>
       <c r="D532" s="2" t="s">
-        <v>1209</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="533">
@@ -17395,7 +17511,7 @@
         <v>1219</v>
       </c>
       <c r="D533" s="2" t="s">
-        <v>1209</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="534">
@@ -17406,73 +17522,73 @@
         <v>1221</v>
       </c>
       <c r="D534" s="2" t="s">
-        <v>1222</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="535">
       <c r="A535" s="2" t="s">
+        <v>1222</v>
+      </c>
+      <c r="C535" s="7" t="s">
         <v>1223</v>
       </c>
-      <c r="C535" s="7" t="s">
+      <c r="D535" s="2" t="s">
         <v>1224</v>
-      </c>
-      <c r="D535" s="2" t="s">
-        <v>1225</v>
       </c>
     </row>
     <row r="536">
       <c r="A536" s="2" t="s">
+        <v>1225</v>
+      </c>
+      <c r="C536" s="7" t="s">
         <v>1226</v>
       </c>
-      <c r="C536" s="7" t="s">
+      <c r="D536" s="2" t="s">
         <v>1227</v>
-      </c>
-      <c r="D536" s="2" t="s">
-        <v>1228</v>
       </c>
     </row>
     <row r="537">
       <c r="A537" s="2" t="s">
+        <v>1228</v>
+      </c>
+      <c r="C537" s="7" t="s">
         <v>1229</v>
       </c>
-      <c r="C537" s="7" t="s">
+      <c r="D537" s="2" t="s">
         <v>1230</v>
-      </c>
-      <c r="D537" s="2" t="s">
-        <v>1231</v>
       </c>
     </row>
     <row r="538">
       <c r="A538" s="2" t="s">
+        <v>1231</v>
+      </c>
+      <c r="C538" s="7" t="s">
         <v>1232</v>
       </c>
-      <c r="C538" s="7" t="s">
+      <c r="D538" s="2" t="s">
         <v>1233</v>
-      </c>
-      <c r="D538" s="2" t="s">
-        <v>1234</v>
       </c>
     </row>
     <row r="539">
       <c r="A539" s="2" t="s">
+        <v>1234</v>
+      </c>
+      <c r="C539" s="7" t="s">
         <v>1235</v>
       </c>
-      <c r="C539" s="7" t="s">
+      <c r="D539" s="2" t="s">
         <v>1236</v>
-      </c>
-      <c r="D539" s="2" t="s">
-        <v>1237</v>
       </c>
     </row>
     <row r="540">
       <c r="A540" s="2" t="s">
+        <v>1237</v>
+      </c>
+      <c r="C540" s="7" t="s">
         <v>1238</v>
       </c>
-      <c r="C540" s="7" t="s">
+      <c r="D540" s="2" t="s">
         <v>1239</v>
-      </c>
-      <c r="D540" s="2" t="s">
-        <v>1237</v>
       </c>
     </row>
     <row r="541">
@@ -17483,7 +17599,7 @@
         <v>1241</v>
       </c>
       <c r="D541" s="2" t="s">
-        <v>1237</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="542">
@@ -17494,7 +17610,7 @@
         <v>1243</v>
       </c>
       <c r="D542" s="2" t="s">
-        <v>1237</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="543">
@@ -17505,7 +17621,7 @@
         <v>1245</v>
       </c>
       <c r="D543" s="2" t="s">
-        <v>1237</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="544">
@@ -17516,7 +17632,7 @@
         <v>1247</v>
       </c>
       <c r="D544" s="2" t="s">
-        <v>1237</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="545">
@@ -17527,7 +17643,7 @@
         <v>1249</v>
       </c>
       <c r="D545" s="2" t="s">
-        <v>1237</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="546">
@@ -17538,7 +17654,7 @@
         <v>1251</v>
       </c>
       <c r="D546" s="2" t="s">
-        <v>128</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="547">
@@ -17549,7 +17665,7 @@
         <v>1253</v>
       </c>
       <c r="D547" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="548">
@@ -17560,18 +17676,18 @@
         <v>1255</v>
       </c>
       <c r="D548" s="2" t="s">
-        <v>1256</v>
+        <v>130</v>
       </c>
     </row>
     <row r="549">
       <c r="A549" s="2" t="s">
+        <v>1256</v>
+      </c>
+      <c r="C549" s="7" t="s">
         <v>1257</v>
       </c>
-      <c r="C549" s="7" t="s">
+      <c r="D549" s="2" t="s">
         <v>1258</v>
-      </c>
-      <c r="D549" s="2" t="s">
-        <v>1256</v>
       </c>
     </row>
     <row r="550">
@@ -17582,29 +17698,29 @@
         <v>1260</v>
       </c>
       <c r="D550" s="2" t="s">
-        <v>1261</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="551">
       <c r="A551" s="2" t="s">
+        <v>1261</v>
+      </c>
+      <c r="C551" s="7" t="s">
         <v>1262</v>
       </c>
-      <c r="C551" s="7" t="s">
+      <c r="D551" s="2" t="s">
         <v>1263</v>
-      </c>
-      <c r="D551" s="2" t="s">
-        <v>1264</v>
       </c>
     </row>
     <row r="552">
       <c r="A552" s="2" t="s">
+        <v>1264</v>
+      </c>
+      <c r="C552" s="7" t="s">
         <v>1265</v>
       </c>
-      <c r="C552" s="7" t="s">
+      <c r="D552" s="2" t="s">
         <v>1266</v>
-      </c>
-      <c r="D552" s="2" t="s">
-        <v>1237</v>
       </c>
     </row>
     <row r="553">
@@ -17615,7 +17731,7 @@
         <v>1268</v>
       </c>
       <c r="D553" s="2" t="s">
-        <v>1237</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="554">
@@ -17626,7 +17742,7 @@
         <v>1270</v>
       </c>
       <c r="D554" s="2" t="s">
-        <v>1237</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="555">
@@ -17637,7 +17753,7 @@
         <v>1272</v>
       </c>
       <c r="D555" s="2" t="s">
-        <v>1237</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="556">
@@ -17648,7 +17764,7 @@
         <v>1274</v>
       </c>
       <c r="D556" s="2" t="s">
-        <v>1237</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="557">
@@ -17659,7 +17775,7 @@
         <v>1276</v>
       </c>
       <c r="D557" s="2" t="s">
-        <v>1237</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="558">
@@ -17670,7 +17786,73 @@
         <v>1278</v>
       </c>
       <c r="D558" s="2" t="s">
-        <v>1237</v>
+        <v>1239</v>
+      </c>
+    </row>
+    <row r="559">
+      <c r="A559" s="2" t="s">
+        <v>1279</v>
+      </c>
+      <c r="C559" s="7" t="s">
+        <v>1280</v>
+      </c>
+      <c r="D559" s="2" t="s">
+        <v>1239</v>
+      </c>
+    </row>
+    <row r="560">
+      <c r="A560" s="2" t="s">
+        <v>1281</v>
+      </c>
+      <c r="C560" s="7" t="s">
+        <v>1282</v>
+      </c>
+      <c r="D560" s="2" t="s">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="561">
+      <c r="A561" s="2" t="s">
+        <v>1284</v>
+      </c>
+      <c r="C561" s="7" t="s">
+        <v>1285</v>
+      </c>
+      <c r="D561" s="2" t="s">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="562">
+      <c r="A562" s="2" t="s">
+        <v>1286</v>
+      </c>
+      <c r="C562" s="7" t="s">
+        <v>1287</v>
+      </c>
+      <c r="D562" s="2" t="s">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="563">
+      <c r="A563" s="2" t="s">
+        <v>1288</v>
+      </c>
+      <c r="C563" s="7" t="s">
+        <v>1289</v>
+      </c>
+      <c r="D563" s="2" t="s">
+        <v>1290</v>
+      </c>
+    </row>
+    <row r="564">
+      <c r="A564" s="2" t="s">
+        <v>1291</v>
+      </c>
+      <c r="C564" s="7" t="s">
+        <v>1292</v>
+      </c>
+      <c r="D564" s="2" t="s">
+        <v>1283</v>
       </c>
     </row>
   </sheetData>
@@ -17709,18 +17891,18 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>1279</v>
+        <v>1293</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>1280</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>1281</v>
+        <v>1295</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>1282</v>
+        <v>1296</v>
       </c>
     </row>
   </sheetData>

--- a/csv/merge.xlsx
+++ b/csv/merge.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1663" uniqueCount="1297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1681" uniqueCount="1309">
   <si>
     <t>JP Text (DO NOT CHANGE)</t>
   </si>
@@ -10558,7 +10558,7 @@
 Old Gran Zedora Kingdom?
 Ask about the time traveling curse.
 Future Mereade
-Ask about the cats.
+Ask about the cat.
 Cancel
 &lt;select_end&gt;
 &lt;case 1&gt;
@@ -10620,7 +10620,7 @@
 Old Gran Zedora Kingdom?
 Ask about the time traveling curse.
 Future Mereade
-Ask about the cats.
+Ask about the cat.
 Cancel
 &lt;select_end&gt;
 &lt;case 1&gt;
@@ -10682,7 +10682,7 @@
 Old Gran Zedora Kingdom?
 Ask about the time traveling curse.
 Future Mereade
-Ask about the cats.
+Ask about the cat.
 Cancel
 &lt;select_end&gt;
 &lt;case 1&gt;
@@ -10741,7 +10741,7 @@
 Old Gran Zedora Kingdom?
 Ask about the time traveling curse.
 Future Mereade
-Ask about the cats.
+Ask about the cat.
 Cancel
 &lt;select_end&gt;
 &lt;case 1&gt;
@@ -10800,7 +10800,7 @@
 Old Gran Zedora Kingdom?
 Ask about the time traveling curse.
 Future Mereade
-Ask about the cats.
+Ask about the cat.
 Cancel
 &lt;select_end&gt;
 &lt;case 1&gt;
@@ -10859,7 +10859,7 @@
 Old Gran Zedora Kingdom?
 Ask about the time traveling curse.
 Future Mereade
-Ask about the cats.
+Ask about the cat.
 Cancel
 &lt;select_end&gt;
 &lt;case 1&gt;
@@ -10918,7 +10918,373 @@
 Old Gran Zedora Kingdom?
 Ask about the time traveling curse.
 Future Mereade
-Ask about the cats.
+Ask about the cat.
+Cancel
+&lt;select_end&gt;
+&lt;case 1&gt;
+&lt;break&gt;
+&lt;case 2&gt;
+&lt;break&gt;
+&lt;case 3&gt;
+&lt;break&gt;
+&lt;case 4&gt;
+&lt;break&gt;
+&lt;case 5&gt;
+&lt;break&gt;
+&lt;case 6&gt;
+&lt;break&gt;
+&lt;case 7&gt;
+&lt;break&gt;
+&lt;case_cancel&gt;
+&lt;break&gt;
+&lt;case_end&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">　私の旅路の　すべてを聞きたくない？
+　何から　話してあげましょうか？
+&lt;select 1&gt;
+時獄の迷宮を脱出したあとは？
+エテーネ王国では？
+古グランゼドーラ王国では？
+時渡りの呪いについて
+これからのメレアーデ
+ネコちゃんについて
+やめる
+&lt;select_end&gt;
+&lt;case 1&gt;
+&lt;break&gt;
+&lt;case 2&gt;
+&lt;break&gt;
+&lt;case 3&gt;
+&lt;break&gt;
+&lt;case 4&gt;
+&lt;break&gt;
+&lt;case 5&gt;
+&lt;break&gt;
+&lt;case 6&gt;
+&lt;break&gt;
+&lt;case 7&gt;
+&lt;break&gt;
+&lt;case_cancel&gt;
+&lt;break&gt;
+&lt;case_end&gt;</t>
+  </si>
+  <si>
+    <t>By the way, is there something you wanted to
+ask me about my journey? Where should
+I begin?
+&lt;select 1&gt;
+After escaping the Time Prison?
+Ethene Kingdom?
+Old Gran Zedora Kingdom?
+Ask about the time traveling curse.
+Future Mereade
+Ask about the cat.
+Cancel
+&lt;select_end&gt;
+&lt;case 1&gt;
+&lt;break&gt;
+&lt;case 2&gt;
+&lt;break&gt;
+&lt;case 3&gt;
+&lt;break&gt;
+&lt;case 4&gt;
+&lt;break&gt;
+&lt;case 5&gt;
+&lt;break&gt;
+&lt;case 6&gt;
+&lt;break&gt;
+&lt;case 7&gt;
+&lt;break&gt;
+&lt;case_cancel&gt;
+&lt;break&gt;
+&lt;case_end&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">　私の旅路の　すべてを聞きたくない？
+　何から　話してあげましょうか？
+&lt;select 2&gt;
+時獄の迷宮を脱出したあとは？
+エテーネ王国では？
+古グランゼドーラ王国では？
+時渡りの呪いについて
+これからのメレアーデ
+ネコちゃんについて
+やめる
+&lt;select_end&gt;
+&lt;case 1&gt;
+&lt;break&gt;
+&lt;case 2&gt;
+&lt;break&gt;
+&lt;case 3&gt;
+&lt;break&gt;
+&lt;case 4&gt;
+&lt;break&gt;
+&lt;case 5&gt;
+&lt;break&gt;
+&lt;case 6&gt;
+&lt;break&gt;
+&lt;case 7&gt;
+&lt;break&gt;
+&lt;case_cancel&gt;
+&lt;break&gt;
+&lt;case_end&gt;</t>
+  </si>
+  <si>
+    <t>By the way, is there something you wanted to
+ask me about my journey? Where should
+I begin?
+&lt;select 2&gt;
+After escaping the Time Prison?
+Ethene Kingdom?
+Old Gran Zedora Kingdom?
+Ask about the time traveling curse.
+Future Mereade
+Ask about the cat.
+Cancel
+&lt;select_end&gt;
+&lt;case 1&gt;
+&lt;break&gt;
+&lt;case 2&gt;
+&lt;break&gt;
+&lt;case 3&gt;
+&lt;break&gt;
+&lt;case 4&gt;
+&lt;break&gt;
+&lt;case 5&gt;
+&lt;break&gt;
+&lt;case 6&gt;
+&lt;break&gt;
+&lt;case 7&gt;
+&lt;break&gt;
+&lt;case_cancel&gt;
+&lt;break&gt;
+&lt;case_end&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">　私の旅路の　すべてを聞きたくない？
+　何から　話してあげましょうか？
+&lt;select 3&gt;
+時獄の迷宮を脱出したあとは？
+エテーネ王国では？
+古グランゼドーラ王国では？
+時渡りの呪いについて
+これからのメレアーデ
+ネコちゃんについて
+やめる
+&lt;select_end&gt;
+&lt;case 1&gt;
+&lt;break&gt;
+&lt;case 2&gt;
+&lt;break&gt;
+&lt;case 3&gt;
+&lt;break&gt;
+&lt;case 4&gt;
+&lt;break&gt;
+&lt;case 5&gt;
+&lt;break&gt;
+&lt;case 6&gt;
+&lt;break&gt;
+&lt;case 7&gt;
+&lt;break&gt;
+&lt;case_cancel&gt;
+&lt;break&gt;
+&lt;case_end&gt;</t>
+  </si>
+  <si>
+    <t>By the way, is there something you wanted to
+ask me about my journey? Where should
+I begin?
+&lt;select 3&gt;
+After escaping the Time Prison?
+Ethene Kingdom?
+Old Gran Zedora Kingdom?
+Ask about the time traveling curse.
+Future Mereade
+Ask about the cat.
+Cancel
+&lt;select_end&gt;
+&lt;case 1&gt;
+&lt;break&gt;
+&lt;case 2&gt;
+&lt;break&gt;
+&lt;case 3&gt;
+&lt;break&gt;
+&lt;case 4&gt;
+&lt;break&gt;
+&lt;case 5&gt;
+&lt;break&gt;
+&lt;case 6&gt;
+&lt;break&gt;
+&lt;case 7&gt;
+&lt;break&gt;
+&lt;case_cancel&gt;
+&lt;break&gt;
+&lt;case_end&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">　私の旅路の　すべてを聞きたくない？
+　何から　話してあげましょうか？
+&lt;select 4&gt;
+時獄の迷宮を脱出したあとは？
+エテーネ王国では？
+古グランゼドーラ王国では？
+時渡りの呪いについて
+これからのメレアーデ
+ネコちゃんについて
+やめる
+&lt;select_end&gt;
+&lt;case 1&gt;
+&lt;break&gt;
+&lt;case 2&gt;
+&lt;break&gt;
+&lt;case 3&gt;
+&lt;break&gt;
+&lt;case 4&gt;
+&lt;break&gt;
+&lt;case 5&gt;
+&lt;break&gt;
+&lt;case 6&gt;
+&lt;break&gt;
+&lt;case 7&gt;
+&lt;break&gt;
+&lt;case_cancel&gt;
+&lt;break&gt;
+&lt;case_end&gt;</t>
+  </si>
+  <si>
+    <t>By the way, is there something you wanted to
+ask me about my journey? Where should
+I begin?
+&lt;select 4&gt;
+After escaping the Time Prison?
+Ethene Kingdom?
+Old Gran Zedora Kingdom?
+Ask about the time traveling curse.
+Future Mereade
+Ask about the cat.
+Cancel
+&lt;select_end&gt;
+&lt;case 1&gt;
+&lt;break&gt;
+&lt;case 2&gt;
+&lt;break&gt;
+&lt;case 3&gt;
+&lt;break&gt;
+&lt;case 4&gt;
+&lt;break&gt;
+&lt;case 5&gt;
+&lt;break&gt;
+&lt;case 6&gt;
+&lt;break&gt;
+&lt;case 7&gt;
+&lt;break&gt;
+&lt;case_cancel&gt;
+&lt;break&gt;
+&lt;case_end&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">　私の旅路の　すべてを聞きたくない？
+　何から　話してあげましょうか？
+&lt;select 5&gt;
+時獄の迷宮を脱出したあとは？
+エテーネ王国では？
+古グランゼドーラ王国では？
+時渡りの呪いについて
+これからのメレアーデ
+ネコちゃんについて
+やめる
+&lt;select_end&gt;
+&lt;case 1&gt;
+&lt;break&gt;
+&lt;case 2&gt;
+&lt;break&gt;
+&lt;case 3&gt;
+&lt;break&gt;
+&lt;case 4&gt;
+&lt;break&gt;
+&lt;case 5&gt;
+&lt;break&gt;
+&lt;case 6&gt;
+&lt;break&gt;
+&lt;case 7&gt;
+&lt;break&gt;
+&lt;case_cancel&gt;
+&lt;break&gt;
+&lt;case_end&gt;</t>
+  </si>
+  <si>
+    <t>By the way, is there something you wanted to
+ask me about my journey? Where should
+I begin?
+&lt;select 5&gt;
+After escaping the Time Prison?
+Ethene Kingdom?
+Old Gran Zedora Kingdom?
+Ask about the time traveling curse.
+Future Mereade
+Ask about the cat.
+Cancel
+&lt;select_end&gt;
+&lt;case 1&gt;
+&lt;break&gt;
+&lt;case 2&gt;
+&lt;break&gt;
+&lt;case 3&gt;
+&lt;break&gt;
+&lt;case 4&gt;
+&lt;break&gt;
+&lt;case 5&gt;
+&lt;break&gt;
+&lt;case 6&gt;
+&lt;break&gt;
+&lt;case 7&gt;
+&lt;break&gt;
+&lt;case_cancel&gt;
+&lt;break&gt;
+&lt;case_end&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">　私の旅路の　すべてを聞きたくない？
+　何から　話してあげましょうか？
+&lt;select 6&gt;
+時獄の迷宮を脱出したあとは？
+エテーネ王国では？
+古グランゼドーラ王国では？
+時渡りの呪いについて
+これからのメレアーデ
+ネコちゃんについて
+やめる
+&lt;select_end&gt;
+&lt;case 1&gt;
+&lt;break&gt;
+&lt;case 2&gt;
+&lt;break&gt;
+&lt;case 3&gt;
+&lt;break&gt;
+&lt;case 4&gt;
+&lt;break&gt;
+&lt;case 5&gt;
+&lt;break&gt;
+&lt;case 6&gt;
+&lt;break&gt;
+&lt;case 7&gt;
+&lt;break&gt;
+&lt;case_cancel&gt;
+&lt;break&gt;
+&lt;case_end&gt;</t>
+  </si>
+  <si>
+    <t>By the way, is there something you wanted to
+ask me about my journey? Where should
+I begin?
+&lt;select 6&gt;
+After escaping the Time Prison?
+Ethene Kingdom?
+Old Gran Zedora Kingdom?
+Ask about the time traveling curse.
+Future Mereade
+Ask about the cat.
 Cancel
 &lt;select_end&gt;
 &lt;case 1&gt;
@@ -17533,81 +17899,81 @@
         <v>1223</v>
       </c>
       <c r="D535" s="2" t="s">
-        <v>1224</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="536">
       <c r="A536" s="2" t="s">
+        <v>1224</v>
+      </c>
+      <c r="C536" s="7" t="s">
         <v>1225</v>
       </c>
-      <c r="C536" s="7" t="s">
-        <v>1226</v>
-      </c>
       <c r="D536" s="2" t="s">
-        <v>1227</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="537">
       <c r="A537" s="2" t="s">
-        <v>1228</v>
+        <v>1226</v>
       </c>
       <c r="C537" s="7" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
       <c r="D537" s="2" t="s">
-        <v>1230</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="538">
       <c r="A538" s="2" t="s">
-        <v>1231</v>
+        <v>1228</v>
       </c>
       <c r="C538" s="7" t="s">
-        <v>1232</v>
+        <v>1229</v>
       </c>
       <c r="D538" s="2" t="s">
-        <v>1233</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="539">
       <c r="A539" s="2" t="s">
-        <v>1234</v>
+        <v>1230</v>
       </c>
       <c r="C539" s="7" t="s">
-        <v>1235</v>
+        <v>1231</v>
       </c>
       <c r="D539" s="2" t="s">
-        <v>1236</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="540">
       <c r="A540" s="2" t="s">
-        <v>1237</v>
+        <v>1232</v>
       </c>
       <c r="C540" s="7" t="s">
-        <v>1238</v>
+        <v>1233</v>
       </c>
       <c r="D540" s="2" t="s">
-        <v>1239</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="541">
       <c r="A541" s="2" t="s">
-        <v>1240</v>
+        <v>1234</v>
       </c>
       <c r="C541" s="7" t="s">
-        <v>1241</v>
+        <v>1235</v>
       </c>
       <c r="D541" s="2" t="s">
-        <v>1239</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="542">
       <c r="A542" s="2" t="s">
-        <v>1242</v>
+        <v>1237</v>
       </c>
       <c r="C542" s="7" t="s">
-        <v>1243</v>
+        <v>1238</v>
       </c>
       <c r="D542" s="2" t="s">
         <v>1239</v>
@@ -17615,46 +17981,46 @@
     </row>
     <row r="543">
       <c r="A543" s="2" t="s">
-        <v>1244</v>
+        <v>1240</v>
       </c>
       <c r="C543" s="7" t="s">
-        <v>1245</v>
+        <v>1241</v>
       </c>
       <c r="D543" s="2" t="s">
-        <v>1239</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="544">
       <c r="A544" s="2" t="s">
-        <v>1246</v>
+        <v>1243</v>
       </c>
       <c r="C544" s="7" t="s">
-        <v>1247</v>
+        <v>1244</v>
       </c>
       <c r="D544" s="2" t="s">
-        <v>1239</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="545">
       <c r="A545" s="2" t="s">
+        <v>1246</v>
+      </c>
+      <c r="C545" s="7" t="s">
+        <v>1247</v>
+      </c>
+      <c r="D545" s="2" t="s">
         <v>1248</v>
-      </c>
-      <c r="C545" s="7" t="s">
-        <v>1249</v>
-      </c>
-      <c r="D545" s="2" t="s">
-        <v>1239</v>
       </c>
     </row>
     <row r="546">
       <c r="A546" s="2" t="s">
+        <v>1249</v>
+      </c>
+      <c r="C546" s="7" t="s">
         <v>1250</v>
       </c>
-      <c r="C546" s="7" t="s">
+      <c r="D546" s="2" t="s">
         <v>1251</v>
-      </c>
-      <c r="D546" s="2" t="s">
-        <v>1239</v>
       </c>
     </row>
     <row r="547">
@@ -17665,7 +18031,7 @@
         <v>1253</v>
       </c>
       <c r="D547" s="2" t="s">
-        <v>130</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="548">
@@ -17676,7 +18042,7 @@
         <v>1255</v>
       </c>
       <c r="D548" s="2" t="s">
-        <v>130</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="549">
@@ -17687,106 +18053,106 @@
         <v>1257</v>
       </c>
       <c r="D549" s="2" t="s">
-        <v>1258</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="550">
       <c r="A550" s="2" t="s">
+        <v>1258</v>
+      </c>
+      <c r="C550" s="7" t="s">
         <v>1259</v>
       </c>
-      <c r="C550" s="7" t="s">
-        <v>1260</v>
-      </c>
       <c r="D550" s="2" t="s">
-        <v>1258</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="551">
       <c r="A551" s="2" t="s">
+        <v>1260</v>
+      </c>
+      <c r="C551" s="7" t="s">
         <v>1261</v>
       </c>
-      <c r="C551" s="7" t="s">
-        <v>1262</v>
-      </c>
       <c r="D551" s="2" t="s">
-        <v>1263</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="552">
       <c r="A552" s="2" t="s">
-        <v>1264</v>
+        <v>1262</v>
       </c>
       <c r="C552" s="7" t="s">
-        <v>1265</v>
+        <v>1263</v>
       </c>
       <c r="D552" s="2" t="s">
-        <v>1266</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="553">
       <c r="A553" s="2" t="s">
-        <v>1267</v>
+        <v>1264</v>
       </c>
       <c r="C553" s="7" t="s">
-        <v>1268</v>
+        <v>1265</v>
       </c>
       <c r="D553" s="2" t="s">
-        <v>1239</v>
+        <v>130</v>
       </c>
     </row>
     <row r="554">
       <c r="A554" s="2" t="s">
-        <v>1269</v>
+        <v>1266</v>
       </c>
       <c r="C554" s="7" t="s">
-        <v>1270</v>
+        <v>1267</v>
       </c>
       <c r="D554" s="2" t="s">
-        <v>1239</v>
+        <v>130</v>
       </c>
     </row>
     <row r="555">
       <c r="A555" s="2" t="s">
-        <v>1271</v>
+        <v>1268</v>
       </c>
       <c r="C555" s="7" t="s">
-        <v>1272</v>
+        <v>1269</v>
       </c>
       <c r="D555" s="2" t="s">
-        <v>1239</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="556">
       <c r="A556" s="2" t="s">
-        <v>1273</v>
+        <v>1271</v>
       </c>
       <c r="C556" s="7" t="s">
-        <v>1274</v>
+        <v>1272</v>
       </c>
       <c r="D556" s="2" t="s">
-        <v>1239</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="557">
       <c r="A557" s="2" t="s">
+        <v>1273</v>
+      </c>
+      <c r="C557" s="7" t="s">
+        <v>1274</v>
+      </c>
+      <c r="D557" s="2" t="s">
         <v>1275</v>
-      </c>
-      <c r="C557" s="7" t="s">
-        <v>1276</v>
-      </c>
-      <c r="D557" s="2" t="s">
-        <v>1239</v>
       </c>
     </row>
     <row r="558">
       <c r="A558" s="2" t="s">
+        <v>1276</v>
+      </c>
+      <c r="C558" s="7" t="s">
         <v>1277</v>
       </c>
-      <c r="C558" s="7" t="s">
+      <c r="D558" s="2" t="s">
         <v>1278</v>
-      </c>
-      <c r="D558" s="2" t="s">
-        <v>1239</v>
       </c>
     </row>
     <row r="559">
@@ -17797,7 +18163,7 @@
         <v>1280</v>
       </c>
       <c r="D559" s="2" t="s">
-        <v>1239</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="560">
@@ -17808,51 +18174,117 @@
         <v>1282</v>
       </c>
       <c r="D560" s="2" t="s">
-        <v>1283</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="561">
       <c r="A561" s="2" t="s">
+        <v>1283</v>
+      </c>
+      <c r="C561" s="7" t="s">
         <v>1284</v>
       </c>
-      <c r="C561" s="7" t="s">
-        <v>1285</v>
-      </c>
       <c r="D561" s="2" t="s">
-        <v>1283</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="562">
       <c r="A562" s="2" t="s">
+        <v>1285</v>
+      </c>
+      <c r="C562" s="7" t="s">
         <v>1286</v>
       </c>
-      <c r="C562" s="7" t="s">
-        <v>1287</v>
-      </c>
       <c r="D562" s="2" t="s">
-        <v>1283</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="563">
       <c r="A563" s="2" t="s">
+        <v>1287</v>
+      </c>
+      <c r="C563" s="7" t="s">
         <v>1288</v>
       </c>
-      <c r="C563" s="7" t="s">
-        <v>1289</v>
-      </c>
       <c r="D563" s="2" t="s">
-        <v>1290</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="564">
       <c r="A564" s="2" t="s">
+        <v>1289</v>
+      </c>
+      <c r="C564" s="7" t="s">
+        <v>1290</v>
+      </c>
+      <c r="D564" s="2" t="s">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="565">
+      <c r="A565" s="2" t="s">
         <v>1291</v>
       </c>
-      <c r="C564" s="7" t="s">
+      <c r="C565" s="7" t="s">
         <v>1292</v>
       </c>
-      <c r="D564" s="2" t="s">
-        <v>1283</v>
+      <c r="D565" s="2" t="s">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="566">
+      <c r="A566" s="2" t="s">
+        <v>1293</v>
+      </c>
+      <c r="C566" s="7" t="s">
+        <v>1294</v>
+      </c>
+      <c r="D566" s="2" t="s">
+        <v>1295</v>
+      </c>
+    </row>
+    <row r="567">
+      <c r="A567" s="2" t="s">
+        <v>1296</v>
+      </c>
+      <c r="C567" s="7" t="s">
+        <v>1297</v>
+      </c>
+      <c r="D567" s="2" t="s">
+        <v>1295</v>
+      </c>
+    </row>
+    <row r="568">
+      <c r="A568" s="2" t="s">
+        <v>1298</v>
+      </c>
+      <c r="C568" s="7" t="s">
+        <v>1299</v>
+      </c>
+      <c r="D568" s="2" t="s">
+        <v>1295</v>
+      </c>
+    </row>
+    <row r="569">
+      <c r="A569" s="2" t="s">
+        <v>1300</v>
+      </c>
+      <c r="C569" s="7" t="s">
+        <v>1301</v>
+      </c>
+      <c r="D569" s="2" t="s">
+        <v>1302</v>
+      </c>
+    </row>
+    <row r="570">
+      <c r="A570" s="2" t="s">
+        <v>1303</v>
+      </c>
+      <c r="C570" s="7" t="s">
+        <v>1304</v>
+      </c>
+      <c r="D570" s="2" t="s">
+        <v>1295</v>
       </c>
     </row>
   </sheetData>
@@ -17891,18 +18323,18 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>1293</v>
+        <v>1305</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>1294</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>1295</v>
+        <v>1307</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>1296</v>
+        <v>1308</v>
       </c>
     </row>
   </sheetData>

--- a/csv/merge.xlsx
+++ b/csv/merge.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1681" uniqueCount="1309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1684" uniqueCount="1312">
   <si>
     <t>JP Text (DO NOT CHANGE)</t>
   </si>
@@ -11718,6 +11718,27 @@
 &lt;br&gt;
 Very well. I will be waiting for goo here.
 Please come and see me again.</t>
+  </si>
+  <si>
+    <t>身代わりのコインを捧げると　迷宮の主に負けても
+迷宮の主を　呼びだすアイテムが
+減らなくなります。
+&lt;br&gt;
+ただし　身代わりのコインは　勝ったときでも
+負けたときでも　消費されます。
+よろしいですか？&lt;yesno&gt;&lt;close&gt;</t>
+  </si>
+  <si>
+    <t>By using a Substitution Coin, you will not
+lose the items used to summon a Maze Boss
+should you fail to defeat it.
+&lt;br&gt;
+However, the Substitution Coin will be
+consumed regardless if you win or lose.
+Proceed?&lt;yesno&gt;&lt;close&gt;</t>
+  </si>
+  <si>
+    <t>Substitution coin explanation</t>
   </si>
   <si>
     <t>メインコマンド『せんれき』の
@@ -18287,6 +18308,17 @@
         <v>1295</v>
       </c>
     </row>
+    <row r="571">
+      <c r="A571" s="2" t="s">
+        <v>1305</v>
+      </c>
+      <c r="C571" s="7" t="s">
+        <v>1306</v>
+      </c>
+      <c r="D571" s="2" t="s">
+        <v>1307</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -18323,18 +18355,18 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>1305</v>
+        <v>1308</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>1306</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>1307</v>
+        <v>1310</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>1308</v>
+        <v>1311</v>
       </c>
     </row>
   </sheetData>

--- a/csv/merge.xlsx
+++ b/csv/merge.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1684" uniqueCount="1312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1723" uniqueCount="1338">
   <si>
     <t>JP Text (DO NOT CHANGE)</t>
   </si>
@@ -3483,6 +3483,19 @@
 Gate opens again.</t>
   </si>
   <si>
+    <t>「貴公の活躍のおかげで　戦禍の眷属は
+　チカラを弱めたようだ。これで　邪神の目覚めは
+　ひとまず　遠のいた。感謝にたえぬ。&lt;bw_break&gt;</t>
+  </si>
+  <si>
+    <t>Thanks to your help, those scarred by war
+have lost some of their power.
+&lt;br&gt;
+This should put a stop to the evil god's
+awakening for the time being. I thank
+you for your continued assistance.</t>
+  </si>
+  <si>
     <t>「おうっ！
 　キリキリ働いて　ガッポリかせいでくれよ！
 　それじゃあ　出発の準備は　いいな？
@@ -11739,6 +11752,164 @@
   </si>
   <si>
     <t>Substitution coin explanation</t>
+  </si>
+  <si>
+    <t>「ごきげんよう！
+　冒険ゼミの会員として　どんどん
+　冒険者ライフを　充実させていきましょう！&lt;bw_break&gt;</t>
+  </si>
+  <si>
+    <t>How do you do? As a member of the
+Adventurer Seminar, I hope I can make your
+adventuring life more fulfilling!&lt;bw_break&gt;</t>
+  </si>
+  <si>
+    <t>Adventure Seminar</t>
+  </si>
+  <si>
+    <t>「さあ　何か　わたくしが
+　お役に立てることは　ございますか？
+&lt;select_se_off&gt;
+講義を受けにいく
+説明を聞く
+&lt;select_end&gt;
+&lt;break&gt;</t>
+  </si>
+  <si>
+    <t>Now then, how may I be of assistance?
+&lt;select_se_off&gt;
+Attend Lecture
+Explanation
+&lt;select_end&gt;
+&lt;break&gt;</t>
+  </si>
+  <si>
+    <t>「どの講義を　受けにいかれますか？
+&lt;select_se_off&gt;
+冒険の基本は？　１
+冒険の基本は？　２
+みんなで遊ぶには？
+上手に戦うには？
+&lt;select_end&gt;
+&lt;break&gt;</t>
+  </si>
+  <si>
+    <t>Which lecture would you like to attend?
+&lt;select_se_off&gt;
+Adventurer Basics Part 1
+Adventurer Basics Part 2
+Playing with Others
+Battle Tips
+&lt;select_end&gt;
+&lt;break&gt;</t>
+  </si>
+  <si>
+    <t>「それでは　また　ご用がおありの際は
+　お声掛けくださいね。</t>
+  </si>
+  <si>
+    <t>Please let me know anytime if there's
+any way I can assist you.</t>
+  </si>
+  <si>
+    <t>「冒険の基本は？　１　の講義ですね。
+　それでは　会場へと　お送りします。
+　講義の準備は　よろしいですか？&lt;yesno&gt;&lt;break&gt;</t>
+  </si>
+  <si>
+    <t>You'd like to attend the "Adventurer Basics
+Part 1" lecture? If you're ready, I'll take 
+you to the lecture right now.&lt;yesno&gt;&lt;break&gt;</t>
+  </si>
+  <si>
+    <t>「冒険の基本は？　２　の講義ですね。
+　それでは　会場へと　お送りします。
+　講義の準備は　よろしいですか？&lt;yesno&gt;&lt;break&gt;</t>
+  </si>
+  <si>
+    <t>You'd like to attend the "Adventurer Basics
+Part 2" lecture? If you're ready, I'll take 
+you to the lecture right now.&lt;yesno&gt;&lt;break&gt;</t>
+  </si>
+  <si>
+    <t>「みんなで遊ぶには？　の講義ですね。
+　それでは　会場へと　お送りします。
+　講義の準備は　よろしいですか？&lt;yesno&gt;&lt;break&gt;</t>
+  </si>
+  <si>
+    <t>You'd like to attend the "Playing with Others"
+lecture? If you're ready, I'll take you to the
+lecture right now.&lt;yesno&gt;&lt;break&gt;</t>
+  </si>
+  <si>
+    <t>「上手に戦うには？　の講義ですね。
+　それでは　会場へと　お送りします。
+　講義の準備は　よろしいですか？&lt;yesno&gt;&lt;break&gt;</t>
+  </si>
+  <si>
+    <t>You'd like to attend the "Battle Tips"
+lecture? If you're ready, I'll take you to the
+lecture right now.&lt;yesno&gt;&lt;break&gt;</t>
+  </si>
+  <si>
+    <t>「冒険の基本は？　１　の講義ですね。
+　あなた様は　この講義を一度
+　お受けになられたことが　あります。
+&lt;br&gt;
+「ですので　記念品は　進呈されませんが
+　再度　冒険の基本は？　１　の講義を
+　お受けに　なられますか？&lt;yesno&gt;&lt;break&gt;</t>
+  </si>
+  <si>
+    <t>"Adventure Basics Part 1"? You've already
+attended this lecture once before.
+&lt;br&gt;
+You won't get another souvenir, but do you
+still want to attend the "Adventurer Basics
+Part 1" lecture again?</t>
+  </si>
+  <si>
+    <t>「冒険の基本は？　２　の講義ですね。
+　あなた様は　この講義を一度
+　お受けになられたことが　あります。
+&lt;br&gt;
+「ですので　記念品は　進呈されませんが
+　再度　冒険の基本は？　２　の講義を
+　お受けに　なられますか？&lt;yesno&gt;&lt;break&gt;</t>
+  </si>
+  <si>
+    <t>"Adventure Basics Part 2"? You've already
+attended this lecture once before.
+&lt;br&gt;
+You won't get another souvenir, but do you
+still want to attend the "Adventurer Basics
+Part 2" lecture again?</t>
+  </si>
+  <si>
+    <t>「みんなで遊ぶには？　の講義ですね。
+　あなた様は　この講義を一度
+　お受けになられたことが　あります。
+&lt;br&gt;
+「ですので　記念品は　進呈されませんが
+　再度　みんなで遊ぶには？　の講義を
+　お受けに　なられますか？&lt;yesno&gt;&lt;break&gt;</t>
+  </si>
+  <si>
+    <t>"Playing with Others"? You've already
+attended this lecture once before.
+&lt;br&gt;
+You won't get another souvenir, but do you
+still want to attend the "Playing with Others"
+lecture again?</t>
+  </si>
+  <si>
+    <t>「上手に戦うには？　の講義ですね。
+　あなた様は　この講義を一度
+　お受けになられたことが　あります。
+&lt;br&gt;
+「ですので　記念品は　進呈されませんが
+　再度　上手に戦うには？　の講義を
+　お受けに　なられますか？&lt;yesno&gt;&lt;break&gt;</t>
   </si>
   <si>
     <t>メインコマンド『せんれき』の
@@ -13610,7 +13781,7 @@
         <v>301</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>287</v>
+        <v>213</v>
       </c>
     </row>
     <row r="143">
@@ -13621,18 +13792,18 @@
         <v>303</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>304</v>
+        <v>287</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="C144" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="C144" s="2" t="s">
+      <c r="D144" s="2" t="s">
         <v>306</v>
-      </c>
-      <c r="D144" s="2" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="145">
@@ -13643,18 +13814,18 @@
         <v>308</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="C146" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="C146" s="2" t="s">
+      <c r="D146" s="2" t="s">
         <v>311</v>
-      </c>
-      <c r="D146" s="2" t="s">
-        <v>309</v>
       </c>
     </row>
     <row r="147">
@@ -13665,7 +13836,7 @@
         <v>313</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
     </row>
     <row r="148">
@@ -13676,7 +13847,7 @@
         <v>315</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
     </row>
     <row r="149">
@@ -13687,7 +13858,7 @@
         <v>317</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
     </row>
     <row r="150">
@@ -13698,7 +13869,7 @@
         <v>319</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
     </row>
     <row r="151">
@@ -13709,7 +13880,7 @@
         <v>321</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
     </row>
     <row r="152">
@@ -13720,40 +13891,40 @@
         <v>323</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>324</v>
+        <v>311</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="C153" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="C153" s="2" t="s">
+      <c r="D153" s="2" t="s">
         <v>326</v>
-      </c>
-      <c r="D153" s="2" t="s">
-        <v>327</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="C154" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="C154" s="2" t="s">
+      <c r="D154" s="2" t="s">
         <v>329</v>
-      </c>
-      <c r="D154" s="2" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="C155" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="C155" s="2" t="s">
+      <c r="D155" s="2" t="s">
         <v>332</v>
-      </c>
-      <c r="D155" s="2" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="156">
@@ -13764,7 +13935,7 @@
         <v>334</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
     </row>
     <row r="157">
@@ -13775,7 +13946,7 @@
         <v>336</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
     </row>
     <row r="158">
@@ -13786,7 +13957,7 @@
         <v>338</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
     </row>
     <row r="159">
@@ -13797,7 +13968,7 @@
         <v>340</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>282</v>
+        <v>332</v>
       </c>
     </row>
     <row r="160">
@@ -13808,18 +13979,18 @@
         <v>342</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>343</v>
+        <v>282</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="C161" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="C161" s="2" t="s">
+      <c r="D161" s="2" t="s">
         <v>345</v>
-      </c>
-      <c r="D161" s="2" t="s">
-        <v>343</v>
       </c>
     </row>
     <row r="162">
@@ -13830,18 +14001,18 @@
         <v>347</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="C163" s="2" t="s">
         <v>349</v>
       </c>
-      <c r="C163" s="2" t="s">
+      <c r="D163" s="2" t="s">
         <v>350</v>
-      </c>
-      <c r="D163" s="2" t="s">
-        <v>348</v>
       </c>
     </row>
     <row r="164">
@@ -13852,7 +14023,7 @@
         <v>352</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="165">
@@ -13863,7 +14034,7 @@
         <v>354</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="166">
@@ -13874,7 +14045,7 @@
         <v>356</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="167">
@@ -13885,7 +14056,7 @@
         <v>358</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="168">
@@ -13896,7 +14067,7 @@
         <v>360</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="169">
@@ -13907,7 +14078,7 @@
         <v>362</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="170">
@@ -13918,7 +14089,7 @@
         <v>364</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="171">
@@ -13929,7 +14100,7 @@
         <v>366</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="172">
@@ -13940,29 +14111,29 @@
         <v>368</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="C173" s="7" t="s">
+      <c r="C173" s="2" t="s">
         <v>370</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="C174" s="2" t="s">
+      <c r="C174" s="7" t="s">
         <v>372</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="175">
@@ -13973,7 +14144,7 @@
         <v>374</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="176">
@@ -13984,7 +14155,7 @@
         <v>376</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="177">
@@ -13995,7 +14166,7 @@
         <v>378</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="178">
@@ -14005,6 +14176,9 @@
       <c r="C178" s="2" t="s">
         <v>380</v>
       </c>
+      <c r="D178" s="2" t="s">
+        <v>350</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
@@ -14045,43 +14219,40 @@
       <c r="C183" s="2" t="s">
         <v>390</v>
       </c>
-      <c r="D183" s="2" t="s">
-        <v>391</v>
-      </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="C184" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="C184" s="2" t="s">
+      <c r="D184" s="2" t="s">
         <v>393</v>
-      </c>
-      <c r="D184" s="2" t="s">
-        <v>394</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="C185" s="2" t="s">
         <v>395</v>
       </c>
-      <c r="C185" s="2" t="s">
+      <c r="D185" s="2" t="s">
         <v>396</v>
       </c>
-      <c r="D185" s="2" t="s">
-        <v>397</v>
-      </c>
-      <c r="E185" s="2"/>
     </row>
     <row r="186">
       <c r="A186" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="C186" s="2" t="s">
         <v>398</v>
       </c>
-      <c r="C186" s="2" t="s">
+      <c r="D186" s="2" t="s">
         <v>399</v>
       </c>
-      <c r="D186" s="2" t="s">
-        <v>397</v>
-      </c>
+      <c r="E186" s="2"/>
     </row>
     <row r="187">
       <c r="A187" s="2" t="s">
@@ -14091,18 +14262,18 @@
         <v>401</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="C188" s="2" t="s">
         <v>403</v>
       </c>
-      <c r="C188" s="2" t="s">
+      <c r="D188" s="2" t="s">
         <v>404</v>
-      </c>
-      <c r="D188" s="2" t="s">
-        <v>402</v>
       </c>
     </row>
     <row r="189">
@@ -14113,7 +14284,7 @@
         <v>406</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
     </row>
     <row r="190">
@@ -14124,18 +14295,18 @@
         <v>408</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="C191" s="2" t="s">
         <v>410</v>
       </c>
-      <c r="C191" s="2" t="s">
+      <c r="D191" s="2" t="s">
         <v>411</v>
-      </c>
-      <c r="D191" s="2" t="s">
-        <v>402</v>
       </c>
     </row>
     <row r="192">
@@ -14146,7 +14317,7 @@
         <v>413</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
     </row>
     <row r="193">
@@ -14157,18 +14328,18 @@
         <v>415</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>416</v>
+        <v>404</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="C194" s="2" t="s">
         <v>417</v>
       </c>
-      <c r="C194" s="2" t="s">
+      <c r="D194" s="2" t="s">
         <v>418</v>
-      </c>
-      <c r="D194" s="2" t="s">
-        <v>416</v>
       </c>
     </row>
     <row r="195">
@@ -14179,7 +14350,7 @@
         <v>420</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
     </row>
     <row r="196">
@@ -14190,7 +14361,7 @@
         <v>422</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
     </row>
     <row r="197">
@@ -14201,7 +14372,7 @@
         <v>424</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
     </row>
     <row r="198">
@@ -14212,7 +14383,7 @@
         <v>426</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
     </row>
     <row r="199">
@@ -14223,7 +14394,7 @@
         <v>428</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>402</v>
+        <v>418</v>
       </c>
     </row>
     <row r="200">
@@ -14234,7 +14405,7 @@
         <v>430</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
     </row>
     <row r="201">
@@ -14245,7 +14416,7 @@
         <v>432</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
     </row>
     <row r="202">
@@ -14256,7 +14427,7 @@
         <v>434</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
     </row>
     <row r="203">
@@ -14267,7 +14438,7 @@
         <v>436</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
     </row>
     <row r="204">
@@ -14278,7 +14449,7 @@
         <v>438</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
     </row>
     <row r="205">
@@ -14289,18 +14460,18 @@
         <v>440</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>441</v>
+        <v>404</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="C206" s="2" t="s">
         <v>442</v>
       </c>
-      <c r="C206" s="2" t="s">
+      <c r="D206" s="2" t="s">
         <v>443</v>
-      </c>
-      <c r="D206" s="2" t="s">
-        <v>416</v>
       </c>
     </row>
     <row r="207">
@@ -14311,7 +14482,7 @@
         <v>445</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
     </row>
     <row r="208">
@@ -14322,7 +14493,7 @@
         <v>447</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
     </row>
     <row r="209">
@@ -14333,7 +14504,7 @@
         <v>449</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
     </row>
     <row r="210">
@@ -14344,7 +14515,7 @@
         <v>451</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
     </row>
     <row r="211">
@@ -14355,7 +14526,7 @@
         <v>453</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>402</v>
+        <v>418</v>
       </c>
     </row>
     <row r="212">
@@ -14366,18 +14537,18 @@
         <v>455</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>456</v>
+        <v>404</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="C213" s="2" t="s">
         <v>457</v>
       </c>
-      <c r="C213" s="2" t="s">
+      <c r="D213" s="2" t="s">
         <v>458</v>
-      </c>
-      <c r="D213" s="2" t="s">
-        <v>456</v>
       </c>
     </row>
     <row r="214">
@@ -14388,7 +14559,7 @@
         <v>460</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
     </row>
     <row r="215">
@@ -14399,7 +14570,7 @@
         <v>462</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
     </row>
     <row r="216">
@@ -14410,7 +14581,7 @@
         <v>464</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
     </row>
     <row r="217">
@@ -14421,7 +14592,7 @@
         <v>466</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
     </row>
     <row r="218">
@@ -14432,7 +14603,7 @@
         <v>468</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
     </row>
     <row r="219">
@@ -14443,7 +14614,7 @@
         <v>470</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
     </row>
     <row r="220">
@@ -14454,7 +14625,7 @@
         <v>472</v>
       </c>
       <c r="D220" s="2" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
     </row>
     <row r="221">
@@ -14465,7 +14636,7 @@
         <v>474</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
     </row>
     <row r="222">
@@ -14476,7 +14647,7 @@
         <v>476</v>
       </c>
       <c r="D222" s="2" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
     </row>
     <row r="223">
@@ -14487,7 +14658,7 @@
         <v>478</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
     </row>
     <row r="224">
@@ -14498,18 +14669,18 @@
         <v>480</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>481</v>
+        <v>458</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="C225" s="2" t="s">
         <v>482</v>
       </c>
-      <c r="C225" s="2" t="s">
+      <c r="D225" s="2" t="s">
         <v>483</v>
-      </c>
-      <c r="D225" s="2" t="s">
-        <v>481</v>
       </c>
     </row>
     <row r="226">
@@ -14520,7 +14691,7 @@
         <v>485</v>
       </c>
       <c r="D226" s="2" t="s">
-        <v>456</v>
+        <v>483</v>
       </c>
     </row>
     <row r="227">
@@ -14531,7 +14702,7 @@
         <v>487</v>
       </c>
       <c r="D227" s="2" t="s">
-        <v>481</v>
+        <v>458</v>
       </c>
     </row>
     <row r="228">
@@ -14542,7 +14713,7 @@
         <v>489</v>
       </c>
       <c r="D228" s="2" t="s">
-        <v>456</v>
+        <v>483</v>
       </c>
     </row>
     <row r="229">
@@ -14553,7 +14724,7 @@
         <v>491</v>
       </c>
       <c r="D229" s="2" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
     </row>
     <row r="230">
@@ -14564,7 +14735,7 @@
         <v>493</v>
       </c>
       <c r="D230" s="2" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
     </row>
     <row r="231">
@@ -14575,7 +14746,7 @@
         <v>495</v>
       </c>
       <c r="D231" s="2" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
     </row>
     <row r="232">
@@ -14586,7 +14757,7 @@
         <v>497</v>
       </c>
       <c r="D232" s="2" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
     </row>
     <row r="233">
@@ -14597,7 +14768,7 @@
         <v>499</v>
       </c>
       <c r="D233" s="2" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
     </row>
     <row r="234">
@@ -14608,7 +14779,7 @@
         <v>501</v>
       </c>
       <c r="D234" s="2" t="s">
-        <v>481</v>
+        <v>458</v>
       </c>
     </row>
     <row r="235">
@@ -14619,7 +14790,7 @@
         <v>503</v>
       </c>
       <c r="D235" s="2" t="s">
-        <v>456</v>
+        <v>483</v>
       </c>
     </row>
     <row r="236">
@@ -14630,18 +14801,18 @@
         <v>505</v>
       </c>
       <c r="D236" s="2" t="s">
-        <v>506</v>
+        <v>458</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="C237" s="2" t="s">
         <v>507</v>
       </c>
-      <c r="C237" s="2" t="s">
+      <c r="D237" s="2" t="s">
         <v>508</v>
-      </c>
-      <c r="D237" s="2" t="s">
-        <v>506</v>
       </c>
     </row>
     <row r="238">
@@ -14652,7 +14823,7 @@
         <v>510</v>
       </c>
       <c r="D238" s="2" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
     </row>
     <row r="239">
@@ -14663,7 +14834,7 @@
         <v>512</v>
       </c>
       <c r="D239" s="2" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
     </row>
     <row r="240">
@@ -14674,62 +14845,62 @@
         <v>514</v>
       </c>
       <c r="D240" s="2" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="C241" s="2" t="s">
         <v>516</v>
       </c>
-      <c r="C241" s="2" t="s">
+      <c r="D241" s="2" t="s">
         <v>517</v>
-      </c>
-      <c r="D241" s="2" t="s">
-        <v>518</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="2" t="s">
+        <v>518</v>
+      </c>
+      <c r="C242" s="2" t="s">
         <v>519</v>
       </c>
-      <c r="C242" s="2" t="s">
+      <c r="D242" s="2" t="s">
         <v>520</v>
-      </c>
-      <c r="D242" s="2" t="s">
-        <v>521</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="C243" s="2" t="s">
         <v>522</v>
       </c>
-      <c r="C243" s="2" t="s">
+      <c r="D243" s="2" t="s">
         <v>523</v>
-      </c>
-      <c r="D243" s="2" t="s">
-        <v>524</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="C244" s="2" t="s">
         <v>525</v>
       </c>
-      <c r="C244" s="2" t="s">
+      <c r="D244" s="2" t="s">
         <v>526</v>
-      </c>
-      <c r="D244" s="2" t="s">
-        <v>527</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="C245" s="2" t="s">
         <v>528</v>
       </c>
-      <c r="C245" s="2" t="s">
+      <c r="D245" s="2" t="s">
         <v>529</v>
-      </c>
-      <c r="D245" s="2" t="s">
-        <v>527</v>
       </c>
     </row>
     <row r="246">
@@ -14740,7 +14911,7 @@
         <v>531</v>
       </c>
       <c r="D246" s="2" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
     </row>
     <row r="247">
@@ -14751,18 +14922,18 @@
         <v>533</v>
       </c>
       <c r="D247" s="2" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="2" t="s">
+        <v>534</v>
+      </c>
+      <c r="C248" s="2" t="s">
         <v>535</v>
       </c>
-      <c r="C248" s="2" t="s">
+      <c r="D248" s="2" t="s">
         <v>536</v>
-      </c>
-      <c r="D248" s="2" t="s">
-        <v>534</v>
       </c>
     </row>
     <row r="249">
@@ -14773,21 +14944,21 @@
         <v>538</v>
       </c>
       <c r="D249" s="2" t="s">
-        <v>539</v>
-      </c>
-      <c r="E249" s="2" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="2" t="s">
+        <v>539</v>
+      </c>
+      <c r="C250" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="D250" s="2" t="s">
         <v>541</v>
       </c>
-      <c r="C250" s="2" t="s">
+      <c r="E250" s="2" t="s">
         <v>542</v>
-      </c>
-      <c r="D250" s="2" t="s">
-        <v>539</v>
       </c>
     </row>
     <row r="251">
@@ -14798,7 +14969,7 @@
         <v>544</v>
       </c>
       <c r="D251" s="2" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
     </row>
     <row r="252">
@@ -14809,7 +14980,7 @@
         <v>546</v>
       </c>
       <c r="D252" s="2" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
     </row>
     <row r="253">
@@ -14820,7 +14991,7 @@
         <v>548</v>
       </c>
       <c r="D253" s="2" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
     </row>
     <row r="254">
@@ -14831,7 +15002,7 @@
         <v>550</v>
       </c>
       <c r="D254" s="2" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
     </row>
     <row r="255">
@@ -14842,7 +15013,7 @@
         <v>552</v>
       </c>
       <c r="D255" s="2" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
     </row>
     <row r="256">
@@ -14853,7 +15024,7 @@
         <v>554</v>
       </c>
       <c r="D256" s="2" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
     </row>
     <row r="257">
@@ -14864,7 +15035,7 @@
         <v>556</v>
       </c>
       <c r="D257" s="2" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
     </row>
     <row r="258">
@@ -14875,7 +15046,7 @@
         <v>558</v>
       </c>
       <c r="D258" s="2" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
     </row>
     <row r="259">
@@ -14886,7 +15057,7 @@
         <v>560</v>
       </c>
       <c r="D259" s="2" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
     </row>
     <row r="260">
@@ -14897,18 +15068,18 @@
         <v>562</v>
       </c>
       <c r="D260" s="2" t="s">
-        <v>563</v>
+        <v>541</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="C261" s="2" t="s">
         <v>564</v>
       </c>
-      <c r="C261" s="2" t="s">
+      <c r="D261" s="2" t="s">
         <v>565</v>
-      </c>
-      <c r="D261" s="2" t="s">
-        <v>563</v>
       </c>
     </row>
     <row r="262">
@@ -14919,7 +15090,7 @@
         <v>567</v>
       </c>
       <c r="D262" s="2" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
     </row>
     <row r="263">
@@ -14930,18 +15101,18 @@
         <v>569</v>
       </c>
       <c r="D263" s="2" t="s">
-        <v>570</v>
+        <v>565</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="C264" s="2" t="s">
         <v>571</v>
       </c>
-      <c r="C264" s="2" t="s">
+      <c r="D264" s="2" t="s">
         <v>572</v>
-      </c>
-      <c r="D264" s="2" t="s">
-        <v>570</v>
       </c>
     </row>
     <row r="265">
@@ -14952,7 +15123,7 @@
         <v>574</v>
       </c>
       <c r="D265" s="2" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="266">
@@ -14963,7 +15134,7 @@
         <v>576</v>
       </c>
       <c r="D266" s="2" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="267">
@@ -14974,7 +15145,7 @@
         <v>578</v>
       </c>
       <c r="D267" s="2" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="268">
@@ -14985,29 +15156,29 @@
         <v>580</v>
       </c>
       <c r="D268" s="2" t="s">
-        <v>581</v>
+        <v>572</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="2" t="s">
+        <v>581</v>
+      </c>
+      <c r="C269" s="2" t="s">
         <v>582</v>
       </c>
-      <c r="C269" s="2" t="s">
+      <c r="D269" s="2" t="s">
         <v>583</v>
-      </c>
-      <c r="D269" s="2" t="s">
-        <v>584</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" s="2" t="s">
+        <v>584</v>
+      </c>
+      <c r="C270" s="2" t="s">
         <v>585</v>
       </c>
-      <c r="C270" s="2" t="s">
+      <c r="D270" s="2" t="s">
         <v>586</v>
-      </c>
-      <c r="D270" s="2" t="s">
-        <v>584</v>
       </c>
     </row>
     <row r="271">
@@ -15018,7 +15189,7 @@
         <v>588</v>
       </c>
       <c r="D271" s="2" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
     </row>
     <row r="272">
@@ -15029,7 +15200,7 @@
         <v>590</v>
       </c>
       <c r="D272" s="2" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
     </row>
     <row r="273">
@@ -15040,7 +15211,7 @@
         <v>592</v>
       </c>
       <c r="D273" s="2" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
     </row>
     <row r="274">
@@ -15051,7 +15222,7 @@
         <v>594</v>
       </c>
       <c r="D274" s="2" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
     </row>
     <row r="275">
@@ -15062,7 +15233,7 @@
         <v>596</v>
       </c>
       <c r="D275" s="2" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
     </row>
     <row r="276">
@@ -15073,7 +15244,7 @@
         <v>598</v>
       </c>
       <c r="D276" s="2" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
     </row>
     <row r="277">
@@ -15084,7 +15255,7 @@
         <v>600</v>
       </c>
       <c r="D277" s="2" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
     </row>
     <row r="278">
@@ -15095,7 +15266,7 @@
         <v>602</v>
       </c>
       <c r="D278" s="2" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
     </row>
     <row r="279">
@@ -15106,7 +15277,7 @@
         <v>604</v>
       </c>
       <c r="D279" s="2" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
     </row>
     <row r="280">
@@ -15117,7 +15288,7 @@
         <v>606</v>
       </c>
       <c r="D280" s="2" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
     </row>
     <row r="281">
@@ -15128,7 +15299,7 @@
         <v>608</v>
       </c>
       <c r="D281" s="2" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
     </row>
     <row r="282">
@@ -15139,7 +15310,7 @@
         <v>610</v>
       </c>
       <c r="D282" s="2" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
     </row>
     <row r="283">
@@ -15150,7 +15321,7 @@
         <v>612</v>
       </c>
       <c r="D283" s="2" t="s">
-        <v>309</v>
+        <v>586</v>
       </c>
     </row>
     <row r="284">
@@ -15161,7 +15332,7 @@
         <v>614</v>
       </c>
       <c r="D284" s="2" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
     </row>
     <row r="285">
@@ -15172,7 +15343,7 @@
         <v>616</v>
       </c>
       <c r="D285" s="2" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
     </row>
     <row r="286">
@@ -15183,7 +15354,7 @@
         <v>618</v>
       </c>
       <c r="D286" s="2" t="s">
-        <v>304</v>
+        <v>311</v>
       </c>
     </row>
     <row r="287">
@@ -15194,7 +15365,7 @@
         <v>620</v>
       </c>
       <c r="D287" s="2" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="288">
@@ -15205,7 +15376,7 @@
         <v>622</v>
       </c>
       <c r="D288" s="2" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="289">
@@ -15216,7 +15387,7 @@
         <v>624</v>
       </c>
       <c r="D289" s="2" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="290">
@@ -15227,18 +15398,18 @@
         <v>626</v>
       </c>
       <c r="D290" s="2" t="s">
-        <v>627</v>
+        <v>306</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" s="2" t="s">
+        <v>627</v>
+      </c>
+      <c r="C291" s="2" t="s">
         <v>628</v>
       </c>
-      <c r="C291" s="2" t="s">
+      <c r="D291" s="2" t="s">
         <v>629</v>
-      </c>
-      <c r="D291" s="2" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="292">
@@ -15249,29 +15420,29 @@
         <v>631</v>
       </c>
       <c r="D292" s="2" t="s">
-        <v>632</v>
+        <v>306</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" s="2" t="s">
+        <v>632</v>
+      </c>
+      <c r="C293" s="2" t="s">
         <v>633</v>
       </c>
-      <c r="C293" s="2" t="s">
+      <c r="D293" s="2" t="s">
         <v>634</v>
-      </c>
-      <c r="D293" s="2" t="s">
-        <v>635</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" s="2" t="s">
+        <v>635</v>
+      </c>
+      <c r="C294" s="2" t="s">
         <v>636</v>
       </c>
-      <c r="C294" s="2" t="s">
+      <c r="D294" s="2" t="s">
         <v>637</v>
-      </c>
-      <c r="D294" s="2" t="s">
-        <v>635</v>
       </c>
     </row>
     <row r="295">
@@ -15282,7 +15453,7 @@
         <v>639</v>
       </c>
       <c r="D295" s="2" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
     </row>
     <row r="296">
@@ -15293,7 +15464,7 @@
         <v>641</v>
       </c>
       <c r="D296" s="2" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
     </row>
     <row r="297">
@@ -15304,7 +15475,7 @@
         <v>643</v>
       </c>
       <c r="D297" s="2" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
     </row>
     <row r="298">
@@ -15315,7 +15486,7 @@
         <v>645</v>
       </c>
       <c r="D298" s="2" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
     </row>
     <row r="299">
@@ -15326,7 +15497,7 @@
         <v>647</v>
       </c>
       <c r="D299" s="2" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
     </row>
     <row r="300">
@@ -15337,7 +15508,7 @@
         <v>649</v>
       </c>
       <c r="D300" s="2" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
     </row>
     <row r="301">
@@ -15348,7 +15519,7 @@
         <v>651</v>
       </c>
       <c r="D301" s="2" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
     </row>
     <row r="302">
@@ -15359,7 +15530,7 @@
         <v>653</v>
       </c>
       <c r="D302" s="2" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
     </row>
     <row r="303">
@@ -15370,7 +15541,7 @@
         <v>655</v>
       </c>
       <c r="D303" s="2" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
     </row>
     <row r="304">
@@ -15381,7 +15552,7 @@
         <v>657</v>
       </c>
       <c r="D304" s="2" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
     </row>
     <row r="305">
@@ -15392,7 +15563,7 @@
         <v>659</v>
       </c>
       <c r="D305" s="2" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
     </row>
     <row r="306">
@@ -15403,7 +15574,7 @@
         <v>661</v>
       </c>
       <c r="D306" s="2" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
     </row>
     <row r="307">
@@ -15414,7 +15585,7 @@
         <v>663</v>
       </c>
       <c r="D307" s="2" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
     </row>
     <row r="308">
@@ -15425,7 +15596,7 @@
         <v>665</v>
       </c>
       <c r="D308" s="2" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
     </row>
     <row r="309">
@@ -15436,7 +15607,7 @@
         <v>667</v>
       </c>
       <c r="D309" s="2" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
     </row>
     <row r="310">
@@ -15447,7 +15618,7 @@
         <v>669</v>
       </c>
       <c r="D310" s="2" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
     </row>
     <row r="311">
@@ -15458,7 +15629,7 @@
         <v>671</v>
       </c>
       <c r="D311" s="2" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
     </row>
     <row r="312">
@@ -15469,7 +15640,7 @@
         <v>673</v>
       </c>
       <c r="D312" s="2" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
     </row>
     <row r="313">
@@ -15480,7 +15651,7 @@
         <v>675</v>
       </c>
       <c r="D313" s="2" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
     </row>
     <row r="314">
@@ -15491,7 +15662,7 @@
         <v>677</v>
       </c>
       <c r="D314" s="2" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
     </row>
     <row r="315">
@@ -15502,7 +15673,7 @@
         <v>679</v>
       </c>
       <c r="D315" s="2" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
     </row>
     <row r="316">
@@ -15513,7 +15684,7 @@
         <v>681</v>
       </c>
       <c r="D316" s="2" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
     </row>
     <row r="317">
@@ -15524,18 +15695,18 @@
         <v>683</v>
       </c>
       <c r="D317" s="2" t="s">
-        <v>684</v>
+        <v>637</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" s="2" t="s">
+        <v>684</v>
+      </c>
+      <c r="C318" s="2" t="s">
         <v>685</v>
       </c>
-      <c r="C318" s="2" t="s">
+      <c r="D318" s="2" t="s">
         <v>686</v>
-      </c>
-      <c r="D318" s="2" t="s">
-        <v>684</v>
       </c>
     </row>
     <row r="319">
@@ -15546,7 +15717,7 @@
         <v>688</v>
       </c>
       <c r="D319" s="2" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
     </row>
     <row r="320">
@@ -15557,7 +15728,7 @@
         <v>690</v>
       </c>
       <c r="D320" s="2" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
     </row>
     <row r="321">
@@ -15568,29 +15739,29 @@
         <v>692</v>
       </c>
       <c r="D321" s="2" t="s">
-        <v>693</v>
+        <v>686</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" s="2" t="s">
+        <v>693</v>
+      </c>
+      <c r="C322" s="2" t="s">
         <v>694</v>
       </c>
-      <c r="C322" s="2" t="s">
+      <c r="D322" s="2" t="s">
         <v>695</v>
-      </c>
-      <c r="D322" s="2" t="s">
-        <v>696</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" s="2" t="s">
+        <v>696</v>
+      </c>
+      <c r="C323" s="2" t="s">
         <v>697</v>
       </c>
-      <c r="C323" s="2" t="s">
+      <c r="D323" s="2" t="s">
         <v>698</v>
-      </c>
-      <c r="D323" s="2" t="s">
-        <v>696</v>
       </c>
     </row>
     <row r="324">
@@ -15601,117 +15772,117 @@
         <v>700</v>
       </c>
       <c r="D324" s="2" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" s="2" t="s">
+        <v>701</v>
+      </c>
+      <c r="C325" s="2" t="s">
         <v>702</v>
       </c>
-      <c r="C325" s="2" t="s">
+      <c r="D325" s="2" t="s">
         <v>703</v>
-      </c>
-      <c r="D325" s="2" t="s">
-        <v>704</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" s="2" t="s">
+        <v>704</v>
+      </c>
+      <c r="C326" s="2" t="s">
         <v>705</v>
       </c>
-      <c r="C326" s="2" t="s">
+      <c r="D326" s="2" t="s">
         <v>706</v>
-      </c>
-      <c r="D326" s="2" t="s">
-        <v>707</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" s="2" t="s">
+        <v>707</v>
+      </c>
+      <c r="C327" s="2" t="s">
         <v>708</v>
       </c>
-      <c r="C327" s="2" t="s">
+      <c r="D327" s="2" t="s">
         <v>709</v>
-      </c>
-      <c r="D327" s="2" t="s">
-        <v>710</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" s="2" t="s">
+        <v>710</v>
+      </c>
+      <c r="C328" s="2" t="s">
         <v>711</v>
       </c>
-      <c r="C328" s="2" t="s">
+      <c r="D328" s="2" t="s">
         <v>712</v>
-      </c>
-      <c r="D328" s="2" t="s">
-        <v>713</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" s="2" t="s">
+        <v>713</v>
+      </c>
+      <c r="C329" s="2" t="s">
         <v>714</v>
       </c>
-      <c r="C329" s="2" t="s">
+      <c r="D329" s="2" t="s">
         <v>715</v>
-      </c>
-      <c r="D329" s="2" t="s">
-        <v>716</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" s="2" t="s">
+        <v>716</v>
+      </c>
+      <c r="C330" s="2" t="s">
         <v>717</v>
       </c>
-      <c r="C330" s="2" t="s">
+      <c r="D330" s="2" t="s">
         <v>718</v>
-      </c>
-      <c r="D330" s="2" t="s">
-        <v>719</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" s="2" t="s">
+        <v>719</v>
+      </c>
+      <c r="C331" s="2" t="s">
         <v>720</v>
       </c>
-      <c r="C331" s="2" t="s">
+      <c r="D331" s="2" t="s">
         <v>721</v>
-      </c>
-      <c r="D331" s="2" t="s">
-        <v>722</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" s="2" t="s">
+        <v>722</v>
+      </c>
+      <c r="C332" s="2" t="s">
         <v>723</v>
       </c>
-      <c r="C332" s="2" t="s">
+      <c r="D332" s="2" t="s">
         <v>724</v>
-      </c>
-      <c r="D332" s="2" t="s">
-        <v>725</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" s="2" t="s">
+        <v>725</v>
+      </c>
+      <c r="C333" s="2" t="s">
         <v>726</v>
       </c>
-      <c r="C333" s="2" t="s">
+      <c r="D333" s="2" t="s">
         <v>727</v>
-      </c>
-      <c r="D333" s="2" t="s">
-        <v>728</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" s="2" t="s">
+        <v>728</v>
+      </c>
+      <c r="C334" s="2" t="s">
         <v>729</v>
       </c>
-      <c r="C334" s="2" t="s">
+      <c r="D334" s="2" t="s">
         <v>730</v>
-      </c>
-      <c r="D334" s="2" t="s">
-        <v>728</v>
       </c>
     </row>
     <row r="335">
@@ -15722,7 +15893,7 @@
         <v>732</v>
       </c>
       <c r="D335" s="2" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
     </row>
     <row r="336">
@@ -15733,7 +15904,7 @@
         <v>734</v>
       </c>
       <c r="D336" s="2" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
     </row>
     <row r="337">
@@ -15744,7 +15915,7 @@
         <v>736</v>
       </c>
       <c r="D337" s="2" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
     </row>
     <row r="338">
@@ -15755,7 +15926,7 @@
         <v>738</v>
       </c>
       <c r="D338" s="2" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
     </row>
     <row r="339">
@@ -15766,18 +15937,18 @@
         <v>740</v>
       </c>
       <c r="D339" s="2" t="s">
-        <v>741</v>
+        <v>730</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" s="2" t="s">
+        <v>741</v>
+      </c>
+      <c r="C340" s="2" t="s">
         <v>742</v>
       </c>
-      <c r="C340" s="2" t="s">
+      <c r="D340" s="2" t="s">
         <v>743</v>
-      </c>
-      <c r="D340" s="2" t="s">
-        <v>728</v>
       </c>
     </row>
     <row r="341">
@@ -15788,7 +15959,7 @@
         <v>745</v>
       </c>
       <c r="D341" s="2" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
     </row>
     <row r="342">
@@ -15799,7 +15970,7 @@
         <v>747</v>
       </c>
       <c r="D342" s="2" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
     </row>
     <row r="343">
@@ -15810,7 +15981,7 @@
         <v>749</v>
       </c>
       <c r="D343" s="2" t="s">
-        <v>741</v>
+        <v>730</v>
       </c>
     </row>
     <row r="344">
@@ -15821,7 +15992,7 @@
         <v>751</v>
       </c>
       <c r="D344" s="2" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
     </row>
     <row r="345">
@@ -15832,7 +16003,7 @@
         <v>753</v>
       </c>
       <c r="D345" s="2" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
     </row>
     <row r="346">
@@ -15843,7 +16014,7 @@
         <v>755</v>
       </c>
       <c r="D346" s="2" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
     </row>
     <row r="347">
@@ -15854,7 +16025,7 @@
         <v>757</v>
       </c>
       <c r="D347" s="2" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
     </row>
     <row r="348">
@@ -15865,7 +16036,7 @@
         <v>759</v>
       </c>
       <c r="D348" s="2" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
     </row>
     <row r="349">
@@ -15876,7 +16047,7 @@
         <v>761</v>
       </c>
       <c r="D349" s="2" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
     </row>
     <row r="350">
@@ -15887,7 +16058,7 @@
         <v>763</v>
       </c>
       <c r="D350" s="2" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
     </row>
     <row r="351">
@@ -15898,7 +16069,7 @@
         <v>765</v>
       </c>
       <c r="D351" s="2" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
     </row>
     <row r="352">
@@ -15909,7 +16080,7 @@
         <v>767</v>
       </c>
       <c r="D352" s="2" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
     </row>
     <row r="353">
@@ -15920,7 +16091,7 @@
         <v>769</v>
       </c>
       <c r="D353" s="2" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
     </row>
     <row r="354">
@@ -15931,7 +16102,7 @@
         <v>771</v>
       </c>
       <c r="D354" s="2" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
     </row>
     <row r="355">
@@ -15942,7 +16113,7 @@
         <v>773</v>
       </c>
       <c r="D355" s="2" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
     </row>
     <row r="356">
@@ -15953,7 +16124,7 @@
         <v>775</v>
       </c>
       <c r="D356" s="2" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
     </row>
     <row r="357">
@@ -15964,7 +16135,7 @@
         <v>777</v>
       </c>
       <c r="D357" s="2" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
     </row>
     <row r="358">
@@ -15975,7 +16146,7 @@
         <v>779</v>
       </c>
       <c r="D358" s="2" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
     </row>
     <row r="359">
@@ -15986,7 +16157,7 @@
         <v>781</v>
       </c>
       <c r="D359" s="2" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
     </row>
     <row r="360">
@@ -15997,7 +16168,7 @@
         <v>783</v>
       </c>
       <c r="D360" s="2" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
     </row>
     <row r="361">
@@ -16008,7 +16179,7 @@
         <v>785</v>
       </c>
       <c r="D361" s="2" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
     </row>
     <row r="362">
@@ -16019,7 +16190,7 @@
         <v>787</v>
       </c>
       <c r="D362" s="2" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
     </row>
     <row r="363">
@@ -16030,7 +16201,7 @@
         <v>789</v>
       </c>
       <c r="D363" s="2" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
     </row>
     <row r="364">
@@ -16041,7 +16212,7 @@
         <v>791</v>
       </c>
       <c r="D364" s="2" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
     </row>
     <row r="365">
@@ -16052,7 +16223,7 @@
         <v>793</v>
       </c>
       <c r="D365" s="2" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
     </row>
     <row r="366">
@@ -16063,7 +16234,7 @@
         <v>795</v>
       </c>
       <c r="D366" s="2" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
     </row>
     <row r="367">
@@ -16074,29 +16245,29 @@
         <v>797</v>
       </c>
       <c r="D367" s="2" t="s">
-        <v>798</v>
+        <v>743</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" s="2" t="s">
+        <v>798</v>
+      </c>
+      <c r="C368" s="2" t="s">
         <v>799</v>
       </c>
-      <c r="C368" s="2" t="s">
+      <c r="D368" s="2" t="s">
         <v>800</v>
-      </c>
-      <c r="D368" s="2" t="s">
-        <v>801</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" s="2" t="s">
+        <v>801</v>
+      </c>
+      <c r="C369" s="2" t="s">
         <v>802</v>
       </c>
-      <c r="C369" s="2" t="s">
+      <c r="D369" s="2" t="s">
         <v>803</v>
-      </c>
-      <c r="D369" s="2" t="s">
-        <v>801</v>
       </c>
     </row>
     <row r="370">
@@ -16107,7 +16278,7 @@
         <v>805</v>
       </c>
       <c r="D370" s="2" t="s">
-        <v>801</v>
+        <v>803</v>
       </c>
     </row>
     <row r="371">
@@ -16118,18 +16289,18 @@
         <v>807</v>
       </c>
       <c r="D371" s="2" t="s">
-        <v>808</v>
+        <v>803</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" s="2" t="s">
+        <v>808</v>
+      </c>
+      <c r="C372" s="2" t="s">
         <v>809</v>
       </c>
-      <c r="C372" s="2" t="s">
+      <c r="D372" s="2" t="s">
         <v>810</v>
-      </c>
-      <c r="D372" s="2" t="s">
-        <v>801</v>
       </c>
     </row>
     <row r="373">
@@ -16140,7 +16311,7 @@
         <v>812</v>
       </c>
       <c r="D373" s="2" t="s">
-        <v>801</v>
+        <v>803</v>
       </c>
     </row>
     <row r="374">
@@ -16151,7 +16322,7 @@
         <v>814</v>
       </c>
       <c r="D374" s="2" t="s">
-        <v>808</v>
+        <v>803</v>
       </c>
     </row>
     <row r="375">
@@ -16162,7 +16333,7 @@
         <v>816</v>
       </c>
       <c r="D375" s="2" t="s">
-        <v>801</v>
+        <v>810</v>
       </c>
     </row>
     <row r="376">
@@ -16173,7 +16344,7 @@
         <v>818</v>
       </c>
       <c r="D376" s="2" t="s">
-        <v>801</v>
+        <v>803</v>
       </c>
     </row>
     <row r="377">
@@ -16184,7 +16355,7 @@
         <v>820</v>
       </c>
       <c r="D377" s="2" t="s">
-        <v>808</v>
+        <v>803</v>
       </c>
     </row>
     <row r="378">
@@ -16195,7 +16366,7 @@
         <v>822</v>
       </c>
       <c r="D378" s="2" t="s">
-        <v>801</v>
+        <v>810</v>
       </c>
     </row>
     <row r="379">
@@ -16205,7 +16376,9 @@
       <c r="C379" s="2" t="s">
         <v>824</v>
       </c>
-      <c r="D379" s="2"/>
+      <c r="D379" s="2" t="s">
+        <v>803</v>
+      </c>
     </row>
     <row r="380">
       <c r="A380" s="2" t="s">
@@ -16214,19 +16387,17 @@
       <c r="C380" s="2" t="s">
         <v>826</v>
       </c>
-      <c r="D380" s="2" t="s">
-        <v>827</v>
-      </c>
+      <c r="D380" s="2"/>
     </row>
     <row r="381">
       <c r="A381" s="2" t="s">
+        <v>827</v>
+      </c>
+      <c r="C381" s="2" t="s">
         <v>828</v>
       </c>
-      <c r="C381" s="2" t="s">
+      <c r="D381" s="2" t="s">
         <v>829</v>
-      </c>
-      <c r="D381" s="2" t="s">
-        <v>808</v>
       </c>
     </row>
     <row r="382">
@@ -16237,7 +16408,7 @@
         <v>831</v>
       </c>
       <c r="D382" s="2" t="s">
-        <v>801</v>
+        <v>810</v>
       </c>
     </row>
     <row r="383">
@@ -16248,7 +16419,7 @@
         <v>833</v>
       </c>
       <c r="D383" s="2" t="s">
-        <v>801</v>
+        <v>803</v>
       </c>
     </row>
     <row r="384">
@@ -16259,7 +16430,7 @@
         <v>835</v>
       </c>
       <c r="D384" s="2" t="s">
-        <v>827</v>
+        <v>803</v>
       </c>
     </row>
     <row r="385">
@@ -16270,7 +16441,7 @@
         <v>837</v>
       </c>
       <c r="D385" s="2" t="s">
-        <v>827</v>
+        <v>829</v>
       </c>
     </row>
     <row r="386">
@@ -16281,7 +16452,7 @@
         <v>839</v>
       </c>
       <c r="D386" s="2" t="s">
-        <v>827</v>
+        <v>829</v>
       </c>
     </row>
     <row r="387">
@@ -16292,18 +16463,18 @@
         <v>841</v>
       </c>
       <c r="D387" s="2" t="s">
-        <v>842</v>
+        <v>829</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" s="2" t="s">
+        <v>842</v>
+      </c>
+      <c r="C388" s="2" t="s">
         <v>843</v>
       </c>
-      <c r="C388" s="2" t="s">
+      <c r="D388" s="2" t="s">
         <v>844</v>
-      </c>
-      <c r="D388" s="2" t="s">
-        <v>842</v>
       </c>
     </row>
     <row r="389">
@@ -16314,51 +16485,51 @@
         <v>846</v>
       </c>
       <c r="D389" s="2" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" s="2" t="s">
+        <v>847</v>
+      </c>
+      <c r="C390" s="2" t="s">
         <v>848</v>
       </c>
-      <c r="C390" s="2" t="s">
+      <c r="D390" s="2" t="s">
         <v>849</v>
-      </c>
-      <c r="D390" s="2" t="s">
-        <v>850</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" s="2" t="s">
+        <v>850</v>
+      </c>
+      <c r="C391" s="2" t="s">
         <v>851</v>
       </c>
-      <c r="C391" s="2" t="s">
+      <c r="D391" s="2" t="s">
         <v>852</v>
-      </c>
-      <c r="D391" s="2" t="s">
-        <v>853</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" s="2" t="s">
+        <v>853</v>
+      </c>
+      <c r="C392" s="2" t="s">
         <v>854</v>
       </c>
-      <c r="C392" s="2" t="s">
+      <c r="D392" s="2" t="s">
         <v>855</v>
-      </c>
-      <c r="D392" s="2" t="s">
-        <v>856</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" s="2" t="s">
+        <v>856</v>
+      </c>
+      <c r="C393" s="2" t="s">
         <v>857</v>
       </c>
-      <c r="C393" s="2" t="s">
+      <c r="D393" s="2" t="s">
         <v>858</v>
-      </c>
-      <c r="D393" s="2" t="s">
-        <v>856</v>
       </c>
     </row>
     <row r="394">
@@ -16369,7 +16540,7 @@
         <v>860</v>
       </c>
       <c r="D394" s="2" t="s">
-        <v>856</v>
+        <v>858</v>
       </c>
     </row>
     <row r="395">
@@ -16380,7 +16551,7 @@
         <v>862</v>
       </c>
       <c r="D395" s="2" t="s">
-        <v>856</v>
+        <v>858</v>
       </c>
     </row>
     <row r="396">
@@ -16391,7 +16562,7 @@
         <v>864</v>
       </c>
       <c r="D396" s="2" t="s">
-        <v>856</v>
+        <v>858</v>
       </c>
     </row>
     <row r="397">
@@ -16402,7 +16573,7 @@
         <v>866</v>
       </c>
       <c r="D397" s="2" t="s">
-        <v>856</v>
+        <v>858</v>
       </c>
     </row>
     <row r="398">
@@ -16413,7 +16584,7 @@
         <v>868</v>
       </c>
       <c r="D398" s="2" t="s">
-        <v>856</v>
+        <v>858</v>
       </c>
     </row>
     <row r="399">
@@ -16424,7 +16595,7 @@
         <v>870</v>
       </c>
       <c r="D399" s="2" t="s">
-        <v>856</v>
+        <v>858</v>
       </c>
     </row>
     <row r="400">
@@ -16435,7 +16606,7 @@
         <v>872</v>
       </c>
       <c r="D400" s="2" t="s">
-        <v>856</v>
+        <v>858</v>
       </c>
     </row>
     <row r="401">
@@ -16446,7 +16617,7 @@
         <v>874</v>
       </c>
       <c r="D401" s="2" t="s">
-        <v>856</v>
+        <v>858</v>
       </c>
     </row>
     <row r="402">
@@ -16457,40 +16628,40 @@
         <v>876</v>
       </c>
       <c r="D402" s="2" t="s">
-        <v>877</v>
+        <v>858</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" s="2" t="s">
+        <v>877</v>
+      </c>
+      <c r="C403" s="2" t="s">
         <v>878</v>
       </c>
-      <c r="C403" s="2" t="s">
+      <c r="D403" s="2" t="s">
         <v>879</v>
-      </c>
-      <c r="D403" s="2" t="s">
-        <v>880</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" s="2" t="s">
+        <v>880</v>
+      </c>
+      <c r="C404" s="2" t="s">
         <v>881</v>
       </c>
-      <c r="C404" s="2" t="s">
+      <c r="D404" s="2" t="s">
         <v>882</v>
-      </c>
-      <c r="D404" s="2" t="s">
-        <v>883</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" s="2" t="s">
+        <v>883</v>
+      </c>
+      <c r="C405" s="2" t="s">
         <v>884</v>
       </c>
-      <c r="C405" s="2" t="s">
+      <c r="D405" s="2" t="s">
         <v>885</v>
-      </c>
-      <c r="D405" s="2" t="s">
-        <v>883</v>
       </c>
     </row>
     <row r="406">
@@ -16501,7 +16672,7 @@
         <v>887</v>
       </c>
       <c r="D406" s="2" t="s">
-        <v>883</v>
+        <v>885</v>
       </c>
     </row>
     <row r="407">
@@ -16512,40 +16683,40 @@
         <v>889</v>
       </c>
       <c r="D407" s="2" t="s">
-        <v>890</v>
+        <v>885</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" s="2" t="s">
+        <v>890</v>
+      </c>
+      <c r="C408" s="2" t="s">
         <v>891</v>
       </c>
-      <c r="C408" s="2" t="s">
+      <c r="D408" s="2" t="s">
         <v>892</v>
-      </c>
-      <c r="D408" s="2" t="s">
-        <v>893</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" s="2" t="s">
+        <v>893</v>
+      </c>
+      <c r="C409" s="2" t="s">
         <v>894</v>
       </c>
-      <c r="C409" s="2" t="s">
+      <c r="D409" s="2" t="s">
         <v>895</v>
-      </c>
-      <c r="D409" s="2" t="s">
-        <v>896</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" s="2" t="s">
+        <v>896</v>
+      </c>
+      <c r="C410" s="2" t="s">
         <v>897</v>
       </c>
-      <c r="C410" s="2" t="s">
+      <c r="D410" s="2" t="s">
         <v>898</v>
-      </c>
-      <c r="D410" s="2" t="s">
-        <v>896</v>
       </c>
     </row>
     <row r="411">
@@ -16556,73 +16727,73 @@
         <v>900</v>
       </c>
       <c r="D411" s="2" t="s">
-        <v>901</v>
+        <v>898</v>
       </c>
     </row>
     <row r="412">
       <c r="A412" s="2" t="s">
+        <v>901</v>
+      </c>
+      <c r="C412" s="2" t="s">
         <v>902</v>
       </c>
-      <c r="C412" s="2" t="s">
+      <c r="D412" s="2" t="s">
         <v>903</v>
-      </c>
-      <c r="D412" s="2" t="s">
-        <v>904</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" s="2" t="s">
+        <v>904</v>
+      </c>
+      <c r="C413" s="2" t="s">
         <v>905</v>
       </c>
-      <c r="C413" s="2" t="s">
+      <c r="D413" s="2" t="s">
         <v>906</v>
-      </c>
-      <c r="D413" s="2" t="s">
-        <v>907</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" s="2" t="s">
+        <v>907</v>
+      </c>
+      <c r="C414" s="2" t="s">
         <v>908</v>
       </c>
-      <c r="C414" s="2" t="s">
+      <c r="D414" s="2" t="s">
         <v>909</v>
-      </c>
-      <c r="D414" s="2" t="s">
-        <v>910</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" s="2" t="s">
+        <v>910</v>
+      </c>
+      <c r="C415" s="2" t="s">
         <v>911</v>
       </c>
-      <c r="C415" s="2" t="s">
+      <c r="D415" s="2" t="s">
         <v>912</v>
-      </c>
-      <c r="D415" s="2" t="s">
-        <v>913</v>
       </c>
     </row>
     <row r="416">
       <c r="A416" s="2" t="s">
+        <v>913</v>
+      </c>
+      <c r="C416" s="2" t="s">
         <v>914</v>
       </c>
-      <c r="C416" s="2" t="s">
+      <c r="D416" s="2" t="s">
         <v>915</v>
-      </c>
-      <c r="D416" s="2" t="s">
-        <v>916</v>
       </c>
     </row>
     <row r="417">
       <c r="A417" s="2" t="s">
+        <v>916</v>
+      </c>
+      <c r="C417" s="2" t="s">
         <v>917</v>
       </c>
-      <c r="C417" s="2" t="s">
+      <c r="D417" s="2" t="s">
         <v>918</v>
-      </c>
-      <c r="D417" s="2" t="s">
-        <v>916</v>
       </c>
     </row>
     <row r="418">
@@ -16633,7 +16804,7 @@
         <v>920</v>
       </c>
       <c r="D418" s="2" t="s">
-        <v>913</v>
+        <v>918</v>
       </c>
     </row>
     <row r="419">
@@ -16644,7 +16815,7 @@
         <v>922</v>
       </c>
       <c r="D419" s="2" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
     </row>
     <row r="420">
@@ -16655,18 +16826,18 @@
         <v>924</v>
       </c>
       <c r="D420" s="2" t="s">
-        <v>925</v>
+        <v>918</v>
       </c>
     </row>
     <row r="421">
       <c r="A421" s="2" t="s">
+        <v>925</v>
+      </c>
+      <c r="C421" s="2" t="s">
         <v>926</v>
       </c>
-      <c r="C421" s="2" t="s">
+      <c r="D421" s="2" t="s">
         <v>927</v>
-      </c>
-      <c r="D421" s="2" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="422">
@@ -16677,62 +16848,62 @@
         <v>929</v>
       </c>
       <c r="D422" s="2" t="s">
-        <v>930</v>
+        <v>171</v>
       </c>
     </row>
     <row r="423">
       <c r="A423" s="2" t="s">
+        <v>930</v>
+      </c>
+      <c r="C423" s="2" t="s">
         <v>931</v>
       </c>
-      <c r="C423" s="2" t="s">
+      <c r="D423" s="2" t="s">
         <v>932</v>
-      </c>
-      <c r="D423" s="2" t="s">
-        <v>933</v>
       </c>
     </row>
     <row r="424">
       <c r="A424" s="2" t="s">
+        <v>933</v>
+      </c>
+      <c r="C424" s="2" t="s">
         <v>934</v>
       </c>
-      <c r="C424" s="2" t="s">
+      <c r="D424" s="2" t="s">
         <v>935</v>
-      </c>
-      <c r="D424" s="2" t="s">
-        <v>936</v>
       </c>
     </row>
     <row r="425">
       <c r="A425" s="2" t="s">
+        <v>936</v>
+      </c>
+      <c r="C425" s="2" t="s">
         <v>937</v>
       </c>
-      <c r="C425" s="2" t="s">
+      <c r="D425" s="2" t="s">
         <v>938</v>
-      </c>
-      <c r="D425" s="2" t="s">
-        <v>939</v>
       </c>
     </row>
     <row r="426">
       <c r="A426" s="2" t="s">
+        <v>939</v>
+      </c>
+      <c r="C426" s="2" t="s">
         <v>940</v>
       </c>
-      <c r="C426" s="2" t="s">
+      <c r="D426" s="2" t="s">
         <v>941</v>
-      </c>
-      <c r="D426" s="2" t="s">
-        <v>942</v>
       </c>
     </row>
     <row r="427">
       <c r="A427" s="2" t="s">
+        <v>942</v>
+      </c>
+      <c r="C427" s="2" t="s">
         <v>943</v>
       </c>
-      <c r="C427" s="2" t="s">
+      <c r="D427" s="2" t="s">
         <v>944</v>
-      </c>
-      <c r="D427" s="2" t="s">
-        <v>942</v>
       </c>
     </row>
     <row r="428">
@@ -16743,425 +16914,425 @@
         <v>946</v>
       </c>
       <c r="D428" s="2" t="s">
-        <v>947</v>
+        <v>944</v>
       </c>
     </row>
     <row r="429">
       <c r="A429" s="2" t="s">
+        <v>947</v>
+      </c>
+      <c r="C429" s="2" t="s">
         <v>948</v>
       </c>
-      <c r="C429" s="2" t="s">
+      <c r="D429" s="2" t="s">
         <v>949</v>
-      </c>
-      <c r="D429" s="2" t="s">
-        <v>950</v>
       </c>
     </row>
     <row r="430">
       <c r="A430" s="2" t="s">
+        <v>950</v>
+      </c>
+      <c r="C430" s="2" t="s">
         <v>951</v>
       </c>
-      <c r="C430" s="2" t="s">
+      <c r="D430" s="2" t="s">
         <v>952</v>
-      </c>
-      <c r="D430" s="2" t="s">
-        <v>953</v>
       </c>
     </row>
     <row r="431">
       <c r="A431" s="2" t="s">
+        <v>953</v>
+      </c>
+      <c r="C431" s="2" t="s">
         <v>954</v>
       </c>
-      <c r="C431" s="2" t="s">
+      <c r="D431" s="2" t="s">
         <v>955</v>
-      </c>
-      <c r="D431" s="2" t="s">
-        <v>956</v>
       </c>
     </row>
     <row r="432">
       <c r="A432" s="2" t="s">
+        <v>956</v>
+      </c>
+      <c r="C432" s="2" t="s">
         <v>957</v>
       </c>
-      <c r="C432" s="2" t="s">
+      <c r="D432" s="2" t="s">
         <v>958</v>
-      </c>
-      <c r="D432" s="2" t="s">
-        <v>959</v>
       </c>
     </row>
     <row r="433">
       <c r="A433" s="2" t="s">
+        <v>959</v>
+      </c>
+      <c r="C433" s="2" t="s">
         <v>960</v>
       </c>
-      <c r="C433" s="2" t="s">
+      <c r="D433" s="2" t="s">
         <v>961</v>
-      </c>
-      <c r="D433" s="2" t="s">
-        <v>962</v>
       </c>
     </row>
     <row r="434">
       <c r="A434" s="2" t="s">
+        <v>962</v>
+      </c>
+      <c r="C434" s="2" t="s">
         <v>963</v>
       </c>
-      <c r="C434" s="2" t="s">
+      <c r="D434" s="2" t="s">
         <v>964</v>
-      </c>
-      <c r="D434" s="2" t="s">
-        <v>965</v>
       </c>
     </row>
     <row r="435">
       <c r="A435" s="2" t="s">
+        <v>965</v>
+      </c>
+      <c r="C435" s="2" t="s">
         <v>966</v>
       </c>
-      <c r="C435" s="2" t="s">
+      <c r="D435" s="2" t="s">
         <v>967</v>
-      </c>
-      <c r="D435" s="2" t="s">
-        <v>968</v>
       </c>
     </row>
     <row r="436">
       <c r="A436" s="2" t="s">
+        <v>968</v>
+      </c>
+      <c r="C436" s="2" t="s">
         <v>969</v>
       </c>
-      <c r="C436" s="2" t="s">
+      <c r="D436" s="2" t="s">
         <v>970</v>
-      </c>
-      <c r="D436" s="2" t="s">
-        <v>971</v>
       </c>
     </row>
     <row r="437">
       <c r="A437" s="2" t="s">
+        <v>971</v>
+      </c>
+      <c r="C437" s="2" t="s">
         <v>972</v>
       </c>
-      <c r="C437" s="2" t="s">
+      <c r="D437" s="2" t="s">
         <v>973</v>
-      </c>
-      <c r="D437" s="2" t="s">
-        <v>974</v>
       </c>
     </row>
     <row r="438">
       <c r="A438" s="2" t="s">
+        <v>974</v>
+      </c>
+      <c r="C438" s="2" t="s">
         <v>975</v>
       </c>
-      <c r="C438" s="2" t="s">
+      <c r="D438" s="2" t="s">
         <v>976</v>
-      </c>
-      <c r="D438" s="2" t="s">
-        <v>977</v>
       </c>
     </row>
     <row r="439">
       <c r="A439" s="2" t="s">
+        <v>977</v>
+      </c>
+      <c r="C439" s="2" t="s">
         <v>978</v>
       </c>
-      <c r="C439" s="2" t="s">
+      <c r="D439" s="2" t="s">
         <v>979</v>
-      </c>
-      <c r="D439" s="2" t="s">
-        <v>980</v>
       </c>
     </row>
     <row r="440">
       <c r="A440" s="2" t="s">
+        <v>980</v>
+      </c>
+      <c r="C440" s="2" t="s">
         <v>981</v>
       </c>
-      <c r="C440" s="2" t="s">
+      <c r="D440" s="2" t="s">
         <v>982</v>
-      </c>
-      <c r="D440" s="2" t="s">
-        <v>983</v>
       </c>
     </row>
     <row r="441">
       <c r="A441" s="2" t="s">
+        <v>983</v>
+      </c>
+      <c r="C441" s="2" t="s">
         <v>984</v>
       </c>
-      <c r="C441" s="2" t="s">
+      <c r="D441" s="2" t="s">
         <v>985</v>
-      </c>
-      <c r="D441" s="2" t="s">
-        <v>986</v>
       </c>
     </row>
     <row r="442">
       <c r="A442" s="2" t="s">
+        <v>986</v>
+      </c>
+      <c r="C442" s="2" t="s">
         <v>987</v>
       </c>
-      <c r="C442" s="2" t="s">
+      <c r="D442" s="2" t="s">
         <v>988</v>
-      </c>
-      <c r="D442" s="2" t="s">
-        <v>989</v>
       </c>
     </row>
     <row r="443">
       <c r="A443" s="2" t="s">
+        <v>989</v>
+      </c>
+      <c r="C443" s="2" t="s">
         <v>990</v>
       </c>
-      <c r="C443" s="2" t="s">
+      <c r="D443" s="2" t="s">
         <v>991</v>
-      </c>
-      <c r="D443" s="2" t="s">
-        <v>992</v>
       </c>
     </row>
     <row r="444">
       <c r="A444" s="2" t="s">
+        <v>992</v>
+      </c>
+      <c r="C444" s="2" t="s">
         <v>993</v>
       </c>
-      <c r="C444" s="2" t="s">
+      <c r="D444" s="2" t="s">
         <v>994</v>
-      </c>
-      <c r="D444" s="2" t="s">
-        <v>995</v>
       </c>
     </row>
     <row r="445">
       <c r="A445" s="2" t="s">
+        <v>995</v>
+      </c>
+      <c r="C445" s="2" t="s">
         <v>996</v>
       </c>
-      <c r="C445" s="2" t="s">
+      <c r="D445" s="2" t="s">
         <v>997</v>
-      </c>
-      <c r="D445" s="2" t="s">
-        <v>998</v>
       </c>
     </row>
     <row r="446">
       <c r="A446" s="2" t="s">
+        <v>998</v>
+      </c>
+      <c r="C446" s="2" t="s">
         <v>999</v>
       </c>
-      <c r="C446" s="2" t="s">
+      <c r="D446" s="2" t="s">
         <v>1000</v>
-      </c>
-      <c r="D446" s="2" t="s">
-        <v>1001</v>
       </c>
     </row>
     <row r="447">
       <c r="A447" s="2" t="s">
+        <v>1001</v>
+      </c>
+      <c r="C447" s="2" t="s">
         <v>1002</v>
       </c>
-      <c r="C447" s="2" t="s">
+      <c r="D447" s="2" t="s">
         <v>1003</v>
-      </c>
-      <c r="D447" s="2" t="s">
-        <v>1004</v>
       </c>
     </row>
     <row r="448">
       <c r="A448" s="2" t="s">
+        <v>1004</v>
+      </c>
+      <c r="C448" s="2" t="s">
         <v>1005</v>
       </c>
-      <c r="C448" s="2" t="s">
+      <c r="D448" s="2" t="s">
         <v>1006</v>
-      </c>
-      <c r="D448" s="2" t="s">
-        <v>1007</v>
       </c>
     </row>
     <row r="449">
       <c r="A449" s="2" t="s">
+        <v>1007</v>
+      </c>
+      <c r="C449" s="2" t="s">
         <v>1008</v>
       </c>
-      <c r="C449" s="2" t="s">
+      <c r="D449" s="2" t="s">
         <v>1009</v>
-      </c>
-      <c r="D449" s="2" t="s">
-        <v>1010</v>
       </c>
     </row>
     <row r="450">
       <c r="A450" s="2" t="s">
+        <v>1010</v>
+      </c>
+      <c r="C450" s="2" t="s">
         <v>1011</v>
       </c>
-      <c r="C450" s="2" t="s">
+      <c r="D450" s="2" t="s">
         <v>1012</v>
-      </c>
-      <c r="D450" s="2" t="s">
-        <v>1013</v>
       </c>
     </row>
     <row r="451">
       <c r="A451" s="2" t="s">
+        <v>1013</v>
+      </c>
+      <c r="C451" s="2" t="s">
         <v>1014</v>
       </c>
-      <c r="C451" s="2" t="s">
+      <c r="D451" s="2" t="s">
         <v>1015</v>
-      </c>
-      <c r="D451" s="2" t="s">
-        <v>1016</v>
       </c>
     </row>
     <row r="452">
       <c r="A452" s="2" t="s">
+        <v>1016</v>
+      </c>
+      <c r="C452" s="2" t="s">
         <v>1017</v>
       </c>
-      <c r="C452" s="2" t="s">
+      <c r="D452" s="2" t="s">
         <v>1018</v>
-      </c>
-      <c r="D452" s="2" t="s">
-        <v>1019</v>
       </c>
     </row>
     <row r="453">
       <c r="A453" s="2" t="s">
+        <v>1019</v>
+      </c>
+      <c r="C453" s="2" t="s">
         <v>1020</v>
       </c>
-      <c r="C453" s="2" t="s">
+      <c r="D453" s="2" t="s">
         <v>1021</v>
-      </c>
-      <c r="D453" s="2" t="s">
-        <v>1022</v>
       </c>
     </row>
     <row r="454">
       <c r="A454" s="2" t="s">
+        <v>1022</v>
+      </c>
+      <c r="C454" s="2" t="s">
         <v>1023</v>
       </c>
-      <c r="C454" s="2" t="s">
+      <c r="D454" s="2" t="s">
         <v>1024</v>
-      </c>
-      <c r="D454" s="2" t="s">
-        <v>1025</v>
       </c>
     </row>
     <row r="455">
       <c r="A455" s="2" t="s">
+        <v>1025</v>
+      </c>
+      <c r="C455" s="2" t="s">
         <v>1026</v>
       </c>
-      <c r="C455" s="2" t="s">
+      <c r="D455" s="2" t="s">
         <v>1027</v>
-      </c>
-      <c r="D455" s="2" t="s">
-        <v>1028</v>
       </c>
     </row>
     <row r="456">
       <c r="A456" s="2" t="s">
+        <v>1028</v>
+      </c>
+      <c r="C456" s="2" t="s">
         <v>1029</v>
       </c>
-      <c r="C456" s="2" t="s">
+      <c r="D456" s="2" t="s">
         <v>1030</v>
-      </c>
-      <c r="D456" s="2" t="s">
-        <v>1031</v>
       </c>
     </row>
     <row r="457">
       <c r="A457" s="2" t="s">
+        <v>1031</v>
+      </c>
+      <c r="C457" s="2" t="s">
         <v>1032</v>
       </c>
-      <c r="C457" s="2" t="s">
+      <c r="D457" s="2" t="s">
         <v>1033</v>
-      </c>
-      <c r="D457" s="2" t="s">
-        <v>1034</v>
       </c>
     </row>
     <row r="458">
       <c r="A458" s="2" t="s">
+        <v>1034</v>
+      </c>
+      <c r="C458" s="2" t="s">
         <v>1035</v>
       </c>
-      <c r="C458" s="2" t="s">
+      <c r="D458" s="2" t="s">
         <v>1036</v>
-      </c>
-      <c r="D458" s="2" t="s">
-        <v>1037</v>
       </c>
     </row>
     <row r="459">
       <c r="A459" s="2" t="s">
+        <v>1037</v>
+      </c>
+      <c r="C459" s="2" t="s">
         <v>1038</v>
       </c>
-      <c r="C459" s="2" t="s">
+      <c r="D459" s="2" t="s">
         <v>1039</v>
-      </c>
-      <c r="D459" s="2" t="s">
-        <v>1040</v>
       </c>
     </row>
     <row r="460">
       <c r="A460" s="2" t="s">
+        <v>1040</v>
+      </c>
+      <c r="C460" s="2" t="s">
         <v>1041</v>
       </c>
-      <c r="C460" s="2" t="s">
+      <c r="D460" s="2" t="s">
         <v>1042</v>
-      </c>
-      <c r="D460" s="2" t="s">
-        <v>1043</v>
       </c>
     </row>
     <row r="461">
       <c r="A461" s="2" t="s">
+        <v>1043</v>
+      </c>
+      <c r="C461" s="2" t="s">
         <v>1044</v>
       </c>
-      <c r="C461" s="2" t="s">
+      <c r="D461" s="2" t="s">
         <v>1045</v>
-      </c>
-      <c r="D461" s="2" t="s">
-        <v>1046</v>
       </c>
     </row>
     <row r="462">
       <c r="A462" s="2" t="s">
+        <v>1046</v>
+      </c>
+      <c r="C462" s="2" t="s">
         <v>1047</v>
       </c>
-      <c r="C462" s="2" t="s">
+      <c r="D462" s="2" t="s">
         <v>1048</v>
-      </c>
-      <c r="D462" s="2" t="s">
-        <v>1049</v>
       </c>
     </row>
     <row r="463">
       <c r="A463" s="2" t="s">
+        <v>1049</v>
+      </c>
+      <c r="C463" s="2" t="s">
         <v>1050</v>
       </c>
-      <c r="C463" s="2" t="s">
+      <c r="D463" s="2" t="s">
         <v>1051</v>
-      </c>
-      <c r="D463" s="2" t="s">
-        <v>1052</v>
       </c>
     </row>
     <row r="464">
       <c r="A464" s="2" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C464" s="2" t="s">
         <v>1053</v>
       </c>
-      <c r="C464" s="2" t="s">
+      <c r="D464" s="2" t="s">
         <v>1054</v>
-      </c>
-      <c r="D464" s="2" t="s">
-        <v>1055</v>
       </c>
     </row>
     <row r="465">
       <c r="A465" s="2" t="s">
+        <v>1055</v>
+      </c>
+      <c r="C465" s="2" t="s">
         <v>1056</v>
       </c>
-      <c r="C465" s="2" t="s">
+      <c r="D465" s="2" t="s">
         <v>1057</v>
-      </c>
-      <c r="D465" s="2" t="s">
-        <v>1058</v>
       </c>
     </row>
     <row r="466">
       <c r="A466" s="2" t="s">
+        <v>1058</v>
+      </c>
+      <c r="C466" s="2" t="s">
         <v>1059</v>
       </c>
-      <c r="C466" s="2" t="s">
+      <c r="D466" s="2" t="s">
         <v>1060</v>
-      </c>
-      <c r="D466" s="2" t="s">
-        <v>1058</v>
       </c>
     </row>
     <row r="467">
@@ -17172,73 +17343,73 @@
         <v>1062</v>
       </c>
       <c r="D467" s="2" t="s">
-        <v>1063</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="468">
       <c r="A468" s="2" t="s">
+        <v>1063</v>
+      </c>
+      <c r="C468" s="2" t="s">
         <v>1064</v>
       </c>
-      <c r="C468" s="7" t="s">
+      <c r="D468" s="2" t="s">
         <v>1065</v>
-      </c>
-      <c r="D468" s="2" t="s">
-        <v>1066</v>
       </c>
     </row>
     <row r="469">
       <c r="A469" s="2" t="s">
+        <v>1066</v>
+      </c>
+      <c r="C469" s="7" t="s">
         <v>1067</v>
       </c>
-      <c r="C469" s="7" t="s">
+      <c r="D469" s="2" t="s">
         <v>1068</v>
-      </c>
-      <c r="D469" s="2" t="s">
-        <v>1069</v>
       </c>
     </row>
     <row r="470">
       <c r="A470" s="2" t="s">
+        <v>1069</v>
+      </c>
+      <c r="C470" s="7" t="s">
         <v>1070</v>
       </c>
-      <c r="C470" s="7" t="s">
+      <c r="D470" s="2" t="s">
         <v>1071</v>
-      </c>
-      <c r="D470" s="2" t="s">
-        <v>1072</v>
       </c>
     </row>
     <row r="471">
       <c r="A471" s="2" t="s">
+        <v>1072</v>
+      </c>
+      <c r="C471" s="7" t="s">
         <v>1073</v>
       </c>
-      <c r="C471" s="7" t="s">
+      <c r="D471" s="2" t="s">
         <v>1074</v>
-      </c>
-      <c r="D471" s="2" t="s">
-        <v>1075</v>
       </c>
     </row>
     <row r="472">
       <c r="A472" s="2" t="s">
+        <v>1075</v>
+      </c>
+      <c r="C472" s="7" t="s">
         <v>1076</v>
       </c>
-      <c r="C472" s="7" t="s">
+      <c r="D472" s="2" t="s">
         <v>1077</v>
-      </c>
-      <c r="D472" s="2" t="s">
-        <v>1078</v>
       </c>
     </row>
     <row r="473">
       <c r="A473" s="2" t="s">
+        <v>1078</v>
+      </c>
+      <c r="C473" s="7" t="s">
         <v>1079</v>
       </c>
-      <c r="C473" s="7" t="s">
+      <c r="D473" s="2" t="s">
         <v>1080</v>
-      </c>
-      <c r="D473" s="2" t="s">
-        <v>1078</v>
       </c>
     </row>
     <row r="474">
@@ -17249,18 +17420,18 @@
         <v>1082</v>
       </c>
       <c r="D474" s="2" t="s">
-        <v>1083</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="475">
       <c r="A475" s="2" t="s">
+        <v>1083</v>
+      </c>
+      <c r="C475" s="7" t="s">
         <v>1084</v>
       </c>
-      <c r="C475" s="7" t="s">
+      <c r="D475" s="2" t="s">
         <v>1085</v>
-      </c>
-      <c r="D475" s="2" t="s">
-        <v>1078</v>
       </c>
     </row>
     <row r="476">
@@ -17271,7 +17442,7 @@
         <v>1087</v>
       </c>
       <c r="D476" s="2" t="s">
-        <v>1078</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="477">
@@ -17282,29 +17453,29 @@
         <v>1089</v>
       </c>
       <c r="D477" s="2" t="s">
-        <v>1090</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="478">
       <c r="A478" s="2" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C478" s="7" t="s">
         <v>1091</v>
       </c>
-      <c r="C478" s="7" t="s">
+      <c r="D478" s="2" t="s">
         <v>1092</v>
-      </c>
-      <c r="D478" s="2" t="s">
-        <v>1093</v>
       </c>
     </row>
     <row r="479">
       <c r="A479" s="2" t="s">
+        <v>1093</v>
+      </c>
+      <c r="C479" s="7" t="s">
         <v>1094</v>
       </c>
-      <c r="C479" s="7" t="s">
+      <c r="D479" s="2" t="s">
         <v>1095</v>
-      </c>
-      <c r="D479" s="2" t="s">
-        <v>1090</v>
       </c>
     </row>
     <row r="480">
@@ -17315,7 +17486,7 @@
         <v>1097</v>
       </c>
       <c r="D480" s="2" t="s">
-        <v>1090</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="481">
@@ -17326,7 +17497,7 @@
         <v>1099</v>
       </c>
       <c r="D481" s="2" t="s">
-        <v>1090</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="482">
@@ -17337,7 +17508,7 @@
         <v>1101</v>
       </c>
       <c r="D482" s="2" t="s">
-        <v>1090</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="483">
@@ -17348,7 +17519,7 @@
         <v>1103</v>
       </c>
       <c r="D483" s="2" t="s">
-        <v>1090</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="484">
@@ -17359,7 +17530,7 @@
         <v>1105</v>
       </c>
       <c r="D484" s="2" t="s">
-        <v>1090</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="485">
@@ -17370,7 +17541,7 @@
         <v>1107</v>
       </c>
       <c r="D485" s="2" t="s">
-        <v>1090</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="486">
@@ -17381,7 +17552,7 @@
         <v>1109</v>
       </c>
       <c r="D486" s="2" t="s">
-        <v>1090</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="487">
@@ -17392,7 +17563,7 @@
         <v>1111</v>
       </c>
       <c r="D487" s="2" t="s">
-        <v>1090</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="488">
@@ -17403,7 +17574,7 @@
         <v>1113</v>
       </c>
       <c r="D488" s="2" t="s">
-        <v>1090</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="489">
@@ -17414,7 +17585,7 @@
         <v>1115</v>
       </c>
       <c r="D489" s="2" t="s">
-        <v>1090</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="490">
@@ -17425,7 +17596,7 @@
         <v>1117</v>
       </c>
       <c r="D490" s="2" t="s">
-        <v>1090</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="491">
@@ -17436,7 +17607,7 @@
         <v>1119</v>
       </c>
       <c r="D491" s="2" t="s">
-        <v>1090</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="492">
@@ -17447,18 +17618,18 @@
         <v>1121</v>
       </c>
       <c r="D492" s="2" t="s">
-        <v>1122</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="493">
       <c r="A493" s="2" t="s">
+        <v>1122</v>
+      </c>
+      <c r="C493" s="7" t="s">
         <v>1123</v>
       </c>
-      <c r="C493" s="7" t="s">
+      <c r="D493" s="2" t="s">
         <v>1124</v>
-      </c>
-      <c r="D493" s="2" t="s">
-        <v>1122</v>
       </c>
     </row>
     <row r="494">
@@ -17469,18 +17640,18 @@
         <v>1126</v>
       </c>
       <c r="D494" s="2" t="s">
-        <v>1127</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="495">
       <c r="A495" s="2" t="s">
+        <v>1127</v>
+      </c>
+      <c r="C495" s="7" t="s">
         <v>1128</v>
       </c>
-      <c r="C495" s="7" t="s">
+      <c r="D495" s="2" t="s">
         <v>1129</v>
-      </c>
-      <c r="D495" s="2" t="s">
-        <v>1127</v>
       </c>
     </row>
     <row r="496">
@@ -17491,18 +17662,18 @@
         <v>1131</v>
       </c>
       <c r="D496" s="2" t="s">
-        <v>1132</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="497">
       <c r="A497" s="2" t="s">
+        <v>1132</v>
+      </c>
+      <c r="C497" s="7" t="s">
         <v>1133</v>
       </c>
-      <c r="C497" s="7" t="s">
+      <c r="D497" s="2" t="s">
         <v>1134</v>
-      </c>
-      <c r="D497" s="2" t="s">
-        <v>1127</v>
       </c>
     </row>
     <row r="498">
@@ -17513,7 +17684,7 @@
         <v>1136</v>
       </c>
       <c r="D498" s="2" t="s">
-        <v>1132</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="499">
@@ -17524,7 +17695,7 @@
         <v>1138</v>
       </c>
       <c r="D499" s="2" t="s">
-        <v>1132</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="500">
@@ -17535,7 +17706,7 @@
         <v>1140</v>
       </c>
       <c r="D500" s="2" t="s">
-        <v>1127</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="501">
@@ -17546,7 +17717,7 @@
         <v>1142</v>
       </c>
       <c r="D501" s="2" t="s">
-        <v>1127</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="502">
@@ -17557,7 +17728,7 @@
         <v>1144</v>
       </c>
       <c r="D502" s="2" t="s">
-        <v>1127</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="503">
@@ -17568,7 +17739,7 @@
         <v>1146</v>
       </c>
       <c r="D503" s="2" t="s">
-        <v>1132</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="504">
@@ -17579,7 +17750,7 @@
         <v>1148</v>
       </c>
       <c r="D504" s="2" t="s">
-        <v>1127</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="505">
@@ -17590,29 +17761,29 @@
         <v>1150</v>
       </c>
       <c r="D505" s="2" t="s">
-        <v>1151</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="506">
       <c r="A506" s="2" t="s">
+        <v>1151</v>
+      </c>
+      <c r="C506" s="7" t="s">
         <v>1152</v>
       </c>
-      <c r="C506" s="7" t="s">
+      <c r="D506" s="2" t="s">
         <v>1153</v>
-      </c>
-      <c r="D506" s="2" t="s">
-        <v>1154</v>
       </c>
     </row>
     <row r="507">
       <c r="A507" s="2" t="s">
+        <v>1154</v>
+      </c>
+      <c r="C507" s="7" t="s">
         <v>1155</v>
       </c>
-      <c r="C507" s="7" t="s">
+      <c r="D507" s="2" t="s">
         <v>1156</v>
-      </c>
-      <c r="D507" s="2" t="s">
-        <v>1154</v>
       </c>
     </row>
     <row r="508">
@@ -17623,29 +17794,29 @@
         <v>1158</v>
       </c>
       <c r="D508" s="2" t="s">
-        <v>1159</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="509">
       <c r="A509" s="2" t="s">
+        <v>1159</v>
+      </c>
+      <c r="C509" s="7" t="s">
         <v>1160</v>
       </c>
-      <c r="C509" s="7" t="s">
+      <c r="D509" s="2" t="s">
         <v>1161</v>
-      </c>
-      <c r="D509" s="2" t="s">
-        <v>1162</v>
       </c>
     </row>
     <row r="510">
       <c r="A510" s="2" t="s">
+        <v>1162</v>
+      </c>
+      <c r="C510" s="7" t="s">
         <v>1163</v>
       </c>
-      <c r="C510" s="7" t="s">
+      <c r="D510" s="2" t="s">
         <v>1164</v>
-      </c>
-      <c r="D510" s="2" t="s">
-        <v>1159</v>
       </c>
     </row>
     <row r="511">
@@ -17656,18 +17827,18 @@
         <v>1166</v>
       </c>
       <c r="D511" s="2" t="s">
-        <v>1167</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="512">
       <c r="A512" s="2" t="s">
+        <v>1167</v>
+      </c>
+      <c r="C512" s="7" t="s">
         <v>1168</v>
       </c>
-      <c r="C512" s="7" t="s">
+      <c r="D512" s="2" t="s">
         <v>1169</v>
-      </c>
-      <c r="D512" s="2" t="s">
-        <v>1167</v>
       </c>
     </row>
     <row r="513">
@@ -17678,29 +17849,29 @@
         <v>1171</v>
       </c>
       <c r="D513" s="2" t="s">
-        <v>1172</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="514">
       <c r="A514" s="2" t="s">
+        <v>1172</v>
+      </c>
+      <c r="C514" s="7" t="s">
         <v>1173</v>
       </c>
-      <c r="C514" s="7" t="s">
+      <c r="D514" s="2" t="s">
         <v>1174</v>
-      </c>
-      <c r="D514" s="2" t="s">
-        <v>1175</v>
       </c>
     </row>
     <row r="515">
       <c r="A515" s="2" t="s">
+        <v>1175</v>
+      </c>
+      <c r="C515" s="7" t="s">
         <v>1176</v>
       </c>
-      <c r="C515" s="7" t="s">
+      <c r="D515" s="2" t="s">
         <v>1177</v>
-      </c>
-      <c r="D515" s="2" t="s">
-        <v>1175</v>
       </c>
     </row>
     <row r="516">
@@ -17711,18 +17882,18 @@
         <v>1179</v>
       </c>
       <c r="D516" s="2" t="s">
-        <v>1180</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="517">
       <c r="A517" s="2" t="s">
+        <v>1180</v>
+      </c>
+      <c r="C517" s="7" t="s">
         <v>1181</v>
       </c>
-      <c r="C517" s="7" t="s">
+      <c r="D517" s="2" t="s">
         <v>1182</v>
-      </c>
-      <c r="D517" s="2" t="s">
-        <v>1180</v>
       </c>
     </row>
     <row r="518">
@@ -17733,7 +17904,7 @@
         <v>1184</v>
       </c>
       <c r="D518" s="2" t="s">
-        <v>1180</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="519">
@@ -17744,7 +17915,7 @@
         <v>1186</v>
       </c>
       <c r="D519" s="2" t="s">
-        <v>1180</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="520">
@@ -17755,7 +17926,7 @@
         <v>1188</v>
       </c>
       <c r="D520" s="2" t="s">
-        <v>1180</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="521">
@@ -17766,7 +17937,7 @@
         <v>1190</v>
       </c>
       <c r="D521" s="2" t="s">
-        <v>1180</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="522">
@@ -17777,7 +17948,7 @@
         <v>1192</v>
       </c>
       <c r="D522" s="2" t="s">
-        <v>1180</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="523">
@@ -17788,29 +17959,29 @@
         <v>1194</v>
       </c>
       <c r="D523" s="2" t="s">
-        <v>1195</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="524">
       <c r="A524" s="2" t="s">
+        <v>1195</v>
+      </c>
+      <c r="C524" s="7" t="s">
         <v>1196</v>
       </c>
-      <c r="C524" s="7" t="s">
+      <c r="D524" s="2" t="s">
         <v>1197</v>
-      </c>
-      <c r="D524" s="2" t="s">
-        <v>1198</v>
       </c>
     </row>
     <row r="525">
       <c r="A525" s="2" t="s">
+        <v>1198</v>
+      </c>
+      <c r="C525" s="7" t="s">
         <v>1199</v>
       </c>
-      <c r="C525" s="7" t="s">
+      <c r="D525" s="2" t="s">
         <v>1200</v>
-      </c>
-      <c r="D525" s="2" t="s">
-        <v>1198</v>
       </c>
     </row>
     <row r="526">
@@ -17821,18 +17992,18 @@
         <v>1202</v>
       </c>
       <c r="D526" s="2" t="s">
-        <v>1203</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="527">
       <c r="A527" s="2" t="s">
+        <v>1203</v>
+      </c>
+      <c r="C527" s="7" t="s">
         <v>1204</v>
       </c>
-      <c r="C527" s="7" t="s">
+      <c r="D527" s="2" t="s">
         <v>1205</v>
-      </c>
-      <c r="D527" s="2" t="s">
-        <v>1203</v>
       </c>
     </row>
     <row r="528">
@@ -17843,29 +18014,29 @@
         <v>1207</v>
       </c>
       <c r="D528" s="2" t="s">
-        <v>1208</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="529">
       <c r="A529" s="2" t="s">
+        <v>1208</v>
+      </c>
+      <c r="C529" s="7" t="s">
         <v>1209</v>
       </c>
-      <c r="C529" s="7" t="s">
+      <c r="D529" s="2" t="s">
         <v>1210</v>
-      </c>
-      <c r="D529" s="2" t="s">
-        <v>1211</v>
       </c>
     </row>
     <row r="530">
       <c r="A530" s="2" t="s">
+        <v>1211</v>
+      </c>
+      <c r="C530" s="7" t="s">
         <v>1212</v>
       </c>
-      <c r="C530" s="7" t="s">
+      <c r="D530" s="2" t="s">
         <v>1213</v>
-      </c>
-      <c r="D530" s="2" t="s">
-        <v>1211</v>
       </c>
     </row>
     <row r="531">
@@ -17876,7 +18047,7 @@
         <v>1215</v>
       </c>
       <c r="D531" s="2" t="s">
-        <v>1211</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="532">
@@ -17887,7 +18058,7 @@
         <v>1217</v>
       </c>
       <c r="D532" s="2" t="s">
-        <v>1211</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="533">
@@ -17898,7 +18069,7 @@
         <v>1219</v>
       </c>
       <c r="D533" s="2" t="s">
-        <v>1211</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="534">
@@ -17909,7 +18080,7 @@
         <v>1221</v>
       </c>
       <c r="D534" s="2" t="s">
-        <v>1211</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="535">
@@ -17920,7 +18091,7 @@
         <v>1223</v>
       </c>
       <c r="D535" s="2" t="s">
-        <v>1208</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="536">
@@ -17931,7 +18102,7 @@
         <v>1225</v>
       </c>
       <c r="D536" s="2" t="s">
-        <v>1208</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="537">
@@ -17942,7 +18113,7 @@
         <v>1227</v>
       </c>
       <c r="D537" s="2" t="s">
-        <v>1208</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="538">
@@ -17953,7 +18124,7 @@
         <v>1229</v>
       </c>
       <c r="D538" s="2" t="s">
-        <v>1208</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="539">
@@ -17964,7 +18135,7 @@
         <v>1231</v>
       </c>
       <c r="D539" s="2" t="s">
-        <v>1208</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="540">
@@ -17975,7 +18146,7 @@
         <v>1233</v>
       </c>
       <c r="D540" s="2" t="s">
-        <v>1208</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="541">
@@ -17986,73 +18157,73 @@
         <v>1235</v>
       </c>
       <c r="D541" s="2" t="s">
-        <v>1236</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="542">
       <c r="A542" s="2" t="s">
+        <v>1236</v>
+      </c>
+      <c r="C542" s="7" t="s">
         <v>1237</v>
       </c>
-      <c r="C542" s="7" t="s">
+      <c r="D542" s="2" t="s">
         <v>1238</v>
-      </c>
-      <c r="D542" s="2" t="s">
-        <v>1239</v>
       </c>
     </row>
     <row r="543">
       <c r="A543" s="2" t="s">
+        <v>1239</v>
+      </c>
+      <c r="C543" s="7" t="s">
         <v>1240</v>
       </c>
-      <c r="C543" s="7" t="s">
+      <c r="D543" s="2" t="s">
         <v>1241</v>
-      </c>
-      <c r="D543" s="2" t="s">
-        <v>1242</v>
       </c>
     </row>
     <row r="544">
       <c r="A544" s="2" t="s">
+        <v>1242</v>
+      </c>
+      <c r="C544" s="7" t="s">
         <v>1243</v>
       </c>
-      <c r="C544" s="7" t="s">
+      <c r="D544" s="2" t="s">
         <v>1244</v>
-      </c>
-      <c r="D544" s="2" t="s">
-        <v>1245</v>
       </c>
     </row>
     <row r="545">
       <c r="A545" s="2" t="s">
+        <v>1245</v>
+      </c>
+      <c r="C545" s="7" t="s">
         <v>1246</v>
       </c>
-      <c r="C545" s="7" t="s">
+      <c r="D545" s="2" t="s">
         <v>1247</v>
-      </c>
-      <c r="D545" s="2" t="s">
-        <v>1248</v>
       </c>
     </row>
     <row r="546">
       <c r="A546" s="2" t="s">
+        <v>1248</v>
+      </c>
+      <c r="C546" s="7" t="s">
         <v>1249</v>
       </c>
-      <c r="C546" s="7" t="s">
+      <c r="D546" s="2" t="s">
         <v>1250</v>
-      </c>
-      <c r="D546" s="2" t="s">
-        <v>1251</v>
       </c>
     </row>
     <row r="547">
       <c r="A547" s="2" t="s">
+        <v>1251</v>
+      </c>
+      <c r="C547" s="7" t="s">
         <v>1252</v>
       </c>
-      <c r="C547" s="7" t="s">
+      <c r="D547" s="2" t="s">
         <v>1253</v>
-      </c>
-      <c r="D547" s="2" t="s">
-        <v>1251</v>
       </c>
     </row>
     <row r="548">
@@ -18063,7 +18234,7 @@
         <v>1255</v>
       </c>
       <c r="D548" s="2" t="s">
-        <v>1251</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="549">
@@ -18074,7 +18245,7 @@
         <v>1257</v>
       </c>
       <c r="D549" s="2" t="s">
-        <v>1251</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="550">
@@ -18085,7 +18256,7 @@
         <v>1259</v>
       </c>
       <c r="D550" s="2" t="s">
-        <v>1251</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="551">
@@ -18096,7 +18267,7 @@
         <v>1261</v>
       </c>
       <c r="D551" s="2" t="s">
-        <v>1251</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="552">
@@ -18107,7 +18278,7 @@
         <v>1263</v>
       </c>
       <c r="D552" s="2" t="s">
-        <v>1251</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="553">
@@ -18118,7 +18289,7 @@
         <v>1265</v>
       </c>
       <c r="D553" s="2" t="s">
-        <v>130</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="554">
@@ -18140,18 +18311,18 @@
         <v>1269</v>
       </c>
       <c r="D555" s="2" t="s">
-        <v>1270</v>
+        <v>130</v>
       </c>
     </row>
     <row r="556">
       <c r="A556" s="2" t="s">
+        <v>1270</v>
+      </c>
+      <c r="C556" s="7" t="s">
         <v>1271</v>
       </c>
-      <c r="C556" s="7" t="s">
+      <c r="D556" s="2" t="s">
         <v>1272</v>
-      </c>
-      <c r="D556" s="2" t="s">
-        <v>1270</v>
       </c>
     </row>
     <row r="557">
@@ -18162,29 +18333,29 @@
         <v>1274</v>
       </c>
       <c r="D557" s="2" t="s">
-        <v>1275</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="558">
       <c r="A558" s="2" t="s">
+        <v>1275</v>
+      </c>
+      <c r="C558" s="7" t="s">
         <v>1276</v>
       </c>
-      <c r="C558" s="7" t="s">
+      <c r="D558" s="2" t="s">
         <v>1277</v>
-      </c>
-      <c r="D558" s="2" t="s">
-        <v>1278</v>
       </c>
     </row>
     <row r="559">
       <c r="A559" s="2" t="s">
+        <v>1278</v>
+      </c>
+      <c r="C559" s="7" t="s">
         <v>1279</v>
       </c>
-      <c r="C559" s="7" t="s">
+      <c r="D559" s="2" t="s">
         <v>1280</v>
-      </c>
-      <c r="D559" s="2" t="s">
-        <v>1251</v>
       </c>
     </row>
     <row r="560">
@@ -18195,7 +18366,7 @@
         <v>1282</v>
       </c>
       <c r="D560" s="2" t="s">
-        <v>1251</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="561">
@@ -18206,7 +18377,7 @@
         <v>1284</v>
       </c>
       <c r="D561" s="2" t="s">
-        <v>1251</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="562">
@@ -18217,7 +18388,7 @@
         <v>1286</v>
       </c>
       <c r="D562" s="2" t="s">
-        <v>1251</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="563">
@@ -18228,7 +18399,7 @@
         <v>1288</v>
       </c>
       <c r="D563" s="2" t="s">
-        <v>1251</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="564">
@@ -18239,7 +18410,7 @@
         <v>1290</v>
       </c>
       <c r="D564" s="2" t="s">
-        <v>1251</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="565">
@@ -18250,7 +18421,7 @@
         <v>1292</v>
       </c>
       <c r="D565" s="2" t="s">
-        <v>1251</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="566">
@@ -18261,18 +18432,18 @@
         <v>1294</v>
       </c>
       <c r="D566" s="2" t="s">
-        <v>1295</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="567">
       <c r="A567" s="2" t="s">
+        <v>1295</v>
+      </c>
+      <c r="C567" s="7" t="s">
         <v>1296</v>
       </c>
-      <c r="C567" s="7" t="s">
+      <c r="D567" s="2" t="s">
         <v>1297</v>
-      </c>
-      <c r="D567" s="2" t="s">
-        <v>1295</v>
       </c>
     </row>
     <row r="568">
@@ -18283,7 +18454,7 @@
         <v>1299</v>
       </c>
       <c r="D568" s="2" t="s">
-        <v>1295</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="569">
@@ -18294,18 +18465,18 @@
         <v>1301</v>
       </c>
       <c r="D569" s="2" t="s">
-        <v>1302</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="570">
       <c r="A570" s="2" t="s">
+        <v>1302</v>
+      </c>
+      <c r="C570" s="7" t="s">
         <v>1303</v>
       </c>
-      <c r="C570" s="7" t="s">
+      <c r="D570" s="2" t="s">
         <v>1304</v>
-      </c>
-      <c r="D570" s="2" t="s">
-        <v>1295</v>
       </c>
     </row>
     <row r="571">
@@ -18316,7 +18487,150 @@
         <v>1306</v>
       </c>
       <c r="D571" s="2" t="s">
+        <v>1297</v>
+      </c>
+    </row>
+    <row r="572">
+      <c r="A572" s="2" t="s">
         <v>1307</v>
+      </c>
+      <c r="C572" s="7" t="s">
+        <v>1308</v>
+      </c>
+      <c r="D572" s="2" t="s">
+        <v>1309</v>
+      </c>
+    </row>
+    <row r="573">
+      <c r="A573" s="2" t="s">
+        <v>1310</v>
+      </c>
+      <c r="C573" s="7" t="s">
+        <v>1311</v>
+      </c>
+      <c r="D573" s="2" t="s">
+        <v>1312</v>
+      </c>
+    </row>
+    <row r="574">
+      <c r="A574" s="2" t="s">
+        <v>1313</v>
+      </c>
+      <c r="C574" s="7" t="s">
+        <v>1314</v>
+      </c>
+      <c r="D574" s="2" t="s">
+        <v>1312</v>
+      </c>
+    </row>
+    <row r="575">
+      <c r="A575" s="2" t="s">
+        <v>1315</v>
+      </c>
+      <c r="C575" s="7" t="s">
+        <v>1316</v>
+      </c>
+      <c r="D575" s="2" t="s">
+        <v>1312</v>
+      </c>
+    </row>
+    <row r="576">
+      <c r="A576" s="2" t="s">
+        <v>1317</v>
+      </c>
+      <c r="C576" s="7" t="s">
+        <v>1318</v>
+      </c>
+      <c r="D576" s="2" t="s">
+        <v>1312</v>
+      </c>
+    </row>
+    <row r="577">
+      <c r="A577" s="2" t="s">
+        <v>1319</v>
+      </c>
+      <c r="C577" s="7" t="s">
+        <v>1320</v>
+      </c>
+      <c r="D577" s="2" t="s">
+        <v>1312</v>
+      </c>
+    </row>
+    <row r="578">
+      <c r="A578" s="2" t="s">
+        <v>1321</v>
+      </c>
+      <c r="C578" s="7" t="s">
+        <v>1322</v>
+      </c>
+      <c r="D578" s="2" t="s">
+        <v>1312</v>
+      </c>
+    </row>
+    <row r="579">
+      <c r="A579" s="2" t="s">
+        <v>1323</v>
+      </c>
+      <c r="C579" s="7" t="s">
+        <v>1324</v>
+      </c>
+      <c r="D579" s="2" t="s">
+        <v>1312</v>
+      </c>
+    </row>
+    <row r="580">
+      <c r="A580" s="2" t="s">
+        <v>1325</v>
+      </c>
+      <c r="C580" s="7" t="s">
+        <v>1326</v>
+      </c>
+      <c r="D580" s="2" t="s">
+        <v>1312</v>
+      </c>
+    </row>
+    <row r="581">
+      <c r="A581" s="2" t="s">
+        <v>1327</v>
+      </c>
+      <c r="C581" s="7" t="s">
+        <v>1328</v>
+      </c>
+      <c r="D581" s="2" t="s">
+        <v>1312</v>
+      </c>
+    </row>
+    <row r="582">
+      <c r="A582" s="2" t="s">
+        <v>1329</v>
+      </c>
+      <c r="C582" s="7" t="s">
+        <v>1330</v>
+      </c>
+      <c r="D582" s="2" t="s">
+        <v>1312</v>
+      </c>
+    </row>
+    <row r="583">
+      <c r="A583" s="2" t="s">
+        <v>1331</v>
+      </c>
+      <c r="C583" s="7" t="s">
+        <v>1332</v>
+      </c>
+      <c r="D583" s="2" t="s">
+        <v>1312</v>
+      </c>
+    </row>
+    <row r="584">
+      <c r="A584" s="2" t="s">
+        <v>1333</v>
+      </c>
+      <c r="C584" s="7" t="s">
+        <v>1328</v>
+      </c>
+      <c r="D584" s="2" t="s">
+        <v>1312</v>
       </c>
     </row>
   </sheetData>
@@ -18355,18 +18669,18 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>1308</v>
+        <v>1334</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>1309</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>1310</v>
+        <v>1336</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>1311</v>
+        <v>1337</v>
       </c>
     </row>
   </sheetData>

--- a/csv/merge.xlsx
+++ b/csv/merge.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1723" uniqueCount="1338">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1723" uniqueCount="1339">
   <si>
     <t>JP Text (DO NOT CHANGE)</t>
   </si>
@@ -11866,7 +11866,7 @@
 &lt;br&gt;
 You won't get another souvenir, but do you
 still want to attend the "Adventurer Basics
-Part 1" lecture again?</t>
+Part 1" lecture again?&lt;yesno&gt;&lt;break&gt;</t>
   </si>
   <si>
     <t>「冒険の基本は？　２　の講義ですね。
@@ -11883,7 +11883,7 @@
 &lt;br&gt;
 You won't get another souvenir, but do you
 still want to attend the "Adventurer Basics
-Part 2" lecture again?</t>
+Part 2" lecture again?&lt;yesno&gt;&lt;break&gt;</t>
   </si>
   <si>
     <t>「みんなで遊ぶには？　の講義ですね。
@@ -11900,7 +11900,7 @@
 &lt;br&gt;
 You won't get another souvenir, but do you
 still want to attend the "Playing with Others"
-lecture again?</t>
+lecture again?&lt;yesno&gt;&lt;break&gt;</t>
   </si>
   <si>
     <t>「上手に戦うには？　の講義ですね。
@@ -11910,6 +11910,14 @@
 「ですので　記念品は　進呈されませんが
 　再度　上手に戦うには？　の講義を
 　お受けに　なられますか？&lt;yesno&gt;&lt;break&gt;</t>
+  </si>
+  <si>
+    <t>"Battle Tips"? You've already
+attended this lecture once before.
+&lt;br&gt;
+You won't get another souvenir, but do you
+still want to attend the "Battle Tips"
+lecture again?&lt;yesno&gt;&lt;break&gt;</t>
   </si>
   <si>
     <t>メインコマンド『せんれき』の
@@ -18627,7 +18635,7 @@
         <v>1333</v>
       </c>
       <c r="C584" s="7" t="s">
-        <v>1328</v>
+        <v>1334</v>
       </c>
       <c r="D584" s="2" t="s">
         <v>1312</v>
@@ -18669,18 +18677,18 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>1334</v>
+        <v>1335</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>1335</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>1336</v>
+        <v>1337</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>1337</v>
+        <v>1338</v>
       </c>
     </row>
   </sheetData>

--- a/csv/merge.xlsx
+++ b/csv/merge.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1723" uniqueCount="1339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1735" uniqueCount="1348">
   <si>
     <t>JP Text (DO NOT CHANGE)</t>
   </si>
@@ -10507,6 +10507,22 @@
 someone named Ronde. It's fine by me.</t>
   </si>
   <si>
+    <t>「確かに渡したからな。
+　よかったら　また　次の依頼を頼むぜ！</t>
+  </si>
+  <si>
+    <t>And that's that. If you got another one,
+I'd be more than happy to help.</t>
+  </si>
+  <si>
+    <t>「やめるんだな。
+　その気になったら　また声をかけてくれ。</t>
+  </si>
+  <si>
+    <t>Changed your mind? Call me on again
+if you need me.</t>
+  </si>
+  <si>
     <t>「ギルルルル……。ワタシ　強い。
 　いっぱい手に入る。また　取りにこい。
 　ギルル……ン。</t>
@@ -10527,6 +10543,15 @@
   <si>
     <t>(snarl) Lizzie picked this up. But no can eat.
 Lizzie don't want, so you take. (snarl)</t>
+  </si>
+  <si>
+    <t>「テリーと　ワタシで　必ず倒す……。
+　報酬　必ず渡す。テリー　約束守る。
+　心配するな。ギルルルル……。</t>
+  </si>
+  <si>
+    <t>Terry and I beat monster... Definitely get 
+shiny thing. Terry keep promise. (snarl)</t>
   </si>
   <si>
     <t>「もし　よければ　あなたには
@@ -11918,6 +11943,27 @@
 You won't get another souvenir, but do you
 still want to attend the "Battle Tips"
 lecture again?&lt;yesno&gt;&lt;break&gt;</t>
+  </si>
+  <si>
+    <t>「プルプルッ！　ねえ　知ってる？
+　ボクって　とっても長生きなんだよ！
+　この町には　もう　数十年はいるかなあ。
+&lt;br&gt;
+「人間たちの暮らしは　変わっても
+　ボクは　ずっと変わらない。
+　……人間と　ボクって　どう違うのかな？</t>
+  </si>
+  <si>
+    <t>Slurp! Hey, guess what? I've been alive
+for a jelly long time! I've lived here in
+this town for years and years.
+&lt;br&gt;
+Goomans lives will change, but I'll always
+stay the same. I wonder, what makes me
+different from a gooman?</t>
+  </si>
+  <si>
+    <t>Nalbia Slime</t>
   </si>
   <si>
     <t>メインコマンド『せんれき』の
@@ -18011,73 +18057,73 @@
         <v>1204</v>
       </c>
       <c r="D527" s="2" t="s">
-        <v>1205</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="528">
       <c r="A528" s="2" t="s">
+        <v>1205</v>
+      </c>
+      <c r="C528" s="7" t="s">
         <v>1206</v>
       </c>
-      <c r="C528" s="7" t="s">
-        <v>1207</v>
-      </c>
       <c r="D528" s="2" t="s">
-        <v>1205</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="529">
       <c r="A529" s="2" t="s">
+        <v>1207</v>
+      </c>
+      <c r="C529" s="7" t="s">
         <v>1208</v>
       </c>
-      <c r="C529" s="7" t="s">
+      <c r="D529" s="2" t="s">
         <v>1209</v>
-      </c>
-      <c r="D529" s="2" t="s">
-        <v>1210</v>
       </c>
     </row>
     <row r="530">
       <c r="A530" s="2" t="s">
+        <v>1210</v>
+      </c>
+      <c r="C530" s="7" t="s">
         <v>1211</v>
       </c>
-      <c r="C530" s="7" t="s">
-        <v>1212</v>
-      </c>
       <c r="D530" s="2" t="s">
-        <v>1213</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="531">
       <c r="A531" s="2" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
       <c r="C531" s="7" t="s">
-        <v>1215</v>
+        <v>1213</v>
       </c>
       <c r="D531" s="2" t="s">
-        <v>1213</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="532">
       <c r="A532" s="2" t="s">
+        <v>1214</v>
+      </c>
+      <c r="C532" s="7" t="s">
+        <v>1215</v>
+      </c>
+      <c r="D532" s="2" t="s">
         <v>1216</v>
-      </c>
-      <c r="C532" s="7" t="s">
-        <v>1217</v>
-      </c>
-      <c r="D532" s="2" t="s">
-        <v>1213</v>
       </c>
     </row>
     <row r="533">
       <c r="A533" s="2" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C533" s="7" t="s">
         <v>1218</v>
       </c>
-      <c r="C533" s="7" t="s">
+      <c r="D533" s="2" t="s">
         <v>1219</v>
-      </c>
-      <c r="D533" s="2" t="s">
-        <v>1213</v>
       </c>
     </row>
     <row r="534">
@@ -18088,7 +18134,7 @@
         <v>1221</v>
       </c>
       <c r="D534" s="2" t="s">
-        <v>1213</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="535">
@@ -18099,7 +18145,7 @@
         <v>1223</v>
       </c>
       <c r="D535" s="2" t="s">
-        <v>1213</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="536">
@@ -18110,7 +18156,7 @@
         <v>1225</v>
       </c>
       <c r="D536" s="2" t="s">
-        <v>1210</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="537">
@@ -18121,7 +18167,7 @@
         <v>1227</v>
       </c>
       <c r="D537" s="2" t="s">
-        <v>1210</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="538">
@@ -18132,7 +18178,7 @@
         <v>1229</v>
       </c>
       <c r="D538" s="2" t="s">
-        <v>1210</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="539">
@@ -18143,7 +18189,7 @@
         <v>1231</v>
       </c>
       <c r="D539" s="2" t="s">
-        <v>1210</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="540">
@@ -18154,7 +18200,7 @@
         <v>1233</v>
       </c>
       <c r="D540" s="2" t="s">
-        <v>1210</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="541">
@@ -18165,7 +18211,7 @@
         <v>1235</v>
       </c>
       <c r="D541" s="2" t="s">
-        <v>1210</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="542">
@@ -18176,70 +18222,70 @@
         <v>1237</v>
       </c>
       <c r="D542" s="2" t="s">
-        <v>1238</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="543">
       <c r="A543" s="2" t="s">
+        <v>1238</v>
+      </c>
+      <c r="C543" s="7" t="s">
         <v>1239</v>
       </c>
-      <c r="C543" s="7" t="s">
-        <v>1240</v>
-      </c>
       <c r="D543" s="2" t="s">
-        <v>1241</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="544">
       <c r="A544" s="2" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
       <c r="C544" s="7" t="s">
-        <v>1243</v>
+        <v>1241</v>
       </c>
       <c r="D544" s="2" t="s">
-        <v>1244</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="545">
       <c r="A545" s="2" t="s">
-        <v>1245</v>
+        <v>1242</v>
       </c>
       <c r="C545" s="7" t="s">
-        <v>1246</v>
+        <v>1243</v>
       </c>
       <c r="D545" s="2" t="s">
-        <v>1247</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="546">
       <c r="A546" s="2" t="s">
-        <v>1248</v>
+        <v>1245</v>
       </c>
       <c r="C546" s="7" t="s">
-        <v>1249</v>
+        <v>1246</v>
       </c>
       <c r="D546" s="2" t="s">
-        <v>1250</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="547">
       <c r="A547" s="2" t="s">
-        <v>1251</v>
+        <v>1248</v>
       </c>
       <c r="C547" s="7" t="s">
-        <v>1252</v>
+        <v>1249</v>
       </c>
       <c r="D547" s="2" t="s">
-        <v>1253</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="548">
       <c r="A548" s="2" t="s">
-        <v>1254</v>
+        <v>1251</v>
       </c>
       <c r="C548" s="7" t="s">
-        <v>1255</v>
+        <v>1252</v>
       </c>
       <c r="D548" s="2" t="s">
         <v>1253</v>
@@ -18247,24 +18293,24 @@
     </row>
     <row r="549">
       <c r="A549" s="2" t="s">
+        <v>1254</v>
+      </c>
+      <c r="C549" s="7" t="s">
+        <v>1255</v>
+      </c>
+      <c r="D549" s="2" t="s">
         <v>1256</v>
-      </c>
-      <c r="C549" s="7" t="s">
-        <v>1257</v>
-      </c>
-      <c r="D549" s="2" t="s">
-        <v>1253</v>
       </c>
     </row>
     <row r="550">
       <c r="A550" s="2" t="s">
+        <v>1257</v>
+      </c>
+      <c r="C550" s="7" t="s">
         <v>1258</v>
       </c>
-      <c r="C550" s="7" t="s">
+      <c r="D550" s="2" t="s">
         <v>1259</v>
-      </c>
-      <c r="D550" s="2" t="s">
-        <v>1253</v>
       </c>
     </row>
     <row r="551">
@@ -18275,7 +18321,7 @@
         <v>1261</v>
       </c>
       <c r="D551" s="2" t="s">
-        <v>1253</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="552">
@@ -18286,7 +18332,7 @@
         <v>1263</v>
       </c>
       <c r="D552" s="2" t="s">
-        <v>1253</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="553">
@@ -18297,7 +18343,7 @@
         <v>1265</v>
       </c>
       <c r="D553" s="2" t="s">
-        <v>1253</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="554">
@@ -18308,7 +18354,7 @@
         <v>1267</v>
       </c>
       <c r="D554" s="2" t="s">
-        <v>130</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="555">
@@ -18319,7 +18365,7 @@
         <v>1269</v>
       </c>
       <c r="D555" s="2" t="s">
-        <v>130</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="556">
@@ -18330,73 +18376,73 @@
         <v>1271</v>
       </c>
       <c r="D556" s="2" t="s">
-        <v>1272</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="557">
       <c r="A557" s="2" t="s">
+        <v>1272</v>
+      </c>
+      <c r="C557" s="7" t="s">
         <v>1273</v>
       </c>
-      <c r="C557" s="7" t="s">
-        <v>1274</v>
-      </c>
       <c r="D557" s="2" t="s">
-        <v>1272</v>
+        <v>130</v>
       </c>
     </row>
     <row r="558">
       <c r="A558" s="2" t="s">
+        <v>1274</v>
+      </c>
+      <c r="C558" s="7" t="s">
         <v>1275</v>
       </c>
-      <c r="C558" s="7" t="s">
-        <v>1276</v>
-      </c>
       <c r="D558" s="2" t="s">
-        <v>1277</v>
+        <v>130</v>
       </c>
     </row>
     <row r="559">
       <c r="A559" s="2" t="s">
+        <v>1276</v>
+      </c>
+      <c r="C559" s="7" t="s">
+        <v>1277</v>
+      </c>
+      <c r="D559" s="2" t="s">
         <v>1278</v>
-      </c>
-      <c r="C559" s="7" t="s">
-        <v>1279</v>
-      </c>
-      <c r="D559" s="2" t="s">
-        <v>1280</v>
       </c>
     </row>
     <row r="560">
       <c r="A560" s="2" t="s">
-        <v>1281</v>
+        <v>1279</v>
       </c>
       <c r="C560" s="7" t="s">
-        <v>1282</v>
+        <v>1280</v>
       </c>
       <c r="D560" s="2" t="s">
-        <v>1253</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="561">
       <c r="A561" s="2" t="s">
+        <v>1281</v>
+      </c>
+      <c r="C561" s="7" t="s">
+        <v>1282</v>
+      </c>
+      <c r="D561" s="2" t="s">
         <v>1283</v>
-      </c>
-      <c r="C561" s="7" t="s">
-        <v>1284</v>
-      </c>
-      <c r="D561" s="2" t="s">
-        <v>1253</v>
       </c>
     </row>
     <row r="562">
       <c r="A562" s="2" t="s">
+        <v>1284</v>
+      </c>
+      <c r="C562" s="7" t="s">
         <v>1285</v>
       </c>
-      <c r="C562" s="7" t="s">
+      <c r="D562" s="2" t="s">
         <v>1286</v>
-      </c>
-      <c r="D562" s="2" t="s">
-        <v>1253</v>
       </c>
     </row>
     <row r="563">
@@ -18407,7 +18453,7 @@
         <v>1288</v>
       </c>
       <c r="D563" s="2" t="s">
-        <v>1253</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="564">
@@ -18418,7 +18464,7 @@
         <v>1290</v>
       </c>
       <c r="D564" s="2" t="s">
-        <v>1253</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="565">
@@ -18429,7 +18475,7 @@
         <v>1292</v>
       </c>
       <c r="D565" s="2" t="s">
-        <v>1253</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="566">
@@ -18440,7 +18486,7 @@
         <v>1294</v>
       </c>
       <c r="D566" s="2" t="s">
-        <v>1253</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="567">
@@ -18451,106 +18497,106 @@
         <v>1296</v>
       </c>
       <c r="D567" s="2" t="s">
-        <v>1297</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="568">
       <c r="A568" s="2" t="s">
+        <v>1297</v>
+      </c>
+      <c r="C568" s="7" t="s">
         <v>1298</v>
       </c>
-      <c r="C568" s="7" t="s">
-        <v>1299</v>
-      </c>
       <c r="D568" s="2" t="s">
-        <v>1297</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="569">
       <c r="A569" s="2" t="s">
+        <v>1299</v>
+      </c>
+      <c r="C569" s="7" t="s">
         <v>1300</v>
       </c>
-      <c r="C569" s="7" t="s">
-        <v>1301</v>
-      </c>
       <c r="D569" s="2" t="s">
-        <v>1297</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="570">
       <c r="A570" s="2" t="s">
+        <v>1301</v>
+      </c>
+      <c r="C570" s="7" t="s">
         <v>1302</v>
       </c>
-      <c r="C570" s="7" t="s">
+      <c r="D570" s="2" t="s">
         <v>1303</v>
-      </c>
-      <c r="D570" s="2" t="s">
-        <v>1304</v>
       </c>
     </row>
     <row r="571">
       <c r="A571" s="2" t="s">
+        <v>1304</v>
+      </c>
+      <c r="C571" s="7" t="s">
         <v>1305</v>
       </c>
-      <c r="C571" s="7" t="s">
-        <v>1306</v>
-      </c>
       <c r="D571" s="2" t="s">
-        <v>1297</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="572">
       <c r="A572" s="2" t="s">
+        <v>1306</v>
+      </c>
+      <c r="C572" s="7" t="s">
         <v>1307</v>
       </c>
-      <c r="C572" s="7" t="s">
-        <v>1308</v>
-      </c>
       <c r="D572" s="2" t="s">
-        <v>1309</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="573">
       <c r="A573" s="2" t="s">
+        <v>1308</v>
+      </c>
+      <c r="C573" s="7" t="s">
+        <v>1309</v>
+      </c>
+      <c r="D573" s="2" t="s">
         <v>1310</v>
-      </c>
-      <c r="C573" s="7" t="s">
-        <v>1311</v>
-      </c>
-      <c r="D573" s="2" t="s">
-        <v>1312</v>
       </c>
     </row>
     <row r="574">
       <c r="A574" s="2" t="s">
-        <v>1313</v>
+        <v>1311</v>
       </c>
       <c r="C574" s="7" t="s">
-        <v>1314</v>
+        <v>1312</v>
       </c>
       <c r="D574" s="2" t="s">
-        <v>1312</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="575">
       <c r="A575" s="2" t="s">
+        <v>1313</v>
+      </c>
+      <c r="C575" s="7" t="s">
+        <v>1314</v>
+      </c>
+      <c r="D575" s="2" t="s">
         <v>1315</v>
-      </c>
-      <c r="C575" s="7" t="s">
-        <v>1316</v>
-      </c>
-      <c r="D575" s="2" t="s">
-        <v>1312</v>
       </c>
     </row>
     <row r="576">
       <c r="A576" s="2" t="s">
+        <v>1316</v>
+      </c>
+      <c r="C576" s="7" t="s">
         <v>1317</v>
       </c>
-      <c r="C576" s="7" t="s">
+      <c r="D576" s="2" t="s">
         <v>1318</v>
-      </c>
-      <c r="D576" s="2" t="s">
-        <v>1312</v>
       </c>
     </row>
     <row r="577">
@@ -18561,7 +18607,7 @@
         <v>1320</v>
       </c>
       <c r="D577" s="2" t="s">
-        <v>1312</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="578">
@@ -18572,7 +18618,7 @@
         <v>1322</v>
       </c>
       <c r="D578" s="2" t="s">
-        <v>1312</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="579">
@@ -18583,7 +18629,7 @@
         <v>1324</v>
       </c>
       <c r="D579" s="2" t="s">
-        <v>1312</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="580">
@@ -18594,7 +18640,7 @@
         <v>1326</v>
       </c>
       <c r="D580" s="2" t="s">
-        <v>1312</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="581">
@@ -18605,7 +18651,7 @@
         <v>1328</v>
       </c>
       <c r="D581" s="2" t="s">
-        <v>1312</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="582">
@@ -18616,7 +18662,7 @@
         <v>1330</v>
       </c>
       <c r="D582" s="2" t="s">
-        <v>1312</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="583">
@@ -18627,7 +18673,7 @@
         <v>1332</v>
       </c>
       <c r="D583" s="2" t="s">
-        <v>1312</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="584">
@@ -18638,7 +18684,51 @@
         <v>1334</v>
       </c>
       <c r="D584" s="2" t="s">
-        <v>1312</v>
+        <v>1318</v>
+      </c>
+    </row>
+    <row r="585">
+      <c r="A585" s="2" t="s">
+        <v>1335</v>
+      </c>
+      <c r="C585" s="7" t="s">
+        <v>1336</v>
+      </c>
+      <c r="D585" s="2" t="s">
+        <v>1318</v>
+      </c>
+    </row>
+    <row r="586">
+      <c r="A586" s="2" t="s">
+        <v>1337</v>
+      </c>
+      <c r="C586" s="7" t="s">
+        <v>1338</v>
+      </c>
+      <c r="D586" s="2" t="s">
+        <v>1318</v>
+      </c>
+    </row>
+    <row r="587">
+      <c r="A587" s="2" t="s">
+        <v>1339</v>
+      </c>
+      <c r="C587" s="7" t="s">
+        <v>1340</v>
+      </c>
+      <c r="D587" s="2" t="s">
+        <v>1318</v>
+      </c>
+    </row>
+    <row r="588">
+      <c r="A588" s="2" t="s">
+        <v>1341</v>
+      </c>
+      <c r="C588" s="7" t="s">
+        <v>1342</v>
+      </c>
+      <c r="D588" s="2" t="s">
+        <v>1343</v>
       </c>
     </row>
   </sheetData>
@@ -18677,18 +18767,18 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>1335</v>
+        <v>1344</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>1336</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>1337</v>
+        <v>1346</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>1338</v>
+        <v>1347</v>
       </c>
     </row>
   </sheetData>

--- a/csv/merge.xlsx
+++ b/csv/merge.xlsx
@@ -11955,7 +11955,7 @@
   </si>
   <si>
     <t>Slurp! Hey, guess what? I've been alive
-for a jelly long time! I've lived here in
+for a really long slime! I've lived here in
 this town for years and years.
 &lt;br&gt;
 Goomans lives will change, but I'll always

--- a/csv/merge.xlsx
+++ b/csv/merge.xlsx
@@ -11958,8 +11958,8 @@
 for a really long slime! I've lived here in
 this town for years and years.
 &lt;br&gt;
-Goomans lives will change, but I'll always
-stay the same. I wonder, what makes me
+Even if goomans' lives change, I'll always be
+the same old slime. I wonder, what makes me
 different from a gooman?</t>
   </si>
   <si>

--- a/csv/merge.xlsx
+++ b/csv/merge.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1735" uniqueCount="1348">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1737" uniqueCount="1350">
   <si>
     <t>JP Text (DO NOT CHANGE)</t>
   </si>
@@ -6055,10 +6055,6 @@
     <t>Version 6 Warrior's Ceremony</t>
   </si>
   <si>
-    <t xml:space="preserve">
-</t>
-  </si>
-  <si>
     <t>&lt;center&gt;３人の等しきチカラを持つ　兄弟のうち
 次兄と　末弟が　朝に　雪原で戦い
 その勝者と　長兄が　そのまま戦った
@@ -11964,6 +11960,27 @@
   </si>
   <si>
     <t>Nalbia Slime</t>
+  </si>
+  <si>
+    <t>「&lt;monster_name&gt;を倒せば
+　オレのテンションは　大きく　上がるだろうよ。
+　他の魔物でも　ちょいとは　上がるがな。
+&lt;br&gt;
+「よっしゃ　残り　&lt;min_left&gt;分だ　行ってこいや！
+　最低１匹は　魔物を倒してこねえと
+　礼は　やらねえからな！&lt;bw_break&gt;</t>
+  </si>
+  <si>
+    <t>Go beat up some &lt;monster_name&gt;
+to boost up my tension! Other monsters
+will boost it a little bit, too.
+&lt;br&gt;
+Come on, ya' got &lt;min_left&gt; minute(s) left!
+And I won't give ya' anything unless you
+beat at least one monster!</t>
+  </si>
+  <si>
+    <t>PATTERN: Typhoo dialogue</t>
   </si>
   <si>
     <t>メインコマンド『せんれき』の
@@ -12392,7 +12409,6 @@
       <c r="W7" s="4"/>
       <c r="X7" s="4"/>
       <c r="Y7" s="4"/>
-      <c r="Z7" s="4"/>
     </row>
     <row r="8">
       <c r="A8" s="3" t="s">
@@ -12426,7 +12442,6 @@
       <c r="W8" s="4"/>
       <c r="X8" s="4"/>
       <c r="Y8" s="4"/>
-      <c r="Z8" s="4"/>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
@@ -13501,7 +13516,6 @@
       <c r="W111" s="4"/>
       <c r="X111" s="4"/>
       <c r="Y111" s="4"/>
-      <c r="Z111" s="4"/>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
@@ -14306,7 +14320,6 @@
       <c r="D186" s="2" t="s">
         <v>399</v>
       </c>
-      <c r="E186" s="2"/>
     </row>
     <row r="187">
       <c r="A187" s="2" t="s">
@@ -15011,16 +15024,13 @@
       <c r="D250" s="2" t="s">
         <v>541</v>
       </c>
-      <c r="E250" s="2" t="s">
-        <v>542</v>
-      </c>
     </row>
     <row r="251">
       <c r="A251" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="C251" s="2" t="s">
         <v>543</v>
-      </c>
-      <c r="C251" s="2" t="s">
-        <v>544</v>
       </c>
       <c r="D251" s="2" t="s">
         <v>541</v>
@@ -15028,10 +15038,10 @@
     </row>
     <row r="252">
       <c r="A252" s="2" t="s">
+        <v>544</v>
+      </c>
+      <c r="C252" s="2" t="s">
         <v>545</v>
-      </c>
-      <c r="C252" s="2" t="s">
-        <v>546</v>
       </c>
       <c r="D252" s="2" t="s">
         <v>541</v>
@@ -15039,10 +15049,10 @@
     </row>
     <row r="253">
       <c r="A253" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="C253" s="2" t="s">
         <v>547</v>
-      </c>
-      <c r="C253" s="2" t="s">
-        <v>548</v>
       </c>
       <c r="D253" s="2" t="s">
         <v>541</v>
@@ -15050,10 +15060,10 @@
     </row>
     <row r="254">
       <c r="A254" s="2" t="s">
+        <v>548</v>
+      </c>
+      <c r="C254" s="2" t="s">
         <v>549</v>
-      </c>
-      <c r="C254" s="2" t="s">
-        <v>550</v>
       </c>
       <c r="D254" s="2" t="s">
         <v>541</v>
@@ -15061,10 +15071,10 @@
     </row>
     <row r="255">
       <c r="A255" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="C255" s="2" t="s">
         <v>551</v>
-      </c>
-      <c r="C255" s="2" t="s">
-        <v>552</v>
       </c>
       <c r="D255" s="2" t="s">
         <v>541</v>
@@ -15072,10 +15082,10 @@
     </row>
     <row r="256">
       <c r="A256" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="C256" s="2" t="s">
         <v>553</v>
-      </c>
-      <c r="C256" s="2" t="s">
-        <v>554</v>
       </c>
       <c r="D256" s="2" t="s">
         <v>541</v>
@@ -15083,10 +15093,10 @@
     </row>
     <row r="257">
       <c r="A257" s="2" t="s">
+        <v>554</v>
+      </c>
+      <c r="C257" s="2" t="s">
         <v>555</v>
-      </c>
-      <c r="C257" s="2" t="s">
-        <v>556</v>
       </c>
       <c r="D257" s="2" t="s">
         <v>541</v>
@@ -15094,10 +15104,10 @@
     </row>
     <row r="258">
       <c r="A258" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="C258" s="2" t="s">
         <v>557</v>
-      </c>
-      <c r="C258" s="2" t="s">
-        <v>558</v>
       </c>
       <c r="D258" s="2" t="s">
         <v>541</v>
@@ -15105,10 +15115,10 @@
     </row>
     <row r="259">
       <c r="A259" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="C259" s="2" t="s">
         <v>559</v>
-      </c>
-      <c r="C259" s="2" t="s">
-        <v>560</v>
       </c>
       <c r="D259" s="2" t="s">
         <v>541</v>
@@ -15116,10 +15126,10 @@
     </row>
     <row r="260">
       <c r="A260" s="2" t="s">
+        <v>560</v>
+      </c>
+      <c r="C260" s="2" t="s">
         <v>561</v>
-      </c>
-      <c r="C260" s="2" t="s">
-        <v>562</v>
       </c>
       <c r="D260" s="2" t="s">
         <v>541</v>
@@ -15127,263 +15137,263 @@
     </row>
     <row r="261">
       <c r="A261" s="2" t="s">
+        <v>562</v>
+      </c>
+      <c r="C261" s="2" t="s">
         <v>563</v>
       </c>
-      <c r="C261" s="2" t="s">
+      <c r="D261" s="2" t="s">
         <v>564</v>
-      </c>
-      <c r="D261" s="2" t="s">
-        <v>565</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="2" t="s">
+        <v>565</v>
+      </c>
+      <c r="C262" s="2" t="s">
         <v>566</v>
       </c>
-      <c r="C262" s="2" t="s">
-        <v>567</v>
-      </c>
       <c r="D262" s="2" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="2" t="s">
+        <v>567</v>
+      </c>
+      <c r="C263" s="2" t="s">
         <v>568</v>
       </c>
-      <c r="C263" s="2" t="s">
-        <v>569</v>
-      </c>
       <c r="D263" s="2" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="2" t="s">
+        <v>569</v>
+      </c>
+      <c r="C264" s="2" t="s">
         <v>570</v>
       </c>
-      <c r="C264" s="2" t="s">
+      <c r="D264" s="2" t="s">
         <v>571</v>
-      </c>
-      <c r="D264" s="2" t="s">
-        <v>572</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="2" t="s">
+        <v>572</v>
+      </c>
+      <c r="C265" s="2" t="s">
         <v>573</v>
       </c>
-      <c r="C265" s="2" t="s">
-        <v>574</v>
-      </c>
       <c r="D265" s="2" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="C266" s="2" t="s">
         <v>575</v>
       </c>
-      <c r="C266" s="2" t="s">
-        <v>576</v>
-      </c>
       <c r="D266" s="2" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="C267" s="2" t="s">
         <v>577</v>
       </c>
-      <c r="C267" s="2" t="s">
-        <v>578</v>
-      </c>
       <c r="D267" s="2" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="C268" s="2" t="s">
         <v>579</v>
       </c>
-      <c r="C268" s="2" t="s">
-        <v>580</v>
-      </c>
       <c r="D268" s="2" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="2" t="s">
+        <v>580</v>
+      </c>
+      <c r="C269" s="2" t="s">
         <v>581</v>
       </c>
-      <c r="C269" s="2" t="s">
+      <c r="D269" s="2" t="s">
         <v>582</v>
-      </c>
-      <c r="D269" s="2" t="s">
-        <v>583</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="C270" s="2" t="s">
         <v>584</v>
       </c>
-      <c r="C270" s="2" t="s">
+      <c r="D270" s="2" t="s">
         <v>585</v>
-      </c>
-      <c r="D270" s="2" t="s">
-        <v>586</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" s="2" t="s">
+        <v>586</v>
+      </c>
+      <c r="C271" s="2" t="s">
         <v>587</v>
       </c>
-      <c r="C271" s="2" t="s">
-        <v>588</v>
-      </c>
       <c r="D271" s="2" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" s="2" t="s">
+        <v>588</v>
+      </c>
+      <c r="C272" s="2" t="s">
         <v>589</v>
       </c>
-      <c r="C272" s="2" t="s">
-        <v>590</v>
-      </c>
       <c r="D272" s="2" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" s="2" t="s">
+        <v>590</v>
+      </c>
+      <c r="C273" s="2" t="s">
         <v>591</v>
       </c>
-      <c r="C273" s="2" t="s">
-        <v>592</v>
-      </c>
       <c r="D273" s="2" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" s="2" t="s">
+        <v>592</v>
+      </c>
+      <c r="C274" s="2" t="s">
         <v>593</v>
       </c>
-      <c r="C274" s="2" t="s">
-        <v>594</v>
-      </c>
       <c r="D274" s="2" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" s="2" t="s">
+        <v>594</v>
+      </c>
+      <c r="C275" s="2" t="s">
         <v>595</v>
       </c>
-      <c r="C275" s="2" t="s">
-        <v>596</v>
-      </c>
       <c r="D275" s="2" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" s="2" t="s">
+        <v>596</v>
+      </c>
+      <c r="C276" s="2" t="s">
         <v>597</v>
       </c>
-      <c r="C276" s="2" t="s">
-        <v>598</v>
-      </c>
       <c r="D276" s="2" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" s="2" t="s">
+        <v>598</v>
+      </c>
+      <c r="C277" s="2" t="s">
         <v>599</v>
       </c>
-      <c r="C277" s="2" t="s">
-        <v>600</v>
-      </c>
       <c r="D277" s="2" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" s="2" t="s">
+        <v>600</v>
+      </c>
+      <c r="C278" s="2" t="s">
         <v>601</v>
       </c>
-      <c r="C278" s="2" t="s">
-        <v>602</v>
-      </c>
       <c r="D278" s="2" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" s="2" t="s">
+        <v>602</v>
+      </c>
+      <c r="C279" s="2" t="s">
         <v>603</v>
       </c>
-      <c r="C279" s="2" t="s">
-        <v>604</v>
-      </c>
       <c r="D279" s="2" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" s="2" t="s">
+        <v>604</v>
+      </c>
+      <c r="C280" s="2" t="s">
         <v>605</v>
       </c>
-      <c r="C280" s="2" t="s">
-        <v>606</v>
-      </c>
       <c r="D280" s="2" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" s="2" t="s">
+        <v>606</v>
+      </c>
+      <c r="C281" s="2" t="s">
         <v>607</v>
       </c>
-      <c r="C281" s="2" t="s">
-        <v>608</v>
-      </c>
       <c r="D281" s="2" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" s="2" t="s">
+        <v>608</v>
+      </c>
+      <c r="C282" s="2" t="s">
         <v>609</v>
       </c>
-      <c r="C282" s="2" t="s">
-        <v>610</v>
-      </c>
       <c r="D282" s="2" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" s="2" t="s">
+        <v>610</v>
+      </c>
+      <c r="C283" s="2" t="s">
         <v>611</v>
       </c>
-      <c r="C283" s="2" t="s">
-        <v>612</v>
-      </c>
       <c r="D283" s="2" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" s="2" t="s">
+        <v>612</v>
+      </c>
+      <c r="C284" s="2" t="s">
         <v>613</v>
-      </c>
-      <c r="C284" s="2" t="s">
-        <v>614</v>
       </c>
       <c r="D284" s="2" t="s">
         <v>311</v>
@@ -15391,10 +15401,10 @@
     </row>
     <row r="285">
       <c r="A285" s="2" t="s">
+        <v>614</v>
+      </c>
+      <c r="C285" s="2" t="s">
         <v>615</v>
-      </c>
-      <c r="C285" s="2" t="s">
-        <v>616</v>
       </c>
       <c r="D285" s="2" t="s">
         <v>311</v>
@@ -15402,10 +15412,10 @@
     </row>
     <row r="286">
       <c r="A286" s="2" t="s">
+        <v>616</v>
+      </c>
+      <c r="C286" s="2" t="s">
         <v>617</v>
-      </c>
-      <c r="C286" s="2" t="s">
-        <v>618</v>
       </c>
       <c r="D286" s="2" t="s">
         <v>311</v>
@@ -15413,10 +15423,10 @@
     </row>
     <row r="287">
       <c r="A287" s="2" t="s">
+        <v>618</v>
+      </c>
+      <c r="C287" s="2" t="s">
         <v>619</v>
-      </c>
-      <c r="C287" s="2" t="s">
-        <v>620</v>
       </c>
       <c r="D287" s="2" t="s">
         <v>306</v>
@@ -15424,10 +15434,10 @@
     </row>
     <row r="288">
       <c r="A288" s="2" t="s">
+        <v>620</v>
+      </c>
+      <c r="C288" s="2" t="s">
         <v>621</v>
-      </c>
-      <c r="C288" s="2" t="s">
-        <v>622</v>
       </c>
       <c r="D288" s="2" t="s">
         <v>306</v>
@@ -15435,10 +15445,10 @@
     </row>
     <row r="289">
       <c r="A289" s="2" t="s">
+        <v>622</v>
+      </c>
+      <c r="C289" s="2" t="s">
         <v>623</v>
-      </c>
-      <c r="C289" s="2" t="s">
-        <v>624</v>
       </c>
       <c r="D289" s="2" t="s">
         <v>306</v>
@@ -15446,10 +15456,10 @@
     </row>
     <row r="290">
       <c r="A290" s="2" t="s">
+        <v>624</v>
+      </c>
+      <c r="C290" s="2" t="s">
         <v>625</v>
-      </c>
-      <c r="C290" s="2" t="s">
-        <v>626</v>
       </c>
       <c r="D290" s="2" t="s">
         <v>306</v>
@@ -15457,21 +15467,21 @@
     </row>
     <row r="291">
       <c r="A291" s="2" t="s">
+        <v>626</v>
+      </c>
+      <c r="C291" s="2" t="s">
         <v>627</v>
       </c>
-      <c r="C291" s="2" t="s">
+      <c r="D291" s="2" t="s">
         <v>628</v>
-      </c>
-      <c r="D291" s="2" t="s">
-        <v>629</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" s="2" t="s">
+        <v>629</v>
+      </c>
+      <c r="C292" s="2" t="s">
         <v>630</v>
-      </c>
-      <c r="C292" s="2" t="s">
-        <v>631</v>
       </c>
       <c r="D292" s="2" t="s">
         <v>306</v>
@@ -15479,1427 +15489,1427 @@
     </row>
     <row r="293">
       <c r="A293" s="2" t="s">
+        <v>631</v>
+      </c>
+      <c r="C293" s="2" t="s">
         <v>632</v>
       </c>
-      <c r="C293" s="2" t="s">
+      <c r="D293" s="2" t="s">
         <v>633</v>
-      </c>
-      <c r="D293" s="2" t="s">
-        <v>634</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" s="2" t="s">
+        <v>634</v>
+      </c>
+      <c r="C294" s="2" t="s">
         <v>635</v>
       </c>
-      <c r="C294" s="2" t="s">
+      <c r="D294" s="2" t="s">
         <v>636</v>
-      </c>
-      <c r="D294" s="2" t="s">
-        <v>637</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" s="2" t="s">
+        <v>637</v>
+      </c>
+      <c r="C295" s="2" t="s">
         <v>638</v>
       </c>
-      <c r="C295" s="2" t="s">
-        <v>639</v>
-      </c>
       <c r="D295" s="2" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" s="2" t="s">
+        <v>639</v>
+      </c>
+      <c r="C296" s="2" t="s">
         <v>640</v>
       </c>
-      <c r="C296" s="2" t="s">
-        <v>641</v>
-      </c>
       <c r="D296" s="2" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" s="2" t="s">
+        <v>641</v>
+      </c>
+      <c r="C297" s="2" t="s">
         <v>642</v>
       </c>
-      <c r="C297" s="2" t="s">
-        <v>643</v>
-      </c>
       <c r="D297" s="2" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" s="2" t="s">
+        <v>643</v>
+      </c>
+      <c r="C298" s="2" t="s">
         <v>644</v>
       </c>
-      <c r="C298" s="2" t="s">
-        <v>645</v>
-      </c>
       <c r="D298" s="2" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" s="2" t="s">
+        <v>645</v>
+      </c>
+      <c r="C299" s="2" t="s">
         <v>646</v>
       </c>
-      <c r="C299" s="2" t="s">
-        <v>647</v>
-      </c>
       <c r="D299" s="2" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" s="2" t="s">
+        <v>647</v>
+      </c>
+      <c r="C300" s="2" t="s">
         <v>648</v>
       </c>
-      <c r="C300" s="2" t="s">
-        <v>649</v>
-      </c>
       <c r="D300" s="2" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" s="2" t="s">
+        <v>649</v>
+      </c>
+      <c r="C301" s="2" t="s">
         <v>650</v>
       </c>
-      <c r="C301" s="2" t="s">
-        <v>651</v>
-      </c>
       <c r="D301" s="2" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" s="2" t="s">
+        <v>651</v>
+      </c>
+      <c r="C302" s="2" t="s">
         <v>652</v>
       </c>
-      <c r="C302" s="2" t="s">
-        <v>653</v>
-      </c>
       <c r="D302" s="2" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" s="2" t="s">
+        <v>653</v>
+      </c>
+      <c r="C303" s="2" t="s">
         <v>654</v>
       </c>
-      <c r="C303" s="2" t="s">
-        <v>655</v>
-      </c>
       <c r="D303" s="2" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" s="2" t="s">
+        <v>655</v>
+      </c>
+      <c r="C304" s="2" t="s">
         <v>656</v>
       </c>
-      <c r="C304" s="2" t="s">
-        <v>657</v>
-      </c>
       <c r="D304" s="2" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" s="2" t="s">
+        <v>657</v>
+      </c>
+      <c r="C305" s="2" t="s">
         <v>658</v>
       </c>
-      <c r="C305" s="2" t="s">
-        <v>659</v>
-      </c>
       <c r="D305" s="2" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" s="2" t="s">
+        <v>659</v>
+      </c>
+      <c r="C306" s="2" t="s">
         <v>660</v>
       </c>
-      <c r="C306" s="2" t="s">
-        <v>661</v>
-      </c>
       <c r="D306" s="2" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" s="2" t="s">
+        <v>661</v>
+      </c>
+      <c r="C307" s="2" t="s">
         <v>662</v>
       </c>
-      <c r="C307" s="2" t="s">
-        <v>663</v>
-      </c>
       <c r="D307" s="2" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" s="2" t="s">
+        <v>663</v>
+      </c>
+      <c r="C308" s="2" t="s">
         <v>664</v>
       </c>
-      <c r="C308" s="2" t="s">
-        <v>665</v>
-      </c>
       <c r="D308" s="2" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" s="2" t="s">
+        <v>665</v>
+      </c>
+      <c r="C309" s="2" t="s">
         <v>666</v>
       </c>
-      <c r="C309" s="2" t="s">
-        <v>667</v>
-      </c>
       <c r="D309" s="2" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" s="2" t="s">
+        <v>667</v>
+      </c>
+      <c r="C310" s="2" t="s">
         <v>668</v>
       </c>
-      <c r="C310" s="2" t="s">
-        <v>669</v>
-      </c>
       <c r="D310" s="2" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" s="2" t="s">
+        <v>669</v>
+      </c>
+      <c r="C311" s="2" t="s">
         <v>670</v>
       </c>
-      <c r="C311" s="2" t="s">
-        <v>671</v>
-      </c>
       <c r="D311" s="2" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" s="2" t="s">
+        <v>671</v>
+      </c>
+      <c r="C312" s="2" t="s">
         <v>672</v>
       </c>
-      <c r="C312" s="2" t="s">
-        <v>673</v>
-      </c>
       <c r="D312" s="2" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" s="2" t="s">
+        <v>673</v>
+      </c>
+      <c r="C313" s="2" t="s">
         <v>674</v>
       </c>
-      <c r="C313" s="2" t="s">
-        <v>675</v>
-      </c>
       <c r="D313" s="2" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" s="2" t="s">
+        <v>675</v>
+      </c>
+      <c r="C314" s="2" t="s">
         <v>676</v>
       </c>
-      <c r="C314" s="2" t="s">
-        <v>677</v>
-      </c>
       <c r="D314" s="2" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" s="2" t="s">
+        <v>677</v>
+      </c>
+      <c r="C315" s="2" t="s">
         <v>678</v>
       </c>
-      <c r="C315" s="2" t="s">
-        <v>679</v>
-      </c>
       <c r="D315" s="2" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" s="2" t="s">
+        <v>679</v>
+      </c>
+      <c r="C316" s="2" t="s">
         <v>680</v>
       </c>
-      <c r="C316" s="2" t="s">
-        <v>681</v>
-      </c>
       <c r="D316" s="2" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" s="2" t="s">
+        <v>681</v>
+      </c>
+      <c r="C317" s="2" t="s">
         <v>682</v>
       </c>
-      <c r="C317" s="2" t="s">
-        <v>683</v>
-      </c>
       <c r="D317" s="2" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" s="2" t="s">
+        <v>683</v>
+      </c>
+      <c r="C318" s="2" t="s">
         <v>684</v>
       </c>
-      <c r="C318" s="2" t="s">
+      <c r="D318" s="2" t="s">
         <v>685</v>
-      </c>
-      <c r="D318" s="2" t="s">
-        <v>686</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" s="2" t="s">
+        <v>686</v>
+      </c>
+      <c r="C319" s="2" t="s">
         <v>687</v>
       </c>
-      <c r="C319" s="2" t="s">
-        <v>688</v>
-      </c>
       <c r="D319" s="2" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" s="2" t="s">
+        <v>688</v>
+      </c>
+      <c r="C320" s="2" t="s">
         <v>689</v>
       </c>
-      <c r="C320" s="2" t="s">
-        <v>690</v>
-      </c>
       <c r="D320" s="2" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" s="2" t="s">
+        <v>690</v>
+      </c>
+      <c r="C321" s="2" t="s">
         <v>691</v>
       </c>
-      <c r="C321" s="2" t="s">
-        <v>692</v>
-      </c>
       <c r="D321" s="2" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" s="2" t="s">
+        <v>692</v>
+      </c>
+      <c r="C322" s="2" t="s">
         <v>693</v>
       </c>
-      <c r="C322" s="2" t="s">
+      <c r="D322" s="2" t="s">
         <v>694</v>
-      </c>
-      <c r="D322" s="2" t="s">
-        <v>695</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" s="2" t="s">
+        <v>695</v>
+      </c>
+      <c r="C323" s="2" t="s">
         <v>696</v>
       </c>
-      <c r="C323" s="2" t="s">
+      <c r="D323" s="2" t="s">
         <v>697</v>
-      </c>
-      <c r="D323" s="2" t="s">
-        <v>698</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" s="2" t="s">
+        <v>698</v>
+      </c>
+      <c r="C324" s="2" t="s">
         <v>699</v>
       </c>
-      <c r="C324" s="2" t="s">
-        <v>700</v>
-      </c>
       <c r="D324" s="2" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" s="2" t="s">
+        <v>700</v>
+      </c>
+      <c r="C325" s="2" t="s">
         <v>701</v>
       </c>
-      <c r="C325" s="2" t="s">
+      <c r="D325" s="2" t="s">
         <v>702</v>
-      </c>
-      <c r="D325" s="2" t="s">
-        <v>703</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" s="2" t="s">
+        <v>703</v>
+      </c>
+      <c r="C326" s="2" t="s">
         <v>704</v>
       </c>
-      <c r="C326" s="2" t="s">
+      <c r="D326" s="2" t="s">
         <v>705</v>
-      </c>
-      <c r="D326" s="2" t="s">
-        <v>706</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="C327" s="2" t="s">
         <v>707</v>
       </c>
-      <c r="C327" s="2" t="s">
+      <c r="D327" s="2" t="s">
         <v>708</v>
-      </c>
-      <c r="D327" s="2" t="s">
-        <v>709</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" s="2" t="s">
+        <v>709</v>
+      </c>
+      <c r="C328" s="2" t="s">
         <v>710</v>
       </c>
-      <c r="C328" s="2" t="s">
+      <c r="D328" s="2" t="s">
         <v>711</v>
-      </c>
-      <c r="D328" s="2" t="s">
-        <v>712</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" s="2" t="s">
+        <v>712</v>
+      </c>
+      <c r="C329" s="2" t="s">
         <v>713</v>
       </c>
-      <c r="C329" s="2" t="s">
+      <c r="D329" s="2" t="s">
         <v>714</v>
-      </c>
-      <c r="D329" s="2" t="s">
-        <v>715</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" s="2" t="s">
+        <v>715</v>
+      </c>
+      <c r="C330" s="2" t="s">
         <v>716</v>
       </c>
-      <c r="C330" s="2" t="s">
+      <c r="D330" s="2" t="s">
         <v>717</v>
-      </c>
-      <c r="D330" s="2" t="s">
-        <v>718</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" s="2" t="s">
+        <v>718</v>
+      </c>
+      <c r="C331" s="2" t="s">
         <v>719</v>
       </c>
-      <c r="C331" s="2" t="s">
+      <c r="D331" s="2" t="s">
         <v>720</v>
-      </c>
-      <c r="D331" s="2" t="s">
-        <v>721</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" s="2" t="s">
+        <v>721</v>
+      </c>
+      <c r="C332" s="2" t="s">
         <v>722</v>
       </c>
-      <c r="C332" s="2" t="s">
+      <c r="D332" s="2" t="s">
         <v>723</v>
-      </c>
-      <c r="D332" s="2" t="s">
-        <v>724</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" s="2" t="s">
+        <v>724</v>
+      </c>
+      <c r="C333" s="2" t="s">
         <v>725</v>
       </c>
-      <c r="C333" s="2" t="s">
+      <c r="D333" s="2" t="s">
         <v>726</v>
-      </c>
-      <c r="D333" s="2" t="s">
-        <v>727</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" s="2" t="s">
+        <v>727</v>
+      </c>
+      <c r="C334" s="2" t="s">
         <v>728</v>
       </c>
-      <c r="C334" s="2" t="s">
+      <c r="D334" s="2" t="s">
         <v>729</v>
-      </c>
-      <c r="D334" s="2" t="s">
-        <v>730</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" s="2" t="s">
+        <v>730</v>
+      </c>
+      <c r="C335" s="2" t="s">
         <v>731</v>
       </c>
-      <c r="C335" s="2" t="s">
-        <v>732</v>
-      </c>
       <c r="D335" s="2" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" s="2" t="s">
+        <v>732</v>
+      </c>
+      <c r="C336" s="2" t="s">
         <v>733</v>
       </c>
-      <c r="C336" s="2" t="s">
-        <v>734</v>
-      </c>
       <c r="D336" s="2" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" s="2" t="s">
+        <v>734</v>
+      </c>
+      <c r="C337" s="2" t="s">
         <v>735</v>
       </c>
-      <c r="C337" s="2" t="s">
-        <v>736</v>
-      </c>
       <c r="D337" s="2" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" s="2" t="s">
+        <v>736</v>
+      </c>
+      <c r="C338" s="2" t="s">
         <v>737</v>
       </c>
-      <c r="C338" s="2" t="s">
-        <v>738</v>
-      </c>
       <c r="D338" s="2" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" s="2" t="s">
+        <v>738</v>
+      </c>
+      <c r="C339" s="2" t="s">
         <v>739</v>
       </c>
-      <c r="C339" s="2" t="s">
-        <v>740</v>
-      </c>
       <c r="D339" s="2" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" s="2" t="s">
+        <v>740</v>
+      </c>
+      <c r="C340" s="2" t="s">
         <v>741</v>
       </c>
-      <c r="C340" s="2" t="s">
+      <c r="D340" s="2" t="s">
         <v>742</v>
-      </c>
-      <c r="D340" s="2" t="s">
-        <v>743</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" s="2" t="s">
+        <v>743</v>
+      </c>
+      <c r="C341" s="2" t="s">
         <v>744</v>
       </c>
-      <c r="C341" s="2" t="s">
-        <v>745</v>
-      </c>
       <c r="D341" s="2" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" s="2" t="s">
+        <v>745</v>
+      </c>
+      <c r="C342" s="2" t="s">
         <v>746</v>
       </c>
-      <c r="C342" s="2" t="s">
-        <v>747</v>
-      </c>
       <c r="D342" s="2" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" s="2" t="s">
+        <v>747</v>
+      </c>
+      <c r="C343" s="2" t="s">
         <v>748</v>
       </c>
-      <c r="C343" s="2" t="s">
-        <v>749</v>
-      </c>
       <c r="D343" s="2" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" s="2" t="s">
+        <v>749</v>
+      </c>
+      <c r="C344" s="2" t="s">
         <v>750</v>
       </c>
-      <c r="C344" s="2" t="s">
-        <v>751</v>
-      </c>
       <c r="D344" s="2" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" s="2" t="s">
+        <v>751</v>
+      </c>
+      <c r="C345" s="2" t="s">
         <v>752</v>
       </c>
-      <c r="C345" s="2" t="s">
-        <v>753</v>
-      </c>
       <c r="D345" s="2" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" s="2" t="s">
+        <v>753</v>
+      </c>
+      <c r="C346" s="2" t="s">
         <v>754</v>
       </c>
-      <c r="C346" s="2" t="s">
-        <v>755</v>
-      </c>
       <c r="D346" s="2" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" s="2" t="s">
+        <v>755</v>
+      </c>
+      <c r="C347" s="2" t="s">
         <v>756</v>
       </c>
-      <c r="C347" s="2" t="s">
-        <v>757</v>
-      </c>
       <c r="D347" s="2" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" s="2" t="s">
+        <v>757</v>
+      </c>
+      <c r="C348" s="2" t="s">
         <v>758</v>
       </c>
-      <c r="C348" s="2" t="s">
-        <v>759</v>
-      </c>
       <c r="D348" s="2" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" s="2" t="s">
+        <v>759</v>
+      </c>
+      <c r="C349" s="2" t="s">
         <v>760</v>
       </c>
-      <c r="C349" s="2" t="s">
-        <v>761</v>
-      </c>
       <c r="D349" s="2" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" s="2" t="s">
+        <v>761</v>
+      </c>
+      <c r="C350" s="2" t="s">
         <v>762</v>
       </c>
-      <c r="C350" s="2" t="s">
-        <v>763</v>
-      </c>
       <c r="D350" s="2" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" s="2" t="s">
+        <v>763</v>
+      </c>
+      <c r="C351" s="2" t="s">
         <v>764</v>
       </c>
-      <c r="C351" s="2" t="s">
-        <v>765</v>
-      </c>
       <c r="D351" s="2" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" s="2" t="s">
+        <v>765</v>
+      </c>
+      <c r="C352" s="2" t="s">
         <v>766</v>
       </c>
-      <c r="C352" s="2" t="s">
-        <v>767</v>
-      </c>
       <c r="D352" s="2" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" s="2" t="s">
+        <v>767</v>
+      </c>
+      <c r="C353" s="2" t="s">
         <v>768</v>
       </c>
-      <c r="C353" s="2" t="s">
-        <v>769</v>
-      </c>
       <c r="D353" s="2" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" s="2" t="s">
+        <v>769</v>
+      </c>
+      <c r="C354" s="2" t="s">
         <v>770</v>
       </c>
-      <c r="C354" s="2" t="s">
-        <v>771</v>
-      </c>
       <c r="D354" s="2" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" s="2" t="s">
+        <v>771</v>
+      </c>
+      <c r="C355" s="2" t="s">
         <v>772</v>
       </c>
-      <c r="C355" s="2" t="s">
-        <v>773</v>
-      </c>
       <c r="D355" s="2" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" s="2" t="s">
+        <v>773</v>
+      </c>
+      <c r="C356" s="2" t="s">
         <v>774</v>
       </c>
-      <c r="C356" s="2" t="s">
-        <v>775</v>
-      </c>
       <c r="D356" s="2" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" s="2" t="s">
+        <v>775</v>
+      </c>
+      <c r="C357" s="2" t="s">
         <v>776</v>
       </c>
-      <c r="C357" s="2" t="s">
-        <v>777</v>
-      </c>
       <c r="D357" s="2" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" s="2" t="s">
+        <v>777</v>
+      </c>
+      <c r="C358" s="2" t="s">
         <v>778</v>
       </c>
-      <c r="C358" s="2" t="s">
-        <v>779</v>
-      </c>
       <c r="D358" s="2" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" s="2" t="s">
+        <v>779</v>
+      </c>
+      <c r="C359" s="2" t="s">
         <v>780</v>
       </c>
-      <c r="C359" s="2" t="s">
-        <v>781</v>
-      </c>
       <c r="D359" s="2" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" s="2" t="s">
+        <v>781</v>
+      </c>
+      <c r="C360" s="2" t="s">
         <v>782</v>
       </c>
-      <c r="C360" s="2" t="s">
-        <v>783</v>
-      </c>
       <c r="D360" s="2" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" s="2" t="s">
+        <v>783</v>
+      </c>
+      <c r="C361" s="2" t="s">
         <v>784</v>
       </c>
-      <c r="C361" s="2" t="s">
-        <v>785</v>
-      </c>
       <c r="D361" s="2" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" s="2" t="s">
+        <v>785</v>
+      </c>
+      <c r="C362" s="2" t="s">
         <v>786</v>
       </c>
-      <c r="C362" s="2" t="s">
-        <v>787</v>
-      </c>
       <c r="D362" s="2" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" s="2" t="s">
+        <v>787</v>
+      </c>
+      <c r="C363" s="2" t="s">
         <v>788</v>
       </c>
-      <c r="C363" s="2" t="s">
-        <v>789</v>
-      </c>
       <c r="D363" s="2" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" s="2" t="s">
+        <v>789</v>
+      </c>
+      <c r="C364" s="2" t="s">
         <v>790</v>
       </c>
-      <c r="C364" s="2" t="s">
-        <v>791</v>
-      </c>
       <c r="D364" s="2" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" s="2" t="s">
+        <v>791</v>
+      </c>
+      <c r="C365" s="2" t="s">
         <v>792</v>
       </c>
-      <c r="C365" s="2" t="s">
-        <v>793</v>
-      </c>
       <c r="D365" s="2" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" s="2" t="s">
+        <v>793</v>
+      </c>
+      <c r="C366" s="2" t="s">
         <v>794</v>
       </c>
-      <c r="C366" s="2" t="s">
-        <v>795</v>
-      </c>
       <c r="D366" s="2" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" s="2" t="s">
+        <v>795</v>
+      </c>
+      <c r="C367" s="2" t="s">
         <v>796</v>
       </c>
-      <c r="C367" s="2" t="s">
-        <v>797</v>
-      </c>
       <c r="D367" s="2" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" s="2" t="s">
+        <v>797</v>
+      </c>
+      <c r="C368" s="2" t="s">
         <v>798</v>
       </c>
-      <c r="C368" s="2" t="s">
+      <c r="D368" s="2" t="s">
         <v>799</v>
-      </c>
-      <c r="D368" s="2" t="s">
-        <v>800</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" s="2" t="s">
+        <v>800</v>
+      </c>
+      <c r="C369" s="2" t="s">
         <v>801</v>
       </c>
-      <c r="C369" s="2" t="s">
+      <c r="D369" s="2" t="s">
         <v>802</v>
-      </c>
-      <c r="D369" s="2" t="s">
-        <v>803</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" s="2" t="s">
+        <v>803</v>
+      </c>
+      <c r="C370" s="2" t="s">
         <v>804</v>
       </c>
-      <c r="C370" s="2" t="s">
-        <v>805</v>
-      </c>
       <c r="D370" s="2" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" s="2" t="s">
+        <v>805</v>
+      </c>
+      <c r="C371" s="2" t="s">
         <v>806</v>
       </c>
-      <c r="C371" s="2" t="s">
-        <v>807</v>
-      </c>
       <c r="D371" s="2" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" s="2" t="s">
+        <v>807</v>
+      </c>
+      <c r="C372" s="2" t="s">
         <v>808</v>
       </c>
-      <c r="C372" s="2" t="s">
+      <c r="D372" s="2" t="s">
         <v>809</v>
-      </c>
-      <c r="D372" s="2" t="s">
-        <v>810</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" s="2" t="s">
+        <v>810</v>
+      </c>
+      <c r="C373" s="2" t="s">
         <v>811</v>
       </c>
-      <c r="C373" s="2" t="s">
-        <v>812</v>
-      </c>
       <c r="D373" s="2" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" s="2" t="s">
+        <v>812</v>
+      </c>
+      <c r="C374" s="2" t="s">
         <v>813</v>
       </c>
-      <c r="C374" s="2" t="s">
-        <v>814</v>
-      </c>
       <c r="D374" s="2" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" s="2" t="s">
+        <v>814</v>
+      </c>
+      <c r="C375" s="2" t="s">
         <v>815</v>
       </c>
-      <c r="C375" s="2" t="s">
-        <v>816</v>
-      </c>
       <c r="D375" s="2" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" s="2" t="s">
+        <v>816</v>
+      </c>
+      <c r="C376" s="2" t="s">
         <v>817</v>
       </c>
-      <c r="C376" s="2" t="s">
-        <v>818</v>
-      </c>
       <c r="D376" s="2" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" s="2" t="s">
+        <v>818</v>
+      </c>
+      <c r="C377" s="2" t="s">
         <v>819</v>
       </c>
-      <c r="C377" s="2" t="s">
-        <v>820</v>
-      </c>
       <c r="D377" s="2" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" s="2" t="s">
+        <v>820</v>
+      </c>
+      <c r="C378" s="2" t="s">
         <v>821</v>
       </c>
-      <c r="C378" s="2" t="s">
-        <v>822</v>
-      </c>
       <c r="D378" s="2" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" s="2" t="s">
+        <v>822</v>
+      </c>
+      <c r="C379" s="2" t="s">
         <v>823</v>
       </c>
-      <c r="C379" s="2" t="s">
-        <v>824</v>
-      </c>
       <c r="D379" s="2" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" s="2" t="s">
+        <v>824</v>
+      </c>
+      <c r="C380" s="2" t="s">
         <v>825</v>
-      </c>
-      <c r="C380" s="2" t="s">
-        <v>826</v>
       </c>
       <c r="D380" s="2"/>
     </row>
     <row r="381">
       <c r="A381" s="2" t="s">
+        <v>826</v>
+      </c>
+      <c r="C381" s="2" t="s">
         <v>827</v>
       </c>
-      <c r="C381" s="2" t="s">
+      <c r="D381" s="2" t="s">
         <v>828</v>
-      </c>
-      <c r="D381" s="2" t="s">
-        <v>829</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" s="2" t="s">
+        <v>829</v>
+      </c>
+      <c r="C382" s="2" t="s">
         <v>830</v>
       </c>
-      <c r="C382" s="2" t="s">
-        <v>831</v>
-      </c>
       <c r="D382" s="2" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" s="2" t="s">
+        <v>831</v>
+      </c>
+      <c r="C383" s="2" t="s">
         <v>832</v>
       </c>
-      <c r="C383" s="2" t="s">
-        <v>833</v>
-      </c>
       <c r="D383" s="2" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" s="2" t="s">
+        <v>833</v>
+      </c>
+      <c r="C384" s="2" t="s">
         <v>834</v>
       </c>
-      <c r="C384" s="2" t="s">
-        <v>835</v>
-      </c>
       <c r="D384" s="2" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" s="2" t="s">
+        <v>835</v>
+      </c>
+      <c r="C385" s="2" t="s">
         <v>836</v>
       </c>
-      <c r="C385" s="2" t="s">
-        <v>837</v>
-      </c>
       <c r="D385" s="2" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" s="2" t="s">
+        <v>837</v>
+      </c>
+      <c r="C386" s="2" t="s">
         <v>838</v>
       </c>
-      <c r="C386" s="2" t="s">
-        <v>839</v>
-      </c>
       <c r="D386" s="2" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" s="2" t="s">
+        <v>839</v>
+      </c>
+      <c r="C387" s="2" t="s">
         <v>840</v>
       </c>
-      <c r="C387" s="2" t="s">
-        <v>841</v>
-      </c>
       <c r="D387" s="2" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" s="2" t="s">
+        <v>841</v>
+      </c>
+      <c r="C388" s="2" t="s">
         <v>842</v>
       </c>
-      <c r="C388" s="2" t="s">
+      <c r="D388" s="2" t="s">
         <v>843</v>
-      </c>
-      <c r="D388" s="2" t="s">
-        <v>844</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" s="2" t="s">
+        <v>844</v>
+      </c>
+      <c r="C389" s="2" t="s">
         <v>845</v>
       </c>
-      <c r="C389" s="2" t="s">
-        <v>846</v>
-      </c>
       <c r="D389" s="2" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" s="2" t="s">
+        <v>846</v>
+      </c>
+      <c r="C390" s="2" t="s">
         <v>847</v>
       </c>
-      <c r="C390" s="2" t="s">
+      <c r="D390" s="2" t="s">
         <v>848</v>
-      </c>
-      <c r="D390" s="2" t="s">
-        <v>849</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" s="2" t="s">
+        <v>849</v>
+      </c>
+      <c r="C391" s="2" t="s">
         <v>850</v>
       </c>
-      <c r="C391" s="2" t="s">
+      <c r="D391" s="2" t="s">
         <v>851</v>
-      </c>
-      <c r="D391" s="2" t="s">
-        <v>852</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" s="2" t="s">
+        <v>852</v>
+      </c>
+      <c r="C392" s="2" t="s">
         <v>853</v>
       </c>
-      <c r="C392" s="2" t="s">
+      <c r="D392" s="2" t="s">
         <v>854</v>
-      </c>
-      <c r="D392" s="2" t="s">
-        <v>855</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" s="2" t="s">
+        <v>855</v>
+      </c>
+      <c r="C393" s="2" t="s">
         <v>856</v>
       </c>
-      <c r="C393" s="2" t="s">
+      <c r="D393" s="2" t="s">
         <v>857</v>
-      </c>
-      <c r="D393" s="2" t="s">
-        <v>858</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" s="2" t="s">
+        <v>858</v>
+      </c>
+      <c r="C394" s="2" t="s">
         <v>859</v>
       </c>
-      <c r="C394" s="2" t="s">
-        <v>860</v>
-      </c>
       <c r="D394" s="2" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" s="2" t="s">
+        <v>860</v>
+      </c>
+      <c r="C395" s="2" t="s">
         <v>861</v>
       </c>
-      <c r="C395" s="2" t="s">
-        <v>862</v>
-      </c>
       <c r="D395" s="2" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" s="2" t="s">
+        <v>862</v>
+      </c>
+      <c r="C396" s="2" t="s">
         <v>863</v>
       </c>
-      <c r="C396" s="2" t="s">
-        <v>864</v>
-      </c>
       <c r="D396" s="2" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" s="2" t="s">
+        <v>864</v>
+      </c>
+      <c r="C397" s="2" t="s">
         <v>865</v>
       </c>
-      <c r="C397" s="2" t="s">
-        <v>866</v>
-      </c>
       <c r="D397" s="2" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" s="2" t="s">
+        <v>866</v>
+      </c>
+      <c r="C398" s="2" t="s">
         <v>867</v>
       </c>
-      <c r="C398" s="2" t="s">
-        <v>868</v>
-      </c>
       <c r="D398" s="2" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" s="2" t="s">
+        <v>868</v>
+      </c>
+      <c r="C399" s="2" t="s">
         <v>869</v>
       </c>
-      <c r="C399" s="2" t="s">
-        <v>870</v>
-      </c>
       <c r="D399" s="2" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" s="2" t="s">
+        <v>870</v>
+      </c>
+      <c r="C400" s="2" t="s">
         <v>871</v>
       </c>
-      <c r="C400" s="2" t="s">
-        <v>872</v>
-      </c>
       <c r="D400" s="2" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" s="2" t="s">
+        <v>872</v>
+      </c>
+      <c r="C401" s="2" t="s">
         <v>873</v>
       </c>
-      <c r="C401" s="2" t="s">
-        <v>874</v>
-      </c>
       <c r="D401" s="2" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" s="2" t="s">
+        <v>874</v>
+      </c>
+      <c r="C402" s="2" t="s">
         <v>875</v>
       </c>
-      <c r="C402" s="2" t="s">
-        <v>876</v>
-      </c>
       <c r="D402" s="2" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" s="2" t="s">
+        <v>876</v>
+      </c>
+      <c r="C403" s="2" t="s">
         <v>877</v>
       </c>
-      <c r="C403" s="2" t="s">
+      <c r="D403" s="2" t="s">
         <v>878</v>
-      </c>
-      <c r="D403" s="2" t="s">
-        <v>879</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" s="2" t="s">
+        <v>879</v>
+      </c>
+      <c r="C404" s="2" t="s">
         <v>880</v>
       </c>
-      <c r="C404" s="2" t="s">
+      <c r="D404" s="2" t="s">
         <v>881</v>
-      </c>
-      <c r="D404" s="2" t="s">
-        <v>882</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" s="2" t="s">
+        <v>882</v>
+      </c>
+      <c r="C405" s="2" t="s">
         <v>883</v>
       </c>
-      <c r="C405" s="2" t="s">
+      <c r="D405" s="2" t="s">
         <v>884</v>
-      </c>
-      <c r="D405" s="2" t="s">
-        <v>885</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" s="2" t="s">
+        <v>885</v>
+      </c>
+      <c r="C406" s="2" t="s">
         <v>886</v>
       </c>
-      <c r="C406" s="2" t="s">
-        <v>887</v>
-      </c>
       <c r="D406" s="2" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" s="2" t="s">
+        <v>887</v>
+      </c>
+      <c r="C407" s="2" t="s">
         <v>888</v>
       </c>
-      <c r="C407" s="2" t="s">
-        <v>889</v>
-      </c>
       <c r="D407" s="2" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" s="2" t="s">
+        <v>889</v>
+      </c>
+      <c r="C408" s="2" t="s">
         <v>890</v>
       </c>
-      <c r="C408" s="2" t="s">
+      <c r="D408" s="2" t="s">
         <v>891</v>
-      </c>
-      <c r="D408" s="2" t="s">
-        <v>892</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" s="2" t="s">
+        <v>892</v>
+      </c>
+      <c r="C409" s="2" t="s">
         <v>893</v>
       </c>
-      <c r="C409" s="2" t="s">
+      <c r="D409" s="2" t="s">
         <v>894</v>
-      </c>
-      <c r="D409" s="2" t="s">
-        <v>895</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" s="2" t="s">
+        <v>895</v>
+      </c>
+      <c r="C410" s="2" t="s">
         <v>896</v>
       </c>
-      <c r="C410" s="2" t="s">
+      <c r="D410" s="2" t="s">
         <v>897</v>
-      </c>
-      <c r="D410" s="2" t="s">
-        <v>898</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" s="2" t="s">
+        <v>898</v>
+      </c>
+      <c r="C411" s="2" t="s">
         <v>899</v>
       </c>
-      <c r="C411" s="2" t="s">
-        <v>900</v>
-      </c>
       <c r="D411" s="2" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
     </row>
     <row r="412">
       <c r="A412" s="2" t="s">
+        <v>900</v>
+      </c>
+      <c r="C412" s="2" t="s">
         <v>901</v>
       </c>
-      <c r="C412" s="2" t="s">
+      <c r="D412" s="2" t="s">
         <v>902</v>
-      </c>
-      <c r="D412" s="2" t="s">
-        <v>903</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" s="2" t="s">
+        <v>903</v>
+      </c>
+      <c r="C413" s="2" t="s">
         <v>904</v>
       </c>
-      <c r="C413" s="2" t="s">
+      <c r="D413" s="2" t="s">
         <v>905</v>
-      </c>
-      <c r="D413" s="2" t="s">
-        <v>906</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" s="2" t="s">
+        <v>906</v>
+      </c>
+      <c r="C414" s="2" t="s">
         <v>907</v>
       </c>
-      <c r="C414" s="2" t="s">
+      <c r="D414" s="2" t="s">
         <v>908</v>
-      </c>
-      <c r="D414" s="2" t="s">
-        <v>909</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" s="2" t="s">
+        <v>909</v>
+      </c>
+      <c r="C415" s="2" t="s">
         <v>910</v>
       </c>
-      <c r="C415" s="2" t="s">
+      <c r="D415" s="2" t="s">
         <v>911</v>
-      </c>
-      <c r="D415" s="2" t="s">
-        <v>912</v>
       </c>
     </row>
     <row r="416">
       <c r="A416" s="2" t="s">
+        <v>912</v>
+      </c>
+      <c r="C416" s="2" t="s">
         <v>913</v>
       </c>
-      <c r="C416" s="2" t="s">
+      <c r="D416" s="2" t="s">
         <v>914</v>
-      </c>
-      <c r="D416" s="2" t="s">
-        <v>915</v>
       </c>
     </row>
     <row r="417">
       <c r="A417" s="2" t="s">
+        <v>915</v>
+      </c>
+      <c r="C417" s="2" t="s">
         <v>916</v>
       </c>
-      <c r="C417" s="2" t="s">
+      <c r="D417" s="2" t="s">
         <v>917</v>
-      </c>
-      <c r="D417" s="2" t="s">
-        <v>918</v>
       </c>
     </row>
     <row r="418">
       <c r="A418" s="2" t="s">
+        <v>918</v>
+      </c>
+      <c r="C418" s="2" t="s">
         <v>919</v>
       </c>
-      <c r="C418" s="2" t="s">
-        <v>920</v>
-      </c>
       <c r="D418" s="2" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="419">
       <c r="A419" s="2" t="s">
+        <v>920</v>
+      </c>
+      <c r="C419" s="2" t="s">
         <v>921</v>
       </c>
-      <c r="C419" s="2" t="s">
-        <v>922</v>
-      </c>
       <c r="D419" s="2" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
     </row>
     <row r="420">
       <c r="A420" s="2" t="s">
+        <v>922</v>
+      </c>
+      <c r="C420" s="2" t="s">
         <v>923</v>
       </c>
-      <c r="C420" s="2" t="s">
-        <v>924</v>
-      </c>
       <c r="D420" s="2" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="421">
       <c r="A421" s="2" t="s">
+        <v>924</v>
+      </c>
+      <c r="C421" s="2" t="s">
         <v>925</v>
       </c>
-      <c r="C421" s="2" t="s">
+      <c r="D421" s="2" t="s">
         <v>926</v>
-      </c>
-      <c r="D421" s="2" t="s">
-        <v>927</v>
       </c>
     </row>
     <row r="422">
       <c r="A422" s="2" t="s">
+        <v>927</v>
+      </c>
+      <c r="C422" s="2" t="s">
         <v>928</v>
-      </c>
-      <c r="C422" s="2" t="s">
-        <v>929</v>
       </c>
       <c r="D422" s="2" t="s">
         <v>171</v>
@@ -16907,1484 +16917,1484 @@
     </row>
     <row r="423">
       <c r="A423" s="2" t="s">
+        <v>929</v>
+      </c>
+      <c r="C423" s="2" t="s">
         <v>930</v>
       </c>
-      <c r="C423" s="2" t="s">
+      <c r="D423" s="2" t="s">
         <v>931</v>
-      </c>
-      <c r="D423" s="2" t="s">
-        <v>932</v>
       </c>
     </row>
     <row r="424">
       <c r="A424" s="2" t="s">
+        <v>932</v>
+      </c>
+      <c r="C424" s="2" t="s">
         <v>933</v>
       </c>
-      <c r="C424" s="2" t="s">
+      <c r="D424" s="2" t="s">
         <v>934</v>
-      </c>
-      <c r="D424" s="2" t="s">
-        <v>935</v>
       </c>
     </row>
     <row r="425">
       <c r="A425" s="2" t="s">
+        <v>935</v>
+      </c>
+      <c r="C425" s="2" t="s">
         <v>936</v>
       </c>
-      <c r="C425" s="2" t="s">
+      <c r="D425" s="2" t="s">
         <v>937</v>
-      </c>
-      <c r="D425" s="2" t="s">
-        <v>938</v>
       </c>
     </row>
     <row r="426">
       <c r="A426" s="2" t="s">
+        <v>938</v>
+      </c>
+      <c r="C426" s="2" t="s">
         <v>939</v>
       </c>
-      <c r="C426" s="2" t="s">
+      <c r="D426" s="2" t="s">
         <v>940</v>
-      </c>
-      <c r="D426" s="2" t="s">
-        <v>941</v>
       </c>
     </row>
     <row r="427">
       <c r="A427" s="2" t="s">
+        <v>941</v>
+      </c>
+      <c r="C427" s="2" t="s">
         <v>942</v>
       </c>
-      <c r="C427" s="2" t="s">
+      <c r="D427" s="2" t="s">
         <v>943</v>
-      </c>
-      <c r="D427" s="2" t="s">
-        <v>944</v>
       </c>
     </row>
     <row r="428">
       <c r="A428" s="2" t="s">
+        <v>944</v>
+      </c>
+      <c r="C428" s="2" t="s">
         <v>945</v>
       </c>
-      <c r="C428" s="2" t="s">
-        <v>946</v>
-      </c>
       <c r="D428" s="2" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
     </row>
     <row r="429">
       <c r="A429" s="2" t="s">
+        <v>946</v>
+      </c>
+      <c r="C429" s="2" t="s">
         <v>947</v>
       </c>
-      <c r="C429" s="2" t="s">
+      <c r="D429" s="2" t="s">
         <v>948</v>
-      </c>
-      <c r="D429" s="2" t="s">
-        <v>949</v>
       </c>
     </row>
     <row r="430">
       <c r="A430" s="2" t="s">
+        <v>949</v>
+      </c>
+      <c r="C430" s="2" t="s">
         <v>950</v>
       </c>
-      <c r="C430" s="2" t="s">
+      <c r="D430" s="2" t="s">
         <v>951</v>
-      </c>
-      <c r="D430" s="2" t="s">
-        <v>952</v>
       </c>
     </row>
     <row r="431">
       <c r="A431" s="2" t="s">
+        <v>952</v>
+      </c>
+      <c r="C431" s="2" t="s">
         <v>953</v>
       </c>
-      <c r="C431" s="2" t="s">
+      <c r="D431" s="2" t="s">
         <v>954</v>
-      </c>
-      <c r="D431" s="2" t="s">
-        <v>955</v>
       </c>
     </row>
     <row r="432">
       <c r="A432" s="2" t="s">
+        <v>955</v>
+      </c>
+      <c r="C432" s="2" t="s">
         <v>956</v>
       </c>
-      <c r="C432" s="2" t="s">
+      <c r="D432" s="2" t="s">
         <v>957</v>
-      </c>
-      <c r="D432" s="2" t="s">
-        <v>958</v>
       </c>
     </row>
     <row r="433">
       <c r="A433" s="2" t="s">
+        <v>958</v>
+      </c>
+      <c r="C433" s="2" t="s">
         <v>959</v>
       </c>
-      <c r="C433" s="2" t="s">
+      <c r="D433" s="2" t="s">
         <v>960</v>
-      </c>
-      <c r="D433" s="2" t="s">
-        <v>961</v>
       </c>
     </row>
     <row r="434">
       <c r="A434" s="2" t="s">
+        <v>961</v>
+      </c>
+      <c r="C434" s="2" t="s">
         <v>962</v>
       </c>
-      <c r="C434" s="2" t="s">
+      <c r="D434" s="2" t="s">
         <v>963</v>
-      </c>
-      <c r="D434" s="2" t="s">
-        <v>964</v>
       </c>
     </row>
     <row r="435">
       <c r="A435" s="2" t="s">
+        <v>964</v>
+      </c>
+      <c r="C435" s="2" t="s">
         <v>965</v>
       </c>
-      <c r="C435" s="2" t="s">
+      <c r="D435" s="2" t="s">
         <v>966</v>
-      </c>
-      <c r="D435" s="2" t="s">
-        <v>967</v>
       </c>
     </row>
     <row r="436">
       <c r="A436" s="2" t="s">
+        <v>967</v>
+      </c>
+      <c r="C436" s="2" t="s">
         <v>968</v>
       </c>
-      <c r="C436" s="2" t="s">
+      <c r="D436" s="2" t="s">
         <v>969</v>
-      </c>
-      <c r="D436" s="2" t="s">
-        <v>970</v>
       </c>
     </row>
     <row r="437">
       <c r="A437" s="2" t="s">
+        <v>970</v>
+      </c>
+      <c r="C437" s="2" t="s">
         <v>971</v>
       </c>
-      <c r="C437" s="2" t="s">
+      <c r="D437" s="2" t="s">
         <v>972</v>
-      </c>
-      <c r="D437" s="2" t="s">
-        <v>973</v>
       </c>
     </row>
     <row r="438">
       <c r="A438" s="2" t="s">
+        <v>973</v>
+      </c>
+      <c r="C438" s="2" t="s">
         <v>974</v>
       </c>
-      <c r="C438" s="2" t="s">
+      <c r="D438" s="2" t="s">
         <v>975</v>
-      </c>
-      <c r="D438" s="2" t="s">
-        <v>976</v>
       </c>
     </row>
     <row r="439">
       <c r="A439" s="2" t="s">
+        <v>976</v>
+      </c>
+      <c r="C439" s="2" t="s">
         <v>977</v>
       </c>
-      <c r="C439" s="2" t="s">
+      <c r="D439" s="2" t="s">
         <v>978</v>
-      </c>
-      <c r="D439" s="2" t="s">
-        <v>979</v>
       </c>
     </row>
     <row r="440">
       <c r="A440" s="2" t="s">
+        <v>979</v>
+      </c>
+      <c r="C440" s="2" t="s">
         <v>980</v>
       </c>
-      <c r="C440" s="2" t="s">
+      <c r="D440" s="2" t="s">
         <v>981</v>
-      </c>
-      <c r="D440" s="2" t="s">
-        <v>982</v>
       </c>
     </row>
     <row r="441">
       <c r="A441" s="2" t="s">
+        <v>982</v>
+      </c>
+      <c r="C441" s="2" t="s">
         <v>983</v>
       </c>
-      <c r="C441" s="2" t="s">
+      <c r="D441" s="2" t="s">
         <v>984</v>
-      </c>
-      <c r="D441" s="2" t="s">
-        <v>985</v>
       </c>
     </row>
     <row r="442">
       <c r="A442" s="2" t="s">
+        <v>985</v>
+      </c>
+      <c r="C442" s="2" t="s">
         <v>986</v>
       </c>
-      <c r="C442" s="2" t="s">
+      <c r="D442" s="2" t="s">
         <v>987</v>
-      </c>
-      <c r="D442" s="2" t="s">
-        <v>988</v>
       </c>
     </row>
     <row r="443">
       <c r="A443" s="2" t="s">
+        <v>988</v>
+      </c>
+      <c r="C443" s="2" t="s">
         <v>989</v>
       </c>
-      <c r="C443" s="2" t="s">
+      <c r="D443" s="2" t="s">
         <v>990</v>
-      </c>
-      <c r="D443" s="2" t="s">
-        <v>991</v>
       </c>
     </row>
     <row r="444">
       <c r="A444" s="2" t="s">
+        <v>991</v>
+      </c>
+      <c r="C444" s="2" t="s">
         <v>992</v>
       </c>
-      <c r="C444" s="2" t="s">
+      <c r="D444" s="2" t="s">
         <v>993</v>
-      </c>
-      <c r="D444" s="2" t="s">
-        <v>994</v>
       </c>
     </row>
     <row r="445">
       <c r="A445" s="2" t="s">
+        <v>994</v>
+      </c>
+      <c r="C445" s="2" t="s">
         <v>995</v>
       </c>
-      <c r="C445" s="2" t="s">
+      <c r="D445" s="2" t="s">
         <v>996</v>
-      </c>
-      <c r="D445" s="2" t="s">
-        <v>997</v>
       </c>
     </row>
     <row r="446">
       <c r="A446" s="2" t="s">
+        <v>997</v>
+      </c>
+      <c r="C446" s="2" t="s">
         <v>998</v>
       </c>
-      <c r="C446" s="2" t="s">
+      <c r="D446" s="2" t="s">
         <v>999</v>
-      </c>
-      <c r="D446" s="2" t="s">
-        <v>1000</v>
       </c>
     </row>
     <row r="447">
       <c r="A447" s="2" t="s">
+        <v>1000</v>
+      </c>
+      <c r="C447" s="2" t="s">
         <v>1001</v>
       </c>
-      <c r="C447" s="2" t="s">
+      <c r="D447" s="2" t="s">
         <v>1002</v>
-      </c>
-      <c r="D447" s="2" t="s">
-        <v>1003</v>
       </c>
     </row>
     <row r="448">
       <c r="A448" s="2" t="s">
+        <v>1003</v>
+      </c>
+      <c r="C448" s="2" t="s">
         <v>1004</v>
       </c>
-      <c r="C448" s="2" t="s">
+      <c r="D448" s="2" t="s">
         <v>1005</v>
-      </c>
-      <c r="D448" s="2" t="s">
-        <v>1006</v>
       </c>
     </row>
     <row r="449">
       <c r="A449" s="2" t="s">
+        <v>1006</v>
+      </c>
+      <c r="C449" s="2" t="s">
         <v>1007</v>
       </c>
-      <c r="C449" s="2" t="s">
+      <c r="D449" s="2" t="s">
         <v>1008</v>
-      </c>
-      <c r="D449" s="2" t="s">
-        <v>1009</v>
       </c>
     </row>
     <row r="450">
       <c r="A450" s="2" t="s">
+        <v>1009</v>
+      </c>
+      <c r="C450" s="2" t="s">
         <v>1010</v>
       </c>
-      <c r="C450" s="2" t="s">
+      <c r="D450" s="2" t="s">
         <v>1011</v>
-      </c>
-      <c r="D450" s="2" t="s">
-        <v>1012</v>
       </c>
     </row>
     <row r="451">
       <c r="A451" s="2" t="s">
+        <v>1012</v>
+      </c>
+      <c r="C451" s="2" t="s">
         <v>1013</v>
       </c>
-      <c r="C451" s="2" t="s">
+      <c r="D451" s="2" t="s">
         <v>1014</v>
-      </c>
-      <c r="D451" s="2" t="s">
-        <v>1015</v>
       </c>
     </row>
     <row r="452">
       <c r="A452" s="2" t="s">
+        <v>1015</v>
+      </c>
+      <c r="C452" s="2" t="s">
         <v>1016</v>
       </c>
-      <c r="C452" s="2" t="s">
+      <c r="D452" s="2" t="s">
         <v>1017</v>
-      </c>
-      <c r="D452" s="2" t="s">
-        <v>1018</v>
       </c>
     </row>
     <row r="453">
       <c r="A453" s="2" t="s">
+        <v>1018</v>
+      </c>
+      <c r="C453" s="2" t="s">
         <v>1019</v>
       </c>
-      <c r="C453" s="2" t="s">
+      <c r="D453" s="2" t="s">
         <v>1020</v>
-      </c>
-      <c r="D453" s="2" t="s">
-        <v>1021</v>
       </c>
     </row>
     <row r="454">
       <c r="A454" s="2" t="s">
+        <v>1021</v>
+      </c>
+      <c r="C454" s="2" t="s">
         <v>1022</v>
       </c>
-      <c r="C454" s="2" t="s">
+      <c r="D454" s="2" t="s">
         <v>1023</v>
-      </c>
-      <c r="D454" s="2" t="s">
-        <v>1024</v>
       </c>
     </row>
     <row r="455">
       <c r="A455" s="2" t="s">
+        <v>1024</v>
+      </c>
+      <c r="C455" s="2" t="s">
         <v>1025</v>
       </c>
-      <c r="C455" s="2" t="s">
+      <c r="D455" s="2" t="s">
         <v>1026</v>
-      </c>
-      <c r="D455" s="2" t="s">
-        <v>1027</v>
       </c>
     </row>
     <row r="456">
       <c r="A456" s="2" t="s">
+        <v>1027</v>
+      </c>
+      <c r="C456" s="2" t="s">
         <v>1028</v>
       </c>
-      <c r="C456" s="2" t="s">
+      <c r="D456" s="2" t="s">
         <v>1029</v>
-      </c>
-      <c r="D456" s="2" t="s">
-        <v>1030</v>
       </c>
     </row>
     <row r="457">
       <c r="A457" s="2" t="s">
+        <v>1030</v>
+      </c>
+      <c r="C457" s="2" t="s">
         <v>1031</v>
       </c>
-      <c r="C457" s="2" t="s">
+      <c r="D457" s="2" t="s">
         <v>1032</v>
-      </c>
-      <c r="D457" s="2" t="s">
-        <v>1033</v>
       </c>
     </row>
     <row r="458">
       <c r="A458" s="2" t="s">
+        <v>1033</v>
+      </c>
+      <c r="C458" s="2" t="s">
         <v>1034</v>
       </c>
-      <c r="C458" s="2" t="s">
+      <c r="D458" s="2" t="s">
         <v>1035</v>
-      </c>
-      <c r="D458" s="2" t="s">
-        <v>1036</v>
       </c>
     </row>
     <row r="459">
       <c r="A459" s="2" t="s">
+        <v>1036</v>
+      </c>
+      <c r="C459" s="2" t="s">
         <v>1037</v>
       </c>
-      <c r="C459" s="2" t="s">
+      <c r="D459" s="2" t="s">
         <v>1038</v>
-      </c>
-      <c r="D459" s="2" t="s">
-        <v>1039</v>
       </c>
     </row>
     <row r="460">
       <c r="A460" s="2" t="s">
+        <v>1039</v>
+      </c>
+      <c r="C460" s="2" t="s">
         <v>1040</v>
       </c>
-      <c r="C460" s="2" t="s">
+      <c r="D460" s="2" t="s">
         <v>1041</v>
-      </c>
-      <c r="D460" s="2" t="s">
-        <v>1042</v>
       </c>
     </row>
     <row r="461">
       <c r="A461" s="2" t="s">
+        <v>1042</v>
+      </c>
+      <c r="C461" s="2" t="s">
         <v>1043</v>
       </c>
-      <c r="C461" s="2" t="s">
+      <c r="D461" s="2" t="s">
         <v>1044</v>
-      </c>
-      <c r="D461" s="2" t="s">
-        <v>1045</v>
       </c>
     </row>
     <row r="462">
       <c r="A462" s="2" t="s">
+        <v>1045</v>
+      </c>
+      <c r="C462" s="2" t="s">
         <v>1046</v>
       </c>
-      <c r="C462" s="2" t="s">
+      <c r="D462" s="2" t="s">
         <v>1047</v>
-      </c>
-      <c r="D462" s="2" t="s">
-        <v>1048</v>
       </c>
     </row>
     <row r="463">
       <c r="A463" s="2" t="s">
+        <v>1048</v>
+      </c>
+      <c r="C463" s="2" t="s">
         <v>1049</v>
       </c>
-      <c r="C463" s="2" t="s">
+      <c r="D463" s="2" t="s">
         <v>1050</v>
-      </c>
-      <c r="D463" s="2" t="s">
-        <v>1051</v>
       </c>
     </row>
     <row r="464">
       <c r="A464" s="2" t="s">
+        <v>1051</v>
+      </c>
+      <c r="C464" s="2" t="s">
         <v>1052</v>
       </c>
-      <c r="C464" s="2" t="s">
+      <c r="D464" s="2" t="s">
         <v>1053</v>
-      </c>
-      <c r="D464" s="2" t="s">
-        <v>1054</v>
       </c>
     </row>
     <row r="465">
       <c r="A465" s="2" t="s">
+        <v>1054</v>
+      </c>
+      <c r="C465" s="2" t="s">
         <v>1055</v>
       </c>
-      <c r="C465" s="2" t="s">
+      <c r="D465" s="2" t="s">
         <v>1056</v>
-      </c>
-      <c r="D465" s="2" t="s">
-        <v>1057</v>
       </c>
     </row>
     <row r="466">
       <c r="A466" s="2" t="s">
+        <v>1057</v>
+      </c>
+      <c r="C466" s="2" t="s">
         <v>1058</v>
       </c>
-      <c r="C466" s="2" t="s">
+      <c r="D466" s="2" t="s">
         <v>1059</v>
-      </c>
-      <c r="D466" s="2" t="s">
-        <v>1060</v>
       </c>
     </row>
     <row r="467">
       <c r="A467" s="2" t="s">
+        <v>1060</v>
+      </c>
+      <c r="C467" s="2" t="s">
         <v>1061</v>
       </c>
-      <c r="C467" s="2" t="s">
-        <v>1062</v>
-      </c>
       <c r="D467" s="2" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="468">
       <c r="A468" s="2" t="s">
+        <v>1062</v>
+      </c>
+      <c r="C468" s="2" t="s">
         <v>1063</v>
       </c>
-      <c r="C468" s="2" t="s">
+      <c r="D468" s="2" t="s">
         <v>1064</v>
-      </c>
-      <c r="D468" s="2" t="s">
-        <v>1065</v>
       </c>
     </row>
     <row r="469">
       <c r="A469" s="2" t="s">
+        <v>1065</v>
+      </c>
+      <c r="C469" s="7" t="s">
         <v>1066</v>
       </c>
-      <c r="C469" s="7" t="s">
+      <c r="D469" s="2" t="s">
         <v>1067</v>
-      </c>
-      <c r="D469" s="2" t="s">
-        <v>1068</v>
       </c>
     </row>
     <row r="470">
       <c r="A470" s="2" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C470" s="7" t="s">
         <v>1069</v>
       </c>
-      <c r="C470" s="7" t="s">
+      <c r="D470" s="2" t="s">
         <v>1070</v>
-      </c>
-      <c r="D470" s="2" t="s">
-        <v>1071</v>
       </c>
     </row>
     <row r="471">
       <c r="A471" s="2" t="s">
+        <v>1071</v>
+      </c>
+      <c r="C471" s="7" t="s">
         <v>1072</v>
       </c>
-      <c r="C471" s="7" t="s">
+      <c r="D471" s="2" t="s">
         <v>1073</v>
-      </c>
-      <c r="D471" s="2" t="s">
-        <v>1074</v>
       </c>
     </row>
     <row r="472">
       <c r="A472" s="2" t="s">
+        <v>1074</v>
+      </c>
+      <c r="C472" s="7" t="s">
         <v>1075</v>
       </c>
-      <c r="C472" s="7" t="s">
+      <c r="D472" s="2" t="s">
         <v>1076</v>
-      </c>
-      <c r="D472" s="2" t="s">
-        <v>1077</v>
       </c>
     </row>
     <row r="473">
       <c r="A473" s="2" t="s">
+        <v>1077</v>
+      </c>
+      <c r="C473" s="7" t="s">
         <v>1078</v>
       </c>
-      <c r="C473" s="7" t="s">
+      <c r="D473" s="2" t="s">
         <v>1079</v>
-      </c>
-      <c r="D473" s="2" t="s">
-        <v>1080</v>
       </c>
     </row>
     <row r="474">
       <c r="A474" s="2" t="s">
+        <v>1080</v>
+      </c>
+      <c r="C474" s="7" t="s">
         <v>1081</v>
       </c>
-      <c r="C474" s="7" t="s">
-        <v>1082</v>
-      </c>
       <c r="D474" s="2" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="475">
       <c r="A475" s="2" t="s">
+        <v>1082</v>
+      </c>
+      <c r="C475" s="7" t="s">
         <v>1083</v>
       </c>
-      <c r="C475" s="7" t="s">
+      <c r="D475" s="2" t="s">
         <v>1084</v>
-      </c>
-      <c r="D475" s="2" t="s">
-        <v>1085</v>
       </c>
     </row>
     <row r="476">
       <c r="A476" s="2" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C476" s="7" t="s">
         <v>1086</v>
       </c>
-      <c r="C476" s="7" t="s">
-        <v>1087</v>
-      </c>
       <c r="D476" s="2" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="477">
       <c r="A477" s="2" t="s">
+        <v>1087</v>
+      </c>
+      <c r="C477" s="7" t="s">
         <v>1088</v>
       </c>
-      <c r="C477" s="7" t="s">
-        <v>1089</v>
-      </c>
       <c r="D477" s="2" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="478">
       <c r="A478" s="2" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C478" s="7" t="s">
         <v>1090</v>
       </c>
-      <c r="C478" s="7" t="s">
+      <c r="D478" s="2" t="s">
         <v>1091</v>
-      </c>
-      <c r="D478" s="2" t="s">
-        <v>1092</v>
       </c>
     </row>
     <row r="479">
       <c r="A479" s="2" t="s">
+        <v>1092</v>
+      </c>
+      <c r="C479" s="7" t="s">
         <v>1093</v>
       </c>
-      <c r="C479" s="7" t="s">
+      <c r="D479" s="2" t="s">
         <v>1094</v>
-      </c>
-      <c r="D479" s="2" t="s">
-        <v>1095</v>
       </c>
     </row>
     <row r="480">
       <c r="A480" s="2" t="s">
+        <v>1095</v>
+      </c>
+      <c r="C480" s="7" t="s">
         <v>1096</v>
       </c>
-      <c r="C480" s="7" t="s">
-        <v>1097</v>
-      </c>
       <c r="D480" s="2" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="481">
       <c r="A481" s="2" t="s">
+        <v>1097</v>
+      </c>
+      <c r="C481" s="7" t="s">
         <v>1098</v>
       </c>
-      <c r="C481" s="7" t="s">
-        <v>1099</v>
-      </c>
       <c r="D481" s="2" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="482">
       <c r="A482" s="2" t="s">
+        <v>1099</v>
+      </c>
+      <c r="C482" s="7" t="s">
         <v>1100</v>
       </c>
-      <c r="C482" s="7" t="s">
-        <v>1101</v>
-      </c>
       <c r="D482" s="2" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="483">
       <c r="A483" s="2" t="s">
+        <v>1101</v>
+      </c>
+      <c r="C483" s="7" t="s">
         <v>1102</v>
       </c>
-      <c r="C483" s="7" t="s">
-        <v>1103</v>
-      </c>
       <c r="D483" s="2" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="484">
       <c r="A484" s="2" t="s">
+        <v>1103</v>
+      </c>
+      <c r="C484" s="7" t="s">
         <v>1104</v>
       </c>
-      <c r="C484" s="7" t="s">
-        <v>1105</v>
-      </c>
       <c r="D484" s="2" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="485">
       <c r="A485" s="2" t="s">
+        <v>1105</v>
+      </c>
+      <c r="C485" s="7" t="s">
         <v>1106</v>
       </c>
-      <c r="C485" s="7" t="s">
-        <v>1107</v>
-      </c>
       <c r="D485" s="2" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="486">
       <c r="A486" s="2" t="s">
+        <v>1107</v>
+      </c>
+      <c r="C486" s="7" t="s">
         <v>1108</v>
       </c>
-      <c r="C486" s="7" t="s">
-        <v>1109</v>
-      </c>
       <c r="D486" s="2" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="487">
       <c r="A487" s="2" t="s">
+        <v>1109</v>
+      </c>
+      <c r="C487" s="7" t="s">
         <v>1110</v>
       </c>
-      <c r="C487" s="7" t="s">
-        <v>1111</v>
-      </c>
       <c r="D487" s="2" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="488">
       <c r="A488" s="2" t="s">
+        <v>1111</v>
+      </c>
+      <c r="C488" s="7" t="s">
         <v>1112</v>
       </c>
-      <c r="C488" s="7" t="s">
-        <v>1113</v>
-      </c>
       <c r="D488" s="2" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="489">
       <c r="A489" s="2" t="s">
+        <v>1113</v>
+      </c>
+      <c r="C489" s="7" t="s">
         <v>1114</v>
       </c>
-      <c r="C489" s="7" t="s">
-        <v>1115</v>
-      </c>
       <c r="D489" s="2" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="490">
       <c r="A490" s="2" t="s">
+        <v>1115</v>
+      </c>
+      <c r="C490" s="7" t="s">
         <v>1116</v>
       </c>
-      <c r="C490" s="7" t="s">
-        <v>1117</v>
-      </c>
       <c r="D490" s="2" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="491">
       <c r="A491" s="2" t="s">
+        <v>1117</v>
+      </c>
+      <c r="C491" s="7" t="s">
         <v>1118</v>
       </c>
-      <c r="C491" s="7" t="s">
-        <v>1119</v>
-      </c>
       <c r="D491" s="2" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="492">
       <c r="A492" s="2" t="s">
+        <v>1119</v>
+      </c>
+      <c r="C492" s="7" t="s">
         <v>1120</v>
       </c>
-      <c r="C492" s="7" t="s">
-        <v>1121</v>
-      </c>
       <c r="D492" s="2" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="493">
       <c r="A493" s="2" t="s">
+        <v>1121</v>
+      </c>
+      <c r="C493" s="7" t="s">
         <v>1122</v>
       </c>
-      <c r="C493" s="7" t="s">
+      <c r="D493" s="2" t="s">
         <v>1123</v>
-      </c>
-      <c r="D493" s="2" t="s">
-        <v>1124</v>
       </c>
     </row>
     <row r="494">
       <c r="A494" s="2" t="s">
+        <v>1124</v>
+      </c>
+      <c r="C494" s="7" t="s">
         <v>1125</v>
       </c>
-      <c r="C494" s="7" t="s">
-        <v>1126</v>
-      </c>
       <c r="D494" s="2" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="495">
       <c r="A495" s="2" t="s">
+        <v>1126</v>
+      </c>
+      <c r="C495" s="7" t="s">
         <v>1127</v>
       </c>
-      <c r="C495" s="7" t="s">
+      <c r="D495" s="2" t="s">
         <v>1128</v>
-      </c>
-      <c r="D495" s="2" t="s">
-        <v>1129</v>
       </c>
     </row>
     <row r="496">
       <c r="A496" s="2" t="s">
+        <v>1129</v>
+      </c>
+      <c r="C496" s="7" t="s">
         <v>1130</v>
       </c>
-      <c r="C496" s="7" t="s">
-        <v>1131</v>
-      </c>
       <c r="D496" s="2" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="497">
       <c r="A497" s="2" t="s">
+        <v>1131</v>
+      </c>
+      <c r="C497" s="7" t="s">
         <v>1132</v>
       </c>
-      <c r="C497" s="7" t="s">
+      <c r="D497" s="2" t="s">
         <v>1133</v>
-      </c>
-      <c r="D497" s="2" t="s">
-        <v>1134</v>
       </c>
     </row>
     <row r="498">
       <c r="A498" s="2" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C498" s="7" t="s">
         <v>1135</v>
       </c>
-      <c r="C498" s="7" t="s">
-        <v>1136</v>
-      </c>
       <c r="D498" s="2" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="499">
       <c r="A499" s="2" t="s">
+        <v>1136</v>
+      </c>
+      <c r="C499" s="7" t="s">
         <v>1137</v>
       </c>
-      <c r="C499" s="7" t="s">
-        <v>1138</v>
-      </c>
       <c r="D499" s="2" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="500">
       <c r="A500" s="2" t="s">
+        <v>1138</v>
+      </c>
+      <c r="C500" s="7" t="s">
         <v>1139</v>
       </c>
-      <c r="C500" s="7" t="s">
-        <v>1140</v>
-      </c>
       <c r="D500" s="2" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="501">
       <c r="A501" s="2" t="s">
+        <v>1140</v>
+      </c>
+      <c r="C501" s="7" t="s">
         <v>1141</v>
       </c>
-      <c r="C501" s="7" t="s">
-        <v>1142</v>
-      </c>
       <c r="D501" s="2" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="502">
       <c r="A502" s="2" t="s">
+        <v>1142</v>
+      </c>
+      <c r="C502" s="7" t="s">
         <v>1143</v>
       </c>
-      <c r="C502" s="7" t="s">
-        <v>1144</v>
-      </c>
       <c r="D502" s="2" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="503">
       <c r="A503" s="2" t="s">
+        <v>1144</v>
+      </c>
+      <c r="C503" s="7" t="s">
         <v>1145</v>
       </c>
-      <c r="C503" s="7" t="s">
-        <v>1146</v>
-      </c>
       <c r="D503" s="2" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="504">
       <c r="A504" s="2" t="s">
+        <v>1146</v>
+      </c>
+      <c r="C504" s="7" t="s">
         <v>1147</v>
       </c>
-      <c r="C504" s="7" t="s">
-        <v>1148</v>
-      </c>
       <c r="D504" s="2" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="505">
       <c r="A505" s="2" t="s">
+        <v>1148</v>
+      </c>
+      <c r="C505" s="7" t="s">
         <v>1149</v>
       </c>
-      <c r="C505" s="7" t="s">
-        <v>1150</v>
-      </c>
       <c r="D505" s="2" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="506">
       <c r="A506" s="2" t="s">
+        <v>1150</v>
+      </c>
+      <c r="C506" s="7" t="s">
         <v>1151</v>
       </c>
-      <c r="C506" s="7" t="s">
+      <c r="D506" s="2" t="s">
         <v>1152</v>
-      </c>
-      <c r="D506" s="2" t="s">
-        <v>1153</v>
       </c>
     </row>
     <row r="507">
       <c r="A507" s="2" t="s">
+        <v>1153</v>
+      </c>
+      <c r="C507" s="7" t="s">
         <v>1154</v>
       </c>
-      <c r="C507" s="7" t="s">
+      <c r="D507" s="2" t="s">
         <v>1155</v>
-      </c>
-      <c r="D507" s="2" t="s">
-        <v>1156</v>
       </c>
     </row>
     <row r="508">
       <c r="A508" s="2" t="s">
+        <v>1156</v>
+      </c>
+      <c r="C508" s="7" t="s">
         <v>1157</v>
       </c>
-      <c r="C508" s="7" t="s">
-        <v>1158</v>
-      </c>
       <c r="D508" s="2" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="509">
       <c r="A509" s="2" t="s">
+        <v>1158</v>
+      </c>
+      <c r="C509" s="7" t="s">
         <v>1159</v>
       </c>
-      <c r="C509" s="7" t="s">
+      <c r="D509" s="2" t="s">
         <v>1160</v>
-      </c>
-      <c r="D509" s="2" t="s">
-        <v>1161</v>
       </c>
     </row>
     <row r="510">
       <c r="A510" s="2" t="s">
+        <v>1161</v>
+      </c>
+      <c r="C510" s="7" t="s">
         <v>1162</v>
       </c>
-      <c r="C510" s="7" t="s">
+      <c r="D510" s="2" t="s">
         <v>1163</v>
-      </c>
-      <c r="D510" s="2" t="s">
-        <v>1164</v>
       </c>
     </row>
     <row r="511">
       <c r="A511" s="2" t="s">
+        <v>1164</v>
+      </c>
+      <c r="C511" s="7" t="s">
         <v>1165</v>
       </c>
-      <c r="C511" s="7" t="s">
-        <v>1166</v>
-      </c>
       <c r="D511" s="2" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="512">
       <c r="A512" s="2" t="s">
+        <v>1166</v>
+      </c>
+      <c r="C512" s="7" t="s">
         <v>1167</v>
       </c>
-      <c r="C512" s="7" t="s">
+      <c r="D512" s="2" t="s">
         <v>1168</v>
-      </c>
-      <c r="D512" s="2" t="s">
-        <v>1169</v>
       </c>
     </row>
     <row r="513">
       <c r="A513" s="2" t="s">
+        <v>1169</v>
+      </c>
+      <c r="C513" s="7" t="s">
         <v>1170</v>
       </c>
-      <c r="C513" s="7" t="s">
-        <v>1171</v>
-      </c>
       <c r="D513" s="2" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="514">
       <c r="A514" s="2" t="s">
+        <v>1171</v>
+      </c>
+      <c r="C514" s="7" t="s">
         <v>1172</v>
       </c>
-      <c r="C514" s="7" t="s">
+      <c r="D514" s="2" t="s">
         <v>1173</v>
-      </c>
-      <c r="D514" s="2" t="s">
-        <v>1174</v>
       </c>
     </row>
     <row r="515">
       <c r="A515" s="2" t="s">
+        <v>1174</v>
+      </c>
+      <c r="C515" s="7" t="s">
         <v>1175</v>
       </c>
-      <c r="C515" s="7" t="s">
+      <c r="D515" s="2" t="s">
         <v>1176</v>
-      </c>
-      <c r="D515" s="2" t="s">
-        <v>1177</v>
       </c>
     </row>
     <row r="516">
       <c r="A516" s="2" t="s">
+        <v>1177</v>
+      </c>
+      <c r="C516" s="7" t="s">
         <v>1178</v>
       </c>
-      <c r="C516" s="7" t="s">
-        <v>1179</v>
-      </c>
       <c r="D516" s="2" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="517">
       <c r="A517" s="2" t="s">
+        <v>1179</v>
+      </c>
+      <c r="C517" s="7" t="s">
         <v>1180</v>
       </c>
-      <c r="C517" s="7" t="s">
+      <c r="D517" s="2" t="s">
         <v>1181</v>
-      </c>
-      <c r="D517" s="2" t="s">
-        <v>1182</v>
       </c>
     </row>
     <row r="518">
       <c r="A518" s="2" t="s">
+        <v>1182</v>
+      </c>
+      <c r="C518" s="7" t="s">
         <v>1183</v>
       </c>
-      <c r="C518" s="7" t="s">
-        <v>1184</v>
-      </c>
       <c r="D518" s="2" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="519">
       <c r="A519" s="2" t="s">
+        <v>1184</v>
+      </c>
+      <c r="C519" s="7" t="s">
         <v>1185</v>
       </c>
-      <c r="C519" s="7" t="s">
-        <v>1186</v>
-      </c>
       <c r="D519" s="2" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="520">
       <c r="A520" s="2" t="s">
+        <v>1186</v>
+      </c>
+      <c r="C520" s="7" t="s">
         <v>1187</v>
       </c>
-      <c r="C520" s="7" t="s">
-        <v>1188</v>
-      </c>
       <c r="D520" s="2" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="521">
       <c r="A521" s="2" t="s">
+        <v>1188</v>
+      </c>
+      <c r="C521" s="7" t="s">
         <v>1189</v>
       </c>
-      <c r="C521" s="7" t="s">
-        <v>1190</v>
-      </c>
       <c r="D521" s="2" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="522">
       <c r="A522" s="2" t="s">
+        <v>1190</v>
+      </c>
+      <c r="C522" s="7" t="s">
         <v>1191</v>
       </c>
-      <c r="C522" s="7" t="s">
-        <v>1192</v>
-      </c>
       <c r="D522" s="2" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="523">
       <c r="A523" s="2" t="s">
+        <v>1192</v>
+      </c>
+      <c r="C523" s="7" t="s">
         <v>1193</v>
       </c>
-      <c r="C523" s="7" t="s">
-        <v>1194</v>
-      </c>
       <c r="D523" s="2" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="524">
       <c r="A524" s="2" t="s">
+        <v>1194</v>
+      </c>
+      <c r="C524" s="7" t="s">
         <v>1195</v>
       </c>
-      <c r="C524" s="7" t="s">
+      <c r="D524" s="2" t="s">
         <v>1196</v>
-      </c>
-      <c r="D524" s="2" t="s">
-        <v>1197</v>
       </c>
     </row>
     <row r="525">
       <c r="A525" s="2" t="s">
+        <v>1197</v>
+      </c>
+      <c r="C525" s="7" t="s">
         <v>1198</v>
       </c>
-      <c r="C525" s="7" t="s">
+      <c r="D525" s="2" t="s">
         <v>1199</v>
-      </c>
-      <c r="D525" s="2" t="s">
-        <v>1200</v>
       </c>
     </row>
     <row r="526">
       <c r="A526" s="2" t="s">
+        <v>1200</v>
+      </c>
+      <c r="C526" s="7" t="s">
         <v>1201</v>
       </c>
-      <c r="C526" s="7" t="s">
-        <v>1202</v>
-      </c>
       <c r="D526" s="2" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="527">
       <c r="A527" s="2" t="s">
+        <v>1202</v>
+      </c>
+      <c r="C527" s="7" t="s">
         <v>1203</v>
       </c>
-      <c r="C527" s="7" t="s">
-        <v>1204</v>
-      </c>
       <c r="D527" s="2" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="528">
       <c r="A528" s="2" t="s">
+        <v>1204</v>
+      </c>
+      <c r="C528" s="7" t="s">
         <v>1205</v>
       </c>
-      <c r="C528" s="7" t="s">
-        <v>1206</v>
-      </c>
       <c r="D528" s="2" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="529">
       <c r="A529" s="2" t="s">
+        <v>1206</v>
+      </c>
+      <c r="C529" s="7" t="s">
         <v>1207</v>
       </c>
-      <c r="C529" s="7" t="s">
+      <c r="D529" s="2" t="s">
         <v>1208</v>
-      </c>
-      <c r="D529" s="2" t="s">
-        <v>1209</v>
       </c>
     </row>
     <row r="530">
       <c r="A530" s="2" t="s">
+        <v>1209</v>
+      </c>
+      <c r="C530" s="7" t="s">
         <v>1210</v>
       </c>
-      <c r="C530" s="7" t="s">
-        <v>1211</v>
-      </c>
       <c r="D530" s="2" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="531">
       <c r="A531" s="2" t="s">
+        <v>1211</v>
+      </c>
+      <c r="C531" s="7" t="s">
         <v>1212</v>
       </c>
-      <c r="C531" s="7" t="s">
-        <v>1213</v>
-      </c>
       <c r="D531" s="2" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="532">
       <c r="A532" s="2" t="s">
+        <v>1213</v>
+      </c>
+      <c r="C532" s="7" t="s">
         <v>1214</v>
       </c>
-      <c r="C532" s="7" t="s">
+      <c r="D532" s="2" t="s">
         <v>1215</v>
-      </c>
-      <c r="D532" s="2" t="s">
-        <v>1216</v>
       </c>
     </row>
     <row r="533">
       <c r="A533" s="2" t="s">
+        <v>1216</v>
+      </c>
+      <c r="C533" s="7" t="s">
         <v>1217</v>
       </c>
-      <c r="C533" s="7" t="s">
+      <c r="D533" s="2" t="s">
         <v>1218</v>
-      </c>
-      <c r="D533" s="2" t="s">
-        <v>1219</v>
       </c>
     </row>
     <row r="534">
       <c r="A534" s="2" t="s">
+        <v>1219</v>
+      </c>
+      <c r="C534" s="7" t="s">
         <v>1220</v>
       </c>
-      <c r="C534" s="7" t="s">
-        <v>1221</v>
-      </c>
       <c r="D534" s="2" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="535">
       <c r="A535" s="2" t="s">
+        <v>1221</v>
+      </c>
+      <c r="C535" s="7" t="s">
         <v>1222</v>
       </c>
-      <c r="C535" s="7" t="s">
-        <v>1223</v>
-      </c>
       <c r="D535" s="2" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="536">
       <c r="A536" s="2" t="s">
+        <v>1223</v>
+      </c>
+      <c r="C536" s="7" t="s">
         <v>1224</v>
       </c>
-      <c r="C536" s="7" t="s">
-        <v>1225</v>
-      </c>
       <c r="D536" s="2" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="537">
       <c r="A537" s="2" t="s">
+        <v>1225</v>
+      </c>
+      <c r="C537" s="7" t="s">
         <v>1226</v>
       </c>
-      <c r="C537" s="7" t="s">
-        <v>1227</v>
-      </c>
       <c r="D537" s="2" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="538">
       <c r="A538" s="2" t="s">
+        <v>1227</v>
+      </c>
+      <c r="C538" s="7" t="s">
         <v>1228</v>
       </c>
-      <c r="C538" s="7" t="s">
-        <v>1229</v>
-      </c>
       <c r="D538" s="2" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="539">
       <c r="A539" s="2" t="s">
+        <v>1229</v>
+      </c>
+      <c r="C539" s="7" t="s">
         <v>1230</v>
       </c>
-      <c r="C539" s="7" t="s">
-        <v>1231</v>
-      </c>
       <c r="D539" s="2" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="540">
       <c r="A540" s="2" t="s">
+        <v>1231</v>
+      </c>
+      <c r="C540" s="7" t="s">
         <v>1232</v>
       </c>
-      <c r="C540" s="7" t="s">
-        <v>1233</v>
-      </c>
       <c r="D540" s="2" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="541">
       <c r="A541" s="2" t="s">
+        <v>1233</v>
+      </c>
+      <c r="C541" s="7" t="s">
         <v>1234</v>
       </c>
-      <c r="C541" s="7" t="s">
-        <v>1235</v>
-      </c>
       <c r="D541" s="2" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="542">
       <c r="A542" s="2" t="s">
+        <v>1235</v>
+      </c>
+      <c r="C542" s="7" t="s">
         <v>1236</v>
       </c>
-      <c r="C542" s="7" t="s">
-        <v>1237</v>
-      </c>
       <c r="D542" s="2" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="543">
       <c r="A543" s="2" t="s">
+        <v>1237</v>
+      </c>
+      <c r="C543" s="7" t="s">
         <v>1238</v>
       </c>
-      <c r="C543" s="7" t="s">
-        <v>1239</v>
-      </c>
       <c r="D543" s="2" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="544">
       <c r="A544" s="2" t="s">
+        <v>1239</v>
+      </c>
+      <c r="C544" s="7" t="s">
         <v>1240</v>
       </c>
-      <c r="C544" s="7" t="s">
-        <v>1241</v>
-      </c>
       <c r="D544" s="2" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="545">
       <c r="A545" s="2" t="s">
+        <v>1241</v>
+      </c>
+      <c r="C545" s="7" t="s">
         <v>1242</v>
       </c>
-      <c r="C545" s="7" t="s">
+      <c r="D545" s="2" t="s">
         <v>1243</v>
-      </c>
-      <c r="D545" s="2" t="s">
-        <v>1244</v>
       </c>
     </row>
     <row r="546">
       <c r="A546" s="2" t="s">
+        <v>1244</v>
+      </c>
+      <c r="C546" s="7" t="s">
         <v>1245</v>
       </c>
-      <c r="C546" s="7" t="s">
+      <c r="D546" s="2" t="s">
         <v>1246</v>
-      </c>
-      <c r="D546" s="2" t="s">
-        <v>1247</v>
       </c>
     </row>
     <row r="547">
       <c r="A547" s="2" t="s">
+        <v>1247</v>
+      </c>
+      <c r="C547" s="7" t="s">
         <v>1248</v>
       </c>
-      <c r="C547" s="7" t="s">
+      <c r="D547" s="2" t="s">
         <v>1249</v>
-      </c>
-      <c r="D547" s="2" t="s">
-        <v>1250</v>
       </c>
     </row>
     <row r="548">
       <c r="A548" s="2" t="s">
+        <v>1250</v>
+      </c>
+      <c r="C548" s="7" t="s">
         <v>1251</v>
       </c>
-      <c r="C548" s="7" t="s">
+      <c r="D548" s="2" t="s">
         <v>1252</v>
-      </c>
-      <c r="D548" s="2" t="s">
-        <v>1253</v>
       </c>
     </row>
     <row r="549">
       <c r="A549" s="2" t="s">
+        <v>1253</v>
+      </c>
+      <c r="C549" s="7" t="s">
         <v>1254</v>
       </c>
-      <c r="C549" s="7" t="s">
+      <c r="D549" s="2" t="s">
         <v>1255</v>
-      </c>
-      <c r="D549" s="2" t="s">
-        <v>1256</v>
       </c>
     </row>
     <row r="550">
       <c r="A550" s="2" t="s">
+        <v>1256</v>
+      </c>
+      <c r="C550" s="7" t="s">
         <v>1257</v>
       </c>
-      <c r="C550" s="7" t="s">
+      <c r="D550" s="2" t="s">
         <v>1258</v>
-      </c>
-      <c r="D550" s="2" t="s">
-        <v>1259</v>
       </c>
     </row>
     <row r="551">
       <c r="A551" s="2" t="s">
+        <v>1259</v>
+      </c>
+      <c r="C551" s="7" t="s">
         <v>1260</v>
       </c>
-      <c r="C551" s="7" t="s">
-        <v>1261</v>
-      </c>
       <c r="D551" s="2" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="552">
       <c r="A552" s="2" t="s">
+        <v>1261</v>
+      </c>
+      <c r="C552" s="7" t="s">
         <v>1262</v>
       </c>
-      <c r="C552" s="7" t="s">
-        <v>1263</v>
-      </c>
       <c r="D552" s="2" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="553">
       <c r="A553" s="2" t="s">
+        <v>1263</v>
+      </c>
+      <c r="C553" s="7" t="s">
         <v>1264</v>
       </c>
-      <c r="C553" s="7" t="s">
-        <v>1265</v>
-      </c>
       <c r="D553" s="2" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="554">
       <c r="A554" s="2" t="s">
+        <v>1265</v>
+      </c>
+      <c r="C554" s="7" t="s">
         <v>1266</v>
       </c>
-      <c r="C554" s="7" t="s">
-        <v>1267</v>
-      </c>
       <c r="D554" s="2" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="555">
       <c r="A555" s="2" t="s">
+        <v>1267</v>
+      </c>
+      <c r="C555" s="7" t="s">
         <v>1268</v>
       </c>
-      <c r="C555" s="7" t="s">
-        <v>1269</v>
-      </c>
       <c r="D555" s="2" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="556">
       <c r="A556" s="2" t="s">
+        <v>1269</v>
+      </c>
+      <c r="C556" s="7" t="s">
         <v>1270</v>
       </c>
-      <c r="C556" s="7" t="s">
-        <v>1271</v>
-      </c>
       <c r="D556" s="2" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="557">
       <c r="A557" s="2" t="s">
+        <v>1271</v>
+      </c>
+      <c r="C557" s="7" t="s">
         <v>1272</v>
-      </c>
-      <c r="C557" s="7" t="s">
-        <v>1273</v>
       </c>
       <c r="D557" s="2" t="s">
         <v>130</v>
@@ -18392,10 +18402,10 @@
     </row>
     <row r="558">
       <c r="A558" s="2" t="s">
+        <v>1273</v>
+      </c>
+      <c r="C558" s="7" t="s">
         <v>1274</v>
-      </c>
-      <c r="C558" s="7" t="s">
-        <v>1275</v>
       </c>
       <c r="D558" s="2" t="s">
         <v>130</v>
@@ -18403,332 +18413,343 @@
     </row>
     <row r="559">
       <c r="A559" s="2" t="s">
+        <v>1275</v>
+      </c>
+      <c r="C559" s="7" t="s">
         <v>1276</v>
       </c>
-      <c r="C559" s="7" t="s">
+      <c r="D559" s="2" t="s">
         <v>1277</v>
-      </c>
-      <c r="D559" s="2" t="s">
-        <v>1278</v>
       </c>
     </row>
     <row r="560">
       <c r="A560" s="2" t="s">
+        <v>1278</v>
+      </c>
+      <c r="C560" s="7" t="s">
         <v>1279</v>
       </c>
-      <c r="C560" s="7" t="s">
-        <v>1280</v>
-      </c>
       <c r="D560" s="2" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="561">
       <c r="A561" s="2" t="s">
+        <v>1280</v>
+      </c>
+      <c r="C561" s="7" t="s">
         <v>1281</v>
       </c>
-      <c r="C561" s="7" t="s">
+      <c r="D561" s="2" t="s">
         <v>1282</v>
-      </c>
-      <c r="D561" s="2" t="s">
-        <v>1283</v>
       </c>
     </row>
     <row r="562">
       <c r="A562" s="2" t="s">
+        <v>1283</v>
+      </c>
+      <c r="C562" s="7" t="s">
         <v>1284</v>
       </c>
-      <c r="C562" s="7" t="s">
+      <c r="D562" s="2" t="s">
         <v>1285</v>
-      </c>
-      <c r="D562" s="2" t="s">
-        <v>1286</v>
       </c>
     </row>
     <row r="563">
       <c r="A563" s="2" t="s">
+        <v>1286</v>
+      </c>
+      <c r="C563" s="7" t="s">
         <v>1287</v>
       </c>
-      <c r="C563" s="7" t="s">
-        <v>1288</v>
-      </c>
       <c r="D563" s="2" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="564">
       <c r="A564" s="2" t="s">
+        <v>1288</v>
+      </c>
+      <c r="C564" s="7" t="s">
         <v>1289</v>
       </c>
-      <c r="C564" s="7" t="s">
-        <v>1290</v>
-      </c>
       <c r="D564" s="2" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="565">
       <c r="A565" s="2" t="s">
+        <v>1290</v>
+      </c>
+      <c r="C565" s="7" t="s">
         <v>1291</v>
       </c>
-      <c r="C565" s="7" t="s">
-        <v>1292</v>
-      </c>
       <c r="D565" s="2" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="566">
       <c r="A566" s="2" t="s">
+        <v>1292</v>
+      </c>
+      <c r="C566" s="7" t="s">
         <v>1293</v>
       </c>
-      <c r="C566" s="7" t="s">
-        <v>1294</v>
-      </c>
       <c r="D566" s="2" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="567">
       <c r="A567" s="2" t="s">
+        <v>1294</v>
+      </c>
+      <c r="C567" s="7" t="s">
         <v>1295</v>
       </c>
-      <c r="C567" s="7" t="s">
-        <v>1296</v>
-      </c>
       <c r="D567" s="2" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="568">
       <c r="A568" s="2" t="s">
+        <v>1296</v>
+      </c>
+      <c r="C568" s="7" t="s">
         <v>1297</v>
       </c>
-      <c r="C568" s="7" t="s">
-        <v>1298</v>
-      </c>
       <c r="D568" s="2" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="569">
       <c r="A569" s="2" t="s">
+        <v>1298</v>
+      </c>
+      <c r="C569" s="7" t="s">
         <v>1299</v>
       </c>
-      <c r="C569" s="7" t="s">
-        <v>1300</v>
-      </c>
       <c r="D569" s="2" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="570">
       <c r="A570" s="2" t="s">
+        <v>1300</v>
+      </c>
+      <c r="C570" s="7" t="s">
         <v>1301</v>
       </c>
-      <c r="C570" s="7" t="s">
+      <c r="D570" s="2" t="s">
         <v>1302</v>
-      </c>
-      <c r="D570" s="2" t="s">
-        <v>1303</v>
       </c>
     </row>
     <row r="571">
       <c r="A571" s="2" t="s">
+        <v>1303</v>
+      </c>
+      <c r="C571" s="7" t="s">
         <v>1304</v>
       </c>
-      <c r="C571" s="7" t="s">
-        <v>1305</v>
-      </c>
       <c r="D571" s="2" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="572">
       <c r="A572" s="2" t="s">
+        <v>1305</v>
+      </c>
+      <c r="C572" s="7" t="s">
         <v>1306</v>
       </c>
-      <c r="C572" s="7" t="s">
-        <v>1307</v>
-      </c>
       <c r="D572" s="2" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="573">
       <c r="A573" s="2" t="s">
+        <v>1307</v>
+      </c>
+      <c r="C573" s="7" t="s">
         <v>1308</v>
       </c>
-      <c r="C573" s="7" t="s">
+      <c r="D573" s="2" t="s">
         <v>1309</v>
-      </c>
-      <c r="D573" s="2" t="s">
-        <v>1310</v>
       </c>
     </row>
     <row r="574">
       <c r="A574" s="2" t="s">
+        <v>1310</v>
+      </c>
+      <c r="C574" s="7" t="s">
         <v>1311</v>
       </c>
-      <c r="C574" s="7" t="s">
-        <v>1312</v>
-      </c>
       <c r="D574" s="2" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="575">
       <c r="A575" s="2" t="s">
+        <v>1312</v>
+      </c>
+      <c r="C575" s="7" t="s">
         <v>1313</v>
       </c>
-      <c r="C575" s="7" t="s">
+      <c r="D575" s="2" t="s">
         <v>1314</v>
-      </c>
-      <c r="D575" s="2" t="s">
-        <v>1315</v>
       </c>
     </row>
     <row r="576">
       <c r="A576" s="2" t="s">
+        <v>1315</v>
+      </c>
+      <c r="C576" s="7" t="s">
         <v>1316</v>
       </c>
-      <c r="C576" s="7" t="s">
+      <c r="D576" s="2" t="s">
         <v>1317</v>
-      </c>
-      <c r="D576" s="2" t="s">
-        <v>1318</v>
       </c>
     </row>
     <row r="577">
       <c r="A577" s="2" t="s">
+        <v>1318</v>
+      </c>
+      <c r="C577" s="7" t="s">
         <v>1319</v>
       </c>
-      <c r="C577" s="7" t="s">
-        <v>1320</v>
-      </c>
       <c r="D577" s="2" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="578">
       <c r="A578" s="2" t="s">
+        <v>1320</v>
+      </c>
+      <c r="C578" s="7" t="s">
         <v>1321</v>
       </c>
-      <c r="C578" s="7" t="s">
-        <v>1322</v>
-      </c>
       <c r="D578" s="2" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="579">
       <c r="A579" s="2" t="s">
+        <v>1322</v>
+      </c>
+      <c r="C579" s="7" t="s">
         <v>1323</v>
       </c>
-      <c r="C579" s="7" t="s">
-        <v>1324</v>
-      </c>
       <c r="D579" s="2" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="580">
       <c r="A580" s="2" t="s">
+        <v>1324</v>
+      </c>
+      <c r="C580" s="7" t="s">
         <v>1325</v>
       </c>
-      <c r="C580" s="7" t="s">
-        <v>1326</v>
-      </c>
       <c r="D580" s="2" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="581">
       <c r="A581" s="2" t="s">
+        <v>1326</v>
+      </c>
+      <c r="C581" s="7" t="s">
         <v>1327</v>
       </c>
-      <c r="C581" s="7" t="s">
-        <v>1328</v>
-      </c>
       <c r="D581" s="2" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="582">
       <c r="A582" s="2" t="s">
+        <v>1328</v>
+      </c>
+      <c r="C582" s="7" t="s">
         <v>1329</v>
       </c>
-      <c r="C582" s="7" t="s">
-        <v>1330</v>
-      </c>
       <c r="D582" s="2" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="583">
       <c r="A583" s="2" t="s">
+        <v>1330</v>
+      </c>
+      <c r="C583" s="7" t="s">
         <v>1331</v>
       </c>
-      <c r="C583" s="7" t="s">
-        <v>1332</v>
-      </c>
       <c r="D583" s="2" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="584">
       <c r="A584" s="2" t="s">
+        <v>1332</v>
+      </c>
+      <c r="C584" s="7" t="s">
         <v>1333</v>
       </c>
-      <c r="C584" s="7" t="s">
-        <v>1334</v>
-      </c>
       <c r="D584" s="2" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="585">
       <c r="A585" s="2" t="s">
+        <v>1334</v>
+      </c>
+      <c r="C585" s="7" t="s">
         <v>1335</v>
       </c>
-      <c r="C585" s="7" t="s">
-        <v>1336</v>
-      </c>
       <c r="D585" s="2" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="586">
       <c r="A586" s="2" t="s">
+        <v>1336</v>
+      </c>
+      <c r="C586" s="7" t="s">
         <v>1337</v>
       </c>
-      <c r="C586" s="7" t="s">
-        <v>1338</v>
-      </c>
       <c r="D586" s="2" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="587">
       <c r="A587" s="2" t="s">
+        <v>1338</v>
+      </c>
+      <c r="C587" s="7" t="s">
         <v>1339</v>
       </c>
-      <c r="C587" s="7" t="s">
-        <v>1340</v>
-      </c>
       <c r="D587" s="2" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="588">
       <c r="A588" s="2" t="s">
+        <v>1340</v>
+      </c>
+      <c r="C588" s="7" t="s">
         <v>1341</v>
       </c>
-      <c r="C588" s="7" t="s">
+      <c r="D588" s="2" t="s">
         <v>1342</v>
       </c>
-      <c r="D588" s="2" t="s">
+    </row>
+    <row r="589">
+      <c r="A589" s="2" t="s">
         <v>1343</v>
+      </c>
+      <c r="C589" s="7" t="s">
+        <v>1344</v>
+      </c>
+      <c r="D589" s="2" t="s">
+        <v>1345</v>
       </c>
     </row>
   </sheetData>
@@ -18767,18 +18788,18 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>1344</v>
+        <v>1346</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>1345</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>1346</v>
+        <v>1348</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>1347</v>
+        <v>1349</v>
       </c>
     </row>
   </sheetData>

--- a/csv/merge.xlsx
+++ b/csv/merge.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1737" uniqueCount="1350">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1740" uniqueCount="1352">
   <si>
     <t>JP Text (DO NOT CHANGE)</t>
   </si>
@@ -11981,6 +11981,16 @@
   </si>
   <si>
     <t>PATTERN: Typhoo dialogue</t>
+  </si>
+  <si>
+    <t>「おうおう。とっとと　バトってこいや。
+　特に　今は　&lt;monster_name&gt;げとの
+　ケンカが　見てえ気分だぜ！</t>
+  </si>
+  <si>
+    <t>Hey, hey, get battlin'! I'm especially in the
+mood to see some fights against any
+&lt;monster_name&gt;!</t>
   </si>
   <si>
     <t>メインコマンド『せんれき』の
@@ -18752,6 +18762,17 @@
         <v>1345</v>
       </c>
     </row>
+    <row r="590">
+      <c r="A590" s="2" t="s">
+        <v>1346</v>
+      </c>
+      <c r="C590" s="7" t="s">
+        <v>1347</v>
+      </c>
+      <c r="D590" s="2" t="s">
+        <v>1345</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -18788,18 +18809,18 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>1346</v>
+        <v>1348</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>1347</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>1348</v>
+        <v>1350</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>1349</v>
+        <v>1351</v>
       </c>
     </row>
   </sheetData>

--- a/csv/merge.xlsx
+++ b/csv/merge.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1740" uniqueCount="1352">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1761" uniqueCount="1368">
   <si>
     <t>JP Text (DO NOT CHANGE)</t>
   </si>
@@ -11962,35 +11962,397 @@
     <t>Nalbia Slime</t>
   </si>
   <si>
-    <t>「&lt;monster_name&gt;を倒せば
-　オレのテンションは　大きく　上がるだろうよ。
-　他の魔物でも　ちょいとは　上がるがな。
-&lt;br&gt;
-「よっしゃ　残り　&lt;min_left&gt;分だ　行ってこいや！
-　最低１匹は　魔物を倒してこねえと
-　礼は　やらねえからな！&lt;bw_break&gt;</t>
-  </si>
-  <si>
-    <t>Go beat up some &lt;monster_name&gt;
-to boost up my tension! Other monsters
-will boost it a little bit, too.
-&lt;br&gt;
-Come on, ya' got &lt;min_left&gt; minute(s) left!
-And I won't give ya' anything unless you
-beat at least one monster!</t>
-  </si>
-  <si>
-    <t>PATTERN: Typhoo dialogue</t>
-  </si>
-  <si>
-    <t>「おうおう。とっとと　バトってこいや。
-　特に　今は　&lt;monster_name&gt;げとの
-　ケンカが　見てえ気分だぜ！</t>
-  </si>
-  <si>
-    <t>Hey, hey, get battlin'! I'm especially in the
-mood to see some fights against any
-&lt;monster_name&gt;!</t>
+    <t xml:space="preserve">　でも　ひとつ　忠告です。くれぐれも
+　パピルマさんのクチぐせに　影響されないでね。
+&lt;br&gt;
+「わたくしたちは　客商売なのだから
+　依頼者と接するときは
+　ていねいに　お話しすること。よろしくて？
+&lt;select_nc&gt;
+了解です！
+わっかたでやーんす
+気をつけるじゃんよぉ
+&lt;select_end&gt;
+&lt;case 1&gt;
+&lt;break&gt;
+&lt;case 2&gt;
+&lt;break&gt;
+&lt;case 3&gt;
+&lt;break&gt;
+&lt;case_end&gt;</t>
+  </si>
+  <si>
+    <t>Hey! But one word of advice.
+Don't be influenced by Papilma's mouth. We
+are a customer service firm, so be polite
+&lt;br&gt;
+when dealing with clients. Okay?
+&lt;select_nc&gt;
+I understand!
+I got it.
+I'll be careful.
+&lt;select_end&gt;
+&lt;case 1&gt;
+&lt;break&gt;
+&lt;case 2&gt;
+&lt;break&gt;
+&lt;case 3&gt;
+&lt;break&gt;
+&lt;case_end&gt;</t>
+  </si>
+  <si>
+    <t>Death Master Quest (BAD STRING)</t>
+  </si>
+  <si>
+    <t>変えられるようだ。
+&lt;select 1&gt;
+衣装を変える
+カスタム衣装を登録する
+見た目を変える
+体格を変える
+なまえを変える
+やめる
+&lt;select_end&gt;
+&lt;case 1&gt;
+&lt;close&gt;
+&lt;case 2&gt;
+&lt;close&gt;
+&lt;case 3&gt;
+&lt;break&gt;
+&lt;case 4&gt;
+&lt;break&gt;
+&lt;case 5&gt;
+&lt;close&gt;
+&lt;case 6&gt;
+&lt;close&gt;
+&lt;case_cancel&gt;
+&lt;close&gt;
+&lt;case_end&gt;</t>
+  </si>
+  <si>
+    <t>&lt;speed=0&gt;With this mirror, it seems you can change
+the name and appearance of your sibling.
+&lt;select 1&gt;
+Change Outfit
+Register Custom Outfit
+Change Appearance
+Change Body Size
+Change Name
+Cancel
+&lt;select_end&gt;
+&lt;case 1&gt;
+&lt;close&gt;
+&lt;case 2&gt;
+&lt;close&gt;
+&lt;case 3&gt;
+&lt;break&gt;
+&lt;case 4&gt;
+&lt;break&gt;
+&lt;case 5&gt;
+&lt;close&gt;
+&lt;case 6&gt;
+&lt;close&gt;
+&lt;case_cancel&gt;
+&lt;close&gt;
+&lt;case_end&gt;</t>
+  </si>
+  <si>
+    <t>Sibling mirror (BAD STRING)</t>
+  </si>
+  <si>
+    <t>変えられるようだ。
+&lt;select 2&gt;
+衣装を変える
+カスタム衣装を登録する
+見た目を変える
+体格を変える
+なまえを変える
+やめる
+&lt;select_end&gt;
+&lt;case 1&gt;
+&lt;close&gt;
+&lt;case 2&gt;
+&lt;close&gt;
+&lt;case 3&gt;
+&lt;break&gt;
+&lt;case 4&gt;
+&lt;break&gt;
+&lt;case 5&gt;
+&lt;close&gt;
+&lt;case 6&gt;
+&lt;close&gt;
+&lt;case_cancel&gt;
+&lt;close&gt;
+&lt;case_end&gt;</t>
+  </si>
+  <si>
+    <t>&lt;speed=0&gt;With this mirror, it seems you can change
+the name and appearance of your sibling.
+&lt;select 2&gt;
+Change Outfit
+Register Custom Outfit
+Change Appearance
+Change Body Size
+Change Name
+Cancel
+&lt;select_end&gt;
+&lt;case 1&gt;
+&lt;close&gt;
+&lt;case 2&gt;
+&lt;close&gt;
+&lt;case 3&gt;
+&lt;break&gt;
+&lt;case 4&gt;
+&lt;break&gt;
+&lt;case 5&gt;
+&lt;close&gt;
+&lt;case 6&gt;
+&lt;close&gt;
+&lt;case_cancel&gt;
+&lt;close&gt;
+&lt;case_end&gt;</t>
+  </si>
+  <si>
+    <t>変えられるようだ。
+&lt;select 3&gt;
+衣装を変える
+カスタム衣装を登録する
+見た目を変える
+体格を変える
+なまえを変える
+やめる
+&lt;select_end&gt;
+&lt;case 1&gt;
+&lt;close&gt;
+&lt;case 2&gt;
+&lt;close&gt;
+&lt;case 3&gt;
+&lt;break&gt;
+&lt;case 4&gt;
+&lt;break&gt;
+&lt;case 5&gt;
+&lt;close&gt;
+&lt;case 6&gt;
+&lt;close&gt;
+&lt;case_cancel&gt;
+&lt;close&gt;
+&lt;case_end&gt;</t>
+  </si>
+  <si>
+    <t>&lt;speed=0&gt;With this mirror, it seems you can change
+the name and appearance of your sibling.
+&lt;select 3&gt;
+Change Outfit
+Register Custom Outfit
+Change Appearance
+Change Body Size
+Change Name
+Cancel
+&lt;select_end&gt;
+&lt;case 1&gt;
+&lt;close&gt;
+&lt;case 2&gt;
+&lt;close&gt;
+&lt;case 3&gt;
+&lt;break&gt;
+&lt;case 4&gt;
+&lt;break&gt;
+&lt;case 5&gt;
+&lt;close&gt;
+&lt;case 6&gt;
+&lt;close&gt;
+&lt;case_cancel&gt;
+&lt;close&gt;
+&lt;case_end&gt;</t>
+  </si>
+  <si>
+    <t>変えられるようだ。
+&lt;select 4&gt;
+衣装を変える
+カスタム衣装を登録する
+見た目を変える
+体格を変える
+なまえを変える
+やめる
+&lt;select_end&gt;
+&lt;case 1&gt;
+&lt;close&gt;
+&lt;case 2&gt;
+&lt;close&gt;
+&lt;case 3&gt;
+&lt;break&gt;
+&lt;case 4&gt;
+&lt;break&gt;
+&lt;case 5&gt;
+&lt;close&gt;
+&lt;case 6&gt;
+&lt;close&gt;
+&lt;case_cancel&gt;
+&lt;close&gt;
+&lt;case_end&gt;</t>
+  </si>
+  <si>
+    <t>&lt;speed=0&gt;With this mirror, it seems you can change
+the name and appearance of your sibling.
+&lt;select 4&gt;
+Change Outfit
+Register Custom Outfit
+Change Appearance
+Change Body Size
+Change Name
+Cancel
+&lt;select_end&gt;
+&lt;case 1&gt;
+&lt;close&gt;
+&lt;case 2&gt;
+&lt;close&gt;
+&lt;case 3&gt;
+&lt;break&gt;
+&lt;case 4&gt;
+&lt;break&gt;
+&lt;case 5&gt;
+&lt;close&gt;
+&lt;case 6&gt;
+&lt;close&gt;
+&lt;case_cancel&gt;
+&lt;close&gt;
+&lt;case_end&gt;</t>
+  </si>
+  <si>
+    <t>変えられるようだ。
+&lt;select 5&gt;
+衣装を変える
+カスタム衣装を登録する
+見た目を変える
+体格を変える
+なまえを変える
+やめる
+&lt;select_end&gt;
+&lt;case 1&gt;
+&lt;close&gt;
+&lt;case 2&gt;
+&lt;close&gt;
+&lt;case 3&gt;
+&lt;break&gt;
+&lt;case 4&gt;
+&lt;break&gt;
+&lt;case 5&gt;
+&lt;close&gt;
+&lt;case 6&gt;
+&lt;close&gt;
+&lt;case_cancel&gt;
+&lt;close&gt;
+&lt;case_end&gt;</t>
+  </si>
+  <si>
+    <t>&lt;speed=0&gt;With this mirror, it seems you can change
+the name and appearance of your sibling.
+&lt;select 5&gt;
+Change Outfit
+Register Custom Outfit
+Change Appearance
+Change Body Size
+Change Name
+Cancel
+&lt;select_end&gt;
+&lt;case 1&gt;
+&lt;close&gt;
+&lt;case 2&gt;
+&lt;close&gt;
+&lt;case 3&gt;
+&lt;break&gt;
+&lt;case 4&gt;
+&lt;break&gt;
+&lt;case 5&gt;
+&lt;close&gt;
+&lt;case 6&gt;
+&lt;close&gt;
+&lt;case_cancel&gt;
+&lt;close&gt;
+&lt;case_end&gt;</t>
+  </si>
+  <si>
+    <t>「先日　レンドア島と　レンダーシアをつなぐ
+　定期船　グランドタイタス号の修理が完了し
+　出港の準備が整ったという報告が　ありました。
+&lt;br&gt;
+「しかし　レンダーシアへ上陸するためには
+　入った者すべてを迷わせ　海に沈めるという
+　紫の霧……迷いの霧を越えなくてはなりません。
+&lt;br&gt;
+「その霧に対抗する手段を　探した結果
+　魔法の羅針盤という　特別な羅針盤を使えば
+　レンダーシアへ行けることが　わかりました。
+&lt;br&gt;
+「しかし　魔法の羅針盤を作るには　特別な材料が
+　大量に必要となるため　実力ある冒険者の方に
+　協力を依頼して　集めることになったのです。
+&lt;br&gt;
+「その特別な材料とは　ときのすいしょうが
+　ひとつ　まほうのせいすいが　５つ
+　そして　無限の磁力石という　不思議な石……。
+&lt;br&gt;
+「この依頼を達成していただけると
+　レンダーシアへの道が　開けることでしょう。</t>
+  </si>
+  <si>
+    <t>We just received word that the Grand Titus,
+the liner that goes between Lendor and
+Lendersia, has been repaired and is ready
+&lt;br&gt;
+to sail.
+&lt;br&gt;
+However, in order to land in Lendersia, a
+purple, magical mist must be passed through.
+It's said all who pass through it are doomed
+&lt;br&gt;
+to wander the seas astray forever...
+&lt;br&gt;
+They were searching for a way to travel
+through it, and found it is possible using
+a device called the Magic Compass.
+&lt;br&gt;
+In order to create the compass, they'll need
+a large amount of materials. We've asked some
+experienced adventurers to help to gather the
+&lt;br&gt;
+materials needed.
+&lt;br&gt;
+The materials needed are... one Chronocrystal,
+five Magic Waters, and a mysterious stone
+called an Infinite Magnetite.
+&lt;br&gt;
+If you can do this, the way to Lendersia will
+be opened. Will you help us?</t>
+  </si>
+  <si>
+    <t>V2 start dialogue (BAD STRING)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">　お好きな方法で　入手なさってください。
+&lt;br&gt;
+「無限の磁力石は　キラーマシンを倒せば
+　確実に拾え　からくりだいみょうならば
+　何匹か倒すと　拾えるそうですよ。</t>
+  </si>
+  <si>
+    <t>Thank you so much! The Chronocrystal and
+Magic Waters can be procured any way you'd
+like.
+&lt;br&gt;
+The Infinite Magnetite can be found by
+defeating either a Killing Machine or some
+Bamboogiemen.</t>
+  </si>
+  <si>
+    <t>「材料が　すべて　そろいましたら
+　どの町の宿屋の案内係でも　かまいませんので
+　すぐに　お持ちください。</t>
+  </si>
+  <si>
+    <t>When you get all of the materials, please bring
+them to a Guide in any inn. We wish you good
+luck in getting everything collected.</t>
   </si>
   <si>
     <t>メインコマンド『せんれき』の
@@ -18770,7 +19132,84 @@
         <v>1347</v>
       </c>
       <c r="D590" s="2" t="s">
-        <v>1345</v>
+        <v>1348</v>
+      </c>
+    </row>
+    <row r="591">
+      <c r="A591" s="2" t="s">
+        <v>1349</v>
+      </c>
+      <c r="C591" s="7" t="s">
+        <v>1350</v>
+      </c>
+      <c r="D591" s="2" t="s">
+        <v>1348</v>
+      </c>
+    </row>
+    <row r="592">
+      <c r="A592" s="2" t="s">
+        <v>1351</v>
+      </c>
+      <c r="C592" s="7" t="s">
+        <v>1352</v>
+      </c>
+      <c r="D592" s="2" t="s">
+        <v>1348</v>
+      </c>
+    </row>
+    <row r="593">
+      <c r="A593" s="2" t="s">
+        <v>1353</v>
+      </c>
+      <c r="C593" s="7" t="s">
+        <v>1354</v>
+      </c>
+      <c r="D593" s="2" t="s">
+        <v>1348</v>
+      </c>
+    </row>
+    <row r="594">
+      <c r="A594" s="2" t="s">
+        <v>1355</v>
+      </c>
+      <c r="C594" s="7" t="s">
+        <v>1356</v>
+      </c>
+      <c r="D594" s="2" t="s">
+        <v>1348</v>
+      </c>
+    </row>
+    <row r="595">
+      <c r="A595" s="2" t="s">
+        <v>1357</v>
+      </c>
+      <c r="C595" s="7" t="s">
+        <v>1358</v>
+      </c>
+      <c r="D595" s="2" t="s">
+        <v>1359</v>
+      </c>
+    </row>
+    <row r="596">
+      <c r="A596" s="2" t="s">
+        <v>1360</v>
+      </c>
+      <c r="C596" s="7" t="s">
+        <v>1361</v>
+      </c>
+      <c r="D596" s="2" t="s">
+        <v>1359</v>
+      </c>
+    </row>
+    <row r="597">
+      <c r="A597" s="2" t="s">
+        <v>1362</v>
+      </c>
+      <c r="C597" s="7" t="s">
+        <v>1363</v>
+      </c>
+      <c r="D597" s="2" t="s">
+        <v>1359</v>
       </c>
     </row>
   </sheetData>
@@ -18809,18 +19248,18 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>1348</v>
+        <v>1364</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>1349</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>1350</v>
+        <v>1366</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>1351</v>
+        <v>1367</v>
       </c>
     </row>
   </sheetData>

--- a/csv/merge.xlsx
+++ b/csv/merge.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1761" uniqueCount="1368">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1764" uniqueCount="1371">
   <si>
     <t>JP Text (DO NOT CHANGE)</t>
   </si>
@@ -12353,6 +12353,15 @@
     <t>When you get all of the materials, please bring
 them to a Guide in any inn. We wish you good
 luck in getting everything collected.</t>
+  </si>
+  <si>
+    <t>魔仙卿のカギを使った。&lt;se_nots Joutyu_SE 57&gt;</t>
+  </si>
+  <si>
+    <t>You used the Oracle's Key.&lt;se_nots Joutyu_SE 57&gt;</t>
+  </si>
+  <si>
+    <t>V5 locked doors (BAD STRING)</t>
   </si>
   <si>
     <t>メインコマンド『せんれき』の
@@ -19212,6 +19221,17 @@
         <v>1359</v>
       </c>
     </row>
+    <row r="598">
+      <c r="A598" s="2" t="s">
+        <v>1364</v>
+      </c>
+      <c r="C598" s="7" t="s">
+        <v>1365</v>
+      </c>
+      <c r="D598" s="2" t="s">
+        <v>1366</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -19248,18 +19268,18 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>1364</v>
+        <v>1367</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>1365</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>1366</v>
+        <v>1369</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>1367</v>
+        <v>1370</v>
       </c>
     </row>
   </sheetData>

--- a/csv/merge.xlsx
+++ b/csv/merge.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1764" uniqueCount="1371">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1776" uniqueCount="1382">
   <si>
     <t>JP Text (DO NOT CHANGE)</t>
   </si>
@@ -12362,6 +12362,71 @@
   </si>
   <si>
     <t>V5 locked doors (BAD STRING)</t>
+  </si>
+  <si>
+    <t>ここでは　ネコの気配を感じない……。
+ネコバッグは　新エテーネの村の
+屋外で使ってみよう。</t>
+  </si>
+  <si>
+    <t>There are no sign of any cats here...
+Try using the Cat Bag outdoors while in
+New Ethene Village.</t>
+  </si>
+  <si>
+    <t>Cat bag</t>
+  </si>
+  <si>
+    <t>&lt;pipipi_mid&gt;
+「おつかれさま。
+　元の場所に　戻る？&lt;yesno&gt;&lt;break&gt;</t>
+  </si>
+  <si>
+    <t>&lt;pipipi_mid&gt;
+Hey, nice work. Wanna head back?&lt;yesno&gt;&lt;break&gt;</t>
+  </si>
+  <si>
+    <t>Fluffy dialogue</t>
+  </si>
+  <si>
+    <t>&lt;pipipi_mid&gt;
+「それじゃあ　バトルを始めるよ！
+　準備は　いいかな！？
+&lt;select&gt;
+バトルに進む
+退出する
+&lt;select_end&gt;
+&lt;case 1&gt;
+&lt;close&gt;
+&lt;case 2&gt;
+&lt;break&gt;
+&lt;case_cancel&gt;
+&lt;break&gt;
+&lt;case_end&gt;</t>
+  </si>
+  <si>
+    <t>&lt;pipipi_mid&gt;
+The battle's about to start! Are you ready?!
+&lt;select&gt;
+Ready
+Leave
+&lt;select_end&gt;
+&lt;case 1&gt;
+&lt;close&gt;
+&lt;case 2&gt;
+&lt;break&gt;
+&lt;case_cancel&gt;
+&lt;break&gt;
+&lt;case_end&gt;</t>
+  </si>
+  <si>
+    <t>&lt;pipipi_off&gt;全員の　準備が完了しました。&lt;auto_bw=3000&gt;&lt;close&gt;</t>
+  </si>
+  <si>
+    <t>&lt;pipipi_off&gt;All players are ready.&lt;auto_bw=3000&gt;&lt;close&gt;</t>
+  </si>
+  <si>
+    <t>Battle Road dialogue</t>
   </si>
   <si>
     <t>メインコマンド『せんれき』の
@@ -19232,6 +19297,50 @@
         <v>1366</v>
       </c>
     </row>
+    <row r="599">
+      <c r="A599" s="2" t="s">
+        <v>1367</v>
+      </c>
+      <c r="C599" s="7" t="s">
+        <v>1368</v>
+      </c>
+      <c r="D599" s="2" t="s">
+        <v>1369</v>
+      </c>
+    </row>
+    <row r="600">
+      <c r="A600" s="2" t="s">
+        <v>1370</v>
+      </c>
+      <c r="C600" s="7" t="s">
+        <v>1371</v>
+      </c>
+      <c r="D600" s="2" t="s">
+        <v>1372</v>
+      </c>
+    </row>
+    <row r="601">
+      <c r="A601" s="2" t="s">
+        <v>1373</v>
+      </c>
+      <c r="C601" s="7" t="s">
+        <v>1374</v>
+      </c>
+      <c r="D601" s="2" t="s">
+        <v>1372</v>
+      </c>
+    </row>
+    <row r="602">
+      <c r="A602" s="2" t="s">
+        <v>1375</v>
+      </c>
+      <c r="C602" s="7" t="s">
+        <v>1376</v>
+      </c>
+      <c r="D602" s="2" t="s">
+        <v>1377</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -19268,18 +19377,18 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>1367</v>
+        <v>1378</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>1368</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>1369</v>
+        <v>1380</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>1370</v>
+        <v>1381</v>
       </c>
     </row>
   </sheetData>

--- a/csv/merge.xlsx
+++ b/csv/merge.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1776" uniqueCount="1382">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1797" uniqueCount="1399">
   <si>
     <t>JP Text (DO NOT CHANGE)</t>
   </si>
@@ -12427,6 +12427,76 @@
   </si>
   <si>
     <t>Battle Road dialogue</t>
+  </si>
+  <si>
+    <t>ユーライザのメモを
+ふところから　取りだして　読んでみた。
+とても　美しい文字が　踊っている。&lt;bw_break&gt;</t>
+  </si>
+  <si>
+    <t>You took Yuliza's note from your pocket to
+read. Beautiful looking letters danced around
+its pages.&lt;bw_break&gt;</t>
+  </si>
+  <si>
+    <t>Yuliza's note (BAD STRING)</t>
+  </si>
+  <si>
+    <t>写真立てを調べて　私と行ってみたい
+思い出の場所を　選んでくださると
+うれしいです。</t>
+  </si>
+  <si>
+    <t>"I would be happy if you could look at my
+photo frame and choose a memorable
+place we could visit together."</t>
+  </si>
+  <si>
+    <t>Yuliza's note</t>
+  </si>
+  <si>
+    <t>この場所で　ユーライザの写真を撮ろう！</t>
+  </si>
+  <si>
+    <t>Take a photo of Yuliza at this spot!</t>
+  </si>
+  <si>
+    <t>Yuliza photo</t>
+  </si>
+  <si>
+    <t>思い出の場所で　記念写真を撮った！&lt;se_nots System 7&gt;&lt;bw_break&gt;</t>
+  </si>
+  <si>
+    <t>Took a photo at a Memory Spot!&lt;se_nots System 7&gt;&lt;bw_break&gt;</t>
+  </si>
+  <si>
+    <t>ここがユーライザの　思い出の場所のようだ。
+写真を撮る前に　ユーライザと話をしますか？&lt;yesno&gt;&lt;close&gt;</t>
+  </si>
+  <si>
+    <t>This seems to be Yuliza's Memory Spot.
+Would you like to speak with her before
+taking a photo?&lt;yesno&gt;&lt;close&gt;</t>
+  </si>
+  <si>
+    <t>撮った写真は　ユーライザの部屋にある
+写真立てで　見られます。
+ユーライザの部屋に戻ろう。</t>
+  </si>
+  <si>
+    <t>You can view the photos you've taken by
+looking at the picture frame in Yuliza' room.
+Why not head back and take a look?</t>
+  </si>
+  <si>
+    <t>&lt;attr&gt;&lt;feel_custom&gt;&lt;end_attr&gt;「……よろしければ　ここで
+　私の写真を　撮っていただけませんか？
+　思い出として　残しておきたいのです。</t>
+  </si>
+  <si>
+    <t>&lt;attr&gt;&lt;feel_custom&gt;&lt;end_attr&gt;...if it's all right with you, could you take
+a photo of me in this spot? I'd really like to
+keep it as a good memory.</t>
   </si>
   <si>
     <t>メインコマンド『せんれき』の
@@ -19341,6 +19411,83 @@
         <v>1377</v>
       </c>
     </row>
+    <row r="603">
+      <c r="A603" s="2" t="s">
+        <v>1378</v>
+      </c>
+      <c r="C603" s="7" t="s">
+        <v>1379</v>
+      </c>
+      <c r="D603" s="2" t="s">
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="604">
+      <c r="A604" s="2" t="s">
+        <v>1381</v>
+      </c>
+      <c r="C604" s="7" t="s">
+        <v>1382</v>
+      </c>
+      <c r="D604" s="2" t="s">
+        <v>1383</v>
+      </c>
+    </row>
+    <row r="605">
+      <c r="A605" s="2" t="s">
+        <v>1384</v>
+      </c>
+      <c r="C605" s="7" t="s">
+        <v>1385</v>
+      </c>
+      <c r="D605" s="2" t="s">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="606">
+      <c r="A606" s="2" t="s">
+        <v>1387</v>
+      </c>
+      <c r="C606" s="7" t="s">
+        <v>1388</v>
+      </c>
+      <c r="D606" s="2" t="s">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="607">
+      <c r="A607" s="2" t="s">
+        <v>1389</v>
+      </c>
+      <c r="C607" s="7" t="s">
+        <v>1390</v>
+      </c>
+      <c r="D607" s="2" t="s">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="608">
+      <c r="A608" s="2" t="s">
+        <v>1391</v>
+      </c>
+      <c r="C608" s="7" t="s">
+        <v>1392</v>
+      </c>
+      <c r="D608" s="2" t="s">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="609">
+      <c r="A609" s="2" t="s">
+        <v>1393</v>
+      </c>
+      <c r="C609" s="7" t="s">
+        <v>1394</v>
+      </c>
+      <c r="D609" s="2" t="s">
+        <v>1386</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -19377,18 +19524,18 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>1378</v>
+        <v>1395</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>1379</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>1380</v>
+        <v>1397</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>1381</v>
+        <v>1398</v>
       </c>
     </row>
   </sheetData>

--- a/csv/merge.xlsx
+++ b/csv/merge.xlsx
@@ -4946,7 +4946,8 @@
     <t>特に　変わった本はないようだ。</t>
   </si>
   <si>
-    <t>Seems to be just an ordinary book.</t>
+    <t>None of the books seem to be particularly
+interesting.</t>
   </si>
   <si>
     <t>Book</t>

--- a/csv/merge.xlsx
+++ b/csv/merge.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1797" uniqueCount="1399">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1803" uniqueCount="1404">
   <si>
     <t>JP Text (DO NOT CHANGE)</t>
   </si>
@@ -12498,6 +12498,47 @@
     <t>&lt;attr&gt;&lt;feel_custom&gt;&lt;end_attr&gt;...if it's all right with you, could you take
 a photo of me in this spot? I'd really like to
 keep it as a good memory.</t>
+  </si>
+  <si>
+    <t>「木工で　わからないことがあれば
+　なんでも　聞いてね。
+&lt;select&gt;
+どうすれば大成功になるの？
+何を作れば儲かるの？
+素材特性ってなに？
+いい数値と悪い数値って？
+木工のコツは？
+&lt;select_end&gt;&lt;break&gt;</t>
+  </si>
+  <si>
+    <t>If you have any questions about woodworking,
+please feel free to ask.
+&lt;select&gt;
+How to get a perfection?
+How to make money?
+What are material qualities?
+What are good and bad values?
+Any woodworking tips?
+&lt;select_end&gt;&lt;break&gt;</t>
+  </si>
+  <si>
+    <t>Woodworking dialog</t>
+  </si>
+  <si>
+    <t>ここで　お題を　達成するための
+お供え物を　捧げることができます。
+&lt;br&gt;
+すでに　お題を達成済みのため　初回報酬と
+初回経験値はありませんが　迷宮の主を倒した際の
+赤宝箱が　４つになります。捧げますか？&lt;yesno&gt;&lt;close&gt;</t>
+  </si>
+  <si>
+    <t>You can make an offering here in order
+to accomplish the theme.
+&lt;br&gt;
+You will not receive the first clear reward
+again, but will still receive 4 red chests by
+defeating the boss. Make an offer?&lt;yesno&gt;&lt;close&gt;</t>
   </si>
   <si>
     <t>メインコマンド『せんれき』の
@@ -19489,6 +19530,28 @@
         <v>1386</v>
       </c>
     </row>
+    <row r="610">
+      <c r="A610" s="2" t="s">
+        <v>1395</v>
+      </c>
+      <c r="C610" s="7" t="s">
+        <v>1396</v>
+      </c>
+      <c r="D610" s="2" t="s">
+        <v>1397</v>
+      </c>
+    </row>
+    <row r="611">
+      <c r="A611" s="2" t="s">
+        <v>1398</v>
+      </c>
+      <c r="C611" s="7" t="s">
+        <v>1399</v>
+      </c>
+      <c r="D611" s="2" t="s">
+        <v>529</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -19525,18 +19588,18 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>1395</v>
+        <v>1400</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>1396</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>1397</v>
+        <v>1402</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>1398</v>
+        <v>1403</v>
       </c>
     </row>
   </sheetData>

--- a/csv/merge.xlsx
+++ b/csv/merge.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1803" uniqueCount="1404">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1872" uniqueCount="1453">
   <si>
     <t>JP Text (DO NOT CHANGE)</t>
   </si>
@@ -12497,7 +12497,7 @@
   <si>
     <t>&lt;attr&gt;&lt;feel_custom&gt;&lt;end_attr&gt;...if it's all right with you, could you take
 a photo of me in this spot? I'd really like to
-keep it as a good memory.</t>
+have it as a keepsake.</t>
   </si>
   <si>
     <t>「木工で　わからないことがあれば
@@ -12539,6 +12539,462 @@
 You will not receive the first clear reward
 again, but will still receive 4 red chests by
 defeating the boss. Make an offer?&lt;yesno&gt;&lt;close&gt;</t>
+  </si>
+  <si>
+    <t>「では　キミが
+　どうしたいのか　教えてくれ。
+&lt;select&gt;
+ルイーダの酒場へ行く
+お礼と交換する
+説明を聞く
+何もしない
+&lt;select_end&gt;
+&lt;case 1&gt;
+&lt;break&gt;
+&lt;case 2&gt;
+&lt;break&gt;
+&lt;case 3&gt;
+&lt;break&gt;
+&lt;case 4&gt;
+&lt;break&gt;
+&lt;case_cancel&gt;
+&lt;break&gt;
+&lt;case_end&gt;</t>
+  </si>
+  <si>
+    <t>Let me know what you want to goo.
+&lt;select&gt;
+Go to Luida's Bar
+Exchange Rewards
+Explanation
+Never mind.
+&lt;select_end&gt;
+&lt;case 1&gt;
+&lt;break&gt;
+&lt;case 2&gt;
+&lt;break&gt;
+&lt;case 3&gt;
+&lt;break&gt;
+&lt;case 4&gt;
+&lt;break&gt;
+&lt;case_cancel&gt;
+&lt;break&gt;
+&lt;case_end&gt;</t>
+  </si>
+  <si>
+    <t>DQ3 Event</t>
+  </si>
+  <si>
+    <t>「そうか……。私に会いたくなったときは
+　また　ここに来てくれ。</t>
+  </si>
+  <si>
+    <t>I see...well, come back soon, won't you?</t>
+  </si>
+  <si>
+    <t>「ルイーダの酒場へ　行くんだな。
+　すまないが　キミの職業と　強さは
+　あちらの世界に合わせ　変化させられる。
+&lt;br&gt;
+「勇者　戦士　僧侶　賢者の
+　いずれかの職業に　なってもらう。
+　強さも固定されるから　注意してほしい。&lt;bw_break&gt;</t>
+  </si>
+  <si>
+    <t>You want to go to Gooida's Bar? Sorry, but
+you'll have to change your vocation once
+you get there.
+&lt;br&gt;
+You can be a hero, warrior, priest, or sage.
+Your attributes will also be fixed, so be
+careful!</t>
+  </si>
+  <si>
+    <t>「今　キミは　仲間と　一緒のようだが
+　どんなふうに　行きたい？
+&lt;select&gt;
+今の仲間と行く
+他の冒険者と行く
+やめる
+&lt;select_end&gt;
+&lt;case 1&gt;
+&lt;break&gt;
+&lt;case 2&gt;
+&lt;break&gt;
+&lt;case 3&gt;
+&lt;break&gt;
+&lt;case_cancel&gt;
+&lt;break&gt;
+&lt;case_end&gt;&lt;break&gt;</t>
+  </si>
+  <si>
+    <t>I see you are with your companions right now.
+How would you like to go there?
+&lt;select&gt;
+Go with Current Party
+Go with Other Adventurers
+Cancel
+&lt;select_end&gt;
+&lt;case 1&gt;
+&lt;break&gt;
+&lt;case 2&gt;
+&lt;break&gt;
+&lt;case 3&gt;
+&lt;break&gt;
+&lt;case_cancel&gt;
+&lt;break&gt;
+&lt;case_end&gt;&lt;break&gt;</t>
+  </si>
+  <si>
+    <t>「今の仲間と　行くんだな。
+　それじゃ　みんな　一緒に
+　ルイーダの酒場へ　案内するとしよう。</t>
+  </si>
+  <si>
+    <t>Okay, so you'll go with your current party.
+Let's go to Gooida's Bar! (slurp)</t>
+  </si>
+  <si>
+    <t>職業が
+勇者に　なった！&lt;se_nots Joutyu_SE 37&gt;</t>
+  </si>
+  <si>
+    <t>You became a Hero!&lt;se_nots Joutyu_SE 37&gt;</t>
+  </si>
+  <si>
+    <t>DQ3 Event (BAD STRING)</t>
+  </si>
+  <si>
+    <t>職業が
+戦士に　なった！&lt;se_nots Joutyu_SE 37&gt;</t>
+  </si>
+  <si>
+    <t>You became a Warrior!&lt;se_nots Joutyu_SE 37&gt;</t>
+  </si>
+  <si>
+    <t>職業が
+僧侶に　なった！&lt;se_nots Joutyu_SE 37&gt;</t>
+  </si>
+  <si>
+    <t>You became a Priest!&lt;se_nots Joutyu_SE 37&gt;</t>
+  </si>
+  <si>
+    <t>職業が
+賢者に　なった！&lt;se_nots Joutyu_SE 37&gt;</t>
+  </si>
+  <si>
+    <t>You became a Sage!&lt;se_nots Joutyu_SE 37&gt;</t>
+  </si>
+  <si>
+    <t>「ここは　ルイーダの酒場。
+　旅人たちが　仲間を求めて集まる
+　出会いと　別れの　酒場よ。
+&lt;br&gt;
+「あっ　ショウブさん。
+　大魔王ゾーマを倒してくれたのね。
+　本当に　ありがとう。でもね……
+&lt;br&gt;
+「あろうことか　ゾーマが
+　闇のチカラによって
+　地獄の底から　復活してしまったの。
+&lt;br&gt;
+「だから　お願い。ゾーマを倒して
+　もう一度　この世界を　救って！&lt;bw_break&gt;</t>
+  </si>
+  <si>
+    <t>This is Luida's Bar. A tavern where travelers
+can become companions and say their
+farewells.
+&lt;br&gt;
+Ah, hello again! You've defeated Zoma, haven't
+you? Thank you so much! But, actually...
+&lt;br&gt;
+You see, Zoma has been resurrected once
+again from the deepest pits of the underworld
+from the power of darkness.
+&lt;br&gt;
+I'm begging you. Please defeat Zoma and save
+this world once again!&lt;bw_break&gt;</t>
+  </si>
+  <si>
+    <t>「大地の精霊さまが　酒場の扉から
+　ゾーマの城へ　行けるようにしてくださったから
+　そこから　向かって。
+&lt;br&gt;
+「ただ　大魔王は　とてつもない強さを持つわ。
+　勝つためには　バランスのいいパーティが
+　必要になると思うの。
+&lt;br&gt;
+「仲間同士の職業が　重ならないように
+　一度　パーティを　ととのえてから
+　行くようにしたほうが　いいわね。
+&lt;br&gt;
+「もし　仲間が　足りないようなら
+　この危機を聞いて　駆けつけてくれた
+　特別なゲストを　私が　紹介してあげるわ！
+&lt;br&gt;
+「この人たちとは　あなたの職業が
+　重なっても　だいじょうぶだからね。
+　それじゃあ　さっそく……&lt;bw_break&gt;</t>
+  </si>
+  <si>
+    <t>The spirit of the earth has made it possible
+for you to go to Zoma's Castle using the
+tavern's door, so you should head there.
+&lt;br&gt;
+However, Zoma is quite strong. I think you'll
+need a well-balanced party if you want any
+chance of defeating him.
+&lt;br&gt;
+I think it's best if everyone in your party has
+a unique vocation with no overlaps before
+you go.
+&lt;br&gt;
+Also, if you're short on companions, I can
+introduce you to some special guests who
+have rushed here to join and help you!
+&lt;br&gt;
+Okay then, let's get started!&lt;bw_break&gt;</t>
+  </si>
+  <si>
+    <t>「ゾーマの城へ　向かう前に
+　特別なゲストを　仲間にしたいのかしら？
+　それとも　くわしい説明が　必要？
+&lt;select&gt;
+ゲストを仲間に
+ゲストと別れる
+説明を聞く
+とくに用はない
+&lt;select_end&gt;
+&lt;case 1&gt;
+&lt;break&gt;
+&lt;case 2&gt;
+&lt;break&gt;
+&lt;case 3&gt;
+&lt;break&gt;
+&lt;case 4&gt;
+&lt;break&gt;
+&lt;case_cancel&gt;
+&lt;break&gt;
+&lt;case_end&gt;</t>
+  </si>
+  <si>
+    <t>Would you like a special guest to join you
+on your quest to defeat Zoma? Or do you
+need an explanation, perhaps?
+&lt;select&gt;
+Invite Guest
+Part Ways with Guest
+Explanation
+Never mind.
+&lt;select_end&gt;
+&lt;case 1&gt;
+&lt;break&gt;
+&lt;case 2&gt;
+&lt;break&gt;
+&lt;case 3&gt;
+&lt;break&gt;
+&lt;case 4&gt;
+&lt;break&gt;
+&lt;case_cancel&gt;
+&lt;break&gt;
+&lt;case_end&gt;</t>
+  </si>
+  <si>
+    <t>「今いる特別なゲストは　こんな人ね。
+　誰を　仲間にするのかしら？
+&lt;select&gt;
+ゆうぼん（戦士）
+すぎやん（賢者）
+アキーラ（僧侶）
+仲間にしない
+&lt;select_end&gt;
+&lt;case 1&gt;
+&lt;break&gt;
+&lt;case 2&gt;
+&lt;break&gt;
+&lt;case 3&gt;
+&lt;break&gt;
+&lt;case 4&gt;
+&lt;break&gt;
+&lt;case_cancel&gt;
+&lt;break&gt;
+&lt;case_end&gt;</t>
+  </si>
+  <si>
+    <t>These are the special guests we have
+available right now. Which one suits your
+fancy?
+&lt;select&gt;
+Horii (Warrior)
+Sugi (Sage)
+Akira (Priest)
+Cancel
+&lt;select_end&gt;
+&lt;case 1&gt;
+&lt;break&gt;
+&lt;case 2&gt;
+&lt;break&gt;
+&lt;case 3&gt;
+&lt;break&gt;
+&lt;case 4&gt;
+&lt;break&gt;
+&lt;case_cancel&gt;
+&lt;break&gt;
+&lt;case_end&gt;</t>
+  </si>
+  <si>
+    <t>「アキーラさんを
+　仲間に　加えるのね。わかったわ。</t>
+  </si>
+  <si>
+    <t>You'd like to take Akira along? All right,
+I'll go get him for you!</t>
+  </si>
+  <si>
+    <t>DQ3 Event (BAD STRING</t>
+  </si>
+  <si>
+    <t>「すぎやんさんを
+　仲間に　加えるのね。わかったわ。</t>
+  </si>
+  <si>
+    <t>You'd like to take Sugi along? All right,
+I'll go get him for you!</t>
+  </si>
+  <si>
+    <t>「ゆうぼんさんを
+　仲間に　加えるのね。わかったわ。</t>
+  </si>
+  <si>
+    <t>You'd like to take Horii along? All right,
+I'll go get him for you!</t>
+  </si>
+  <si>
+    <t>アキーラが　仲間に　加わった！&lt;me 61&gt;</t>
+  </si>
+  <si>
+    <t>Akira has joined the party!&lt;me 61&gt;</t>
+  </si>
+  <si>
+    <t>すぎやんが　仲間に　加わった！&lt;me 61&gt;</t>
+  </si>
+  <si>
+    <t>Sugi has joined the party!&lt;me 61&gt;</t>
+  </si>
+  <si>
+    <t>ゆうぼんが　仲間に　加わった！&lt;me 61&gt;</t>
+  </si>
+  <si>
+    <t>Horii has joined the party!&lt;me 61&gt;</t>
+  </si>
+  <si>
+    <t>「他にも　ご用が　あるかしら？
+&lt;select&gt;
+ゲストを仲間に
+ゲストと別れる
+説明を聞く
+とくに用はない
+&lt;select_end&gt;
+&lt;case 1&gt;
+&lt;break&gt;
+&lt;case 2&gt;
+&lt;break&gt;
+&lt;case 3&gt;
+&lt;break&gt;
+&lt;case 4&gt;
+&lt;break&gt;
+&lt;case_cancel&gt;
+&lt;break&gt;
+&lt;case_end&gt;</t>
+  </si>
+  <si>
+    <t>Is there anything else you need?
+&lt;select&gt;
+Invite Guest
+Part Ways with Guest
+Explanation
+Never mind.
+&lt;select_end&gt;
+&lt;case 1&gt;
+&lt;break&gt;
+&lt;case 2&gt;
+&lt;break&gt;
+&lt;case 3&gt;
+&lt;break&gt;
+&lt;case 4&gt;
+&lt;break&gt;
+&lt;case_cancel&gt;
+&lt;break&gt;
+&lt;case_end&gt;</t>
+  </si>
+  <si>
+    <t>「私に　用事は　ないのね？
+　準備が　できているのなら
+　ゾーマの城へ　乗り込んでちょうだい！</t>
+  </si>
+  <si>
+    <t>All finished here? If you're ready, please go
+and infiltrate Zoma's Castle!</t>
+  </si>
+  <si>
+    <t>&lt;color_yellow&gt;パーティの準備が　ととのったら
+酒場の扉から　ゾーマの城へ　向かいましょう。</t>
+  </si>
+  <si>
+    <t>&lt;color_yellow&gt;Once your party's preparations are complete,
+head to Zoma's Castle through the tavern's
+door.</t>
+  </si>
+  <si>
+    <t>「ここは　転職をつかさどる　ダーマの神殿
+　ルイーダの酒場　出張所。
+　どの職に　転職を　お望みですか？
+&lt;select&gt;
+勇者
+戦士
+僧侶
+賢者
+やめる
+&lt;select_end&gt;
+&lt;case 1&gt;
+&lt;break&gt;
+&lt;case 2&gt;
+&lt;break&gt;
+&lt;case 3&gt;
+&lt;break&gt;
+&lt;case 4&gt;
+&lt;break&gt;
+&lt;case 5&gt;
+&lt;break&gt;
+&lt;case_cancel&gt;
+&lt;break&gt;
+&lt;case_end&gt;</t>
+  </si>
+  <si>
+    <t>Greetings, my child. This is the Alltrades
+Abbey branch in this tavern, the place to
+change vocations. What do you wish to be?
+&lt;select&gt;
+Hero
+Warrior
+Priest
+Sage
+Cancel
+&lt;select_end&gt;
+&lt;case 1&gt;
+&lt;break&gt;
+&lt;case 2&gt;
+&lt;break&gt;
+&lt;case 3&gt;
+&lt;break&gt;
+&lt;case 4&gt;
+&lt;break&gt;
+&lt;case 5&gt;
+&lt;break&gt;
+&lt;case_cancel&gt;
+&lt;break&gt;
+&lt;case_end&gt;</t>
   </si>
   <si>
     <t>メインコマンド『せんれき』の
@@ -19552,6 +20008,259 @@
         <v>529</v>
       </c>
     </row>
+    <row r="612">
+      <c r="A612" s="2" t="s">
+        <v>1400</v>
+      </c>
+      <c r="C612" s="7" t="s">
+        <v>1401</v>
+      </c>
+      <c r="D612" s="2" t="s">
+        <v>1402</v>
+      </c>
+    </row>
+    <row r="613">
+      <c r="A613" s="2" t="s">
+        <v>1403</v>
+      </c>
+      <c r="C613" s="7" t="s">
+        <v>1404</v>
+      </c>
+      <c r="D613" s="2" t="s">
+        <v>1402</v>
+      </c>
+    </row>
+    <row r="614">
+      <c r="A614" s="2" t="s">
+        <v>1405</v>
+      </c>
+      <c r="C614" s="7" t="s">
+        <v>1406</v>
+      </c>
+      <c r="D614" s="2" t="s">
+        <v>1402</v>
+      </c>
+    </row>
+    <row r="615">
+      <c r="A615" s="2" t="s">
+        <v>1407</v>
+      </c>
+      <c r="C615" s="7" t="s">
+        <v>1408</v>
+      </c>
+      <c r="D615" s="2" t="s">
+        <v>1402</v>
+      </c>
+    </row>
+    <row r="616">
+      <c r="A616" s="2" t="s">
+        <v>1409</v>
+      </c>
+      <c r="C616" s="7" t="s">
+        <v>1410</v>
+      </c>
+      <c r="D616" s="2" t="s">
+        <v>1402</v>
+      </c>
+    </row>
+    <row r="617">
+      <c r="A617" s="2" t="s">
+        <v>1411</v>
+      </c>
+      <c r="C617" s="7" t="s">
+        <v>1412</v>
+      </c>
+      <c r="D617" s="2" t="s">
+        <v>1413</v>
+      </c>
+    </row>
+    <row r="618">
+      <c r="A618" s="2" t="s">
+        <v>1414</v>
+      </c>
+      <c r="C618" s="7" t="s">
+        <v>1415</v>
+      </c>
+      <c r="D618" s="2" t="s">
+        <v>1413</v>
+      </c>
+    </row>
+    <row r="619">
+      <c r="A619" s="2" t="s">
+        <v>1416</v>
+      </c>
+      <c r="C619" s="7" t="s">
+        <v>1417</v>
+      </c>
+      <c r="D619" s="2" t="s">
+        <v>1413</v>
+      </c>
+    </row>
+    <row r="620">
+      <c r="A620" s="2" t="s">
+        <v>1418</v>
+      </c>
+      <c r="C620" s="7" t="s">
+        <v>1419</v>
+      </c>
+      <c r="D620" s="2" t="s">
+        <v>1413</v>
+      </c>
+    </row>
+    <row r="621">
+      <c r="A621" s="2" t="s">
+        <v>1420</v>
+      </c>
+      <c r="C621" s="7" t="s">
+        <v>1421</v>
+      </c>
+      <c r="D621" s="2" t="s">
+        <v>1402</v>
+      </c>
+    </row>
+    <row r="622">
+      <c r="A622" s="2" t="s">
+        <v>1422</v>
+      </c>
+      <c r="C622" s="7" t="s">
+        <v>1423</v>
+      </c>
+      <c r="D622" s="2" t="s">
+        <v>1402</v>
+      </c>
+    </row>
+    <row r="623">
+      <c r="A623" s="2" t="s">
+        <v>1424</v>
+      </c>
+      <c r="C623" s="7" t="s">
+        <v>1425</v>
+      </c>
+      <c r="D623" s="2" t="s">
+        <v>1402</v>
+      </c>
+    </row>
+    <row r="624">
+      <c r="A624" s="2" t="s">
+        <v>1426</v>
+      </c>
+      <c r="C624" s="7" t="s">
+        <v>1427</v>
+      </c>
+      <c r="D624" s="2" t="s">
+        <v>1402</v>
+      </c>
+    </row>
+    <row r="625">
+      <c r="A625" s="2" t="s">
+        <v>1428</v>
+      </c>
+      <c r="C625" s="7" t="s">
+        <v>1429</v>
+      </c>
+      <c r="D625" s="2" t="s">
+        <v>1430</v>
+      </c>
+    </row>
+    <row r="626">
+      <c r="A626" s="2" t="s">
+        <v>1431</v>
+      </c>
+      <c r="C626" s="7" t="s">
+        <v>1432</v>
+      </c>
+      <c r="D626" s="2" t="s">
+        <v>1430</v>
+      </c>
+    </row>
+    <row r="627">
+      <c r="A627" s="2" t="s">
+        <v>1433</v>
+      </c>
+      <c r="C627" s="7" t="s">
+        <v>1434</v>
+      </c>
+      <c r="D627" s="2" t="s">
+        <v>1430</v>
+      </c>
+    </row>
+    <row r="628">
+      <c r="A628" s="2" t="s">
+        <v>1435</v>
+      </c>
+      <c r="C628" s="7" t="s">
+        <v>1436</v>
+      </c>
+      <c r="D628" s="2" t="s">
+        <v>1402</v>
+      </c>
+    </row>
+    <row r="629">
+      <c r="A629" s="2" t="s">
+        <v>1437</v>
+      </c>
+      <c r="C629" s="7" t="s">
+        <v>1438</v>
+      </c>
+      <c r="D629" s="2" t="s">
+        <v>1402</v>
+      </c>
+    </row>
+    <row r="630">
+      <c r="A630" s="2" t="s">
+        <v>1439</v>
+      </c>
+      <c r="C630" s="7" t="s">
+        <v>1440</v>
+      </c>
+      <c r="D630" s="2" t="s">
+        <v>1402</v>
+      </c>
+    </row>
+    <row r="631">
+      <c r="A631" s="2" t="s">
+        <v>1441</v>
+      </c>
+      <c r="C631" s="7" t="s">
+        <v>1442</v>
+      </c>
+      <c r="D631" s="2" t="s">
+        <v>1402</v>
+      </c>
+    </row>
+    <row r="632">
+      <c r="A632" s="2" t="s">
+        <v>1443</v>
+      </c>
+      <c r="C632" s="7" t="s">
+        <v>1444</v>
+      </c>
+      <c r="D632" s="2" t="s">
+        <v>1402</v>
+      </c>
+    </row>
+    <row r="633">
+      <c r="A633" s="2" t="s">
+        <v>1445</v>
+      </c>
+      <c r="C633" s="7" t="s">
+        <v>1446</v>
+      </c>
+      <c r="D633" s="2" t="s">
+        <v>1402</v>
+      </c>
+    </row>
+    <row r="634">
+      <c r="A634" s="2" t="s">
+        <v>1447</v>
+      </c>
+      <c r="C634" s="7" t="s">
+        <v>1448</v>
+      </c>
+      <c r="D634" s="2" t="s">
+        <v>1402</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -19588,18 +20297,18 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>1400</v>
+        <v>1449</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>1401</v>
+        <v>1450</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>1402</v>
+        <v>1451</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>1403</v>
+        <v>1452</v>
       </c>
     </row>
   </sheetData>

--- a/csv/merge.xlsx
+++ b/csv/merge.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1872" uniqueCount="1453">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2050" uniqueCount="1575">
   <si>
     <t>JP Text (DO NOT CHANGE)</t>
   </si>
@@ -12844,6 +12844,210 @@
 &lt;case_end&gt;</t>
   </si>
   <si>
+    <t>「今いる特別なゲストは　こんな人ね。
+　誰を　仲間にするのかしら？
+&lt;select&gt;
+すぎやん（賢者）
+アキーラ（僧侶）
+仲間にしない
+&lt;select_end&gt;
+&lt;case 1&gt;
+&lt;break&gt;
+&lt;case 2&gt;
+&lt;break&gt;
+&lt;case 3&gt;
+&lt;break&gt;
+&lt;case_cancel&gt;
+&lt;break&gt;
+&lt;case_end&gt;</t>
+  </si>
+  <si>
+    <t>These are the special guests we have
+available right now. Which one suits your
+fancy?
+&lt;select&gt;
+Sugi (Sage)
+Akira (Priest)
+Cancel
+&lt;select_end&gt;
+&lt;case 1&gt;
+&lt;break&gt;
+&lt;case 2&gt;
+&lt;break&gt;
+&lt;case 3&gt;
+&lt;break&gt;
+&lt;case_cancel&gt;
+&lt;break&gt;
+&lt;case_end&gt;</t>
+  </si>
+  <si>
+    <t>「今いる特別なゲストは　こんな人ね。
+　誰を　仲間にするのかしら？
+&lt;select&gt;
+ゆうぼん（戦士）
+アキーラ（僧侶）
+仲間にしない
+&lt;select_end&gt;
+&lt;case 1&gt;
+&lt;break&gt;
+&lt;case 2&gt;
+&lt;break&gt;
+&lt;case 3&gt;
+&lt;break&gt;
+&lt;case_cancel&gt;
+&lt;break&gt;
+&lt;case_end&gt;</t>
+  </si>
+  <si>
+    <t>These are the special guests we have
+available right now. Which one suits your
+fancy?
+&lt;select&gt;
+Horii (Warrior)
+Akira (Priest)
+Cancel
+&lt;select_end&gt;
+&lt;case 1&gt;
+&lt;break&gt;
+&lt;case 2&gt;
+&lt;break&gt;
+&lt;case 3&gt;
+&lt;break&gt;
+&lt;case_cancel&gt;
+&lt;break&gt;
+&lt;case_end&gt;</t>
+  </si>
+  <si>
+    <t>「今いる特別なゲストは　こんな人ね。
+　誰を　仲間にするのかしら？
+&lt;select&gt;
+ゆうぼん（戦士）
+すぎやん（賢者）
+仲間にしない
+&lt;select_end&gt;
+&lt;case 1&gt;
+&lt;break&gt;
+&lt;case 2&gt;
+&lt;break&gt;
+&lt;case 3&gt;
+&lt;break&gt;
+&lt;case_cancel&gt;
+&lt;break&gt;
+&lt;case_end&gt;</t>
+  </si>
+  <si>
+    <t>These are the special guests we have
+available right now. Which one suits your
+fancy?
+&lt;select&gt;
+Horii (Warrior)
+Sugi (Sage)
+Cancel
+&lt;select_end&gt;
+&lt;case 1&gt;
+&lt;break&gt;
+&lt;case 2&gt;
+&lt;break&gt;
+&lt;case 3&gt;
+&lt;break&gt;
+&lt;case_cancel&gt;
+&lt;break&gt;
+&lt;case_end&gt;</t>
+  </si>
+  <si>
+    <t>「今いる特別なゲストは　こんな人ね。
+　誰を　仲間にするのかしら？
+&lt;select&gt;
+ゆうぼん（戦士）
+仲間にしない
+&lt;select_end&gt;
+&lt;case 1&gt;
+&lt;break&gt;
+&lt;case 2&gt;
+&lt;break&gt;
+&lt;case_cancel&gt;
+&lt;break&gt;
+&lt;case_end&gt;</t>
+  </si>
+  <si>
+    <t>These are the special guests we have
+available right now. Which one suits your
+fancy?
+&lt;select&gt;
+Horii (Warrior)
+Cancel
+&lt;select_end&gt;
+&lt;case 1&gt;
+&lt;break&gt;
+&lt;case 2&gt;
+&lt;break&gt;
+&lt;case_cancel&gt;
+&lt;break&gt;
+&lt;case_end&gt;</t>
+  </si>
+  <si>
+    <t>「今いる特別なゲストは　こんな人ね。
+　誰を　仲間にするのかしら？
+&lt;select&gt;
+アキーラ（僧侶）
+仲間にしない
+&lt;select_end&gt;
+&lt;case 1&gt;
+&lt;break&gt;
+&lt;case 2&gt;
+&lt;break&gt;
+&lt;case_cancel&gt;
+&lt;break&gt;
+&lt;case_end&gt;</t>
+  </si>
+  <si>
+    <t>These are the special guests we have
+available right now. Which one suits your
+fancy?
+&lt;select&gt;
+Akira (Priest)
+Cancel
+&lt;select_end&gt;
+&lt;case 1&gt;
+&lt;break&gt;
+&lt;case 2&gt;
+&lt;break&gt;
+&lt;case_cancel&gt;
+&lt;break&gt;
+&lt;case_end&gt;</t>
+  </si>
+  <si>
+    <t>「今いる特別なゲストは　こんな人ね。
+　誰を　仲間にするのかしら？
+&lt;select&gt;
+すぎやん（賢者）
+仲間にしない
+&lt;select_end&gt;
+&lt;case 1&gt;
+&lt;break&gt;
+&lt;case 2&gt;
+&lt;break&gt;
+&lt;case_cancel&gt;
+&lt;break&gt;
+&lt;case_end&gt;</t>
+  </si>
+  <si>
+    <t>These are the special guests we have
+available right now. Which one suits your
+fancy?
+&lt;select&gt;
+Sugi (Sage)
+Cancel
+&lt;select_end&gt;
+&lt;case 1&gt;
+&lt;break&gt;
+&lt;case 2&gt;
+&lt;break&gt;
+&lt;case_cancel&gt;
+&lt;break&gt;
+&lt;case_end&gt;</t>
+  </si>
+  <si>
     <t>「アキーラさんを
 　仲間に　加えるのね。わかったわ。</t>
   </si>
@@ -12887,6 +13091,289 @@
   </si>
   <si>
     <t>Horii has joined the party!&lt;me 61&gt;</t>
+  </si>
+  <si>
+    <t>「誰と　別れたいのかしら？
+&lt;select&gt;
+ゆうぼん（戦士）
+すぎやん（賢者）
+アキーラ（僧侶）
+仲間にしない
+&lt;select_end&gt;
+&lt;case 1&gt;
+&lt;break&gt;
+&lt;case 2&gt;
+&lt;break&gt;
+&lt;case 3&gt;
+&lt;break&gt;
+&lt;case 4&gt;
+&lt;break&gt;
+&lt;case_cancel&gt;
+&lt;break&gt;
+&lt;case_end&gt;</t>
+  </si>
+  <si>
+    <t>Who do you want to part ways with?
+&lt;select&gt;
+Horii (Warrior)
+Sugi (Sage)
+Akira (Priest)
+Cancel
+&lt;select_end&gt;
+&lt;case 1&gt;
+&lt;break&gt;
+&lt;case 2&gt;
+&lt;break&gt;
+&lt;case 3&gt;
+&lt;break&gt;
+&lt;case 4&gt;
+&lt;break&gt;
+&lt;case_cancel&gt;
+&lt;break&gt;
+&lt;case_end&gt;</t>
+  </si>
+  <si>
+    <t>「誰と　別れたいのかしら？
+&lt;select&gt;
+ゆうぼん（戦士）
+すぎやん（賢者）
+やめる
+&lt;select_end&gt;
+&lt;case 1&gt;
+&lt;break&gt;
+&lt;case 2&gt;
+&lt;break&gt;
+&lt;case 3&gt;
+&lt;break&gt;
+&lt;case_cancel&gt;
+&lt;break&gt;
+&lt;case_end&gt;</t>
+  </si>
+  <si>
+    <t>Who do you want to part ways with?
+&lt;select&gt;
+Horii (Warrior)
+Sugi (Sage)
+Cancel
+&lt;select_end&gt;
+&lt;case 1&gt;
+&lt;break&gt;
+&lt;case 2&gt;
+&lt;break&gt;
+&lt;case 3&gt;
+&lt;break&gt;
+&lt;case_cancel&gt;
+&lt;break&gt;
+&lt;case_end&gt;</t>
+  </si>
+  <si>
+    <t>「誰と　別れたいのかしら？
+&lt;select&gt;
+ゆうぼん（戦士）
+アキーラ（僧侶）
+仲間にしない
+&lt;select_end&gt;
+&lt;case 1&gt;
+&lt;break&gt;
+&lt;case 2&gt;
+&lt;break&gt;
+&lt;case 3&gt;
+&lt;break&gt;
+&lt;case_cancel&gt;
+&lt;break&gt;
+&lt;case_end&gt;</t>
+  </si>
+  <si>
+    <t>Who do you want to part ways with?
+&lt;select&gt;
+Horii (Warrior)
+Akira (Priest)
+Cancel
+&lt;select_end&gt;
+&lt;case 1&gt;
+&lt;break&gt;
+&lt;case 2&gt;
+&lt;break&gt;
+&lt;case 3&gt;
+&lt;break&gt;
+&lt;case_cancel&gt;
+&lt;break&gt;
+&lt;case_end&gt;</t>
+  </si>
+  <si>
+    <t>「誰と　別れたいのかしら？
+&lt;select&gt;
+すぎやん（賢者）
+アキーラ（僧侶）
+仲間にしない
+&lt;select_end&gt;
+&lt;case 1&gt;
+&lt;break&gt;
+&lt;case 2&gt;
+&lt;break&gt;
+&lt;case 3&gt;
+&lt;break&gt;
+&lt;case_cancel&gt;
+&lt;break&gt;
+&lt;case_end&gt;</t>
+  </si>
+  <si>
+    <t>Who do you want to part ways with?
+&lt;select&gt;
+Sugi (Sage)
+Akira (Priest)
+Cancel
+&lt;select_end&gt;
+&lt;case 1&gt;
+&lt;break&gt;
+&lt;case 2&gt;
+&lt;break&gt;
+&lt;case 3&gt;
+&lt;break&gt;
+&lt;case_cancel&gt;
+&lt;break&gt;
+&lt;case_end&gt;</t>
+  </si>
+  <si>
+    <t>「誰と　別れたいのかしら？
+&lt;select&gt;
+すぎやん（賢者）
+仲間にしない
+&lt;select_end&gt;
+&lt;case 1&gt;
+&lt;break&gt;
+&lt;case 2&gt;
+&lt;break&gt;
+&lt;case_cancel&gt;
+&lt;break&gt;
+&lt;case_end&gt;</t>
+  </si>
+  <si>
+    <t>Who do you want to part ways with?
+&lt;select&gt;
+Sugi (Sage)
+Cancel
+&lt;select_end&gt;
+&lt;case 1&gt;
+&lt;break&gt;
+&lt;case 2&gt;
+&lt;break&gt;
+&lt;case_cancel&gt;
+&lt;break&gt;
+&lt;case_end&gt;</t>
+  </si>
+  <si>
+    <t>「誰と　別れたいのかしら？
+&lt;select&gt;
+アキーラ（僧侶）
+仲間にしない
+&lt;select_end&gt;
+&lt;case 1&gt;
+&lt;break&gt;
+&lt;case 2&gt;
+&lt;break&gt;
+&lt;case_cancel&gt;
+&lt;break&gt;
+&lt;case_end&gt;</t>
+  </si>
+  <si>
+    <t>Who do you want to part ways with?
+&lt;select&gt;
+Akira (Priest)
+Cancel
+&lt;select_end&gt;
+&lt;case 1&gt;
+&lt;break&gt;
+&lt;case 2&gt;
+&lt;break&gt;
+&lt;case_cancel&gt;
+&lt;break&gt;
+&lt;case_end&gt;</t>
+  </si>
+  <si>
+    <t>「誰と　別れたいのかしら？
+&lt;select&gt;
+ゆうぼん（戦士）
+仲間にしない
+&lt;select_end&gt;
+&lt;case 1&gt;
+&lt;break&gt;
+&lt;case 2&gt;
+&lt;break&gt;
+&lt;case_cancel&gt;
+&lt;break&gt;
+&lt;case_end&gt;</t>
+  </si>
+  <si>
+    <t>Who do you want to part ways with?
+&lt;select&gt;
+Horii (Warrior)
+Cancel
+&lt;select_end&gt;
+&lt;case 1&gt;
+&lt;break&gt;
+&lt;case 2&gt;
+&lt;break&gt;
+&lt;case_cancel&gt;
+&lt;break&gt;
+&lt;case_end&gt;</t>
+  </si>
+  <si>
+    <t>「ゆうぼんさんと　別れるのね？&lt;yesno&gt;&lt;break&gt;</t>
+  </si>
+  <si>
+    <t>You're parting ways with Horii?&lt;yesno&gt;&lt;break&gt;</t>
+  </si>
+  <si>
+    <t>「アキーラさんと　別れるのね？&lt;yesno&gt;&lt;break&gt;</t>
+  </si>
+  <si>
+    <t>You're parting ways with Akira?&lt;yesno&gt;&lt;break&gt;</t>
+  </si>
+  <si>
+    <t>「すぎやんさんと　別れるのね？&lt;yesno&gt;&lt;break&gt;</t>
+  </si>
+  <si>
+    <t>You're parting ways with Sugi?&lt;yesno&gt;&lt;break&gt;</t>
+  </si>
+  <si>
+    <t>「じゃあ　ゆうぼんさん。
+　しばらく　お休みしてね。</t>
+  </si>
+  <si>
+    <t>All right, Horii. Take a rest for now.</t>
+  </si>
+  <si>
+    <t>「じゃあ　アキーラさん。
+　しばらく　お休みしてね。</t>
+  </si>
+  <si>
+    <t>All right, Akira. Take a rest for now.</t>
+  </si>
+  <si>
+    <t>「じゃあ　すぎやんさん。
+　しばらく　お休みしてね。</t>
+  </si>
+  <si>
+    <t>All right, Sugi. Take a rest for now.</t>
+  </si>
+  <si>
+    <t>ゆうぼんが　仲間から　はずれた。</t>
+  </si>
+  <si>
+    <t>Horii left the party.</t>
+  </si>
+  <si>
+    <t>アキーラが　仲間から　はずれた。</t>
+  </si>
+  <si>
+    <t>Akira left the party.</t>
+  </si>
+  <si>
+    <t>すぎやんが　仲間から　はずれた。</t>
+  </si>
+  <si>
+    <t>Sugi left the party.</t>
   </si>
   <si>
     <t>「他にも　ご用が　あるかしら？
@@ -12936,6 +13423,14 @@
   <si>
     <t>All finished here? If you're ready, please go
 and infiltrate Zoma's Castle!</t>
+  </si>
+  <si>
+    <t>ここから　アレフガルドにある
+ゾーマの城へ向かって　旅立てるようだ。&lt;bw_break&gt;</t>
+  </si>
+  <si>
+    <t>It seems that you can begin your journey
+to Zoma's Castle in Alefgard from here.&lt;bw_break&gt;</t>
   </si>
   <si>
     <t>&lt;color_yellow&gt;パーティの準備が　ととのったら
@@ -12995,6 +13490,466 @@
 &lt;case_cancel&gt;
 &lt;break&gt;
 &lt;case_end&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">賢者の
+　気持ちになって　祈りなさい。ダーマの神よ！
+</t>
+  </si>
+  <si>
+    <t>Now, I want to you to picture a sage in your
+mind and pray. Oh Allmighty Alltrades! Bestow
+upon this child a new power!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">勇者の
+　気持ちになって　祈りなさい。ダーマの神よ！
+</t>
+  </si>
+  <si>
+    <t>Now, I want to you to picture a hero in your
+mind and pray. Oh Allmighty Alltrades! Bestow
+upon this child a new power!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">戦士の
+　気持ちになって　祈りなさい。ダーマの神よ！
+</t>
+  </si>
+  <si>
+    <t>Now, I want to you to picture a warrior in 
+your mind and pray. Oh Allmighty Alltrades! 
+Bestow upon this child a new power!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">僧侶の
+　気持ちになって　祈りなさい。ダーマの神よ！
+</t>
+  </si>
+  <si>
+    <t>Now, I want to you to picture a priest in 
+your mind and pray. Oh Allmighty Alltrades! 
+Bestow upon this child a new power!</t>
+  </si>
+  <si>
+    <t>「今から　あなたは　賢者として
+　戦うことに　なりました。
+&lt;br&gt;
+「大魔王に挑みし　勇気ある者に
+　神のご加護が　ありますように……。</t>
+  </si>
+  <si>
+    <t>You will now go on a sage, my child.
+&lt;br&gt;
+May those with the courage to fight be 
+blessed to do battle against the wicked
+Zoma...</t>
+  </si>
+  <si>
+    <t>「今から　あなたは　僧侶として
+　戦うことに　なりました。
+&lt;br&gt;
+「大魔王に挑みし　勇気ある者に
+　神のご加護が　ありますように……。</t>
+  </si>
+  <si>
+    <t>You will now go on a priest, my child.
+&lt;br&gt;
+May those with the courage to fight be 
+blessed to do battle against the wicked
+Zoma...</t>
+  </si>
+  <si>
+    <t>「今から　あなたは　戦士として
+　戦うことに　なりました。
+&lt;br&gt;
+「大魔王に挑みし　勇気ある者に
+　神のご加護が　ありますように……。</t>
+  </si>
+  <si>
+    <t>You will now go on a warrior, my child.
+&lt;br&gt;
+May those with the courage to fight be 
+blessed to do battle against the wicked
+Zoma...</t>
+  </si>
+  <si>
+    <t>「今から　あなたは　勇者として
+　戦うことに　なりました。
+&lt;br&gt;
+「大魔王に挑みし　勇気ある者に
+　神のご加護が　ありますように……。</t>
+  </si>
+  <si>
+    <t>You will now go on a hero, my child.
+&lt;br&gt;
+May those with the courage to fight be 
+blessed to do battle against the wicked
+Zoma...</t>
+  </si>
+  <si>
+    <t>「大魔王ゾーマに　挑むなら
+　パーティにいる　４人の仲間の職業を
+　勇者　戦士　僧侶　賢者にするのが　いいぞ。
+&lt;br&gt;
+「どんな状況でも　勝てる確率の高い
+　バランスの取れた　組み合わせなんだぜ。
+　まあ　オレの経験では……だがな！</t>
+  </si>
+  <si>
+    <t>If you want to beat Zoma, take my advice!
+Your party should be made up of a hero,
+a warrior, a priest, and a sage!
+&lt;br&gt;
+It's a well-balanced composition with a high
+chance of victory in any situation! That's my
+experience, at least!</t>
+  </si>
+  <si>
+    <t>&lt;color_yellow&gt;パーティメンバー　全員が
+ゾーマとの戦いを経験している状態のため
+抜け道の扉を　利用することができます。
+&lt;br&gt;
+大魔王ゾーマに　すぐに挑戦したい場合は
+ゾーマの城に　到着した後で
+背後にある扉を　しらべて下さい。</t>
+  </si>
+  <si>
+    <t>&lt;color_yellow&gt;Since all party members have already
+defeated Zoma once, you can challenge him
+right away by using the secret passage.
+&lt;br&gt;
+Once you enter Zoma's Castle, examine
+the door that appears immediately behind
+you.</t>
+  </si>
+  <si>
+    <t>パーティメンバー　全員が
+ゾーマとの戦いを経験しているので
+ここから　ゾーマの前まで進むことができます。
+&lt;br&gt;
+ゾーマの前まで　進みますか？
+（途中の宝箱のアイテムは自動的に入手します）&lt;yesno&gt;&lt;close&gt;</t>
+  </si>
+  <si>
+    <t>Since all party members have already defeated
+Zoma once, you can proceed from here and go
+straight to him. 
+&lt;br&gt;
+Proceed to Zoma?
+(Items found along the way in treasure
+chests will automatically be given to you.)&lt;yesno&gt;&lt;close&gt;</t>
+  </si>
+  <si>
+    <t>&lt;center&gt;どこからともなく　声が聞こえる……。</t>
+  </si>
+  <si>
+    <t>A voice was heard from out of nowhere...</t>
+  </si>
+  <si>
+    <t>&lt;center&gt;&lt;pipipi_high&gt;&lt;se_nots map_z4000 1&gt;
+アストルティアより　参られし
+勇気ある者　ショウブよ。
+&lt;br&gt;
+私は　精霊ルビス……。
+&lt;br&gt;
+虹のしずくのチカラを使って
+大魔王ゾーマの居城まで
+あなたを　送り届けてみせましょう。&lt;bw_break&gt;</t>
+  </si>
+  <si>
+    <t>&lt;pipipi_high&gt;&lt;se_nots map_z4000 1&gt;
+Oh, brave one from Astoltia... I beseech thee.
+&lt;br&gt;
+My name is Rubiss.
+&lt;br&gt;
+I will use the Rainbow Drop's power to send
+you to the castle of the Demon King, Zoma.&lt;bw_break&gt;</t>
+  </si>
+  <si>
+    <t>&lt;center&gt;&lt;pipipi_high&gt;……虹のしずくよ。
+この者を　みちびきたまえ……。</t>
+  </si>
+  <si>
+    <t>&lt;pipipi_high&gt;Oh, Rainbow Drop...
+Show this one the way...</t>
+  </si>
+  <si>
+    <t>たちは
+ゾーマの城に　たどり着いた！</t>
+  </si>
+  <si>
+    <t>You and your companions have reached
+Zoma's Castle!</t>
+  </si>
+  <si>
+    <t>&lt;center&gt;&lt;pipipi_high&gt;&lt;se_nots map_z4700 14&gt;
+……私の声が　聞こえますか？&lt;bw_break&gt;</t>
+  </si>
+  <si>
+    <t>&lt;pipipi_high&gt;&lt;se_nots map_z4700 14&gt;
+Can you hear my voice...?&lt;bw_break&gt;</t>
+  </si>
+  <si>
+    <t>&lt;center&gt;&lt;pipipi_high&gt;大魔王ゾーマに挑む　あなた方に
+この　ひかりのたまを　さずけましょう。
+&lt;br&gt;
+ひかりのたまには　闇のころもを
+はぎとるチカラが　込められています。
+ゾーマとの決戦に　必ずや　役立つことでしょう。</t>
+  </si>
+  <si>
+    <t>&lt;pipipi_high&gt;I shall give this Sphere of Light to those
+who wish to challenge Zoma.
+&lt;br&gt;
+This sphere contains the power to destroy
+his cloak of darkness. I'm certain it will be
+useful in your battle against Zoma.</t>
+  </si>
+  <si>
+    <t>ひかりのたまを　受け取りますか？&lt;yesno&gt;&lt;case 1&gt;&lt;break&gt;&lt;case 2&gt;&lt;close&gt;&lt;case_cancel&gt;&lt;close&gt;&lt;case_end&gt;</t>
+  </si>
+  <si>
+    <t>Accept the Sphere of Light from Rubiss?
+&lt;yesno&gt;
+&lt;case 1&gt;
+&lt;break&gt;
+&lt;case 2&gt;
+&lt;close&gt;
+&lt;case_cancel&gt;
+&lt;close&gt;
+&lt;case_end&gt;</t>
+  </si>
+  <si>
+    <t>精霊ルビスから
+ひかりのたまを　受け取った！&lt;se_nots System 7&gt;</t>
+  </si>
+  <si>
+    <t>You received the Sphere of Light from Rubiss!&lt;se_nots System 7&gt;</t>
+  </si>
+  <si>
+    <t>&lt;center&gt;&lt;pipipi_high&gt;ゾーマの居城から　戻りたくなったときは
+この　聖なる守りを使うと　よいでしょう。</t>
+  </si>
+  <si>
+    <t>&lt;pipipi_high&gt;If you ever need to return here from Zoma's
+Castle, you may use this Sacred Amulet.</t>
+  </si>
+  <si>
+    <t>聖なる守りを　手に入れた！&lt;se_nots System 7&gt;</t>
+  </si>
+  <si>
+    <t>You received the Sacred Amulet from Rubiss!&lt;se_nots System 7&gt;</t>
+  </si>
+  <si>
+    <t>&lt;center&gt;&lt;pipipi_high&gt;大魔王ゾーマを倒し
+どうか　この世界を救ってください。
+頼みましたよ</t>
+  </si>
+  <si>
+    <t>Please defeat the wicked Zoma and save this
+world. I am counting on you, hero...</t>
+  </si>
+  <si>
+    <t>大きな岩のカベが　道を　ふさいでいる……。
+このままでは　通ることは　できない！</t>
+  </si>
+  <si>
+    <t>A large, stone wall is blocking the way forward.
+It's impossible to pass through!</t>
+  </si>
+  <si>
+    <t>突然
+背後に　不気味な気配を感じた。</t>
+  </si>
+  <si>
+    <t>&lt;se_nots Joutyu_SE 88&gt;You suddenly feel an eerie presence behind
+you...</t>
+  </si>
+  <si>
+    <t>部屋に置かれていた石像から
+うなるような声が　ひびいてくる……。
+&lt;se_nots map_z4700 15&gt;&lt;auto_bw=3000&gt;&lt;close&gt;</t>
+  </si>
+  <si>
+    <t>A voice from one of the stone statues
+echoes through the room...
+&lt;se_nots map_z4700 15&gt;&lt;auto_bw=3000&gt;&lt;close&gt;</t>
+  </si>
+  <si>
+    <t>&lt;pipipi_low&gt;「我らは　魔王の部屋を守る者！
+&lt;auto_br=3000&gt;
+「我らを　倒さぬかぎり
+　この先には　進めぬぞ！&lt;auto_bw=3000&gt;&lt;close&gt;</t>
+  </si>
+  <si>
+    <t>&lt;pipipi_low&gt;We are the guardians of our master, Zoma!
+&lt;auto_br=3000&gt;
+Unless you defeat us, you shall not be
+allowed to pass!
+&lt;auto_bw=3000&gt;&lt;close&gt;</t>
+  </si>
+  <si>
+    <t>&lt;se_nots map_z4700 11&gt;
+どこかで　岩が　くずれるような音がした！&lt;auto_bw=30000&gt;&lt;close&gt;</t>
+  </si>
+  <si>
+    <t>&lt;se_nots map_z4700 11&gt;
+You heard the sound of stone crumbling!</t>
+  </si>
+  <si>
+    <t>この辺りから　冷たい風が
+流れでてきているようだ。
+床を　調べてみますか？&lt;yesno&gt;&lt;close&gt;</t>
+  </si>
+  <si>
+    <t>You feel a cool breeze blowing nearby.
+Do you want to examine the floor?
+&lt;yesno&gt;&lt;close&gt;</t>
+  </si>
+  <si>
+    <t>なんと　隠されていた階段が　現れた！</t>
+  </si>
+  <si>
+    <t>Suddenly, a hidden staircase was revealed!</t>
+  </si>
+  <si>
+    <t>&lt;attr&gt;&lt;feel_sad_lv3&gt;&lt;end_attr&gt;「私は　もう　だめだ……。
+　そこの旅の人よ
+　どうか　伝えてほしい。
+&lt;br&gt;
+「私は　アリアハンのオルテガ。
+　もし　そなたが　アリアハンに
+　行くことが　あったなら……
+&lt;br&gt;
+「その国に住む　…………を訪ね
+　オルテガが　こう言っていたと伝えてくれ。
+&lt;br&gt;
+「平和な世界に　できなかった
+　この父を　ゆるしてくれ……とな。&lt;bw_break&gt;</t>
+  </si>
+  <si>
+    <t>&lt;attr&gt;&lt;feel_sad_lv3&gt;&lt;end_attr&gt;I'm beyond saving now...
+Traveler, I need you to relay a message
+for me...
+&lt;br&gt;
+My name is Ortega, from Aliahan.
+If you happen to go there, please...
+&lt;br&gt;
+To... ...living there, I need you to deliver
+this message and tell them it's from
+Ortega.
+&lt;br&gt;
+Please forgive your father...who wasn't
+able to bring peace to this world...&lt;bw_break&gt;</t>
+  </si>
+  <si>
+    <t>&lt;attr&gt;&lt;feel_normal_one&gt;&lt;end_attr&gt;「ぐふっ！</t>
+  </si>
+  <si>
+    <t>&lt;attr&gt;&lt;feel_normal_one&gt;&lt;end_attr&gt;Gack!</t>
+  </si>
+  <si>
+    <t>宝箱を開けようとした。
+&lt;br&gt;
+しかし　上ぶたが　固く閉ざされ
+宝箱を開けることは　できなかった。
+どうやら　勇者にしか　開けられないようだ。</t>
+  </si>
+  <si>
+    <t>You tried to open the treasure chest.
+&lt;br&gt;
+However, it was tightly closed and could not
+be opened. It seems that only a Hero is able
+to open it.</t>
+  </si>
+  <si>
+    <t>&lt;se_nots map_z4700 9&gt;
+部屋の奥から　冷たい風が吹きつけ</t>
+  </si>
+  <si>
+    <t>&lt;se_nots map_z4700 9&gt;
+A chilling wind blew from the back of the
+room, extinguishing the torch that you
+were holding!</t>
+  </si>
+  <si>
+    <t>&lt;center&gt;&lt;pipipi_high&gt;私は　精霊ルビス……。
+&lt;br&gt;
+よくぞ　大魔王ゾーマを
+倒してくれました。
+&lt;br&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">My name is Rubiss...
+&lt;br&gt;
+You have done well to defeat Zoma, the
+Demon King.
+&lt;br&gt;
+With his defeat, this land of Alefgard has
+finally been saved.
+&lt;br&gt;
+Thank you, hero...you are the one who has
+brought courage and hope to this world!
+&lt;br&gt;
+I would like to reward you for your valiant
+efforts. Please take this.
+</t>
+  </si>
+  <si>
+    <t>精霊ルビスから
+精霊のかがやきを　９個　受け取り
+おまとめぶくろに　入れた！&lt;se_nots System 7&gt;</t>
+  </si>
+  <si>
+    <t>You received 9 Spirit Sparkles from Rubiss
+and put them in your currencies bag!&lt;se_nots System 7&gt;</t>
+  </si>
+  <si>
+    <t>&lt;center&gt;&lt;pipipi_high&gt;港町レンドア南のスラエルの所へ　持っていけば
+幾多の品と　交換できるでしょう。
+&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;center&gt;&lt;pipipi_high&gt;Take those to Agoola in South Port
+Lendor, and you can exchange them for a
+variety of different items.
+&lt;br&gt;
+Now, would you like me to return to you
+to Astoltia?&lt;yesno&gt;&lt;break&gt;</t>
+  </si>
+  <si>
+    <t>&lt;center&gt;&lt;pipipi_high&gt;……わかりました。
+それでは　私が　あなたを
+アストルティアまで　送り届けましょう。</t>
+  </si>
+  <si>
+    <t>&lt;center&gt;&lt;pipipi_high&gt;...very well. I shall see to it that you
+are safely returned home.
+&lt;br&gt;
+Goodbye... I hope that we can meet again
+someday...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">　キミの戦い　しかと　見せてもらったぞ。
+&lt;br&gt;
+「よくぞ　ゾーマを倒してくれた！
+　キミに頼んだ　私の目は　たしかだったな。
+&lt;br&gt;
+「ぜひ　礼がしたい。精霊ルビスから
+　さずけられた　精霊のかがやきを持って
+　私に　話しかけてくれ。</t>
+  </si>
+  <si>
+    <t>&lt;pipipi_high&gt;...it's me. Agoola. I watched your
+battle from here.
+&lt;br&gt;
+Great work defeating Zoma! It seems I made
+the right decision in trusting goo.
+&lt;br&gt;
+I'd like to show my gratitude. Please speak
+to me if you are carrying any Spirit
+Sparkles on your person.</t>
   </si>
   <si>
     <t>メインコマンド『せんれき』の
@@ -20159,73 +21114,63 @@
         <v>1429</v>
       </c>
       <c r="D625" s="2" t="s">
-        <v>1430</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="626">
       <c r="A626" s="2" t="s">
+        <v>1430</v>
+      </c>
+      <c r="C626" s="7" t="s">
         <v>1431</v>
       </c>
-      <c r="C626" s="7" t="s">
-        <v>1432</v>
-      </c>
-      <c r="D626" s="2" t="s">
-        <v>1430</v>
-      </c>
+      <c r="D626" s="2"/>
     </row>
     <row r="627">
       <c r="A627" s="2" t="s">
+        <v>1432</v>
+      </c>
+      <c r="C627" s="7" t="s">
         <v>1433</v>
       </c>
-      <c r="C627" s="7" t="s">
-        <v>1434</v>
-      </c>
-      <c r="D627" s="2" t="s">
-        <v>1430</v>
-      </c>
+      <c r="D627" s="2"/>
     </row>
     <row r="628">
       <c r="A628" s="2" t="s">
+        <v>1434</v>
+      </c>
+      <c r="C628" s="7" t="s">
         <v>1435</v>
       </c>
-      <c r="C628" s="7" t="s">
-        <v>1436</v>
-      </c>
-      <c r="D628" s="2" t="s">
-        <v>1402</v>
-      </c>
+      <c r="D628" s="2"/>
     </row>
     <row r="629">
       <c r="A629" s="2" t="s">
+        <v>1436</v>
+      </c>
+      <c r="C629" s="7" t="s">
         <v>1437</v>
       </c>
-      <c r="C629" s="7" t="s">
-        <v>1438</v>
-      </c>
-      <c r="D629" s="2" t="s">
-        <v>1402</v>
-      </c>
+      <c r="D629" s="2"/>
     </row>
     <row r="630">
       <c r="A630" s="2" t="s">
+        <v>1438</v>
+      </c>
+      <c r="C630" s="7" t="s">
         <v>1439</v>
       </c>
-      <c r="C630" s="7" t="s">
-        <v>1440</v>
-      </c>
-      <c r="D630" s="2" t="s">
-        <v>1402</v>
-      </c>
+      <c r="D630" s="2"/>
     </row>
     <row r="631">
       <c r="A631" s="2" t="s">
+        <v>1440</v>
+      </c>
+      <c r="C631" s="7" t="s">
         <v>1441</v>
       </c>
-      <c r="C631" s="7" t="s">
+      <c r="D631" s="2" t="s">
         <v>1442</v>
-      </c>
-      <c r="D631" s="2" t="s">
-        <v>1402</v>
       </c>
     </row>
     <row r="632">
@@ -20236,7 +21181,7 @@
         <v>1444</v>
       </c>
       <c r="D632" s="2" t="s">
-        <v>1402</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="633">
@@ -20247,7 +21192,7 @@
         <v>1446</v>
       </c>
       <c r="D633" s="2" t="s">
-        <v>1402</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="634">
@@ -20259,6 +21204,677 @@
       </c>
       <c r="D634" s="2" t="s">
         <v>1402</v>
+      </c>
+    </row>
+    <row r="635">
+      <c r="A635" s="2" t="s">
+        <v>1449</v>
+      </c>
+      <c r="C635" s="7" t="s">
+        <v>1450</v>
+      </c>
+      <c r="D635" s="2" t="s">
+        <v>1402</v>
+      </c>
+    </row>
+    <row r="636">
+      <c r="A636" s="2" t="s">
+        <v>1451</v>
+      </c>
+      <c r="C636" s="7" t="s">
+        <v>1452</v>
+      </c>
+      <c r="D636" s="2" t="s">
+        <v>1402</v>
+      </c>
+    </row>
+    <row r="637">
+      <c r="A637" s="2" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C637" s="7" t="s">
+        <v>1454</v>
+      </c>
+      <c r="D637" s="2" t="s">
+        <v>1402</v>
+      </c>
+    </row>
+    <row r="638">
+      <c r="A638" s="2" t="s">
+        <v>1455</v>
+      </c>
+      <c r="C638" s="7" t="s">
+        <v>1456</v>
+      </c>
+      <c r="D638" s="2" t="s">
+        <v>1402</v>
+      </c>
+    </row>
+    <row r="639">
+      <c r="A639" s="2" t="s">
+        <v>1457</v>
+      </c>
+      <c r="C639" s="7" t="s">
+        <v>1458</v>
+      </c>
+      <c r="D639" s="2" t="s">
+        <v>1402</v>
+      </c>
+    </row>
+    <row r="640">
+      <c r="A640" s="2" t="s">
+        <v>1459</v>
+      </c>
+      <c r="C640" s="7" t="s">
+        <v>1460</v>
+      </c>
+      <c r="D640" s="2" t="s">
+        <v>1402</v>
+      </c>
+    </row>
+    <row r="641">
+      <c r="A641" s="2" t="s">
+        <v>1461</v>
+      </c>
+      <c r="C641" s="7" t="s">
+        <v>1462</v>
+      </c>
+      <c r="D641" s="2" t="s">
+        <v>1402</v>
+      </c>
+    </row>
+    <row r="642">
+      <c r="A642" s="2" t="s">
+        <v>1463</v>
+      </c>
+      <c r="C642" s="7" t="s">
+        <v>1464</v>
+      </c>
+      <c r="D642" s="2" t="s">
+        <v>1402</v>
+      </c>
+    </row>
+    <row r="643">
+      <c r="A643" s="2" t="s">
+        <v>1465</v>
+      </c>
+      <c r="C643" s="7" t="s">
+        <v>1466</v>
+      </c>
+      <c r="D643" s="2" t="s">
+        <v>1402</v>
+      </c>
+    </row>
+    <row r="644">
+      <c r="A644" s="2" t="s">
+        <v>1467</v>
+      </c>
+      <c r="C644" s="7" t="s">
+        <v>1468</v>
+      </c>
+      <c r="D644" s="2" t="s">
+        <v>1402</v>
+      </c>
+    </row>
+    <row r="645">
+      <c r="A645" s="2" t="s">
+        <v>1469</v>
+      </c>
+      <c r="C645" s="7" t="s">
+        <v>1470</v>
+      </c>
+      <c r="D645" s="2" t="s">
+        <v>1402</v>
+      </c>
+    </row>
+    <row r="646">
+      <c r="A646" s="2" t="s">
+        <v>1471</v>
+      </c>
+      <c r="C646" s="7" t="s">
+        <v>1472</v>
+      </c>
+      <c r="D646" s="2" t="s">
+        <v>1402</v>
+      </c>
+    </row>
+    <row r="647">
+      <c r="A647" s="2" t="s">
+        <v>1473</v>
+      </c>
+      <c r="C647" s="7" t="s">
+        <v>1474</v>
+      </c>
+      <c r="D647" s="2" t="s">
+        <v>1402</v>
+      </c>
+    </row>
+    <row r="648">
+      <c r="A648" s="2" t="s">
+        <v>1475</v>
+      </c>
+      <c r="C648" s="7" t="s">
+        <v>1476</v>
+      </c>
+      <c r="D648" s="2" t="s">
+        <v>1402</v>
+      </c>
+    </row>
+    <row r="649">
+      <c r="A649" s="2" t="s">
+        <v>1477</v>
+      </c>
+      <c r="C649" s="7" t="s">
+        <v>1478</v>
+      </c>
+      <c r="D649" s="2" t="s">
+        <v>1402</v>
+      </c>
+    </row>
+    <row r="650">
+      <c r="A650" s="2" t="s">
+        <v>1479</v>
+      </c>
+      <c r="C650" s="7" t="s">
+        <v>1480</v>
+      </c>
+      <c r="D650" s="2" t="s">
+        <v>1402</v>
+      </c>
+    </row>
+    <row r="651">
+      <c r="A651" s="2" t="s">
+        <v>1481</v>
+      </c>
+      <c r="C651" s="7" t="s">
+        <v>1482</v>
+      </c>
+      <c r="D651" s="2" t="s">
+        <v>1402</v>
+      </c>
+    </row>
+    <row r="652">
+      <c r="A652" s="2" t="s">
+        <v>1483</v>
+      </c>
+      <c r="C652" s="7" t="s">
+        <v>1484</v>
+      </c>
+      <c r="D652" s="2" t="s">
+        <v>1402</v>
+      </c>
+    </row>
+    <row r="653">
+      <c r="A653" s="2" t="s">
+        <v>1485</v>
+      </c>
+      <c r="C653" s="7" t="s">
+        <v>1486</v>
+      </c>
+      <c r="D653" s="2" t="s">
+        <v>1402</v>
+      </c>
+    </row>
+    <row r="654">
+      <c r="A654" s="2" t="s">
+        <v>1487</v>
+      </c>
+      <c r="C654" s="7" t="s">
+        <v>1488</v>
+      </c>
+      <c r="D654" s="2" t="s">
+        <v>1402</v>
+      </c>
+    </row>
+    <row r="655">
+      <c r="A655" s="2" t="s">
+        <v>1489</v>
+      </c>
+      <c r="C655" s="7" t="s">
+        <v>1490</v>
+      </c>
+      <c r="D655" s="2" t="s">
+        <v>1402</v>
+      </c>
+    </row>
+    <row r="656">
+      <c r="A656" s="2" t="s">
+        <v>1491</v>
+      </c>
+      <c r="C656" s="7" t="s">
+        <v>1492</v>
+      </c>
+      <c r="D656" s="2" t="s">
+        <v>1402</v>
+      </c>
+    </row>
+    <row r="657">
+      <c r="A657" s="2" t="s">
+        <v>1493</v>
+      </c>
+      <c r="C657" s="7" t="s">
+        <v>1494</v>
+      </c>
+      <c r="D657" s="2" t="s">
+        <v>1402</v>
+      </c>
+    </row>
+    <row r="658">
+      <c r="A658" s="2" t="s">
+        <v>1495</v>
+      </c>
+      <c r="C658" s="7" t="s">
+        <v>1496</v>
+      </c>
+      <c r="D658" s="2" t="s">
+        <v>1413</v>
+      </c>
+    </row>
+    <row r="659">
+      <c r="A659" s="2" t="s">
+        <v>1497</v>
+      </c>
+      <c r="C659" s="7" t="s">
+        <v>1498</v>
+      </c>
+      <c r="D659" s="2" t="s">
+        <v>1413</v>
+      </c>
+    </row>
+    <row r="660">
+      <c r="A660" s="2" t="s">
+        <v>1499</v>
+      </c>
+      <c r="C660" s="7" t="s">
+        <v>1500</v>
+      </c>
+      <c r="D660" s="2" t="s">
+        <v>1413</v>
+      </c>
+    </row>
+    <row r="661">
+      <c r="A661" s="2" t="s">
+        <v>1501</v>
+      </c>
+      <c r="C661" s="7" t="s">
+        <v>1502</v>
+      </c>
+      <c r="D661" s="2" t="s">
+        <v>1413</v>
+      </c>
+    </row>
+    <row r="662">
+      <c r="A662" s="2" t="s">
+        <v>1503</v>
+      </c>
+      <c r="C662" s="7" t="s">
+        <v>1504</v>
+      </c>
+      <c r="D662" s="2" t="s">
+        <v>1402</v>
+      </c>
+    </row>
+    <row r="663">
+      <c r="A663" s="2" t="s">
+        <v>1505</v>
+      </c>
+      <c r="C663" s="7" t="s">
+        <v>1506</v>
+      </c>
+      <c r="D663" s="2" t="s">
+        <v>1402</v>
+      </c>
+    </row>
+    <row r="664">
+      <c r="A664" s="2" t="s">
+        <v>1507</v>
+      </c>
+      <c r="C664" s="7" t="s">
+        <v>1508</v>
+      </c>
+      <c r="D664" s="2" t="s">
+        <v>1402</v>
+      </c>
+    </row>
+    <row r="665">
+      <c r="A665" s="2" t="s">
+        <v>1509</v>
+      </c>
+      <c r="C665" s="7" t="s">
+        <v>1510</v>
+      </c>
+      <c r="D665" s="2" t="s">
+        <v>1402</v>
+      </c>
+    </row>
+    <row r="666">
+      <c r="A666" s="2" t="s">
+        <v>1511</v>
+      </c>
+      <c r="C666" s="7" t="s">
+        <v>1512</v>
+      </c>
+      <c r="D666" s="2" t="s">
+        <v>1402</v>
+      </c>
+    </row>
+    <row r="667">
+      <c r="A667" s="2" t="s">
+        <v>1513</v>
+      </c>
+      <c r="C667" s="7" t="s">
+        <v>1514</v>
+      </c>
+      <c r="D667" s="2" t="s">
+        <v>1402</v>
+      </c>
+    </row>
+    <row r="668">
+      <c r="A668" s="2" t="s">
+        <v>1515</v>
+      </c>
+      <c r="C668" s="7" t="s">
+        <v>1516</v>
+      </c>
+      <c r="D668" s="2" t="s">
+        <v>1402</v>
+      </c>
+    </row>
+    <row r="669">
+      <c r="A669" s="2" t="s">
+        <v>1517</v>
+      </c>
+      <c r="C669" s="7" t="s">
+        <v>1518</v>
+      </c>
+      <c r="D669" s="2" t="s">
+        <v>1402</v>
+      </c>
+    </row>
+    <row r="670">
+      <c r="A670" s="2" t="s">
+        <v>1519</v>
+      </c>
+      <c r="C670" s="7" t="s">
+        <v>1520</v>
+      </c>
+      <c r="D670" s="2" t="s">
+        <v>1402</v>
+      </c>
+    </row>
+    <row r="671">
+      <c r="A671" s="2" t="s">
+        <v>1521</v>
+      </c>
+      <c r="C671" s="7" t="s">
+        <v>1522</v>
+      </c>
+      <c r="D671" s="2" t="s">
+        <v>1402</v>
+      </c>
+    </row>
+    <row r="672">
+      <c r="A672" s="2" t="s">
+        <v>1523</v>
+      </c>
+      <c r="C672" s="7" t="s">
+        <v>1524</v>
+      </c>
+      <c r="D672" s="2" t="s">
+        <v>1413</v>
+      </c>
+    </row>
+    <row r="673">
+      <c r="A673" s="2" t="s">
+        <v>1525</v>
+      </c>
+      <c r="C673" s="7" t="s">
+        <v>1526</v>
+      </c>
+      <c r="D673" s="2" t="s">
+        <v>1402</v>
+      </c>
+    </row>
+    <row r="674">
+      <c r="A674" s="2" t="s">
+        <v>1527</v>
+      </c>
+      <c r="C674" s="7" t="s">
+        <v>1528</v>
+      </c>
+      <c r="D674" s="2" t="s">
+        <v>1402</v>
+      </c>
+    </row>
+    <row r="675">
+      <c r="A675" s="2" t="s">
+        <v>1529</v>
+      </c>
+      <c r="C675" s="7" t="s">
+        <v>1530</v>
+      </c>
+      <c r="D675" s="2" t="s">
+        <v>1402</v>
+      </c>
+    </row>
+    <row r="676">
+      <c r="A676" s="2" t="s">
+        <v>1531</v>
+      </c>
+      <c r="C676" s="7" t="s">
+        <v>1532</v>
+      </c>
+      <c r="D676" s="2" t="s">
+        <v>1413</v>
+      </c>
+    </row>
+    <row r="677">
+      <c r="A677" s="2" t="s">
+        <v>1533</v>
+      </c>
+      <c r="C677" s="7" t="s">
+        <v>1534</v>
+      </c>
+      <c r="D677" s="2" t="s">
+        <v>1402</v>
+      </c>
+    </row>
+    <row r="678">
+      <c r="A678" s="2" t="s">
+        <v>1535</v>
+      </c>
+      <c r="C678" s="7" t="s">
+        <v>1536</v>
+      </c>
+      <c r="D678" s="2" t="s">
+        <v>1402</v>
+      </c>
+    </row>
+    <row r="679">
+      <c r="A679" s="2" t="s">
+        <v>1537</v>
+      </c>
+      <c r="C679" s="7" t="s">
+        <v>1538</v>
+      </c>
+      <c r="D679" s="2" t="s">
+        <v>1413</v>
+      </c>
+    </row>
+    <row r="680">
+      <c r="A680" s="2" t="s">
+        <v>1539</v>
+      </c>
+      <c r="C680" s="7" t="s">
+        <v>1540</v>
+      </c>
+      <c r="D680" s="2" t="s">
+        <v>1402</v>
+      </c>
+    </row>
+    <row r="681">
+      <c r="A681" s="2" t="s">
+        <v>1541</v>
+      </c>
+      <c r="C681" s="7" t="s">
+        <v>1542</v>
+      </c>
+      <c r="D681" s="2" t="s">
+        <v>1402</v>
+      </c>
+    </row>
+    <row r="682">
+      <c r="A682" s="2" t="s">
+        <v>1543</v>
+      </c>
+      <c r="C682" s="7" t="s">
+        <v>1544</v>
+      </c>
+      <c r="D682" s="2" t="s">
+        <v>1402</v>
+      </c>
+    </row>
+    <row r="683">
+      <c r="A683" s="2" t="s">
+        <v>1545</v>
+      </c>
+      <c r="C683" s="7" t="s">
+        <v>1546</v>
+      </c>
+      <c r="D683" s="2" t="s">
+        <v>1402</v>
+      </c>
+    </row>
+    <row r="684">
+      <c r="A684" s="2" t="s">
+        <v>1547</v>
+      </c>
+      <c r="C684" s="7" t="s">
+        <v>1548</v>
+      </c>
+      <c r="D684" s="2" t="s">
+        <v>1402</v>
+      </c>
+    </row>
+    <row r="685">
+      <c r="A685" s="2" t="s">
+        <v>1549</v>
+      </c>
+      <c r="C685" s="7" t="s">
+        <v>1550</v>
+      </c>
+      <c r="D685" s="2" t="s">
+        <v>1402</v>
+      </c>
+    </row>
+    <row r="686">
+      <c r="A686" s="2" t="s">
+        <v>1551</v>
+      </c>
+      <c r="C686" s="7" t="s">
+        <v>1552</v>
+      </c>
+      <c r="D686" s="2" t="s">
+        <v>1402</v>
+      </c>
+    </row>
+    <row r="687">
+      <c r="A687" s="2" t="s">
+        <v>1553</v>
+      </c>
+      <c r="C687" s="7" t="s">
+        <v>1554</v>
+      </c>
+      <c r="D687" s="2" t="s">
+        <v>1402</v>
+      </c>
+    </row>
+    <row r="688">
+      <c r="A688" s="2" t="s">
+        <v>1555</v>
+      </c>
+      <c r="C688" s="7" t="s">
+        <v>1556</v>
+      </c>
+      <c r="D688" s="2" t="s">
+        <v>1402</v>
+      </c>
+    </row>
+    <row r="689">
+      <c r="A689" s="2" t="s">
+        <v>1557</v>
+      </c>
+      <c r="C689" s="7" t="s">
+        <v>1558</v>
+      </c>
+      <c r="D689" s="2" t="s">
+        <v>1413</v>
+      </c>
+    </row>
+    <row r="690">
+      <c r="A690" s="2" t="s">
+        <v>1559</v>
+      </c>
+      <c r="C690" s="7" t="s">
+        <v>1560</v>
+      </c>
+      <c r="D690" s="2" t="s">
+        <v>1413</v>
+      </c>
+    </row>
+    <row r="691">
+      <c r="A691" s="2" t="s">
+        <v>1561</v>
+      </c>
+      <c r="C691" s="7" t="s">
+        <v>1562</v>
+      </c>
+      <c r="D691" s="2" t="s">
+        <v>1413</v>
+      </c>
+    </row>
+    <row r="692">
+      <c r="A692" s="2" t="s">
+        <v>1563</v>
+      </c>
+      <c r="C692" s="7" t="s">
+        <v>1564</v>
+      </c>
+      <c r="D692" s="2" t="s">
+        <v>1413</v>
+      </c>
+    </row>
+    <row r="693">
+      <c r="A693" s="2" t="s">
+        <v>1565</v>
+      </c>
+      <c r="C693" s="7" t="s">
+        <v>1566</v>
+      </c>
+      <c r="D693" s="2" t="s">
+        <v>1402</v>
+      </c>
+    </row>
+    <row r="694">
+      <c r="A694" s="2" t="s">
+        <v>1567</v>
+      </c>
+      <c r="C694" s="7" t="s">
+        <v>1568</v>
+      </c>
+      <c r="D694" s="2" t="s">
+        <v>1413</v>
+      </c>
+    </row>
+    <row r="695">
+      <c r="A695" s="2" t="s">
+        <v>1569</v>
+      </c>
+      <c r="C695" s="7" t="s">
+        <v>1570</v>
+      </c>
+      <c r="D695" s="2" t="s">
+        <v>1413</v>
       </c>
     </row>
   </sheetData>
@@ -20297,18 +21913,18 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>1449</v>
+        <v>1571</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>1450</v>
+        <v>1572</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>1451</v>
+        <v>1573</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>1452</v>
+        <v>1574</v>
       </c>
     </row>
   </sheetData>

--- a/csv/merge.xlsx
+++ b/csv/merge.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2050" uniqueCount="1575">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2075" uniqueCount="1589">
   <si>
     <t>JP Text (DO NOT CHANGE)</t>
   </si>
@@ -12541,6 +12541,40 @@
 defeating the boss. Make an offer?&lt;yesno&gt;&lt;close&gt;</t>
   </si>
   <si>
+    <t>「私の名は　スラエル。
+　ルイーダの酒場の　女主人の使いとして
+　この世界へと　やって来た。&lt;bw_break&gt;</t>
+  </si>
+  <si>
+    <t>My name is Agoola. I came to this world on
+behalf of the owner of Gooida's Bar.&lt;bw_break&gt;</t>
+  </si>
+  <si>
+    <t>DQ3 Event</t>
+  </si>
+  <si>
+    <t xml:space="preserve">　ゾーマを倒してくれて　本当に　感謝している。
+&lt;br&gt;
+「もし　ルイーダの酒場に　行きたいのなら
+　私に言ってくれれば　送るぞ。
+&lt;br&gt;
+「だが　その前に　精霊ルビスから　さずけられた
+　精霊のかがやきを　持っているのならば
+　お礼の品と　交換してあげよう。&lt;bw_break&gt;</t>
+  </si>
+  <si>
+    <t>Oh, right, it's you. I very much appreciate
+you defeating Zoma.
+&lt;br&gt;
+If you'd like to go to Luida's Bar again, just
+let me know and I'll send goo right on
+your way.
+&lt;br&gt;
+Before you go, if you have any Spirit Sparkles
+that Rubiss has given you, please show me.
+I can exchange them for rewards.&lt;bw_break&gt;</t>
+  </si>
+  <si>
     <t>「では　キミが
 　どうしたいのか　教えてくれ。
 &lt;select&gt;
@@ -12582,9 +12616,6 @@
 &lt;case_end&gt;</t>
   </si>
   <si>
-    <t>DQ3 Event</t>
-  </si>
-  <si>
     <t>「そうか……。私に会いたくなったときは
 　また　ここに来てくれ。</t>
   </si>
@@ -12646,6 +12677,42 @@
 &lt;case_end&gt;&lt;break&gt;</t>
   </si>
   <si>
+    <t>「今　キミは　ひとりだけのようだが
+　どんなふうに　行きたい？
+&lt;select&gt;
+自分ひとりで行く
+他の冒険者と行く
+やめる
+&lt;select_end&gt;
+&lt;case 1&gt;
+&lt;break&gt;
+&lt;case 2&gt;
+&lt;break&gt;
+&lt;case 3&gt;
+&lt;break&gt;
+&lt;case_cancel&gt;
+&lt;break&gt;
+&lt;case_end&gt;&lt;break&gt;</t>
+  </si>
+  <si>
+    <t>I see that you are by yourself at the moment.
+How would you like to go there?
+&lt;select&gt;
+Go Alone
+Go with Other Adventurers
+Cancel
+&lt;select_end&gt;
+&lt;case 1&gt;
+&lt;break&gt;
+&lt;case 2&gt;
+&lt;break&gt;
+&lt;case 3&gt;
+&lt;break&gt;
+&lt;case_cancel&gt;
+&lt;break&gt;
+&lt;case_end&gt;&lt;break&gt;</t>
+  </si>
+  <si>
     <t>「今の仲間と　行くんだな。
 　それじゃ　みんな　一緒に
 　ルイーダの酒場へ　案内するとしよう。</t>
@@ -12655,6 +12722,15 @@
 Let's go to Gooida's Bar! (slurp)</t>
   </si>
   <si>
+    <t>「自分ひとりで　行くんだな。
+　それじゃ　キミだけを
+　ルイーダの酒場へ　案内するとしよう。</t>
+  </si>
+  <si>
+    <t>Going by yourself, I see. Okay, let's go
+to Gooida's Bar! (slurp)</t>
+  </si>
+  <si>
     <t>職業が
 勇者に　なった！&lt;se_nots Joutyu_SE 37&gt;</t>
   </si>
@@ -12684,6 +12760,38 @@
   </si>
   <si>
     <t>You became a Sage!&lt;se_nots Joutyu_SE 37&gt;</t>
+  </si>
+  <si>
+    <t>「大魔王の城への　行き方については
+　ここにいるルイーダに　聞いてみてくれ。
+&lt;br&gt;
+「もし　アストルティアに　戻りたいのならば
+　私が　送ってあげるが　どうする？
+　アストルティアへ　戻るか？&lt;yesno&gt;&lt;break&gt;</t>
+  </si>
+  <si>
+    <t>If you want to get to Zoma's Castle, you'll
+have to ask Luida here.
+&lt;br&gt;
+If you want to go back to Astoltia, I can take
+goo. Do you want to go back?&lt;yesno&gt;&lt;break&gt;</t>
+  </si>
+  <si>
+    <t>「戻る気は　ないんだな。
+　では　ルイーダの所で　準備をととのえ
+　大魔王の城へ　向かってくれ。</t>
+  </si>
+  <si>
+    <t>So you're going to stay, huh? In that case,
+go speak to Luida, prepare your party,
+and then head for Zoma's Castle.</t>
+  </si>
+  <si>
+    <t>「……わかった。
+　では　アストルティアへ　送ってあげよう。</t>
+  </si>
+  <si>
+    <t>...I understand. Let's goo back to Astoltia.</t>
   </si>
   <si>
     <t>「ここは　ルイーダの酒場。
@@ -21026,51 +21134,49 @@
         <v>1412</v>
       </c>
       <c r="D617" s="2" t="s">
-        <v>1413</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="618">
       <c r="A618" s="2" t="s">
+        <v>1413</v>
+      </c>
+      <c r="C618" s="7" t="s">
         <v>1414</v>
       </c>
-      <c r="C618" s="7" t="s">
-        <v>1415</v>
-      </c>
-      <c r="D618" s="2" t="s">
-        <v>1413</v>
-      </c>
+      <c r="D618" s="2"/>
     </row>
     <row r="619">
       <c r="A619" s="2" t="s">
+        <v>1415</v>
+      </c>
+      <c r="C619" s="7" t="s">
         <v>1416</v>
       </c>
-      <c r="C619" s="7" t="s">
-        <v>1417</v>
-      </c>
       <c r="D619" s="2" t="s">
-        <v>1413</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="620">
       <c r="A620" s="2" t="s">
+        <v>1417</v>
+      </c>
+      <c r="C620" s="7" t="s">
         <v>1418</v>
       </c>
-      <c r="C620" s="7" t="s">
-        <v>1419</v>
-      </c>
       <c r="D620" s="2" t="s">
-        <v>1413</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="621">
       <c r="A621" s="2" t="s">
+        <v>1419</v>
+      </c>
+      <c r="C621" s="7" t="s">
         <v>1420</v>
       </c>
-      <c r="C621" s="7" t="s">
+      <c r="D621" s="2" t="s">
         <v>1421</v>
-      </c>
-      <c r="D621" s="2" t="s">
-        <v>1402</v>
       </c>
     </row>
     <row r="622">
@@ -21081,7 +21187,7 @@
         <v>1423</v>
       </c>
       <c r="D622" s="2" t="s">
-        <v>1402</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="623">
@@ -21092,7 +21198,7 @@
         <v>1425</v>
       </c>
       <c r="D623" s="2" t="s">
-        <v>1402</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="624">
@@ -21103,7 +21209,7 @@
         <v>1427</v>
       </c>
       <c r="D624" s="2" t="s">
-        <v>1402</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="625">
@@ -21124,7 +21230,9 @@
       <c r="C626" s="7" t="s">
         <v>1431</v>
       </c>
-      <c r="D626" s="2"/>
+      <c r="D626" s="2" t="s">
+        <v>1402</v>
+      </c>
     </row>
     <row r="627">
       <c r="A627" s="2" t="s">
@@ -21133,7 +21241,9 @@
       <c r="C627" s="7" t="s">
         <v>1433</v>
       </c>
-      <c r="D627" s="2"/>
+      <c r="D627" s="2" t="s">
+        <v>1402</v>
+      </c>
     </row>
     <row r="628">
       <c r="A628" s="2" t="s">
@@ -21142,7 +21252,9 @@
       <c r="C628" s="7" t="s">
         <v>1435</v>
       </c>
-      <c r="D628" s="2"/>
+      <c r="D628" s="2" t="s">
+        <v>1402</v>
+      </c>
     </row>
     <row r="629">
       <c r="A629" s="2" t="s">
@@ -21151,7 +21263,9 @@
       <c r="C629" s="7" t="s">
         <v>1437</v>
       </c>
-      <c r="D629" s="2"/>
+      <c r="D629" s="2" t="s">
+        <v>1402</v>
+      </c>
     </row>
     <row r="630">
       <c r="A630" s="2" t="s">
@@ -21160,7 +21274,9 @@
       <c r="C630" s="7" t="s">
         <v>1439</v>
       </c>
-      <c r="D630" s="2"/>
+      <c r="D630" s="2" t="s">
+        <v>1402</v>
+      </c>
     </row>
     <row r="631">
       <c r="A631" s="2" t="s">
@@ -21170,37 +21286,37 @@
         <v>1441</v>
       </c>
       <c r="D631" s="2" t="s">
-        <v>1442</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="632">
       <c r="A632" s="2" t="s">
+        <v>1442</v>
+      </c>
+      <c r="C632" s="7" t="s">
         <v>1443</v>
       </c>
-      <c r="C632" s="7" t="s">
-        <v>1444</v>
-      </c>
       <c r="D632" s="2" t="s">
-        <v>1442</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="633">
       <c r="A633" s="2" t="s">
+        <v>1444</v>
+      </c>
+      <c r="C633" s="7" t="s">
         <v>1445</v>
       </c>
-      <c r="C633" s="7" t="s">
-        <v>1446</v>
-      </c>
       <c r="D633" s="2" t="s">
-        <v>1442</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="634">
       <c r="A634" s="2" t="s">
+        <v>1446</v>
+      </c>
+      <c r="C634" s="7" t="s">
         <v>1447</v>
-      </c>
-      <c r="C634" s="7" t="s">
-        <v>1448</v>
       </c>
       <c r="D634" s="2" t="s">
         <v>1402</v>
@@ -21208,10 +21324,10 @@
     </row>
     <row r="635">
       <c r="A635" s="2" t="s">
+        <v>1448</v>
+      </c>
+      <c r="C635" s="7" t="s">
         <v>1449</v>
-      </c>
-      <c r="C635" s="7" t="s">
-        <v>1450</v>
       </c>
       <c r="D635" s="2" t="s">
         <v>1402</v>
@@ -21219,10 +21335,10 @@
     </row>
     <row r="636">
       <c r="A636" s="2" t="s">
+        <v>1450</v>
+      </c>
+      <c r="C636" s="7" t="s">
         <v>1451</v>
-      </c>
-      <c r="C636" s="7" t="s">
-        <v>1452</v>
       </c>
       <c r="D636" s="2" t="s">
         <v>1402</v>
@@ -21230,10 +21346,10 @@
     </row>
     <row r="637">
       <c r="A637" s="2" t="s">
+        <v>1452</v>
+      </c>
+      <c r="C637" s="7" t="s">
         <v>1453</v>
-      </c>
-      <c r="C637" s="7" t="s">
-        <v>1454</v>
       </c>
       <c r="D637" s="2" t="s">
         <v>1402</v>
@@ -21241,13 +21357,13 @@
     </row>
     <row r="638">
       <c r="A638" s="2" t="s">
+        <v>1454</v>
+      </c>
+      <c r="C638" s="7" t="s">
         <v>1455</v>
       </c>
-      <c r="C638" s="7" t="s">
+      <c r="D638" s="2" t="s">
         <v>1456</v>
-      </c>
-      <c r="D638" s="2" t="s">
-        <v>1402</v>
       </c>
     </row>
     <row r="639">
@@ -21258,7 +21374,7 @@
         <v>1458</v>
       </c>
       <c r="D639" s="2" t="s">
-        <v>1402</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="640">
@@ -21269,7 +21385,7 @@
         <v>1460</v>
       </c>
       <c r="D640" s="2" t="s">
-        <v>1402</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="641">
@@ -21467,7 +21583,7 @@
         <v>1496</v>
       </c>
       <c r="D658" s="2" t="s">
-        <v>1413</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="659">
@@ -21478,7 +21594,7 @@
         <v>1498</v>
       </c>
       <c r="D659" s="2" t="s">
-        <v>1413</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="660">
@@ -21489,7 +21605,7 @@
         <v>1500</v>
       </c>
       <c r="D660" s="2" t="s">
-        <v>1413</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="661">
@@ -21500,7 +21616,7 @@
         <v>1502</v>
       </c>
       <c r="D661" s="2" t="s">
-        <v>1413</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="662">
@@ -21544,7 +21660,7 @@
         <v>1510</v>
       </c>
       <c r="D665" s="2" t="s">
-        <v>1402</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="666">
@@ -21555,7 +21671,7 @@
         <v>1512</v>
       </c>
       <c r="D666" s="2" t="s">
-        <v>1402</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="667">
@@ -21566,7 +21682,7 @@
         <v>1514</v>
       </c>
       <c r="D667" s="2" t="s">
-        <v>1402</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="668">
@@ -21577,7 +21693,7 @@
         <v>1516</v>
       </c>
       <c r="D668" s="2" t="s">
-        <v>1402</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="669">
@@ -21621,7 +21737,7 @@
         <v>1524</v>
       </c>
       <c r="D672" s="2" t="s">
-        <v>1413</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="673">
@@ -21665,7 +21781,7 @@
         <v>1532</v>
       </c>
       <c r="D676" s="2" t="s">
-        <v>1413</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="677">
@@ -21698,7 +21814,7 @@
         <v>1538</v>
       </c>
       <c r="D679" s="2" t="s">
-        <v>1413</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="680">
@@ -21742,7 +21858,7 @@
         <v>1546</v>
       </c>
       <c r="D683" s="2" t="s">
-        <v>1402</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="684">
@@ -21775,7 +21891,7 @@
         <v>1552</v>
       </c>
       <c r="D686" s="2" t="s">
-        <v>1402</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="687">
@@ -21808,7 +21924,7 @@
         <v>1558</v>
       </c>
       <c r="D689" s="2" t="s">
-        <v>1413</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="690">
@@ -21819,7 +21935,7 @@
         <v>1560</v>
       </c>
       <c r="D690" s="2" t="s">
-        <v>1413</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="691">
@@ -21830,7 +21946,7 @@
         <v>1562</v>
       </c>
       <c r="D691" s="2" t="s">
-        <v>1413</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="692">
@@ -21841,7 +21957,7 @@
         <v>1564</v>
       </c>
       <c r="D692" s="2" t="s">
-        <v>1413</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="693">
@@ -21863,7 +21979,7 @@
         <v>1568</v>
       </c>
       <c r="D694" s="2" t="s">
-        <v>1413</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="695">
@@ -21874,7 +21990,84 @@
         <v>1570</v>
       </c>
       <c r="D695" s="2" t="s">
-        <v>1413</v>
+        <v>1402</v>
+      </c>
+    </row>
+    <row r="696">
+      <c r="A696" s="2" t="s">
+        <v>1571</v>
+      </c>
+      <c r="C696" s="7" t="s">
+        <v>1572</v>
+      </c>
+      <c r="D696" s="2" t="s">
+        <v>1421</v>
+      </c>
+    </row>
+    <row r="697">
+      <c r="A697" s="2" t="s">
+        <v>1573</v>
+      </c>
+      <c r="C697" s="7" t="s">
+        <v>1574</v>
+      </c>
+      <c r="D697" s="2" t="s">
+        <v>1421</v>
+      </c>
+    </row>
+    <row r="698">
+      <c r="A698" s="2" t="s">
+        <v>1575</v>
+      </c>
+      <c r="C698" s="7" t="s">
+        <v>1576</v>
+      </c>
+      <c r="D698" s="2" t="s">
+        <v>1421</v>
+      </c>
+    </row>
+    <row r="699">
+      <c r="A699" s="2" t="s">
+        <v>1577</v>
+      </c>
+      <c r="C699" s="7" t="s">
+        <v>1578</v>
+      </c>
+      <c r="D699" s="2" t="s">
+        <v>1421</v>
+      </c>
+    </row>
+    <row r="700">
+      <c r="A700" s="2" t="s">
+        <v>1579</v>
+      </c>
+      <c r="C700" s="7" t="s">
+        <v>1580</v>
+      </c>
+      <c r="D700" s="2" t="s">
+        <v>1402</v>
+      </c>
+    </row>
+    <row r="701">
+      <c r="A701" s="2" t="s">
+        <v>1581</v>
+      </c>
+      <c r="C701" s="7" t="s">
+        <v>1582</v>
+      </c>
+      <c r="D701" s="2" t="s">
+        <v>1421</v>
+      </c>
+    </row>
+    <row r="702">
+      <c r="A702" s="2" t="s">
+        <v>1583</v>
+      </c>
+      <c r="C702" s="7" t="s">
+        <v>1584</v>
+      </c>
+      <c r="D702" s="2" t="s">
+        <v>1421</v>
       </c>
     </row>
   </sheetData>
@@ -21913,18 +22106,18 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>1571</v>
+        <v>1585</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>1572</v>
+        <v>1586</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>1573</v>
+        <v>1587</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>1574</v>
+        <v>1588</v>
       </c>
     </row>
   </sheetData>

--- a/csv/merge.xlsx
+++ b/csv/merge.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2075" uniqueCount="1589">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2093" uniqueCount="1601">
   <si>
     <t>JP Text (DO NOT CHANGE)</t>
   </si>
@@ -12575,6 +12575,9 @@
 I can exchange them for rewards.&lt;bw_break&gt;</t>
   </si>
   <si>
+    <t>DQ3 Event (BAD STRING)</t>
+  </si>
+  <si>
     <t>「では　キミが
 　どうしたいのか　教えてくれ。
 &lt;select&gt;
@@ -12738,9 +12741,6 @@
     <t>You became a Hero!&lt;se_nots Joutyu_SE 37&gt;</t>
   </si>
   <si>
-    <t>DQ3 Event (BAD STRING)</t>
-  </si>
-  <si>
     <t>職業が
 戦士に　なった！&lt;se_nots Joutyu_SE 37&gt;</t>
   </si>
@@ -12854,8 +12854,8 @@
 need a well-balanced party if you want any
 chance of defeating him.
 &lt;br&gt;
-I think it's best if everyone in your party has
-a unique vocation with no overlaps before
+I think it's best if everyone in your party
+has a unique vocation with no overlaps before
 you go.
 &lt;br&gt;
 Also, if you're short on companions, I can
@@ -13696,6 +13696,19 @@
 Zoma...</t>
   </si>
   <si>
+    <t>「転職しないのですね。
+　大魔王に挑みし　勇気ある者に
+　神のご加護が　ありますように……。</t>
+  </si>
+  <si>
+    <t>You wish to stay as your current vocation?
+Very well.
+&lt;br&gt;
+May those with the courage to fight be 
+blessed to do battle against the wicked
+Zoma...</t>
+  </si>
+  <si>
     <t>「大魔王ゾーマに　挑むなら
 　パーティにいる　４人の仲間の職業を
 　勇者　戦士　僧侶　賢者にするのが　いいぞ。
@@ -13863,8 +13876,8 @@
 このままでは　通ることは　できない！</t>
   </si>
   <si>
-    <t>A large, stone wall is blocking the way forward.
-It's impossible to pass through!</t>
+    <t>A large, stone wall is blocking the way
+forward. It's impossible to pass through!</t>
   </si>
   <si>
     <t>突然
@@ -14058,6 +14071,66 @@
 I'd like to show my gratitude. Please speak
 to me if you are carrying any Spirit
 Sparkles on your person.</t>
+  </si>
+  <si>
+    <t>&lt;center&gt;&lt;pipipi_high&gt;ひかりのたまを　使わなければ
+きびしい戦いに　なりますが
+本当に　よいのですか？&lt;yesno&gt;&lt;case 1&gt;&lt;break&gt;&lt;case 2&gt;&lt;close&gt;&lt;case_cancel&gt;&lt;close&gt;&lt;case_end&gt;</t>
+  </si>
+  <si>
+    <t>&lt;pipipi_high&gt;If you do not use the Sphere of Light,
+the battle will be quite difficult.
+Are you absolutely certain?&lt;yesno&gt;&lt;case 1&gt;&lt;break&gt;&lt;case 2&gt;&lt;close&gt;&lt;case_cancel&gt;&lt;close&gt;&lt;case_end&gt;</t>
+  </si>
+  <si>
+    <t>&lt;center&gt;&lt;pipipi_high&gt;……そうですか。
+ならば　無理にとは　言いません。
+じゅうぶんに　気をつけるのですよ。&lt;bw_break&gt;</t>
+  </si>
+  <si>
+    <t>&lt;pipipi_high&gt;I see...
+Then I won't force you. Just be very careful.&lt;bw_break&gt;</t>
+  </si>
+  <si>
+    <t>「大魔王は　絶望をすすり
+　憎しみを喰らい　悲しみの涙で
+　ノドを　うるおすといいます。
+&lt;br&gt;
+「……なんと　おそろしい。
+　我々の未来は　このまま
+　闇に　閉ざされてしまうのでしょうか。</t>
+  </si>
+  <si>
+    <t>Zoma thrives on despair, feasts on hatred,
+and quenches his thirst with tears of
+sorrow.
+&lt;br&gt;
+How terrifying...is the future of this world
+to remain shrouded in darkness?</t>
+  </si>
+  <si>
+    <t>「大魔王ゾーマは　闇のころもをまとって
+　その身を　守っているらしいの。
+&lt;br&gt;
+「それを　なんとかしない限り
+　こちらに　勝ち目は　なさそうね……。</t>
+  </si>
+  <si>
+    <t>They say that Zoma is shrouded in a
+powerful cloth of darkness.
+&lt;br&gt;
+Unless there is some way to get rid of
+it, it seems we don't stand a chance...</t>
+  </si>
+  <si>
+    <t>宝箱の中には　なんと
+けんじゃのいしが　入っていた！
+&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>Inside the treasure chest was a Sages's Stone!
+&lt;br&gt;
+You received the Sages's Stone!&lt;se_nots System 7&gt;</t>
   </si>
   <si>
     <t>メインコマンド『せんれき』の
@@ -21090,15 +21163,15 @@
         <v>1404</v>
       </c>
       <c r="D613" s="2" t="s">
-        <v>1402</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="614">
       <c r="A614" s="2" t="s">
-        <v>1405</v>
+        <v>1406</v>
       </c>
       <c r="C614" s="7" t="s">
-        <v>1406</v>
+        <v>1407</v>
       </c>
       <c r="D614" s="2" t="s">
         <v>1402</v>
@@ -21106,10 +21179,10 @@
     </row>
     <row r="615">
       <c r="A615" s="2" t="s">
-        <v>1407</v>
+        <v>1408</v>
       </c>
       <c r="C615" s="7" t="s">
-        <v>1408</v>
+        <v>1409</v>
       </c>
       <c r="D615" s="2" t="s">
         <v>1402</v>
@@ -21117,10 +21190,10 @@
     </row>
     <row r="616">
       <c r="A616" s="2" t="s">
-        <v>1409</v>
+        <v>1410</v>
       </c>
       <c r="C616" s="7" t="s">
-        <v>1410</v>
+        <v>1411</v>
       </c>
       <c r="D616" s="2" t="s">
         <v>1402</v>
@@ -21128,10 +21201,10 @@
     </row>
     <row r="617">
       <c r="A617" s="2" t="s">
-        <v>1411</v>
+        <v>1412</v>
       </c>
       <c r="C617" s="7" t="s">
-        <v>1412</v>
+        <v>1413</v>
       </c>
       <c r="D617" s="2" t="s">
         <v>1402</v>
@@ -21139,19 +21212,19 @@
     </row>
     <row r="618">
       <c r="A618" s="2" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="C618" s="7" t="s">
-        <v>1414</v>
+        <v>1415</v>
       </c>
       <c r="D618" s="2"/>
     </row>
     <row r="619">
       <c r="A619" s="2" t="s">
-        <v>1415</v>
+        <v>1416</v>
       </c>
       <c r="C619" s="7" t="s">
-        <v>1416</v>
+        <v>1417</v>
       </c>
       <c r="D619" s="2" t="s">
         <v>1402</v>
@@ -21159,10 +21232,10 @@
     </row>
     <row r="620">
       <c r="A620" s="2" t="s">
-        <v>1417</v>
+        <v>1418</v>
       </c>
       <c r="C620" s="7" t="s">
-        <v>1418</v>
+        <v>1419</v>
       </c>
       <c r="D620" s="2" t="s">
         <v>1402</v>
@@ -21170,13 +21243,13 @@
     </row>
     <row r="621">
       <c r="A621" s="2" t="s">
-        <v>1419</v>
+        <v>1420</v>
       </c>
       <c r="C621" s="7" t="s">
-        <v>1420</v>
+        <v>1421</v>
       </c>
       <c r="D621" s="2" t="s">
-        <v>1421</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="622">
@@ -21187,7 +21260,7 @@
         <v>1423</v>
       </c>
       <c r="D622" s="2" t="s">
-        <v>1421</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="623">
@@ -21198,7 +21271,7 @@
         <v>1425</v>
       </c>
       <c r="D623" s="2" t="s">
-        <v>1421</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="624">
@@ -21209,7 +21282,7 @@
         <v>1427</v>
       </c>
       <c r="D624" s="2" t="s">
-        <v>1421</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="625">
@@ -21660,7 +21733,7 @@
         <v>1510</v>
       </c>
       <c r="D665" s="2" t="s">
-        <v>1421</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="666">
@@ -21671,7 +21744,7 @@
         <v>1512</v>
       </c>
       <c r="D666" s="2" t="s">
-        <v>1421</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="667">
@@ -21682,7 +21755,7 @@
         <v>1514</v>
       </c>
       <c r="D667" s="2" t="s">
-        <v>1421</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="668">
@@ -21693,7 +21766,7 @@
         <v>1516</v>
       </c>
       <c r="D668" s="2" t="s">
-        <v>1421</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="669">
@@ -21814,7 +21887,7 @@
         <v>1538</v>
       </c>
       <c r="D679" s="2" t="s">
-        <v>1421</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="680">
@@ -21825,7 +21898,7 @@
         <v>1540</v>
       </c>
       <c r="D680" s="2" t="s">
-        <v>1402</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="681">
@@ -21858,7 +21931,7 @@
         <v>1546</v>
       </c>
       <c r="D683" s="2" t="s">
-        <v>1421</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="684">
@@ -21869,7 +21942,7 @@
         <v>1548</v>
       </c>
       <c r="D684" s="2" t="s">
-        <v>1402</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="685">
@@ -21891,7 +21964,7 @@
         <v>1552</v>
       </c>
       <c r="D686" s="2" t="s">
-        <v>1421</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="687">
@@ -21902,7 +21975,7 @@
         <v>1554</v>
       </c>
       <c r="D687" s="2" t="s">
-        <v>1402</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="688">
@@ -22001,7 +22074,7 @@
         <v>1572</v>
       </c>
       <c r="D696" s="2" t="s">
-        <v>1421</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="697">
@@ -22012,7 +22085,7 @@
         <v>1574</v>
       </c>
       <c r="D697" s="2" t="s">
-        <v>1421</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="698">
@@ -22023,7 +22096,7 @@
         <v>1576</v>
       </c>
       <c r="D698" s="2" t="s">
-        <v>1421</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="699">
@@ -22034,7 +22107,7 @@
         <v>1578</v>
       </c>
       <c r="D699" s="2" t="s">
-        <v>1421</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="700">
@@ -22045,7 +22118,7 @@
         <v>1580</v>
       </c>
       <c r="D700" s="2" t="s">
-        <v>1402</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="701">
@@ -22056,7 +22129,7 @@
         <v>1582</v>
       </c>
       <c r="D701" s="2" t="s">
-        <v>1421</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="702">
@@ -22067,7 +22140,73 @@
         <v>1584</v>
       </c>
       <c r="D702" s="2" t="s">
-        <v>1421</v>
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="703">
+      <c r="A703" s="2" t="s">
+        <v>1585</v>
+      </c>
+      <c r="C703" s="7" t="s">
+        <v>1586</v>
+      </c>
+      <c r="D703" s="2" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="704">
+      <c r="A704" s="2" t="s">
+        <v>1587</v>
+      </c>
+      <c r="C704" s="7" t="s">
+        <v>1588</v>
+      </c>
+      <c r="D704" s="2" t="s">
+        <v>1402</v>
+      </c>
+    </row>
+    <row r="705">
+      <c r="A705" s="2" t="s">
+        <v>1589</v>
+      </c>
+      <c r="C705" s="7" t="s">
+        <v>1590</v>
+      </c>
+      <c r="D705" s="2" t="s">
+        <v>1402</v>
+      </c>
+    </row>
+    <row r="706">
+      <c r="A706" s="2" t="s">
+        <v>1591</v>
+      </c>
+      <c r="C706" s="7" t="s">
+        <v>1592</v>
+      </c>
+      <c r="D706" s="2" t="s">
+        <v>1402</v>
+      </c>
+    </row>
+    <row r="707">
+      <c r="A707" s="2" t="s">
+        <v>1593</v>
+      </c>
+      <c r="C707" s="7" t="s">
+        <v>1594</v>
+      </c>
+      <c r="D707" s="2" t="s">
+        <v>1402</v>
+      </c>
+    </row>
+    <row r="708">
+      <c r="A708" s="2" t="s">
+        <v>1595</v>
+      </c>
+      <c r="C708" s="7" t="s">
+        <v>1596</v>
+      </c>
+      <c r="D708" s="2" t="s">
+        <v>1405</v>
       </c>
     </row>
   </sheetData>
@@ -22106,18 +22245,18 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>1585</v>
+        <v>1597</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>1586</v>
+        <v>1598</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>1587</v>
+        <v>1599</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>1588</v>
+        <v>1600</v>
       </c>
     </row>
   </sheetData>

--- a/csv/merge.xlsx
+++ b/csv/merge.xlsx
@@ -12566,8 +12566,8 @@
     <t>Oh, right, it's you. I very much appreciate
 you defeating Zoma.
 &lt;br&gt;
-If you'd like to go to Luida's Bar again, just
-let me know and I'll send goo right on
+If you'd like to go to Gooida's Bar again,
+just let me know and I'll send goo right on
 your way.
 &lt;br&gt;
 Before you go, if you have any Spirit Sparkles

--- a/csv/merge.xlsx
+++ b/csv/merge.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2093" uniqueCount="1601">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2096" uniqueCount="1603">
   <si>
     <t>JP Text (DO NOT CHANGE)</t>
   </si>
@@ -14131,6 +14131,14 @@
     <t>Inside the treasure chest was a Sages's Stone!
 &lt;br&gt;
 You received the Sages's Stone!&lt;se_nots System 7&gt;</t>
+  </si>
+  <si>
+    <t>リーダーは　精霊ルビスから
+ひかりのたまを　受け取らなかったようだ……。</t>
+  </si>
+  <si>
+    <t>It seems the party leader has refused the
+Sphere of Light from Rubiss...</t>
   </si>
   <si>
     <t>メインコマンド『せんれき』の
@@ -22209,6 +22217,17 @@
         <v>1405</v>
       </c>
     </row>
+    <row r="709">
+      <c r="A709" s="2" t="s">
+        <v>1597</v>
+      </c>
+      <c r="C709" s="7" t="s">
+        <v>1598</v>
+      </c>
+      <c r="D709" s="2" t="s">
+        <v>1402</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -22245,18 +22264,18 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>1597</v>
+        <v>1599</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>1598</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>1599</v>
+        <v>1601</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>1600</v>
+        <v>1602</v>
       </c>
     </row>
   </sheetData>

--- a/csv/merge.xlsx
+++ b/csv/merge.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2096" uniqueCount="1603">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2102" uniqueCount="1607">
   <si>
     <t>JP Text (DO NOT CHANGE)</t>
   </si>
@@ -14002,7 +14002,7 @@
 &lt;br&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">My name is Rubiss...
+    <t xml:space="preserve">&lt;pipipi_high&gt;My name is Rubiss...
 &lt;br&gt;
 You have done well to defeat Zoma, the
 Demon King.
@@ -14032,7 +14032,7 @@
 &lt;br&gt;</t>
   </si>
   <si>
-    <t>&lt;center&gt;&lt;pipipi_high&gt;Take those to Agoola in South Port
+    <t>&lt;pipipi_high&gt;Take those to Agoola in South Port
 Lendor, and you can exchange them for a
 variety of different items.
 &lt;br&gt;
@@ -14045,7 +14045,7 @@
 アストルティアまで　送り届けましょう。</t>
   </si>
   <si>
-    <t>&lt;center&gt;&lt;pipipi_high&gt;...very well. I shall see to it that you
+    <t>&lt;pipipi_high&gt;...very well. I shall see to it that you
 are safely returned home.
 &lt;br&gt;
 Goodbye... I hope that we can meet again
@@ -14089,7 +14089,7 @@
   </si>
   <si>
     <t>&lt;pipipi_high&gt;I see...
-Then I won't force you. Just be very careful.&lt;bw_break&gt;</t>
+I will not force you. Just be very careful.&lt;bw_break&gt;</t>
   </si>
   <si>
     <t>「大魔王は　絶望をすすり
@@ -14139,6 +14139,23 @@
   <si>
     <t>It seems the party leader has refused the
 Sphere of Light from Rubiss...</t>
+  </si>
+  <si>
+    <t>パーティのリーダーが
+精霊ルビスから　ひかりのたまを
+受け取るか　考えているようだ……。</t>
+  </si>
+  <si>
+    <t>The party leader is deciding whether or
+not to take the Sphere of Light...</t>
+  </si>
+  <si>
+    <t>リーダーが　精霊ルビスから
+ひかりのたまを　受け取ったようだ！</t>
+  </si>
+  <si>
+    <t>The party leader accepted the Sphere
+of Light from Rubiss!</t>
   </si>
   <si>
     <t>メインコマンド『せんれき』の
@@ -21972,7 +21989,7 @@
         <v>1552</v>
       </c>
       <c r="D686" s="2" t="s">
-        <v>1402</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="687">
@@ -22225,6 +22242,28 @@
         <v>1598</v>
       </c>
       <c r="D709" s="2" t="s">
+        <v>1402</v>
+      </c>
+    </row>
+    <row r="710">
+      <c r="A710" s="2" t="s">
+        <v>1599</v>
+      </c>
+      <c r="C710" s="7" t="s">
+        <v>1600</v>
+      </c>
+      <c r="D710" s="2" t="s">
+        <v>1402</v>
+      </c>
+    </row>
+    <row r="711">
+      <c r="A711" s="2" t="s">
+        <v>1601</v>
+      </c>
+      <c r="C711" s="7" t="s">
+        <v>1602</v>
+      </c>
+      <c r="D711" s="2" t="s">
         <v>1402</v>
       </c>
     </row>
@@ -22264,18 +22303,18 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>1599</v>
+        <v>1603</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>1600</v>
+        <v>1604</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>1601</v>
+        <v>1605</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>1602</v>
+        <v>1606</v>
       </c>
     </row>
   </sheetData>

--- a/csv/merge.xlsx
+++ b/csv/merge.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2102" uniqueCount="1607">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2111" uniqueCount="1613">
   <si>
     <t>JP Text (DO NOT CHANGE)</t>
   </si>
@@ -14156,6 +14156,40 @@
   <si>
     <t>The party leader accepted the Sphere
 of Light from Rubiss!</t>
+  </si>
+  <si>
+    <t>「仲間は　必要ないみたいね。
+　準備が　できているのなら
+　ゾーマの城へ　乗り込んでちょうだい！</t>
+  </si>
+  <si>
+    <t>No need for any companions? If you're ready,
+make your way to Zoma's Castle!</t>
+  </si>
+  <si>
+    <t>「別れるって　誰と……？
+　あなたのパーティには　特別なゲストは
+　ひとりも　いないみたいよ。&lt;bw_break&gt;</t>
+  </si>
+  <si>
+    <t>You want to part ways with someone...?
+You don't have any special guests in your
+party at the moment.</t>
+  </si>
+  <si>
+    <t>「……ごめんなさい。
+　酒場には　あなたの仲間にできる
+　特別なゲストは　もう　いないわ。
+&lt;br&gt;
+「準備が　できているのなら
+　ゾーマの城へ　乗り込んでちょうだい！</t>
+  </si>
+  <si>
+    <t>Sorry, but there aren't any more special
+guests you can take along with you...
+&lt;br&gt;
+If you're ready,
+make your way to Zoma's Castle!</t>
   </si>
   <si>
     <t>メインコマンド『せんれき』の
@@ -22267,6 +22301,39 @@
         <v>1402</v>
       </c>
     </row>
+    <row r="712">
+      <c r="A712" s="2" t="s">
+        <v>1603</v>
+      </c>
+      <c r="C712" s="7" t="s">
+        <v>1604</v>
+      </c>
+      <c r="D712" s="2" t="s">
+        <v>1402</v>
+      </c>
+    </row>
+    <row r="713">
+      <c r="A713" s="2" t="s">
+        <v>1605</v>
+      </c>
+      <c r="C713" s="7" t="s">
+        <v>1606</v>
+      </c>
+      <c r="D713" s="2" t="s">
+        <v>1402</v>
+      </c>
+    </row>
+    <row r="714">
+      <c r="A714" s="2" t="s">
+        <v>1607</v>
+      </c>
+      <c r="C714" s="7" t="s">
+        <v>1608</v>
+      </c>
+      <c r="D714" s="2" t="s">
+        <v>1402</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -22303,18 +22370,18 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>1603</v>
+        <v>1609</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>1604</v>
+        <v>1610</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>1605</v>
+        <v>1611</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>1606</v>
+        <v>1612</v>
       </c>
     </row>
   </sheetData>

--- a/csv/merge.xlsx
+++ b/csv/merge.xlsx
@@ -13868,7 +13868,7 @@
 頼みましたよ</t>
   </si>
   <si>
-    <t>Please defeat the wicked Zoma and save this
+    <t>&lt;pipipi_high&gt;Please defeat the wicked Zoma and save this
 world. I am counting on you, hero...</t>
   </si>
   <si>

--- a/csv/merge.xlsx
+++ b/csv/merge.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2111" uniqueCount="1613">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2114" uniqueCount="1615">
   <si>
     <t>JP Text (DO NOT CHANGE)</t>
   </si>
@@ -14190,6 +14190,17 @@
 &lt;br&gt;
 If you're ready,
 make your way to Zoma's Castle!</t>
+  </si>
+  <si>
+    <t>目の前の像を調べた。
+&lt;br&gt;
+とくに　怪しいところはないようだ。</t>
+  </si>
+  <si>
+    <t>You examined the statue in front of you.
+&lt;br&gt;
+There seems to be nothing particularly
+unusual about it.</t>
   </si>
   <si>
     <t>メインコマンド『せんれき』の
@@ -22334,6 +22345,17 @@
         <v>1402</v>
       </c>
     </row>
+    <row r="715">
+      <c r="A715" s="2" t="s">
+        <v>1609</v>
+      </c>
+      <c r="C715" s="7" t="s">
+        <v>1610</v>
+      </c>
+      <c r="D715" s="2" t="s">
+        <v>1402</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -22370,18 +22392,18 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>1609</v>
+        <v>1611</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>1610</v>
+        <v>1612</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>1611</v>
+        <v>1613</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>1612</v>
+        <v>1614</v>
       </c>
     </row>
   </sheetData>

--- a/csv/merge.xlsx
+++ b/csv/merge.xlsx
@@ -22067,7 +22067,7 @@
         <v>1558</v>
       </c>
       <c r="D689" s="2" t="s">
-        <v>1402</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="690">

--- a/csv/merge.xlsx
+++ b/csv/merge.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2114" uniqueCount="1615">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2123" uniqueCount="1621">
   <si>
     <t>JP Text (DO NOT CHANGE)</t>
   </si>
@@ -14201,6 +14201,34 @@
 &lt;br&gt;
 There seems to be nothing particularly
 unusual about it.</t>
+  </si>
+  <si>
+    <t>玉座の　後ろから
+身をさすような　冷たい風を感じる……。</t>
+  </si>
+  <si>
+    <t>From behind the throne, a cold air is
+blowing...</t>
+  </si>
+  <si>
+    <t>この宝箱の中からは
+何か　強いチカラを感じる……。
+宝箱を　開けてみますか？&lt;yesno&gt;&lt;case 1&gt;&lt;se_nots Joutyu_SE 9&gt;&lt;close&gt;&lt;case 2&gt;&lt;close&gt;&lt;case_cancel&gt;&lt;close&gt;&lt;case_end&gt;</t>
+  </si>
+  <si>
+    <t>You sense something powerful inside
+of the chest...
+Do you want to open it?&lt;yesno&gt;&lt;case 1&gt;&lt;se_nots Joutyu_SE 9&gt;&lt;close&gt;&lt;case 2&gt;&lt;close&gt;&lt;case_cancel&gt;&lt;close&gt;&lt;case_end&gt;</t>
+  </si>
+  <si>
+    <t>「他の冒険者と　行くんだな。
+　では　キミに　ふさわしい仲間を見つけて
+　ルイーダの酒場へ　一緒に　案内するとしよう。</t>
+  </si>
+  <si>
+    <t>You want to go with other adventurers?
+I'll find some for goo, and you'll all come
+with me to Gooida's Bar!</t>
   </si>
   <si>
     <t>メインコマンド『せんれき』の
@@ -22356,6 +22384,39 @@
         <v>1402</v>
       </c>
     </row>
+    <row r="716">
+      <c r="A716" s="2" t="s">
+        <v>1611</v>
+      </c>
+      <c r="C716" s="7" t="s">
+        <v>1612</v>
+      </c>
+      <c r="D716" s="2" t="s">
+        <v>1402</v>
+      </c>
+    </row>
+    <row r="717">
+      <c r="A717" s="2" t="s">
+        <v>1613</v>
+      </c>
+      <c r="C717" s="7" t="s">
+        <v>1614</v>
+      </c>
+      <c r="D717" s="2" t="s">
+        <v>1402</v>
+      </c>
+    </row>
+    <row r="718">
+      <c r="A718" s="2" t="s">
+        <v>1615</v>
+      </c>
+      <c r="C718" s="7" t="s">
+        <v>1616</v>
+      </c>
+      <c r="D718" s="2" t="s">
+        <v>1402</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -22392,18 +22453,18 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>1611</v>
+        <v>1617</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>1612</v>
+        <v>1618</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>1613</v>
+        <v>1619</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>1614</v>
+        <v>1620</v>
       </c>
     </row>
   </sheetData>

--- a/csv/merge.xlsx
+++ b/csv/merge.xlsx
@@ -22381,7 +22381,7 @@
         <v>1610</v>
       </c>
       <c r="D715" s="2" t="s">
-        <v>1402</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="716">

--- a/csv/merge.xlsx
+++ b/csv/merge.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2123" uniqueCount="1621">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2132" uniqueCount="1627">
   <si>
     <t>JP Text (DO NOT CHANGE)</t>
   </si>
@@ -14229,6 +14229,38 @@
     <t>You want to go with other adventurers?
 I'll find some for goo, and you'll all come
 with me to Gooida's Bar!</t>
+  </si>
+  <si>
+    <t>パーティの人数が　４人そろっていません。
+このままだと　きびしい戦いになりますが
+本当に　ゾーマの城へ　向かいますか？&lt;yesno&gt;&lt;case 1&gt;&lt;close&gt;&lt;case 2&gt;&lt;break&gt;&lt;case_cancel&gt;&lt;break&gt;&lt;case_end&gt;</t>
+  </si>
+  <si>
+    <t>You don't have a full party, so the coming
+battle will be more difficult. Are you sure
+you want to go to Zoma's Castle?
+&lt;yesno&gt;&lt;case 1&gt;&lt;close&gt;&lt;case 2&gt;&lt;break&gt;&lt;case_cancel&gt;&lt;break&gt;&lt;case_end&gt;</t>
+  </si>
+  <si>
+    <t>&lt;color_yellow&gt;カウンターにいる　ルイーダに話しかけて
+一緒に戦う仲間を　集めよう！</t>
+  </si>
+  <si>
+    <t>&lt;color_yellow&gt;Go and speak with Luida at the counter to
+recruit some companions!</t>
+  </si>
+  <si>
+    <t>聖なる守りを手に取った。
+&lt;br&gt;
+これを使えば　ゾーマの城から　出られそうだ。
+城から出て　元の場所に戻りますか？&lt;yesno&gt;&lt;close&gt;</t>
+  </si>
+  <si>
+    <t>You held up the Sacred Amulet.
+&lt;br&gt;
+By using it, you can escape from Zoma's
+Castle and go back to where you were
+before. Do you want to use it?&lt;yesno&gt;&lt;close&gt;</t>
   </si>
   <si>
     <t>メインコマンド『せんれき』の
@@ -22227,7 +22259,7 @@
         <v>1582</v>
       </c>
       <c r="D701" s="2" t="s">
-        <v>1402</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="702">
@@ -22415,6 +22447,39 @@
       </c>
       <c r="D718" s="2" t="s">
         <v>1402</v>
+      </c>
+    </row>
+    <row r="719">
+      <c r="A719" s="2" t="s">
+        <v>1617</v>
+      </c>
+      <c r="C719" s="7" t="s">
+        <v>1618</v>
+      </c>
+      <c r="D719" s="2" t="s">
+        <v>1402</v>
+      </c>
+    </row>
+    <row r="720">
+      <c r="A720" s="2" t="s">
+        <v>1619</v>
+      </c>
+      <c r="C720" s="7" t="s">
+        <v>1620</v>
+      </c>
+      <c r="D720" s="2" t="s">
+        <v>1402</v>
+      </c>
+    </row>
+    <row r="721">
+      <c r="A721" s="2" t="s">
+        <v>1621</v>
+      </c>
+      <c r="C721" s="7" t="s">
+        <v>1622</v>
+      </c>
+      <c r="D721" s="2" t="s">
+        <v>1405</v>
       </c>
     </row>
   </sheetData>
@@ -22453,18 +22518,18 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>1617</v>
+        <v>1623</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>1618</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>1619</v>
+        <v>1625</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>1620</v>
+        <v>1626</v>
       </c>
     </row>
   </sheetData>

--- a/csv/merge.xlsx
+++ b/csv/merge.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2132" uniqueCount="1627">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2144" uniqueCount="1635">
   <si>
     <t>JP Text (DO NOT CHANGE)</t>
   </si>
@@ -14261,6 +14261,89 @@
 By using it, you can escape from Zoma's
 Castle and go back to where you were
 before. Do you want to use it?&lt;yesno&gt;&lt;close&gt;</t>
+  </si>
+  <si>
+    <t>「私たちの世界は　今
+　大きな危険に　さらされている。
+　おそろしい大魔王が　現れたんだ。
+&lt;br&gt;
+「大魔王は　あらゆる世界へ
+　侵略の魔の手を　伸ばそうと
+　たくらんでいる……。
+&lt;br&gt;
+「キミのいる　このアストルティアにも
+　大きな被害が　出てしまうかもしれないんだ！&lt;bw_break&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Our world as we know it is in goo-reat
+danger. A fearsome Demon King has shown
+himself.
+&lt;br&gt;
+This Demon King plans to extend his evil
+grasp to all worlds and conquer them for
+his own desires.
+&lt;br&gt;
+Astoltia is in grave danger! There's no
+telling what he will do to this world!
+</t>
+  </si>
+  <si>
+    <t>「私には　わかる……。
+　キミこそが　勇気あふれる者だ。
+　おそらく　キミならば……
+&lt;br&gt;
+「……キミならば　きっと　勝てる！
+　どうか　大魔王討伐を　頼めないだろうか？
+　もちろん　お礼も用意してある。
+&lt;br&gt;
+「やってくれると　言うならば
+　私のチカラで　キミを　ここから
+　ルイーダの酒場まで　送ってあげよう。&lt;bw_break&gt;</t>
+  </si>
+  <si>
+    <t>Yes, I can see it... Perhaps you are the
+one. The hero...
+&lt;br&gt;
+If you are the hero, then...maybe you can
+defeat him! Please, will you do us this favor?
+Of course, you will be handsomely rewarded.
+&lt;br&gt;
+If you'll really do it, then I can ooze my
+power to send you to Gooida's Bar.&lt;bw_break&gt;</t>
+  </si>
+  <si>
+    <t>「ここは　ルイーダの酒場。
+　旅人たちが　仲間を求めて集まる
+　出会いと　別れの　酒場よ。</t>
+  </si>
+  <si>
+    <t>Welcome to Luida's Bar. A tavern where
+travelers can become companions and 
+say their farewells.</t>
+  </si>
+  <si>
+    <t>&lt;br&gt;
+「もう聞いたと思うけど　ゾーマという
+　おそろしい大魔王が　現れて
+　この世界を　滅ぼそうとしているの……。
+&lt;br&gt;
+「……いいえ　それだけじゃないわ。
+　大魔王は　いずれ　他の世界にまで
+　その魔の手を　伸ばそうとしているの。</t>
+  </si>
+  <si>
+    <t>&lt;icon_exc&gt;Oh! You are the traveler that Agoola sent
+here, aren't you?
+&lt;br&gt;
+As I'm sure you've already heard, a wicked
+Demon King named Zoma has appeared, and plans
+to destroy this world...
+&lt;br&gt;
+...no, not just this world. He plans to extend
+his evil reach to other worlds as well.
+&lt;br&gt;
+I beg you. You must head to Zoma's Castle
+and defeat him once and for all!&lt;bw_break&gt;</t>
   </si>
   <si>
     <t>メインコマンド『せんれき』の
@@ -22482,6 +22565,50 @@
         <v>1405</v>
       </c>
     </row>
+    <row r="722">
+      <c r="A722" s="2" t="s">
+        <v>1623</v>
+      </c>
+      <c r="C722" s="7" t="s">
+        <v>1624</v>
+      </c>
+      <c r="D722" s="2" t="s">
+        <v>1402</v>
+      </c>
+    </row>
+    <row r="723">
+      <c r="A723" s="2" t="s">
+        <v>1625</v>
+      </c>
+      <c r="C723" s="7" t="s">
+        <v>1626</v>
+      </c>
+      <c r="D723" s="2" t="s">
+        <v>1402</v>
+      </c>
+    </row>
+    <row r="724">
+      <c r="A724" s="2" t="s">
+        <v>1627</v>
+      </c>
+      <c r="C724" s="7" t="s">
+        <v>1628</v>
+      </c>
+      <c r="D724" s="2" t="s">
+        <v>1402</v>
+      </c>
+    </row>
+    <row r="725">
+      <c r="A725" s="2" t="s">
+        <v>1629</v>
+      </c>
+      <c r="C725" s="7" t="s">
+        <v>1630</v>
+      </c>
+      <c r="D725" s="2" t="s">
+        <v>1405</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -22518,18 +22645,18 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>1623</v>
+        <v>1631</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>1624</v>
+        <v>1632</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>1625</v>
+        <v>1633</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>1626</v>
+        <v>1634</v>
       </c>
     </row>
   </sheetData>

--- a/csv/merge.xlsx
+++ b/csv/merge.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2144" uniqueCount="1635">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2150" uniqueCount="1639">
   <si>
     <t>JP Text (DO NOT CHANGE)</t>
   </si>
@@ -13768,11 +13768,7 @@
     <t>A voice was heard from out of nowhere...</t>
   </si>
   <si>
-    <t>&lt;center&gt;&lt;pipipi_high&gt;&lt;se_nots map_z4000 1&gt;
-アストルティアより　参られし
-勇気ある者　ショウブよ。
-&lt;br&gt;
-私は　精霊ルビス……。
+    <t>私は　精霊ルビス……。
 &lt;br&gt;
 虹のしずくのチカラを使って
 大魔王ゾーマの居城まで
@@ -14344,6 +14340,48 @@
 &lt;br&gt;
 I beg you. You must head to Zoma's Castle
 and defeat him once and for all!&lt;bw_break&gt;</t>
+  </si>
+  <si>
+    <t>「私は　このルイーダの酒場の専属として
+　転職をつかさどっている　神官です。
+&lt;br&gt;
+「こちらでは　勇者　戦士　僧侶　賢者の
+　いずれかにのみ　転職することができます。
+&lt;br&gt;
+「ただし　強さや　使える呪文　とくぎは
+　決められたものに　なりますので
+　あらかじめ　ご了承ください。
+&lt;br&gt;
+「では　さっそく……。&lt;bw_break&gt;</t>
+  </si>
+  <si>
+    <t>I am the priest in charge of changing
+vocations here in Luida's Bar.
+&lt;br&gt;
+However, you are only able to change into a
+hero, warrior, priest, or sage here.
+&lt;br&gt;
+Also, please remember that the spells and
+skills you have are predetermined, and
+cannot be changed.
+&lt;br&gt;
+Now then, my child...</t>
+  </si>
+  <si>
+    <t>聖なる守りを手に取った。
+これを使えば　ゾーマの城から　出られそうだ。
+&lt;br&gt;
+ゾーマの城から出ると　10分間
+ルイーダの酒場に　入ることが　できなくなります。
+城から出て　元の場所に戻りますか？&lt;yesno&gt;&lt;close&gt;</t>
+  </si>
+  <si>
+    <t>You held up the Sacred Amulet. Using it,
+you can escape from Zoma's Castle.
+&lt;br&gt;
+However, if you use it, you will not be able
+to return to Luida's Bar for 10 minutes. Are
+you sure you want to use it?&lt;yesno&gt;&lt;close&gt;</t>
   </si>
   <si>
     <t>メインコマンド『せんれき』の
@@ -22089,7 +22127,7 @@
         <v>1536</v>
       </c>
       <c r="D678" s="2" t="s">
-        <v>1402</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="679">
@@ -22606,6 +22644,28 @@
         <v>1630</v>
       </c>
       <c r="D725" s="2" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="726">
+      <c r="A726" s="2" t="s">
+        <v>1631</v>
+      </c>
+      <c r="C726" s="7" t="s">
+        <v>1632</v>
+      </c>
+      <c r="D726" s="2" t="s">
+        <v>1402</v>
+      </c>
+    </row>
+    <row r="727">
+      <c r="A727" s="2" t="s">
+        <v>1633</v>
+      </c>
+      <c r="C727" s="7" t="s">
+        <v>1634</v>
+      </c>
+      <c r="D727" s="2" t="s">
         <v>1405</v>
       </c>
     </row>
@@ -22645,18 +22705,18 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>1631</v>
+        <v>1635</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>1632</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>1633</v>
+        <v>1637</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>1634</v>
+        <v>1638</v>
       </c>
     </row>
   </sheetData>

--- a/csv/merge.xlsx
+++ b/csv/merge.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2150" uniqueCount="1639">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2153" uniqueCount="1642">
   <si>
     <t>JP Text (DO NOT CHANGE)</t>
   </si>
@@ -14382,6 +14382,27 @@
 However, if you use it, you will not be able
 to return to Luida's Bar for 10 minutes. Are
 you sure you want to use it?&lt;yesno&gt;&lt;close&gt;</t>
+  </si>
+  <si>
+    <t>「依頼は　まだ途中のようですね。
+　引き続き　よろしくお願いします！
+&lt;br&gt;
+「依頼内容の確認や　途中でのキャンセルは
+　『せんれき』の　クエストリストの
+　受注中タブから　できますからね。
+&lt;end&gt;</t>
+  </si>
+  <si>
+    <t>It seems like you're still in the middle of
+your request. Keep at it! You're doing great!
+&lt;br&gt;
+You can check the status of your request or
+cancel it at any time by opening your Quest
+List under "Records".
+&lt;end&gt;</t>
+  </si>
+  <si>
+    <t>Subjugation NPC</t>
   </si>
   <si>
     <t>メインコマンド『せんれき』の
@@ -22669,6 +22690,17 @@
         <v>1405</v>
       </c>
     </row>
+    <row r="728">
+      <c r="A728" s="2" t="s">
+        <v>1635</v>
+      </c>
+      <c r="C728" s="7" t="s">
+        <v>1636</v>
+      </c>
+      <c r="D728" s="2" t="s">
+        <v>1637</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -22705,18 +22737,18 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>1635</v>
+        <v>1638</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>1636</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>1637</v>
+        <v>1640</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>1638</v>
+        <v>1641</v>
       </c>
     </row>
   </sheetData>

--- a/csv/merge.xlsx
+++ b/csv/merge.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2153" uniqueCount="1642">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2156" uniqueCount="1645">
   <si>
     <t>JP Text (DO NOT CHANGE)</t>
   </si>
@@ -14403,6 +14403,22 @@
   </si>
   <si>
     <t>Subjugation NPC</t>
+  </si>
+  <si>
+    <t>地下水脈に　落とされてしまった！&lt;wait = 3000&gt;
+水かさが　どんどん増しているようだ！
+時間切れになる前に　出口を見つけて
+地下水脈から　脱出しよう！&lt;wait = 4000&gt;&lt;close&gt;</t>
+  </si>
+  <si>
+    <t>&lt;color_yellow&gt;You and Fuura were dropped into the Water
+Vein!&lt;wait = 3000&gt;
+The water level seems to be increasing!
+Find a way out and get out of the Water Vein
+before time runs out!&lt;wait = 4000&gt;&lt;close&gt;</t>
+  </si>
+  <si>
+    <t>V3 (BAD STRING)</t>
   </si>
   <si>
     <t>メインコマンド『せんれき』の
@@ -22701,6 +22717,17 @@
         <v>1637</v>
       </c>
     </row>
+    <row r="729">
+      <c r="A729" s="2" t="s">
+        <v>1638</v>
+      </c>
+      <c r="C729" s="7" t="s">
+        <v>1639</v>
+      </c>
+      <c r="D729" s="2" t="s">
+        <v>1640</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -22737,18 +22764,18 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>1638</v>
+        <v>1641</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>1639</v>
+        <v>1642</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>1640</v>
+        <v>1643</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>1641</v>
+        <v>1644</v>
       </c>
     </row>
   </sheetData>

--- a/csv/merge.xlsx
+++ b/csv/merge.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2156" uniqueCount="1645">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2159" uniqueCount="1648">
   <si>
     <t>JP Text (DO NOT CHANGE)</t>
   </si>
@@ -14318,8 +14318,7 @@
 say their farewells.</t>
   </si>
   <si>
-    <t>&lt;br&gt;
-「もう聞いたと思うけど　ゾーマという
+    <t>「もう聞いたと思うけど　ゾーマという
 　おそろしい大魔王が　現れて
 　この世界を　滅ぼそうとしているの……。
 &lt;br&gt;
@@ -14414,11 +14413,24 @@
     <t>&lt;color_yellow&gt;You and Fuura were dropped into the Water
 Vein!&lt;wait = 3000&gt;
 The water level seems to be increasing!
-Find a way out and get out of the Water Vein
+Find a way to escape from the Water Vein
 before time runs out!&lt;wait = 4000&gt;&lt;close&gt;</t>
   </si>
   <si>
     <t>V3 (BAD STRING)</t>
+  </si>
+  <si>
+    <t>「はぁい♪　アストルティアのアイドル
+　グローバルスターの　リポよ！
+　ドレスアップ好きのみんな　ごきげんよう。&lt;bw_break&gt;</t>
+  </si>
+  <si>
+    <t>Hellooo! I'm Astoltia's idol and global star,
+Lipo! To all of those who enjoy dressing
+up, it's great to see you!&lt;bw_break&gt;</t>
+  </si>
+  <si>
+    <t>Lipo-chan</t>
   </si>
   <si>
     <t>メインコマンド『せんれき』の
@@ -22728,6 +22740,17 @@
         <v>1640</v>
       </c>
     </row>
+    <row r="730">
+      <c r="A730" s="2" t="s">
+        <v>1641</v>
+      </c>
+      <c r="C730" s="7" t="s">
+        <v>1642</v>
+      </c>
+      <c r="D730" s="2" t="s">
+        <v>1643</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -22764,18 +22787,18 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>1641</v>
+        <v>1644</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>1642</v>
+        <v>1645</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>1643</v>
+        <v>1646</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>1644</v>
+        <v>1647</v>
       </c>
     </row>
   </sheetData>

--- a/csv/merge.xlsx
+++ b/csv/merge.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2159" uniqueCount="1648">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2168" uniqueCount="1657">
   <si>
     <t>JP Text (DO NOT CHANGE)</t>
   </si>
@@ -14431,6 +14431,165 @@
   </si>
   <si>
     <t>Lipo-chan</t>
+  </si>
+  <si>
+    <t>この旅の扉からは　いくつかの場所に
+移動できそうだ。
+どこへ　移動しますか？
+&lt;select&gt;
+入口の前
+東エリア
+おしゃれストリート
+妖精の井戸の前
+メギストリス城の前
+&lt;select_end&gt;
+&lt;case 1&gt;
+&lt;close&gt;
+&lt;case 2&gt;
+&lt;close&gt;
+&lt;case 3&gt;
+&lt;close&gt;
+&lt;case 4&gt;
+&lt;close&gt;
+&lt;case 5&gt;
+&lt;close&gt;
+&lt;case_cancel&gt;
+&lt;close&gt;
+&lt;case_end&gt;</t>
+  </si>
+  <si>
+    <t>Using this teleportal, you can move to
+several different places. Where would
+you like to go?
+&lt;select&gt;
+Entrance
+East Area
+Fashion Street
+Fairy Well
+Megistris Castle
+&lt;select_end&gt;
+&lt;case 1&gt;
+&lt;close&gt;
+&lt;case 2&gt;
+&lt;close&gt;
+&lt;case 3&gt;
+&lt;close&gt;
+&lt;case 4&gt;
+&lt;close&gt;
+&lt;case 5&gt;
+&lt;close&gt;
+&lt;case_cancel&gt;
+&lt;close&gt;
+&lt;case_end&gt;</t>
+  </si>
+  <si>
+    <t>Megistris west teleportal</t>
+  </si>
+  <si>
+    <t>この旅の扉からは　いくつかの場所に
+移動できそうだ。
+どこへ　移動しますか？
+&lt;select&gt;
+入口の前
+西エリア
+おしゃれストリート
+妖精の井戸の前
+メギストリス城の前
+&lt;select_end&gt;
+&lt;case 1&gt;
+&lt;close&gt;
+&lt;case 2&gt;
+&lt;close&gt;
+&lt;case 3&gt;
+&lt;close&gt;
+&lt;case 4&gt;
+&lt;close&gt;
+&lt;case 5&gt;
+&lt;close&gt;
+&lt;case_cancel&gt;
+&lt;close&gt;
+&lt;case_end&gt;</t>
+  </si>
+  <si>
+    <t>Using this teleportal, you can move to
+several different places. Where would
+you like to go?
+&lt;select&gt;
+Entrance
+West Area
+Fashion Street
+Fairy Well
+Megistris Castle
+&lt;select_end&gt;
+&lt;case 1&gt;
+&lt;close&gt;
+&lt;case 2&gt;
+&lt;close&gt;
+&lt;case 3&gt;
+&lt;close&gt;
+&lt;case 4&gt;
+&lt;close&gt;
+&lt;case 5&gt;
+&lt;close&gt;
+&lt;case_cancel&gt;
+&lt;close&gt;
+&lt;case_end&gt;</t>
+  </si>
+  <si>
+    <t>Megistris east teleportal</t>
+  </si>
+  <si>
+    <t>この旅の扉からは　いくつかの場所に
+移動できそうだ。
+どこへ　移動しますか？
+&lt;select&gt;
+東エリア
+西エリア
+おしゃれストリート
+妖精の井戸の前
+メギストリス城の前
+&lt;select_end&gt;
+&lt;case 1&gt;
+&lt;close&gt;
+&lt;case 2&gt;
+&lt;close&gt;
+&lt;case 3&gt;
+&lt;close&gt;
+&lt;case 4&gt;
+&lt;close&gt;
+&lt;case 5&gt;
+&lt;close&gt;
+&lt;case_cancel&gt;
+&lt;close&gt;
+&lt;case_end&gt;</t>
+  </si>
+  <si>
+    <t>Using this teleportal, you can move to
+several different places. Where would
+you like to go?
+&lt;select&gt;
+East Area
+West Area
+Fashion Street
+Fairy Well
+Megistris Castle
+&lt;select_end&gt;
+&lt;case 1&gt;
+&lt;close&gt;
+&lt;case 2&gt;
+&lt;close&gt;
+&lt;case 3&gt;
+&lt;close&gt;
+&lt;case 4&gt;
+&lt;close&gt;
+&lt;case 5&gt;
+&lt;close&gt;
+&lt;case_cancel&gt;
+&lt;close&gt;
+&lt;case_end&gt;</t>
+  </si>
+  <si>
+    <t>Megistris main teleporter</t>
   </si>
   <si>
     <t>メインコマンド『せんれき』の
@@ -22751,6 +22910,39 @@
         <v>1643</v>
       </c>
     </row>
+    <row r="731">
+      <c r="A731" s="2" t="s">
+        <v>1644</v>
+      </c>
+      <c r="C731" s="7" t="s">
+        <v>1645</v>
+      </c>
+      <c r="D731" s="2" t="s">
+        <v>1646</v>
+      </c>
+    </row>
+    <row r="732">
+      <c r="A732" s="2" t="s">
+        <v>1647</v>
+      </c>
+      <c r="C732" s="7" t="s">
+        <v>1648</v>
+      </c>
+      <c r="D732" s="2" t="s">
+        <v>1649</v>
+      </c>
+    </row>
+    <row r="733">
+      <c r="A733" s="2" t="s">
+        <v>1650</v>
+      </c>
+      <c r="C733" s="7" t="s">
+        <v>1651</v>
+      </c>
+      <c r="D733" s="2" t="s">
+        <v>1652</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -22787,18 +22979,18 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>1644</v>
+        <v>1653</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>1645</v>
+        <v>1654</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>1646</v>
+        <v>1655</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>1647</v>
+        <v>1656</v>
       </c>
     </row>
   </sheetData>

--- a/csv/merge.xlsx
+++ b/csv/merge.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2168" uniqueCount="1657">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2171" uniqueCount="1660">
   <si>
     <t>JP Text (DO NOT CHANGE)</t>
   </si>
@@ -14590,6 +14590,17 @@
   </si>
   <si>
     <t>Megistris main teleporter</t>
+  </si>
+  <si>
+    <t>「ショップポイントを　受け取る？
+&lt;yesno&gt;&lt;break&gt;</t>
+  </si>
+  <si>
+    <t>Do you want your Shop Points now?
+&lt;yesno&gt;&lt;break&gt;</t>
+  </si>
+  <si>
+    <t>Shop Points NPC</t>
   </si>
   <si>
     <t>メインコマンド『せんれき』の
@@ -22943,6 +22954,17 @@
         <v>1652</v>
       </c>
     </row>
+    <row r="734">
+      <c r="A734" s="2" t="s">
+        <v>1653</v>
+      </c>
+      <c r="C734" s="7" t="s">
+        <v>1654</v>
+      </c>
+      <c r="D734" s="2" t="s">
+        <v>1655</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -22979,18 +23001,18 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>1653</v>
+        <v>1656</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>1654</v>
+        <v>1657</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>1655</v>
+        <v>1658</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>1656</v>
+        <v>1659</v>
       </c>
     </row>
   </sheetData>

--- a/csv/merge.xlsx
+++ b/csv/merge.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2171" uniqueCount="1660">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2174" uniqueCount="1663">
   <si>
     <t>JP Text (DO NOT CHANGE)</t>
   </si>
@@ -14601,6 +14601,23 @@
   </si>
   <si>
     <t>Shop Points NPC</t>
+  </si>
+  <si>
+    <t>港町レンドア南で　詩人ナスガルドから
+ベジセルクの戦詩を紡ぐ　舞台作りに必要な
+戦いのルールを聞いて　理解した。
+そして　しぐさ『ガッツポーズ』をして
+勝利を誓うように　言われた。</t>
+  </si>
+  <si>
+    <t>In South Port Lendor, Poet Woebergard
+explained the rules of warfare necessary to
+set the stage for the War Poem of
+Cucumberserk. You were then told to use the
+emote "Guts Pose" and pledge victory.</t>
+  </si>
+  <si>
+    <t>Quest 440 description</t>
   </si>
   <si>
     <t>メインコマンド『せんれき』の
@@ -22965,6 +22982,17 @@
         <v>1655</v>
       </c>
     </row>
+    <row r="735">
+      <c r="A735" s="2" t="s">
+        <v>1656</v>
+      </c>
+      <c r="C735" s="7" t="s">
+        <v>1657</v>
+      </c>
+      <c r="D735" s="2" t="s">
+        <v>1658</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -23001,18 +23029,18 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>1656</v>
+        <v>1659</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>1657</v>
+        <v>1660</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>1658</v>
+        <v>1661</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>1659</v>
+        <v>1662</v>
       </c>
     </row>
   </sheetData>

--- a/csv/merge.xlsx
+++ b/csv/merge.xlsx
@@ -5,6 +5,7 @@
   <sheets>
     <sheet state="visible" name="Dialogue" sheetId="1" r:id="rId4"/>
     <sheet state="visible" name="Walkthrough" sheetId="2" r:id="rId5"/>
+    <sheet state="visible" name="Quests" sheetId="3" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -12,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2174" uniqueCount="1663">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2178" uniqueCount="1663">
   <si>
     <t>JP Text (DO NOT CHANGE)</t>
   </si>
@@ -14603,6 +14604,26 @@
     <t>Shop Points NPC</t>
   </si>
   <si>
+    <t>メインコマンド『せんれき』の
+これまでのおはなしを見ながら
+物語を進めていこう。</t>
+  </si>
+  <si>
+    <t>Use "Records" and check
+"The Story So Far" to see
+where to head next.</t>
+  </si>
+  <si>
+    <t>新たなる冒険にそなえ
+町の酒場にいる
+紹介人に話しかけよう。</t>
+  </si>
+  <si>
+    <t>Prepare for new adventures.
+Talk to an Introducer at the
+tavern in any town.</t>
+  </si>
+  <si>
     <t>港町レンドア南で　詩人ナスガルドから
 ベジセルクの戦詩を紡ぐ　舞台作りに必要な
 戦いのルールを聞いて　理解した。
@@ -14618,26 +14639,6 @@
   </si>
   <si>
     <t>Quest 440 description</t>
-  </si>
-  <si>
-    <t>メインコマンド『せんれき』の
-これまでのおはなしを見ながら
-物語を進めていこう。</t>
-  </si>
-  <si>
-    <t>Use "Records" and check
-"The Story So Far" to see
-where to head next.</t>
-  </si>
-  <si>
-    <t>新たなる冒険にそなえ
-町の酒場にいる
-紹介人に話しかけよう。</t>
-  </si>
-  <si>
-    <t>Prepare for new adventures.
-Talk to an Introducer at the
-tavern in any town.</t>
   </si>
 </sst>
 </file>
@@ -14740,6 +14741,10 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -22982,17 +22987,6 @@
         <v>1655</v>
       </c>
     </row>
-    <row r="735">
-      <c r="A735" s="2" t="s">
-        <v>1656</v>
-      </c>
-      <c r="C735" s="7" t="s">
-        <v>1657</v>
-      </c>
-      <c r="D735" s="2" t="s">
-        <v>1658</v>
-      </c>
-    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -23029,17 +23023,63 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>1659</v>
+        <v>1656</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>1660</v>
+        <v>1657</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
+        <v>1658</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>1659</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="37.13"/>
+    <col customWidth="1" min="2" max="2" width="13.88"/>
+    <col customWidth="1" min="3" max="3" width="46.63"/>
+    <col customWidth="1" min="4" max="4" width="27.0"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="s">
+        <v>1660</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>1661</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>1662</v>
       </c>
     </row>

--- a/csv/merge.xlsx
+++ b/csv/merge.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2178" uniqueCount="1663">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2256" uniqueCount="1715">
   <si>
     <t>JP Text (DO NOT CHANGE)</t>
   </si>
@@ -14602,6 +14602,379 @@
   </si>
   <si>
     <t>Shop Points NPC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">　今　ボクが読んだ辺りを　探して
+　写真を　撮ってきてほしいんだ。
+&lt;br&gt;
+「うまく　写真が撮れたら　だいじなものに
+　入るはずだから　その状態で
+　戻ってきてくれないかな？　よろしく頼むよ。</t>
+  </si>
+  <si>
+    <t>I'd like you to head over to the area I just
+read about and take a photograph.
+&lt;br&gt;
+If you manage to take a good enough photo,
+I'm sure you can find something important.
+Could you please bring one to me?</t>
+  </si>
+  <si>
+    <t>Sacred Mysteries (BAD STRING)</t>
+  </si>
+  <si>
+    <t>嵐の神獣の写真（だいじなもの）を　手に入れた！&lt;me 60&gt;</t>
+  </si>
+  <si>
+    <t>You successfully took a photograph!
+&lt;br&gt;
+You received the
+Divine Storm Beast Photo (Key Item)!</t>
+  </si>
+  <si>
+    <t>炎の神獣の写真（だいじなもの）を　手に入れた！&lt;me 60&gt;</t>
+  </si>
+  <si>
+    <t>You successfully took a photograph!
+&lt;br&gt;
+You received the
+Divine Fire Beast Photo (Key Item)!</t>
+  </si>
+  <si>
+    <t>氷の神獣の写真（だいじなもの）を　手に入れた！&lt;me 60&gt;</t>
+  </si>
+  <si>
+    <t>You successfully took a photograph!
+&lt;br&gt;
+You received the
+Divine Ice Beast Photo (Key Item)!</t>
+  </si>
+  <si>
+    <t>水の神獣の写真（だいじなもの）を　手に入れた！&lt;me 60&gt;</t>
+  </si>
+  <si>
+    <t>You successfully took a photograph!
+&lt;br&gt;
+You received the
+Divine Water Beast Photo (Key Item)!</t>
+  </si>
+  <si>
+    <t>闇の神獣の写真（だいじなもの）を　手に入れた！&lt;me 60&gt;</t>
+  </si>
+  <si>
+    <t>You successfully took a photograph!
+&lt;br&gt;
+You received the
+Divine Dark Beast Photo (Key Item)!</t>
+  </si>
+  <si>
+    <t>炎の秘蹟の写真（だいじなもの）を　手に入れた！&lt;me 60&gt;</t>
+  </si>
+  <si>
+    <t>You successfully took a photograph!
+&lt;br&gt;
+You received the
+Fire Sacrament Photo (Key Item)!</t>
+  </si>
+  <si>
+    <t>氷の秘蹟の写真（だいじなもの）を　手に入れた！&lt;me 60&gt;</t>
+  </si>
+  <si>
+    <t>You successfully took a photograph!
+&lt;br&gt;
+You received the
+Ice Sacrament Photo (Key Item)!</t>
+  </si>
+  <si>
+    <t>水の秘蹟の写真（だいじなもの）を　手に入れた！&lt;me 60&gt;</t>
+  </si>
+  <si>
+    <t>You successfully took a photograph!
+&lt;br&gt;
+You received the
+Water Sacrament Photo (Key Item)!</t>
+  </si>
+  <si>
+    <t>闇の秘蹟の写真（だいじなもの）を　手に入れた！&lt;me 60&gt;</t>
+  </si>
+  <si>
+    <t>You successfully took a photograph!
+&lt;br&gt;
+You received the
+Dark Sacrament Photo (Key Item)!</t>
+  </si>
+  <si>
+    <t>嵐の秘蹟の写真（だいじなもの）を　手に入れた！&lt;me 60&gt;</t>
+  </si>
+  <si>
+    <t>You successfully took a photograph!
+&lt;br&gt;
+You received the
+Storm Sacrament Photo (Key Item)!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">　うまく　写真を　撮れたようだね？
+　その写真を　ボクに　渡してくれないか？</t>
+  </si>
+  <si>
+    <t>&lt;attr&gt;&lt;feel_happy_lv1&gt;&lt;end_attr&gt;Oh! It looks like you were able to take a
+pretty nice photo. Could I please have it?</t>
+  </si>
+  <si>
+    <t>は　調査隊のカガミだねっ！</t>
+  </si>
+  <si>
+    <t>&lt;attr&gt;&lt;feel_happy_lv3&gt;&lt;end_attr&gt;Thanks for always helping us with
+our investigations! You're the looking glass
+of the team!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">　神聖秘文の答えが　わかったのかな。
+　答えがわかったなら　ボクにも教えてくれない？
+&lt;br&gt;
+「ただし　回答は　ひとつしか受け付けられないし
+　一度　回答した後　何分かは　次の神聖秘文に
+　挑戦することもできないから　注意して。
+&lt;br&gt;
+「回答をせずに　時間切れになった人がいた場合
+　失敗となるから　それも　気をつけてね。
+　本当に　神聖秘文を唱えるってことで　いい？&lt;yesno&gt;&lt;break&gt;</t>
+  </si>
+  <si>
+    <t>Could it be that you've figured out the answer
+to the sacred text? If you do, could you
+please tell me as well?
+&lt;br&gt;
+However, once you tell me, that's it. You only
+get one answer. After that, you can't attempt
+solving another sacred text for some time.
+&lt;br&gt;
+Also, if you fail to answer within the time
+limit, the investigation will be considered
+failed. Please keep that in mind. Well?&lt;yesno&gt;&lt;break&gt;</t>
+  </si>
+  <si>
+    <t>「わかったよ。キミが　パーティを組んでいる場合
+　自分が　回答を間違えても　仲間の誰かが
+　正解すればいいから　よく考えて　答えてね。</t>
+  </si>
+  <si>
+    <t>Right. If you are in a party, one of your
+companions can chant the right answer even if
+you get it wrong. Please answer carefully.</t>
+  </si>
+  <si>
+    <t>Sacred Mysteries</t>
+  </si>
+  <si>
+    <t>回答を　受け付けました！
+このまま　仲間の回答を　待ちます。&lt;break&gt;</t>
+  </si>
+  <si>
+    <t>Your answer was accepted! Please wait
+for your party members' responses.&lt;break&gt;</t>
+  </si>
+  <si>
+    <t>全員の回答を　受け付けました！</t>
+  </si>
+  <si>
+    <t>All answers have been accepted!</t>
+  </si>
+  <si>
+    <t>恵みの木の中の　恵みの園にいる
+サジェと　リルチェラの所へ　戻ろう。</t>
+  </si>
+  <si>
+    <t>Return to Lilcherat and Sajay at Gratia.</t>
+  </si>
+  <si>
+    <t>「２人で　参加するってことで　いいなら
+　挑戦する神聖秘文を　ボクに教えてよ。</t>
+  </si>
+  <si>
+    <t>It's all right if you two want to go together.
+Please let me know which sacred text
+you'd like to attempt.</t>
+  </si>
+  <si>
+    <t>It's all right if you three want to go
+together. Please let me know which
+sacred text you'd like to attempt.</t>
+  </si>
+  <si>
+    <t>It's all right if you four want to go
+together. Please let me know which
+sacred text you'd like to attempt.</t>
+  </si>
+  <si>
+    <t>すでに　解き明かしています。
+リプレイとなりますが　ふたたび　挑戦しますか？&lt;yesno&gt;&lt;break&gt;</t>
+  </si>
+  <si>
+    <t>You've already solved this sacred text.
+Are you all right with doing it again?&lt;yesno&gt;&lt;break&gt;</t>
+  </si>
+  <si>
+    <t>何が　したいんだい？
+&lt;select&gt;
+神聖秘文を解く
+サジェの考察を聞く
+説明を聞く
+やめる
+&lt;select_end&gt;
+&lt;case 1&gt;
+&lt;break&gt;
+&lt;case 2&gt;
+&lt;break&gt;
+&lt;case 3&gt;
+&lt;break&gt;
+&lt;case 4&gt;
+&lt;break&gt;
+&lt;case_cancel&gt;
+&lt;break&gt;
+&lt;case_end&gt;</t>
+  </si>
+  <si>
+    <t>What do you want to do?
+&lt;select&gt;
+Solve Sacred Text
+Hear Sajay's Investigations
+Explanation
+Cancel
+&lt;select_end&gt;
+&lt;case 1&gt;
+&lt;break&gt;
+&lt;case 2&gt;
+&lt;break&gt;
+&lt;case 3&gt;
+&lt;break&gt;
+&lt;case 4&gt;
+&lt;break&gt;
+&lt;case_cancel&gt;
+&lt;break&gt;
+&lt;case_end&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">　何が　したいんだい？
+&lt;select&gt;
+神聖秘文を唱える
+サジェの考察を聞く
+説明を聞く
+やめる
+&lt;select_end&gt;
+&lt;case 1&gt;
+&lt;break&gt;
+&lt;case 2&gt;
+&lt;break&gt;
+&lt;case 3&gt;
+&lt;break&gt;
+&lt;case 4&gt;
+&lt;break&gt;
+&lt;case_cancel&gt;
+&lt;break&gt;
+&lt;case_end&gt;</t>
+  </si>
+  <si>
+    <t>What do you want to do?
+&lt;select&gt;
+Chant Sacred Text
+Hear Sajay's Investigations
+Explanation
+Cancel
+&lt;select_end&gt;
+&lt;case 1&gt;
+&lt;break&gt;
+&lt;case 2&gt;
+&lt;break&gt;
+&lt;case 3&gt;
+&lt;break&gt;
+&lt;case 4&gt;
+&lt;break&gt;
+&lt;case_cancel&gt;
+&lt;break&gt;
+&lt;case_end&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">　ほかに　したいことはあるかい？
+&lt;select&gt;
+神聖秘文を解く
+サジェの考察を聞く
+説明を聞く
+やめる
+&lt;select_end&gt;
+&lt;case 1&gt;
+&lt;break&gt;
+&lt;case 2&gt;
+&lt;break&gt;
+&lt;case 3&gt;
+&lt;break&gt;
+&lt;case 4&gt;
+&lt;break&gt;
+&lt;case_cancel&gt;
+&lt;break&gt;
+&lt;case_end&gt;</t>
+  </si>
+  <si>
+    <t>Is there anything else you want to
+do?
+&lt;select&gt;
+Solve Sacred Text
+Hear Sajay's Investigations
+Explanation
+Cancel
+&lt;select_end&gt;
+&lt;case 1&gt;
+&lt;break&gt;
+&lt;case 2&gt;
+&lt;break&gt;
+&lt;case 3&gt;
+&lt;break&gt;
+&lt;case 4&gt;
+&lt;break&gt;
+&lt;case_cancel&gt;
+&lt;break&gt;
+&lt;case_end&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">　ほかに　したいことはあるかい？
+&lt;select&gt;
+神聖秘文を唱える
+サジェの考察を聞く
+説明を聞く
+やめる
+&lt;select_end&gt;
+&lt;case 1&gt;
+&lt;break&gt;
+&lt;case 2&gt;
+&lt;break&gt;
+&lt;case 3&gt;
+&lt;break&gt;
+&lt;case 4&gt;
+&lt;break&gt;
+&lt;case_cancel&gt;
+&lt;break&gt;
+&lt;case_end&gt;</t>
+  </si>
+  <si>
+    <t>Is there anything else you want to
+do?
+&lt;select&gt;
+Chant Sacred Text
+Hear Sajay's Investigations
+Explanation
+Cancel
+&lt;select_end&gt;
+&lt;case 1&gt;
+&lt;break&gt;
+&lt;case 2&gt;
+&lt;break&gt;
+&lt;case 3&gt;
+&lt;break&gt;
+&lt;case 4&gt;
+&lt;break&gt;
+&lt;case_cancel&gt;
+&lt;break&gt;
+&lt;case_end&gt;</t>
   </si>
   <si>
     <t>メインコマンド『せんれき』の
@@ -22987,6 +23360,292 @@
         <v>1655</v>
       </c>
     </row>
+    <row r="735">
+      <c r="A735" s="2" t="s">
+        <v>1656</v>
+      </c>
+      <c r="C735" s="7" t="s">
+        <v>1657</v>
+      </c>
+      <c r="D735" s="2" t="s">
+        <v>1658</v>
+      </c>
+    </row>
+    <row r="736">
+      <c r="A736" s="2" t="s">
+        <v>1659</v>
+      </c>
+      <c r="C736" s="7" t="s">
+        <v>1660</v>
+      </c>
+      <c r="D736" s="2" t="s">
+        <v>1658</v>
+      </c>
+    </row>
+    <row r="737">
+      <c r="A737" s="2" t="s">
+        <v>1661</v>
+      </c>
+      <c r="C737" s="7" t="s">
+        <v>1662</v>
+      </c>
+      <c r="D737" s="2" t="s">
+        <v>1658</v>
+      </c>
+    </row>
+    <row r="738">
+      <c r="A738" s="2" t="s">
+        <v>1663</v>
+      </c>
+      <c r="C738" s="7" t="s">
+        <v>1664</v>
+      </c>
+      <c r="D738" s="2" t="s">
+        <v>1658</v>
+      </c>
+    </row>
+    <row r="739">
+      <c r="A739" s="2" t="s">
+        <v>1665</v>
+      </c>
+      <c r="C739" s="7" t="s">
+        <v>1666</v>
+      </c>
+      <c r="D739" s="2" t="s">
+        <v>1658</v>
+      </c>
+    </row>
+    <row r="740">
+      <c r="A740" s="2" t="s">
+        <v>1667</v>
+      </c>
+      <c r="C740" s="7" t="s">
+        <v>1668</v>
+      </c>
+      <c r="D740" s="2" t="s">
+        <v>1658</v>
+      </c>
+    </row>
+    <row r="741">
+      <c r="A741" s="2" t="s">
+        <v>1669</v>
+      </c>
+      <c r="C741" s="7" t="s">
+        <v>1670</v>
+      </c>
+      <c r="D741" s="2" t="s">
+        <v>1658</v>
+      </c>
+    </row>
+    <row r="742">
+      <c r="A742" s="2" t="s">
+        <v>1671</v>
+      </c>
+      <c r="C742" s="7" t="s">
+        <v>1672</v>
+      </c>
+      <c r="D742" s="2" t="s">
+        <v>1658</v>
+      </c>
+    </row>
+    <row r="743">
+      <c r="A743" s="2" t="s">
+        <v>1673</v>
+      </c>
+      <c r="C743" s="7" t="s">
+        <v>1674</v>
+      </c>
+      <c r="D743" s="2" t="s">
+        <v>1658</v>
+      </c>
+    </row>
+    <row r="744">
+      <c r="A744" s="2" t="s">
+        <v>1675</v>
+      </c>
+      <c r="C744" s="7" t="s">
+        <v>1676</v>
+      </c>
+      <c r="D744" s="2" t="s">
+        <v>1658</v>
+      </c>
+    </row>
+    <row r="745">
+      <c r="A745" s="2" t="s">
+        <v>1677</v>
+      </c>
+      <c r="C745" s="7" t="s">
+        <v>1678</v>
+      </c>
+      <c r="D745" s="2" t="s">
+        <v>1658</v>
+      </c>
+    </row>
+    <row r="746">
+      <c r="A746" s="2" t="s">
+        <v>1679</v>
+      </c>
+      <c r="C746" s="7" t="s">
+        <v>1680</v>
+      </c>
+      <c r="D746" s="2" t="s">
+        <v>1658</v>
+      </c>
+    </row>
+    <row r="747">
+      <c r="A747" s="2" t="s">
+        <v>1681</v>
+      </c>
+      <c r="C747" s="7" t="s">
+        <v>1682</v>
+      </c>
+      <c r="D747" s="2" t="s">
+        <v>1658</v>
+      </c>
+    </row>
+    <row r="748">
+      <c r="A748" s="2" t="s">
+        <v>1683</v>
+      </c>
+      <c r="C748" s="7" t="s">
+        <v>1684</v>
+      </c>
+      <c r="D748" s="2" t="s">
+        <v>1658</v>
+      </c>
+    </row>
+    <row r="749">
+      <c r="A749" s="2" t="s">
+        <v>1685</v>
+      </c>
+      <c r="C749" s="7" t="s">
+        <v>1686</v>
+      </c>
+      <c r="D749" s="2" t="s">
+        <v>1687</v>
+      </c>
+    </row>
+    <row r="750">
+      <c r="A750" s="2" t="s">
+        <v>1688</v>
+      </c>
+      <c r="C750" s="7" t="s">
+        <v>1689</v>
+      </c>
+      <c r="D750" s="2" t="s">
+        <v>1687</v>
+      </c>
+    </row>
+    <row r="751">
+      <c r="A751" s="2" t="s">
+        <v>1690</v>
+      </c>
+      <c r="C751" s="7" t="s">
+        <v>1691</v>
+      </c>
+      <c r="D751" s="2" t="s">
+        <v>1687</v>
+      </c>
+    </row>
+    <row r="752">
+      <c r="A752" s="2" t="s">
+        <v>1692</v>
+      </c>
+      <c r="C752" s="7" t="s">
+        <v>1693</v>
+      </c>
+      <c r="D752" s="2" t="s">
+        <v>1687</v>
+      </c>
+    </row>
+    <row r="753">
+      <c r="A753" s="2" t="s">
+        <v>1694</v>
+      </c>
+      <c r="C753" s="7" t="s">
+        <v>1695</v>
+      </c>
+      <c r="D753" s="2" t="s">
+        <v>1687</v>
+      </c>
+    </row>
+    <row r="754">
+      <c r="A754" s="2" t="s">
+        <v>1694</v>
+      </c>
+      <c r="C754" s="7" t="s">
+        <v>1696</v>
+      </c>
+      <c r="D754" s="2" t="s">
+        <v>1687</v>
+      </c>
+    </row>
+    <row r="755">
+      <c r="A755" s="2" t="s">
+        <v>1694</v>
+      </c>
+      <c r="C755" s="7" t="s">
+        <v>1697</v>
+      </c>
+      <c r="D755" s="2" t="s">
+        <v>1687</v>
+      </c>
+    </row>
+    <row r="756">
+      <c r="A756" s="2" t="s">
+        <v>1698</v>
+      </c>
+      <c r="C756" s="7" t="s">
+        <v>1699</v>
+      </c>
+      <c r="D756" s="2" t="s">
+        <v>1658</v>
+      </c>
+    </row>
+    <row r="757">
+      <c r="A757" s="2" t="s">
+        <v>1700</v>
+      </c>
+      <c r="C757" s="7" t="s">
+        <v>1701</v>
+      </c>
+      <c r="D757" s="2" t="s">
+        <v>1658</v>
+      </c>
+    </row>
+    <row r="758">
+      <c r="A758" s="2" t="s">
+        <v>1702</v>
+      </c>
+      <c r="C758" s="7" t="s">
+        <v>1703</v>
+      </c>
+      <c r="D758" s="2" t="s">
+        <v>1658</v>
+      </c>
+    </row>
+    <row r="759">
+      <c r="A759" s="2" t="s">
+        <v>1704</v>
+      </c>
+      <c r="C759" s="7" t="s">
+        <v>1705</v>
+      </c>
+      <c r="D759" s="2" t="s">
+        <v>1658</v>
+      </c>
+    </row>
+    <row r="760">
+      <c r="A760" s="2" t="s">
+        <v>1706</v>
+      </c>
+      <c r="C760" s="7" t="s">
+        <v>1707</v>
+      </c>
+      <c r="D760" s="2" t="s">
+        <v>1658</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -23023,18 +23682,18 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>1656</v>
+        <v>1708</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>1657</v>
+        <v>1709</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>1658</v>
+        <v>1710</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>1659</v>
+        <v>1711</v>
       </c>
     </row>
   </sheetData>
@@ -23074,13 +23733,13 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>1660</v>
+        <v>1712</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>1661</v>
+        <v>1713</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>1662</v>
+        <v>1714</v>
       </c>
     </row>
   </sheetData>

--- a/csv/merge.xlsx
+++ b/csv/merge.xlsx
@@ -985,7 +985,8 @@
     <t>&lt;speed=0&gt;How would you like to form a party alliance?&lt;select&gt;
 Fixed Party
 Search for Allies
-Don't Search&lt;select_end&gt;
+Don't Form Alliance
+&lt;select_end&gt;
 &lt;case 1&gt;
 &lt;close&gt;
 &lt;case 2&gt;

--- a/csv/merge.xlsx
+++ b/csv/merge.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2256" uniqueCount="1715">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2259" uniqueCount="1718">
   <si>
     <t>JP Text (DO NOT CHANGE)</t>
   </si>
@@ -14976,6 +14976,21 @@
 &lt;case_cancel&gt;
 &lt;break&gt;
 &lt;case_end&gt;</t>
+  </si>
+  <si>
+    <t>&lt;speed=0&gt;今のパーティ構成で　挑戦しますか？
+ただし　サポートなかまや　なかまモンスターは
+参加しません。
+&lt;yesno&gt;&lt;close&gt;</t>
+  </si>
+  <si>
+    <t>&lt;speed=0&gt;Go on ahead with your current party?
+You will not be able to take support
+companions or fellow monsters along.
+&lt;yesno&gt;&lt;close&gt;</t>
+  </si>
+  <si>
+    <t>Boot camp? go alone</t>
   </si>
   <si>
     <t>メインコマンド『せんれき』の
@@ -23647,6 +23662,17 @@
         <v>1658</v>
       </c>
     </row>
+    <row r="761">
+      <c r="A761" s="2" t="s">
+        <v>1708</v>
+      </c>
+      <c r="C761" s="7" t="s">
+        <v>1709</v>
+      </c>
+      <c r="D761" s="2" t="s">
+        <v>1710</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -23683,18 +23709,18 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>1708</v>
+        <v>1711</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>1709</v>
+        <v>1712</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>1710</v>
+        <v>1713</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>1711</v>
+        <v>1714</v>
       </c>
     </row>
   </sheetData>
@@ -23734,13 +23760,13 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>1712</v>
+        <v>1715</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>1713</v>
+        <v>1716</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>1714</v>
+        <v>1717</v>
       </c>
     </row>
   </sheetData>

--- a/csv/merge.xlsx
+++ b/csv/merge.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2259" uniqueCount="1718">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2268" uniqueCount="1725">
   <si>
     <t>JP Text (DO NOT CHANGE)</t>
   </si>
@@ -14991,6 +14991,39 @@
   </si>
   <si>
     <t>Boot camp? go alone</t>
+  </si>
+  <si>
+    <t>約40秒後に　自動的にバトルが開始します。
+対戦相手や味方のプレイヤーに対して　悪い言葉を
+使ったりせず　気持ちのよいバトルをしましょう！&lt;auto_bw_break=10000&gt;</t>
+  </si>
+  <si>
+    <t>The battle will begin in about 40 seconds.
+Use sportsmanlike conduct towards other
+players, and fight fairly!&lt;auto_bw_break=10000&gt;</t>
+  </si>
+  <si>
+    <t>Battle Grand Prix</t>
+  </si>
+  <si>
+    <t>&lt;speed=0&gt;今すぐに　スタート地点から復活すると
+奪われたポイントは　戻ってきませんが
+よろしいですか？&lt;yesno&gt;&lt;close&gt;</t>
+  </si>
+  <si>
+    <t>&lt;speed=0&gt;If you choose to revive yourself, you cannot
+get back the points that were taken from you.
+Proceed?&lt;yesno&gt;&lt;close&gt;</t>
+  </si>
+  <si>
+    <t>お疲れ様でした。
+旅の扉が現れているので　一定時間以内に
+そちらから　退出してください。</t>
+  </si>
+  <si>
+    <t>What a great fight! A teleportal has appeared
+that will allow you to leave, so please use
+it in a timely manner.</t>
   </si>
   <si>
     <t>メインコマンド『せんれき』の
@@ -23673,6 +23706,39 @@
         <v>1710</v>
       </c>
     </row>
+    <row r="762">
+      <c r="A762" s="2" t="s">
+        <v>1711</v>
+      </c>
+      <c r="C762" s="7" t="s">
+        <v>1712</v>
+      </c>
+      <c r="D762" s="2" t="s">
+        <v>1713</v>
+      </c>
+    </row>
+    <row r="763">
+      <c r="A763" s="2" t="s">
+        <v>1714</v>
+      </c>
+      <c r="C763" s="7" t="s">
+        <v>1715</v>
+      </c>
+      <c r="D763" s="2" t="s">
+        <v>1713</v>
+      </c>
+    </row>
+    <row r="764">
+      <c r="A764" s="2" t="s">
+        <v>1716</v>
+      </c>
+      <c r="C764" s="7" t="s">
+        <v>1717</v>
+      </c>
+      <c r="D764" s="2" t="s">
+        <v>1713</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -23709,18 +23775,18 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>1711</v>
+        <v>1718</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>1712</v>
+        <v>1719</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>1713</v>
+        <v>1720</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>1714</v>
+        <v>1721</v>
       </c>
     </row>
   </sheetData>
@@ -23760,13 +23826,13 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>1715</v>
+        <v>1722</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>1716</v>
+        <v>1723</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>1717</v>
+        <v>1724</v>
       </c>
     </row>
   </sheetData>

--- a/csv/merge.xlsx
+++ b/csv/merge.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2268" uniqueCount="1725">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2277" uniqueCount="1732">
   <si>
     <t>JP Text (DO NOT CHANGE)</t>
   </si>
@@ -15024,6 +15024,53 @@
     <t>What a great fight! A teleportal has appeared
 that will allow you to leave, so please use
 it in a timely manner.</t>
+  </si>
+  <si>
+    <t>常闇の竜レグナードの封印に　成功した！
+竜牙石が　５個なくなった！
+&lt;auto_bw=5000&gt;&lt;close&gt;</t>
+  </si>
+  <si>
+    <t>The Dragonite that you were holding shone
+brightly and transformed into sharp fangs of
+light, each piercing into Regnad...
+&lt;auto_br=5000&gt;
+Regnad was successfully sealed away once
+more!
+Five of your Dragonites were consumed!
+&lt;auto_bw=5000&gt;&lt;close&gt;</t>
+  </si>
+  <si>
+    <t>Everdark War Boss Win (BAD STRING)</t>
+  </si>
+  <si>
+    <t>ダークキングの封印に　成功した！
+竜牙石が　５個なくなった！
+&lt;auto_bw=5000&gt;&lt;close&gt;</t>
+  </si>
+  <si>
+    <t>The Dragonite that you were holding shone
+brightly and transformed into sharp fangs of
+light, each piercing into Dark King Slime...
+&lt;auto_br=5000&gt;
+Dark King Slime was successfully sealed away
+once more!
+Five of your Dragonites were consumed!
+&lt;auto_bw=5000&gt;&lt;close&gt;</t>
+  </si>
+  <si>
+    <t>海冥主メイヴの封印に　成功した！
+竜牙石が　５個なくなった！
+&lt;auto_bw=5000&gt;&lt;close&gt;</t>
+  </si>
+  <si>
+    <t>The Dragonite that you were holding shone
+brightly and transformed into sharp fangs of
+light, each piercing into Meiv...
+&lt;auto_br=5000&gt;
+Meiv was successfully sealed away once more!
+Five of your Dragonites were consumed!
+&lt;auto_bw=5000&gt;&lt;close&gt;</t>
   </si>
   <si>
     <t>メインコマンド『せんれき』の
@@ -23739,6 +23786,39 @@
         <v>1713</v>
       </c>
     </row>
+    <row r="765">
+      <c r="A765" s="2" t="s">
+        <v>1718</v>
+      </c>
+      <c r="C765" s="7" t="s">
+        <v>1719</v>
+      </c>
+      <c r="D765" s="2" t="s">
+        <v>1720</v>
+      </c>
+    </row>
+    <row r="766">
+      <c r="A766" s="2" t="s">
+        <v>1721</v>
+      </c>
+      <c r="C766" s="7" t="s">
+        <v>1722</v>
+      </c>
+      <c r="D766" s="2" t="s">
+        <v>1720</v>
+      </c>
+    </row>
+    <row r="767">
+      <c r="A767" s="2" t="s">
+        <v>1723</v>
+      </c>
+      <c r="C767" s="7" t="s">
+        <v>1724</v>
+      </c>
+      <c r="D767" s="2" t="s">
+        <v>1720</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -23775,18 +23855,18 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>1718</v>
+        <v>1725</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>1719</v>
+        <v>1726</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>1720</v>
+        <v>1727</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>1721</v>
+        <v>1728</v>
       </c>
     </row>
   </sheetData>
@@ -23826,13 +23906,13 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>1722</v>
+        <v>1729</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>1723</v>
+        <v>1730</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>1724</v>
+        <v>1731</v>
       </c>
     </row>
   </sheetData>

--- a/csv/merge.xlsx
+++ b/csv/merge.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2277" uniqueCount="1732">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2280" uniqueCount="1735">
   <si>
     <t>JP Text (DO NOT CHANGE)</t>
   </si>
@@ -15071,6 +15071,21 @@
 Meiv was successfully sealed away once more!
 Five of your Dragonites were consumed!
 &lt;auto_bw=5000&gt;&lt;close&gt;</t>
+  </si>
+  <si>
+    <t>「わたくし　魔塔銀行員のボクスでございます。
+　お客様が　魔塔で手に入れた　大切なゴールドは
+　責任をもって　お預かりさせて　いただきます。
+&lt;bw_break&gt;</t>
+  </si>
+  <si>
+    <t>My name is Bokks, and I am the banker here
+at the Mysterious Tower. I will make sure that
+your precious Gold is held safe and sound.
+&lt;bw_break&gt;</t>
+  </si>
+  <si>
+    <t>Mysterious Tower banker</t>
   </si>
   <si>
     <t>メインコマンド『せんれき』の
@@ -23819,6 +23834,17 @@
         <v>1720</v>
       </c>
     </row>
+    <row r="768">
+      <c r="A768" s="2" t="s">
+        <v>1725</v>
+      </c>
+      <c r="C768" s="7" t="s">
+        <v>1726</v>
+      </c>
+      <c r="D768" s="2" t="s">
+        <v>1727</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -23855,18 +23881,18 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>1725</v>
+        <v>1728</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>1726</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>1727</v>
+        <v>1730</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>1728</v>
+        <v>1731</v>
       </c>
     </row>
   </sheetData>
@@ -23906,13 +23932,13 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>1729</v>
+        <v>1732</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>1730</v>
+        <v>1733</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>1731</v>
+        <v>1734</v>
       </c>
     </row>
   </sheetData>

--- a/csv/merge.xlsx
+++ b/csv/merge.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2280" uniqueCount="1735">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2319" uniqueCount="1763">
   <si>
     <t>JP Text (DO NOT CHANGE)</t>
   </si>
@@ -9188,6 +9188,17 @@
     <t>Mysterious Tower Feralball</t>
   </si>
   <si>
+    <t>「……マジックバリアと　マホトーン。
+　やっかいな　魔法使いは　オレにまかせろ。</t>
+  </si>
+  <si>
+    <t>...Magic Barrier and Fizzle.
+Leave that pesky mage to me.</t>
+  </si>
+  <si>
+    <t>Mysterious Tower Gryphon</t>
+  </si>
+  <si>
     <t>&lt;pipipi_shigh&gt;「ヒヒヒ……。オイラ　なぞのツボ。
 　魔闘士さん　おおきづち　知ってる？
 　ブラウニーとは　仲がいいみたいだね。</t>
@@ -9642,6 +9653,201 @@
   </si>
   <si>
     <t>Mysterious Tower exit</t>
+  </si>
+  <si>
+    <t>魔物の気配が　すべて消えた……。
+扉の封印が　解かれた。
+&lt;br&gt;
+&lt;se_nots Joutyu_SE 121&gt;
+５階までに　封じられていた
+塔のエネルギーが解放された！</t>
+  </si>
+  <si>
+    <t>All of the monsters here are gone...
+The door to the next floor has been unsealed.
+&lt;br&gt;
+&lt;se_nots Joutyu_SE 121&gt;
+The sealed tower's energy has been released
+been released up to the 5th floor!</t>
+  </si>
+  <si>
+    <t>Mysterious Tower boss win</t>
+  </si>
+  <si>
+    <t>魔物の気配が　すべて消えた……。
+扉の封印が　解かれた。
+&lt;br&gt;
+&lt;se_nots Joutyu_SE 121&gt;
+１０階までに　封じられていた
+塔のエネルギーが解放された！</t>
+  </si>
+  <si>
+    <t>All of the monsters here are gone...
+The door to the next floor has been unsealed.
+&lt;br&gt;
+&lt;se_nots Joutyu_SE 121&gt;
+The sealed tower's energy has been released
+been released up to the 10th floor!</t>
+  </si>
+  <si>
+    <t>魔物の気配が　すべて消えた……。
+扉の封印が　解かれた。
+&lt;br&gt;
+&lt;se_nots Joutyu_SE 121&gt;
+１５階までに　封じられていた
+塔のエネルギーが解放された！</t>
+  </si>
+  <si>
+    <t>All of the monsters here are gone...
+The door to the next floor has been unsealed.
+&lt;br&gt;
+&lt;se_nots Joutyu_SE 121&gt;
+The sealed tower's energy has been released
+been released up to the 15th floor!</t>
+  </si>
+  <si>
+    <t>魔物の気配が　すべて消えた……。
+扉の封印が　解かれた。
+&lt;br&gt;
+&lt;se_nots Joutyu_SE 121&gt;
+２０階までに　封じられていた
+塔のエネルギーが解放された！</t>
+  </si>
+  <si>
+    <t>All of the monsters here are gone...
+The door to the next floor has been unsealed.
+&lt;br&gt;
+&lt;se_nots Joutyu_SE 121&gt;
+The sealed tower's energy has been released
+been released up to the 20th floor!</t>
+  </si>
+  <si>
+    <t>魔物の気配が　すべて消えた……。
+扉の封印が　解かれた。
+&lt;br&gt;
+&lt;se_nots Joutyu_SE 121&gt;
+２５階までに　封じられていた
+塔のエネルギーが解放された！</t>
+  </si>
+  <si>
+    <t>All of the monsters here are gone...
+The door to the next floor has been unsealed.
+&lt;br&gt;
+&lt;se_nots Joutyu_SE 121&gt;
+The sealed tower's energy has been released
+been released up to the 25th floor!</t>
+  </si>
+  <si>
+    <t>魔物の気配が　すべて消えた……。
+扉の封印が　解かれた。
+&lt;br&gt;
+&lt;se_nots Joutyu_SE 121&gt;
+３０階までに　封じられていた
+塔のエネルギーが解放された！</t>
+  </si>
+  <si>
+    <t>All of the monsters here are gone...
+The door to the next floor has been unsealed.
+&lt;br&gt;
+&lt;se_nots Joutyu_SE 121&gt;
+The sealed tower's energy has been released
+been released up to the 30th floor!</t>
+  </si>
+  <si>
+    <t>魔物の気配が　すべて消えた……。
+扉の封印が　解かれた。
+&lt;br&gt;
+&lt;se_nots Joutyu_SE 121&gt;
+３５階までに　封じられていた
+塔のエネルギーが解放された！</t>
+  </si>
+  <si>
+    <t>All of the monsters here are gone...
+The door to the next floor has been unsealed.
+&lt;br&gt;
+&lt;se_nots Joutyu_SE 121&gt;
+The sealed tower's energy has been released
+been released up to the 35th floor!</t>
+  </si>
+  <si>
+    <t>魔物の気配が　すべて消えた……。
+扉の封印が　解かれた。
+&lt;br&gt;
+&lt;se_nots Joutyu_SE 121&gt;
+４０階までに　封じられていた
+塔のエネルギーが解放された！</t>
+  </si>
+  <si>
+    <t>All of the monsters here are gone...
+The door to the next floor has been unsealed.
+&lt;br&gt;
+&lt;se_nots Joutyu_SE 121&gt;
+The sealed tower's energy has been released
+been released up to the 40th floor!</t>
+  </si>
+  <si>
+    <t>魔物の気配が　すべて消えた……。
+扉の封印が　解かれた。
+&lt;br&gt;
+&lt;se_nots Joutyu_SE 121&gt;
+４５階までに　封じられていた
+塔のエネルギーが解放された！</t>
+  </si>
+  <si>
+    <t>All of the monsters here are gone...
+The door to the next floor has been unsealed.
+&lt;br&gt;
+&lt;se_nots Joutyu_SE 121&gt;
+The sealed tower's energy has been released
+been released up to the 45th floor!</t>
+  </si>
+  <si>
+    <t>魔物の気配が　すべて消えた……。
+扉の封印が　解かれた。
+&lt;br&gt;
+&lt;se_nots Joutyu_SE 121&gt;
+５０階までに　封じられていた
+塔のエネルギーが解放された！</t>
+  </si>
+  <si>
+    <t>All of the monsters here are gone...
+The door to the next floor has been unsealed.
+&lt;br&gt;
+&lt;se_nots Joutyu_SE 121&gt;
+The sealed tower's energy has been released
+been released up to the 50th floor!</t>
+  </si>
+  <si>
+    <t>魔物の気配が　すべて消えた……。
+扉の封印が　解かれた。
+&lt;br&gt;
+&lt;se_nots Joutyu_SE 121&gt;
+５５階までに　封じられていた
+塔のエネルギーが解放された！</t>
+  </si>
+  <si>
+    <t>All of the monsters here are gone...
+The door to the next floor has been unsealed.
+&lt;br&gt;
+&lt;se_nots Joutyu_SE 121&gt;
+The sealed tower's energy has been released
+been released up to the 55th floor!</t>
+  </si>
+  <si>
+    <t>魔物の気配が　すべて消えた……。
+扉の封印が　解かれた。
+&lt;br&gt;
+&lt;se_nots Joutyu_SE 121&gt;
+６０階までに　封じられていた
+塔のエネルギーが解放された！</t>
+  </si>
+  <si>
+    <t>All of the monsters here are gone...
+The door to the next floor has been unsealed.
+&lt;br&gt;
+&lt;se_nots Joutyu_SE 121&gt;
+The sealed tower's energy has been released
+been released up to the 60th floor!</t>
   </si>
   <si>
     <t>「新エテーネの村のまわりを　クンクンして
@@ -20533,238 +20739,238 @@
         <v>1061</v>
       </c>
       <c r="D467" s="2" t="s">
-        <v>1059</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="468">
       <c r="A468" s="2" t="s">
+        <v>1063</v>
+      </c>
+      <c r="C468" s="2" t="s">
+        <v>1064</v>
+      </c>
+      <c r="D468" s="2" t="s">
         <v>1062</v>
-      </c>
-      <c r="C468" s="2" t="s">
-        <v>1063</v>
-      </c>
-      <c r="D468" s="2" t="s">
-        <v>1064</v>
       </c>
     </row>
     <row r="469">
       <c r="A469" s="2" t="s">
         <v>1065</v>
       </c>
-      <c r="C469" s="7" t="s">
+      <c r="C469" s="2" t="s">
         <v>1066</v>
       </c>
       <c r="D469" s="2" t="s">
-        <v>1067</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="470">
       <c r="A470" s="2" t="s">
+        <v>1067</v>
+      </c>
+      <c r="C470" s="2" t="s">
         <v>1068</v>
       </c>
-      <c r="C470" s="7" t="s">
-        <v>1069</v>
-      </c>
       <c r="D470" s="2" t="s">
-        <v>1070</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="471">
       <c r="A471" s="2" t="s">
-        <v>1071</v>
-      </c>
-      <c r="C471" s="7" t="s">
-        <v>1072</v>
+        <v>1069</v>
+      </c>
+      <c r="C471" s="2" t="s">
+        <v>1070</v>
       </c>
       <c r="D471" s="2" t="s">
-        <v>1073</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="472">
       <c r="A472" s="2" t="s">
-        <v>1074</v>
-      </c>
-      <c r="C472" s="7" t="s">
-        <v>1075</v>
+        <v>1071</v>
+      </c>
+      <c r="C472" s="2" t="s">
+        <v>1072</v>
       </c>
       <c r="D472" s="2" t="s">
-        <v>1076</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="473">
       <c r="A473" s="2" t="s">
-        <v>1077</v>
-      </c>
-      <c r="C473" s="7" t="s">
-        <v>1078</v>
+        <v>1073</v>
+      </c>
+      <c r="C473" s="2" t="s">
+        <v>1074</v>
       </c>
       <c r="D473" s="2" t="s">
-        <v>1079</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="474">
       <c r="A474" s="2" t="s">
-        <v>1080</v>
-      </c>
-      <c r="C474" s="7" t="s">
-        <v>1081</v>
+        <v>1075</v>
+      </c>
+      <c r="C474" s="2" t="s">
+        <v>1076</v>
       </c>
       <c r="D474" s="2" t="s">
-        <v>1079</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="475">
       <c r="A475" s="2" t="s">
-        <v>1082</v>
-      </c>
-      <c r="C475" s="7" t="s">
-        <v>1083</v>
+        <v>1077</v>
+      </c>
+      <c r="C475" s="2" t="s">
+        <v>1078</v>
       </c>
       <c r="D475" s="2" t="s">
-        <v>1084</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="476">
       <c r="A476" s="2" t="s">
-        <v>1085</v>
-      </c>
-      <c r="C476" s="7" t="s">
-        <v>1086</v>
+        <v>1079</v>
+      </c>
+      <c r="C476" s="2" t="s">
+        <v>1080</v>
       </c>
       <c r="D476" s="2" t="s">
-        <v>1079</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="477">
       <c r="A477" s="2" t="s">
-        <v>1087</v>
-      </c>
-      <c r="C477" s="7" t="s">
-        <v>1088</v>
+        <v>1081</v>
+      </c>
+      <c r="C477" s="2" t="s">
+        <v>1082</v>
       </c>
       <c r="D477" s="2" t="s">
-        <v>1079</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="478">
       <c r="A478" s="2" t="s">
-        <v>1089</v>
-      </c>
-      <c r="C478" s="7" t="s">
-        <v>1090</v>
+        <v>1083</v>
+      </c>
+      <c r="C478" s="2" t="s">
+        <v>1084</v>
       </c>
       <c r="D478" s="2" t="s">
-        <v>1091</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="479">
       <c r="A479" s="2" t="s">
-        <v>1092</v>
-      </c>
-      <c r="C479" s="7" t="s">
-        <v>1093</v>
+        <v>1085</v>
+      </c>
+      <c r="C479" s="2" t="s">
+        <v>1086</v>
       </c>
       <c r="D479" s="2" t="s">
-        <v>1094</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="480">
       <c r="A480" s="2" t="s">
-        <v>1095</v>
-      </c>
-      <c r="C480" s="7" t="s">
-        <v>1096</v>
+        <v>1088</v>
+      </c>
+      <c r="C480" s="2" t="s">
+        <v>1089</v>
       </c>
       <c r="D480" s="2" t="s">
-        <v>1091</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="481">
       <c r="A481" s="2" t="s">
-        <v>1097</v>
-      </c>
-      <c r="C481" s="7" t="s">
-        <v>1098</v>
+        <v>1090</v>
+      </c>
+      <c r="C481" s="2" t="s">
+        <v>1091</v>
       </c>
       <c r="D481" s="2" t="s">
-        <v>1091</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="482">
       <c r="A482" s="2" t="s">
-        <v>1099</v>
+        <v>1093</v>
       </c>
       <c r="C482" s="7" t="s">
-        <v>1100</v>
+        <v>1094</v>
       </c>
       <c r="D482" s="2" t="s">
-        <v>1091</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="483">
       <c r="A483" s="2" t="s">
-        <v>1101</v>
+        <v>1096</v>
       </c>
       <c r="C483" s="7" t="s">
-        <v>1102</v>
+        <v>1097</v>
       </c>
       <c r="D483" s="2" t="s">
-        <v>1091</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="484">
       <c r="A484" s="2" t="s">
-        <v>1103</v>
+        <v>1099</v>
       </c>
       <c r="C484" s="7" t="s">
-        <v>1104</v>
+        <v>1100</v>
       </c>
       <c r="D484" s="2" t="s">
-        <v>1091</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="485">
       <c r="A485" s="2" t="s">
-        <v>1105</v>
+        <v>1102</v>
       </c>
       <c r="C485" s="7" t="s">
-        <v>1106</v>
+        <v>1103</v>
       </c>
       <c r="D485" s="2" t="s">
-        <v>1091</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="486">
       <c r="A486" s="2" t="s">
+        <v>1105</v>
+      </c>
+      <c r="C486" s="7" t="s">
+        <v>1106</v>
+      </c>
+      <c r="D486" s="2" t="s">
         <v>1107</v>
-      </c>
-      <c r="C486" s="7" t="s">
-        <v>1108</v>
-      </c>
-      <c r="D486" s="2" t="s">
-        <v>1091</v>
       </c>
     </row>
     <row r="487">
       <c r="A487" s="2" t="s">
+        <v>1108</v>
+      </c>
+      <c r="C487" s="7" t="s">
         <v>1109</v>
       </c>
-      <c r="C487" s="7" t="s">
-        <v>1110</v>
-      </c>
       <c r="D487" s="2" t="s">
-        <v>1091</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="488">
       <c r="A488" s="2" t="s">
+        <v>1110</v>
+      </c>
+      <c r="C488" s="7" t="s">
         <v>1111</v>
       </c>
-      <c r="C488" s="7" t="s">
+      <c r="D488" s="2" t="s">
         <v>1112</v>
-      </c>
-      <c r="D488" s="2" t="s">
-        <v>1091</v>
       </c>
     </row>
     <row r="489">
@@ -20775,7 +20981,7 @@
         <v>1114</v>
       </c>
       <c r="D489" s="2" t="s">
-        <v>1091</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="490">
@@ -20786,7 +20992,7 @@
         <v>1116</v>
       </c>
       <c r="D490" s="2" t="s">
-        <v>1091</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="491">
@@ -20797,51 +21003,51 @@
         <v>1118</v>
       </c>
       <c r="D491" s="2" t="s">
-        <v>1091</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="492">
       <c r="A492" s="2" t="s">
-        <v>1119</v>
+        <v>1120</v>
       </c>
       <c r="C492" s="7" t="s">
-        <v>1120</v>
+        <v>1121</v>
       </c>
       <c r="D492" s="2" t="s">
-        <v>1091</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="493">
       <c r="A493" s="2" t="s">
-        <v>1121</v>
+        <v>1123</v>
       </c>
       <c r="C493" s="7" t="s">
-        <v>1122</v>
+        <v>1124</v>
       </c>
       <c r="D493" s="2" t="s">
-        <v>1123</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="494">
       <c r="A494" s="2" t="s">
-        <v>1124</v>
+        <v>1125</v>
       </c>
       <c r="C494" s="7" t="s">
-        <v>1125</v>
+        <v>1126</v>
       </c>
       <c r="D494" s="2" t="s">
-        <v>1123</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="495">
       <c r="A495" s="2" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
       <c r="C495" s="7" t="s">
-        <v>1127</v>
+        <v>1128</v>
       </c>
       <c r="D495" s="2" t="s">
-        <v>1128</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="496">
@@ -20852,7 +21058,7 @@
         <v>1130</v>
       </c>
       <c r="D496" s="2" t="s">
-        <v>1128</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="497">
@@ -20863,502 +21069,502 @@
         <v>1132</v>
       </c>
       <c r="D497" s="2" t="s">
-        <v>1133</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="498">
       <c r="A498" s="2" t="s">
+        <v>1133</v>
+      </c>
+      <c r="C498" s="7" t="s">
         <v>1134</v>
       </c>
-      <c r="C498" s="7" t="s">
-        <v>1135</v>
-      </c>
       <c r="D498" s="2" t="s">
-        <v>1128</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="499">
       <c r="A499" s="2" t="s">
+        <v>1135</v>
+      </c>
+      <c r="C499" s="7" t="s">
         <v>1136</v>
       </c>
-      <c r="C499" s="7" t="s">
-        <v>1137</v>
-      </c>
       <c r="D499" s="2" t="s">
-        <v>1133</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="500">
       <c r="A500" s="2" t="s">
+        <v>1137</v>
+      </c>
+      <c r="C500" s="7" t="s">
         <v>1138</v>
       </c>
-      <c r="C500" s="7" t="s">
-        <v>1139</v>
-      </c>
       <c r="D500" s="2" t="s">
-        <v>1133</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="501">
       <c r="A501" s="2" t="s">
+        <v>1139</v>
+      </c>
+      <c r="C501" s="7" t="s">
         <v>1140</v>
       </c>
-      <c r="C501" s="7" t="s">
-        <v>1141</v>
-      </c>
       <c r="D501" s="2" t="s">
-        <v>1128</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="502">
       <c r="A502" s="2" t="s">
+        <v>1141</v>
+      </c>
+      <c r="C502" s="7" t="s">
         <v>1142</v>
       </c>
-      <c r="C502" s="7" t="s">
-        <v>1143</v>
-      </c>
       <c r="D502" s="2" t="s">
-        <v>1128</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="503">
       <c r="A503" s="2" t="s">
+        <v>1143</v>
+      </c>
+      <c r="C503" s="7" t="s">
         <v>1144</v>
       </c>
-      <c r="C503" s="7" t="s">
-        <v>1145</v>
-      </c>
       <c r="D503" s="2" t="s">
-        <v>1128</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="504">
       <c r="A504" s="2" t="s">
+        <v>1145</v>
+      </c>
+      <c r="C504" s="7" t="s">
         <v>1146</v>
       </c>
-      <c r="C504" s="7" t="s">
-        <v>1147</v>
-      </c>
       <c r="D504" s="2" t="s">
-        <v>1133</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="505">
       <c r="A505" s="2" t="s">
+        <v>1147</v>
+      </c>
+      <c r="C505" s="7" t="s">
         <v>1148</v>
       </c>
-      <c r="C505" s="7" t="s">
-        <v>1149</v>
-      </c>
       <c r="D505" s="2" t="s">
-        <v>1128</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="506">
       <c r="A506" s="2" t="s">
+        <v>1149</v>
+      </c>
+      <c r="C506" s="7" t="s">
         <v>1150</v>
       </c>
-      <c r="C506" s="7" t="s">
+      <c r="D506" s="2" t="s">
         <v>1151</v>
-      </c>
-      <c r="D506" s="2" t="s">
-        <v>1152</v>
       </c>
     </row>
     <row r="507">
       <c r="A507" s="2" t="s">
+        <v>1152</v>
+      </c>
+      <c r="C507" s="7" t="s">
         <v>1153</v>
       </c>
-      <c r="C507" s="7" t="s">
-        <v>1154</v>
-      </c>
       <c r="D507" s="2" t="s">
-        <v>1155</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="508">
       <c r="A508" s="2" t="s">
+        <v>1154</v>
+      </c>
+      <c r="C508" s="7" t="s">
+        <v>1155</v>
+      </c>
+      <c r="D508" s="2" t="s">
         <v>1156</v>
-      </c>
-      <c r="C508" s="7" t="s">
-        <v>1157</v>
-      </c>
-      <c r="D508" s="2" t="s">
-        <v>1155</v>
       </c>
     </row>
     <row r="509">
       <c r="A509" s="2" t="s">
+        <v>1157</v>
+      </c>
+      <c r="C509" s="7" t="s">
         <v>1158</v>
       </c>
-      <c r="C509" s="7" t="s">
-        <v>1159</v>
-      </c>
       <c r="D509" s="2" t="s">
-        <v>1160</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="510">
       <c r="A510" s="2" t="s">
+        <v>1159</v>
+      </c>
+      <c r="C510" s="7" t="s">
+        <v>1160</v>
+      </c>
+      <c r="D510" s="2" t="s">
         <v>1161</v>
-      </c>
-      <c r="C510" s="7" t="s">
-        <v>1162</v>
-      </c>
-      <c r="D510" s="2" t="s">
-        <v>1163</v>
       </c>
     </row>
     <row r="511">
       <c r="A511" s="2" t="s">
-        <v>1164</v>
+        <v>1162</v>
       </c>
       <c r="C511" s="7" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="D511" s="2" t="s">
-        <v>1160</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="512">
       <c r="A512" s="2" t="s">
-        <v>1166</v>
+        <v>1164</v>
       </c>
       <c r="C512" s="7" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
       <c r="D512" s="2" t="s">
-        <v>1168</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="513">
       <c r="A513" s="2" t="s">
-        <v>1169</v>
+        <v>1166</v>
       </c>
       <c r="C513" s="7" t="s">
-        <v>1170</v>
+        <v>1167</v>
       </c>
       <c r="D513" s="2" t="s">
-        <v>1168</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="514">
       <c r="A514" s="2" t="s">
-        <v>1171</v>
+        <v>1168</v>
       </c>
       <c r="C514" s="7" t="s">
-        <v>1172</v>
+        <v>1169</v>
       </c>
       <c r="D514" s="2" t="s">
-        <v>1173</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="515">
       <c r="A515" s="2" t="s">
-        <v>1174</v>
+        <v>1170</v>
       </c>
       <c r="C515" s="7" t="s">
-        <v>1175</v>
+        <v>1171</v>
       </c>
       <c r="D515" s="2" t="s">
-        <v>1176</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="516">
       <c r="A516" s="2" t="s">
-        <v>1177</v>
+        <v>1172</v>
       </c>
       <c r="C516" s="7" t="s">
-        <v>1178</v>
+        <v>1173</v>
       </c>
       <c r="D516" s="2" t="s">
-        <v>1176</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="517">
       <c r="A517" s="2" t="s">
-        <v>1179</v>
+        <v>1174</v>
       </c>
       <c r="C517" s="7" t="s">
-        <v>1180</v>
+        <v>1175</v>
       </c>
       <c r="D517" s="2" t="s">
-        <v>1181</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="518">
       <c r="A518" s="2" t="s">
-        <v>1182</v>
+        <v>1176</v>
       </c>
       <c r="C518" s="7" t="s">
-        <v>1183</v>
+        <v>1177</v>
       </c>
       <c r="D518" s="2" t="s">
-        <v>1181</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="519">
       <c r="A519" s="2" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="C519" s="7" t="s">
-        <v>1185</v>
+        <v>1179</v>
       </c>
       <c r="D519" s="2" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="520">
       <c r="A520" s="2" t="s">
-        <v>1186</v>
+        <v>1181</v>
       </c>
       <c r="C520" s="7" t="s">
-        <v>1187</v>
+        <v>1182</v>
       </c>
       <c r="D520" s="2" t="s">
-        <v>1181</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="521">
       <c r="A521" s="2" t="s">
-        <v>1188</v>
+        <v>1184</v>
       </c>
       <c r="C521" s="7" t="s">
-        <v>1189</v>
+        <v>1185</v>
       </c>
       <c r="D521" s="2" t="s">
-        <v>1181</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="522">
       <c r="A522" s="2" t="s">
-        <v>1190</v>
+        <v>1186</v>
       </c>
       <c r="C522" s="7" t="s">
-        <v>1191</v>
+        <v>1187</v>
       </c>
       <c r="D522" s="2" t="s">
-        <v>1181</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="523">
       <c r="A523" s="2" t="s">
-        <v>1192</v>
+        <v>1189</v>
       </c>
       <c r="C523" s="7" t="s">
-        <v>1193</v>
+        <v>1190</v>
       </c>
       <c r="D523" s="2" t="s">
-        <v>1181</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="524">
       <c r="A524" s="2" t="s">
-        <v>1194</v>
+        <v>1192</v>
       </c>
       <c r="C524" s="7" t="s">
-        <v>1195</v>
+        <v>1193</v>
       </c>
       <c r="D524" s="2" t="s">
-        <v>1196</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="525">
       <c r="A525" s="2" t="s">
-        <v>1197</v>
+        <v>1194</v>
       </c>
       <c r="C525" s="7" t="s">
-        <v>1198</v>
+        <v>1195</v>
       </c>
       <c r="D525" s="2" t="s">
-        <v>1199</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="526">
       <c r="A526" s="2" t="s">
-        <v>1200</v>
+        <v>1197</v>
       </c>
       <c r="C526" s="7" t="s">
-        <v>1201</v>
+        <v>1198</v>
       </c>
       <c r="D526" s="2" t="s">
-        <v>1199</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="527">
       <c r="A527" s="2" t="s">
-        <v>1202</v>
+        <v>1199</v>
       </c>
       <c r="C527" s="7" t="s">
-        <v>1203</v>
+        <v>1200</v>
       </c>
       <c r="D527" s="2" t="s">
-        <v>1199</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="528">
       <c r="A528" s="2" t="s">
+        <v>1202</v>
+      </c>
+      <c r="C528" s="7" t="s">
+        <v>1203</v>
+      </c>
+      <c r="D528" s="2" t="s">
         <v>1204</v>
-      </c>
-      <c r="C528" s="7" t="s">
-        <v>1205</v>
-      </c>
-      <c r="D528" s="2" t="s">
-        <v>1199</v>
       </c>
     </row>
     <row r="529">
       <c r="A529" s="2" t="s">
+        <v>1205</v>
+      </c>
+      <c r="C529" s="7" t="s">
         <v>1206</v>
       </c>
-      <c r="C529" s="7" t="s">
-        <v>1207</v>
-      </c>
       <c r="D529" s="2" t="s">
-        <v>1208</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="530">
       <c r="A530" s="2" t="s">
+        <v>1207</v>
+      </c>
+      <c r="C530" s="7" t="s">
+        <v>1208</v>
+      </c>
+      <c r="D530" s="2" t="s">
         <v>1209</v>
-      </c>
-      <c r="C530" s="7" t="s">
-        <v>1210</v>
-      </c>
-      <c r="D530" s="2" t="s">
-        <v>1208</v>
       </c>
     </row>
     <row r="531">
       <c r="A531" s="2" t="s">
+        <v>1210</v>
+      </c>
+      <c r="C531" s="7" t="s">
         <v>1211</v>
       </c>
-      <c r="C531" s="7" t="s">
-        <v>1212</v>
-      </c>
       <c r="D531" s="2" t="s">
-        <v>1208</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="532">
       <c r="A532" s="2" t="s">
+        <v>1212</v>
+      </c>
+      <c r="C532" s="7" t="s">
         <v>1213</v>
       </c>
-      <c r="C532" s="7" t="s">
-        <v>1214</v>
-      </c>
       <c r="D532" s="2" t="s">
-        <v>1215</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="533">
       <c r="A533" s="2" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="C533" s="7" t="s">
-        <v>1217</v>
+        <v>1215</v>
       </c>
       <c r="D533" s="2" t="s">
-        <v>1218</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="534">
       <c r="A534" s="2" t="s">
-        <v>1219</v>
+        <v>1216</v>
       </c>
       <c r="C534" s="7" t="s">
-        <v>1220</v>
+        <v>1217</v>
       </c>
       <c r="D534" s="2" t="s">
-        <v>1218</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="535">
       <c r="A535" s="2" t="s">
-        <v>1221</v>
+        <v>1218</v>
       </c>
       <c r="C535" s="7" t="s">
-        <v>1222</v>
+        <v>1219</v>
       </c>
       <c r="D535" s="2" t="s">
-        <v>1218</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="536">
       <c r="A536" s="2" t="s">
-        <v>1223</v>
+        <v>1220</v>
       </c>
       <c r="C536" s="7" t="s">
-        <v>1224</v>
+        <v>1221</v>
       </c>
       <c r="D536" s="2" t="s">
-        <v>1218</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="537">
       <c r="A537" s="2" t="s">
-        <v>1225</v>
+        <v>1222</v>
       </c>
       <c r="C537" s="7" t="s">
-        <v>1226</v>
+        <v>1223</v>
       </c>
       <c r="D537" s="2" t="s">
-        <v>1218</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="538">
       <c r="A538" s="2" t="s">
+        <v>1225</v>
+      </c>
+      <c r="C538" s="7" t="s">
+        <v>1226</v>
+      </c>
+      <c r="D538" s="2" t="s">
         <v>1227</v>
-      </c>
-      <c r="C538" s="7" t="s">
-        <v>1228</v>
-      </c>
-      <c r="D538" s="2" t="s">
-        <v>1218</v>
       </c>
     </row>
     <row r="539">
       <c r="A539" s="2" t="s">
+        <v>1228</v>
+      </c>
+      <c r="C539" s="7" t="s">
         <v>1229</v>
       </c>
-      <c r="C539" s="7" t="s">
-        <v>1230</v>
-      </c>
       <c r="D539" s="2" t="s">
-        <v>1215</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="540">
       <c r="A540" s="2" t="s">
+        <v>1230</v>
+      </c>
+      <c r="C540" s="7" t="s">
         <v>1231</v>
       </c>
-      <c r="C540" s="7" t="s">
-        <v>1232</v>
-      </c>
       <c r="D540" s="2" t="s">
-        <v>1215</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="541">
       <c r="A541" s="2" t="s">
+        <v>1232</v>
+      </c>
+      <c r="C541" s="7" t="s">
         <v>1233</v>
       </c>
-      <c r="C541" s="7" t="s">
-        <v>1234</v>
-      </c>
       <c r="D541" s="2" t="s">
-        <v>1215</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="542">
       <c r="A542" s="2" t="s">
+        <v>1234</v>
+      </c>
+      <c r="C542" s="7" t="s">
         <v>1235</v>
       </c>
-      <c r="C542" s="7" t="s">
+      <c r="D542" s="2" t="s">
         <v>1236</v>
-      </c>
-      <c r="D542" s="2" t="s">
-        <v>1215</v>
       </c>
     </row>
     <row r="543">
@@ -21369,7 +21575,7 @@
         <v>1238</v>
       </c>
       <c r="D543" s="2" t="s">
-        <v>1215</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="544">
@@ -21380,7 +21586,7 @@
         <v>1240</v>
       </c>
       <c r="D544" s="2" t="s">
-        <v>1215</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="545">
@@ -21413,147 +21619,147 @@
         <v>1248</v>
       </c>
       <c r="D547" s="2" t="s">
-        <v>1249</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="548">
       <c r="A548" s="2" t="s">
+        <v>1249</v>
+      </c>
+      <c r="C548" s="7" t="s">
         <v>1250</v>
       </c>
-      <c r="C548" s="7" t="s">
-        <v>1251</v>
-      </c>
       <c r="D548" s="2" t="s">
-        <v>1252</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="549">
       <c r="A549" s="2" t="s">
-        <v>1253</v>
+        <v>1251</v>
       </c>
       <c r="C549" s="7" t="s">
-        <v>1254</v>
+        <v>1252</v>
       </c>
       <c r="D549" s="2" t="s">
-        <v>1255</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="550">
       <c r="A550" s="2" t="s">
-        <v>1256</v>
+        <v>1253</v>
       </c>
       <c r="C550" s="7" t="s">
-        <v>1257</v>
+        <v>1254</v>
       </c>
       <c r="D550" s="2" t="s">
-        <v>1258</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="551">
       <c r="A551" s="2" t="s">
-        <v>1259</v>
+        <v>1255</v>
       </c>
       <c r="C551" s="7" t="s">
-        <v>1260</v>
+        <v>1256</v>
       </c>
       <c r="D551" s="2" t="s">
-        <v>1258</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="552">
       <c r="A552" s="2" t="s">
-        <v>1261</v>
+        <v>1257</v>
       </c>
       <c r="C552" s="7" t="s">
-        <v>1262</v>
+        <v>1258</v>
       </c>
       <c r="D552" s="2" t="s">
-        <v>1258</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="553">
       <c r="A553" s="2" t="s">
-        <v>1263</v>
+        <v>1259</v>
       </c>
       <c r="C553" s="7" t="s">
-        <v>1264</v>
+        <v>1260</v>
       </c>
       <c r="D553" s="2" t="s">
-        <v>1258</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="554">
       <c r="A554" s="2" t="s">
-        <v>1265</v>
+        <v>1261</v>
       </c>
       <c r="C554" s="7" t="s">
-        <v>1266</v>
+        <v>1262</v>
       </c>
       <c r="D554" s="2" t="s">
-        <v>1258</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="555">
       <c r="A555" s="2" t="s">
-        <v>1267</v>
+        <v>1263</v>
       </c>
       <c r="C555" s="7" t="s">
-        <v>1268</v>
+        <v>1264</v>
       </c>
       <c r="D555" s="2" t="s">
-        <v>1258</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="556">
       <c r="A556" s="2" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="C556" s="7" t="s">
-        <v>1270</v>
+        <v>1266</v>
       </c>
       <c r="D556" s="2" t="s">
-        <v>1258</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="557">
       <c r="A557" s="2" t="s">
-        <v>1271</v>
+        <v>1267</v>
       </c>
       <c r="C557" s="7" t="s">
-        <v>1272</v>
+        <v>1268</v>
       </c>
       <c r="D557" s="2" t="s">
-        <v>130</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="558">
       <c r="A558" s="2" t="s">
-        <v>1273</v>
+        <v>1269</v>
       </c>
       <c r="C558" s="7" t="s">
-        <v>1274</v>
+        <v>1270</v>
       </c>
       <c r="D558" s="2" t="s">
-        <v>130</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="559">
       <c r="A559" s="2" t="s">
-        <v>1275</v>
+        <v>1272</v>
       </c>
       <c r="C559" s="7" t="s">
-        <v>1276</v>
+        <v>1273</v>
       </c>
       <c r="D559" s="2" t="s">
-        <v>1277</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="560">
       <c r="A560" s="2" t="s">
-        <v>1278</v>
+        <v>1275</v>
       </c>
       <c r="C560" s="7" t="s">
-        <v>1279</v>
+        <v>1276</v>
       </c>
       <c r="D560" s="2" t="s">
         <v>1277</v>
@@ -21561,288 +21767,288 @@
     </row>
     <row r="561">
       <c r="A561" s="2" t="s">
+        <v>1278</v>
+      </c>
+      <c r="C561" s="7" t="s">
+        <v>1279</v>
+      </c>
+      <c r="D561" s="2" t="s">
         <v>1280</v>
-      </c>
-      <c r="C561" s="7" t="s">
-        <v>1281</v>
-      </c>
-      <c r="D561" s="2" t="s">
-        <v>1282</v>
       </c>
     </row>
     <row r="562">
       <c r="A562" s="2" t="s">
+        <v>1281</v>
+      </c>
+      <c r="C562" s="7" t="s">
+        <v>1282</v>
+      </c>
+      <c r="D562" s="2" t="s">
         <v>1283</v>
-      </c>
-      <c r="C562" s="7" t="s">
-        <v>1284</v>
-      </c>
-      <c r="D562" s="2" t="s">
-        <v>1285</v>
       </c>
     </row>
     <row r="563">
       <c r="A563" s="2" t="s">
+        <v>1284</v>
+      </c>
+      <c r="C563" s="7" t="s">
+        <v>1285</v>
+      </c>
+      <c r="D563" s="2" t="s">
         <v>1286</v>
-      </c>
-      <c r="C563" s="7" t="s">
-        <v>1287</v>
-      </c>
-      <c r="D563" s="2" t="s">
-        <v>1258</v>
       </c>
     </row>
     <row r="564">
       <c r="A564" s="2" t="s">
+        <v>1287</v>
+      </c>
+      <c r="C564" s="7" t="s">
         <v>1288</v>
       </c>
-      <c r="C564" s="7" t="s">
-        <v>1289</v>
-      </c>
       <c r="D564" s="2" t="s">
-        <v>1258</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="565">
       <c r="A565" s="2" t="s">
+        <v>1289</v>
+      </c>
+      <c r="C565" s="7" t="s">
         <v>1290</v>
       </c>
-      <c r="C565" s="7" t="s">
-        <v>1291</v>
-      </c>
       <c r="D565" s="2" t="s">
-        <v>1258</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="566">
       <c r="A566" s="2" t="s">
+        <v>1291</v>
+      </c>
+      <c r="C566" s="7" t="s">
         <v>1292</v>
       </c>
-      <c r="C566" s="7" t="s">
-        <v>1293</v>
-      </c>
       <c r="D566" s="2" t="s">
-        <v>1258</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="567">
       <c r="A567" s="2" t="s">
+        <v>1293</v>
+      </c>
+      <c r="C567" s="7" t="s">
         <v>1294</v>
       </c>
-      <c r="C567" s="7" t="s">
-        <v>1295</v>
-      </c>
       <c r="D567" s="2" t="s">
-        <v>1258</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="568">
       <c r="A568" s="2" t="s">
+        <v>1295</v>
+      </c>
+      <c r="C568" s="7" t="s">
         <v>1296</v>
       </c>
-      <c r="C568" s="7" t="s">
-        <v>1297</v>
-      </c>
       <c r="D568" s="2" t="s">
-        <v>1258</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="569">
       <c r="A569" s="2" t="s">
+        <v>1297</v>
+      </c>
+      <c r="C569" s="7" t="s">
         <v>1298</v>
       </c>
-      <c r="C569" s="7" t="s">
-        <v>1299</v>
-      </c>
       <c r="D569" s="2" t="s">
-        <v>1258</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="570">
       <c r="A570" s="2" t="s">
+        <v>1299</v>
+      </c>
+      <c r="C570" s="7" t="s">
         <v>1300</v>
       </c>
-      <c r="C570" s="7" t="s">
-        <v>1301</v>
-      </c>
       <c r="D570" s="2" t="s">
-        <v>1302</v>
+        <v>130</v>
       </c>
     </row>
     <row r="571">
       <c r="A571" s="2" t="s">
-        <v>1303</v>
+        <v>1301</v>
       </c>
       <c r="C571" s="7" t="s">
-        <v>1304</v>
+        <v>1302</v>
       </c>
       <c r="D571" s="2" t="s">
-        <v>1302</v>
+        <v>130</v>
       </c>
     </row>
     <row r="572">
       <c r="A572" s="2" t="s">
+        <v>1303</v>
+      </c>
+      <c r="C572" s="7" t="s">
+        <v>1304</v>
+      </c>
+      <c r="D572" s="2" t="s">
         <v>1305</v>
-      </c>
-      <c r="C572" s="7" t="s">
-        <v>1306</v>
-      </c>
-      <c r="D572" s="2" t="s">
-        <v>1302</v>
       </c>
     </row>
     <row r="573">
       <c r="A573" s="2" t="s">
+        <v>1306</v>
+      </c>
+      <c r="C573" s="7" t="s">
         <v>1307</v>
       </c>
-      <c r="C573" s="7" t="s">
-        <v>1308</v>
-      </c>
       <c r="D573" s="2" t="s">
-        <v>1309</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="574">
       <c r="A574" s="2" t="s">
+        <v>1308</v>
+      </c>
+      <c r="C574" s="7" t="s">
+        <v>1309</v>
+      </c>
+      <c r="D574" s="2" t="s">
         <v>1310</v>
-      </c>
-      <c r="C574" s="7" t="s">
-        <v>1311</v>
-      </c>
-      <c r="D574" s="2" t="s">
-        <v>1302</v>
       </c>
     </row>
     <row r="575">
       <c r="A575" s="2" t="s">
+        <v>1311</v>
+      </c>
+      <c r="C575" s="7" t="s">
         <v>1312</v>
       </c>
-      <c r="C575" s="7" t="s">
+      <c r="D575" s="2" t="s">
         <v>1313</v>
-      </c>
-      <c r="D575" s="2" t="s">
-        <v>1314</v>
       </c>
     </row>
     <row r="576">
       <c r="A576" s="2" t="s">
+        <v>1314</v>
+      </c>
+      <c r="C576" s="7" t="s">
         <v>1315</v>
       </c>
-      <c r="C576" s="7" t="s">
-        <v>1316</v>
-      </c>
       <c r="D576" s="2" t="s">
-        <v>1317</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="577">
       <c r="A577" s="2" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="C577" s="7" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="D577" s="2" t="s">
-        <v>1317</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="578">
       <c r="A578" s="2" t="s">
-        <v>1320</v>
+        <v>1318</v>
       </c>
       <c r="C578" s="7" t="s">
-        <v>1321</v>
+        <v>1319</v>
       </c>
       <c r="D578" s="2" t="s">
-        <v>1317</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="579">
       <c r="A579" s="2" t="s">
-        <v>1322</v>
+        <v>1320</v>
       </c>
       <c r="C579" s="7" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="D579" s="2" t="s">
-        <v>1317</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="580">
       <c r="A580" s="2" t="s">
-        <v>1324</v>
+        <v>1322</v>
       </c>
       <c r="C580" s="7" t="s">
-        <v>1325</v>
+        <v>1323</v>
       </c>
       <c r="D580" s="2" t="s">
-        <v>1317</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="581">
       <c r="A581" s="2" t="s">
-        <v>1326</v>
+        <v>1324</v>
       </c>
       <c r="C581" s="7" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="D581" s="2" t="s">
-        <v>1317</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="582">
       <c r="A582" s="2" t="s">
-        <v>1328</v>
+        <v>1326</v>
       </c>
       <c r="C582" s="7" t="s">
-        <v>1329</v>
+        <v>1327</v>
       </c>
       <c r="D582" s="2" t="s">
-        <v>1317</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="583">
       <c r="A583" s="2" t="s">
+        <v>1328</v>
+      </c>
+      <c r="C583" s="7" t="s">
+        <v>1329</v>
+      </c>
+      <c r="D583" s="2" t="s">
         <v>1330</v>
-      </c>
-      <c r="C583" s="7" t="s">
-        <v>1331</v>
-      </c>
-      <c r="D583" s="2" t="s">
-        <v>1317</v>
       </c>
     </row>
     <row r="584">
       <c r="A584" s="2" t="s">
+        <v>1331</v>
+      </c>
+      <c r="C584" s="7" t="s">
         <v>1332</v>
       </c>
-      <c r="C584" s="7" t="s">
-        <v>1333</v>
-      </c>
       <c r="D584" s="2" t="s">
-        <v>1317</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="585">
       <c r="A585" s="2" t="s">
+        <v>1333</v>
+      </c>
+      <c r="C585" s="7" t="s">
         <v>1334</v>
       </c>
-      <c r="C585" s="7" t="s">
-        <v>1335</v>
-      </c>
       <c r="D585" s="2" t="s">
-        <v>1317</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="586">
       <c r="A586" s="2" t="s">
+        <v>1335</v>
+      </c>
+      <c r="C586" s="7" t="s">
         <v>1336</v>
       </c>
-      <c r="C586" s="7" t="s">
+      <c r="D586" s="2" t="s">
         <v>1337</v>
-      </c>
-      <c r="D586" s="2" t="s">
-        <v>1317</v>
       </c>
     </row>
     <row r="587">
@@ -21853,7 +22059,7 @@
         <v>1339</v>
       </c>
       <c r="D587" s="2" t="s">
-        <v>1317</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="588">
@@ -21886,368 +22092,370 @@
         <v>1347</v>
       </c>
       <c r="D590" s="2" t="s">
-        <v>1348</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="591">
       <c r="A591" s="2" t="s">
+        <v>1348</v>
+      </c>
+      <c r="C591" s="7" t="s">
         <v>1349</v>
       </c>
-      <c r="C591" s="7" t="s">
-        <v>1350</v>
-      </c>
       <c r="D591" s="2" t="s">
-        <v>1348</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="592">
       <c r="A592" s="2" t="s">
+        <v>1350</v>
+      </c>
+      <c r="C592" s="7" t="s">
         <v>1351</v>
       </c>
-      <c r="C592" s="7" t="s">
-        <v>1352</v>
-      </c>
       <c r="D592" s="2" t="s">
-        <v>1348</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="593">
       <c r="A593" s="2" t="s">
+        <v>1352</v>
+      </c>
+      <c r="C593" s="7" t="s">
         <v>1353</v>
       </c>
-      <c r="C593" s="7" t="s">
-        <v>1354</v>
-      </c>
       <c r="D593" s="2" t="s">
-        <v>1348</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="594">
       <c r="A594" s="2" t="s">
+        <v>1354</v>
+      </c>
+      <c r="C594" s="7" t="s">
         <v>1355</v>
       </c>
-      <c r="C594" s="7" t="s">
-        <v>1356</v>
-      </c>
       <c r="D594" s="2" t="s">
-        <v>1348</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="595">
       <c r="A595" s="2" t="s">
+        <v>1356</v>
+      </c>
+      <c r="C595" s="7" t="s">
         <v>1357</v>
       </c>
-      <c r="C595" s="7" t="s">
-        <v>1358</v>
-      </c>
       <c r="D595" s="2" t="s">
-        <v>1359</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="596">
       <c r="A596" s="2" t="s">
-        <v>1360</v>
+        <v>1358</v>
       </c>
       <c r="C596" s="7" t="s">
-        <v>1361</v>
+        <v>1359</v>
       </c>
       <c r="D596" s="2" t="s">
-        <v>1359</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="597">
       <c r="A597" s="2" t="s">
-        <v>1362</v>
+        <v>1360</v>
       </c>
       <c r="C597" s="7" t="s">
-        <v>1363</v>
+        <v>1361</v>
       </c>
       <c r="D597" s="2" t="s">
-        <v>1359</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="598">
       <c r="A598" s="2" t="s">
-        <v>1364</v>
+        <v>1362</v>
       </c>
       <c r="C598" s="7" t="s">
-        <v>1365</v>
+        <v>1363</v>
       </c>
       <c r="D598" s="2" t="s">
-        <v>1366</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="599">
       <c r="A599" s="2" t="s">
-        <v>1367</v>
+        <v>1364</v>
       </c>
       <c r="C599" s="7" t="s">
-        <v>1368</v>
+        <v>1365</v>
       </c>
       <c r="D599" s="2" t="s">
-        <v>1369</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="600">
       <c r="A600" s="2" t="s">
-        <v>1370</v>
+        <v>1366</v>
       </c>
       <c r="C600" s="7" t="s">
-        <v>1371</v>
+        <v>1367</v>
       </c>
       <c r="D600" s="2" t="s">
-        <v>1372</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="601">
       <c r="A601" s="2" t="s">
-        <v>1373</v>
+        <v>1368</v>
       </c>
       <c r="C601" s="7" t="s">
-        <v>1374</v>
+        <v>1369</v>
       </c>
       <c r="D601" s="2" t="s">
-        <v>1372</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="602">
       <c r="A602" s="2" t="s">
-        <v>1375</v>
+        <v>1371</v>
       </c>
       <c r="C602" s="7" t="s">
-        <v>1376</v>
+        <v>1372</v>
       </c>
       <c r="D602" s="2" t="s">
-        <v>1377</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="603">
       <c r="A603" s="2" t="s">
-        <v>1378</v>
+        <v>1374</v>
       </c>
       <c r="C603" s="7" t="s">
-        <v>1379</v>
+        <v>1375</v>
       </c>
       <c r="D603" s="2" t="s">
-        <v>1380</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="604">
       <c r="A604" s="2" t="s">
-        <v>1381</v>
+        <v>1377</v>
       </c>
       <c r="C604" s="7" t="s">
-        <v>1382</v>
+        <v>1378</v>
       </c>
       <c r="D604" s="2" t="s">
-        <v>1383</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="605">
       <c r="A605" s="2" t="s">
-        <v>1384</v>
+        <v>1379</v>
       </c>
       <c r="C605" s="7" t="s">
-        <v>1385</v>
+        <v>1380</v>
       </c>
       <c r="D605" s="2" t="s">
-        <v>1386</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="606">
       <c r="A606" s="2" t="s">
-        <v>1387</v>
+        <v>1381</v>
       </c>
       <c r="C606" s="7" t="s">
-        <v>1388</v>
+        <v>1382</v>
       </c>
       <c r="D606" s="2" t="s">
-        <v>1386</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="607">
       <c r="A607" s="2" t="s">
-        <v>1389</v>
+        <v>1383</v>
       </c>
       <c r="C607" s="7" t="s">
-        <v>1390</v>
+        <v>1384</v>
       </c>
       <c r="D607" s="2" t="s">
-        <v>1386</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="608">
       <c r="A608" s="2" t="s">
-        <v>1391</v>
+        <v>1385</v>
       </c>
       <c r="C608" s="7" t="s">
-        <v>1392</v>
+        <v>1386</v>
       </c>
       <c r="D608" s="2" t="s">
-        <v>1386</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="609">
       <c r="A609" s="2" t="s">
-        <v>1393</v>
+        <v>1388</v>
       </c>
       <c r="C609" s="7" t="s">
-        <v>1394</v>
+        <v>1389</v>
       </c>
       <c r="D609" s="2" t="s">
-        <v>1386</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="610">
       <c r="A610" s="2" t="s">
-        <v>1395</v>
+        <v>1390</v>
       </c>
       <c r="C610" s="7" t="s">
-        <v>1396</v>
+        <v>1391</v>
       </c>
       <c r="D610" s="2" t="s">
-        <v>1397</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="611">
       <c r="A611" s="2" t="s">
-        <v>1398</v>
+        <v>1392</v>
       </c>
       <c r="C611" s="7" t="s">
-        <v>1399</v>
+        <v>1393</v>
       </c>
       <c r="D611" s="2" t="s">
-        <v>529</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="612">
       <c r="A612" s="2" t="s">
-        <v>1400</v>
+        <v>1395</v>
       </c>
       <c r="C612" s="7" t="s">
-        <v>1401</v>
+        <v>1396</v>
       </c>
       <c r="D612" s="2" t="s">
-        <v>1402</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="613">
       <c r="A613" s="2" t="s">
-        <v>1403</v>
+        <v>1398</v>
       </c>
       <c r="C613" s="7" t="s">
-        <v>1404</v>
+        <v>1399</v>
       </c>
       <c r="D613" s="2" t="s">
-        <v>1405</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="614">
       <c r="A614" s="2" t="s">
-        <v>1406</v>
+        <v>1401</v>
       </c>
       <c r="C614" s="7" t="s">
-        <v>1407</v>
+        <v>1402</v>
       </c>
       <c r="D614" s="2" t="s">
-        <v>1402</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="615">
       <c r="A615" s="2" t="s">
-        <v>1408</v>
+        <v>1403</v>
       </c>
       <c r="C615" s="7" t="s">
-        <v>1409</v>
+        <v>1404</v>
       </c>
       <c r="D615" s="2" t="s">
-        <v>1402</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="616">
       <c r="A616" s="2" t="s">
-        <v>1410</v>
+        <v>1406</v>
       </c>
       <c r="C616" s="7" t="s">
-        <v>1411</v>
+        <v>1407</v>
       </c>
       <c r="D616" s="2" t="s">
-        <v>1402</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="617">
       <c r="A617" s="2" t="s">
-        <v>1412</v>
+        <v>1409</v>
       </c>
       <c r="C617" s="7" t="s">
-        <v>1413</v>
+        <v>1410</v>
       </c>
       <c r="D617" s="2" t="s">
-        <v>1402</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="618">
       <c r="A618" s="2" t="s">
+        <v>1412</v>
+      </c>
+      <c r="C618" s="7" t="s">
+        <v>1413</v>
+      </c>
+      <c r="D618" s="2" t="s">
         <v>1414</v>
       </c>
-      <c r="C618" s="7" t="s">
-        <v>1415</v>
-      </c>
-      <c r="D618" s="2"/>
     </row>
     <row r="619">
       <c r="A619" s="2" t="s">
+        <v>1415</v>
+      </c>
+      <c r="C619" s="7" t="s">
         <v>1416</v>
       </c>
-      <c r="C619" s="7" t="s">
-        <v>1417</v>
-      </c>
       <c r="D619" s="2" t="s">
-        <v>1402</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="620">
       <c r="A620" s="2" t="s">
+        <v>1417</v>
+      </c>
+      <c r="C620" s="7" t="s">
         <v>1418</v>
       </c>
-      <c r="C620" s="7" t="s">
-        <v>1419</v>
-      </c>
       <c r="D620" s="2" t="s">
-        <v>1402</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="621">
       <c r="A621" s="2" t="s">
+        <v>1419</v>
+      </c>
+      <c r="C621" s="7" t="s">
         <v>1420</v>
       </c>
-      <c r="C621" s="7" t="s">
-        <v>1421</v>
-      </c>
       <c r="D621" s="2" t="s">
-        <v>1405</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="622">
       <c r="A622" s="2" t="s">
+        <v>1421</v>
+      </c>
+      <c r="C622" s="7" t="s">
         <v>1422</v>
       </c>
-      <c r="C622" s="7" t="s">
-        <v>1423</v>
-      </c>
       <c r="D622" s="2" t="s">
-        <v>1405</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="623">
       <c r="A623" s="2" t="s">
+        <v>1423</v>
+      </c>
+      <c r="C623" s="7" t="s">
         <v>1424</v>
       </c>
-      <c r="C623" s="7" t="s">
+      <c r="D623" s="2" t="s">
         <v>1425</v>
-      </c>
-      <c r="D623" s="2" t="s">
-        <v>1405</v>
       </c>
     </row>
     <row r="624">
@@ -22258,7 +22466,7 @@
         <v>1427</v>
       </c>
       <c r="D624" s="2" t="s">
-        <v>1405</v>
+        <v>529</v>
       </c>
     </row>
     <row r="625">
@@ -22269,1151 +22477,1149 @@
         <v>1429</v>
       </c>
       <c r="D625" s="2" t="s">
-        <v>1402</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="626">
       <c r="A626" s="2" t="s">
-        <v>1430</v>
+        <v>1431</v>
       </c>
       <c r="C626" s="7" t="s">
-        <v>1431</v>
+        <v>1432</v>
       </c>
       <c r="D626" s="2" t="s">
-        <v>1402</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="627">
       <c r="A627" s="2" t="s">
-        <v>1432</v>
+        <v>1434</v>
       </c>
       <c r="C627" s="7" t="s">
-        <v>1433</v>
+        <v>1435</v>
       </c>
       <c r="D627" s="2" t="s">
-        <v>1402</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="628">
       <c r="A628" s="2" t="s">
-        <v>1434</v>
+        <v>1436</v>
       </c>
       <c r="C628" s="7" t="s">
-        <v>1435</v>
+        <v>1437</v>
       </c>
       <c r="D628" s="2" t="s">
-        <v>1402</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="629">
       <c r="A629" s="2" t="s">
-        <v>1436</v>
+        <v>1438</v>
       </c>
       <c r="C629" s="7" t="s">
-        <v>1437</v>
+        <v>1439</v>
       </c>
       <c r="D629" s="2" t="s">
-        <v>1402</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="630">
       <c r="A630" s="2" t="s">
-        <v>1438</v>
+        <v>1440</v>
       </c>
       <c r="C630" s="7" t="s">
-        <v>1439</v>
+        <v>1441</v>
       </c>
       <c r="D630" s="2" t="s">
-        <v>1402</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="631">
       <c r="A631" s="2" t="s">
-        <v>1440</v>
+        <v>1442</v>
       </c>
       <c r="C631" s="7" t="s">
-        <v>1441</v>
-      </c>
-      <c r="D631" s="2" t="s">
-        <v>1402</v>
-      </c>
+        <v>1443</v>
+      </c>
+      <c r="D631" s="2"/>
     </row>
     <row r="632">
       <c r="A632" s="2" t="s">
-        <v>1442</v>
+        <v>1444</v>
       </c>
       <c r="C632" s="7" t="s">
-        <v>1443</v>
+        <v>1445</v>
       </c>
       <c r="D632" s="2" t="s">
-        <v>1402</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="633">
       <c r="A633" s="2" t="s">
-        <v>1444</v>
+        <v>1446</v>
       </c>
       <c r="C633" s="7" t="s">
-        <v>1445</v>
+        <v>1447</v>
       </c>
       <c r="D633" s="2" t="s">
-        <v>1402</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="634">
       <c r="A634" s="2" t="s">
-        <v>1446</v>
+        <v>1448</v>
       </c>
       <c r="C634" s="7" t="s">
-        <v>1447</v>
+        <v>1449</v>
       </c>
       <c r="D634" s="2" t="s">
-        <v>1402</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="635">
       <c r="A635" s="2" t="s">
-        <v>1448</v>
+        <v>1450</v>
       </c>
       <c r="C635" s="7" t="s">
-        <v>1449</v>
+        <v>1451</v>
       </c>
       <c r="D635" s="2" t="s">
-        <v>1402</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="636">
       <c r="A636" s="2" t="s">
-        <v>1450</v>
+        <v>1452</v>
       </c>
       <c r="C636" s="7" t="s">
-        <v>1451</v>
+        <v>1453</v>
       </c>
       <c r="D636" s="2" t="s">
-        <v>1402</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="637">
       <c r="A637" s="2" t="s">
-        <v>1452</v>
+        <v>1454</v>
       </c>
       <c r="C637" s="7" t="s">
-        <v>1453</v>
+        <v>1455</v>
       </c>
       <c r="D637" s="2" t="s">
-        <v>1402</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="638">
       <c r="A638" s="2" t="s">
-        <v>1454</v>
+        <v>1456</v>
       </c>
       <c r="C638" s="7" t="s">
-        <v>1455</v>
+        <v>1457</v>
       </c>
       <c r="D638" s="2" t="s">
-        <v>1456</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="639">
       <c r="A639" s="2" t="s">
-        <v>1457</v>
+        <v>1458</v>
       </c>
       <c r="C639" s="7" t="s">
-        <v>1458</v>
+        <v>1459</v>
       </c>
       <c r="D639" s="2" t="s">
-        <v>1456</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="640">
       <c r="A640" s="2" t="s">
-        <v>1459</v>
+        <v>1460</v>
       </c>
       <c r="C640" s="7" t="s">
-        <v>1460</v>
+        <v>1461</v>
       </c>
       <c r="D640" s="2" t="s">
-        <v>1456</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="641">
       <c r="A641" s="2" t="s">
-        <v>1461</v>
+        <v>1462</v>
       </c>
       <c r="C641" s="7" t="s">
-        <v>1462</v>
+        <v>1463</v>
       </c>
       <c r="D641" s="2" t="s">
-        <v>1402</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="642">
       <c r="A642" s="2" t="s">
-        <v>1463</v>
+        <v>1464</v>
       </c>
       <c r="C642" s="7" t="s">
-        <v>1464</v>
+        <v>1465</v>
       </c>
       <c r="D642" s="2" t="s">
-        <v>1402</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="643">
       <c r="A643" s="2" t="s">
-        <v>1465</v>
+        <v>1466</v>
       </c>
       <c r="C643" s="7" t="s">
-        <v>1466</v>
+        <v>1467</v>
       </c>
       <c r="D643" s="2" t="s">
-        <v>1402</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="644">
       <c r="A644" s="2" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C644" s="7" t="s">
-        <v>1468</v>
+        <v>1469</v>
       </c>
       <c r="D644" s="2" t="s">
-        <v>1402</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="645">
       <c r="A645" s="2" t="s">
-        <v>1469</v>
+        <v>1470</v>
       </c>
       <c r="C645" s="7" t="s">
-        <v>1470</v>
+        <v>1471</v>
       </c>
       <c r="D645" s="2" t="s">
-        <v>1402</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="646">
       <c r="A646" s="2" t="s">
-        <v>1471</v>
+        <v>1472</v>
       </c>
       <c r="C646" s="7" t="s">
-        <v>1472</v>
+        <v>1473</v>
       </c>
       <c r="D646" s="2" t="s">
-        <v>1402</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="647">
       <c r="A647" s="2" t="s">
-        <v>1473</v>
+        <v>1474</v>
       </c>
       <c r="C647" s="7" t="s">
-        <v>1474</v>
+        <v>1475</v>
       </c>
       <c r="D647" s="2" t="s">
-        <v>1402</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="648">
       <c r="A648" s="2" t="s">
-        <v>1475</v>
+        <v>1476</v>
       </c>
       <c r="C648" s="7" t="s">
-        <v>1476</v>
+        <v>1477</v>
       </c>
       <c r="D648" s="2" t="s">
-        <v>1402</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="649">
       <c r="A649" s="2" t="s">
-        <v>1477</v>
+        <v>1478</v>
       </c>
       <c r="C649" s="7" t="s">
-        <v>1478</v>
+        <v>1479</v>
       </c>
       <c r="D649" s="2" t="s">
-        <v>1402</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="650">
       <c r="A650" s="2" t="s">
-        <v>1479</v>
+        <v>1480</v>
       </c>
       <c r="C650" s="7" t="s">
-        <v>1480</v>
+        <v>1481</v>
       </c>
       <c r="D650" s="2" t="s">
-        <v>1402</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="651">
       <c r="A651" s="2" t="s">
-        <v>1481</v>
+        <v>1482</v>
       </c>
       <c r="C651" s="7" t="s">
-        <v>1482</v>
+        <v>1483</v>
       </c>
       <c r="D651" s="2" t="s">
-        <v>1402</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="652">
       <c r="A652" s="2" t="s">
-        <v>1483</v>
+        <v>1485</v>
       </c>
       <c r="C652" s="7" t="s">
+        <v>1486</v>
+      </c>
+      <c r="D652" s="2" t="s">
         <v>1484</v>
-      </c>
-      <c r="D652" s="2" t="s">
-        <v>1402</v>
       </c>
     </row>
     <row r="653">
       <c r="A653" s="2" t="s">
-        <v>1485</v>
+        <v>1487</v>
       </c>
       <c r="C653" s="7" t="s">
-        <v>1486</v>
+        <v>1488</v>
       </c>
       <c r="D653" s="2" t="s">
-        <v>1402</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="654">
       <c r="A654" s="2" t="s">
-        <v>1487</v>
+        <v>1489</v>
       </c>
       <c r="C654" s="7" t="s">
-        <v>1488</v>
+        <v>1490</v>
       </c>
       <c r="D654" s="2" t="s">
-        <v>1402</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="655">
       <c r="A655" s="2" t="s">
-        <v>1489</v>
+        <v>1491</v>
       </c>
       <c r="C655" s="7" t="s">
-        <v>1490</v>
+        <v>1492</v>
       </c>
       <c r="D655" s="2" t="s">
-        <v>1402</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="656">
       <c r="A656" s="2" t="s">
-        <v>1491</v>
+        <v>1493</v>
       </c>
       <c r="C656" s="7" t="s">
-        <v>1492</v>
+        <v>1494</v>
       </c>
       <c r="D656" s="2" t="s">
-        <v>1402</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="657">
       <c r="A657" s="2" t="s">
-        <v>1493</v>
+        <v>1495</v>
       </c>
       <c r="C657" s="7" t="s">
-        <v>1494</v>
+        <v>1496</v>
       </c>
       <c r="D657" s="2" t="s">
-        <v>1402</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="658">
       <c r="A658" s="2" t="s">
-        <v>1495</v>
+        <v>1497</v>
       </c>
       <c r="C658" s="7" t="s">
-        <v>1496</v>
+        <v>1498</v>
       </c>
       <c r="D658" s="2" t="s">
-        <v>1402</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="659">
       <c r="A659" s="2" t="s">
-        <v>1497</v>
+        <v>1499</v>
       </c>
       <c r="C659" s="7" t="s">
-        <v>1498</v>
+        <v>1500</v>
       </c>
       <c r="D659" s="2" t="s">
-        <v>1402</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="660">
       <c r="A660" s="2" t="s">
-        <v>1499</v>
+        <v>1501</v>
       </c>
       <c r="C660" s="7" t="s">
-        <v>1500</v>
+        <v>1502</v>
       </c>
       <c r="D660" s="2" t="s">
-        <v>1402</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="661">
       <c r="A661" s="2" t="s">
-        <v>1501</v>
+        <v>1503</v>
       </c>
       <c r="C661" s="7" t="s">
-        <v>1502</v>
+        <v>1504</v>
       </c>
       <c r="D661" s="2" t="s">
-        <v>1402</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="662">
       <c r="A662" s="2" t="s">
-        <v>1503</v>
+        <v>1505</v>
       </c>
       <c r="C662" s="7" t="s">
-        <v>1504</v>
+        <v>1506</v>
       </c>
       <c r="D662" s="2" t="s">
-        <v>1402</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="663">
       <c r="A663" s="2" t="s">
-        <v>1505</v>
+        <v>1507</v>
       </c>
       <c r="C663" s="7" t="s">
-        <v>1506</v>
+        <v>1508</v>
       </c>
       <c r="D663" s="2" t="s">
-        <v>1402</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="664">
       <c r="A664" s="2" t="s">
-        <v>1507</v>
+        <v>1509</v>
       </c>
       <c r="C664" s="7" t="s">
-        <v>1508</v>
+        <v>1510</v>
       </c>
       <c r="D664" s="2" t="s">
-        <v>1402</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="665">
       <c r="A665" s="2" t="s">
-        <v>1509</v>
+        <v>1511</v>
       </c>
       <c r="C665" s="7" t="s">
-        <v>1510</v>
+        <v>1512</v>
       </c>
       <c r="D665" s="2" t="s">
-        <v>1405</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="666">
       <c r="A666" s="2" t="s">
-        <v>1511</v>
+        <v>1513</v>
       </c>
       <c r="C666" s="7" t="s">
-        <v>1512</v>
+        <v>1514</v>
       </c>
       <c r="D666" s="2" t="s">
-        <v>1405</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="667">
       <c r="A667" s="2" t="s">
-        <v>1513</v>
+        <v>1515</v>
       </c>
       <c r="C667" s="7" t="s">
-        <v>1514</v>
+        <v>1516</v>
       </c>
       <c r="D667" s="2" t="s">
-        <v>1405</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="668">
       <c r="A668" s="2" t="s">
-        <v>1515</v>
+        <v>1517</v>
       </c>
       <c r="C668" s="7" t="s">
-        <v>1516</v>
+        <v>1518</v>
       </c>
       <c r="D668" s="2" t="s">
-        <v>1405</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="669">
       <c r="A669" s="2" t="s">
-        <v>1517</v>
+        <v>1519</v>
       </c>
       <c r="C669" s="7" t="s">
-        <v>1518</v>
+        <v>1520</v>
       </c>
       <c r="D669" s="2" t="s">
-        <v>1402</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="670">
       <c r="A670" s="2" t="s">
-        <v>1519</v>
+        <v>1521</v>
       </c>
       <c r="C670" s="7" t="s">
-        <v>1520</v>
+        <v>1522</v>
       </c>
       <c r="D670" s="2" t="s">
-        <v>1402</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="671">
       <c r="A671" s="2" t="s">
-        <v>1521</v>
+        <v>1523</v>
       </c>
       <c r="C671" s="7" t="s">
-        <v>1522</v>
+        <v>1524</v>
       </c>
       <c r="D671" s="2" t="s">
-        <v>1402</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="672">
       <c r="A672" s="2" t="s">
-        <v>1523</v>
+        <v>1525</v>
       </c>
       <c r="C672" s="7" t="s">
-        <v>1524</v>
+        <v>1526</v>
       </c>
       <c r="D672" s="2" t="s">
-        <v>1402</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="673">
       <c r="A673" s="2" t="s">
-        <v>1525</v>
+        <v>1527</v>
       </c>
       <c r="C673" s="7" t="s">
-        <v>1526</v>
+        <v>1528</v>
       </c>
       <c r="D673" s="2" t="s">
-        <v>1402</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="674">
       <c r="A674" s="2" t="s">
-        <v>1527</v>
+        <v>1529</v>
       </c>
       <c r="C674" s="7" t="s">
-        <v>1528</v>
+        <v>1530</v>
       </c>
       <c r="D674" s="2" t="s">
-        <v>1402</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="675">
       <c r="A675" s="2" t="s">
-        <v>1529</v>
+        <v>1531</v>
       </c>
       <c r="C675" s="7" t="s">
-        <v>1530</v>
+        <v>1532</v>
       </c>
       <c r="D675" s="2" t="s">
-        <v>1402</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="676">
       <c r="A676" s="2" t="s">
-        <v>1531</v>
+        <v>1533</v>
       </c>
       <c r="C676" s="7" t="s">
-        <v>1532</v>
+        <v>1534</v>
       </c>
       <c r="D676" s="2" t="s">
-        <v>1402</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="677">
       <c r="A677" s="2" t="s">
-        <v>1533</v>
+        <v>1535</v>
       </c>
       <c r="C677" s="7" t="s">
-        <v>1534</v>
+        <v>1536</v>
       </c>
       <c r="D677" s="2" t="s">
-        <v>1402</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="678">
       <c r="A678" s="2" t="s">
-        <v>1535</v>
+        <v>1537</v>
       </c>
       <c r="C678" s="7" t="s">
-        <v>1536</v>
+        <v>1538</v>
       </c>
       <c r="D678" s="2" t="s">
-        <v>1405</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="679">
       <c r="A679" s="2" t="s">
-        <v>1537</v>
+        <v>1539</v>
       </c>
       <c r="C679" s="7" t="s">
-        <v>1538</v>
+        <v>1540</v>
       </c>
       <c r="D679" s="2" t="s">
-        <v>1402</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="680">
       <c r="A680" s="2" t="s">
-        <v>1539</v>
+        <v>1541</v>
       </c>
       <c r="C680" s="7" t="s">
-        <v>1540</v>
+        <v>1542</v>
       </c>
       <c r="D680" s="2" t="s">
-        <v>1405</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="681">
       <c r="A681" s="2" t="s">
-        <v>1541</v>
+        <v>1543</v>
       </c>
       <c r="C681" s="7" t="s">
-        <v>1542</v>
+        <v>1544</v>
       </c>
       <c r="D681" s="2" t="s">
-        <v>1402</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="682">
       <c r="A682" s="2" t="s">
-        <v>1543</v>
+        <v>1545</v>
       </c>
       <c r="C682" s="7" t="s">
-        <v>1544</v>
+        <v>1546</v>
       </c>
       <c r="D682" s="2" t="s">
-        <v>1402</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="683">
       <c r="A683" s="2" t="s">
-        <v>1545</v>
+        <v>1547</v>
       </c>
       <c r="C683" s="7" t="s">
-        <v>1546</v>
+        <v>1548</v>
       </c>
       <c r="D683" s="2" t="s">
-        <v>1402</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="684">
       <c r="A684" s="2" t="s">
-        <v>1547</v>
+        <v>1549</v>
       </c>
       <c r="C684" s="7" t="s">
-        <v>1548</v>
+        <v>1550</v>
       </c>
       <c r="D684" s="2" t="s">
-        <v>1405</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="685">
       <c r="A685" s="2" t="s">
-        <v>1549</v>
+        <v>1551</v>
       </c>
       <c r="C685" s="7" t="s">
-        <v>1550</v>
+        <v>1552</v>
       </c>
       <c r="D685" s="2" t="s">
-        <v>1402</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="686">
       <c r="A686" s="2" t="s">
-        <v>1551</v>
+        <v>1553</v>
       </c>
       <c r="C686" s="7" t="s">
-        <v>1552</v>
+        <v>1554</v>
       </c>
       <c r="D686" s="2" t="s">
-        <v>1405</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="687">
       <c r="A687" s="2" t="s">
-        <v>1553</v>
+        <v>1555</v>
       </c>
       <c r="C687" s="7" t="s">
-        <v>1554</v>
+        <v>1556</v>
       </c>
       <c r="D687" s="2" t="s">
-        <v>1405</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="688">
       <c r="A688" s="2" t="s">
-        <v>1555</v>
+        <v>1557</v>
       </c>
       <c r="C688" s="7" t="s">
-        <v>1556</v>
+        <v>1558</v>
       </c>
       <c r="D688" s="2" t="s">
-        <v>1402</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="689">
       <c r="A689" s="2" t="s">
-        <v>1557</v>
+        <v>1559</v>
       </c>
       <c r="C689" s="7" t="s">
-        <v>1558</v>
+        <v>1560</v>
       </c>
       <c r="D689" s="2" t="s">
-        <v>1405</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="690">
       <c r="A690" s="2" t="s">
-        <v>1559</v>
+        <v>1561</v>
       </c>
       <c r="C690" s="7" t="s">
-        <v>1560</v>
+        <v>1562</v>
       </c>
       <c r="D690" s="2" t="s">
-        <v>1402</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="691">
       <c r="A691" s="2" t="s">
-        <v>1561</v>
+        <v>1563</v>
       </c>
       <c r="C691" s="7" t="s">
-        <v>1562</v>
+        <v>1564</v>
       </c>
       <c r="D691" s="2" t="s">
-        <v>1402</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="692">
       <c r="A692" s="2" t="s">
-        <v>1563</v>
+        <v>1565</v>
       </c>
       <c r="C692" s="7" t="s">
-        <v>1564</v>
+        <v>1566</v>
       </c>
       <c r="D692" s="2" t="s">
-        <v>1402</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="693">
       <c r="A693" s="2" t="s">
-        <v>1565</v>
+        <v>1567</v>
       </c>
       <c r="C693" s="7" t="s">
-        <v>1566</v>
+        <v>1568</v>
       </c>
       <c r="D693" s="2" t="s">
-        <v>1402</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="694">
       <c r="A694" s="2" t="s">
-        <v>1567</v>
+        <v>1569</v>
       </c>
       <c r="C694" s="7" t="s">
-        <v>1568</v>
+        <v>1570</v>
       </c>
       <c r="D694" s="2" t="s">
-        <v>1402</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="695">
       <c r="A695" s="2" t="s">
-        <v>1569</v>
+        <v>1571</v>
       </c>
       <c r="C695" s="7" t="s">
-        <v>1570</v>
+        <v>1572</v>
       </c>
       <c r="D695" s="2" t="s">
-        <v>1402</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="696">
       <c r="A696" s="2" t="s">
-        <v>1571</v>
+        <v>1573</v>
       </c>
       <c r="C696" s="7" t="s">
-        <v>1572</v>
+        <v>1574</v>
       </c>
       <c r="D696" s="2" t="s">
-        <v>1402</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="697">
       <c r="A697" s="2" t="s">
-        <v>1573</v>
+        <v>1575</v>
       </c>
       <c r="C697" s="7" t="s">
-        <v>1574</v>
+        <v>1576</v>
       </c>
       <c r="D697" s="2" t="s">
-        <v>1405</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="698">
       <c r="A698" s="2" t="s">
-        <v>1575</v>
+        <v>1577</v>
       </c>
       <c r="C698" s="7" t="s">
-        <v>1576</v>
+        <v>1578</v>
       </c>
       <c r="D698" s="2" t="s">
-        <v>1405</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="699">
       <c r="A699" s="2" t="s">
-        <v>1577</v>
+        <v>1579</v>
       </c>
       <c r="C699" s="7" t="s">
-        <v>1578</v>
+        <v>1580</v>
       </c>
       <c r="D699" s="2" t="s">
-        <v>1405</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="700">
       <c r="A700" s="2" t="s">
-        <v>1579</v>
+        <v>1581</v>
       </c>
       <c r="C700" s="7" t="s">
-        <v>1580</v>
+        <v>1582</v>
       </c>
       <c r="D700" s="2" t="s">
-        <v>1405</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="701">
       <c r="A701" s="2" t="s">
-        <v>1581</v>
+        <v>1583</v>
       </c>
       <c r="C701" s="7" t="s">
-        <v>1582</v>
+        <v>1584</v>
       </c>
       <c r="D701" s="2" t="s">
-        <v>1405</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="702">
       <c r="A702" s="2" t="s">
-        <v>1583</v>
+        <v>1585</v>
       </c>
       <c r="C702" s="7" t="s">
-        <v>1584</v>
+        <v>1586</v>
       </c>
       <c r="D702" s="2" t="s">
-        <v>1405</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="703">
       <c r="A703" s="2" t="s">
-        <v>1585</v>
+        <v>1587</v>
       </c>
       <c r="C703" s="7" t="s">
-        <v>1586</v>
+        <v>1588</v>
       </c>
       <c r="D703" s="2" t="s">
-        <v>1405</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="704">
       <c r="A704" s="2" t="s">
-        <v>1587</v>
+        <v>1589</v>
       </c>
       <c r="C704" s="7" t="s">
-        <v>1588</v>
+        <v>1590</v>
       </c>
       <c r="D704" s="2" t="s">
-        <v>1402</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="705">
       <c r="A705" s="2" t="s">
-        <v>1589</v>
+        <v>1591</v>
       </c>
       <c r="C705" s="7" t="s">
-        <v>1590</v>
+        <v>1592</v>
       </c>
       <c r="D705" s="2" t="s">
-        <v>1402</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="706">
       <c r="A706" s="2" t="s">
-        <v>1591</v>
+        <v>1593</v>
       </c>
       <c r="C706" s="7" t="s">
-        <v>1592</v>
+        <v>1594</v>
       </c>
       <c r="D706" s="2" t="s">
-        <v>1402</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="707">
       <c r="A707" s="2" t="s">
-        <v>1593</v>
+        <v>1595</v>
       </c>
       <c r="C707" s="7" t="s">
-        <v>1594</v>
+        <v>1596</v>
       </c>
       <c r="D707" s="2" t="s">
-        <v>1402</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="708">
       <c r="A708" s="2" t="s">
-        <v>1595</v>
+        <v>1597</v>
       </c>
       <c r="C708" s="7" t="s">
-        <v>1596</v>
+        <v>1598</v>
       </c>
       <c r="D708" s="2" t="s">
-        <v>1405</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="709">
       <c r="A709" s="2" t="s">
-        <v>1597</v>
+        <v>1599</v>
       </c>
       <c r="C709" s="7" t="s">
-        <v>1598</v>
+        <v>1600</v>
       </c>
       <c r="D709" s="2" t="s">
-        <v>1402</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="710">
       <c r="A710" s="2" t="s">
-        <v>1599</v>
+        <v>1601</v>
       </c>
       <c r="C710" s="7" t="s">
-        <v>1600</v>
+        <v>1602</v>
       </c>
       <c r="D710" s="2" t="s">
-        <v>1402</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="711">
       <c r="A711" s="2" t="s">
-        <v>1601</v>
+        <v>1603</v>
       </c>
       <c r="C711" s="7" t="s">
-        <v>1602</v>
+        <v>1604</v>
       </c>
       <c r="D711" s="2" t="s">
-        <v>1402</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="712">
       <c r="A712" s="2" t="s">
-        <v>1603</v>
+        <v>1605</v>
       </c>
       <c r="C712" s="7" t="s">
-        <v>1604</v>
+        <v>1606</v>
       </c>
       <c r="D712" s="2" t="s">
-        <v>1402</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="713">
       <c r="A713" s="2" t="s">
-        <v>1605</v>
+        <v>1607</v>
       </c>
       <c r="C713" s="7" t="s">
-        <v>1606</v>
+        <v>1608</v>
       </c>
       <c r="D713" s="2" t="s">
-        <v>1402</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="714">
       <c r="A714" s="2" t="s">
-        <v>1607</v>
+        <v>1609</v>
       </c>
       <c r="C714" s="7" t="s">
-        <v>1608</v>
+        <v>1610</v>
       </c>
       <c r="D714" s="2" t="s">
-        <v>1402</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="715">
       <c r="A715" s="2" t="s">
-        <v>1609</v>
+        <v>1611</v>
       </c>
       <c r="C715" s="7" t="s">
-        <v>1610</v>
+        <v>1612</v>
       </c>
       <c r="D715" s="2" t="s">
-        <v>1405</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="716">
       <c r="A716" s="2" t="s">
-        <v>1611</v>
+        <v>1613</v>
       </c>
       <c r="C716" s="7" t="s">
-        <v>1612</v>
+        <v>1614</v>
       </c>
       <c r="D716" s="2" t="s">
-        <v>1402</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="717">
       <c r="A717" s="2" t="s">
-        <v>1613</v>
+        <v>1615</v>
       </c>
       <c r="C717" s="7" t="s">
-        <v>1614</v>
+        <v>1616</v>
       </c>
       <c r="D717" s="2" t="s">
-        <v>1402</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="718">
       <c r="A718" s="2" t="s">
-        <v>1615</v>
+        <v>1617</v>
       </c>
       <c r="C718" s="7" t="s">
-        <v>1616</v>
+        <v>1618</v>
       </c>
       <c r="D718" s="2" t="s">
-        <v>1402</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="719">
       <c r="A719" s="2" t="s">
-        <v>1617</v>
+        <v>1619</v>
       </c>
       <c r="C719" s="7" t="s">
-        <v>1618</v>
+        <v>1620</v>
       </c>
       <c r="D719" s="2" t="s">
-        <v>1402</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="720">
       <c r="A720" s="2" t="s">
-        <v>1619</v>
+        <v>1621</v>
       </c>
       <c r="C720" s="7" t="s">
-        <v>1620</v>
+        <v>1622</v>
       </c>
       <c r="D720" s="2" t="s">
-        <v>1402</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="721">
       <c r="A721" s="2" t="s">
-        <v>1621</v>
+        <v>1623</v>
       </c>
       <c r="C721" s="7" t="s">
-        <v>1622</v>
+        <v>1624</v>
       </c>
       <c r="D721" s="2" t="s">
-        <v>1405</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="722">
       <c r="A722" s="2" t="s">
-        <v>1623</v>
+        <v>1625</v>
       </c>
       <c r="C722" s="7" t="s">
-        <v>1624</v>
+        <v>1626</v>
       </c>
       <c r="D722" s="2" t="s">
-        <v>1402</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="723">
       <c r="A723" s="2" t="s">
-        <v>1625</v>
+        <v>1627</v>
       </c>
       <c r="C723" s="7" t="s">
-        <v>1626</v>
+        <v>1628</v>
       </c>
       <c r="D723" s="2" t="s">
-        <v>1402</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="724">
       <c r="A724" s="2" t="s">
-        <v>1627</v>
+        <v>1629</v>
       </c>
       <c r="C724" s="7" t="s">
-        <v>1628</v>
+        <v>1630</v>
       </c>
       <c r="D724" s="2" t="s">
-        <v>1402</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="725">
       <c r="A725" s="2" t="s">
-        <v>1629</v>
+        <v>1631</v>
       </c>
       <c r="C725" s="7" t="s">
-        <v>1630</v>
+        <v>1632</v>
       </c>
       <c r="D725" s="2" t="s">
-        <v>1405</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="726">
       <c r="A726" s="2" t="s">
-        <v>1631</v>
+        <v>1633</v>
       </c>
       <c r="C726" s="7" t="s">
-        <v>1632</v>
+        <v>1634</v>
       </c>
       <c r="D726" s="2" t="s">
-        <v>1402</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="727">
       <c r="A727" s="2" t="s">
-        <v>1633</v>
+        <v>1635</v>
       </c>
       <c r="C727" s="7" t="s">
-        <v>1634</v>
+        <v>1636</v>
       </c>
       <c r="D727" s="2" t="s">
-        <v>1405</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="728">
       <c r="A728" s="2" t="s">
-        <v>1635</v>
+        <v>1637</v>
       </c>
       <c r="C728" s="7" t="s">
-        <v>1636</v>
+        <v>1638</v>
       </c>
       <c r="D728" s="2" t="s">
-        <v>1637</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="729">
       <c r="A729" s="2" t="s">
-        <v>1638</v>
+        <v>1639</v>
       </c>
       <c r="C729" s="7" t="s">
-        <v>1639</v>
+        <v>1640</v>
       </c>
       <c r="D729" s="2" t="s">
-        <v>1640</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="730">
@@ -23424,183 +23630,183 @@
         <v>1642</v>
       </c>
       <c r="D730" s="2" t="s">
-        <v>1643</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="731">
       <c r="A731" s="2" t="s">
+        <v>1643</v>
+      </c>
+      <c r="C731" s="7" t="s">
         <v>1644</v>
       </c>
-      <c r="C731" s="7" t="s">
-        <v>1645</v>
-      </c>
       <c r="D731" s="2" t="s">
-        <v>1646</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="732">
       <c r="A732" s="2" t="s">
-        <v>1647</v>
+        <v>1645</v>
       </c>
       <c r="C732" s="7" t="s">
-        <v>1648</v>
+        <v>1646</v>
       </c>
       <c r="D732" s="2" t="s">
-        <v>1649</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="733">
       <c r="A733" s="2" t="s">
-        <v>1650</v>
+        <v>1647</v>
       </c>
       <c r="C733" s="7" t="s">
-        <v>1651</v>
+        <v>1648</v>
       </c>
       <c r="D733" s="2" t="s">
-        <v>1652</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="734">
       <c r="A734" s="2" t="s">
-        <v>1653</v>
+        <v>1649</v>
       </c>
       <c r="C734" s="7" t="s">
-        <v>1654</v>
+        <v>1650</v>
       </c>
       <c r="D734" s="2" t="s">
-        <v>1655</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="735">
       <c r="A735" s="2" t="s">
-        <v>1656</v>
+        <v>1651</v>
       </c>
       <c r="C735" s="7" t="s">
-        <v>1657</v>
+        <v>1652</v>
       </c>
       <c r="D735" s="2" t="s">
-        <v>1658</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="736">
       <c r="A736" s="2" t="s">
-        <v>1659</v>
+        <v>1653</v>
       </c>
       <c r="C736" s="7" t="s">
-        <v>1660</v>
+        <v>1654</v>
       </c>
       <c r="D736" s="2" t="s">
-        <v>1658</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="737">
       <c r="A737" s="2" t="s">
-        <v>1661</v>
+        <v>1655</v>
       </c>
       <c r="C737" s="7" t="s">
-        <v>1662</v>
+        <v>1656</v>
       </c>
       <c r="D737" s="2" t="s">
-        <v>1658</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="738">
       <c r="A738" s="2" t="s">
-        <v>1663</v>
+        <v>1657</v>
       </c>
       <c r="C738" s="7" t="s">
-        <v>1664</v>
+        <v>1658</v>
       </c>
       <c r="D738" s="2" t="s">
-        <v>1658</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="739">
       <c r="A739" s="2" t="s">
-        <v>1665</v>
+        <v>1659</v>
       </c>
       <c r="C739" s="7" t="s">
-        <v>1666</v>
+        <v>1660</v>
       </c>
       <c r="D739" s="2" t="s">
-        <v>1658</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="740">
       <c r="A740" s="2" t="s">
-        <v>1667</v>
+        <v>1661</v>
       </c>
       <c r="C740" s="7" t="s">
-        <v>1668</v>
+        <v>1662</v>
       </c>
       <c r="D740" s="2" t="s">
-        <v>1658</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="741">
       <c r="A741" s="2" t="s">
-        <v>1669</v>
+        <v>1663</v>
       </c>
       <c r="C741" s="7" t="s">
-        <v>1670</v>
+        <v>1664</v>
       </c>
       <c r="D741" s="2" t="s">
-        <v>1658</v>
+        <v>1665</v>
       </c>
     </row>
     <row r="742">
       <c r="A742" s="2" t="s">
-        <v>1671</v>
+        <v>1666</v>
       </c>
       <c r="C742" s="7" t="s">
-        <v>1672</v>
+        <v>1667</v>
       </c>
       <c r="D742" s="2" t="s">
-        <v>1658</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="743">
       <c r="A743" s="2" t="s">
-        <v>1673</v>
+        <v>1669</v>
       </c>
       <c r="C743" s="7" t="s">
-        <v>1674</v>
+        <v>1670</v>
       </c>
       <c r="D743" s="2" t="s">
-        <v>1658</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="744">
       <c r="A744" s="2" t="s">
-        <v>1675</v>
+        <v>1672</v>
       </c>
       <c r="C744" s="7" t="s">
-        <v>1676</v>
+        <v>1673</v>
       </c>
       <c r="D744" s="2" t="s">
-        <v>1658</v>
+        <v>1674</v>
       </c>
     </row>
     <row r="745">
       <c r="A745" s="2" t="s">
+        <v>1675</v>
+      </c>
+      <c r="C745" s="7" t="s">
+        <v>1676</v>
+      </c>
+      <c r="D745" s="2" t="s">
         <v>1677</v>
-      </c>
-      <c r="C745" s="7" t="s">
-        <v>1678</v>
-      </c>
-      <c r="D745" s="2" t="s">
-        <v>1658</v>
       </c>
     </row>
     <row r="746">
       <c r="A746" s="2" t="s">
+        <v>1678</v>
+      </c>
+      <c r="C746" s="7" t="s">
         <v>1679</v>
       </c>
-      <c r="C746" s="7" t="s">
+      <c r="D746" s="2" t="s">
         <v>1680</v>
-      </c>
-      <c r="D746" s="2" t="s">
-        <v>1658</v>
       </c>
     </row>
     <row r="747">
@@ -23611,238 +23817,381 @@
         <v>1682</v>
       </c>
       <c r="D747" s="2" t="s">
-        <v>1658</v>
+        <v>1683</v>
       </c>
     </row>
     <row r="748">
       <c r="A748" s="2" t="s">
-        <v>1683</v>
+        <v>1684</v>
       </c>
       <c r="C748" s="7" t="s">
-        <v>1684</v>
+        <v>1685</v>
       </c>
       <c r="D748" s="2" t="s">
-        <v>1658</v>
+        <v>1686</v>
       </c>
     </row>
     <row r="749">
       <c r="A749" s="2" t="s">
-        <v>1685</v>
+        <v>1687</v>
       </c>
       <c r="C749" s="7" t="s">
+        <v>1688</v>
+      </c>
+      <c r="D749" s="2" t="s">
         <v>1686</v>
-      </c>
-      <c r="D749" s="2" t="s">
-        <v>1687</v>
       </c>
     </row>
     <row r="750">
       <c r="A750" s="2" t="s">
-        <v>1688</v>
+        <v>1689</v>
       </c>
       <c r="C750" s="7" t="s">
-        <v>1689</v>
+        <v>1690</v>
       </c>
       <c r="D750" s="2" t="s">
-        <v>1687</v>
+        <v>1686</v>
       </c>
     </row>
     <row r="751">
       <c r="A751" s="2" t="s">
-        <v>1690</v>
+        <v>1691</v>
       </c>
       <c r="C751" s="7" t="s">
-        <v>1691</v>
+        <v>1692</v>
       </c>
       <c r="D751" s="2" t="s">
-        <v>1687</v>
+        <v>1686</v>
       </c>
     </row>
     <row r="752">
       <c r="A752" s="2" t="s">
-        <v>1692</v>
+        <v>1693</v>
       </c>
       <c r="C752" s="7" t="s">
-        <v>1693</v>
+        <v>1694</v>
       </c>
       <c r="D752" s="2" t="s">
-        <v>1687</v>
+        <v>1686</v>
       </c>
     </row>
     <row r="753">
       <c r="A753" s="2" t="s">
-        <v>1694</v>
+        <v>1695</v>
       </c>
       <c r="C753" s="7" t="s">
-        <v>1695</v>
+        <v>1696</v>
       </c>
       <c r="D753" s="2" t="s">
-        <v>1687</v>
+        <v>1686</v>
       </c>
     </row>
     <row r="754">
       <c r="A754" s="2" t="s">
-        <v>1694</v>
+        <v>1697</v>
       </c>
       <c r="C754" s="7" t="s">
-        <v>1696</v>
+        <v>1698</v>
       </c>
       <c r="D754" s="2" t="s">
-        <v>1687</v>
+        <v>1686</v>
       </c>
     </row>
     <row r="755">
       <c r="A755" s="2" t="s">
-        <v>1694</v>
+        <v>1699</v>
       </c>
       <c r="C755" s="7" t="s">
-        <v>1697</v>
+        <v>1700</v>
       </c>
       <c r="D755" s="2" t="s">
-        <v>1687</v>
+        <v>1686</v>
       </c>
     </row>
     <row r="756">
       <c r="A756" s="2" t="s">
-        <v>1698</v>
+        <v>1701</v>
       </c>
       <c r="C756" s="7" t="s">
-        <v>1699</v>
+        <v>1702</v>
       </c>
       <c r="D756" s="2" t="s">
-        <v>1658</v>
+        <v>1686</v>
       </c>
     </row>
     <row r="757">
       <c r="A757" s="2" t="s">
-        <v>1700</v>
+        <v>1703</v>
       </c>
       <c r="C757" s="7" t="s">
-        <v>1701</v>
+        <v>1704</v>
       </c>
       <c r="D757" s="2" t="s">
-        <v>1658</v>
+        <v>1686</v>
       </c>
     </row>
     <row r="758">
       <c r="A758" s="2" t="s">
-        <v>1702</v>
+        <v>1705</v>
       </c>
       <c r="C758" s="7" t="s">
-        <v>1703</v>
+        <v>1706</v>
       </c>
       <c r="D758" s="2" t="s">
-        <v>1658</v>
+        <v>1686</v>
       </c>
     </row>
     <row r="759">
       <c r="A759" s="2" t="s">
-        <v>1704</v>
+        <v>1707</v>
       </c>
       <c r="C759" s="7" t="s">
-        <v>1705</v>
+        <v>1708</v>
       </c>
       <c r="D759" s="2" t="s">
-        <v>1658</v>
+        <v>1686</v>
       </c>
     </row>
     <row r="760">
       <c r="A760" s="2" t="s">
-        <v>1706</v>
+        <v>1709</v>
       </c>
       <c r="C760" s="7" t="s">
-        <v>1707</v>
+        <v>1710</v>
       </c>
       <c r="D760" s="2" t="s">
-        <v>1658</v>
+        <v>1686</v>
       </c>
     </row>
     <row r="761">
       <c r="A761" s="2" t="s">
-        <v>1708</v>
+        <v>1711</v>
       </c>
       <c r="C761" s="7" t="s">
-        <v>1709</v>
+        <v>1712</v>
       </c>
       <c r="D761" s="2" t="s">
-        <v>1710</v>
+        <v>1686</v>
       </c>
     </row>
     <row r="762">
       <c r="A762" s="2" t="s">
-        <v>1711</v>
+        <v>1713</v>
       </c>
       <c r="C762" s="7" t="s">
-        <v>1712</v>
+        <v>1714</v>
       </c>
       <c r="D762" s="2" t="s">
-        <v>1713</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="763">
       <c r="A763" s="2" t="s">
-        <v>1714</v>
+        <v>1716</v>
       </c>
       <c r="C763" s="7" t="s">
+        <v>1717</v>
+      </c>
+      <c r="D763" s="2" t="s">
         <v>1715</v>
-      </c>
-      <c r="D763" s="2" t="s">
-        <v>1713</v>
       </c>
     </row>
     <row r="764">
       <c r="A764" s="2" t="s">
-        <v>1716</v>
+        <v>1718</v>
       </c>
       <c r="C764" s="7" t="s">
-        <v>1717</v>
+        <v>1719</v>
       </c>
       <c r="D764" s="2" t="s">
-        <v>1713</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="765">
       <c r="A765" s="2" t="s">
-        <v>1718</v>
+        <v>1720</v>
       </c>
       <c r="C765" s="7" t="s">
-        <v>1719</v>
+        <v>1721</v>
       </c>
       <c r="D765" s="2" t="s">
-        <v>1720</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="766">
       <c r="A766" s="2" t="s">
-        <v>1721</v>
+        <v>1722</v>
       </c>
       <c r="C766" s="7" t="s">
-        <v>1722</v>
+        <v>1723</v>
       </c>
       <c r="D766" s="2" t="s">
-        <v>1720</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="767">
       <c r="A767" s="2" t="s">
-        <v>1723</v>
+        <v>1722</v>
       </c>
       <c r="C767" s="7" t="s">
         <v>1724</v>
       </c>
       <c r="D767" s="2" t="s">
-        <v>1720</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="768">
       <c r="A768" s="2" t="s">
+        <v>1722</v>
+      </c>
+      <c r="C768" s="7" t="s">
         <v>1725</v>
       </c>
-      <c r="C768" s="7" t="s">
+      <c r="D768" s="2" t="s">
+        <v>1715</v>
+      </c>
+    </row>
+    <row r="769">
+      <c r="A769" s="2" t="s">
         <v>1726</v>
       </c>
-      <c r="D768" s="2" t="s">
+      <c r="C769" s="7" t="s">
         <v>1727</v>
+      </c>
+      <c r="D769" s="2" t="s">
+        <v>1686</v>
+      </c>
+    </row>
+    <row r="770">
+      <c r="A770" s="2" t="s">
+        <v>1728</v>
+      </c>
+      <c r="C770" s="7" t="s">
+        <v>1729</v>
+      </c>
+      <c r="D770" s="2" t="s">
+        <v>1686</v>
+      </c>
+    </row>
+    <row r="771">
+      <c r="A771" s="2" t="s">
+        <v>1730</v>
+      </c>
+      <c r="C771" s="7" t="s">
+        <v>1731</v>
+      </c>
+      <c r="D771" s="2" t="s">
+        <v>1686</v>
+      </c>
+    </row>
+    <row r="772">
+      <c r="A772" s="2" t="s">
+        <v>1732</v>
+      </c>
+      <c r="C772" s="7" t="s">
+        <v>1733</v>
+      </c>
+      <c r="D772" s="2" t="s">
+        <v>1686</v>
+      </c>
+    </row>
+    <row r="773">
+      <c r="A773" s="2" t="s">
+        <v>1734</v>
+      </c>
+      <c r="C773" s="7" t="s">
+        <v>1735</v>
+      </c>
+      <c r="D773" s="2" t="s">
+        <v>1686</v>
+      </c>
+    </row>
+    <row r="774">
+      <c r="A774" s="2" t="s">
+        <v>1736</v>
+      </c>
+      <c r="C774" s="7" t="s">
+        <v>1737</v>
+      </c>
+      <c r="D774" s="2" t="s">
+        <v>1738</v>
+      </c>
+    </row>
+    <row r="775">
+      <c r="A775" s="2" t="s">
+        <v>1739</v>
+      </c>
+      <c r="C775" s="7" t="s">
+        <v>1740</v>
+      </c>
+      <c r="D775" s="2" t="s">
+        <v>1741</v>
+      </c>
+    </row>
+    <row r="776">
+      <c r="A776" s="2" t="s">
+        <v>1742</v>
+      </c>
+      <c r="C776" s="7" t="s">
+        <v>1743</v>
+      </c>
+      <c r="D776" s="2" t="s">
+        <v>1741</v>
+      </c>
+    </row>
+    <row r="777">
+      <c r="A777" s="2" t="s">
+        <v>1744</v>
+      </c>
+      <c r="C777" s="7" t="s">
+        <v>1745</v>
+      </c>
+      <c r="D777" s="2" t="s">
+        <v>1741</v>
+      </c>
+    </row>
+    <row r="778">
+      <c r="A778" s="2" t="s">
+        <v>1746</v>
+      </c>
+      <c r="C778" s="7" t="s">
+        <v>1747</v>
+      </c>
+      <c r="D778" s="2" t="s">
+        <v>1748</v>
+      </c>
+    </row>
+    <row r="779">
+      <c r="A779" s="2" t="s">
+        <v>1749</v>
+      </c>
+      <c r="C779" s="7" t="s">
+        <v>1750</v>
+      </c>
+      <c r="D779" s="2" t="s">
+        <v>1748</v>
+      </c>
+    </row>
+    <row r="780">
+      <c r="A780" s="2" t="s">
+        <v>1751</v>
+      </c>
+      <c r="C780" s="7" t="s">
+        <v>1752</v>
+      </c>
+      <c r="D780" s="2" t="s">
+        <v>1748</v>
+      </c>
+    </row>
+    <row r="781">
+      <c r="A781" s="2" t="s">
+        <v>1753</v>
+      </c>
+      <c r="C781" s="7" t="s">
+        <v>1754</v>
+      </c>
+      <c r="D781" s="2" t="s">
+        <v>1755</v>
       </c>
     </row>
   </sheetData>
@@ -23881,18 +24230,18 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>1728</v>
+        <v>1756</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>1729</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>1730</v>
+        <v>1758</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>1731</v>
+        <v>1759</v>
       </c>
     </row>
   </sheetData>
@@ -23932,13 +24281,13 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>1732</v>
+        <v>1760</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>1733</v>
+        <v>1761</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>1734</v>
+        <v>1762</v>
       </c>
     </row>
   </sheetData>

--- a/csv/merge.xlsx
+++ b/csv/merge.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2319" uniqueCount="1763">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2328" uniqueCount="1770">
   <si>
     <t>JP Text (DO NOT CHANGE)</t>
   </si>
@@ -9199,6 +9199,19 @@
     <t>Mysterious Tower Gryphon</t>
   </si>
   <si>
+    <t>「やあ　魔闘士くん。
+　私のとくぎは　ベホイミだ！　あぶなくなったら
+　遠慮なく　ツボを　使ってくれたまえ！</t>
+  </si>
+  <si>
+    <t>Oh, it's you, the magic warrior! I can use
+Midheal to help you! Feel free to use my
+pot if you're feeling in a right pinch!</t>
+  </si>
+  <si>
+    <t>Mysterious Tower Priest Knight</t>
+  </si>
+  <si>
     <t>&lt;pipipi_shigh&gt;「ヒヒヒ……。オイラ　なぞのツボ。
 　魔闘士さん　おおきづち　知ってる？
 　ブラウニーとは　仲がいいみたいだね。</t>
@@ -9668,7 +9681,7 @@
 &lt;br&gt;
 &lt;se_nots Joutyu_SE 121&gt;
 The sealed tower's energy has been released
-been released up to the 5th floor!</t>
+up to the 5th floor!</t>
   </si>
   <si>
     <t>Mysterious Tower boss win</t>
@@ -9687,7 +9700,7 @@
 &lt;br&gt;
 &lt;se_nots Joutyu_SE 121&gt;
 The sealed tower's energy has been released
-been released up to the 10th floor!</t>
+up to the 10th floor!</t>
   </si>
   <si>
     <t>魔物の気配が　すべて消えた……。
@@ -9703,7 +9716,7 @@
 &lt;br&gt;
 &lt;se_nots Joutyu_SE 121&gt;
 The sealed tower's energy has been released
-been released up to the 15th floor!</t>
+up to the 15th floor!</t>
   </si>
   <si>
     <t>魔物の気配が　すべて消えた……。
@@ -9719,7 +9732,7 @@
 &lt;br&gt;
 &lt;se_nots Joutyu_SE 121&gt;
 The sealed tower's energy has been released
-been released up to the 20th floor!</t>
+up to the 20th floor!</t>
   </si>
   <si>
     <t>魔物の気配が　すべて消えた……。
@@ -9735,7 +9748,7 @@
 &lt;br&gt;
 &lt;se_nots Joutyu_SE 121&gt;
 The sealed tower's energy has been released
-been released up to the 25th floor!</t>
+up to the 25th floor!</t>
   </si>
   <si>
     <t>魔物の気配が　すべて消えた……。
@@ -9751,7 +9764,7 @@
 &lt;br&gt;
 &lt;se_nots Joutyu_SE 121&gt;
 The sealed tower's energy has been released
-been released up to the 30th floor!</t>
+up to the 30th floor!</t>
   </si>
   <si>
     <t>魔物の気配が　すべて消えた……。
@@ -9767,7 +9780,7 @@
 &lt;br&gt;
 &lt;se_nots Joutyu_SE 121&gt;
 The sealed tower's energy has been released
-been released up to the 35th floor!</t>
+up to the 35th floor!</t>
   </si>
   <si>
     <t>魔物の気配が　すべて消えた……。
@@ -9783,7 +9796,7 @@
 &lt;br&gt;
 &lt;se_nots Joutyu_SE 121&gt;
 The sealed tower's energy has been released
-been released up to the 40th floor!</t>
+up to the 40th floor!</t>
   </si>
   <si>
     <t>魔物の気配が　すべて消えた……。
@@ -9799,7 +9812,7 @@
 &lt;br&gt;
 &lt;se_nots Joutyu_SE 121&gt;
 The sealed tower's energy has been released
-been released up to the 45th floor!</t>
+up to the 45th floor!</t>
   </si>
   <si>
     <t>魔物の気配が　すべて消えた……。
@@ -9815,7 +9828,7 @@
 &lt;br&gt;
 &lt;se_nots Joutyu_SE 121&gt;
 The sealed tower's energy has been released
-been released up to the 50th floor!</t>
+up to the 50th floor!</t>
   </si>
   <si>
     <t>魔物の気配が　すべて消えた……。
@@ -9831,7 +9844,7 @@
 &lt;br&gt;
 &lt;se_nots Joutyu_SE 121&gt;
 The sealed tower's energy has been released
-been released up to the 55th floor!</t>
+up to the 55th floor!</t>
   </si>
   <si>
     <t>魔物の気配が　すべて消えた……。
@@ -9847,7 +9860,39 @@
 &lt;br&gt;
 &lt;se_nots Joutyu_SE 121&gt;
 The sealed tower's energy has been released
-been released up to the 60th floor!</t>
+up to the 60th floor!</t>
+  </si>
+  <si>
+    <t>魔物の気配が　すべて消えた……。
+扉の封印が　解かれた。
+&lt;br&gt;
+&lt;se_nots Joutyu_SE 121&gt;
+６５階までに　封じられていた
+塔のエネルギーが解放された！</t>
+  </si>
+  <si>
+    <t>All of the monsters here are gone...
+The door to the next floor has been unsealed.
+&lt;br&gt;
+&lt;se_nots Joutyu_SE 121&gt;
+The sealed tower's energy has been released
+up to the 65th floor!</t>
+  </si>
+  <si>
+    <t>魔物の気配が　すべて消えた……。
+扉の封印が　解かれた。
+&lt;br&gt;
+&lt;se_nots Joutyu_SE 121&gt;
+７０階までに　封じられていた
+塔のエネルギーが解放された！</t>
+  </si>
+  <si>
+    <t>All of the monsters here are gone...
+The door to the next floor has been unsealed.
+&lt;br&gt;
+&lt;se_nots Joutyu_SE 121&gt;
+The sealed tower's energy has been released
+up to the 70th floor!</t>
   </si>
   <si>
     <t>「新エテーネの村のまわりを　クンクンして
@@ -20750,128 +20795,128 @@
         <v>1064</v>
       </c>
       <c r="D468" s="2" t="s">
-        <v>1062</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="469">
       <c r="A469" s="2" t="s">
+        <v>1066</v>
+      </c>
+      <c r="C469" s="2" t="s">
+        <v>1067</v>
+      </c>
+      <c r="D469" s="2" t="s">
         <v>1065</v>
-      </c>
-      <c r="C469" s="2" t="s">
-        <v>1066</v>
-      </c>
-      <c r="D469" s="2" t="s">
-        <v>1062</v>
       </c>
     </row>
     <row r="470">
       <c r="A470" s="2" t="s">
-        <v>1067</v>
+        <v>1068</v>
       </c>
       <c r="C470" s="2" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="D470" s="2" t="s">
-        <v>1062</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="471">
       <c r="A471" s="2" t="s">
-        <v>1069</v>
+        <v>1070</v>
       </c>
       <c r="C471" s="2" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="D471" s="2" t="s">
-        <v>1062</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="472">
       <c r="A472" s="2" t="s">
-        <v>1071</v>
+        <v>1072</v>
       </c>
       <c r="C472" s="2" t="s">
-        <v>1072</v>
+        <v>1073</v>
       </c>
       <c r="D472" s="2" t="s">
-        <v>1062</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="473">
       <c r="A473" s="2" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="C473" s="2" t="s">
-        <v>1074</v>
+        <v>1075</v>
       </c>
       <c r="D473" s="2" t="s">
-        <v>1062</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="474">
       <c r="A474" s="2" t="s">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="C474" s="2" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="D474" s="2" t="s">
-        <v>1062</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="475">
       <c r="A475" s="2" t="s">
-        <v>1077</v>
+        <v>1078</v>
       </c>
       <c r="C475" s="2" t="s">
-        <v>1078</v>
+        <v>1079</v>
       </c>
       <c r="D475" s="2" t="s">
-        <v>1062</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="476">
       <c r="A476" s="2" t="s">
-        <v>1079</v>
+        <v>1080</v>
       </c>
       <c r="C476" s="2" t="s">
-        <v>1080</v>
+        <v>1081</v>
       </c>
       <c r="D476" s="2" t="s">
-        <v>1062</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="477">
       <c r="A477" s="2" t="s">
-        <v>1081</v>
+        <v>1082</v>
       </c>
       <c r="C477" s="2" t="s">
-        <v>1082</v>
+        <v>1083</v>
       </c>
       <c r="D477" s="2" t="s">
-        <v>1062</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="478">
       <c r="A478" s="2" t="s">
-        <v>1083</v>
+        <v>1084</v>
       </c>
       <c r="C478" s="2" t="s">
-        <v>1084</v>
+        <v>1085</v>
       </c>
       <c r="D478" s="2" t="s">
-        <v>1062</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="479">
       <c r="A479" s="2" t="s">
-        <v>1085</v>
+        <v>1086</v>
       </c>
       <c r="C479" s="2" t="s">
-        <v>1086</v>
+        <v>1087</v>
       </c>
       <c r="D479" s="2" t="s">
-        <v>1087</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="480">
@@ -20882,7 +20927,7 @@
         <v>1089</v>
       </c>
       <c r="D480" s="2" t="s">
-        <v>1087</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="481">
@@ -20893,95 +20938,95 @@
         <v>1091</v>
       </c>
       <c r="D481" s="2" t="s">
-        <v>1092</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="482">
       <c r="A482" s="2" t="s">
+        <v>1092</v>
+      </c>
+      <c r="C482" s="2" t="s">
         <v>1093</v>
       </c>
-      <c r="C482" s="7" t="s">
+      <c r="D482" s="2" t="s">
         <v>1094</v>
-      </c>
-      <c r="D482" s="2" t="s">
-        <v>1095</v>
       </c>
     </row>
     <row r="483">
       <c r="A483" s="2" t="s">
+        <v>1095</v>
+      </c>
+      <c r="C483" s="2" t="s">
         <v>1096</v>
       </c>
-      <c r="C483" s="7" t="s">
-        <v>1097</v>
-      </c>
       <c r="D483" s="2" t="s">
-        <v>1098</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="484">
       <c r="A484" s="2" t="s">
+        <v>1097</v>
+      </c>
+      <c r="C484" s="2" t="s">
+        <v>1098</v>
+      </c>
+      <c r="D484" s="2" t="s">
         <v>1099</v>
-      </c>
-      <c r="C484" s="7" t="s">
-        <v>1100</v>
-      </c>
-      <c r="D484" s="2" t="s">
-        <v>1101</v>
       </c>
     </row>
     <row r="485">
       <c r="A485" s="2" t="s">
+        <v>1100</v>
+      </c>
+      <c r="C485" s="7" t="s">
+        <v>1101</v>
+      </c>
+      <c r="D485" s="2" t="s">
         <v>1102</v>
-      </c>
-      <c r="C485" s="7" t="s">
-        <v>1103</v>
-      </c>
-      <c r="D485" s="2" t="s">
-        <v>1104</v>
       </c>
     </row>
     <row r="486">
       <c r="A486" s="2" t="s">
+        <v>1103</v>
+      </c>
+      <c r="C486" s="7" t="s">
+        <v>1104</v>
+      </c>
+      <c r="D486" s="2" t="s">
         <v>1105</v>
-      </c>
-      <c r="C486" s="7" t="s">
-        <v>1106</v>
-      </c>
-      <c r="D486" s="2" t="s">
-        <v>1107</v>
       </c>
     </row>
     <row r="487">
       <c r="A487" s="2" t="s">
+        <v>1106</v>
+      </c>
+      <c r="C487" s="7" t="s">
+        <v>1107</v>
+      </c>
+      <c r="D487" s="2" t="s">
         <v>1108</v>
-      </c>
-      <c r="C487" s="7" t="s">
-        <v>1109</v>
-      </c>
-      <c r="D487" s="2" t="s">
-        <v>1107</v>
       </c>
     </row>
     <row r="488">
       <c r="A488" s="2" t="s">
+        <v>1109</v>
+      </c>
+      <c r="C488" s="7" t="s">
         <v>1110</v>
       </c>
-      <c r="C488" s="7" t="s">
+      <c r="D488" s="2" t="s">
         <v>1111</v>
-      </c>
-      <c r="D488" s="2" t="s">
-        <v>1112</v>
       </c>
     </row>
     <row r="489">
       <c r="A489" s="2" t="s">
+        <v>1112</v>
+      </c>
+      <c r="C489" s="7" t="s">
         <v>1113</v>
       </c>
-      <c r="C489" s="7" t="s">
+      <c r="D489" s="2" t="s">
         <v>1114</v>
-      </c>
-      <c r="D489" s="2" t="s">
-        <v>1107</v>
       </c>
     </row>
     <row r="490">
@@ -20992,7 +21037,7 @@
         <v>1116</v>
       </c>
       <c r="D490" s="2" t="s">
-        <v>1107</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="491">
@@ -21014,29 +21059,29 @@
         <v>1121</v>
       </c>
       <c r="D492" s="2" t="s">
-        <v>1122</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="493">
       <c r="A493" s="2" t="s">
+        <v>1122</v>
+      </c>
+      <c r="C493" s="7" t="s">
         <v>1123</v>
       </c>
-      <c r="C493" s="7" t="s">
-        <v>1124</v>
-      </c>
       <c r="D493" s="2" t="s">
-        <v>1119</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="494">
       <c r="A494" s="2" t="s">
+        <v>1124</v>
+      </c>
+      <c r="C494" s="7" t="s">
         <v>1125</v>
       </c>
-      <c r="C494" s="7" t="s">
+      <c r="D494" s="2" t="s">
         <v>1126</v>
-      </c>
-      <c r="D494" s="2" t="s">
-        <v>1119</v>
       </c>
     </row>
     <row r="495">
@@ -21047,128 +21092,128 @@
         <v>1128</v>
       </c>
       <c r="D495" s="2" t="s">
-        <v>1119</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="496">
       <c r="A496" s="2" t="s">
-        <v>1129</v>
+        <v>1130</v>
       </c>
       <c r="C496" s="7" t="s">
-        <v>1130</v>
+        <v>1131</v>
       </c>
       <c r="D496" s="2" t="s">
-        <v>1119</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="497">
       <c r="A497" s="2" t="s">
-        <v>1131</v>
+        <v>1132</v>
       </c>
       <c r="C497" s="7" t="s">
-        <v>1132</v>
+        <v>1133</v>
       </c>
       <c r="D497" s="2" t="s">
-        <v>1119</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="498">
       <c r="A498" s="2" t="s">
-        <v>1133</v>
+        <v>1134</v>
       </c>
       <c r="C498" s="7" t="s">
-        <v>1134</v>
+        <v>1135</v>
       </c>
       <c r="D498" s="2" t="s">
-        <v>1119</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="499">
       <c r="A499" s="2" t="s">
-        <v>1135</v>
+        <v>1136</v>
       </c>
       <c r="C499" s="7" t="s">
-        <v>1136</v>
+        <v>1137</v>
       </c>
       <c r="D499" s="2" t="s">
-        <v>1119</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="500">
       <c r="A500" s="2" t="s">
-        <v>1137</v>
+        <v>1138</v>
       </c>
       <c r="C500" s="7" t="s">
-        <v>1138</v>
+        <v>1139</v>
       </c>
       <c r="D500" s="2" t="s">
-        <v>1119</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="501">
       <c r="A501" s="2" t="s">
-        <v>1139</v>
+        <v>1140</v>
       </c>
       <c r="C501" s="7" t="s">
-        <v>1140</v>
+        <v>1141</v>
       </c>
       <c r="D501" s="2" t="s">
-        <v>1119</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="502">
       <c r="A502" s="2" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
       <c r="C502" s="7" t="s">
-        <v>1142</v>
+        <v>1143</v>
       </c>
       <c r="D502" s="2" t="s">
-        <v>1119</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="503">
       <c r="A503" s="2" t="s">
-        <v>1143</v>
+        <v>1144</v>
       </c>
       <c r="C503" s="7" t="s">
-        <v>1144</v>
+        <v>1145</v>
       </c>
       <c r="D503" s="2" t="s">
-        <v>1119</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="504">
       <c r="A504" s="2" t="s">
-        <v>1145</v>
+        <v>1146</v>
       </c>
       <c r="C504" s="7" t="s">
-        <v>1146</v>
+        <v>1147</v>
       </c>
       <c r="D504" s="2" t="s">
-        <v>1119</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="505">
       <c r="A505" s="2" t="s">
-        <v>1147</v>
+        <v>1148</v>
       </c>
       <c r="C505" s="7" t="s">
-        <v>1148</v>
+        <v>1149</v>
       </c>
       <c r="D505" s="2" t="s">
-        <v>1119</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="506">
       <c r="A506" s="2" t="s">
-        <v>1149</v>
+        <v>1150</v>
       </c>
       <c r="C506" s="7" t="s">
-        <v>1150</v>
+        <v>1151</v>
       </c>
       <c r="D506" s="2" t="s">
-        <v>1151</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="507">
@@ -21179,7 +21224,7 @@
         <v>1153</v>
       </c>
       <c r="D507" s="2" t="s">
-        <v>1151</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="508">
@@ -21190,18 +21235,18 @@
         <v>1155</v>
       </c>
       <c r="D508" s="2" t="s">
-        <v>1156</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="509">
       <c r="A509" s="2" t="s">
+        <v>1156</v>
+      </c>
+      <c r="C509" s="7" t="s">
         <v>1157</v>
       </c>
-      <c r="C509" s="7" t="s">
+      <c r="D509" s="2" t="s">
         <v>1158</v>
-      </c>
-      <c r="D509" s="2" t="s">
-        <v>1156</v>
       </c>
     </row>
     <row r="510">
@@ -21212,18 +21257,18 @@
         <v>1160</v>
       </c>
       <c r="D510" s="2" t="s">
-        <v>1161</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="511">
       <c r="A511" s="2" t="s">
+        <v>1161</v>
+      </c>
+      <c r="C511" s="7" t="s">
         <v>1162</v>
       </c>
-      <c r="C511" s="7" t="s">
+      <c r="D511" s="2" t="s">
         <v>1163</v>
-      </c>
-      <c r="D511" s="2" t="s">
-        <v>1156</v>
       </c>
     </row>
     <row r="512">
@@ -21234,7 +21279,7 @@
         <v>1165</v>
       </c>
       <c r="D512" s="2" t="s">
-        <v>1161</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="513">
@@ -21245,73 +21290,73 @@
         <v>1167</v>
       </c>
       <c r="D513" s="2" t="s">
-        <v>1161</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="514">
       <c r="A514" s="2" t="s">
-        <v>1168</v>
+        <v>1169</v>
       </c>
       <c r="C514" s="7" t="s">
-        <v>1169</v>
+        <v>1170</v>
       </c>
       <c r="D514" s="2" t="s">
-        <v>1156</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="515">
       <c r="A515" s="2" t="s">
-        <v>1170</v>
+        <v>1171</v>
       </c>
       <c r="C515" s="7" t="s">
-        <v>1171</v>
+        <v>1172</v>
       </c>
       <c r="D515" s="2" t="s">
-        <v>1156</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="516">
       <c r="A516" s="2" t="s">
-        <v>1172</v>
+        <v>1173</v>
       </c>
       <c r="C516" s="7" t="s">
-        <v>1173</v>
+        <v>1174</v>
       </c>
       <c r="D516" s="2" t="s">
-        <v>1156</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="517">
       <c r="A517" s="2" t="s">
-        <v>1174</v>
+        <v>1175</v>
       </c>
       <c r="C517" s="7" t="s">
-        <v>1175</v>
+        <v>1176</v>
       </c>
       <c r="D517" s="2" t="s">
-        <v>1161</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="518">
       <c r="A518" s="2" t="s">
-        <v>1176</v>
+        <v>1177</v>
       </c>
       <c r="C518" s="7" t="s">
-        <v>1177</v>
+        <v>1178</v>
       </c>
       <c r="D518" s="2" t="s">
-        <v>1156</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="519">
       <c r="A519" s="2" t="s">
-        <v>1178</v>
+        <v>1179</v>
       </c>
       <c r="C519" s="7" t="s">
-        <v>1179</v>
+        <v>1180</v>
       </c>
       <c r="D519" s="2" t="s">
-        <v>1180</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="520">
@@ -21322,73 +21367,73 @@
         <v>1182</v>
       </c>
       <c r="D520" s="2" t="s">
-        <v>1183</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="521">
       <c r="A521" s="2" t="s">
+        <v>1183</v>
+      </c>
+      <c r="C521" s="7" t="s">
         <v>1184</v>
       </c>
-      <c r="C521" s="7" t="s">
-        <v>1185</v>
-      </c>
       <c r="D521" s="2" t="s">
-        <v>1183</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="522">
       <c r="A522" s="2" t="s">
+        <v>1185</v>
+      </c>
+      <c r="C522" s="7" t="s">
         <v>1186</v>
       </c>
-      <c r="C522" s="7" t="s">
+      <c r="D522" s="2" t="s">
         <v>1187</v>
-      </c>
-      <c r="D522" s="2" t="s">
-        <v>1188</v>
       </c>
     </row>
     <row r="523">
       <c r="A523" s="2" t="s">
+        <v>1188</v>
+      </c>
+      <c r="C523" s="7" t="s">
         <v>1189</v>
       </c>
-      <c r="C523" s="7" t="s">
+      <c r="D523" s="2" t="s">
         <v>1190</v>
-      </c>
-      <c r="D523" s="2" t="s">
-        <v>1191</v>
       </c>
     </row>
     <row r="524">
       <c r="A524" s="2" t="s">
+        <v>1191</v>
+      </c>
+      <c r="C524" s="7" t="s">
         <v>1192</v>
       </c>
-      <c r="C524" s="7" t="s">
-        <v>1193</v>
-      </c>
       <c r="D524" s="2" t="s">
-        <v>1188</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="525">
       <c r="A525" s="2" t="s">
+        <v>1193</v>
+      </c>
+      <c r="C525" s="7" t="s">
         <v>1194</v>
       </c>
-      <c r="C525" s="7" t="s">
+      <c r="D525" s="2" t="s">
         <v>1195</v>
-      </c>
-      <c r="D525" s="2" t="s">
-        <v>1196</v>
       </c>
     </row>
     <row r="526">
       <c r="A526" s="2" t="s">
+        <v>1196</v>
+      </c>
+      <c r="C526" s="7" t="s">
         <v>1197</v>
       </c>
-      <c r="C526" s="7" t="s">
+      <c r="D526" s="2" t="s">
         <v>1198</v>
-      </c>
-      <c r="D526" s="2" t="s">
-        <v>1196</v>
       </c>
     </row>
     <row r="527">
@@ -21399,51 +21444,51 @@
         <v>1200</v>
       </c>
       <c r="D527" s="2" t="s">
-        <v>1201</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="528">
       <c r="A528" s="2" t="s">
+        <v>1201</v>
+      </c>
+      <c r="C528" s="7" t="s">
         <v>1202</v>
       </c>
-      <c r="C528" s="7" t="s">
+      <c r="D528" s="2" t="s">
         <v>1203</v>
-      </c>
-      <c r="D528" s="2" t="s">
-        <v>1204</v>
       </c>
     </row>
     <row r="529">
       <c r="A529" s="2" t="s">
+        <v>1204</v>
+      </c>
+      <c r="C529" s="7" t="s">
         <v>1205</v>
       </c>
-      <c r="C529" s="7" t="s">
-        <v>1206</v>
-      </c>
       <c r="D529" s="2" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="530">
       <c r="A530" s="2" t="s">
+        <v>1206</v>
+      </c>
+      <c r="C530" s="7" t="s">
         <v>1207</v>
       </c>
-      <c r="C530" s="7" t="s">
+      <c r="D530" s="2" t="s">
         <v>1208</v>
-      </c>
-      <c r="D530" s="2" t="s">
-        <v>1209</v>
       </c>
     </row>
     <row r="531">
       <c r="A531" s="2" t="s">
+        <v>1209</v>
+      </c>
+      <c r="C531" s="7" t="s">
         <v>1210</v>
       </c>
-      <c r="C531" s="7" t="s">
+      <c r="D531" s="2" t="s">
         <v>1211</v>
-      </c>
-      <c r="D531" s="2" t="s">
-        <v>1209</v>
       </c>
     </row>
     <row r="532">
@@ -21454,7 +21499,7 @@
         <v>1213</v>
       </c>
       <c r="D532" s="2" t="s">
-        <v>1209</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="533">
@@ -21465,51 +21510,51 @@
         <v>1215</v>
       </c>
       <c r="D533" s="2" t="s">
-        <v>1209</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="534">
       <c r="A534" s="2" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C534" s="7" t="s">
+        <v>1218</v>
+      </c>
+      <c r="D534" s="2" t="s">
         <v>1216</v>
-      </c>
-      <c r="C534" s="7" t="s">
-        <v>1217</v>
-      </c>
-      <c r="D534" s="2" t="s">
-        <v>1209</v>
       </c>
     </row>
     <row r="535">
       <c r="A535" s="2" t="s">
-        <v>1218</v>
+        <v>1219</v>
       </c>
       <c r="C535" s="7" t="s">
-        <v>1219</v>
+        <v>1220</v>
       </c>
       <c r="D535" s="2" t="s">
-        <v>1209</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="536">
       <c r="A536" s="2" t="s">
-        <v>1220</v>
+        <v>1221</v>
       </c>
       <c r="C536" s="7" t="s">
-        <v>1221</v>
+        <v>1222</v>
       </c>
       <c r="D536" s="2" t="s">
-        <v>1209</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="537">
       <c r="A537" s="2" t="s">
-        <v>1222</v>
+        <v>1223</v>
       </c>
       <c r="C537" s="7" t="s">
-        <v>1223</v>
+        <v>1224</v>
       </c>
       <c r="D537" s="2" t="s">
-        <v>1224</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="538">
@@ -21520,29 +21565,29 @@
         <v>1226</v>
       </c>
       <c r="D538" s="2" t="s">
-        <v>1227</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="539">
       <c r="A539" s="2" t="s">
+        <v>1227</v>
+      </c>
+      <c r="C539" s="7" t="s">
         <v>1228</v>
       </c>
-      <c r="C539" s="7" t="s">
-        <v>1229</v>
-      </c>
       <c r="D539" s="2" t="s">
-        <v>1227</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="540">
       <c r="A540" s="2" t="s">
+        <v>1229</v>
+      </c>
+      <c r="C540" s="7" t="s">
         <v>1230</v>
       </c>
-      <c r="C540" s="7" t="s">
+      <c r="D540" s="2" t="s">
         <v>1231</v>
-      </c>
-      <c r="D540" s="2" t="s">
-        <v>1227</v>
       </c>
     </row>
     <row r="541">
@@ -21553,18 +21598,18 @@
         <v>1233</v>
       </c>
       <c r="D541" s="2" t="s">
-        <v>1227</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="542">
       <c r="A542" s="2" t="s">
+        <v>1235</v>
+      </c>
+      <c r="C542" s="7" t="s">
+        <v>1236</v>
+      </c>
+      <c r="D542" s="2" t="s">
         <v>1234</v>
-      </c>
-      <c r="C542" s="7" t="s">
-        <v>1235</v>
-      </c>
-      <c r="D542" s="2" t="s">
-        <v>1236</v>
       </c>
     </row>
     <row r="543">
@@ -21575,7 +21620,7 @@
         <v>1238</v>
       </c>
       <c r="D543" s="2" t="s">
-        <v>1236</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="544">
@@ -21586,7 +21631,7 @@
         <v>1240</v>
       </c>
       <c r="D544" s="2" t="s">
-        <v>1236</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="545">
@@ -21608,29 +21653,29 @@
         <v>1245</v>
       </c>
       <c r="D546" s="2" t="s">
-        <v>1246</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="547">
       <c r="A547" s="2" t="s">
+        <v>1246</v>
+      </c>
+      <c r="C547" s="7" t="s">
         <v>1247</v>
       </c>
-      <c r="C547" s="7" t="s">
-        <v>1248</v>
-      </c>
       <c r="D547" s="2" t="s">
-        <v>1246</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="548">
       <c r="A548" s="2" t="s">
+        <v>1248</v>
+      </c>
+      <c r="C548" s="7" t="s">
         <v>1249</v>
       </c>
-      <c r="C548" s="7" t="s">
+      <c r="D548" s="2" t="s">
         <v>1250</v>
-      </c>
-      <c r="D548" s="2" t="s">
-        <v>1246</v>
       </c>
     </row>
     <row r="549">
@@ -21641,106 +21686,106 @@
         <v>1252</v>
       </c>
       <c r="D549" s="2" t="s">
-        <v>1246</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="550">
       <c r="A550" s="2" t="s">
+        <v>1254</v>
+      </c>
+      <c r="C550" s="7" t="s">
+        <v>1255</v>
+      </c>
+      <c r="D550" s="2" t="s">
         <v>1253</v>
-      </c>
-      <c r="C550" s="7" t="s">
-        <v>1254</v>
-      </c>
-      <c r="D550" s="2" t="s">
-        <v>1246</v>
       </c>
     </row>
     <row r="551">
       <c r="A551" s="2" t="s">
-        <v>1255</v>
+        <v>1256</v>
       </c>
       <c r="C551" s="7" t="s">
-        <v>1256</v>
+        <v>1257</v>
       </c>
       <c r="D551" s="2" t="s">
-        <v>1246</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="552">
       <c r="A552" s="2" t="s">
-        <v>1257</v>
+        <v>1258</v>
       </c>
       <c r="C552" s="7" t="s">
-        <v>1258</v>
+        <v>1259</v>
       </c>
       <c r="D552" s="2" t="s">
-        <v>1243</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="553">
       <c r="A553" s="2" t="s">
-        <v>1259</v>
+        <v>1260</v>
       </c>
       <c r="C553" s="7" t="s">
-        <v>1260</v>
+        <v>1261</v>
       </c>
       <c r="D553" s="2" t="s">
-        <v>1243</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="554">
       <c r="A554" s="2" t="s">
-        <v>1261</v>
+        <v>1262</v>
       </c>
       <c r="C554" s="7" t="s">
-        <v>1262</v>
+        <v>1263</v>
       </c>
       <c r="D554" s="2" t="s">
-        <v>1243</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="555">
       <c r="A555" s="2" t="s">
-        <v>1263</v>
+        <v>1264</v>
       </c>
       <c r="C555" s="7" t="s">
-        <v>1264</v>
+        <v>1265</v>
       </c>
       <c r="D555" s="2" t="s">
-        <v>1243</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="556">
       <c r="A556" s="2" t="s">
-        <v>1265</v>
+        <v>1266</v>
       </c>
       <c r="C556" s="7" t="s">
-        <v>1266</v>
+        <v>1267</v>
       </c>
       <c r="D556" s="2" t="s">
-        <v>1243</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="557">
       <c r="A557" s="2" t="s">
-        <v>1267</v>
+        <v>1268</v>
       </c>
       <c r="C557" s="7" t="s">
-        <v>1268</v>
+        <v>1269</v>
       </c>
       <c r="D557" s="2" t="s">
-        <v>1243</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="558">
       <c r="A558" s="2" t="s">
-        <v>1269</v>
+        <v>1270</v>
       </c>
       <c r="C558" s="7" t="s">
-        <v>1270</v>
+        <v>1271</v>
       </c>
       <c r="D558" s="2" t="s">
-        <v>1271</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="559">
@@ -21751,73 +21796,73 @@
         <v>1273</v>
       </c>
       <c r="D559" s="2" t="s">
-        <v>1274</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="560">
       <c r="A560" s="2" t="s">
+        <v>1274</v>
+      </c>
+      <c r="C560" s="7" t="s">
         <v>1275</v>
       </c>
-      <c r="C560" s="7" t="s">
-        <v>1276</v>
-      </c>
       <c r="D560" s="2" t="s">
-        <v>1277</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="561">
       <c r="A561" s="2" t="s">
+        <v>1276</v>
+      </c>
+      <c r="C561" s="7" t="s">
+        <v>1277</v>
+      </c>
+      <c r="D561" s="2" t="s">
         <v>1278</v>
-      </c>
-      <c r="C561" s="7" t="s">
-        <v>1279</v>
-      </c>
-      <c r="D561" s="2" t="s">
-        <v>1280</v>
       </c>
     </row>
     <row r="562">
       <c r="A562" s="2" t="s">
+        <v>1279</v>
+      </c>
+      <c r="C562" s="7" t="s">
+        <v>1280</v>
+      </c>
+      <c r="D562" s="2" t="s">
         <v>1281</v>
-      </c>
-      <c r="C562" s="7" t="s">
-        <v>1282</v>
-      </c>
-      <c r="D562" s="2" t="s">
-        <v>1283</v>
       </c>
     </row>
     <row r="563">
       <c r="A563" s="2" t="s">
+        <v>1282</v>
+      </c>
+      <c r="C563" s="7" t="s">
+        <v>1283</v>
+      </c>
+      <c r="D563" s="2" t="s">
         <v>1284</v>
-      </c>
-      <c r="C563" s="7" t="s">
-        <v>1285</v>
-      </c>
-      <c r="D563" s="2" t="s">
-        <v>1286</v>
       </c>
     </row>
     <row r="564">
       <c r="A564" s="2" t="s">
+        <v>1285</v>
+      </c>
+      <c r="C564" s="7" t="s">
+        <v>1286</v>
+      </c>
+      <c r="D564" s="2" t="s">
         <v>1287</v>
-      </c>
-      <c r="C564" s="7" t="s">
-        <v>1288</v>
-      </c>
-      <c r="D564" s="2" t="s">
-        <v>1286</v>
       </c>
     </row>
     <row r="565">
       <c r="A565" s="2" t="s">
+        <v>1288</v>
+      </c>
+      <c r="C565" s="7" t="s">
         <v>1289</v>
       </c>
-      <c r="C565" s="7" t="s">
+      <c r="D565" s="2" t="s">
         <v>1290</v>
-      </c>
-      <c r="D565" s="2" t="s">
-        <v>1286</v>
       </c>
     </row>
     <row r="566">
@@ -21828,73 +21873,73 @@
         <v>1292</v>
       </c>
       <c r="D566" s="2" t="s">
-        <v>1286</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="567">
       <c r="A567" s="2" t="s">
+        <v>1294</v>
+      </c>
+      <c r="C567" s="7" t="s">
+        <v>1295</v>
+      </c>
+      <c r="D567" s="2" t="s">
         <v>1293</v>
-      </c>
-      <c r="C567" s="7" t="s">
-        <v>1294</v>
-      </c>
-      <c r="D567" s="2" t="s">
-        <v>1286</v>
       </c>
     </row>
     <row r="568">
       <c r="A568" s="2" t="s">
-        <v>1295</v>
+        <v>1296</v>
       </c>
       <c r="C568" s="7" t="s">
-        <v>1296</v>
+        <v>1297</v>
       </c>
       <c r="D568" s="2" t="s">
-        <v>1286</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="569">
       <c r="A569" s="2" t="s">
-        <v>1297</v>
+        <v>1298</v>
       </c>
       <c r="C569" s="7" t="s">
-        <v>1298</v>
+        <v>1299</v>
       </c>
       <c r="D569" s="2" t="s">
-        <v>1286</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="570">
       <c r="A570" s="2" t="s">
-        <v>1299</v>
+        <v>1300</v>
       </c>
       <c r="C570" s="7" t="s">
-        <v>1300</v>
+        <v>1301</v>
       </c>
       <c r="D570" s="2" t="s">
-        <v>130</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="571">
       <c r="A571" s="2" t="s">
-        <v>1301</v>
+        <v>1302</v>
       </c>
       <c r="C571" s="7" t="s">
-        <v>1302</v>
+        <v>1303</v>
       </c>
       <c r="D571" s="2" t="s">
-        <v>130</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="572">
       <c r="A572" s="2" t="s">
-        <v>1303</v>
+        <v>1304</v>
       </c>
       <c r="C572" s="7" t="s">
-        <v>1304</v>
+        <v>1305</v>
       </c>
       <c r="D572" s="2" t="s">
-        <v>1305</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="573">
@@ -21905,7 +21950,7 @@
         <v>1307</v>
       </c>
       <c r="D573" s="2" t="s">
-        <v>1305</v>
+        <v>130</v>
       </c>
     </row>
     <row r="574">
@@ -21916,40 +21961,40 @@
         <v>1309</v>
       </c>
       <c r="D574" s="2" t="s">
-        <v>1310</v>
+        <v>130</v>
       </c>
     </row>
     <row r="575">
       <c r="A575" s="2" t="s">
+        <v>1310</v>
+      </c>
+      <c r="C575" s="7" t="s">
         <v>1311</v>
       </c>
-      <c r="C575" s="7" t="s">
+      <c r="D575" s="2" t="s">
         <v>1312</v>
-      </c>
-      <c r="D575" s="2" t="s">
-        <v>1313</v>
       </c>
     </row>
     <row r="576">
       <c r="A576" s="2" t="s">
+        <v>1313</v>
+      </c>
+      <c r="C576" s="7" t="s">
         <v>1314</v>
       </c>
-      <c r="C576" s="7" t="s">
-        <v>1315</v>
-      </c>
       <c r="D576" s="2" t="s">
-        <v>1286</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="577">
       <c r="A577" s="2" t="s">
+        <v>1315</v>
+      </c>
+      <c r="C577" s="7" t="s">
         <v>1316</v>
       </c>
-      <c r="C577" s="7" t="s">
+      <c r="D577" s="2" t="s">
         <v>1317</v>
-      </c>
-      <c r="D577" s="2" t="s">
-        <v>1286</v>
       </c>
     </row>
     <row r="578">
@@ -21960,62 +22005,62 @@
         <v>1319</v>
       </c>
       <c r="D578" s="2" t="s">
-        <v>1286</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="579">
       <c r="A579" s="2" t="s">
-        <v>1320</v>
+        <v>1321</v>
       </c>
       <c r="C579" s="7" t="s">
-        <v>1321</v>
+        <v>1322</v>
       </c>
       <c r="D579" s="2" t="s">
-        <v>1286</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="580">
       <c r="A580" s="2" t="s">
-        <v>1322</v>
+        <v>1323</v>
       </c>
       <c r="C580" s="7" t="s">
-        <v>1323</v>
+        <v>1324</v>
       </c>
       <c r="D580" s="2" t="s">
-        <v>1286</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="581">
       <c r="A581" s="2" t="s">
-        <v>1324</v>
+        <v>1325</v>
       </c>
       <c r="C581" s="7" t="s">
-        <v>1325</v>
+        <v>1326</v>
       </c>
       <c r="D581" s="2" t="s">
-        <v>1286</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="582">
       <c r="A582" s="2" t="s">
-        <v>1326</v>
+        <v>1327</v>
       </c>
       <c r="C582" s="7" t="s">
-        <v>1327</v>
+        <v>1328</v>
       </c>
       <c r="D582" s="2" t="s">
-        <v>1286</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="583">
       <c r="A583" s="2" t="s">
-        <v>1328</v>
+        <v>1329</v>
       </c>
       <c r="C583" s="7" t="s">
-        <v>1329</v>
+        <v>1330</v>
       </c>
       <c r="D583" s="2" t="s">
-        <v>1330</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="584">
@@ -22026,7 +22071,7 @@
         <v>1332</v>
       </c>
       <c r="D584" s="2" t="s">
-        <v>1330</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="585">
@@ -22037,7 +22082,7 @@
         <v>1334</v>
       </c>
       <c r="D585" s="2" t="s">
-        <v>1330</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="586">
@@ -22059,7 +22104,7 @@
         <v>1339</v>
       </c>
       <c r="D587" s="2" t="s">
-        <v>1330</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="588">
@@ -22070,40 +22115,40 @@
         <v>1341</v>
       </c>
       <c r="D588" s="2" t="s">
-        <v>1342</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="589">
       <c r="A589" s="2" t="s">
+        <v>1342</v>
+      </c>
+      <c r="C589" s="7" t="s">
         <v>1343</v>
       </c>
-      <c r="C589" s="7" t="s">
+      <c r="D589" s="2" t="s">
         <v>1344</v>
-      </c>
-      <c r="D589" s="2" t="s">
-        <v>1345</v>
       </c>
     </row>
     <row r="590">
       <c r="A590" s="2" t="s">
+        <v>1345</v>
+      </c>
+      <c r="C590" s="7" t="s">
         <v>1346</v>
       </c>
-      <c r="C590" s="7" t="s">
-        <v>1347</v>
-      </c>
       <c r="D590" s="2" t="s">
-        <v>1345</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="591">
       <c r="A591" s="2" t="s">
+        <v>1347</v>
+      </c>
+      <c r="C591" s="7" t="s">
         <v>1348</v>
       </c>
-      <c r="C591" s="7" t="s">
+      <c r="D591" s="2" t="s">
         <v>1349</v>
-      </c>
-      <c r="D591" s="2" t="s">
-        <v>1345</v>
       </c>
     </row>
     <row r="592">
@@ -22114,106 +22159,106 @@
         <v>1351</v>
       </c>
       <c r="D592" s="2" t="s">
-        <v>1345</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="593">
       <c r="A593" s="2" t="s">
+        <v>1353</v>
+      </c>
+      <c r="C593" s="7" t="s">
+        <v>1354</v>
+      </c>
+      <c r="D593" s="2" t="s">
         <v>1352</v>
-      </c>
-      <c r="C593" s="7" t="s">
-        <v>1353</v>
-      </c>
-      <c r="D593" s="2" t="s">
-        <v>1345</v>
       </c>
     </row>
     <row r="594">
       <c r="A594" s="2" t="s">
-        <v>1354</v>
+        <v>1355</v>
       </c>
       <c r="C594" s="7" t="s">
-        <v>1355</v>
+        <v>1356</v>
       </c>
       <c r="D594" s="2" t="s">
-        <v>1345</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="595">
       <c r="A595" s="2" t="s">
-        <v>1356</v>
+        <v>1357</v>
       </c>
       <c r="C595" s="7" t="s">
-        <v>1357</v>
+        <v>1358</v>
       </c>
       <c r="D595" s="2" t="s">
-        <v>1345</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="596">
       <c r="A596" s="2" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="C596" s="7" t="s">
-        <v>1359</v>
+        <v>1360</v>
       </c>
       <c r="D596" s="2" t="s">
-        <v>1345</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="597">
       <c r="A597" s="2" t="s">
-        <v>1360</v>
+        <v>1361</v>
       </c>
       <c r="C597" s="7" t="s">
-        <v>1361</v>
+        <v>1362</v>
       </c>
       <c r="D597" s="2" t="s">
-        <v>1345</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="598">
       <c r="A598" s="2" t="s">
-        <v>1362</v>
+        <v>1363</v>
       </c>
       <c r="C598" s="7" t="s">
-        <v>1363</v>
+        <v>1364</v>
       </c>
       <c r="D598" s="2" t="s">
-        <v>1345</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="599">
       <c r="A599" s="2" t="s">
-        <v>1364</v>
+        <v>1365</v>
       </c>
       <c r="C599" s="7" t="s">
-        <v>1365</v>
+        <v>1366</v>
       </c>
       <c r="D599" s="2" t="s">
-        <v>1345</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="600">
       <c r="A600" s="2" t="s">
-        <v>1366</v>
+        <v>1367</v>
       </c>
       <c r="C600" s="7" t="s">
-        <v>1367</v>
+        <v>1368</v>
       </c>
       <c r="D600" s="2" t="s">
-        <v>1345</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="601">
       <c r="A601" s="2" t="s">
-        <v>1368</v>
+        <v>1369</v>
       </c>
       <c r="C601" s="7" t="s">
-        <v>1369</v>
+        <v>1370</v>
       </c>
       <c r="D601" s="2" t="s">
-        <v>1370</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="602">
@@ -22224,40 +22269,40 @@
         <v>1372</v>
       </c>
       <c r="D602" s="2" t="s">
-        <v>1373</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="603">
       <c r="A603" s="2" t="s">
+        <v>1373</v>
+      </c>
+      <c r="C603" s="7" t="s">
         <v>1374</v>
       </c>
-      <c r="C603" s="7" t="s">
-        <v>1375</v>
-      </c>
       <c r="D603" s="2" t="s">
-        <v>1376</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="604">
       <c r="A604" s="2" t="s">
+        <v>1375</v>
+      </c>
+      <c r="C604" s="7" t="s">
+        <v>1376</v>
+      </c>
+      <c r="D604" s="2" t="s">
         <v>1377</v>
-      </c>
-      <c r="C604" s="7" t="s">
-        <v>1378</v>
-      </c>
-      <c r="D604" s="2" t="s">
-        <v>1376</v>
       </c>
     </row>
     <row r="605">
       <c r="A605" s="2" t="s">
+        <v>1378</v>
+      </c>
+      <c r="C605" s="7" t="s">
         <v>1379</v>
       </c>
-      <c r="C605" s="7" t="s">
+      <c r="D605" s="2" t="s">
         <v>1380</v>
-      </c>
-      <c r="D605" s="2" t="s">
-        <v>1376</v>
       </c>
     </row>
     <row r="606">
@@ -22268,29 +22313,29 @@
         <v>1382</v>
       </c>
       <c r="D606" s="2" t="s">
-        <v>1376</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="607">
       <c r="A607" s="2" t="s">
+        <v>1384</v>
+      </c>
+      <c r="C607" s="7" t="s">
+        <v>1385</v>
+      </c>
+      <c r="D607" s="2" t="s">
         <v>1383</v>
-      </c>
-      <c r="C607" s="7" t="s">
-        <v>1384</v>
-      </c>
-      <c r="D607" s="2" t="s">
-        <v>1376</v>
       </c>
     </row>
     <row r="608">
       <c r="A608" s="2" t="s">
-        <v>1385</v>
+        <v>1386</v>
       </c>
       <c r="C608" s="7" t="s">
-        <v>1386</v>
+        <v>1387</v>
       </c>
       <c r="D608" s="2" t="s">
-        <v>1387</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="609">
@@ -22301,7 +22346,7 @@
         <v>1389</v>
       </c>
       <c r="D609" s="2" t="s">
-        <v>1387</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="610">
@@ -22312,7 +22357,7 @@
         <v>1391</v>
       </c>
       <c r="D610" s="2" t="s">
-        <v>1387</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="611">
@@ -22334,95 +22379,95 @@
         <v>1396</v>
       </c>
       <c r="D612" s="2" t="s">
-        <v>1397</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="613">
       <c r="A613" s="2" t="s">
+        <v>1397</v>
+      </c>
+      <c r="C613" s="7" t="s">
         <v>1398</v>
       </c>
-      <c r="C613" s="7" t="s">
-        <v>1399</v>
-      </c>
       <c r="D613" s="2" t="s">
-        <v>1400</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="614">
       <c r="A614" s="2" t="s">
+        <v>1399</v>
+      </c>
+      <c r="C614" s="7" t="s">
+        <v>1400</v>
+      </c>
+      <c r="D614" s="2" t="s">
         <v>1401</v>
-      </c>
-      <c r="C614" s="7" t="s">
-        <v>1402</v>
-      </c>
-      <c r="D614" s="2" t="s">
-        <v>1400</v>
       </c>
     </row>
     <row r="615">
       <c r="A615" s="2" t="s">
+        <v>1402</v>
+      </c>
+      <c r="C615" s="7" t="s">
         <v>1403</v>
       </c>
-      <c r="C615" s="7" t="s">
+      <c r="D615" s="2" t="s">
         <v>1404</v>
-      </c>
-      <c r="D615" s="2" t="s">
-        <v>1405</v>
       </c>
     </row>
     <row r="616">
       <c r="A616" s="2" t="s">
+        <v>1405</v>
+      </c>
+      <c r="C616" s="7" t="s">
         <v>1406</v>
       </c>
-      <c r="C616" s="7" t="s">
+      <c r="D616" s="2" t="s">
         <v>1407</v>
-      </c>
-      <c r="D616" s="2" t="s">
-        <v>1408</v>
       </c>
     </row>
     <row r="617">
       <c r="A617" s="2" t="s">
+        <v>1408</v>
+      </c>
+      <c r="C617" s="7" t="s">
         <v>1409</v>
       </c>
-      <c r="C617" s="7" t="s">
-        <v>1410</v>
-      </c>
       <c r="D617" s="2" t="s">
-        <v>1411</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="618">
       <c r="A618" s="2" t="s">
+        <v>1410</v>
+      </c>
+      <c r="C618" s="7" t="s">
+        <v>1411</v>
+      </c>
+      <c r="D618" s="2" t="s">
         <v>1412</v>
-      </c>
-      <c r="C618" s="7" t="s">
-        <v>1413</v>
-      </c>
-      <c r="D618" s="2" t="s">
-        <v>1414</v>
       </c>
     </row>
     <row r="619">
       <c r="A619" s="2" t="s">
+        <v>1413</v>
+      </c>
+      <c r="C619" s="7" t="s">
+        <v>1414</v>
+      </c>
+      <c r="D619" s="2" t="s">
         <v>1415</v>
-      </c>
-      <c r="C619" s="7" t="s">
-        <v>1416</v>
-      </c>
-      <c r="D619" s="2" t="s">
-        <v>1414</v>
       </c>
     </row>
     <row r="620">
       <c r="A620" s="2" t="s">
+        <v>1416</v>
+      </c>
+      <c r="C620" s="7" t="s">
         <v>1417</v>
       </c>
-      <c r="C620" s="7" t="s">
+      <c r="D620" s="2" t="s">
         <v>1418</v>
-      </c>
-      <c r="D620" s="2" t="s">
-        <v>1414</v>
       </c>
     </row>
     <row r="621">
@@ -22433,29 +22478,29 @@
         <v>1420</v>
       </c>
       <c r="D621" s="2" t="s">
-        <v>1414</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="622">
       <c r="A622" s="2" t="s">
+        <v>1422</v>
+      </c>
+      <c r="C622" s="7" t="s">
+        <v>1423</v>
+      </c>
+      <c r="D622" s="2" t="s">
         <v>1421</v>
-      </c>
-      <c r="C622" s="7" t="s">
-        <v>1422</v>
-      </c>
-      <c r="D622" s="2" t="s">
-        <v>1414</v>
       </c>
     </row>
     <row r="623">
       <c r="A623" s="2" t="s">
-        <v>1423</v>
+        <v>1424</v>
       </c>
       <c r="C623" s="7" t="s">
-        <v>1424</v>
+        <v>1425</v>
       </c>
       <c r="D623" s="2" t="s">
-        <v>1425</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="624">
@@ -22466,7 +22511,7 @@
         <v>1427</v>
       </c>
       <c r="D624" s="2" t="s">
-        <v>529</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="625">
@@ -22477,40 +22522,40 @@
         <v>1429</v>
       </c>
       <c r="D625" s="2" t="s">
-        <v>1430</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="626">
       <c r="A626" s="2" t="s">
+        <v>1430</v>
+      </c>
+      <c r="C626" s="7" t="s">
         <v>1431</v>
       </c>
-      <c r="C626" s="7" t="s">
+      <c r="D626" s="2" t="s">
         <v>1432</v>
-      </c>
-      <c r="D626" s="2" t="s">
-        <v>1433</v>
       </c>
     </row>
     <row r="627">
       <c r="A627" s="2" t="s">
+        <v>1433</v>
+      </c>
+      <c r="C627" s="7" t="s">
         <v>1434</v>
       </c>
-      <c r="C627" s="7" t="s">
-        <v>1435</v>
-      </c>
       <c r="D627" s="2" t="s">
-        <v>1430</v>
+        <v>529</v>
       </c>
     </row>
     <row r="628">
       <c r="A628" s="2" t="s">
+        <v>1435</v>
+      </c>
+      <c r="C628" s="7" t="s">
         <v>1436</v>
       </c>
-      <c r="C628" s="7" t="s">
+      <c r="D628" s="2" t="s">
         <v>1437</v>
-      </c>
-      <c r="D628" s="2" t="s">
-        <v>1430</v>
       </c>
     </row>
     <row r="629">
@@ -22521,247 +22566,247 @@
         <v>1439</v>
       </c>
       <c r="D629" s="2" t="s">
-        <v>1430</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="630">
       <c r="A630" s="2" t="s">
-        <v>1440</v>
+        <v>1441</v>
       </c>
       <c r="C630" s="7" t="s">
-        <v>1441</v>
+        <v>1442</v>
       </c>
       <c r="D630" s="2" t="s">
-        <v>1430</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="631">
       <c r="A631" s="2" t="s">
-        <v>1442</v>
+        <v>1443</v>
       </c>
       <c r="C631" s="7" t="s">
-        <v>1443</v>
-      </c>
-      <c r="D631" s="2"/>
+        <v>1444</v>
+      </c>
+      <c r="D631" s="2" t="s">
+        <v>1437</v>
+      </c>
     </row>
     <row r="632">
       <c r="A632" s="2" t="s">
-        <v>1444</v>
+        <v>1445</v>
       </c>
       <c r="C632" s="7" t="s">
-        <v>1445</v>
+        <v>1446</v>
       </c>
       <c r="D632" s="2" t="s">
-        <v>1430</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="633">
       <c r="A633" s="2" t="s">
-        <v>1446</v>
+        <v>1447</v>
       </c>
       <c r="C633" s="7" t="s">
-        <v>1447</v>
+        <v>1448</v>
       </c>
       <c r="D633" s="2" t="s">
-        <v>1430</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="634">
       <c r="A634" s="2" t="s">
-        <v>1448</v>
+        <v>1449</v>
       </c>
       <c r="C634" s="7" t="s">
-        <v>1449</v>
-      </c>
-      <c r="D634" s="2" t="s">
-        <v>1433</v>
-      </c>
+        <v>1450</v>
+      </c>
+      <c r="D634" s="2"/>
     </row>
     <row r="635">
       <c r="A635" s="2" t="s">
-        <v>1450</v>
+        <v>1451</v>
       </c>
       <c r="C635" s="7" t="s">
-        <v>1451</v>
+        <v>1452</v>
       </c>
       <c r="D635" s="2" t="s">
-        <v>1433</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="636">
       <c r="A636" s="2" t="s">
-        <v>1452</v>
+        <v>1453</v>
       </c>
       <c r="C636" s="7" t="s">
-        <v>1453</v>
+        <v>1454</v>
       </c>
       <c r="D636" s="2" t="s">
-        <v>1433</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="637">
       <c r="A637" s="2" t="s">
-        <v>1454</v>
+        <v>1455</v>
       </c>
       <c r="C637" s="7" t="s">
-        <v>1455</v>
+        <v>1456</v>
       </c>
       <c r="D637" s="2" t="s">
-        <v>1433</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="638">
       <c r="A638" s="2" t="s">
-        <v>1456</v>
+        <v>1457</v>
       </c>
       <c r="C638" s="7" t="s">
-        <v>1457</v>
+        <v>1458</v>
       </c>
       <c r="D638" s="2" t="s">
-        <v>1430</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="639">
       <c r="A639" s="2" t="s">
-        <v>1458</v>
+        <v>1459</v>
       </c>
       <c r="C639" s="7" t="s">
-        <v>1459</v>
+        <v>1460</v>
       </c>
       <c r="D639" s="2" t="s">
-        <v>1430</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="640">
       <c r="A640" s="2" t="s">
-        <v>1460</v>
+        <v>1461</v>
       </c>
       <c r="C640" s="7" t="s">
-        <v>1461</v>
+        <v>1462</v>
       </c>
       <c r="D640" s="2" t="s">
-        <v>1430</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="641">
       <c r="A641" s="2" t="s">
-        <v>1462</v>
+        <v>1463</v>
       </c>
       <c r="C641" s="7" t="s">
-        <v>1463</v>
+        <v>1464</v>
       </c>
       <c r="D641" s="2" t="s">
-        <v>1430</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="642">
       <c r="A642" s="2" t="s">
-        <v>1464</v>
+        <v>1465</v>
       </c>
       <c r="C642" s="7" t="s">
-        <v>1465</v>
+        <v>1466</v>
       </c>
       <c r="D642" s="2" t="s">
-        <v>1430</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="643">
       <c r="A643" s="2" t="s">
-        <v>1466</v>
+        <v>1467</v>
       </c>
       <c r="C643" s="7" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="D643" s="2" t="s">
-        <v>1430</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="644">
       <c r="A644" s="2" t="s">
-        <v>1468</v>
+        <v>1469</v>
       </c>
       <c r="C644" s="7" t="s">
-        <v>1469</v>
+        <v>1470</v>
       </c>
       <c r="D644" s="2" t="s">
-        <v>1430</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="645">
       <c r="A645" s="2" t="s">
-        <v>1470</v>
+        <v>1471</v>
       </c>
       <c r="C645" s="7" t="s">
-        <v>1471</v>
+        <v>1472</v>
       </c>
       <c r="D645" s="2" t="s">
-        <v>1430</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="646">
       <c r="A646" s="2" t="s">
-        <v>1472</v>
+        <v>1473</v>
       </c>
       <c r="C646" s="7" t="s">
-        <v>1473</v>
+        <v>1474</v>
       </c>
       <c r="D646" s="2" t="s">
-        <v>1430</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="647">
       <c r="A647" s="2" t="s">
-        <v>1474</v>
+        <v>1475</v>
       </c>
       <c r="C647" s="7" t="s">
-        <v>1475</v>
+        <v>1476</v>
       </c>
       <c r="D647" s="2" t="s">
-        <v>1430</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="648">
       <c r="A648" s="2" t="s">
-        <v>1476</v>
+        <v>1477</v>
       </c>
       <c r="C648" s="7" t="s">
-        <v>1477</v>
+        <v>1478</v>
       </c>
       <c r="D648" s="2" t="s">
-        <v>1430</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="649">
       <c r="A649" s="2" t="s">
-        <v>1478</v>
+        <v>1479</v>
       </c>
       <c r="C649" s="7" t="s">
-        <v>1479</v>
+        <v>1480</v>
       </c>
       <c r="D649" s="2" t="s">
-        <v>1430</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="650">
       <c r="A650" s="2" t="s">
-        <v>1480</v>
+        <v>1481</v>
       </c>
       <c r="C650" s="7" t="s">
-        <v>1481</v>
+        <v>1482</v>
       </c>
       <c r="D650" s="2" t="s">
-        <v>1430</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="651">
       <c r="A651" s="2" t="s">
-        <v>1482</v>
+        <v>1483</v>
       </c>
       <c r="C651" s="7" t="s">
-        <v>1483</v>
+        <v>1484</v>
       </c>
       <c r="D651" s="2" t="s">
-        <v>1484</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="652">
@@ -22772,7 +22817,7 @@
         <v>1486</v>
       </c>
       <c r="D652" s="2" t="s">
-        <v>1484</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="653">
@@ -22783,7 +22828,7 @@
         <v>1488</v>
       </c>
       <c r="D653" s="2" t="s">
-        <v>1484</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="654">
@@ -22794,964 +22839,964 @@
         <v>1490</v>
       </c>
       <c r="D654" s="2" t="s">
-        <v>1430</v>
+        <v>1491</v>
       </c>
     </row>
     <row r="655">
       <c r="A655" s="2" t="s">
+        <v>1492</v>
+      </c>
+      <c r="C655" s="7" t="s">
+        <v>1493</v>
+      </c>
+      <c r="D655" s="2" t="s">
         <v>1491</v>
-      </c>
-      <c r="C655" s="7" t="s">
-        <v>1492</v>
-      </c>
-      <c r="D655" s="2" t="s">
-        <v>1430</v>
       </c>
     </row>
     <row r="656">
       <c r="A656" s="2" t="s">
-        <v>1493</v>
+        <v>1494</v>
       </c>
       <c r="C656" s="7" t="s">
-        <v>1494</v>
+        <v>1495</v>
       </c>
       <c r="D656" s="2" t="s">
-        <v>1430</v>
+        <v>1491</v>
       </c>
     </row>
     <row r="657">
       <c r="A657" s="2" t="s">
-        <v>1495</v>
+        <v>1496</v>
       </c>
       <c r="C657" s="7" t="s">
-        <v>1496</v>
+        <v>1497</v>
       </c>
       <c r="D657" s="2" t="s">
-        <v>1430</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="658">
       <c r="A658" s="2" t="s">
-        <v>1497</v>
+        <v>1498</v>
       </c>
       <c r="C658" s="7" t="s">
-        <v>1498</v>
+        <v>1499</v>
       </c>
       <c r="D658" s="2" t="s">
-        <v>1430</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="659">
       <c r="A659" s="2" t="s">
-        <v>1499</v>
+        <v>1500</v>
       </c>
       <c r="C659" s="7" t="s">
-        <v>1500</v>
+        <v>1501</v>
       </c>
       <c r="D659" s="2" t="s">
-        <v>1430</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="660">
       <c r="A660" s="2" t="s">
-        <v>1501</v>
+        <v>1502</v>
       </c>
       <c r="C660" s="7" t="s">
-        <v>1502</v>
+        <v>1503</v>
       </c>
       <c r="D660" s="2" t="s">
-        <v>1430</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="661">
       <c r="A661" s="2" t="s">
-        <v>1503</v>
+        <v>1504</v>
       </c>
       <c r="C661" s="7" t="s">
-        <v>1504</v>
+        <v>1505</v>
       </c>
       <c r="D661" s="2" t="s">
-        <v>1430</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="662">
       <c r="A662" s="2" t="s">
-        <v>1505</v>
+        <v>1506</v>
       </c>
       <c r="C662" s="7" t="s">
-        <v>1506</v>
+        <v>1507</v>
       </c>
       <c r="D662" s="2" t="s">
-        <v>1430</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="663">
       <c r="A663" s="2" t="s">
-        <v>1507</v>
+        <v>1508</v>
       </c>
       <c r="C663" s="7" t="s">
-        <v>1508</v>
+        <v>1509</v>
       </c>
       <c r="D663" s="2" t="s">
-        <v>1430</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="664">
       <c r="A664" s="2" t="s">
-        <v>1509</v>
+        <v>1510</v>
       </c>
       <c r="C664" s="7" t="s">
-        <v>1510</v>
+        <v>1511</v>
       </c>
       <c r="D664" s="2" t="s">
-        <v>1430</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="665">
       <c r="A665" s="2" t="s">
-        <v>1511</v>
+        <v>1512</v>
       </c>
       <c r="C665" s="7" t="s">
-        <v>1512</v>
+        <v>1513</v>
       </c>
       <c r="D665" s="2" t="s">
-        <v>1430</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="666">
       <c r="A666" s="2" t="s">
-        <v>1513</v>
+        <v>1514</v>
       </c>
       <c r="C666" s="7" t="s">
-        <v>1514</v>
+        <v>1515</v>
       </c>
       <c r="D666" s="2" t="s">
-        <v>1430</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="667">
       <c r="A667" s="2" t="s">
-        <v>1515</v>
+        <v>1516</v>
       </c>
       <c r="C667" s="7" t="s">
-        <v>1516</v>
+        <v>1517</v>
       </c>
       <c r="D667" s="2" t="s">
-        <v>1430</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="668">
       <c r="A668" s="2" t="s">
-        <v>1517</v>
+        <v>1518</v>
       </c>
       <c r="C668" s="7" t="s">
-        <v>1518</v>
+        <v>1519</v>
       </c>
       <c r="D668" s="2" t="s">
-        <v>1430</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="669">
       <c r="A669" s="2" t="s">
-        <v>1519</v>
+        <v>1520</v>
       </c>
       <c r="C669" s="7" t="s">
-        <v>1520</v>
+        <v>1521</v>
       </c>
       <c r="D669" s="2" t="s">
-        <v>1430</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="670">
       <c r="A670" s="2" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="C670" s="7" t="s">
-        <v>1522</v>
+        <v>1523</v>
       </c>
       <c r="D670" s="2" t="s">
-        <v>1430</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="671">
       <c r="A671" s="2" t="s">
-        <v>1523</v>
+        <v>1524</v>
       </c>
       <c r="C671" s="7" t="s">
-        <v>1524</v>
+        <v>1525</v>
       </c>
       <c r="D671" s="2" t="s">
-        <v>1430</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="672">
       <c r="A672" s="2" t="s">
-        <v>1525</v>
+        <v>1526</v>
       </c>
       <c r="C672" s="7" t="s">
-        <v>1526</v>
+        <v>1527</v>
       </c>
       <c r="D672" s="2" t="s">
-        <v>1430</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="673">
       <c r="A673" s="2" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
       <c r="C673" s="7" t="s">
-        <v>1528</v>
+        <v>1529</v>
       </c>
       <c r="D673" s="2" t="s">
-        <v>1430</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="674">
       <c r="A674" s="2" t="s">
-        <v>1529</v>
+        <v>1530</v>
       </c>
       <c r="C674" s="7" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="D674" s="2" t="s">
-        <v>1430</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="675">
       <c r="A675" s="2" t="s">
-        <v>1531</v>
+        <v>1532</v>
       </c>
       <c r="C675" s="7" t="s">
-        <v>1532</v>
+        <v>1533</v>
       </c>
       <c r="D675" s="2" t="s">
-        <v>1430</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="676">
       <c r="A676" s="2" t="s">
-        <v>1533</v>
+        <v>1534</v>
       </c>
       <c r="C676" s="7" t="s">
-        <v>1534</v>
+        <v>1535</v>
       </c>
       <c r="D676" s="2" t="s">
-        <v>1430</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="677">
       <c r="A677" s="2" t="s">
-        <v>1535</v>
+        <v>1536</v>
       </c>
       <c r="C677" s="7" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="D677" s="2" t="s">
-        <v>1430</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="678">
       <c r="A678" s="2" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="C678" s="7" t="s">
-        <v>1538</v>
+        <v>1539</v>
       </c>
       <c r="D678" s="2" t="s">
-        <v>1433</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="679">
       <c r="A679" s="2" t="s">
-        <v>1539</v>
+        <v>1540</v>
       </c>
       <c r="C679" s="7" t="s">
-        <v>1540</v>
+        <v>1541</v>
       </c>
       <c r="D679" s="2" t="s">
-        <v>1433</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="680">
       <c r="A680" s="2" t="s">
-        <v>1541</v>
+        <v>1542</v>
       </c>
       <c r="C680" s="7" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="D680" s="2" t="s">
-        <v>1433</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="681">
       <c r="A681" s="2" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="C681" s="7" t="s">
-        <v>1544</v>
+        <v>1545</v>
       </c>
       <c r="D681" s="2" t="s">
-        <v>1433</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="682">
       <c r="A682" s="2" t="s">
-        <v>1545</v>
+        <v>1546</v>
       </c>
       <c r="C682" s="7" t="s">
-        <v>1546</v>
+        <v>1547</v>
       </c>
       <c r="D682" s="2" t="s">
-        <v>1430</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="683">
       <c r="A683" s="2" t="s">
-        <v>1547</v>
+        <v>1548</v>
       </c>
       <c r="C683" s="7" t="s">
-        <v>1548</v>
+        <v>1549</v>
       </c>
       <c r="D683" s="2" t="s">
-        <v>1430</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="684">
       <c r="A684" s="2" t="s">
-        <v>1549</v>
+        <v>1550</v>
       </c>
       <c r="C684" s="7" t="s">
-        <v>1550</v>
+        <v>1551</v>
       </c>
       <c r="D684" s="2" t="s">
-        <v>1430</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="685">
       <c r="A685" s="2" t="s">
-        <v>1551</v>
+        <v>1552</v>
       </c>
       <c r="C685" s="7" t="s">
-        <v>1552</v>
+        <v>1553</v>
       </c>
       <c r="D685" s="2" t="s">
-        <v>1430</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="686">
       <c r="A686" s="2" t="s">
-        <v>1553</v>
+        <v>1554</v>
       </c>
       <c r="C686" s="7" t="s">
-        <v>1554</v>
+        <v>1555</v>
       </c>
       <c r="D686" s="2" t="s">
-        <v>1430</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="687">
       <c r="A687" s="2" t="s">
-        <v>1555</v>
+        <v>1556</v>
       </c>
       <c r="C687" s="7" t="s">
-        <v>1556</v>
+        <v>1557</v>
       </c>
       <c r="D687" s="2" t="s">
-        <v>1430</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="688">
       <c r="A688" s="2" t="s">
-        <v>1557</v>
+        <v>1558</v>
       </c>
       <c r="C688" s="7" t="s">
-        <v>1558</v>
+        <v>1559</v>
       </c>
       <c r="D688" s="2" t="s">
-        <v>1430</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="689">
       <c r="A689" s="2" t="s">
-        <v>1559</v>
+        <v>1560</v>
       </c>
       <c r="C689" s="7" t="s">
-        <v>1560</v>
+        <v>1561</v>
       </c>
       <c r="D689" s="2" t="s">
-        <v>1430</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="690">
       <c r="A690" s="2" t="s">
-        <v>1561</v>
+        <v>1562</v>
       </c>
       <c r="C690" s="7" t="s">
-        <v>1562</v>
+        <v>1563</v>
       </c>
       <c r="D690" s="2" t="s">
-        <v>1430</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="691">
       <c r="A691" s="2" t="s">
-        <v>1563</v>
+        <v>1564</v>
       </c>
       <c r="C691" s="7" t="s">
-        <v>1564</v>
+        <v>1565</v>
       </c>
       <c r="D691" s="2" t="s">
-        <v>1433</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="692">
       <c r="A692" s="2" t="s">
-        <v>1565</v>
+        <v>1566</v>
       </c>
       <c r="C692" s="7" t="s">
-        <v>1566</v>
+        <v>1567</v>
       </c>
       <c r="D692" s="2" t="s">
-        <v>1430</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="693">
       <c r="A693" s="2" t="s">
-        <v>1567</v>
+        <v>1568</v>
       </c>
       <c r="C693" s="7" t="s">
-        <v>1568</v>
+        <v>1569</v>
       </c>
       <c r="D693" s="2" t="s">
-        <v>1433</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="694">
       <c r="A694" s="2" t="s">
-        <v>1569</v>
+        <v>1570</v>
       </c>
       <c r="C694" s="7" t="s">
-        <v>1570</v>
+        <v>1571</v>
       </c>
       <c r="D694" s="2" t="s">
-        <v>1430</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="695">
       <c r="A695" s="2" t="s">
-        <v>1571</v>
+        <v>1572</v>
       </c>
       <c r="C695" s="7" t="s">
-        <v>1572</v>
+        <v>1573</v>
       </c>
       <c r="D695" s="2" t="s">
-        <v>1430</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="696">
       <c r="A696" s="2" t="s">
-        <v>1573</v>
+        <v>1574</v>
       </c>
       <c r="C696" s="7" t="s">
-        <v>1574</v>
+        <v>1575</v>
       </c>
       <c r="D696" s="2" t="s">
-        <v>1430</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="697">
       <c r="A697" s="2" t="s">
-        <v>1575</v>
+        <v>1576</v>
       </c>
       <c r="C697" s="7" t="s">
-        <v>1576</v>
+        <v>1577</v>
       </c>
       <c r="D697" s="2" t="s">
-        <v>1433</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="698">
       <c r="A698" s="2" t="s">
-        <v>1577</v>
+        <v>1578</v>
       </c>
       <c r="C698" s="7" t="s">
-        <v>1578</v>
+        <v>1579</v>
       </c>
       <c r="D698" s="2" t="s">
-        <v>1430</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="699">
       <c r="A699" s="2" t="s">
-        <v>1579</v>
+        <v>1580</v>
       </c>
       <c r="C699" s="7" t="s">
-        <v>1580</v>
+        <v>1581</v>
       </c>
       <c r="D699" s="2" t="s">
-        <v>1433</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="700">
       <c r="A700" s="2" t="s">
-        <v>1581</v>
+        <v>1582</v>
       </c>
       <c r="C700" s="7" t="s">
-        <v>1582</v>
+        <v>1583</v>
       </c>
       <c r="D700" s="2" t="s">
-        <v>1433</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="701">
       <c r="A701" s="2" t="s">
-        <v>1583</v>
+        <v>1584</v>
       </c>
       <c r="C701" s="7" t="s">
-        <v>1584</v>
+        <v>1585</v>
       </c>
       <c r="D701" s="2" t="s">
-        <v>1430</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="702">
       <c r="A702" s="2" t="s">
-        <v>1585</v>
+        <v>1586</v>
       </c>
       <c r="C702" s="7" t="s">
-        <v>1586</v>
+        <v>1587</v>
       </c>
       <c r="D702" s="2" t="s">
-        <v>1433</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="703">
       <c r="A703" s="2" t="s">
-        <v>1587</v>
+        <v>1588</v>
       </c>
       <c r="C703" s="7" t="s">
-        <v>1588</v>
+        <v>1589</v>
       </c>
       <c r="D703" s="2" t="s">
-        <v>1430</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="704">
       <c r="A704" s="2" t="s">
-        <v>1589</v>
+        <v>1590</v>
       </c>
       <c r="C704" s="7" t="s">
-        <v>1590</v>
+        <v>1591</v>
       </c>
       <c r="D704" s="2" t="s">
-        <v>1430</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="705">
       <c r="A705" s="2" t="s">
-        <v>1591</v>
+        <v>1592</v>
       </c>
       <c r="C705" s="7" t="s">
-        <v>1592</v>
+        <v>1593</v>
       </c>
       <c r="D705" s="2" t="s">
-        <v>1430</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="706">
       <c r="A706" s="2" t="s">
-        <v>1593</v>
+        <v>1594</v>
       </c>
       <c r="C706" s="7" t="s">
-        <v>1594</v>
+        <v>1595</v>
       </c>
       <c r="D706" s="2" t="s">
-        <v>1430</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="707">
       <c r="A707" s="2" t="s">
-        <v>1595</v>
+        <v>1596</v>
       </c>
       <c r="C707" s="7" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="D707" s="2" t="s">
-        <v>1430</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="708">
       <c r="A708" s="2" t="s">
-        <v>1597</v>
+        <v>1598</v>
       </c>
       <c r="C708" s="7" t="s">
-        <v>1598</v>
+        <v>1599</v>
       </c>
       <c r="D708" s="2" t="s">
-        <v>1430</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="709">
       <c r="A709" s="2" t="s">
-        <v>1599</v>
+        <v>1600</v>
       </c>
       <c r="C709" s="7" t="s">
-        <v>1600</v>
+        <v>1601</v>
       </c>
       <c r="D709" s="2" t="s">
-        <v>1430</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="710">
       <c r="A710" s="2" t="s">
-        <v>1601</v>
+        <v>1602</v>
       </c>
       <c r="C710" s="7" t="s">
-        <v>1602</v>
+        <v>1603</v>
       </c>
       <c r="D710" s="2" t="s">
-        <v>1433</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="711">
       <c r="A711" s="2" t="s">
-        <v>1603</v>
+        <v>1604</v>
       </c>
       <c r="C711" s="7" t="s">
-        <v>1604</v>
+        <v>1605</v>
       </c>
       <c r="D711" s="2" t="s">
-        <v>1433</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="712">
       <c r="A712" s="2" t="s">
-        <v>1605</v>
+        <v>1606</v>
       </c>
       <c r="C712" s="7" t="s">
-        <v>1606</v>
+        <v>1607</v>
       </c>
       <c r="D712" s="2" t="s">
-        <v>1433</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="713">
       <c r="A713" s="2" t="s">
-        <v>1607</v>
+        <v>1608</v>
       </c>
       <c r="C713" s="7" t="s">
-        <v>1608</v>
+        <v>1609</v>
       </c>
       <c r="D713" s="2" t="s">
-        <v>1433</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="714">
       <c r="A714" s="2" t="s">
-        <v>1609</v>
+        <v>1610</v>
       </c>
       <c r="C714" s="7" t="s">
-        <v>1610</v>
+        <v>1611</v>
       </c>
       <c r="D714" s="2" t="s">
-        <v>1433</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="715">
       <c r="A715" s="2" t="s">
-        <v>1611</v>
+        <v>1612</v>
       </c>
       <c r="C715" s="7" t="s">
-        <v>1612</v>
+        <v>1613</v>
       </c>
       <c r="D715" s="2" t="s">
-        <v>1433</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="716">
       <c r="A716" s="2" t="s">
-        <v>1613</v>
+        <v>1614</v>
       </c>
       <c r="C716" s="7" t="s">
-        <v>1614</v>
+        <v>1615</v>
       </c>
       <c r="D716" s="2" t="s">
-        <v>1433</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="717">
       <c r="A717" s="2" t="s">
-        <v>1615</v>
+        <v>1616</v>
       </c>
       <c r="C717" s="7" t="s">
-        <v>1616</v>
+        <v>1617</v>
       </c>
       <c r="D717" s="2" t="s">
-        <v>1430</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="718">
       <c r="A718" s="2" t="s">
-        <v>1617</v>
+        <v>1618</v>
       </c>
       <c r="C718" s="7" t="s">
-        <v>1618</v>
+        <v>1619</v>
       </c>
       <c r="D718" s="2" t="s">
-        <v>1430</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="719">
       <c r="A719" s="2" t="s">
-        <v>1619</v>
+        <v>1620</v>
       </c>
       <c r="C719" s="7" t="s">
-        <v>1620</v>
+        <v>1621</v>
       </c>
       <c r="D719" s="2" t="s">
-        <v>1430</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="720">
       <c r="A720" s="2" t="s">
-        <v>1621</v>
+        <v>1622</v>
       </c>
       <c r="C720" s="7" t="s">
-        <v>1622</v>
+        <v>1623</v>
       </c>
       <c r="D720" s="2" t="s">
-        <v>1430</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="721">
       <c r="A721" s="2" t="s">
-        <v>1623</v>
+        <v>1624</v>
       </c>
       <c r="C721" s="7" t="s">
-        <v>1624</v>
+        <v>1625</v>
       </c>
       <c r="D721" s="2" t="s">
-        <v>1433</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="722">
       <c r="A722" s="2" t="s">
-        <v>1625</v>
+        <v>1626</v>
       </c>
       <c r="C722" s="7" t="s">
-        <v>1626</v>
+        <v>1627</v>
       </c>
       <c r="D722" s="2" t="s">
-        <v>1430</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="723">
       <c r="A723" s="2" t="s">
-        <v>1627</v>
+        <v>1628</v>
       </c>
       <c r="C723" s="7" t="s">
-        <v>1628</v>
+        <v>1629</v>
       </c>
       <c r="D723" s="2" t="s">
-        <v>1430</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="724">
       <c r="A724" s="2" t="s">
-        <v>1629</v>
+        <v>1630</v>
       </c>
       <c r="C724" s="7" t="s">
-        <v>1630</v>
+        <v>1631</v>
       </c>
       <c r="D724" s="2" t="s">
-        <v>1430</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="725">
       <c r="A725" s="2" t="s">
-        <v>1631</v>
+        <v>1632</v>
       </c>
       <c r="C725" s="7" t="s">
-        <v>1632</v>
+        <v>1633</v>
       </c>
       <c r="D725" s="2" t="s">
-        <v>1430</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="726">
       <c r="A726" s="2" t="s">
-        <v>1633</v>
+        <v>1634</v>
       </c>
       <c r="C726" s="7" t="s">
-        <v>1634</v>
+        <v>1635</v>
       </c>
       <c r="D726" s="2" t="s">
-        <v>1430</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="727">
       <c r="A727" s="2" t="s">
-        <v>1635</v>
+        <v>1636</v>
       </c>
       <c r="C727" s="7" t="s">
-        <v>1636</v>
+        <v>1637</v>
       </c>
       <c r="D727" s="2" t="s">
-        <v>1430</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="728">
       <c r="A728" s="2" t="s">
-        <v>1637</v>
+        <v>1638</v>
       </c>
       <c r="C728" s="7" t="s">
-        <v>1638</v>
+        <v>1639</v>
       </c>
       <c r="D728" s="2" t="s">
-        <v>1433</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="729">
       <c r="A729" s="2" t="s">
-        <v>1639</v>
+        <v>1640</v>
       </c>
       <c r="C729" s="7" t="s">
-        <v>1640</v>
+        <v>1641</v>
       </c>
       <c r="D729" s="2" t="s">
-        <v>1430</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="730">
       <c r="A730" s="2" t="s">
-        <v>1641</v>
+        <v>1642</v>
       </c>
       <c r="C730" s="7" t="s">
-        <v>1642</v>
+        <v>1643</v>
       </c>
       <c r="D730" s="2" t="s">
-        <v>1430</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="731">
       <c r="A731" s="2" t="s">
-        <v>1643</v>
+        <v>1644</v>
       </c>
       <c r="C731" s="7" t="s">
-        <v>1644</v>
+        <v>1645</v>
       </c>
       <c r="D731" s="2" t="s">
-        <v>1430</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="732">
       <c r="A732" s="2" t="s">
-        <v>1645</v>
+        <v>1646</v>
       </c>
       <c r="C732" s="7" t="s">
-        <v>1646</v>
+        <v>1647</v>
       </c>
       <c r="D732" s="2" t="s">
-        <v>1430</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="733">
       <c r="A733" s="2" t="s">
-        <v>1647</v>
+        <v>1648</v>
       </c>
       <c r="C733" s="7" t="s">
-        <v>1648</v>
+        <v>1649</v>
       </c>
       <c r="D733" s="2" t="s">
-        <v>1430</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="734">
       <c r="A734" s="2" t="s">
-        <v>1649</v>
+        <v>1650</v>
       </c>
       <c r="C734" s="7" t="s">
-        <v>1650</v>
+        <v>1651</v>
       </c>
       <c r="D734" s="2" t="s">
-        <v>1433</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="735">
       <c r="A735" s="2" t="s">
-        <v>1651</v>
+        <v>1652</v>
       </c>
       <c r="C735" s="7" t="s">
-        <v>1652</v>
+        <v>1653</v>
       </c>
       <c r="D735" s="2" t="s">
-        <v>1430</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="736">
       <c r="A736" s="2" t="s">
-        <v>1653</v>
+        <v>1654</v>
       </c>
       <c r="C736" s="7" t="s">
-        <v>1654</v>
+        <v>1655</v>
       </c>
       <c r="D736" s="2" t="s">
-        <v>1430</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="737">
       <c r="A737" s="2" t="s">
-        <v>1655</v>
+        <v>1656</v>
       </c>
       <c r="C737" s="7" t="s">
-        <v>1656</v>
+        <v>1657</v>
       </c>
       <c r="D737" s="2" t="s">
-        <v>1430</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="738">
       <c r="A738" s="2" t="s">
-        <v>1657</v>
+        <v>1658</v>
       </c>
       <c r="C738" s="7" t="s">
-        <v>1658</v>
+        <v>1659</v>
       </c>
       <c r="D738" s="2" t="s">
-        <v>1433</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="739">
       <c r="A739" s="2" t="s">
-        <v>1659</v>
+        <v>1660</v>
       </c>
       <c r="C739" s="7" t="s">
-        <v>1660</v>
+        <v>1661</v>
       </c>
       <c r="D739" s="2" t="s">
-        <v>1430</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="740">
       <c r="A740" s="2" t="s">
-        <v>1661</v>
+        <v>1662</v>
       </c>
       <c r="C740" s="7" t="s">
-        <v>1662</v>
+        <v>1663</v>
       </c>
       <c r="D740" s="2" t="s">
-        <v>1433</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="741">
       <c r="A741" s="2" t="s">
-        <v>1663</v>
+        <v>1664</v>
       </c>
       <c r="C741" s="7" t="s">
-        <v>1664</v>
+        <v>1665</v>
       </c>
       <c r="D741" s="2" t="s">
-        <v>1665</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="742">
@@ -23762,95 +23807,95 @@
         <v>1667</v>
       </c>
       <c r="D742" s="2" t="s">
-        <v>1668</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="743">
       <c r="A743" s="2" t="s">
+        <v>1668</v>
+      </c>
+      <c r="C743" s="7" t="s">
         <v>1669</v>
       </c>
-      <c r="C743" s="7" t="s">
-        <v>1670</v>
-      </c>
       <c r="D743" s="2" t="s">
-        <v>1671</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="744">
       <c r="A744" s="2" t="s">
+        <v>1670</v>
+      </c>
+      <c r="C744" s="7" t="s">
+        <v>1671</v>
+      </c>
+      <c r="D744" s="2" t="s">
         <v>1672</v>
-      </c>
-      <c r="C744" s="7" t="s">
-        <v>1673</v>
-      </c>
-      <c r="D744" s="2" t="s">
-        <v>1674</v>
       </c>
     </row>
     <row r="745">
       <c r="A745" s="2" t="s">
+        <v>1673</v>
+      </c>
+      <c r="C745" s="7" t="s">
+        <v>1674</v>
+      </c>
+      <c r="D745" s="2" t="s">
         <v>1675</v>
-      </c>
-      <c r="C745" s="7" t="s">
-        <v>1676</v>
-      </c>
-      <c r="D745" s="2" t="s">
-        <v>1677</v>
       </c>
     </row>
     <row r="746">
       <c r="A746" s="2" t="s">
+        <v>1676</v>
+      </c>
+      <c r="C746" s="7" t="s">
+        <v>1677</v>
+      </c>
+      <c r="D746" s="2" t="s">
         <v>1678</v>
-      </c>
-      <c r="C746" s="7" t="s">
-        <v>1679</v>
-      </c>
-      <c r="D746" s="2" t="s">
-        <v>1680</v>
       </c>
     </row>
     <row r="747">
       <c r="A747" s="2" t="s">
+        <v>1679</v>
+      </c>
+      <c r="C747" s="7" t="s">
+        <v>1680</v>
+      </c>
+      <c r="D747" s="2" t="s">
         <v>1681</v>
-      </c>
-      <c r="C747" s="7" t="s">
-        <v>1682</v>
-      </c>
-      <c r="D747" s="2" t="s">
-        <v>1683</v>
       </c>
     </row>
     <row r="748">
       <c r="A748" s="2" t="s">
+        <v>1682</v>
+      </c>
+      <c r="C748" s="7" t="s">
+        <v>1683</v>
+      </c>
+      <c r="D748" s="2" t="s">
         <v>1684</v>
-      </c>
-      <c r="C748" s="7" t="s">
-        <v>1685</v>
-      </c>
-      <c r="D748" s="2" t="s">
-        <v>1686</v>
       </c>
     </row>
     <row r="749">
       <c r="A749" s="2" t="s">
+        <v>1685</v>
+      </c>
+      <c r="C749" s="7" t="s">
+        <v>1686</v>
+      </c>
+      <c r="D749" s="2" t="s">
         <v>1687</v>
-      </c>
-      <c r="C749" s="7" t="s">
-        <v>1688</v>
-      </c>
-      <c r="D749" s="2" t="s">
-        <v>1686</v>
       </c>
     </row>
     <row r="750">
       <c r="A750" s="2" t="s">
+        <v>1688</v>
+      </c>
+      <c r="C750" s="7" t="s">
         <v>1689</v>
       </c>
-      <c r="C750" s="7" t="s">
+      <c r="D750" s="2" t="s">
         <v>1690</v>
-      </c>
-      <c r="D750" s="2" t="s">
-        <v>1686</v>
       </c>
     </row>
     <row r="751">
@@ -23861,128 +23906,128 @@
         <v>1692</v>
       </c>
       <c r="D751" s="2" t="s">
-        <v>1686</v>
+        <v>1693</v>
       </c>
     </row>
     <row r="752">
       <c r="A752" s="2" t="s">
+        <v>1694</v>
+      </c>
+      <c r="C752" s="7" t="s">
+        <v>1695</v>
+      </c>
+      <c r="D752" s="2" t="s">
         <v>1693</v>
-      </c>
-      <c r="C752" s="7" t="s">
-        <v>1694</v>
-      </c>
-      <c r="D752" s="2" t="s">
-        <v>1686</v>
       </c>
     </row>
     <row r="753">
       <c r="A753" s="2" t="s">
-        <v>1695</v>
+        <v>1696</v>
       </c>
       <c r="C753" s="7" t="s">
-        <v>1696</v>
+        <v>1697</v>
       </c>
       <c r="D753" s="2" t="s">
-        <v>1686</v>
+        <v>1693</v>
       </c>
     </row>
     <row r="754">
       <c r="A754" s="2" t="s">
-        <v>1697</v>
+        <v>1698</v>
       </c>
       <c r="C754" s="7" t="s">
-        <v>1698</v>
+        <v>1699</v>
       </c>
       <c r="D754" s="2" t="s">
-        <v>1686</v>
+        <v>1693</v>
       </c>
     </row>
     <row r="755">
       <c r="A755" s="2" t="s">
-        <v>1699</v>
+        <v>1700</v>
       </c>
       <c r="C755" s="7" t="s">
-        <v>1700</v>
+        <v>1701</v>
       </c>
       <c r="D755" s="2" t="s">
-        <v>1686</v>
+        <v>1693</v>
       </c>
     </row>
     <row r="756">
       <c r="A756" s="2" t="s">
-        <v>1701</v>
+        <v>1702</v>
       </c>
       <c r="C756" s="7" t="s">
-        <v>1702</v>
+        <v>1703</v>
       </c>
       <c r="D756" s="2" t="s">
-        <v>1686</v>
+        <v>1693</v>
       </c>
     </row>
     <row r="757">
       <c r="A757" s="2" t="s">
-        <v>1703</v>
+        <v>1704</v>
       </c>
       <c r="C757" s="7" t="s">
-        <v>1704</v>
+        <v>1705</v>
       </c>
       <c r="D757" s="2" t="s">
-        <v>1686</v>
+        <v>1693</v>
       </c>
     </row>
     <row r="758">
       <c r="A758" s="2" t="s">
-        <v>1705</v>
+        <v>1706</v>
       </c>
       <c r="C758" s="7" t="s">
-        <v>1706</v>
+        <v>1707</v>
       </c>
       <c r="D758" s="2" t="s">
-        <v>1686</v>
+        <v>1693</v>
       </c>
     </row>
     <row r="759">
       <c r="A759" s="2" t="s">
-        <v>1707</v>
+        <v>1708</v>
       </c>
       <c r="C759" s="7" t="s">
-        <v>1708</v>
+        <v>1709</v>
       </c>
       <c r="D759" s="2" t="s">
-        <v>1686</v>
+        <v>1693</v>
       </c>
     </row>
     <row r="760">
       <c r="A760" s="2" t="s">
-        <v>1709</v>
+        <v>1710</v>
       </c>
       <c r="C760" s="7" t="s">
-        <v>1710</v>
+        <v>1711</v>
       </c>
       <c r="D760" s="2" t="s">
-        <v>1686</v>
+        <v>1693</v>
       </c>
     </row>
     <row r="761">
       <c r="A761" s="2" t="s">
-        <v>1711</v>
+        <v>1712</v>
       </c>
       <c r="C761" s="7" t="s">
-        <v>1712</v>
+        <v>1713</v>
       </c>
       <c r="D761" s="2" t="s">
-        <v>1686</v>
+        <v>1693</v>
       </c>
     </row>
     <row r="762">
       <c r="A762" s="2" t="s">
-        <v>1713</v>
+        <v>1714</v>
       </c>
       <c r="C762" s="7" t="s">
-        <v>1714</v>
+        <v>1715</v>
       </c>
       <c r="D762" s="2" t="s">
-        <v>1715</v>
+        <v>1693</v>
       </c>
     </row>
     <row r="763">
@@ -23993,7 +24038,7 @@
         <v>1717</v>
       </c>
       <c r="D763" s="2" t="s">
-        <v>1715</v>
+        <v>1693</v>
       </c>
     </row>
     <row r="764">
@@ -24004,7 +24049,7 @@
         <v>1719</v>
       </c>
       <c r="D764" s="2" t="s">
-        <v>1715</v>
+        <v>1693</v>
       </c>
     </row>
     <row r="765">
@@ -24015,106 +24060,106 @@
         <v>1721</v>
       </c>
       <c r="D765" s="2" t="s">
-        <v>1715</v>
+        <v>1722</v>
       </c>
     </row>
     <row r="766">
       <c r="A766" s="2" t="s">
+        <v>1723</v>
+      </c>
+      <c r="C766" s="7" t="s">
+        <v>1724</v>
+      </c>
+      <c r="D766" s="2" t="s">
         <v>1722</v>
-      </c>
-      <c r="C766" s="7" t="s">
-        <v>1723</v>
-      </c>
-      <c r="D766" s="2" t="s">
-        <v>1715</v>
       </c>
     </row>
     <row r="767">
       <c r="A767" s="2" t="s">
+        <v>1725</v>
+      </c>
+      <c r="C767" s="7" t="s">
+        <v>1726</v>
+      </c>
+      <c r="D767" s="2" t="s">
         <v>1722</v>
-      </c>
-      <c r="C767" s="7" t="s">
-        <v>1724</v>
-      </c>
-      <c r="D767" s="2" t="s">
-        <v>1715</v>
       </c>
     </row>
     <row r="768">
       <c r="A768" s="2" t="s">
+        <v>1727</v>
+      </c>
+      <c r="C768" s="7" t="s">
+        <v>1728</v>
+      </c>
+      <c r="D768" s="2" t="s">
         <v>1722</v>
-      </c>
-      <c r="C768" s="7" t="s">
-        <v>1725</v>
-      </c>
-      <c r="D768" s="2" t="s">
-        <v>1715</v>
       </c>
     </row>
     <row r="769">
       <c r="A769" s="2" t="s">
-        <v>1726</v>
+        <v>1729</v>
       </c>
       <c r="C769" s="7" t="s">
-        <v>1727</v>
+        <v>1730</v>
       </c>
       <c r="D769" s="2" t="s">
-        <v>1686</v>
+        <v>1722</v>
       </c>
     </row>
     <row r="770">
       <c r="A770" s="2" t="s">
-        <v>1728</v>
+        <v>1729</v>
       </c>
       <c r="C770" s="7" t="s">
-        <v>1729</v>
+        <v>1731</v>
       </c>
       <c r="D770" s="2" t="s">
-        <v>1686</v>
+        <v>1722</v>
       </c>
     </row>
     <row r="771">
       <c r="A771" s="2" t="s">
-        <v>1730</v>
+        <v>1729</v>
       </c>
       <c r="C771" s="7" t="s">
-        <v>1731</v>
+        <v>1732</v>
       </c>
       <c r="D771" s="2" t="s">
-        <v>1686</v>
+        <v>1722</v>
       </c>
     </row>
     <row r="772">
       <c r="A772" s="2" t="s">
-        <v>1732</v>
+        <v>1733</v>
       </c>
       <c r="C772" s="7" t="s">
-        <v>1733</v>
+        <v>1734</v>
       </c>
       <c r="D772" s="2" t="s">
-        <v>1686</v>
+        <v>1693</v>
       </c>
     </row>
     <row r="773">
       <c r="A773" s="2" t="s">
-        <v>1734</v>
+        <v>1735</v>
       </c>
       <c r="C773" s="7" t="s">
-        <v>1735</v>
+        <v>1736</v>
       </c>
       <c r="D773" s="2" t="s">
-        <v>1686</v>
+        <v>1693</v>
       </c>
     </row>
     <row r="774">
       <c r="A774" s="2" t="s">
-        <v>1736</v>
+        <v>1737</v>
       </c>
       <c r="C774" s="7" t="s">
-        <v>1737</v>
+        <v>1738</v>
       </c>
       <c r="D774" s="2" t="s">
-        <v>1738</v>
+        <v>1693</v>
       </c>
     </row>
     <row r="775">
@@ -24125,29 +24170,29 @@
         <v>1740</v>
       </c>
       <c r="D775" s="2" t="s">
-        <v>1741</v>
+        <v>1693</v>
       </c>
     </row>
     <row r="776">
       <c r="A776" s="2" t="s">
+        <v>1741</v>
+      </c>
+      <c r="C776" s="7" t="s">
         <v>1742</v>
       </c>
-      <c r="C776" s="7" t="s">
-        <v>1743</v>
-      </c>
       <c r="D776" s="2" t="s">
-        <v>1741</v>
+        <v>1693</v>
       </c>
     </row>
     <row r="777">
       <c r="A777" s="2" t="s">
+        <v>1743</v>
+      </c>
+      <c r="C777" s="7" t="s">
         <v>1744</v>
       </c>
-      <c r="C777" s="7" t="s">
+      <c r="D777" s="2" t="s">
         <v>1745</v>
-      </c>
-      <c r="D777" s="2" t="s">
-        <v>1741</v>
       </c>
     </row>
     <row r="778">
@@ -24192,6 +24237,39 @@
       </c>
       <c r="D781" s="2" t="s">
         <v>1755</v>
+      </c>
+    </row>
+    <row r="782">
+      <c r="A782" s="2" t="s">
+        <v>1756</v>
+      </c>
+      <c r="C782" s="7" t="s">
+        <v>1757</v>
+      </c>
+      <c r="D782" s="2" t="s">
+        <v>1755</v>
+      </c>
+    </row>
+    <row r="783">
+      <c r="A783" s="2" t="s">
+        <v>1758</v>
+      </c>
+      <c r="C783" s="7" t="s">
+        <v>1759</v>
+      </c>
+      <c r="D783" s="2" t="s">
+        <v>1755</v>
+      </c>
+    </row>
+    <row r="784">
+      <c r="A784" s="2" t="s">
+        <v>1760</v>
+      </c>
+      <c r="C784" s="7" t="s">
+        <v>1761</v>
+      </c>
+      <c r="D784" s="2" t="s">
+        <v>1762</v>
       </c>
     </row>
   </sheetData>
@@ -24230,18 +24308,18 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>1756</v>
+        <v>1763</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>1757</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>1758</v>
+        <v>1765</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>1759</v>
+        <v>1766</v>
       </c>
     </row>
   </sheetData>
@@ -24281,13 +24359,13 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>1760</v>
+        <v>1767</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>1761</v>
+        <v>1768</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>1762</v>
+        <v>1769</v>
       </c>
     </row>
   </sheetData>

--- a/csv/merge.xlsx
+++ b/csv/merge.xlsx
@@ -9440,8 +9440,8 @@
   </si>
   <si>
     <t>&lt;pipipi_shigh&gt;Hee hee... Do you have a Bloodletter Sword?
-It's a rank 3 claymore. An eye for an eye,
-blood for blood.</t>
+It's a rank 3 greatsword. An eye for an eye,
+and blood for blood.</t>
   </si>
   <si>
     <t>Mysterious Tower Floor 24 hint</t>

--- a/csv/merge.xlsx
+++ b/csv/merge.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2328" uniqueCount="1770">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2337" uniqueCount="1777">
   <si>
     <t>JP Text (DO NOT CHANGE)</t>
   </si>
@@ -9457,7 +9457,7 @@
   <si>
     <t>&lt;pipipi_shigh&gt;Hee hee... I'm the Mystery Pot.
 Hey, you. Do you know Million Smile? It can
-make a laughing monster laugh even harder.
+make a smiling monster smile even bigger.
 &lt;br&gt;
 You can learn how to Million Smile with a
 Care Ring.</t>
@@ -15337,6 +15337,123 @@
   </si>
   <si>
     <t>Mysterious Tower banker</t>
+  </si>
+  <si>
+    <t>カジノの階層を移動する
+エレベーターがある。
+どの階に　移動しますか？
+&lt;select&gt;
+３階
+１階
+カジノフロア移動
+&lt;select_end&gt;
+&lt;case 1&gt;
+&lt;close&gt;
+&lt;case 2&gt;
+&lt;close&gt;
+&lt;case 3&gt;
+&lt;close&gt;
+&lt;case_cancel&gt;
+&lt;close&gt;
+&lt;case_end&gt;</t>
+  </si>
+  <si>
+    <t>It's an elevator that you can use to move to
+different parts of the Casino.
+Which floor do you want to go to?
+&lt;select&gt;
+3F
+1F
+Change Casino Floor
+&lt;select_end&gt;
+&lt;case 1&gt;
+&lt;close&gt;
+&lt;case 2&gt;
+&lt;close&gt;
+&lt;case 3&gt;
+&lt;close&gt;
+&lt;case_cancel&gt;
+&lt;close&gt;
+&lt;case_end&gt;</t>
+  </si>
+  <si>
+    <t>Casino elevator</t>
+  </si>
+  <si>
+    <t>カジノの階層を移動する
+エレベーターがある。
+どの階に　移動しますか？
+&lt;select&gt;
+２階
+１階
+カジノフロア移動
+&lt;select_end&gt;
+&lt;case 1&gt;
+&lt;close&gt;
+&lt;case 2&gt;
+&lt;close&gt;
+&lt;case 3&gt;
+&lt;close&gt;
+&lt;case_cancel&gt;
+&lt;close&gt;
+&lt;case_end&gt;</t>
+  </si>
+  <si>
+    <t>It's an elevator that you can use to move to
+different parts of the Casino.
+Which floor do you want to go to?
+&lt;select&gt;
+2F
+1F
+Change Casino Floor
+&lt;select_end&gt;
+&lt;case 1&gt;
+&lt;close&gt;
+&lt;case 2&gt;
+&lt;close&gt;
+&lt;case 3&gt;
+&lt;close&gt;
+&lt;case_cancel&gt;
+&lt;close&gt;
+&lt;case_end&gt;</t>
+  </si>
+  <si>
+    <t>カジノの階層を移動する
+エレベーターがある。
+どの階に　移動しますか？
+&lt;select 2&gt;
+３階
+２階
+カジノフロア移動
+&lt;select_end&gt;
+&lt;case 1&gt;
+&lt;close&gt;
+&lt;case 2&gt;
+&lt;close&gt;
+&lt;case 3&gt;
+&lt;close&gt;
+&lt;case_cancel&gt;
+&lt;close&gt;
+&lt;case_end&gt;</t>
+  </si>
+  <si>
+    <t>It's an elevator that you can use to move to
+different parts of the Casino.
+Which floor do you want to go to?
+&lt;select 2&gt;
+3F
+2F
+Change Casino Floor
+&lt;select_end&gt;
+&lt;case 1&gt;
+&lt;close&gt;
+&lt;case 2&gt;
+&lt;close&gt;
+&lt;case 3&gt;
+&lt;close&gt;
+&lt;case_cancel&gt;
+&lt;close&gt;
+&lt;case_end&gt;</t>
   </si>
   <si>
     <t>メインコマンド『せんれき』の
@@ -24272,6 +24389,39 @@
         <v>1762</v>
       </c>
     </row>
+    <row r="785">
+      <c r="A785" s="2" t="s">
+        <v>1763</v>
+      </c>
+      <c r="C785" s="7" t="s">
+        <v>1764</v>
+      </c>
+      <c r="D785" s="2" t="s">
+        <v>1765</v>
+      </c>
+    </row>
+    <row r="786">
+      <c r="A786" s="2" t="s">
+        <v>1766</v>
+      </c>
+      <c r="C786" s="7" t="s">
+        <v>1767</v>
+      </c>
+      <c r="D786" s="2" t="s">
+        <v>1765</v>
+      </c>
+    </row>
+    <row r="787">
+      <c r="A787" s="2" t="s">
+        <v>1768</v>
+      </c>
+      <c r="C787" s="7" t="s">
+        <v>1769</v>
+      </c>
+      <c r="D787" s="2" t="s">
+        <v>1765</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -24308,18 +24458,18 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>1763</v>
+        <v>1770</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>1764</v>
+        <v>1771</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>1765</v>
+        <v>1772</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>1766</v>
+        <v>1773</v>
       </c>
     </row>
   </sheetData>
@@ -24359,13 +24509,13 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>1767</v>
+        <v>1774</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>1768</v>
+        <v>1775</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>1769</v>
+        <v>1776</v>
       </c>
     </row>
   </sheetData>

--- a/csv/merge.xlsx
+++ b/csv/merge.xlsx
@@ -15295,7 +15295,7 @@
     <t>Everdark War Boss Win (BAD STRING)</t>
   </si>
   <si>
-    <t>ダークキングの封印に　成功した！
+    <t>ダークキングを　倒した！
 竜牙石が　５個なくなった！
 &lt;auto_bw=5000&gt;&lt;close&gt;</t>
   </si>
@@ -15304,13 +15304,12 @@
 brightly and transformed into sharp fangs of
 light, each piercing into Dark King Slime...
 &lt;auto_br=5000&gt;
-Dark King Slime was successfully sealed away
-once more!
+Dark King Slime was defeated once more!
 Five of your Dragonites were consumed!
 &lt;auto_bw=5000&gt;&lt;close&gt;</t>
   </si>
   <si>
-    <t>海冥主メイヴの封印に　成功した！
+    <t>海冥主メイヴの　撃退に成功した！
 竜牙石が　５個なくなった！
 &lt;auto_bw=5000&gt;&lt;close&gt;</t>
   </si>
@@ -15319,7 +15318,7 @@
 brightly and transformed into sharp fangs of
 light, each piercing into Meiv...
 &lt;auto_br=5000&gt;
-Meiv was successfully sealed away once more!
+Meiv was successfully driven back once more!
 Five of your Dragonites were consumed!
 &lt;auto_bw=5000&gt;&lt;close&gt;</t>
   </si>

--- a/csv/merge.xlsx
+++ b/csv/merge.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2337" uniqueCount="1777">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2388" uniqueCount="1815">
   <si>
     <t>JP Text (DO NOT CHANGE)</t>
   </si>
@@ -15453,6 +15453,244 @@
 &lt;case_cancel&gt;
 &lt;close&gt;
 &lt;case_end&gt;</t>
+  </si>
+  <si>
+    <t>今日の討伐報酬（紫色の宝箱）は
+もう入手済みだ。
+魔法の迷宮に　行きますか？&lt;yesno&gt;&lt;close&gt;</t>
+  </si>
+  <si>
+    <t>You've already received the daily purple chest
+reward.
+Go to the Magic Maze?&lt;yesno&gt;&lt;close&gt;</t>
+  </si>
+  <si>
+    <t>Magic Key</t>
+  </si>
+  <si>
+    <t>今日の討伐報酬（紫色の宝箱）は
+まだ　入手していない。
+魔法の迷宮に　行きますか？&lt;yesno&gt;&lt;close&gt;</t>
+  </si>
+  <si>
+    <t>You haven't yet received the daily purple
+chest reward.
+Go to the Magic Maze?&lt;yesno&gt;&lt;close&gt;</t>
+  </si>
+  <si>
+    <t>あなたには　今　仲間がいます。
+仲間をさそって　魔法の迷宮へ行きますか？&lt;yesno&gt;&lt;close&gt;</t>
+  </si>
+  <si>
+    <t>You are currently in a party.
+Go to the Magic Maze with your party?&lt;yesno&gt;&lt;close&gt;</t>
+  </si>
+  <si>
+    <t>「３３６時間の　使用制限つきのカードを
+　１枚だけ　あげるから
+　ほしいカードを　選んでね。
+&lt;select&gt;
+ベリアルカード
+ギュメイ将軍カード
+ムドーカード
+エビルプリーストカード
+究極邪教司祭カード
+&lt;select_end&gt;
+&lt;case 1&gt;
+&lt;break&gt;
+&lt;case 2&gt;
+&lt;break&gt;
+&lt;case 3&gt;
+&lt;break&gt;
+&lt;case 4&gt;
+&lt;break&gt;
+&lt;case 5&gt;
+&lt;break&gt;
+&lt;case_cancel&gt;
+&lt;break&gt;
+&lt;case_end&gt;
+&lt;case_end&gt;</t>
+  </si>
+  <si>
+    <t>I'll give you one boss card with a 336 hour
+duration. Please choose the one you'd like!
+&lt;select&gt;
+Belial Card (Level 65)
+Goresby-Purrvis Card (Level 100)
+Murdaw Card (Level 116)
+Aamon Card (Level 124)
+Ultimate Aamon Card (Level 126)
+&lt;select_end&gt;
+&lt;case 1&gt;
+&lt;break&gt;
+&lt;case 2&gt;
+&lt;break&gt;
+&lt;case 3&gt;
+&lt;break&gt;
+&lt;case 4&gt;
+&lt;break&gt;
+&lt;case 5&gt;
+&lt;break&gt;
+&lt;case_cancel&gt;
+&lt;break&gt;
+&lt;case_end&gt;
+&lt;case_end&gt;</t>
+  </si>
+  <si>
+    <t>Pu-chan Card selection</t>
+  </si>
+  <si>
+    <t>「究極邪教司祭カードで　いいかしら？&lt;yesno&gt;&lt;close&gt;</t>
+  </si>
+  <si>
+    <t>You'd like the Ultimate Aamon Card, then?&lt;yesno&gt;&lt;close&gt;</t>
+  </si>
+  <si>
+    <t>「ベリアルカードで　いいかしら？&lt;yesno&gt;&lt;close&gt;</t>
+  </si>
+  <si>
+    <t>You'd like the Belial Card Card, then?&lt;yesno&gt;&lt;close&gt;</t>
+  </si>
+  <si>
+    <t>「ギュメイ将軍カードで　いいかしら？&lt;yesno&gt;&lt;close&gt;</t>
+  </si>
+  <si>
+    <t>You'd like the Goresby-Purrvis Card, then?&lt;yesno&gt;&lt;close&gt;</t>
+  </si>
+  <si>
+    <t>「エビルプリーストカードで　いいかしら？&lt;yesno&gt;&lt;close&gt;</t>
+  </si>
+  <si>
+    <t>You'd like the Aamon Card, then?&lt;yesno&gt;&lt;close&gt;</t>
+  </si>
+  <si>
+    <t>「ムドーカードで　いいかしら？&lt;yesno&gt;&lt;close&gt;</t>
+  </si>
+  <si>
+    <t>You'd like the Murdaw Card, then?&lt;yesno&gt;&lt;close&gt;</t>
+  </si>
+  <si>
+    <t>&lt;attr&gt;&lt;feel_happy_lv3&gt;&lt;end_attr&gt;「あら！　こんなところで
+　会えるなんて　びっくりです！
+&lt;br&gt;
+「お会いできて　うれしいです！
+　ふうせん三姉妹の長女　プーです。
+　毎月１０日は　テンの日なんですよ！
+&lt;br&gt;
+「テンの日は　みんなで 
+　アストルティアに　集まって
+　楽しく遊んでほしい日なのです！&lt;bw_break&gt;</t>
+  </si>
+  <si>
+    <t>&lt;attr&gt;&lt;feel_happy_lv3&gt;&lt;end_attr&gt;Oh, hello! I'm quite surprised to
+see you here!
+&lt;br&gt;
+But I'm happy you came! My name is Pu, and
+I'm the eldest of the Three Balloon Sisters!
+Every 10th of the month is Ten Day!
+&lt;br&gt;
+On Ten Day, everyone in Astoltia gathers
+together to have an enjoyable and amazing
+day!&lt;bw_break&gt;</t>
+  </si>
+  <si>
+    <t>Pu-chan dialogue</t>
+  </si>
+  <si>
+    <t>&lt;attr&gt;&lt;feel_normal_lv1&gt;&lt;end_attr&gt;「テンの日に　出会えたあなたに
+　すてきなプレゼントを　差し上げます！</t>
+  </si>
+  <si>
+    <t>&lt;attr&gt;&lt;feel_normal_lv1&gt;&lt;end_attr&gt;I have a wonderful gift for those who meet
+me here on Ten Day!</t>
+  </si>
+  <si>
+    <t>&lt;attr&gt;&lt;feel_happy_lv3&gt;&lt;end_attr&gt;「効果が切れる前に　みんなで遊んでね！
+&lt;br&gt;
+「それじゃ　わたしは　翌朝には旅立つけど 
+　また来月の１０日　テンの日になったら
+　ここにいるから　会いにきてねー！！</t>
+  </si>
+  <si>
+    <t>&lt;attr&gt;&lt;feel_happy_lv3&gt;&lt;end_attr&gt;Make sure to have as much fun as
+you can with everyone before the effect wears
+off!
+&lt;br&gt;
+I'll be gone tomorrow when morning comes
+around, but don't worry! I'll be back again
+next Ten Day, so please come and see me!</t>
+  </si>
+  <si>
+    <t>&lt;attr&gt;&lt;feel_sad_lv1&gt;&lt;end_attr&gt;「ごめんなさい。プレゼントは　１回だけなの！
+　また来月に　なったら
+　そのとき　会いにきてね！</t>
+  </si>
+  <si>
+    <t>&lt;attr&gt;&lt;feel_sad_lv1&gt;&lt;end_attr&gt;I'm really sorry...but I can only give you
+one present. I'll be back again next month,
+so please come and see me then!</t>
+  </si>
+  <si>
+    <t>&lt;attr&gt;&lt;feel_happy_lv3&gt;&lt;end_attr&gt;「ばくれちゅわ！！　毎月１０日は　テンの日！
+　なので　テンからの使者　クー見参！！
+　会いにきてくれて　ありがとう！
+&lt;br&gt;
+「テンの日は　みんなで
+　アストルティアに　集まって
+　楽しく遊んでほしい日なんだよ！&lt;bw_break&gt;</t>
+  </si>
+  <si>
+    <t>&lt;attr&gt;&lt;feel_happy_lv3&gt;&lt;end_attr&gt;Ka-POW! It's the 10th of the month,
+Ten Day! I, the in-TEN-se Ku, have arrived!
+&lt;br&gt;
+On Ten Day, everyone in Astoltia comes
+together to have an enjoyable and amazing
+time!&lt;bw_break&gt;</t>
+  </si>
+  <si>
+    <t>Ku-chan dialogue</t>
+  </si>
+  <si>
+    <t>&lt;attr&gt;&lt;feel_happy_lv3&gt;&lt;end_attr&gt;「えっへへ　ばくれちゅわ～！！
+&lt;br&gt;
+「このあいさつ　クーのお気に入りなの。
+　パワフルで　エレガントで　キュートな
+　比類なき　あいさつだよね！</t>
+  </si>
+  <si>
+    <t>&lt;attr&gt;&lt;feel_happy_lv3&gt;&lt;end_attr&gt;Hee hee! KA-POW!!
+&lt;br&gt;
+That's my all-time favorite greeting. It's cute!
+It's elegant! It's powerful! Nothing else can
+compare!</t>
+  </si>
+  <si>
+    <t>&lt;attr&gt;&lt;feel_think_lv2&gt;&lt;end_attr&gt;「あれ？　そういや　またまた　クーにご用？
+　もしかして　プレゼントのおかわり　ほしいの？
+&lt;br&gt;
+「むむう。プレゼントは　１回だけだよ！
+　また来月になったら　どこかに見参するから
+　そのとき　会いにきてね！</t>
+  </si>
+  <si>
+    <t>&lt;attr&gt;&lt;feel_think_lv2&gt;&lt;end_attr&gt;Huh? What's that? You still
+need me for something?
+What? You want ANOTHER present?
+&lt;br&gt;
+Hmm...sorry, but I can only give you one!
+Come back next month and I can give you
+another!</t>
+  </si>
+  <si>
+    <t>「今あげた　プレゼントチケットは
+　オルフェアの町の　交換屋メリーポコに渡すと
+　いろいろなモノと　交換してもらえるよ！&lt;bw_break&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Take that ticket to Meripoko in Orphea. She'll
+exchange for all sorts of neat stuff! She's in
+the center of town near the fountain!&lt;bw_break&gt;
+</t>
   </si>
   <si>
     <t>メインコマンド『せんれき』の
@@ -24421,6 +24659,193 @@
         <v>1765</v>
       </c>
     </row>
+    <row r="788">
+      <c r="A788" s="2" t="s">
+        <v>1770</v>
+      </c>
+      <c r="C788" s="7" t="s">
+        <v>1771</v>
+      </c>
+      <c r="D788" s="2" t="s">
+        <v>1772</v>
+      </c>
+    </row>
+    <row r="789">
+      <c r="A789" s="2" t="s">
+        <v>1773</v>
+      </c>
+      <c r="C789" s="7" t="s">
+        <v>1774</v>
+      </c>
+      <c r="D789" s="2" t="s">
+        <v>1772</v>
+      </c>
+    </row>
+    <row r="790">
+      <c r="A790" s="2" t="s">
+        <v>1775</v>
+      </c>
+      <c r="C790" s="7" t="s">
+        <v>1776</v>
+      </c>
+      <c r="D790" s="2" t="s">
+        <v>1772</v>
+      </c>
+    </row>
+    <row r="791">
+      <c r="A791" s="2" t="s">
+        <v>1777</v>
+      </c>
+      <c r="C791" s="7" t="s">
+        <v>1778</v>
+      </c>
+      <c r="D791" s="2" t="s">
+        <v>1779</v>
+      </c>
+    </row>
+    <row r="792">
+      <c r="A792" s="2" t="s">
+        <v>1780</v>
+      </c>
+      <c r="C792" s="7" t="s">
+        <v>1781</v>
+      </c>
+      <c r="D792" s="2" t="s">
+        <v>1779</v>
+      </c>
+    </row>
+    <row r="793">
+      <c r="A793" s="2" t="s">
+        <v>1782</v>
+      </c>
+      <c r="C793" s="7" t="s">
+        <v>1783</v>
+      </c>
+      <c r="D793" s="2" t="s">
+        <v>1779</v>
+      </c>
+    </row>
+    <row r="794">
+      <c r="A794" s="2" t="s">
+        <v>1784</v>
+      </c>
+      <c r="C794" s="7" t="s">
+        <v>1785</v>
+      </c>
+      <c r="D794" s="2" t="s">
+        <v>1779</v>
+      </c>
+    </row>
+    <row r="795">
+      <c r="A795" s="2" t="s">
+        <v>1786</v>
+      </c>
+      <c r="C795" s="7" t="s">
+        <v>1787</v>
+      </c>
+      <c r="D795" s="2" t="s">
+        <v>1779</v>
+      </c>
+    </row>
+    <row r="796">
+      <c r="A796" s="2" t="s">
+        <v>1788</v>
+      </c>
+      <c r="C796" s="7" t="s">
+        <v>1789</v>
+      </c>
+      <c r="D796" s="2" t="s">
+        <v>1779</v>
+      </c>
+    </row>
+    <row r="797">
+      <c r="A797" s="2" t="s">
+        <v>1790</v>
+      </c>
+      <c r="C797" s="7" t="s">
+        <v>1791</v>
+      </c>
+      <c r="D797" s="2" t="s">
+        <v>1792</v>
+      </c>
+    </row>
+    <row r="798">
+      <c r="A798" s="2" t="s">
+        <v>1793</v>
+      </c>
+      <c r="C798" s="7" t="s">
+        <v>1794</v>
+      </c>
+      <c r="D798" s="2" t="s">
+        <v>1792</v>
+      </c>
+    </row>
+    <row r="799">
+      <c r="A799" s="2" t="s">
+        <v>1795</v>
+      </c>
+      <c r="C799" s="7" t="s">
+        <v>1796</v>
+      </c>
+      <c r="D799" s="2" t="s">
+        <v>1792</v>
+      </c>
+    </row>
+    <row r="800">
+      <c r="A800" s="2" t="s">
+        <v>1797</v>
+      </c>
+      <c r="C800" s="7" t="s">
+        <v>1798</v>
+      </c>
+      <c r="D800" s="2" t="s">
+        <v>1792</v>
+      </c>
+    </row>
+    <row r="801">
+      <c r="A801" s="2" t="s">
+        <v>1799</v>
+      </c>
+      <c r="C801" s="7" t="s">
+        <v>1800</v>
+      </c>
+      <c r="D801" s="2" t="s">
+        <v>1801</v>
+      </c>
+    </row>
+    <row r="802">
+      <c r="A802" s="2" t="s">
+        <v>1802</v>
+      </c>
+      <c r="C802" s="7" t="s">
+        <v>1803</v>
+      </c>
+      <c r="D802" s="2" t="s">
+        <v>1801</v>
+      </c>
+    </row>
+    <row r="803">
+      <c r="A803" s="2" t="s">
+        <v>1804</v>
+      </c>
+      <c r="C803" s="7" t="s">
+        <v>1805</v>
+      </c>
+      <c r="D803" s="2" t="s">
+        <v>1801</v>
+      </c>
+    </row>
+    <row r="804">
+      <c r="A804" s="2" t="s">
+        <v>1806</v>
+      </c>
+      <c r="C804" s="7" t="s">
+        <v>1807</v>
+      </c>
+      <c r="D804" s="2" t="s">
+        <v>1801</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -24457,18 +24882,18 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>1770</v>
+        <v>1808</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>1771</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>1772</v>
+        <v>1810</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>1773</v>
+        <v>1811</v>
       </c>
     </row>
   </sheetData>
@@ -24508,13 +24933,13 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>1774</v>
+        <v>1812</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>1775</v>
+        <v>1813</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>1776</v>
+        <v>1814</v>
       </c>
     </row>
   </sheetData>

--- a/csv/merge.xlsx
+++ b/csv/merge.xlsx
@@ -15641,7 +15641,7 @@
   </si>
   <si>
     <t>&lt;attr&gt;&lt;feel_happy_lv3&gt;&lt;end_attr&gt;Ka-POW! It's the 10th of the month,
-Ten Day! I, the in-TEN-se Ku, have arrived!
+Ten Day! I, the inTENse Ku, have arrived!
 &lt;br&gt;
 On Ten Day, everyone in Astoltia comes
 together to have an enjoyable and amazing
@@ -15688,8 +15688,8 @@
   </si>
   <si>
     <t xml:space="preserve">Take that ticket to Meripoko in Orphea. She'll
-exchange for all sorts of neat stuff! She's in
-the center of town near the fountain!&lt;bw_break&gt;
+exchange it for all sorts of neat stuff! She's
+in the center of town near the fountain!&lt;bw_break&gt;
 </t>
   </si>
   <si>

--- a/csv/merge.xlsx
+++ b/csv/merge.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2388" uniqueCount="1815">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2391" uniqueCount="1818">
   <si>
     <t>JP Text (DO NOT CHANGE)</t>
   </si>
@@ -6630,7 +6630,7 @@
   </si>
   <si>
     <t>You've been asked to undertake a quest.
-Will you accept this quest?
+Will you acquiesce to this request?
 &lt;open_irai&gt;
 &lt;select&gt;
 Accept
@@ -15691,6 +15691,16 @@
 exchange it for all sorts of neat stuff! She's
 in the center of town near the fountain!&lt;bw_break&gt;
 </t>
+  </si>
+  <si>
+    <t>クリアしました！&lt;update_quedate&gt;&lt;open_irai&gt;</t>
+  </si>
+  <si>
+    <t>Success! The quest has been transgressed
+with finesse!&lt;update_quedate&gt;&lt;open_irai&gt;</t>
+  </si>
+  <si>
+    <t>Quest clear (BAD STRING)</t>
   </si>
   <si>
     <t>メインコマンド『せんれき』の
@@ -24846,6 +24856,17 @@
         <v>1801</v>
       </c>
     </row>
+    <row r="805">
+      <c r="A805" s="2" t="s">
+        <v>1808</v>
+      </c>
+      <c r="C805" s="7" t="s">
+        <v>1809</v>
+      </c>
+      <c r="D805" s="2" t="s">
+        <v>1810</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -24882,18 +24903,18 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>1808</v>
+        <v>1811</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>1809</v>
+        <v>1812</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>1810</v>
+        <v>1813</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>1811</v>
+        <v>1814</v>
       </c>
     </row>
   </sheetData>
@@ -24933,13 +24954,13 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>1812</v>
+        <v>1815</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>1813</v>
+        <v>1816</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>1814</v>
+        <v>1817</v>
       </c>
     </row>
   </sheetData>

--- a/csv/merge.xlsx
+++ b/csv/merge.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2391" uniqueCount="1818">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2394" uniqueCount="1819">
   <si>
     <t>JP Text (DO NOT CHANGE)</t>
   </si>
@@ -15701,6 +15701,10 @@
   </si>
   <si>
     <t>Quest clear (BAD STRING)</t>
+  </si>
+  <si>
+    <t>クリアしました！
+&lt;update_quedate&gt;&lt;open_irai&gt;</t>
   </si>
   <si>
     <t>メインコマンド『せんれき』の
@@ -24867,6 +24871,17 @@
         <v>1810</v>
       </c>
     </row>
+    <row r="806">
+      <c r="A806" s="2" t="s">
+        <v>1811</v>
+      </c>
+      <c r="C806" s="7" t="s">
+        <v>1809</v>
+      </c>
+      <c r="D806" s="2" t="s">
+        <v>1810</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -24903,18 +24918,18 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>1811</v>
+        <v>1812</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>1812</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>1813</v>
+        <v>1814</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>1814</v>
+        <v>1815</v>
       </c>
     </row>
   </sheetData>
@@ -24954,13 +24969,13 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>1815</v>
+        <v>1816</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>1816</v>
+        <v>1817</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>1817</v>
+        <v>1818</v>
       </c>
     </row>
   </sheetData>

--- a/csv/merge.xlsx
+++ b/csv/merge.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2394" uniqueCount="1819">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2499" uniqueCount="1893">
   <si>
     <t>JP Text (DO NOT CHANGE)</t>
   </si>
@@ -53,7 +53,7 @@
 portal. Otherwise, you can view some
 explanations.
 &lt;select&gt;
-Enter Portal
+Enter Teleportal
 About Monster Types
 About Monster Abilities
 Quit
@@ -1169,6 +1169,7 @@
 迷宮へ行く
 メタル迷宮招待券を使う
 メタル迷宮ペア招待券を使う
+特急メタル招待券を使う
 説明を聞く
 &lt;select_end&gt;
 &lt;case 1&gt;
@@ -1178,6 +1179,8 @@
 &lt;case 3&gt;
 &lt;close&gt;
 &lt;case 4&gt;
+&lt;break&gt;
+&lt;case 5&gt;
 &lt;break&gt;
 &lt;case_cancel&gt;
 &lt;break&gt;
@@ -1188,9 +1191,10 @@
 Magic Maze, you can go with your current
 party! You can use both cards and coins! ♪
 &lt;select&gt;
-Go to Magic Maze
+Go to the Magic Maze
 Use Metal Maze Ticket
 Use Metal Maze Pair Ticket
+Use Metal Express Ticket
 Explanation&lt;select_end&gt;
 &lt;case 1&gt;
 &lt;break&gt;
@@ -1787,6 +1791,41 @@
 The Mysterious Box's lid has opened,
 and something came out from it!
 &lt;bw_break&gt;</t>
+  </si>
+  <si>
+    <t>クエストを受けると
+依頼書は　なくなります。
+このクエストを　受けますか？
+&lt;select&gt;
+うける
+やめる
+&lt;select_end&gt;
+&lt;case 1&gt;
+&lt;break&gt;
+&lt;case 2&gt;
+&lt;break&gt;
+&lt;case_cancel&gt;
+&lt;break&gt;
+&lt;case_end&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Once you accept the quest, the Request Form
+will disappear. Accept the quest?
+&lt;select&gt;
+Accept
+Cancel
+&lt;select_end&gt;
+&lt;case 1&gt;
+&lt;break&gt;
+&lt;case 2&gt;
+&lt;break&gt;
+&lt;case_cancel&gt;
+&lt;break&gt;
+&lt;case_end&gt;
+</t>
+  </si>
+  <si>
+    <t>Request Form Accept</t>
   </si>
   <si>
     <t>「それじゃあ　今の仲間の状態のまま
@@ -12753,6 +12792,16 @@
 have it as a keepsake.</t>
   </si>
   <si>
+    <t>「……よろしければ　ここで
+　私の写真を　撮っていただけませんか？
+　思い出として　残しておきたいのです。</t>
+  </si>
+  <si>
+    <t>...if it's all right with you, could you take
+a photo of me in this spot? I'd really like to
+have it as a keepsake.</t>
+  </si>
+  <si>
     <t>「木工で　わからないことがあれば
 　なんでも　聞いてね。
 &lt;select&gt;
@@ -15705,6 +15754,329 @@
   <si>
     <t>クリアしました！
 &lt;update_quedate&gt;&lt;open_irai&gt;</t>
+  </si>
+  <si>
+    <t>生き返しを受けた
+　光の神殿へ　飛竜に乗って　行きましょう。</t>
+  </si>
+  <si>
+    <t>Let's make our way to the Temple of Light,
+the place you were given a chance at life
+once more.</t>
+  </si>
+  <si>
+    <t>Yuliza Memory (BAD STRING)</t>
+  </si>
+  <si>
+    <t>行くために
+一度　元の世界へ戻りますか？&lt;yesno&gt;&lt;close&gt;</t>
+  </si>
+  <si>
+    <t>Return to Astoltia so you can head to the
+Memory Spot?&lt;yesno&gt;&lt;close&gt;</t>
+  </si>
+  <si>
+    <t>&lt;attr&gt;&lt;feel_custom&gt;&lt;end_attr&gt;「ここは　光の神殿……。
+　エテーネの村で　生命を失うことになった
+　あなたの魂が　導かれた場所です。&lt;bw_break&gt;</t>
+  </si>
+  <si>
+    <t>&lt;attr&gt;&lt;feel_custom&gt;&lt;end_attr&gt;So this is the Temple of Light...
+It's here that your soul was led after you had
+lost your life in Ethene Village.&lt;bw_break&gt;</t>
+  </si>
+  <si>
+    <t>Yuliza Memory</t>
+  </si>
+  <si>
+    <t>&lt;attr&gt;&lt;feel_custom&gt;&lt;end_attr&gt;「もうひとつの自分の姿である
+　五種族の姿を選び　あなたは　ふたたび
+　この世に　生を取りもどしました。</t>
+  </si>
+  <si>
+    <t>&lt;attr&gt;&lt;feel_custom&gt;&lt;end_attr&gt;You chose a different form, as one of
+the five races, which allowed you to return
+to this world.</t>
+  </si>
+  <si>
+    <t>&lt;attr&gt;&lt;feel_custom&gt;&lt;end_attr&gt;「そこから　あなたの本格的な旅が始まりました。
+　五種族の暮らす大陸を巡り　様々な人と会い
+　この世界の理を　知っていったのです。&lt;bw_break&gt;</t>
+  </si>
+  <si>
+    <t>&lt;attr&gt;&lt;feel_custom&gt;&lt;end_attr&gt;It was here that your journey began. You
+traveled the five continents, meeting people
+from all walks of life and learning the
+&lt;br&gt;
+world's ways.</t>
+  </si>
+  <si>
+    <t>&lt;attr&gt;&lt;feel_custom&gt;&lt;end_attr&gt;「あなたは　多くの人々を救ってきました。
+　そうして　皆の信頼を勝ち取り
+　多くのキーエンブレムを　その手にしたのです。&lt;bw_break&gt;</t>
+  </si>
+  <si>
+    <t>&lt;attr&gt;&lt;feel_custom&gt;&lt;end_attr&gt;You had saved many people, and thus
+gained their trust. This trust was extended
+to you in the form of many Key Emblems.&lt;bw_break&gt;</t>
+  </si>
+  <si>
+    <t>&lt;attr&gt;&lt;feel_custom&gt;&lt;end_attr&gt;「私は　ひとつも　見落とさぬよう
+　ずっと　その過程を見ていました。</t>
+  </si>
+  <si>
+    <t>&lt;attr&gt;&lt;feel_custom&gt;&lt;end_attr&gt;I made sure to watch intently as
+to not miss a single detail of what happened.</t>
+  </si>
+  <si>
+    <t>&lt;attr&gt;&lt;feel_custom&gt;&lt;end_attr&gt;「世界を照らした光のもとへ　たどり着く。
+　その目的に向けて　まい進する　あなたの姿から
+　目が　離せなかったのです……。&lt;bw_break&gt;</t>
+  </si>
+  <si>
+    <t>&lt;attr&gt;&lt;feel_custom&gt;&lt;end_attr&gt;As you marched towards a future illuminated
+by light, I was mesmerized by your
+determination...</t>
+  </si>
+  <si>
+    <t>最初の　大きな戦いの地。
+　冥王の心臓が見える　ランドン山脈の山頂へ
+　行きましょう。</t>
+  </si>
+  <si>
+    <t>The place of your first decisive battle. Let
+us head to the summit of the Landon Mountains
+where we can see Hades' Heart.</t>
+  </si>
+  <si>
+    <t>&lt;attr&gt;&lt;feel_custom&gt;&lt;end_attr&gt;「……５００年の昔。
+　アストルティア全土を　焼き尽くさんとした
+　偽りの太陽　レイダメテス。&lt;bw_break&gt;</t>
+  </si>
+  <si>
+    <t>&lt;attr&gt;&lt;feel_custom&gt;&lt;end_attr&gt;500 years ago...when the raging, false sun
+Reidametes tried to scorch all of Astoltia.</t>
+  </si>
+  <si>
+    <t>&lt;attr&gt;&lt;feel_custom&gt;&lt;end_attr&gt;「あの空に見えるのは　その入り口。
+　あなたは　冥王ネルゲルと戦うため
+　意を決して　そこに　足を踏み入れたのです。&lt;bw_break&gt;</t>
+  </si>
+  <si>
+    <t>&lt;attr&gt;&lt;feel_custom&gt;&lt;end_attr&gt;There in the sky is the entrance. You bravely
+set foot inside with the sole purpose of
+fighting Nergel, the Netherlord.&lt;bw_break&gt;</t>
+  </si>
+  <si>
+    <t>&lt;attr&gt;&lt;feel_custom&gt;&lt;end_attr&gt;「そして　故郷を奪った　仇とも言える
+　冥王ネルゲルとの　最終決戦に挑みました……。</t>
+  </si>
+  <si>
+    <t>&lt;attr&gt;&lt;feel_custom&gt;&lt;end_attr&gt;And you battled that evil being who took
+your homeland away in your final battle...</t>
+  </si>
+  <si>
+    <t>&lt;attr&gt;&lt;feel_custom&gt;&lt;end_attr&gt;「……私も　その戦いを見ていました。
+　闇の根源より　チカラを得た　冥獣王の姿には
+　恐怖を覚えたものです。&lt;bw_break&gt;</t>
+  </si>
+  <si>
+    <t>&lt;attr&gt;&lt;feel_custom&gt;&lt;end_attr&gt;...I too watched your battle. I was
+terrified of his beastly form, which he had
+gained from the source of darkness.&lt;bw_break&gt;</t>
+  </si>
+  <si>
+    <t>&lt;attr&gt;&lt;feel_custom&gt;&lt;end_attr&gt;「ですが　あなたは　恐れなかった。
+　この者には　英雄たる資格があると
+　私が　確信したのは　そのときです。</t>
+  </si>
+  <si>
+    <t>&lt;attr&gt;&lt;feel_custom&gt;&lt;end_attr&gt;But you showed no fear. It was at that
+moment I knew you were worthy of being a
+hero.</t>
+  </si>
+  <si>
+    <t>&lt;attr&gt;&lt;feel_custom&gt;&lt;end_attr&gt;「その確信は　まちがいではなかった。
+　あなたは　それからも　旅を続け
+　人々のために　働いてきたのですから。&lt;bw_break&gt;</t>
+  </si>
+  <si>
+    <t>&lt;attr&gt;&lt;feel_custom&gt;&lt;end_attr&gt;And I was not wrong in my judgement...you
+have been traveling to many places and
+helping people from all over.&lt;bw_break&gt;</t>
+  </si>
+  <si>
+    <t>「また　行きたい場所が　できたら
+　あなたに　連絡します。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I've visited all of the places that I wished to see
+for now. Thank you so much for coming to see
+them with me.
+&lt;br&gt;
+If I think of more places I'd like to visit, I will
+reach out to you.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">　この橋の先にあるのが　グランゼドーラ城です。
+　アンルシア姫が暮らしている　お城ですね。</t>
+  </si>
+  <si>
+    <t>&lt;attr&gt;&lt;feel_custom&gt;&lt;end_attr&gt;It's needless to say, but at the end of
+this bridge lies Gran Zedora Castle. The
+princess Anlucia calls this place her home.</t>
+  </si>
+  <si>
+    <t>&lt;attr&gt;&lt;feel_custom&gt;&lt;end_attr&gt;「勇者の盟友である　あなたと　アンルシア姫は
+　多くの戦いを経て　固い絆で結ばれました。
+　その関係が　ちょっと　うらやましいです。&lt;bw_break&gt;</t>
+  </si>
+  <si>
+    <t>&lt;attr&gt;&lt;feel_custom&gt;&lt;end_attr&gt;As the Hero's ally, you and Anlucia fought
+many battles together and formed a strong
+bond. I have to say, I'm a little jealous...&lt;bw_break&gt;</t>
+  </si>
+  <si>
+    <t>&lt;attr&gt;&lt;feel_custom&gt;&lt;end_attr&gt;「偽りの世界のことは　くわしくはないのですが
+　あなたは　そこで　心を閉ざし　村娘として
+　暮らしていたアンルシア姫と　出会い……&lt;bw_break&gt;</t>
+  </si>
+  <si>
+    <t>&lt;attr&gt;&lt;feel_custom&gt;&lt;end_attr&gt;I don't know much about the false world,
+but I do know that you met Anlucia there,
+when she lived as a village girl...&lt;bw_break&gt;</t>
+  </si>
+  <si>
+    <t>&lt;attr&gt;&lt;feel_custom&gt;&lt;end_attr&gt;「彼女の記憶の世界をも　めぐって
+　アンルシア姫が　真の勇者へと覚醒するために
+　いろいろと　手助けをしたそうですね。</t>
+  </si>
+  <si>
+    <t>&lt;attr&gt;&lt;feel_custom&gt;&lt;end_attr&gt;I also know that you helped her become a true
+Hero by entering the world of her memories
+to awaken them.</t>
+  </si>
+  <si>
+    <t>&lt;attr&gt;&lt;feel_custom&gt;&lt;end_attr&gt;「そして　あなたは　勇者の盟友として
+　大魔王マデサゴーラとの決戦に臨み
+　見事に　大魔王討伐を果たしたのです。&lt;bw_break&gt;</t>
+  </si>
+  <si>
+    <t>&lt;attr&gt;&lt;feel_custom&gt;&lt;end_attr&gt;And so, as her ally, you were able to defeat
+the Great Demon King Madesagora together.&lt;bw_break&gt;</t>
+  </si>
+  <si>
+    <t>&lt;attr&gt;&lt;feel_custom&gt;&lt;end_attr&gt;「大魔王が現れたとき　それに対抗するため
+　勇者もまた　現れる……。</t>
+  </si>
+  <si>
+    <t>&lt;attr&gt;&lt;feel_custom&gt;&lt;end_attr&gt;When a Great Demon King emerges, a Hero
+comes forth to oppose them...</t>
+  </si>
+  <si>
+    <t>&lt;attr&gt;&lt;feel_custom&gt;&lt;end_attr&gt;「その輪廻が　いつまで　くり返されるのか……。
+　私には　わかりませんが　この先の世代でも
+　あなたのような盟友が　勇者を助けるのですね。&lt;bw_break&gt;</t>
+  </si>
+  <si>
+    <t>&lt;attr&gt;&lt;feel_custom&gt;&lt;end_attr&gt;How long will this cycle repeat...? I don't
+know myself, but...I do know that allies like
+you will be there to aid the Hero.&lt;bw_break&gt;</t>
+  </si>
+  <si>
+    <t>「周囲には　小麦畑が広がる　メルサンディ村。
+　そこの英雄の像がある広場へ　行きましょう。</t>
+  </si>
+  <si>
+    <t>Melsandy is a village surrounded by large
+fields of wheat. Let's head for the center
+plaza that has the statue of a hero.</t>
+  </si>
+  <si>
+    <t>&lt;attr&gt;&lt;feel_custom&gt;&lt;end_attr&gt;「ここは　メルサンディという村です。
+　村の外には　小麦畑が　広がっていて
+　とても　のどかな所ですね。</t>
+  </si>
+  <si>
+    <t>&lt;attr&gt;&lt;feel_custom&gt;&lt;end_attr&gt;This is the village of Melsandy. It's quite
+the peaceful place, surrounded by many fields
+of fluffy wheat.</t>
+  </si>
+  <si>
+    <t>&lt;attr&gt;&lt;feel_custom&gt;&lt;end_attr&gt;「あそこに見える像は　童話の中に登場する
+　ザンクローネという名の　英雄のものでしたか。&lt;bw_break&gt;</t>
+  </si>
+  <si>
+    <t>&lt;attr&gt;&lt;feel_custom&gt;&lt;end_attr&gt;That statue over there is of Zankrone, the
+hero of a fairy tale, right?&lt;bw_break&gt;</t>
+  </si>
+  <si>
+    <t>偽りの世界で　その英雄と会い
+　ともにチカラを合わせ　村娘となっていた
+　アンルシア姫を救いだしたと　聞いています。&lt;bw_break&gt;</t>
+  </si>
+  <si>
+    <t>&lt;attr&gt;&lt;feel_custom&gt;&lt;end_attr&gt;You met that hero in the false world,
+and together you rescued Anlucia, who was at
+the time just a simple village girl.&lt;bw_break&gt;</t>
+  </si>
+  <si>
+    <t>&lt;attr&gt;&lt;feel_custom&gt;&lt;end_attr&gt;「しかし　物語の中の人物を　再現してしまうなど
+　大魔王マデサゴーラが　何を考えていたのか
+　本当に　理解に　苦しみます。</t>
+  </si>
+  <si>
+    <t>&lt;attr&gt;&lt;feel_custom&gt;&lt;end_attr&gt;It truly is difficult to comprehend
+Madesagora's intentions in recreating the
+characters from that story.</t>
+  </si>
+  <si>
+    <t>&lt;attr&gt;&lt;feel_custom&gt;&lt;end_attr&gt;「その後　こちらの世界にまで
+　その英雄が現れて　活躍するとは
+　まったく　思いもよらない出来事でした。&lt;bw_break&gt;</t>
+  </si>
+  <si>
+    <t>&lt;attr&gt;&lt;feel_custom&gt;&lt;end_attr&gt;It was also quite unexpected that the same
+hero would later appear in our world and
+have an important role to play.&lt;bw_break&gt;</t>
+  </si>
+  <si>
+    <t>&lt;attr&gt;&lt;feel_custom&gt;&lt;end_attr&gt;「魔女グレイツェルとの決着は　着いたのか？
+　気になるところですが　知らないほうがよい
+　……ということも　あるでしょう。</t>
+  </si>
+  <si>
+    <t>&lt;attr&gt;&lt;feel_custom&gt;&lt;end_attr&gt;Has he settled his differences with that
+witch, I wonder? I'm curious, but maybe some
+things are better left unknown.</t>
+  </si>
+  <si>
+    <t>&lt;attr&gt;&lt;feel_custom&gt;&lt;end_attr&gt;「もしも　彼が　物語の中の人物で　なかったなら
+　いずれ　英雄候補として　フォーリオンに
+　招かれたかもしれませんね。&lt;bw_break&gt;</t>
+  </si>
+  <si>
+    <t>&lt;attr&gt;&lt;feel_custom&gt;&lt;end_attr&gt;If he were not a character from a story,
+then he could've had the potential to be
+invited to Fourion as a hero.&lt;bw_break&gt;</t>
+  </si>
+  <si>
+    <t>「いたましい事故で　多くの命が失われた
+　セレドの町へ　行きましょう。</t>
+  </si>
+  <si>
+    <t>Let us head to the town of Celed, where many
+lives had been lost in a tragic accident.</t>
+  </si>
+  <si>
+    <t>「ヒヒーン！</t>
+  </si>
+  <si>
+    <t>Neeeeigh!</t>
+  </si>
+  <si>
+    <t>Horsey</t>
   </si>
   <si>
     <t>メインコマンド『せんれき』の
@@ -15806,7 +16178,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -15829,6 +16201,9 @@
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -17083,18 +17458,18 @@
         <v>210</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
     </row>
     <row r="99">
@@ -17105,392 +17480,392 @@
         <v>215</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="D100" s="2" t="s">
         <v>216</v>
-      </c>
-      <c r="C100" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="D100" s="2" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
     </row>
     <row r="111">
-      <c r="A111" s="5" t="s">
-        <v>238</v>
-      </c>
-      <c r="B111" s="4"/>
-      <c r="C111" s="3" t="s">
+      <c r="A111" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="D111" s="5" t="s">
+      <c r="C111" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="E111" s="4"/>
-      <c r="F111" s="4"/>
-      <c r="G111" s="4"/>
-      <c r="H111" s="4"/>
-      <c r="I111" s="4"/>
-      <c r="J111" s="4"/>
-      <c r="K111" s="4"/>
-      <c r="L111" s="4"/>
-      <c r="M111" s="4"/>
-      <c r="N111" s="4"/>
-      <c r="O111" s="4"/>
-      <c r="P111" s="4"/>
-      <c r="Q111" s="4"/>
-      <c r="R111" s="4"/>
-      <c r="S111" s="4"/>
-      <c r="T111" s="4"/>
-      <c r="U111" s="4"/>
-      <c r="V111" s="4"/>
-      <c r="W111" s="4"/>
-      <c r="X111" s="4"/>
-      <c r="Y111" s="4"/>
+      <c r="D111" s="2" t="s">
+        <v>216</v>
+      </c>
     </row>
     <row r="112">
-      <c r="A112" s="2" t="s">
+      <c r="A112" s="5" t="s">
         <v>241</v>
       </c>
-      <c r="C112" s="2" t="s">
+      <c r="B112" s="4"/>
+      <c r="C112" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="D112" s="2" t="s">
-        <v>240</v>
-      </c>
+      <c r="D112" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="E112" s="4"/>
+      <c r="F112" s="4"/>
+      <c r="G112" s="4"/>
+      <c r="H112" s="4"/>
+      <c r="I112" s="4"/>
+      <c r="J112" s="4"/>
+      <c r="K112" s="4"/>
+      <c r="L112" s="4"/>
+      <c r="M112" s="4"/>
+      <c r="N112" s="4"/>
+      <c r="O112" s="4"/>
+      <c r="P112" s="4"/>
+      <c r="Q112" s="4"/>
+      <c r="R112" s="4"/>
+      <c r="S112" s="4"/>
+      <c r="T112" s="4"/>
+      <c r="U112" s="4"/>
+      <c r="V112" s="4"/>
+      <c r="W112" s="4"/>
+      <c r="X112" s="4"/>
+      <c r="Y112" s="4"/>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="C113" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="D113" s="2" t="s">
         <v>243</v>
-      </c>
-      <c r="D113" s="2" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>282</v>
+        <v>243</v>
       </c>
     </row>
     <row r="133">
@@ -17500,24 +17875,24 @@
       <c r="C133" s="2" t="s">
         <v>284</v>
       </c>
+      <c r="D133" s="2" t="s">
+        <v>285</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="D135" s="2" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="136">
@@ -17528,95 +17903,95 @@
         <v>289</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="D137" s="2" t="s">
         <v>290</v>
-      </c>
-      <c r="C137" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="D137" s="2" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>287</v>
+        <v>216</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>306</v>
+        <v>290</v>
       </c>
     </row>
     <row r="145">
@@ -17627,18 +18002,18 @@
         <v>308</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="D146" s="2" t="s">
         <v>309</v>
-      </c>
-      <c r="C146" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="D146" s="2" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="147">
@@ -17649,73 +18024,73 @@
         <v>313</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="D148" s="2" t="s">
         <v>314</v>
-      </c>
-      <c r="C148" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="D148" s="2" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>326</v>
+        <v>314</v>
       </c>
     </row>
     <row r="154">
@@ -17748,62 +18123,62 @@
         <v>334</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="D157" s="2" t="s">
         <v>335</v>
-      </c>
-      <c r="C157" s="2" t="s">
-        <v>336</v>
-      </c>
-      <c r="D157" s="2" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>282</v>
+        <v>335</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>345</v>
+        <v>285</v>
       </c>
     </row>
     <row r="162">
@@ -17814,18 +18189,18 @@
         <v>347</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="C163" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="D163" s="2" t="s">
         <v>348</v>
-      </c>
-      <c r="C163" s="2" t="s">
-        <v>349</v>
-      </c>
-      <c r="D163" s="2" t="s">
-        <v>350</v>
       </c>
     </row>
     <row r="164">
@@ -17836,211 +18211,211 @@
         <v>352</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="C165" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="D165" s="2" t="s">
         <v>353</v>
-      </c>
-      <c r="C165" s="2" t="s">
-        <v>354</v>
-      </c>
-      <c r="D165" s="2" t="s">
-        <v>350</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
-        <v>371</v>
-      </c>
-      <c r="C174" s="7" t="s">
         <v>372</v>
       </c>
+      <c r="C174" s="2" t="s">
+        <v>373</v>
+      </c>
       <c r="D174" s="2" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
-        <v>373</v>
-      </c>
-      <c r="C175" s="2" t="s">
         <v>374</v>
       </c>
+      <c r="C175" s="7" t="s">
+        <v>375</v>
+      </c>
       <c r="D175" s="2" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>382</v>
+        <v>383</v>
+      </c>
+      <c r="D179" s="2" t="s">
+        <v>353</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>392</v>
-      </c>
-      <c r="D184" s="2" t="s">
         <v>393</v>
       </c>
     </row>
@@ -18074,18 +18449,18 @@
         <v>401</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="C188" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="D188" s="2" t="s">
         <v>402</v>
-      </c>
-      <c r="C188" s="2" t="s">
-        <v>403</v>
-      </c>
-      <c r="D188" s="2" t="s">
-        <v>404</v>
       </c>
     </row>
     <row r="189">
@@ -18096,29 +18471,29 @@
         <v>406</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="C190" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="D190" s="2" t="s">
         <v>407</v>
-      </c>
-      <c r="C190" s="2" t="s">
-        <v>408</v>
-      </c>
-      <c r="D190" s="2" t="s">
-        <v>404</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
     </row>
     <row r="192">
@@ -18129,29 +18504,29 @@
         <v>413</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>404</v>
+        <v>414</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>418</v>
+        <v>407</v>
       </c>
     </row>
     <row r="195">
@@ -18162,128 +18537,128 @@
         <v>420</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="C196" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="D196" s="2" t="s">
         <v>421</v>
-      </c>
-      <c r="C196" s="2" t="s">
-        <v>422</v>
-      </c>
-      <c r="D196" s="2" t="s">
-        <v>418</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>404</v>
+        <v>421</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="2" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="2" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>443</v>
+        <v>407</v>
       </c>
     </row>
     <row r="207">
@@ -18294,73 +18669,73 @@
         <v>445</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>418</v>
+        <v>446</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="2" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="2" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>404</v>
+        <v>421</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="2" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>458</v>
+        <v>407</v>
       </c>
     </row>
     <row r="214">
@@ -18371,128 +18746,128 @@
         <v>460</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="C215" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="D215" s="2" t="s">
         <v>461</v>
-      </c>
-      <c r="C215" s="2" t="s">
-        <v>462</v>
-      </c>
-      <c r="D215" s="2" t="s">
-        <v>458</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="2" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="2" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C217" s="2" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="2" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="2" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="2" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="D220" s="2" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="2" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="C221" s="2" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="2" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="D222" s="2" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="2" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="2" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="2" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C225" s="2" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="D225" s="2" t="s">
-        <v>483</v>
+        <v>461</v>
       </c>
     </row>
     <row r="226">
@@ -18503,128 +18878,128 @@
         <v>485</v>
       </c>
       <c r="D226" s="2" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="C227" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="D227" s="2" t="s">
         <v>486</v>
-      </c>
-      <c r="C227" s="2" t="s">
-        <v>487</v>
-      </c>
-      <c r="D227" s="2" t="s">
-        <v>458</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="2" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="C228" s="2" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="D228" s="2" t="s">
-        <v>483</v>
+        <v>461</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="2" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="C229" s="2" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="D229" s="2" t="s">
-        <v>458</v>
+        <v>486</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="2" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="C230" s="2" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="D230" s="2" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="2" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C231" s="2" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="D231" s="2" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="2" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="C232" s="2" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="D232" s="2" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="2" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="C233" s="2" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="D233" s="2" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="2" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C234" s="2" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="D234" s="2" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="2" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="C235" s="2" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="D235" s="2" t="s">
-        <v>483</v>
+        <v>461</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="2" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="C236" s="2" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="D236" s="2" t="s">
-        <v>458</v>
+        <v>486</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="2" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="C237" s="2" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="D237" s="2" t="s">
-        <v>508</v>
+        <v>461</v>
       </c>
     </row>
     <row r="238">
@@ -18635,40 +19010,40 @@
         <v>510</v>
       </c>
       <c r="D238" s="2" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="C239" s="2" t="s">
+        <v>513</v>
+      </c>
+      <c r="D239" s="2" t="s">
         <v>511</v>
-      </c>
-      <c r="C239" s="2" t="s">
-        <v>512</v>
-      </c>
-      <c r="D239" s="2" t="s">
-        <v>508</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="2" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="C240" s="2" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="D240" s="2" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="2" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="C241" s="2" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="D241" s="2" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
     </row>
     <row r="242">
@@ -18723,29 +19098,29 @@
         <v>531</v>
       </c>
       <c r="D246" s="2" t="s">
-        <v>529</v>
+        <v>532</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="2" t="s">
+        <v>533</v>
+      </c>
+      <c r="C247" s="2" t="s">
+        <v>534</v>
+      </c>
+      <c r="D247" s="2" t="s">
         <v>532</v>
-      </c>
-      <c r="C247" s="2" t="s">
-        <v>533</v>
-      </c>
-      <c r="D247" s="2" t="s">
-        <v>529</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="2" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="C248" s="2" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="D248" s="2" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
     </row>
     <row r="249">
@@ -18756,18 +19131,18 @@
         <v>538</v>
       </c>
       <c r="D249" s="2" t="s">
-        <v>536</v>
+        <v>539</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="C250" s="2" t="s">
+        <v>541</v>
+      </c>
+      <c r="D250" s="2" t="s">
         <v>539</v>
-      </c>
-      <c r="C250" s="2" t="s">
-        <v>540</v>
-      </c>
-      <c r="D250" s="2" t="s">
-        <v>541</v>
       </c>
     </row>
     <row r="251">
@@ -18778,117 +19153,117 @@
         <v>543</v>
       </c>
       <c r="D251" s="2" t="s">
-        <v>541</v>
+        <v>544</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="C252" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="D252" s="2" t="s">
         <v>544</v>
-      </c>
-      <c r="C252" s="2" t="s">
-        <v>545</v>
-      </c>
-      <c r="D252" s="2" t="s">
-        <v>541</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="2" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="C253" s="2" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="D253" s="2" t="s">
-        <v>541</v>
+        <v>544</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="2" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="C254" s="2" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="D254" s="2" t="s">
-        <v>541</v>
+        <v>544</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="2" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="C255" s="2" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="D255" s="2" t="s">
-        <v>541</v>
+        <v>544</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="2" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="C256" s="2" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="D256" s="2" t="s">
-        <v>541</v>
+        <v>544</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="2" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="C257" s="2" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="D257" s="2" t="s">
-        <v>541</v>
+        <v>544</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="2" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="C258" s="2" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="D258" s="2" t="s">
-        <v>541</v>
+        <v>544</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" s="2" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="C259" s="2" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="D259" s="2" t="s">
-        <v>541</v>
+        <v>544</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="2" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="C260" s="2" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="D260" s="2" t="s">
-        <v>541</v>
+        <v>544</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="2" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="C261" s="2" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="D261" s="2" t="s">
-        <v>564</v>
+        <v>544</v>
       </c>
     </row>
     <row r="262">
@@ -18899,29 +19274,29 @@
         <v>566</v>
       </c>
       <c r="D262" s="2" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="2" t="s">
+        <v>568</v>
+      </c>
+      <c r="C263" s="2" t="s">
+        <v>569</v>
+      </c>
+      <c r="D263" s="2" t="s">
         <v>567</v>
-      </c>
-      <c r="C263" s="2" t="s">
-        <v>568</v>
-      </c>
-      <c r="D263" s="2" t="s">
-        <v>564</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="2" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="C264" s="2" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="D264" s="2" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
     </row>
     <row r="265">
@@ -18932,51 +19307,51 @@
         <v>573</v>
       </c>
       <c r="D265" s="2" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="C266" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="D266" s="2" t="s">
         <v>574</v>
-      </c>
-      <c r="C266" s="2" t="s">
-        <v>575</v>
-      </c>
-      <c r="D266" s="2" t="s">
-        <v>571</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" s="2" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="C267" s="2" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="D267" s="2" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" s="2" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="C268" s="2" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="D268" s="2" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="2" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="C269" s="2" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="D269" s="2" t="s">
-        <v>582</v>
+        <v>574</v>
       </c>
     </row>
     <row r="270">
@@ -18998,227 +19373,227 @@
         <v>587</v>
       </c>
       <c r="D271" s="2" t="s">
-        <v>585</v>
+        <v>588</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" s="2" t="s">
+        <v>589</v>
+      </c>
+      <c r="C272" s="2" t="s">
+        <v>590</v>
+      </c>
+      <c r="D272" s="2" t="s">
         <v>588</v>
-      </c>
-      <c r="C272" s="2" t="s">
-        <v>589</v>
-      </c>
-      <c r="D272" s="2" t="s">
-        <v>585</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" s="2" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="C273" s="2" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="D273" s="2" t="s">
-        <v>585</v>
+        <v>588</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" s="2" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="C274" s="2" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="D274" s="2" t="s">
-        <v>585</v>
+        <v>588</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" s="2" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="C275" s="2" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="D275" s="2" t="s">
-        <v>585</v>
+        <v>588</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" s="2" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="C276" s="2" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="D276" s="2" t="s">
-        <v>585</v>
+        <v>588</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" s="2" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="C277" s="2" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="D277" s="2" t="s">
-        <v>585</v>
+        <v>588</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" s="2" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="C278" s="2" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="D278" s="2" t="s">
-        <v>585</v>
+        <v>588</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" s="2" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="C279" s="2" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D279" s="2" t="s">
-        <v>585</v>
+        <v>588</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" s="2" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="C280" s="2" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="D280" s="2" t="s">
-        <v>585</v>
+        <v>588</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" s="2" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C281" s="2" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="D281" s="2" t="s">
-        <v>585</v>
+        <v>588</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" s="2" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="C282" s="2" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="D282" s="2" t="s">
-        <v>585</v>
+        <v>588</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" s="2" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="C283" s="2" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="D283" s="2" t="s">
-        <v>585</v>
+        <v>588</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" s="2" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="C284" s="2" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="D284" s="2" t="s">
-        <v>311</v>
+        <v>588</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" s="2" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="C285" s="2" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="D285" s="2" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" s="2" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="C286" s="2" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="D286" s="2" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" s="2" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="C287" s="2" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="D287" s="2" t="s">
-        <v>306</v>
+        <v>314</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" s="2" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="C288" s="2" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="D288" s="2" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" s="2" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="C289" s="2" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="D289" s="2" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" s="2" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="C290" s="2" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="D290" s="2" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" s="2" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="C291" s="2" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="D291" s="2" t="s">
-        <v>628</v>
+        <v>309</v>
       </c>
     </row>
     <row r="292">
@@ -19229,18 +19604,18 @@
         <v>630</v>
       </c>
       <c r="D292" s="2" t="s">
-        <v>306</v>
+        <v>631</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" s="2" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="C293" s="2" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="D293" s="2" t="s">
-        <v>633</v>
+        <v>309</v>
       </c>
     </row>
     <row r="294">
@@ -19262,260 +19637,260 @@
         <v>638</v>
       </c>
       <c r="D295" s="2" t="s">
-        <v>636</v>
+        <v>639</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" s="2" t="s">
+        <v>640</v>
+      </c>
+      <c r="C296" s="2" t="s">
+        <v>641</v>
+      </c>
+      <c r="D296" s="2" t="s">
         <v>639</v>
-      </c>
-      <c r="C296" s="2" t="s">
-        <v>640</v>
-      </c>
-      <c r="D296" s="2" t="s">
-        <v>636</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" s="2" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="C297" s="2" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="D297" s="2" t="s">
-        <v>636</v>
+        <v>639</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" s="2" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="C298" s="2" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="D298" s="2" t="s">
-        <v>636</v>
+        <v>639</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" s="2" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="C299" s="2" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="D299" s="2" t="s">
-        <v>636</v>
+        <v>639</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" s="2" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="C300" s="2" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="D300" s="2" t="s">
-        <v>636</v>
+        <v>639</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" s="2" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="C301" s="2" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="D301" s="2" t="s">
-        <v>636</v>
+        <v>639</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" s="2" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="C302" s="2" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="D302" s="2" t="s">
-        <v>636</v>
+        <v>639</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" s="2" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="C303" s="2" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="D303" s="2" t="s">
-        <v>636</v>
+        <v>639</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" s="2" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="C304" s="2" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="D304" s="2" t="s">
-        <v>636</v>
+        <v>639</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" s="2" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="C305" s="2" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="D305" s="2" t="s">
-        <v>636</v>
+        <v>639</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" s="2" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="C306" s="2" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="D306" s="2" t="s">
-        <v>636</v>
+        <v>639</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" s="2" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="C307" s="2" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="D307" s="2" t="s">
-        <v>636</v>
+        <v>639</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" s="2" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="C308" s="2" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="D308" s="2" t="s">
-        <v>636</v>
+        <v>639</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" s="2" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="C309" s="2" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="D309" s="2" t="s">
-        <v>636</v>
+        <v>639</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" s="2" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="C310" s="2" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="D310" s="2" t="s">
-        <v>636</v>
+        <v>639</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" s="2" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="C311" s="2" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="D311" s="2" t="s">
-        <v>636</v>
+        <v>639</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" s="2" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="C312" s="2" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="D312" s="2" t="s">
-        <v>636</v>
+        <v>639</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" s="2" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="C313" s="2" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="D313" s="2" t="s">
-        <v>636</v>
+        <v>639</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" s="2" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="C314" s="2" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="D314" s="2" t="s">
-        <v>636</v>
+        <v>639</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" s="2" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="C315" s="2" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="D315" s="2" t="s">
-        <v>636</v>
+        <v>639</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" s="2" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="C316" s="2" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="D316" s="2" t="s">
-        <v>636</v>
+        <v>639</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" s="2" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="C317" s="2" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="D317" s="2" t="s">
-        <v>636</v>
+        <v>639</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" s="2" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="C318" s="2" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="D318" s="2" t="s">
-        <v>685</v>
+        <v>639</v>
       </c>
     </row>
     <row r="319">
@@ -19526,40 +19901,40 @@
         <v>687</v>
       </c>
       <c r="D319" s="2" t="s">
-        <v>685</v>
+        <v>688</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" s="2" t="s">
+        <v>689</v>
+      </c>
+      <c r="C320" s="2" t="s">
+        <v>690</v>
+      </c>
+      <c r="D320" s="2" t="s">
         <v>688</v>
-      </c>
-      <c r="C320" s="2" t="s">
-        <v>689</v>
-      </c>
-      <c r="D320" s="2" t="s">
-        <v>685</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" s="2" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="C321" s="2" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="D321" s="2" t="s">
-        <v>685</v>
+        <v>688</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" s="2" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="C322" s="2" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="D322" s="2" t="s">
-        <v>694</v>
+        <v>688</v>
       </c>
     </row>
     <row r="323">
@@ -19581,18 +19956,18 @@
         <v>699</v>
       </c>
       <c r="D324" s="2" t="s">
-        <v>697</v>
+        <v>700</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" s="2" t="s">
+        <v>701</v>
+      </c>
+      <c r="C325" s="2" t="s">
+        <v>702</v>
+      </c>
+      <c r="D325" s="2" t="s">
         <v>700</v>
-      </c>
-      <c r="C325" s="2" t="s">
-        <v>701</v>
-      </c>
-      <c r="D325" s="2" t="s">
-        <v>702</v>
       </c>
     </row>
     <row r="326">
@@ -19702,62 +20077,62 @@
         <v>731</v>
       </c>
       <c r="D335" s="2" t="s">
-        <v>729</v>
+        <v>732</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" s="2" t="s">
+        <v>733</v>
+      </c>
+      <c r="C336" s="2" t="s">
+        <v>734</v>
+      </c>
+      <c r="D336" s="2" t="s">
         <v>732</v>
-      </c>
-      <c r="C336" s="2" t="s">
-        <v>733</v>
-      </c>
-      <c r="D336" s="2" t="s">
-        <v>729</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" s="2" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="C337" s="2" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="D337" s="2" t="s">
-        <v>729</v>
+        <v>732</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" s="2" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="C338" s="2" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="D338" s="2" t="s">
-        <v>729</v>
+        <v>732</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" s="2" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="C339" s="2" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="D339" s="2" t="s">
-        <v>729</v>
+        <v>732</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" s="2" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="C340" s="2" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="D340" s="2" t="s">
-        <v>742</v>
+        <v>732</v>
       </c>
     </row>
     <row r="341">
@@ -19768,304 +20143,304 @@
         <v>744</v>
       </c>
       <c r="D341" s="2" t="s">
-        <v>729</v>
+        <v>745</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" s="2" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="C342" s="2" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="D342" s="2" t="s">
-        <v>729</v>
+        <v>732</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" s="2" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="C343" s="2" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="D343" s="2" t="s">
-        <v>729</v>
+        <v>732</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" s="2" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="C344" s="2" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="D344" s="2" t="s">
-        <v>742</v>
+        <v>732</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" s="2" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="C345" s="2" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="D345" s="2" t="s">
-        <v>742</v>
+        <v>745</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" s="2" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="C346" s="2" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="D346" s="2" t="s">
-        <v>742</v>
+        <v>745</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" s="2" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="C347" s="2" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="D347" s="2" t="s">
-        <v>742</v>
+        <v>745</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" s="2" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="C348" s="2" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="D348" s="2" t="s">
-        <v>742</v>
+        <v>745</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" s="2" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="C349" s="2" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="D349" s="2" t="s">
-        <v>742</v>
+        <v>745</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" s="2" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="C350" s="2" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="D350" s="2" t="s">
-        <v>742</v>
+        <v>745</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" s="2" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="C351" s="2" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="D351" s="2" t="s">
-        <v>742</v>
+        <v>745</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" s="2" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="C352" s="2" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="D352" s="2" t="s">
-        <v>742</v>
+        <v>745</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" s="2" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="C353" s="2" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="D353" s="2" t="s">
-        <v>742</v>
+        <v>745</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" s="2" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="C354" s="2" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="D354" s="2" t="s">
-        <v>742</v>
+        <v>745</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" s="2" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="C355" s="2" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="D355" s="2" t="s">
-        <v>742</v>
+        <v>745</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" s="2" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="C356" s="2" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="D356" s="2" t="s">
-        <v>742</v>
+        <v>745</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" s="2" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="C357" s="2" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="D357" s="2" t="s">
-        <v>742</v>
+        <v>745</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" s="2" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="C358" s="2" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="D358" s="2" t="s">
-        <v>742</v>
+        <v>745</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" s="2" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="C359" s="2" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="D359" s="2" t="s">
-        <v>742</v>
+        <v>745</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" s="2" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="C360" s="2" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="D360" s="2" t="s">
-        <v>742</v>
+        <v>745</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" s="2" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="C361" s="2" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="D361" s="2" t="s">
-        <v>742</v>
+        <v>745</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" s="2" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="C362" s="2" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="D362" s="2" t="s">
-        <v>742</v>
+        <v>745</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" s="2" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="C363" s="2" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="D363" s="2" t="s">
-        <v>742</v>
+        <v>745</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" s="2" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="C364" s="2" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="D364" s="2" t="s">
-        <v>742</v>
+        <v>745</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" s="2" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="C365" s="2" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="D365" s="2" t="s">
-        <v>742</v>
+        <v>745</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" s="2" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="C366" s="2" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="D366" s="2" t="s">
-        <v>742</v>
+        <v>745</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" s="2" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="C367" s="2" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="D367" s="2" t="s">
-        <v>742</v>
+        <v>745</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" s="2" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="C368" s="2" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="D368" s="2" t="s">
-        <v>799</v>
+        <v>745</v>
       </c>
     </row>
     <row r="369">
@@ -20087,29 +20462,29 @@
         <v>804</v>
       </c>
       <c r="D370" s="2" t="s">
-        <v>802</v>
+        <v>805</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" s="2" t="s">
+        <v>806</v>
+      </c>
+      <c r="C371" s="2" t="s">
+        <v>807</v>
+      </c>
+      <c r="D371" s="2" t="s">
         <v>805</v>
-      </c>
-      <c r="C371" s="2" t="s">
-        <v>806</v>
-      </c>
-      <c r="D371" s="2" t="s">
-        <v>802</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" s="2" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="C372" s="2" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="D372" s="2" t="s">
-        <v>809</v>
+        <v>805</v>
       </c>
     </row>
     <row r="373">
@@ -20120,94 +20495,94 @@
         <v>811</v>
       </c>
       <c r="D373" s="2" t="s">
-        <v>802</v>
+        <v>812</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" s="2" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="C374" s="2" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="D374" s="2" t="s">
-        <v>802</v>
+        <v>805</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" s="2" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="C375" s="2" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="D375" s="2" t="s">
-        <v>809</v>
+        <v>805</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" s="2" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="C376" s="2" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="D376" s="2" t="s">
-        <v>802</v>
+        <v>812</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" s="2" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="C377" s="2" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="D377" s="2" t="s">
-        <v>802</v>
+        <v>805</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" s="2" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="C378" s="2" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="D378" s="2" t="s">
-        <v>809</v>
+        <v>805</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" s="2" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="C379" s="2" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="D379" s="2" t="s">
-        <v>802</v>
+        <v>812</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" s="2" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="C380" s="2" t="s">
-        <v>825</v>
-      </c>
-      <c r="D380" s="2"/>
+        <v>826</v>
+      </c>
+      <c r="D380" s="2" t="s">
+        <v>805</v>
+      </c>
     </row>
     <row r="381">
       <c r="A381" s="2" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="C381" s="2" t="s">
-        <v>827</v>
-      </c>
-      <c r="D381" s="2" t="s">
         <v>828</v>
       </c>
+      <c r="D381" s="2"/>
     </row>
     <row r="382">
       <c r="A382" s="2" t="s">
@@ -20217,73 +20592,73 @@
         <v>830</v>
       </c>
       <c r="D382" s="2" t="s">
-        <v>809</v>
+        <v>831</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" s="2" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="C383" s="2" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="D383" s="2" t="s">
-        <v>802</v>
+        <v>812</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" s="2" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="C384" s="2" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="D384" s="2" t="s">
-        <v>802</v>
+        <v>805</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" s="2" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="C385" s="2" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="D385" s="2" t="s">
-        <v>828</v>
+        <v>805</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" s="2" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="C386" s="2" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="D386" s="2" t="s">
-        <v>828</v>
+        <v>831</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" s="2" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="C387" s="2" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="D387" s="2" t="s">
-        <v>828</v>
+        <v>831</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" s="2" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="C388" s="2" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="D388" s="2" t="s">
-        <v>843</v>
+        <v>831</v>
       </c>
     </row>
     <row r="389">
@@ -20294,18 +20669,18 @@
         <v>845</v>
       </c>
       <c r="D389" s="2" t="s">
-        <v>843</v>
+        <v>846</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" s="2" t="s">
+        <v>847</v>
+      </c>
+      <c r="C390" s="2" t="s">
+        <v>848</v>
+      </c>
+      <c r="D390" s="2" t="s">
         <v>846</v>
-      </c>
-      <c r="C390" s="2" t="s">
-        <v>847</v>
-      </c>
-      <c r="D390" s="2" t="s">
-        <v>848</v>
       </c>
     </row>
     <row r="391">
@@ -20349,106 +20724,106 @@
         <v>859</v>
       </c>
       <c r="D394" s="2" t="s">
-        <v>857</v>
+        <v>860</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" s="2" t="s">
+        <v>861</v>
+      </c>
+      <c r="C395" s="2" t="s">
+        <v>862</v>
+      </c>
+      <c r="D395" s="2" t="s">
         <v>860</v>
-      </c>
-      <c r="C395" s="2" t="s">
-        <v>861</v>
-      </c>
-      <c r="D395" s="2" t="s">
-        <v>857</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" s="2" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="C396" s="2" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="D396" s="2" t="s">
-        <v>857</v>
+        <v>860</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" s="2" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="C397" s="2" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="D397" s="2" t="s">
-        <v>857</v>
+        <v>860</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" s="2" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="C398" s="2" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="D398" s="2" t="s">
-        <v>857</v>
+        <v>860</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" s="2" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="C399" s="2" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="D399" s="2" t="s">
-        <v>857</v>
+        <v>860</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" s="2" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="C400" s="2" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="D400" s="2" t="s">
-        <v>857</v>
+        <v>860</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" s="2" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="C401" s="2" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="D401" s="2" t="s">
-        <v>857</v>
+        <v>860</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" s="2" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="C402" s="2" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="D402" s="2" t="s">
-        <v>857</v>
+        <v>860</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" s="2" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="C403" s="2" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="D403" s="2" t="s">
-        <v>878</v>
+        <v>860</v>
       </c>
     </row>
     <row r="404">
@@ -20481,29 +20856,29 @@
         <v>886</v>
       </c>
       <c r="D406" s="2" t="s">
-        <v>884</v>
+        <v>887</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" s="2" t="s">
+        <v>888</v>
+      </c>
+      <c r="C407" s="2" t="s">
+        <v>889</v>
+      </c>
+      <c r="D407" s="2" t="s">
         <v>887</v>
-      </c>
-      <c r="C407" s="2" t="s">
-        <v>888</v>
-      </c>
-      <c r="D407" s="2" t="s">
-        <v>884</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" s="2" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="C408" s="2" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="D408" s="2" t="s">
-        <v>891</v>
+        <v>887</v>
       </c>
     </row>
     <row r="409">
@@ -20536,18 +20911,18 @@
         <v>899</v>
       </c>
       <c r="D411" s="2" t="s">
-        <v>897</v>
+        <v>900</v>
       </c>
     </row>
     <row r="412">
       <c r="A412" s="2" t="s">
+        <v>901</v>
+      </c>
+      <c r="C412" s="2" t="s">
+        <v>902</v>
+      </c>
+      <c r="D412" s="2" t="s">
         <v>900</v>
-      </c>
-      <c r="C412" s="2" t="s">
-        <v>901</v>
-      </c>
-      <c r="D412" s="2" t="s">
-        <v>902</v>
       </c>
     </row>
     <row r="413">
@@ -20613,26 +20988,26 @@
         <v>919</v>
       </c>
       <c r="D418" s="2" t="s">
-        <v>917</v>
+        <v>920</v>
       </c>
     </row>
     <row r="419">
       <c r="A419" s="2" t="s">
+        <v>921</v>
+      </c>
+      <c r="C419" s="2" t="s">
+        <v>922</v>
+      </c>
+      <c r="D419" s="2" t="s">
         <v>920</v>
-      </c>
-      <c r="C419" s="2" t="s">
-        <v>921</v>
-      </c>
-      <c r="D419" s="2" t="s">
-        <v>914</v>
       </c>
     </row>
     <row r="420">
       <c r="A420" s="2" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="C420" s="2" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="D420" s="2" t="s">
         <v>917</v>
@@ -20640,13 +21015,13 @@
     </row>
     <row r="421">
       <c r="A421" s="2" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="C421" s="2" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="D421" s="2" t="s">
-        <v>926</v>
+        <v>920</v>
       </c>
     </row>
     <row r="422">
@@ -20657,18 +21032,18 @@
         <v>928</v>
       </c>
       <c r="D422" s="2" t="s">
-        <v>171</v>
+        <v>929</v>
       </c>
     </row>
     <row r="423">
       <c r="A423" s="2" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="C423" s="2" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="D423" s="2" t="s">
-        <v>931</v>
+        <v>171</v>
       </c>
     </row>
     <row r="424">
@@ -20723,18 +21098,18 @@
         <v>945</v>
       </c>
       <c r="D428" s="2" t="s">
-        <v>943</v>
+        <v>946</v>
       </c>
     </row>
     <row r="429">
       <c r="A429" s="2" t="s">
+        <v>947</v>
+      </c>
+      <c r="C429" s="2" t="s">
+        <v>948</v>
+      </c>
+      <c r="D429" s="2" t="s">
         <v>946</v>
-      </c>
-      <c r="C429" s="2" t="s">
-        <v>947</v>
-      </c>
-      <c r="D429" s="2" t="s">
-        <v>948</v>
       </c>
     </row>
     <row r="430">
@@ -21174,150 +21549,150 @@
         <v>1067</v>
       </c>
       <c r="D469" s="2" t="s">
-        <v>1065</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="470">
       <c r="A470" s="2" t="s">
+        <v>1069</v>
+      </c>
+      <c r="C470" s="2" t="s">
+        <v>1070</v>
+      </c>
+      <c r="D470" s="2" t="s">
         <v>1068</v>
-      </c>
-      <c r="C470" s="2" t="s">
-        <v>1069</v>
-      </c>
-      <c r="D470" s="2" t="s">
-        <v>1065</v>
       </c>
     </row>
     <row r="471">
       <c r="A471" s="2" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="C471" s="2" t="s">
-        <v>1071</v>
+        <v>1072</v>
       </c>
       <c r="D471" s="2" t="s">
-        <v>1065</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="472">
       <c r="A472" s="2" t="s">
-        <v>1072</v>
+        <v>1073</v>
       </c>
       <c r="C472" s="2" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="D472" s="2" t="s">
-        <v>1065</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="473">
       <c r="A473" s="2" t="s">
-        <v>1074</v>
+        <v>1075</v>
       </c>
       <c r="C473" s="2" t="s">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="D473" s="2" t="s">
-        <v>1065</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="474">
       <c r="A474" s="2" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="C474" s="2" t="s">
-        <v>1077</v>
+        <v>1078</v>
       </c>
       <c r="D474" s="2" t="s">
-        <v>1065</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="475">
       <c r="A475" s="2" t="s">
-        <v>1078</v>
+        <v>1079</v>
       </c>
       <c r="C475" s="2" t="s">
-        <v>1079</v>
+        <v>1080</v>
       </c>
       <c r="D475" s="2" t="s">
-        <v>1065</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="476">
       <c r="A476" s="2" t="s">
-        <v>1080</v>
+        <v>1081</v>
       </c>
       <c r="C476" s="2" t="s">
-        <v>1081</v>
+        <v>1082</v>
       </c>
       <c r="D476" s="2" t="s">
-        <v>1065</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="477">
       <c r="A477" s="2" t="s">
-        <v>1082</v>
+        <v>1083</v>
       </c>
       <c r="C477" s="2" t="s">
-        <v>1083</v>
+        <v>1084</v>
       </c>
       <c r="D477" s="2" t="s">
-        <v>1065</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="478">
       <c r="A478" s="2" t="s">
-        <v>1084</v>
+        <v>1085</v>
       </c>
       <c r="C478" s="2" t="s">
-        <v>1085</v>
+        <v>1086</v>
       </c>
       <c r="D478" s="2" t="s">
-        <v>1065</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="479">
       <c r="A479" s="2" t="s">
-        <v>1086</v>
+        <v>1087</v>
       </c>
       <c r="C479" s="2" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
       <c r="D479" s="2" t="s">
-        <v>1065</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="480">
       <c r="A480" s="2" t="s">
-        <v>1088</v>
+        <v>1089</v>
       </c>
       <c r="C480" s="2" t="s">
-        <v>1089</v>
+        <v>1090</v>
       </c>
       <c r="D480" s="2" t="s">
-        <v>1065</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="481">
       <c r="A481" s="2" t="s">
-        <v>1090</v>
+        <v>1091</v>
       </c>
       <c r="C481" s="2" t="s">
-        <v>1091</v>
+        <v>1092</v>
       </c>
       <c r="D481" s="2" t="s">
-        <v>1065</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="482">
       <c r="A482" s="2" t="s">
-        <v>1092</v>
+        <v>1093</v>
       </c>
       <c r="C482" s="2" t="s">
-        <v>1093</v>
+        <v>1094</v>
       </c>
       <c r="D482" s="2" t="s">
-        <v>1094</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="483">
@@ -21328,25 +21703,25 @@
         <v>1096</v>
       </c>
       <c r="D483" s="2" t="s">
-        <v>1094</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="484">
       <c r="A484" s="2" t="s">
+        <v>1098</v>
+      </c>
+      <c r="C484" s="2" t="s">
+        <v>1099</v>
+      </c>
+      <c r="D484" s="2" t="s">
         <v>1097</v>
-      </c>
-      <c r="C484" s="2" t="s">
-        <v>1098</v>
-      </c>
-      <c r="D484" s="2" t="s">
-        <v>1099</v>
       </c>
     </row>
     <row r="485">
       <c r="A485" s="2" t="s">
         <v>1100</v>
       </c>
-      <c r="C485" s="7" t="s">
+      <c r="C485" s="2" t="s">
         <v>1101</v>
       </c>
       <c r="D485" s="2" t="s">
@@ -21405,18 +21780,18 @@
         <v>1116</v>
       </c>
       <c r="D490" s="2" t="s">
-        <v>1114</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="491">
       <c r="A491" s="2" t="s">
+        <v>1118</v>
+      </c>
+      <c r="C491" s="7" t="s">
+        <v>1119</v>
+      </c>
+      <c r="D491" s="2" t="s">
         <v>1117</v>
-      </c>
-      <c r="C491" s="7" t="s">
-        <v>1118</v>
-      </c>
-      <c r="D491" s="2" t="s">
-        <v>1119</v>
       </c>
     </row>
     <row r="492">
@@ -21427,29 +21802,29 @@
         <v>1121</v>
       </c>
       <c r="D492" s="2" t="s">
-        <v>1114</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="493">
       <c r="A493" s="2" t="s">
-        <v>1122</v>
+        <v>1123</v>
       </c>
       <c r="C493" s="7" t="s">
-        <v>1123</v>
+        <v>1124</v>
       </c>
       <c r="D493" s="2" t="s">
-        <v>1114</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="494">
       <c r="A494" s="2" t="s">
-        <v>1124</v>
+        <v>1125</v>
       </c>
       <c r="C494" s="7" t="s">
-        <v>1125</v>
+        <v>1126</v>
       </c>
       <c r="D494" s="2" t="s">
-        <v>1126</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="495">
@@ -21471,150 +21846,150 @@
         <v>1131</v>
       </c>
       <c r="D496" s="2" t="s">
-        <v>1126</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="497">
       <c r="A497" s="2" t="s">
-        <v>1132</v>
+        <v>1133</v>
       </c>
       <c r="C497" s="7" t="s">
-        <v>1133</v>
+        <v>1134</v>
       </c>
       <c r="D497" s="2" t="s">
-        <v>1126</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="498">
       <c r="A498" s="2" t="s">
-        <v>1134</v>
+        <v>1135</v>
       </c>
       <c r="C498" s="7" t="s">
-        <v>1135</v>
+        <v>1136</v>
       </c>
       <c r="D498" s="2" t="s">
-        <v>1126</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="499">
       <c r="A499" s="2" t="s">
-        <v>1136</v>
+        <v>1137</v>
       </c>
       <c r="C499" s="7" t="s">
-        <v>1137</v>
+        <v>1138</v>
       </c>
       <c r="D499" s="2" t="s">
-        <v>1126</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="500">
       <c r="A500" s="2" t="s">
-        <v>1138</v>
+        <v>1139</v>
       </c>
       <c r="C500" s="7" t="s">
-        <v>1139</v>
+        <v>1140</v>
       </c>
       <c r="D500" s="2" t="s">
-        <v>1126</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="501">
       <c r="A501" s="2" t="s">
-        <v>1140</v>
+        <v>1141</v>
       </c>
       <c r="C501" s="7" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
       <c r="D501" s="2" t="s">
-        <v>1126</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="502">
       <c r="A502" s="2" t="s">
-        <v>1142</v>
+        <v>1143</v>
       </c>
       <c r="C502" s="7" t="s">
-        <v>1143</v>
+        <v>1144</v>
       </c>
       <c r="D502" s="2" t="s">
-        <v>1126</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="503">
       <c r="A503" s="2" t="s">
-        <v>1144</v>
+        <v>1145</v>
       </c>
       <c r="C503" s="7" t="s">
-        <v>1145</v>
+        <v>1146</v>
       </c>
       <c r="D503" s="2" t="s">
-        <v>1126</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="504">
       <c r="A504" s="2" t="s">
-        <v>1146</v>
+        <v>1147</v>
       </c>
       <c r="C504" s="7" t="s">
-        <v>1147</v>
+        <v>1148</v>
       </c>
       <c r="D504" s="2" t="s">
-        <v>1126</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="505">
       <c r="A505" s="2" t="s">
-        <v>1148</v>
+        <v>1149</v>
       </c>
       <c r="C505" s="7" t="s">
-        <v>1149</v>
+        <v>1150</v>
       </c>
       <c r="D505" s="2" t="s">
-        <v>1126</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="506">
       <c r="A506" s="2" t="s">
-        <v>1150</v>
+        <v>1151</v>
       </c>
       <c r="C506" s="7" t="s">
-        <v>1151</v>
+        <v>1152</v>
       </c>
       <c r="D506" s="2" t="s">
-        <v>1126</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="507">
       <c r="A507" s="2" t="s">
-        <v>1152</v>
+        <v>1153</v>
       </c>
       <c r="C507" s="7" t="s">
-        <v>1153</v>
+        <v>1154</v>
       </c>
       <c r="D507" s="2" t="s">
-        <v>1126</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="508">
       <c r="A508" s="2" t="s">
-        <v>1154</v>
+        <v>1155</v>
       </c>
       <c r="C508" s="7" t="s">
-        <v>1155</v>
+        <v>1156</v>
       </c>
       <c r="D508" s="2" t="s">
-        <v>1126</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="509">
       <c r="A509" s="2" t="s">
-        <v>1156</v>
+        <v>1157</v>
       </c>
       <c r="C509" s="7" t="s">
-        <v>1157</v>
+        <v>1158</v>
       </c>
       <c r="D509" s="2" t="s">
-        <v>1158</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="510">
@@ -21625,18 +22000,18 @@
         <v>1160</v>
       </c>
       <c r="D510" s="2" t="s">
-        <v>1158</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="511">
       <c r="A511" s="2" t="s">
+        <v>1162</v>
+      </c>
+      <c r="C511" s="7" t="s">
+        <v>1163</v>
+      </c>
+      <c r="D511" s="2" t="s">
         <v>1161</v>
-      </c>
-      <c r="C511" s="7" t="s">
-        <v>1162</v>
-      </c>
-      <c r="D511" s="2" t="s">
-        <v>1163</v>
       </c>
     </row>
     <row r="512">
@@ -21647,18 +22022,18 @@
         <v>1165</v>
       </c>
       <c r="D512" s="2" t="s">
-        <v>1163</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="513">
       <c r="A513" s="2" t="s">
+        <v>1167</v>
+      </c>
+      <c r="C513" s="7" t="s">
+        <v>1168</v>
+      </c>
+      <c r="D513" s="2" t="s">
         <v>1166</v>
-      </c>
-      <c r="C513" s="7" t="s">
-        <v>1167</v>
-      </c>
-      <c r="D513" s="2" t="s">
-        <v>1168</v>
       </c>
     </row>
     <row r="514">
@@ -21669,95 +22044,95 @@
         <v>1170</v>
       </c>
       <c r="D514" s="2" t="s">
-        <v>1163</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="515">
       <c r="A515" s="2" t="s">
-        <v>1171</v>
+        <v>1172</v>
       </c>
       <c r="C515" s="7" t="s">
-        <v>1172</v>
+        <v>1173</v>
       </c>
       <c r="D515" s="2" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="516">
       <c r="A516" s="2" t="s">
-        <v>1173</v>
+        <v>1174</v>
       </c>
       <c r="C516" s="7" t="s">
-        <v>1174</v>
+        <v>1175</v>
       </c>
       <c r="D516" s="2" t="s">
-        <v>1168</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="517">
       <c r="A517" s="2" t="s">
-        <v>1175</v>
+        <v>1176</v>
       </c>
       <c r="C517" s="7" t="s">
-        <v>1176</v>
+        <v>1177</v>
       </c>
       <c r="D517" s="2" t="s">
-        <v>1163</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="518">
       <c r="A518" s="2" t="s">
-        <v>1177</v>
+        <v>1178</v>
       </c>
       <c r="C518" s="7" t="s">
-        <v>1178</v>
+        <v>1179</v>
       </c>
       <c r="D518" s="2" t="s">
-        <v>1163</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="519">
       <c r="A519" s="2" t="s">
-        <v>1179</v>
+        <v>1180</v>
       </c>
       <c r="C519" s="7" t="s">
-        <v>1180</v>
+        <v>1181</v>
       </c>
       <c r="D519" s="2" t="s">
-        <v>1163</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="520">
       <c r="A520" s="2" t="s">
-        <v>1181</v>
+        <v>1182</v>
       </c>
       <c r="C520" s="7" t="s">
-        <v>1182</v>
+        <v>1183</v>
       </c>
       <c r="D520" s="2" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="521">
       <c r="A521" s="2" t="s">
-        <v>1183</v>
+        <v>1184</v>
       </c>
       <c r="C521" s="7" t="s">
-        <v>1184</v>
+        <v>1185</v>
       </c>
       <c r="D521" s="2" t="s">
-        <v>1163</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="522">
       <c r="A522" s="2" t="s">
-        <v>1185</v>
+        <v>1186</v>
       </c>
       <c r="C522" s="7" t="s">
-        <v>1186</v>
+        <v>1187</v>
       </c>
       <c r="D522" s="2" t="s">
-        <v>1187</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="523">
@@ -21779,18 +22154,18 @@
         <v>1192</v>
       </c>
       <c r="D524" s="2" t="s">
-        <v>1190</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="525">
       <c r="A525" s="2" t="s">
+        <v>1194</v>
+      </c>
+      <c r="C525" s="7" t="s">
+        <v>1195</v>
+      </c>
+      <c r="D525" s="2" t="s">
         <v>1193</v>
-      </c>
-      <c r="C525" s="7" t="s">
-        <v>1194</v>
-      </c>
-      <c r="D525" s="2" t="s">
-        <v>1195</v>
       </c>
     </row>
     <row r="526">
@@ -21812,18 +22187,18 @@
         <v>1200</v>
       </c>
       <c r="D527" s="2" t="s">
-        <v>1195</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="528">
       <c r="A528" s="2" t="s">
-        <v>1201</v>
+        <v>1202</v>
       </c>
       <c r="C528" s="7" t="s">
-        <v>1202</v>
+        <v>1203</v>
       </c>
       <c r="D528" s="2" t="s">
-        <v>1203</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="529">
@@ -21834,18 +22209,18 @@
         <v>1205</v>
       </c>
       <c r="D529" s="2" t="s">
-        <v>1203</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="530">
       <c r="A530" s="2" t="s">
+        <v>1207</v>
+      </c>
+      <c r="C530" s="7" t="s">
+        <v>1208</v>
+      </c>
+      <c r="D530" s="2" t="s">
         <v>1206</v>
-      </c>
-      <c r="C530" s="7" t="s">
-        <v>1207</v>
-      </c>
-      <c r="D530" s="2" t="s">
-        <v>1208</v>
       </c>
     </row>
     <row r="531">
@@ -21867,18 +22242,18 @@
         <v>1213</v>
       </c>
       <c r="D532" s="2" t="s">
-        <v>1211</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="533">
       <c r="A533" s="2" t="s">
+        <v>1215</v>
+      </c>
+      <c r="C533" s="7" t="s">
+        <v>1216</v>
+      </c>
+      <c r="D533" s="2" t="s">
         <v>1214</v>
-      </c>
-      <c r="C533" s="7" t="s">
-        <v>1215</v>
-      </c>
-      <c r="D533" s="2" t="s">
-        <v>1216</v>
       </c>
     </row>
     <row r="534">
@@ -21889,73 +22264,73 @@
         <v>1218</v>
       </c>
       <c r="D534" s="2" t="s">
-        <v>1216</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="535">
       <c r="A535" s="2" t="s">
+        <v>1220</v>
+      </c>
+      <c r="C535" s="7" t="s">
+        <v>1221</v>
+      </c>
+      <c r="D535" s="2" t="s">
         <v>1219</v>
-      </c>
-      <c r="C535" s="7" t="s">
-        <v>1220</v>
-      </c>
-      <c r="D535" s="2" t="s">
-        <v>1216</v>
       </c>
     </row>
     <row r="536">
       <c r="A536" s="2" t="s">
-        <v>1221</v>
+        <v>1222</v>
       </c>
       <c r="C536" s="7" t="s">
-        <v>1222</v>
+        <v>1223</v>
       </c>
       <c r="D536" s="2" t="s">
-        <v>1216</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="537">
       <c r="A537" s="2" t="s">
-        <v>1223</v>
+        <v>1224</v>
       </c>
       <c r="C537" s="7" t="s">
-        <v>1224</v>
+        <v>1225</v>
       </c>
       <c r="D537" s="2" t="s">
-        <v>1216</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="538">
       <c r="A538" s="2" t="s">
-        <v>1225</v>
+        <v>1226</v>
       </c>
       <c r="C538" s="7" t="s">
-        <v>1226</v>
+        <v>1227</v>
       </c>
       <c r="D538" s="2" t="s">
-        <v>1216</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="539">
       <c r="A539" s="2" t="s">
-        <v>1227</v>
+        <v>1228</v>
       </c>
       <c r="C539" s="7" t="s">
-        <v>1228</v>
+        <v>1229</v>
       </c>
       <c r="D539" s="2" t="s">
-        <v>1216</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="540">
       <c r="A540" s="2" t="s">
-        <v>1229</v>
+        <v>1230</v>
       </c>
       <c r="C540" s="7" t="s">
-        <v>1230</v>
+        <v>1231</v>
       </c>
       <c r="D540" s="2" t="s">
-        <v>1231</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="541">
@@ -21977,40 +22352,40 @@
         <v>1236</v>
       </c>
       <c r="D542" s="2" t="s">
-        <v>1234</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="543">
       <c r="A543" s="2" t="s">
+        <v>1238</v>
+      </c>
+      <c r="C543" s="7" t="s">
+        <v>1239</v>
+      </c>
+      <c r="D543" s="2" t="s">
         <v>1237</v>
-      </c>
-      <c r="C543" s="7" t="s">
-        <v>1238</v>
-      </c>
-      <c r="D543" s="2" t="s">
-        <v>1234</v>
       </c>
     </row>
     <row r="544">
       <c r="A544" s="2" t="s">
-        <v>1239</v>
+        <v>1240</v>
       </c>
       <c r="C544" s="7" t="s">
-        <v>1240</v>
+        <v>1241</v>
       </c>
       <c r="D544" s="2" t="s">
-        <v>1234</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="545">
       <c r="A545" s="2" t="s">
-        <v>1241</v>
+        <v>1242</v>
       </c>
       <c r="C545" s="7" t="s">
-        <v>1242</v>
+        <v>1243</v>
       </c>
       <c r="D545" s="2" t="s">
-        <v>1243</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="546">
@@ -22021,29 +22396,29 @@
         <v>1245</v>
       </c>
       <c r="D546" s="2" t="s">
-        <v>1243</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="547">
       <c r="A547" s="2" t="s">
+        <v>1247</v>
+      </c>
+      <c r="C547" s="7" t="s">
+        <v>1248</v>
+      </c>
+      <c r="D547" s="2" t="s">
         <v>1246</v>
-      </c>
-      <c r="C547" s="7" t="s">
-        <v>1247</v>
-      </c>
-      <c r="D547" s="2" t="s">
-        <v>1243</v>
       </c>
     </row>
     <row r="548">
       <c r="A548" s="2" t="s">
-        <v>1248</v>
+        <v>1249</v>
       </c>
       <c r="C548" s="7" t="s">
-        <v>1249</v>
+        <v>1250</v>
       </c>
       <c r="D548" s="2" t="s">
-        <v>1250</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="549">
@@ -22065,128 +22440,128 @@
         <v>1255</v>
       </c>
       <c r="D550" s="2" t="s">
-        <v>1253</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="551">
       <c r="A551" s="2" t="s">
+        <v>1257</v>
+      </c>
+      <c r="C551" s="7" t="s">
+        <v>1258</v>
+      </c>
+      <c r="D551" s="2" t="s">
         <v>1256</v>
-      </c>
-      <c r="C551" s="7" t="s">
-        <v>1257</v>
-      </c>
-      <c r="D551" s="2" t="s">
-        <v>1253</v>
       </c>
     </row>
     <row r="552">
       <c r="A552" s="2" t="s">
-        <v>1258</v>
+        <v>1259</v>
       </c>
       <c r="C552" s="7" t="s">
-        <v>1259</v>
+        <v>1260</v>
       </c>
       <c r="D552" s="2" t="s">
-        <v>1253</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="553">
       <c r="A553" s="2" t="s">
-        <v>1260</v>
+        <v>1261</v>
       </c>
       <c r="C553" s="7" t="s">
-        <v>1261</v>
+        <v>1262</v>
       </c>
       <c r="D553" s="2" t="s">
-        <v>1253</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="554">
       <c r="A554" s="2" t="s">
-        <v>1262</v>
+        <v>1263</v>
       </c>
       <c r="C554" s="7" t="s">
-        <v>1263</v>
+        <v>1264</v>
       </c>
       <c r="D554" s="2" t="s">
-        <v>1253</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="555">
       <c r="A555" s="2" t="s">
-        <v>1264</v>
+        <v>1265</v>
       </c>
       <c r="C555" s="7" t="s">
-        <v>1265</v>
+        <v>1266</v>
       </c>
       <c r="D555" s="2" t="s">
-        <v>1250</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="556">
       <c r="A556" s="2" t="s">
-        <v>1266</v>
+        <v>1267</v>
       </c>
       <c r="C556" s="7" t="s">
-        <v>1267</v>
+        <v>1268</v>
       </c>
       <c r="D556" s="2" t="s">
-        <v>1250</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="557">
       <c r="A557" s="2" t="s">
-        <v>1268</v>
+        <v>1269</v>
       </c>
       <c r="C557" s="7" t="s">
-        <v>1269</v>
+        <v>1270</v>
       </c>
       <c r="D557" s="2" t="s">
-        <v>1250</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="558">
       <c r="A558" s="2" t="s">
-        <v>1270</v>
+        <v>1271</v>
       </c>
       <c r="C558" s="7" t="s">
-        <v>1271</v>
+        <v>1272</v>
       </c>
       <c r="D558" s="2" t="s">
-        <v>1250</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="559">
       <c r="A559" s="2" t="s">
-        <v>1272</v>
+        <v>1273</v>
       </c>
       <c r="C559" s="7" t="s">
-        <v>1273</v>
+        <v>1274</v>
       </c>
       <c r="D559" s="2" t="s">
-        <v>1250</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="560">
       <c r="A560" s="2" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
       <c r="C560" s="7" t="s">
-        <v>1275</v>
+        <v>1276</v>
       </c>
       <c r="D560" s="2" t="s">
-        <v>1250</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="561">
       <c r="A561" s="2" t="s">
-        <v>1276</v>
+        <v>1277</v>
       </c>
       <c r="C561" s="7" t="s">
-        <v>1277</v>
+        <v>1278</v>
       </c>
       <c r="D561" s="2" t="s">
-        <v>1278</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="562">
@@ -22252,81 +22627,81 @@
         <v>1295</v>
       </c>
       <c r="D567" s="2" t="s">
-        <v>1293</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="568">
       <c r="A568" s="2" t="s">
+        <v>1297</v>
+      </c>
+      <c r="C568" s="7" t="s">
+        <v>1298</v>
+      </c>
+      <c r="D568" s="2" t="s">
         <v>1296</v>
-      </c>
-      <c r="C568" s="7" t="s">
-        <v>1297</v>
-      </c>
-      <c r="D568" s="2" t="s">
-        <v>1293</v>
       </c>
     </row>
     <row r="569">
       <c r="A569" s="2" t="s">
-        <v>1298</v>
+        <v>1299</v>
       </c>
       <c r="C569" s="7" t="s">
-        <v>1299</v>
+        <v>1300</v>
       </c>
       <c r="D569" s="2" t="s">
-        <v>1293</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="570">
       <c r="A570" s="2" t="s">
-        <v>1300</v>
+        <v>1301</v>
       </c>
       <c r="C570" s="7" t="s">
-        <v>1301</v>
+        <v>1302</v>
       </c>
       <c r="D570" s="2" t="s">
-        <v>1293</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="571">
       <c r="A571" s="2" t="s">
-        <v>1302</v>
+        <v>1303</v>
       </c>
       <c r="C571" s="7" t="s">
-        <v>1303</v>
+        <v>1304</v>
       </c>
       <c r="D571" s="2" t="s">
-        <v>1293</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="572">
       <c r="A572" s="2" t="s">
-        <v>1304</v>
+        <v>1305</v>
       </c>
       <c r="C572" s="7" t="s">
-        <v>1305</v>
+        <v>1306</v>
       </c>
       <c r="D572" s="2" t="s">
-        <v>1293</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="573">
       <c r="A573" s="2" t="s">
-        <v>1306</v>
+        <v>1307</v>
       </c>
       <c r="C573" s="7" t="s">
-        <v>1307</v>
+        <v>1308</v>
       </c>
       <c r="D573" s="2" t="s">
-        <v>130</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="574">
       <c r="A574" s="2" t="s">
-        <v>1308</v>
+        <v>1309</v>
       </c>
       <c r="C574" s="7" t="s">
-        <v>1309</v>
+        <v>1310</v>
       </c>
       <c r="D574" s="2" t="s">
         <v>130</v>
@@ -22334,13 +22709,13 @@
     </row>
     <row r="575">
       <c r="A575" s="2" t="s">
-        <v>1310</v>
+        <v>1311</v>
       </c>
       <c r="C575" s="7" t="s">
-        <v>1311</v>
+        <v>1312</v>
       </c>
       <c r="D575" s="2" t="s">
-        <v>1312</v>
+        <v>130</v>
       </c>
     </row>
     <row r="576">
@@ -22351,18 +22726,18 @@
         <v>1314</v>
       </c>
       <c r="D576" s="2" t="s">
-        <v>1312</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="577">
       <c r="A577" s="2" t="s">
+        <v>1316</v>
+      </c>
+      <c r="C577" s="7" t="s">
+        <v>1317</v>
+      </c>
+      <c r="D577" s="2" t="s">
         <v>1315</v>
-      </c>
-      <c r="C577" s="7" t="s">
-        <v>1316</v>
-      </c>
-      <c r="D577" s="2" t="s">
-        <v>1317</v>
       </c>
     </row>
     <row r="578">
@@ -22384,84 +22759,84 @@
         <v>1322</v>
       </c>
       <c r="D579" s="2" t="s">
-        <v>1293</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="580">
       <c r="A580" s="2" t="s">
-        <v>1323</v>
+        <v>1324</v>
       </c>
       <c r="C580" s="7" t="s">
-        <v>1324</v>
+        <v>1325</v>
       </c>
       <c r="D580" s="2" t="s">
-        <v>1293</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="581">
       <c r="A581" s="2" t="s">
-        <v>1325</v>
+        <v>1326</v>
       </c>
       <c r="C581" s="7" t="s">
-        <v>1326</v>
+        <v>1327</v>
       </c>
       <c r="D581" s="2" t="s">
-        <v>1293</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="582">
       <c r="A582" s="2" t="s">
-        <v>1327</v>
+        <v>1328</v>
       </c>
       <c r="C582" s="7" t="s">
-        <v>1328</v>
+        <v>1329</v>
       </c>
       <c r="D582" s="2" t="s">
-        <v>1293</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="583">
       <c r="A583" s="2" t="s">
-        <v>1329</v>
+        <v>1330</v>
       </c>
       <c r="C583" s="7" t="s">
-        <v>1330</v>
+        <v>1331</v>
       </c>
       <c r="D583" s="2" t="s">
-        <v>1293</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="584">
       <c r="A584" s="2" t="s">
-        <v>1331</v>
+        <v>1332</v>
       </c>
       <c r="C584" s="7" t="s">
-        <v>1332</v>
+        <v>1333</v>
       </c>
       <c r="D584" s="2" t="s">
-        <v>1293</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="585">
       <c r="A585" s="2" t="s">
-        <v>1333</v>
+        <v>1334</v>
       </c>
       <c r="C585" s="7" t="s">
-        <v>1334</v>
+        <v>1335</v>
       </c>
       <c r="D585" s="2" t="s">
-        <v>1293</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="586">
       <c r="A586" s="2" t="s">
-        <v>1335</v>
+        <v>1336</v>
       </c>
       <c r="C586" s="7" t="s">
-        <v>1336</v>
+        <v>1337</v>
       </c>
       <c r="D586" s="2" t="s">
-        <v>1337</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="587">
@@ -22472,29 +22847,29 @@
         <v>1339</v>
       </c>
       <c r="D587" s="2" t="s">
-        <v>1337</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="588">
       <c r="A588" s="2" t="s">
+        <v>1341</v>
+      </c>
+      <c r="C588" s="7" t="s">
+        <v>1342</v>
+      </c>
+      <c r="D588" s="2" t="s">
         <v>1340</v>
-      </c>
-      <c r="C588" s="7" t="s">
-        <v>1341</v>
-      </c>
-      <c r="D588" s="2" t="s">
-        <v>1337</v>
       </c>
     </row>
     <row r="589">
       <c r="A589" s="2" t="s">
-        <v>1342</v>
+        <v>1343</v>
       </c>
       <c r="C589" s="7" t="s">
-        <v>1343</v>
+        <v>1344</v>
       </c>
       <c r="D589" s="2" t="s">
-        <v>1344</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="590">
@@ -22505,18 +22880,18 @@
         <v>1346</v>
       </c>
       <c r="D590" s="2" t="s">
-        <v>1337</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="591">
       <c r="A591" s="2" t="s">
-        <v>1347</v>
+        <v>1348</v>
       </c>
       <c r="C591" s="7" t="s">
-        <v>1348</v>
+        <v>1349</v>
       </c>
       <c r="D591" s="2" t="s">
-        <v>1349</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="592">
@@ -22538,128 +22913,128 @@
         <v>1354</v>
       </c>
       <c r="D593" s="2" t="s">
-        <v>1352</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="594">
       <c r="A594" s="2" t="s">
+        <v>1356</v>
+      </c>
+      <c r="C594" s="7" t="s">
+        <v>1357</v>
+      </c>
+      <c r="D594" s="2" t="s">
         <v>1355</v>
-      </c>
-      <c r="C594" s="7" t="s">
-        <v>1356</v>
-      </c>
-      <c r="D594" s="2" t="s">
-        <v>1352</v>
       </c>
     </row>
     <row r="595">
       <c r="A595" s="2" t="s">
-        <v>1357</v>
+        <v>1358</v>
       </c>
       <c r="C595" s="7" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="D595" s="2" t="s">
-        <v>1352</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="596">
       <c r="A596" s="2" t="s">
-        <v>1359</v>
+        <v>1360</v>
       </c>
       <c r="C596" s="7" t="s">
-        <v>1360</v>
+        <v>1361</v>
       </c>
       <c r="D596" s="2" t="s">
-        <v>1352</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="597">
       <c r="A597" s="2" t="s">
-        <v>1361</v>
+        <v>1362</v>
       </c>
       <c r="C597" s="7" t="s">
-        <v>1362</v>
+        <v>1363</v>
       </c>
       <c r="D597" s="2" t="s">
-        <v>1352</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="598">
       <c r="A598" s="2" t="s">
-        <v>1363</v>
+        <v>1364</v>
       </c>
       <c r="C598" s="7" t="s">
-        <v>1364</v>
+        <v>1365</v>
       </c>
       <c r="D598" s="2" t="s">
-        <v>1352</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="599">
       <c r="A599" s="2" t="s">
-        <v>1365</v>
+        <v>1366</v>
       </c>
       <c r="C599" s="7" t="s">
-        <v>1366</v>
+        <v>1367</v>
       </c>
       <c r="D599" s="2" t="s">
-        <v>1352</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="600">
       <c r="A600" s="2" t="s">
-        <v>1367</v>
+        <v>1368</v>
       </c>
       <c r="C600" s="7" t="s">
-        <v>1368</v>
+        <v>1369</v>
       </c>
       <c r="D600" s="2" t="s">
-        <v>1352</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="601">
       <c r="A601" s="2" t="s">
-        <v>1369</v>
+        <v>1370</v>
       </c>
       <c r="C601" s="7" t="s">
-        <v>1370</v>
+        <v>1371</v>
       </c>
       <c r="D601" s="2" t="s">
-        <v>1352</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="602">
       <c r="A602" s="2" t="s">
-        <v>1371</v>
+        <v>1372</v>
       </c>
       <c r="C602" s="7" t="s">
-        <v>1372</v>
+        <v>1373</v>
       </c>
       <c r="D602" s="2" t="s">
-        <v>1352</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="603">
       <c r="A603" s="2" t="s">
-        <v>1373</v>
+        <v>1374</v>
       </c>
       <c r="C603" s="7" t="s">
-        <v>1374</v>
+        <v>1375</v>
       </c>
       <c r="D603" s="2" t="s">
-        <v>1352</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="604">
       <c r="A604" s="2" t="s">
-        <v>1375</v>
+        <v>1376</v>
       </c>
       <c r="C604" s="7" t="s">
-        <v>1376</v>
+        <v>1377</v>
       </c>
       <c r="D604" s="2" t="s">
-        <v>1377</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="605">
@@ -22692,51 +23067,51 @@
         <v>1385</v>
       </c>
       <c r="D607" s="2" t="s">
-        <v>1383</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="608">
       <c r="A608" s="2" t="s">
+        <v>1387</v>
+      </c>
+      <c r="C608" s="7" t="s">
+        <v>1388</v>
+      </c>
+      <c r="D608" s="2" t="s">
         <v>1386</v>
-      </c>
-      <c r="C608" s="7" t="s">
-        <v>1387</v>
-      </c>
-      <c r="D608" s="2" t="s">
-        <v>1383</v>
       </c>
     </row>
     <row r="609">
       <c r="A609" s="2" t="s">
-        <v>1388</v>
+        <v>1389</v>
       </c>
       <c r="C609" s="7" t="s">
-        <v>1389</v>
+        <v>1390</v>
       </c>
       <c r="D609" s="2" t="s">
-        <v>1383</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="610">
       <c r="A610" s="2" t="s">
-        <v>1390</v>
+        <v>1391</v>
       </c>
       <c r="C610" s="7" t="s">
-        <v>1391</v>
+        <v>1392</v>
       </c>
       <c r="D610" s="2" t="s">
-        <v>1383</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="611">
       <c r="A611" s="2" t="s">
-        <v>1392</v>
+        <v>1393</v>
       </c>
       <c r="C611" s="7" t="s">
-        <v>1393</v>
+        <v>1394</v>
       </c>
       <c r="D611" s="2" t="s">
-        <v>1394</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="612">
@@ -22747,29 +23122,29 @@
         <v>1396</v>
       </c>
       <c r="D612" s="2" t="s">
-        <v>1394</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="613">
       <c r="A613" s="2" t="s">
+        <v>1398</v>
+      </c>
+      <c r="C613" s="7" t="s">
+        <v>1399</v>
+      </c>
+      <c r="D613" s="2" t="s">
         <v>1397</v>
-      </c>
-      <c r="C613" s="7" t="s">
-        <v>1398</v>
-      </c>
-      <c r="D613" s="2" t="s">
-        <v>1394</v>
       </c>
     </row>
     <row r="614">
       <c r="A614" s="2" t="s">
-        <v>1399</v>
+        <v>1400</v>
       </c>
       <c r="C614" s="7" t="s">
-        <v>1400</v>
+        <v>1401</v>
       </c>
       <c r="D614" s="2" t="s">
-        <v>1401</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="615">
@@ -22802,18 +23177,18 @@
         <v>1409</v>
       </c>
       <c r="D617" s="2" t="s">
-        <v>1407</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="618">
       <c r="A618" s="2" t="s">
+        <v>1411</v>
+      </c>
+      <c r="C618" s="7" t="s">
+        <v>1412</v>
+      </c>
+      <c r="D618" s="2" t="s">
         <v>1410</v>
-      </c>
-      <c r="C618" s="7" t="s">
-        <v>1411</v>
-      </c>
-      <c r="D618" s="2" t="s">
-        <v>1412</v>
       </c>
     </row>
     <row r="619">
@@ -22857,51 +23232,51 @@
         <v>1423</v>
       </c>
       <c r="D622" s="2" t="s">
-        <v>1421</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="623">
       <c r="A623" s="2" t="s">
+        <v>1425</v>
+      </c>
+      <c r="C623" s="7" t="s">
+        <v>1426</v>
+      </c>
+      <c r="D623" s="2" t="s">
         <v>1424</v>
-      </c>
-      <c r="C623" s="7" t="s">
-        <v>1425</v>
-      </c>
-      <c r="D623" s="2" t="s">
-        <v>1421</v>
       </c>
     </row>
     <row r="624">
       <c r="A624" s="2" t="s">
-        <v>1426</v>
+        <v>1427</v>
       </c>
       <c r="C624" s="7" t="s">
-        <v>1427</v>
+        <v>1428</v>
       </c>
       <c r="D624" s="2" t="s">
-        <v>1421</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="625">
       <c r="A625" s="2" t="s">
-        <v>1428</v>
+        <v>1429</v>
       </c>
       <c r="C625" s="7" t="s">
-        <v>1429</v>
+        <v>1430</v>
       </c>
       <c r="D625" s="2" t="s">
-        <v>1421</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="626">
       <c r="A626" s="2" t="s">
-        <v>1430</v>
+        <v>1431</v>
       </c>
       <c r="C626" s="7" t="s">
-        <v>1431</v>
+        <v>1432</v>
       </c>
       <c r="D626" s="2" t="s">
-        <v>1432</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="627">
@@ -22912,7 +23287,7 @@
         <v>1434</v>
       </c>
       <c r="D627" s="2" t="s">
-        <v>529</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="628">
@@ -22934,18 +23309,18 @@
         <v>1439</v>
       </c>
       <c r="D629" s="2" t="s">
-        <v>1440</v>
+        <v>532</v>
       </c>
     </row>
     <row r="630">
       <c r="A630" s="2" t="s">
+        <v>1440</v>
+      </c>
+      <c r="C630" s="7" t="s">
         <v>1441</v>
       </c>
-      <c r="C630" s="7" t="s">
+      <c r="D630" s="2" t="s">
         <v>1442</v>
-      </c>
-      <c r="D630" s="2" t="s">
-        <v>1437</v>
       </c>
     </row>
     <row r="631">
@@ -22956,258 +23331,258 @@
         <v>1444</v>
       </c>
       <c r="D631" s="2" t="s">
-        <v>1437</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="632">
       <c r="A632" s="2" t="s">
-        <v>1445</v>
+        <v>1446</v>
       </c>
       <c r="C632" s="7" t="s">
-        <v>1446</v>
+        <v>1447</v>
       </c>
       <c r="D632" s="2" t="s">
-        <v>1437</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="633">
       <c r="A633" s="2" t="s">
-        <v>1447</v>
+        <v>1448</v>
       </c>
       <c r="C633" s="7" t="s">
-        <v>1448</v>
+        <v>1449</v>
       </c>
       <c r="D633" s="2" t="s">
-        <v>1437</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="634">
       <c r="A634" s="2" t="s">
-        <v>1449</v>
+        <v>1450</v>
       </c>
       <c r="C634" s="7" t="s">
-        <v>1450</v>
-      </c>
-      <c r="D634" s="2"/>
+        <v>1451</v>
+      </c>
+      <c r="D634" s="2" t="s">
+        <v>1442</v>
+      </c>
     </row>
     <row r="635">
       <c r="A635" s="2" t="s">
-        <v>1451</v>
+        <v>1452</v>
       </c>
       <c r="C635" s="7" t="s">
-        <v>1452</v>
+        <v>1453</v>
       </c>
       <c r="D635" s="2" t="s">
-        <v>1437</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="636">
       <c r="A636" s="2" t="s">
-        <v>1453</v>
+        <v>1454</v>
       </c>
       <c r="C636" s="7" t="s">
-        <v>1454</v>
-      </c>
-      <c r="D636" s="2" t="s">
-        <v>1437</v>
-      </c>
+        <v>1455</v>
+      </c>
+      <c r="D636" s="2"/>
     </row>
     <row r="637">
       <c r="A637" s="2" t="s">
-        <v>1455</v>
+        <v>1456</v>
       </c>
       <c r="C637" s="7" t="s">
-        <v>1456</v>
+        <v>1457</v>
       </c>
       <c r="D637" s="2" t="s">
-        <v>1440</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="638">
       <c r="A638" s="2" t="s">
-        <v>1457</v>
+        <v>1458</v>
       </c>
       <c r="C638" s="7" t="s">
-        <v>1458</v>
+        <v>1459</v>
       </c>
       <c r="D638" s="2" t="s">
-        <v>1440</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="639">
       <c r="A639" s="2" t="s">
-        <v>1459</v>
+        <v>1460</v>
       </c>
       <c r="C639" s="7" t="s">
-        <v>1460</v>
+        <v>1461</v>
       </c>
       <c r="D639" s="2" t="s">
-        <v>1440</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="640">
       <c r="A640" s="2" t="s">
-        <v>1461</v>
+        <v>1462</v>
       </c>
       <c r="C640" s="7" t="s">
-        <v>1462</v>
+        <v>1463</v>
       </c>
       <c r="D640" s="2" t="s">
-        <v>1440</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="641">
       <c r="A641" s="2" t="s">
-        <v>1463</v>
+        <v>1464</v>
       </c>
       <c r="C641" s="7" t="s">
-        <v>1464</v>
+        <v>1465</v>
       </c>
       <c r="D641" s="2" t="s">
-        <v>1437</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="642">
       <c r="A642" s="2" t="s">
-        <v>1465</v>
+        <v>1466</v>
       </c>
       <c r="C642" s="7" t="s">
-        <v>1466</v>
+        <v>1467</v>
       </c>
       <c r="D642" s="2" t="s">
-        <v>1437</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="643">
       <c r="A643" s="2" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C643" s="7" t="s">
-        <v>1468</v>
+        <v>1469</v>
       </c>
       <c r="D643" s="2" t="s">
-        <v>1437</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="644">
       <c r="A644" s="2" t="s">
-        <v>1469</v>
+        <v>1470</v>
       </c>
       <c r="C644" s="7" t="s">
-        <v>1470</v>
+        <v>1471</v>
       </c>
       <c r="D644" s="2" t="s">
-        <v>1437</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="645">
       <c r="A645" s="2" t="s">
-        <v>1471</v>
+        <v>1472</v>
       </c>
       <c r="C645" s="7" t="s">
-        <v>1472</v>
+        <v>1473</v>
       </c>
       <c r="D645" s="2" t="s">
-        <v>1437</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="646">
       <c r="A646" s="2" t="s">
-        <v>1473</v>
+        <v>1474</v>
       </c>
       <c r="C646" s="7" t="s">
-        <v>1474</v>
+        <v>1475</v>
       </c>
       <c r="D646" s="2" t="s">
-        <v>1437</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="647">
       <c r="A647" s="2" t="s">
-        <v>1475</v>
+        <v>1476</v>
       </c>
       <c r="C647" s="7" t="s">
-        <v>1476</v>
+        <v>1477</v>
       </c>
       <c r="D647" s="2" t="s">
-        <v>1437</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="648">
       <c r="A648" s="2" t="s">
-        <v>1477</v>
+        <v>1478</v>
       </c>
       <c r="C648" s="7" t="s">
-        <v>1478</v>
+        <v>1479</v>
       </c>
       <c r="D648" s="2" t="s">
-        <v>1437</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="649">
       <c r="A649" s="2" t="s">
-        <v>1479</v>
+        <v>1480</v>
       </c>
       <c r="C649" s="7" t="s">
-        <v>1480</v>
+        <v>1481</v>
       </c>
       <c r="D649" s="2" t="s">
-        <v>1437</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="650">
       <c r="A650" s="2" t="s">
-        <v>1481</v>
+        <v>1482</v>
       </c>
       <c r="C650" s="7" t="s">
-        <v>1482</v>
+        <v>1483</v>
       </c>
       <c r="D650" s="2" t="s">
-        <v>1437</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="651">
       <c r="A651" s="2" t="s">
-        <v>1483</v>
+        <v>1484</v>
       </c>
       <c r="C651" s="7" t="s">
-        <v>1484</v>
+        <v>1485</v>
       </c>
       <c r="D651" s="2" t="s">
-        <v>1437</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="652">
       <c r="A652" s="2" t="s">
-        <v>1485</v>
+        <v>1486</v>
       </c>
       <c r="C652" s="7" t="s">
-        <v>1486</v>
+        <v>1487</v>
       </c>
       <c r="D652" s="2" t="s">
-        <v>1437</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="653">
       <c r="A653" s="2" t="s">
-        <v>1487</v>
+        <v>1488</v>
       </c>
       <c r="C653" s="7" t="s">
-        <v>1488</v>
+        <v>1489</v>
       </c>
       <c r="D653" s="2" t="s">
-        <v>1437</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="654">
       <c r="A654" s="2" t="s">
-        <v>1489</v>
+        <v>1490</v>
       </c>
       <c r="C654" s="7" t="s">
-        <v>1490</v>
+        <v>1491</v>
       </c>
       <c r="D654" s="2" t="s">
-        <v>1491</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="655">
@@ -23218,7 +23593,7 @@
         <v>1493</v>
       </c>
       <c r="D655" s="2" t="s">
-        <v>1491</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="656">
@@ -23229,975 +23604,975 @@
         <v>1495</v>
       </c>
       <c r="D656" s="2" t="s">
-        <v>1491</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="657">
       <c r="A657" s="2" t="s">
+        <v>1497</v>
+      </c>
+      <c r="C657" s="7" t="s">
+        <v>1498</v>
+      </c>
+      <c r="D657" s="2" t="s">
         <v>1496</v>
-      </c>
-      <c r="C657" s="7" t="s">
-        <v>1497</v>
-      </c>
-      <c r="D657" s="2" t="s">
-        <v>1437</v>
       </c>
     </row>
     <row r="658">
       <c r="A658" s="2" t="s">
-        <v>1498</v>
+        <v>1499</v>
       </c>
       <c r="C658" s="7" t="s">
-        <v>1499</v>
+        <v>1500</v>
       </c>
       <c r="D658" s="2" t="s">
-        <v>1437</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="659">
       <c r="A659" s="2" t="s">
-        <v>1500</v>
+        <v>1501</v>
       </c>
       <c r="C659" s="7" t="s">
-        <v>1501</v>
+        <v>1502</v>
       </c>
       <c r="D659" s="2" t="s">
-        <v>1437</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="660">
       <c r="A660" s="2" t="s">
-        <v>1502</v>
+        <v>1503</v>
       </c>
       <c r="C660" s="7" t="s">
-        <v>1503</v>
+        <v>1504</v>
       </c>
       <c r="D660" s="2" t="s">
-        <v>1437</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="661">
       <c r="A661" s="2" t="s">
-        <v>1504</v>
+        <v>1505</v>
       </c>
       <c r="C661" s="7" t="s">
-        <v>1505</v>
+        <v>1506</v>
       </c>
       <c r="D661" s="2" t="s">
-        <v>1437</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="662">
       <c r="A662" s="2" t="s">
-        <v>1506</v>
+        <v>1507</v>
       </c>
       <c r="C662" s="7" t="s">
-        <v>1507</v>
+        <v>1508</v>
       </c>
       <c r="D662" s="2" t="s">
-        <v>1437</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="663">
       <c r="A663" s="2" t="s">
-        <v>1508</v>
+        <v>1509</v>
       </c>
       <c r="C663" s="7" t="s">
-        <v>1509</v>
+        <v>1510</v>
       </c>
       <c r="D663" s="2" t="s">
-        <v>1437</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="664">
       <c r="A664" s="2" t="s">
-        <v>1510</v>
+        <v>1511</v>
       </c>
       <c r="C664" s="7" t="s">
-        <v>1511</v>
+        <v>1512</v>
       </c>
       <c r="D664" s="2" t="s">
-        <v>1437</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="665">
       <c r="A665" s="2" t="s">
-        <v>1512</v>
+        <v>1513</v>
       </c>
       <c r="C665" s="7" t="s">
-        <v>1513</v>
+        <v>1514</v>
       </c>
       <c r="D665" s="2" t="s">
-        <v>1437</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="666">
       <c r="A666" s="2" t="s">
-        <v>1514</v>
+        <v>1515</v>
       </c>
       <c r="C666" s="7" t="s">
-        <v>1515</v>
+        <v>1516</v>
       </c>
       <c r="D666" s="2" t="s">
-        <v>1437</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="667">
       <c r="A667" s="2" t="s">
-        <v>1516</v>
+        <v>1517</v>
       </c>
       <c r="C667" s="7" t="s">
-        <v>1517</v>
+        <v>1518</v>
       </c>
       <c r="D667" s="2" t="s">
-        <v>1437</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="668">
       <c r="A668" s="2" t="s">
-        <v>1518</v>
+        <v>1519</v>
       </c>
       <c r="C668" s="7" t="s">
-        <v>1519</v>
+        <v>1520</v>
       </c>
       <c r="D668" s="2" t="s">
-        <v>1437</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="669">
       <c r="A669" s="2" t="s">
-        <v>1520</v>
+        <v>1521</v>
       </c>
       <c r="C669" s="7" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="D669" s="2" t="s">
-        <v>1437</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="670">
       <c r="A670" s="2" t="s">
-        <v>1522</v>
+        <v>1523</v>
       </c>
       <c r="C670" s="7" t="s">
-        <v>1523</v>
+        <v>1524</v>
       </c>
       <c r="D670" s="2" t="s">
-        <v>1437</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="671">
       <c r="A671" s="2" t="s">
-        <v>1524</v>
+        <v>1525</v>
       </c>
       <c r="C671" s="7" t="s">
-        <v>1525</v>
+        <v>1526</v>
       </c>
       <c r="D671" s="2" t="s">
-        <v>1437</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="672">
       <c r="A672" s="2" t="s">
-        <v>1526</v>
+        <v>1527</v>
       </c>
       <c r="C672" s="7" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
       <c r="D672" s="2" t="s">
-        <v>1437</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="673">
       <c r="A673" s="2" t="s">
-        <v>1528</v>
+        <v>1529</v>
       </c>
       <c r="C673" s="7" t="s">
-        <v>1529</v>
+        <v>1530</v>
       </c>
       <c r="D673" s="2" t="s">
-        <v>1437</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="674">
       <c r="A674" s="2" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="C674" s="7" t="s">
-        <v>1531</v>
+        <v>1532</v>
       </c>
       <c r="D674" s="2" t="s">
-        <v>1437</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="675">
       <c r="A675" s="2" t="s">
-        <v>1532</v>
+        <v>1533</v>
       </c>
       <c r="C675" s="7" t="s">
-        <v>1533</v>
+        <v>1534</v>
       </c>
       <c r="D675" s="2" t="s">
-        <v>1437</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="676">
       <c r="A676" s="2" t="s">
-        <v>1534</v>
+        <v>1535</v>
       </c>
       <c r="C676" s="7" t="s">
-        <v>1535</v>
+        <v>1536</v>
       </c>
       <c r="D676" s="2" t="s">
-        <v>1437</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="677">
       <c r="A677" s="2" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="C677" s="7" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="D677" s="2" t="s">
-        <v>1437</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="678">
       <c r="A678" s="2" t="s">
-        <v>1538</v>
+        <v>1539</v>
       </c>
       <c r="C678" s="7" t="s">
-        <v>1539</v>
+        <v>1540</v>
       </c>
       <c r="D678" s="2" t="s">
-        <v>1437</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="679">
       <c r="A679" s="2" t="s">
-        <v>1540</v>
+        <v>1541</v>
       </c>
       <c r="C679" s="7" t="s">
-        <v>1541</v>
+        <v>1542</v>
       </c>
       <c r="D679" s="2" t="s">
-        <v>1437</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="680">
       <c r="A680" s="2" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="C680" s="7" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="D680" s="2" t="s">
-        <v>1437</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="681">
       <c r="A681" s="2" t="s">
-        <v>1544</v>
+        <v>1545</v>
       </c>
       <c r="C681" s="7" t="s">
-        <v>1545</v>
+        <v>1546</v>
       </c>
       <c r="D681" s="2" t="s">
-        <v>1440</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="682">
       <c r="A682" s="2" t="s">
-        <v>1546</v>
+        <v>1547</v>
       </c>
       <c r="C682" s="7" t="s">
-        <v>1547</v>
+        <v>1548</v>
       </c>
       <c r="D682" s="2" t="s">
-        <v>1440</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="683">
       <c r="A683" s="2" t="s">
-        <v>1548</v>
+        <v>1549</v>
       </c>
       <c r="C683" s="7" t="s">
-        <v>1549</v>
+        <v>1550</v>
       </c>
       <c r="D683" s="2" t="s">
-        <v>1440</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="684">
       <c r="A684" s="2" t="s">
-        <v>1550</v>
+        <v>1551</v>
       </c>
       <c r="C684" s="7" t="s">
-        <v>1551</v>
+        <v>1552</v>
       </c>
       <c r="D684" s="2" t="s">
-        <v>1440</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="685">
       <c r="A685" s="2" t="s">
-        <v>1552</v>
+        <v>1553</v>
       </c>
       <c r="C685" s="7" t="s">
-        <v>1553</v>
+        <v>1554</v>
       </c>
       <c r="D685" s="2" t="s">
-        <v>1437</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="686">
       <c r="A686" s="2" t="s">
-        <v>1554</v>
+        <v>1555</v>
       </c>
       <c r="C686" s="7" t="s">
-        <v>1555</v>
+        <v>1556</v>
       </c>
       <c r="D686" s="2" t="s">
-        <v>1437</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="687">
       <c r="A687" s="2" t="s">
-        <v>1556</v>
+        <v>1557</v>
       </c>
       <c r="C687" s="7" t="s">
-        <v>1557</v>
+        <v>1558</v>
       </c>
       <c r="D687" s="2" t="s">
-        <v>1437</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="688">
       <c r="A688" s="2" t="s">
-        <v>1558</v>
+        <v>1559</v>
       </c>
       <c r="C688" s="7" t="s">
-        <v>1559</v>
+        <v>1560</v>
       </c>
       <c r="D688" s="2" t="s">
-        <v>1437</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="689">
       <c r="A689" s="2" t="s">
-        <v>1560</v>
+        <v>1561</v>
       </c>
       <c r="C689" s="7" t="s">
-        <v>1561</v>
+        <v>1562</v>
       </c>
       <c r="D689" s="2" t="s">
-        <v>1437</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="690">
       <c r="A690" s="2" t="s">
-        <v>1562</v>
+        <v>1563</v>
       </c>
       <c r="C690" s="7" t="s">
-        <v>1563</v>
+        <v>1564</v>
       </c>
       <c r="D690" s="2" t="s">
-        <v>1437</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="691">
       <c r="A691" s="2" t="s">
-        <v>1564</v>
+        <v>1565</v>
       </c>
       <c r="C691" s="7" t="s">
-        <v>1565</v>
+        <v>1566</v>
       </c>
       <c r="D691" s="2" t="s">
-        <v>1437</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="692">
       <c r="A692" s="2" t="s">
-        <v>1566</v>
+        <v>1567</v>
       </c>
       <c r="C692" s="7" t="s">
-        <v>1567</v>
+        <v>1568</v>
       </c>
       <c r="D692" s="2" t="s">
-        <v>1437</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="693">
       <c r="A693" s="2" t="s">
-        <v>1568</v>
+        <v>1569</v>
       </c>
       <c r="C693" s="7" t="s">
-        <v>1569</v>
+        <v>1570</v>
       </c>
       <c r="D693" s="2" t="s">
-        <v>1437</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="694">
       <c r="A694" s="2" t="s">
-        <v>1570</v>
+        <v>1571</v>
       </c>
       <c r="C694" s="7" t="s">
-        <v>1571</v>
+        <v>1572</v>
       </c>
       <c r="D694" s="2" t="s">
-        <v>1440</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="695">
       <c r="A695" s="2" t="s">
-        <v>1572</v>
+        <v>1573</v>
       </c>
       <c r="C695" s="7" t="s">
-        <v>1573</v>
+        <v>1574</v>
       </c>
       <c r="D695" s="2" t="s">
-        <v>1437</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="696">
       <c r="A696" s="2" t="s">
-        <v>1574</v>
+        <v>1575</v>
       </c>
       <c r="C696" s="7" t="s">
-        <v>1575</v>
+        <v>1576</v>
       </c>
       <c r="D696" s="2" t="s">
-        <v>1440</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="697">
       <c r="A697" s="2" t="s">
-        <v>1576</v>
+        <v>1577</v>
       </c>
       <c r="C697" s="7" t="s">
-        <v>1577</v>
+        <v>1578</v>
       </c>
       <c r="D697" s="2" t="s">
-        <v>1437</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="698">
       <c r="A698" s="2" t="s">
-        <v>1578</v>
+        <v>1579</v>
       </c>
       <c r="C698" s="7" t="s">
-        <v>1579</v>
+        <v>1580</v>
       </c>
       <c r="D698" s="2" t="s">
-        <v>1437</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="699">
       <c r="A699" s="2" t="s">
-        <v>1580</v>
+        <v>1581</v>
       </c>
       <c r="C699" s="7" t="s">
-        <v>1581</v>
+        <v>1582</v>
       </c>
       <c r="D699" s="2" t="s">
-        <v>1437</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="700">
       <c r="A700" s="2" t="s">
-        <v>1582</v>
+        <v>1583</v>
       </c>
       <c r="C700" s="7" t="s">
-        <v>1583</v>
+        <v>1584</v>
       </c>
       <c r="D700" s="2" t="s">
-        <v>1440</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="701">
       <c r="A701" s="2" t="s">
-        <v>1584</v>
+        <v>1585</v>
       </c>
       <c r="C701" s="7" t="s">
-        <v>1585</v>
+        <v>1586</v>
       </c>
       <c r="D701" s="2" t="s">
-        <v>1437</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="702">
       <c r="A702" s="2" t="s">
-        <v>1586</v>
+        <v>1587</v>
       </c>
       <c r="C702" s="7" t="s">
-        <v>1587</v>
+        <v>1588</v>
       </c>
       <c r="D702" s="2" t="s">
-        <v>1440</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="703">
       <c r="A703" s="2" t="s">
-        <v>1588</v>
+        <v>1589</v>
       </c>
       <c r="C703" s="7" t="s">
-        <v>1589</v>
+        <v>1590</v>
       </c>
       <c r="D703" s="2" t="s">
-        <v>1440</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="704">
       <c r="A704" s="2" t="s">
-        <v>1590</v>
+        <v>1591</v>
       </c>
       <c r="C704" s="7" t="s">
-        <v>1591</v>
+        <v>1592</v>
       </c>
       <c r="D704" s="2" t="s">
-        <v>1437</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="705">
       <c r="A705" s="2" t="s">
-        <v>1592</v>
+        <v>1593</v>
       </c>
       <c r="C705" s="7" t="s">
-        <v>1593</v>
+        <v>1594</v>
       </c>
       <c r="D705" s="2" t="s">
-        <v>1440</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="706">
       <c r="A706" s="2" t="s">
-        <v>1594</v>
+        <v>1595</v>
       </c>
       <c r="C706" s="7" t="s">
-        <v>1595</v>
+        <v>1596</v>
       </c>
       <c r="D706" s="2" t="s">
-        <v>1437</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="707">
       <c r="A707" s="2" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="C707" s="7" t="s">
-        <v>1597</v>
+        <v>1598</v>
       </c>
       <c r="D707" s="2" t="s">
-        <v>1437</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="708">
       <c r="A708" s="2" t="s">
-        <v>1598</v>
+        <v>1599</v>
       </c>
       <c r="C708" s="7" t="s">
-        <v>1599</v>
+        <v>1600</v>
       </c>
       <c r="D708" s="2" t="s">
-        <v>1437</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="709">
       <c r="A709" s="2" t="s">
-        <v>1600</v>
+        <v>1601</v>
       </c>
       <c r="C709" s="7" t="s">
-        <v>1601</v>
+        <v>1602</v>
       </c>
       <c r="D709" s="2" t="s">
-        <v>1437</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="710">
       <c r="A710" s="2" t="s">
-        <v>1602</v>
+        <v>1603</v>
       </c>
       <c r="C710" s="7" t="s">
-        <v>1603</v>
+        <v>1604</v>
       </c>
       <c r="D710" s="2" t="s">
-        <v>1437</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="711">
       <c r="A711" s="2" t="s">
-        <v>1604</v>
+        <v>1605</v>
       </c>
       <c r="C711" s="7" t="s">
-        <v>1605</v>
+        <v>1606</v>
       </c>
       <c r="D711" s="2" t="s">
-        <v>1437</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="712">
       <c r="A712" s="2" t="s">
-        <v>1606</v>
+        <v>1607</v>
       </c>
       <c r="C712" s="7" t="s">
-        <v>1607</v>
+        <v>1608</v>
       </c>
       <c r="D712" s="2" t="s">
-        <v>1437</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="713">
       <c r="A713" s="2" t="s">
-        <v>1608</v>
+        <v>1609</v>
       </c>
       <c r="C713" s="7" t="s">
-        <v>1609</v>
+        <v>1610</v>
       </c>
       <c r="D713" s="2" t="s">
-        <v>1440</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="714">
       <c r="A714" s="2" t="s">
-        <v>1610</v>
+        <v>1611</v>
       </c>
       <c r="C714" s="7" t="s">
-        <v>1611</v>
+        <v>1612</v>
       </c>
       <c r="D714" s="2" t="s">
-        <v>1440</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="715">
       <c r="A715" s="2" t="s">
-        <v>1612</v>
+        <v>1613</v>
       </c>
       <c r="C715" s="7" t="s">
-        <v>1613</v>
+        <v>1614</v>
       </c>
       <c r="D715" s="2" t="s">
-        <v>1440</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="716">
       <c r="A716" s="2" t="s">
-        <v>1614</v>
+        <v>1615</v>
       </c>
       <c r="C716" s="7" t="s">
-        <v>1615</v>
+        <v>1616</v>
       </c>
       <c r="D716" s="2" t="s">
-        <v>1440</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="717">
       <c r="A717" s="2" t="s">
-        <v>1616</v>
+        <v>1617</v>
       </c>
       <c r="C717" s="7" t="s">
-        <v>1617</v>
+        <v>1618</v>
       </c>
       <c r="D717" s="2" t="s">
-        <v>1440</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="718">
       <c r="A718" s="2" t="s">
-        <v>1618</v>
+        <v>1619</v>
       </c>
       <c r="C718" s="7" t="s">
-        <v>1619</v>
+        <v>1620</v>
       </c>
       <c r="D718" s="2" t="s">
-        <v>1440</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="719">
       <c r="A719" s="2" t="s">
-        <v>1620</v>
+        <v>1621</v>
       </c>
       <c r="C719" s="7" t="s">
-        <v>1621</v>
+        <v>1622</v>
       </c>
       <c r="D719" s="2" t="s">
-        <v>1440</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="720">
       <c r="A720" s="2" t="s">
-        <v>1622</v>
+        <v>1623</v>
       </c>
       <c r="C720" s="7" t="s">
-        <v>1623</v>
+        <v>1624</v>
       </c>
       <c r="D720" s="2" t="s">
-        <v>1437</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="721">
       <c r="A721" s="2" t="s">
-        <v>1624</v>
+        <v>1625</v>
       </c>
       <c r="C721" s="7" t="s">
-        <v>1625</v>
+        <v>1626</v>
       </c>
       <c r="D721" s="2" t="s">
-        <v>1437</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="722">
       <c r="A722" s="2" t="s">
-        <v>1626</v>
+        <v>1627</v>
       </c>
       <c r="C722" s="7" t="s">
-        <v>1627</v>
+        <v>1628</v>
       </c>
       <c r="D722" s="2" t="s">
-        <v>1437</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="723">
       <c r="A723" s="2" t="s">
-        <v>1628</v>
+        <v>1629</v>
       </c>
       <c r="C723" s="7" t="s">
-        <v>1629</v>
+        <v>1630</v>
       </c>
       <c r="D723" s="2" t="s">
-        <v>1437</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="724">
       <c r="A724" s="2" t="s">
-        <v>1630</v>
+        <v>1631</v>
       </c>
       <c r="C724" s="7" t="s">
-        <v>1631</v>
+        <v>1632</v>
       </c>
       <c r="D724" s="2" t="s">
-        <v>1440</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="725">
       <c r="A725" s="2" t="s">
-        <v>1632</v>
+        <v>1633</v>
       </c>
       <c r="C725" s="7" t="s">
-        <v>1633</v>
+        <v>1634</v>
       </c>
       <c r="D725" s="2" t="s">
-        <v>1437</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="726">
       <c r="A726" s="2" t="s">
-        <v>1634</v>
+        <v>1635</v>
       </c>
       <c r="C726" s="7" t="s">
-        <v>1635</v>
+        <v>1636</v>
       </c>
       <c r="D726" s="2" t="s">
-        <v>1437</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="727">
       <c r="A727" s="2" t="s">
-        <v>1636</v>
+        <v>1637</v>
       </c>
       <c r="C727" s="7" t="s">
-        <v>1637</v>
+        <v>1638</v>
       </c>
       <c r="D727" s="2" t="s">
-        <v>1437</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="728">
       <c r="A728" s="2" t="s">
-        <v>1638</v>
+        <v>1639</v>
       </c>
       <c r="C728" s="7" t="s">
-        <v>1639</v>
+        <v>1640</v>
       </c>
       <c r="D728" s="2" t="s">
-        <v>1437</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="729">
       <c r="A729" s="2" t="s">
-        <v>1640</v>
+        <v>1641</v>
       </c>
       <c r="C729" s="7" t="s">
-        <v>1641</v>
+        <v>1642</v>
       </c>
       <c r="D729" s="2" t="s">
-        <v>1437</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="730">
       <c r="A730" s="2" t="s">
-        <v>1642</v>
+        <v>1643</v>
       </c>
       <c r="C730" s="7" t="s">
-        <v>1643</v>
+        <v>1644</v>
       </c>
       <c r="D730" s="2" t="s">
-        <v>1437</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="731">
       <c r="A731" s="2" t="s">
-        <v>1644</v>
+        <v>1645</v>
       </c>
       <c r="C731" s="7" t="s">
-        <v>1645</v>
+        <v>1646</v>
       </c>
       <c r="D731" s="2" t="s">
-        <v>1440</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="732">
       <c r="A732" s="2" t="s">
-        <v>1646</v>
+        <v>1647</v>
       </c>
       <c r="C732" s="7" t="s">
-        <v>1647</v>
+        <v>1648</v>
       </c>
       <c r="D732" s="2" t="s">
-        <v>1437</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="733">
       <c r="A733" s="2" t="s">
-        <v>1648</v>
+        <v>1649</v>
       </c>
       <c r="C733" s="7" t="s">
-        <v>1649</v>
+        <v>1650</v>
       </c>
       <c r="D733" s="2" t="s">
-        <v>1437</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="734">
       <c r="A734" s="2" t="s">
-        <v>1650</v>
+        <v>1651</v>
       </c>
       <c r="C734" s="7" t="s">
-        <v>1651</v>
+        <v>1652</v>
       </c>
       <c r="D734" s="2" t="s">
-        <v>1437</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="735">
       <c r="A735" s="2" t="s">
-        <v>1652</v>
+        <v>1653</v>
       </c>
       <c r="C735" s="7" t="s">
-        <v>1653</v>
+        <v>1654</v>
       </c>
       <c r="D735" s="2" t="s">
-        <v>1437</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="736">
       <c r="A736" s="2" t="s">
-        <v>1654</v>
+        <v>1655</v>
       </c>
       <c r="C736" s="7" t="s">
-        <v>1655</v>
+        <v>1656</v>
       </c>
       <c r="D736" s="2" t="s">
-        <v>1437</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="737">
       <c r="A737" s="2" t="s">
-        <v>1656</v>
+        <v>1657</v>
       </c>
       <c r="C737" s="7" t="s">
-        <v>1657</v>
+        <v>1658</v>
       </c>
       <c r="D737" s="2" t="s">
-        <v>1440</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="738">
       <c r="A738" s="2" t="s">
-        <v>1658</v>
+        <v>1659</v>
       </c>
       <c r="C738" s="7" t="s">
-        <v>1659</v>
+        <v>1660</v>
       </c>
       <c r="D738" s="2" t="s">
-        <v>1437</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="739">
       <c r="A739" s="2" t="s">
-        <v>1660</v>
+        <v>1661</v>
       </c>
       <c r="C739" s="7" t="s">
-        <v>1661</v>
+        <v>1662</v>
       </c>
       <c r="D739" s="2" t="s">
-        <v>1437</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="740">
       <c r="A740" s="2" t="s">
-        <v>1662</v>
+        <v>1663</v>
       </c>
       <c r="C740" s="7" t="s">
-        <v>1663</v>
+        <v>1664</v>
       </c>
       <c r="D740" s="2" t="s">
-        <v>1437</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="741">
       <c r="A741" s="2" t="s">
-        <v>1664</v>
+        <v>1665</v>
       </c>
       <c r="C741" s="7" t="s">
-        <v>1665</v>
+        <v>1666</v>
       </c>
       <c r="D741" s="2" t="s">
-        <v>1440</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="742">
       <c r="A742" s="2" t="s">
-        <v>1666</v>
+        <v>1667</v>
       </c>
       <c r="C742" s="7" t="s">
-        <v>1667</v>
+        <v>1668</v>
       </c>
       <c r="D742" s="2" t="s">
-        <v>1437</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="743">
       <c r="A743" s="2" t="s">
-        <v>1668</v>
+        <v>1669</v>
       </c>
       <c r="C743" s="7" t="s">
-        <v>1669</v>
+        <v>1670</v>
       </c>
       <c r="D743" s="2" t="s">
-        <v>1440</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="744">
       <c r="A744" s="2" t="s">
-        <v>1670</v>
+        <v>1671</v>
       </c>
       <c r="C744" s="7" t="s">
-        <v>1671</v>
+        <v>1672</v>
       </c>
       <c r="D744" s="2" t="s">
-        <v>1672</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="745">
@@ -24208,84 +24583,84 @@
         <v>1674</v>
       </c>
       <c r="D745" s="2" t="s">
-        <v>1675</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="746">
       <c r="A746" s="2" t="s">
+        <v>1675</v>
+      </c>
+      <c r="C746" s="7" t="s">
         <v>1676</v>
       </c>
-      <c r="C746" s="7" t="s">
+      <c r="D746" s="2" t="s">
         <v>1677</v>
-      </c>
-      <c r="D746" s="2" t="s">
-        <v>1678</v>
       </c>
     </row>
     <row r="747">
       <c r="A747" s="2" t="s">
+        <v>1678</v>
+      </c>
+      <c r="C747" s="7" t="s">
         <v>1679</v>
       </c>
-      <c r="C747" s="7" t="s">
+      <c r="D747" s="2" t="s">
         <v>1680</v>
-      </c>
-      <c r="D747" s="2" t="s">
-        <v>1681</v>
       </c>
     </row>
     <row r="748">
       <c r="A748" s="2" t="s">
+        <v>1681</v>
+      </c>
+      <c r="C748" s="7" t="s">
         <v>1682</v>
       </c>
-      <c r="C748" s="7" t="s">
+      <c r="D748" s="2" t="s">
         <v>1683</v>
-      </c>
-      <c r="D748" s="2" t="s">
-        <v>1684</v>
       </c>
     </row>
     <row r="749">
       <c r="A749" s="2" t="s">
+        <v>1684</v>
+      </c>
+      <c r="C749" s="7" t="s">
         <v>1685</v>
       </c>
-      <c r="C749" s="7" t="s">
+      <c r="D749" s="2" t="s">
         <v>1686</v>
-      </c>
-      <c r="D749" s="2" t="s">
-        <v>1687</v>
       </c>
     </row>
     <row r="750">
       <c r="A750" s="2" t="s">
+        <v>1687</v>
+      </c>
+      <c r="C750" s="7" t="s">
         <v>1688</v>
       </c>
-      <c r="C750" s="7" t="s">
+      <c r="D750" s="2" t="s">
         <v>1689</v>
-      </c>
-      <c r="D750" s="2" t="s">
-        <v>1690</v>
       </c>
     </row>
     <row r="751">
       <c r="A751" s="2" t="s">
+        <v>1690</v>
+      </c>
+      <c r="C751" s="7" t="s">
         <v>1691</v>
       </c>
-      <c r="C751" s="7" t="s">
+      <c r="D751" s="2" t="s">
         <v>1692</v>
-      </c>
-      <c r="D751" s="2" t="s">
-        <v>1693</v>
       </c>
     </row>
     <row r="752">
       <c r="A752" s="2" t="s">
+        <v>1693</v>
+      </c>
+      <c r="C752" s="7" t="s">
         <v>1694</v>
       </c>
-      <c r="C752" s="7" t="s">
+      <c r="D752" s="2" t="s">
         <v>1695</v>
-      </c>
-      <c r="D752" s="2" t="s">
-        <v>1693</v>
       </c>
     </row>
     <row r="753">
@@ -24296,139 +24671,139 @@
         <v>1697</v>
       </c>
       <c r="D753" s="2" t="s">
-        <v>1693</v>
+        <v>1698</v>
       </c>
     </row>
     <row r="754">
       <c r="A754" s="2" t="s">
+        <v>1699</v>
+      </c>
+      <c r="C754" s="7" t="s">
+        <v>1700</v>
+      </c>
+      <c r="D754" s="2" t="s">
         <v>1698</v>
-      </c>
-      <c r="C754" s="7" t="s">
-        <v>1699</v>
-      </c>
-      <c r="D754" s="2" t="s">
-        <v>1693</v>
       </c>
     </row>
     <row r="755">
       <c r="A755" s="2" t="s">
-        <v>1700</v>
+        <v>1701</v>
       </c>
       <c r="C755" s="7" t="s">
-        <v>1701</v>
+        <v>1702</v>
       </c>
       <c r="D755" s="2" t="s">
-        <v>1693</v>
+        <v>1698</v>
       </c>
     </row>
     <row r="756">
       <c r="A756" s="2" t="s">
-        <v>1702</v>
+        <v>1703</v>
       </c>
       <c r="C756" s="7" t="s">
-        <v>1703</v>
+        <v>1704</v>
       </c>
       <c r="D756" s="2" t="s">
-        <v>1693</v>
+        <v>1698</v>
       </c>
     </row>
     <row r="757">
       <c r="A757" s="2" t="s">
-        <v>1704</v>
+        <v>1705</v>
       </c>
       <c r="C757" s="7" t="s">
-        <v>1705</v>
+        <v>1706</v>
       </c>
       <c r="D757" s="2" t="s">
-        <v>1693</v>
+        <v>1698</v>
       </c>
     </row>
     <row r="758">
       <c r="A758" s="2" t="s">
-        <v>1706</v>
+        <v>1707</v>
       </c>
       <c r="C758" s="7" t="s">
-        <v>1707</v>
+        <v>1708</v>
       </c>
       <c r="D758" s="2" t="s">
-        <v>1693</v>
+        <v>1698</v>
       </c>
     </row>
     <row r="759">
       <c r="A759" s="2" t="s">
-        <v>1708</v>
+        <v>1709</v>
       </c>
       <c r="C759" s="7" t="s">
-        <v>1709</v>
+        <v>1710</v>
       </c>
       <c r="D759" s="2" t="s">
-        <v>1693</v>
+        <v>1698</v>
       </c>
     </row>
     <row r="760">
       <c r="A760" s="2" t="s">
-        <v>1710</v>
+        <v>1711</v>
       </c>
       <c r="C760" s="7" t="s">
-        <v>1711</v>
+        <v>1712</v>
       </c>
       <c r="D760" s="2" t="s">
-        <v>1693</v>
+        <v>1698</v>
       </c>
     </row>
     <row r="761">
       <c r="A761" s="2" t="s">
-        <v>1712</v>
+        <v>1713</v>
       </c>
       <c r="C761" s="7" t="s">
-        <v>1713</v>
+        <v>1714</v>
       </c>
       <c r="D761" s="2" t="s">
-        <v>1693</v>
+        <v>1698</v>
       </c>
     </row>
     <row r="762">
       <c r="A762" s="2" t="s">
-        <v>1714</v>
+        <v>1715</v>
       </c>
       <c r="C762" s="7" t="s">
-        <v>1715</v>
+        <v>1716</v>
       </c>
       <c r="D762" s="2" t="s">
-        <v>1693</v>
+        <v>1698</v>
       </c>
     </row>
     <row r="763">
       <c r="A763" s="2" t="s">
-        <v>1716</v>
+        <v>1717</v>
       </c>
       <c r="C763" s="7" t="s">
-        <v>1717</v>
+        <v>1718</v>
       </c>
       <c r="D763" s="2" t="s">
-        <v>1693</v>
+        <v>1698</v>
       </c>
     </row>
     <row r="764">
       <c r="A764" s="2" t="s">
-        <v>1718</v>
+        <v>1719</v>
       </c>
       <c r="C764" s="7" t="s">
-        <v>1719</v>
+        <v>1720</v>
       </c>
       <c r="D764" s="2" t="s">
-        <v>1693</v>
+        <v>1698</v>
       </c>
     </row>
     <row r="765">
       <c r="A765" s="2" t="s">
-        <v>1720</v>
+        <v>1721</v>
       </c>
       <c r="C765" s="7" t="s">
-        <v>1721</v>
+        <v>1722</v>
       </c>
       <c r="D765" s="2" t="s">
-        <v>1722</v>
+        <v>1698</v>
       </c>
     </row>
     <row r="766">
@@ -24439,7 +24814,7 @@
         <v>1724</v>
       </c>
       <c r="D766" s="2" t="s">
-        <v>1722</v>
+        <v>1698</v>
       </c>
     </row>
     <row r="767">
@@ -24450,117 +24825,117 @@
         <v>1726</v>
       </c>
       <c r="D767" s="2" t="s">
-        <v>1722</v>
+        <v>1727</v>
       </c>
     </row>
     <row r="768">
       <c r="A768" s="2" t="s">
+        <v>1728</v>
+      </c>
+      <c r="C768" s="7" t="s">
+        <v>1729</v>
+      </c>
+      <c r="D768" s="2" t="s">
         <v>1727</v>
-      </c>
-      <c r="C768" s="7" t="s">
-        <v>1728</v>
-      </c>
-      <c r="D768" s="2" t="s">
-        <v>1722</v>
       </c>
     </row>
     <row r="769">
       <c r="A769" s="2" t="s">
-        <v>1729</v>
+        <v>1730</v>
       </c>
       <c r="C769" s="7" t="s">
-        <v>1730</v>
+        <v>1731</v>
       </c>
       <c r="D769" s="2" t="s">
-        <v>1722</v>
+        <v>1727</v>
       </c>
     </row>
     <row r="770">
       <c r="A770" s="2" t="s">
-        <v>1729</v>
+        <v>1732</v>
       </c>
       <c r="C770" s="7" t="s">
-        <v>1731</v>
+        <v>1733</v>
       </c>
       <c r="D770" s="2" t="s">
-        <v>1722</v>
+        <v>1727</v>
       </c>
     </row>
     <row r="771">
       <c r="A771" s="2" t="s">
-        <v>1729</v>
+        <v>1734</v>
       </c>
       <c r="C771" s="7" t="s">
-        <v>1732</v>
+        <v>1735</v>
       </c>
       <c r="D771" s="2" t="s">
-        <v>1722</v>
+        <v>1727</v>
       </c>
     </row>
     <row r="772">
       <c r="A772" s="2" t="s">
-        <v>1733</v>
+        <v>1734</v>
       </c>
       <c r="C772" s="7" t="s">
-        <v>1734</v>
+        <v>1736</v>
       </c>
       <c r="D772" s="2" t="s">
-        <v>1693</v>
+        <v>1727</v>
       </c>
     </row>
     <row r="773">
       <c r="A773" s="2" t="s">
-        <v>1735</v>
+        <v>1734</v>
       </c>
       <c r="C773" s="7" t="s">
-        <v>1736</v>
+        <v>1737</v>
       </c>
       <c r="D773" s="2" t="s">
-        <v>1693</v>
+        <v>1727</v>
       </c>
     </row>
     <row r="774">
       <c r="A774" s="2" t="s">
-        <v>1737</v>
+        <v>1738</v>
       </c>
       <c r="C774" s="7" t="s">
-        <v>1738</v>
+        <v>1739</v>
       </c>
       <c r="D774" s="2" t="s">
-        <v>1693</v>
+        <v>1698</v>
       </c>
     </row>
     <row r="775">
       <c r="A775" s="2" t="s">
-        <v>1739</v>
+        <v>1740</v>
       </c>
       <c r="C775" s="7" t="s">
-        <v>1740</v>
+        <v>1741</v>
       </c>
       <c r="D775" s="2" t="s">
-        <v>1693</v>
+        <v>1698</v>
       </c>
     </row>
     <row r="776">
       <c r="A776" s="2" t="s">
-        <v>1741</v>
+        <v>1742</v>
       </c>
       <c r="C776" s="7" t="s">
-        <v>1742</v>
+        <v>1743</v>
       </c>
       <c r="D776" s="2" t="s">
-        <v>1693</v>
+        <v>1698</v>
       </c>
     </row>
     <row r="777">
       <c r="A777" s="2" t="s">
-        <v>1743</v>
+        <v>1744</v>
       </c>
       <c r="C777" s="7" t="s">
-        <v>1744</v>
+        <v>1745</v>
       </c>
       <c r="D777" s="2" t="s">
-        <v>1745</v>
+        <v>1698</v>
       </c>
     </row>
     <row r="778">
@@ -24571,18 +24946,18 @@
         <v>1747</v>
       </c>
       <c r="D778" s="2" t="s">
-        <v>1748</v>
+        <v>1698</v>
       </c>
     </row>
     <row r="779">
       <c r="A779" s="2" t="s">
+        <v>1748</v>
+      </c>
+      <c r="C779" s="7" t="s">
         <v>1749</v>
       </c>
-      <c r="C779" s="7" t="s">
+      <c r="D779" s="2" t="s">
         <v>1750</v>
-      </c>
-      <c r="D779" s="2" t="s">
-        <v>1748</v>
       </c>
     </row>
     <row r="780">
@@ -24593,18 +24968,18 @@
         <v>1752</v>
       </c>
       <c r="D780" s="2" t="s">
-        <v>1748</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="781">
       <c r="A781" s="2" t="s">
+        <v>1754</v>
+      </c>
+      <c r="C781" s="7" t="s">
+        <v>1755</v>
+      </c>
+      <c r="D781" s="2" t="s">
         <v>1753</v>
-      </c>
-      <c r="C781" s="7" t="s">
-        <v>1754</v>
-      </c>
-      <c r="D781" s="2" t="s">
-        <v>1755</v>
       </c>
     </row>
     <row r="782">
@@ -24615,7 +24990,7 @@
         <v>1757</v>
       </c>
       <c r="D782" s="2" t="s">
-        <v>1755</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="783">
@@ -24626,18 +25001,18 @@
         <v>1759</v>
       </c>
       <c r="D783" s="2" t="s">
-        <v>1755</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="784">
       <c r="A784" s="2" t="s">
+        <v>1761</v>
+      </c>
+      <c r="C784" s="7" t="s">
+        <v>1762</v>
+      </c>
+      <c r="D784" s="2" t="s">
         <v>1760</v>
-      </c>
-      <c r="C784" s="7" t="s">
-        <v>1761</v>
-      </c>
-      <c r="D784" s="2" t="s">
-        <v>1762</v>
       </c>
     </row>
     <row r="785">
@@ -24648,18 +25023,18 @@
         <v>1764</v>
       </c>
       <c r="D785" s="2" t="s">
-        <v>1765</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="786">
       <c r="A786" s="2" t="s">
+        <v>1765</v>
+      </c>
+      <c r="C786" s="7" t="s">
         <v>1766</v>
       </c>
-      <c r="C786" s="7" t="s">
+      <c r="D786" s="2" t="s">
         <v>1767</v>
-      </c>
-      <c r="D786" s="2" t="s">
-        <v>1765</v>
       </c>
     </row>
     <row r="787">
@@ -24670,18 +25045,18 @@
         <v>1769</v>
       </c>
       <c r="D787" s="2" t="s">
-        <v>1765</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="788">
       <c r="A788" s="2" t="s">
+        <v>1771</v>
+      </c>
+      <c r="C788" s="7" t="s">
+        <v>1772</v>
+      </c>
+      <c r="D788" s="2" t="s">
         <v>1770</v>
-      </c>
-      <c r="C788" s="7" t="s">
-        <v>1771</v>
-      </c>
-      <c r="D788" s="2" t="s">
-        <v>1772</v>
       </c>
     </row>
     <row r="789">
@@ -24692,7 +25067,7 @@
         <v>1774</v>
       </c>
       <c r="D789" s="2" t="s">
-        <v>1772</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="790">
@@ -24703,18 +25078,18 @@
         <v>1776</v>
       </c>
       <c r="D790" s="2" t="s">
-        <v>1772</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="791">
       <c r="A791" s="2" t="s">
+        <v>1778</v>
+      </c>
+      <c r="C791" s="7" t="s">
+        <v>1779</v>
+      </c>
+      <c r="D791" s="2" t="s">
         <v>1777</v>
-      </c>
-      <c r="C791" s="7" t="s">
-        <v>1778</v>
-      </c>
-      <c r="D791" s="2" t="s">
-        <v>1779</v>
       </c>
     </row>
     <row r="792">
@@ -24725,7 +25100,7 @@
         <v>1781</v>
       </c>
       <c r="D792" s="2" t="s">
-        <v>1779</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="793">
@@ -24736,51 +25111,51 @@
         <v>1783</v>
       </c>
       <c r="D793" s="2" t="s">
-        <v>1779</v>
+        <v>1784</v>
       </c>
     </row>
     <row r="794">
       <c r="A794" s="2" t="s">
+        <v>1785</v>
+      </c>
+      <c r="C794" s="7" t="s">
+        <v>1786</v>
+      </c>
+      <c r="D794" s="2" t="s">
         <v>1784</v>
-      </c>
-      <c r="C794" s="7" t="s">
-        <v>1785</v>
-      </c>
-      <c r="D794" s="2" t="s">
-        <v>1779</v>
       </c>
     </row>
     <row r="795">
       <c r="A795" s="2" t="s">
-        <v>1786</v>
+        <v>1787</v>
       </c>
       <c r="C795" s="7" t="s">
-        <v>1787</v>
+        <v>1788</v>
       </c>
       <c r="D795" s="2" t="s">
-        <v>1779</v>
+        <v>1784</v>
       </c>
     </row>
     <row r="796">
       <c r="A796" s="2" t="s">
-        <v>1788</v>
+        <v>1789</v>
       </c>
       <c r="C796" s="7" t="s">
-        <v>1789</v>
+        <v>1790</v>
       </c>
       <c r="D796" s="2" t="s">
-        <v>1779</v>
+        <v>1784</v>
       </c>
     </row>
     <row r="797">
       <c r="A797" s="2" t="s">
-        <v>1790</v>
+        <v>1791</v>
       </c>
       <c r="C797" s="7" t="s">
-        <v>1791</v>
+        <v>1792</v>
       </c>
       <c r="D797" s="2" t="s">
-        <v>1792</v>
+        <v>1784</v>
       </c>
     </row>
     <row r="798">
@@ -24791,7 +25166,7 @@
         <v>1794</v>
       </c>
       <c r="D798" s="2" t="s">
-        <v>1792</v>
+        <v>1784</v>
       </c>
     </row>
     <row r="799">
@@ -24802,29 +25177,29 @@
         <v>1796</v>
       </c>
       <c r="D799" s="2" t="s">
-        <v>1792</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="800">
       <c r="A800" s="2" t="s">
+        <v>1798</v>
+      </c>
+      <c r="C800" s="7" t="s">
+        <v>1799</v>
+      </c>
+      <c r="D800" s="2" t="s">
         <v>1797</v>
-      </c>
-      <c r="C800" s="7" t="s">
-        <v>1798</v>
-      </c>
-      <c r="D800" s="2" t="s">
-        <v>1792</v>
       </c>
     </row>
     <row r="801">
       <c r="A801" s="2" t="s">
-        <v>1799</v>
+        <v>1800</v>
       </c>
       <c r="C801" s="7" t="s">
-        <v>1800</v>
+        <v>1801</v>
       </c>
       <c r="D801" s="2" t="s">
-        <v>1801</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="802">
@@ -24835,7 +25210,7 @@
         <v>1803</v>
       </c>
       <c r="D802" s="2" t="s">
-        <v>1801</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="803">
@@ -24846,29 +25221,29 @@
         <v>1805</v>
       </c>
       <c r="D803" s="2" t="s">
-        <v>1801</v>
+        <v>1806</v>
       </c>
     </row>
     <row r="804">
       <c r="A804" s="2" t="s">
+        <v>1807</v>
+      </c>
+      <c r="C804" s="7" t="s">
+        <v>1808</v>
+      </c>
+      <c r="D804" s="2" t="s">
         <v>1806</v>
-      </c>
-      <c r="C804" s="7" t="s">
-        <v>1807</v>
-      </c>
-      <c r="D804" s="2" t="s">
-        <v>1801</v>
       </c>
     </row>
     <row r="805">
       <c r="A805" s="2" t="s">
-        <v>1808</v>
+        <v>1809</v>
       </c>
       <c r="C805" s="7" t="s">
-        <v>1809</v>
+        <v>1810</v>
       </c>
       <c r="D805" s="2" t="s">
-        <v>1810</v>
+        <v>1806</v>
       </c>
     </row>
     <row r="806">
@@ -24876,10 +25251,395 @@
         <v>1811</v>
       </c>
       <c r="C806" s="7" t="s">
-        <v>1809</v>
+        <v>1812</v>
       </c>
       <c r="D806" s="2" t="s">
-        <v>1810</v>
+        <v>1806</v>
+      </c>
+    </row>
+    <row r="807">
+      <c r="A807" s="2" t="s">
+        <v>1813</v>
+      </c>
+      <c r="C807" s="7" t="s">
+        <v>1814</v>
+      </c>
+      <c r="D807" s="2" t="s">
+        <v>1815</v>
+      </c>
+    </row>
+    <row r="808">
+      <c r="A808" s="2" t="s">
+        <v>1816</v>
+      </c>
+      <c r="C808" s="7" t="s">
+        <v>1814</v>
+      </c>
+      <c r="D808" s="2" t="s">
+        <v>1815</v>
+      </c>
+    </row>
+    <row r="809">
+      <c r="A809" s="2" t="s">
+        <v>1817</v>
+      </c>
+      <c r="C809" s="7" t="s">
+        <v>1818</v>
+      </c>
+      <c r="D809" s="2" t="s">
+        <v>1819</v>
+      </c>
+    </row>
+    <row r="810">
+      <c r="A810" s="2" t="s">
+        <v>1820</v>
+      </c>
+      <c r="C810" s="7" t="s">
+        <v>1821</v>
+      </c>
+      <c r="D810" s="2" t="s">
+        <v>1819</v>
+      </c>
+    </row>
+    <row r="811">
+      <c r="A811" s="2" t="s">
+        <v>1822</v>
+      </c>
+      <c r="C811" s="7" t="s">
+        <v>1823</v>
+      </c>
+      <c r="D811" s="2" t="s">
+        <v>1824</v>
+      </c>
+    </row>
+    <row r="812">
+      <c r="A812" s="2" t="s">
+        <v>1825</v>
+      </c>
+      <c r="C812" s="7" t="s">
+        <v>1826</v>
+      </c>
+      <c r="D812" s="2" t="s">
+        <v>1824</v>
+      </c>
+    </row>
+    <row r="813">
+      <c r="A813" s="2" t="s">
+        <v>1827</v>
+      </c>
+      <c r="C813" s="7" t="s">
+        <v>1828</v>
+      </c>
+      <c r="D813" s="2" t="s">
+        <v>1824</v>
+      </c>
+    </row>
+    <row r="814">
+      <c r="A814" s="2" t="s">
+        <v>1829</v>
+      </c>
+      <c r="C814" s="8" t="s">
+        <v>1830</v>
+      </c>
+      <c r="D814" s="2" t="s">
+        <v>1824</v>
+      </c>
+    </row>
+    <row r="815">
+      <c r="A815" s="2" t="s">
+        <v>1831</v>
+      </c>
+      <c r="C815" s="8" t="s">
+        <v>1832</v>
+      </c>
+      <c r="D815" s="2" t="s">
+        <v>1824</v>
+      </c>
+    </row>
+    <row r="816">
+      <c r="A816" s="2" t="s">
+        <v>1833</v>
+      </c>
+      <c r="C816" s="8" t="s">
+        <v>1834</v>
+      </c>
+      <c r="D816" s="2" t="s">
+        <v>1824</v>
+      </c>
+    </row>
+    <row r="817">
+      <c r="A817" s="2" t="s">
+        <v>1835</v>
+      </c>
+      <c r="C817" s="8" t="s">
+        <v>1836</v>
+      </c>
+      <c r="D817" s="2" t="s">
+        <v>1819</v>
+      </c>
+    </row>
+    <row r="818">
+      <c r="A818" s="2" t="s">
+        <v>1837</v>
+      </c>
+      <c r="C818" s="8" t="s">
+        <v>1838</v>
+      </c>
+      <c r="D818" s="2" t="s">
+        <v>1824</v>
+      </c>
+    </row>
+    <row r="819">
+      <c r="A819" s="2" t="s">
+        <v>1839</v>
+      </c>
+      <c r="C819" s="8" t="s">
+        <v>1840</v>
+      </c>
+      <c r="D819" s="2" t="s">
+        <v>1824</v>
+      </c>
+    </row>
+    <row r="820">
+      <c r="A820" s="2" t="s">
+        <v>1841</v>
+      </c>
+      <c r="C820" s="8" t="s">
+        <v>1842</v>
+      </c>
+      <c r="D820" s="2" t="s">
+        <v>1824</v>
+      </c>
+    </row>
+    <row r="821">
+      <c r="A821" s="2" t="s">
+        <v>1843</v>
+      </c>
+      <c r="C821" s="8" t="s">
+        <v>1844</v>
+      </c>
+      <c r="D821" s="2" t="s">
+        <v>1824</v>
+      </c>
+    </row>
+    <row r="822">
+      <c r="A822" s="2" t="s">
+        <v>1845</v>
+      </c>
+      <c r="C822" s="8" t="s">
+        <v>1846</v>
+      </c>
+      <c r="D822" s="2" t="s">
+        <v>1824</v>
+      </c>
+    </row>
+    <row r="823">
+      <c r="A823" s="2" t="s">
+        <v>1847</v>
+      </c>
+      <c r="C823" s="8" t="s">
+        <v>1848</v>
+      </c>
+      <c r="D823" s="2" t="s">
+        <v>1824</v>
+      </c>
+    </row>
+    <row r="824">
+      <c r="A824" s="2" t="s">
+        <v>1849</v>
+      </c>
+      <c r="C824" s="8" t="s">
+        <v>1850</v>
+      </c>
+      <c r="D824" s="2" t="s">
+        <v>1819</v>
+      </c>
+    </row>
+    <row r="825">
+      <c r="A825" s="2" t="s">
+        <v>1851</v>
+      </c>
+      <c r="C825" s="8" t="s">
+        <v>1852</v>
+      </c>
+      <c r="D825" s="2" t="s">
+        <v>1819</v>
+      </c>
+    </row>
+    <row r="826">
+      <c r="A826" s="2" t="s">
+        <v>1853</v>
+      </c>
+      <c r="C826" s="8" t="s">
+        <v>1854</v>
+      </c>
+      <c r="D826" s="2" t="s">
+        <v>1824</v>
+      </c>
+    </row>
+    <row r="827">
+      <c r="A827" s="2" t="s">
+        <v>1855</v>
+      </c>
+      <c r="C827" s="8" t="s">
+        <v>1856</v>
+      </c>
+      <c r="D827" s="2" t="s">
+        <v>1824</v>
+      </c>
+    </row>
+    <row r="828">
+      <c r="A828" s="2" t="s">
+        <v>1857</v>
+      </c>
+      <c r="C828" s="8" t="s">
+        <v>1858</v>
+      </c>
+      <c r="D828" s="2" t="s">
+        <v>1824</v>
+      </c>
+    </row>
+    <row r="829">
+      <c r="A829" s="2" t="s">
+        <v>1859</v>
+      </c>
+      <c r="C829" s="8" t="s">
+        <v>1860</v>
+      </c>
+      <c r="D829" s="2" t="s">
+        <v>1824</v>
+      </c>
+    </row>
+    <row r="830">
+      <c r="A830" s="2" t="s">
+        <v>1861</v>
+      </c>
+      <c r="C830" s="8" t="s">
+        <v>1862</v>
+      </c>
+      <c r="D830" s="2" t="s">
+        <v>1824</v>
+      </c>
+    </row>
+    <row r="831">
+      <c r="A831" s="2" t="s">
+        <v>1863</v>
+      </c>
+      <c r="C831" s="8" t="s">
+        <v>1864</v>
+      </c>
+      <c r="D831" s="2" t="s">
+        <v>1824</v>
+      </c>
+    </row>
+    <row r="832">
+      <c r="A832" s="2" t="s">
+        <v>1865</v>
+      </c>
+      <c r="C832" s="8" t="s">
+        <v>1866</v>
+      </c>
+      <c r="D832" s="2" t="s">
+        <v>1824</v>
+      </c>
+    </row>
+    <row r="833">
+      <c r="A833" s="2" t="s">
+        <v>1867</v>
+      </c>
+      <c r="C833" s="8" t="s">
+        <v>1868</v>
+      </c>
+      <c r="D833" s="2" t="s">
+        <v>1824</v>
+      </c>
+    </row>
+    <row r="834">
+      <c r="A834" s="2" t="s">
+        <v>1869</v>
+      </c>
+      <c r="C834" s="8" t="s">
+        <v>1870</v>
+      </c>
+      <c r="D834" s="2" t="s">
+        <v>1824</v>
+      </c>
+    </row>
+    <row r="835">
+      <c r="A835" s="2" t="s">
+        <v>1871</v>
+      </c>
+      <c r="C835" s="8" t="s">
+        <v>1872</v>
+      </c>
+      <c r="D835" s="2" t="s">
+        <v>1819</v>
+      </c>
+    </row>
+    <row r="836">
+      <c r="A836" s="2" t="s">
+        <v>1873</v>
+      </c>
+      <c r="C836" s="8" t="s">
+        <v>1874</v>
+      </c>
+      <c r="D836" s="2" t="s">
+        <v>1824</v>
+      </c>
+    </row>
+    <row r="837">
+      <c r="A837" s="2" t="s">
+        <v>1875</v>
+      </c>
+      <c r="C837" s="8" t="s">
+        <v>1876</v>
+      </c>
+      <c r="D837" s="2" t="s">
+        <v>1824</v>
+      </c>
+    </row>
+    <row r="838">
+      <c r="A838" s="2" t="s">
+        <v>1877</v>
+      </c>
+      <c r="C838" s="8" t="s">
+        <v>1878</v>
+      </c>
+      <c r="D838" s="2" t="s">
+        <v>1824</v>
+      </c>
+    </row>
+    <row r="839">
+      <c r="A839" s="2" t="s">
+        <v>1879</v>
+      </c>
+      <c r="C839" s="8" t="s">
+        <v>1880</v>
+      </c>
+      <c r="D839" s="2" t="s">
+        <v>1824</v>
+      </c>
+    </row>
+    <row r="840">
+      <c r="A840" s="2" t="s">
+        <v>1881</v>
+      </c>
+      <c r="C840" s="8" t="s">
+        <v>1882</v>
+      </c>
+      <c r="D840" s="2" t="s">
+        <v>1824</v>
+      </c>
+    </row>
+    <row r="841">
+      <c r="A841" s="2" t="s">
+        <v>1883</v>
+      </c>
+      <c r="C841" s="8" t="s">
+        <v>1884</v>
+      </c>
+      <c r="D841" s="2" t="s">
+        <v>1885</v>
       </c>
     </row>
   </sheetData>
@@ -24918,18 +25678,18 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>1812</v>
+        <v>1886</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>1813</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>1814</v>
+        <v>1888</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>1815</v>
+        <v>1889</v>
       </c>
     </row>
   </sheetData>
@@ -24969,13 +25729,13 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>1816</v>
+        <v>1890</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>1817</v>
+        <v>1891</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>1818</v>
+        <v>1892</v>
       </c>
     </row>
   </sheetData>

--- a/csv/merge.xlsx
+++ b/csv/merge.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2499" uniqueCount="1893">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2514" uniqueCount="1905">
   <si>
     <t>JP Text (DO NOT CHANGE)</t>
   </si>
@@ -16077,6 +16077,111 @@
   </si>
   <si>
     <t>Horsey</t>
+  </si>
+  <si>
+    <t>「やあ！　ボクは筋肉伝道師キタエル。
+　天星郷の　トップトレーナーといえば
+　聞いたことが　あるんじゃないかな！
+&lt;br&gt;
+「今は　才能にあふれた逸材を　探しているんだ！
+　ここなら　様々な人と　出会えるからね。
+&lt;br&gt;
+「……ところで！
+　キミからは　ボクが探し求めていた
+　マッスルの才能を　感じるんだ！
+&lt;br&gt;
+「だけど　まだまだ　成長途中。
+　適切なトレーニングで　鍛えれば
+　もっと強く　輝くことができるはず……
+&lt;br&gt;
+「もしよければ　ボクのトレーニングを
+　試してみてくれないかな。
+　ボクに　キミを育てさせてくれ！
+&lt;br&gt;
+「何をすれば　よいのかは
+　キミの状態をみて　適切なトレーニングを
+　課題として提示していくよ。
+&lt;br&gt;
+「キミが　がんばれるように　ささやかだけど
+　ごほうびも　用意しておくからさ！
+&lt;br_break&gt;</t>
+  </si>
+  <si>
+    <t>Yo! The name's Kitael, muscle evangelist!
+I'm one of Heaven's top trainers! Surely
+you've heard of me before, yeah?
+&lt;br&gt;
+I've been searching for talented individuals
+who are overflowing with potential! I've
+been keeping a sharp eye out.
+&lt;br&gt;
+Anyways! I think you're just the kind of
+muscle I've been looking for! You got
+talent, I can tell!
+&lt;br&gt;
+But you're still growing, I see. Well, that's
+no problem. With the right kind of training,
+you can get even stronger!
+&lt;br&gt;
+I will assess your current strengths and
+provide to you appropriate challenges that
+I deem fit to make you stronger.
+&lt;br&gt;
+And don't worry, I'll make sure you're
+rewarded for your hard work! So get out
+there and make me proud!
+&lt;br_break&gt;</t>
+  </si>
+  <si>
+    <t>Kitael</t>
+  </si>
+  <si>
+    <t>「ボクの　トレーニングを　試してみないかい？
+&lt;yesno&gt;&lt;break&gt;</t>
+  </si>
+  <si>
+    <t>So, you wanna try my training on for size?
+&lt;yesno&gt;&lt;break&gt;</t>
+  </si>
+  <si>
+    <t>「うん　わかったよ！
+　ボクはいつでも　ここで待っているから
+　気が向いたら　声をかけてくれ！</t>
+  </si>
+  <si>
+    <t>Sure, no problem! I'll always be here, so
+give me a holler if you ever decide you
+want to train!</t>
+  </si>
+  <si>
+    <t>「ありがとう　とても　うれしい返事だ。
+　受けてくれると　感じていたよ！
+&lt;br&gt;
+「それじゃあ　さっそくだけど
+　キミに合った　トレーニング課題の
+　リストを渡すね！</t>
+  </si>
+  <si>
+    <t>Great! I'm glad to hear it! I had a feeling
+you'd accept.
+&lt;br&gt;
+So then, let's get started! Here's a list of
+some training regimens that I think are
+suited best to your abilities!</t>
+  </si>
+  <si>
+    <t>トレーニー育成帳（だいじなもの）を
+手渡された！
+&lt;me 60&gt;</t>
+  </si>
+  <si>
+    <t>&lt;pipipi_off&gt;
+You received the
+Trainee Logbook (Key Item)!
+&lt;me 60&gt;</t>
+  </si>
+  <si>
+    <t>Kitael (BAD STRING)</t>
   </si>
   <si>
     <t>メインコマンド『せんれき』の
@@ -25642,6 +25747,61 @@
         <v>1885</v>
       </c>
     </row>
+    <row r="842">
+      <c r="A842" s="2" t="s">
+        <v>1886</v>
+      </c>
+      <c r="C842" s="8" t="s">
+        <v>1887</v>
+      </c>
+      <c r="D842" s="2" t="s">
+        <v>1888</v>
+      </c>
+    </row>
+    <row r="843">
+      <c r="A843" s="2" t="s">
+        <v>1889</v>
+      </c>
+      <c r="C843" s="8" t="s">
+        <v>1890</v>
+      </c>
+      <c r="D843" s="2" t="s">
+        <v>1888</v>
+      </c>
+    </row>
+    <row r="844">
+      <c r="A844" s="2" t="s">
+        <v>1891</v>
+      </c>
+      <c r="C844" s="8" t="s">
+        <v>1892</v>
+      </c>
+      <c r="D844" s="2" t="s">
+        <v>1888</v>
+      </c>
+    </row>
+    <row r="845">
+      <c r="A845" s="2" t="s">
+        <v>1893</v>
+      </c>
+      <c r="C845" s="8" t="s">
+        <v>1894</v>
+      </c>
+      <c r="D845" s="2" t="s">
+        <v>1888</v>
+      </c>
+    </row>
+    <row r="846">
+      <c r="A846" s="2" t="s">
+        <v>1895</v>
+      </c>
+      <c r="C846" s="8" t="s">
+        <v>1896</v>
+      </c>
+      <c r="D846" s="2" t="s">
+        <v>1897</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -25678,18 +25838,18 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>1886</v>
+        <v>1898</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>1887</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>1888</v>
+        <v>1900</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>1889</v>
+        <v>1901</v>
       </c>
     </row>
   </sheetData>
@@ -25729,13 +25889,13 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>1890</v>
+        <v>1902</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>1891</v>
+        <v>1903</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>1892</v>
+        <v>1904</v>
       </c>
     </row>
   </sheetData>

--- a/csv/merge.xlsx
+++ b/csv/merge.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2514" uniqueCount="1905">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2499" uniqueCount="1893">
   <si>
     <t>JP Text (DO NOT CHANGE)</t>
   </si>
@@ -16077,111 +16077,6 @@
   </si>
   <si>
     <t>Horsey</t>
-  </si>
-  <si>
-    <t>「やあ！　ボクは筋肉伝道師キタエル。
-　天星郷の　トップトレーナーといえば
-　聞いたことが　あるんじゃないかな！
-&lt;br&gt;
-「今は　才能にあふれた逸材を　探しているんだ！
-　ここなら　様々な人と　出会えるからね。
-&lt;br&gt;
-「……ところで！
-　キミからは　ボクが探し求めていた
-　マッスルの才能を　感じるんだ！
-&lt;br&gt;
-「だけど　まだまだ　成長途中。
-　適切なトレーニングで　鍛えれば
-　もっと強く　輝くことができるはず……
-&lt;br&gt;
-「もしよければ　ボクのトレーニングを
-　試してみてくれないかな。
-　ボクに　キミを育てさせてくれ！
-&lt;br&gt;
-「何をすれば　よいのかは
-　キミの状態をみて　適切なトレーニングを
-　課題として提示していくよ。
-&lt;br&gt;
-「キミが　がんばれるように　ささやかだけど
-　ごほうびも　用意しておくからさ！
-&lt;br_break&gt;</t>
-  </si>
-  <si>
-    <t>Yo! The name's Kitael, muscle evangelist!
-I'm one of Heaven's top trainers! Surely
-you've heard of me before, yeah?
-&lt;br&gt;
-I've been searching for talented individuals
-who are overflowing with potential! I've
-been keeping a sharp eye out.
-&lt;br&gt;
-Anyways! I think you're just the kind of
-muscle I've been looking for! You got
-talent, I can tell!
-&lt;br&gt;
-But you're still growing, I see. Well, that's
-no problem. With the right kind of training,
-you can get even stronger!
-&lt;br&gt;
-I will assess your current strengths and
-provide to you appropriate challenges that
-I deem fit to make you stronger.
-&lt;br&gt;
-And don't worry, I'll make sure you're
-rewarded for your hard work! So get out
-there and make me proud!
-&lt;br_break&gt;</t>
-  </si>
-  <si>
-    <t>Kitael</t>
-  </si>
-  <si>
-    <t>「ボクの　トレーニングを　試してみないかい？
-&lt;yesno&gt;&lt;break&gt;</t>
-  </si>
-  <si>
-    <t>So, you wanna try my training on for size?
-&lt;yesno&gt;&lt;break&gt;</t>
-  </si>
-  <si>
-    <t>「うん　わかったよ！
-　ボクはいつでも　ここで待っているから
-　気が向いたら　声をかけてくれ！</t>
-  </si>
-  <si>
-    <t>Sure, no problem! I'll always be here, so
-give me a holler if you ever decide you
-want to train!</t>
-  </si>
-  <si>
-    <t>「ありがとう　とても　うれしい返事だ。
-　受けてくれると　感じていたよ！
-&lt;br&gt;
-「それじゃあ　さっそくだけど
-　キミに合った　トレーニング課題の
-　リストを渡すね！</t>
-  </si>
-  <si>
-    <t>Great! I'm glad to hear it! I had a feeling
-you'd accept.
-&lt;br&gt;
-So then, let's get started! Here's a list of
-some training regimens that I think are
-suited best to your abilities!</t>
-  </si>
-  <si>
-    <t>トレーニー育成帳（だいじなもの）を
-手渡された！
-&lt;me 60&gt;</t>
-  </si>
-  <si>
-    <t>&lt;pipipi_off&gt;
-You received the
-Trainee Logbook (Key Item)!
-&lt;me 60&gt;</t>
-  </si>
-  <si>
-    <t>Kitael (BAD STRING)</t>
   </si>
   <si>
     <t>メインコマンド『せんれき』の
@@ -25747,61 +25642,6 @@
         <v>1885</v>
       </c>
     </row>
-    <row r="842">
-      <c r="A842" s="2" t="s">
-        <v>1886</v>
-      </c>
-      <c r="C842" s="8" t="s">
-        <v>1887</v>
-      </c>
-      <c r="D842" s="2" t="s">
-        <v>1888</v>
-      </c>
-    </row>
-    <row r="843">
-      <c r="A843" s="2" t="s">
-        <v>1889</v>
-      </c>
-      <c r="C843" s="8" t="s">
-        <v>1890</v>
-      </c>
-      <c r="D843" s="2" t="s">
-        <v>1888</v>
-      </c>
-    </row>
-    <row r="844">
-      <c r="A844" s="2" t="s">
-        <v>1891</v>
-      </c>
-      <c r="C844" s="8" t="s">
-        <v>1892</v>
-      </c>
-      <c r="D844" s="2" t="s">
-        <v>1888</v>
-      </c>
-    </row>
-    <row r="845">
-      <c r="A845" s="2" t="s">
-        <v>1893</v>
-      </c>
-      <c r="C845" s="8" t="s">
-        <v>1894</v>
-      </c>
-      <c r="D845" s="2" t="s">
-        <v>1888</v>
-      </c>
-    </row>
-    <row r="846">
-      <c r="A846" s="2" t="s">
-        <v>1895</v>
-      </c>
-      <c r="C846" s="8" t="s">
-        <v>1896</v>
-      </c>
-      <c r="D846" s="2" t="s">
-        <v>1897</v>
-      </c>
-    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -25838,18 +25678,18 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>1898</v>
+        <v>1886</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>1899</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>1900</v>
+        <v>1888</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>1901</v>
+        <v>1889</v>
       </c>
     </row>
   </sheetData>
@@ -25889,13 +25729,13 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>1902</v>
+        <v>1890</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>1903</v>
+        <v>1891</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>1904</v>
+        <v>1892</v>
       </c>
     </row>
   </sheetData>

--- a/csv/merge.xlsx
+++ b/csv/merge.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2499" uniqueCount="1893">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2514" uniqueCount="1905">
   <si>
     <t>JP Text (DO NOT CHANGE)</t>
   </si>
@@ -16077,6 +16077,111 @@
   </si>
   <si>
     <t>Horsey</t>
+  </si>
+  <si>
+    <t>「やあ！　ボクは筋肉伝道師キタエル。
+　天星郷の　トップトレーナーといえば
+　聞いたことが　あるんじゃないかな！
+&lt;br&gt;
+「今は　才能にあふれた逸材を　探しているんだ！
+　ここなら　様々な人と　出会えるからね。
+&lt;br&gt;
+「……ところで！
+　キミからは　ボクが探し求めていた
+　マッスルの才能を　感じるんだ！
+&lt;br&gt;
+「だけど　まだまだ　成長途中。
+　適切なトレーニングで　鍛えれば
+　もっと強く　輝くことができるはず……
+&lt;br&gt;
+「もしよければ　ボクのトレーニングを
+　試してみてくれないかな。
+　ボクに　キミを育てさせてくれ！
+&lt;br&gt;
+「何をすれば　よいのかは
+　キミの状態をみて　適切なトレーニングを
+　課題として提示していくよ。
+&lt;br&gt;
+「キミが　がんばれるように　ささやかだけど
+　ごほうびも　用意しておくからさ！
+&lt;br_break&gt;</t>
+  </si>
+  <si>
+    <t>Yo! The name's Kitael, muscle evangelist!
+I'm one of Heaven's top trainers! Surely
+you've heard of me before, yeah?
+&lt;br&gt;
+I've been searching for talented individuals
+who are overflowing with potential! I've
+been keeping a sharp eye out.
+&lt;br&gt;
+Anyways! I think you're just the kind of
+muscle I've been looking for! You got
+talent, I can tell!
+&lt;br&gt;
+But you're still growing, I see. Well, that's
+no problem. With the right kind of training,
+you can get even stronger!
+&lt;br&gt;
+I will assess your current strengths and
+provide to you appropriate challenges that
+I deem fit to make you stronger.
+&lt;br&gt;
+And don't worry, I'll make sure you're
+rewarded for your hard work! So get out
+there and make me proud!
+&lt;br_break&gt;</t>
+  </si>
+  <si>
+    <t>Kitael</t>
+  </si>
+  <si>
+    <t>「ボクの　トレーニングを　試してみないかい？
+&lt;yesno&gt;&lt;break&gt;</t>
+  </si>
+  <si>
+    <t>So, you wanna try my training on for size?
+&lt;yesno&gt;&lt;break&gt;</t>
+  </si>
+  <si>
+    <t>「うん　わかったよ！
+　ボクはいつでも　ここで待っているから
+　気が向いたら　声をかけてくれ！</t>
+  </si>
+  <si>
+    <t>Sure, no problem! I'll always be here, so
+give me a holler if you ever decide you
+want to train!</t>
+  </si>
+  <si>
+    <t>「ありがとう　とても　うれしい返事だ。
+　受けてくれると　感じていたよ！
+&lt;br&gt;
+「それじゃあ　さっそくだけど
+　キミに合った　トレーニング課題の
+　リストを渡すね！</t>
+  </si>
+  <si>
+    <t>Great! I'm glad to hear it! I had a feeling
+you'd accept.
+&lt;br&gt;
+So then, let's get started! Here's a list of
+some training regimens that I think are
+suited best to your abilities!</t>
+  </si>
+  <si>
+    <t>トレーニー育成帳（だいじなもの）を
+手渡された！
+&lt;me 60&gt;</t>
+  </si>
+  <si>
+    <t>&lt;pipipi_off&gt;
+You received the
+Trainee's Logbook (Key Item)!
+&lt;me 60&gt;</t>
+  </si>
+  <si>
+    <t>Kitael (BAD STRING)</t>
   </si>
   <si>
     <t>メインコマンド『せんれき』の
@@ -25642,6 +25747,61 @@
         <v>1885</v>
       </c>
     </row>
+    <row r="842">
+      <c r="A842" s="2" t="s">
+        <v>1886</v>
+      </c>
+      <c r="C842" s="8" t="s">
+        <v>1887</v>
+      </c>
+      <c r="D842" s="2" t="s">
+        <v>1888</v>
+      </c>
+    </row>
+    <row r="843">
+      <c r="A843" s="2" t="s">
+        <v>1889</v>
+      </c>
+      <c r="C843" s="8" t="s">
+        <v>1890</v>
+      </c>
+      <c r="D843" s="2" t="s">
+        <v>1888</v>
+      </c>
+    </row>
+    <row r="844">
+      <c r="A844" s="2" t="s">
+        <v>1891</v>
+      </c>
+      <c r="C844" s="8" t="s">
+        <v>1892</v>
+      </c>
+      <c r="D844" s="2" t="s">
+        <v>1888</v>
+      </c>
+    </row>
+    <row r="845">
+      <c r="A845" s="2" t="s">
+        <v>1893</v>
+      </c>
+      <c r="C845" s="8" t="s">
+        <v>1894</v>
+      </c>
+      <c r="D845" s="2" t="s">
+        <v>1888</v>
+      </c>
+    </row>
+    <row r="846">
+      <c r="A846" s="2" t="s">
+        <v>1895</v>
+      </c>
+      <c r="C846" s="8" t="s">
+        <v>1896</v>
+      </c>
+      <c r="D846" s="2" t="s">
+        <v>1897</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -25678,18 +25838,18 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>1886</v>
+        <v>1898</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>1887</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>1888</v>
+        <v>1900</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>1889</v>
+        <v>1901</v>
       </c>
     </row>
   </sheetData>
@@ -25729,13 +25889,13 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>1890</v>
+        <v>1902</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>1891</v>
+        <v>1903</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>1892</v>
+        <v>1904</v>
       </c>
     </row>
   </sheetData>

--- a/csv/merge.xlsx
+++ b/csv/merge.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2514" uniqueCount="1905">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2577" uniqueCount="1967">
   <si>
     <t>JP Text (DO NOT CHANGE)</t>
   </si>
@@ -9243,12 +9243,25 @@
 　遠慮なく　ツボを　使ってくれたまえ！</t>
   </si>
   <si>
-    <t>Oh, it's you, the magic warrior! I can use
+    <t>Oh, it's you, the Magic Warrior! I can use
 Midheal to help you! Feel free to use my
 pot if you're feeling in a right pinch!</t>
   </si>
   <si>
     <t>Mysterious Tower Priest Knight</t>
+  </si>
+  <si>
+    <t>「ガハハハッ！　みどころのある魔闘士だ！
+　ワシを　ツボから呼び出したなら
+　ひかりのはどうで　状態異常を治してやろう。</t>
+  </si>
+  <si>
+    <t>Gahaha! Quite the intruiging Magic Warrior!
+If you summon me, I can heal your ailments
+with my Wave of Relief!</t>
+  </si>
+  <si>
+    <t>Mysterious Tower Pot Summon (unknown)</t>
   </si>
   <si>
     <t>&lt;pipipi_shigh&gt;「ヒヒヒ……。オイラ　なぞのツボ。
@@ -9347,7 +9360,7 @@
 　ふくろの魔物に　使ってみるといいよ。</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;pipipi_shigh&gt;Hee hee... hey, you. You know how to use Bonk?
+    <t xml:space="preserve">&lt;pipipi_shigh&gt;Hee hee... hey, you. Can you use Pratfall?
 You can learn it from a Full Moon Ring. Why
 don't you try it on those bag looking guys?
 </t>
@@ -9689,6 +9702,425 @@
     <t>Mysterious Tower Floor 41 hint</t>
   </si>
   <si>
+    <t>&lt;pipipi_shigh&gt;「ヒヒヒ…　オイラ　なぞのツボ。
+　魔闘士さん　おたけび　できる？
+　大きな声をあげて　相手を　ひるませる技さ。
+&lt;br&gt;
+「この階にいる　サンダーシャウトは
+　かんでん状態にする　さけび声を　あげるよ。
+　よけないで　受けても　いいかもね。</t>
+  </si>
+  <si>
+    <t>&lt;pipipi_shigh&gt;Hee hee... I'm the Mystery Pot.
+Hey, you. Can you use War Cry? It's a skill
+to yell loudly and shock your enemies.
+&lt;br&gt;
+The Hellbound Hair-Raisers on this floor
+let loose an electrifying shout. I think it'd
+be a good idea to let it shock you.</t>
+  </si>
+  <si>
+    <t>Mysterious Tower Floor 51 hint</t>
+  </si>
+  <si>
+    <t>&lt;pipipi_shigh&gt;「ヒヒヒ…　オイラ　なぞのツボ。
+　魔闘士さん　ヴェレーノ　知ってる？
+　相手を　どく状態にする　呪文さ。
+&lt;br&gt;
+「どくどくゾンビの　もうどくのいきで
+　自分も　どく状態に　なれちゃうかもよ。
+　どくになる時は　耐性ある装備　外さなきゃね。
+&lt;br&gt;
+「あばれんぼうの　ヘルシーサーが
+　お互いに　ＨＰが減っていく状態で
+　戦いたいって　言っていたかな。</t>
+  </si>
+  <si>
+    <t>&lt;pipipi_shigh&gt;Hee hee... I'm the Mystery Pot.
+Hey, you. Do you know Toxle? It's a spell
+that can poison your enemies.
+&lt;br&gt;
+The Toxic Zombie's poisonous breath may be
+able to poison you, too. Make sure to not wear
+anything that would resist poison attacks.
+&lt;br&gt;
+I thought I heard that a Foo Dog wanted to
+see a fight between two combatants whose HP
+were both steadily decreasing...</t>
+  </si>
+  <si>
+    <t>Mysterious Tower Floor 52 hint</t>
+  </si>
+  <si>
+    <t>&lt;pipipi_shigh&gt;「ヒヒヒ…　オイラ　なぞのツボ。
+　魔闘士さん　イオマータ　知ってる？
+　８回も爆発する　すごい呪文だよ。
+&lt;br&gt;
+「この階のタコメットは　『はち』が好きだから
+　『冒険者のはちまき』を　身に付けていれば
+　よろこぶかもね。
+&lt;br&gt;
+「……ん？　『冒険者のはちまき』のことかい？
+　休息の間にいる　よろず屋コテツが
+　魔闘士向けに　売っているらしいよ。</t>
+  </si>
+  <si>
+    <t>&lt;pipipi_shigh&gt;Hee hee... I'm the Mystery Pot.
+Hey, you. Do you know Kablam? It's an
+amazing spell that causes eight explosions.
+&lt;br&gt;
+The Octopots on this floor really love bees,
+so it might "bee" a good idea to wear an
+Adventurer's Headband.
+&lt;br&gt;
+Hmm...? Where can you find one? I heard that
+Kotetsu sells them in his general shop
+in the Rest Area.</t>
+  </si>
+  <si>
+    <t>Mysterious Tower Floor 53 hint</t>
+  </si>
+  <si>
+    <t>&lt;pipipi_shigh&gt;「ヒヒヒ…　オイラ　なぞのツボ。
+　魔闘士さん　メラゾーマって　使える？
+　大きな火の玉を　うちだす　すごい魔法さ。
+&lt;br&gt;
+「それと　アサシンブラッドってやつは
+　弱った獲物が　大好きなんだ。
+　魔闘士さんも　気を付けなよ。
+&lt;br&gt;
+「魔闘士さん　ＨＰが少なくなると
+　ぜぇぜぇ　息があがっちゃう　みたいだから
+　弱っているのが　わかっちゃうかも。</t>
+  </si>
+  <si>
+    <t>&lt;pipipi_shigh&gt;Hee hee... I'm the Mystery Pot.
+Hey, you. Do you know Kafrizz? It's an
+amazing spell that creates a giant fireball.
+&lt;br&gt;
+Also, those Hellbound Hunters love to prey
+on the weak, so watch yourself out there.
+&lt;br&gt;
+When your HP gets low, you'll start to pant
+to catch your breath. They'll know that means
+you are weak.</t>
+  </si>
+  <si>
+    <t>Mysterious Tower Floor 54 hint</t>
+  </si>
+  <si>
+    <t>&lt;pipipi_shigh&gt;「ヒヒヒ…　オイラ　なぞのツボ。
+　魔闘士さん　フォースブレイク　知ってる？
+　いろんな光が　まざって　キレイな技だよね。
+&lt;br&gt;
+「この階に飛んでる　れんごくちょうって
+　鮮やかで　キレイな鳥だよね。なんでも
+　キレイに光るものに　目がないらしいよ。</t>
+  </si>
+  <si>
+    <t>&lt;pipipi_shigh&gt;Hee hee... I'm the Mystery Pot.
+Hey, you. Do you know Fource Break? It's a
+beautiful skill of many mixed lights.
+&lt;br&gt;
+The Hybirds flying around on this floor are
+beautiful and bright. I heard they love
+anything that shines brightly.</t>
+  </si>
+  <si>
+    <t>Mysterious Tower Floor 56 hint</t>
+  </si>
+  <si>
+    <t>&lt;pipipi_shigh&gt;「ヒヒヒ…　オイラ　なぞのツボ。
+　魔闘士さん　ホーリーライトと　女神の祝福を
+　使えたりする？
+&lt;br&gt;
+「めいふのばんにんは　神聖な光で　照らされると
+　怒りだすらしいよ。
+&lt;br&gt;
+「怒ると　ザラキーマを　唱えてくるけど
+　女神の祝福をしていれば　受けても
+　死なずに　踏みとどまれるから　安心だよ。</t>
+  </si>
+  <si>
+    <t>&lt;pipipi_shigh&gt;Hee hee... I'm the Mystery Pot.
+Hey, you. Do you know Divine Restitution and
+Divine Blessing?
+&lt;br&gt;
+I heard those Hellbound Heretics get pretty
+angry if a divine light shines upon them.
+&lt;br&gt;
+When they get angry, they'll try to use
+Kathwack. But, if you use Divine Blessing on
+yourself, you should be able to survive.</t>
+  </si>
+  <si>
+    <t>Mysterious Tower Floor 57 hint</t>
+  </si>
+  <si>
+    <t>&lt;pipipi_shigh&gt;「ヒヒヒ…　オイラ　なぞのツボ。
+　魔闘士さん　なげきムーンって　知ってる？
+　悲しい顔した　お月さまの　魔物だよ。
+&lt;br&gt;
+「そういえば　ミリオンスマイルや　ボケって
+　相手を笑顔にする　すてきな特技だよね。
+　悲しんでる相手も　笑顔に　できちゃうかも。
+&lt;br&gt;
+「あと　知ってる？　戦闘中に『さくせん』にある
+　『そうびがえ』で　別の装備に変えると
+　使えるとくぎを　変更することが　できるよ。</t>
+  </si>
+  <si>
+    <t>&lt;pipipi_shigh&gt;Hee hee... I'm the Mystery Pot.
+Hey, you. Do you know what a Mourning Moon is?
+It's a monster with a really sad face.
+&lt;br&gt;
+Come to think of it, Million Smile and
+Pratfall are wonderful skills that could
+turn any frown upside down.
+&lt;br&gt;
+And guess what else? You can change the
+equipment you're wearing during battle by
+using "Swap Equip" under the "Misc." command.</t>
+  </si>
+  <si>
+    <t>Mysterious Tower Floor 58 hint</t>
+  </si>
+  <si>
+    <t>&lt;pipipi_shigh&gt;「ヒヒヒ…　オイラ　なぞのツボ。
+　魔闘士さん　ストームフォース　使える？
+　自分に　風と雷のチカラを　付与する技さ。
+&lt;br&gt;
+「風雷といえば　ライオネックは　ギガデインと
+　バギクロスを使う　エリート悪魔さ。
+　本来は　もっと上の階層に　いるんだけどね。
+&lt;br&gt;
+「たまに　ふらりと　風来坊みたいに
+　降りてきて　風雷をまとった　相手を探しては
+　実力を　試しているみたいだよ。</t>
+  </si>
+  <si>
+    <t>&lt;pipipi_shigh&gt;Hee hee... I'm the Mystery Pot.
+Hey, you. Can you use Gale Fource? It can
+grant you the power of wind and thunder.
+&lt;br&gt;
+Speaking of which, the Hyperanemon is an elite
+demon that uses Kaswoosh and Kazap. They're
+supposed to be on higher floors.
+&lt;br&gt;
+But sometimes, they wander down here looking
+for an opponent clad in wind and thunder,
+hoping to test their mettle.</t>
+  </si>
+  <si>
+    <t>Mysterious Tower Floor 59 hint</t>
+  </si>
+  <si>
+    <t>&lt;pipipi_shigh&gt;「ヒヒヒ…　オイラ　なぞのツボ。
+　魔闘士さん　打成一片を　使えたりするかな？
+　一撃を極めた　拳でなぐる　すごい技だよ。
+&lt;br&gt;
+「テンションバーンや　ためる参　とうこん討ち
+　とか　何かしらの方法で　テンションを上げれば
+　すごい　威力の打成一片が　打てるかもね。
+&lt;br&gt;
+「この階には　ばくれつけんを使って
+　あばれている　モヒカントがいるけど
+　強力な一撃で　やっつけたら　カッコいいよね。</t>
+  </si>
+  <si>
+    <t>&lt;pipipi_shigh&gt;Hee hee... I'm the Mystery Pot.
+Hey, you. Do you know Become One? It's an
+amazing skill to deal a powerful, single blow.
+&lt;br&gt;
+If you use Feel the Burn, Psyche Up 3, or Clap
+Trap to raise your tension, Become One may
+be able to hit with incredible power.
+&lt;br&gt;
+The Mohawkers on this floor go wild and use
+Multifists...but it would be pretty amazing to
+see them defeated with a powerful blow.</t>
+  </si>
+  <si>
+    <t>Mysterious Tower Floor 61 hint</t>
+  </si>
+  <si>
+    <t>&lt;pipipi_shigh&gt;「ヒヒヒ…　オイラ　なぞのツボ。
+　魔闘士さん　メイルストロム　使える？
+　水流の渦巻で　相手を押し流す　豪快な呪文さ。
+&lt;br&gt;
+「くろカビこぞうを　キレイな水で
+　流しちゃえば　この階層の水質は
+　よくなるかもね。</t>
+  </si>
+  <si>
+    <t>&lt;pipipi_shigh&gt;Hee hee... I'm the Mystery Pot.
+Hey, you. Can you use Maelstrom? It's an
+amazing spell that blasts enemies with water.
+&lt;br&gt;
+Perhaps if you flush out those Fromage Frays
+with some clean water, the water quality
+level on this floor should improve, right?</t>
+  </si>
+  <si>
+    <t>Mysterious Tower Floor 62 hint</t>
+  </si>
+  <si>
+    <t>&lt;pipipi_shigh&gt;「ヒヒヒ…　オイラ　なぞのツボ。
+　魔闘士さん　こんらん状態　知ってる？
+　思考が　ぐるぐる乱れて　変な行動しちゃうよ。
+&lt;br&gt;
+「それと　ぶんまわし　知ってる？
+　ぐるぐる回って　周囲の敵を　なぎはらう技さ。
+　両手剣で　習得することが　できるよ。
+&lt;br&gt;
+「この階には　グールがいるけど　ぶんまわしで
+　ぐるぐる回って攻撃して　アタマがぐるぐるな
+　こんらん状態のまま　倒したら　面白いかもね。</t>
+  </si>
+  <si>
+    <t>&lt;pipipi_shigh&gt;Hee hee... I'm the Mystery Pot.
+Hey, you. Do you know what it's like to be
+confused? Your head spins and you act strange.
+&lt;br&gt;
+Do you know Helichopter, too? It's a skill
+that spins you around and attacks enemies
+all around you.
+&lt;br&gt;
+It would be pretty fun to beat the Ghouls on
+this floor with Helichopter while their heads
+are spinning, don't you think?</t>
+  </si>
+  <si>
+    <t>Mysterious Tower Floor 63 hint</t>
+  </si>
+  <si>
+    <t>&lt;pipipi_shigh&gt;「ヒヒヒ…　オイラ　なぞのツボ。
+　魔闘士さん　てなづける　つかえる？
+　成功したら　魔物が　味方になるかもね。
+&lt;br&gt;
+「踊りの得意な　ももんじゃが　心許せる相手と
+　一緒に　踊りたいって　言っていたかも。</t>
+  </si>
+  <si>
+    <t>&lt;pipipi_shigh&gt;Hee hee... I'm the Mystery Pot.
+Hey, you. Can you use Win Over? If it works,
+a monster might join your side.
+&lt;br&gt;
+Those Platypunks are good dancers. I think
+they'd want to dance alongside someone
+they know they can trust.</t>
+  </si>
+  <si>
+    <t>Mysterious Tower Floor 64 hint</t>
+  </si>
+  <si>
+    <t>&lt;pipipi_shigh&gt;「ヒヒヒ…　オイラ　なぞのツボ。
+　魔闘士さん　ベホマスライム　知ってる？
+　いやしの雨で　仲間を回復してくるよ。
+&lt;br&gt;
+「この階にいる　ベホマスライムは
+　キラーアーマーと　いっしょに行動しているよ。
+　攻めと　いやしがそろった　実戦派だね。
+&lt;br&gt;
+「魔闘士さん　リホイミ系の呪文は　使える？
+　自分も　相手も　回復しながら戦って
+　勝利が出来れば　いいこと　あるかもね。</t>
+  </si>
+  <si>
+    <t>&lt;pipipi_shigh&gt;Hee hee... I'm the Mystery Pot.
+Hey, you. You know what a Cureslime is? They
+heal their allies with Right as Rain.
+&lt;br&gt;
+Cureslimes and Lethal Armours fight together
+on this floor. They combine offense and
+healing to make a strong team.
+&lt;br&gt;
+Do you know any Reheal spells? If you can
+fight and win while both you and your opponent
+are recovering, it may turn out quite good.</t>
+  </si>
+  <si>
+    <t>Mysterious Tower Floor 66 hint</t>
+  </si>
+  <si>
+    <t>&lt;pipipi_shigh&gt;「ヒヒヒ…　オイラ　なぞのツボ。
+　魔闘士さん　邪炎波　知ってる？
+　闇の炎で　周囲を燃やす　スゴイ技さ。
+&lt;br&gt;
+「この階には　ワルで有名な
+　ふたり組のインフェルノが　出るみたいだよ。
+　２体とも　闇の炎で倒せたら　カッコいいよね。</t>
+  </si>
+  <si>
+    <t>&lt;pipipi_shigh&gt;Hee hee... I'm the Mystery Pot.
+Hey, you. Do you know Evil Wave? It's an
+amazing skill that sears with dark flames.
+&lt;br&gt;
+It seems that the infamous Inferno duo appear
+on this floor. Show them both what you're made
+of with those dark flames. It'll be awesome.</t>
+  </si>
+  <si>
+    <t>Mysterious Tower Floor 67 hint</t>
+  </si>
+  <si>
+    <t>&lt;pipipi_shigh&gt;「ヒヒヒ……。魔闘士さん　やるね。
+　階段をのぼったら　ボクのお友達がいる
+　秘密の部屋に　連れていってあげる。</t>
+  </si>
+  <si>
+    <t>&lt;pipipi_shigh&gt;Hee hee... well done. If you follow the
+stairs, you'll find a secret room where
+my friends will be waiting.</t>
+  </si>
+  <si>
+    <t>Mystery pot???</t>
+  </si>
+  <si>
+    <t>他の魔闘士が　エクストラフロアを突破した
+影響によって　この階層のどこかに
+エクストラフロアへの扉が　出現したようだ。</t>
+  </si>
+  <si>
+    <t>Due to the efforts of other Magic Warriors who
+have broken through to the Extra Floor, a door
+to the Extra Floor has appeared nearby.</t>
+  </si>
+  <si>
+    <t>Mysterious Tower sumthin</t>
+  </si>
+  <si>
+    <t>チャレンジフロアでは　チカラ尽きても
+次の階層に　進むことができます。</t>
+  </si>
+  <si>
+    <t>Even if you run out of energy on a Challenge
+Floor, you will still proceed to the next
+floor.</t>
+  </si>
+  <si>
+    <t>Mysterious Tower challenge floor</t>
+  </si>
+  <si>
+    <t>扉の先から　強い魔物の気配がする。
+先に　進みますか？&lt;yesno&gt;&lt;close&gt;</t>
+  </si>
+  <si>
+    <t>You sense the presence of a powerful
+monster beyond this door. Proceed?&lt;yesno&gt;&lt;close&gt;</t>
+  </si>
+  <si>
+    <t>このフロアには　戻れませんが
+次の階層に　進みますか？&lt;yesno&gt;&lt;close&gt;</t>
+  </si>
+  <si>
+    <t>You can't return to this floor once you
+leave. Proceed to the next floor?&lt;yesno&gt;&lt;close&gt;</t>
+  </si>
+  <si>
+    <t>Mysterious Tower something</t>
+  </si>
+  <si>
     <t>こちらの扉からは　先に進めないようだ。</t>
   </si>
   <si>
@@ -9705,6 +10137,17 @@
   </si>
   <si>
     <t>Mysterious Tower exit</t>
+  </si>
+  <si>
+    <t>この　先には　まだ進めないようだ。
+休息の間に　もどりますか？&lt;yesno&gt;&lt;close&gt;</t>
+  </si>
+  <si>
+    <t>It seems you cannot proceed any further.
+Return to the Rest Area?&lt;yesno&gt;&lt;close&gt;</t>
+  </si>
+  <si>
+    <t>Mysterious Tower end?</t>
   </si>
   <si>
     <t>魔物の気配が　すべて消えた……。
@@ -21665,1181 +22108,1181 @@
         <v>1070</v>
       </c>
       <c r="D470" s="2" t="s">
-        <v>1068</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="471">
       <c r="A471" s="2" t="s">
-        <v>1071</v>
+        <v>1072</v>
       </c>
       <c r="C471" s="2" t="s">
-        <v>1072</v>
+        <v>1073</v>
       </c>
       <c r="D471" s="2" t="s">
-        <v>1068</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="472">
       <c r="A472" s="2" t="s">
-        <v>1073</v>
+        <v>1075</v>
       </c>
       <c r="C472" s="2" t="s">
-        <v>1074</v>
+        <v>1076</v>
       </c>
       <c r="D472" s="2" t="s">
-        <v>1068</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="473">
       <c r="A473" s="2" t="s">
-        <v>1075</v>
+        <v>1078</v>
       </c>
       <c r="C473" s="2" t="s">
-        <v>1076</v>
+        <v>1079</v>
       </c>
       <c r="D473" s="2" t="s">
-        <v>1068</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="474">
       <c r="A474" s="2" t="s">
-        <v>1077</v>
+        <v>1081</v>
       </c>
       <c r="C474" s="2" t="s">
-        <v>1078</v>
+        <v>1082</v>
       </c>
       <c r="D474" s="2" t="s">
-        <v>1068</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="475">
       <c r="A475" s="2" t="s">
-        <v>1079</v>
+        <v>1084</v>
       </c>
       <c r="C475" s="2" t="s">
-        <v>1080</v>
+        <v>1085</v>
       </c>
       <c r="D475" s="2" t="s">
-        <v>1068</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="476">
       <c r="A476" s="2" t="s">
-        <v>1081</v>
+        <v>1087</v>
       </c>
       <c r="C476" s="2" t="s">
-        <v>1082</v>
+        <v>1088</v>
       </c>
       <c r="D476" s="2" t="s">
-        <v>1068</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="477">
       <c r="A477" s="2" t="s">
-        <v>1083</v>
+        <v>1090</v>
       </c>
       <c r="C477" s="2" t="s">
-        <v>1084</v>
+        <v>1091</v>
       </c>
       <c r="D477" s="2" t="s">
-        <v>1068</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="478">
       <c r="A478" s="2" t="s">
-        <v>1085</v>
+        <v>1093</v>
       </c>
       <c r="C478" s="2" t="s">
-        <v>1086</v>
+        <v>1094</v>
       </c>
       <c r="D478" s="2" t="s">
-        <v>1068</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="479">
       <c r="A479" s="2" t="s">
-        <v>1087</v>
+        <v>1096</v>
       </c>
       <c r="C479" s="2" t="s">
-        <v>1088</v>
+        <v>1097</v>
       </c>
       <c r="D479" s="2" t="s">
-        <v>1068</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="480">
       <c r="A480" s="2" t="s">
-        <v>1089</v>
+        <v>1099</v>
       </c>
       <c r="C480" s="2" t="s">
-        <v>1090</v>
+        <v>1100</v>
       </c>
       <c r="D480" s="2" t="s">
-        <v>1068</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="481">
       <c r="A481" s="2" t="s">
-        <v>1091</v>
+        <v>1102</v>
       </c>
       <c r="C481" s="2" t="s">
-        <v>1092</v>
+        <v>1103</v>
       </c>
       <c r="D481" s="2" t="s">
-        <v>1068</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="482">
       <c r="A482" s="2" t="s">
-        <v>1093</v>
+        <v>1105</v>
       </c>
       <c r="C482" s="2" t="s">
-        <v>1094</v>
+        <v>1106</v>
       </c>
       <c r="D482" s="2" t="s">
-        <v>1068</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="483">
       <c r="A483" s="2" t="s">
-        <v>1095</v>
+        <v>1108</v>
       </c>
       <c r="C483" s="2" t="s">
-        <v>1096</v>
+        <v>1109</v>
       </c>
       <c r="D483" s="2" t="s">
-        <v>1097</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="484">
       <c r="A484" s="2" t="s">
-        <v>1098</v>
+        <v>1111</v>
       </c>
       <c r="C484" s="2" t="s">
-        <v>1099</v>
+        <v>1112</v>
       </c>
       <c r="D484" s="2" t="s">
-        <v>1097</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="485">
       <c r="A485" s="2" t="s">
-        <v>1100</v>
+        <v>1114</v>
       </c>
       <c r="C485" s="2" t="s">
-        <v>1101</v>
+        <v>1115</v>
       </c>
       <c r="D485" s="2" t="s">
-        <v>1102</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="486">
       <c r="A486" s="2" t="s">
-        <v>1103</v>
-      </c>
-      <c r="C486" s="7" t="s">
-        <v>1104</v>
+        <v>1116</v>
+      </c>
+      <c r="C486" s="2" t="s">
+        <v>1117</v>
       </c>
       <c r="D486" s="2" t="s">
-        <v>1105</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="487">
       <c r="A487" s="2" t="s">
-        <v>1106</v>
-      </c>
-      <c r="C487" s="7" t="s">
-        <v>1107</v>
+        <v>1119</v>
+      </c>
+      <c r="C487" s="2" t="s">
+        <v>1120</v>
       </c>
       <c r="D487" s="2" t="s">
-        <v>1108</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="488">
       <c r="A488" s="2" t="s">
-        <v>1109</v>
-      </c>
-      <c r="C488" s="7" t="s">
-        <v>1110</v>
+        <v>1122</v>
+      </c>
+      <c r="C488" s="2" t="s">
+        <v>1123</v>
       </c>
       <c r="D488" s="2" t="s">
-        <v>1111</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="489">
       <c r="A489" s="2" t="s">
-        <v>1112</v>
-      </c>
-      <c r="C489" s="7" t="s">
-        <v>1113</v>
+        <v>1125</v>
+      </c>
+      <c r="C489" s="2" t="s">
+        <v>1126</v>
       </c>
       <c r="D489" s="2" t="s">
-        <v>1114</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="490">
       <c r="A490" s="2" t="s">
-        <v>1115</v>
-      </c>
-      <c r="C490" s="7" t="s">
-        <v>1116</v>
+        <v>1128</v>
+      </c>
+      <c r="C490" s="2" t="s">
+        <v>1129</v>
       </c>
       <c r="D490" s="2" t="s">
-        <v>1117</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="491">
       <c r="A491" s="2" t="s">
-        <v>1118</v>
-      </c>
-      <c r="C491" s="7" t="s">
-        <v>1119</v>
+        <v>1131</v>
+      </c>
+      <c r="C491" s="2" t="s">
+        <v>1132</v>
       </c>
       <c r="D491" s="2" t="s">
-        <v>1117</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="492">
       <c r="A492" s="2" t="s">
-        <v>1120</v>
-      </c>
-      <c r="C492" s="7" t="s">
-        <v>1121</v>
+        <v>1133</v>
+      </c>
+      <c r="C492" s="2" t="s">
+        <v>1134</v>
       </c>
       <c r="D492" s="2" t="s">
-        <v>1122</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="493">
       <c r="A493" s="2" t="s">
-        <v>1123</v>
-      </c>
-      <c r="C493" s="7" t="s">
-        <v>1124</v>
+        <v>1135</v>
+      </c>
+      <c r="C493" s="2" t="s">
+        <v>1136</v>
       </c>
       <c r="D493" s="2" t="s">
-        <v>1117</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="494">
       <c r="A494" s="2" t="s">
-        <v>1125</v>
-      </c>
-      <c r="C494" s="7" t="s">
-        <v>1126</v>
+        <v>1137</v>
+      </c>
+      <c r="C494" s="2" t="s">
+        <v>1138</v>
       </c>
       <c r="D494" s="2" t="s">
-        <v>1117</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="495">
       <c r="A495" s="2" t="s">
-        <v>1127</v>
-      </c>
-      <c r="C495" s="7" t="s">
-        <v>1128</v>
+        <v>1139</v>
+      </c>
+      <c r="C495" s="2" t="s">
+        <v>1140</v>
       </c>
       <c r="D495" s="2" t="s">
-        <v>1129</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="496">
       <c r="A496" s="2" t="s">
+        <v>1141</v>
+      </c>
+      <c r="C496" s="2" t="s">
+        <v>1142</v>
+      </c>
+      <c r="D496" s="2" t="s">
         <v>1130</v>
-      </c>
-      <c r="C496" s="7" t="s">
-        <v>1131</v>
-      </c>
-      <c r="D496" s="2" t="s">
-        <v>1132</v>
       </c>
     </row>
     <row r="497">
       <c r="A497" s="2" t="s">
-        <v>1133</v>
-      </c>
-      <c r="C497" s="7" t="s">
-        <v>1134</v>
+        <v>1143</v>
+      </c>
+      <c r="C497" s="2" t="s">
+        <v>1144</v>
       </c>
       <c r="D497" s="2" t="s">
-        <v>1129</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="498">
       <c r="A498" s="2" t="s">
-        <v>1135</v>
-      </c>
-      <c r="C498" s="7" t="s">
-        <v>1136</v>
+        <v>1145</v>
+      </c>
+      <c r="C498" s="2" t="s">
+        <v>1146</v>
       </c>
       <c r="D498" s="2" t="s">
-        <v>1129</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="499">
       <c r="A499" s="2" t="s">
-        <v>1137</v>
-      </c>
-      <c r="C499" s="7" t="s">
-        <v>1138</v>
+        <v>1147</v>
+      </c>
+      <c r="C499" s="2" t="s">
+        <v>1148</v>
       </c>
       <c r="D499" s="2" t="s">
-        <v>1129</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="500">
       <c r="A500" s="2" t="s">
-        <v>1139</v>
-      </c>
-      <c r="C500" s="7" t="s">
-        <v>1140</v>
+        <v>1149</v>
+      </c>
+      <c r="C500" s="2" t="s">
+        <v>1150</v>
       </c>
       <c r="D500" s="2" t="s">
-        <v>1129</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="501">
       <c r="A501" s="2" t="s">
-        <v>1141</v>
-      </c>
-      <c r="C501" s="7" t="s">
-        <v>1142</v>
+        <v>1151</v>
+      </c>
+      <c r="C501" s="2" t="s">
+        <v>1152</v>
       </c>
       <c r="D501" s="2" t="s">
-        <v>1129</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="502">
       <c r="A502" s="2" t="s">
-        <v>1143</v>
-      </c>
-      <c r="C502" s="7" t="s">
-        <v>1144</v>
+        <v>1153</v>
+      </c>
+      <c r="C502" s="2" t="s">
+        <v>1154</v>
       </c>
       <c r="D502" s="2" t="s">
-        <v>1129</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="503">
       <c r="A503" s="2" t="s">
-        <v>1145</v>
-      </c>
-      <c r="C503" s="7" t="s">
-        <v>1146</v>
+        <v>1155</v>
+      </c>
+      <c r="C503" s="2" t="s">
+        <v>1156</v>
       </c>
       <c r="D503" s="2" t="s">
-        <v>1129</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="504">
       <c r="A504" s="2" t="s">
-        <v>1147</v>
-      </c>
-      <c r="C504" s="7" t="s">
-        <v>1148</v>
+        <v>1157</v>
+      </c>
+      <c r="C504" s="2" t="s">
+        <v>1158</v>
       </c>
       <c r="D504" s="2" t="s">
-        <v>1129</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="505">
       <c r="A505" s="2" t="s">
-        <v>1149</v>
-      </c>
-      <c r="C505" s="7" t="s">
-        <v>1150</v>
+        <v>1160</v>
+      </c>
+      <c r="C505" s="2" t="s">
+        <v>1161</v>
       </c>
       <c r="D505" s="2" t="s">
-        <v>1129</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="506">
       <c r="A506" s="2" t="s">
-        <v>1151</v>
-      </c>
-      <c r="C506" s="7" t="s">
-        <v>1152</v>
+        <v>1162</v>
+      </c>
+      <c r="C506" s="2" t="s">
+        <v>1163</v>
       </c>
       <c r="D506" s="2" t="s">
-        <v>1129</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="507">
       <c r="A507" s="2" t="s">
-        <v>1153</v>
+        <v>1165</v>
       </c>
       <c r="C507" s="7" t="s">
-        <v>1154</v>
+        <v>1166</v>
       </c>
       <c r="D507" s="2" t="s">
-        <v>1129</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="508">
       <c r="A508" s="2" t="s">
-        <v>1155</v>
+        <v>1168</v>
       </c>
       <c r="C508" s="7" t="s">
-        <v>1156</v>
+        <v>1169</v>
       </c>
       <c r="D508" s="2" t="s">
-        <v>1129</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="509">
       <c r="A509" s="2" t="s">
-        <v>1157</v>
+        <v>1171</v>
       </c>
       <c r="C509" s="7" t="s">
-        <v>1158</v>
+        <v>1172</v>
       </c>
       <c r="D509" s="2" t="s">
-        <v>1129</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="510">
       <c r="A510" s="2" t="s">
-        <v>1159</v>
+        <v>1174</v>
       </c>
       <c r="C510" s="7" t="s">
-        <v>1160</v>
+        <v>1175</v>
       </c>
       <c r="D510" s="2" t="s">
-        <v>1161</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="511">
       <c r="A511" s="2" t="s">
-        <v>1162</v>
+        <v>1177</v>
       </c>
       <c r="C511" s="7" t="s">
-        <v>1163</v>
+        <v>1178</v>
       </c>
       <c r="D511" s="2" t="s">
-        <v>1161</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="512">
       <c r="A512" s="2" t="s">
-        <v>1164</v>
+        <v>1180</v>
       </c>
       <c r="C512" s="7" t="s">
-        <v>1165</v>
+        <v>1181</v>
       </c>
       <c r="D512" s="2" t="s">
-        <v>1166</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="513">
       <c r="A513" s="2" t="s">
-        <v>1167</v>
+        <v>1182</v>
       </c>
       <c r="C513" s="7" t="s">
-        <v>1168</v>
+        <v>1183</v>
       </c>
       <c r="D513" s="2" t="s">
-        <v>1166</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="514">
       <c r="A514" s="2" t="s">
-        <v>1169</v>
+        <v>1185</v>
       </c>
       <c r="C514" s="7" t="s">
-        <v>1170</v>
+        <v>1186</v>
       </c>
       <c r="D514" s="2" t="s">
-        <v>1171</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="515">
       <c r="A515" s="2" t="s">
-        <v>1172</v>
+        <v>1187</v>
       </c>
       <c r="C515" s="7" t="s">
-        <v>1173</v>
+        <v>1188</v>
       </c>
       <c r="D515" s="2" t="s">
-        <v>1166</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="516">
       <c r="A516" s="2" t="s">
-        <v>1174</v>
+        <v>1189</v>
       </c>
       <c r="C516" s="7" t="s">
-        <v>1175</v>
+        <v>1190</v>
       </c>
       <c r="D516" s="2" t="s">
-        <v>1171</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="517">
       <c r="A517" s="2" t="s">
-        <v>1176</v>
+        <v>1192</v>
       </c>
       <c r="C517" s="7" t="s">
-        <v>1177</v>
+        <v>1193</v>
       </c>
       <c r="D517" s="2" t="s">
-        <v>1171</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="518">
       <c r="A518" s="2" t="s">
-        <v>1178</v>
+        <v>1195</v>
       </c>
       <c r="C518" s="7" t="s">
-        <v>1179</v>
+        <v>1196</v>
       </c>
       <c r="D518" s="2" t="s">
-        <v>1166</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="519">
       <c r="A519" s="2" t="s">
-        <v>1180</v>
+        <v>1197</v>
       </c>
       <c r="C519" s="7" t="s">
-        <v>1181</v>
+        <v>1198</v>
       </c>
       <c r="D519" s="2" t="s">
-        <v>1166</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="520">
       <c r="A520" s="2" t="s">
-        <v>1182</v>
+        <v>1199</v>
       </c>
       <c r="C520" s="7" t="s">
-        <v>1183</v>
+        <v>1200</v>
       </c>
       <c r="D520" s="2" t="s">
-        <v>1166</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="521">
       <c r="A521" s="2" t="s">
-        <v>1184</v>
+        <v>1201</v>
       </c>
       <c r="C521" s="7" t="s">
-        <v>1185</v>
+        <v>1202</v>
       </c>
       <c r="D521" s="2" t="s">
-        <v>1171</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="522">
       <c r="A522" s="2" t="s">
-        <v>1186</v>
+        <v>1203</v>
       </c>
       <c r="C522" s="7" t="s">
-        <v>1187</v>
+        <v>1204</v>
       </c>
       <c r="D522" s="2" t="s">
-        <v>1166</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="523">
       <c r="A523" s="2" t="s">
-        <v>1188</v>
+        <v>1205</v>
       </c>
       <c r="C523" s="7" t="s">
-        <v>1189</v>
+        <v>1206</v>
       </c>
       <c r="D523" s="2" t="s">
-        <v>1190</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="524">
       <c r="A524" s="2" t="s">
+        <v>1207</v>
+      </c>
+      <c r="C524" s="7" t="s">
+        <v>1208</v>
+      </c>
+      <c r="D524" s="2" t="s">
         <v>1191</v>
-      </c>
-      <c r="C524" s="7" t="s">
-        <v>1192</v>
-      </c>
-      <c r="D524" s="2" t="s">
-        <v>1193</v>
       </c>
     </row>
     <row r="525">
       <c r="A525" s="2" t="s">
-        <v>1194</v>
+        <v>1209</v>
       </c>
       <c r="C525" s="7" t="s">
-        <v>1195</v>
+        <v>1210</v>
       </c>
       <c r="D525" s="2" t="s">
-        <v>1193</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="526">
       <c r="A526" s="2" t="s">
-        <v>1196</v>
+        <v>1211</v>
       </c>
       <c r="C526" s="7" t="s">
-        <v>1197</v>
+        <v>1212</v>
       </c>
       <c r="D526" s="2" t="s">
-        <v>1198</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="527">
       <c r="A527" s="2" t="s">
-        <v>1199</v>
+        <v>1213</v>
       </c>
       <c r="C527" s="7" t="s">
-        <v>1200</v>
+        <v>1214</v>
       </c>
       <c r="D527" s="2" t="s">
-        <v>1201</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="528">
       <c r="A528" s="2" t="s">
-        <v>1202</v>
+        <v>1215</v>
       </c>
       <c r="C528" s="7" t="s">
-        <v>1203</v>
+        <v>1216</v>
       </c>
       <c r="D528" s="2" t="s">
-        <v>1198</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="529">
       <c r="A529" s="2" t="s">
-        <v>1204</v>
+        <v>1217</v>
       </c>
       <c r="C529" s="7" t="s">
-        <v>1205</v>
+        <v>1218</v>
       </c>
       <c r="D529" s="2" t="s">
-        <v>1206</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="530">
       <c r="A530" s="2" t="s">
-        <v>1207</v>
+        <v>1219</v>
       </c>
       <c r="C530" s="7" t="s">
-        <v>1208</v>
+        <v>1220</v>
       </c>
       <c r="D530" s="2" t="s">
-        <v>1206</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="531">
       <c r="A531" s="2" t="s">
-        <v>1209</v>
+        <v>1221</v>
       </c>
       <c r="C531" s="7" t="s">
-        <v>1210</v>
+        <v>1222</v>
       </c>
       <c r="D531" s="2" t="s">
-        <v>1211</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="532">
       <c r="A532" s="2" t="s">
-        <v>1212</v>
+        <v>1224</v>
       </c>
       <c r="C532" s="7" t="s">
-        <v>1213</v>
+        <v>1225</v>
       </c>
       <c r="D532" s="2" t="s">
-        <v>1214</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="533">
       <c r="A533" s="2" t="s">
-        <v>1215</v>
+        <v>1226</v>
       </c>
       <c r="C533" s="7" t="s">
-        <v>1216</v>
+        <v>1227</v>
       </c>
       <c r="D533" s="2" t="s">
-        <v>1214</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="534">
       <c r="A534" s="2" t="s">
-        <v>1217</v>
+        <v>1229</v>
       </c>
       <c r="C534" s="7" t="s">
-        <v>1218</v>
+        <v>1230</v>
       </c>
       <c r="D534" s="2" t="s">
-        <v>1219</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="535">
       <c r="A535" s="2" t="s">
-        <v>1220</v>
+        <v>1231</v>
       </c>
       <c r="C535" s="7" t="s">
-        <v>1221</v>
+        <v>1232</v>
       </c>
       <c r="D535" s="2" t="s">
-        <v>1219</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="536">
       <c r="A536" s="2" t="s">
-        <v>1222</v>
+        <v>1234</v>
       </c>
       <c r="C536" s="7" t="s">
-        <v>1223</v>
+        <v>1235</v>
       </c>
       <c r="D536" s="2" t="s">
-        <v>1219</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="537">
       <c r="A537" s="2" t="s">
-        <v>1224</v>
+        <v>1236</v>
       </c>
       <c r="C537" s="7" t="s">
-        <v>1225</v>
+        <v>1237</v>
       </c>
       <c r="D537" s="2" t="s">
-        <v>1219</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="538">
       <c r="A538" s="2" t="s">
-        <v>1226</v>
+        <v>1238</v>
       </c>
       <c r="C538" s="7" t="s">
-        <v>1227</v>
+        <v>1239</v>
       </c>
       <c r="D538" s="2" t="s">
-        <v>1219</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="539">
       <c r="A539" s="2" t="s">
+        <v>1240</v>
+      </c>
+      <c r="C539" s="7" t="s">
+        <v>1241</v>
+      </c>
+      <c r="D539" s="2" t="s">
         <v>1228</v>
-      </c>
-      <c r="C539" s="7" t="s">
-        <v>1229</v>
-      </c>
-      <c r="D539" s="2" t="s">
-        <v>1219</v>
       </c>
     </row>
     <row r="540">
       <c r="A540" s="2" t="s">
-        <v>1230</v>
+        <v>1242</v>
       </c>
       <c r="C540" s="7" t="s">
-        <v>1231</v>
+        <v>1243</v>
       </c>
       <c r="D540" s="2" t="s">
-        <v>1219</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="541">
       <c r="A541" s="2" t="s">
-        <v>1232</v>
+        <v>1244</v>
       </c>
       <c r="C541" s="7" t="s">
-        <v>1233</v>
+        <v>1245</v>
       </c>
       <c r="D541" s="2" t="s">
-        <v>1234</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="542">
       <c r="A542" s="2" t="s">
-        <v>1235</v>
+        <v>1246</v>
       </c>
       <c r="C542" s="7" t="s">
-        <v>1236</v>
+        <v>1247</v>
       </c>
       <c r="D542" s="2" t="s">
-        <v>1237</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="543">
       <c r="A543" s="2" t="s">
-        <v>1238</v>
+        <v>1248</v>
       </c>
       <c r="C543" s="7" t="s">
-        <v>1239</v>
+        <v>1249</v>
       </c>
       <c r="D543" s="2" t="s">
-        <v>1237</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="544">
       <c r="A544" s="2" t="s">
-        <v>1240</v>
+        <v>1250</v>
       </c>
       <c r="C544" s="7" t="s">
-        <v>1241</v>
+        <v>1251</v>
       </c>
       <c r="D544" s="2" t="s">
-        <v>1237</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="545">
       <c r="A545" s="2" t="s">
-        <v>1242</v>
+        <v>1253</v>
       </c>
       <c r="C545" s="7" t="s">
-        <v>1243</v>
+        <v>1254</v>
       </c>
       <c r="D545" s="2" t="s">
-        <v>1237</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="546">
       <c r="A546" s="2" t="s">
-        <v>1244</v>
+        <v>1256</v>
       </c>
       <c r="C546" s="7" t="s">
-        <v>1245</v>
+        <v>1257</v>
       </c>
       <c r="D546" s="2" t="s">
-        <v>1246</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="547">
       <c r="A547" s="2" t="s">
-        <v>1247</v>
+        <v>1258</v>
       </c>
       <c r="C547" s="7" t="s">
-        <v>1248</v>
+        <v>1259</v>
       </c>
       <c r="D547" s="2" t="s">
-        <v>1246</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="548">
       <c r="A548" s="2" t="s">
-        <v>1249</v>
+        <v>1261</v>
       </c>
       <c r="C548" s="7" t="s">
-        <v>1250</v>
+        <v>1262</v>
       </c>
       <c r="D548" s="2" t="s">
-        <v>1246</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="549">
       <c r="A549" s="2" t="s">
-        <v>1251</v>
+        <v>1264</v>
       </c>
       <c r="C549" s="7" t="s">
-        <v>1252</v>
+        <v>1265</v>
       </c>
       <c r="D549" s="2" t="s">
-        <v>1253</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="550">
       <c r="A550" s="2" t="s">
-        <v>1254</v>
+        <v>1266</v>
       </c>
       <c r="C550" s="7" t="s">
-        <v>1255</v>
+        <v>1267</v>
       </c>
       <c r="D550" s="2" t="s">
-        <v>1256</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="551">
       <c r="A551" s="2" t="s">
-        <v>1257</v>
+        <v>1269</v>
       </c>
       <c r="C551" s="7" t="s">
-        <v>1258</v>
+        <v>1270</v>
       </c>
       <c r="D551" s="2" t="s">
-        <v>1256</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="552">
       <c r="A552" s="2" t="s">
-        <v>1259</v>
+        <v>1271</v>
       </c>
       <c r="C552" s="7" t="s">
-        <v>1260</v>
+        <v>1272</v>
       </c>
       <c r="D552" s="2" t="s">
-        <v>1256</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="553">
       <c r="A553" s="2" t="s">
-        <v>1261</v>
+        <v>1274</v>
       </c>
       <c r="C553" s="7" t="s">
-        <v>1262</v>
+        <v>1275</v>
       </c>
       <c r="D553" s="2" t="s">
-        <v>1256</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="554">
       <c r="A554" s="2" t="s">
-        <v>1263</v>
+        <v>1277</v>
       </c>
       <c r="C554" s="7" t="s">
-        <v>1264</v>
+        <v>1278</v>
       </c>
       <c r="D554" s="2" t="s">
-        <v>1256</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="555">
       <c r="A555" s="2" t="s">
-        <v>1265</v>
+        <v>1279</v>
       </c>
       <c r="C555" s="7" t="s">
-        <v>1266</v>
+        <v>1280</v>
       </c>
       <c r="D555" s="2" t="s">
-        <v>1256</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="556">
       <c r="A556" s="2" t="s">
-        <v>1267</v>
+        <v>1282</v>
       </c>
       <c r="C556" s="7" t="s">
-        <v>1268</v>
+        <v>1283</v>
       </c>
       <c r="D556" s="2" t="s">
-        <v>1253</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="557">
       <c r="A557" s="2" t="s">
-        <v>1269</v>
+        <v>1284</v>
       </c>
       <c r="C557" s="7" t="s">
-        <v>1270</v>
+        <v>1285</v>
       </c>
       <c r="D557" s="2" t="s">
-        <v>1253</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="558">
       <c r="A558" s="2" t="s">
-        <v>1271</v>
+        <v>1286</v>
       </c>
       <c r="C558" s="7" t="s">
-        <v>1272</v>
+        <v>1287</v>
       </c>
       <c r="D558" s="2" t="s">
-        <v>1253</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="559">
       <c r="A559" s="2" t="s">
-        <v>1273</v>
+        <v>1288</v>
       </c>
       <c r="C559" s="7" t="s">
-        <v>1274</v>
+        <v>1289</v>
       </c>
       <c r="D559" s="2" t="s">
-        <v>1253</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="560">
       <c r="A560" s="2" t="s">
-        <v>1275</v>
+        <v>1290</v>
       </c>
       <c r="C560" s="7" t="s">
-        <v>1276</v>
+        <v>1291</v>
       </c>
       <c r="D560" s="2" t="s">
-        <v>1253</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="561">
       <c r="A561" s="2" t="s">
-        <v>1277</v>
+        <v>1292</v>
       </c>
       <c r="C561" s="7" t="s">
-        <v>1278</v>
+        <v>1293</v>
       </c>
       <c r="D561" s="2" t="s">
-        <v>1253</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="562">
       <c r="A562" s="2" t="s">
-        <v>1279</v>
+        <v>1294</v>
       </c>
       <c r="C562" s="7" t="s">
-        <v>1280</v>
+        <v>1295</v>
       </c>
       <c r="D562" s="2" t="s">
-        <v>1281</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="563">
       <c r="A563" s="2" t="s">
-        <v>1282</v>
+        <v>1297</v>
       </c>
       <c r="C563" s="7" t="s">
-        <v>1283</v>
+        <v>1298</v>
       </c>
       <c r="D563" s="2" t="s">
-        <v>1284</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="564">
       <c r="A564" s="2" t="s">
-        <v>1285</v>
+        <v>1300</v>
       </c>
       <c r="C564" s="7" t="s">
-        <v>1286</v>
+        <v>1301</v>
       </c>
       <c r="D564" s="2" t="s">
-        <v>1287</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="565">
       <c r="A565" s="2" t="s">
-        <v>1288</v>
+        <v>1302</v>
       </c>
       <c r="C565" s="7" t="s">
-        <v>1289</v>
+        <v>1303</v>
       </c>
       <c r="D565" s="2" t="s">
-        <v>1290</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="566">
       <c r="A566" s="2" t="s">
-        <v>1291</v>
+        <v>1304</v>
       </c>
       <c r="C566" s="7" t="s">
-        <v>1292</v>
+        <v>1305</v>
       </c>
       <c r="D566" s="2" t="s">
-        <v>1293</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="567">
       <c r="A567" s="2" t="s">
-        <v>1294</v>
+        <v>1306</v>
       </c>
       <c r="C567" s="7" t="s">
-        <v>1295</v>
+        <v>1307</v>
       </c>
       <c r="D567" s="2" t="s">
-        <v>1296</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="568">
       <c r="A568" s="2" t="s">
-        <v>1297</v>
+        <v>1309</v>
       </c>
       <c r="C568" s="7" t="s">
-        <v>1298</v>
+        <v>1310</v>
       </c>
       <c r="D568" s="2" t="s">
-        <v>1296</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="569">
       <c r="A569" s="2" t="s">
-        <v>1299</v>
+        <v>1311</v>
       </c>
       <c r="C569" s="7" t="s">
-        <v>1300</v>
+        <v>1312</v>
       </c>
       <c r="D569" s="2" t="s">
-        <v>1296</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="570">
       <c r="A570" s="2" t="s">
-        <v>1301</v>
+        <v>1313</v>
       </c>
       <c r="C570" s="7" t="s">
-        <v>1302</v>
+        <v>1314</v>
       </c>
       <c r="D570" s="2" t="s">
-        <v>1296</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="571">
       <c r="A571" s="2" t="s">
-        <v>1303</v>
+        <v>1316</v>
       </c>
       <c r="C571" s="7" t="s">
-        <v>1304</v>
+        <v>1317</v>
       </c>
       <c r="D571" s="2" t="s">
-        <v>1296</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="572">
       <c r="A572" s="2" t="s">
-        <v>1305</v>
+        <v>1319</v>
       </c>
       <c r="C572" s="7" t="s">
-        <v>1306</v>
+        <v>1320</v>
       </c>
       <c r="D572" s="2" t="s">
-        <v>1296</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="573">
       <c r="A573" s="2" t="s">
-        <v>1307</v>
+        <v>1321</v>
       </c>
       <c r="C573" s="7" t="s">
-        <v>1308</v>
+        <v>1322</v>
       </c>
       <c r="D573" s="2" t="s">
-        <v>1296</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="574">
       <c r="A574" s="2" t="s">
-        <v>1309</v>
+        <v>1323</v>
       </c>
       <c r="C574" s="7" t="s">
-        <v>1310</v>
+        <v>1324</v>
       </c>
       <c r="D574" s="2" t="s">
-        <v>130</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="575">
       <c r="A575" s="2" t="s">
-        <v>1311</v>
+        <v>1325</v>
       </c>
       <c r="C575" s="7" t="s">
-        <v>1312</v>
+        <v>1326</v>
       </c>
       <c r="D575" s="2" t="s">
-        <v>130</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="576">
       <c r="A576" s="2" t="s">
-        <v>1313</v>
+        <v>1327</v>
       </c>
       <c r="C576" s="7" t="s">
-        <v>1314</v>
+        <v>1328</v>
       </c>
       <c r="D576" s="2" t="s">
-        <v>1315</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="577">
       <c r="A577" s="2" t="s">
-        <v>1316</v>
+        <v>1329</v>
       </c>
       <c r="C577" s="7" t="s">
-        <v>1317</v>
+        <v>1330</v>
       </c>
       <c r="D577" s="2" t="s">
         <v>1315</v>
@@ -22847,2263 +23290,2263 @@
     </row>
     <row r="578">
       <c r="A578" s="2" t="s">
-        <v>1318</v>
+        <v>1331</v>
       </c>
       <c r="C578" s="7" t="s">
-        <v>1319</v>
+        <v>1332</v>
       </c>
       <c r="D578" s="2" t="s">
-        <v>1320</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="579">
       <c r="A579" s="2" t="s">
-        <v>1321</v>
+        <v>1333</v>
       </c>
       <c r="C579" s="7" t="s">
-        <v>1322</v>
+        <v>1334</v>
       </c>
       <c r="D579" s="2" t="s">
-        <v>1323</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="580">
       <c r="A580" s="2" t="s">
-        <v>1324</v>
+        <v>1335</v>
       </c>
       <c r="C580" s="7" t="s">
-        <v>1325</v>
+        <v>1336</v>
       </c>
       <c r="D580" s="2" t="s">
-        <v>1296</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="581">
       <c r="A581" s="2" t="s">
-        <v>1326</v>
+        <v>1337</v>
       </c>
       <c r="C581" s="7" t="s">
-        <v>1327</v>
+        <v>1338</v>
       </c>
       <c r="D581" s="2" t="s">
-        <v>1296</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="582">
       <c r="A582" s="2" t="s">
-        <v>1328</v>
+        <v>1339</v>
       </c>
       <c r="C582" s="7" t="s">
-        <v>1329</v>
+        <v>1340</v>
       </c>
       <c r="D582" s="2" t="s">
-        <v>1296</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="583">
       <c r="A583" s="2" t="s">
-        <v>1330</v>
+        <v>1341</v>
       </c>
       <c r="C583" s="7" t="s">
-        <v>1331</v>
+        <v>1342</v>
       </c>
       <c r="D583" s="2" t="s">
-        <v>1296</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="584">
       <c r="A584" s="2" t="s">
-        <v>1332</v>
+        <v>1344</v>
       </c>
       <c r="C584" s="7" t="s">
-        <v>1333</v>
+        <v>1345</v>
       </c>
       <c r="D584" s="2" t="s">
-        <v>1296</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="585">
       <c r="A585" s="2" t="s">
-        <v>1334</v>
+        <v>1347</v>
       </c>
       <c r="C585" s="7" t="s">
-        <v>1335</v>
+        <v>1348</v>
       </c>
       <c r="D585" s="2" t="s">
-        <v>1296</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="586">
       <c r="A586" s="2" t="s">
-        <v>1336</v>
+        <v>1350</v>
       </c>
       <c r="C586" s="7" t="s">
-        <v>1337</v>
+        <v>1351</v>
       </c>
       <c r="D586" s="2" t="s">
-        <v>1296</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="587">
       <c r="A587" s="2" t="s">
-        <v>1338</v>
+        <v>1353</v>
       </c>
       <c r="C587" s="7" t="s">
-        <v>1339</v>
+        <v>1354</v>
       </c>
       <c r="D587" s="2" t="s">
-        <v>1340</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="588">
       <c r="A588" s="2" t="s">
-        <v>1341</v>
+        <v>1356</v>
       </c>
       <c r="C588" s="7" t="s">
-        <v>1342</v>
+        <v>1357</v>
       </c>
       <c r="D588" s="2" t="s">
-        <v>1340</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="589">
       <c r="A589" s="2" t="s">
-        <v>1343</v>
+        <v>1359</v>
       </c>
       <c r="C589" s="7" t="s">
-        <v>1344</v>
+        <v>1360</v>
       </c>
       <c r="D589" s="2" t="s">
-        <v>1340</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="590">
       <c r="A590" s="2" t="s">
-        <v>1345</v>
+        <v>1361</v>
       </c>
       <c r="C590" s="7" t="s">
-        <v>1346</v>
+        <v>1362</v>
       </c>
       <c r="D590" s="2" t="s">
-        <v>1347</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="591">
       <c r="A591" s="2" t="s">
-        <v>1348</v>
+        <v>1363</v>
       </c>
       <c r="C591" s="7" t="s">
-        <v>1349</v>
+        <v>1364</v>
       </c>
       <c r="D591" s="2" t="s">
-        <v>1340</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="592">
       <c r="A592" s="2" t="s">
-        <v>1350</v>
+        <v>1365</v>
       </c>
       <c r="C592" s="7" t="s">
-        <v>1351</v>
+        <v>1366</v>
       </c>
       <c r="D592" s="2" t="s">
-        <v>1352</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="593">
       <c r="A593" s="2" t="s">
-        <v>1353</v>
+        <v>1367</v>
       </c>
       <c r="C593" s="7" t="s">
-        <v>1354</v>
+        <v>1368</v>
       </c>
       <c r="D593" s="2" t="s">
-        <v>1355</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="594">
       <c r="A594" s="2" t="s">
-        <v>1356</v>
+        <v>1369</v>
       </c>
       <c r="C594" s="7" t="s">
-        <v>1357</v>
+        <v>1370</v>
       </c>
       <c r="D594" s="2" t="s">
-        <v>1355</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="595">
       <c r="A595" s="2" t="s">
-        <v>1358</v>
+        <v>1371</v>
       </c>
       <c r="C595" s="7" t="s">
-        <v>1359</v>
+        <v>1372</v>
       </c>
       <c r="D595" s="2" t="s">
-        <v>1355</v>
+        <v>130</v>
       </c>
     </row>
     <row r="596">
       <c r="A596" s="2" t="s">
-        <v>1360</v>
+        <v>1373</v>
       </c>
       <c r="C596" s="7" t="s">
-        <v>1361</v>
+        <v>1374</v>
       </c>
       <c r="D596" s="2" t="s">
-        <v>1355</v>
+        <v>130</v>
       </c>
     </row>
     <row r="597">
       <c r="A597" s="2" t="s">
-        <v>1362</v>
+        <v>1375</v>
       </c>
       <c r="C597" s="7" t="s">
-        <v>1363</v>
+        <v>1376</v>
       </c>
       <c r="D597" s="2" t="s">
-        <v>1355</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="598">
       <c r="A598" s="2" t="s">
-        <v>1364</v>
+        <v>1378</v>
       </c>
       <c r="C598" s="7" t="s">
-        <v>1365</v>
+        <v>1379</v>
       </c>
       <c r="D598" s="2" t="s">
-        <v>1355</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="599">
       <c r="A599" s="2" t="s">
-        <v>1366</v>
+        <v>1380</v>
       </c>
       <c r="C599" s="7" t="s">
-        <v>1367</v>
+        <v>1381</v>
       </c>
       <c r="D599" s="2" t="s">
-        <v>1355</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="600">
       <c r="A600" s="2" t="s">
-        <v>1368</v>
+        <v>1383</v>
       </c>
       <c r="C600" s="7" t="s">
-        <v>1369</v>
+        <v>1384</v>
       </c>
       <c r="D600" s="2" t="s">
-        <v>1355</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="601">
       <c r="A601" s="2" t="s">
-        <v>1370</v>
+        <v>1386</v>
       </c>
       <c r="C601" s="7" t="s">
-        <v>1371</v>
+        <v>1387</v>
       </c>
       <c r="D601" s="2" t="s">
-        <v>1355</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="602">
       <c r="A602" s="2" t="s">
-        <v>1372</v>
+        <v>1388</v>
       </c>
       <c r="C602" s="7" t="s">
-        <v>1373</v>
+        <v>1389</v>
       </c>
       <c r="D602" s="2" t="s">
-        <v>1355</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="603">
       <c r="A603" s="2" t="s">
-        <v>1374</v>
+        <v>1390</v>
       </c>
       <c r="C603" s="7" t="s">
-        <v>1375</v>
+        <v>1391</v>
       </c>
       <c r="D603" s="2" t="s">
-        <v>1355</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="604">
       <c r="A604" s="2" t="s">
-        <v>1376</v>
+        <v>1392</v>
       </c>
       <c r="C604" s="7" t="s">
-        <v>1377</v>
+        <v>1393</v>
       </c>
       <c r="D604" s="2" t="s">
-        <v>1355</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="605">
       <c r="A605" s="2" t="s">
-        <v>1378</v>
+        <v>1394</v>
       </c>
       <c r="C605" s="7" t="s">
-        <v>1379</v>
+        <v>1395</v>
       </c>
       <c r="D605" s="2" t="s">
-        <v>1380</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="606">
       <c r="A606" s="2" t="s">
-        <v>1381</v>
+        <v>1396</v>
       </c>
       <c r="C606" s="7" t="s">
-        <v>1382</v>
+        <v>1397</v>
       </c>
       <c r="D606" s="2" t="s">
-        <v>1383</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="607">
       <c r="A607" s="2" t="s">
-        <v>1384</v>
+        <v>1398</v>
       </c>
       <c r="C607" s="7" t="s">
-        <v>1385</v>
+        <v>1399</v>
       </c>
       <c r="D607" s="2" t="s">
-        <v>1386</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="608">
       <c r="A608" s="2" t="s">
-        <v>1387</v>
+        <v>1400</v>
       </c>
       <c r="C608" s="7" t="s">
-        <v>1388</v>
+        <v>1401</v>
       </c>
       <c r="D608" s="2" t="s">
-        <v>1386</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="609">
       <c r="A609" s="2" t="s">
-        <v>1389</v>
+        <v>1403</v>
       </c>
       <c r="C609" s="7" t="s">
-        <v>1390</v>
+        <v>1404</v>
       </c>
       <c r="D609" s="2" t="s">
-        <v>1386</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="610">
       <c r="A610" s="2" t="s">
-        <v>1391</v>
+        <v>1405</v>
       </c>
       <c r="C610" s="7" t="s">
-        <v>1392</v>
+        <v>1406</v>
       </c>
       <c r="D610" s="2" t="s">
-        <v>1386</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="611">
       <c r="A611" s="2" t="s">
-        <v>1393</v>
+        <v>1407</v>
       </c>
       <c r="C611" s="7" t="s">
-        <v>1394</v>
+        <v>1408</v>
       </c>
       <c r="D611" s="2" t="s">
-        <v>1386</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="612">
       <c r="A612" s="2" t="s">
-        <v>1395</v>
+        <v>1410</v>
       </c>
       <c r="C612" s="7" t="s">
-        <v>1396</v>
+        <v>1411</v>
       </c>
       <c r="D612" s="2" t="s">
-        <v>1397</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="613">
       <c r="A613" s="2" t="s">
-        <v>1398</v>
+        <v>1412</v>
       </c>
       <c r="C613" s="7" t="s">
-        <v>1399</v>
+        <v>1413</v>
       </c>
       <c r="D613" s="2" t="s">
-        <v>1397</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="614">
       <c r="A614" s="2" t="s">
-        <v>1400</v>
+        <v>1415</v>
       </c>
       <c r="C614" s="7" t="s">
-        <v>1401</v>
+        <v>1416</v>
       </c>
       <c r="D614" s="2" t="s">
-        <v>1397</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="615">
       <c r="A615" s="2" t="s">
-        <v>1402</v>
+        <v>1418</v>
       </c>
       <c r="C615" s="7" t="s">
-        <v>1403</v>
+        <v>1419</v>
       </c>
       <c r="D615" s="2" t="s">
-        <v>1404</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="616">
       <c r="A616" s="2" t="s">
-        <v>1405</v>
+        <v>1420</v>
       </c>
       <c r="C616" s="7" t="s">
-        <v>1406</v>
+        <v>1421</v>
       </c>
       <c r="D616" s="2" t="s">
-        <v>1407</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="617">
       <c r="A617" s="2" t="s">
-        <v>1408</v>
+        <v>1422</v>
       </c>
       <c r="C617" s="7" t="s">
-        <v>1409</v>
+        <v>1423</v>
       </c>
       <c r="D617" s="2" t="s">
-        <v>1410</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="618">
       <c r="A618" s="2" t="s">
-        <v>1411</v>
+        <v>1424</v>
       </c>
       <c r="C618" s="7" t="s">
-        <v>1412</v>
+        <v>1425</v>
       </c>
       <c r="D618" s="2" t="s">
-        <v>1410</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="619">
       <c r="A619" s="2" t="s">
-        <v>1413</v>
+        <v>1426</v>
       </c>
       <c r="C619" s="7" t="s">
-        <v>1414</v>
+        <v>1427</v>
       </c>
       <c r="D619" s="2" t="s">
-        <v>1415</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="620">
       <c r="A620" s="2" t="s">
-        <v>1416</v>
+        <v>1428</v>
       </c>
       <c r="C620" s="7" t="s">
+        <v>1429</v>
+      </c>
+      <c r="D620" s="2" t="s">
         <v>1417</v>
-      </c>
-      <c r="D620" s="2" t="s">
-        <v>1418</v>
       </c>
     </row>
     <row r="621">
       <c r="A621" s="2" t="s">
-        <v>1419</v>
+        <v>1430</v>
       </c>
       <c r="C621" s="7" t="s">
-        <v>1420</v>
+        <v>1431</v>
       </c>
       <c r="D621" s="2" t="s">
-        <v>1421</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="622">
       <c r="A622" s="2" t="s">
-        <v>1422</v>
+        <v>1432</v>
       </c>
       <c r="C622" s="7" t="s">
-        <v>1423</v>
+        <v>1433</v>
       </c>
       <c r="D622" s="2" t="s">
-        <v>1424</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="623">
       <c r="A623" s="2" t="s">
-        <v>1425</v>
+        <v>1434</v>
       </c>
       <c r="C623" s="7" t="s">
-        <v>1426</v>
+        <v>1435</v>
       </c>
       <c r="D623" s="2" t="s">
-        <v>1424</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="624">
       <c r="A624" s="2" t="s">
-        <v>1427</v>
+        <v>1436</v>
       </c>
       <c r="C624" s="7" t="s">
-        <v>1428</v>
+        <v>1437</v>
       </c>
       <c r="D624" s="2" t="s">
-        <v>1424</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="625">
       <c r="A625" s="2" t="s">
-        <v>1429</v>
+        <v>1438</v>
       </c>
       <c r="C625" s="7" t="s">
-        <v>1430</v>
+        <v>1439</v>
       </c>
       <c r="D625" s="2" t="s">
-        <v>1424</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="626">
       <c r="A626" s="2" t="s">
-        <v>1431</v>
+        <v>1440</v>
       </c>
       <c r="C626" s="7" t="s">
-        <v>1432</v>
+        <v>1441</v>
       </c>
       <c r="D626" s="2" t="s">
-        <v>1424</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="627">
       <c r="A627" s="2" t="s">
-        <v>1433</v>
+        <v>1443</v>
       </c>
       <c r="C627" s="7" t="s">
-        <v>1434</v>
+        <v>1444</v>
       </c>
       <c r="D627" s="2" t="s">
-        <v>1424</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="628">
       <c r="A628" s="2" t="s">
-        <v>1435</v>
+        <v>1446</v>
       </c>
       <c r="C628" s="7" t="s">
-        <v>1436</v>
+        <v>1447</v>
       </c>
       <c r="D628" s="2" t="s">
-        <v>1437</v>
+        <v>1448</v>
       </c>
     </row>
     <row r="629">
       <c r="A629" s="2" t="s">
-        <v>1438</v>
+        <v>1449</v>
       </c>
       <c r="C629" s="7" t="s">
-        <v>1439</v>
+        <v>1450</v>
       </c>
       <c r="D629" s="2" t="s">
-        <v>532</v>
+        <v>1448</v>
       </c>
     </row>
     <row r="630">
       <c r="A630" s="2" t="s">
-        <v>1440</v>
+        <v>1451</v>
       </c>
       <c r="C630" s="7" t="s">
-        <v>1441</v>
+        <v>1452</v>
       </c>
       <c r="D630" s="2" t="s">
-        <v>1442</v>
+        <v>1448</v>
       </c>
     </row>
     <row r="631">
       <c r="A631" s="2" t="s">
-        <v>1443</v>
+        <v>1453</v>
       </c>
       <c r="C631" s="7" t="s">
-        <v>1444</v>
+        <v>1454</v>
       </c>
       <c r="D631" s="2" t="s">
-        <v>1445</v>
+        <v>1448</v>
       </c>
     </row>
     <row r="632">
       <c r="A632" s="2" t="s">
-        <v>1446</v>
+        <v>1455</v>
       </c>
       <c r="C632" s="7" t="s">
-        <v>1447</v>
+        <v>1456</v>
       </c>
       <c r="D632" s="2" t="s">
-        <v>1442</v>
+        <v>1448</v>
       </c>
     </row>
     <row r="633">
       <c r="A633" s="2" t="s">
-        <v>1448</v>
+        <v>1457</v>
       </c>
       <c r="C633" s="7" t="s">
-        <v>1449</v>
+        <v>1458</v>
       </c>
       <c r="D633" s="2" t="s">
-        <v>1442</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="634">
       <c r="A634" s="2" t="s">
-        <v>1450</v>
+        <v>1460</v>
       </c>
       <c r="C634" s="7" t="s">
-        <v>1451</v>
+        <v>1461</v>
       </c>
       <c r="D634" s="2" t="s">
-        <v>1442</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="635">
       <c r="A635" s="2" t="s">
-        <v>1452</v>
+        <v>1462</v>
       </c>
       <c r="C635" s="7" t="s">
-        <v>1453</v>
+        <v>1463</v>
       </c>
       <c r="D635" s="2" t="s">
-        <v>1442</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="636">
       <c r="A636" s="2" t="s">
-        <v>1454</v>
+        <v>1464</v>
       </c>
       <c r="C636" s="7" t="s">
-        <v>1455</v>
-      </c>
-      <c r="D636" s="2"/>
+        <v>1465</v>
+      </c>
+      <c r="D636" s="2" t="s">
+        <v>1466</v>
+      </c>
     </row>
     <row r="637">
       <c r="A637" s="2" t="s">
-        <v>1456</v>
+        <v>1467</v>
       </c>
       <c r="C637" s="7" t="s">
-        <v>1457</v>
+        <v>1468</v>
       </c>
       <c r="D637" s="2" t="s">
-        <v>1442</v>
+        <v>1469</v>
       </c>
     </row>
     <row r="638">
       <c r="A638" s="2" t="s">
-        <v>1458</v>
+        <v>1470</v>
       </c>
       <c r="C638" s="7" t="s">
-        <v>1459</v>
+        <v>1471</v>
       </c>
       <c r="D638" s="2" t="s">
-        <v>1442</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="639">
       <c r="A639" s="2" t="s">
-        <v>1460</v>
+        <v>1473</v>
       </c>
       <c r="C639" s="7" t="s">
-        <v>1461</v>
+        <v>1474</v>
       </c>
       <c r="D639" s="2" t="s">
-        <v>1445</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="640">
       <c r="A640" s="2" t="s">
-        <v>1462</v>
+        <v>1475</v>
       </c>
       <c r="C640" s="7" t="s">
-        <v>1463</v>
+        <v>1476</v>
       </c>
       <c r="D640" s="2" t="s">
-        <v>1445</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="641">
       <c r="A641" s="2" t="s">
-        <v>1464</v>
+        <v>1478</v>
       </c>
       <c r="C641" s="7" t="s">
-        <v>1465</v>
+        <v>1479</v>
       </c>
       <c r="D641" s="2" t="s">
-        <v>1445</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="642">
       <c r="A642" s="2" t="s">
-        <v>1466</v>
+        <v>1481</v>
       </c>
       <c r="C642" s="7" t="s">
-        <v>1467</v>
+        <v>1482</v>
       </c>
       <c r="D642" s="2" t="s">
-        <v>1445</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="643">
       <c r="A643" s="2" t="s">
-        <v>1468</v>
+        <v>1484</v>
       </c>
       <c r="C643" s="7" t="s">
-        <v>1469</v>
+        <v>1485</v>
       </c>
       <c r="D643" s="2" t="s">
-        <v>1442</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="644">
       <c r="A644" s="2" t="s">
-        <v>1470</v>
+        <v>1487</v>
       </c>
       <c r="C644" s="7" t="s">
-        <v>1471</v>
+        <v>1488</v>
       </c>
       <c r="D644" s="2" t="s">
-        <v>1442</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="645">
       <c r="A645" s="2" t="s">
-        <v>1472</v>
+        <v>1489</v>
       </c>
       <c r="C645" s="7" t="s">
-        <v>1473</v>
+        <v>1490</v>
       </c>
       <c r="D645" s="2" t="s">
-        <v>1442</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="646">
       <c r="A646" s="2" t="s">
-        <v>1474</v>
+        <v>1491</v>
       </c>
       <c r="C646" s="7" t="s">
-        <v>1475</v>
+        <v>1492</v>
       </c>
       <c r="D646" s="2" t="s">
-        <v>1442</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="647">
       <c r="A647" s="2" t="s">
-        <v>1476</v>
+        <v>1493</v>
       </c>
       <c r="C647" s="7" t="s">
-        <v>1477</v>
+        <v>1494</v>
       </c>
       <c r="D647" s="2" t="s">
-        <v>1442</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="648">
       <c r="A648" s="2" t="s">
-        <v>1478</v>
+        <v>1495</v>
       </c>
       <c r="C648" s="7" t="s">
-        <v>1479</v>
+        <v>1496</v>
       </c>
       <c r="D648" s="2" t="s">
-        <v>1442</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="649">
       <c r="A649" s="2" t="s">
-        <v>1480</v>
+        <v>1497</v>
       </c>
       <c r="C649" s="7" t="s">
-        <v>1481</v>
+        <v>1498</v>
       </c>
       <c r="D649" s="2" t="s">
-        <v>1442</v>
+        <v>1499</v>
       </c>
     </row>
     <row r="650">
       <c r="A650" s="2" t="s">
-        <v>1482</v>
+        <v>1500</v>
       </c>
       <c r="C650" s="7" t="s">
-        <v>1483</v>
+        <v>1501</v>
       </c>
       <c r="D650" s="2" t="s">
-        <v>1442</v>
+        <v>532</v>
       </c>
     </row>
     <row r="651">
       <c r="A651" s="2" t="s">
-        <v>1484</v>
+        <v>1502</v>
       </c>
       <c r="C651" s="7" t="s">
-        <v>1485</v>
+        <v>1503</v>
       </c>
       <c r="D651" s="2" t="s">
-        <v>1442</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="652">
       <c r="A652" s="2" t="s">
-        <v>1486</v>
+        <v>1505</v>
       </c>
       <c r="C652" s="7" t="s">
-        <v>1487</v>
+        <v>1506</v>
       </c>
       <c r="D652" s="2" t="s">
-        <v>1442</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="653">
       <c r="A653" s="2" t="s">
-        <v>1488</v>
+        <v>1508</v>
       </c>
       <c r="C653" s="7" t="s">
-        <v>1489</v>
+        <v>1509</v>
       </c>
       <c r="D653" s="2" t="s">
-        <v>1442</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="654">
       <c r="A654" s="2" t="s">
-        <v>1490</v>
+        <v>1510</v>
       </c>
       <c r="C654" s="7" t="s">
-        <v>1491</v>
+        <v>1511</v>
       </c>
       <c r="D654" s="2" t="s">
-        <v>1442</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="655">
       <c r="A655" s="2" t="s">
-        <v>1492</v>
+        <v>1512</v>
       </c>
       <c r="C655" s="7" t="s">
-        <v>1493</v>
+        <v>1513</v>
       </c>
       <c r="D655" s="2" t="s">
-        <v>1442</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="656">
       <c r="A656" s="2" t="s">
-        <v>1494</v>
+        <v>1514</v>
       </c>
       <c r="C656" s="7" t="s">
-        <v>1495</v>
+        <v>1515</v>
       </c>
       <c r="D656" s="2" t="s">
-        <v>1496</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="657">
       <c r="A657" s="2" t="s">
-        <v>1497</v>
+        <v>1516</v>
       </c>
       <c r="C657" s="7" t="s">
-        <v>1498</v>
-      </c>
-      <c r="D657" s="2" t="s">
-        <v>1496</v>
-      </c>
+        <v>1517</v>
+      </c>
+      <c r="D657" s="2"/>
     </row>
     <row r="658">
       <c r="A658" s="2" t="s">
-        <v>1499</v>
+        <v>1518</v>
       </c>
       <c r="C658" s="7" t="s">
-        <v>1500</v>
+        <v>1519</v>
       </c>
       <c r="D658" s="2" t="s">
-        <v>1496</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="659">
       <c r="A659" s="2" t="s">
-        <v>1501</v>
+        <v>1520</v>
       </c>
       <c r="C659" s="7" t="s">
-        <v>1502</v>
+        <v>1521</v>
       </c>
       <c r="D659" s="2" t="s">
-        <v>1442</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="660">
       <c r="A660" s="2" t="s">
-        <v>1503</v>
+        <v>1522</v>
       </c>
       <c r="C660" s="7" t="s">
-        <v>1504</v>
+        <v>1523</v>
       </c>
       <c r="D660" s="2" t="s">
-        <v>1442</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="661">
       <c r="A661" s="2" t="s">
-        <v>1505</v>
+        <v>1524</v>
       </c>
       <c r="C661" s="7" t="s">
-        <v>1506</v>
+        <v>1525</v>
       </c>
       <c r="D661" s="2" t="s">
-        <v>1442</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="662">
       <c r="A662" s="2" t="s">
+        <v>1526</v>
+      </c>
+      <c r="C662" s="7" t="s">
+        <v>1527</v>
+      </c>
+      <c r="D662" s="2" t="s">
         <v>1507</v>
-      </c>
-      <c r="C662" s="7" t="s">
-        <v>1508</v>
-      </c>
-      <c r="D662" s="2" t="s">
-        <v>1442</v>
       </c>
     </row>
     <row r="663">
       <c r="A663" s="2" t="s">
-        <v>1509</v>
+        <v>1528</v>
       </c>
       <c r="C663" s="7" t="s">
-        <v>1510</v>
+        <v>1529</v>
       </c>
       <c r="D663" s="2" t="s">
-        <v>1442</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="664">
       <c r="A664" s="2" t="s">
-        <v>1511</v>
+        <v>1530</v>
       </c>
       <c r="C664" s="7" t="s">
-        <v>1512</v>
+        <v>1531</v>
       </c>
       <c r="D664" s="2" t="s">
-        <v>1442</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="665">
       <c r="A665" s="2" t="s">
-        <v>1513</v>
+        <v>1532</v>
       </c>
       <c r="C665" s="7" t="s">
-        <v>1514</v>
+        <v>1533</v>
       </c>
       <c r="D665" s="2" t="s">
-        <v>1442</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="666">
       <c r="A666" s="2" t="s">
-        <v>1515</v>
+        <v>1534</v>
       </c>
       <c r="C666" s="7" t="s">
-        <v>1516</v>
+        <v>1535</v>
       </c>
       <c r="D666" s="2" t="s">
-        <v>1442</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="667">
       <c r="A667" s="2" t="s">
-        <v>1517</v>
+        <v>1536</v>
       </c>
       <c r="C667" s="7" t="s">
-        <v>1518</v>
+        <v>1537</v>
       </c>
       <c r="D667" s="2" t="s">
-        <v>1442</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="668">
       <c r="A668" s="2" t="s">
-        <v>1519</v>
+        <v>1538</v>
       </c>
       <c r="C668" s="7" t="s">
-        <v>1520</v>
+        <v>1539</v>
       </c>
       <c r="D668" s="2" t="s">
-        <v>1442</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="669">
       <c r="A669" s="2" t="s">
-        <v>1521</v>
+        <v>1540</v>
       </c>
       <c r="C669" s="7" t="s">
-        <v>1522</v>
+        <v>1541</v>
       </c>
       <c r="D669" s="2" t="s">
-        <v>1442</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="670">
       <c r="A670" s="2" t="s">
-        <v>1523</v>
+        <v>1542</v>
       </c>
       <c r="C670" s="7" t="s">
-        <v>1524</v>
+        <v>1543</v>
       </c>
       <c r="D670" s="2" t="s">
-        <v>1442</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="671">
       <c r="A671" s="2" t="s">
-        <v>1525</v>
+        <v>1544</v>
       </c>
       <c r="C671" s="7" t="s">
-        <v>1526</v>
+        <v>1545</v>
       </c>
       <c r="D671" s="2" t="s">
-        <v>1442</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="672">
       <c r="A672" s="2" t="s">
-        <v>1527</v>
+        <v>1546</v>
       </c>
       <c r="C672" s="7" t="s">
-        <v>1528</v>
+        <v>1547</v>
       </c>
       <c r="D672" s="2" t="s">
-        <v>1442</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="673">
       <c r="A673" s="2" t="s">
-        <v>1529</v>
+        <v>1548</v>
       </c>
       <c r="C673" s="7" t="s">
-        <v>1530</v>
+        <v>1549</v>
       </c>
       <c r="D673" s="2" t="s">
-        <v>1442</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="674">
       <c r="A674" s="2" t="s">
-        <v>1531</v>
+        <v>1550</v>
       </c>
       <c r="C674" s="7" t="s">
-        <v>1532</v>
+        <v>1551</v>
       </c>
       <c r="D674" s="2" t="s">
-        <v>1442</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="675">
       <c r="A675" s="2" t="s">
-        <v>1533</v>
+        <v>1552</v>
       </c>
       <c r="C675" s="7" t="s">
-        <v>1534</v>
+        <v>1553</v>
       </c>
       <c r="D675" s="2" t="s">
-        <v>1442</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="676">
       <c r="A676" s="2" t="s">
-        <v>1535</v>
+        <v>1554</v>
       </c>
       <c r="C676" s="7" t="s">
-        <v>1536</v>
+        <v>1555</v>
       </c>
       <c r="D676" s="2" t="s">
-        <v>1442</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="677">
       <c r="A677" s="2" t="s">
-        <v>1537</v>
+        <v>1556</v>
       </c>
       <c r="C677" s="7" t="s">
-        <v>1538</v>
+        <v>1557</v>
       </c>
       <c r="D677" s="2" t="s">
-        <v>1442</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="678">
       <c r="A678" s="2" t="s">
-        <v>1539</v>
+        <v>1559</v>
       </c>
       <c r="C678" s="7" t="s">
-        <v>1540</v>
+        <v>1560</v>
       </c>
       <c r="D678" s="2" t="s">
-        <v>1442</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="679">
       <c r="A679" s="2" t="s">
-        <v>1541</v>
+        <v>1561</v>
       </c>
       <c r="C679" s="7" t="s">
-        <v>1542</v>
+        <v>1562</v>
       </c>
       <c r="D679" s="2" t="s">
-        <v>1442</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="680">
       <c r="A680" s="2" t="s">
-        <v>1543</v>
+        <v>1563</v>
       </c>
       <c r="C680" s="7" t="s">
-        <v>1544</v>
+        <v>1564</v>
       </c>
       <c r="D680" s="2" t="s">
-        <v>1442</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="681">
       <c r="A681" s="2" t="s">
-        <v>1545</v>
+        <v>1565</v>
       </c>
       <c r="C681" s="7" t="s">
-        <v>1546</v>
+        <v>1566</v>
       </c>
       <c r="D681" s="2" t="s">
-        <v>1442</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="682">
       <c r="A682" s="2" t="s">
-        <v>1547</v>
+        <v>1567</v>
       </c>
       <c r="C682" s="7" t="s">
-        <v>1548</v>
+        <v>1568</v>
       </c>
       <c r="D682" s="2" t="s">
-        <v>1442</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="683">
       <c r="A683" s="2" t="s">
-        <v>1549</v>
+        <v>1569</v>
       </c>
       <c r="C683" s="7" t="s">
-        <v>1550</v>
+        <v>1570</v>
       </c>
       <c r="D683" s="2" t="s">
-        <v>1445</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="684">
       <c r="A684" s="2" t="s">
-        <v>1551</v>
+        <v>1571</v>
       </c>
       <c r="C684" s="7" t="s">
-        <v>1552</v>
+        <v>1572</v>
       </c>
       <c r="D684" s="2" t="s">
-        <v>1445</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="685">
       <c r="A685" s="2" t="s">
-        <v>1553</v>
+        <v>1573</v>
       </c>
       <c r="C685" s="7" t="s">
-        <v>1554</v>
+        <v>1574</v>
       </c>
       <c r="D685" s="2" t="s">
-        <v>1445</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="686">
       <c r="A686" s="2" t="s">
-        <v>1555</v>
+        <v>1575</v>
       </c>
       <c r="C686" s="7" t="s">
-        <v>1556</v>
+        <v>1576</v>
       </c>
       <c r="D686" s="2" t="s">
-        <v>1445</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="687">
       <c r="A687" s="2" t="s">
-        <v>1557</v>
+        <v>1577</v>
       </c>
       <c r="C687" s="7" t="s">
-        <v>1558</v>
+        <v>1578</v>
       </c>
       <c r="D687" s="2" t="s">
-        <v>1442</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="688">
       <c r="A688" s="2" t="s">
-        <v>1559</v>
+        <v>1579</v>
       </c>
       <c r="C688" s="7" t="s">
-        <v>1560</v>
+        <v>1580</v>
       </c>
       <c r="D688" s="2" t="s">
-        <v>1442</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="689">
       <c r="A689" s="2" t="s">
-        <v>1561</v>
+        <v>1581</v>
       </c>
       <c r="C689" s="7" t="s">
-        <v>1562</v>
+        <v>1582</v>
       </c>
       <c r="D689" s="2" t="s">
-        <v>1442</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="690">
       <c r="A690" s="2" t="s">
-        <v>1563</v>
+        <v>1583</v>
       </c>
       <c r="C690" s="7" t="s">
-        <v>1564</v>
+        <v>1584</v>
       </c>
       <c r="D690" s="2" t="s">
-        <v>1442</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="691">
       <c r="A691" s="2" t="s">
-        <v>1565</v>
+        <v>1585</v>
       </c>
       <c r="C691" s="7" t="s">
-        <v>1566</v>
+        <v>1586</v>
       </c>
       <c r="D691" s="2" t="s">
-        <v>1442</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="692">
       <c r="A692" s="2" t="s">
-        <v>1567</v>
+        <v>1587</v>
       </c>
       <c r="C692" s="7" t="s">
-        <v>1568</v>
+        <v>1588</v>
       </c>
       <c r="D692" s="2" t="s">
-        <v>1442</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="693">
       <c r="A693" s="2" t="s">
-        <v>1569</v>
+        <v>1589</v>
       </c>
       <c r="C693" s="7" t="s">
-        <v>1570</v>
+        <v>1590</v>
       </c>
       <c r="D693" s="2" t="s">
-        <v>1442</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="694">
       <c r="A694" s="2" t="s">
-        <v>1571</v>
+        <v>1591</v>
       </c>
       <c r="C694" s="7" t="s">
-        <v>1572</v>
+        <v>1592</v>
       </c>
       <c r="D694" s="2" t="s">
-        <v>1442</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="695">
       <c r="A695" s="2" t="s">
-        <v>1573</v>
+        <v>1593</v>
       </c>
       <c r="C695" s="7" t="s">
-        <v>1574</v>
+        <v>1594</v>
       </c>
       <c r="D695" s="2" t="s">
-        <v>1442</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="696">
       <c r="A696" s="2" t="s">
-        <v>1575</v>
+        <v>1595</v>
       </c>
       <c r="C696" s="7" t="s">
-        <v>1576</v>
+        <v>1596</v>
       </c>
       <c r="D696" s="2" t="s">
-        <v>1445</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="697">
       <c r="A697" s="2" t="s">
-        <v>1577</v>
+        <v>1597</v>
       </c>
       <c r="C697" s="7" t="s">
-        <v>1578</v>
+        <v>1598</v>
       </c>
       <c r="D697" s="2" t="s">
-        <v>1442</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="698">
       <c r="A698" s="2" t="s">
-        <v>1579</v>
+        <v>1599</v>
       </c>
       <c r="C698" s="7" t="s">
-        <v>1580</v>
+        <v>1600</v>
       </c>
       <c r="D698" s="2" t="s">
-        <v>1445</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="699">
       <c r="A699" s="2" t="s">
-        <v>1581</v>
+        <v>1601</v>
       </c>
       <c r="C699" s="7" t="s">
-        <v>1582</v>
+        <v>1602</v>
       </c>
       <c r="D699" s="2" t="s">
-        <v>1442</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="700">
       <c r="A700" s="2" t="s">
-        <v>1583</v>
+        <v>1603</v>
       </c>
       <c r="C700" s="7" t="s">
-        <v>1584</v>
+        <v>1604</v>
       </c>
       <c r="D700" s="2" t="s">
-        <v>1442</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="701">
       <c r="A701" s="2" t="s">
-        <v>1585</v>
+        <v>1605</v>
       </c>
       <c r="C701" s="7" t="s">
-        <v>1586</v>
+        <v>1606</v>
       </c>
       <c r="D701" s="2" t="s">
-        <v>1442</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="702">
       <c r="A702" s="2" t="s">
-        <v>1587</v>
+        <v>1607</v>
       </c>
       <c r="C702" s="7" t="s">
-        <v>1588</v>
+        <v>1608</v>
       </c>
       <c r="D702" s="2" t="s">
-        <v>1445</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="703">
       <c r="A703" s="2" t="s">
-        <v>1589</v>
+        <v>1609</v>
       </c>
       <c r="C703" s="7" t="s">
-        <v>1590</v>
+        <v>1610</v>
       </c>
       <c r="D703" s="2" t="s">
-        <v>1442</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="704">
       <c r="A704" s="2" t="s">
-        <v>1591</v>
+        <v>1611</v>
       </c>
       <c r="C704" s="7" t="s">
-        <v>1592</v>
+        <v>1612</v>
       </c>
       <c r="D704" s="2" t="s">
-        <v>1445</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="705">
       <c r="A705" s="2" t="s">
-        <v>1593</v>
+        <v>1613</v>
       </c>
       <c r="C705" s="7" t="s">
-        <v>1594</v>
+        <v>1614</v>
       </c>
       <c r="D705" s="2" t="s">
-        <v>1445</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="706">
       <c r="A706" s="2" t="s">
-        <v>1595</v>
+        <v>1615</v>
       </c>
       <c r="C706" s="7" t="s">
-        <v>1596</v>
+        <v>1616</v>
       </c>
       <c r="D706" s="2" t="s">
-        <v>1442</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="707">
       <c r="A707" s="2" t="s">
-        <v>1597</v>
+        <v>1617</v>
       </c>
       <c r="C707" s="7" t="s">
-        <v>1598</v>
+        <v>1618</v>
       </c>
       <c r="D707" s="2" t="s">
-        <v>1445</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="708">
       <c r="A708" s="2" t="s">
-        <v>1599</v>
+        <v>1619</v>
       </c>
       <c r="C708" s="7" t="s">
-        <v>1600</v>
+        <v>1620</v>
       </c>
       <c r="D708" s="2" t="s">
-        <v>1442</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="709">
       <c r="A709" s="2" t="s">
-        <v>1601</v>
+        <v>1621</v>
       </c>
       <c r="C709" s="7" t="s">
-        <v>1602</v>
+        <v>1622</v>
       </c>
       <c r="D709" s="2" t="s">
-        <v>1442</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="710">
       <c r="A710" s="2" t="s">
-        <v>1603</v>
+        <v>1623</v>
       </c>
       <c r="C710" s="7" t="s">
-        <v>1604</v>
+        <v>1624</v>
       </c>
       <c r="D710" s="2" t="s">
-        <v>1442</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="711">
       <c r="A711" s="2" t="s">
-        <v>1605</v>
+        <v>1625</v>
       </c>
       <c r="C711" s="7" t="s">
-        <v>1606</v>
+        <v>1626</v>
       </c>
       <c r="D711" s="2" t="s">
-        <v>1442</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="712">
       <c r="A712" s="2" t="s">
-        <v>1607</v>
+        <v>1627</v>
       </c>
       <c r="C712" s="7" t="s">
-        <v>1608</v>
+        <v>1628</v>
       </c>
       <c r="D712" s="2" t="s">
-        <v>1442</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="713">
       <c r="A713" s="2" t="s">
-        <v>1609</v>
+        <v>1629</v>
       </c>
       <c r="C713" s="7" t="s">
-        <v>1610</v>
+        <v>1630</v>
       </c>
       <c r="D713" s="2" t="s">
-        <v>1442</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="714">
       <c r="A714" s="2" t="s">
-        <v>1611</v>
+        <v>1631</v>
       </c>
       <c r="C714" s="7" t="s">
-        <v>1612</v>
+        <v>1632</v>
       </c>
       <c r="D714" s="2" t="s">
-        <v>1442</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="715">
       <c r="A715" s="2" t="s">
-        <v>1613</v>
+        <v>1633</v>
       </c>
       <c r="C715" s="7" t="s">
-        <v>1614</v>
+        <v>1634</v>
       </c>
       <c r="D715" s="2" t="s">
-        <v>1445</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="716">
       <c r="A716" s="2" t="s">
-        <v>1615</v>
+        <v>1635</v>
       </c>
       <c r="C716" s="7" t="s">
-        <v>1616</v>
+        <v>1636</v>
       </c>
       <c r="D716" s="2" t="s">
-        <v>1445</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="717">
       <c r="A717" s="2" t="s">
-        <v>1617</v>
+        <v>1637</v>
       </c>
       <c r="C717" s="7" t="s">
-        <v>1618</v>
+        <v>1638</v>
       </c>
       <c r="D717" s="2" t="s">
-        <v>1445</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="718">
       <c r="A718" s="2" t="s">
-        <v>1619</v>
+        <v>1639</v>
       </c>
       <c r="C718" s="7" t="s">
-        <v>1620</v>
+        <v>1640</v>
       </c>
       <c r="D718" s="2" t="s">
-        <v>1445</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="719">
       <c r="A719" s="2" t="s">
-        <v>1621</v>
+        <v>1641</v>
       </c>
       <c r="C719" s="7" t="s">
-        <v>1622</v>
+        <v>1642</v>
       </c>
       <c r="D719" s="2" t="s">
-        <v>1445</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="720">
       <c r="A720" s="2" t="s">
-        <v>1623</v>
+        <v>1643</v>
       </c>
       <c r="C720" s="7" t="s">
-        <v>1624</v>
+        <v>1644</v>
       </c>
       <c r="D720" s="2" t="s">
-        <v>1445</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="721">
       <c r="A721" s="2" t="s">
-        <v>1625</v>
+        <v>1645</v>
       </c>
       <c r="C721" s="7" t="s">
-        <v>1626</v>
+        <v>1646</v>
       </c>
       <c r="D721" s="2" t="s">
-        <v>1445</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="722">
       <c r="A722" s="2" t="s">
-        <v>1627</v>
+        <v>1647</v>
       </c>
       <c r="C722" s="7" t="s">
-        <v>1628</v>
+        <v>1648</v>
       </c>
       <c r="D722" s="2" t="s">
-        <v>1442</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="723">
       <c r="A723" s="2" t="s">
-        <v>1629</v>
+        <v>1649</v>
       </c>
       <c r="C723" s="7" t="s">
-        <v>1630</v>
+        <v>1650</v>
       </c>
       <c r="D723" s="2" t="s">
-        <v>1442</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="724">
       <c r="A724" s="2" t="s">
-        <v>1631</v>
+        <v>1651</v>
       </c>
       <c r="C724" s="7" t="s">
-        <v>1632</v>
+        <v>1652</v>
       </c>
       <c r="D724" s="2" t="s">
-        <v>1442</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="725">
       <c r="A725" s="2" t="s">
-        <v>1633</v>
+        <v>1653</v>
       </c>
       <c r="C725" s="7" t="s">
-        <v>1634</v>
+        <v>1654</v>
       </c>
       <c r="D725" s=